--- a/docs/香港素食餐廳大全.xlsx
+++ b/docs/香港素食餐廳大全.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tim/_Python_OpenAI/My-projects/7-hk-veg-map/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BD8D37E-FFC1-034B-A19F-3D87248DB655}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED5A0223-E896-D24E-B960-75F5A07B1CB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16280" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1540" yWindow="500" windowWidth="14640" windowHeight="16100" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="香港素食餐廳大全" sheetId="1" r:id="rId1"/>
@@ -1268,9 +1268,6 @@
     <t>中環皇后大道中151-155號兆英商業大廈地下C2號舖</t>
   </si>
   <si>
-    <t>22.288273902322885, 114.15355558381495</t>
-  </si>
-  <si>
     <t>https://www.openrice.com/zh/hongkong/r-nuttea-%E4%B8%AD%E7%92%B0-%E5%8F%B0%E7%81%A3%E8%8F%9C-%E6%9E%9C%E6%B1%81-r694294</t>
   </si>
   <si>
@@ -2187,6 +2184,9 @@
   </si>
   <si>
     <t>64208456</t>
+  </si>
+  <si>
+    <t>22.284950391487587, 114.1537815780751</t>
   </si>
 </sst>
 </file>
@@ -10436,8 +10436,8 @@
   </sheetPr>
   <dimension ref="A1:K123"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A105" zoomScale="119" workbookViewId="0">
-      <selection activeCell="C119" sqref="C119"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="119" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -10657,14 +10657,14 @@
         <v>414</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>415</v>
+        <v>721</v>
       </c>
       <c r="H7" s="5"/>
       <c r="I7" s="7" t="s">
+        <v>415</v>
+      </c>
+      <c r="J7" s="23" t="s">
         <v>416</v>
-      </c>
-      <c r="J7" s="23" t="s">
-        <v>417</v>
       </c>
       <c r="K7" s="5"/>
     </row>
@@ -10688,14 +10688,14 @@
         <v>30</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="H8" s="5"/>
       <c r="I8" s="7" t="s">
         <v>31</v>
       </c>
       <c r="J8" s="23" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="K8" s="5" t="s">
         <v>32</v>
@@ -10712,7 +10712,7 @@
         <v>33</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="E9" s="5" t="s">
         <v>14</v>
@@ -10721,14 +10721,14 @@
         <v>35</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="H9" s="5"/>
       <c r="I9" s="7" t="s">
         <v>36</v>
       </c>
       <c r="J9" s="23" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="K9" s="5"/>
     </row>
@@ -10752,11 +10752,11 @@
         <v>40</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="H10" s="5"/>
       <c r="I10" s="7" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="J10" s="23"/>
       <c r="K10" s="5"/>
@@ -10781,7 +10781,7 @@
         <v>44</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="H11" s="5"/>
       <c r="I11" s="7" t="s">
@@ -10810,14 +10810,14 @@
         <v>48</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H12" s="5"/>
       <c r="I12" s="6" t="s">
         <v>49</v>
       </c>
       <c r="J12" s="23" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="K12" s="5"/>
     </row>
@@ -10841,14 +10841,14 @@
         <v>52</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="H13" s="5"/>
       <c r="I13" s="7" t="s">
         <v>53</v>
       </c>
       <c r="J13" s="23" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="K13" s="5"/>
     </row>
@@ -10872,14 +10872,14 @@
         <v>56</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="H14" s="5"/>
       <c r="I14" s="7" t="s">
         <v>57</v>
       </c>
       <c r="J14" s="23" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="K14" s="5"/>
     </row>
@@ -10903,14 +10903,14 @@
         <v>60</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="H15" s="5"/>
       <c r="I15" s="7" t="s">
         <v>61</v>
       </c>
       <c r="J15" s="23" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="K15" s="5"/>
     </row>
@@ -10934,14 +10934,14 @@
         <v>63</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="H16" s="5"/>
       <c r="I16" s="7" t="s">
         <v>64</v>
       </c>
       <c r="J16" s="23" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="K16" s="5"/>
     </row>
@@ -10962,17 +10962,17 @@
         <v>25</v>
       </c>
       <c r="F17" s="5" t="s">
+        <v>435</v>
+      </c>
+      <c r="G17" s="5" t="s">
         <v>436</v>
-      </c>
-      <c r="G17" s="5" t="s">
-        <v>437</v>
       </c>
       <c r="H17" s="5"/>
       <c r="I17" s="6" t="s">
         <v>68</v>
       </c>
       <c r="J17" s="23" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="K17" s="5"/>
     </row>
@@ -10993,17 +10993,17 @@
         <v>14</v>
       </c>
       <c r="F18" s="5" t="s">
+        <v>438</v>
+      </c>
+      <c r="G18" s="5" t="s">
         <v>439</v>
-      </c>
-      <c r="G18" s="5" t="s">
-        <v>440</v>
       </c>
       <c r="H18" s="5"/>
       <c r="I18" s="6" t="s">
+        <v>440</v>
+      </c>
+      <c r="J18" s="23" t="s">
         <v>441</v>
-      </c>
-      <c r="J18" s="23" t="s">
-        <v>442</v>
       </c>
       <c r="K18" s="5"/>
     </row>
@@ -11027,14 +11027,14 @@
         <v>72</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="H19" s="5"/>
       <c r="I19" s="6" t="s">
         <v>73</v>
       </c>
       <c r="J19" s="23" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="K19" s="5"/>
     </row>
@@ -11058,14 +11058,14 @@
         <v>76</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H20" s="5"/>
       <c r="I20" s="7" t="s">
         <v>77</v>
       </c>
       <c r="J20" s="23" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="K20" s="5"/>
     </row>
@@ -11089,14 +11089,14 @@
         <v>79</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="H21" s="5"/>
       <c r="I21" s="7" t="s">
         <v>80</v>
       </c>
       <c r="J21" s="23" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="K21" s="5"/>
     </row>
@@ -11120,14 +11120,14 @@
         <v>82</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="H22" s="5"/>
       <c r="I22" s="7" t="s">
         <v>83</v>
       </c>
       <c r="J22" s="23" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="K22" s="5"/>
     </row>
@@ -11151,14 +11151,14 @@
         <v>85</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="H23" s="5"/>
       <c r="I23" s="6" t="s">
         <v>86</v>
       </c>
       <c r="J23" s="23" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="K23" s="5"/>
     </row>
@@ -11182,14 +11182,14 @@
         <v>88</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="H24" s="5"/>
       <c r="I24" s="6" t="s">
         <v>89</v>
       </c>
       <c r="J24" s="23" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="K24" s="5"/>
     </row>
@@ -11213,14 +11213,14 @@
         <v>91</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="H25" s="5"/>
       <c r="I25" s="6" t="s">
         <v>92</v>
       </c>
       <c r="J25" s="23" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="K25" s="5"/>
     </row>
@@ -11244,14 +11244,14 @@
         <v>94</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="H26" s="5"/>
       <c r="I26" s="6" t="s">
         <v>95</v>
       </c>
       <c r="J26" s="23" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="K26" s="5"/>
     </row>
@@ -11266,7 +11266,7 @@
         <v>96</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="E27" s="5" t="s">
         <v>14</v>
@@ -11275,14 +11275,14 @@
         <v>97</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="H27" s="5"/>
       <c r="I27" s="6" t="s">
         <v>98</v>
       </c>
       <c r="J27" s="23" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="K27" s="5"/>
     </row>
@@ -11294,7 +11294,7 @@
         <v>99</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="D28" s="5" t="s">
         <v>411</v>
@@ -11303,17 +11303,17 @@
         <v>25</v>
       </c>
       <c r="F28" s="5" t="s">
+        <v>461</v>
+      </c>
+      <c r="G28" s="5" t="s">
         <v>462</v>
-      </c>
-      <c r="G28" s="5" t="s">
-        <v>463</v>
       </c>
       <c r="H28" s="5"/>
       <c r="I28" s="6" t="s">
+        <v>463</v>
+      </c>
+      <c r="J28" s="23" t="s">
         <v>464</v>
-      </c>
-      <c r="J28" s="23" t="s">
-        <v>465</v>
       </c>
       <c r="K28" s="5"/>
     </row>
@@ -11334,17 +11334,17 @@
         <v>14</v>
       </c>
       <c r="F29" s="5" t="s">
+        <v>465</v>
+      </c>
+      <c r="G29" s="5" t="s">
         <v>466</v>
-      </c>
-      <c r="G29" s="5" t="s">
-        <v>467</v>
       </c>
       <c r="H29" s="5"/>
       <c r="I29" s="6" t="s">
+        <v>467</v>
+      </c>
+      <c r="J29" s="23" t="s">
         <v>468</v>
-      </c>
-      <c r="J29" s="23" t="s">
-        <v>469</v>
       </c>
       <c r="K29" s="5"/>
     </row>
@@ -11368,14 +11368,14 @@
         <v>101</v>
       </c>
       <c r="G30" s="5" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="H30" s="5"/>
       <c r="I30" s="6" t="s">
         <v>102</v>
       </c>
       <c r="J30" s="23" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="K30" s="5" t="s">
         <v>103</v>
@@ -11392,7 +11392,7 @@
         <v>104</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="E31" s="5" t="s">
         <v>39</v>
@@ -11401,14 +11401,14 @@
         <v>106</v>
       </c>
       <c r="G31" s="5" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="H31" s="5"/>
       <c r="I31" s="7" t="s">
         <v>107</v>
       </c>
       <c r="J31" s="23" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="K31" s="5"/>
     </row>
@@ -11423,23 +11423,23 @@
         <v>108</v>
       </c>
       <c r="D32" s="5" t="s">
+        <v>474</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F32" s="5" t="s">
         <v>475</v>
       </c>
-      <c r="E32" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="F32" s="5" t="s">
+      <c r="G32" s="5" t="s">
         <v>476</v>
-      </c>
-      <c r="G32" s="5" t="s">
-        <v>477</v>
       </c>
       <c r="H32" s="5"/>
       <c r="I32" s="6" t="s">
+        <v>477</v>
+      </c>
+      <c r="J32" s="23" t="s">
         <v>478</v>
-      </c>
-      <c r="J32" s="23" t="s">
-        <v>479</v>
       </c>
       <c r="K32" s="5"/>
     </row>
@@ -11463,14 +11463,14 @@
         <v>113</v>
       </c>
       <c r="G33" s="5" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="H33" s="5"/>
       <c r="I33" s="6" t="s">
         <v>114</v>
       </c>
       <c r="J33" s="23" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="K33" s="5"/>
     </row>
@@ -11482,7 +11482,7 @@
         <v>115</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="D34" s="5" t="s">
         <v>47</v>
@@ -11491,17 +11491,17 @@
         <v>25</v>
       </c>
       <c r="F34" s="5" t="s">
+        <v>482</v>
+      </c>
+      <c r="G34" s="5" t="s">
         <v>483</v>
-      </c>
-      <c r="G34" s="5" t="s">
-        <v>484</v>
       </c>
       <c r="H34" s="5"/>
       <c r="I34" s="6" t="s">
+        <v>484</v>
+      </c>
+      <c r="J34" s="23" t="s">
         <v>485</v>
-      </c>
-      <c r="J34" s="23" t="s">
-        <v>486</v>
       </c>
       <c r="K34" s="5"/>
     </row>
@@ -11525,14 +11525,14 @@
         <v>118</v>
       </c>
       <c r="G35" s="5" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="H35" s="5"/>
       <c r="I35" s="6" t="s">
         <v>119</v>
       </c>
       <c r="J35" s="23" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="K35" s="5"/>
     </row>
@@ -11556,14 +11556,14 @@
         <v>122</v>
       </c>
       <c r="G36" s="5" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H36" s="5"/>
       <c r="I36" s="6" t="s">
         <v>123</v>
       </c>
       <c r="J36" s="23" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="K36" s="5"/>
     </row>
@@ -11587,14 +11587,14 @@
         <v>126</v>
       </c>
       <c r="G37" s="5" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="H37" s="5"/>
       <c r="I37" s="6" t="s">
         <v>127</v>
       </c>
       <c r="J37" s="23" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="K37" s="5"/>
     </row>
@@ -11618,14 +11618,14 @@
         <v>130</v>
       </c>
       <c r="G38" s="5" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="H38" s="5"/>
       <c r="I38" s="7" t="s">
         <v>131</v>
       </c>
       <c r="J38" s="23" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="K38" s="5"/>
     </row>
@@ -11637,7 +11637,7 @@
         <v>133</v>
       </c>
       <c r="C39" s="9" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="D39" s="9" t="s">
         <v>47</v>
@@ -11646,17 +11646,17 @@
         <v>14</v>
       </c>
       <c r="F39" s="9" t="s">
+        <v>495</v>
+      </c>
+      <c r="G39" s="9" t="s">
         <v>496</v>
-      </c>
-      <c r="G39" s="9" t="s">
-        <v>497</v>
       </c>
       <c r="H39" s="9"/>
       <c r="I39" s="10" t="s">
+        <v>497</v>
+      </c>
+      <c r="J39" s="24" t="s">
         <v>498</v>
-      </c>
-      <c r="J39" s="24" t="s">
-        <v>499</v>
       </c>
       <c r="K39" s="9"/>
     </row>
@@ -11680,14 +11680,14 @@
         <v>135</v>
       </c>
       <c r="G40" s="9" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H40" s="9"/>
       <c r="I40" s="10" t="s">
         <v>136</v>
       </c>
       <c r="J40" s="24" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="K40" s="9"/>
     </row>
@@ -11699,7 +11699,7 @@
         <v>133</v>
       </c>
       <c r="C41" s="9" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="D41" s="9" t="s">
         <v>411</v>
@@ -11708,17 +11708,17 @@
         <v>25</v>
       </c>
       <c r="F41" s="9" t="s">
+        <v>502</v>
+      </c>
+      <c r="G41" s="9" t="s">
         <v>503</v>
-      </c>
-      <c r="G41" s="9" t="s">
-        <v>504</v>
       </c>
       <c r="H41" s="9"/>
       <c r="I41" s="10" t="s">
+        <v>504</v>
+      </c>
+      <c r="J41" s="24" t="s">
         <v>505</v>
-      </c>
-      <c r="J41" s="24" t="s">
-        <v>506</v>
       </c>
       <c r="K41" s="9"/>
     </row>
@@ -11733,7 +11733,7 @@
         <v>137</v>
       </c>
       <c r="D42" s="9" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="E42" s="9" t="s">
         <v>25</v>
@@ -11742,14 +11742,14 @@
         <v>138</v>
       </c>
       <c r="G42" s="9" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="H42" s="9"/>
       <c r="I42" s="10" t="s">
         <v>139</v>
       </c>
       <c r="J42" s="24" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="K42" s="9"/>
     </row>
@@ -11770,17 +11770,17 @@
         <v>14</v>
       </c>
       <c r="F43" s="9" t="s">
+        <v>508</v>
+      </c>
+      <c r="G43" s="9" t="s">
         <v>509</v>
-      </c>
-      <c r="G43" s="9" t="s">
-        <v>510</v>
       </c>
       <c r="H43" s="9"/>
       <c r="I43" s="10" t="s">
+        <v>510</v>
+      </c>
+      <c r="J43" s="24" t="s">
         <v>511</v>
-      </c>
-      <c r="J43" s="24" t="s">
-        <v>512</v>
       </c>
       <c r="K43" s="9"/>
     </row>
@@ -11804,14 +11804,14 @@
         <v>141</v>
       </c>
       <c r="G44" s="9" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="H44" s="9"/>
       <c r="I44" s="10" t="s">
         <v>142</v>
       </c>
       <c r="J44" s="24" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="K44" s="9"/>
     </row>
@@ -11835,14 +11835,14 @@
         <v>144</v>
       </c>
       <c r="G45" s="9" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="H45" s="9"/>
       <c r="I45" s="11" t="s">
         <v>145</v>
       </c>
       <c r="J45" s="24" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="K45" s="9"/>
     </row>
@@ -11857,7 +11857,7 @@
         <v>146</v>
       </c>
       <c r="D46" s="9" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="E46" s="9" t="s">
         <v>25</v>
@@ -11866,14 +11866,14 @@
         <v>148</v>
       </c>
       <c r="G46" s="9" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="H46" s="9"/>
       <c r="I46" s="11" t="s">
         <v>149</v>
       </c>
       <c r="J46" s="24" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="K46" s="9"/>
     </row>
@@ -11897,14 +11897,14 @@
         <v>151</v>
       </c>
       <c r="G47" s="9" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="H47" s="9"/>
       <c r="I47" s="10" t="s">
         <v>152</v>
       </c>
       <c r="J47" s="24" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="K47" s="9"/>
     </row>
@@ -11928,14 +11928,14 @@
         <v>154</v>
       </c>
       <c r="G48" s="9" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="H48" s="9"/>
       <c r="I48" s="10" t="s">
         <v>155</v>
       </c>
       <c r="J48" s="24" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="K48" s="9"/>
     </row>
@@ -11959,14 +11959,14 @@
         <v>158</v>
       </c>
       <c r="G49" s="9" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="H49" s="9"/>
       <c r="I49" s="10" t="s">
         <v>159</v>
       </c>
       <c r="J49" s="24" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="K49" s="9"/>
     </row>
@@ -11990,14 +11990,14 @@
         <v>161</v>
       </c>
       <c r="G50" s="9" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="H50" s="9"/>
       <c r="I50" s="10" t="s">
         <v>162</v>
       </c>
       <c r="J50" s="24" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="K50" s="9"/>
     </row>
@@ -12021,14 +12021,14 @@
         <v>165</v>
       </c>
       <c r="G51" s="9" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="H51" s="9"/>
       <c r="I51" s="10" t="s">
         <v>166</v>
       </c>
       <c r="J51" s="24" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="K51" s="9"/>
     </row>
@@ -12052,14 +12052,14 @@
         <v>168</v>
       </c>
       <c r="G52" s="9" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="H52" s="9"/>
       <c r="I52" s="10" t="s">
         <v>169</v>
       </c>
       <c r="J52" s="24" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="K52" s="9"/>
     </row>
@@ -12083,14 +12083,14 @@
         <v>171</v>
       </c>
       <c r="G53" s="9" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="H53" s="9"/>
       <c r="I53" s="10" t="s">
         <v>172</v>
       </c>
       <c r="J53" s="24" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="K53" s="9"/>
     </row>
@@ -12114,14 +12114,14 @@
         <v>174</v>
       </c>
       <c r="G54" s="9" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="H54" s="9"/>
       <c r="I54" s="10" t="s">
         <v>175</v>
       </c>
       <c r="J54" s="24" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="K54" s="9"/>
     </row>
@@ -12130,10 +12130,10 @@
         <v>132</v>
       </c>
       <c r="B55" s="9" t="s">
+        <v>535</v>
+      </c>
+      <c r="C55" s="9" t="s">
         <v>536</v>
-      </c>
-      <c r="C55" s="9" t="s">
-        <v>537</v>
       </c>
       <c r="D55" s="9" t="s">
         <v>157</v>
@@ -12142,17 +12142,17 @@
         <v>25</v>
       </c>
       <c r="F55" s="9" t="s">
+        <v>537</v>
+      </c>
+      <c r="G55" s="9" t="s">
         <v>538</v>
-      </c>
-      <c r="G55" s="9" t="s">
-        <v>539</v>
       </c>
       <c r="H55" s="9"/>
       <c r="I55" s="11" t="s">
+        <v>539</v>
+      </c>
+      <c r="J55" s="24" t="s">
         <v>540</v>
-      </c>
-      <c r="J55" s="24" t="s">
-        <v>541</v>
       </c>
       <c r="K55" s="9"/>
     </row>
@@ -12161,7 +12161,7 @@
         <v>132</v>
       </c>
       <c r="B56" s="9" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="C56" s="9" t="s">
         <v>381</v>
@@ -12173,17 +12173,17 @@
         <v>14</v>
       </c>
       <c r="F56" s="9" t="s">
+        <v>541</v>
+      </c>
+      <c r="G56" s="9" t="s">
         <v>542</v>
-      </c>
-      <c r="G56" s="9" t="s">
-        <v>543</v>
       </c>
       <c r="H56" s="9"/>
       <c r="I56" s="10" t="s">
+        <v>543</v>
+      </c>
+      <c r="J56" s="24" t="s">
         <v>544</v>
-      </c>
-      <c r="J56" s="24" t="s">
-        <v>545</v>
       </c>
       <c r="K56" s="9"/>
     </row>
@@ -12195,7 +12195,7 @@
         <v>176</v>
       </c>
       <c r="C57" s="9" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="D57" s="9" t="s">
         <v>411</v>
@@ -12204,17 +12204,17 @@
         <v>25</v>
       </c>
       <c r="F57" s="9" t="s">
+        <v>546</v>
+      </c>
+      <c r="G57" s="9" t="s">
         <v>547</v>
-      </c>
-      <c r="G57" s="9" t="s">
-        <v>548</v>
       </c>
       <c r="H57" s="9"/>
       <c r="I57" s="10" t="s">
+        <v>548</v>
+      </c>
+      <c r="J57" s="24" t="s">
         <v>549</v>
-      </c>
-      <c r="J57" s="24" t="s">
-        <v>550</v>
       </c>
       <c r="K57" s="9"/>
     </row>
@@ -12235,17 +12235,17 @@
         <v>25</v>
       </c>
       <c r="F58" s="9" t="s">
+        <v>550</v>
+      </c>
+      <c r="G58" s="9" t="s">
         <v>551</v>
-      </c>
-      <c r="G58" s="9" t="s">
-        <v>552</v>
       </c>
       <c r="H58" s="9"/>
       <c r="I58" s="10" t="s">
         <v>179</v>
       </c>
       <c r="J58" s="24" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="K58" s="9"/>
     </row>
@@ -12269,14 +12269,14 @@
         <v>182</v>
       </c>
       <c r="G59" s="9" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="H59" s="9"/>
       <c r="I59" s="10" t="s">
         <v>183</v>
       </c>
       <c r="J59" s="24" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="K59" s="9"/>
     </row>
@@ -12300,14 +12300,14 @@
         <v>186</v>
       </c>
       <c r="G60" s="9" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="H60" s="9"/>
       <c r="I60" s="10" t="s">
         <v>187</v>
       </c>
       <c r="J60" s="24" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="K60" s="9"/>
     </row>
@@ -12331,14 +12331,14 @@
         <v>189</v>
       </c>
       <c r="G61" s="9" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="H61" s="9"/>
       <c r="I61" s="10" t="s">
         <v>190</v>
       </c>
       <c r="J61" s="24" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="K61" s="9"/>
     </row>
@@ -12362,14 +12362,14 @@
         <v>193</v>
       </c>
       <c r="G62" s="9" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="H62" s="9"/>
       <c r="I62" s="10" t="s">
         <v>194</v>
       </c>
       <c r="J62" s="24" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="K62" s="9"/>
     </row>
@@ -12393,14 +12393,14 @@
         <v>196</v>
       </c>
       <c r="G63" s="9" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="H63" s="9"/>
       <c r="I63" s="10" t="s">
         <v>197</v>
       </c>
       <c r="J63" s="24" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="K63" s="9"/>
     </row>
@@ -12415,7 +12415,7 @@
         <v>198</v>
       </c>
       <c r="D64" s="9" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="E64" s="9" t="s">
         <v>14</v>
@@ -12424,14 +12424,14 @@
         <v>199</v>
       </c>
       <c r="G64" s="9" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="H64" s="9"/>
       <c r="I64" s="10" t="s">
         <v>200</v>
       </c>
       <c r="J64" s="24" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="K64" s="9"/>
     </row>
@@ -12446,7 +12446,7 @@
         <v>201</v>
       </c>
       <c r="D65" s="9" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="E65" s="9" t="s">
         <v>14</v>
@@ -12455,14 +12455,14 @@
         <v>202</v>
       </c>
       <c r="G65" s="9" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="H65" s="9"/>
       <c r="I65" s="10" t="s">
         <v>203</v>
       </c>
       <c r="J65" s="24" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="K65" s="9"/>
     </row>
@@ -12477,7 +12477,7 @@
         <v>204</v>
       </c>
       <c r="D66" s="9" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="E66" s="9" t="s">
         <v>14</v>
@@ -12486,14 +12486,14 @@
         <v>205</v>
       </c>
       <c r="G66" s="9" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="H66" s="9"/>
       <c r="I66" s="11" t="s">
         <v>206</v>
       </c>
       <c r="J66" s="24" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="K66" s="9"/>
     </row>
@@ -12508,7 +12508,7 @@
         <v>207</v>
       </c>
       <c r="D67" s="9" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="E67" s="9" t="s">
         <v>25</v>
@@ -12517,14 +12517,14 @@
         <v>208</v>
       </c>
       <c r="G67" s="9" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="H67" s="9"/>
       <c r="I67" s="11" t="s">
         <v>209</v>
       </c>
       <c r="J67" s="24" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="K67" s="9"/>
     </row>
@@ -12539,7 +12539,7 @@
         <v>211</v>
       </c>
       <c r="D68" s="9" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="E68" s="9" t="s">
         <v>14</v>
@@ -12548,14 +12548,14 @@
         <v>212</v>
       </c>
       <c r="G68" s="9" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="H68" s="9"/>
       <c r="I68" s="10" t="s">
         <v>213</v>
       </c>
       <c r="J68" s="24" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="K68" s="9"/>
     </row>
@@ -12579,14 +12579,14 @@
         <v>216</v>
       </c>
       <c r="G69" s="9" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="H69" s="9"/>
       <c r="I69" s="10" t="s">
         <v>217</v>
       </c>
       <c r="J69" s="24" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="K69" s="9"/>
     </row>
@@ -12610,14 +12610,14 @@
         <v>219</v>
       </c>
       <c r="G70" s="9" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="H70" s="9"/>
       <c r="I70" s="10" t="s">
         <v>220</v>
       </c>
       <c r="J70" s="24" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="K70" s="9"/>
     </row>
@@ -12629,7 +12629,7 @@
         <v>221</v>
       </c>
       <c r="C71" s="12" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="D71" s="9" t="s">
         <v>411</v>
@@ -12641,14 +12641,14 @@
         <v>223</v>
       </c>
       <c r="G71" s="9" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="H71" s="9"/>
       <c r="I71" s="10" t="s">
+        <v>579</v>
+      </c>
+      <c r="J71" s="24" t="s">
         <v>580</v>
-      </c>
-      <c r="J71" s="24" t="s">
-        <v>581</v>
       </c>
       <c r="K71" s="9"/>
     </row>
@@ -12663,7 +12663,7 @@
         <v>226</v>
       </c>
       <c r="D72" s="9" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="E72" s="9" t="s">
         <v>14</v>
@@ -12672,14 +12672,14 @@
         <v>227</v>
       </c>
       <c r="G72" s="9" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="H72" s="9"/>
       <c r="I72" s="10" t="s">
         <v>228</v>
       </c>
       <c r="J72" s="24" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="K72" s="9"/>
     </row>
@@ -12703,14 +12703,14 @@
         <v>230</v>
       </c>
       <c r="G73" s="9" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="H73" s="9"/>
       <c r="I73" s="10" t="s">
         <v>231</v>
       </c>
       <c r="J73" s="24" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="K73" s="9"/>
     </row>
@@ -12719,10 +12719,10 @@
         <v>132</v>
       </c>
       <c r="B74" s="9" t="s">
+        <v>585</v>
+      </c>
+      <c r="C74" s="9" t="s">
         <v>586</v>
-      </c>
-      <c r="C74" s="9" t="s">
-        <v>587</v>
       </c>
       <c r="D74" s="9" t="s">
         <v>411</v>
@@ -12731,17 +12731,17 @@
         <v>25</v>
       </c>
       <c r="F74" s="9" t="s">
+        <v>587</v>
+      </c>
+      <c r="G74" s="9" t="s">
         <v>588</v>
-      </c>
-      <c r="G74" s="9" t="s">
-        <v>589</v>
       </c>
       <c r="H74" s="9"/>
       <c r="I74" s="11" t="s">
+        <v>589</v>
+      </c>
+      <c r="J74" s="24" t="s">
         <v>590</v>
-      </c>
-      <c r="J74" s="24" t="s">
-        <v>591</v>
       </c>
       <c r="K74" s="9"/>
     </row>
@@ -12765,14 +12765,14 @@
         <v>234</v>
       </c>
       <c r="G75" s="9" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="H75" s="9"/>
       <c r="I75" s="10" t="s">
         <v>235</v>
       </c>
       <c r="J75" s="24" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="K75" s="9"/>
     </row>
@@ -12793,17 +12793,17 @@
         <v>14</v>
       </c>
       <c r="F76" s="9" t="s">
+        <v>593</v>
+      </c>
+      <c r="G76" s="9" t="s">
         <v>594</v>
-      </c>
-      <c r="G76" s="9" t="s">
-        <v>595</v>
       </c>
       <c r="H76" s="9"/>
       <c r="I76" s="11" t="s">
+        <v>595</v>
+      </c>
+      <c r="J76" s="24" t="s">
         <v>596</v>
-      </c>
-      <c r="J76" s="24" t="s">
-        <v>597</v>
       </c>
       <c r="K76" s="9"/>
     </row>
@@ -12827,14 +12827,14 @@
         <v>238</v>
       </c>
       <c r="G77" s="9" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="H77" s="9"/>
       <c r="I77" s="10" t="s">
         <v>239</v>
       </c>
       <c r="J77" s="24" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="K77" s="9"/>
     </row>
@@ -12858,14 +12858,14 @@
         <v>242</v>
       </c>
       <c r="G78" s="9" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="H78" s="9"/>
       <c r="I78" s="10" t="s">
         <v>243</v>
       </c>
       <c r="J78" s="24" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="K78" s="9"/>
     </row>
@@ -12889,14 +12889,14 @@
         <v>246</v>
       </c>
       <c r="G79" s="9" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="H79" s="9"/>
       <c r="I79" s="10" t="s">
         <v>247</v>
       </c>
       <c r="J79" s="24" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="K79" s="9"/>
     </row>
@@ -12917,17 +12917,17 @@
         <v>14</v>
       </c>
       <c r="F80" s="9" t="s">
+        <v>603</v>
+      </c>
+      <c r="G80" s="9" t="s">
         <v>604</v>
-      </c>
-      <c r="G80" s="9" t="s">
-        <v>605</v>
       </c>
       <c r="H80" s="9"/>
       <c r="I80" s="10" t="s">
+        <v>605</v>
+      </c>
+      <c r="J80" s="24" t="s">
         <v>606</v>
-      </c>
-      <c r="J80" s="24" t="s">
-        <v>607</v>
       </c>
       <c r="K80" s="9"/>
     </row>
@@ -12951,14 +12951,14 @@
         <v>250</v>
       </c>
       <c r="G81" s="9" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="H81" s="9"/>
       <c r="I81" s="10" t="s">
         <v>251</v>
       </c>
       <c r="J81" s="24" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="K81" s="9"/>
     </row>
@@ -12982,14 +12982,14 @@
         <v>253</v>
       </c>
       <c r="G82" s="9" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="H82" s="9"/>
       <c r="I82" s="10" t="s">
         <v>254</v>
       </c>
       <c r="J82" s="24" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="K82" s="9"/>
     </row>
@@ -13013,14 +13013,14 @@
         <v>256</v>
       </c>
       <c r="G83" s="9" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="H83" s="9"/>
       <c r="I83" s="10" t="s">
         <v>257</v>
       </c>
       <c r="J83" s="24" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="K83" s="9"/>
     </row>
@@ -13044,14 +13044,14 @@
         <v>260</v>
       </c>
       <c r="G84" s="9" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="H84" s="9"/>
       <c r="I84" s="10" t="s">
         <v>261</v>
       </c>
       <c r="J84" s="24" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="K84" s="9"/>
     </row>
@@ -13066,7 +13066,7 @@
         <v>263</v>
       </c>
       <c r="D85" s="9" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="E85" s="9" t="s">
         <v>14</v>
@@ -13075,14 +13075,14 @@
         <v>265</v>
       </c>
       <c r="G85" s="9" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="H85" s="9"/>
       <c r="I85" s="11" t="s">
         <v>266</v>
       </c>
       <c r="J85" s="24" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="K85" s="9"/>
     </row>
@@ -13106,14 +13106,14 @@
         <v>268</v>
       </c>
       <c r="G86" s="9" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="H86" s="9"/>
       <c r="I86" s="11" t="s">
         <v>269</v>
       </c>
       <c r="J86" s="24" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="K86" s="9"/>
     </row>
@@ -13128,7 +13128,7 @@
         <v>270</v>
       </c>
       <c r="D87" s="9" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="E87" s="9" t="s">
         <v>25</v>
@@ -13137,14 +13137,14 @@
         <v>271</v>
       </c>
       <c r="G87" s="9" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="H87" s="9"/>
       <c r="I87" s="11" t="s">
         <v>272</v>
       </c>
       <c r="J87" s="24" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="K87" s="9"/>
     </row>
@@ -13159,7 +13159,7 @@
         <v>273</v>
       </c>
       <c r="D88" s="9" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="E88" s="9" t="s">
         <v>25</v>
@@ -13168,14 +13168,14 @@
         <v>274</v>
       </c>
       <c r="G88" s="9" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="H88" s="9"/>
       <c r="I88" s="11" t="s">
         <v>275</v>
       </c>
       <c r="J88" s="24" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="K88" s="9"/>
     </row>
@@ -13199,11 +13199,11 @@
         <v>277</v>
       </c>
       <c r="G89" s="9" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="H89" s="9"/>
       <c r="I89" s="11" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="J89" s="24"/>
       <c r="K89" s="9"/>
@@ -13213,10 +13213,10 @@
         <v>278</v>
       </c>
       <c r="B90" s="14" t="s">
+        <v>626</v>
+      </c>
+      <c r="C90" s="14" t="s">
         <v>627</v>
-      </c>
-      <c r="C90" s="14" t="s">
-        <v>628</v>
       </c>
       <c r="D90" s="14" t="s">
         <v>157</v>
@@ -13225,17 +13225,17 @@
         <v>25</v>
       </c>
       <c r="F90" s="14" t="s">
+        <v>628</v>
+      </c>
+      <c r="G90" s="14" t="s">
         <v>629</v>
-      </c>
-      <c r="G90" s="14" t="s">
-        <v>630</v>
       </c>
       <c r="H90" s="14"/>
       <c r="I90" s="16" t="s">
+        <v>630</v>
+      </c>
+      <c r="J90" s="25" t="s">
         <v>631</v>
-      </c>
-      <c r="J90" s="25" t="s">
-        <v>632</v>
       </c>
       <c r="K90" s="14"/>
     </row>
@@ -13244,10 +13244,10 @@
         <v>278</v>
       </c>
       <c r="B91" s="14" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="C91" s="14" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="D91" s="14" t="s">
         <v>411</v>
@@ -13256,17 +13256,17 @@
         <v>25</v>
       </c>
       <c r="F91" s="14" t="s">
+        <v>633</v>
+      </c>
+      <c r="G91" s="14" t="s">
         <v>634</v>
-      </c>
-      <c r="G91" s="14" t="s">
-        <v>635</v>
       </c>
       <c r="H91" s="14"/>
       <c r="I91" s="16" t="s">
+        <v>635</v>
+      </c>
+      <c r="J91" s="25" t="s">
         <v>636</v>
-      </c>
-      <c r="J91" s="25" t="s">
-        <v>637</v>
       </c>
       <c r="K91" s="14"/>
     </row>
@@ -13278,7 +13278,7 @@
         <v>279</v>
       </c>
       <c r="C92" s="14" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="D92" s="14" t="s">
         <v>47</v>
@@ -13287,17 +13287,17 @@
         <v>14</v>
       </c>
       <c r="F92" s="14" t="s">
+        <v>638</v>
+      </c>
+      <c r="G92" s="14" t="s">
         <v>639</v>
-      </c>
-      <c r="G92" s="14" t="s">
-        <v>640</v>
       </c>
       <c r="H92" s="14"/>
       <c r="I92" s="15" t="s">
+        <v>640</v>
+      </c>
+      <c r="J92" s="25" t="s">
         <v>641</v>
-      </c>
-      <c r="J92" s="25" t="s">
-        <v>642</v>
       </c>
       <c r="K92" s="14"/>
     </row>
@@ -13309,7 +13309,7 @@
         <v>279</v>
       </c>
       <c r="C93" s="14" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="D93" s="14" t="s">
         <v>157</v>
@@ -13318,17 +13318,17 @@
         <v>25</v>
       </c>
       <c r="F93" s="14" t="s">
+        <v>643</v>
+      </c>
+      <c r="G93" s="14" t="s">
         <v>644</v>
-      </c>
-      <c r="G93" s="14" t="s">
-        <v>645</v>
       </c>
       <c r="H93" s="14"/>
       <c r="I93" s="15" t="s">
+        <v>645</v>
+      </c>
+      <c r="J93" s="25" t="s">
         <v>646</v>
-      </c>
-      <c r="J93" s="25" t="s">
-        <v>647</v>
       </c>
       <c r="K93" s="14"/>
     </row>
@@ -13340,7 +13340,7 @@
         <v>279</v>
       </c>
       <c r="C94" s="14" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="D94" s="14" t="s">
         <v>411</v>
@@ -13349,17 +13349,17 @@
         <v>25</v>
       </c>
       <c r="F94" s="14" t="s">
+        <v>648</v>
+      </c>
+      <c r="G94" s="14" t="s">
         <v>649</v>
-      </c>
-      <c r="G94" s="14" t="s">
-        <v>650</v>
       </c>
       <c r="H94" s="14"/>
       <c r="I94" s="15" t="s">
+        <v>650</v>
+      </c>
+      <c r="J94" s="25" t="s">
         <v>651</v>
-      </c>
-      <c r="J94" s="25" t="s">
-        <v>652</v>
       </c>
       <c r="K94" s="14"/>
     </row>
@@ -13380,14 +13380,14 @@
         <v>14</v>
       </c>
       <c r="F95" s="14" t="s">
+        <v>652</v>
+      </c>
+      <c r="G95" s="14" t="s">
         <v>653</v>
-      </c>
-      <c r="G95" s="14" t="s">
-        <v>654</v>
       </c>
       <c r="H95" s="14"/>
       <c r="I95" s="15" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="J95" s="25"/>
       <c r="K95" s="14"/>
@@ -13412,14 +13412,14 @@
         <v>281</v>
       </c>
       <c r="G96" s="14" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="H96" s="14"/>
       <c r="I96" s="15" t="s">
         <v>282</v>
       </c>
       <c r="J96" s="25" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="K96" s="14"/>
     </row>
@@ -13443,14 +13443,14 @@
         <v>284</v>
       </c>
       <c r="G97" s="14" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="H97" s="14"/>
       <c r="I97" s="15" t="s">
         <v>285</v>
       </c>
       <c r="J97" s="25" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="K97" s="14"/>
     </row>
@@ -13465,7 +13465,7 @@
         <v>286</v>
       </c>
       <c r="D98" s="14" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="E98" s="14" t="s">
         <v>14</v>
@@ -13474,14 +13474,14 @@
         <v>287</v>
       </c>
       <c r="G98" s="14" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="H98" s="14"/>
       <c r="I98" s="16" t="s">
         <v>288</v>
       </c>
       <c r="J98" s="25" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="K98" s="14"/>
     </row>
@@ -13505,14 +13505,14 @@
         <v>290</v>
       </c>
       <c r="G99" s="14" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="H99" s="14"/>
       <c r="I99" s="16" t="s">
         <v>291</v>
       </c>
       <c r="J99" s="25" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="K99" s="14"/>
     </row>
@@ -13536,14 +13536,14 @@
         <v>293</v>
       </c>
       <c r="G100" s="14" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="H100" s="14"/>
       <c r="I100" s="16" t="s">
         <v>294</v>
       </c>
       <c r="J100" s="25" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="K100" s="14"/>
     </row>
@@ -13567,14 +13567,14 @@
         <v>296</v>
       </c>
       <c r="G101" s="14" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="H101" s="14"/>
       <c r="I101" s="16" t="s">
         <v>297</v>
       </c>
       <c r="J101" s="25" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="K101" s="14"/>
     </row>
@@ -13598,14 +13598,14 @@
         <v>299</v>
       </c>
       <c r="G102" s="14" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="H102" s="14"/>
       <c r="I102" s="16" t="s">
         <v>300</v>
       </c>
       <c r="J102" s="25" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="K102" s="14"/>
     </row>
@@ -13629,14 +13629,14 @@
         <v>303</v>
       </c>
       <c r="G103" s="14" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="H103" s="14"/>
       <c r="I103" s="15" t="s">
         <v>304</v>
       </c>
       <c r="J103" s="25" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="K103" s="14"/>
     </row>
@@ -13657,17 +13657,17 @@
         <v>14</v>
       </c>
       <c r="F104" s="14" t="s">
+        <v>671</v>
+      </c>
+      <c r="G104" s="14" t="s">
         <v>672</v>
-      </c>
-      <c r="G104" s="14" t="s">
-        <v>673</v>
       </c>
       <c r="H104" s="14"/>
       <c r="I104" s="15" t="s">
+        <v>673</v>
+      </c>
+      <c r="J104" s="25" t="s">
         <v>674</v>
-      </c>
-      <c r="J104" s="25" t="s">
-        <v>675</v>
       </c>
       <c r="K104" s="14"/>
     </row>
@@ -13691,14 +13691,14 @@
         <v>307</v>
       </c>
       <c r="G105" s="14" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="H105" s="14"/>
       <c r="I105" s="15" t="s">
         <v>308</v>
       </c>
       <c r="J105" s="25" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="K105" s="14"/>
     </row>
@@ -13722,14 +13722,14 @@
         <v>309</v>
       </c>
       <c r="G106" s="14" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="H106" s="14"/>
       <c r="I106" s="15" t="s">
         <v>310</v>
       </c>
       <c r="J106" s="25" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="K106" s="14"/>
     </row>
@@ -13753,14 +13753,14 @@
         <v>313</v>
       </c>
       <c r="G107" s="14" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="H107" s="14"/>
       <c r="I107" s="15" t="s">
         <v>314</v>
       </c>
       <c r="J107" s="25" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="K107" s="14"/>
     </row>
@@ -13784,14 +13784,14 @@
         <v>317</v>
       </c>
       <c r="G108" s="14" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="H108" s="14"/>
       <c r="I108" s="15" t="s">
         <v>318</v>
       </c>
       <c r="J108" s="25" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="K108" s="14"/>
     </row>
@@ -13812,17 +13812,17 @@
         <v>14</v>
       </c>
       <c r="F109" s="14" t="s">
+        <v>683</v>
+      </c>
+      <c r="G109" s="14" t="s">
         <v>684</v>
-      </c>
-      <c r="G109" s="14" t="s">
-        <v>685</v>
       </c>
       <c r="H109" s="14"/>
       <c r="I109" s="16" t="s">
+        <v>685</v>
+      </c>
+      <c r="J109" s="25" t="s">
         <v>686</v>
-      </c>
-      <c r="J109" s="25" t="s">
-        <v>687</v>
       </c>
       <c r="K109" s="14"/>
     </row>
@@ -13846,14 +13846,14 @@
         <v>324</v>
       </c>
       <c r="G110" s="14" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="H110" s="14"/>
       <c r="I110" s="15" t="s">
         <v>325</v>
       </c>
       <c r="J110" s="25" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="K110" s="14"/>
     </row>
@@ -13865,7 +13865,7 @@
         <v>319</v>
       </c>
       <c r="C111" s="14" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="D111" s="14" t="s">
         <v>411</v>
@@ -13877,14 +13877,14 @@
         <v>327</v>
       </c>
       <c r="G111" s="14" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="H111" s="14"/>
       <c r="I111" s="15" t="s">
         <v>328</v>
       </c>
       <c r="J111" s="25" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="K111" s="14"/>
     </row>
@@ -13908,14 +13908,14 @@
         <v>330</v>
       </c>
       <c r="G112" s="14" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="H112" s="14"/>
       <c r="I112" s="15" t="s">
         <v>331</v>
       </c>
       <c r="J112" s="25" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="K112" s="14"/>
     </row>
@@ -13930,7 +13930,7 @@
         <v>332</v>
       </c>
       <c r="D113" s="14" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="E113" s="14" t="s">
         <v>14</v>
@@ -13939,14 +13939,14 @@
         <v>333</v>
       </c>
       <c r="G113" s="14" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="H113" s="14"/>
       <c r="I113" s="15" t="s">
         <v>334</v>
       </c>
       <c r="J113" s="25" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="K113" s="14"/>
     </row>
@@ -13970,14 +13970,14 @@
         <v>336</v>
       </c>
       <c r="G114" s="14" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="H114" s="14"/>
       <c r="I114" s="15" t="s">
         <v>337</v>
       </c>
       <c r="J114" s="25" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="K114" s="14"/>
     </row>
@@ -14001,14 +14001,14 @@
         <v>339</v>
       </c>
       <c r="G115" s="14" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="H115" s="14"/>
       <c r="I115" s="15" t="s">
         <v>340</v>
       </c>
       <c r="J115" s="25" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="K115" s="14"/>
     </row>
@@ -14032,14 +14032,14 @@
         <v>343</v>
       </c>
       <c r="G116" s="14" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="H116" s="14"/>
       <c r="I116" s="15" t="s">
         <v>344</v>
       </c>
       <c r="J116" s="25" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="K116" s="14"/>
     </row>
@@ -14063,14 +14063,14 @@
         <v>346</v>
       </c>
       <c r="G117" s="14" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="H117" s="14"/>
       <c r="I117" s="15" t="s">
         <v>347</v>
       </c>
       <c r="J117" s="25" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="K117" s="14"/>
     </row>
@@ -14094,14 +14094,14 @@
         <v>350</v>
       </c>
       <c r="G118" s="14" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="H118" s="14"/>
       <c r="I118" s="15" t="s">
         <v>351</v>
       </c>
       <c r="J118" s="25" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="K118" s="14"/>
     </row>
@@ -14113,10 +14113,10 @@
         <v>348</v>
       </c>
       <c r="C119" s="14" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="D119" s="14" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="E119" s="14" t="s">
         <v>25</v>
@@ -14125,14 +14125,14 @@
         <v>353</v>
       </c>
       <c r="G119" s="14" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="H119" s="14"/>
       <c r="I119" s="16" t="s">
         <v>354</v>
       </c>
       <c r="J119" s="25" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="K119" s="14"/>
     </row>
@@ -14156,14 +14156,14 @@
         <v>356</v>
       </c>
       <c r="G120" s="14" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="H120" s="14"/>
       <c r="I120" s="15" t="s">
         <v>357</v>
       </c>
       <c r="J120" s="25" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="K120" s="14"/>
     </row>
@@ -14187,14 +14187,14 @@
         <v>359</v>
       </c>
       <c r="G121" s="14" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="H121" s="14"/>
       <c r="I121" s="15" t="s">
         <v>360</v>
       </c>
       <c r="J121" s="25" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="K121" s="14"/>
     </row>
@@ -14203,10 +14203,10 @@
         <v>278</v>
       </c>
       <c r="B122" s="14" t="s">
+        <v>713</v>
+      </c>
+      <c r="C122" s="17" t="s">
         <v>714</v>
-      </c>
-      <c r="C122" s="17" t="s">
-        <v>715</v>
       </c>
       <c r="D122" s="14" t="s">
         <v>411</v>
@@ -14215,17 +14215,17 @@
         <v>25</v>
       </c>
       <c r="F122" s="14" t="s">
+        <v>715</v>
+      </c>
+      <c r="G122" s="14" t="s">
         <v>716</v>
-      </c>
-      <c r="G122" s="14" t="s">
-        <v>717</v>
       </c>
       <c r="H122" s="14"/>
       <c r="I122" s="15" t="s">
+        <v>717</v>
+      </c>
+      <c r="J122" s="25" t="s">
         <v>718</v>
-      </c>
-      <c r="J122" s="25" t="s">
-        <v>719</v>
       </c>
       <c r="K122" s="14"/>
     </row>
@@ -14240,7 +14240,7 @@
         <v>362</v>
       </c>
       <c r="D123" s="14" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="E123" s="14" t="s">
         <v>14</v>
@@ -14249,14 +14249,14 @@
         <v>363</v>
       </c>
       <c r="G123" s="14" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="H123" s="14"/>
       <c r="I123" s="15" t="s">
         <v>364</v>
       </c>
       <c r="J123" s="25" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="K123" s="14"/>
     </row>

--- a/docs/香港素食餐廳大全.xlsx
+++ b/docs/香港素食餐廳大全.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tim/_Python_OpenAI/My-projects/7-hk-veg-map/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED5A0223-E896-D24E-B960-75F5A07B1CB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2FD4816-5D0E-DA40-BD57-E4F7B61ECAD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1540" yWindow="500" windowWidth="14640" windowHeight="16100" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12660" yWindow="500" windowWidth="15000" windowHeight="16260" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="香港素食餐廳大全" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1750" uniqueCount="722">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1784" uniqueCount="735">
   <si>
     <t>** 更新自: 13 Aug 2023 (deprecated, go to sheet 2 "hk_veg_restaurants_data instead")</t>
   </si>
@@ -2187,13 +2187,52 @@
   </si>
   <si>
     <t>22.284950391487587, 114.1537815780751</t>
+  </si>
+  <si>
+    <t>一素店</t>
+  </si>
+  <si>
+    <t>素一素</t>
+  </si>
+  <si>
+    <t xml:space="preserve">荔枝角 </t>
+  </si>
+  <si>
+    <t>Tempura Makino</t>
+  </si>
+  <si>
+    <t>寶光齋素食館</t>
+  </si>
+  <si>
+    <t>寶蓮禪寺</t>
+  </si>
+  <si>
+    <t>VEDA</t>
+  </si>
+  <si>
+    <t>一森素食</t>
+  </si>
+  <si>
+    <t>油麻地</t>
+  </si>
+  <si>
+    <t>素之苑</t>
+  </si>
+  <si>
+    <t>So Coco</t>
+  </si>
+  <si>
+    <t>樂園素食</t>
+  </si>
+  <si>
+    <t>Veggie4love</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12">
+  <fonts count="13">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -2277,6 +2316,13 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -2328,7 +2374,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -2357,6 +2403,7 @@
     <xf numFmtId="1" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="1" fontId="4" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="1" fontId="4" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -10434,10 +10481,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:K123"/>
+  <dimension ref="A1:K135"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="119" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView tabSelected="1" zoomScale="119" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18:B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -10950,30 +10997,18 @@
         <v>10</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>65</v>
+        <v>22</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>411</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="F17" s="5" t="s">
-        <v>435</v>
-      </c>
-      <c r="G17" s="5" t="s">
-        <v>436</v>
-      </c>
+        <v>728</v>
+      </c>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
       <c r="H17" s="5"/>
-      <c r="I17" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="J17" s="23" t="s">
-        <v>437</v>
-      </c>
+      <c r="I17" s="7"/>
+      <c r="J17" s="23"/>
       <c r="K17" s="5"/>
     </row>
     <row r="18" spans="1:11" ht="15.75" customHeight="1">
@@ -10981,30 +11016,18 @@
         <v>10</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>65</v>
+        <v>22</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>381</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>382</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F18" s="5" t="s">
-        <v>438</v>
-      </c>
-      <c r="G18" s="5" t="s">
-        <v>439</v>
-      </c>
+        <v>734</v>
+      </c>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
       <c r="H18" s="5"/>
-      <c r="I18" s="6" t="s">
-        <v>440</v>
-      </c>
-      <c r="J18" s="23" t="s">
-        <v>441</v>
-      </c>
+      <c r="I18" s="7"/>
+      <c r="J18" s="23"/>
       <c r="K18" s="5"/>
     </row>
     <row r="19" spans="1:11" ht="15.75" customHeight="1">
@@ -11012,29 +11035,29 @@
         <v>10</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>71</v>
+        <v>411</v>
       </c>
       <c r="E19" s="5" t="s">
         <v>25</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>72</v>
+        <v>435</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
       <c r="H19" s="5"/>
       <c r="I19" s="6" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="J19" s="23" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="K19" s="5"/>
     </row>
@@ -11043,29 +11066,29 @@
         <v>10</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>74</v>
+        <v>381</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>75</v>
+        <v>382</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>76</v>
+        <v>438</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="H20" s="5"/>
-      <c r="I20" s="7" t="s">
-        <v>77</v>
+      <c r="I20" s="6" t="s">
+        <v>440</v>
       </c>
       <c r="J20" s="23" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="K20" s="5"/>
     </row>
@@ -11077,26 +11100,26 @@
         <v>69</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>394</v>
+        <v>71</v>
       </c>
       <c r="E21" s="5" t="s">
         <v>25</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="H21" s="5"/>
-      <c r="I21" s="7" t="s">
-        <v>80</v>
+      <c r="I21" s="6" t="s">
+        <v>73</v>
       </c>
       <c r="J21" s="23" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="K21" s="5"/>
     </row>
@@ -11108,26 +11131,26 @@
         <v>69</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>411</v>
+        <v>75</v>
       </c>
       <c r="E22" s="5" t="s">
         <v>25</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="H22" s="5"/>
       <c r="I22" s="7" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="J22" s="23" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="K22" s="5"/>
     </row>
@@ -11139,26 +11162,26 @@
         <v>69</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>411</v>
+        <v>394</v>
       </c>
       <c r="E23" s="5" t="s">
         <v>25</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="H23" s="5"/>
-      <c r="I23" s="6" t="s">
-        <v>86</v>
+      <c r="I23" s="7" t="s">
+        <v>80</v>
       </c>
       <c r="J23" s="23" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="K23" s="5"/>
     </row>
@@ -11170,7 +11193,7 @@
         <v>69</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="D24" s="5" t="s">
         <v>411</v>
@@ -11179,17 +11202,17 @@
         <v>25</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="H24" s="5"/>
-      <c r="I24" s="6" t="s">
-        <v>89</v>
+      <c r="I24" s="7" t="s">
+        <v>83</v>
       </c>
       <c r="J24" s="23" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="K24" s="5"/>
     </row>
@@ -11201,26 +11224,26 @@
         <v>69</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>51</v>
+        <v>411</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="H25" s="5"/>
       <c r="I25" s="6" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="J25" s="23" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="K25" s="5"/>
     </row>
@@ -11232,26 +11255,26 @@
         <v>69</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>55</v>
+        <v>411</v>
       </c>
       <c r="E26" s="5" t="s">
         <v>25</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="H26" s="5"/>
       <c r="I26" s="6" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="J26" s="23" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="K26" s="5"/>
     </row>
@@ -11263,26 +11286,26 @@
         <v>69</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>419</v>
+        <v>51</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="H27" s="5"/>
       <c r="I27" s="6" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="J27" s="23" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="K27" s="5"/>
     </row>
@@ -11291,29 +11314,29 @@
         <v>10</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>99</v>
+        <v>69</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>460</v>
+        <v>93</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>411</v>
+        <v>55</v>
       </c>
       <c r="E28" s="5" t="s">
         <v>25</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>461</v>
+        <v>94</v>
       </c>
       <c r="G28" s="5" t="s">
-        <v>462</v>
+        <v>456</v>
       </c>
       <c r="H28" s="5"/>
       <c r="I28" s="6" t="s">
-        <v>463</v>
+        <v>95</v>
       </c>
       <c r="J28" s="23" t="s">
-        <v>464</v>
+        <v>457</v>
       </c>
       <c r="K28" s="5"/>
     </row>
@@ -11322,29 +11345,29 @@
         <v>10</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>99</v>
+        <v>69</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>381</v>
+        <v>96</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>382</v>
+        <v>419</v>
       </c>
       <c r="E29" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>465</v>
+        <v>97</v>
       </c>
       <c r="G29" s="5" t="s">
-        <v>466</v>
+        <v>458</v>
       </c>
       <c r="H29" s="5"/>
       <c r="I29" s="6" t="s">
-        <v>467</v>
+        <v>98</v>
       </c>
       <c r="J29" s="23" t="s">
-        <v>468</v>
+        <v>459</v>
       </c>
       <c r="K29" s="5"/>
     </row>
@@ -11356,30 +11379,28 @@
         <v>99</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>100</v>
+        <v>460</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>47</v>
+        <v>411</v>
       </c>
       <c r="E30" s="5" t="s">
         <v>25</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>101</v>
+        <v>461</v>
       </c>
       <c r="G30" s="5" t="s">
-        <v>469</v>
+        <v>462</v>
       </c>
       <c r="H30" s="5"/>
       <c r="I30" s="6" t="s">
-        <v>102</v>
+        <v>463</v>
       </c>
       <c r="J30" s="23" t="s">
-        <v>470</v>
-      </c>
-      <c r="K30" s="5" t="s">
-        <v>103</v>
-      </c>
+        <v>464</v>
+      </c>
+      <c r="K30" s="5"/>
     </row>
     <row r="31" spans="1:11" ht="15.75" customHeight="1">
       <c r="A31" s="5" t="s">
@@ -11389,26 +11410,26 @@
         <v>99</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>104</v>
+        <v>381</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>471</v>
+        <v>382</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>39</v>
+        <v>14</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>106</v>
+        <v>465</v>
       </c>
       <c r="G31" s="5" t="s">
-        <v>472</v>
+        <v>466</v>
       </c>
       <c r="H31" s="5"/>
-      <c r="I31" s="7" t="s">
-        <v>107</v>
+      <c r="I31" s="6" t="s">
+        <v>467</v>
       </c>
       <c r="J31" s="23" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
       <c r="K31" s="5"/>
     </row>
@@ -11420,28 +11441,30 @@
         <v>99</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>474</v>
+        <v>47</v>
       </c>
       <c r="E32" s="5" t="s">
         <v>25</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>475</v>
+        <v>101</v>
       </c>
       <c r="G32" s="5" t="s">
-        <v>476</v>
+        <v>469</v>
       </c>
       <c r="H32" s="5"/>
       <c r="I32" s="6" t="s">
-        <v>477</v>
+        <v>102</v>
       </c>
       <c r="J32" s="23" t="s">
-        <v>478</v>
-      </c>
-      <c r="K32" s="5"/>
+        <v>470</v>
+      </c>
+      <c r="K32" s="5" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="33" spans="1:11" ht="15.75" customHeight="1">
       <c r="A33" s="5" t="s">
@@ -11451,26 +11474,26 @@
         <v>99</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>55</v>
+        <v>471</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="G33" s="5" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="H33" s="5"/>
-      <c r="I33" s="6" t="s">
-        <v>114</v>
+      <c r="I33" s="7" t="s">
+        <v>107</v>
       </c>
       <c r="J33" s="23" t="s">
-        <v>480</v>
+        <v>473</v>
       </c>
       <c r="K33" s="5"/>
     </row>
@@ -11479,29 +11502,29 @@
         <v>10</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>115</v>
+        <v>99</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>481</v>
+        <v>108</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>47</v>
+        <v>474</v>
       </c>
       <c r="E34" s="5" t="s">
         <v>25</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>482</v>
+        <v>475</v>
       </c>
       <c r="G34" s="5" t="s">
-        <v>483</v>
+        <v>476</v>
       </c>
       <c r="H34" s="5"/>
       <c r="I34" s="6" t="s">
-        <v>484</v>
+        <v>477</v>
       </c>
       <c r="J34" s="23" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="K34" s="5"/>
     </row>
@@ -11510,29 +11533,29 @@
         <v>10</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>115</v>
+        <v>99</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>117</v>
+        <v>55</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="G35" s="5" t="s">
-        <v>486</v>
+        <v>479</v>
       </c>
       <c r="H35" s="5"/>
       <c r="I35" s="6" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="J35" s="23" t="s">
-        <v>487</v>
+        <v>480</v>
       </c>
       <c r="K35" s="5"/>
     </row>
@@ -11541,61 +11564,37 @@
         <v>10</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>120</v>
+        <v>99</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="D36" s="5" t="s">
-        <v>411</v>
-      </c>
-      <c r="E36" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="F36" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="G36" s="5" t="s">
-        <v>488</v>
-      </c>
+        <v>732</v>
+      </c>
+      <c r="D36" s="5"/>
+      <c r="E36" s="5"/>
+      <c r="F36" s="5"/>
+      <c r="G36" s="5"/>
       <c r="H36" s="5"/>
-      <c r="I36" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="J36" s="23" t="s">
-        <v>489</v>
-      </c>
+      <c r="I36" s="6"/>
+      <c r="J36" s="23"/>
       <c r="K36" s="5"/>
     </row>
     <row r="37" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A37" s="5" t="s">
+      <c r="A37" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="B37" s="5" t="s">
-        <v>124</v>
+      <c r="B37" s="26" t="s">
+        <v>99</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="D37" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="E37" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F37" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="G37" s="5" t="s">
-        <v>490</v>
-      </c>
+        <v>733</v>
+      </c>
+      <c r="D37" s="5"/>
+      <c r="E37" s="5"/>
+      <c r="F37" s="5"/>
+      <c r="G37" s="5"/>
       <c r="H37" s="5"/>
-      <c r="I37" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="J37" s="23" t="s">
-        <v>491</v>
-      </c>
+      <c r="I37" s="6"/>
+      <c r="J37" s="23"/>
       <c r="K37" s="5"/>
     </row>
     <row r="38" spans="1:11" ht="15.75" customHeight="1">
@@ -11603,155 +11602,155 @@
         <v>10</v>
       </c>
       <c r="B38" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>481</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E38" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F38" s="5" t="s">
+        <v>482</v>
+      </c>
+      <c r="G38" s="5" t="s">
+        <v>483</v>
+      </c>
+      <c r="H38" s="5"/>
+      <c r="I38" s="6" t="s">
+        <v>484</v>
+      </c>
+      <c r="J38" s="23" t="s">
+        <v>485</v>
+      </c>
+      <c r="K38" s="5"/>
+    </row>
+    <row r="39" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A39" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="E39" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="F39" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="G39" s="5" t="s">
+        <v>486</v>
+      </c>
+      <c r="H39" s="5"/>
+      <c r="I39" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="J39" s="23" t="s">
+        <v>487</v>
+      </c>
+      <c r="K39" s="5"/>
+    </row>
+    <row r="40" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A40" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>411</v>
+      </c>
+      <c r="E40" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F40" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="G40" s="5" t="s">
+        <v>488</v>
+      </c>
+      <c r="H40" s="5"/>
+      <c r="I40" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="J40" s="23" t="s">
+        <v>489</v>
+      </c>
+      <c r="K40" s="5"/>
+    </row>
+    <row r="41" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A41" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E41" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F41" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="G41" s="5" t="s">
+        <v>490</v>
+      </c>
+      <c r="H41" s="5"/>
+      <c r="I41" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="J41" s="23" t="s">
+        <v>491</v>
+      </c>
+      <c r="K41" s="5"/>
+    </row>
+    <row r="42" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A42" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B42" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="C38" s="5" t="s">
+      <c r="C42" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="D38" s="5" t="s">
+      <c r="D42" s="5" t="s">
         <v>411</v>
       </c>
-      <c r="E38" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="F38" s="5" t="s">
+      <c r="E42" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F42" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="G38" s="5" t="s">
+      <c r="G42" s="5" t="s">
         <v>492</v>
       </c>
-      <c r="H38" s="5"/>
-      <c r="I38" s="7" t="s">
+      <c r="H42" s="5"/>
+      <c r="I42" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="J38" s="23" t="s">
+      <c r="J42" s="23" t="s">
         <v>493</v>
       </c>
-      <c r="K38" s="5"/>
-    </row>
-    <row r="39" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A39" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="B39" s="9" t="s">
-        <v>133</v>
-      </c>
-      <c r="C39" s="9" t="s">
-        <v>494</v>
-      </c>
-      <c r="D39" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="E39" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F39" s="9" t="s">
-        <v>495</v>
-      </c>
-      <c r="G39" s="9" t="s">
-        <v>496</v>
-      </c>
-      <c r="H39" s="9"/>
-      <c r="I39" s="10" t="s">
-        <v>497</v>
-      </c>
-      <c r="J39" s="24" t="s">
-        <v>498</v>
-      </c>
-      <c r="K39" s="9"/>
-    </row>
-    <row r="40" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A40" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="B40" s="9" t="s">
-        <v>133</v>
-      </c>
-      <c r="C40" s="9" t="s">
-        <v>134</v>
-      </c>
-      <c r="D40" s="9" t="s">
-        <v>411</v>
-      </c>
-      <c r="E40" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="F40" s="9" t="s">
-        <v>135</v>
-      </c>
-      <c r="G40" s="9" t="s">
-        <v>499</v>
-      </c>
-      <c r="H40" s="9"/>
-      <c r="I40" s="10" t="s">
-        <v>136</v>
-      </c>
-      <c r="J40" s="24" t="s">
-        <v>500</v>
-      </c>
-      <c r="K40" s="9"/>
-    </row>
-    <row r="41" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A41" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="B41" s="9" t="s">
-        <v>133</v>
-      </c>
-      <c r="C41" s="9" t="s">
-        <v>501</v>
-      </c>
-      <c r="D41" s="9" t="s">
-        <v>411</v>
-      </c>
-      <c r="E41" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="F41" s="9" t="s">
-        <v>502</v>
-      </c>
-      <c r="G41" s="9" t="s">
-        <v>503</v>
-      </c>
-      <c r="H41" s="9"/>
-      <c r="I41" s="10" t="s">
-        <v>504</v>
-      </c>
-      <c r="J41" s="24" t="s">
-        <v>505</v>
-      </c>
-      <c r="K41" s="9"/>
-    </row>
-    <row r="42" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A42" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="B42" s="9" t="s">
-        <v>133</v>
-      </c>
-      <c r="C42" s="9" t="s">
-        <v>137</v>
-      </c>
-      <c r="D42" s="9" t="s">
-        <v>474</v>
-      </c>
-      <c r="E42" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="F42" s="9" t="s">
-        <v>138</v>
-      </c>
-      <c r="G42" s="9" t="s">
-        <v>506</v>
-      </c>
-      <c r="H42" s="9"/>
-      <c r="I42" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="J42" s="24" t="s">
-        <v>507</v>
-      </c>
-      <c r="K42" s="9"/>
+      <c r="K42" s="5"/>
     </row>
     <row r="43" spans="1:11" ht="15.75" customHeight="1">
       <c r="A43" s="9" t="s">
@@ -11761,26 +11760,26 @@
         <v>133</v>
       </c>
       <c r="C43" s="9" t="s">
-        <v>381</v>
+        <v>494</v>
       </c>
       <c r="D43" s="9" t="s">
-        <v>382</v>
+        <v>47</v>
       </c>
       <c r="E43" s="9" t="s">
         <v>14</v>
       </c>
       <c r="F43" s="9" t="s">
-        <v>508</v>
+        <v>495</v>
       </c>
       <c r="G43" s="9" t="s">
-        <v>509</v>
+        <v>496</v>
       </c>
       <c r="H43" s="9"/>
       <c r="I43" s="10" t="s">
-        <v>510</v>
+        <v>497</v>
       </c>
       <c r="J43" s="24" t="s">
-        <v>511</v>
+        <v>498</v>
       </c>
       <c r="K43" s="9"/>
     </row>
@@ -11792,26 +11791,26 @@
         <v>133</v>
       </c>
       <c r="C44" s="9" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="D44" s="9" t="s">
-        <v>75</v>
+        <v>411</v>
       </c>
       <c r="E44" s="9" t="s">
         <v>25</v>
       </c>
       <c r="F44" s="9" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="G44" s="9" t="s">
-        <v>512</v>
+        <v>499</v>
       </c>
       <c r="H44" s="9"/>
       <c r="I44" s="10" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="J44" s="24" t="s">
-        <v>513</v>
+        <v>500</v>
       </c>
       <c r="K44" s="9"/>
     </row>
@@ -11823,26 +11822,26 @@
         <v>133</v>
       </c>
       <c r="C45" s="9" t="s">
-        <v>143</v>
+        <v>501</v>
       </c>
       <c r="D45" s="9" t="s">
-        <v>75</v>
+        <v>411</v>
       </c>
       <c r="E45" s="9" t="s">
         <v>25</v>
       </c>
       <c r="F45" s="9" t="s">
-        <v>144</v>
+        <v>502</v>
       </c>
       <c r="G45" s="9" t="s">
-        <v>514</v>
+        <v>503</v>
       </c>
       <c r="H45" s="9"/>
-      <c r="I45" s="11" t="s">
-        <v>145</v>
+      <c r="I45" s="10" t="s">
+        <v>504</v>
       </c>
       <c r="J45" s="24" t="s">
-        <v>515</v>
+        <v>505</v>
       </c>
       <c r="K45" s="9"/>
     </row>
@@ -11854,30 +11853,30 @@
         <v>133</v>
       </c>
       <c r="C46" s="9" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="D46" s="9" t="s">
-        <v>516</v>
+        <v>474</v>
       </c>
       <c r="E46" s="9" t="s">
         <v>25</v>
       </c>
       <c r="F46" s="9" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="G46" s="9" t="s">
-        <v>517</v>
+        <v>506</v>
       </c>
       <c r="H46" s="9"/>
-      <c r="I46" s="11" t="s">
-        <v>149</v>
+      <c r="I46" s="10" t="s">
+        <v>139</v>
       </c>
       <c r="J46" s="24" t="s">
-        <v>518</v>
+        <v>507</v>
       </c>
       <c r="K46" s="9"/>
     </row>
-    <row r="47" spans="1:11" ht="13">
+    <row r="47" spans="1:11" ht="15.75" customHeight="1">
       <c r="A47" s="9" t="s">
         <v>132</v>
       </c>
@@ -11885,30 +11884,30 @@
         <v>133</v>
       </c>
       <c r="C47" s="9" t="s">
-        <v>150</v>
+        <v>381</v>
       </c>
       <c r="D47" s="9" t="s">
-        <v>55</v>
+        <v>382</v>
       </c>
       <c r="E47" s="9" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="F47" s="9" t="s">
-        <v>151</v>
+        <v>508</v>
       </c>
       <c r="G47" s="9" t="s">
-        <v>519</v>
+        <v>509</v>
       </c>
       <c r="H47" s="9"/>
       <c r="I47" s="10" t="s">
-        <v>152</v>
+        <v>510</v>
       </c>
       <c r="J47" s="24" t="s">
-        <v>520</v>
+        <v>511</v>
       </c>
       <c r="K47" s="9"/>
     </row>
-    <row r="48" spans="1:11" ht="13">
+    <row r="48" spans="1:11" ht="15.75" customHeight="1">
       <c r="A48" s="9" t="s">
         <v>132</v>
       </c>
@@ -11916,7 +11915,7 @@
         <v>133</v>
       </c>
       <c r="C48" s="9" t="s">
-        <v>153</v>
+        <v>140</v>
       </c>
       <c r="D48" s="9" t="s">
         <v>75</v>
@@ -11925,21 +11924,21 @@
         <v>25</v>
       </c>
       <c r="F48" s="9" t="s">
-        <v>154</v>
+        <v>141</v>
       </c>
       <c r="G48" s="9" t="s">
-        <v>521</v>
+        <v>512</v>
       </c>
       <c r="H48" s="9"/>
       <c r="I48" s="10" t="s">
-        <v>155</v>
+        <v>142</v>
       </c>
       <c r="J48" s="24" t="s">
-        <v>522</v>
+        <v>513</v>
       </c>
       <c r="K48" s="9"/>
     </row>
-    <row r="49" spans="1:11" ht="13">
+    <row r="49" spans="1:11" ht="15.75" customHeight="1">
       <c r="A49" s="9" t="s">
         <v>132</v>
       </c>
@@ -11947,30 +11946,30 @@
         <v>133</v>
       </c>
       <c r="C49" s="9" t="s">
-        <v>156</v>
+        <v>143</v>
       </c>
       <c r="D49" s="9" t="s">
-        <v>157</v>
+        <v>75</v>
       </c>
       <c r="E49" s="9" t="s">
         <v>25</v>
       </c>
       <c r="F49" s="9" t="s">
-        <v>158</v>
+        <v>144</v>
       </c>
       <c r="G49" s="9" t="s">
-        <v>523</v>
+        <v>514</v>
       </c>
       <c r="H49" s="9"/>
-      <c r="I49" s="10" t="s">
-        <v>159</v>
+      <c r="I49" s="11" t="s">
+        <v>145</v>
       </c>
       <c r="J49" s="24" t="s">
-        <v>524</v>
+        <v>515</v>
       </c>
       <c r="K49" s="9"/>
     </row>
-    <row r="50" spans="1:11" ht="13">
+    <row r="50" spans="1:11" ht="15.75" customHeight="1">
       <c r="A50" s="9" t="s">
         <v>132</v>
       </c>
@@ -11978,26 +11977,26 @@
         <v>133</v>
       </c>
       <c r="C50" s="9" t="s">
-        <v>160</v>
+        <v>146</v>
       </c>
       <c r="D50" s="9" t="s">
-        <v>55</v>
+        <v>516</v>
       </c>
       <c r="E50" s="9" t="s">
         <v>25</v>
       </c>
       <c r="F50" s="9" t="s">
-        <v>161</v>
+        <v>148</v>
       </c>
       <c r="G50" s="9" t="s">
-        <v>525</v>
+        <v>517</v>
       </c>
       <c r="H50" s="9"/>
-      <c r="I50" s="10" t="s">
-        <v>162</v>
+      <c r="I50" s="11" t="s">
+        <v>149</v>
       </c>
       <c r="J50" s="24" t="s">
-        <v>526</v>
+        <v>518</v>
       </c>
       <c r="K50" s="9"/>
     </row>
@@ -12006,29 +12005,29 @@
         <v>132</v>
       </c>
       <c r="B51" s="9" t="s">
-        <v>163</v>
+        <v>133</v>
       </c>
       <c r="C51" s="9" t="s">
-        <v>164</v>
+        <v>150</v>
       </c>
       <c r="D51" s="9" t="s">
-        <v>411</v>
+        <v>55</v>
       </c>
       <c r="E51" s="9" t="s">
         <v>25</v>
       </c>
       <c r="F51" s="9" t="s">
-        <v>165</v>
+        <v>151</v>
       </c>
       <c r="G51" s="9" t="s">
-        <v>527</v>
+        <v>519</v>
       </c>
       <c r="H51" s="9"/>
       <c r="I51" s="10" t="s">
-        <v>166</v>
+        <v>152</v>
       </c>
       <c r="J51" s="24" t="s">
-        <v>528</v>
+        <v>520</v>
       </c>
       <c r="K51" s="9"/>
     </row>
@@ -12037,29 +12036,29 @@
         <v>132</v>
       </c>
       <c r="B52" s="9" t="s">
-        <v>163</v>
+        <v>133</v>
       </c>
       <c r="C52" s="9" t="s">
-        <v>167</v>
+        <v>153</v>
       </c>
       <c r="D52" s="9" t="s">
-        <v>411</v>
+        <v>75</v>
       </c>
       <c r="E52" s="9" t="s">
         <v>25</v>
       </c>
       <c r="F52" s="9" t="s">
-        <v>168</v>
+        <v>154</v>
       </c>
       <c r="G52" s="9" t="s">
-        <v>529</v>
+        <v>521</v>
       </c>
       <c r="H52" s="9"/>
       <c r="I52" s="10" t="s">
-        <v>169</v>
+        <v>155</v>
       </c>
       <c r="J52" s="24" t="s">
-        <v>530</v>
+        <v>522</v>
       </c>
       <c r="K52" s="9"/>
     </row>
@@ -12068,29 +12067,29 @@
         <v>132</v>
       </c>
       <c r="B53" s="9" t="s">
-        <v>163</v>
+        <v>133</v>
       </c>
       <c r="C53" s="9" t="s">
-        <v>170</v>
+        <v>156</v>
       </c>
       <c r="D53" s="9" t="s">
-        <v>117</v>
+        <v>157</v>
       </c>
       <c r="E53" s="9" t="s">
         <v>25</v>
       </c>
       <c r="F53" s="9" t="s">
-        <v>171</v>
+        <v>158</v>
       </c>
       <c r="G53" s="9" t="s">
-        <v>531</v>
+        <v>523</v>
       </c>
       <c r="H53" s="9"/>
       <c r="I53" s="10" t="s">
-        <v>172</v>
+        <v>159</v>
       </c>
       <c r="J53" s="24" t="s">
-        <v>532</v>
+        <v>524</v>
       </c>
       <c r="K53" s="9"/>
     </row>
@@ -12099,29 +12098,29 @@
         <v>132</v>
       </c>
       <c r="B54" s="9" t="s">
-        <v>163</v>
+        <v>133</v>
       </c>
       <c r="C54" s="9" t="s">
-        <v>173</v>
+        <v>160</v>
       </c>
       <c r="D54" s="9" t="s">
-        <v>117</v>
+        <v>55</v>
       </c>
       <c r="E54" s="9" t="s">
         <v>25</v>
       </c>
       <c r="F54" s="9" t="s">
-        <v>174</v>
+        <v>161</v>
       </c>
       <c r="G54" s="9" t="s">
-        <v>533</v>
+        <v>525</v>
       </c>
       <c r="H54" s="9"/>
       <c r="I54" s="10" t="s">
-        <v>175</v>
+        <v>162</v>
       </c>
       <c r="J54" s="24" t="s">
-        <v>534</v>
+        <v>526</v>
       </c>
       <c r="K54" s="9"/>
     </row>
@@ -12130,29 +12129,29 @@
         <v>132</v>
       </c>
       <c r="B55" s="9" t="s">
-        <v>535</v>
+        <v>163</v>
       </c>
       <c r="C55" s="9" t="s">
-        <v>536</v>
+        <v>164</v>
       </c>
       <c r="D55" s="9" t="s">
-        <v>157</v>
+        <v>411</v>
       </c>
       <c r="E55" s="9" t="s">
         <v>25</v>
       </c>
       <c r="F55" s="9" t="s">
-        <v>537</v>
+        <v>165</v>
       </c>
       <c r="G55" s="9" t="s">
-        <v>538</v>
+        <v>527</v>
       </c>
       <c r="H55" s="9"/>
-      <c r="I55" s="11" t="s">
-        <v>539</v>
+      <c r="I55" s="10" t="s">
+        <v>166</v>
       </c>
       <c r="J55" s="24" t="s">
-        <v>540</v>
+        <v>528</v>
       </c>
       <c r="K55" s="9"/>
     </row>
@@ -12161,29 +12160,29 @@
         <v>132</v>
       </c>
       <c r="B56" s="9" t="s">
-        <v>535</v>
+        <v>163</v>
       </c>
       <c r="C56" s="9" t="s">
-        <v>381</v>
+        <v>167</v>
       </c>
       <c r="D56" s="9" t="s">
-        <v>382</v>
+        <v>411</v>
       </c>
       <c r="E56" s="9" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="F56" s="9" t="s">
-        <v>541</v>
+        <v>168</v>
       </c>
       <c r="G56" s="9" t="s">
-        <v>542</v>
+        <v>529</v>
       </c>
       <c r="H56" s="9"/>
       <c r="I56" s="10" t="s">
-        <v>543</v>
+        <v>169</v>
       </c>
       <c r="J56" s="24" t="s">
-        <v>544</v>
+        <v>530</v>
       </c>
       <c r="K56" s="9"/>
     </row>
@@ -12192,29 +12191,29 @@
         <v>132</v>
       </c>
       <c r="B57" s="9" t="s">
-        <v>176</v>
+        <v>163</v>
       </c>
       <c r="C57" s="9" t="s">
-        <v>545</v>
+        <v>170</v>
       </c>
       <c r="D57" s="9" t="s">
-        <v>411</v>
+        <v>117</v>
       </c>
       <c r="E57" s="9" t="s">
         <v>25</v>
       </c>
       <c r="F57" s="9" t="s">
-        <v>546</v>
+        <v>171</v>
       </c>
       <c r="G57" s="9" t="s">
-        <v>547</v>
+        <v>531</v>
       </c>
       <c r="H57" s="9"/>
       <c r="I57" s="10" t="s">
-        <v>548</v>
+        <v>172</v>
       </c>
       <c r="J57" s="24" t="s">
-        <v>549</v>
+        <v>532</v>
       </c>
       <c r="K57" s="9"/>
     </row>
@@ -12223,29 +12222,29 @@
         <v>132</v>
       </c>
       <c r="B58" s="9" t="s">
-        <v>176</v>
+        <v>163</v>
       </c>
       <c r="C58" s="9" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="D58" s="9" t="s">
-        <v>411</v>
+        <v>117</v>
       </c>
       <c r="E58" s="9" t="s">
         <v>25</v>
       </c>
       <c r="F58" s="9" t="s">
-        <v>550</v>
+        <v>174</v>
       </c>
       <c r="G58" s="9" t="s">
-        <v>551</v>
+        <v>533</v>
       </c>
       <c r="H58" s="9"/>
       <c r="I58" s="10" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="J58" s="24" t="s">
-        <v>552</v>
+        <v>534</v>
       </c>
       <c r="K58" s="9"/>
     </row>
@@ -12254,30 +12253,18 @@
         <v>132</v>
       </c>
       <c r="B59" s="9" t="s">
-        <v>176</v>
+        <v>730</v>
       </c>
       <c r="C59" s="9" t="s">
-        <v>180</v>
-      </c>
-      <c r="D59" s="9" t="s">
-        <v>181</v>
-      </c>
-      <c r="E59" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="F59" s="9" t="s">
-        <v>182</v>
-      </c>
-      <c r="G59" s="9" t="s">
-        <v>553</v>
-      </c>
+        <v>729</v>
+      </c>
+      <c r="D59" s="9"/>
+      <c r="E59" s="9"/>
+      <c r="F59" s="9"/>
+      <c r="G59" s="9"/>
       <c r="H59" s="9"/>
-      <c r="I59" s="10" t="s">
-        <v>183</v>
-      </c>
-      <c r="J59" s="24" t="s">
-        <v>554</v>
-      </c>
+      <c r="I59" s="10"/>
+      <c r="J59" s="24"/>
       <c r="K59" s="9"/>
     </row>
     <row r="60" spans="1:11" ht="13">
@@ -12285,29 +12272,29 @@
         <v>132</v>
       </c>
       <c r="B60" s="9" t="s">
-        <v>184</v>
+        <v>535</v>
       </c>
       <c r="C60" s="9" t="s">
-        <v>185</v>
+        <v>536</v>
       </c>
       <c r="D60" s="9" t="s">
-        <v>411</v>
+        <v>157</v>
       </c>
       <c r="E60" s="9" t="s">
         <v>25</v>
       </c>
       <c r="F60" s="9" t="s">
-        <v>186</v>
+        <v>537</v>
       </c>
       <c r="G60" s="9" t="s">
-        <v>555</v>
+        <v>538</v>
       </c>
       <c r="H60" s="9"/>
-      <c r="I60" s="10" t="s">
-        <v>187</v>
+      <c r="I60" s="11" t="s">
+        <v>539</v>
       </c>
       <c r="J60" s="24" t="s">
-        <v>556</v>
+        <v>540</v>
       </c>
       <c r="K60" s="9"/>
     </row>
@@ -12316,29 +12303,29 @@
         <v>132</v>
       </c>
       <c r="B61" s="9" t="s">
-        <v>184</v>
+        <v>535</v>
       </c>
       <c r="C61" s="9" t="s">
-        <v>188</v>
+        <v>381</v>
       </c>
       <c r="D61" s="9" t="s">
-        <v>117</v>
+        <v>382</v>
       </c>
       <c r="E61" s="9" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="F61" s="9" t="s">
-        <v>189</v>
+        <v>541</v>
       </c>
       <c r="G61" s="9" t="s">
-        <v>557</v>
+        <v>542</v>
       </c>
       <c r="H61" s="9"/>
       <c r="I61" s="10" t="s">
-        <v>190</v>
+        <v>543</v>
       </c>
       <c r="J61" s="24" t="s">
-        <v>558</v>
+        <v>544</v>
       </c>
       <c r="K61" s="9"/>
     </row>
@@ -12347,29 +12334,29 @@
         <v>132</v>
       </c>
       <c r="B62" s="9" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="C62" s="9" t="s">
-        <v>191</v>
+        <v>545</v>
       </c>
       <c r="D62" s="9" t="s">
-        <v>192</v>
+        <v>411</v>
       </c>
       <c r="E62" s="9" t="s">
         <v>25</v>
       </c>
       <c r="F62" s="9" t="s">
-        <v>193</v>
+        <v>546</v>
       </c>
       <c r="G62" s="9" t="s">
-        <v>559</v>
+        <v>547</v>
       </c>
       <c r="H62" s="9"/>
       <c r="I62" s="10" t="s">
-        <v>194</v>
+        <v>548</v>
       </c>
       <c r="J62" s="24" t="s">
-        <v>560</v>
+        <v>549</v>
       </c>
       <c r="K62" s="9"/>
     </row>
@@ -12378,29 +12365,29 @@
         <v>132</v>
       </c>
       <c r="B63" s="9" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="C63" s="9" t="s">
-        <v>195</v>
+        <v>177</v>
       </c>
       <c r="D63" s="9" t="s">
-        <v>51</v>
+        <v>411</v>
       </c>
       <c r="E63" s="9" t="s">
         <v>25</v>
       </c>
       <c r="F63" s="9" t="s">
-        <v>196</v>
+        <v>550</v>
       </c>
       <c r="G63" s="9" t="s">
-        <v>561</v>
+        <v>551</v>
       </c>
       <c r="H63" s="9"/>
       <c r="I63" s="10" t="s">
-        <v>197</v>
+        <v>179</v>
       </c>
       <c r="J63" s="24" t="s">
-        <v>562</v>
+        <v>552</v>
       </c>
       <c r="K63" s="9"/>
     </row>
@@ -12409,29 +12396,29 @@
         <v>132</v>
       </c>
       <c r="B64" s="9" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="C64" s="9" t="s">
-        <v>198</v>
+        <v>180</v>
       </c>
       <c r="D64" s="9" t="s">
-        <v>419</v>
+        <v>181</v>
       </c>
       <c r="E64" s="9" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="F64" s="9" t="s">
-        <v>199</v>
+        <v>182</v>
       </c>
       <c r="G64" s="9" t="s">
-        <v>563</v>
+        <v>553</v>
       </c>
       <c r="H64" s="9"/>
       <c r="I64" s="10" t="s">
-        <v>200</v>
+        <v>183</v>
       </c>
       <c r="J64" s="24" t="s">
-        <v>564</v>
+        <v>554</v>
       </c>
       <c r="K64" s="9"/>
     </row>
@@ -12443,26 +12430,26 @@
         <v>184</v>
       </c>
       <c r="C65" s="9" t="s">
-        <v>201</v>
+        <v>185</v>
       </c>
       <c r="D65" s="9" t="s">
-        <v>419</v>
+        <v>411</v>
       </c>
       <c r="E65" s="9" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="F65" s="9" t="s">
-        <v>202</v>
+        <v>186</v>
       </c>
       <c r="G65" s="9" t="s">
-        <v>565</v>
+        <v>555</v>
       </c>
       <c r="H65" s="9"/>
       <c r="I65" s="10" t="s">
-        <v>203</v>
+        <v>187</v>
       </c>
       <c r="J65" s="24" t="s">
-        <v>566</v>
+        <v>556</v>
       </c>
       <c r="K65" s="9"/>
     </row>
@@ -12473,27 +12460,27 @@
       <c r="B66" s="9" t="s">
         <v>184</v>
       </c>
-      <c r="C66" s="12" t="s">
-        <v>204</v>
+      <c r="C66" s="9" t="s">
+        <v>188</v>
       </c>
       <c r="D66" s="9" t="s">
-        <v>419</v>
+        <v>117</v>
       </c>
       <c r="E66" s="9" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="F66" s="9" t="s">
-        <v>205</v>
+        <v>189</v>
       </c>
       <c r="G66" s="9" t="s">
-        <v>567</v>
+        <v>557</v>
       </c>
       <c r="H66" s="9"/>
-      <c r="I66" s="11" t="s">
-        <v>206</v>
+      <c r="I66" s="10" t="s">
+        <v>190</v>
       </c>
       <c r="J66" s="24" t="s">
-        <v>568</v>
+        <v>558</v>
       </c>
       <c r="K66" s="9"/>
     </row>
@@ -12504,27 +12491,27 @@
       <c r="B67" s="9" t="s">
         <v>184</v>
       </c>
-      <c r="C67" s="12" t="s">
-        <v>207</v>
+      <c r="C67" s="9" t="s">
+        <v>191</v>
       </c>
       <c r="D67" s="9" t="s">
-        <v>419</v>
+        <v>192</v>
       </c>
       <c r="E67" s="9" t="s">
         <v>25</v>
       </c>
       <c r="F67" s="9" t="s">
-        <v>208</v>
+        <v>193</v>
       </c>
       <c r="G67" s="9" t="s">
-        <v>569</v>
+        <v>559</v>
       </c>
       <c r="H67" s="9"/>
-      <c r="I67" s="11" t="s">
-        <v>209</v>
+      <c r="I67" s="10" t="s">
+        <v>194</v>
       </c>
       <c r="J67" s="24" t="s">
-        <v>570</v>
+        <v>560</v>
       </c>
       <c r="K67" s="9"/>
     </row>
@@ -12533,29 +12520,29 @@
         <v>132</v>
       </c>
       <c r="B68" s="9" t="s">
-        <v>210</v>
-      </c>
-      <c r="C68" s="12" t="s">
-        <v>211</v>
+        <v>184</v>
+      </c>
+      <c r="C68" s="9" t="s">
+        <v>195</v>
       </c>
       <c r="D68" s="9" t="s">
-        <v>419</v>
+        <v>51</v>
       </c>
       <c r="E68" s="9" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="F68" s="9" t="s">
-        <v>212</v>
+        <v>196</v>
       </c>
       <c r="G68" s="9" t="s">
-        <v>571</v>
+        <v>561</v>
       </c>
       <c r="H68" s="9"/>
       <c r="I68" s="10" t="s">
-        <v>213</v>
+        <v>197</v>
       </c>
       <c r="J68" s="24" t="s">
-        <v>572</v>
+        <v>562</v>
       </c>
       <c r="K68" s="9"/>
     </row>
@@ -12564,29 +12551,29 @@
         <v>132</v>
       </c>
       <c r="B69" s="9" t="s">
-        <v>214</v>
-      </c>
-      <c r="C69" s="12" t="s">
-        <v>215</v>
+        <v>184</v>
+      </c>
+      <c r="C69" s="9" t="s">
+        <v>198</v>
       </c>
       <c r="D69" s="9" t="s">
-        <v>47</v>
+        <v>419</v>
       </c>
       <c r="E69" s="9" t="s">
         <v>14</v>
       </c>
       <c r="F69" s="9" t="s">
-        <v>216</v>
+        <v>199</v>
       </c>
       <c r="G69" s="9" t="s">
-        <v>573</v>
+        <v>563</v>
       </c>
       <c r="H69" s="9"/>
       <c r="I69" s="10" t="s">
-        <v>217</v>
+        <v>200</v>
       </c>
       <c r="J69" s="24" t="s">
-        <v>574</v>
+        <v>564</v>
       </c>
       <c r="K69" s="9"/>
     </row>
@@ -12595,29 +12582,29 @@
         <v>132</v>
       </c>
       <c r="B70" s="9" t="s">
-        <v>214</v>
-      </c>
-      <c r="C70" s="12" t="s">
-        <v>218</v>
+        <v>184</v>
+      </c>
+      <c r="C70" s="9" t="s">
+        <v>201</v>
       </c>
       <c r="D70" s="9" t="s">
-        <v>157</v>
+        <v>419</v>
       </c>
       <c r="E70" s="9" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="F70" s="9" t="s">
-        <v>219</v>
+        <v>202</v>
       </c>
       <c r="G70" s="9" t="s">
-        <v>575</v>
+        <v>565</v>
       </c>
       <c r="H70" s="9"/>
       <c r="I70" s="10" t="s">
-        <v>220</v>
+        <v>203</v>
       </c>
       <c r="J70" s="24" t="s">
-        <v>576</v>
+        <v>566</v>
       </c>
       <c r="K70" s="9"/>
     </row>
@@ -12626,29 +12613,29 @@
         <v>132</v>
       </c>
       <c r="B71" s="9" t="s">
-        <v>221</v>
+        <v>184</v>
       </c>
       <c r="C71" s="12" t="s">
-        <v>577</v>
+        <v>204</v>
       </c>
       <c r="D71" s="9" t="s">
-        <v>411</v>
+        <v>419</v>
       </c>
       <c r="E71" s="9" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="F71" s="9" t="s">
-        <v>223</v>
+        <v>205</v>
       </c>
       <c r="G71" s="9" t="s">
-        <v>578</v>
+        <v>567</v>
       </c>
       <c r="H71" s="9"/>
-      <c r="I71" s="10" t="s">
-        <v>579</v>
+      <c r="I71" s="11" t="s">
+        <v>206</v>
       </c>
       <c r="J71" s="24" t="s">
-        <v>580</v>
+        <v>568</v>
       </c>
       <c r="K71" s="9"/>
     </row>
@@ -12657,29 +12644,29 @@
         <v>132</v>
       </c>
       <c r="B72" s="9" t="s">
-        <v>225</v>
+        <v>184</v>
       </c>
       <c r="C72" s="12" t="s">
-        <v>226</v>
+        <v>207</v>
       </c>
       <c r="D72" s="9" t="s">
         <v>419</v>
       </c>
       <c r="E72" s="9" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="F72" s="9" t="s">
-        <v>227</v>
+        <v>208</v>
       </c>
       <c r="G72" s="9" t="s">
-        <v>581</v>
+        <v>569</v>
       </c>
       <c r="H72" s="9"/>
-      <c r="I72" s="10" t="s">
-        <v>228</v>
+      <c r="I72" s="11" t="s">
+        <v>209</v>
       </c>
       <c r="J72" s="24" t="s">
-        <v>582</v>
+        <v>570</v>
       </c>
       <c r="K72" s="9"/>
     </row>
@@ -12688,29 +12675,29 @@
         <v>132</v>
       </c>
       <c r="B73" s="9" t="s">
-        <v>225</v>
+        <v>210</v>
       </c>
       <c r="C73" s="12" t="s">
-        <v>229</v>
+        <v>211</v>
       </c>
       <c r="D73" s="9" t="s">
-        <v>411</v>
+        <v>419</v>
       </c>
       <c r="E73" s="9" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="F73" s="9" t="s">
-        <v>230</v>
+        <v>212</v>
       </c>
       <c r="G73" s="9" t="s">
-        <v>583</v>
+        <v>571</v>
       </c>
       <c r="H73" s="9"/>
       <c r="I73" s="10" t="s">
-        <v>231</v>
+        <v>213</v>
       </c>
       <c r="J73" s="24" t="s">
-        <v>584</v>
+        <v>572</v>
       </c>
       <c r="K73" s="9"/>
     </row>
@@ -12719,30 +12706,18 @@
         <v>132</v>
       </c>
       <c r="B74" s="9" t="s">
-        <v>585</v>
-      </c>
-      <c r="C74" s="9" t="s">
-        <v>586</v>
-      </c>
-      <c r="D74" s="9" t="s">
-        <v>411</v>
-      </c>
-      <c r="E74" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="F74" s="9" t="s">
-        <v>587</v>
-      </c>
-      <c r="G74" s="9" t="s">
-        <v>588</v>
-      </c>
+        <v>724</v>
+      </c>
+      <c r="C74" s="12" t="s">
+        <v>723</v>
+      </c>
+      <c r="D74" s="9"/>
+      <c r="E74" s="9"/>
+      <c r="F74" s="9"/>
+      <c r="G74" s="9"/>
       <c r="H74" s="9"/>
-      <c r="I74" s="11" t="s">
-        <v>589</v>
-      </c>
-      <c r="J74" s="24" t="s">
-        <v>590</v>
-      </c>
+      <c r="I74" s="10"/>
+      <c r="J74" s="24"/>
       <c r="K74" s="9"/>
     </row>
     <row r="75" spans="1:11" ht="13">
@@ -12750,29 +12725,29 @@
         <v>132</v>
       </c>
       <c r="B75" s="9" t="s">
-        <v>232</v>
-      </c>
-      <c r="C75" s="9" t="s">
-        <v>233</v>
+        <v>214</v>
+      </c>
+      <c r="C75" s="12" t="s">
+        <v>215</v>
       </c>
       <c r="D75" s="9" t="s">
-        <v>411</v>
+        <v>47</v>
       </c>
       <c r="E75" s="9" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="F75" s="9" t="s">
-        <v>234</v>
+        <v>216</v>
       </c>
       <c r="G75" s="9" t="s">
-        <v>591</v>
+        <v>573</v>
       </c>
       <c r="H75" s="9"/>
       <c r="I75" s="10" t="s">
-        <v>235</v>
+        <v>217</v>
       </c>
       <c r="J75" s="24" t="s">
-        <v>592</v>
+        <v>574</v>
       </c>
       <c r="K75" s="9"/>
     </row>
@@ -12781,29 +12756,29 @@
         <v>132</v>
       </c>
       <c r="B76" s="9" t="s">
-        <v>236</v>
-      </c>
-      <c r="C76" s="9" t="s">
-        <v>381</v>
+        <v>214</v>
+      </c>
+      <c r="C76" s="12" t="s">
+        <v>218</v>
       </c>
       <c r="D76" s="9" t="s">
-        <v>382</v>
+        <v>157</v>
       </c>
       <c r="E76" s="9" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="F76" s="9" t="s">
-        <v>593</v>
+        <v>219</v>
       </c>
       <c r="G76" s="9" t="s">
-        <v>594</v>
+        <v>575</v>
       </c>
       <c r="H76" s="9"/>
-      <c r="I76" s="11" t="s">
-        <v>595</v>
+      <c r="I76" s="10" t="s">
+        <v>220</v>
       </c>
       <c r="J76" s="24" t="s">
-        <v>596</v>
+        <v>576</v>
       </c>
       <c r="K76" s="9"/>
     </row>
@@ -12812,10 +12787,10 @@
         <v>132</v>
       </c>
       <c r="B77" s="9" t="s">
-        <v>236</v>
-      </c>
-      <c r="C77" s="9" t="s">
-        <v>237</v>
+        <v>221</v>
+      </c>
+      <c r="C77" s="12" t="s">
+        <v>577</v>
       </c>
       <c r="D77" s="9" t="s">
         <v>411</v>
@@ -12824,17 +12799,17 @@
         <v>25</v>
       </c>
       <c r="F77" s="9" t="s">
-        <v>238</v>
+        <v>223</v>
       </c>
       <c r="G77" s="9" t="s">
-        <v>597</v>
+        <v>578</v>
       </c>
       <c r="H77" s="9"/>
       <c r="I77" s="10" t="s">
-        <v>239</v>
+        <v>579</v>
       </c>
       <c r="J77" s="24" t="s">
-        <v>598</v>
+        <v>580</v>
       </c>
       <c r="K77" s="9"/>
     </row>
@@ -12843,29 +12818,29 @@
         <v>132</v>
       </c>
       <c r="B78" s="9" t="s">
-        <v>236</v>
-      </c>
-      <c r="C78" s="9" t="s">
-        <v>240</v>
+        <v>225</v>
+      </c>
+      <c r="C78" s="12" t="s">
+        <v>226</v>
       </c>
       <c r="D78" s="9" t="s">
-        <v>241</v>
+        <v>419</v>
       </c>
       <c r="E78" s="9" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="F78" s="9" t="s">
-        <v>242</v>
+        <v>227</v>
       </c>
       <c r="G78" s="9" t="s">
-        <v>599</v>
+        <v>581</v>
       </c>
       <c r="H78" s="9"/>
       <c r="I78" s="10" t="s">
-        <v>243</v>
+        <v>228</v>
       </c>
       <c r="J78" s="24" t="s">
-        <v>600</v>
+        <v>582</v>
       </c>
       <c r="K78" s="9"/>
     </row>
@@ -12874,29 +12849,29 @@
         <v>132</v>
       </c>
       <c r="B79" s="9" t="s">
-        <v>244</v>
-      </c>
-      <c r="C79" s="9" t="s">
-        <v>245</v>
+        <v>225</v>
+      </c>
+      <c r="C79" s="12" t="s">
+        <v>229</v>
       </c>
       <c r="D79" s="9" t="s">
-        <v>241</v>
+        <v>411</v>
       </c>
       <c r="E79" s="9" t="s">
         <v>25</v>
       </c>
       <c r="F79" s="9" t="s">
-        <v>246</v>
+        <v>230</v>
       </c>
       <c r="G79" s="9" t="s">
-        <v>601</v>
+        <v>583</v>
       </c>
       <c r="H79" s="9"/>
       <c r="I79" s="10" t="s">
-        <v>247</v>
+        <v>231</v>
       </c>
       <c r="J79" s="24" t="s">
-        <v>602</v>
+        <v>584</v>
       </c>
       <c r="K79" s="9"/>
     </row>
@@ -12905,29 +12880,29 @@
         <v>132</v>
       </c>
       <c r="B80" s="9" t="s">
-        <v>248</v>
+        <v>585</v>
       </c>
       <c r="C80" s="9" t="s">
-        <v>381</v>
+        <v>586</v>
       </c>
       <c r="D80" s="9" t="s">
-        <v>382</v>
+        <v>411</v>
       </c>
       <c r="E80" s="9" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="F80" s="9" t="s">
-        <v>603</v>
+        <v>587</v>
       </c>
       <c r="G80" s="9" t="s">
-        <v>604</v>
+        <v>588</v>
       </c>
       <c r="H80" s="9"/>
-      <c r="I80" s="10" t="s">
-        <v>605</v>
+      <c r="I80" s="11" t="s">
+        <v>589</v>
       </c>
       <c r="J80" s="24" t="s">
-        <v>606</v>
+        <v>590</v>
       </c>
       <c r="K80" s="9"/>
     </row>
@@ -12936,29 +12911,29 @@
         <v>132</v>
       </c>
       <c r="B81" s="9" t="s">
-        <v>248</v>
+        <v>232</v>
       </c>
       <c r="C81" s="9" t="s">
-        <v>249</v>
+        <v>233</v>
       </c>
       <c r="D81" s="9" t="s">
-        <v>117</v>
+        <v>411</v>
       </c>
       <c r="E81" s="9" t="s">
         <v>25</v>
       </c>
       <c r="F81" s="9" t="s">
-        <v>250</v>
+        <v>234</v>
       </c>
       <c r="G81" s="9" t="s">
-        <v>607</v>
+        <v>591</v>
       </c>
       <c r="H81" s="9"/>
       <c r="I81" s="10" t="s">
-        <v>251</v>
+        <v>235</v>
       </c>
       <c r="J81" s="24" t="s">
-        <v>608</v>
+        <v>592</v>
       </c>
       <c r="K81" s="9"/>
     </row>
@@ -12967,29 +12942,29 @@
         <v>132</v>
       </c>
       <c r="B82" s="9" t="s">
-        <v>248</v>
+        <v>236</v>
       </c>
       <c r="C82" s="9" t="s">
-        <v>252</v>
+        <v>381</v>
       </c>
       <c r="D82" s="9" t="s">
-        <v>411</v>
+        <v>382</v>
       </c>
       <c r="E82" s="9" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="F82" s="9" t="s">
-        <v>253</v>
+        <v>593</v>
       </c>
       <c r="G82" s="9" t="s">
-        <v>609</v>
+        <v>594</v>
       </c>
       <c r="H82" s="9"/>
-      <c r="I82" s="10" t="s">
-        <v>254</v>
+      <c r="I82" s="11" t="s">
+        <v>595</v>
       </c>
       <c r="J82" s="24" t="s">
-        <v>610</v>
+        <v>596</v>
       </c>
       <c r="K82" s="9"/>
     </row>
@@ -12998,29 +12973,29 @@
         <v>132</v>
       </c>
       <c r="B83" s="9" t="s">
-        <v>248</v>
+        <v>236</v>
       </c>
       <c r="C83" s="9" t="s">
-        <v>255</v>
+        <v>237</v>
       </c>
       <c r="D83" s="9" t="s">
-        <v>117</v>
+        <v>411</v>
       </c>
       <c r="E83" s="9" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="F83" s="9" t="s">
-        <v>256</v>
+        <v>238</v>
       </c>
       <c r="G83" s="9" t="s">
-        <v>611</v>
+        <v>597</v>
       </c>
       <c r="H83" s="9"/>
       <c r="I83" s="10" t="s">
-        <v>257</v>
+        <v>239</v>
       </c>
       <c r="J83" s="24" t="s">
-        <v>612</v>
+        <v>598</v>
       </c>
       <c r="K83" s="9"/>
     </row>
@@ -13029,29 +13004,29 @@
         <v>132</v>
       </c>
       <c r="B84" s="9" t="s">
-        <v>258</v>
+        <v>236</v>
       </c>
       <c r="C84" s="9" t="s">
-        <v>259</v>
+        <v>240</v>
       </c>
       <c r="D84" s="9" t="s">
-        <v>117</v>
+        <v>241</v>
       </c>
       <c r="E84" s="9" t="s">
         <v>25</v>
       </c>
       <c r="F84" s="9" t="s">
-        <v>260</v>
+        <v>242</v>
       </c>
       <c r="G84" s="9" t="s">
-        <v>613</v>
+        <v>599</v>
       </c>
       <c r="H84" s="9"/>
       <c r="I84" s="10" t="s">
-        <v>261</v>
+        <v>243</v>
       </c>
       <c r="J84" s="24" t="s">
-        <v>614</v>
+        <v>600</v>
       </c>
       <c r="K84" s="9"/>
     </row>
@@ -13060,29 +13035,29 @@
         <v>132</v>
       </c>
       <c r="B85" s="9" t="s">
-        <v>262</v>
+        <v>244</v>
       </c>
       <c r="C85" s="9" t="s">
-        <v>263</v>
+        <v>245</v>
       </c>
       <c r="D85" s="9" t="s">
-        <v>615</v>
+        <v>241</v>
       </c>
       <c r="E85" s="9" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="F85" s="9" t="s">
-        <v>265</v>
+        <v>246</v>
       </c>
       <c r="G85" s="9" t="s">
-        <v>616</v>
+        <v>601</v>
       </c>
       <c r="H85" s="9"/>
-      <c r="I85" s="11" t="s">
-        <v>266</v>
+      <c r="I85" s="10" t="s">
+        <v>247</v>
       </c>
       <c r="J85" s="24" t="s">
-        <v>617</v>
+        <v>602</v>
       </c>
       <c r="K85" s="9"/>
     </row>
@@ -13091,29 +13066,29 @@
         <v>132</v>
       </c>
       <c r="B86" s="9" t="s">
-        <v>262</v>
+        <v>248</v>
       </c>
       <c r="C86" s="9" t="s">
-        <v>267</v>
+        <v>381</v>
       </c>
       <c r="D86" s="9" t="s">
-        <v>411</v>
+        <v>382</v>
       </c>
       <c r="E86" s="9" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="F86" s="9" t="s">
-        <v>268</v>
+        <v>603</v>
       </c>
       <c r="G86" s="9" t="s">
-        <v>618</v>
+        <v>604</v>
       </c>
       <c r="H86" s="9"/>
-      <c r="I86" s="11" t="s">
-        <v>269</v>
+      <c r="I86" s="10" t="s">
+        <v>605</v>
       </c>
       <c r="J86" s="24" t="s">
-        <v>619</v>
+        <v>606</v>
       </c>
       <c r="K86" s="9"/>
     </row>
@@ -13122,29 +13097,29 @@
         <v>132</v>
       </c>
       <c r="B87" s="9" t="s">
-        <v>262</v>
+        <v>248</v>
       </c>
       <c r="C87" s="9" t="s">
-        <v>270</v>
+        <v>249</v>
       </c>
       <c r="D87" s="9" t="s">
-        <v>419</v>
+        <v>117</v>
       </c>
       <c r="E87" s="9" t="s">
         <v>25</v>
       </c>
       <c r="F87" s="9" t="s">
-        <v>271</v>
+        <v>250</v>
       </c>
       <c r="G87" s="9" t="s">
-        <v>620</v>
+        <v>607</v>
       </c>
       <c r="H87" s="9"/>
-      <c r="I87" s="11" t="s">
-        <v>272</v>
+      <c r="I87" s="10" t="s">
+        <v>251</v>
       </c>
       <c r="J87" s="24" t="s">
-        <v>621</v>
+        <v>608</v>
       </c>
       <c r="K87" s="9"/>
     </row>
@@ -13153,29 +13128,29 @@
         <v>132</v>
       </c>
       <c r="B88" s="9" t="s">
-        <v>262</v>
+        <v>248</v>
       </c>
       <c r="C88" s="9" t="s">
-        <v>273</v>
+        <v>252</v>
       </c>
       <c r="D88" s="9" t="s">
-        <v>615</v>
+        <v>411</v>
       </c>
       <c r="E88" s="9" t="s">
         <v>25</v>
       </c>
       <c r="F88" s="9" t="s">
-        <v>274</v>
+        <v>253</v>
       </c>
       <c r="G88" s="9" t="s">
-        <v>622</v>
+        <v>609</v>
       </c>
       <c r="H88" s="9"/>
-      <c r="I88" s="11" t="s">
-        <v>275</v>
+      <c r="I88" s="10" t="s">
+        <v>254</v>
       </c>
       <c r="J88" s="24" t="s">
-        <v>623</v>
+        <v>610</v>
       </c>
       <c r="K88" s="9"/>
     </row>
@@ -13184,273 +13159,263 @@
         <v>132</v>
       </c>
       <c r="B89" s="9" t="s">
+        <v>248</v>
+      </c>
+      <c r="C89" s="9" t="s">
+        <v>255</v>
+      </c>
+      <c r="D89" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="E89" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="F89" s="9" t="s">
+        <v>256</v>
+      </c>
+      <c r="G89" s="9" t="s">
+        <v>611</v>
+      </c>
+      <c r="H89" s="9"/>
+      <c r="I89" s="10" t="s">
+        <v>257</v>
+      </c>
+      <c r="J89" s="24" t="s">
+        <v>612</v>
+      </c>
+      <c r="K89" s="9"/>
+    </row>
+    <row r="90" spans="1:11" ht="13">
+      <c r="A90" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="B90" s="9" t="s">
+        <v>258</v>
+      </c>
+      <c r="C90" s="9" t="s">
+        <v>259</v>
+      </c>
+      <c r="D90" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="E90" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F90" s="9" t="s">
+        <v>260</v>
+      </c>
+      <c r="G90" s="9" t="s">
+        <v>613</v>
+      </c>
+      <c r="H90" s="9"/>
+      <c r="I90" s="10" t="s">
+        <v>261</v>
+      </c>
+      <c r="J90" s="24" t="s">
+        <v>614</v>
+      </c>
+      <c r="K90" s="9"/>
+    </row>
+    <row r="91" spans="1:11" ht="13">
+      <c r="A91" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="B91" s="9" t="s">
         <v>262</v>
       </c>
-      <c r="C89" s="9" t="s">
+      <c r="C91" s="9" t="s">
+        <v>263</v>
+      </c>
+      <c r="D91" s="9" t="s">
+        <v>615</v>
+      </c>
+      <c r="E91" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F91" s="9" t="s">
+        <v>265</v>
+      </c>
+      <c r="G91" s="9" t="s">
+        <v>616</v>
+      </c>
+      <c r="H91" s="9"/>
+      <c r="I91" s="11" t="s">
+        <v>266</v>
+      </c>
+      <c r="J91" s="24" t="s">
+        <v>617</v>
+      </c>
+      <c r="K91" s="9"/>
+    </row>
+    <row r="92" spans="1:11" ht="13">
+      <c r="A92" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="B92" s="9" t="s">
+        <v>262</v>
+      </c>
+      <c r="C92" s="9" t="s">
+        <v>267</v>
+      </c>
+      <c r="D92" s="9" t="s">
+        <v>411</v>
+      </c>
+      <c r="E92" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F92" s="9" t="s">
+        <v>268</v>
+      </c>
+      <c r="G92" s="9" t="s">
+        <v>618</v>
+      </c>
+      <c r="H92" s="9"/>
+      <c r="I92" s="11" t="s">
+        <v>269</v>
+      </c>
+      <c r="J92" s="24" t="s">
+        <v>619</v>
+      </c>
+      <c r="K92" s="9"/>
+    </row>
+    <row r="93" spans="1:11" ht="13">
+      <c r="A93" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="B93" s="9" t="s">
+        <v>262</v>
+      </c>
+      <c r="C93" s="9" t="s">
+        <v>270</v>
+      </c>
+      <c r="D93" s="9" t="s">
+        <v>419</v>
+      </c>
+      <c r="E93" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F93" s="9" t="s">
+        <v>271</v>
+      </c>
+      <c r="G93" s="9" t="s">
+        <v>620</v>
+      </c>
+      <c r="H93" s="9"/>
+      <c r="I93" s="11" t="s">
+        <v>272</v>
+      </c>
+      <c r="J93" s="24" t="s">
+        <v>621</v>
+      </c>
+      <c r="K93" s="9"/>
+    </row>
+    <row r="94" spans="1:11" ht="13">
+      <c r="A94" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="B94" s="9" t="s">
+        <v>262</v>
+      </c>
+      <c r="C94" s="9" t="s">
+        <v>273</v>
+      </c>
+      <c r="D94" s="9" t="s">
+        <v>615</v>
+      </c>
+      <c r="E94" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F94" s="9" t="s">
+        <v>274</v>
+      </c>
+      <c r="G94" s="9" t="s">
+        <v>622</v>
+      </c>
+      <c r="H94" s="9"/>
+      <c r="I94" s="11" t="s">
+        <v>275</v>
+      </c>
+      <c r="J94" s="24" t="s">
+        <v>623</v>
+      </c>
+      <c r="K94" s="9"/>
+    </row>
+    <row r="95" spans="1:11" ht="13">
+      <c r="A95" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="B95" s="9" t="s">
+        <v>262</v>
+      </c>
+      <c r="C95" s="9" t="s">
+        <v>726</v>
+      </c>
+      <c r="D95" s="9"/>
+      <c r="E95" s="9"/>
+      <c r="F95" s="9"/>
+      <c r="G95" s="9"/>
+      <c r="H95" s="9"/>
+      <c r="I95" s="11"/>
+      <c r="J95" s="24"/>
+      <c r="K95" s="9"/>
+    </row>
+    <row r="96" spans="1:11" ht="13">
+      <c r="A96" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="B96" s="9" t="s">
+        <v>262</v>
+      </c>
+      <c r="C96" s="9" t="s">
         <v>276</v>
       </c>
-      <c r="D89" s="9" t="s">
+      <c r="D96" s="9" t="s">
         <v>398</v>
       </c>
-      <c r="E89" s="9" t="s">
+      <c r="E96" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="F89" s="9" t="s">
+      <c r="F96" s="9" t="s">
         <v>277</v>
       </c>
-      <c r="G89" s="9" t="s">
+      <c r="G96" s="9" t="s">
         <v>624</v>
       </c>
-      <c r="H89" s="9"/>
-      <c r="I89" s="11" t="s">
+      <c r="H96" s="9"/>
+      <c r="I96" s="11" t="s">
         <v>625</v>
       </c>
-      <c r="J89" s="24"/>
-      <c r="K89" s="9"/>
-    </row>
-    <row r="90" spans="1:11" ht="13">
-      <c r="A90" s="14" t="s">
-        <v>278</v>
-      </c>
-      <c r="B90" s="14" t="s">
-        <v>626</v>
-      </c>
-      <c r="C90" s="14" t="s">
-        <v>627</v>
-      </c>
-      <c r="D90" s="14" t="s">
-        <v>157</v>
-      </c>
-      <c r="E90" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="F90" s="14" t="s">
-        <v>628</v>
-      </c>
-      <c r="G90" s="14" t="s">
-        <v>629</v>
-      </c>
-      <c r="H90" s="14"/>
-      <c r="I90" s="16" t="s">
-        <v>630</v>
-      </c>
-      <c r="J90" s="25" t="s">
-        <v>631</v>
-      </c>
-      <c r="K90" s="14"/>
-    </row>
-    <row r="91" spans="1:11" ht="13">
-      <c r="A91" s="14" t="s">
-        <v>278</v>
-      </c>
-      <c r="B91" s="14" t="s">
-        <v>626</v>
-      </c>
-      <c r="C91" s="14" t="s">
-        <v>632</v>
-      </c>
-      <c r="D91" s="14" t="s">
-        <v>411</v>
-      </c>
-      <c r="E91" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="F91" s="14" t="s">
-        <v>633</v>
-      </c>
-      <c r="G91" s="14" t="s">
-        <v>634</v>
-      </c>
-      <c r="H91" s="14"/>
-      <c r="I91" s="16" t="s">
-        <v>635</v>
-      </c>
-      <c r="J91" s="25" t="s">
-        <v>636</v>
-      </c>
-      <c r="K91" s="14"/>
-    </row>
-    <row r="92" spans="1:11" ht="13">
-      <c r="A92" s="14" t="s">
-        <v>278</v>
-      </c>
-      <c r="B92" s="14" t="s">
-        <v>279</v>
-      </c>
-      <c r="C92" s="14" t="s">
-        <v>637</v>
-      </c>
-      <c r="D92" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="E92" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="F92" s="14" t="s">
-        <v>638</v>
-      </c>
-      <c r="G92" s="14" t="s">
-        <v>639</v>
-      </c>
-      <c r="H92" s="14"/>
-      <c r="I92" s="15" t="s">
-        <v>640</v>
-      </c>
-      <c r="J92" s="25" t="s">
-        <v>641</v>
-      </c>
-      <c r="K92" s="14"/>
-    </row>
-    <row r="93" spans="1:11" ht="13">
-      <c r="A93" s="14" t="s">
-        <v>278</v>
-      </c>
-      <c r="B93" s="14" t="s">
-        <v>279</v>
-      </c>
-      <c r="C93" s="14" t="s">
-        <v>642</v>
-      </c>
-      <c r="D93" s="14" t="s">
-        <v>157</v>
-      </c>
-      <c r="E93" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="F93" s="14" t="s">
-        <v>643</v>
-      </c>
-      <c r="G93" s="14" t="s">
-        <v>644</v>
-      </c>
-      <c r="H93" s="14"/>
-      <c r="I93" s="15" t="s">
-        <v>645</v>
-      </c>
-      <c r="J93" s="25" t="s">
-        <v>646</v>
-      </c>
-      <c r="K93" s="14"/>
-    </row>
-    <row r="94" spans="1:11" ht="13">
-      <c r="A94" s="14" t="s">
-        <v>278</v>
-      </c>
-      <c r="B94" s="14" t="s">
-        <v>279</v>
-      </c>
-      <c r="C94" s="14" t="s">
-        <v>647</v>
-      </c>
-      <c r="D94" s="14" t="s">
-        <v>411</v>
-      </c>
-      <c r="E94" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="F94" s="14" t="s">
-        <v>648</v>
-      </c>
-      <c r="G94" s="14" t="s">
-        <v>649</v>
-      </c>
-      <c r="H94" s="14"/>
-      <c r="I94" s="15" t="s">
-        <v>650</v>
-      </c>
-      <c r="J94" s="25" t="s">
-        <v>651</v>
-      </c>
-      <c r="K94" s="14"/>
-    </row>
-    <row r="95" spans="1:11" ht="13">
-      <c r="A95" s="14" t="s">
-        <v>278</v>
-      </c>
-      <c r="B95" s="14" t="s">
-        <v>279</v>
-      </c>
-      <c r="C95" s="14" t="s">
-        <v>381</v>
-      </c>
-      <c r="D95" s="14" t="s">
-        <v>382</v>
-      </c>
-      <c r="E95" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="F95" s="14" t="s">
-        <v>652</v>
-      </c>
-      <c r="G95" s="14" t="s">
-        <v>653</v>
-      </c>
-      <c r="H95" s="14"/>
-      <c r="I95" s="15" t="s">
-        <v>654</v>
-      </c>
-      <c r="J95" s="25"/>
-      <c r="K95" s="14"/>
-    </row>
-    <row r="96" spans="1:11" ht="13">
-      <c r="A96" s="14" t="s">
-        <v>278</v>
-      </c>
-      <c r="B96" s="14" t="s">
-        <v>279</v>
-      </c>
-      <c r="C96" s="14" t="s">
-        <v>280</v>
-      </c>
-      <c r="D96" s="14" t="s">
-        <v>157</v>
-      </c>
-      <c r="E96" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="F96" s="14" t="s">
-        <v>281</v>
-      </c>
-      <c r="G96" s="14" t="s">
-        <v>655</v>
-      </c>
-      <c r="H96" s="14"/>
-      <c r="I96" s="15" t="s">
-        <v>282</v>
-      </c>
-      <c r="J96" s="25" t="s">
-        <v>656</v>
-      </c>
-      <c r="K96" s="14"/>
+      <c r="J96" s="24"/>
+      <c r="K96" s="9"/>
     </row>
     <row r="97" spans="1:11" ht="13">
       <c r="A97" s="14" t="s">
         <v>278</v>
       </c>
       <c r="B97" s="14" t="s">
-        <v>279</v>
+        <v>626</v>
       </c>
       <c r="C97" s="14" t="s">
-        <v>283</v>
+        <v>627</v>
       </c>
       <c r="D97" s="14" t="s">
-        <v>411</v>
+        <v>157</v>
       </c>
       <c r="E97" s="14" t="s">
         <v>25</v>
       </c>
       <c r="F97" s="14" t="s">
-        <v>284</v>
+        <v>628</v>
       </c>
       <c r="G97" s="14" t="s">
-        <v>657</v>
+        <v>629</v>
       </c>
       <c r="H97" s="14"/>
-      <c r="I97" s="15" t="s">
-        <v>285</v>
+      <c r="I97" s="16" t="s">
+        <v>630</v>
       </c>
       <c r="J97" s="25" t="s">
-        <v>658</v>
+        <v>631</v>
       </c>
       <c r="K97" s="14"/>
     </row>
@@ -13459,29 +13424,29 @@
         <v>278</v>
       </c>
       <c r="B98" s="14" t="s">
-        <v>279</v>
+        <v>626</v>
       </c>
       <c r="C98" s="14" t="s">
-        <v>286</v>
+        <v>632</v>
       </c>
       <c r="D98" s="14" t="s">
-        <v>419</v>
+        <v>411</v>
       </c>
       <c r="E98" s="14" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="F98" s="14" t="s">
-        <v>287</v>
+        <v>633</v>
       </c>
       <c r="G98" s="14" t="s">
-        <v>659</v>
+        <v>634</v>
       </c>
       <c r="H98" s="14"/>
       <c r="I98" s="16" t="s">
-        <v>288</v>
+        <v>635</v>
       </c>
       <c r="J98" s="25" t="s">
-        <v>660</v>
+        <v>636</v>
       </c>
       <c r="K98" s="14"/>
     </row>
@@ -13493,26 +13458,26 @@
         <v>279</v>
       </c>
       <c r="C99" s="14" t="s">
-        <v>289</v>
+        <v>637</v>
       </c>
       <c r="D99" s="14" t="s">
-        <v>117</v>
+        <v>47</v>
       </c>
       <c r="E99" s="14" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="F99" s="14" t="s">
-        <v>290</v>
+        <v>638</v>
       </c>
       <c r="G99" s="14" t="s">
-        <v>661</v>
+        <v>639</v>
       </c>
       <c r="H99" s="14"/>
-      <c r="I99" s="16" t="s">
-        <v>291</v>
+      <c r="I99" s="15" t="s">
+        <v>640</v>
       </c>
       <c r="J99" s="25" t="s">
-        <v>662</v>
+        <v>641</v>
       </c>
       <c r="K99" s="14"/>
     </row>
@@ -13524,26 +13489,26 @@
         <v>279</v>
       </c>
       <c r="C100" s="14" t="s">
-        <v>292</v>
+        <v>642</v>
       </c>
       <c r="D100" s="14" t="s">
-        <v>47</v>
+        <v>157</v>
       </c>
       <c r="E100" s="14" t="s">
         <v>25</v>
       </c>
       <c r="F100" s="14" t="s">
-        <v>293</v>
+        <v>643</v>
       </c>
       <c r="G100" s="14" t="s">
-        <v>663</v>
+        <v>644</v>
       </c>
       <c r="H100" s="14"/>
-      <c r="I100" s="16" t="s">
-        <v>294</v>
+      <c r="I100" s="15" t="s">
+        <v>645</v>
       </c>
       <c r="J100" s="25" t="s">
-        <v>664</v>
+        <v>646</v>
       </c>
       <c r="K100" s="14"/>
     </row>
@@ -13555,7 +13520,7 @@
         <v>279</v>
       </c>
       <c r="C101" s="14" t="s">
-        <v>295</v>
+        <v>647</v>
       </c>
       <c r="D101" s="14" t="s">
         <v>411</v>
@@ -13564,17 +13529,17 @@
         <v>25</v>
       </c>
       <c r="F101" s="14" t="s">
-        <v>296</v>
+        <v>648</v>
       </c>
       <c r="G101" s="14" t="s">
-        <v>665</v>
+        <v>649</v>
       </c>
       <c r="H101" s="14"/>
-      <c r="I101" s="16" t="s">
-        <v>297</v>
+      <c r="I101" s="15" t="s">
+        <v>650</v>
       </c>
       <c r="J101" s="25" t="s">
-        <v>666</v>
+        <v>651</v>
       </c>
       <c r="K101" s="14"/>
     </row>
@@ -13586,27 +13551,25 @@
         <v>279</v>
       </c>
       <c r="C102" s="14" t="s">
-        <v>298</v>
+        <v>381</v>
       </c>
       <c r="D102" s="14" t="s">
-        <v>411</v>
+        <v>382</v>
       </c>
       <c r="E102" s="14" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="F102" s="14" t="s">
-        <v>299</v>
+        <v>652</v>
       </c>
       <c r="G102" s="14" t="s">
-        <v>667</v>
+        <v>653</v>
       </c>
       <c r="H102" s="14"/>
-      <c r="I102" s="16" t="s">
-        <v>300</v>
-      </c>
-      <c r="J102" s="25" t="s">
-        <v>668</v>
-      </c>
+      <c r="I102" s="15" t="s">
+        <v>654</v>
+      </c>
+      <c r="J102" s="25"/>
       <c r="K102" s="14"/>
     </row>
     <row r="103" spans="1:11" ht="13">
@@ -13614,29 +13577,29 @@
         <v>278</v>
       </c>
       <c r="B103" s="14" t="s">
-        <v>301</v>
+        <v>279</v>
       </c>
       <c r="C103" s="14" t="s">
-        <v>302</v>
+        <v>280</v>
       </c>
       <c r="D103" s="14" t="s">
-        <v>117</v>
+        <v>157</v>
       </c>
       <c r="E103" s="14" t="s">
         <v>25</v>
       </c>
       <c r="F103" s="14" t="s">
-        <v>303</v>
+        <v>281</v>
       </c>
       <c r="G103" s="14" t="s">
-        <v>669</v>
+        <v>655</v>
       </c>
       <c r="H103" s="14"/>
       <c r="I103" s="15" t="s">
-        <v>304</v>
+        <v>282</v>
       </c>
       <c r="J103" s="25" t="s">
-        <v>670</v>
+        <v>656</v>
       </c>
       <c r="K103" s="14"/>
     </row>
@@ -13645,29 +13608,29 @@
         <v>278</v>
       </c>
       <c r="B104" s="14" t="s">
-        <v>301</v>
+        <v>279</v>
       </c>
       <c r="C104" s="14" t="s">
-        <v>381</v>
+        <v>283</v>
       </c>
       <c r="D104" s="14" t="s">
-        <v>382</v>
+        <v>411</v>
       </c>
       <c r="E104" s="14" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="F104" s="14" t="s">
-        <v>671</v>
+        <v>284</v>
       </c>
       <c r="G104" s="14" t="s">
-        <v>672</v>
+        <v>657</v>
       </c>
       <c r="H104" s="14"/>
       <c r="I104" s="15" t="s">
-        <v>673</v>
+        <v>285</v>
       </c>
       <c r="J104" s="25" t="s">
-        <v>674</v>
+        <v>658</v>
       </c>
       <c r="K104" s="14"/>
     </row>
@@ -13676,29 +13639,29 @@
         <v>278</v>
       </c>
       <c r="B105" s="14" t="s">
-        <v>305</v>
+        <v>279</v>
       </c>
       <c r="C105" s="14" t="s">
-        <v>306</v>
+        <v>286</v>
       </c>
       <c r="D105" s="14" t="s">
-        <v>411</v>
+        <v>419</v>
       </c>
       <c r="E105" s="14" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="F105" s="14" t="s">
-        <v>307</v>
+        <v>287</v>
       </c>
       <c r="G105" s="14" t="s">
-        <v>675</v>
+        <v>659</v>
       </c>
       <c r="H105" s="14"/>
-      <c r="I105" s="15" t="s">
-        <v>308</v>
+      <c r="I105" s="16" t="s">
+        <v>288</v>
       </c>
       <c r="J105" s="25" t="s">
-        <v>676</v>
+        <v>660</v>
       </c>
       <c r="K105" s="14"/>
     </row>
@@ -13707,29 +13670,29 @@
         <v>278</v>
       </c>
       <c r="B106" s="14" t="s">
-        <v>305</v>
+        <v>279</v>
       </c>
       <c r="C106" s="14" t="s">
-        <v>298</v>
+        <v>289</v>
       </c>
       <c r="D106" s="14" t="s">
-        <v>411</v>
+        <v>117</v>
       </c>
       <c r="E106" s="14" t="s">
         <v>25</v>
       </c>
       <c r="F106" s="14" t="s">
-        <v>309</v>
+        <v>290</v>
       </c>
       <c r="G106" s="14" t="s">
-        <v>677</v>
+        <v>661</v>
       </c>
       <c r="H106" s="14"/>
-      <c r="I106" s="15" t="s">
-        <v>310</v>
+      <c r="I106" s="16" t="s">
+        <v>291</v>
       </c>
       <c r="J106" s="25" t="s">
-        <v>678</v>
+        <v>662</v>
       </c>
       <c r="K106" s="14"/>
     </row>
@@ -13738,29 +13701,29 @@
         <v>278</v>
       </c>
       <c r="B107" s="14" t="s">
-        <v>305</v>
+        <v>279</v>
       </c>
       <c r="C107" s="14" t="s">
-        <v>311</v>
+        <v>292</v>
       </c>
       <c r="D107" s="14" t="s">
-        <v>312</v>
+        <v>47</v>
       </c>
       <c r="E107" s="14" t="s">
         <v>25</v>
       </c>
       <c r="F107" s="14" t="s">
-        <v>313</v>
+        <v>293</v>
       </c>
       <c r="G107" s="14" t="s">
-        <v>679</v>
+        <v>663</v>
       </c>
       <c r="H107" s="14"/>
-      <c r="I107" s="15" t="s">
-        <v>314</v>
+      <c r="I107" s="16" t="s">
+        <v>294</v>
       </c>
       <c r="J107" s="25" t="s">
-        <v>680</v>
+        <v>664</v>
       </c>
       <c r="K107" s="14"/>
     </row>
@@ -13769,10 +13732,10 @@
         <v>278</v>
       </c>
       <c r="B108" s="14" t="s">
-        <v>315</v>
+        <v>279</v>
       </c>
       <c r="C108" s="14" t="s">
-        <v>316</v>
+        <v>295</v>
       </c>
       <c r="D108" s="14" t="s">
         <v>411</v>
@@ -13781,17 +13744,17 @@
         <v>25</v>
       </c>
       <c r="F108" s="14" t="s">
-        <v>317</v>
+        <v>296</v>
       </c>
       <c r="G108" s="14" t="s">
-        <v>681</v>
+        <v>665</v>
       </c>
       <c r="H108" s="14"/>
-      <c r="I108" s="15" t="s">
-        <v>318</v>
+      <c r="I108" s="16" t="s">
+        <v>297</v>
       </c>
       <c r="J108" s="25" t="s">
-        <v>682</v>
+        <v>666</v>
       </c>
       <c r="K108" s="14"/>
     </row>
@@ -13800,29 +13763,29 @@
         <v>278</v>
       </c>
       <c r="B109" s="14" t="s">
-        <v>319</v>
+        <v>279</v>
       </c>
       <c r="C109" s="14" t="s">
-        <v>320</v>
+        <v>298</v>
       </c>
       <c r="D109" s="14" t="s">
         <v>411</v>
       </c>
       <c r="E109" s="14" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="F109" s="14" t="s">
-        <v>683</v>
+        <v>299</v>
       </c>
       <c r="G109" s="14" t="s">
-        <v>684</v>
+        <v>667</v>
       </c>
       <c r="H109" s="14"/>
       <c r="I109" s="16" t="s">
-        <v>685</v>
+        <v>300</v>
       </c>
       <c r="J109" s="25" t="s">
-        <v>686</v>
+        <v>668</v>
       </c>
       <c r="K109" s="14"/>
     </row>
@@ -13831,30 +13794,18 @@
         <v>278</v>
       </c>
       <c r="B110" s="14" t="s">
-        <v>319</v>
+        <v>279</v>
       </c>
       <c r="C110" s="14" t="s">
-        <v>323</v>
-      </c>
-      <c r="D110" s="14" t="s">
-        <v>411</v>
-      </c>
-      <c r="E110" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="F110" s="14" t="s">
-        <v>324</v>
-      </c>
-      <c r="G110" s="14" t="s">
-        <v>687</v>
-      </c>
+        <v>191</v>
+      </c>
+      <c r="D110" s="14"/>
+      <c r="E110" s="14"/>
+      <c r="F110" s="14"/>
+      <c r="G110" s="14"/>
       <c r="H110" s="14"/>
-      <c r="I110" s="15" t="s">
-        <v>325</v>
-      </c>
-      <c r="J110" s="25" t="s">
-        <v>688</v>
-      </c>
+      <c r="I110" s="16"/>
+      <c r="J110" s="25"/>
       <c r="K110" s="14"/>
     </row>
     <row r="111" spans="1:11" ht="13">
@@ -13862,29 +13813,29 @@
         <v>278</v>
       </c>
       <c r="B111" s="14" t="s">
-        <v>319</v>
+        <v>301</v>
       </c>
       <c r="C111" s="14" t="s">
-        <v>689</v>
+        <v>302</v>
       </c>
       <c r="D111" s="14" t="s">
-        <v>411</v>
+        <v>117</v>
       </c>
       <c r="E111" s="14" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="F111" s="14" t="s">
-        <v>327</v>
+        <v>303</v>
       </c>
       <c r="G111" s="14" t="s">
-        <v>690</v>
+        <v>669</v>
       </c>
       <c r="H111" s="14"/>
       <c r="I111" s="15" t="s">
-        <v>328</v>
+        <v>304</v>
       </c>
       <c r="J111" s="25" t="s">
-        <v>691</v>
+        <v>670</v>
       </c>
       <c r="K111" s="14"/>
     </row>
@@ -13893,29 +13844,29 @@
         <v>278</v>
       </c>
       <c r="B112" s="14" t="s">
-        <v>329</v>
+        <v>301</v>
       </c>
       <c r="C112" s="14" t="s">
-        <v>167</v>
+        <v>381</v>
       </c>
       <c r="D112" s="14" t="s">
-        <v>411</v>
+        <v>382</v>
       </c>
       <c r="E112" s="14" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="F112" s="14" t="s">
-        <v>330</v>
+        <v>671</v>
       </c>
       <c r="G112" s="14" t="s">
-        <v>692</v>
+        <v>672</v>
       </c>
       <c r="H112" s="14"/>
       <c r="I112" s="15" t="s">
-        <v>331</v>
+        <v>673</v>
       </c>
       <c r="J112" s="25" t="s">
-        <v>693</v>
+        <v>674</v>
       </c>
       <c r="K112" s="14"/>
     </row>
@@ -13924,29 +13875,29 @@
         <v>278</v>
       </c>
       <c r="B113" s="14" t="s">
-        <v>329</v>
+        <v>305</v>
       </c>
       <c r="C113" s="14" t="s">
-        <v>332</v>
+        <v>306</v>
       </c>
       <c r="D113" s="14" t="s">
-        <v>419</v>
+        <v>411</v>
       </c>
       <c r="E113" s="14" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="F113" s="14" t="s">
-        <v>333</v>
+        <v>307</v>
       </c>
       <c r="G113" s="14" t="s">
-        <v>694</v>
+        <v>675</v>
       </c>
       <c r="H113" s="14"/>
       <c r="I113" s="15" t="s">
-        <v>334</v>
+        <v>308</v>
       </c>
       <c r="J113" s="25" t="s">
-        <v>695</v>
+        <v>676</v>
       </c>
       <c r="K113" s="14"/>
     </row>
@@ -13955,29 +13906,29 @@
         <v>278</v>
       </c>
       <c r="B114" s="14" t="s">
-        <v>329</v>
+        <v>305</v>
       </c>
       <c r="C114" s="14" t="s">
-        <v>335</v>
+        <v>298</v>
       </c>
       <c r="D114" s="14" t="s">
-        <v>47</v>
+        <v>411</v>
       </c>
       <c r="E114" s="14" t="s">
         <v>25</v>
       </c>
       <c r="F114" s="14" t="s">
-        <v>336</v>
+        <v>309</v>
       </c>
       <c r="G114" s="14" t="s">
-        <v>696</v>
+        <v>677</v>
       </c>
       <c r="H114" s="14"/>
       <c r="I114" s="15" t="s">
-        <v>337</v>
+        <v>310</v>
       </c>
       <c r="J114" s="25" t="s">
-        <v>697</v>
+        <v>678</v>
       </c>
       <c r="K114" s="14"/>
     </row>
@@ -13986,29 +13937,29 @@
         <v>278</v>
       </c>
       <c r="B115" s="14" t="s">
-        <v>329</v>
+        <v>305</v>
       </c>
       <c r="C115" s="14" t="s">
-        <v>338</v>
+        <v>311</v>
       </c>
       <c r="D115" s="14" t="s">
-        <v>117</v>
+        <v>312</v>
       </c>
       <c r="E115" s="14" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="F115" s="14" t="s">
-        <v>339</v>
+        <v>313</v>
       </c>
       <c r="G115" s="14" t="s">
-        <v>698</v>
+        <v>679</v>
       </c>
       <c r="H115" s="14"/>
       <c r="I115" s="15" t="s">
-        <v>340</v>
+        <v>314</v>
       </c>
       <c r="J115" s="25" t="s">
-        <v>699</v>
+        <v>680</v>
       </c>
       <c r="K115" s="14"/>
     </row>
@@ -14017,30 +13968,18 @@
         <v>278</v>
       </c>
       <c r="B116" s="14" t="s">
-        <v>329</v>
+        <v>305</v>
       </c>
       <c r="C116" s="14" t="s">
-        <v>341</v>
-      </c>
-      <c r="D116" s="14" t="s">
-        <v>342</v>
-      </c>
-      <c r="E116" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="F116" s="14" t="s">
-        <v>343</v>
-      </c>
-      <c r="G116" s="14" t="s">
-        <v>700</v>
-      </c>
+        <v>731</v>
+      </c>
+      <c r="D116" s="14"/>
+      <c r="E116" s="14"/>
+      <c r="F116" s="14"/>
+      <c r="G116" s="14"/>
       <c r="H116" s="14"/>
-      <c r="I116" s="15" t="s">
-        <v>344</v>
-      </c>
-      <c r="J116" s="25" t="s">
-        <v>701</v>
-      </c>
+      <c r="I116" s="15"/>
+      <c r="J116" s="25"/>
       <c r="K116" s="14"/>
     </row>
     <row r="117" spans="1:11" ht="13">
@@ -14048,29 +13987,29 @@
         <v>278</v>
       </c>
       <c r="B117" s="14" t="s">
-        <v>329</v>
+        <v>315</v>
       </c>
       <c r="C117" s="14" t="s">
-        <v>345</v>
+        <v>316</v>
       </c>
       <c r="D117" s="14" t="s">
-        <v>47</v>
+        <v>411</v>
       </c>
       <c r="E117" s="14" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="F117" s="14" t="s">
-        <v>346</v>
+        <v>317</v>
       </c>
       <c r="G117" s="14" t="s">
-        <v>702</v>
+        <v>681</v>
       </c>
       <c r="H117" s="14"/>
       <c r="I117" s="15" t="s">
-        <v>347</v>
+        <v>318</v>
       </c>
       <c r="J117" s="25" t="s">
-        <v>703</v>
+        <v>682</v>
       </c>
       <c r="K117" s="14"/>
     </row>
@@ -14079,30 +14018,18 @@
         <v>278</v>
       </c>
       <c r="B118" s="14" t="s">
-        <v>348</v>
+        <v>315</v>
       </c>
       <c r="C118" s="14" t="s">
-        <v>349</v>
-      </c>
-      <c r="D118" s="14" t="s">
-        <v>75</v>
-      </c>
-      <c r="E118" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="F118" s="14" t="s">
-        <v>350</v>
-      </c>
-      <c r="G118" s="14" t="s">
-        <v>704</v>
-      </c>
+        <v>722</v>
+      </c>
+      <c r="D118" s="14"/>
+      <c r="E118" s="14"/>
+      <c r="F118" s="14"/>
+      <c r="G118" s="14"/>
       <c r="H118" s="14"/>
-      <c r="I118" s="15" t="s">
-        <v>351</v>
-      </c>
-      <c r="J118" s="25" t="s">
-        <v>705</v>
-      </c>
+      <c r="I118" s="15"/>
+      <c r="J118" s="25"/>
       <c r="K118" s="14"/>
     </row>
     <row r="119" spans="1:11" ht="13">
@@ -14110,29 +14037,29 @@
         <v>278</v>
       </c>
       <c r="B119" s="14" t="s">
-        <v>348</v>
+        <v>319</v>
       </c>
       <c r="C119" s="14" t="s">
-        <v>706</v>
+        <v>320</v>
       </c>
       <c r="D119" s="14" t="s">
-        <v>419</v>
+        <v>411</v>
       </c>
       <c r="E119" s="14" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="F119" s="14" t="s">
-        <v>353</v>
+        <v>683</v>
       </c>
       <c r="G119" s="14" t="s">
-        <v>707</v>
+        <v>684</v>
       </c>
       <c r="H119" s="14"/>
       <c r="I119" s="16" t="s">
-        <v>354</v>
+        <v>685</v>
       </c>
       <c r="J119" s="25" t="s">
-        <v>708</v>
+        <v>686</v>
       </c>
       <c r="K119" s="14"/>
     </row>
@@ -14141,29 +14068,29 @@
         <v>278</v>
       </c>
       <c r="B120" s="14" t="s">
-        <v>355</v>
+        <v>319</v>
       </c>
       <c r="C120" s="14" t="s">
-        <v>302</v>
+        <v>323</v>
       </c>
       <c r="D120" s="14" t="s">
-        <v>117</v>
+        <v>411</v>
       </c>
       <c r="E120" s="14" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="F120" s="14" t="s">
-        <v>356</v>
+        <v>324</v>
       </c>
       <c r="G120" s="14" t="s">
-        <v>709</v>
+        <v>687</v>
       </c>
       <c r="H120" s="14"/>
       <c r="I120" s="15" t="s">
-        <v>357</v>
+        <v>325</v>
       </c>
       <c r="J120" s="25" t="s">
-        <v>710</v>
+        <v>688</v>
       </c>
       <c r="K120" s="14"/>
     </row>
@@ -14172,29 +14099,29 @@
         <v>278</v>
       </c>
       <c r="B121" s="14" t="s">
-        <v>355</v>
+        <v>319</v>
       </c>
       <c r="C121" s="14" t="s">
-        <v>358</v>
+        <v>689</v>
       </c>
       <c r="D121" s="14" t="s">
         <v>411</v>
       </c>
       <c r="E121" s="14" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="F121" s="14" t="s">
-        <v>359</v>
+        <v>327</v>
       </c>
       <c r="G121" s="14" t="s">
-        <v>711</v>
+        <v>690</v>
       </c>
       <c r="H121" s="14"/>
       <c r="I121" s="15" t="s">
-        <v>360</v>
+        <v>328</v>
       </c>
       <c r="J121" s="25" t="s">
-        <v>712</v>
+        <v>691</v>
       </c>
       <c r="K121" s="14"/>
     </row>
@@ -14203,10 +14130,10 @@
         <v>278</v>
       </c>
       <c r="B122" s="14" t="s">
-        <v>713</v>
-      </c>
-      <c r="C122" s="17" t="s">
-        <v>714</v>
+        <v>329</v>
+      </c>
+      <c r="C122" s="14" t="s">
+        <v>167</v>
       </c>
       <c r="D122" s="14" t="s">
         <v>411</v>
@@ -14215,17 +14142,17 @@
         <v>25</v>
       </c>
       <c r="F122" s="14" t="s">
-        <v>715</v>
+        <v>330</v>
       </c>
       <c r="G122" s="14" t="s">
-        <v>716</v>
+        <v>692</v>
       </c>
       <c r="H122" s="14"/>
       <c r="I122" s="15" t="s">
-        <v>717</v>
+        <v>331</v>
       </c>
       <c r="J122" s="25" t="s">
-        <v>718</v>
+        <v>693</v>
       </c>
       <c r="K122" s="14"/>
     </row>
@@ -14234,10 +14161,10 @@
         <v>278</v>
       </c>
       <c r="B123" s="14" t="s">
-        <v>361</v>
-      </c>
-      <c r="C123" s="17" t="s">
-        <v>362</v>
+        <v>329</v>
+      </c>
+      <c r="C123" s="14" t="s">
+        <v>332</v>
       </c>
       <c r="D123" s="14" t="s">
         <v>419</v>
@@ -14246,19 +14173,353 @@
         <v>14</v>
       </c>
       <c r="F123" s="14" t="s">
-        <v>363</v>
+        <v>333</v>
       </c>
       <c r="G123" s="14" t="s">
-        <v>719</v>
+        <v>694</v>
       </c>
       <c r="H123" s="14"/>
       <c r="I123" s="15" t="s">
+        <v>334</v>
+      </c>
+      <c r="J123" s="25" t="s">
+        <v>695</v>
+      </c>
+      <c r="K123" s="14"/>
+    </row>
+    <row r="124" spans="1:11" ht="13">
+      <c r="A124" s="14" t="s">
+        <v>278</v>
+      </c>
+      <c r="B124" s="14" t="s">
+        <v>329</v>
+      </c>
+      <c r="C124" s="14" t="s">
+        <v>335</v>
+      </c>
+      <c r="D124" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="E124" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="F124" s="14" t="s">
+        <v>336</v>
+      </c>
+      <c r="G124" s="14" t="s">
+        <v>696</v>
+      </c>
+      <c r="H124" s="14"/>
+      <c r="I124" s="15" t="s">
+        <v>337</v>
+      </c>
+      <c r="J124" s="25" t="s">
+        <v>697</v>
+      </c>
+      <c r="K124" s="14"/>
+    </row>
+    <row r="125" spans="1:11" ht="13">
+      <c r="A125" s="14" t="s">
+        <v>278</v>
+      </c>
+      <c r="B125" s="14" t="s">
+        <v>329</v>
+      </c>
+      <c r="C125" s="14" t="s">
+        <v>338</v>
+      </c>
+      <c r="D125" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="E125" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="F125" s="14" t="s">
+        <v>339</v>
+      </c>
+      <c r="G125" s="14" t="s">
+        <v>698</v>
+      </c>
+      <c r="H125" s="14"/>
+      <c r="I125" s="15" t="s">
+        <v>340</v>
+      </c>
+      <c r="J125" s="25" t="s">
+        <v>699</v>
+      </c>
+      <c r="K125" s="14"/>
+    </row>
+    <row r="126" spans="1:11" ht="13">
+      <c r="A126" s="14" t="s">
+        <v>278</v>
+      </c>
+      <c r="B126" s="14" t="s">
+        <v>329</v>
+      </c>
+      <c r="C126" s="14" t="s">
+        <v>341</v>
+      </c>
+      <c r="D126" s="14" t="s">
+        <v>342</v>
+      </c>
+      <c r="E126" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="F126" s="14" t="s">
+        <v>343</v>
+      </c>
+      <c r="G126" s="14" t="s">
+        <v>700</v>
+      </c>
+      <c r="H126" s="14"/>
+      <c r="I126" s="15" t="s">
+        <v>344</v>
+      </c>
+      <c r="J126" s="25" t="s">
+        <v>701</v>
+      </c>
+      <c r="K126" s="14"/>
+    </row>
+    <row r="127" spans="1:11" ht="13">
+      <c r="A127" s="14" t="s">
+        <v>278</v>
+      </c>
+      <c r="B127" s="14" t="s">
+        <v>329</v>
+      </c>
+      <c r="C127" s="14" t="s">
+        <v>345</v>
+      </c>
+      <c r="D127" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="E127" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="F127" s="14" t="s">
+        <v>346</v>
+      </c>
+      <c r="G127" s="14" t="s">
+        <v>702</v>
+      </c>
+      <c r="H127" s="14"/>
+      <c r="I127" s="15" t="s">
+        <v>347</v>
+      </c>
+      <c r="J127" s="25" t="s">
+        <v>703</v>
+      </c>
+      <c r="K127" s="14"/>
+    </row>
+    <row r="128" spans="1:11" ht="13">
+      <c r="A128" s="14" t="s">
+        <v>278</v>
+      </c>
+      <c r="B128" s="14" t="s">
+        <v>348</v>
+      </c>
+      <c r="C128" s="14" t="s">
+        <v>349</v>
+      </c>
+      <c r="D128" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="E128" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="F128" s="14" t="s">
+        <v>350</v>
+      </c>
+      <c r="G128" s="14" t="s">
+        <v>704</v>
+      </c>
+      <c r="H128" s="14"/>
+      <c r="I128" s="15" t="s">
+        <v>351</v>
+      </c>
+      <c r="J128" s="25" t="s">
+        <v>705</v>
+      </c>
+      <c r="K128" s="14"/>
+    </row>
+    <row r="129" spans="1:11" ht="13">
+      <c r="A129" s="14" t="s">
+        <v>278</v>
+      </c>
+      <c r="B129" s="14" t="s">
+        <v>348</v>
+      </c>
+      <c r="C129" s="14" t="s">
+        <v>706</v>
+      </c>
+      <c r="D129" s="14" t="s">
+        <v>419</v>
+      </c>
+      <c r="E129" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="F129" s="14" t="s">
+        <v>353</v>
+      </c>
+      <c r="G129" s="14" t="s">
+        <v>707</v>
+      </c>
+      <c r="H129" s="14"/>
+      <c r="I129" s="16" t="s">
+        <v>354</v>
+      </c>
+      <c r="J129" s="25" t="s">
+        <v>708</v>
+      </c>
+      <c r="K129" s="14"/>
+    </row>
+    <row r="130" spans="1:11" ht="13">
+      <c r="A130" s="14" t="s">
+        <v>278</v>
+      </c>
+      <c r="B130" s="14" t="s">
+        <v>355</v>
+      </c>
+      <c r="C130" s="14" t="s">
+        <v>302</v>
+      </c>
+      <c r="D130" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="E130" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="F130" s="14" t="s">
+        <v>356</v>
+      </c>
+      <c r="G130" s="14" t="s">
+        <v>709</v>
+      </c>
+      <c r="H130" s="14"/>
+      <c r="I130" s="15" t="s">
+        <v>357</v>
+      </c>
+      <c r="J130" s="25" t="s">
+        <v>710</v>
+      </c>
+      <c r="K130" s="14"/>
+    </row>
+    <row r="131" spans="1:11" ht="13">
+      <c r="A131" s="14" t="s">
+        <v>278</v>
+      </c>
+      <c r="B131" s="14" t="s">
+        <v>355</v>
+      </c>
+      <c r="C131" s="14" t="s">
+        <v>358</v>
+      </c>
+      <c r="D131" s="14" t="s">
+        <v>411</v>
+      </c>
+      <c r="E131" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="F131" s="14" t="s">
+        <v>359</v>
+      </c>
+      <c r="G131" s="14" t="s">
+        <v>711</v>
+      </c>
+      <c r="H131" s="14"/>
+      <c r="I131" s="15" t="s">
+        <v>360</v>
+      </c>
+      <c r="J131" s="25" t="s">
+        <v>712</v>
+      </c>
+      <c r="K131" s="14"/>
+    </row>
+    <row r="132" spans="1:11" ht="13">
+      <c r="A132" s="14" t="s">
+        <v>278</v>
+      </c>
+      <c r="B132" s="14" t="s">
+        <v>355</v>
+      </c>
+      <c r="C132" s="14" t="s">
+        <v>725</v>
+      </c>
+      <c r="D132" s="14"/>
+      <c r="E132" s="14"/>
+      <c r="F132" s="14"/>
+      <c r="G132" s="14"/>
+      <c r="H132" s="14"/>
+      <c r="I132" s="15"/>
+      <c r="J132" s="25"/>
+      <c r="K132" s="14"/>
+    </row>
+    <row r="133" spans="1:11" ht="13">
+      <c r="A133" s="14" t="s">
+        <v>278</v>
+      </c>
+      <c r="B133" s="14" t="s">
+        <v>713</v>
+      </c>
+      <c r="C133" s="17" t="s">
+        <v>714</v>
+      </c>
+      <c r="D133" s="14" t="s">
+        <v>411</v>
+      </c>
+      <c r="E133" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="F133" s="14" t="s">
+        <v>715</v>
+      </c>
+      <c r="G133" s="14" t="s">
+        <v>716</v>
+      </c>
+      <c r="H133" s="14"/>
+      <c r="I133" s="15" t="s">
+        <v>717</v>
+      </c>
+      <c r="J133" s="25" t="s">
+        <v>718</v>
+      </c>
+      <c r="K133" s="14"/>
+    </row>
+    <row r="134" spans="1:11" ht="13">
+      <c r="A134" s="14" t="s">
+        <v>278</v>
+      </c>
+      <c r="B134" s="14" t="s">
+        <v>361</v>
+      </c>
+      <c r="C134" s="17" t="s">
+        <v>362</v>
+      </c>
+      <c r="D134" s="14" t="s">
+        <v>419</v>
+      </c>
+      <c r="E134" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="F134" s="14" t="s">
+        <v>363</v>
+      </c>
+      <c r="G134" s="14" t="s">
+        <v>719</v>
+      </c>
+      <c r="H134" s="14"/>
+      <c r="I134" s="15" t="s">
         <v>364</v>
       </c>
-      <c r="J123" s="25" t="s">
+      <c r="J134" s="25" t="s">
         <v>720</v>
       </c>
-      <c r="K123" s="14"/>
+      <c r="K134" s="14"/>
+    </row>
+    <row r="135" spans="1:11" ht="15.75" customHeight="1">
+      <c r="C135" s="14" t="s">
+        <v>727</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
@@ -14277,113 +14538,113 @@
     <hyperlink ref="I14" r:id="rId13" xr:uid="{00000000-0004-0000-0100-00000C000000}"/>
     <hyperlink ref="I15" r:id="rId14" xr:uid="{00000000-0004-0000-0100-00000D000000}"/>
     <hyperlink ref="I16" r:id="rId15" xr:uid="{00000000-0004-0000-0100-00000E000000}"/>
-    <hyperlink ref="I17" r:id="rId16" xr:uid="{00000000-0004-0000-0100-00000F000000}"/>
-    <hyperlink ref="I18" r:id="rId17" xr:uid="{00000000-0004-0000-0100-000010000000}"/>
-    <hyperlink ref="I19" r:id="rId18" xr:uid="{00000000-0004-0000-0100-000011000000}"/>
-    <hyperlink ref="I20" r:id="rId19" xr:uid="{00000000-0004-0000-0100-000012000000}"/>
-    <hyperlink ref="I21" r:id="rId20" xr:uid="{00000000-0004-0000-0100-000013000000}"/>
-    <hyperlink ref="I22" r:id="rId21" xr:uid="{00000000-0004-0000-0100-000014000000}"/>
-    <hyperlink ref="I23" r:id="rId22" xr:uid="{00000000-0004-0000-0100-000015000000}"/>
-    <hyperlink ref="I24" r:id="rId23" xr:uid="{00000000-0004-0000-0100-000016000000}"/>
-    <hyperlink ref="I25" r:id="rId24" xr:uid="{00000000-0004-0000-0100-000017000000}"/>
-    <hyperlink ref="I26" r:id="rId25" xr:uid="{00000000-0004-0000-0100-000018000000}"/>
-    <hyperlink ref="I27" r:id="rId26" xr:uid="{00000000-0004-0000-0100-000019000000}"/>
-    <hyperlink ref="I28" r:id="rId27" xr:uid="{00000000-0004-0000-0100-00001A000000}"/>
-    <hyperlink ref="I29" r:id="rId28" xr:uid="{00000000-0004-0000-0100-00001B000000}"/>
-    <hyperlink ref="I30" r:id="rId29" xr:uid="{00000000-0004-0000-0100-00001C000000}"/>
-    <hyperlink ref="I31" r:id="rId30" xr:uid="{00000000-0004-0000-0100-00001D000000}"/>
-    <hyperlink ref="I32" r:id="rId31" xr:uid="{00000000-0004-0000-0100-00001E000000}"/>
-    <hyperlink ref="I33" r:id="rId32" xr:uid="{00000000-0004-0000-0100-00001F000000}"/>
-    <hyperlink ref="I34" r:id="rId33" xr:uid="{00000000-0004-0000-0100-000020000000}"/>
-    <hyperlink ref="I35" r:id="rId34" xr:uid="{00000000-0004-0000-0100-000021000000}"/>
-    <hyperlink ref="I36" r:id="rId35" xr:uid="{00000000-0004-0000-0100-000022000000}"/>
-    <hyperlink ref="I37" r:id="rId36" xr:uid="{00000000-0004-0000-0100-000023000000}"/>
-    <hyperlink ref="I38" r:id="rId37" xr:uid="{00000000-0004-0000-0100-000024000000}"/>
-    <hyperlink ref="I39" r:id="rId38" xr:uid="{00000000-0004-0000-0100-000025000000}"/>
-    <hyperlink ref="I40" r:id="rId39" xr:uid="{00000000-0004-0000-0100-000026000000}"/>
-    <hyperlink ref="I41" r:id="rId40" xr:uid="{00000000-0004-0000-0100-000027000000}"/>
-    <hyperlink ref="I42" r:id="rId41" xr:uid="{00000000-0004-0000-0100-000028000000}"/>
-    <hyperlink ref="I43" r:id="rId42" xr:uid="{00000000-0004-0000-0100-000029000000}"/>
-    <hyperlink ref="I44" r:id="rId43" xr:uid="{00000000-0004-0000-0100-00002A000000}"/>
-    <hyperlink ref="I45" r:id="rId44" xr:uid="{00000000-0004-0000-0100-00002B000000}"/>
-    <hyperlink ref="I46" r:id="rId45" xr:uid="{00000000-0004-0000-0100-00002C000000}"/>
-    <hyperlink ref="I47" r:id="rId46" xr:uid="{00000000-0004-0000-0100-00002D000000}"/>
-    <hyperlink ref="I48" r:id="rId47" xr:uid="{00000000-0004-0000-0100-00002E000000}"/>
-    <hyperlink ref="I49" r:id="rId48" xr:uid="{00000000-0004-0000-0100-00002F000000}"/>
-    <hyperlink ref="I50" r:id="rId49" xr:uid="{00000000-0004-0000-0100-000030000000}"/>
-    <hyperlink ref="I51" r:id="rId50" xr:uid="{00000000-0004-0000-0100-000031000000}"/>
-    <hyperlink ref="I52" r:id="rId51" xr:uid="{00000000-0004-0000-0100-000032000000}"/>
-    <hyperlink ref="I53" r:id="rId52" xr:uid="{00000000-0004-0000-0100-000033000000}"/>
-    <hyperlink ref="I54" r:id="rId53" xr:uid="{00000000-0004-0000-0100-000034000000}"/>
-    <hyperlink ref="I55" r:id="rId54" xr:uid="{00000000-0004-0000-0100-000035000000}"/>
-    <hyperlink ref="I56" r:id="rId55" xr:uid="{00000000-0004-0000-0100-000036000000}"/>
-    <hyperlink ref="I57" r:id="rId56" xr:uid="{00000000-0004-0000-0100-000037000000}"/>
-    <hyperlink ref="I58" r:id="rId57" xr:uid="{00000000-0004-0000-0100-000038000000}"/>
-    <hyperlink ref="I59" r:id="rId58" xr:uid="{00000000-0004-0000-0100-000039000000}"/>
-    <hyperlink ref="I60" r:id="rId59" xr:uid="{00000000-0004-0000-0100-00003A000000}"/>
-    <hyperlink ref="I61" r:id="rId60" xr:uid="{00000000-0004-0000-0100-00003B000000}"/>
-    <hyperlink ref="I62" r:id="rId61" xr:uid="{00000000-0004-0000-0100-00003C000000}"/>
-    <hyperlink ref="I63" r:id="rId62" xr:uid="{00000000-0004-0000-0100-00003D000000}"/>
-    <hyperlink ref="I64" r:id="rId63" xr:uid="{00000000-0004-0000-0100-00003E000000}"/>
-    <hyperlink ref="I65" r:id="rId64" xr:uid="{00000000-0004-0000-0100-00003F000000}"/>
-    <hyperlink ref="I66" r:id="rId65" xr:uid="{00000000-0004-0000-0100-000040000000}"/>
-    <hyperlink ref="I67" r:id="rId66" xr:uid="{00000000-0004-0000-0100-000041000000}"/>
-    <hyperlink ref="I68" r:id="rId67" xr:uid="{00000000-0004-0000-0100-000042000000}"/>
-    <hyperlink ref="I69" r:id="rId68" xr:uid="{00000000-0004-0000-0100-000043000000}"/>
-    <hyperlink ref="I70" r:id="rId69" xr:uid="{00000000-0004-0000-0100-000044000000}"/>
-    <hyperlink ref="I71" r:id="rId70" xr:uid="{00000000-0004-0000-0100-000045000000}"/>
-    <hyperlink ref="I72" r:id="rId71" xr:uid="{00000000-0004-0000-0100-000046000000}"/>
-    <hyperlink ref="I73" r:id="rId72" xr:uid="{00000000-0004-0000-0100-000047000000}"/>
-    <hyperlink ref="I74" r:id="rId73" xr:uid="{00000000-0004-0000-0100-000048000000}"/>
-    <hyperlink ref="I75" r:id="rId74" xr:uid="{00000000-0004-0000-0100-000049000000}"/>
-    <hyperlink ref="I76" r:id="rId75" xr:uid="{00000000-0004-0000-0100-00004A000000}"/>
-    <hyperlink ref="I77" r:id="rId76" xr:uid="{00000000-0004-0000-0100-00004B000000}"/>
-    <hyperlink ref="I78" r:id="rId77" xr:uid="{00000000-0004-0000-0100-00004C000000}"/>
-    <hyperlink ref="I79" r:id="rId78" xr:uid="{00000000-0004-0000-0100-00004D000000}"/>
-    <hyperlink ref="I80" r:id="rId79" xr:uid="{00000000-0004-0000-0100-00004E000000}"/>
-    <hyperlink ref="I81" r:id="rId80" xr:uid="{00000000-0004-0000-0100-00004F000000}"/>
-    <hyperlink ref="I82" r:id="rId81" xr:uid="{00000000-0004-0000-0100-000050000000}"/>
-    <hyperlink ref="I83" r:id="rId82" xr:uid="{00000000-0004-0000-0100-000051000000}"/>
-    <hyperlink ref="I84" r:id="rId83" xr:uid="{00000000-0004-0000-0100-000052000000}"/>
-    <hyperlink ref="I85" r:id="rId84" xr:uid="{00000000-0004-0000-0100-000053000000}"/>
-    <hyperlink ref="I86" r:id="rId85" xr:uid="{00000000-0004-0000-0100-000054000000}"/>
-    <hyperlink ref="I87" r:id="rId86" xr:uid="{00000000-0004-0000-0100-000055000000}"/>
-    <hyperlink ref="I88" r:id="rId87" xr:uid="{00000000-0004-0000-0100-000056000000}"/>
-    <hyperlink ref="I89" r:id="rId88" xr:uid="{00000000-0004-0000-0100-000057000000}"/>
-    <hyperlink ref="I90" r:id="rId89" xr:uid="{00000000-0004-0000-0100-000058000000}"/>
-    <hyperlink ref="I91" r:id="rId90" xr:uid="{00000000-0004-0000-0100-000059000000}"/>
-    <hyperlink ref="I92" r:id="rId91" xr:uid="{00000000-0004-0000-0100-00005A000000}"/>
-    <hyperlink ref="I93" r:id="rId92" xr:uid="{00000000-0004-0000-0100-00005B000000}"/>
-    <hyperlink ref="I94" r:id="rId93" xr:uid="{00000000-0004-0000-0100-00005C000000}"/>
-    <hyperlink ref="I95" r:id="rId94" xr:uid="{00000000-0004-0000-0100-00005D000000}"/>
-    <hyperlink ref="I96" r:id="rId95" xr:uid="{00000000-0004-0000-0100-00005E000000}"/>
-    <hyperlink ref="I97" r:id="rId96" xr:uid="{00000000-0004-0000-0100-00005F000000}"/>
-    <hyperlink ref="I98" r:id="rId97" xr:uid="{00000000-0004-0000-0100-000060000000}"/>
-    <hyperlink ref="I99" r:id="rId98" xr:uid="{00000000-0004-0000-0100-000061000000}"/>
-    <hyperlink ref="I100" r:id="rId99" xr:uid="{00000000-0004-0000-0100-000062000000}"/>
-    <hyperlink ref="I101" r:id="rId100" xr:uid="{00000000-0004-0000-0100-000063000000}"/>
-    <hyperlink ref="I102" r:id="rId101" xr:uid="{00000000-0004-0000-0100-000064000000}"/>
-    <hyperlink ref="I103" r:id="rId102" xr:uid="{00000000-0004-0000-0100-000065000000}"/>
-    <hyperlink ref="I104" r:id="rId103" xr:uid="{00000000-0004-0000-0100-000066000000}"/>
-    <hyperlink ref="I105" r:id="rId104" xr:uid="{00000000-0004-0000-0100-000067000000}"/>
-    <hyperlink ref="I106" r:id="rId105" xr:uid="{00000000-0004-0000-0100-000068000000}"/>
-    <hyperlink ref="I107" r:id="rId106" xr:uid="{00000000-0004-0000-0100-000069000000}"/>
-    <hyperlink ref="I108" r:id="rId107" xr:uid="{00000000-0004-0000-0100-00006A000000}"/>
-    <hyperlink ref="I109" r:id="rId108" xr:uid="{00000000-0004-0000-0100-00006B000000}"/>
-    <hyperlink ref="I110" r:id="rId109" xr:uid="{00000000-0004-0000-0100-00006C000000}"/>
-    <hyperlink ref="I111" r:id="rId110" xr:uid="{00000000-0004-0000-0100-00006D000000}"/>
-    <hyperlink ref="I112" r:id="rId111" xr:uid="{00000000-0004-0000-0100-00006E000000}"/>
-    <hyperlink ref="I113" r:id="rId112" xr:uid="{00000000-0004-0000-0100-00006F000000}"/>
-    <hyperlink ref="I114" r:id="rId113" xr:uid="{00000000-0004-0000-0100-000070000000}"/>
-    <hyperlink ref="I115" r:id="rId114" xr:uid="{00000000-0004-0000-0100-000071000000}"/>
-    <hyperlink ref="I116" r:id="rId115" xr:uid="{00000000-0004-0000-0100-000072000000}"/>
-    <hyperlink ref="I117" r:id="rId116" xr:uid="{00000000-0004-0000-0100-000073000000}"/>
-    <hyperlink ref="I118" r:id="rId117" xr:uid="{00000000-0004-0000-0100-000074000000}"/>
-    <hyperlink ref="I119" r:id="rId118" xr:uid="{00000000-0004-0000-0100-000075000000}"/>
-    <hyperlink ref="I120" r:id="rId119" xr:uid="{00000000-0004-0000-0100-000076000000}"/>
-    <hyperlink ref="I121" r:id="rId120" xr:uid="{00000000-0004-0000-0100-000077000000}"/>
-    <hyperlink ref="I122" r:id="rId121" xr:uid="{00000000-0004-0000-0100-000078000000}"/>
-    <hyperlink ref="I123" r:id="rId122" xr:uid="{00000000-0004-0000-0100-000079000000}"/>
+    <hyperlink ref="I19" r:id="rId16" xr:uid="{00000000-0004-0000-0100-00000F000000}"/>
+    <hyperlink ref="I20" r:id="rId17" xr:uid="{00000000-0004-0000-0100-000010000000}"/>
+    <hyperlink ref="I21" r:id="rId18" xr:uid="{00000000-0004-0000-0100-000011000000}"/>
+    <hyperlink ref="I22" r:id="rId19" xr:uid="{00000000-0004-0000-0100-000012000000}"/>
+    <hyperlink ref="I23" r:id="rId20" xr:uid="{00000000-0004-0000-0100-000013000000}"/>
+    <hyperlink ref="I24" r:id="rId21" xr:uid="{00000000-0004-0000-0100-000014000000}"/>
+    <hyperlink ref="I25" r:id="rId22" xr:uid="{00000000-0004-0000-0100-000015000000}"/>
+    <hyperlink ref="I26" r:id="rId23" xr:uid="{00000000-0004-0000-0100-000016000000}"/>
+    <hyperlink ref="I27" r:id="rId24" xr:uid="{00000000-0004-0000-0100-000017000000}"/>
+    <hyperlink ref="I28" r:id="rId25" xr:uid="{00000000-0004-0000-0100-000018000000}"/>
+    <hyperlink ref="I29" r:id="rId26" xr:uid="{00000000-0004-0000-0100-000019000000}"/>
+    <hyperlink ref="I30" r:id="rId27" xr:uid="{00000000-0004-0000-0100-00001A000000}"/>
+    <hyperlink ref="I31" r:id="rId28" xr:uid="{00000000-0004-0000-0100-00001B000000}"/>
+    <hyperlink ref="I32" r:id="rId29" xr:uid="{00000000-0004-0000-0100-00001C000000}"/>
+    <hyperlink ref="I33" r:id="rId30" xr:uid="{00000000-0004-0000-0100-00001D000000}"/>
+    <hyperlink ref="I34" r:id="rId31" xr:uid="{00000000-0004-0000-0100-00001E000000}"/>
+    <hyperlink ref="I35" r:id="rId32" xr:uid="{00000000-0004-0000-0100-00001F000000}"/>
+    <hyperlink ref="I38" r:id="rId33" xr:uid="{00000000-0004-0000-0100-000020000000}"/>
+    <hyperlink ref="I39" r:id="rId34" xr:uid="{00000000-0004-0000-0100-000021000000}"/>
+    <hyperlink ref="I40" r:id="rId35" xr:uid="{00000000-0004-0000-0100-000022000000}"/>
+    <hyperlink ref="I41" r:id="rId36" xr:uid="{00000000-0004-0000-0100-000023000000}"/>
+    <hyperlink ref="I42" r:id="rId37" xr:uid="{00000000-0004-0000-0100-000024000000}"/>
+    <hyperlink ref="I43" r:id="rId38" xr:uid="{00000000-0004-0000-0100-000025000000}"/>
+    <hyperlink ref="I44" r:id="rId39" xr:uid="{00000000-0004-0000-0100-000026000000}"/>
+    <hyperlink ref="I45" r:id="rId40" xr:uid="{00000000-0004-0000-0100-000027000000}"/>
+    <hyperlink ref="I46" r:id="rId41" xr:uid="{00000000-0004-0000-0100-000028000000}"/>
+    <hyperlink ref="I47" r:id="rId42" xr:uid="{00000000-0004-0000-0100-000029000000}"/>
+    <hyperlink ref="I48" r:id="rId43" xr:uid="{00000000-0004-0000-0100-00002A000000}"/>
+    <hyperlink ref="I49" r:id="rId44" xr:uid="{00000000-0004-0000-0100-00002B000000}"/>
+    <hyperlink ref="I50" r:id="rId45" xr:uid="{00000000-0004-0000-0100-00002C000000}"/>
+    <hyperlink ref="I51" r:id="rId46" xr:uid="{00000000-0004-0000-0100-00002D000000}"/>
+    <hyperlink ref="I52" r:id="rId47" xr:uid="{00000000-0004-0000-0100-00002E000000}"/>
+    <hyperlink ref="I53" r:id="rId48" xr:uid="{00000000-0004-0000-0100-00002F000000}"/>
+    <hyperlink ref="I54" r:id="rId49" xr:uid="{00000000-0004-0000-0100-000030000000}"/>
+    <hyperlink ref="I55" r:id="rId50" xr:uid="{00000000-0004-0000-0100-000031000000}"/>
+    <hyperlink ref="I56" r:id="rId51" xr:uid="{00000000-0004-0000-0100-000032000000}"/>
+    <hyperlink ref="I57" r:id="rId52" xr:uid="{00000000-0004-0000-0100-000033000000}"/>
+    <hyperlink ref="I58" r:id="rId53" xr:uid="{00000000-0004-0000-0100-000034000000}"/>
+    <hyperlink ref="I60" r:id="rId54" xr:uid="{00000000-0004-0000-0100-000035000000}"/>
+    <hyperlink ref="I61" r:id="rId55" xr:uid="{00000000-0004-0000-0100-000036000000}"/>
+    <hyperlink ref="I62" r:id="rId56" xr:uid="{00000000-0004-0000-0100-000037000000}"/>
+    <hyperlink ref="I63" r:id="rId57" xr:uid="{00000000-0004-0000-0100-000038000000}"/>
+    <hyperlink ref="I64" r:id="rId58" xr:uid="{00000000-0004-0000-0100-000039000000}"/>
+    <hyperlink ref="I65" r:id="rId59" xr:uid="{00000000-0004-0000-0100-00003A000000}"/>
+    <hyperlink ref="I66" r:id="rId60" xr:uid="{00000000-0004-0000-0100-00003B000000}"/>
+    <hyperlink ref="I67" r:id="rId61" xr:uid="{00000000-0004-0000-0100-00003C000000}"/>
+    <hyperlink ref="I68" r:id="rId62" xr:uid="{00000000-0004-0000-0100-00003D000000}"/>
+    <hyperlink ref="I69" r:id="rId63" xr:uid="{00000000-0004-0000-0100-00003E000000}"/>
+    <hyperlink ref="I70" r:id="rId64" xr:uid="{00000000-0004-0000-0100-00003F000000}"/>
+    <hyperlink ref="I71" r:id="rId65" xr:uid="{00000000-0004-0000-0100-000040000000}"/>
+    <hyperlink ref="I72" r:id="rId66" xr:uid="{00000000-0004-0000-0100-000041000000}"/>
+    <hyperlink ref="I73" r:id="rId67" xr:uid="{00000000-0004-0000-0100-000042000000}"/>
+    <hyperlink ref="I75" r:id="rId68" xr:uid="{00000000-0004-0000-0100-000043000000}"/>
+    <hyperlink ref="I76" r:id="rId69" xr:uid="{00000000-0004-0000-0100-000044000000}"/>
+    <hyperlink ref="I77" r:id="rId70" xr:uid="{00000000-0004-0000-0100-000045000000}"/>
+    <hyperlink ref="I78" r:id="rId71" xr:uid="{00000000-0004-0000-0100-000046000000}"/>
+    <hyperlink ref="I79" r:id="rId72" xr:uid="{00000000-0004-0000-0100-000047000000}"/>
+    <hyperlink ref="I80" r:id="rId73" xr:uid="{00000000-0004-0000-0100-000048000000}"/>
+    <hyperlink ref="I81" r:id="rId74" xr:uid="{00000000-0004-0000-0100-000049000000}"/>
+    <hyperlink ref="I82" r:id="rId75" xr:uid="{00000000-0004-0000-0100-00004A000000}"/>
+    <hyperlink ref="I83" r:id="rId76" xr:uid="{00000000-0004-0000-0100-00004B000000}"/>
+    <hyperlink ref="I84" r:id="rId77" xr:uid="{00000000-0004-0000-0100-00004C000000}"/>
+    <hyperlink ref="I85" r:id="rId78" xr:uid="{00000000-0004-0000-0100-00004D000000}"/>
+    <hyperlink ref="I86" r:id="rId79" xr:uid="{00000000-0004-0000-0100-00004E000000}"/>
+    <hyperlink ref="I87" r:id="rId80" xr:uid="{00000000-0004-0000-0100-00004F000000}"/>
+    <hyperlink ref="I88" r:id="rId81" xr:uid="{00000000-0004-0000-0100-000050000000}"/>
+    <hyperlink ref="I89" r:id="rId82" xr:uid="{00000000-0004-0000-0100-000051000000}"/>
+    <hyperlink ref="I90" r:id="rId83" xr:uid="{00000000-0004-0000-0100-000052000000}"/>
+    <hyperlink ref="I91" r:id="rId84" xr:uid="{00000000-0004-0000-0100-000053000000}"/>
+    <hyperlink ref="I92" r:id="rId85" xr:uid="{00000000-0004-0000-0100-000054000000}"/>
+    <hyperlink ref="I93" r:id="rId86" xr:uid="{00000000-0004-0000-0100-000055000000}"/>
+    <hyperlink ref="I94" r:id="rId87" xr:uid="{00000000-0004-0000-0100-000056000000}"/>
+    <hyperlink ref="I96" r:id="rId88" xr:uid="{00000000-0004-0000-0100-000057000000}"/>
+    <hyperlink ref="I97" r:id="rId89" xr:uid="{00000000-0004-0000-0100-000058000000}"/>
+    <hyperlink ref="I98" r:id="rId90" xr:uid="{00000000-0004-0000-0100-000059000000}"/>
+    <hyperlink ref="I99" r:id="rId91" xr:uid="{00000000-0004-0000-0100-00005A000000}"/>
+    <hyperlink ref="I100" r:id="rId92" xr:uid="{00000000-0004-0000-0100-00005B000000}"/>
+    <hyperlink ref="I101" r:id="rId93" xr:uid="{00000000-0004-0000-0100-00005C000000}"/>
+    <hyperlink ref="I102" r:id="rId94" xr:uid="{00000000-0004-0000-0100-00005D000000}"/>
+    <hyperlink ref="I103" r:id="rId95" xr:uid="{00000000-0004-0000-0100-00005E000000}"/>
+    <hyperlink ref="I104" r:id="rId96" xr:uid="{00000000-0004-0000-0100-00005F000000}"/>
+    <hyperlink ref="I105" r:id="rId97" xr:uid="{00000000-0004-0000-0100-000060000000}"/>
+    <hyperlink ref="I106" r:id="rId98" xr:uid="{00000000-0004-0000-0100-000061000000}"/>
+    <hyperlink ref="I107" r:id="rId99" xr:uid="{00000000-0004-0000-0100-000062000000}"/>
+    <hyperlink ref="I108" r:id="rId100" xr:uid="{00000000-0004-0000-0100-000063000000}"/>
+    <hyperlink ref="I109" r:id="rId101" xr:uid="{00000000-0004-0000-0100-000064000000}"/>
+    <hyperlink ref="I111" r:id="rId102" xr:uid="{00000000-0004-0000-0100-000065000000}"/>
+    <hyperlink ref="I112" r:id="rId103" xr:uid="{00000000-0004-0000-0100-000066000000}"/>
+    <hyperlink ref="I113" r:id="rId104" xr:uid="{00000000-0004-0000-0100-000067000000}"/>
+    <hyperlink ref="I114" r:id="rId105" xr:uid="{00000000-0004-0000-0100-000068000000}"/>
+    <hyperlink ref="I115" r:id="rId106" xr:uid="{00000000-0004-0000-0100-000069000000}"/>
+    <hyperlink ref="I117" r:id="rId107" xr:uid="{00000000-0004-0000-0100-00006A000000}"/>
+    <hyperlink ref="I119" r:id="rId108" xr:uid="{00000000-0004-0000-0100-00006B000000}"/>
+    <hyperlink ref="I120" r:id="rId109" xr:uid="{00000000-0004-0000-0100-00006C000000}"/>
+    <hyperlink ref="I121" r:id="rId110" xr:uid="{00000000-0004-0000-0100-00006D000000}"/>
+    <hyperlink ref="I122" r:id="rId111" xr:uid="{00000000-0004-0000-0100-00006E000000}"/>
+    <hyperlink ref="I123" r:id="rId112" xr:uid="{00000000-0004-0000-0100-00006F000000}"/>
+    <hyperlink ref="I124" r:id="rId113" xr:uid="{00000000-0004-0000-0100-000070000000}"/>
+    <hyperlink ref="I125" r:id="rId114" xr:uid="{00000000-0004-0000-0100-000071000000}"/>
+    <hyperlink ref="I126" r:id="rId115" xr:uid="{00000000-0004-0000-0100-000072000000}"/>
+    <hyperlink ref="I127" r:id="rId116" xr:uid="{00000000-0004-0000-0100-000073000000}"/>
+    <hyperlink ref="I128" r:id="rId117" xr:uid="{00000000-0004-0000-0100-000074000000}"/>
+    <hyperlink ref="I129" r:id="rId118" xr:uid="{00000000-0004-0000-0100-000075000000}"/>
+    <hyperlink ref="I130" r:id="rId119" xr:uid="{00000000-0004-0000-0100-000076000000}"/>
+    <hyperlink ref="I131" r:id="rId120" xr:uid="{00000000-0004-0000-0100-000077000000}"/>
+    <hyperlink ref="I133" r:id="rId121" xr:uid="{00000000-0004-0000-0100-000078000000}"/>
+    <hyperlink ref="I134" r:id="rId122" xr:uid="{00000000-0004-0000-0100-000079000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/docs/香港素食餐廳大全.xlsx
+++ b/docs/香港素食餐廳大全.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tim/_Python_OpenAI/My-projects/7-hk-veg-map/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2FD4816-5D0E-DA40-BD57-E4F7B61ECAD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EEA4D9C-AF4B-5144-ABA6-41EA95EE85E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12660" yWindow="500" windowWidth="15000" windowHeight="16260" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1500" yWindow="500" windowWidth="16400" windowHeight="16260" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="香港素食餐廳大全" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1784" uniqueCount="735">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1857" uniqueCount="783">
   <si>
     <t>** 更新自: 13 Aug 2023 (deprecated, go to sheet 2 "hk_veg_restaurants_data instead")</t>
   </si>
@@ -2226,13 +2226,157 @@
   </si>
   <si>
     <t>Veggie4love</t>
+  </si>
+  <si>
+    <t>中環亞畢諾道 2號</t>
+  </si>
+  <si>
+    <t>22.28026467724219, 114.15456266762291</t>
+  </si>
+  <si>
+    <t>https://www.openrice.com/zh/hongkong/r-veda-%E4%B8%AD%E7%92%B0-%E5%A4%9A%E5%9C%8B%E8%8F%9C-%E7%84%A1%E8%82%89%E9%A4%90%E5%96%AE-r612886</t>
+  </si>
+  <si>
+    <t>中環士丹利街11號10樓</t>
+  </si>
+  <si>
+    <t>22.282268905113295, 114.15580210125621</t>
+  </si>
+  <si>
+    <t>https://www.openrice.com/zh/hongkong/r-veggie4love-%E4%B8%AD%E7%92%B0-%E5%A4%9A%E5%9C%8B%E8%8F%9C-%E6%9C%89%E6%A9%9F%E9%A3%9F%E5%93%81-r731515</t>
+  </si>
+  <si>
+    <t>21779477</t>
+  </si>
+  <si>
+    <t>銅鑼灣霎東街9A號地舖</t>
+  </si>
+  <si>
+    <t>22.277920973712167, 114.18290348777202</t>
+  </si>
+  <si>
+    <t>https://www.openrice.com/zh/hongkong/r-so-coco-%E9%8A%85%E9%91%BC%E7%81%A3-%E6%B3%B0%E5%9C%8B%E8%8F%9C-%E9%9B%AA%E7%B3%95-%E4%B9%B3%E9%85%AA-r808873</t>
+  </si>
+  <si>
+    <t>35680228</t>
+  </si>
+  <si>
+    <t>銅鑼灣謝斐道535號Tower 535地庫B04號舖</t>
+  </si>
+  <si>
+    <t>22.28135845298119, 114.18380235767272</t>
+  </si>
+  <si>
+    <t>https://www.openrice.com/zh/hongkong/r-%E6%A8%82%E5%9C%92%E7%B4%A0%E9%A3%9F-%E9%8A%85%E9%91%BC%E7%81%A3-%E7%B2%B5%E8%8F%9C-%E5%BB%A3%E6%9D%B1-%E7%B4%A0%E9%A3%9F-r689407</t>
+  </si>
+  <si>
+    <t>26331386</t>
+  </si>
+  <si>
+    <t>油麻地窩打老道9-11號地下11B號舖</t>
+  </si>
+  <si>
+    <t>22.313137754200476, 114.1701752141893</t>
+  </si>
+  <si>
+    <t>https://www.openrice.com/zh/hongkong/r-%E4%B8%80%E6%A3%AE%E7%B4%A0%E9%A3%9F-%E6%B2%B9%E9%BA%BB%E5%9C%B0-%E7%B2%B5%E8%8F%9C-%E5%BB%A3%E6%9D%B1-%E7%B4%A0%E9%A3%9F-r526418</t>
+  </si>
+  <si>
+    <t>93082289</t>
+  </si>
+  <si>
+    <t>22.337625067450873, 114.14715457934517</t>
+  </si>
+  <si>
+    <t>荔枝角青山道489-491號香港工業中心C座地庫C2號舖</t>
+  </si>
+  <si>
+    <t>https://www.openrice.com/zh/hongkong/r-%E7%B4%A0%E4%B8%80%E7%B4%A0-%E8%8D%94%E6%9E%9D%E8%A7%92-%E6%B8%AF%E5%BC%8F-%E7%84%A1%E8%82%89%E9%A4%90%E5%96%AE-r792423</t>
+  </si>
+  <si>
+    <t>37956070</t>
+  </si>
+  <si>
+    <t>觀塘崇仁街29號安順大廈地舖</t>
+  </si>
+  <si>
+    <t>22.316216176794374, 114.22412373249851</t>
+  </si>
+  <si>
+    <t>https://www.openrice.com/zh/hongkong/r-%E5%AF%B6%E5%85%89%E9%BD%8B%E7%B4%A0%E9%A3%9F%E9%A4%A8-%E8%A7%80%E5%A1%98-%E7%B2%B5%E8%8F%9C-%E5%BB%A3%E6%9D%B1-%E7%B4%A0%E9%A3%9F-r173</t>
+  </si>
+  <si>
+    <t>23444577</t>
+  </si>
+  <si>
+    <t>荃灣楊屋道138號樂悠居商場1樓25號舖</t>
+  </si>
+  <si>
+    <t>22.366401069469358, 114.11813017763713</t>
+  </si>
+  <si>
+    <t>https://www.openrice.com/zh/hongkong/r-%E7%B4%A0%E9%A3%9F%E5%B7%A5%E6%88%BF-%E8%8D%83%E7%81%A3-%E6%B8%AF%E5%BC%8F-%E7%84%A1%E8%82%89%E9%A4%90%E5%96%AE-r812500</t>
+  </si>
+  <si>
+    <t>屯門青山坊2號華樂大廈地下48號舖</t>
+  </si>
+  <si>
+    <t>22.38909496225799, 113.97931869518474</t>
+  </si>
+  <si>
+    <t>https://www.openrice.com/zh/hongkong/r-%E7%B4%A0%E4%B9%8B%E8%8B%91-%E5%B1%AF%E9%96%80-%E6%B8%AF%E5%BC%8F-%E7%84%A1%E8%82%89%E9%A4%90%E5%96%AE-r809962</t>
+  </si>
+  <si>
+    <t>69376322</t>
+  </si>
+  <si>
+    <t>元朗又新街35號怡豐大廈地下12號舖</t>
+  </si>
+  <si>
+    <t>22.44340550390946, 114.03116498442581</t>
+  </si>
+  <si>
+    <t>https://www.openrice.com/zh/hongkong/r-%E4%B8%80%E7%B4%A0%E5%BA%97-%E5%85%83%E6%9C%97-%E8%A5%BF%E5%BC%8F-%E6%9C%89%E6%A9%9F%E9%A3%9F%E5%93%81-r763026</t>
+  </si>
+  <si>
+    <t>24719575</t>
+  </si>
+  <si>
+    <t>沙田沙田正街18號新城市廣場一期1樓159號舖</t>
+  </si>
+  <si>
+    <t>22.381634433277313, 114.18817540867761</t>
+  </si>
+  <si>
+    <t>https://www.openrice.com/zh/hongkong/r-%E5%A4%A9%E3%81%B7%E3%82%89%E3%81%BE%E3%81%8D%E3%81%AE-%E6%B2%99%E7%94%B0-%E6%97%A5%E6%9C%AC%E8%8F%9C-r747078</t>
+  </si>
+  <si>
+    <t>28879618</t>
+  </si>
+  <si>
+    <t>離島</t>
+  </si>
+  <si>
+    <t>大嶼山昂坪昂坪路寶蓮禪寺</t>
+  </si>
+  <si>
+    <t>大嶼山</t>
+  </si>
+  <si>
+    <t>22.255974273295315, 113.90752367703402</t>
+  </si>
+  <si>
+    <t>https://www.openrice.com/zh/hongkong/r-%E5%AF%B6%E8%93%AE%E7%A6%AA%E5%AF%BA%E9%BD%8B%E5%A0%82-%E5%A4%A7%E5%B6%BC%E5%B1%B1-%E7%B2%B5%E8%8F%9C-%E5%BB%A3%E6%9D%B1-%E7%B4%A0%E9%A3%9F-r13802</t>
+  </si>
+  <si>
+    <t>29854736</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13">
+  <fonts count="14">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -2323,6 +2467,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -2371,10 +2523,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -2400,12 +2553,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="1" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="1" fontId="4" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="1" fontId="4" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" xfId="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -10483,14 +10640,15 @@
   </sheetPr>
   <dimension ref="A1:K135"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="119" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18:B18"/>
+    <sheetView tabSelected="1" topLeftCell="A124" zoomScale="125" workbookViewId="0">
+      <selection activeCell="B155" sqref="B155"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="3" max="3" width="32.5" customWidth="1"/>
     <col min="6" max="6" width="41.83203125" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" style="27"/>
     <col min="11" max="11" width="19" customWidth="1"/>
   </cols>
   <sheetData>
@@ -10555,7 +10713,7 @@
       <c r="I2" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="J2" s="23" t="s">
+      <c r="J2" s="25" t="s">
         <v>396</v>
       </c>
       <c r="K2" s="5"/>
@@ -10586,7 +10744,7 @@
       <c r="I3" s="7" t="s">
         <v>401</v>
       </c>
-      <c r="J3" s="23" t="s">
+      <c r="J3" s="25" t="s">
         <v>402</v>
       </c>
       <c r="K3" s="5"/>
@@ -10617,7 +10775,7 @@
       <c r="I4" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="J4" s="23" t="s">
+      <c r="J4" s="25" t="s">
         <v>405</v>
       </c>
       <c r="K4" s="5"/>
@@ -10648,7 +10806,7 @@
       <c r="I5" s="6" t="s">
         <v>409</v>
       </c>
-      <c r="J5" s="23" t="s">
+      <c r="J5" s="25" t="s">
         <v>410</v>
       </c>
       <c r="K5" s="5"/>
@@ -10679,7 +10837,7 @@
       <c r="I6" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="J6" s="23" t="s">
+      <c r="J6" s="25" t="s">
         <v>413</v>
       </c>
       <c r="K6" s="5"/>
@@ -10710,7 +10868,7 @@
       <c r="I7" s="7" t="s">
         <v>415</v>
       </c>
-      <c r="J7" s="23" t="s">
+      <c r="J7" s="25" t="s">
         <v>416</v>
       </c>
       <c r="K7" s="5"/>
@@ -10741,7 +10899,7 @@
       <c r="I8" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="J8" s="23" t="s">
+      <c r="J8" s="25" t="s">
         <v>418</v>
       </c>
       <c r="K8" s="5" t="s">
@@ -10774,7 +10932,7 @@
       <c r="I9" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="J9" s="23" t="s">
+      <c r="J9" s="25" t="s">
         <v>421</v>
       </c>
       <c r="K9" s="5"/>
@@ -10805,7 +10963,7 @@
       <c r="I10" s="7" t="s">
         <v>423</v>
       </c>
-      <c r="J10" s="23"/>
+      <c r="J10" s="25"/>
       <c r="K10" s="5"/>
     </row>
     <row r="11" spans="1:11" ht="15.75" customHeight="1">
@@ -10834,7 +10992,7 @@
       <c r="I11" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="J11" s="23"/>
+      <c r="J11" s="25"/>
       <c r="K11" s="5"/>
     </row>
     <row r="12" spans="1:11" ht="15.75" customHeight="1">
@@ -10863,7 +11021,7 @@
       <c r="I12" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="J12" s="23" t="s">
+      <c r="J12" s="25" t="s">
         <v>426</v>
       </c>
       <c r="K12" s="5"/>
@@ -10894,7 +11052,7 @@
       <c r="I13" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="J13" s="23" t="s">
+      <c r="J13" s="25" t="s">
         <v>428</v>
       </c>
       <c r="K13" s="5"/>
@@ -10925,7 +11083,7 @@
       <c r="I14" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="J14" s="23" t="s">
+      <c r="J14" s="25" t="s">
         <v>430</v>
       </c>
       <c r="K14" s="5"/>
@@ -10956,7 +11114,7 @@
       <c r="I15" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="J15" s="23" t="s">
+      <c r="J15" s="25" t="s">
         <v>432</v>
       </c>
       <c r="K15" s="5"/>
@@ -10987,7 +11145,7 @@
       <c r="I16" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="J16" s="23" t="s">
+      <c r="J16" s="25" t="s">
         <v>434</v>
       </c>
       <c r="K16" s="5"/>
@@ -11002,13 +11160,25 @@
       <c r="C17" s="5" t="s">
         <v>728</v>
       </c>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
+      <c r="D17" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>735</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>736</v>
+      </c>
       <c r="H17" s="5"/>
-      <c r="I17" s="7"/>
-      <c r="J17" s="23"/>
+      <c r="I17" s="24" t="s">
+        <v>737</v>
+      </c>
+      <c r="J17" s="25">
+        <v>37553067</v>
+      </c>
       <c r="K17" s="5"/>
     </row>
     <row r="18" spans="1:11" ht="15.75" customHeight="1">
@@ -11021,13 +11191,25 @@
       <c r="C18" s="5" t="s">
         <v>734</v>
       </c>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
+      <c r="D18" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>738</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>739</v>
+      </c>
       <c r="H18" s="5"/>
-      <c r="I18" s="7"/>
-      <c r="J18" s="23"/>
+      <c r="I18" s="24" t="s">
+        <v>740</v>
+      </c>
+      <c r="J18" s="25" t="s">
+        <v>741</v>
+      </c>
       <c r="K18" s="5"/>
     </row>
     <row r="19" spans="1:11" ht="15.75" customHeight="1">
@@ -11056,7 +11238,7 @@
       <c r="I19" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="J19" s="23" t="s">
+      <c r="J19" s="25" t="s">
         <v>437</v>
       </c>
       <c r="K19" s="5"/>
@@ -11087,7 +11269,7 @@
       <c r="I20" s="6" t="s">
         <v>440</v>
       </c>
-      <c r="J20" s="23" t="s">
+      <c r="J20" s="25" t="s">
         <v>441</v>
       </c>
       <c r="K20" s="5"/>
@@ -11118,7 +11300,7 @@
       <c r="I21" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="J21" s="23" t="s">
+      <c r="J21" s="25" t="s">
         <v>443</v>
       </c>
       <c r="K21" s="5"/>
@@ -11149,7 +11331,7 @@
       <c r="I22" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="J22" s="23" t="s">
+      <c r="J22" s="25" t="s">
         <v>445</v>
       </c>
       <c r="K22" s="5"/>
@@ -11180,7 +11362,7 @@
       <c r="I23" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="J23" s="23" t="s">
+      <c r="J23" s="25" t="s">
         <v>447</v>
       </c>
       <c r="K23" s="5"/>
@@ -11211,7 +11393,7 @@
       <c r="I24" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="J24" s="23" t="s">
+      <c r="J24" s="25" t="s">
         <v>449</v>
       </c>
       <c r="K24" s="5"/>
@@ -11242,7 +11424,7 @@
       <c r="I25" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="J25" s="23" t="s">
+      <c r="J25" s="25" t="s">
         <v>451</v>
       </c>
       <c r="K25" s="5"/>
@@ -11273,7 +11455,7 @@
       <c r="I26" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="J26" s="23" t="s">
+      <c r="J26" s="25" t="s">
         <v>453</v>
       </c>
       <c r="K26" s="5"/>
@@ -11304,7 +11486,7 @@
       <c r="I27" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="J27" s="23" t="s">
+      <c r="J27" s="25" t="s">
         <v>455</v>
       </c>
       <c r="K27" s="5"/>
@@ -11335,7 +11517,7 @@
       <c r="I28" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="J28" s="23" t="s">
+      <c r="J28" s="25" t="s">
         <v>457</v>
       </c>
       <c r="K28" s="5"/>
@@ -11366,7 +11548,7 @@
       <c r="I29" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="J29" s="23" t="s">
+      <c r="J29" s="25" t="s">
         <v>459</v>
       </c>
       <c r="K29" s="5"/>
@@ -11397,7 +11579,7 @@
       <c r="I30" s="6" t="s">
         <v>463</v>
       </c>
-      <c r="J30" s="23" t="s">
+      <c r="J30" s="25" t="s">
         <v>464</v>
       </c>
       <c r="K30" s="5"/>
@@ -11428,7 +11610,7 @@
       <c r="I31" s="6" t="s">
         <v>467</v>
       </c>
-      <c r="J31" s="23" t="s">
+      <c r="J31" s="25" t="s">
         <v>468</v>
       </c>
       <c r="K31" s="5"/>
@@ -11459,7 +11641,7 @@
       <c r="I32" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="J32" s="23" t="s">
+      <c r="J32" s="25" t="s">
         <v>470</v>
       </c>
       <c r="K32" s="5" t="s">
@@ -11492,7 +11674,7 @@
       <c r="I33" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="J33" s="23" t="s">
+      <c r="J33" s="25" t="s">
         <v>473</v>
       </c>
       <c r="K33" s="5"/>
@@ -11523,7 +11705,7 @@
       <c r="I34" s="6" t="s">
         <v>477</v>
       </c>
-      <c r="J34" s="23" t="s">
+      <c r="J34" s="25" t="s">
         <v>478</v>
       </c>
       <c r="K34" s="5"/>
@@ -11554,7 +11736,7 @@
       <c r="I35" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="J35" s="23" t="s">
+      <c r="J35" s="25" t="s">
         <v>480</v>
       </c>
       <c r="K35" s="5"/>
@@ -11569,32 +11751,56 @@
       <c r="C36" s="5" t="s">
         <v>732</v>
       </c>
-      <c r="D36" s="5"/>
-      <c r="E36" s="5"/>
-      <c r="F36" s="5"/>
-      <c r="G36" s="5"/>
+      <c r="D36" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="E36" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F36" s="5" t="s">
+        <v>742</v>
+      </c>
+      <c r="G36" s="5" t="s">
+        <v>743</v>
+      </c>
       <c r="H36" s="5"/>
-      <c r="I36" s="6"/>
-      <c r="J36" s="23"/>
+      <c r="I36" s="24" t="s">
+        <v>744</v>
+      </c>
+      <c r="J36" s="25" t="s">
+        <v>745</v>
+      </c>
       <c r="K36" s="5"/>
     </row>
     <row r="37" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A37" s="26" t="s">
+      <c r="A37" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="B37" s="26" t="s">
+      <c r="B37" s="23" t="s">
         <v>99</v>
       </c>
       <c r="C37" s="5" t="s">
         <v>733</v>
       </c>
-      <c r="D37" s="5"/>
-      <c r="E37" s="5"/>
-      <c r="F37" s="5"/>
-      <c r="G37" s="5"/>
+      <c r="D37" s="5" t="s">
+        <v>411</v>
+      </c>
+      <c r="E37" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F37" s="5" t="s">
+        <v>746</v>
+      </c>
+      <c r="G37" s="5" t="s">
+        <v>747</v>
+      </c>
       <c r="H37" s="5"/>
-      <c r="I37" s="6"/>
-      <c r="J37" s="23"/>
+      <c r="I37" s="24" t="s">
+        <v>748</v>
+      </c>
+      <c r="J37" s="25" t="s">
+        <v>749</v>
+      </c>
       <c r="K37" s="5"/>
     </row>
     <row r="38" spans="1:11" ht="15.75" customHeight="1">
@@ -11623,7 +11829,7 @@
       <c r="I38" s="6" t="s">
         <v>484</v>
       </c>
-      <c r="J38" s="23" t="s">
+      <c r="J38" s="25" t="s">
         <v>485</v>
       </c>
       <c r="K38" s="5"/>
@@ -11654,7 +11860,7 @@
       <c r="I39" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="J39" s="23" t="s">
+      <c r="J39" s="25" t="s">
         <v>487</v>
       </c>
       <c r="K39" s="5"/>
@@ -11685,7 +11891,7 @@
       <c r="I40" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="J40" s="23" t="s">
+      <c r="J40" s="25" t="s">
         <v>489</v>
       </c>
       <c r="K40" s="5"/>
@@ -11716,7 +11922,7 @@
       <c r="I41" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="J41" s="23" t="s">
+      <c r="J41" s="25" t="s">
         <v>491</v>
       </c>
       <c r="K41" s="5"/>
@@ -11747,7 +11953,7 @@
       <c r="I42" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="J42" s="23" t="s">
+      <c r="J42" s="25" t="s">
         <v>493</v>
       </c>
       <c r="K42" s="5"/>
@@ -11778,7 +11984,7 @@
       <c r="I43" s="10" t="s">
         <v>497</v>
       </c>
-      <c r="J43" s="24" t="s">
+      <c r="J43" s="26" t="s">
         <v>498</v>
       </c>
       <c r="K43" s="9"/>
@@ -11809,7 +12015,7 @@
       <c r="I44" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="J44" s="24" t="s">
+      <c r="J44" s="26" t="s">
         <v>500</v>
       </c>
       <c r="K44" s="9"/>
@@ -11840,7 +12046,7 @@
       <c r="I45" s="10" t="s">
         <v>504</v>
       </c>
-      <c r="J45" s="24" t="s">
+      <c r="J45" s="26" t="s">
         <v>505</v>
       </c>
       <c r="K45" s="9"/>
@@ -11871,7 +12077,7 @@
       <c r="I46" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="J46" s="24" t="s">
+      <c r="J46" s="26" t="s">
         <v>507</v>
       </c>
       <c r="K46" s="9"/>
@@ -11902,7 +12108,7 @@
       <c r="I47" s="10" t="s">
         <v>510</v>
       </c>
-      <c r="J47" s="24" t="s">
+      <c r="J47" s="26" t="s">
         <v>511</v>
       </c>
       <c r="K47" s="9"/>
@@ -11933,7 +12139,7 @@
       <c r="I48" s="10" t="s">
         <v>142</v>
       </c>
-      <c r="J48" s="24" t="s">
+      <c r="J48" s="26" t="s">
         <v>513</v>
       </c>
       <c r="K48" s="9"/>
@@ -11964,7 +12170,7 @@
       <c r="I49" s="11" t="s">
         <v>145</v>
       </c>
-      <c r="J49" s="24" t="s">
+      <c r="J49" s="26" t="s">
         <v>515</v>
       </c>
       <c r="K49" s="9"/>
@@ -11995,7 +12201,7 @@
       <c r="I50" s="11" t="s">
         <v>149</v>
       </c>
-      <c r="J50" s="24" t="s">
+      <c r="J50" s="26" t="s">
         <v>518</v>
       </c>
       <c r="K50" s="9"/>
@@ -12026,7 +12232,7 @@
       <c r="I51" s="10" t="s">
         <v>152</v>
       </c>
-      <c r="J51" s="24" t="s">
+      <c r="J51" s="26" t="s">
         <v>520</v>
       </c>
       <c r="K51" s="9"/>
@@ -12057,7 +12263,7 @@
       <c r="I52" s="10" t="s">
         <v>155</v>
       </c>
-      <c r="J52" s="24" t="s">
+      <c r="J52" s="26" t="s">
         <v>522</v>
       </c>
       <c r="K52" s="9"/>
@@ -12088,7 +12294,7 @@
       <c r="I53" s="10" t="s">
         <v>159</v>
       </c>
-      <c r="J53" s="24" t="s">
+      <c r="J53" s="26" t="s">
         <v>524</v>
       </c>
       <c r="K53" s="9"/>
@@ -12119,7 +12325,7 @@
       <c r="I54" s="10" t="s">
         <v>162</v>
       </c>
-      <c r="J54" s="24" t="s">
+      <c r="J54" s="26" t="s">
         <v>526</v>
       </c>
       <c r="K54" s="9"/>
@@ -12150,7 +12356,7 @@
       <c r="I55" s="10" t="s">
         <v>166</v>
       </c>
-      <c r="J55" s="24" t="s">
+      <c r="J55" s="26" t="s">
         <v>528</v>
       </c>
       <c r="K55" s="9"/>
@@ -12181,7 +12387,7 @@
       <c r="I56" s="10" t="s">
         <v>169</v>
       </c>
-      <c r="J56" s="24" t="s">
+      <c r="J56" s="26" t="s">
         <v>530</v>
       </c>
       <c r="K56" s="9"/>
@@ -12212,7 +12418,7 @@
       <c r="I57" s="10" t="s">
         <v>172</v>
       </c>
-      <c r="J57" s="24" t="s">
+      <c r="J57" s="26" t="s">
         <v>532</v>
       </c>
       <c r="K57" s="9"/>
@@ -12243,7 +12449,7 @@
       <c r="I58" s="10" t="s">
         <v>175</v>
       </c>
-      <c r="J58" s="24" t="s">
+      <c r="J58" s="26" t="s">
         <v>534</v>
       </c>
       <c r="K58" s="9"/>
@@ -12258,13 +12464,25 @@
       <c r="C59" s="9" t="s">
         <v>729</v>
       </c>
-      <c r="D59" s="9"/>
-      <c r="E59" s="9"/>
-      <c r="F59" s="9"/>
-      <c r="G59" s="9"/>
+      <c r="D59" s="9" t="s">
+        <v>411</v>
+      </c>
+      <c r="E59" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F59" s="9" t="s">
+        <v>750</v>
+      </c>
+      <c r="G59" s="9" t="s">
+        <v>751</v>
+      </c>
       <c r="H59" s="9"/>
-      <c r="I59" s="10"/>
-      <c r="J59" s="24"/>
+      <c r="I59" s="28" t="s">
+        <v>752</v>
+      </c>
+      <c r="J59" s="26" t="s">
+        <v>753</v>
+      </c>
       <c r="K59" s="9"/>
     </row>
     <row r="60" spans="1:11" ht="13">
@@ -12293,7 +12511,7 @@
       <c r="I60" s="11" t="s">
         <v>539</v>
       </c>
-      <c r="J60" s="24" t="s">
+      <c r="J60" s="26" t="s">
         <v>540</v>
       </c>
       <c r="K60" s="9"/>
@@ -12324,7 +12542,7 @@
       <c r="I61" s="10" t="s">
         <v>543</v>
       </c>
-      <c r="J61" s="24" t="s">
+      <c r="J61" s="26" t="s">
         <v>544</v>
       </c>
       <c r="K61" s="9"/>
@@ -12355,7 +12573,7 @@
       <c r="I62" s="10" t="s">
         <v>548</v>
       </c>
-      <c r="J62" s="24" t="s">
+      <c r="J62" s="26" t="s">
         <v>549</v>
       </c>
       <c r="K62" s="9"/>
@@ -12386,7 +12604,7 @@
       <c r="I63" s="10" t="s">
         <v>179</v>
       </c>
-      <c r="J63" s="24" t="s">
+      <c r="J63" s="26" t="s">
         <v>552</v>
       </c>
       <c r="K63" s="9"/>
@@ -12417,7 +12635,7 @@
       <c r="I64" s="10" t="s">
         <v>183</v>
       </c>
-      <c r="J64" s="24" t="s">
+      <c r="J64" s="26" t="s">
         <v>554</v>
       </c>
       <c r="K64" s="9"/>
@@ -12448,7 +12666,7 @@
       <c r="I65" s="10" t="s">
         <v>187</v>
       </c>
-      <c r="J65" s="24" t="s">
+      <c r="J65" s="26" t="s">
         <v>556</v>
       </c>
       <c r="K65" s="9"/>
@@ -12479,7 +12697,7 @@
       <c r="I66" s="10" t="s">
         <v>190</v>
       </c>
-      <c r="J66" s="24" t="s">
+      <c r="J66" s="26" t="s">
         <v>558</v>
       </c>
       <c r="K66" s="9"/>
@@ -12510,7 +12728,7 @@
       <c r="I67" s="10" t="s">
         <v>194</v>
       </c>
-      <c r="J67" s="24" t="s">
+      <c r="J67" s="26" t="s">
         <v>560</v>
       </c>
       <c r="K67" s="9"/>
@@ -12541,7 +12759,7 @@
       <c r="I68" s="10" t="s">
         <v>197</v>
       </c>
-      <c r="J68" s="24" t="s">
+      <c r="J68" s="26" t="s">
         <v>562</v>
       </c>
       <c r="K68" s="9"/>
@@ -12572,7 +12790,7 @@
       <c r="I69" s="10" t="s">
         <v>200</v>
       </c>
-      <c r="J69" s="24" t="s">
+      <c r="J69" s="26" t="s">
         <v>564</v>
       </c>
       <c r="K69" s="9"/>
@@ -12603,7 +12821,7 @@
       <c r="I70" s="10" t="s">
         <v>203</v>
       </c>
-      <c r="J70" s="24" t="s">
+      <c r="J70" s="26" t="s">
         <v>566</v>
       </c>
       <c r="K70" s="9"/>
@@ -12634,7 +12852,7 @@
       <c r="I71" s="11" t="s">
         <v>206</v>
       </c>
-      <c r="J71" s="24" t="s">
+      <c r="J71" s="26" t="s">
         <v>568</v>
       </c>
       <c r="K71" s="9"/>
@@ -12665,7 +12883,7 @@
       <c r="I72" s="11" t="s">
         <v>209</v>
       </c>
-      <c r="J72" s="24" t="s">
+      <c r="J72" s="26" t="s">
         <v>570</v>
       </c>
       <c r="K72" s="9"/>
@@ -12696,7 +12914,7 @@
       <c r="I73" s="10" t="s">
         <v>213</v>
       </c>
-      <c r="J73" s="24" t="s">
+      <c r="J73" s="26" t="s">
         <v>572</v>
       </c>
       <c r="K73" s="9"/>
@@ -12711,13 +12929,25 @@
       <c r="C74" s="12" t="s">
         <v>723</v>
       </c>
-      <c r="D74" s="9"/>
-      <c r="E74" s="9"/>
-      <c r="F74" s="9"/>
-      <c r="G74" s="9"/>
+      <c r="D74" s="9" t="s">
+        <v>411</v>
+      </c>
+      <c r="E74" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F74" s="9" t="s">
+        <v>755</v>
+      </c>
+      <c r="G74" s="9" t="s">
+        <v>754</v>
+      </c>
       <c r="H74" s="9"/>
-      <c r="I74" s="10"/>
-      <c r="J74" s="24"/>
+      <c r="I74" s="28" t="s">
+        <v>756</v>
+      </c>
+      <c r="J74" s="26" t="s">
+        <v>757</v>
+      </c>
       <c r="K74" s="9"/>
     </row>
     <row r="75" spans="1:11" ht="13">
@@ -12746,7 +12976,7 @@
       <c r="I75" s="10" t="s">
         <v>217</v>
       </c>
-      <c r="J75" s="24" t="s">
+      <c r="J75" s="26" t="s">
         <v>574</v>
       </c>
       <c r="K75" s="9"/>
@@ -12777,7 +13007,7 @@
       <c r="I76" s="10" t="s">
         <v>220</v>
       </c>
-      <c r="J76" s="24" t="s">
+      <c r="J76" s="26" t="s">
         <v>576</v>
       </c>
       <c r="K76" s="9"/>
@@ -12808,7 +13038,7 @@
       <c r="I77" s="10" t="s">
         <v>579</v>
       </c>
-      <c r="J77" s="24" t="s">
+      <c r="J77" s="26" t="s">
         <v>580</v>
       </c>
       <c r="K77" s="9"/>
@@ -12839,7 +13069,7 @@
       <c r="I78" s="10" t="s">
         <v>228</v>
       </c>
-      <c r="J78" s="24" t="s">
+      <c r="J78" s="26" t="s">
         <v>582</v>
       </c>
       <c r="K78" s="9"/>
@@ -12870,7 +13100,7 @@
       <c r="I79" s="10" t="s">
         <v>231</v>
       </c>
-      <c r="J79" s="24" t="s">
+      <c r="J79" s="26" t="s">
         <v>584</v>
       </c>
       <c r="K79" s="9"/>
@@ -12901,7 +13131,7 @@
       <c r="I80" s="11" t="s">
         <v>589</v>
       </c>
-      <c r="J80" s="24" t="s">
+      <c r="J80" s="26" t="s">
         <v>590</v>
       </c>
       <c r="K80" s="9"/>
@@ -12932,7 +13162,7 @@
       <c r="I81" s="10" t="s">
         <v>235</v>
       </c>
-      <c r="J81" s="24" t="s">
+      <c r="J81" s="26" t="s">
         <v>592</v>
       </c>
       <c r="K81" s="9"/>
@@ -12963,7 +13193,7 @@
       <c r="I82" s="11" t="s">
         <v>595</v>
       </c>
-      <c r="J82" s="24" t="s">
+      <c r="J82" s="26" t="s">
         <v>596</v>
       </c>
       <c r="K82" s="9"/>
@@ -12994,7 +13224,7 @@
       <c r="I83" s="10" t="s">
         <v>239</v>
       </c>
-      <c r="J83" s="24" t="s">
+      <c r="J83" s="26" t="s">
         <v>598</v>
       </c>
       <c r="K83" s="9"/>
@@ -13025,7 +13255,7 @@
       <c r="I84" s="10" t="s">
         <v>243</v>
       </c>
-      <c r="J84" s="24" t="s">
+      <c r="J84" s="26" t="s">
         <v>600</v>
       </c>
       <c r="K84" s="9"/>
@@ -13056,7 +13286,7 @@
       <c r="I85" s="10" t="s">
         <v>247</v>
       </c>
-      <c r="J85" s="24" t="s">
+      <c r="J85" s="26" t="s">
         <v>602</v>
       </c>
       <c r="K85" s="9"/>
@@ -13087,7 +13317,7 @@
       <c r="I86" s="10" t="s">
         <v>605</v>
       </c>
-      <c r="J86" s="24" t="s">
+      <c r="J86" s="26" t="s">
         <v>606</v>
       </c>
       <c r="K86" s="9"/>
@@ -13118,7 +13348,7 @@
       <c r="I87" s="10" t="s">
         <v>251</v>
       </c>
-      <c r="J87" s="24" t="s">
+      <c r="J87" s="26" t="s">
         <v>608</v>
       </c>
       <c r="K87" s="9"/>
@@ -13149,7 +13379,7 @@
       <c r="I88" s="10" t="s">
         <v>254</v>
       </c>
-      <c r="J88" s="24" t="s">
+      <c r="J88" s="26" t="s">
         <v>610</v>
       </c>
       <c r="K88" s="9"/>
@@ -13180,7 +13410,7 @@
       <c r="I89" s="10" t="s">
         <v>257</v>
       </c>
-      <c r="J89" s="24" t="s">
+      <c r="J89" s="26" t="s">
         <v>612</v>
       </c>
       <c r="K89" s="9"/>
@@ -13211,7 +13441,7 @@
       <c r="I90" s="10" t="s">
         <v>261</v>
       </c>
-      <c r="J90" s="24" t="s">
+      <c r="J90" s="26" t="s">
         <v>614</v>
       </c>
       <c r="K90" s="9"/>
@@ -13242,7 +13472,7 @@
       <c r="I91" s="11" t="s">
         <v>266</v>
       </c>
-      <c r="J91" s="24" t="s">
+      <c r="J91" s="26" t="s">
         <v>617</v>
       </c>
       <c r="K91" s="9"/>
@@ -13273,7 +13503,7 @@
       <c r="I92" s="11" t="s">
         <v>269</v>
       </c>
-      <c r="J92" s="24" t="s">
+      <c r="J92" s="26" t="s">
         <v>619</v>
       </c>
       <c r="K92" s="9"/>
@@ -13304,7 +13534,7 @@
       <c r="I93" s="11" t="s">
         <v>272</v>
       </c>
-      <c r="J93" s="24" t="s">
+      <c r="J93" s="26" t="s">
         <v>621</v>
       </c>
       <c r="K93" s="9"/>
@@ -13335,7 +13565,7 @@
       <c r="I94" s="11" t="s">
         <v>275</v>
       </c>
-      <c r="J94" s="24" t="s">
+      <c r="J94" s="26" t="s">
         <v>623</v>
       </c>
       <c r="K94" s="9"/>
@@ -13350,13 +13580,25 @@
       <c r="C95" s="9" t="s">
         <v>726</v>
       </c>
-      <c r="D95" s="9"/>
-      <c r="E95" s="9"/>
-      <c r="F95" s="9"/>
-      <c r="G95" s="9"/>
+      <c r="D95" s="9" t="s">
+        <v>398</v>
+      </c>
+      <c r="E95" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F95" s="9" t="s">
+        <v>758</v>
+      </c>
+      <c r="G95" s="9" t="s">
+        <v>759</v>
+      </c>
       <c r="H95" s="9"/>
-      <c r="I95" s="11"/>
-      <c r="J95" s="24"/>
+      <c r="I95" s="28" t="s">
+        <v>760</v>
+      </c>
+      <c r="J95" s="26" t="s">
+        <v>761</v>
+      </c>
       <c r="K95" s="9"/>
     </row>
     <row r="96" spans="1:11" ht="13">
@@ -13385,7 +13627,7 @@
       <c r="I96" s="11" t="s">
         <v>625</v>
       </c>
-      <c r="J96" s="24"/>
+      <c r="J96" s="26"/>
       <c r="K96" s="9"/>
     </row>
     <row r="97" spans="1:11" ht="13">
@@ -13414,7 +13656,7 @@
       <c r="I97" s="16" t="s">
         <v>630</v>
       </c>
-      <c r="J97" s="25" t="s">
+      <c r="J97" s="17" t="s">
         <v>631</v>
       </c>
       <c r="K97" s="14"/>
@@ -13445,7 +13687,7 @@
       <c r="I98" s="16" t="s">
         <v>635</v>
       </c>
-      <c r="J98" s="25" t="s">
+      <c r="J98" s="17" t="s">
         <v>636</v>
       </c>
       <c r="K98" s="14"/>
@@ -13476,7 +13718,7 @@
       <c r="I99" s="15" t="s">
         <v>640</v>
       </c>
-      <c r="J99" s="25" t="s">
+      <c r="J99" s="17" t="s">
         <v>641</v>
       </c>
       <c r="K99" s="14"/>
@@ -13507,7 +13749,7 @@
       <c r="I100" s="15" t="s">
         <v>645</v>
       </c>
-      <c r="J100" s="25" t="s">
+      <c r="J100" s="17" t="s">
         <v>646</v>
       </c>
       <c r="K100" s="14"/>
@@ -13538,7 +13780,7 @@
       <c r="I101" s="15" t="s">
         <v>650</v>
       </c>
-      <c r="J101" s="25" t="s">
+      <c r="J101" s="17" t="s">
         <v>651</v>
       </c>
       <c r="K101" s="14"/>
@@ -13569,7 +13811,7 @@
       <c r="I102" s="15" t="s">
         <v>654</v>
       </c>
-      <c r="J102" s="25"/>
+      <c r="J102" s="17"/>
       <c r="K102" s="14"/>
     </row>
     <row r="103" spans="1:11" ht="13">
@@ -13598,7 +13840,7 @@
       <c r="I103" s="15" t="s">
         <v>282</v>
       </c>
-      <c r="J103" s="25" t="s">
+      <c r="J103" s="17" t="s">
         <v>656</v>
       </c>
       <c r="K103" s="14"/>
@@ -13629,7 +13871,7 @@
       <c r="I104" s="15" t="s">
         <v>285</v>
       </c>
-      <c r="J104" s="25" t="s">
+      <c r="J104" s="17" t="s">
         <v>658</v>
       </c>
       <c r="K104" s="14"/>
@@ -13660,7 +13902,7 @@
       <c r="I105" s="16" t="s">
         <v>288</v>
       </c>
-      <c r="J105" s="25" t="s">
+      <c r="J105" s="17" t="s">
         <v>660</v>
       </c>
       <c r="K105" s="14"/>
@@ -13691,7 +13933,7 @@
       <c r="I106" s="16" t="s">
         <v>291</v>
       </c>
-      <c r="J106" s="25" t="s">
+      <c r="J106" s="17" t="s">
         <v>662</v>
       </c>
       <c r="K106" s="14"/>
@@ -13722,7 +13964,7 @@
       <c r="I107" s="16" t="s">
         <v>294</v>
       </c>
-      <c r="J107" s="25" t="s">
+      <c r="J107" s="17" t="s">
         <v>664</v>
       </c>
       <c r="K107" s="14"/>
@@ -13753,7 +13995,7 @@
       <c r="I108" s="16" t="s">
         <v>297</v>
       </c>
-      <c r="J108" s="25" t="s">
+      <c r="J108" s="17" t="s">
         <v>666</v>
       </c>
       <c r="K108" s="14"/>
@@ -13784,7 +14026,7 @@
       <c r="I109" s="16" t="s">
         <v>300</v>
       </c>
-      <c r="J109" s="25" t="s">
+      <c r="J109" s="17" t="s">
         <v>668</v>
       </c>
       <c r="K109" s="14"/>
@@ -13799,13 +14041,25 @@
       <c r="C110" s="14" t="s">
         <v>191</v>
       </c>
-      <c r="D110" s="14"/>
-      <c r="E110" s="14"/>
-      <c r="F110" s="14"/>
-      <c r="G110" s="14"/>
+      <c r="D110" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="E110" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="F110" s="14" t="s">
+        <v>762</v>
+      </c>
+      <c r="G110" s="14" t="s">
+        <v>763</v>
+      </c>
       <c r="H110" s="14"/>
-      <c r="I110" s="16"/>
-      <c r="J110" s="25"/>
+      <c r="I110" s="29" t="s">
+        <v>764</v>
+      </c>
+      <c r="J110" s="17" t="s">
+        <v>560</v>
+      </c>
       <c r="K110" s="14"/>
     </row>
     <row r="111" spans="1:11" ht="13">
@@ -13834,7 +14088,7 @@
       <c r="I111" s="15" t="s">
         <v>304</v>
       </c>
-      <c r="J111" s="25" t="s">
+      <c r="J111" s="17" t="s">
         <v>670</v>
       </c>
       <c r="K111" s="14"/>
@@ -13865,7 +14119,7 @@
       <c r="I112" s="15" t="s">
         <v>673</v>
       </c>
-      <c r="J112" s="25" t="s">
+      <c r="J112" s="17" t="s">
         <v>674</v>
       </c>
       <c r="K112" s="14"/>
@@ -13896,7 +14150,7 @@
       <c r="I113" s="15" t="s">
         <v>308</v>
       </c>
-      <c r="J113" s="25" t="s">
+      <c r="J113" s="17" t="s">
         <v>676</v>
       </c>
       <c r="K113" s="14"/>
@@ -13927,7 +14181,7 @@
       <c r="I114" s="15" t="s">
         <v>310</v>
       </c>
-      <c r="J114" s="25" t="s">
+      <c r="J114" s="17" t="s">
         <v>678</v>
       </c>
       <c r="K114" s="14"/>
@@ -13958,7 +14212,7 @@
       <c r="I115" s="15" t="s">
         <v>314</v>
       </c>
-      <c r="J115" s="25" t="s">
+      <c r="J115" s="17" t="s">
         <v>680</v>
       </c>
       <c r="K115" s="14"/>
@@ -13973,13 +14227,25 @@
       <c r="C116" s="14" t="s">
         <v>731</v>
       </c>
-      <c r="D116" s="14"/>
-      <c r="E116" s="14"/>
-      <c r="F116" s="14"/>
-      <c r="G116" s="14"/>
+      <c r="D116" s="14" t="s">
+        <v>411</v>
+      </c>
+      <c r="E116" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="F116" s="14" t="s">
+        <v>765</v>
+      </c>
+      <c r="G116" s="14" t="s">
+        <v>766</v>
+      </c>
       <c r="H116" s="14"/>
-      <c r="I116" s="15"/>
-      <c r="J116" s="25"/>
+      <c r="I116" s="29" t="s">
+        <v>767</v>
+      </c>
+      <c r="J116" s="17" t="s">
+        <v>768</v>
+      </c>
       <c r="K116" s="14"/>
     </row>
     <row r="117" spans="1:11" ht="13">
@@ -14008,7 +14274,7 @@
       <c r="I117" s="15" t="s">
         <v>318</v>
       </c>
-      <c r="J117" s="25" t="s">
+      <c r="J117" s="17" t="s">
         <v>682</v>
       </c>
       <c r="K117" s="14"/>
@@ -14023,13 +14289,25 @@
       <c r="C118" s="14" t="s">
         <v>722</v>
       </c>
-      <c r="D118" s="14"/>
-      <c r="E118" s="14"/>
-      <c r="F118" s="14"/>
-      <c r="G118" s="14"/>
+      <c r="D118" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="E118" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="F118" s="14" t="s">
+        <v>769</v>
+      </c>
+      <c r="G118" s="14" t="s">
+        <v>770</v>
+      </c>
       <c r="H118" s="14"/>
-      <c r="I118" s="15"/>
-      <c r="J118" s="25"/>
+      <c r="I118" s="29" t="s">
+        <v>771</v>
+      </c>
+      <c r="J118" s="17" t="s">
+        <v>772</v>
+      </c>
       <c r="K118" s="14"/>
     </row>
     <row r="119" spans="1:11" ht="13">
@@ -14058,7 +14336,7 @@
       <c r="I119" s="16" t="s">
         <v>685</v>
       </c>
-      <c r="J119" s="25" t="s">
+      <c r="J119" s="17" t="s">
         <v>686</v>
       </c>
       <c r="K119" s="14"/>
@@ -14089,7 +14367,7 @@
       <c r="I120" s="15" t="s">
         <v>325</v>
       </c>
-      <c r="J120" s="25" t="s">
+      <c r="J120" s="17" t="s">
         <v>688</v>
       </c>
       <c r="K120" s="14"/>
@@ -14120,7 +14398,7 @@
       <c r="I121" s="15" t="s">
         <v>328</v>
       </c>
-      <c r="J121" s="25" t="s">
+      <c r="J121" s="17" t="s">
         <v>691</v>
       </c>
       <c r="K121" s="14"/>
@@ -14151,7 +14429,7 @@
       <c r="I122" s="15" t="s">
         <v>331</v>
       </c>
-      <c r="J122" s="25" t="s">
+      <c r="J122" s="17" t="s">
         <v>693</v>
       </c>
       <c r="K122" s="14"/>
@@ -14182,7 +14460,7 @@
       <c r="I123" s="15" t="s">
         <v>334</v>
       </c>
-      <c r="J123" s="25" t="s">
+      <c r="J123" s="17" t="s">
         <v>695</v>
       </c>
       <c r="K123" s="14"/>
@@ -14213,7 +14491,7 @@
       <c r="I124" s="15" t="s">
         <v>337</v>
       </c>
-      <c r="J124" s="25" t="s">
+      <c r="J124" s="17" t="s">
         <v>697</v>
       </c>
       <c r="K124" s="14"/>
@@ -14244,7 +14522,7 @@
       <c r="I125" s="15" t="s">
         <v>340</v>
       </c>
-      <c r="J125" s="25" t="s">
+      <c r="J125" s="17" t="s">
         <v>699</v>
       </c>
       <c r="K125" s="14"/>
@@ -14275,7 +14553,7 @@
       <c r="I126" s="15" t="s">
         <v>344</v>
       </c>
-      <c r="J126" s="25" t="s">
+      <c r="J126" s="17" t="s">
         <v>701</v>
       </c>
       <c r="K126" s="14"/>
@@ -14306,7 +14584,7 @@
       <c r="I127" s="15" t="s">
         <v>347</v>
       </c>
-      <c r="J127" s="25" t="s">
+      <c r="J127" s="17" t="s">
         <v>703</v>
       </c>
       <c r="K127" s="14"/>
@@ -14337,7 +14615,7 @@
       <c r="I128" s="15" t="s">
         <v>351</v>
       </c>
-      <c r="J128" s="25" t="s">
+      <c r="J128" s="17" t="s">
         <v>705</v>
       </c>
       <c r="K128" s="14"/>
@@ -14368,7 +14646,7 @@
       <c r="I129" s="16" t="s">
         <v>354</v>
       </c>
-      <c r="J129" s="25" t="s">
+      <c r="J129" s="17" t="s">
         <v>708</v>
       </c>
       <c r="K129" s="14"/>
@@ -14399,7 +14677,7 @@
       <c r="I130" s="15" t="s">
         <v>357</v>
       </c>
-      <c r="J130" s="25" t="s">
+      <c r="J130" s="17" t="s">
         <v>710</v>
       </c>
       <c r="K130" s="14"/>
@@ -14430,7 +14708,7 @@
       <c r="I131" s="15" t="s">
         <v>360</v>
       </c>
-      <c r="J131" s="25" t="s">
+      <c r="J131" s="17" t="s">
         <v>712</v>
       </c>
       <c r="K131" s="14"/>
@@ -14445,13 +14723,25 @@
       <c r="C132" s="14" t="s">
         <v>725</v>
       </c>
-      <c r="D132" s="14"/>
-      <c r="E132" s="14"/>
-      <c r="F132" s="14"/>
-      <c r="G132" s="14"/>
+      <c r="D132" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="E132" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="F132" s="14" t="s">
+        <v>773</v>
+      </c>
+      <c r="G132" s="14" t="s">
+        <v>774</v>
+      </c>
       <c r="H132" s="14"/>
-      <c r="I132" s="15"/>
-      <c r="J132" s="25"/>
+      <c r="I132" s="29" t="s">
+        <v>775</v>
+      </c>
+      <c r="J132" s="17" t="s">
+        <v>776</v>
+      </c>
       <c r="K132" s="14"/>
     </row>
     <row r="133" spans="1:11" ht="13">
@@ -14480,7 +14770,7 @@
       <c r="I133" s="15" t="s">
         <v>717</v>
       </c>
-      <c r="J133" s="25" t="s">
+      <c r="J133" s="17" t="s">
         <v>718</v>
       </c>
       <c r="K133" s="14"/>
@@ -14511,15 +14801,41 @@
       <c r="I134" s="15" t="s">
         <v>364</v>
       </c>
-      <c r="J134" s="25" t="s">
+      <c r="J134" s="17" t="s">
         <v>720</v>
       </c>
       <c r="K134" s="14"/>
     </row>
     <row r="135" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A135" s="14" t="s">
+        <v>777</v>
+      </c>
+      <c r="B135" s="14" t="s">
+        <v>779</v>
+      </c>
       <c r="C135" s="14" t="s">
         <v>727</v>
       </c>
+      <c r="D135" s="14" t="s">
+        <v>411</v>
+      </c>
+      <c r="E135" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="F135" s="14" t="s">
+        <v>778</v>
+      </c>
+      <c r="G135" s="14" t="s">
+        <v>780</v>
+      </c>
+      <c r="H135" s="14"/>
+      <c r="I135" s="29" t="s">
+        <v>781</v>
+      </c>
+      <c r="J135" s="17" t="s">
+        <v>782</v>
+      </c>
+      <c r="K135" s="14"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -14628,23 +14944,35 @@
     <hyperlink ref="I112" r:id="rId103" xr:uid="{00000000-0004-0000-0100-000066000000}"/>
     <hyperlink ref="I113" r:id="rId104" xr:uid="{00000000-0004-0000-0100-000067000000}"/>
     <hyperlink ref="I114" r:id="rId105" xr:uid="{00000000-0004-0000-0100-000068000000}"/>
-    <hyperlink ref="I115" r:id="rId106" xr:uid="{00000000-0004-0000-0100-000069000000}"/>
-    <hyperlink ref="I117" r:id="rId107" xr:uid="{00000000-0004-0000-0100-00006A000000}"/>
-    <hyperlink ref="I119" r:id="rId108" xr:uid="{00000000-0004-0000-0100-00006B000000}"/>
-    <hyperlink ref="I120" r:id="rId109" xr:uid="{00000000-0004-0000-0100-00006C000000}"/>
-    <hyperlink ref="I121" r:id="rId110" xr:uid="{00000000-0004-0000-0100-00006D000000}"/>
-    <hyperlink ref="I122" r:id="rId111" xr:uid="{00000000-0004-0000-0100-00006E000000}"/>
-    <hyperlink ref="I123" r:id="rId112" xr:uid="{00000000-0004-0000-0100-00006F000000}"/>
-    <hyperlink ref="I124" r:id="rId113" xr:uid="{00000000-0004-0000-0100-000070000000}"/>
-    <hyperlink ref="I125" r:id="rId114" xr:uid="{00000000-0004-0000-0100-000071000000}"/>
-    <hyperlink ref="I126" r:id="rId115" xr:uid="{00000000-0004-0000-0100-000072000000}"/>
-    <hyperlink ref="I127" r:id="rId116" xr:uid="{00000000-0004-0000-0100-000073000000}"/>
-    <hyperlink ref="I128" r:id="rId117" xr:uid="{00000000-0004-0000-0100-000074000000}"/>
-    <hyperlink ref="I129" r:id="rId118" xr:uid="{00000000-0004-0000-0100-000075000000}"/>
-    <hyperlink ref="I130" r:id="rId119" xr:uid="{00000000-0004-0000-0100-000076000000}"/>
-    <hyperlink ref="I131" r:id="rId120" xr:uid="{00000000-0004-0000-0100-000077000000}"/>
-    <hyperlink ref="I133" r:id="rId121" xr:uid="{00000000-0004-0000-0100-000078000000}"/>
-    <hyperlink ref="I134" r:id="rId122" xr:uid="{00000000-0004-0000-0100-000079000000}"/>
+    <hyperlink ref="I117" r:id="rId106" xr:uid="{00000000-0004-0000-0100-00006A000000}"/>
+    <hyperlink ref="I119" r:id="rId107" xr:uid="{00000000-0004-0000-0100-00006B000000}"/>
+    <hyperlink ref="I120" r:id="rId108" xr:uid="{00000000-0004-0000-0100-00006C000000}"/>
+    <hyperlink ref="I121" r:id="rId109" xr:uid="{00000000-0004-0000-0100-00006D000000}"/>
+    <hyperlink ref="I122" r:id="rId110" xr:uid="{00000000-0004-0000-0100-00006E000000}"/>
+    <hyperlink ref="I123" r:id="rId111" xr:uid="{00000000-0004-0000-0100-00006F000000}"/>
+    <hyperlink ref="I124" r:id="rId112" xr:uid="{00000000-0004-0000-0100-000070000000}"/>
+    <hyperlink ref="I125" r:id="rId113" xr:uid="{00000000-0004-0000-0100-000071000000}"/>
+    <hyperlink ref="I126" r:id="rId114" xr:uid="{00000000-0004-0000-0100-000072000000}"/>
+    <hyperlink ref="I127" r:id="rId115" xr:uid="{00000000-0004-0000-0100-000073000000}"/>
+    <hyperlink ref="I128" r:id="rId116" xr:uid="{00000000-0004-0000-0100-000074000000}"/>
+    <hyperlink ref="I129" r:id="rId117" xr:uid="{00000000-0004-0000-0100-000075000000}"/>
+    <hyperlink ref="I130" r:id="rId118" xr:uid="{00000000-0004-0000-0100-000076000000}"/>
+    <hyperlink ref="I131" r:id="rId119" xr:uid="{00000000-0004-0000-0100-000077000000}"/>
+    <hyperlink ref="I133" r:id="rId120" xr:uid="{00000000-0004-0000-0100-000078000000}"/>
+    <hyperlink ref="I134" r:id="rId121" xr:uid="{00000000-0004-0000-0100-000079000000}"/>
+    <hyperlink ref="I17" r:id="rId122" xr:uid="{881F0F65-3DCC-E94A-9FE5-2CC264A8F337}"/>
+    <hyperlink ref="I18" r:id="rId123" xr:uid="{AC40193A-1232-474A-A421-B55FFA7E99B8}"/>
+    <hyperlink ref="I36" r:id="rId124" xr:uid="{D41ADE90-9772-8F41-AC9B-8DE303E9D7A9}"/>
+    <hyperlink ref="I37" r:id="rId125" xr:uid="{85F37ABA-4B3B-764B-A1ED-9DD3AFFF0004}"/>
+    <hyperlink ref="I59" r:id="rId126" xr:uid="{F5E14AAB-D49A-EF45-A165-3757EFF2E9B4}"/>
+    <hyperlink ref="I74" r:id="rId127" xr:uid="{759707EA-D94A-2D42-8FE0-FAE01578CF99}"/>
+    <hyperlink ref="I95" r:id="rId128" xr:uid="{1A936B77-62AA-804C-B853-4343ADD2D925}"/>
+    <hyperlink ref="I115" r:id="rId129" xr:uid="{00000000-0004-0000-0100-000069000000}"/>
+    <hyperlink ref="I110" r:id="rId130" xr:uid="{2929B0EA-E15F-E444-ADC1-C2E3E232D526}"/>
+    <hyperlink ref="I116" r:id="rId131" xr:uid="{7770BE98-2823-3047-9E72-08DB2B79C177}"/>
+    <hyperlink ref="I118" r:id="rId132" xr:uid="{A91F97A2-47FA-FB49-8866-2B9AA1419B2B}"/>
+    <hyperlink ref="I132" r:id="rId133" xr:uid="{11EEE67C-10E9-AB44-91F6-D7C7B31697FA}"/>
+    <hyperlink ref="I135" r:id="rId134" xr:uid="{8E930EBE-7205-BD41-9ED8-FE8F970A98EF}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/docs/香港素食餐廳大全.xlsx
+++ b/docs/香港素食餐廳大全.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tim/_Python_OpenAI/My-projects/7-hk-veg-map/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EEA4D9C-AF4B-5144-ABA6-41EA95EE85E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56E91143-5228-CE44-84BA-BB0B29E005B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1500" yWindow="500" windowWidth="16400" windowHeight="16260" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1550,9 +1550,6 @@
     <t>尖沙咀彌敦道132號美麗華廣場1期1樓108A號舖</t>
   </si>
   <si>
-    <t>22.30350154979997, 114.17243399910296</t>
-  </si>
-  <si>
     <t>https://www.openrice.com/zh/hongkong/r-nuttea-%E5%B0%96%E6%B2%99%E5%92%80-%E5%8F%B0%E7%81%A3%E8%8F%9C-%E6%9E%9C%E6%B1%81-r748553</t>
   </si>
   <si>
@@ -1649,9 +1646,6 @@
     <t>旺角彌敦道688號旺角中心1樓F52號舖</t>
   </si>
   <si>
-    <t>22.32365323658483, 114.1695296275202</t>
-  </si>
-  <si>
     <t>https://www.openrice.com/zh/hongkong/r-nuttea-%E6%97%BA%E8%A7%92-%E5%8F%B0%E7%81%A3%E8%8F%9C-%E6%9E%9C%E6%B1%81-r674465</t>
   </si>
   <si>
@@ -2370,6 +2364,12 @@
   </si>
   <si>
     <t>29854736</t>
+  </si>
+  <si>
+    <t>22.319903610218404, 114.16972036987416</t>
+  </si>
+  <si>
+    <t>22.300668907966998, 114.17211620123605</t>
   </si>
 </sst>
 </file>
@@ -10640,8 +10640,8 @@
   </sheetPr>
   <dimension ref="A1:K135"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A124" zoomScale="125" workbookViewId="0">
-      <selection activeCell="B155" sqref="B155"/>
+    <sheetView tabSelected="1" topLeftCell="D34" zoomScale="125" workbookViewId="0">
+      <selection activeCell="G47" sqref="G47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -10862,7 +10862,7 @@
         <v>414</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="H7" s="5"/>
       <c r="I7" s="7" t="s">
@@ -11158,7 +11158,7 @@
         <v>22</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="D17" s="5" t="s">
         <v>47</v>
@@ -11167,14 +11167,14 @@
         <v>25</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="H17" s="5"/>
       <c r="I17" s="24" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="J17" s="25">
         <v>37553067</v>
@@ -11189,7 +11189,7 @@
         <v>22</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="D18" s="5" t="s">
         <v>47</v>
@@ -11198,17 +11198,17 @@
         <v>25</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="H18" s="5"/>
       <c r="I18" s="24" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="J18" s="25" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="K18" s="5"/>
     </row>
@@ -11749,7 +11749,7 @@
         <v>99</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="D36" s="5" t="s">
         <v>181</v>
@@ -11758,17 +11758,17 @@
         <v>14</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="G36" s="5" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="H36" s="5"/>
       <c r="I36" s="24" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="J36" s="25" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="K36" s="5"/>
     </row>
@@ -11780,7 +11780,7 @@
         <v>99</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="D37" s="5" t="s">
         <v>411</v>
@@ -11789,17 +11789,17 @@
         <v>25</v>
       </c>
       <c r="F37" s="5" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="G37" s="5" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="H37" s="5"/>
       <c r="I37" s="24" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="J37" s="25" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="K37" s="5"/>
     </row>
@@ -12102,14 +12102,14 @@
         <v>508</v>
       </c>
       <c r="G47" s="9" t="s">
-        <v>509</v>
+        <v>782</v>
       </c>
       <c r="H47" s="9"/>
       <c r="I47" s="10" t="s">
+        <v>509</v>
+      </c>
+      <c r="J47" s="26" t="s">
         <v>510</v>
-      </c>
-      <c r="J47" s="26" t="s">
-        <v>511</v>
       </c>
       <c r="K47" s="9"/>
     </row>
@@ -12133,14 +12133,14 @@
         <v>141</v>
       </c>
       <c r="G48" s="9" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="H48" s="9"/>
       <c r="I48" s="10" t="s">
         <v>142</v>
       </c>
       <c r="J48" s="26" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="K48" s="9"/>
     </row>
@@ -12164,14 +12164,14 @@
         <v>144</v>
       </c>
       <c r="G49" s="9" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="H49" s="9"/>
       <c r="I49" s="11" t="s">
         <v>145</v>
       </c>
       <c r="J49" s="26" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="K49" s="9"/>
     </row>
@@ -12186,7 +12186,7 @@
         <v>146</v>
       </c>
       <c r="D50" s="9" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="E50" s="9" t="s">
         <v>25</v>
@@ -12195,14 +12195,14 @@
         <v>148</v>
       </c>
       <c r="G50" s="9" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="H50" s="9"/>
       <c r="I50" s="11" t="s">
         <v>149</v>
       </c>
       <c r="J50" s="26" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="K50" s="9"/>
     </row>
@@ -12226,14 +12226,14 @@
         <v>151</v>
       </c>
       <c r="G51" s="9" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="H51" s="9"/>
       <c r="I51" s="10" t="s">
         <v>152</v>
       </c>
       <c r="J51" s="26" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="K51" s="9"/>
     </row>
@@ -12257,14 +12257,14 @@
         <v>154</v>
       </c>
       <c r="G52" s="9" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="H52" s="9"/>
       <c r="I52" s="10" t="s">
         <v>155</v>
       </c>
       <c r="J52" s="26" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="K52" s="9"/>
     </row>
@@ -12288,14 +12288,14 @@
         <v>158</v>
       </c>
       <c r="G53" s="9" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="H53" s="9"/>
       <c r="I53" s="10" t="s">
         <v>159</v>
       </c>
       <c r="J53" s="26" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="K53" s="9"/>
     </row>
@@ -12319,14 +12319,14 @@
         <v>161</v>
       </c>
       <c r="G54" s="9" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="H54" s="9"/>
       <c r="I54" s="10" t="s">
         <v>162</v>
       </c>
       <c r="J54" s="26" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="K54" s="9"/>
     </row>
@@ -12350,14 +12350,14 @@
         <v>165</v>
       </c>
       <c r="G55" s="9" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="H55" s="9"/>
       <c r="I55" s="10" t="s">
         <v>166</v>
       </c>
       <c r="J55" s="26" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="K55" s="9"/>
     </row>
@@ -12381,14 +12381,14 @@
         <v>168</v>
       </c>
       <c r="G56" s="9" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="H56" s="9"/>
       <c r="I56" s="10" t="s">
         <v>169</v>
       </c>
       <c r="J56" s="26" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="K56" s="9"/>
     </row>
@@ -12412,14 +12412,14 @@
         <v>171</v>
       </c>
       <c r="G57" s="9" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="H57" s="9"/>
       <c r="I57" s="10" t="s">
         <v>172</v>
       </c>
       <c r="J57" s="26" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="K57" s="9"/>
     </row>
@@ -12443,14 +12443,14 @@
         <v>174</v>
       </c>
       <c r="G58" s="9" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="H58" s="9"/>
       <c r="I58" s="10" t="s">
         <v>175</v>
       </c>
       <c r="J58" s="26" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="K58" s="9"/>
     </row>
@@ -12459,10 +12459,10 @@
         <v>132</v>
       </c>
       <c r="B59" s="9" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="C59" s="9" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="D59" s="9" t="s">
         <v>411</v>
@@ -12471,17 +12471,17 @@
         <v>14</v>
       </c>
       <c r="F59" s="9" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="G59" s="9" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="H59" s="9"/>
       <c r="I59" s="28" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="J59" s="26" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="K59" s="9"/>
     </row>
@@ -12490,10 +12490,10 @@
         <v>132</v>
       </c>
       <c r="B60" s="9" t="s">
+        <v>534</v>
+      </c>
+      <c r="C60" s="9" t="s">
         <v>535</v>
-      </c>
-      <c r="C60" s="9" t="s">
-        <v>536</v>
       </c>
       <c r="D60" s="9" t="s">
         <v>157</v>
@@ -12502,17 +12502,17 @@
         <v>25</v>
       </c>
       <c r="F60" s="9" t="s">
+        <v>536</v>
+      </c>
+      <c r="G60" s="9" t="s">
         <v>537</v>
-      </c>
-      <c r="G60" s="9" t="s">
-        <v>538</v>
       </c>
       <c r="H60" s="9"/>
       <c r="I60" s="11" t="s">
+        <v>538</v>
+      </c>
+      <c r="J60" s="26" t="s">
         <v>539</v>
-      </c>
-      <c r="J60" s="26" t="s">
-        <v>540</v>
       </c>
       <c r="K60" s="9"/>
     </row>
@@ -12521,7 +12521,7 @@
         <v>132</v>
       </c>
       <c r="B61" s="9" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="C61" s="9" t="s">
         <v>381</v>
@@ -12533,17 +12533,17 @@
         <v>14</v>
       </c>
       <c r="F61" s="9" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="G61" s="9" t="s">
-        <v>542</v>
+        <v>781</v>
       </c>
       <c r="H61" s="9"/>
       <c r="I61" s="10" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="J61" s="26" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="K61" s="9"/>
     </row>
@@ -12555,7 +12555,7 @@
         <v>176</v>
       </c>
       <c r="C62" s="9" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="D62" s="9" t="s">
         <v>411</v>
@@ -12564,17 +12564,17 @@
         <v>25</v>
       </c>
       <c r="F62" s="9" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="G62" s="9" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="H62" s="9"/>
       <c r="I62" s="10" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="J62" s="26" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="K62" s="9"/>
     </row>
@@ -12595,17 +12595,17 @@
         <v>25</v>
       </c>
       <c r="F63" s="9" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="G63" s="9" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="H63" s="9"/>
       <c r="I63" s="10" t="s">
         <v>179</v>
       </c>
       <c r="J63" s="26" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="K63" s="9"/>
     </row>
@@ -12629,14 +12629,14 @@
         <v>182</v>
       </c>
       <c r="G64" s="9" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="H64" s="9"/>
       <c r="I64" s="10" t="s">
         <v>183</v>
       </c>
       <c r="J64" s="26" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="K64" s="9"/>
     </row>
@@ -12660,14 +12660,14 @@
         <v>186</v>
       </c>
       <c r="G65" s="9" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="H65" s="9"/>
       <c r="I65" s="10" t="s">
         <v>187</v>
       </c>
       <c r="J65" s="26" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="K65" s="9"/>
     </row>
@@ -12691,14 +12691,14 @@
         <v>189</v>
       </c>
       <c r="G66" s="9" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="H66" s="9"/>
       <c r="I66" s="10" t="s">
         <v>190</v>
       </c>
       <c r="J66" s="26" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="K66" s="9"/>
     </row>
@@ -12722,14 +12722,14 @@
         <v>193</v>
       </c>
       <c r="G67" s="9" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="H67" s="9"/>
       <c r="I67" s="10" t="s">
         <v>194</v>
       </c>
       <c r="J67" s="26" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="K67" s="9"/>
     </row>
@@ -12753,14 +12753,14 @@
         <v>196</v>
       </c>
       <c r="G68" s="9" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="H68" s="9"/>
       <c r="I68" s="10" t="s">
         <v>197</v>
       </c>
       <c r="J68" s="26" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="K68" s="9"/>
     </row>
@@ -12784,14 +12784,14 @@
         <v>199</v>
       </c>
       <c r="G69" s="9" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="H69" s="9"/>
       <c r="I69" s="10" t="s">
         <v>200</v>
       </c>
       <c r="J69" s="26" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="K69" s="9"/>
     </row>
@@ -12815,14 +12815,14 @@
         <v>202</v>
       </c>
       <c r="G70" s="9" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="H70" s="9"/>
       <c r="I70" s="10" t="s">
         <v>203</v>
       </c>
       <c r="J70" s="26" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="K70" s="9"/>
     </row>
@@ -12846,14 +12846,14 @@
         <v>205</v>
       </c>
       <c r="G71" s="9" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="H71" s="9"/>
       <c r="I71" s="11" t="s">
         <v>206</v>
       </c>
       <c r="J71" s="26" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="K71" s="9"/>
     </row>
@@ -12877,14 +12877,14 @@
         <v>208</v>
       </c>
       <c r="G72" s="9" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="H72" s="9"/>
       <c r="I72" s="11" t="s">
         <v>209</v>
       </c>
       <c r="J72" s="26" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="K72" s="9"/>
     </row>
@@ -12908,14 +12908,14 @@
         <v>212</v>
       </c>
       <c r="G73" s="9" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="H73" s="9"/>
       <c r="I73" s="10" t="s">
         <v>213</v>
       </c>
       <c r="J73" s="26" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="K73" s="9"/>
     </row>
@@ -12924,10 +12924,10 @@
         <v>132</v>
       </c>
       <c r="B74" s="9" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="C74" s="12" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="D74" s="9" t="s">
         <v>411</v>
@@ -12936,17 +12936,17 @@
         <v>25</v>
       </c>
       <c r="F74" s="9" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="G74" s="9" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="H74" s="9"/>
       <c r="I74" s="28" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="J74" s="26" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="K74" s="9"/>
     </row>
@@ -12970,14 +12970,14 @@
         <v>216</v>
       </c>
       <c r="G75" s="9" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="H75" s="9"/>
       <c r="I75" s="10" t="s">
         <v>217</v>
       </c>
       <c r="J75" s="26" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="K75" s="9"/>
     </row>
@@ -13001,14 +13001,14 @@
         <v>219</v>
       </c>
       <c r="G76" s="9" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="H76" s="9"/>
       <c r="I76" s="10" t="s">
         <v>220</v>
       </c>
       <c r="J76" s="26" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="K76" s="9"/>
     </row>
@@ -13020,7 +13020,7 @@
         <v>221</v>
       </c>
       <c r="C77" s="12" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="D77" s="9" t="s">
         <v>411</v>
@@ -13032,14 +13032,14 @@
         <v>223</v>
       </c>
       <c r="G77" s="9" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="H77" s="9"/>
       <c r="I77" s="10" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="J77" s="26" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="K77" s="9"/>
     </row>
@@ -13063,14 +13063,14 @@
         <v>227</v>
       </c>
       <c r="G78" s="9" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="H78" s="9"/>
       <c r="I78" s="10" t="s">
         <v>228</v>
       </c>
       <c r="J78" s="26" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="K78" s="9"/>
     </row>
@@ -13094,14 +13094,14 @@
         <v>230</v>
       </c>
       <c r="G79" s="9" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="H79" s="9"/>
       <c r="I79" s="10" t="s">
         <v>231</v>
       </c>
       <c r="J79" s="26" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="K79" s="9"/>
     </row>
@@ -13110,10 +13110,10 @@
         <v>132</v>
       </c>
       <c r="B80" s="9" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="C80" s="9" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="D80" s="9" t="s">
         <v>411</v>
@@ -13122,17 +13122,17 @@
         <v>25</v>
       </c>
       <c r="F80" s="9" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="G80" s="9" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="H80" s="9"/>
       <c r="I80" s="11" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="J80" s="26" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="K80" s="9"/>
     </row>
@@ -13156,14 +13156,14 @@
         <v>234</v>
       </c>
       <c r="G81" s="9" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="H81" s="9"/>
       <c r="I81" s="10" t="s">
         <v>235</v>
       </c>
       <c r="J81" s="26" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="K81" s="9"/>
     </row>
@@ -13184,17 +13184,17 @@
         <v>14</v>
       </c>
       <c r="F82" s="9" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="G82" s="9" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="H82" s="9"/>
       <c r="I82" s="11" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="J82" s="26" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="K82" s="9"/>
     </row>
@@ -13218,14 +13218,14 @@
         <v>238</v>
       </c>
       <c r="G83" s="9" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="H83" s="9"/>
       <c r="I83" s="10" t="s">
         <v>239</v>
       </c>
       <c r="J83" s="26" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="K83" s="9"/>
     </row>
@@ -13249,14 +13249,14 @@
         <v>242</v>
       </c>
       <c r="G84" s="9" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="H84" s="9"/>
       <c r="I84" s="10" t="s">
         <v>243</v>
       </c>
       <c r="J84" s="26" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="K84" s="9"/>
     </row>
@@ -13280,14 +13280,14 @@
         <v>246</v>
       </c>
       <c r="G85" s="9" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="H85" s="9"/>
       <c r="I85" s="10" t="s">
         <v>247</v>
       </c>
       <c r="J85" s="26" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="K85" s="9"/>
     </row>
@@ -13308,17 +13308,17 @@
         <v>14</v>
       </c>
       <c r="F86" s="9" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="G86" s="9" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="H86" s="9"/>
       <c r="I86" s="10" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="J86" s="26" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="K86" s="9"/>
     </row>
@@ -13342,14 +13342,14 @@
         <v>250</v>
       </c>
       <c r="G87" s="9" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="H87" s="9"/>
       <c r="I87" s="10" t="s">
         <v>251</v>
       </c>
       <c r="J87" s="26" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="K87" s="9"/>
     </row>
@@ -13373,14 +13373,14 @@
         <v>253</v>
       </c>
       <c r="G88" s="9" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="H88" s="9"/>
       <c r="I88" s="10" t="s">
         <v>254</v>
       </c>
       <c r="J88" s="26" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="K88" s="9"/>
     </row>
@@ -13404,14 +13404,14 @@
         <v>256</v>
       </c>
       <c r="G89" s="9" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="H89" s="9"/>
       <c r="I89" s="10" t="s">
         <v>257</v>
       </c>
       <c r="J89" s="26" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="K89" s="9"/>
     </row>
@@ -13435,14 +13435,14 @@
         <v>260</v>
       </c>
       <c r="G90" s="9" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="H90" s="9"/>
       <c r="I90" s="10" t="s">
         <v>261</v>
       </c>
       <c r="J90" s="26" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="K90" s="9"/>
     </row>
@@ -13457,7 +13457,7 @@
         <v>263</v>
       </c>
       <c r="D91" s="9" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="E91" s="9" t="s">
         <v>14</v>
@@ -13466,14 +13466,14 @@
         <v>265</v>
       </c>
       <c r="G91" s="9" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="H91" s="9"/>
       <c r="I91" s="11" t="s">
         <v>266</v>
       </c>
       <c r="J91" s="26" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="K91" s="9"/>
     </row>
@@ -13497,14 +13497,14 @@
         <v>268</v>
       </c>
       <c r="G92" s="9" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="H92" s="9"/>
       <c r="I92" s="11" t="s">
         <v>269</v>
       </c>
       <c r="J92" s="26" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="K92" s="9"/>
     </row>
@@ -13528,14 +13528,14 @@
         <v>271</v>
       </c>
       <c r="G93" s="9" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="H93" s="9"/>
       <c r="I93" s="11" t="s">
         <v>272</v>
       </c>
       <c r="J93" s="26" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="K93" s="9"/>
     </row>
@@ -13550,7 +13550,7 @@
         <v>273</v>
       </c>
       <c r="D94" s="9" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="E94" s="9" t="s">
         <v>25</v>
@@ -13559,14 +13559,14 @@
         <v>274</v>
       </c>
       <c r="G94" s="9" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="H94" s="9"/>
       <c r="I94" s="11" t="s">
         <v>275</v>
       </c>
       <c r="J94" s="26" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="K94" s="9"/>
     </row>
@@ -13578,7 +13578,7 @@
         <v>262</v>
       </c>
       <c r="C95" s="9" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="D95" s="9" t="s">
         <v>398</v>
@@ -13587,17 +13587,17 @@
         <v>25</v>
       </c>
       <c r="F95" s="9" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="G95" s="9" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="H95" s="9"/>
       <c r="I95" s="28" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="J95" s="26" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="K95" s="9"/>
     </row>
@@ -13621,11 +13621,11 @@
         <v>277</v>
       </c>
       <c r="G96" s="9" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="H96" s="9"/>
       <c r="I96" s="11" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="J96" s="26"/>
       <c r="K96" s="9"/>
@@ -13635,10 +13635,10 @@
         <v>278</v>
       </c>
       <c r="B97" s="14" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="C97" s="14" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="D97" s="14" t="s">
         <v>157</v>
@@ -13647,17 +13647,17 @@
         <v>25</v>
       </c>
       <c r="F97" s="14" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="G97" s="14" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="H97" s="14"/>
       <c r="I97" s="16" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="J97" s="17" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="K97" s="14"/>
     </row>
@@ -13666,10 +13666,10 @@
         <v>278</v>
       </c>
       <c r="B98" s="14" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="C98" s="14" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="D98" s="14" t="s">
         <v>411</v>
@@ -13678,17 +13678,17 @@
         <v>25</v>
       </c>
       <c r="F98" s="14" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="G98" s="14" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="H98" s="14"/>
       <c r="I98" s="16" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="J98" s="17" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="K98" s="14"/>
     </row>
@@ -13700,7 +13700,7 @@
         <v>279</v>
       </c>
       <c r="C99" s="14" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="D99" s="14" t="s">
         <v>47</v>
@@ -13709,17 +13709,17 @@
         <v>14</v>
       </c>
       <c r="F99" s="14" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="G99" s="14" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="H99" s="14"/>
       <c r="I99" s="15" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="J99" s="17" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="K99" s="14"/>
     </row>
@@ -13731,7 +13731,7 @@
         <v>279</v>
       </c>
       <c r="C100" s="14" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="D100" s="14" t="s">
         <v>157</v>
@@ -13740,17 +13740,17 @@
         <v>25</v>
       </c>
       <c r="F100" s="14" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="G100" s="14" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="H100" s="14"/>
       <c r="I100" s="15" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="J100" s="17" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="K100" s="14"/>
     </row>
@@ -13762,7 +13762,7 @@
         <v>279</v>
       </c>
       <c r="C101" s="14" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="D101" s="14" t="s">
         <v>411</v>
@@ -13771,17 +13771,17 @@
         <v>25</v>
       </c>
       <c r="F101" s="14" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="G101" s="14" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="H101" s="14"/>
       <c r="I101" s="15" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="J101" s="17" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="K101" s="14"/>
     </row>
@@ -13802,14 +13802,14 @@
         <v>14</v>
       </c>
       <c r="F102" s="14" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="G102" s="14" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="H102" s="14"/>
       <c r="I102" s="15" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="J102" s="17"/>
       <c r="K102" s="14"/>
@@ -13834,14 +13834,14 @@
         <v>281</v>
       </c>
       <c r="G103" s="14" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="H103" s="14"/>
       <c r="I103" s="15" t="s">
         <v>282</v>
       </c>
       <c r="J103" s="17" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="K103" s="14"/>
     </row>
@@ -13865,14 +13865,14 @@
         <v>284</v>
       </c>
       <c r="G104" s="14" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="H104" s="14"/>
       <c r="I104" s="15" t="s">
         <v>285</v>
       </c>
       <c r="J104" s="17" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="K104" s="14"/>
     </row>
@@ -13896,14 +13896,14 @@
         <v>287</v>
       </c>
       <c r="G105" s="14" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="H105" s="14"/>
       <c r="I105" s="16" t="s">
         <v>288</v>
       </c>
       <c r="J105" s="17" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="K105" s="14"/>
     </row>
@@ -13927,14 +13927,14 @@
         <v>290</v>
       </c>
       <c r="G106" s="14" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="H106" s="14"/>
       <c r="I106" s="16" t="s">
         <v>291</v>
       </c>
       <c r="J106" s="17" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="K106" s="14"/>
     </row>
@@ -13958,14 +13958,14 @@
         <v>293</v>
       </c>
       <c r="G107" s="14" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="H107" s="14"/>
       <c r="I107" s="16" t="s">
         <v>294</v>
       </c>
       <c r="J107" s="17" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="K107" s="14"/>
     </row>
@@ -13989,14 +13989,14 @@
         <v>296</v>
       </c>
       <c r="G108" s="14" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="H108" s="14"/>
       <c r="I108" s="16" t="s">
         <v>297</v>
       </c>
       <c r="J108" s="17" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="K108" s="14"/>
     </row>
@@ -14020,14 +14020,14 @@
         <v>299</v>
       </c>
       <c r="G109" s="14" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="H109" s="14"/>
       <c r="I109" s="16" t="s">
         <v>300</v>
       </c>
       <c r="J109" s="17" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="K109" s="14"/>
     </row>
@@ -14048,17 +14048,17 @@
         <v>25</v>
       </c>
       <c r="F110" s="14" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="G110" s="14" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="H110" s="14"/>
       <c r="I110" s="29" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="J110" s="17" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="K110" s="14"/>
     </row>
@@ -14082,14 +14082,14 @@
         <v>303</v>
       </c>
       <c r="G111" s="14" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="H111" s="14"/>
       <c r="I111" s="15" t="s">
         <v>304</v>
       </c>
       <c r="J111" s="17" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="K111" s="14"/>
     </row>
@@ -14110,17 +14110,17 @@
         <v>14</v>
       </c>
       <c r="F112" s="14" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="G112" s="14" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="H112" s="14"/>
       <c r="I112" s="15" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="J112" s="17" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="K112" s="14"/>
     </row>
@@ -14144,14 +14144,14 @@
         <v>307</v>
       </c>
       <c r="G113" s="14" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="H113" s="14"/>
       <c r="I113" s="15" t="s">
         <v>308</v>
       </c>
       <c r="J113" s="17" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="K113" s="14"/>
     </row>
@@ -14175,14 +14175,14 @@
         <v>309</v>
       </c>
       <c r="G114" s="14" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="H114" s="14"/>
       <c r="I114" s="15" t="s">
         <v>310</v>
       </c>
       <c r="J114" s="17" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="K114" s="14"/>
     </row>
@@ -14206,14 +14206,14 @@
         <v>313</v>
       </c>
       <c r="G115" s="14" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="H115" s="14"/>
       <c r="I115" s="15" t="s">
         <v>314</v>
       </c>
       <c r="J115" s="17" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="K115" s="14"/>
     </row>
@@ -14225,7 +14225,7 @@
         <v>305</v>
       </c>
       <c r="C116" s="14" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="D116" s="14" t="s">
         <v>411</v>
@@ -14234,17 +14234,17 @@
         <v>25</v>
       </c>
       <c r="F116" s="14" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="G116" s="14" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="H116" s="14"/>
       <c r="I116" s="29" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="J116" s="17" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="K116" s="14"/>
     </row>
@@ -14268,14 +14268,14 @@
         <v>317</v>
       </c>
       <c r="G117" s="14" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="H117" s="14"/>
       <c r="I117" s="15" t="s">
         <v>318</v>
       </c>
       <c r="J117" s="17" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="K117" s="14"/>
     </row>
@@ -14287,7 +14287,7 @@
         <v>315</v>
       </c>
       <c r="C118" s="14" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="D118" s="14" t="s">
         <v>55</v>
@@ -14296,17 +14296,17 @@
         <v>14</v>
       </c>
       <c r="F118" s="14" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="G118" s="14" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="H118" s="14"/>
       <c r="I118" s="29" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="J118" s="17" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="K118" s="14"/>
     </row>
@@ -14327,17 +14327,17 @@
         <v>14</v>
       </c>
       <c r="F119" s="14" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="G119" s="14" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="H119" s="14"/>
       <c r="I119" s="16" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="J119" s="17" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="K119" s="14"/>
     </row>
@@ -14361,14 +14361,14 @@
         <v>324</v>
       </c>
       <c r="G120" s="14" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="H120" s="14"/>
       <c r="I120" s="15" t="s">
         <v>325</v>
       </c>
       <c r="J120" s="17" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="K120" s="14"/>
     </row>
@@ -14380,7 +14380,7 @@
         <v>319</v>
       </c>
       <c r="C121" s="14" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="D121" s="14" t="s">
         <v>411</v>
@@ -14392,14 +14392,14 @@
         <v>327</v>
       </c>
       <c r="G121" s="14" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="H121" s="14"/>
       <c r="I121" s="15" t="s">
         <v>328</v>
       </c>
       <c r="J121" s="17" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="K121" s="14"/>
     </row>
@@ -14423,14 +14423,14 @@
         <v>330</v>
       </c>
       <c r="G122" s="14" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="H122" s="14"/>
       <c r="I122" s="15" t="s">
         <v>331</v>
       </c>
       <c r="J122" s="17" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="K122" s="14"/>
     </row>
@@ -14454,14 +14454,14 @@
         <v>333</v>
       </c>
       <c r="G123" s="14" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="H123" s="14"/>
       <c r="I123" s="15" t="s">
         <v>334</v>
       </c>
       <c r="J123" s="17" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="K123" s="14"/>
     </row>
@@ -14485,14 +14485,14 @@
         <v>336</v>
       </c>
       <c r="G124" s="14" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="H124" s="14"/>
       <c r="I124" s="15" t="s">
         <v>337</v>
       </c>
       <c r="J124" s="17" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="K124" s="14"/>
     </row>
@@ -14516,14 +14516,14 @@
         <v>339</v>
       </c>
       <c r="G125" s="14" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="H125" s="14"/>
       <c r="I125" s="15" t="s">
         <v>340</v>
       </c>
       <c r="J125" s="17" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="K125" s="14"/>
     </row>
@@ -14547,14 +14547,14 @@
         <v>343</v>
       </c>
       <c r="G126" s="14" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="H126" s="14"/>
       <c r="I126" s="15" t="s">
         <v>344</v>
       </c>
       <c r="J126" s="17" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="K126" s="14"/>
     </row>
@@ -14578,14 +14578,14 @@
         <v>346</v>
       </c>
       <c r="G127" s="14" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="H127" s="14"/>
       <c r="I127" s="15" t="s">
         <v>347</v>
       </c>
       <c r="J127" s="17" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="K127" s="14"/>
     </row>
@@ -14609,14 +14609,14 @@
         <v>350</v>
       </c>
       <c r="G128" s="14" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="H128" s="14"/>
       <c r="I128" s="15" t="s">
         <v>351</v>
       </c>
       <c r="J128" s="17" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="K128" s="14"/>
     </row>
@@ -14628,7 +14628,7 @@
         <v>348</v>
       </c>
       <c r="C129" s="14" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="D129" s="14" t="s">
         <v>419</v>
@@ -14640,14 +14640,14 @@
         <v>353</v>
       </c>
       <c r="G129" s="14" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="H129" s="14"/>
       <c r="I129" s="16" t="s">
         <v>354</v>
       </c>
       <c r="J129" s="17" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="K129" s="14"/>
     </row>
@@ -14671,14 +14671,14 @@
         <v>356</v>
       </c>
       <c r="G130" s="14" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="H130" s="14"/>
       <c r="I130" s="15" t="s">
         <v>357</v>
       </c>
       <c r="J130" s="17" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="K130" s="14"/>
     </row>
@@ -14702,14 +14702,14 @@
         <v>359</v>
       </c>
       <c r="G131" s="14" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="H131" s="14"/>
       <c r="I131" s="15" t="s">
         <v>360</v>
       </c>
       <c r="J131" s="17" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="K131" s="14"/>
     </row>
@@ -14721,7 +14721,7 @@
         <v>355</v>
       </c>
       <c r="C132" s="14" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="D132" s="14" t="s">
         <v>51</v>
@@ -14730,17 +14730,17 @@
         <v>39</v>
       </c>
       <c r="F132" s="14" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="G132" s="14" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="H132" s="14"/>
       <c r="I132" s="29" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="J132" s="17" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="K132" s="14"/>
     </row>
@@ -14749,10 +14749,10 @@
         <v>278</v>
       </c>
       <c r="B133" s="14" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="C133" s="17" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="D133" s="14" t="s">
         <v>411</v>
@@ -14761,17 +14761,17 @@
         <v>25</v>
       </c>
       <c r="F133" s="14" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="G133" s="14" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="H133" s="14"/>
       <c r="I133" s="15" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="J133" s="17" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="K133" s="14"/>
     </row>
@@ -14795,26 +14795,26 @@
         <v>363</v>
       </c>
       <c r="G134" s="14" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="H134" s="14"/>
       <c r="I134" s="15" t="s">
         <v>364</v>
       </c>
       <c r="J134" s="17" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="K134" s="14"/>
     </row>
     <row r="135" spans="1:11" ht="15.75" customHeight="1">
       <c r="A135" s="14" t="s">
+        <v>775</v>
+      </c>
+      <c r="B135" s="14" t="s">
         <v>777</v>
       </c>
-      <c r="B135" s="14" t="s">
-        <v>779</v>
-      </c>
       <c r="C135" s="14" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="D135" s="14" t="s">
         <v>411</v>
@@ -14823,17 +14823,17 @@
         <v>14</v>
       </c>
       <c r="F135" s="14" t="s">
+        <v>776</v>
+      </c>
+      <c r="G135" s="14" t="s">
         <v>778</v>
-      </c>
-      <c r="G135" s="14" t="s">
-        <v>780</v>
       </c>
       <c r="H135" s="14"/>
       <c r="I135" s="29" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="J135" s="17" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="K135" s="14"/>
     </row>

--- a/docs/香港素食餐廳大全.xlsx
+++ b/docs/香港素食餐廳大全.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tim/_Python_OpenAI/My-projects/7-hk-veg-map/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56E91143-5228-CE44-84BA-BB0B29E005B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE27BA7D-329E-CE4F-9EDA-7298AA008F30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1500" yWindow="500" windowWidth="16400" windowHeight="16260" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11260" yWindow="500" windowWidth="16400" windowHeight="16260" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="香港素食餐廳大全" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1857" uniqueCount="783">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1947" uniqueCount="833">
   <si>
     <t>** 更新自: 13 Aug 2023 (deprecated, go to sheet 2 "hk_veg_restaurants_data instead")</t>
   </si>
@@ -2370,6 +2370,156 @@
   </si>
   <si>
     <t>22.300668907966998, 114.17211620123605</t>
+  </si>
+  <si>
+    <t>雅 ‧悠蔬食</t>
+  </si>
+  <si>
+    <t>同德素食</t>
+  </si>
+  <si>
+    <t>Moono</t>
+  </si>
+  <si>
+    <t>一素食譜</t>
+  </si>
+  <si>
+    <t>福德素食小廚</t>
+  </si>
+  <si>
+    <t>圓善素食</t>
+  </si>
+  <si>
+    <t>土瓜灣</t>
+  </si>
+  <si>
+    <t>愛家素食</t>
+  </si>
+  <si>
+    <t>齋之寶齋菜館</t>
+  </si>
+  <si>
+    <t>元朗紅棉圍2號興隆樓地下14號舖</t>
+  </si>
+  <si>
+    <t>22.44275829524087, 114.02953453877714</t>
+  </si>
+  <si>
+    <t>https://www.openrice.com/zh/hongkong/r-%E9%BD%8B%E4%B9%8B%E5%AF%B6%E9%BD%8B%E8%8F%9C%E9%A4%A8-%E5%85%83%E6%9C%97-%E7%B2%B5%E8%8F%9C-%E5%BB%A3%E6%9D%B1-%E7%B4%A0%E9%A3%9F-r8597</t>
+  </si>
+  <si>
+    <t>24422986</t>
+  </si>
+  <si>
+    <t>尖沙咀金馬倫道48號中國保險大廈3樓B號舖</t>
+  </si>
+  <si>
+    <t>22.299123986738913, 114.17494649500252</t>
+  </si>
+  <si>
+    <t>https://www.openrice.com/zh/hongkong/r-%E9%9B%85-%E6%82%A0%E8%94%AC%E9%A3%9F-%E5%B0%96%E6%B2%99%E5%92%80-%E5%A4%9A%E5%9C%8B%E8%8F%9C-%E7%B4%A0%E9%A3%9F-r513285</t>
+  </si>
+  <si>
+    <t>37065827</t>
+  </si>
+  <si>
+    <t>尖沙咀寶勒巷10號1樓</t>
+  </si>
+  <si>
+    <t>22.29868494906711, 114.17445008569855</t>
+  </si>
+  <si>
+    <t>https://www.openrice.com/zh/hongkong/r-%E5%90%8C%E5%BE%B7%E7%B4%A0%E9%A3%9F-%E5%B0%96%E6%B2%99%E5%92%80-%E7%B2%B5%E8%8F%9C-%E5%BB%A3%E6%9D%B1-%E7%B4%A0%E9%A3%9F-r528136</t>
+  </si>
+  <si>
+    <t>28020882</t>
+  </si>
+  <si>
+    <t>尖沙咀梳士巴利道18號Victoria Dockside K11 MuseaB2樓B201-C02號舖</t>
+  </si>
+  <si>
+    <t>22.294367997625148, 114.17458086824381</t>
+  </si>
+  <si>
+    <t>https://www.openrice.com/zh/hongkong/r-moono-%E5%B0%96%E6%B2%99%E5%92%80-%E5%A4%9A%E5%9C%8B%E8%8F%9C-%E7%B4%A0%E9%A3%9F-r713782</t>
+  </si>
+  <si>
+    <t>46242630</t>
+  </si>
+  <si>
+    <t>尖沙咀北京道65-69號環球商業大廈2樓205-06室</t>
+  </si>
+  <si>
+    <t>22.29622133006256, 114.17161456612732</t>
+  </si>
+  <si>
+    <t>https://www.openrice.com/zh/hongkong/r-%E4%B8%80%E6%A3%AE%E7%B4%A0%E9%A3%9F-%E5%B0%96%E6%B2%99%E5%92%80-%E6%B8%AF%E5%BC%8F-%E7%B4%A0%E9%A3%9F-r789099</t>
+  </si>
+  <si>
+    <t>93224249</t>
+  </si>
+  <si>
+    <t>新蒲崗爵祿街33號 PORT 33 1樓103A號舖</t>
+  </si>
+  <si>
+    <t>22.335388128915326, 114.19778018363192</t>
+  </si>
+  <si>
+    <t>https://www.openrice.com/zh/hongkong/r-%E6%84%9B%E5%AE%B6%E7%B4%A0%E9%A3%9F-%E6%96%B0%E8%92%B2%E5%B4%97-%E6%B8%AF%E5%BC%8F-%E7%84%A1%E8%82%89%E9%A4%90%E5%96%AE-r614688</t>
+  </si>
+  <si>
+    <t>27970001</t>
+  </si>
+  <si>
+    <t>土瓜灣馬頭圍道434號地舖</t>
+  </si>
+  <si>
+    <t>22.31948416559045, 114.18740455514006</t>
+  </si>
+  <si>
+    <t>https://www.openrice.com/zh/hongkong/r-%E5%9C%93%E5%96%84%E7%B4%A0%E9%A3%9F-%E5%9C%9F%E7%93%9C%E7%81%A3-%E7%B2%B5%E8%8F%9C-%E5%BB%A3%E6%9D%B1-%E7%B4%A0%E9%A3%9F-r552830</t>
+  </si>
+  <si>
+    <t>26012801</t>
+  </si>
+  <si>
+    <t>觀塘成業街7號東廣場寧晉中心地下57號舖</t>
+  </si>
+  <si>
+    <t>22.310972599190105, 114.2264493521339</t>
+  </si>
+  <si>
+    <t>https://www.openrice.com/zh/hongkong/r-%E4%B8%80%E7%B4%A0%E9%A3%9F%E8%AD%9C-%E8%A7%80%E5%A1%98-%E6%B8%AF%E5%BC%8F-%E7%B4%A0%E9%A3%9F-r572166</t>
+  </si>
+  <si>
+    <t>55394088</t>
+  </si>
+  <si>
+    <t>觀塘駿業街67號駿業街熟食市場2樓</t>
+  </si>
+  <si>
+    <t>22.31179971500676, 114.22300139566572</t>
+  </si>
+  <si>
+    <t>https://www.openrice.com/zh/hongkong/r-%E7%A6%8F%E5%BE%B7%E7%B4%A0%E9%A3%9F%E5%B0%8F%E5%BB%9A-%E8%A7%80%E5%A1%98-%E6%B8%AF%E5%BC%8F-%E7%B4%A0%E9%A3%9F-r48640</t>
+  </si>
+  <si>
+    <t>93651418</t>
+  </si>
+  <si>
+    <t>新聚寶素食</t>
+  </si>
+  <si>
+    <t>深水埗大埔道79-85號民安大廈地下85號舖</t>
+  </si>
+  <si>
+    <t>22.33242468087526, 114.16400724122778</t>
+  </si>
+  <si>
+    <t>https://www.openrice.com/zh/hongkong/r-%E6%96%B0%E8%81%9A%E5%AF%B6%E7%B4%A0%E9%A3%9F-%E6%B7%B1%E6%B0%B4%E5%9F%97-%E7%B2%B5%E8%8F%9C-%E5%BB%A3%E6%9D%B1-%E7%B4%A0%E9%A3%9F-r145684</t>
+  </si>
+  <si>
+    <t>27082728</t>
   </si>
 </sst>
 </file>
@@ -10638,10 +10788,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:K135"/>
+  <dimension ref="A1:K145"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D34" zoomScale="125" workbookViewId="0">
-      <selection activeCell="G47" sqref="G47"/>
+    <sheetView tabSelected="1" topLeftCell="D63" zoomScale="108" workbookViewId="0">
+      <selection activeCell="J76" sqref="J76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -12307,26 +12457,26 @@
         <v>133</v>
       </c>
       <c r="C54" s="9" t="s">
-        <v>160</v>
+        <v>783</v>
       </c>
       <c r="D54" s="9" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="E54" s="9" t="s">
         <v>25</v>
       </c>
       <c r="F54" s="9" t="s">
-        <v>161</v>
+        <v>796</v>
       </c>
       <c r="G54" s="9" t="s">
-        <v>524</v>
+        <v>797</v>
       </c>
       <c r="H54" s="9"/>
-      <c r="I54" s="10" t="s">
-        <v>162</v>
+      <c r="I54" s="28" t="s">
+        <v>798</v>
       </c>
       <c r="J54" s="26" t="s">
-        <v>525</v>
+        <v>799</v>
       </c>
       <c r="K54" s="9"/>
     </row>
@@ -12335,10 +12485,10 @@
         <v>132</v>
       </c>
       <c r="B55" s="9" t="s">
-        <v>163</v>
+        <v>133</v>
       </c>
       <c r="C55" s="9" t="s">
-        <v>164</v>
+        <v>784</v>
       </c>
       <c r="D55" s="9" t="s">
         <v>411</v>
@@ -12347,17 +12497,17 @@
         <v>25</v>
       </c>
       <c r="F55" s="9" t="s">
-        <v>165</v>
+        <v>800</v>
       </c>
       <c r="G55" s="9" t="s">
-        <v>526</v>
+        <v>801</v>
       </c>
       <c r="H55" s="9"/>
-      <c r="I55" s="10" t="s">
-        <v>166</v>
+      <c r="I55" s="28" t="s">
+        <v>802</v>
       </c>
       <c r="J55" s="26" t="s">
-        <v>527</v>
+        <v>803</v>
       </c>
       <c r="K55" s="9"/>
     </row>
@@ -12366,29 +12516,29 @@
         <v>132</v>
       </c>
       <c r="B56" s="9" t="s">
-        <v>163</v>
+        <v>133</v>
       </c>
       <c r="C56" s="9" t="s">
-        <v>167</v>
+        <v>785</v>
       </c>
       <c r="D56" s="9" t="s">
-        <v>411</v>
+        <v>47</v>
       </c>
       <c r="E56" s="9" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="F56" s="9" t="s">
-        <v>168</v>
+        <v>804</v>
       </c>
       <c r="G56" s="9" t="s">
-        <v>528</v>
+        <v>805</v>
       </c>
       <c r="H56" s="9"/>
-      <c r="I56" s="10" t="s">
-        <v>169</v>
+      <c r="I56" s="28" t="s">
+        <v>806</v>
       </c>
       <c r="J56" s="26" t="s">
-        <v>529</v>
+        <v>807</v>
       </c>
       <c r="K56" s="9"/>
     </row>
@@ -12397,29 +12547,29 @@
         <v>132</v>
       </c>
       <c r="B57" s="9" t="s">
-        <v>163</v>
+        <v>133</v>
       </c>
       <c r="C57" s="9" t="s">
-        <v>170</v>
+        <v>727</v>
       </c>
       <c r="D57" s="9" t="s">
         <v>117</v>
       </c>
       <c r="E57" s="9" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="F57" s="9" t="s">
-        <v>171</v>
+        <v>808</v>
       </c>
       <c r="G57" s="9" t="s">
-        <v>530</v>
+        <v>809</v>
       </c>
       <c r="H57" s="9"/>
-      <c r="I57" s="10" t="s">
-        <v>172</v>
+      <c r="I57" s="28" t="s">
+        <v>810</v>
       </c>
       <c r="J57" s="26" t="s">
-        <v>531</v>
+        <v>811</v>
       </c>
       <c r="K57" s="9"/>
     </row>
@@ -12428,29 +12578,29 @@
         <v>132</v>
       </c>
       <c r="B58" s="9" t="s">
-        <v>163</v>
+        <v>133</v>
       </c>
       <c r="C58" s="9" t="s">
-        <v>173</v>
+        <v>160</v>
       </c>
       <c r="D58" s="9" t="s">
-        <v>117</v>
+        <v>55</v>
       </c>
       <c r="E58" s="9" t="s">
         <v>25</v>
       </c>
       <c r="F58" s="9" t="s">
-        <v>174</v>
+        <v>161</v>
       </c>
       <c r="G58" s="9" t="s">
-        <v>532</v>
+        <v>524</v>
       </c>
       <c r="H58" s="9"/>
       <c r="I58" s="10" t="s">
-        <v>175</v>
+        <v>162</v>
       </c>
       <c r="J58" s="26" t="s">
-        <v>533</v>
+        <v>525</v>
       </c>
       <c r="K58" s="9"/>
     </row>
@@ -12459,29 +12609,29 @@
         <v>132</v>
       </c>
       <c r="B59" s="9" t="s">
-        <v>728</v>
+        <v>163</v>
       </c>
       <c r="C59" s="9" t="s">
-        <v>727</v>
+        <v>164</v>
       </c>
       <c r="D59" s="9" t="s">
         <v>411</v>
       </c>
       <c r="E59" s="9" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="F59" s="9" t="s">
-        <v>748</v>
+        <v>165</v>
       </c>
       <c r="G59" s="9" t="s">
-        <v>749</v>
+        <v>526</v>
       </c>
       <c r="H59" s="9"/>
-      <c r="I59" s="28" t="s">
-        <v>750</v>
+      <c r="I59" s="10" t="s">
+        <v>166</v>
       </c>
       <c r="J59" s="26" t="s">
-        <v>751</v>
+        <v>527</v>
       </c>
       <c r="K59" s="9"/>
     </row>
@@ -12490,29 +12640,29 @@
         <v>132</v>
       </c>
       <c r="B60" s="9" t="s">
-        <v>534</v>
+        <v>163</v>
       </c>
       <c r="C60" s="9" t="s">
-        <v>535</v>
+        <v>167</v>
       </c>
       <c r="D60" s="9" t="s">
-        <v>157</v>
+        <v>411</v>
       </c>
       <c r="E60" s="9" t="s">
         <v>25</v>
       </c>
       <c r="F60" s="9" t="s">
-        <v>536</v>
+        <v>168</v>
       </c>
       <c r="G60" s="9" t="s">
-        <v>537</v>
+        <v>528</v>
       </c>
       <c r="H60" s="9"/>
-      <c r="I60" s="11" t="s">
-        <v>538</v>
+      <c r="I60" s="10" t="s">
+        <v>169</v>
       </c>
       <c r="J60" s="26" t="s">
-        <v>539</v>
+        <v>529</v>
       </c>
       <c r="K60" s="9"/>
     </row>
@@ -12521,29 +12671,29 @@
         <v>132</v>
       </c>
       <c r="B61" s="9" t="s">
-        <v>534</v>
+        <v>163</v>
       </c>
       <c r="C61" s="9" t="s">
-        <v>381</v>
+        <v>170</v>
       </c>
       <c r="D61" s="9" t="s">
-        <v>382</v>
+        <v>117</v>
       </c>
       <c r="E61" s="9" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="F61" s="9" t="s">
-        <v>540</v>
+        <v>171</v>
       </c>
       <c r="G61" s="9" t="s">
-        <v>781</v>
+        <v>530</v>
       </c>
       <c r="H61" s="9"/>
       <c r="I61" s="10" t="s">
-        <v>541</v>
+        <v>172</v>
       </c>
       <c r="J61" s="26" t="s">
-        <v>542</v>
+        <v>531</v>
       </c>
       <c r="K61" s="9"/>
     </row>
@@ -12552,29 +12702,29 @@
         <v>132</v>
       </c>
       <c r="B62" s="9" t="s">
-        <v>176</v>
+        <v>163</v>
       </c>
       <c r="C62" s="9" t="s">
-        <v>543</v>
+        <v>173</v>
       </c>
       <c r="D62" s="9" t="s">
-        <v>411</v>
+        <v>117</v>
       </c>
       <c r="E62" s="9" t="s">
         <v>25</v>
       </c>
       <c r="F62" s="9" t="s">
-        <v>544</v>
+        <v>174</v>
       </c>
       <c r="G62" s="9" t="s">
-        <v>545</v>
+        <v>532</v>
       </c>
       <c r="H62" s="9"/>
       <c r="I62" s="10" t="s">
-        <v>546</v>
+        <v>175</v>
       </c>
       <c r="J62" s="26" t="s">
-        <v>547</v>
+        <v>533</v>
       </c>
       <c r="K62" s="9"/>
     </row>
@@ -12583,29 +12733,29 @@
         <v>132</v>
       </c>
       <c r="B63" s="9" t="s">
-        <v>176</v>
+        <v>728</v>
       </c>
       <c r="C63" s="9" t="s">
-        <v>177</v>
+        <v>727</v>
       </c>
       <c r="D63" s="9" t="s">
         <v>411</v>
       </c>
       <c r="E63" s="9" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="F63" s="9" t="s">
-        <v>548</v>
+        <v>748</v>
       </c>
       <c r="G63" s="9" t="s">
-        <v>549</v>
+        <v>749</v>
       </c>
       <c r="H63" s="9"/>
-      <c r="I63" s="10" t="s">
-        <v>179</v>
+      <c r="I63" s="28" t="s">
+        <v>750</v>
       </c>
       <c r="J63" s="26" t="s">
-        <v>550</v>
+        <v>751</v>
       </c>
       <c r="K63" s="9"/>
     </row>
@@ -12614,29 +12764,29 @@
         <v>132</v>
       </c>
       <c r="B64" s="9" t="s">
-        <v>176</v>
+        <v>534</v>
       </c>
       <c r="C64" s="9" t="s">
-        <v>180</v>
+        <v>535</v>
       </c>
       <c r="D64" s="9" t="s">
-        <v>181</v>
+        <v>157</v>
       </c>
       <c r="E64" s="9" t="s">
         <v>25</v>
       </c>
       <c r="F64" s="9" t="s">
-        <v>182</v>
+        <v>536</v>
       </c>
       <c r="G64" s="9" t="s">
-        <v>551</v>
+        <v>537</v>
       </c>
       <c r="H64" s="9"/>
-      <c r="I64" s="10" t="s">
-        <v>183</v>
+      <c r="I64" s="11" t="s">
+        <v>538</v>
       </c>
       <c r="J64" s="26" t="s">
-        <v>552</v>
+        <v>539</v>
       </c>
       <c r="K64" s="9"/>
     </row>
@@ -12645,29 +12795,29 @@
         <v>132</v>
       </c>
       <c r="B65" s="9" t="s">
-        <v>184</v>
+        <v>534</v>
       </c>
       <c r="C65" s="9" t="s">
-        <v>185</v>
+        <v>381</v>
       </c>
       <c r="D65" s="9" t="s">
-        <v>411</v>
+        <v>382</v>
       </c>
       <c r="E65" s="9" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="F65" s="9" t="s">
-        <v>186</v>
+        <v>540</v>
       </c>
       <c r="G65" s="9" t="s">
-        <v>553</v>
+        <v>781</v>
       </c>
       <c r="H65" s="9"/>
       <c r="I65" s="10" t="s">
-        <v>187</v>
+        <v>541</v>
       </c>
       <c r="J65" s="26" t="s">
-        <v>554</v>
+        <v>542</v>
       </c>
       <c r="K65" s="9"/>
     </row>
@@ -12676,29 +12826,29 @@
         <v>132</v>
       </c>
       <c r="B66" s="9" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="C66" s="9" t="s">
-        <v>188</v>
+        <v>543</v>
       </c>
       <c r="D66" s="9" t="s">
-        <v>117</v>
+        <v>411</v>
       </c>
       <c r="E66" s="9" t="s">
         <v>25</v>
       </c>
       <c r="F66" s="9" t="s">
-        <v>189</v>
+        <v>544</v>
       </c>
       <c r="G66" s="9" t="s">
-        <v>555</v>
+        <v>545</v>
       </c>
       <c r="H66" s="9"/>
       <c r="I66" s="10" t="s">
-        <v>190</v>
+        <v>546</v>
       </c>
       <c r="J66" s="26" t="s">
-        <v>556</v>
+        <v>547</v>
       </c>
       <c r="K66" s="9"/>
     </row>
@@ -12707,29 +12857,29 @@
         <v>132</v>
       </c>
       <c r="B67" s="9" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="C67" s="9" t="s">
-        <v>191</v>
+        <v>177</v>
       </c>
       <c r="D67" s="9" t="s">
-        <v>192</v>
+        <v>411</v>
       </c>
       <c r="E67" s="9" t="s">
         <v>25</v>
       </c>
       <c r="F67" s="9" t="s">
-        <v>193</v>
+        <v>548</v>
       </c>
       <c r="G67" s="9" t="s">
-        <v>557</v>
+        <v>549</v>
       </c>
       <c r="H67" s="9"/>
       <c r="I67" s="10" t="s">
-        <v>194</v>
+        <v>179</v>
       </c>
       <c r="J67" s="26" t="s">
-        <v>558</v>
+        <v>550</v>
       </c>
       <c r="K67" s="9"/>
     </row>
@@ -12738,29 +12888,29 @@
         <v>132</v>
       </c>
       <c r="B68" s="9" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="C68" s="9" t="s">
-        <v>195</v>
+        <v>180</v>
       </c>
       <c r="D68" s="9" t="s">
-        <v>51</v>
+        <v>181</v>
       </c>
       <c r="E68" s="9" t="s">
         <v>25</v>
       </c>
       <c r="F68" s="9" t="s">
-        <v>196</v>
+        <v>182</v>
       </c>
       <c r="G68" s="9" t="s">
-        <v>559</v>
+        <v>551</v>
       </c>
       <c r="H68" s="9"/>
       <c r="I68" s="10" t="s">
-        <v>197</v>
+        <v>183</v>
       </c>
       <c r="J68" s="26" t="s">
-        <v>560</v>
+        <v>552</v>
       </c>
       <c r="K68" s="9"/>
     </row>
@@ -12772,26 +12922,26 @@
         <v>184</v>
       </c>
       <c r="C69" s="9" t="s">
-        <v>198</v>
+        <v>185</v>
       </c>
       <c r="D69" s="9" t="s">
-        <v>419</v>
+        <v>411</v>
       </c>
       <c r="E69" s="9" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="F69" s="9" t="s">
-        <v>199</v>
+        <v>186</v>
       </c>
       <c r="G69" s="9" t="s">
-        <v>561</v>
+        <v>553</v>
       </c>
       <c r="H69" s="9"/>
       <c r="I69" s="10" t="s">
-        <v>200</v>
+        <v>187</v>
       </c>
       <c r="J69" s="26" t="s">
-        <v>562</v>
+        <v>554</v>
       </c>
       <c r="K69" s="9"/>
     </row>
@@ -12803,26 +12953,26 @@
         <v>184</v>
       </c>
       <c r="C70" s="9" t="s">
-        <v>201</v>
+        <v>188</v>
       </c>
       <c r="D70" s="9" t="s">
-        <v>419</v>
+        <v>117</v>
       </c>
       <c r="E70" s="9" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="F70" s="9" t="s">
-        <v>202</v>
+        <v>189</v>
       </c>
       <c r="G70" s="9" t="s">
-        <v>563</v>
+        <v>555</v>
       </c>
       <c r="H70" s="9"/>
       <c r="I70" s="10" t="s">
-        <v>203</v>
+        <v>190</v>
       </c>
       <c r="J70" s="26" t="s">
-        <v>564</v>
+        <v>556</v>
       </c>
       <c r="K70" s="9"/>
     </row>
@@ -12833,27 +12983,27 @@
       <c r="B71" s="9" t="s">
         <v>184</v>
       </c>
-      <c r="C71" s="12" t="s">
-        <v>204</v>
+      <c r="C71" s="9" t="s">
+        <v>191</v>
       </c>
       <c r="D71" s="9" t="s">
-        <v>419</v>
+        <v>192</v>
       </c>
       <c r="E71" s="9" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="F71" s="9" t="s">
-        <v>205</v>
+        <v>193</v>
       </c>
       <c r="G71" s="9" t="s">
-        <v>565</v>
+        <v>557</v>
       </c>
       <c r="H71" s="9"/>
-      <c r="I71" s="11" t="s">
-        <v>206</v>
+      <c r="I71" s="10" t="s">
+        <v>194</v>
       </c>
       <c r="J71" s="26" t="s">
-        <v>566</v>
+        <v>558</v>
       </c>
       <c r="K71" s="9"/>
     </row>
@@ -12864,27 +13014,27 @@
       <c r="B72" s="9" t="s">
         <v>184</v>
       </c>
-      <c r="C72" s="12" t="s">
-        <v>207</v>
+      <c r="C72" s="9" t="s">
+        <v>195</v>
       </c>
       <c r="D72" s="9" t="s">
-        <v>419</v>
+        <v>51</v>
       </c>
       <c r="E72" s="9" t="s">
         <v>25</v>
       </c>
       <c r="F72" s="9" t="s">
-        <v>208</v>
+        <v>196</v>
       </c>
       <c r="G72" s="9" t="s">
-        <v>567</v>
+        <v>559</v>
       </c>
       <c r="H72" s="9"/>
-      <c r="I72" s="11" t="s">
-        <v>209</v>
+      <c r="I72" s="10" t="s">
+        <v>197</v>
       </c>
       <c r="J72" s="26" t="s">
-        <v>568</v>
+        <v>560</v>
       </c>
       <c r="K72" s="9"/>
     </row>
@@ -12893,10 +13043,10 @@
         <v>132</v>
       </c>
       <c r="B73" s="9" t="s">
-        <v>210</v>
-      </c>
-      <c r="C73" s="12" t="s">
-        <v>211</v>
+        <v>184</v>
+      </c>
+      <c r="C73" s="9" t="s">
+        <v>198</v>
       </c>
       <c r="D73" s="9" t="s">
         <v>419</v>
@@ -12905,17 +13055,17 @@
         <v>14</v>
       </c>
       <c r="F73" s="9" t="s">
-        <v>212</v>
+        <v>199</v>
       </c>
       <c r="G73" s="9" t="s">
-        <v>569</v>
+        <v>561</v>
       </c>
       <c r="H73" s="9"/>
       <c r="I73" s="10" t="s">
-        <v>213</v>
+        <v>200</v>
       </c>
       <c r="J73" s="26" t="s">
-        <v>570</v>
+        <v>562</v>
       </c>
       <c r="K73" s="9"/>
     </row>
@@ -12924,29 +13074,29 @@
         <v>132</v>
       </c>
       <c r="B74" s="9" t="s">
-        <v>722</v>
-      </c>
-      <c r="C74" s="12" t="s">
-        <v>721</v>
+        <v>184</v>
+      </c>
+      <c r="C74" s="9" t="s">
+        <v>201</v>
       </c>
       <c r="D74" s="9" t="s">
-        <v>411</v>
+        <v>419</v>
       </c>
       <c r="E74" s="9" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="F74" s="9" t="s">
-        <v>753</v>
+        <v>202</v>
       </c>
       <c r="G74" s="9" t="s">
-        <v>752</v>
+        <v>563</v>
       </c>
       <c r="H74" s="9"/>
-      <c r="I74" s="28" t="s">
-        <v>754</v>
+      <c r="I74" s="10" t="s">
+        <v>203</v>
       </c>
       <c r="J74" s="26" t="s">
-        <v>755</v>
+        <v>564</v>
       </c>
       <c r="K74" s="9"/>
     </row>
@@ -12955,29 +13105,29 @@
         <v>132</v>
       </c>
       <c r="B75" s="9" t="s">
-        <v>214</v>
+        <v>184</v>
       </c>
       <c r="C75" s="12" t="s">
-        <v>215</v>
+        <v>204</v>
       </c>
       <c r="D75" s="9" t="s">
-        <v>47</v>
+        <v>419</v>
       </c>
       <c r="E75" s="9" t="s">
         <v>14</v>
       </c>
       <c r="F75" s="9" t="s">
-        <v>216</v>
+        <v>205</v>
       </c>
       <c r="G75" s="9" t="s">
-        <v>571</v>
+        <v>565</v>
       </c>
       <c r="H75" s="9"/>
-      <c r="I75" s="10" t="s">
-        <v>217</v>
+      <c r="I75" s="11" t="s">
+        <v>206</v>
       </c>
       <c r="J75" s="26" t="s">
-        <v>572</v>
+        <v>566</v>
       </c>
       <c r="K75" s="9"/>
     </row>
@@ -12986,29 +13136,29 @@
         <v>132</v>
       </c>
       <c r="B76" s="9" t="s">
-        <v>214</v>
+        <v>184</v>
       </c>
       <c r="C76" s="12" t="s">
-        <v>218</v>
+        <v>828</v>
       </c>
       <c r="D76" s="9" t="s">
-        <v>157</v>
+        <v>411</v>
       </c>
       <c r="E76" s="9" t="s">
         <v>25</v>
       </c>
       <c r="F76" s="9" t="s">
-        <v>219</v>
+        <v>829</v>
       </c>
       <c r="G76" s="9" t="s">
-        <v>573</v>
+        <v>830</v>
       </c>
       <c r="H76" s="9"/>
-      <c r="I76" s="10" t="s">
-        <v>220</v>
+      <c r="I76" s="28" t="s">
+        <v>831</v>
       </c>
       <c r="J76" s="26" t="s">
-        <v>574</v>
+        <v>832</v>
       </c>
       <c r="K76" s="9"/>
     </row>
@@ -13017,29 +13167,29 @@
         <v>132</v>
       </c>
       <c r="B77" s="9" t="s">
-        <v>221</v>
+        <v>184</v>
       </c>
       <c r="C77" s="12" t="s">
-        <v>575</v>
+        <v>207</v>
       </c>
       <c r="D77" s="9" t="s">
-        <v>411</v>
+        <v>419</v>
       </c>
       <c r="E77" s="9" t="s">
         <v>25</v>
       </c>
       <c r="F77" s="9" t="s">
-        <v>223</v>
+        <v>208</v>
       </c>
       <c r="G77" s="9" t="s">
-        <v>576</v>
+        <v>567</v>
       </c>
       <c r="H77" s="9"/>
-      <c r="I77" s="10" t="s">
-        <v>577</v>
+      <c r="I77" s="11" t="s">
+        <v>209</v>
       </c>
       <c r="J77" s="26" t="s">
-        <v>578</v>
+        <v>568</v>
       </c>
       <c r="K77" s="9"/>
     </row>
@@ -13048,10 +13198,10 @@
         <v>132</v>
       </c>
       <c r="B78" s="9" t="s">
-        <v>225</v>
+        <v>210</v>
       </c>
       <c r="C78" s="12" t="s">
-        <v>226</v>
+        <v>211</v>
       </c>
       <c r="D78" s="9" t="s">
         <v>419</v>
@@ -13060,17 +13210,17 @@
         <v>14</v>
       </c>
       <c r="F78" s="9" t="s">
-        <v>227</v>
+        <v>212</v>
       </c>
       <c r="G78" s="9" t="s">
-        <v>579</v>
+        <v>569</v>
       </c>
       <c r="H78" s="9"/>
       <c r="I78" s="10" t="s">
-        <v>228</v>
+        <v>213</v>
       </c>
       <c r="J78" s="26" t="s">
-        <v>580</v>
+        <v>570</v>
       </c>
       <c r="K78" s="9"/>
     </row>
@@ -13079,10 +13229,10 @@
         <v>132</v>
       </c>
       <c r="B79" s="9" t="s">
-        <v>225</v>
+        <v>722</v>
       </c>
       <c r="C79" s="12" t="s">
-        <v>229</v>
+        <v>721</v>
       </c>
       <c r="D79" s="9" t="s">
         <v>411</v>
@@ -13091,17 +13241,17 @@
         <v>25</v>
       </c>
       <c r="F79" s="9" t="s">
-        <v>230</v>
+        <v>753</v>
       </c>
       <c r="G79" s="9" t="s">
-        <v>581</v>
+        <v>752</v>
       </c>
       <c r="H79" s="9"/>
-      <c r="I79" s="10" t="s">
-        <v>231</v>
+      <c r="I79" s="28" t="s">
+        <v>754</v>
       </c>
       <c r="J79" s="26" t="s">
-        <v>582</v>
+        <v>755</v>
       </c>
       <c r="K79" s="9"/>
     </row>
@@ -13110,29 +13260,29 @@
         <v>132</v>
       </c>
       <c r="B80" s="9" t="s">
-        <v>583</v>
-      </c>
-      <c r="C80" s="9" t="s">
-        <v>584</v>
+        <v>214</v>
+      </c>
+      <c r="C80" s="12" t="s">
+        <v>215</v>
       </c>
       <c r="D80" s="9" t="s">
-        <v>411</v>
+        <v>47</v>
       </c>
       <c r="E80" s="9" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="F80" s="9" t="s">
-        <v>585</v>
+        <v>216</v>
       </c>
       <c r="G80" s="9" t="s">
-        <v>586</v>
+        <v>571</v>
       </c>
       <c r="H80" s="9"/>
-      <c r="I80" s="11" t="s">
-        <v>587</v>
+      <c r="I80" s="10" t="s">
+        <v>217</v>
       </c>
       <c r="J80" s="26" t="s">
-        <v>588</v>
+        <v>572</v>
       </c>
       <c r="K80" s="9"/>
     </row>
@@ -13141,29 +13291,29 @@
         <v>132</v>
       </c>
       <c r="B81" s="9" t="s">
-        <v>232</v>
-      </c>
-      <c r="C81" s="9" t="s">
-        <v>233</v>
+        <v>214</v>
+      </c>
+      <c r="C81" s="12" t="s">
+        <v>218</v>
       </c>
       <c r="D81" s="9" t="s">
-        <v>411</v>
+        <v>157</v>
       </c>
       <c r="E81" s="9" t="s">
         <v>25</v>
       </c>
       <c r="F81" s="9" t="s">
-        <v>234</v>
+        <v>219</v>
       </c>
       <c r="G81" s="9" t="s">
-        <v>589</v>
+        <v>573</v>
       </c>
       <c r="H81" s="9"/>
       <c r="I81" s="10" t="s">
-        <v>235</v>
+        <v>220</v>
       </c>
       <c r="J81" s="26" t="s">
-        <v>590</v>
+        <v>574</v>
       </c>
       <c r="K81" s="9"/>
     </row>
@@ -13172,29 +13322,29 @@
         <v>132</v>
       </c>
       <c r="B82" s="9" t="s">
-        <v>236</v>
-      </c>
-      <c r="C82" s="9" t="s">
-        <v>381</v>
+        <v>221</v>
+      </c>
+      <c r="C82" s="12" t="s">
+        <v>575</v>
       </c>
       <c r="D82" s="9" t="s">
-        <v>382</v>
+        <v>411</v>
       </c>
       <c r="E82" s="9" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="F82" s="9" t="s">
-        <v>591</v>
+        <v>223</v>
       </c>
       <c r="G82" s="9" t="s">
-        <v>592</v>
+        <v>576</v>
       </c>
       <c r="H82" s="9"/>
-      <c r="I82" s="11" t="s">
-        <v>593</v>
+      <c r="I82" s="10" t="s">
+        <v>577</v>
       </c>
       <c r="J82" s="26" t="s">
-        <v>594</v>
+        <v>578</v>
       </c>
       <c r="K82" s="9"/>
     </row>
@@ -13203,29 +13353,29 @@
         <v>132</v>
       </c>
       <c r="B83" s="9" t="s">
-        <v>236</v>
-      </c>
-      <c r="C83" s="9" t="s">
-        <v>237</v>
+        <v>225</v>
+      </c>
+      <c r="C83" s="12" t="s">
+        <v>226</v>
       </c>
       <c r="D83" s="9" t="s">
-        <v>411</v>
+        <v>419</v>
       </c>
       <c r="E83" s="9" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="F83" s="9" t="s">
-        <v>238</v>
+        <v>227</v>
       </c>
       <c r="G83" s="9" t="s">
-        <v>595</v>
+        <v>579</v>
       </c>
       <c r="H83" s="9"/>
       <c r="I83" s="10" t="s">
-        <v>239</v>
+        <v>228</v>
       </c>
       <c r="J83" s="26" t="s">
-        <v>596</v>
+        <v>580</v>
       </c>
       <c r="K83" s="9"/>
     </row>
@@ -13234,29 +13384,29 @@
         <v>132</v>
       </c>
       <c r="B84" s="9" t="s">
-        <v>236</v>
-      </c>
-      <c r="C84" s="9" t="s">
-        <v>240</v>
+        <v>225</v>
+      </c>
+      <c r="C84" s="12" t="s">
+        <v>229</v>
       </c>
       <c r="D84" s="9" t="s">
-        <v>241</v>
+        <v>411</v>
       </c>
       <c r="E84" s="9" t="s">
         <v>25</v>
       </c>
       <c r="F84" s="9" t="s">
-        <v>242</v>
+        <v>230</v>
       </c>
       <c r="G84" s="9" t="s">
-        <v>597</v>
+        <v>581</v>
       </c>
       <c r="H84" s="9"/>
       <c r="I84" s="10" t="s">
-        <v>243</v>
+        <v>231</v>
       </c>
       <c r="J84" s="26" t="s">
-        <v>598</v>
+        <v>582</v>
       </c>
       <c r="K84" s="9"/>
     </row>
@@ -13265,29 +13415,29 @@
         <v>132</v>
       </c>
       <c r="B85" s="9" t="s">
-        <v>244</v>
+        <v>583</v>
       </c>
       <c r="C85" s="9" t="s">
-        <v>245</v>
+        <v>584</v>
       </c>
       <c r="D85" s="9" t="s">
-        <v>241</v>
+        <v>411</v>
       </c>
       <c r="E85" s="9" t="s">
         <v>25</v>
       </c>
       <c r="F85" s="9" t="s">
-        <v>246</v>
+        <v>585</v>
       </c>
       <c r="G85" s="9" t="s">
-        <v>599</v>
+        <v>586</v>
       </c>
       <c r="H85" s="9"/>
-      <c r="I85" s="10" t="s">
-        <v>247</v>
+      <c r="I85" s="11" t="s">
+        <v>587</v>
       </c>
       <c r="J85" s="26" t="s">
-        <v>600</v>
+        <v>588</v>
       </c>
       <c r="K85" s="9"/>
     </row>
@@ -13296,29 +13446,29 @@
         <v>132</v>
       </c>
       <c r="B86" s="9" t="s">
-        <v>248</v>
+        <v>232</v>
       </c>
       <c r="C86" s="9" t="s">
-        <v>381</v>
+        <v>233</v>
       </c>
       <c r="D86" s="9" t="s">
-        <v>382</v>
+        <v>411</v>
       </c>
       <c r="E86" s="9" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="F86" s="9" t="s">
-        <v>601</v>
+        <v>234</v>
       </c>
       <c r="G86" s="9" t="s">
-        <v>602</v>
+        <v>589</v>
       </c>
       <c r="H86" s="9"/>
       <c r="I86" s="10" t="s">
-        <v>603</v>
+        <v>235</v>
       </c>
       <c r="J86" s="26" t="s">
-        <v>604</v>
+        <v>590</v>
       </c>
       <c r="K86" s="9"/>
     </row>
@@ -13327,29 +13477,29 @@
         <v>132</v>
       </c>
       <c r="B87" s="9" t="s">
-        <v>248</v>
+        <v>236</v>
       </c>
       <c r="C87" s="9" t="s">
-        <v>249</v>
+        <v>381</v>
       </c>
       <c r="D87" s="9" t="s">
-        <v>117</v>
+        <v>382</v>
       </c>
       <c r="E87" s="9" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="F87" s="9" t="s">
-        <v>250</v>
+        <v>591</v>
       </c>
       <c r="G87" s="9" t="s">
-        <v>605</v>
+        <v>592</v>
       </c>
       <c r="H87" s="9"/>
-      <c r="I87" s="10" t="s">
-        <v>251</v>
+      <c r="I87" s="11" t="s">
+        <v>593</v>
       </c>
       <c r="J87" s="26" t="s">
-        <v>606</v>
+        <v>594</v>
       </c>
       <c r="K87" s="9"/>
     </row>
@@ -13358,10 +13508,10 @@
         <v>132</v>
       </c>
       <c r="B88" s="9" t="s">
-        <v>248</v>
+        <v>236</v>
       </c>
       <c r="C88" s="9" t="s">
-        <v>252</v>
+        <v>237</v>
       </c>
       <c r="D88" s="9" t="s">
         <v>411</v>
@@ -13370,17 +13520,17 @@
         <v>25</v>
       </c>
       <c r="F88" s="9" t="s">
-        <v>253</v>
+        <v>238</v>
       </c>
       <c r="G88" s="9" t="s">
-        <v>607</v>
+        <v>595</v>
       </c>
       <c r="H88" s="9"/>
       <c r="I88" s="10" t="s">
-        <v>254</v>
+        <v>239</v>
       </c>
       <c r="J88" s="26" t="s">
-        <v>608</v>
+        <v>596</v>
       </c>
       <c r="K88" s="9"/>
     </row>
@@ -13389,29 +13539,29 @@
         <v>132</v>
       </c>
       <c r="B89" s="9" t="s">
-        <v>248</v>
+        <v>236</v>
       </c>
       <c r="C89" s="9" t="s">
-        <v>255</v>
+        <v>240</v>
       </c>
       <c r="D89" s="9" t="s">
-        <v>117</v>
+        <v>241</v>
       </c>
       <c r="E89" s="9" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="F89" s="9" t="s">
-        <v>256</v>
+        <v>242</v>
       </c>
       <c r="G89" s="9" t="s">
-        <v>609</v>
+        <v>597</v>
       </c>
       <c r="H89" s="9"/>
       <c r="I89" s="10" t="s">
-        <v>257</v>
+        <v>243</v>
       </c>
       <c r="J89" s="26" t="s">
-        <v>610</v>
+        <v>598</v>
       </c>
       <c r="K89" s="9"/>
     </row>
@@ -13420,29 +13570,29 @@
         <v>132</v>
       </c>
       <c r="B90" s="9" t="s">
-        <v>258</v>
+        <v>236</v>
       </c>
       <c r="C90" s="9" t="s">
-        <v>259</v>
+        <v>790</v>
       </c>
       <c r="D90" s="9" t="s">
         <v>117</v>
       </c>
       <c r="E90" s="9" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="F90" s="9" t="s">
-        <v>260</v>
+        <v>812</v>
       </c>
       <c r="G90" s="9" t="s">
-        <v>611</v>
+        <v>813</v>
       </c>
       <c r="H90" s="9"/>
-      <c r="I90" s="10" t="s">
-        <v>261</v>
+      <c r="I90" s="28" t="s">
+        <v>814</v>
       </c>
       <c r="J90" s="26" t="s">
-        <v>612</v>
+        <v>815</v>
       </c>
       <c r="K90" s="9"/>
     </row>
@@ -13451,29 +13601,29 @@
         <v>132</v>
       </c>
       <c r="B91" s="9" t="s">
-        <v>262</v>
+        <v>244</v>
       </c>
       <c r="C91" s="9" t="s">
-        <v>263</v>
+        <v>245</v>
       </c>
       <c r="D91" s="9" t="s">
-        <v>613</v>
+        <v>241</v>
       </c>
       <c r="E91" s="9" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="F91" s="9" t="s">
-        <v>265</v>
+        <v>246</v>
       </c>
       <c r="G91" s="9" t="s">
-        <v>614</v>
+        <v>599</v>
       </c>
       <c r="H91" s="9"/>
-      <c r="I91" s="11" t="s">
-        <v>266</v>
+      <c r="I91" s="10" t="s">
+        <v>247</v>
       </c>
       <c r="J91" s="26" t="s">
-        <v>615</v>
+        <v>600</v>
       </c>
       <c r="K91" s="9"/>
     </row>
@@ -13482,10 +13632,10 @@
         <v>132</v>
       </c>
       <c r="B92" s="9" t="s">
-        <v>262</v>
+        <v>789</v>
       </c>
       <c r="C92" s="9" t="s">
-        <v>267</v>
+        <v>788</v>
       </c>
       <c r="D92" s="9" t="s">
         <v>411</v>
@@ -13494,17 +13644,17 @@
         <v>25</v>
       </c>
       <c r="F92" s="9" t="s">
-        <v>268</v>
+        <v>816</v>
       </c>
       <c r="G92" s="9" t="s">
-        <v>616</v>
+        <v>817</v>
       </c>
       <c r="H92" s="9"/>
-      <c r="I92" s="11" t="s">
-        <v>269</v>
+      <c r="I92" s="28" t="s">
+        <v>818</v>
       </c>
       <c r="J92" s="26" t="s">
-        <v>617</v>
+        <v>819</v>
       </c>
       <c r="K92" s="9"/>
     </row>
@@ -13513,29 +13663,29 @@
         <v>132</v>
       </c>
       <c r="B93" s="9" t="s">
-        <v>262</v>
+        <v>248</v>
       </c>
       <c r="C93" s="9" t="s">
-        <v>270</v>
+        <v>381</v>
       </c>
       <c r="D93" s="9" t="s">
-        <v>419</v>
+        <v>382</v>
       </c>
       <c r="E93" s="9" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="F93" s="9" t="s">
-        <v>271</v>
+        <v>601</v>
       </c>
       <c r="G93" s="9" t="s">
-        <v>618</v>
+        <v>602</v>
       </c>
       <c r="H93" s="9"/>
-      <c r="I93" s="11" t="s">
-        <v>272</v>
+      <c r="I93" s="10" t="s">
+        <v>603</v>
       </c>
       <c r="J93" s="26" t="s">
-        <v>619</v>
+        <v>604</v>
       </c>
       <c r="K93" s="9"/>
     </row>
@@ -13544,29 +13694,29 @@
         <v>132</v>
       </c>
       <c r="B94" s="9" t="s">
-        <v>262</v>
+        <v>248</v>
       </c>
       <c r="C94" s="9" t="s">
-        <v>273</v>
+        <v>249</v>
       </c>
       <c r="D94" s="9" t="s">
-        <v>613</v>
+        <v>117</v>
       </c>
       <c r="E94" s="9" t="s">
         <v>25</v>
       </c>
       <c r="F94" s="9" t="s">
-        <v>274</v>
+        <v>250</v>
       </c>
       <c r="G94" s="9" t="s">
-        <v>620</v>
+        <v>605</v>
       </c>
       <c r="H94" s="9"/>
-      <c r="I94" s="11" t="s">
-        <v>275</v>
+      <c r="I94" s="10" t="s">
+        <v>251</v>
       </c>
       <c r="J94" s="26" t="s">
-        <v>621</v>
+        <v>606</v>
       </c>
       <c r="K94" s="9"/>
     </row>
@@ -13575,29 +13725,29 @@
         <v>132</v>
       </c>
       <c r="B95" s="9" t="s">
-        <v>262</v>
+        <v>248</v>
       </c>
       <c r="C95" s="9" t="s">
-        <v>724</v>
+        <v>252</v>
       </c>
       <c r="D95" s="9" t="s">
-        <v>398</v>
+        <v>411</v>
       </c>
       <c r="E95" s="9" t="s">
         <v>25</v>
       </c>
       <c r="F95" s="9" t="s">
-        <v>756</v>
+        <v>253</v>
       </c>
       <c r="G95" s="9" t="s">
-        <v>757</v>
+        <v>607</v>
       </c>
       <c r="H95" s="9"/>
-      <c r="I95" s="28" t="s">
-        <v>758</v>
+      <c r="I95" s="10" t="s">
+        <v>254</v>
       </c>
       <c r="J95" s="26" t="s">
-        <v>759</v>
+        <v>608</v>
       </c>
       <c r="K95" s="9"/>
     </row>
@@ -13606,335 +13756,337 @@
         <v>132</v>
       </c>
       <c r="B96" s="9" t="s">
+        <v>248</v>
+      </c>
+      <c r="C96" s="9" t="s">
+        <v>255</v>
+      </c>
+      <c r="D96" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="E96" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="F96" s="9" t="s">
+        <v>256</v>
+      </c>
+      <c r="G96" s="9" t="s">
+        <v>609</v>
+      </c>
+      <c r="H96" s="9"/>
+      <c r="I96" s="10" t="s">
+        <v>257</v>
+      </c>
+      <c r="J96" s="26" t="s">
+        <v>610</v>
+      </c>
+      <c r="K96" s="9"/>
+    </row>
+    <row r="97" spans="1:11" ht="13">
+      <c r="A97" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="B97" s="9" t="s">
+        <v>258</v>
+      </c>
+      <c r="C97" s="9" t="s">
+        <v>259</v>
+      </c>
+      <c r="D97" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="E97" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F97" s="9" t="s">
+        <v>260</v>
+      </c>
+      <c r="G97" s="9" t="s">
+        <v>611</v>
+      </c>
+      <c r="H97" s="9"/>
+      <c r="I97" s="10" t="s">
+        <v>261</v>
+      </c>
+      <c r="J97" s="26" t="s">
+        <v>612</v>
+      </c>
+      <c r="K97" s="9"/>
+    </row>
+    <row r="98" spans="1:11" ht="13">
+      <c r="A98" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="B98" s="9" t="s">
         <v>262</v>
       </c>
-      <c r="C96" s="9" t="s">
+      <c r="C98" s="9" t="s">
+        <v>263</v>
+      </c>
+      <c r="D98" s="9" t="s">
+        <v>613</v>
+      </c>
+      <c r="E98" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F98" s="9" t="s">
+        <v>265</v>
+      </c>
+      <c r="G98" s="9" t="s">
+        <v>614</v>
+      </c>
+      <c r="H98" s="9"/>
+      <c r="I98" s="11" t="s">
+        <v>266</v>
+      </c>
+      <c r="J98" s="26" t="s">
+        <v>615</v>
+      </c>
+      <c r="K98" s="9"/>
+    </row>
+    <row r="99" spans="1:11" ht="13">
+      <c r="A99" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="B99" s="9" t="s">
+        <v>262</v>
+      </c>
+      <c r="C99" s="9" t="s">
+        <v>267</v>
+      </c>
+      <c r="D99" s="9" t="s">
+        <v>411</v>
+      </c>
+      <c r="E99" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F99" s="9" t="s">
+        <v>268</v>
+      </c>
+      <c r="G99" s="9" t="s">
+        <v>616</v>
+      </c>
+      <c r="H99" s="9"/>
+      <c r="I99" s="11" t="s">
+        <v>269</v>
+      </c>
+      <c r="J99" s="26" t="s">
+        <v>617</v>
+      </c>
+      <c r="K99" s="9"/>
+    </row>
+    <row r="100" spans="1:11" ht="13">
+      <c r="A100" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="B100" s="9" t="s">
+        <v>262</v>
+      </c>
+      <c r="C100" s="9" t="s">
+        <v>270</v>
+      </c>
+      <c r="D100" s="9" t="s">
+        <v>419</v>
+      </c>
+      <c r="E100" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F100" s="9" t="s">
+        <v>271</v>
+      </c>
+      <c r="G100" s="9" t="s">
+        <v>618</v>
+      </c>
+      <c r="H100" s="9"/>
+      <c r="I100" s="11" t="s">
+        <v>272</v>
+      </c>
+      <c r="J100" s="26" t="s">
+        <v>619</v>
+      </c>
+      <c r="K100" s="9"/>
+    </row>
+    <row r="101" spans="1:11" ht="13">
+      <c r="A101" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="B101" s="9" t="s">
+        <v>262</v>
+      </c>
+      <c r="C101" s="9" t="s">
+        <v>786</v>
+      </c>
+      <c r="D101" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="E101" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F101" s="9" t="s">
+        <v>820</v>
+      </c>
+      <c r="G101" s="9" t="s">
+        <v>821</v>
+      </c>
+      <c r="H101" s="9"/>
+      <c r="I101" s="28" t="s">
+        <v>822</v>
+      </c>
+      <c r="J101" s="26" t="s">
+        <v>823</v>
+      </c>
+      <c r="K101" s="9"/>
+    </row>
+    <row r="102" spans="1:11" ht="13">
+      <c r="A102" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="B102" s="9" t="s">
+        <v>262</v>
+      </c>
+      <c r="C102" s="9" t="s">
+        <v>787</v>
+      </c>
+      <c r="D102" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="E102" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F102" s="9" t="s">
+        <v>824</v>
+      </c>
+      <c r="G102" s="9" t="s">
+        <v>825</v>
+      </c>
+      <c r="H102" s="9"/>
+      <c r="I102" s="28" t="s">
+        <v>826</v>
+      </c>
+      <c r="J102" s="26" t="s">
+        <v>827</v>
+      </c>
+      <c r="K102" s="9"/>
+    </row>
+    <row r="103" spans="1:11" ht="13">
+      <c r="A103" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="B103" s="9" t="s">
+        <v>262</v>
+      </c>
+      <c r="C103" s="9" t="s">
+        <v>273</v>
+      </c>
+      <c r="D103" s="9" t="s">
+        <v>613</v>
+      </c>
+      <c r="E103" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F103" s="9" t="s">
+        <v>274</v>
+      </c>
+      <c r="G103" s="9" t="s">
+        <v>620</v>
+      </c>
+      <c r="H103" s="9"/>
+      <c r="I103" s="11" t="s">
+        <v>275</v>
+      </c>
+      <c r="J103" s="26" t="s">
+        <v>621</v>
+      </c>
+      <c r="K103" s="9"/>
+    </row>
+    <row r="104" spans="1:11" ht="13">
+      <c r="A104" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="B104" s="9" t="s">
+        <v>262</v>
+      </c>
+      <c r="C104" s="9" t="s">
+        <v>724</v>
+      </c>
+      <c r="D104" s="9" t="s">
+        <v>398</v>
+      </c>
+      <c r="E104" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F104" s="9" t="s">
+        <v>756</v>
+      </c>
+      <c r="G104" s="9" t="s">
+        <v>757</v>
+      </c>
+      <c r="H104" s="9"/>
+      <c r="I104" s="28" t="s">
+        <v>758</v>
+      </c>
+      <c r="J104" s="26" t="s">
+        <v>759</v>
+      </c>
+      <c r="K104" s="9"/>
+    </row>
+    <row r="105" spans="1:11" ht="13">
+      <c r="A105" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="B105" s="9" t="s">
+        <v>262</v>
+      </c>
+      <c r="C105" s="9" t="s">
         <v>276</v>
       </c>
-      <c r="D96" s="9" t="s">
+      <c r="D105" s="9" t="s">
         <v>398</v>
       </c>
-      <c r="E96" s="9" t="s">
+      <c r="E105" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="F96" s="9" t="s">
+      <c r="F105" s="9" t="s">
         <v>277</v>
       </c>
-      <c r="G96" s="9" t="s">
+      <c r="G105" s="9" t="s">
         <v>622</v>
       </c>
-      <c r="H96" s="9"/>
-      <c r="I96" s="11" t="s">
+      <c r="H105" s="9"/>
+      <c r="I105" s="11" t="s">
         <v>623</v>
       </c>
-      <c r="J96" s="26"/>
-      <c r="K96" s="9"/>
-    </row>
-    <row r="97" spans="1:11" ht="13">
-      <c r="A97" s="14" t="s">
-        <v>278</v>
-      </c>
-      <c r="B97" s="14" t="s">
-        <v>624</v>
-      </c>
-      <c r="C97" s="14" t="s">
-        <v>625</v>
-      </c>
-      <c r="D97" s="14" t="s">
-        <v>157</v>
-      </c>
-      <c r="E97" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="F97" s="14" t="s">
-        <v>626</v>
-      </c>
-      <c r="G97" s="14" t="s">
-        <v>627</v>
-      </c>
-      <c r="H97" s="14"/>
-      <c r="I97" s="16" t="s">
-        <v>628</v>
-      </c>
-      <c r="J97" s="17" t="s">
-        <v>629</v>
-      </c>
-      <c r="K97" s="14"/>
-    </row>
-    <row r="98" spans="1:11" ht="13">
-      <c r="A98" s="14" t="s">
-        <v>278</v>
-      </c>
-      <c r="B98" s="14" t="s">
-        <v>624</v>
-      </c>
-      <c r="C98" s="14" t="s">
-        <v>630</v>
-      </c>
-      <c r="D98" s="14" t="s">
-        <v>411</v>
-      </c>
-      <c r="E98" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="F98" s="14" t="s">
-        <v>631</v>
-      </c>
-      <c r="G98" s="14" t="s">
-        <v>632</v>
-      </c>
-      <c r="H98" s="14"/>
-      <c r="I98" s="16" t="s">
-        <v>633</v>
-      </c>
-      <c r="J98" s="17" t="s">
-        <v>634</v>
-      </c>
-      <c r="K98" s="14"/>
-    </row>
-    <row r="99" spans="1:11" ht="13">
-      <c r="A99" s="14" t="s">
-        <v>278</v>
-      </c>
-      <c r="B99" s="14" t="s">
-        <v>279</v>
-      </c>
-      <c r="C99" s="14" t="s">
-        <v>635</v>
-      </c>
-      <c r="D99" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="E99" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="F99" s="14" t="s">
-        <v>636</v>
-      </c>
-      <c r="G99" s="14" t="s">
-        <v>637</v>
-      </c>
-      <c r="H99" s="14"/>
-      <c r="I99" s="15" t="s">
-        <v>638</v>
-      </c>
-      <c r="J99" s="17" t="s">
-        <v>639</v>
-      </c>
-      <c r="K99" s="14"/>
-    </row>
-    <row r="100" spans="1:11" ht="13">
-      <c r="A100" s="14" t="s">
-        <v>278</v>
-      </c>
-      <c r="B100" s="14" t="s">
-        <v>279</v>
-      </c>
-      <c r="C100" s="14" t="s">
-        <v>640</v>
-      </c>
-      <c r="D100" s="14" t="s">
-        <v>157</v>
-      </c>
-      <c r="E100" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="F100" s="14" t="s">
-        <v>641</v>
-      </c>
-      <c r="G100" s="14" t="s">
-        <v>642</v>
-      </c>
-      <c r="H100" s="14"/>
-      <c r="I100" s="15" t="s">
-        <v>643</v>
-      </c>
-      <c r="J100" s="17" t="s">
-        <v>644</v>
-      </c>
-      <c r="K100" s="14"/>
-    </row>
-    <row r="101" spans="1:11" ht="13">
-      <c r="A101" s="14" t="s">
-        <v>278</v>
-      </c>
-      <c r="B101" s="14" t="s">
-        <v>279</v>
-      </c>
-      <c r="C101" s="14" t="s">
-        <v>645</v>
-      </c>
-      <c r="D101" s="14" t="s">
-        <v>411</v>
-      </c>
-      <c r="E101" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="F101" s="14" t="s">
-        <v>646</v>
-      </c>
-      <c r="G101" s="14" t="s">
-        <v>647</v>
-      </c>
-      <c r="H101" s="14"/>
-      <c r="I101" s="15" t="s">
-        <v>648</v>
-      </c>
-      <c r="J101" s="17" t="s">
-        <v>649</v>
-      </c>
-      <c r="K101" s="14"/>
-    </row>
-    <row r="102" spans="1:11" ht="13">
-      <c r="A102" s="14" t="s">
-        <v>278</v>
-      </c>
-      <c r="B102" s="14" t="s">
-        <v>279</v>
-      </c>
-      <c r="C102" s="14" t="s">
-        <v>381</v>
-      </c>
-      <c r="D102" s="14" t="s">
-        <v>382</v>
-      </c>
-      <c r="E102" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="F102" s="14" t="s">
-        <v>650</v>
-      </c>
-      <c r="G102" s="14" t="s">
-        <v>651</v>
-      </c>
-      <c r="H102" s="14"/>
-      <c r="I102" s="15" t="s">
-        <v>652</v>
-      </c>
-      <c r="J102" s="17"/>
-      <c r="K102" s="14"/>
-    </row>
-    <row r="103" spans="1:11" ht="13">
-      <c r="A103" s="14" t="s">
-        <v>278</v>
-      </c>
-      <c r="B103" s="14" t="s">
-        <v>279</v>
-      </c>
-      <c r="C103" s="14" t="s">
-        <v>280</v>
-      </c>
-      <c r="D103" s="14" t="s">
-        <v>157</v>
-      </c>
-      <c r="E103" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="F103" s="14" t="s">
-        <v>281</v>
-      </c>
-      <c r="G103" s="14" t="s">
-        <v>653</v>
-      </c>
-      <c r="H103" s="14"/>
-      <c r="I103" s="15" t="s">
-        <v>282</v>
-      </c>
-      <c r="J103" s="17" t="s">
-        <v>654</v>
-      </c>
-      <c r="K103" s="14"/>
-    </row>
-    <row r="104" spans="1:11" ht="13">
-      <c r="A104" s="14" t="s">
-        <v>278</v>
-      </c>
-      <c r="B104" s="14" t="s">
-        <v>279</v>
-      </c>
-      <c r="C104" s="14" t="s">
-        <v>283</v>
-      </c>
-      <c r="D104" s="14" t="s">
-        <v>411</v>
-      </c>
-      <c r="E104" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="F104" s="14" t="s">
-        <v>284</v>
-      </c>
-      <c r="G104" s="14" t="s">
-        <v>655</v>
-      </c>
-      <c r="H104" s="14"/>
-      <c r="I104" s="15" t="s">
-        <v>285</v>
-      </c>
-      <c r="J104" s="17" t="s">
-        <v>656</v>
-      </c>
-      <c r="K104" s="14"/>
-    </row>
-    <row r="105" spans="1:11" ht="13">
-      <c r="A105" s="14" t="s">
-        <v>278</v>
-      </c>
-      <c r="B105" s="14" t="s">
-        <v>279</v>
-      </c>
-      <c r="C105" s="14" t="s">
-        <v>286</v>
-      </c>
-      <c r="D105" s="14" t="s">
-        <v>419</v>
-      </c>
-      <c r="E105" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="F105" s="14" t="s">
-        <v>287</v>
-      </c>
-      <c r="G105" s="14" t="s">
-        <v>657</v>
-      </c>
-      <c r="H105" s="14"/>
-      <c r="I105" s="16" t="s">
-        <v>288</v>
-      </c>
-      <c r="J105" s="17" t="s">
-        <v>658</v>
-      </c>
-      <c r="K105" s="14"/>
+      <c r="J105" s="26"/>
+      <c r="K105" s="9"/>
     </row>
     <row r="106" spans="1:11" ht="13">
       <c r="A106" s="14" t="s">
         <v>278</v>
       </c>
       <c r="B106" s="14" t="s">
-        <v>279</v>
+        <v>624</v>
       </c>
       <c r="C106" s="14" t="s">
-        <v>289</v>
+        <v>625</v>
       </c>
       <c r="D106" s="14" t="s">
-        <v>117</v>
+        <v>157</v>
       </c>
       <c r="E106" s="14" t="s">
         <v>25</v>
       </c>
       <c r="F106" s="14" t="s">
-        <v>290</v>
+        <v>626</v>
       </c>
       <c r="G106" s="14" t="s">
-        <v>659</v>
+        <v>627</v>
       </c>
       <c r="H106" s="14"/>
       <c r="I106" s="16" t="s">
-        <v>291</v>
+        <v>628</v>
       </c>
       <c r="J106" s="17" t="s">
-        <v>660</v>
+        <v>629</v>
       </c>
       <c r="K106" s="14"/>
     </row>
@@ -13943,29 +14095,29 @@
         <v>278</v>
       </c>
       <c r="B107" s="14" t="s">
-        <v>279</v>
+        <v>624</v>
       </c>
       <c r="C107" s="14" t="s">
-        <v>292</v>
+        <v>630</v>
       </c>
       <c r="D107" s="14" t="s">
-        <v>47</v>
+        <v>411</v>
       </c>
       <c r="E107" s="14" t="s">
         <v>25</v>
       </c>
       <c r="F107" s="14" t="s">
-        <v>293</v>
+        <v>631</v>
       </c>
       <c r="G107" s="14" t="s">
-        <v>661</v>
+        <v>632</v>
       </c>
       <c r="H107" s="14"/>
       <c r="I107" s="16" t="s">
-        <v>294</v>
+        <v>633</v>
       </c>
       <c r="J107" s="17" t="s">
-        <v>662</v>
+        <v>634</v>
       </c>
       <c r="K107" s="14"/>
     </row>
@@ -13977,26 +14129,26 @@
         <v>279</v>
       </c>
       <c r="C108" s="14" t="s">
-        <v>295</v>
+        <v>635</v>
       </c>
       <c r="D108" s="14" t="s">
-        <v>411</v>
+        <v>47</v>
       </c>
       <c r="E108" s="14" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="F108" s="14" t="s">
-        <v>296</v>
+        <v>636</v>
       </c>
       <c r="G108" s="14" t="s">
-        <v>663</v>
+        <v>637</v>
       </c>
       <c r="H108" s="14"/>
-      <c r="I108" s="16" t="s">
-        <v>297</v>
+      <c r="I108" s="15" t="s">
+        <v>638</v>
       </c>
       <c r="J108" s="17" t="s">
-        <v>664</v>
+        <v>639</v>
       </c>
       <c r="K108" s="14"/>
     </row>
@@ -14008,26 +14160,26 @@
         <v>279</v>
       </c>
       <c r="C109" s="14" t="s">
-        <v>298</v>
+        <v>640</v>
       </c>
       <c r="D109" s="14" t="s">
-        <v>411</v>
+        <v>157</v>
       </c>
       <c r="E109" s="14" t="s">
         <v>25</v>
       </c>
       <c r="F109" s="14" t="s">
-        <v>299</v>
+        <v>641</v>
       </c>
       <c r="G109" s="14" t="s">
-        <v>665</v>
+        <v>642</v>
       </c>
       <c r="H109" s="14"/>
-      <c r="I109" s="16" t="s">
-        <v>300</v>
+      <c r="I109" s="15" t="s">
+        <v>643</v>
       </c>
       <c r="J109" s="17" t="s">
-        <v>666</v>
+        <v>644</v>
       </c>
       <c r="K109" s="14"/>
     </row>
@@ -14039,26 +14191,26 @@
         <v>279</v>
       </c>
       <c r="C110" s="14" t="s">
-        <v>191</v>
+        <v>645</v>
       </c>
       <c r="D110" s="14" t="s">
-        <v>117</v>
+        <v>411</v>
       </c>
       <c r="E110" s="14" t="s">
         <v>25</v>
       </c>
       <c r="F110" s="14" t="s">
-        <v>760</v>
+        <v>646</v>
       </c>
       <c r="G110" s="14" t="s">
-        <v>761</v>
+        <v>647</v>
       </c>
       <c r="H110" s="14"/>
-      <c r="I110" s="29" t="s">
-        <v>762</v>
+      <c r="I110" s="15" t="s">
+        <v>648</v>
       </c>
       <c r="J110" s="17" t="s">
-        <v>558</v>
+        <v>649</v>
       </c>
       <c r="K110" s="14"/>
     </row>
@@ -14067,30 +14219,28 @@
         <v>278</v>
       </c>
       <c r="B111" s="14" t="s">
-        <v>301</v>
+        <v>279</v>
       </c>
       <c r="C111" s="14" t="s">
-        <v>302</v>
+        <v>381</v>
       </c>
       <c r="D111" s="14" t="s">
-        <v>117</v>
+        <v>382</v>
       </c>
       <c r="E111" s="14" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="F111" s="14" t="s">
-        <v>303</v>
+        <v>650</v>
       </c>
       <c r="G111" s="14" t="s">
-        <v>667</v>
+        <v>651</v>
       </c>
       <c r="H111" s="14"/>
       <c r="I111" s="15" t="s">
-        <v>304</v>
-      </c>
-      <c r="J111" s="17" t="s">
-        <v>668</v>
-      </c>
+        <v>652</v>
+      </c>
+      <c r="J111" s="17"/>
       <c r="K111" s="14"/>
     </row>
     <row r="112" spans="1:11" ht="13">
@@ -14098,29 +14248,29 @@
         <v>278</v>
       </c>
       <c r="B112" s="14" t="s">
-        <v>301</v>
+        <v>279</v>
       </c>
       <c r="C112" s="14" t="s">
-        <v>381</v>
+        <v>280</v>
       </c>
       <c r="D112" s="14" t="s">
-        <v>382</v>
+        <v>157</v>
       </c>
       <c r="E112" s="14" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="F112" s="14" t="s">
-        <v>669</v>
+        <v>281</v>
       </c>
       <c r="G112" s="14" t="s">
-        <v>670</v>
+        <v>653</v>
       </c>
       <c r="H112" s="14"/>
       <c r="I112" s="15" t="s">
-        <v>671</v>
+        <v>282</v>
       </c>
       <c r="J112" s="17" t="s">
-        <v>672</v>
+        <v>654</v>
       </c>
       <c r="K112" s="14"/>
     </row>
@@ -14129,10 +14279,10 @@
         <v>278</v>
       </c>
       <c r="B113" s="14" t="s">
-        <v>305</v>
+        <v>279</v>
       </c>
       <c r="C113" s="14" t="s">
-        <v>306</v>
+        <v>283</v>
       </c>
       <c r="D113" s="14" t="s">
         <v>411</v>
@@ -14141,17 +14291,17 @@
         <v>25</v>
       </c>
       <c r="F113" s="14" t="s">
-        <v>307</v>
+        <v>284</v>
       </c>
       <c r="G113" s="14" t="s">
-        <v>673</v>
+        <v>655</v>
       </c>
       <c r="H113" s="14"/>
       <c r="I113" s="15" t="s">
-        <v>308</v>
+        <v>285</v>
       </c>
       <c r="J113" s="17" t="s">
-        <v>674</v>
+        <v>656</v>
       </c>
       <c r="K113" s="14"/>
     </row>
@@ -14160,29 +14310,29 @@
         <v>278</v>
       </c>
       <c r="B114" s="14" t="s">
-        <v>305</v>
+        <v>279</v>
       </c>
       <c r="C114" s="14" t="s">
-        <v>298</v>
+        <v>286</v>
       </c>
       <c r="D114" s="14" t="s">
-        <v>411</v>
+        <v>419</v>
       </c>
       <c r="E114" s="14" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="F114" s="14" t="s">
-        <v>309</v>
+        <v>287</v>
       </c>
       <c r="G114" s="14" t="s">
-        <v>675</v>
+        <v>657</v>
       </c>
       <c r="H114" s="14"/>
-      <c r="I114" s="15" t="s">
-        <v>310</v>
+      <c r="I114" s="16" t="s">
+        <v>288</v>
       </c>
       <c r="J114" s="17" t="s">
-        <v>676</v>
+        <v>658</v>
       </c>
       <c r="K114" s="14"/>
     </row>
@@ -14191,29 +14341,29 @@
         <v>278</v>
       </c>
       <c r="B115" s="14" t="s">
-        <v>305</v>
+        <v>279</v>
       </c>
       <c r="C115" s="14" t="s">
-        <v>311</v>
+        <v>289</v>
       </c>
       <c r="D115" s="14" t="s">
-        <v>312</v>
+        <v>117</v>
       </c>
       <c r="E115" s="14" t="s">
         <v>25</v>
       </c>
       <c r="F115" s="14" t="s">
-        <v>313</v>
+        <v>290</v>
       </c>
       <c r="G115" s="14" t="s">
-        <v>677</v>
+        <v>659</v>
       </c>
       <c r="H115" s="14"/>
-      <c r="I115" s="15" t="s">
-        <v>314</v>
+      <c r="I115" s="16" t="s">
+        <v>291</v>
       </c>
       <c r="J115" s="17" t="s">
-        <v>678</v>
+        <v>660</v>
       </c>
       <c r="K115" s="14"/>
     </row>
@@ -14222,29 +14372,29 @@
         <v>278</v>
       </c>
       <c r="B116" s="14" t="s">
-        <v>305</v>
+        <v>279</v>
       </c>
       <c r="C116" s="14" t="s">
-        <v>729</v>
+        <v>292</v>
       </c>
       <c r="D116" s="14" t="s">
-        <v>411</v>
+        <v>47</v>
       </c>
       <c r="E116" s="14" t="s">
         <v>25</v>
       </c>
       <c r="F116" s="14" t="s">
-        <v>763</v>
+        <v>293</v>
       </c>
       <c r="G116" s="14" t="s">
-        <v>764</v>
+        <v>661</v>
       </c>
       <c r="H116" s="14"/>
-      <c r="I116" s="29" t="s">
-        <v>765</v>
+      <c r="I116" s="16" t="s">
+        <v>294</v>
       </c>
       <c r="J116" s="17" t="s">
-        <v>766</v>
+        <v>662</v>
       </c>
       <c r="K116" s="14"/>
     </row>
@@ -14253,10 +14403,10 @@
         <v>278</v>
       </c>
       <c r="B117" s="14" t="s">
-        <v>315</v>
+        <v>279</v>
       </c>
       <c r="C117" s="14" t="s">
-        <v>316</v>
+        <v>295</v>
       </c>
       <c r="D117" s="14" t="s">
         <v>411</v>
@@ -14265,17 +14415,17 @@
         <v>25</v>
       </c>
       <c r="F117" s="14" t="s">
-        <v>317</v>
+        <v>296</v>
       </c>
       <c r="G117" s="14" t="s">
-        <v>679</v>
+        <v>663</v>
       </c>
       <c r="H117" s="14"/>
-      <c r="I117" s="15" t="s">
-        <v>318</v>
+      <c r="I117" s="16" t="s">
+        <v>297</v>
       </c>
       <c r="J117" s="17" t="s">
-        <v>680</v>
+        <v>664</v>
       </c>
       <c r="K117" s="14"/>
     </row>
@@ -14284,29 +14434,29 @@
         <v>278</v>
       </c>
       <c r="B118" s="14" t="s">
-        <v>315</v>
+        <v>279</v>
       </c>
       <c r="C118" s="14" t="s">
-        <v>720</v>
+        <v>298</v>
       </c>
       <c r="D118" s="14" t="s">
-        <v>55</v>
+        <v>411</v>
       </c>
       <c r="E118" s="14" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="F118" s="14" t="s">
-        <v>767</v>
+        <v>299</v>
       </c>
       <c r="G118" s="14" t="s">
-        <v>768</v>
+        <v>665</v>
       </c>
       <c r="H118" s="14"/>
-      <c r="I118" s="29" t="s">
-        <v>769</v>
+      <c r="I118" s="16" t="s">
+        <v>300</v>
       </c>
       <c r="J118" s="17" t="s">
-        <v>770</v>
+        <v>666</v>
       </c>
       <c r="K118" s="14"/>
     </row>
@@ -14315,29 +14465,29 @@
         <v>278</v>
       </c>
       <c r="B119" s="14" t="s">
-        <v>319</v>
+        <v>279</v>
       </c>
       <c r="C119" s="14" t="s">
-        <v>320</v>
+        <v>191</v>
       </c>
       <c r="D119" s="14" t="s">
-        <v>411</v>
+        <v>117</v>
       </c>
       <c r="E119" s="14" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="F119" s="14" t="s">
-        <v>681</v>
+        <v>760</v>
       </c>
       <c r="G119" s="14" t="s">
-        <v>682</v>
+        <v>761</v>
       </c>
       <c r="H119" s="14"/>
-      <c r="I119" s="16" t="s">
-        <v>683</v>
+      <c r="I119" s="29" t="s">
+        <v>762</v>
       </c>
       <c r="J119" s="17" t="s">
-        <v>684</v>
+        <v>558</v>
       </c>
       <c r="K119" s="14"/>
     </row>
@@ -14346,29 +14496,29 @@
         <v>278</v>
       </c>
       <c r="B120" s="14" t="s">
-        <v>319</v>
+        <v>301</v>
       </c>
       <c r="C120" s="14" t="s">
-        <v>323</v>
+        <v>302</v>
       </c>
       <c r="D120" s="14" t="s">
-        <v>411</v>
+        <v>117</v>
       </c>
       <c r="E120" s="14" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="F120" s="14" t="s">
-        <v>324</v>
+        <v>303</v>
       </c>
       <c r="G120" s="14" t="s">
-        <v>685</v>
+        <v>667</v>
       </c>
       <c r="H120" s="14"/>
       <c r="I120" s="15" t="s">
-        <v>325</v>
+        <v>304</v>
       </c>
       <c r="J120" s="17" t="s">
-        <v>686</v>
+        <v>668</v>
       </c>
       <c r="K120" s="14"/>
     </row>
@@ -14377,29 +14527,29 @@
         <v>278</v>
       </c>
       <c r="B121" s="14" t="s">
-        <v>319</v>
+        <v>301</v>
       </c>
       <c r="C121" s="14" t="s">
-        <v>687</v>
+        <v>381</v>
       </c>
       <c r="D121" s="14" t="s">
-        <v>411</v>
+        <v>382</v>
       </c>
       <c r="E121" s="14" t="s">
         <v>14</v>
       </c>
       <c r="F121" s="14" t="s">
-        <v>327</v>
+        <v>669</v>
       </c>
       <c r="G121" s="14" t="s">
-        <v>688</v>
+        <v>670</v>
       </c>
       <c r="H121" s="14"/>
       <c r="I121" s="15" t="s">
-        <v>328</v>
+        <v>671</v>
       </c>
       <c r="J121" s="17" t="s">
-        <v>689</v>
+        <v>672</v>
       </c>
       <c r="K121" s="14"/>
     </row>
@@ -14408,10 +14558,10 @@
         <v>278</v>
       </c>
       <c r="B122" s="14" t="s">
-        <v>329</v>
+        <v>305</v>
       </c>
       <c r="C122" s="14" t="s">
-        <v>167</v>
+        <v>306</v>
       </c>
       <c r="D122" s="14" t="s">
         <v>411</v>
@@ -14420,17 +14570,17 @@
         <v>25</v>
       </c>
       <c r="F122" s="14" t="s">
-        <v>330</v>
+        <v>307</v>
       </c>
       <c r="G122" s="14" t="s">
-        <v>690</v>
+        <v>673</v>
       </c>
       <c r="H122" s="14"/>
       <c r="I122" s="15" t="s">
-        <v>331</v>
+        <v>308</v>
       </c>
       <c r="J122" s="17" t="s">
-        <v>691</v>
+        <v>674</v>
       </c>
       <c r="K122" s="14"/>
     </row>
@@ -14439,29 +14589,29 @@
         <v>278</v>
       </c>
       <c r="B123" s="14" t="s">
-        <v>329</v>
+        <v>305</v>
       </c>
       <c r="C123" s="14" t="s">
-        <v>332</v>
+        <v>298</v>
       </c>
       <c r="D123" s="14" t="s">
-        <v>419</v>
+        <v>411</v>
       </c>
       <c r="E123" s="14" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="F123" s="14" t="s">
-        <v>333</v>
+        <v>309</v>
       </c>
       <c r="G123" s="14" t="s">
-        <v>692</v>
+        <v>675</v>
       </c>
       <c r="H123" s="14"/>
       <c r="I123" s="15" t="s">
-        <v>334</v>
+        <v>310</v>
       </c>
       <c r="J123" s="17" t="s">
-        <v>693</v>
+        <v>676</v>
       </c>
       <c r="K123" s="14"/>
     </row>
@@ -14470,29 +14620,29 @@
         <v>278</v>
       </c>
       <c r="B124" s="14" t="s">
-        <v>329</v>
+        <v>305</v>
       </c>
       <c r="C124" s="14" t="s">
-        <v>335</v>
+        <v>311</v>
       </c>
       <c r="D124" s="14" t="s">
-        <v>47</v>
+        <v>312</v>
       </c>
       <c r="E124" s="14" t="s">
         <v>25</v>
       </c>
       <c r="F124" s="14" t="s">
-        <v>336</v>
+        <v>313</v>
       </c>
       <c r="G124" s="14" t="s">
-        <v>694</v>
+        <v>677</v>
       </c>
       <c r="H124" s="14"/>
       <c r="I124" s="15" t="s">
-        <v>337</v>
+        <v>314</v>
       </c>
       <c r="J124" s="17" t="s">
-        <v>695</v>
+        <v>678</v>
       </c>
       <c r="K124" s="14"/>
     </row>
@@ -14501,29 +14651,29 @@
         <v>278</v>
       </c>
       <c r="B125" s="14" t="s">
-        <v>329</v>
+        <v>305</v>
       </c>
       <c r="C125" s="14" t="s">
-        <v>338</v>
+        <v>729</v>
       </c>
       <c r="D125" s="14" t="s">
-        <v>117</v>
+        <v>411</v>
       </c>
       <c r="E125" s="14" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="F125" s="14" t="s">
-        <v>339</v>
+        <v>763</v>
       </c>
       <c r="G125" s="14" t="s">
-        <v>696</v>
+        <v>764</v>
       </c>
       <c r="H125" s="14"/>
-      <c r="I125" s="15" t="s">
-        <v>340</v>
+      <c r="I125" s="29" t="s">
+        <v>765</v>
       </c>
       <c r="J125" s="17" t="s">
-        <v>697</v>
+        <v>766</v>
       </c>
       <c r="K125" s="14"/>
     </row>
@@ -14532,29 +14682,29 @@
         <v>278</v>
       </c>
       <c r="B126" s="14" t="s">
-        <v>329</v>
+        <v>315</v>
       </c>
       <c r="C126" s="14" t="s">
-        <v>341</v>
+        <v>316</v>
       </c>
       <c r="D126" s="14" t="s">
-        <v>342</v>
+        <v>411</v>
       </c>
       <c r="E126" s="14" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="F126" s="14" t="s">
-        <v>343</v>
+        <v>317</v>
       </c>
       <c r="G126" s="14" t="s">
-        <v>698</v>
+        <v>679</v>
       </c>
       <c r="H126" s="14"/>
       <c r="I126" s="15" t="s">
-        <v>344</v>
+        <v>318</v>
       </c>
       <c r="J126" s="17" t="s">
-        <v>699</v>
+        <v>680</v>
       </c>
       <c r="K126" s="14"/>
     </row>
@@ -14563,29 +14713,29 @@
         <v>278</v>
       </c>
       <c r="B127" s="14" t="s">
-        <v>329</v>
+        <v>315</v>
       </c>
       <c r="C127" s="14" t="s">
-        <v>345</v>
+        <v>720</v>
       </c>
       <c r="D127" s="14" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="E127" s="14" t="s">
         <v>14</v>
       </c>
       <c r="F127" s="14" t="s">
-        <v>346</v>
+        <v>767</v>
       </c>
       <c r="G127" s="14" t="s">
-        <v>700</v>
+        <v>768</v>
       </c>
       <c r="H127" s="14"/>
-      <c r="I127" s="15" t="s">
-        <v>347</v>
+      <c r="I127" s="29" t="s">
+        <v>769</v>
       </c>
       <c r="J127" s="17" t="s">
-        <v>701</v>
+        <v>770</v>
       </c>
       <c r="K127" s="14"/>
     </row>
@@ -14594,29 +14744,29 @@
         <v>278</v>
       </c>
       <c r="B128" s="14" t="s">
-        <v>348</v>
+        <v>315</v>
       </c>
       <c r="C128" s="14" t="s">
-        <v>349</v>
+        <v>791</v>
       </c>
       <c r="D128" s="14" t="s">
-        <v>75</v>
+        <v>411</v>
       </c>
       <c r="E128" s="14" t="s">
         <v>25</v>
       </c>
       <c r="F128" s="14" t="s">
-        <v>350</v>
+        <v>792</v>
       </c>
       <c r="G128" s="14" t="s">
-        <v>702</v>
+        <v>793</v>
       </c>
       <c r="H128" s="14"/>
-      <c r="I128" s="15" t="s">
-        <v>351</v>
+      <c r="I128" s="29" t="s">
+        <v>794</v>
       </c>
       <c r="J128" s="17" t="s">
-        <v>703</v>
+        <v>795</v>
       </c>
       <c r="K128" s="14"/>
     </row>
@@ -14625,29 +14775,29 @@
         <v>278</v>
       </c>
       <c r="B129" s="14" t="s">
-        <v>348</v>
+        <v>319</v>
       </c>
       <c r="C129" s="14" t="s">
-        <v>704</v>
+        <v>320</v>
       </c>
       <c r="D129" s="14" t="s">
-        <v>419</v>
+        <v>411</v>
       </c>
       <c r="E129" s="14" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="F129" s="14" t="s">
-        <v>353</v>
+        <v>681</v>
       </c>
       <c r="G129" s="14" t="s">
-        <v>705</v>
+        <v>682</v>
       </c>
       <c r="H129" s="14"/>
       <c r="I129" s="16" t="s">
-        <v>354</v>
+        <v>683</v>
       </c>
       <c r="J129" s="17" t="s">
-        <v>706</v>
+        <v>684</v>
       </c>
       <c r="K129" s="14"/>
     </row>
@@ -14656,29 +14806,29 @@
         <v>278</v>
       </c>
       <c r="B130" s="14" t="s">
-        <v>355</v>
+        <v>319</v>
       </c>
       <c r="C130" s="14" t="s">
-        <v>302</v>
+        <v>323</v>
       </c>
       <c r="D130" s="14" t="s">
-        <v>117</v>
+        <v>411</v>
       </c>
       <c r="E130" s="14" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="F130" s="14" t="s">
-        <v>356</v>
+        <v>324</v>
       </c>
       <c r="G130" s="14" t="s">
-        <v>707</v>
+        <v>685</v>
       </c>
       <c r="H130" s="14"/>
       <c r="I130" s="15" t="s">
-        <v>357</v>
+        <v>325</v>
       </c>
       <c r="J130" s="17" t="s">
-        <v>708</v>
+        <v>686</v>
       </c>
       <c r="K130" s="14"/>
     </row>
@@ -14687,29 +14837,29 @@
         <v>278</v>
       </c>
       <c r="B131" s="14" t="s">
-        <v>355</v>
+        <v>319</v>
       </c>
       <c r="C131" s="14" t="s">
-        <v>358</v>
+        <v>687</v>
       </c>
       <c r="D131" s="14" t="s">
         <v>411</v>
       </c>
       <c r="E131" s="14" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="F131" s="14" t="s">
-        <v>359</v>
+        <v>327</v>
       </c>
       <c r="G131" s="14" t="s">
-        <v>709</v>
+        <v>688</v>
       </c>
       <c r="H131" s="14"/>
       <c r="I131" s="15" t="s">
-        <v>360</v>
+        <v>328</v>
       </c>
       <c r="J131" s="17" t="s">
-        <v>710</v>
+        <v>689</v>
       </c>
       <c r="K131" s="14"/>
     </row>
@@ -14718,29 +14868,29 @@
         <v>278</v>
       </c>
       <c r="B132" s="14" t="s">
-        <v>355</v>
+        <v>329</v>
       </c>
       <c r="C132" s="14" t="s">
-        <v>723</v>
+        <v>167</v>
       </c>
       <c r="D132" s="14" t="s">
-        <v>51</v>
+        <v>411</v>
       </c>
       <c r="E132" s="14" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="F132" s="14" t="s">
-        <v>771</v>
+        <v>330</v>
       </c>
       <c r="G132" s="14" t="s">
-        <v>772</v>
+        <v>690</v>
       </c>
       <c r="H132" s="14"/>
-      <c r="I132" s="29" t="s">
-        <v>773</v>
+      <c r="I132" s="15" t="s">
+        <v>331</v>
       </c>
       <c r="J132" s="17" t="s">
-        <v>774</v>
+        <v>691</v>
       </c>
       <c r="K132" s="14"/>
     </row>
@@ -14749,29 +14899,29 @@
         <v>278</v>
       </c>
       <c r="B133" s="14" t="s">
-        <v>711</v>
-      </c>
-      <c r="C133" s="17" t="s">
-        <v>712</v>
+        <v>329</v>
+      </c>
+      <c r="C133" s="14" t="s">
+        <v>332</v>
       </c>
       <c r="D133" s="14" t="s">
-        <v>411</v>
+        <v>419</v>
       </c>
       <c r="E133" s="14" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="F133" s="14" t="s">
-        <v>713</v>
+        <v>333</v>
       </c>
       <c r="G133" s="14" t="s">
-        <v>714</v>
+        <v>692</v>
       </c>
       <c r="H133" s="14"/>
       <c r="I133" s="15" t="s">
-        <v>715</v>
+        <v>334</v>
       </c>
       <c r="J133" s="17" t="s">
-        <v>716</v>
+        <v>693</v>
       </c>
       <c r="K133" s="14"/>
     </row>
@@ -14780,62 +14930,372 @@
         <v>278</v>
       </c>
       <c r="B134" s="14" t="s">
-        <v>361</v>
-      </c>
-      <c r="C134" s="17" t="s">
-        <v>362</v>
+        <v>329</v>
+      </c>
+      <c r="C134" s="14" t="s">
+        <v>335</v>
       </c>
       <c r="D134" s="14" t="s">
-        <v>419</v>
+        <v>47</v>
       </c>
       <c r="E134" s="14" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="F134" s="14" t="s">
-        <v>363</v>
+        <v>336</v>
       </c>
       <c r="G134" s="14" t="s">
-        <v>717</v>
+        <v>694</v>
       </c>
       <c r="H134" s="14"/>
       <c r="I134" s="15" t="s">
+        <v>337</v>
+      </c>
+      <c r="J134" s="17" t="s">
+        <v>695</v>
+      </c>
+      <c r="K134" s="14"/>
+    </row>
+    <row r="135" spans="1:11" ht="13">
+      <c r="A135" s="14" t="s">
+        <v>278</v>
+      </c>
+      <c r="B135" s="14" t="s">
+        <v>329</v>
+      </c>
+      <c r="C135" s="14" t="s">
+        <v>338</v>
+      </c>
+      <c r="D135" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="E135" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="F135" s="14" t="s">
+        <v>339</v>
+      </c>
+      <c r="G135" s="14" t="s">
+        <v>696</v>
+      </c>
+      <c r="H135" s="14"/>
+      <c r="I135" s="15" t="s">
+        <v>340</v>
+      </c>
+      <c r="J135" s="17" t="s">
+        <v>697</v>
+      </c>
+      <c r="K135" s="14"/>
+    </row>
+    <row r="136" spans="1:11" ht="13">
+      <c r="A136" s="14" t="s">
+        <v>278</v>
+      </c>
+      <c r="B136" s="14" t="s">
+        <v>329</v>
+      </c>
+      <c r="C136" s="14" t="s">
+        <v>341</v>
+      </c>
+      <c r="D136" s="14" t="s">
+        <v>342</v>
+      </c>
+      <c r="E136" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="F136" s="14" t="s">
+        <v>343</v>
+      </c>
+      <c r="G136" s="14" t="s">
+        <v>698</v>
+      </c>
+      <c r="H136" s="14"/>
+      <c r="I136" s="15" t="s">
+        <v>344</v>
+      </c>
+      <c r="J136" s="17" t="s">
+        <v>699</v>
+      </c>
+      <c r="K136" s="14"/>
+    </row>
+    <row r="137" spans="1:11" ht="13">
+      <c r="A137" s="14" t="s">
+        <v>278</v>
+      </c>
+      <c r="B137" s="14" t="s">
+        <v>329</v>
+      </c>
+      <c r="C137" s="14" t="s">
+        <v>345</v>
+      </c>
+      <c r="D137" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="E137" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="F137" s="14" t="s">
+        <v>346</v>
+      </c>
+      <c r="G137" s="14" t="s">
+        <v>700</v>
+      </c>
+      <c r="H137" s="14"/>
+      <c r="I137" s="15" t="s">
+        <v>347</v>
+      </c>
+      <c r="J137" s="17" t="s">
+        <v>701</v>
+      </c>
+      <c r="K137" s="14"/>
+    </row>
+    <row r="138" spans="1:11" ht="13">
+      <c r="A138" s="14" t="s">
+        <v>278</v>
+      </c>
+      <c r="B138" s="14" t="s">
+        <v>348</v>
+      </c>
+      <c r="C138" s="14" t="s">
+        <v>349</v>
+      </c>
+      <c r="D138" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="E138" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="F138" s="14" t="s">
+        <v>350</v>
+      </c>
+      <c r="G138" s="14" t="s">
+        <v>702</v>
+      </c>
+      <c r="H138" s="14"/>
+      <c r="I138" s="15" t="s">
+        <v>351</v>
+      </c>
+      <c r="J138" s="17" t="s">
+        <v>703</v>
+      </c>
+      <c r="K138" s="14"/>
+    </row>
+    <row r="139" spans="1:11" ht="13">
+      <c r="A139" s="14" t="s">
+        <v>278</v>
+      </c>
+      <c r="B139" s="14" t="s">
+        <v>348</v>
+      </c>
+      <c r="C139" s="14" t="s">
+        <v>704</v>
+      </c>
+      <c r="D139" s="14" t="s">
+        <v>419</v>
+      </c>
+      <c r="E139" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="F139" s="14" t="s">
+        <v>353</v>
+      </c>
+      <c r="G139" s="14" t="s">
+        <v>705</v>
+      </c>
+      <c r="H139" s="14"/>
+      <c r="I139" s="16" t="s">
+        <v>354</v>
+      </c>
+      <c r="J139" s="17" t="s">
+        <v>706</v>
+      </c>
+      <c r="K139" s="14"/>
+    </row>
+    <row r="140" spans="1:11" ht="13">
+      <c r="A140" s="14" t="s">
+        <v>278</v>
+      </c>
+      <c r="B140" s="14" t="s">
+        <v>355</v>
+      </c>
+      <c r="C140" s="14" t="s">
+        <v>302</v>
+      </c>
+      <c r="D140" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="E140" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="F140" s="14" t="s">
+        <v>356</v>
+      </c>
+      <c r="G140" s="14" t="s">
+        <v>707</v>
+      </c>
+      <c r="H140" s="14"/>
+      <c r="I140" s="15" t="s">
+        <v>357</v>
+      </c>
+      <c r="J140" s="17" t="s">
+        <v>708</v>
+      </c>
+      <c r="K140" s="14"/>
+    </row>
+    <row r="141" spans="1:11" ht="13">
+      <c r="A141" s="14" t="s">
+        <v>278</v>
+      </c>
+      <c r="B141" s="14" t="s">
+        <v>355</v>
+      </c>
+      <c r="C141" s="14" t="s">
+        <v>358</v>
+      </c>
+      <c r="D141" s="14" t="s">
+        <v>411</v>
+      </c>
+      <c r="E141" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="F141" s="14" t="s">
+        <v>359</v>
+      </c>
+      <c r="G141" s="14" t="s">
+        <v>709</v>
+      </c>
+      <c r="H141" s="14"/>
+      <c r="I141" s="15" t="s">
+        <v>360</v>
+      </c>
+      <c r="J141" s="17" t="s">
+        <v>710</v>
+      </c>
+      <c r="K141" s="14"/>
+    </row>
+    <row r="142" spans="1:11" ht="13">
+      <c r="A142" s="14" t="s">
+        <v>278</v>
+      </c>
+      <c r="B142" s="14" t="s">
+        <v>355</v>
+      </c>
+      <c r="C142" s="14" t="s">
+        <v>723</v>
+      </c>
+      <c r="D142" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="E142" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="F142" s="14" t="s">
+        <v>771</v>
+      </c>
+      <c r="G142" s="14" t="s">
+        <v>772</v>
+      </c>
+      <c r="H142" s="14"/>
+      <c r="I142" s="29" t="s">
+        <v>773</v>
+      </c>
+      <c r="J142" s="17" t="s">
+        <v>774</v>
+      </c>
+      <c r="K142" s="14"/>
+    </row>
+    <row r="143" spans="1:11" ht="13">
+      <c r="A143" s="14" t="s">
+        <v>278</v>
+      </c>
+      <c r="B143" s="14" t="s">
+        <v>711</v>
+      </c>
+      <c r="C143" s="17" t="s">
+        <v>712</v>
+      </c>
+      <c r="D143" s="14" t="s">
+        <v>411</v>
+      </c>
+      <c r="E143" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="F143" s="14" t="s">
+        <v>713</v>
+      </c>
+      <c r="G143" s="14" t="s">
+        <v>714</v>
+      </c>
+      <c r="H143" s="14"/>
+      <c r="I143" s="15" t="s">
+        <v>715</v>
+      </c>
+      <c r="J143" s="17" t="s">
+        <v>716</v>
+      </c>
+      <c r="K143" s="14"/>
+    </row>
+    <row r="144" spans="1:11" ht="13">
+      <c r="A144" s="14" t="s">
+        <v>278</v>
+      </c>
+      <c r="B144" s="14" t="s">
+        <v>361</v>
+      </c>
+      <c r="C144" s="17" t="s">
+        <v>362</v>
+      </c>
+      <c r="D144" s="14" t="s">
+        <v>419</v>
+      </c>
+      <c r="E144" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="F144" s="14" t="s">
+        <v>363</v>
+      </c>
+      <c r="G144" s="14" t="s">
+        <v>717</v>
+      </c>
+      <c r="H144" s="14"/>
+      <c r="I144" s="15" t="s">
         <v>364</v>
       </c>
-      <c r="J134" s="17" t="s">
+      <c r="J144" s="17" t="s">
         <v>718</v>
       </c>
-      <c r="K134" s="14"/>
-    </row>
-    <row r="135" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A135" s="14" t="s">
+      <c r="K144" s="14"/>
+    </row>
+    <row r="145" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A145" s="14" t="s">
         <v>775</v>
       </c>
-      <c r="B135" s="14" t="s">
+      <c r="B145" s="14" t="s">
         <v>777</v>
       </c>
-      <c r="C135" s="14" t="s">
+      <c r="C145" s="14" t="s">
         <v>725</v>
       </c>
-      <c r="D135" s="14" t="s">
+      <c r="D145" s="14" t="s">
         <v>411</v>
       </c>
-      <c r="E135" s="14" t="s">
+      <c r="E145" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="F135" s="14" t="s">
+      <c r="F145" s="14" t="s">
         <v>776</v>
       </c>
-      <c r="G135" s="14" t="s">
+      <c r="G145" s="14" t="s">
         <v>778</v>
       </c>
-      <c r="H135" s="14"/>
-      <c r="I135" s="29" t="s">
+      <c r="H145" s="14"/>
+      <c r="I145" s="29" t="s">
         <v>779</v>
       </c>
-      <c r="J135" s="17" t="s">
+      <c r="J145" s="17" t="s">
         <v>780</v>
       </c>
-      <c r="K135" s="14"/>
+      <c r="K145" s="14"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -14887,92 +15347,102 @@
     <hyperlink ref="I51" r:id="rId46" xr:uid="{00000000-0004-0000-0100-00002D000000}"/>
     <hyperlink ref="I52" r:id="rId47" xr:uid="{00000000-0004-0000-0100-00002E000000}"/>
     <hyperlink ref="I53" r:id="rId48" xr:uid="{00000000-0004-0000-0100-00002F000000}"/>
-    <hyperlink ref="I54" r:id="rId49" xr:uid="{00000000-0004-0000-0100-000030000000}"/>
-    <hyperlink ref="I55" r:id="rId50" xr:uid="{00000000-0004-0000-0100-000031000000}"/>
-    <hyperlink ref="I56" r:id="rId51" xr:uid="{00000000-0004-0000-0100-000032000000}"/>
-    <hyperlink ref="I57" r:id="rId52" xr:uid="{00000000-0004-0000-0100-000033000000}"/>
-    <hyperlink ref="I58" r:id="rId53" xr:uid="{00000000-0004-0000-0100-000034000000}"/>
-    <hyperlink ref="I60" r:id="rId54" xr:uid="{00000000-0004-0000-0100-000035000000}"/>
-    <hyperlink ref="I61" r:id="rId55" xr:uid="{00000000-0004-0000-0100-000036000000}"/>
-    <hyperlink ref="I62" r:id="rId56" xr:uid="{00000000-0004-0000-0100-000037000000}"/>
-    <hyperlink ref="I63" r:id="rId57" xr:uid="{00000000-0004-0000-0100-000038000000}"/>
-    <hyperlink ref="I64" r:id="rId58" xr:uid="{00000000-0004-0000-0100-000039000000}"/>
-    <hyperlink ref="I65" r:id="rId59" xr:uid="{00000000-0004-0000-0100-00003A000000}"/>
-    <hyperlink ref="I66" r:id="rId60" xr:uid="{00000000-0004-0000-0100-00003B000000}"/>
-    <hyperlink ref="I67" r:id="rId61" xr:uid="{00000000-0004-0000-0100-00003C000000}"/>
-    <hyperlink ref="I68" r:id="rId62" xr:uid="{00000000-0004-0000-0100-00003D000000}"/>
-    <hyperlink ref="I69" r:id="rId63" xr:uid="{00000000-0004-0000-0100-00003E000000}"/>
-    <hyperlink ref="I70" r:id="rId64" xr:uid="{00000000-0004-0000-0100-00003F000000}"/>
-    <hyperlink ref="I71" r:id="rId65" xr:uid="{00000000-0004-0000-0100-000040000000}"/>
-    <hyperlink ref="I72" r:id="rId66" xr:uid="{00000000-0004-0000-0100-000041000000}"/>
-    <hyperlink ref="I73" r:id="rId67" xr:uid="{00000000-0004-0000-0100-000042000000}"/>
-    <hyperlink ref="I75" r:id="rId68" xr:uid="{00000000-0004-0000-0100-000043000000}"/>
-    <hyperlink ref="I76" r:id="rId69" xr:uid="{00000000-0004-0000-0100-000044000000}"/>
-    <hyperlink ref="I77" r:id="rId70" xr:uid="{00000000-0004-0000-0100-000045000000}"/>
-    <hyperlink ref="I78" r:id="rId71" xr:uid="{00000000-0004-0000-0100-000046000000}"/>
-    <hyperlink ref="I79" r:id="rId72" xr:uid="{00000000-0004-0000-0100-000047000000}"/>
-    <hyperlink ref="I80" r:id="rId73" xr:uid="{00000000-0004-0000-0100-000048000000}"/>
-    <hyperlink ref="I81" r:id="rId74" xr:uid="{00000000-0004-0000-0100-000049000000}"/>
-    <hyperlink ref="I82" r:id="rId75" xr:uid="{00000000-0004-0000-0100-00004A000000}"/>
-    <hyperlink ref="I83" r:id="rId76" xr:uid="{00000000-0004-0000-0100-00004B000000}"/>
-    <hyperlink ref="I84" r:id="rId77" xr:uid="{00000000-0004-0000-0100-00004C000000}"/>
-    <hyperlink ref="I85" r:id="rId78" xr:uid="{00000000-0004-0000-0100-00004D000000}"/>
-    <hyperlink ref="I86" r:id="rId79" xr:uid="{00000000-0004-0000-0100-00004E000000}"/>
-    <hyperlink ref="I87" r:id="rId80" xr:uid="{00000000-0004-0000-0100-00004F000000}"/>
-    <hyperlink ref="I88" r:id="rId81" xr:uid="{00000000-0004-0000-0100-000050000000}"/>
-    <hyperlink ref="I89" r:id="rId82" xr:uid="{00000000-0004-0000-0100-000051000000}"/>
-    <hyperlink ref="I90" r:id="rId83" xr:uid="{00000000-0004-0000-0100-000052000000}"/>
-    <hyperlink ref="I91" r:id="rId84" xr:uid="{00000000-0004-0000-0100-000053000000}"/>
-    <hyperlink ref="I92" r:id="rId85" xr:uid="{00000000-0004-0000-0100-000054000000}"/>
-    <hyperlink ref="I93" r:id="rId86" xr:uid="{00000000-0004-0000-0100-000055000000}"/>
-    <hyperlink ref="I94" r:id="rId87" xr:uid="{00000000-0004-0000-0100-000056000000}"/>
-    <hyperlink ref="I96" r:id="rId88" xr:uid="{00000000-0004-0000-0100-000057000000}"/>
-    <hyperlink ref="I97" r:id="rId89" xr:uid="{00000000-0004-0000-0100-000058000000}"/>
-    <hyperlink ref="I98" r:id="rId90" xr:uid="{00000000-0004-0000-0100-000059000000}"/>
-    <hyperlink ref="I99" r:id="rId91" xr:uid="{00000000-0004-0000-0100-00005A000000}"/>
-    <hyperlink ref="I100" r:id="rId92" xr:uid="{00000000-0004-0000-0100-00005B000000}"/>
-    <hyperlink ref="I101" r:id="rId93" xr:uid="{00000000-0004-0000-0100-00005C000000}"/>
-    <hyperlink ref="I102" r:id="rId94" xr:uid="{00000000-0004-0000-0100-00005D000000}"/>
-    <hyperlink ref="I103" r:id="rId95" xr:uid="{00000000-0004-0000-0100-00005E000000}"/>
-    <hyperlink ref="I104" r:id="rId96" xr:uid="{00000000-0004-0000-0100-00005F000000}"/>
-    <hyperlink ref="I105" r:id="rId97" xr:uid="{00000000-0004-0000-0100-000060000000}"/>
-    <hyperlink ref="I106" r:id="rId98" xr:uid="{00000000-0004-0000-0100-000061000000}"/>
-    <hyperlink ref="I107" r:id="rId99" xr:uid="{00000000-0004-0000-0100-000062000000}"/>
-    <hyperlink ref="I108" r:id="rId100" xr:uid="{00000000-0004-0000-0100-000063000000}"/>
-    <hyperlink ref="I109" r:id="rId101" xr:uid="{00000000-0004-0000-0100-000064000000}"/>
-    <hyperlink ref="I111" r:id="rId102" xr:uid="{00000000-0004-0000-0100-000065000000}"/>
-    <hyperlink ref="I112" r:id="rId103" xr:uid="{00000000-0004-0000-0100-000066000000}"/>
-    <hyperlink ref="I113" r:id="rId104" xr:uid="{00000000-0004-0000-0100-000067000000}"/>
-    <hyperlink ref="I114" r:id="rId105" xr:uid="{00000000-0004-0000-0100-000068000000}"/>
-    <hyperlink ref="I117" r:id="rId106" xr:uid="{00000000-0004-0000-0100-00006A000000}"/>
-    <hyperlink ref="I119" r:id="rId107" xr:uid="{00000000-0004-0000-0100-00006B000000}"/>
-    <hyperlink ref="I120" r:id="rId108" xr:uid="{00000000-0004-0000-0100-00006C000000}"/>
-    <hyperlink ref="I121" r:id="rId109" xr:uid="{00000000-0004-0000-0100-00006D000000}"/>
-    <hyperlink ref="I122" r:id="rId110" xr:uid="{00000000-0004-0000-0100-00006E000000}"/>
-    <hyperlink ref="I123" r:id="rId111" xr:uid="{00000000-0004-0000-0100-00006F000000}"/>
-    <hyperlink ref="I124" r:id="rId112" xr:uid="{00000000-0004-0000-0100-000070000000}"/>
-    <hyperlink ref="I125" r:id="rId113" xr:uid="{00000000-0004-0000-0100-000071000000}"/>
-    <hyperlink ref="I126" r:id="rId114" xr:uid="{00000000-0004-0000-0100-000072000000}"/>
-    <hyperlink ref="I127" r:id="rId115" xr:uid="{00000000-0004-0000-0100-000073000000}"/>
-    <hyperlink ref="I128" r:id="rId116" xr:uid="{00000000-0004-0000-0100-000074000000}"/>
-    <hyperlink ref="I129" r:id="rId117" xr:uid="{00000000-0004-0000-0100-000075000000}"/>
-    <hyperlink ref="I130" r:id="rId118" xr:uid="{00000000-0004-0000-0100-000076000000}"/>
-    <hyperlink ref="I131" r:id="rId119" xr:uid="{00000000-0004-0000-0100-000077000000}"/>
-    <hyperlink ref="I133" r:id="rId120" xr:uid="{00000000-0004-0000-0100-000078000000}"/>
-    <hyperlink ref="I134" r:id="rId121" xr:uid="{00000000-0004-0000-0100-000079000000}"/>
+    <hyperlink ref="I58" r:id="rId49" xr:uid="{00000000-0004-0000-0100-000030000000}"/>
+    <hyperlink ref="I59" r:id="rId50" xr:uid="{00000000-0004-0000-0100-000031000000}"/>
+    <hyperlink ref="I60" r:id="rId51" xr:uid="{00000000-0004-0000-0100-000032000000}"/>
+    <hyperlink ref="I61" r:id="rId52" xr:uid="{00000000-0004-0000-0100-000033000000}"/>
+    <hyperlink ref="I62" r:id="rId53" xr:uid="{00000000-0004-0000-0100-000034000000}"/>
+    <hyperlink ref="I64" r:id="rId54" xr:uid="{00000000-0004-0000-0100-000035000000}"/>
+    <hyperlink ref="I65" r:id="rId55" xr:uid="{00000000-0004-0000-0100-000036000000}"/>
+    <hyperlink ref="I66" r:id="rId56" xr:uid="{00000000-0004-0000-0100-000037000000}"/>
+    <hyperlink ref="I67" r:id="rId57" xr:uid="{00000000-0004-0000-0100-000038000000}"/>
+    <hyperlink ref="I68" r:id="rId58" xr:uid="{00000000-0004-0000-0100-000039000000}"/>
+    <hyperlink ref="I69" r:id="rId59" xr:uid="{00000000-0004-0000-0100-00003A000000}"/>
+    <hyperlink ref="I70" r:id="rId60" xr:uid="{00000000-0004-0000-0100-00003B000000}"/>
+    <hyperlink ref="I71" r:id="rId61" xr:uid="{00000000-0004-0000-0100-00003C000000}"/>
+    <hyperlink ref="I72" r:id="rId62" xr:uid="{00000000-0004-0000-0100-00003D000000}"/>
+    <hyperlink ref="I73" r:id="rId63" xr:uid="{00000000-0004-0000-0100-00003E000000}"/>
+    <hyperlink ref="I74" r:id="rId64" xr:uid="{00000000-0004-0000-0100-00003F000000}"/>
+    <hyperlink ref="I75" r:id="rId65" xr:uid="{00000000-0004-0000-0100-000040000000}"/>
+    <hyperlink ref="I77" r:id="rId66" xr:uid="{00000000-0004-0000-0100-000041000000}"/>
+    <hyperlink ref="I78" r:id="rId67" xr:uid="{00000000-0004-0000-0100-000042000000}"/>
+    <hyperlink ref="I80" r:id="rId68" xr:uid="{00000000-0004-0000-0100-000043000000}"/>
+    <hyperlink ref="I81" r:id="rId69" xr:uid="{00000000-0004-0000-0100-000044000000}"/>
+    <hyperlink ref="I82" r:id="rId70" xr:uid="{00000000-0004-0000-0100-000045000000}"/>
+    <hyperlink ref="I83" r:id="rId71" xr:uid="{00000000-0004-0000-0100-000046000000}"/>
+    <hyperlink ref="I84" r:id="rId72" xr:uid="{00000000-0004-0000-0100-000047000000}"/>
+    <hyperlink ref="I85" r:id="rId73" xr:uid="{00000000-0004-0000-0100-000048000000}"/>
+    <hyperlink ref="I86" r:id="rId74" xr:uid="{00000000-0004-0000-0100-000049000000}"/>
+    <hyperlink ref="I87" r:id="rId75" xr:uid="{00000000-0004-0000-0100-00004A000000}"/>
+    <hyperlink ref="I88" r:id="rId76" xr:uid="{00000000-0004-0000-0100-00004B000000}"/>
+    <hyperlink ref="I89" r:id="rId77" xr:uid="{00000000-0004-0000-0100-00004C000000}"/>
+    <hyperlink ref="I91" r:id="rId78" xr:uid="{00000000-0004-0000-0100-00004D000000}"/>
+    <hyperlink ref="I93" r:id="rId79" xr:uid="{00000000-0004-0000-0100-00004E000000}"/>
+    <hyperlink ref="I94" r:id="rId80" xr:uid="{00000000-0004-0000-0100-00004F000000}"/>
+    <hyperlink ref="I95" r:id="rId81" xr:uid="{00000000-0004-0000-0100-000050000000}"/>
+    <hyperlink ref="I96" r:id="rId82" xr:uid="{00000000-0004-0000-0100-000051000000}"/>
+    <hyperlink ref="I97" r:id="rId83" xr:uid="{00000000-0004-0000-0100-000052000000}"/>
+    <hyperlink ref="I98" r:id="rId84" xr:uid="{00000000-0004-0000-0100-000053000000}"/>
+    <hyperlink ref="I99" r:id="rId85" xr:uid="{00000000-0004-0000-0100-000054000000}"/>
+    <hyperlink ref="I100" r:id="rId86" xr:uid="{00000000-0004-0000-0100-000055000000}"/>
+    <hyperlink ref="I103" r:id="rId87" xr:uid="{00000000-0004-0000-0100-000056000000}"/>
+    <hyperlink ref="I105" r:id="rId88" xr:uid="{00000000-0004-0000-0100-000057000000}"/>
+    <hyperlink ref="I106" r:id="rId89" xr:uid="{00000000-0004-0000-0100-000058000000}"/>
+    <hyperlink ref="I107" r:id="rId90" xr:uid="{00000000-0004-0000-0100-000059000000}"/>
+    <hyperlink ref="I108" r:id="rId91" xr:uid="{00000000-0004-0000-0100-00005A000000}"/>
+    <hyperlink ref="I109" r:id="rId92" xr:uid="{00000000-0004-0000-0100-00005B000000}"/>
+    <hyperlink ref="I110" r:id="rId93" xr:uid="{00000000-0004-0000-0100-00005C000000}"/>
+    <hyperlink ref="I111" r:id="rId94" xr:uid="{00000000-0004-0000-0100-00005D000000}"/>
+    <hyperlink ref="I112" r:id="rId95" xr:uid="{00000000-0004-0000-0100-00005E000000}"/>
+    <hyperlink ref="I113" r:id="rId96" xr:uid="{00000000-0004-0000-0100-00005F000000}"/>
+    <hyperlink ref="I114" r:id="rId97" xr:uid="{00000000-0004-0000-0100-000060000000}"/>
+    <hyperlink ref="I115" r:id="rId98" xr:uid="{00000000-0004-0000-0100-000061000000}"/>
+    <hyperlink ref="I116" r:id="rId99" xr:uid="{00000000-0004-0000-0100-000062000000}"/>
+    <hyperlink ref="I117" r:id="rId100" xr:uid="{00000000-0004-0000-0100-000063000000}"/>
+    <hyperlink ref="I118" r:id="rId101" xr:uid="{00000000-0004-0000-0100-000064000000}"/>
+    <hyperlink ref="I120" r:id="rId102" xr:uid="{00000000-0004-0000-0100-000065000000}"/>
+    <hyperlink ref="I121" r:id="rId103" xr:uid="{00000000-0004-0000-0100-000066000000}"/>
+    <hyperlink ref="I122" r:id="rId104" xr:uid="{00000000-0004-0000-0100-000067000000}"/>
+    <hyperlink ref="I123" r:id="rId105" xr:uid="{00000000-0004-0000-0100-000068000000}"/>
+    <hyperlink ref="I126" r:id="rId106" xr:uid="{00000000-0004-0000-0100-00006A000000}"/>
+    <hyperlink ref="I129" r:id="rId107" xr:uid="{00000000-0004-0000-0100-00006B000000}"/>
+    <hyperlink ref="I130" r:id="rId108" xr:uid="{00000000-0004-0000-0100-00006C000000}"/>
+    <hyperlink ref="I131" r:id="rId109" xr:uid="{00000000-0004-0000-0100-00006D000000}"/>
+    <hyperlink ref="I132" r:id="rId110" xr:uid="{00000000-0004-0000-0100-00006E000000}"/>
+    <hyperlink ref="I133" r:id="rId111" xr:uid="{00000000-0004-0000-0100-00006F000000}"/>
+    <hyperlink ref="I134" r:id="rId112" xr:uid="{00000000-0004-0000-0100-000070000000}"/>
+    <hyperlink ref="I135" r:id="rId113" xr:uid="{00000000-0004-0000-0100-000071000000}"/>
+    <hyperlink ref="I136" r:id="rId114" xr:uid="{00000000-0004-0000-0100-000072000000}"/>
+    <hyperlink ref="I137" r:id="rId115" xr:uid="{00000000-0004-0000-0100-000073000000}"/>
+    <hyperlink ref="I138" r:id="rId116" xr:uid="{00000000-0004-0000-0100-000074000000}"/>
+    <hyperlink ref="I139" r:id="rId117" xr:uid="{00000000-0004-0000-0100-000075000000}"/>
+    <hyperlink ref="I140" r:id="rId118" xr:uid="{00000000-0004-0000-0100-000076000000}"/>
+    <hyperlink ref="I141" r:id="rId119" xr:uid="{00000000-0004-0000-0100-000077000000}"/>
+    <hyperlink ref="I143" r:id="rId120" xr:uid="{00000000-0004-0000-0100-000078000000}"/>
+    <hyperlink ref="I144" r:id="rId121" xr:uid="{00000000-0004-0000-0100-000079000000}"/>
     <hyperlink ref="I17" r:id="rId122" xr:uid="{881F0F65-3DCC-E94A-9FE5-2CC264A8F337}"/>
     <hyperlink ref="I18" r:id="rId123" xr:uid="{AC40193A-1232-474A-A421-B55FFA7E99B8}"/>
     <hyperlink ref="I36" r:id="rId124" xr:uid="{D41ADE90-9772-8F41-AC9B-8DE303E9D7A9}"/>
     <hyperlink ref="I37" r:id="rId125" xr:uid="{85F37ABA-4B3B-764B-A1ED-9DD3AFFF0004}"/>
-    <hyperlink ref="I59" r:id="rId126" xr:uid="{F5E14AAB-D49A-EF45-A165-3757EFF2E9B4}"/>
-    <hyperlink ref="I74" r:id="rId127" xr:uid="{759707EA-D94A-2D42-8FE0-FAE01578CF99}"/>
-    <hyperlink ref="I95" r:id="rId128" xr:uid="{1A936B77-62AA-804C-B853-4343ADD2D925}"/>
-    <hyperlink ref="I115" r:id="rId129" xr:uid="{00000000-0004-0000-0100-000069000000}"/>
-    <hyperlink ref="I110" r:id="rId130" xr:uid="{2929B0EA-E15F-E444-ADC1-C2E3E232D526}"/>
-    <hyperlink ref="I116" r:id="rId131" xr:uid="{7770BE98-2823-3047-9E72-08DB2B79C177}"/>
-    <hyperlink ref="I118" r:id="rId132" xr:uid="{A91F97A2-47FA-FB49-8866-2B9AA1419B2B}"/>
-    <hyperlink ref="I132" r:id="rId133" xr:uid="{11EEE67C-10E9-AB44-91F6-D7C7B31697FA}"/>
-    <hyperlink ref="I135" r:id="rId134" xr:uid="{8E930EBE-7205-BD41-9ED8-FE8F970A98EF}"/>
+    <hyperlink ref="I63" r:id="rId126" xr:uid="{F5E14AAB-D49A-EF45-A165-3757EFF2E9B4}"/>
+    <hyperlink ref="I79" r:id="rId127" xr:uid="{759707EA-D94A-2D42-8FE0-FAE01578CF99}"/>
+    <hyperlink ref="I104" r:id="rId128" xr:uid="{1A936B77-62AA-804C-B853-4343ADD2D925}"/>
+    <hyperlink ref="I124" r:id="rId129" xr:uid="{00000000-0004-0000-0100-000069000000}"/>
+    <hyperlink ref="I119" r:id="rId130" xr:uid="{2929B0EA-E15F-E444-ADC1-C2E3E232D526}"/>
+    <hyperlink ref="I125" r:id="rId131" xr:uid="{7770BE98-2823-3047-9E72-08DB2B79C177}"/>
+    <hyperlink ref="I127" r:id="rId132" xr:uid="{A91F97A2-47FA-FB49-8866-2B9AA1419B2B}"/>
+    <hyperlink ref="I142" r:id="rId133" xr:uid="{11EEE67C-10E9-AB44-91F6-D7C7B31697FA}"/>
+    <hyperlink ref="I145" r:id="rId134" xr:uid="{8E930EBE-7205-BD41-9ED8-FE8F970A98EF}"/>
+    <hyperlink ref="I128" r:id="rId135" xr:uid="{3AF5EB12-868F-C842-91DC-4FC147AA3C86}"/>
+    <hyperlink ref="I54" r:id="rId136" xr:uid="{7BDCEA69-27F3-FF41-BB2B-817D4FD2C9C0}"/>
+    <hyperlink ref="I55" r:id="rId137" xr:uid="{7A940ACA-466B-9E49-8CB5-9BA664F7C3C9}"/>
+    <hyperlink ref="I56" r:id="rId138" xr:uid="{088C717E-7DC5-EF4C-8C34-370DC45C6BEE}"/>
+    <hyperlink ref="I57" r:id="rId139" xr:uid="{A670C44A-19C9-984F-9EAA-8D5EBCE39C79}"/>
+    <hyperlink ref="I90" r:id="rId140" xr:uid="{713BB907-BFF9-AE42-B777-2AF591DA7D9B}"/>
+    <hyperlink ref="I92" r:id="rId141" xr:uid="{EC0C54FA-684B-A440-BF57-B5B57FDD99C9}"/>
+    <hyperlink ref="I101" r:id="rId142" xr:uid="{9081BA3E-9CF8-074E-BF5B-0F2FA156F0B7}"/>
+    <hyperlink ref="I102" r:id="rId143" xr:uid="{8C2FD4CC-DF59-734E-8449-EA5B9F5E7D3D}"/>
+    <hyperlink ref="I76" r:id="rId144" xr:uid="{9845498D-A3A6-524F-9A69-7DC2DB7F7639}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/docs/香港素食餐廳大全.xlsx
+++ b/docs/香港素食餐廳大全.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tim/_Python_OpenAI/My-projects/7-hk-veg-map/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE27BA7D-329E-CE4F-9EDA-7298AA008F30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{736ACF59-8C12-2D48-94A8-CA22F5085930}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11260" yWindow="500" windowWidth="16400" windowHeight="16260" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12400" yWindow="1040" windowWidth="16400" windowHeight="15760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="香港素食餐廳大全" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1947" uniqueCount="833">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2010" uniqueCount="877">
   <si>
     <t>** 更新自: 13 Aug 2023 (deprecated, go to sheet 2 "hk_veg_restaurants_data instead")</t>
   </si>
@@ -2520,6 +2520,138 @@
   </si>
   <si>
     <t>27082728</t>
+  </si>
+  <si>
+    <t>家味蔬食</t>
+  </si>
+  <si>
+    <t>觀塘成業街19-21號成業工業大廈5樓29號舖</t>
+  </si>
+  <si>
+    <t>22.3101161672464, 114.22711077382458</t>
+  </si>
+  <si>
+    <t>https://www.openrice.com/zh/hongkong/r-%E5%AE%B6%E5%91%B3%E8%94%AC%E9%A3%9F-%E8%A7%80%E5%A1%98-%E7%B2%B5%E8%8F%9C-%E5%BB%A3%E6%9D%B1-%E7%B4%A0%E9%A3%9F-r732275</t>
+  </si>
+  <si>
+    <t>68267833</t>
+  </si>
+  <si>
+    <t>源記齋</t>
+  </si>
+  <si>
+    <t>黃大仙銀鳳街1號地下E號舖</t>
+  </si>
+  <si>
+    <t>22.34419845014583, 114.19787098271738</t>
+  </si>
+  <si>
+    <t>https://www.openrice.com/zh/hongkong/r-%E6%BA%90%E8%A8%98%E9%BD%8B-%E9%BB%83%E5%A4%A7%E4%BB%99-%E6%B8%AF%E5%BC%8F-%E7%B4%A0%E9%A3%9F-r801973</t>
+  </si>
+  <si>
+    <t>94487161</t>
+  </si>
+  <si>
+    <t>慈素小聚</t>
+  </si>
+  <si>
+    <t>尖沙咀麼地道30號Mody House 8樓</t>
+  </si>
+  <si>
+    <t>22.297102579041077, 114.17446146886</t>
+  </si>
+  <si>
+    <t>https://www.openrice.com/zh/hongkong/r-%E6%85%88%E7%B4%A0%E5%B0%8F%E8%81%9A-%E5%B0%96%E6%B2%99%E5%92%80-%E7%B2%B5%E8%8F%9C-%E5%BB%A3%E6%9D%B1-%E6%B9%AF%E5%93%81-r801663</t>
+  </si>
+  <si>
+    <t>51220223</t>
+  </si>
+  <si>
+    <t>三德素食館 (佐敦薈)</t>
+  </si>
+  <si>
+    <t>佐敦彌敦道233-239號佐敦薈地下及4樓</t>
+  </si>
+  <si>
+    <t>22.304910266906006, 114.17149269529327</t>
+  </si>
+  <si>
+    <t>https://www.openrice.com/zh/hongkong/r-%E4%B8%89%E5%BE%B7%E7%B4%A0%E9%A3%9F%E9%A4%A8-%E4%BD%90%E6%95%A6-%E7%B2%B5%E8%8F%9C-%E5%BB%A3%E6%9D%B1-%E7%B4%A0%E9%A3%9F-r20523</t>
+  </si>
+  <si>
+    <t>36221888</t>
+  </si>
+  <si>
+    <t>三德素食館 (僑冠大廈)</t>
+  </si>
+  <si>
+    <t>北角英皇道395號僑冠大廈1樓</t>
+  </si>
+  <si>
+    <t>22.29119584339536, 114.1995346580123</t>
+  </si>
+  <si>
+    <t>https://www.openrice.com/zh/hongkong/r-%E4%B8%89%E5%BE%B7%E7%B4%A0%E9%A3%9F%E9%A4%A8-%E5%8C%97%E8%A7%92-%E7%B2%B5%E8%8F%9C-%E5%BB%A3%E6%9D%B1-%E7%B4%A0%E9%A3%9F-r12333</t>
+  </si>
+  <si>
+    <t>28561333</t>
+  </si>
+  <si>
+    <t>https://www.openrice.com/zh/hongkong/r-%E6%BB%95%E7%8E%8B%E9%96%A3%E7%B4%A0%E8%91%B7%E7%BE%8E%E9%A3%9F-north-point-hong-kong-style-vegetarian-r680932</t>
+  </si>
+  <si>
+    <t>https://www.openrice.com/zh/hongkong/r-woodlands-indian-vegetarian-restaurant-tsim-sha-tsui-indian-meatless-menu-r21500</t>
+  </si>
+  <si>
+    <t>https://www.openrice.com/zh/hongkong/r-sangeetha-vegetarian-restaurant-tsim-sha-tsui-indian-vegetarian-r184082</t>
+  </si>
+  <si>
+    <t>https://www.openrice.com/zh/hongkong/r-via-vegetarian-restaurant-jordan-hong-kong-style-vegetarian-r747297</t>
+  </si>
+  <si>
+    <t>https://www.openrice.com/zh/hongkong/r-woodlands-cuhk-indian-vegetarian-restaurant-sha-tin-indonesian-vegetarian-r787665</t>
+  </si>
+  <si>
+    <t>https://www.openrice.com/zh/hongkong/r-root-vegan-central-international-salad-r720910</t>
+  </si>
+  <si>
+    <t>https://www.openrice.com/zh/hongkong/r-treehouse-central-international-vegetarian-r637690</t>
+  </si>
+  <si>
+    <t>https://www.openrice.com/zh/hongkong/r-woodlands-indian-vegetarian-restaurant-wan-chai-indian-vegetarian-r781091</t>
+  </si>
+  <si>
+    <t>https://www.openrice.com/zh/hongkong/r-wanaka-wan-chai-western-vegetarian-r805291</t>
+  </si>
+  <si>
+    <t>Yau Veggie Bistro</t>
+  </si>
+  <si>
+    <t>荃灣白田壩街45號南豐紗廠1樓118號舖</t>
+  </si>
+  <si>
+    <t>22.374654937849577, 114.11014705765525</t>
+  </si>
+  <si>
+    <t>https://www.openrice.com/zh/hongkong/r-yau-veggie-bistro-%E8%8D%83%E7%81%A3-%E8%A5%BF%E5%BC%8F-%E7%B4%A0%E9%A3%9F-r797550</t>
+  </si>
+  <si>
+    <t>68990989</t>
+  </si>
+  <si>
+    <t>居素屋日本野菜料理</t>
+  </si>
+  <si>
+    <t>灣仔灣仔道83號9樓</t>
+  </si>
+  <si>
+    <t>22.27644255134366, 114.17491042471566</t>
+  </si>
+  <si>
+    <t>https://www.openrice.com/zh/hongkong/r-%E5%B1%85%E7%B4%A0%E5%B1%8B%E6%97%A5%E6%9C%AC%E9%87%8E%E8%8F%9C%E6%96%99%E7%90%86-%E7%81%A3%E4%BB%94-%E6%97%A5%E6%9C%AC%E8%8F%9C-%E7%B4%A0%E9%A3%9F-r179227</t>
+  </si>
+  <si>
+    <t>55008812</t>
   </si>
 </sst>
 </file>
@@ -10788,10 +10920,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:K145"/>
+  <dimension ref="A1:K152"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D63" zoomScale="108" workbookViewId="0">
-      <selection activeCell="J76" sqref="J76"/>
+    <sheetView tabSelected="1" topLeftCell="D10" zoomScale="108" workbookViewId="0">
+      <selection activeCell="J29" sqref="J29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -11079,8 +11211,8 @@
         <v>420</v>
       </c>
       <c r="H9" s="5"/>
-      <c r="I9" s="7" t="s">
-        <v>36</v>
+      <c r="I9" s="24" t="s">
+        <v>863</v>
       </c>
       <c r="J9" s="25" t="s">
         <v>421</v>
@@ -11230,8 +11362,8 @@
         <v>429</v>
       </c>
       <c r="H14" s="5"/>
-      <c r="I14" s="7" t="s">
-        <v>57</v>
+      <c r="I14" s="24" t="s">
+        <v>864</v>
       </c>
       <c r="J14" s="25" t="s">
         <v>430</v>
@@ -11478,8 +11610,8 @@
         <v>444</v>
       </c>
       <c r="H22" s="5"/>
-      <c r="I22" s="7" t="s">
-        <v>77</v>
+      <c r="I22" s="24" t="s">
+        <v>865</v>
       </c>
       <c r="J22" s="25" t="s">
         <v>445</v>
@@ -11680,26 +11812,26 @@
         <v>69</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>96</v>
+        <v>872</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>419</v>
+        <v>51</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>97</v>
+        <v>873</v>
       </c>
       <c r="G29" s="5" t="s">
-        <v>458</v>
+        <v>874</v>
       </c>
       <c r="H29" s="5"/>
-      <c r="I29" s="6" t="s">
-        <v>98</v>
+      <c r="I29" s="24" t="s">
+        <v>875</v>
       </c>
       <c r="J29" s="25" t="s">
-        <v>459</v>
+        <v>876</v>
       </c>
       <c r="K29" s="5"/>
     </row>
@@ -11708,29 +11840,29 @@
         <v>10</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>99</v>
+        <v>69</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>460</v>
+        <v>96</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>411</v>
+        <v>419</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>461</v>
+        <v>97</v>
       </c>
       <c r="G30" s="5" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="H30" s="5"/>
-      <c r="I30" s="6" t="s">
-        <v>463</v>
+      <c r="I30" s="24" t="s">
+        <v>866</v>
       </c>
       <c r="J30" s="25" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="K30" s="5"/>
     </row>
@@ -11742,26 +11874,26 @@
         <v>99</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>381</v>
+        <v>460</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>382</v>
+        <v>411</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="G31" s="5" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="H31" s="5"/>
       <c r="I31" s="6" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="J31" s="25" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="K31" s="5"/>
     </row>
@@ -11773,30 +11905,28 @@
         <v>99</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>100</v>
+        <v>381</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>47</v>
+        <v>382</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>101</v>
+        <v>465</v>
       </c>
       <c r="G32" s="5" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="H32" s="5"/>
       <c r="I32" s="6" t="s">
-        <v>102</v>
+        <v>467</v>
       </c>
       <c r="J32" s="25" t="s">
-        <v>470</v>
-      </c>
-      <c r="K32" s="5" t="s">
-        <v>103</v>
-      </c>
+        <v>468</v>
+      </c>
+      <c r="K32" s="5"/>
     </row>
     <row r="33" spans="1:11" ht="15.75" customHeight="1">
       <c r="A33" s="5" t="s">
@@ -11806,28 +11936,30 @@
         <v>99</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>471</v>
+        <v>47</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="G33" s="5" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="H33" s="5"/>
-      <c r="I33" s="7" t="s">
-        <v>107</v>
+      <c r="I33" s="6" t="s">
+        <v>102</v>
       </c>
       <c r="J33" s="25" t="s">
-        <v>473</v>
-      </c>
-      <c r="K33" s="5"/>
+        <v>470</v>
+      </c>
+      <c r="K33" s="5" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="34" spans="1:11" ht="15.75" customHeight="1">
       <c r="A34" s="5" t="s">
@@ -11837,26 +11969,26 @@
         <v>99</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>475</v>
+        <v>106</v>
       </c>
       <c r="G34" s="5" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="H34" s="5"/>
-      <c r="I34" s="6" t="s">
-        <v>477</v>
+      <c r="I34" s="7" t="s">
+        <v>107</v>
       </c>
       <c r="J34" s="25" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="K34" s="5"/>
     </row>
@@ -11868,26 +12000,26 @@
         <v>99</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>55</v>
+        <v>474</v>
       </c>
       <c r="E35" s="5" t="s">
         <v>25</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>113</v>
+        <v>475</v>
       </c>
       <c r="G35" s="5" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="H35" s="5"/>
       <c r="I35" s="6" t="s">
-        <v>114</v>
+        <v>477</v>
       </c>
       <c r="J35" s="25" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="K35" s="5"/>
     </row>
@@ -11899,88 +12031,88 @@
         <v>99</v>
       </c>
       <c r="C36" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="E36" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F36" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="G36" s="5" t="s">
+        <v>479</v>
+      </c>
+      <c r="H36" s="5"/>
+      <c r="I36" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="J36" s="25" t="s">
+        <v>480</v>
+      </c>
+      <c r="K36" s="5"/>
+    </row>
+    <row r="37" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A37" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="C37" s="5" t="s">
         <v>730</v>
       </c>
-      <c r="D36" s="5" t="s">
+      <c r="D37" s="5" t="s">
         <v>181</v>
       </c>
-      <c r="E36" s="5" t="s">
+      <c r="E37" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="F36" s="5" t="s">
+      <c r="F37" s="5" t="s">
         <v>740</v>
       </c>
-      <c r="G36" s="5" t="s">
+      <c r="G37" s="5" t="s">
         <v>741</v>
-      </c>
-      <c r="H36" s="5"/>
-      <c r="I36" s="24" t="s">
-        <v>742</v>
-      </c>
-      <c r="J36" s="25" t="s">
-        <v>743</v>
-      </c>
-      <c r="K36" s="5"/>
-    </row>
-    <row r="37" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A37" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="B37" s="23" t="s">
-        <v>99</v>
-      </c>
-      <c r="C37" s="5" t="s">
-        <v>731</v>
-      </c>
-      <c r="D37" s="5" t="s">
-        <v>411</v>
-      </c>
-      <c r="E37" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="F37" s="5" t="s">
-        <v>744</v>
-      </c>
-      <c r="G37" s="5" t="s">
-        <v>745</v>
       </c>
       <c r="H37" s="5"/>
       <c r="I37" s="24" t="s">
+        <v>742</v>
+      </c>
+      <c r="J37" s="25" t="s">
+        <v>743</v>
+      </c>
+      <c r="K37" s="5"/>
+    </row>
+    <row r="38" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A38" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="B38" s="23" t="s">
+        <v>99</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>731</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>411</v>
+      </c>
+      <c r="E38" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F38" s="5" t="s">
+        <v>744</v>
+      </c>
+      <c r="G38" s="5" t="s">
+        <v>745</v>
+      </c>
+      <c r="H38" s="5"/>
+      <c r="I38" s="24" t="s">
         <v>746</v>
       </c>
-      <c r="J37" s="25" t="s">
+      <c r="J38" s="25" t="s">
         <v>747</v>
-      </c>
-      <c r="K37" s="5"/>
-    </row>
-    <row r="38" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A38" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B38" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="C38" s="5" t="s">
-        <v>481</v>
-      </c>
-      <c r="D38" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="E38" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="F38" s="5" t="s">
-        <v>482</v>
-      </c>
-      <c r="G38" s="5" t="s">
-        <v>483</v>
-      </c>
-      <c r="H38" s="5"/>
-      <c r="I38" s="6" t="s">
-        <v>484</v>
-      </c>
-      <c r="J38" s="25" t="s">
-        <v>485</v>
       </c>
       <c r="K38" s="5"/>
     </row>
@@ -11992,26 +12124,26 @@
         <v>115</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>116</v>
+        <v>481</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>117</v>
+        <v>47</v>
       </c>
       <c r="E39" s="5" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="F39" s="5" t="s">
-        <v>118</v>
+        <v>482</v>
       </c>
       <c r="G39" s="5" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="H39" s="5"/>
       <c r="I39" s="6" t="s">
-        <v>119</v>
+        <v>484</v>
       </c>
       <c r="J39" s="25" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="K39" s="5"/>
     </row>
@@ -12020,29 +12152,29 @@
         <v>10</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>411</v>
+        <v>117</v>
       </c>
       <c r="E40" s="5" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="G40" s="5" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H40" s="5"/>
-      <c r="I40" s="6" t="s">
-        <v>123</v>
+      <c r="I40" s="24" t="s">
+        <v>858</v>
       </c>
       <c r="J40" s="25" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="K40" s="5"/>
     </row>
@@ -12051,29 +12183,29 @@
         <v>10</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>125</v>
+        <v>853</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>47</v>
+        <v>411</v>
       </c>
       <c r="E41" s="5" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="F41" s="5" t="s">
-        <v>126</v>
+        <v>854</v>
       </c>
       <c r="G41" s="5" t="s">
-        <v>490</v>
+        <v>855</v>
       </c>
       <c r="H41" s="5"/>
-      <c r="I41" s="6" t="s">
-        <v>127</v>
+      <c r="I41" s="24" t="s">
+        <v>856</v>
       </c>
       <c r="J41" s="25" t="s">
-        <v>491</v>
+        <v>857</v>
       </c>
       <c r="K41" s="5"/>
     </row>
@@ -12082,10 +12214,10 @@
         <v>10</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="D42" s="5" t="s">
         <v>411</v>
@@ -12094,81 +12226,81 @@
         <v>25</v>
       </c>
       <c r="F42" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="G42" s="5" t="s">
+        <v>488</v>
+      </c>
+      <c r="H42" s="5"/>
+      <c r="I42" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="J42" s="25" t="s">
+        <v>489</v>
+      </c>
+      <c r="K42" s="5"/>
+    </row>
+    <row r="43" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A43" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="D43" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E43" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F43" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="G43" s="5" t="s">
+        <v>490</v>
+      </c>
+      <c r="H43" s="5"/>
+      <c r="I43" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="J43" s="25" t="s">
+        <v>491</v>
+      </c>
+      <c r="K43" s="5"/>
+    </row>
+    <row r="44" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A44" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="D44" s="5" t="s">
+        <v>411</v>
+      </c>
+      <c r="E44" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F44" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="G42" s="5" t="s">
+      <c r="G44" s="5" t="s">
         <v>492</v>
       </c>
-      <c r="H42" s="5"/>
-      <c r="I42" s="7" t="s">
+      <c r="H44" s="5"/>
+      <c r="I44" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="J42" s="25" t="s">
+      <c r="J44" s="25" t="s">
         <v>493</v>
       </c>
-      <c r="K42" s="5"/>
-    </row>
-    <row r="43" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A43" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="B43" s="9" t="s">
-        <v>133</v>
-      </c>
-      <c r="C43" s="9" t="s">
-        <v>494</v>
-      </c>
-      <c r="D43" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="E43" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F43" s="9" t="s">
-        <v>495</v>
-      </c>
-      <c r="G43" s="9" t="s">
-        <v>496</v>
-      </c>
-      <c r="H43" s="9"/>
-      <c r="I43" s="10" t="s">
-        <v>497</v>
-      </c>
-      <c r="J43" s="26" t="s">
-        <v>498</v>
-      </c>
-      <c r="K43" s="9"/>
-    </row>
-    <row r="44" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A44" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="B44" s="9" t="s">
-        <v>133</v>
-      </c>
-      <c r="C44" s="9" t="s">
-        <v>134</v>
-      </c>
-      <c r="D44" s="9" t="s">
-        <v>411</v>
-      </c>
-      <c r="E44" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="F44" s="9" t="s">
-        <v>135</v>
-      </c>
-      <c r="G44" s="9" t="s">
-        <v>499</v>
-      </c>
-      <c r="H44" s="9"/>
-      <c r="I44" s="10" t="s">
-        <v>136</v>
-      </c>
-      <c r="J44" s="26" t="s">
-        <v>500</v>
-      </c>
-      <c r="K44" s="9"/>
+      <c r="K44" s="5"/>
     </row>
     <row r="45" spans="1:11" ht="15.75" customHeight="1">
       <c r="A45" s="9" t="s">
@@ -12178,26 +12310,26 @@
         <v>133</v>
       </c>
       <c r="C45" s="9" t="s">
-        <v>501</v>
+        <v>494</v>
       </c>
       <c r="D45" s="9" t="s">
-        <v>411</v>
+        <v>47</v>
       </c>
       <c r="E45" s="9" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="F45" s="9" t="s">
-        <v>502</v>
+        <v>495</v>
       </c>
       <c r="G45" s="9" t="s">
-        <v>503</v>
+        <v>496</v>
       </c>
       <c r="H45" s="9"/>
       <c r="I45" s="10" t="s">
-        <v>504</v>
+        <v>497</v>
       </c>
       <c r="J45" s="26" t="s">
-        <v>505</v>
+        <v>498</v>
       </c>
       <c r="K45" s="9"/>
     </row>
@@ -12209,26 +12341,26 @@
         <v>133</v>
       </c>
       <c r="C46" s="9" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="D46" s="9" t="s">
-        <v>474</v>
+        <v>411</v>
       </c>
       <c r="E46" s="9" t="s">
         <v>25</v>
       </c>
       <c r="F46" s="9" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="G46" s="9" t="s">
-        <v>506</v>
+        <v>499</v>
       </c>
       <c r="H46" s="9"/>
       <c r="I46" s="10" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="J46" s="26" t="s">
-        <v>507</v>
+        <v>500</v>
       </c>
       <c r="K46" s="9"/>
     </row>
@@ -12240,26 +12372,26 @@
         <v>133</v>
       </c>
       <c r="C47" s="9" t="s">
-        <v>381</v>
+        <v>501</v>
       </c>
       <c r="D47" s="9" t="s">
-        <v>382</v>
+        <v>411</v>
       </c>
       <c r="E47" s="9" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="F47" s="9" t="s">
-        <v>508</v>
+        <v>502</v>
       </c>
       <c r="G47" s="9" t="s">
-        <v>782</v>
+        <v>503</v>
       </c>
       <c r="H47" s="9"/>
       <c r="I47" s="10" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="J47" s="26" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="K47" s="9"/>
     </row>
@@ -12271,26 +12403,26 @@
         <v>133</v>
       </c>
       <c r="C48" s="9" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="D48" s="9" t="s">
-        <v>75</v>
+        <v>474</v>
       </c>
       <c r="E48" s="9" t="s">
         <v>25</v>
       </c>
       <c r="F48" s="9" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="G48" s="9" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="H48" s="9"/>
       <c r="I48" s="10" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="J48" s="26" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="K48" s="9"/>
     </row>
@@ -12302,26 +12434,26 @@
         <v>133</v>
       </c>
       <c r="C49" s="9" t="s">
-        <v>143</v>
+        <v>381</v>
       </c>
       <c r="D49" s="9" t="s">
-        <v>75</v>
+        <v>382</v>
       </c>
       <c r="E49" s="9" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="F49" s="9" t="s">
-        <v>144</v>
+        <v>508</v>
       </c>
       <c r="G49" s="9" t="s">
-        <v>513</v>
+        <v>782</v>
       </c>
       <c r="H49" s="9"/>
-      <c r="I49" s="11" t="s">
-        <v>145</v>
+      <c r="I49" s="10" t="s">
+        <v>509</v>
       </c>
       <c r="J49" s="26" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="K49" s="9"/>
     </row>
@@ -12333,30 +12465,30 @@
         <v>133</v>
       </c>
       <c r="C50" s="9" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="D50" s="9" t="s">
-        <v>515</v>
+        <v>75</v>
       </c>
       <c r="E50" s="9" t="s">
         <v>25</v>
       </c>
       <c r="F50" s="9" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="G50" s="9" t="s">
-        <v>516</v>
+        <v>511</v>
       </c>
       <c r="H50" s="9"/>
-      <c r="I50" s="11" t="s">
-        <v>149</v>
+      <c r="I50" s="28" t="s">
+        <v>859</v>
       </c>
       <c r="J50" s="26" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="K50" s="9"/>
     </row>
-    <row r="51" spans="1:11" ht="13">
+    <row r="51" spans="1:11" ht="15.75" customHeight="1">
       <c r="A51" s="9" t="s">
         <v>132</v>
       </c>
@@ -12364,30 +12496,30 @@
         <v>133</v>
       </c>
       <c r="C51" s="9" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="D51" s="9" t="s">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="E51" s="9" t="s">
         <v>25</v>
       </c>
       <c r="F51" s="9" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="G51" s="9" t="s">
-        <v>518</v>
+        <v>513</v>
       </c>
       <c r="H51" s="9"/>
-      <c r="I51" s="10" t="s">
-        <v>152</v>
+      <c r="I51" s="28" t="s">
+        <v>860</v>
       </c>
       <c r="J51" s="26" t="s">
-        <v>519</v>
+        <v>514</v>
       </c>
       <c r="K51" s="9"/>
     </row>
-    <row r="52" spans="1:11" ht="13">
+    <row r="52" spans="1:11" ht="15.75" customHeight="1">
       <c r="A52" s="9" t="s">
         <v>132</v>
       </c>
@@ -12395,30 +12527,30 @@
         <v>133</v>
       </c>
       <c r="C52" s="9" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="D52" s="9" t="s">
-        <v>75</v>
+        <v>515</v>
       </c>
       <c r="E52" s="9" t="s">
         <v>25</v>
       </c>
       <c r="F52" s="9" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="G52" s="9" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="H52" s="9"/>
-      <c r="I52" s="10" t="s">
-        <v>155</v>
+      <c r="I52" s="11" t="s">
+        <v>149</v>
       </c>
       <c r="J52" s="26" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="K52" s="9"/>
     </row>
-    <row r="53" spans="1:11" ht="13">
+    <row r="53" spans="1:11" ht="15.75" customHeight="1">
       <c r="A53" s="9" t="s">
         <v>132</v>
       </c>
@@ -12426,26 +12558,26 @@
         <v>133</v>
       </c>
       <c r="C53" s="9" t="s">
-        <v>156</v>
+        <v>843</v>
       </c>
       <c r="D53" s="9" t="s">
-        <v>157</v>
+        <v>411</v>
       </c>
       <c r="E53" s="9" t="s">
         <v>25</v>
       </c>
       <c r="F53" s="9" t="s">
-        <v>158</v>
+        <v>844</v>
       </c>
       <c r="G53" s="9" t="s">
-        <v>522</v>
+        <v>845</v>
       </c>
       <c r="H53" s="9"/>
-      <c r="I53" s="10" t="s">
-        <v>159</v>
+      <c r="I53" s="28" t="s">
+        <v>846</v>
       </c>
       <c r="J53" s="26" t="s">
-        <v>523</v>
+        <v>847</v>
       </c>
       <c r="K53" s="9"/>
     </row>
@@ -12457,26 +12589,26 @@
         <v>133</v>
       </c>
       <c r="C54" s="9" t="s">
-        <v>783</v>
+        <v>150</v>
       </c>
       <c r="D54" s="9" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="E54" s="9" t="s">
         <v>25</v>
       </c>
       <c r="F54" s="9" t="s">
-        <v>796</v>
+        <v>151</v>
       </c>
       <c r="G54" s="9" t="s">
-        <v>797</v>
+        <v>518</v>
       </c>
       <c r="H54" s="9"/>
-      <c r="I54" s="28" t="s">
-        <v>798</v>
+      <c r="I54" s="10" t="s">
+        <v>152</v>
       </c>
       <c r="J54" s="26" t="s">
-        <v>799</v>
+        <v>519</v>
       </c>
       <c r="K54" s="9"/>
     </row>
@@ -12488,26 +12620,26 @@
         <v>133</v>
       </c>
       <c r="C55" s="9" t="s">
-        <v>784</v>
+        <v>153</v>
       </c>
       <c r="D55" s="9" t="s">
-        <v>411</v>
+        <v>75</v>
       </c>
       <c r="E55" s="9" t="s">
         <v>25</v>
       </c>
       <c r="F55" s="9" t="s">
-        <v>800</v>
+        <v>154</v>
       </c>
       <c r="G55" s="9" t="s">
-        <v>801</v>
+        <v>520</v>
       </c>
       <c r="H55" s="9"/>
-      <c r="I55" s="28" t="s">
-        <v>802</v>
+      <c r="I55" s="10" t="s">
+        <v>155</v>
       </c>
       <c r="J55" s="26" t="s">
-        <v>803</v>
+        <v>521</v>
       </c>
       <c r="K55" s="9"/>
     </row>
@@ -12519,26 +12651,26 @@
         <v>133</v>
       </c>
       <c r="C56" s="9" t="s">
-        <v>785</v>
+        <v>156</v>
       </c>
       <c r="D56" s="9" t="s">
-        <v>47</v>
+        <v>157</v>
       </c>
       <c r="E56" s="9" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="F56" s="9" t="s">
-        <v>804</v>
+        <v>158</v>
       </c>
       <c r="G56" s="9" t="s">
-        <v>805</v>
+        <v>522</v>
       </c>
       <c r="H56" s="9"/>
-      <c r="I56" s="28" t="s">
-        <v>806</v>
+      <c r="I56" s="10" t="s">
+        <v>159</v>
       </c>
       <c r="J56" s="26" t="s">
-        <v>807</v>
+        <v>523</v>
       </c>
       <c r="K56" s="9"/>
     </row>
@@ -12550,26 +12682,26 @@
         <v>133</v>
       </c>
       <c r="C57" s="9" t="s">
-        <v>727</v>
+        <v>783</v>
       </c>
       <c r="D57" s="9" t="s">
-        <v>117</v>
+        <v>47</v>
       </c>
       <c r="E57" s="9" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="F57" s="9" t="s">
-        <v>808</v>
+        <v>796</v>
       </c>
       <c r="G57" s="9" t="s">
-        <v>809</v>
+        <v>797</v>
       </c>
       <c r="H57" s="9"/>
       <c r="I57" s="28" t="s">
-        <v>810</v>
+        <v>798</v>
       </c>
       <c r="J57" s="26" t="s">
-        <v>811</v>
+        <v>799</v>
       </c>
       <c r="K57" s="9"/>
     </row>
@@ -12581,26 +12713,26 @@
         <v>133</v>
       </c>
       <c r="C58" s="9" t="s">
-        <v>160</v>
+        <v>784</v>
       </c>
       <c r="D58" s="9" t="s">
-        <v>55</v>
+        <v>411</v>
       </c>
       <c r="E58" s="9" t="s">
         <v>25</v>
       </c>
       <c r="F58" s="9" t="s">
-        <v>161</v>
+        <v>800</v>
       </c>
       <c r="G58" s="9" t="s">
-        <v>524</v>
+        <v>801</v>
       </c>
       <c r="H58" s="9"/>
-      <c r="I58" s="10" t="s">
-        <v>162</v>
+      <c r="I58" s="28" t="s">
+        <v>802</v>
       </c>
       <c r="J58" s="26" t="s">
-        <v>525</v>
+        <v>803</v>
       </c>
       <c r="K58" s="9"/>
     </row>
@@ -12609,29 +12741,29 @@
         <v>132</v>
       </c>
       <c r="B59" s="9" t="s">
-        <v>163</v>
+        <v>133</v>
       </c>
       <c r="C59" s="9" t="s">
-        <v>164</v>
+        <v>785</v>
       </c>
       <c r="D59" s="9" t="s">
-        <v>411</v>
+        <v>47</v>
       </c>
       <c r="E59" s="9" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="F59" s="9" t="s">
-        <v>165</v>
+        <v>804</v>
       </c>
       <c r="G59" s="9" t="s">
-        <v>526</v>
+        <v>805</v>
       </c>
       <c r="H59" s="9"/>
-      <c r="I59" s="10" t="s">
-        <v>166</v>
+      <c r="I59" s="28" t="s">
+        <v>806</v>
       </c>
       <c r="J59" s="26" t="s">
-        <v>527</v>
+        <v>807</v>
       </c>
       <c r="K59" s="9"/>
     </row>
@@ -12640,29 +12772,29 @@
         <v>132</v>
       </c>
       <c r="B60" s="9" t="s">
-        <v>163</v>
+        <v>133</v>
       </c>
       <c r="C60" s="9" t="s">
-        <v>167</v>
+        <v>727</v>
       </c>
       <c r="D60" s="9" t="s">
-        <v>411</v>
+        <v>117</v>
       </c>
       <c r="E60" s="9" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="F60" s="9" t="s">
-        <v>168</v>
+        <v>808</v>
       </c>
       <c r="G60" s="9" t="s">
-        <v>528</v>
+        <v>809</v>
       </c>
       <c r="H60" s="9"/>
-      <c r="I60" s="10" t="s">
-        <v>169</v>
+      <c r="I60" s="28" t="s">
+        <v>810</v>
       </c>
       <c r="J60" s="26" t="s">
-        <v>529</v>
+        <v>811</v>
       </c>
       <c r="K60" s="9"/>
     </row>
@@ -12671,29 +12803,29 @@
         <v>132</v>
       </c>
       <c r="B61" s="9" t="s">
-        <v>163</v>
+        <v>133</v>
       </c>
       <c r="C61" s="9" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="D61" s="9" t="s">
-        <v>117</v>
+        <v>55</v>
       </c>
       <c r="E61" s="9" t="s">
         <v>25</v>
       </c>
       <c r="F61" s="9" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="G61" s="9" t="s">
-        <v>530</v>
+        <v>524</v>
       </c>
       <c r="H61" s="9"/>
       <c r="I61" s="10" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="J61" s="26" t="s">
-        <v>531</v>
+        <v>525</v>
       </c>
       <c r="K61" s="9"/>
     </row>
@@ -12705,26 +12837,26 @@
         <v>163</v>
       </c>
       <c r="C62" s="9" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="D62" s="9" t="s">
-        <v>117</v>
+        <v>411</v>
       </c>
       <c r="E62" s="9" t="s">
         <v>25</v>
       </c>
       <c r="F62" s="9" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="G62" s="9" t="s">
-        <v>532</v>
+        <v>526</v>
       </c>
       <c r="H62" s="9"/>
       <c r="I62" s="10" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="J62" s="26" t="s">
-        <v>533</v>
+        <v>527</v>
       </c>
       <c r="K62" s="9"/>
     </row>
@@ -12733,29 +12865,29 @@
         <v>132</v>
       </c>
       <c r="B63" s="9" t="s">
-        <v>728</v>
+        <v>163</v>
       </c>
       <c r="C63" s="9" t="s">
-        <v>727</v>
+        <v>167</v>
       </c>
       <c r="D63" s="9" t="s">
         <v>411</v>
       </c>
       <c r="E63" s="9" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="F63" s="9" t="s">
-        <v>748</v>
+        <v>168</v>
       </c>
       <c r="G63" s="9" t="s">
-        <v>749</v>
+        <v>528</v>
       </c>
       <c r="H63" s="9"/>
-      <c r="I63" s="28" t="s">
-        <v>750</v>
+      <c r="I63" s="10" t="s">
+        <v>169</v>
       </c>
       <c r="J63" s="26" t="s">
-        <v>751</v>
+        <v>529</v>
       </c>
       <c r="K63" s="9"/>
     </row>
@@ -12764,29 +12896,29 @@
         <v>132</v>
       </c>
       <c r="B64" s="9" t="s">
-        <v>534</v>
+        <v>163</v>
       </c>
       <c r="C64" s="9" t="s">
-        <v>535</v>
+        <v>170</v>
       </c>
       <c r="D64" s="9" t="s">
-        <v>157</v>
+        <v>117</v>
       </c>
       <c r="E64" s="9" t="s">
         <v>25</v>
       </c>
       <c r="F64" s="9" t="s">
-        <v>536</v>
+        <v>171</v>
       </c>
       <c r="G64" s="9" t="s">
-        <v>537</v>
+        <v>530</v>
       </c>
       <c r="H64" s="9"/>
-      <c r="I64" s="11" t="s">
-        <v>538</v>
+      <c r="I64" s="28" t="s">
+        <v>861</v>
       </c>
       <c r="J64" s="26" t="s">
-        <v>539</v>
+        <v>531</v>
       </c>
       <c r="K64" s="9"/>
     </row>
@@ -12795,29 +12927,29 @@
         <v>132</v>
       </c>
       <c r="B65" s="9" t="s">
-        <v>534</v>
+        <v>163</v>
       </c>
       <c r="C65" s="9" t="s">
-        <v>381</v>
+        <v>173</v>
       </c>
       <c r="D65" s="9" t="s">
-        <v>382</v>
+        <v>117</v>
       </c>
       <c r="E65" s="9" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="F65" s="9" t="s">
-        <v>540</v>
+        <v>174</v>
       </c>
       <c r="G65" s="9" t="s">
-        <v>781</v>
+        <v>532</v>
       </c>
       <c r="H65" s="9"/>
       <c r="I65" s="10" t="s">
-        <v>541</v>
+        <v>175</v>
       </c>
       <c r="J65" s="26" t="s">
-        <v>542</v>
+        <v>533</v>
       </c>
       <c r="K65" s="9"/>
     </row>
@@ -12826,10 +12958,10 @@
         <v>132</v>
       </c>
       <c r="B66" s="9" t="s">
-        <v>176</v>
+        <v>163</v>
       </c>
       <c r="C66" s="9" t="s">
-        <v>543</v>
+        <v>848</v>
       </c>
       <c r="D66" s="9" t="s">
         <v>411</v>
@@ -12838,17 +12970,17 @@
         <v>25</v>
       </c>
       <c r="F66" s="9" t="s">
-        <v>544</v>
+        <v>849</v>
       </c>
       <c r="G66" s="9" t="s">
-        <v>545</v>
+        <v>850</v>
       </c>
       <c r="H66" s="9"/>
-      <c r="I66" s="10" t="s">
-        <v>546</v>
+      <c r="I66" s="28" t="s">
+        <v>851</v>
       </c>
       <c r="J66" s="26" t="s">
-        <v>547</v>
+        <v>852</v>
       </c>
       <c r="K66" s="9"/>
     </row>
@@ -12857,29 +12989,29 @@
         <v>132</v>
       </c>
       <c r="B67" s="9" t="s">
-        <v>176</v>
+        <v>728</v>
       </c>
       <c r="C67" s="9" t="s">
-        <v>177</v>
+        <v>727</v>
       </c>
       <c r="D67" s="9" t="s">
         <v>411</v>
       </c>
       <c r="E67" s="9" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="F67" s="9" t="s">
-        <v>548</v>
+        <v>748</v>
       </c>
       <c r="G67" s="9" t="s">
-        <v>549</v>
+        <v>749</v>
       </c>
       <c r="H67" s="9"/>
-      <c r="I67" s="10" t="s">
-        <v>179</v>
+      <c r="I67" s="28" t="s">
+        <v>750</v>
       </c>
       <c r="J67" s="26" t="s">
-        <v>550</v>
+        <v>751</v>
       </c>
       <c r="K67" s="9"/>
     </row>
@@ -12888,29 +13020,29 @@
         <v>132</v>
       </c>
       <c r="B68" s="9" t="s">
-        <v>176</v>
+        <v>534</v>
       </c>
       <c r="C68" s="9" t="s">
-        <v>180</v>
+        <v>535</v>
       </c>
       <c r="D68" s="9" t="s">
-        <v>181</v>
+        <v>157</v>
       </c>
       <c r="E68" s="9" t="s">
         <v>25</v>
       </c>
       <c r="F68" s="9" t="s">
-        <v>182</v>
+        <v>536</v>
       </c>
       <c r="G68" s="9" t="s">
-        <v>551</v>
+        <v>537</v>
       </c>
       <c r="H68" s="9"/>
-      <c r="I68" s="10" t="s">
-        <v>183</v>
+      <c r="I68" s="11" t="s">
+        <v>538</v>
       </c>
       <c r="J68" s="26" t="s">
-        <v>552</v>
+        <v>539</v>
       </c>
       <c r="K68" s="9"/>
     </row>
@@ -12919,29 +13051,29 @@
         <v>132</v>
       </c>
       <c r="B69" s="9" t="s">
-        <v>184</v>
+        <v>534</v>
       </c>
       <c r="C69" s="9" t="s">
-        <v>185</v>
+        <v>381</v>
       </c>
       <c r="D69" s="9" t="s">
-        <v>411</v>
+        <v>382</v>
       </c>
       <c r="E69" s="9" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="F69" s="9" t="s">
-        <v>186</v>
+        <v>540</v>
       </c>
       <c r="G69" s="9" t="s">
-        <v>553</v>
+        <v>781</v>
       </c>
       <c r="H69" s="9"/>
       <c r="I69" s="10" t="s">
-        <v>187</v>
+        <v>541</v>
       </c>
       <c r="J69" s="26" t="s">
-        <v>554</v>
+        <v>542</v>
       </c>
       <c r="K69" s="9"/>
     </row>
@@ -12950,29 +13082,29 @@
         <v>132</v>
       </c>
       <c r="B70" s="9" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="C70" s="9" t="s">
-        <v>188</v>
+        <v>543</v>
       </c>
       <c r="D70" s="9" t="s">
-        <v>117</v>
+        <v>411</v>
       </c>
       <c r="E70" s="9" t="s">
         <v>25</v>
       </c>
       <c r="F70" s="9" t="s">
-        <v>189</v>
+        <v>544</v>
       </c>
       <c r="G70" s="9" t="s">
-        <v>555</v>
+        <v>545</v>
       </c>
       <c r="H70" s="9"/>
       <c r="I70" s="10" t="s">
-        <v>190</v>
+        <v>546</v>
       </c>
       <c r="J70" s="26" t="s">
-        <v>556</v>
+        <v>547</v>
       </c>
       <c r="K70" s="9"/>
     </row>
@@ -12981,29 +13113,29 @@
         <v>132</v>
       </c>
       <c r="B71" s="9" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="C71" s="9" t="s">
-        <v>191</v>
+        <v>177</v>
       </c>
       <c r="D71" s="9" t="s">
-        <v>192</v>
+        <v>411</v>
       </c>
       <c r="E71" s="9" t="s">
         <v>25</v>
       </c>
       <c r="F71" s="9" t="s">
-        <v>193</v>
+        <v>548</v>
       </c>
       <c r="G71" s="9" t="s">
-        <v>557</v>
+        <v>549</v>
       </c>
       <c r="H71" s="9"/>
       <c r="I71" s="10" t="s">
-        <v>194</v>
+        <v>179</v>
       </c>
       <c r="J71" s="26" t="s">
-        <v>558</v>
+        <v>550</v>
       </c>
       <c r="K71" s="9"/>
     </row>
@@ -13012,29 +13144,29 @@
         <v>132</v>
       </c>
       <c r="B72" s="9" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="C72" s="9" t="s">
-        <v>195</v>
+        <v>180</v>
       </c>
       <c r="D72" s="9" t="s">
-        <v>51</v>
+        <v>181</v>
       </c>
       <c r="E72" s="9" t="s">
         <v>25</v>
       </c>
       <c r="F72" s="9" t="s">
-        <v>196</v>
+        <v>182</v>
       </c>
       <c r="G72" s="9" t="s">
-        <v>559</v>
+        <v>551</v>
       </c>
       <c r="H72" s="9"/>
       <c r="I72" s="10" t="s">
-        <v>197</v>
+        <v>183</v>
       </c>
       <c r="J72" s="26" t="s">
-        <v>560</v>
+        <v>552</v>
       </c>
       <c r="K72" s="9"/>
     </row>
@@ -13046,26 +13178,26 @@
         <v>184</v>
       </c>
       <c r="C73" s="9" t="s">
-        <v>198</v>
+        <v>185</v>
       </c>
       <c r="D73" s="9" t="s">
-        <v>419</v>
+        <v>411</v>
       </c>
       <c r="E73" s="9" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="F73" s="9" t="s">
-        <v>199</v>
+        <v>186</v>
       </c>
       <c r="G73" s="9" t="s">
-        <v>561</v>
+        <v>553</v>
       </c>
       <c r="H73" s="9"/>
       <c r="I73" s="10" t="s">
-        <v>200</v>
+        <v>187</v>
       </c>
       <c r="J73" s="26" t="s">
-        <v>562</v>
+        <v>554</v>
       </c>
       <c r="K73" s="9"/>
     </row>
@@ -13077,26 +13209,26 @@
         <v>184</v>
       </c>
       <c r="C74" s="9" t="s">
-        <v>201</v>
+        <v>188</v>
       </c>
       <c r="D74" s="9" t="s">
-        <v>419</v>
+        <v>117</v>
       </c>
       <c r="E74" s="9" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="F74" s="9" t="s">
-        <v>202</v>
+        <v>189</v>
       </c>
       <c r="G74" s="9" t="s">
-        <v>563</v>
+        <v>555</v>
       </c>
       <c r="H74" s="9"/>
       <c r="I74" s="10" t="s">
-        <v>203</v>
+        <v>190</v>
       </c>
       <c r="J74" s="26" t="s">
-        <v>564</v>
+        <v>556</v>
       </c>
       <c r="K74" s="9"/>
     </row>
@@ -13107,27 +13239,27 @@
       <c r="B75" s="9" t="s">
         <v>184</v>
       </c>
-      <c r="C75" s="12" t="s">
-        <v>204</v>
+      <c r="C75" s="9" t="s">
+        <v>191</v>
       </c>
       <c r="D75" s="9" t="s">
-        <v>419</v>
+        <v>192</v>
       </c>
       <c r="E75" s="9" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="F75" s="9" t="s">
-        <v>205</v>
+        <v>193</v>
       </c>
       <c r="G75" s="9" t="s">
-        <v>565</v>
+        <v>557</v>
       </c>
       <c r="H75" s="9"/>
-      <c r="I75" s="11" t="s">
-        <v>206</v>
+      <c r="I75" s="10" t="s">
+        <v>194</v>
       </c>
       <c r="J75" s="26" t="s">
-        <v>566</v>
+        <v>558</v>
       </c>
       <c r="K75" s="9"/>
     </row>
@@ -13138,27 +13270,27 @@
       <c r="B76" s="9" t="s">
         <v>184</v>
       </c>
-      <c r="C76" s="12" t="s">
-        <v>828</v>
+      <c r="C76" s="9" t="s">
+        <v>195</v>
       </c>
       <c r="D76" s="9" t="s">
-        <v>411</v>
+        <v>51</v>
       </c>
       <c r="E76" s="9" t="s">
         <v>25</v>
       </c>
       <c r="F76" s="9" t="s">
-        <v>829</v>
+        <v>196</v>
       </c>
       <c r="G76" s="9" t="s">
-        <v>830</v>
+        <v>559</v>
       </c>
       <c r="H76" s="9"/>
-      <c r="I76" s="28" t="s">
-        <v>831</v>
+      <c r="I76" s="10" t="s">
+        <v>197</v>
       </c>
       <c r="J76" s="26" t="s">
-        <v>832</v>
+        <v>560</v>
       </c>
       <c r="K76" s="9"/>
     </row>
@@ -13169,27 +13301,27 @@
       <c r="B77" s="9" t="s">
         <v>184</v>
       </c>
-      <c r="C77" s="12" t="s">
-        <v>207</v>
+      <c r="C77" s="9" t="s">
+        <v>198</v>
       </c>
       <c r="D77" s="9" t="s">
         <v>419</v>
       </c>
       <c r="E77" s="9" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="F77" s="9" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="G77" s="9" t="s">
-        <v>567</v>
+        <v>561</v>
       </c>
       <c r="H77" s="9"/>
-      <c r="I77" s="11" t="s">
-        <v>209</v>
+      <c r="I77" s="10" t="s">
+        <v>200</v>
       </c>
       <c r="J77" s="26" t="s">
-        <v>568</v>
+        <v>562</v>
       </c>
       <c r="K77" s="9"/>
     </row>
@@ -13198,10 +13330,10 @@
         <v>132</v>
       </c>
       <c r="B78" s="9" t="s">
-        <v>210</v>
-      </c>
-      <c r="C78" s="12" t="s">
-        <v>211</v>
+        <v>184</v>
+      </c>
+      <c r="C78" s="9" t="s">
+        <v>201</v>
       </c>
       <c r="D78" s="9" t="s">
         <v>419</v>
@@ -13210,17 +13342,17 @@
         <v>14</v>
       </c>
       <c r="F78" s="9" t="s">
-        <v>212</v>
+        <v>202</v>
       </c>
       <c r="G78" s="9" t="s">
-        <v>569</v>
+        <v>563</v>
       </c>
       <c r="H78" s="9"/>
       <c r="I78" s="10" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
       <c r="J78" s="26" t="s">
-        <v>570</v>
+        <v>564</v>
       </c>
       <c r="K78" s="9"/>
     </row>
@@ -13229,29 +13361,29 @@
         <v>132</v>
       </c>
       <c r="B79" s="9" t="s">
-        <v>722</v>
+        <v>184</v>
       </c>
       <c r="C79" s="12" t="s">
-        <v>721</v>
+        <v>204</v>
       </c>
       <c r="D79" s="9" t="s">
-        <v>411</v>
+        <v>419</v>
       </c>
       <c r="E79" s="9" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="F79" s="9" t="s">
-        <v>753</v>
+        <v>205</v>
       </c>
       <c r="G79" s="9" t="s">
-        <v>752</v>
+        <v>565</v>
       </c>
       <c r="H79" s="9"/>
-      <c r="I79" s="28" t="s">
-        <v>754</v>
+      <c r="I79" s="11" t="s">
+        <v>206</v>
       </c>
       <c r="J79" s="26" t="s">
-        <v>755</v>
+        <v>566</v>
       </c>
       <c r="K79" s="9"/>
     </row>
@@ -13260,29 +13392,29 @@
         <v>132</v>
       </c>
       <c r="B80" s="9" t="s">
-        <v>214</v>
+        <v>184</v>
       </c>
       <c r="C80" s="12" t="s">
-        <v>215</v>
+        <v>828</v>
       </c>
       <c r="D80" s="9" t="s">
-        <v>47</v>
+        <v>411</v>
       </c>
       <c r="E80" s="9" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="F80" s="9" t="s">
-        <v>216</v>
+        <v>829</v>
       </c>
       <c r="G80" s="9" t="s">
-        <v>571</v>
+        <v>830</v>
       </c>
       <c r="H80" s="9"/>
-      <c r="I80" s="10" t="s">
-        <v>217</v>
+      <c r="I80" s="28" t="s">
+        <v>831</v>
       </c>
       <c r="J80" s="26" t="s">
-        <v>572</v>
+        <v>832</v>
       </c>
       <c r="K80" s="9"/>
     </row>
@@ -13291,29 +13423,29 @@
         <v>132</v>
       </c>
       <c r="B81" s="9" t="s">
-        <v>214</v>
+        <v>184</v>
       </c>
       <c r="C81" s="12" t="s">
-        <v>218</v>
+        <v>207</v>
       </c>
       <c r="D81" s="9" t="s">
-        <v>157</v>
+        <v>419</v>
       </c>
       <c r="E81" s="9" t="s">
         <v>25</v>
       </c>
       <c r="F81" s="9" t="s">
-        <v>219</v>
+        <v>208</v>
       </c>
       <c r="G81" s="9" t="s">
-        <v>573</v>
+        <v>567</v>
       </c>
       <c r="H81" s="9"/>
-      <c r="I81" s="10" t="s">
-        <v>220</v>
+      <c r="I81" s="11" t="s">
+        <v>209</v>
       </c>
       <c r="J81" s="26" t="s">
-        <v>574</v>
+        <v>568</v>
       </c>
       <c r="K81" s="9"/>
     </row>
@@ -13322,29 +13454,29 @@
         <v>132</v>
       </c>
       <c r="B82" s="9" t="s">
-        <v>221</v>
+        <v>210</v>
       </c>
       <c r="C82" s="12" t="s">
-        <v>575</v>
+        <v>211</v>
       </c>
       <c r="D82" s="9" t="s">
-        <v>411</v>
+        <v>419</v>
       </c>
       <c r="E82" s="9" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="F82" s="9" t="s">
-        <v>223</v>
+        <v>212</v>
       </c>
       <c r="G82" s="9" t="s">
-        <v>576</v>
+        <v>569</v>
       </c>
       <c r="H82" s="9"/>
       <c r="I82" s="10" t="s">
-        <v>577</v>
+        <v>213</v>
       </c>
       <c r="J82" s="26" t="s">
-        <v>578</v>
+        <v>570</v>
       </c>
       <c r="K82" s="9"/>
     </row>
@@ -13353,29 +13485,29 @@
         <v>132</v>
       </c>
       <c r="B83" s="9" t="s">
-        <v>225</v>
+        <v>722</v>
       </c>
       <c r="C83" s="12" t="s">
-        <v>226</v>
+        <v>721</v>
       </c>
       <c r="D83" s="9" t="s">
-        <v>419</v>
+        <v>411</v>
       </c>
       <c r="E83" s="9" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="F83" s="9" t="s">
-        <v>227</v>
+        <v>753</v>
       </c>
       <c r="G83" s="9" t="s">
-        <v>579</v>
+        <v>752</v>
       </c>
       <c r="H83" s="9"/>
-      <c r="I83" s="10" t="s">
-        <v>228</v>
+      <c r="I83" s="28" t="s">
+        <v>754</v>
       </c>
       <c r="J83" s="26" t="s">
-        <v>580</v>
+        <v>755</v>
       </c>
       <c r="K83" s="9"/>
     </row>
@@ -13384,29 +13516,29 @@
         <v>132</v>
       </c>
       <c r="B84" s="9" t="s">
-        <v>225</v>
+        <v>214</v>
       </c>
       <c r="C84" s="12" t="s">
-        <v>229</v>
+        <v>215</v>
       </c>
       <c r="D84" s="9" t="s">
-        <v>411</v>
+        <v>47</v>
       </c>
       <c r="E84" s="9" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="F84" s="9" t="s">
-        <v>230</v>
+        <v>216</v>
       </c>
       <c r="G84" s="9" t="s">
-        <v>581</v>
+        <v>571</v>
       </c>
       <c r="H84" s="9"/>
       <c r="I84" s="10" t="s">
-        <v>231</v>
+        <v>217</v>
       </c>
       <c r="J84" s="26" t="s">
-        <v>582</v>
+        <v>572</v>
       </c>
       <c r="K84" s="9"/>
     </row>
@@ -13415,29 +13547,29 @@
         <v>132</v>
       </c>
       <c r="B85" s="9" t="s">
-        <v>583</v>
-      </c>
-      <c r="C85" s="9" t="s">
-        <v>584</v>
+        <v>214</v>
+      </c>
+      <c r="C85" s="12" t="s">
+        <v>218</v>
       </c>
       <c r="D85" s="9" t="s">
-        <v>411</v>
+        <v>157</v>
       </c>
       <c r="E85" s="9" t="s">
         <v>25</v>
       </c>
       <c r="F85" s="9" t="s">
-        <v>585</v>
+        <v>219</v>
       </c>
       <c r="G85" s="9" t="s">
-        <v>586</v>
+        <v>573</v>
       </c>
       <c r="H85" s="9"/>
-      <c r="I85" s="11" t="s">
-        <v>587</v>
+      <c r="I85" s="10" t="s">
+        <v>220</v>
       </c>
       <c r="J85" s="26" t="s">
-        <v>588</v>
+        <v>574</v>
       </c>
       <c r="K85" s="9"/>
     </row>
@@ -13446,10 +13578,10 @@
         <v>132</v>
       </c>
       <c r="B86" s="9" t="s">
-        <v>232</v>
-      </c>
-      <c r="C86" s="9" t="s">
-        <v>233</v>
+        <v>221</v>
+      </c>
+      <c r="C86" s="12" t="s">
+        <v>575</v>
       </c>
       <c r="D86" s="9" t="s">
         <v>411</v>
@@ -13458,17 +13590,17 @@
         <v>25</v>
       </c>
       <c r="F86" s="9" t="s">
-        <v>234</v>
+        <v>223</v>
       </c>
       <c r="G86" s="9" t="s">
-        <v>589</v>
+        <v>576</v>
       </c>
       <c r="H86" s="9"/>
       <c r="I86" s="10" t="s">
-        <v>235</v>
+        <v>577</v>
       </c>
       <c r="J86" s="26" t="s">
-        <v>590</v>
+        <v>578</v>
       </c>
       <c r="K86" s="9"/>
     </row>
@@ -13477,29 +13609,29 @@
         <v>132</v>
       </c>
       <c r="B87" s="9" t="s">
-        <v>236</v>
-      </c>
-      <c r="C87" s="9" t="s">
-        <v>381</v>
+        <v>225</v>
+      </c>
+      <c r="C87" s="12" t="s">
+        <v>226</v>
       </c>
       <c r="D87" s="9" t="s">
-        <v>382</v>
+        <v>419</v>
       </c>
       <c r="E87" s="9" t="s">
         <v>14</v>
       </c>
       <c r="F87" s="9" t="s">
-        <v>591</v>
+        <v>227</v>
       </c>
       <c r="G87" s="9" t="s">
-        <v>592</v>
+        <v>579</v>
       </c>
       <c r="H87" s="9"/>
-      <c r="I87" s="11" t="s">
-        <v>593</v>
+      <c r="I87" s="10" t="s">
+        <v>228</v>
       </c>
       <c r="J87" s="26" t="s">
-        <v>594</v>
+        <v>580</v>
       </c>
       <c r="K87" s="9"/>
     </row>
@@ -13508,10 +13640,10 @@
         <v>132</v>
       </c>
       <c r="B88" s="9" t="s">
-        <v>236</v>
-      </c>
-      <c r="C88" s="9" t="s">
-        <v>237</v>
+        <v>225</v>
+      </c>
+      <c r="C88" s="12" t="s">
+        <v>229</v>
       </c>
       <c r="D88" s="9" t="s">
         <v>411</v>
@@ -13520,17 +13652,17 @@
         <v>25</v>
       </c>
       <c r="F88" s="9" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="G88" s="9" t="s">
-        <v>595</v>
+        <v>581</v>
       </c>
       <c r="H88" s="9"/>
       <c r="I88" s="10" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="J88" s="26" t="s">
-        <v>596</v>
+        <v>582</v>
       </c>
       <c r="K88" s="9"/>
     </row>
@@ -13539,29 +13671,29 @@
         <v>132</v>
       </c>
       <c r="B89" s="9" t="s">
-        <v>236</v>
+        <v>583</v>
       </c>
       <c r="C89" s="9" t="s">
-        <v>240</v>
+        <v>584</v>
       </c>
       <c r="D89" s="9" t="s">
-        <v>241</v>
+        <v>411</v>
       </c>
       <c r="E89" s="9" t="s">
         <v>25</v>
       </c>
       <c r="F89" s="9" t="s">
-        <v>242</v>
+        <v>585</v>
       </c>
       <c r="G89" s="9" t="s">
-        <v>597</v>
+        <v>586</v>
       </c>
       <c r="H89" s="9"/>
-      <c r="I89" s="10" t="s">
-        <v>243</v>
+      <c r="I89" s="11" t="s">
+        <v>587</v>
       </c>
       <c r="J89" s="26" t="s">
-        <v>598</v>
+        <v>588</v>
       </c>
       <c r="K89" s="9"/>
     </row>
@@ -13570,29 +13702,29 @@
         <v>132</v>
       </c>
       <c r="B90" s="9" t="s">
-        <v>236</v>
+        <v>583</v>
       </c>
       <c r="C90" s="9" t="s">
-        <v>790</v>
+        <v>838</v>
       </c>
       <c r="D90" s="9" t="s">
         <v>117</v>
       </c>
       <c r="E90" s="9" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="F90" s="9" t="s">
-        <v>812</v>
+        <v>839</v>
       </c>
       <c r="G90" s="9" t="s">
-        <v>813</v>
+        <v>840</v>
       </c>
       <c r="H90" s="9"/>
       <c r="I90" s="28" t="s">
-        <v>814</v>
+        <v>841</v>
       </c>
       <c r="J90" s="26" t="s">
-        <v>815</v>
+        <v>842</v>
       </c>
       <c r="K90" s="9"/>
     </row>
@@ -13601,29 +13733,29 @@
         <v>132</v>
       </c>
       <c r="B91" s="9" t="s">
-        <v>244</v>
+        <v>232</v>
       </c>
       <c r="C91" s="9" t="s">
-        <v>245</v>
+        <v>233</v>
       </c>
       <c r="D91" s="9" t="s">
-        <v>241</v>
+        <v>411</v>
       </c>
       <c r="E91" s="9" t="s">
         <v>25</v>
       </c>
       <c r="F91" s="9" t="s">
-        <v>246</v>
+        <v>234</v>
       </c>
       <c r="G91" s="9" t="s">
-        <v>599</v>
+        <v>589</v>
       </c>
       <c r="H91" s="9"/>
       <c r="I91" s="10" t="s">
-        <v>247</v>
+        <v>235</v>
       </c>
       <c r="J91" s="26" t="s">
-        <v>600</v>
+        <v>590</v>
       </c>
       <c r="K91" s="9"/>
     </row>
@@ -13632,29 +13764,29 @@
         <v>132</v>
       </c>
       <c r="B92" s="9" t="s">
-        <v>789</v>
+        <v>236</v>
       </c>
       <c r="C92" s="9" t="s">
-        <v>788</v>
+        <v>381</v>
       </c>
       <c r="D92" s="9" t="s">
-        <v>411</v>
+        <v>382</v>
       </c>
       <c r="E92" s="9" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="F92" s="9" t="s">
-        <v>816</v>
+        <v>591</v>
       </c>
       <c r="G92" s="9" t="s">
-        <v>817</v>
+        <v>592</v>
       </c>
       <c r="H92" s="9"/>
-      <c r="I92" s="28" t="s">
-        <v>818</v>
+      <c r="I92" s="11" t="s">
+        <v>593</v>
       </c>
       <c r="J92" s="26" t="s">
-        <v>819</v>
+        <v>594</v>
       </c>
       <c r="K92" s="9"/>
     </row>
@@ -13663,29 +13795,29 @@
         <v>132</v>
       </c>
       <c r="B93" s="9" t="s">
-        <v>248</v>
+        <v>236</v>
       </c>
       <c r="C93" s="9" t="s">
-        <v>381</v>
+        <v>237</v>
       </c>
       <c r="D93" s="9" t="s">
-        <v>382</v>
+        <v>411</v>
       </c>
       <c r="E93" s="9" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="F93" s="9" t="s">
-        <v>601</v>
+        <v>238</v>
       </c>
       <c r="G93" s="9" t="s">
-        <v>602</v>
+        <v>595</v>
       </c>
       <c r="H93" s="9"/>
       <c r="I93" s="10" t="s">
-        <v>603</v>
+        <v>239</v>
       </c>
       <c r="J93" s="26" t="s">
-        <v>604</v>
+        <v>596</v>
       </c>
       <c r="K93" s="9"/>
     </row>
@@ -13694,29 +13826,29 @@
         <v>132</v>
       </c>
       <c r="B94" s="9" t="s">
-        <v>248</v>
+        <v>236</v>
       </c>
       <c r="C94" s="9" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="D94" s="9" t="s">
-        <v>117</v>
+        <v>241</v>
       </c>
       <c r="E94" s="9" t="s">
         <v>25</v>
       </c>
       <c r="F94" s="9" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="G94" s="9" t="s">
-        <v>605</v>
+        <v>597</v>
       </c>
       <c r="H94" s="9"/>
       <c r="I94" s="10" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="J94" s="26" t="s">
-        <v>606</v>
+        <v>598</v>
       </c>
       <c r="K94" s="9"/>
     </row>
@@ -13725,29 +13857,29 @@
         <v>132</v>
       </c>
       <c r="B95" s="9" t="s">
-        <v>248</v>
+        <v>236</v>
       </c>
       <c r="C95" s="9" t="s">
-        <v>252</v>
+        <v>790</v>
       </c>
       <c r="D95" s="9" t="s">
-        <v>411</v>
+        <v>117</v>
       </c>
       <c r="E95" s="9" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="F95" s="9" t="s">
-        <v>253</v>
+        <v>812</v>
       </c>
       <c r="G95" s="9" t="s">
-        <v>607</v>
+        <v>813</v>
       </c>
       <c r="H95" s="9"/>
-      <c r="I95" s="10" t="s">
-        <v>254</v>
+      <c r="I95" s="28" t="s">
+        <v>814</v>
       </c>
       <c r="J95" s="26" t="s">
-        <v>608</v>
+        <v>815</v>
       </c>
       <c r="K95" s="9"/>
     </row>
@@ -13756,29 +13888,29 @@
         <v>132</v>
       </c>
       <c r="B96" s="9" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="C96" s="9" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
       <c r="D96" s="9" t="s">
-        <v>117</v>
+        <v>241</v>
       </c>
       <c r="E96" s="9" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="F96" s="9" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
       <c r="G96" s="9" t="s">
-        <v>609</v>
+        <v>599</v>
       </c>
       <c r="H96" s="9"/>
       <c r="I96" s="10" t="s">
-        <v>257</v>
+        <v>247</v>
       </c>
       <c r="J96" s="26" t="s">
-        <v>610</v>
+        <v>600</v>
       </c>
       <c r="K96" s="9"/>
     </row>
@@ -13787,29 +13919,29 @@
         <v>132</v>
       </c>
       <c r="B97" s="9" t="s">
-        <v>258</v>
+        <v>789</v>
       </c>
       <c r="C97" s="9" t="s">
-        <v>259</v>
+        <v>788</v>
       </c>
       <c r="D97" s="9" t="s">
-        <v>117</v>
+        <v>411</v>
       </c>
       <c r="E97" s="9" t="s">
         <v>25</v>
       </c>
       <c r="F97" s="9" t="s">
-        <v>260</v>
+        <v>816</v>
       </c>
       <c r="G97" s="9" t="s">
-        <v>611</v>
+        <v>817</v>
       </c>
       <c r="H97" s="9"/>
-      <c r="I97" s="10" t="s">
-        <v>261</v>
+      <c r="I97" s="28" t="s">
+        <v>818</v>
       </c>
       <c r="J97" s="26" t="s">
-        <v>612</v>
+        <v>819</v>
       </c>
       <c r="K97" s="9"/>
     </row>
@@ -13818,29 +13950,29 @@
         <v>132</v>
       </c>
       <c r="B98" s="9" t="s">
-        <v>262</v>
+        <v>248</v>
       </c>
       <c r="C98" s="9" t="s">
-        <v>263</v>
+        <v>381</v>
       </c>
       <c r="D98" s="9" t="s">
-        <v>613</v>
+        <v>382</v>
       </c>
       <c r="E98" s="9" t="s">
         <v>14</v>
       </c>
       <c r="F98" s="9" t="s">
-        <v>265</v>
+        <v>601</v>
       </c>
       <c r="G98" s="9" t="s">
-        <v>614</v>
+        <v>602</v>
       </c>
       <c r="H98" s="9"/>
-      <c r="I98" s="11" t="s">
-        <v>266</v>
+      <c r="I98" s="10" t="s">
+        <v>603</v>
       </c>
       <c r="J98" s="26" t="s">
-        <v>615</v>
+        <v>604</v>
       </c>
       <c r="K98" s="9"/>
     </row>
@@ -13849,29 +13981,29 @@
         <v>132</v>
       </c>
       <c r="B99" s="9" t="s">
-        <v>262</v>
+        <v>248</v>
       </c>
       <c r="C99" s="9" t="s">
-        <v>267</v>
+        <v>249</v>
       </c>
       <c r="D99" s="9" t="s">
-        <v>411</v>
+        <v>117</v>
       </c>
       <c r="E99" s="9" t="s">
         <v>25</v>
       </c>
       <c r="F99" s="9" t="s">
-        <v>268</v>
+        <v>250</v>
       </c>
       <c r="G99" s="9" t="s">
-        <v>616</v>
+        <v>605</v>
       </c>
       <c r="H99" s="9"/>
-      <c r="I99" s="11" t="s">
-        <v>269</v>
+      <c r="I99" s="10" t="s">
+        <v>251</v>
       </c>
       <c r="J99" s="26" t="s">
-        <v>617</v>
+        <v>606</v>
       </c>
       <c r="K99" s="9"/>
     </row>
@@ -13880,29 +14012,29 @@
         <v>132</v>
       </c>
       <c r="B100" s="9" t="s">
-        <v>262</v>
+        <v>248</v>
       </c>
       <c r="C100" s="9" t="s">
-        <v>270</v>
+        <v>252</v>
       </c>
       <c r="D100" s="9" t="s">
-        <v>419</v>
+        <v>411</v>
       </c>
       <c r="E100" s="9" t="s">
         <v>25</v>
       </c>
       <c r="F100" s="9" t="s">
-        <v>271</v>
+        <v>253</v>
       </c>
       <c r="G100" s="9" t="s">
-        <v>618</v>
+        <v>607</v>
       </c>
       <c r="H100" s="9"/>
-      <c r="I100" s="11" t="s">
-        <v>272</v>
+      <c r="I100" s="10" t="s">
+        <v>254</v>
       </c>
       <c r="J100" s="26" t="s">
-        <v>619</v>
+        <v>608</v>
       </c>
       <c r="K100" s="9"/>
     </row>
@@ -13911,29 +14043,29 @@
         <v>132</v>
       </c>
       <c r="B101" s="9" t="s">
-        <v>262</v>
+        <v>248</v>
       </c>
       <c r="C101" s="9" t="s">
-        <v>786</v>
+        <v>255</v>
       </c>
       <c r="D101" s="9" t="s">
         <v>117</v>
       </c>
       <c r="E101" s="9" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="F101" s="9" t="s">
-        <v>820</v>
+        <v>256</v>
       </c>
       <c r="G101" s="9" t="s">
-        <v>821</v>
+        <v>609</v>
       </c>
       <c r="H101" s="9"/>
-      <c r="I101" s="28" t="s">
-        <v>822</v>
+      <c r="I101" s="10" t="s">
+        <v>257</v>
       </c>
       <c r="J101" s="26" t="s">
-        <v>823</v>
+        <v>610</v>
       </c>
       <c r="K101" s="9"/>
     </row>
@@ -13942,10 +14074,10 @@
         <v>132</v>
       </c>
       <c r="B102" s="9" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="C102" s="9" t="s">
-        <v>787</v>
+        <v>259</v>
       </c>
       <c r="D102" s="9" t="s">
         <v>117</v>
@@ -13954,17 +14086,17 @@
         <v>25</v>
       </c>
       <c r="F102" s="9" t="s">
-        <v>824</v>
+        <v>260</v>
       </c>
       <c r="G102" s="9" t="s">
-        <v>825</v>
+        <v>611</v>
       </c>
       <c r="H102" s="9"/>
-      <c r="I102" s="28" t="s">
-        <v>826</v>
+      <c r="I102" s="10" t="s">
+        <v>261</v>
       </c>
       <c r="J102" s="26" t="s">
-        <v>827</v>
+        <v>612</v>
       </c>
       <c r="K102" s="9"/>
     </row>
@@ -13976,26 +14108,26 @@
         <v>262</v>
       </c>
       <c r="C103" s="9" t="s">
-        <v>273</v>
+        <v>263</v>
       </c>
       <c r="D103" s="9" t="s">
         <v>613</v>
       </c>
       <c r="E103" s="9" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="F103" s="9" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
       <c r="G103" s="9" t="s">
-        <v>620</v>
+        <v>614</v>
       </c>
       <c r="H103" s="9"/>
       <c r="I103" s="11" t="s">
-        <v>275</v>
+        <v>266</v>
       </c>
       <c r="J103" s="26" t="s">
-        <v>621</v>
+        <v>615</v>
       </c>
       <c r="K103" s="9"/>
     </row>
@@ -14007,26 +14139,26 @@
         <v>262</v>
       </c>
       <c r="C104" s="9" t="s">
-        <v>724</v>
+        <v>267</v>
       </c>
       <c r="D104" s="9" t="s">
-        <v>398</v>
+        <v>411</v>
       </c>
       <c r="E104" s="9" t="s">
         <v>25</v>
       </c>
       <c r="F104" s="9" t="s">
-        <v>756</v>
+        <v>268</v>
       </c>
       <c r="G104" s="9" t="s">
-        <v>757</v>
+        <v>616</v>
       </c>
       <c r="H104" s="9"/>
-      <c r="I104" s="28" t="s">
-        <v>758</v>
+      <c r="I104" s="11" t="s">
+        <v>269</v>
       </c>
       <c r="J104" s="26" t="s">
-        <v>759</v>
+        <v>617</v>
       </c>
       <c r="K104" s="9"/>
     </row>
@@ -14038,220 +14170,222 @@
         <v>262</v>
       </c>
       <c r="C105" s="9" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="D105" s="9" t="s">
-        <v>398</v>
+        <v>419</v>
       </c>
       <c r="E105" s="9" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="F105" s="9" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="G105" s="9" t="s">
-        <v>622</v>
+        <v>618</v>
       </c>
       <c r="H105" s="9"/>
       <c r="I105" s="11" t="s">
+        <v>272</v>
+      </c>
+      <c r="J105" s="26" t="s">
+        <v>619</v>
+      </c>
+      <c r="K105" s="9"/>
+    </row>
+    <row r="106" spans="1:11" ht="13">
+      <c r="A106" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="B106" s="9" t="s">
+        <v>262</v>
+      </c>
+      <c r="C106" s="9" t="s">
+        <v>833</v>
+      </c>
+      <c r="D106" s="9" t="s">
+        <v>411</v>
+      </c>
+      <c r="E106" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F106" s="9" t="s">
+        <v>834</v>
+      </c>
+      <c r="G106" s="9" t="s">
+        <v>835</v>
+      </c>
+      <c r="H106" s="9"/>
+      <c r="I106" s="28" t="s">
+        <v>836</v>
+      </c>
+      <c r="J106" s="26" t="s">
+        <v>837</v>
+      </c>
+      <c r="K106" s="9"/>
+    </row>
+    <row r="107" spans="1:11" ht="13">
+      <c r="A107" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="B107" s="9" t="s">
+        <v>262</v>
+      </c>
+      <c r="C107" s="9" t="s">
+        <v>786</v>
+      </c>
+      <c r="D107" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="E107" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F107" s="9" t="s">
+        <v>820</v>
+      </c>
+      <c r="G107" s="9" t="s">
+        <v>821</v>
+      </c>
+      <c r="H107" s="9"/>
+      <c r="I107" s="28" t="s">
+        <v>822</v>
+      </c>
+      <c r="J107" s="26" t="s">
+        <v>823</v>
+      </c>
+      <c r="K107" s="9"/>
+    </row>
+    <row r="108" spans="1:11" ht="13">
+      <c r="A108" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="B108" s="9" t="s">
+        <v>262</v>
+      </c>
+      <c r="C108" s="9" t="s">
+        <v>787</v>
+      </c>
+      <c r="D108" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="E108" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F108" s="9" t="s">
+        <v>824</v>
+      </c>
+      <c r="G108" s="9" t="s">
+        <v>825</v>
+      </c>
+      <c r="H108" s="9"/>
+      <c r="I108" s="28" t="s">
+        <v>826</v>
+      </c>
+      <c r="J108" s="26" t="s">
+        <v>827</v>
+      </c>
+      <c r="K108" s="9"/>
+    </row>
+    <row r="109" spans="1:11" ht="13">
+      <c r="A109" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="B109" s="9" t="s">
+        <v>262</v>
+      </c>
+      <c r="C109" s="9" t="s">
+        <v>273</v>
+      </c>
+      <c r="D109" s="9" t="s">
+        <v>613</v>
+      </c>
+      <c r="E109" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F109" s="9" t="s">
+        <v>274</v>
+      </c>
+      <c r="G109" s="9" t="s">
+        <v>620</v>
+      </c>
+      <c r="H109" s="9"/>
+      <c r="I109" s="11" t="s">
+        <v>275</v>
+      </c>
+      <c r="J109" s="26" t="s">
+        <v>621</v>
+      </c>
+      <c r="K109" s="9"/>
+    </row>
+    <row r="110" spans="1:11" ht="13">
+      <c r="A110" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="B110" s="9" t="s">
+        <v>262</v>
+      </c>
+      <c r="C110" s="9" t="s">
+        <v>724</v>
+      </c>
+      <c r="D110" s="9" t="s">
+        <v>398</v>
+      </c>
+      <c r="E110" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F110" s="9" t="s">
+        <v>756</v>
+      </c>
+      <c r="G110" s="9" t="s">
+        <v>757</v>
+      </c>
+      <c r="H110" s="9"/>
+      <c r="I110" s="28" t="s">
+        <v>758</v>
+      </c>
+      <c r="J110" s="26" t="s">
+        <v>759</v>
+      </c>
+      <c r="K110" s="9"/>
+    </row>
+    <row r="111" spans="1:11" ht="13">
+      <c r="A111" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="B111" s="9" t="s">
+        <v>262</v>
+      </c>
+      <c r="C111" s="9" t="s">
+        <v>276</v>
+      </c>
+      <c r="D111" s="9" t="s">
+        <v>398</v>
+      </c>
+      <c r="E111" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F111" s="9" t="s">
+        <v>277</v>
+      </c>
+      <c r="G111" s="9" t="s">
+        <v>622</v>
+      </c>
+      <c r="H111" s="9"/>
+      <c r="I111" s="11" t="s">
         <v>623</v>
       </c>
-      <c r="J105" s="26"/>
-      <c r="K105" s="9"/>
-    </row>
-    <row r="106" spans="1:11" ht="13">
-      <c r="A106" s="14" t="s">
-        <v>278</v>
-      </c>
-      <c r="B106" s="14" t="s">
-        <v>624</v>
-      </c>
-      <c r="C106" s="14" t="s">
-        <v>625</v>
-      </c>
-      <c r="D106" s="14" t="s">
-        <v>157</v>
-      </c>
-      <c r="E106" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="F106" s="14" t="s">
-        <v>626</v>
-      </c>
-      <c r="G106" s="14" t="s">
-        <v>627</v>
-      </c>
-      <c r="H106" s="14"/>
-      <c r="I106" s="16" t="s">
-        <v>628</v>
-      </c>
-      <c r="J106" s="17" t="s">
-        <v>629</v>
-      </c>
-      <c r="K106" s="14"/>
-    </row>
-    <row r="107" spans="1:11" ht="13">
-      <c r="A107" s="14" t="s">
-        <v>278</v>
-      </c>
-      <c r="B107" s="14" t="s">
-        <v>624</v>
-      </c>
-      <c r="C107" s="14" t="s">
-        <v>630</v>
-      </c>
-      <c r="D107" s="14" t="s">
-        <v>411</v>
-      </c>
-      <c r="E107" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="F107" s="14" t="s">
-        <v>631</v>
-      </c>
-      <c r="G107" s="14" t="s">
-        <v>632</v>
-      </c>
-      <c r="H107" s="14"/>
-      <c r="I107" s="16" t="s">
-        <v>633</v>
-      </c>
-      <c r="J107" s="17" t="s">
-        <v>634</v>
-      </c>
-      <c r="K107" s="14"/>
-    </row>
-    <row r="108" spans="1:11" ht="13">
-      <c r="A108" s="14" t="s">
-        <v>278</v>
-      </c>
-      <c r="B108" s="14" t="s">
-        <v>279</v>
-      </c>
-      <c r="C108" s="14" t="s">
-        <v>635</v>
-      </c>
-      <c r="D108" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="E108" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="F108" s="14" t="s">
-        <v>636</v>
-      </c>
-      <c r="G108" s="14" t="s">
-        <v>637</v>
-      </c>
-      <c r="H108" s="14"/>
-      <c r="I108" s="15" t="s">
-        <v>638</v>
-      </c>
-      <c r="J108" s="17" t="s">
-        <v>639</v>
-      </c>
-      <c r="K108" s="14"/>
-    </row>
-    <row r="109" spans="1:11" ht="13">
-      <c r="A109" s="14" t="s">
-        <v>278</v>
-      </c>
-      <c r="B109" s="14" t="s">
-        <v>279</v>
-      </c>
-      <c r="C109" s="14" t="s">
-        <v>640</v>
-      </c>
-      <c r="D109" s="14" t="s">
-        <v>157</v>
-      </c>
-      <c r="E109" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="F109" s="14" t="s">
-        <v>641</v>
-      </c>
-      <c r="G109" s="14" t="s">
-        <v>642</v>
-      </c>
-      <c r="H109" s="14"/>
-      <c r="I109" s="15" t="s">
-        <v>643</v>
-      </c>
-      <c r="J109" s="17" t="s">
-        <v>644</v>
-      </c>
-      <c r="K109" s="14"/>
-    </row>
-    <row r="110" spans="1:11" ht="13">
-      <c r="A110" s="14" t="s">
-        <v>278</v>
-      </c>
-      <c r="B110" s="14" t="s">
-        <v>279</v>
-      </c>
-      <c r="C110" s="14" t="s">
-        <v>645</v>
-      </c>
-      <c r="D110" s="14" t="s">
-        <v>411</v>
-      </c>
-      <c r="E110" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="F110" s="14" t="s">
-        <v>646</v>
-      </c>
-      <c r="G110" s="14" t="s">
-        <v>647</v>
-      </c>
-      <c r="H110" s="14"/>
-      <c r="I110" s="15" t="s">
-        <v>648</v>
-      </c>
-      <c r="J110" s="17" t="s">
-        <v>649</v>
-      </c>
-      <c r="K110" s="14"/>
-    </row>
-    <row r="111" spans="1:11" ht="13">
-      <c r="A111" s="14" t="s">
-        <v>278</v>
-      </c>
-      <c r="B111" s="14" t="s">
-        <v>279</v>
-      </c>
-      <c r="C111" s="14" t="s">
-        <v>381</v>
-      </c>
-      <c r="D111" s="14" t="s">
-        <v>382</v>
-      </c>
-      <c r="E111" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="F111" s="14" t="s">
-        <v>650</v>
-      </c>
-      <c r="G111" s="14" t="s">
-        <v>651</v>
-      </c>
-      <c r="H111" s="14"/>
-      <c r="I111" s="15" t="s">
-        <v>652</v>
-      </c>
-      <c r="J111" s="17"/>
-      <c r="K111" s="14"/>
+      <c r="J111" s="26"/>
+      <c r="K111" s="9"/>
     </row>
     <row r="112" spans="1:11" ht="13">
       <c r="A112" s="14" t="s">
         <v>278</v>
       </c>
       <c r="B112" s="14" t="s">
-        <v>279</v>
+        <v>624</v>
       </c>
       <c r="C112" s="14" t="s">
-        <v>280</v>
+        <v>625</v>
       </c>
       <c r="D112" s="14" t="s">
         <v>157</v>
@@ -14260,17 +14394,17 @@
         <v>25</v>
       </c>
       <c r="F112" s="14" t="s">
-        <v>281</v>
+        <v>626</v>
       </c>
       <c r="G112" s="14" t="s">
-        <v>653</v>
+        <v>627</v>
       </c>
       <c r="H112" s="14"/>
-      <c r="I112" s="15" t="s">
-        <v>282</v>
+      <c r="I112" s="16" t="s">
+        <v>628</v>
       </c>
       <c r="J112" s="17" t="s">
-        <v>654</v>
+        <v>629</v>
       </c>
       <c r="K112" s="14"/>
     </row>
@@ -14279,10 +14413,10 @@
         <v>278</v>
       </c>
       <c r="B113" s="14" t="s">
-        <v>279</v>
+        <v>624</v>
       </c>
       <c r="C113" s="14" t="s">
-        <v>283</v>
+        <v>630</v>
       </c>
       <c r="D113" s="14" t="s">
         <v>411</v>
@@ -14291,17 +14425,17 @@
         <v>25</v>
       </c>
       <c r="F113" s="14" t="s">
-        <v>284</v>
+        <v>631</v>
       </c>
       <c r="G113" s="14" t="s">
-        <v>655</v>
+        <v>632</v>
       </c>
       <c r="H113" s="14"/>
-      <c r="I113" s="15" t="s">
-        <v>285</v>
+      <c r="I113" s="16" t="s">
+        <v>633</v>
       </c>
       <c r="J113" s="17" t="s">
-        <v>656</v>
+        <v>634</v>
       </c>
       <c r="K113" s="14"/>
     </row>
@@ -14313,26 +14447,26 @@
         <v>279</v>
       </c>
       <c r="C114" s="14" t="s">
-        <v>286</v>
+        <v>635</v>
       </c>
       <c r="D114" s="14" t="s">
-        <v>419</v>
+        <v>47</v>
       </c>
       <c r="E114" s="14" t="s">
         <v>14</v>
       </c>
       <c r="F114" s="14" t="s">
-        <v>287</v>
+        <v>636</v>
       </c>
       <c r="G114" s="14" t="s">
-        <v>657</v>
+        <v>637</v>
       </c>
       <c r="H114" s="14"/>
-      <c r="I114" s="16" t="s">
-        <v>288</v>
+      <c r="I114" s="15" t="s">
+        <v>638</v>
       </c>
       <c r="J114" s="17" t="s">
-        <v>658</v>
+        <v>639</v>
       </c>
       <c r="K114" s="14"/>
     </row>
@@ -14344,26 +14478,26 @@
         <v>279</v>
       </c>
       <c r="C115" s="14" t="s">
-        <v>289</v>
+        <v>640</v>
       </c>
       <c r="D115" s="14" t="s">
-        <v>117</v>
+        <v>157</v>
       </c>
       <c r="E115" s="14" t="s">
         <v>25</v>
       </c>
       <c r="F115" s="14" t="s">
-        <v>290</v>
+        <v>641</v>
       </c>
       <c r="G115" s="14" t="s">
-        <v>659</v>
+        <v>642</v>
       </c>
       <c r="H115" s="14"/>
-      <c r="I115" s="16" t="s">
-        <v>291</v>
+      <c r="I115" s="15" t="s">
+        <v>643</v>
       </c>
       <c r="J115" s="17" t="s">
-        <v>660</v>
+        <v>644</v>
       </c>
       <c r="K115" s="14"/>
     </row>
@@ -14375,26 +14509,26 @@
         <v>279</v>
       </c>
       <c r="C116" s="14" t="s">
-        <v>292</v>
+        <v>645</v>
       </c>
       <c r="D116" s="14" t="s">
-        <v>47</v>
+        <v>411</v>
       </c>
       <c r="E116" s="14" t="s">
         <v>25</v>
       </c>
       <c r="F116" s="14" t="s">
-        <v>293</v>
+        <v>646</v>
       </c>
       <c r="G116" s="14" t="s">
-        <v>661</v>
+        <v>647</v>
       </c>
       <c r="H116" s="14"/>
-      <c r="I116" s="16" t="s">
-        <v>294</v>
+      <c r="I116" s="15" t="s">
+        <v>648</v>
       </c>
       <c r="J116" s="17" t="s">
-        <v>662</v>
+        <v>649</v>
       </c>
       <c r="K116" s="14"/>
     </row>
@@ -14406,27 +14540,25 @@
         <v>279</v>
       </c>
       <c r="C117" s="14" t="s">
-        <v>295</v>
+        <v>381</v>
       </c>
       <c r="D117" s="14" t="s">
-        <v>411</v>
+        <v>382</v>
       </c>
       <c r="E117" s="14" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="F117" s="14" t="s">
-        <v>296</v>
+        <v>650</v>
       </c>
       <c r="G117" s="14" t="s">
-        <v>663</v>
+        <v>651</v>
       </c>
       <c r="H117" s="14"/>
-      <c r="I117" s="16" t="s">
-        <v>297</v>
-      </c>
-      <c r="J117" s="17" t="s">
-        <v>664</v>
-      </c>
+      <c r="I117" s="15" t="s">
+        <v>652</v>
+      </c>
+      <c r="J117" s="17"/>
       <c r="K117" s="14"/>
     </row>
     <row r="118" spans="1:11" ht="13">
@@ -14437,26 +14569,26 @@
         <v>279</v>
       </c>
       <c r="C118" s="14" t="s">
-        <v>298</v>
+        <v>280</v>
       </c>
       <c r="D118" s="14" t="s">
-        <v>411</v>
+        <v>157</v>
       </c>
       <c r="E118" s="14" t="s">
         <v>25</v>
       </c>
       <c r="F118" s="14" t="s">
-        <v>299</v>
+        <v>281</v>
       </c>
       <c r="G118" s="14" t="s">
-        <v>665</v>
+        <v>653</v>
       </c>
       <c r="H118" s="14"/>
-      <c r="I118" s="16" t="s">
-        <v>300</v>
+      <c r="I118" s="15" t="s">
+        <v>282</v>
       </c>
       <c r="J118" s="17" t="s">
-        <v>666</v>
+        <v>654</v>
       </c>
       <c r="K118" s="14"/>
     </row>
@@ -14468,26 +14600,26 @@
         <v>279</v>
       </c>
       <c r="C119" s="14" t="s">
-        <v>191</v>
+        <v>283</v>
       </c>
       <c r="D119" s="14" t="s">
-        <v>117</v>
+        <v>411</v>
       </c>
       <c r="E119" s="14" t="s">
         <v>25</v>
       </c>
       <c r="F119" s="14" t="s">
-        <v>760</v>
+        <v>284</v>
       </c>
       <c r="G119" s="14" t="s">
-        <v>761</v>
+        <v>655</v>
       </c>
       <c r="H119" s="14"/>
-      <c r="I119" s="29" t="s">
-        <v>762</v>
+      <c r="I119" s="15" t="s">
+        <v>285</v>
       </c>
       <c r="J119" s="17" t="s">
-        <v>558</v>
+        <v>656</v>
       </c>
       <c r="K119" s="14"/>
     </row>
@@ -14496,29 +14628,29 @@
         <v>278</v>
       </c>
       <c r="B120" s="14" t="s">
-        <v>301</v>
+        <v>279</v>
       </c>
       <c r="C120" s="14" t="s">
-        <v>302</v>
+        <v>286</v>
       </c>
       <c r="D120" s="14" t="s">
-        <v>117</v>
+        <v>419</v>
       </c>
       <c r="E120" s="14" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="F120" s="14" t="s">
-        <v>303</v>
+        <v>287</v>
       </c>
       <c r="G120" s="14" t="s">
-        <v>667</v>
+        <v>657</v>
       </c>
       <c r="H120" s="14"/>
-      <c r="I120" s="15" t="s">
-        <v>304</v>
+      <c r="I120" s="16" t="s">
+        <v>288</v>
       </c>
       <c r="J120" s="17" t="s">
-        <v>668</v>
+        <v>658</v>
       </c>
       <c r="K120" s="14"/>
     </row>
@@ -14527,29 +14659,29 @@
         <v>278</v>
       </c>
       <c r="B121" s="14" t="s">
-        <v>301</v>
+        <v>279</v>
       </c>
       <c r="C121" s="14" t="s">
-        <v>381</v>
+        <v>289</v>
       </c>
       <c r="D121" s="14" t="s">
-        <v>382</v>
+        <v>117</v>
       </c>
       <c r="E121" s="14" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="F121" s="14" t="s">
-        <v>669</v>
+        <v>290</v>
       </c>
       <c r="G121" s="14" t="s">
-        <v>670</v>
+        <v>659</v>
       </c>
       <c r="H121" s="14"/>
-      <c r="I121" s="15" t="s">
-        <v>671</v>
+      <c r="I121" s="16" t="s">
+        <v>291</v>
       </c>
       <c r="J121" s="17" t="s">
-        <v>672</v>
+        <v>660</v>
       </c>
       <c r="K121" s="14"/>
     </row>
@@ -14558,29 +14690,29 @@
         <v>278</v>
       </c>
       <c r="B122" s="14" t="s">
-        <v>305</v>
+        <v>279</v>
       </c>
       <c r="C122" s="14" t="s">
-        <v>306</v>
+        <v>292</v>
       </c>
       <c r="D122" s="14" t="s">
-        <v>411</v>
+        <v>47</v>
       </c>
       <c r="E122" s="14" t="s">
         <v>25</v>
       </c>
       <c r="F122" s="14" t="s">
-        <v>307</v>
+        <v>293</v>
       </c>
       <c r="G122" s="14" t="s">
-        <v>673</v>
+        <v>661</v>
       </c>
       <c r="H122" s="14"/>
-      <c r="I122" s="15" t="s">
-        <v>308</v>
+      <c r="I122" s="16" t="s">
+        <v>294</v>
       </c>
       <c r="J122" s="17" t="s">
-        <v>674</v>
+        <v>662</v>
       </c>
       <c r="K122" s="14"/>
     </row>
@@ -14589,10 +14721,10 @@
         <v>278</v>
       </c>
       <c r="B123" s="14" t="s">
-        <v>305</v>
+        <v>279</v>
       </c>
       <c r="C123" s="14" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="D123" s="14" t="s">
         <v>411</v>
@@ -14601,17 +14733,17 @@
         <v>25</v>
       </c>
       <c r="F123" s="14" t="s">
-        <v>309</v>
+        <v>296</v>
       </c>
       <c r="G123" s="14" t="s">
-        <v>675</v>
+        <v>663</v>
       </c>
       <c r="H123" s="14"/>
-      <c r="I123" s="15" t="s">
-        <v>310</v>
+      <c r="I123" s="16" t="s">
+        <v>297</v>
       </c>
       <c r="J123" s="17" t="s">
-        <v>676</v>
+        <v>664</v>
       </c>
       <c r="K123" s="14"/>
     </row>
@@ -14620,29 +14752,29 @@
         <v>278</v>
       </c>
       <c r="B124" s="14" t="s">
-        <v>305</v>
+        <v>279</v>
       </c>
       <c r="C124" s="14" t="s">
-        <v>311</v>
+        <v>298</v>
       </c>
       <c r="D124" s="14" t="s">
-        <v>312</v>
+        <v>411</v>
       </c>
       <c r="E124" s="14" t="s">
         <v>25</v>
       </c>
       <c r="F124" s="14" t="s">
-        <v>313</v>
+        <v>299</v>
       </c>
       <c r="G124" s="14" t="s">
-        <v>677</v>
+        <v>665</v>
       </c>
       <c r="H124" s="14"/>
-      <c r="I124" s="15" t="s">
-        <v>314</v>
+      <c r="I124" s="16" t="s">
+        <v>300</v>
       </c>
       <c r="J124" s="17" t="s">
-        <v>678</v>
+        <v>666</v>
       </c>
       <c r="K124" s="14"/>
     </row>
@@ -14651,29 +14783,29 @@
         <v>278</v>
       </c>
       <c r="B125" s="14" t="s">
-        <v>305</v>
+        <v>279</v>
       </c>
       <c r="C125" s="14" t="s">
-        <v>729</v>
+        <v>191</v>
       </c>
       <c r="D125" s="14" t="s">
-        <v>411</v>
+        <v>117</v>
       </c>
       <c r="E125" s="14" t="s">
         <v>25</v>
       </c>
       <c r="F125" s="14" t="s">
-        <v>763</v>
+        <v>760</v>
       </c>
       <c r="G125" s="14" t="s">
-        <v>764</v>
+        <v>761</v>
       </c>
       <c r="H125" s="14"/>
       <c r="I125" s="29" t="s">
-        <v>765</v>
+        <v>762</v>
       </c>
       <c r="J125" s="17" t="s">
-        <v>766</v>
+        <v>558</v>
       </c>
       <c r="K125" s="14"/>
     </row>
@@ -14682,29 +14814,29 @@
         <v>278</v>
       </c>
       <c r="B126" s="14" t="s">
-        <v>315</v>
+        <v>279</v>
       </c>
       <c r="C126" s="14" t="s">
-        <v>316</v>
+        <v>867</v>
       </c>
       <c r="D126" s="14" t="s">
-        <v>411</v>
+        <v>55</v>
       </c>
       <c r="E126" s="14" t="s">
         <v>25</v>
       </c>
       <c r="F126" s="14" t="s">
-        <v>317</v>
+        <v>868</v>
       </c>
       <c r="G126" s="14" t="s">
-        <v>679</v>
+        <v>869</v>
       </c>
       <c r="H126" s="14"/>
-      <c r="I126" s="15" t="s">
-        <v>318</v>
+      <c r="I126" s="29" t="s">
+        <v>870</v>
       </c>
       <c r="J126" s="17" t="s">
-        <v>680</v>
+        <v>871</v>
       </c>
       <c r="K126" s="14"/>
     </row>
@@ -14713,29 +14845,29 @@
         <v>278</v>
       </c>
       <c r="B127" s="14" t="s">
-        <v>315</v>
+        <v>301</v>
       </c>
       <c r="C127" s="14" t="s">
-        <v>720</v>
+        <v>302</v>
       </c>
       <c r="D127" s="14" t="s">
-        <v>55</v>
+        <v>117</v>
       </c>
       <c r="E127" s="14" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="F127" s="14" t="s">
-        <v>767</v>
+        <v>303</v>
       </c>
       <c r="G127" s="14" t="s">
-        <v>768</v>
+        <v>667</v>
       </c>
       <c r="H127" s="14"/>
-      <c r="I127" s="29" t="s">
-        <v>769</v>
+      <c r="I127" s="15" t="s">
+        <v>304</v>
       </c>
       <c r="J127" s="17" t="s">
-        <v>770</v>
+        <v>668</v>
       </c>
       <c r="K127" s="14"/>
     </row>
@@ -14744,29 +14876,29 @@
         <v>278</v>
       </c>
       <c r="B128" s="14" t="s">
-        <v>315</v>
+        <v>301</v>
       </c>
       <c r="C128" s="14" t="s">
-        <v>791</v>
+        <v>381</v>
       </c>
       <c r="D128" s="14" t="s">
-        <v>411</v>
+        <v>382</v>
       </c>
       <c r="E128" s="14" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="F128" s="14" t="s">
-        <v>792</v>
+        <v>669</v>
       </c>
       <c r="G128" s="14" t="s">
-        <v>793</v>
+        <v>670</v>
       </c>
       <c r="H128" s="14"/>
-      <c r="I128" s="29" t="s">
-        <v>794</v>
+      <c r="I128" s="15" t="s">
+        <v>671</v>
       </c>
       <c r="J128" s="17" t="s">
-        <v>795</v>
+        <v>672</v>
       </c>
       <c r="K128" s="14"/>
     </row>
@@ -14775,29 +14907,29 @@
         <v>278</v>
       </c>
       <c r="B129" s="14" t="s">
-        <v>319</v>
+        <v>305</v>
       </c>
       <c r="C129" s="14" t="s">
-        <v>320</v>
+        <v>306</v>
       </c>
       <c r="D129" s="14" t="s">
         <v>411</v>
       </c>
       <c r="E129" s="14" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="F129" s="14" t="s">
-        <v>681</v>
+        <v>307</v>
       </c>
       <c r="G129" s="14" t="s">
-        <v>682</v>
+        <v>673</v>
       </c>
       <c r="H129" s="14"/>
-      <c r="I129" s="16" t="s">
-        <v>683</v>
+      <c r="I129" s="15" t="s">
+        <v>308</v>
       </c>
       <c r="J129" s="17" t="s">
-        <v>684</v>
+        <v>674</v>
       </c>
       <c r="K129" s="14"/>
     </row>
@@ -14806,29 +14938,29 @@
         <v>278</v>
       </c>
       <c r="B130" s="14" t="s">
-        <v>319</v>
+        <v>305</v>
       </c>
       <c r="C130" s="14" t="s">
-        <v>323</v>
+        <v>298</v>
       </c>
       <c r="D130" s="14" t="s">
         <v>411</v>
       </c>
       <c r="E130" s="14" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="F130" s="14" t="s">
-        <v>324</v>
+        <v>309</v>
       </c>
       <c r="G130" s="14" t="s">
-        <v>685</v>
+        <v>675</v>
       </c>
       <c r="H130" s="14"/>
       <c r="I130" s="15" t="s">
-        <v>325</v>
+        <v>310</v>
       </c>
       <c r="J130" s="17" t="s">
-        <v>686</v>
+        <v>676</v>
       </c>
       <c r="K130" s="14"/>
     </row>
@@ -14837,29 +14969,29 @@
         <v>278</v>
       </c>
       <c r="B131" s="14" t="s">
-        <v>319</v>
+        <v>305</v>
       </c>
       <c r="C131" s="14" t="s">
-        <v>687</v>
+        <v>311</v>
       </c>
       <c r="D131" s="14" t="s">
-        <v>411</v>
+        <v>312</v>
       </c>
       <c r="E131" s="14" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="F131" s="14" t="s">
-        <v>327</v>
+        <v>313</v>
       </c>
       <c r="G131" s="14" t="s">
-        <v>688</v>
+        <v>677</v>
       </c>
       <c r="H131" s="14"/>
       <c r="I131" s="15" t="s">
-        <v>328</v>
+        <v>314</v>
       </c>
       <c r="J131" s="17" t="s">
-        <v>689</v>
+        <v>678</v>
       </c>
       <c r="K131" s="14"/>
     </row>
@@ -14868,10 +15000,10 @@
         <v>278</v>
       </c>
       <c r="B132" s="14" t="s">
-        <v>329</v>
+        <v>305</v>
       </c>
       <c r="C132" s="14" t="s">
-        <v>167</v>
+        <v>729</v>
       </c>
       <c r="D132" s="14" t="s">
         <v>411</v>
@@ -14880,17 +15012,17 @@
         <v>25</v>
       </c>
       <c r="F132" s="14" t="s">
-        <v>330</v>
+        <v>763</v>
       </c>
       <c r="G132" s="14" t="s">
-        <v>690</v>
+        <v>764</v>
       </c>
       <c r="H132" s="14"/>
-      <c r="I132" s="15" t="s">
-        <v>331</v>
+      <c r="I132" s="29" t="s">
+        <v>765</v>
       </c>
       <c r="J132" s="17" t="s">
-        <v>691</v>
+        <v>766</v>
       </c>
       <c r="K132" s="14"/>
     </row>
@@ -14899,29 +15031,29 @@
         <v>278</v>
       </c>
       <c r="B133" s="14" t="s">
-        <v>329</v>
+        <v>315</v>
       </c>
       <c r="C133" s="14" t="s">
-        <v>332</v>
+        <v>316</v>
       </c>
       <c r="D133" s="14" t="s">
-        <v>419</v>
+        <v>411</v>
       </c>
       <c r="E133" s="14" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="F133" s="14" t="s">
-        <v>333</v>
+        <v>317</v>
       </c>
       <c r="G133" s="14" t="s">
-        <v>692</v>
+        <v>679</v>
       </c>
       <c r="H133" s="14"/>
       <c r="I133" s="15" t="s">
-        <v>334</v>
+        <v>318</v>
       </c>
       <c r="J133" s="17" t="s">
-        <v>693</v>
+        <v>680</v>
       </c>
       <c r="K133" s="14"/>
     </row>
@@ -14930,29 +15062,29 @@
         <v>278</v>
       </c>
       <c r="B134" s="14" t="s">
-        <v>329</v>
+        <v>315</v>
       </c>
       <c r="C134" s="14" t="s">
-        <v>335</v>
+        <v>720</v>
       </c>
       <c r="D134" s="14" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="E134" s="14" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="F134" s="14" t="s">
-        <v>336</v>
+        <v>767</v>
       </c>
       <c r="G134" s="14" t="s">
-        <v>694</v>
+        <v>768</v>
       </c>
       <c r="H134" s="14"/>
-      <c r="I134" s="15" t="s">
-        <v>337</v>
+      <c r="I134" s="29" t="s">
+        <v>769</v>
       </c>
       <c r="J134" s="17" t="s">
-        <v>695</v>
+        <v>770</v>
       </c>
       <c r="K134" s="14"/>
     </row>
@@ -14961,29 +15093,29 @@
         <v>278</v>
       </c>
       <c r="B135" s="14" t="s">
-        <v>329</v>
+        <v>315</v>
       </c>
       <c r="C135" s="14" t="s">
-        <v>338</v>
+        <v>791</v>
       </c>
       <c r="D135" s="14" t="s">
-        <v>117</v>
+        <v>411</v>
       </c>
       <c r="E135" s="14" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="F135" s="14" t="s">
-        <v>339</v>
+        <v>792</v>
       </c>
       <c r="G135" s="14" t="s">
-        <v>696</v>
+        <v>793</v>
       </c>
       <c r="H135" s="14"/>
-      <c r="I135" s="15" t="s">
-        <v>340</v>
+      <c r="I135" s="29" t="s">
+        <v>794</v>
       </c>
       <c r="J135" s="17" t="s">
-        <v>697</v>
+        <v>795</v>
       </c>
       <c r="K135" s="14"/>
     </row>
@@ -14992,29 +15124,29 @@
         <v>278</v>
       </c>
       <c r="B136" s="14" t="s">
-        <v>329</v>
+        <v>319</v>
       </c>
       <c r="C136" s="14" t="s">
-        <v>341</v>
+        <v>320</v>
       </c>
       <c r="D136" s="14" t="s">
-        <v>342</v>
+        <v>411</v>
       </c>
       <c r="E136" s="14" t="s">
         <v>14</v>
       </c>
       <c r="F136" s="14" t="s">
-        <v>343</v>
+        <v>681</v>
       </c>
       <c r="G136" s="14" t="s">
-        <v>698</v>
+        <v>682</v>
       </c>
       <c r="H136" s="14"/>
-      <c r="I136" s="15" t="s">
-        <v>344</v>
+      <c r="I136" s="16" t="s">
+        <v>683</v>
       </c>
       <c r="J136" s="17" t="s">
-        <v>699</v>
+        <v>684</v>
       </c>
       <c r="K136" s="14"/>
     </row>
@@ -15023,29 +15155,29 @@
         <v>278</v>
       </c>
       <c r="B137" s="14" t="s">
-        <v>329</v>
+        <v>319</v>
       </c>
       <c r="C137" s="14" t="s">
-        <v>345</v>
+        <v>323</v>
       </c>
       <c r="D137" s="14" t="s">
-        <v>47</v>
+        <v>411</v>
       </c>
       <c r="E137" s="14" t="s">
         <v>14</v>
       </c>
       <c r="F137" s="14" t="s">
-        <v>346</v>
+        <v>324</v>
       </c>
       <c r="G137" s="14" t="s">
-        <v>700</v>
+        <v>685</v>
       </c>
       <c r="H137" s="14"/>
       <c r="I137" s="15" t="s">
-        <v>347</v>
+        <v>325</v>
       </c>
       <c r="J137" s="17" t="s">
-        <v>701</v>
+        <v>686</v>
       </c>
       <c r="K137" s="14"/>
     </row>
@@ -15054,29 +15186,29 @@
         <v>278</v>
       </c>
       <c r="B138" s="14" t="s">
-        <v>348</v>
+        <v>319</v>
       </c>
       <c r="C138" s="14" t="s">
-        <v>349</v>
+        <v>687</v>
       </c>
       <c r="D138" s="14" t="s">
-        <v>75</v>
+        <v>411</v>
       </c>
       <c r="E138" s="14" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="F138" s="14" t="s">
-        <v>350</v>
+        <v>327</v>
       </c>
       <c r="G138" s="14" t="s">
-        <v>702</v>
+        <v>688</v>
       </c>
       <c r="H138" s="14"/>
       <c r="I138" s="15" t="s">
-        <v>351</v>
+        <v>328</v>
       </c>
       <c r="J138" s="17" t="s">
-        <v>703</v>
+        <v>689</v>
       </c>
       <c r="K138" s="14"/>
     </row>
@@ -15085,29 +15217,29 @@
         <v>278</v>
       </c>
       <c r="B139" s="14" t="s">
-        <v>348</v>
+        <v>329</v>
       </c>
       <c r="C139" s="14" t="s">
-        <v>704</v>
+        <v>167</v>
       </c>
       <c r="D139" s="14" t="s">
-        <v>419</v>
+        <v>411</v>
       </c>
       <c r="E139" s="14" t="s">
         <v>25</v>
       </c>
       <c r="F139" s="14" t="s">
-        <v>353</v>
+        <v>330</v>
       </c>
       <c r="G139" s="14" t="s">
-        <v>705</v>
+        <v>690</v>
       </c>
       <c r="H139" s="14"/>
-      <c r="I139" s="16" t="s">
-        <v>354</v>
+      <c r="I139" s="15" t="s">
+        <v>331</v>
       </c>
       <c r="J139" s="17" t="s">
-        <v>706</v>
+        <v>691</v>
       </c>
       <c r="K139" s="14"/>
     </row>
@@ -15116,29 +15248,29 @@
         <v>278</v>
       </c>
       <c r="B140" s="14" t="s">
-        <v>355</v>
+        <v>329</v>
       </c>
       <c r="C140" s="14" t="s">
-        <v>302</v>
+        <v>332</v>
       </c>
       <c r="D140" s="14" t="s">
-        <v>117</v>
+        <v>419</v>
       </c>
       <c r="E140" s="14" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="F140" s="14" t="s">
-        <v>356</v>
+        <v>333</v>
       </c>
       <c r="G140" s="14" t="s">
-        <v>707</v>
+        <v>692</v>
       </c>
       <c r="H140" s="14"/>
       <c r="I140" s="15" t="s">
-        <v>357</v>
+        <v>334</v>
       </c>
       <c r="J140" s="17" t="s">
-        <v>708</v>
+        <v>693</v>
       </c>
       <c r="K140" s="14"/>
     </row>
@@ -15147,29 +15279,29 @@
         <v>278</v>
       </c>
       <c r="B141" s="14" t="s">
-        <v>355</v>
+        <v>329</v>
       </c>
       <c r="C141" s="14" t="s">
-        <v>358</v>
+        <v>335</v>
       </c>
       <c r="D141" s="14" t="s">
-        <v>411</v>
+        <v>47</v>
       </c>
       <c r="E141" s="14" t="s">
         <v>25</v>
       </c>
       <c r="F141" s="14" t="s">
-        <v>359</v>
+        <v>336</v>
       </c>
       <c r="G141" s="14" t="s">
-        <v>709</v>
+        <v>694</v>
       </c>
       <c r="H141" s="14"/>
       <c r="I141" s="15" t="s">
-        <v>360</v>
+        <v>337</v>
       </c>
       <c r="J141" s="17" t="s">
-        <v>710</v>
+        <v>695</v>
       </c>
       <c r="K141" s="14"/>
     </row>
@@ -15178,29 +15310,29 @@
         <v>278</v>
       </c>
       <c r="B142" s="14" t="s">
-        <v>355</v>
+        <v>329</v>
       </c>
       <c r="C142" s="14" t="s">
-        <v>723</v>
+        <v>338</v>
       </c>
       <c r="D142" s="14" t="s">
-        <v>51</v>
+        <v>117</v>
       </c>
       <c r="E142" s="14" t="s">
         <v>39</v>
       </c>
       <c r="F142" s="14" t="s">
-        <v>771</v>
+        <v>339</v>
       </c>
       <c r="G142" s="14" t="s">
-        <v>772</v>
+        <v>696</v>
       </c>
       <c r="H142" s="14"/>
-      <c r="I142" s="29" t="s">
-        <v>773</v>
+      <c r="I142" s="15" t="s">
+        <v>340</v>
       </c>
       <c r="J142" s="17" t="s">
-        <v>774</v>
+        <v>697</v>
       </c>
       <c r="K142" s="14"/>
     </row>
@@ -15209,29 +15341,29 @@
         <v>278</v>
       </c>
       <c r="B143" s="14" t="s">
-        <v>711</v>
-      </c>
-      <c r="C143" s="17" t="s">
-        <v>712</v>
+        <v>329</v>
+      </c>
+      <c r="C143" s="14" t="s">
+        <v>341</v>
       </c>
       <c r="D143" s="14" t="s">
-        <v>411</v>
+        <v>342</v>
       </c>
       <c r="E143" s="14" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="F143" s="14" t="s">
-        <v>713</v>
+        <v>343</v>
       </c>
       <c r="G143" s="14" t="s">
-        <v>714</v>
+        <v>698</v>
       </c>
       <c r="H143" s="14"/>
       <c r="I143" s="15" t="s">
-        <v>715</v>
+        <v>344</v>
       </c>
       <c r="J143" s="17" t="s">
-        <v>716</v>
+        <v>699</v>
       </c>
       <c r="K143" s="14"/>
     </row>
@@ -15240,62 +15372,279 @@
         <v>278</v>
       </c>
       <c r="B144" s="14" t="s">
-        <v>361</v>
-      </c>
-      <c r="C144" s="17" t="s">
-        <v>362</v>
+        <v>329</v>
+      </c>
+      <c r="C144" s="14" t="s">
+        <v>345</v>
       </c>
       <c r="D144" s="14" t="s">
-        <v>419</v>
+        <v>47</v>
       </c>
       <c r="E144" s="14" t="s">
         <v>14</v>
       </c>
       <c r="F144" s="14" t="s">
-        <v>363</v>
+        <v>346</v>
       </c>
       <c r="G144" s="14" t="s">
-        <v>717</v>
+        <v>700</v>
       </c>
       <c r="H144" s="14"/>
       <c r="I144" s="15" t="s">
-        <v>364</v>
+        <v>347</v>
       </c>
       <c r="J144" s="17" t="s">
-        <v>718</v>
+        <v>701</v>
       </c>
       <c r="K144" s="14"/>
     </row>
-    <row r="145" spans="1:11" ht="15.75" customHeight="1">
+    <row r="145" spans="1:11" ht="13">
       <c r="A145" s="14" t="s">
-        <v>775</v>
+        <v>278</v>
       </c>
       <c r="B145" s="14" t="s">
-        <v>777</v>
+        <v>348</v>
       </c>
       <c r="C145" s="14" t="s">
-        <v>725</v>
+        <v>349</v>
       </c>
       <c r="D145" s="14" t="s">
-        <v>411</v>
+        <v>75</v>
       </c>
       <c r="E145" s="14" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="F145" s="14" t="s">
-        <v>776</v>
+        <v>350</v>
       </c>
       <c r="G145" s="14" t="s">
-        <v>778</v>
+        <v>702</v>
       </c>
       <c r="H145" s="14"/>
       <c r="I145" s="29" t="s">
+        <v>862</v>
+      </c>
+      <c r="J145" s="17" t="s">
+        <v>703</v>
+      </c>
+      <c r="K145" s="14"/>
+    </row>
+    <row r="146" spans="1:11" ht="13">
+      <c r="A146" s="14" t="s">
+        <v>278</v>
+      </c>
+      <c r="B146" s="14" t="s">
+        <v>348</v>
+      </c>
+      <c r="C146" s="14" t="s">
+        <v>704</v>
+      </c>
+      <c r="D146" s="14" t="s">
+        <v>419</v>
+      </c>
+      <c r="E146" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="F146" s="14" t="s">
+        <v>353</v>
+      </c>
+      <c r="G146" s="14" t="s">
+        <v>705</v>
+      </c>
+      <c r="H146" s="14"/>
+      <c r="I146" s="16" t="s">
+        <v>354</v>
+      </c>
+      <c r="J146" s="17" t="s">
+        <v>706</v>
+      </c>
+      <c r="K146" s="14"/>
+    </row>
+    <row r="147" spans="1:11" ht="13">
+      <c r="A147" s="14" t="s">
+        <v>278</v>
+      </c>
+      <c r="B147" s="14" t="s">
+        <v>355</v>
+      </c>
+      <c r="C147" s="14" t="s">
+        <v>302</v>
+      </c>
+      <c r="D147" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="E147" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="F147" s="14" t="s">
+        <v>356</v>
+      </c>
+      <c r="G147" s="14" t="s">
+        <v>707</v>
+      </c>
+      <c r="H147" s="14"/>
+      <c r="I147" s="15" t="s">
+        <v>357</v>
+      </c>
+      <c r="J147" s="17" t="s">
+        <v>708</v>
+      </c>
+      <c r="K147" s="14"/>
+    </row>
+    <row r="148" spans="1:11" ht="13">
+      <c r="A148" s="14" t="s">
+        <v>278</v>
+      </c>
+      <c r="B148" s="14" t="s">
+        <v>355</v>
+      </c>
+      <c r="C148" s="14" t="s">
+        <v>358</v>
+      </c>
+      <c r="D148" s="14" t="s">
+        <v>411</v>
+      </c>
+      <c r="E148" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="F148" s="14" t="s">
+        <v>359</v>
+      </c>
+      <c r="G148" s="14" t="s">
+        <v>709</v>
+      </c>
+      <c r="H148" s="14"/>
+      <c r="I148" s="15" t="s">
+        <v>360</v>
+      </c>
+      <c r="J148" s="17" t="s">
+        <v>710</v>
+      </c>
+      <c r="K148" s="14"/>
+    </row>
+    <row r="149" spans="1:11" ht="13">
+      <c r="A149" s="14" t="s">
+        <v>278</v>
+      </c>
+      <c r="B149" s="14" t="s">
+        <v>355</v>
+      </c>
+      <c r="C149" s="14" t="s">
+        <v>723</v>
+      </c>
+      <c r="D149" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="E149" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="F149" s="14" t="s">
+        <v>771</v>
+      </c>
+      <c r="G149" s="14" t="s">
+        <v>772</v>
+      </c>
+      <c r="H149" s="14"/>
+      <c r="I149" s="29" t="s">
+        <v>773</v>
+      </c>
+      <c r="J149" s="17" t="s">
+        <v>774</v>
+      </c>
+      <c r="K149" s="14"/>
+    </row>
+    <row r="150" spans="1:11" ht="13">
+      <c r="A150" s="14" t="s">
+        <v>278</v>
+      </c>
+      <c r="B150" s="14" t="s">
+        <v>711</v>
+      </c>
+      <c r="C150" s="17" t="s">
+        <v>712</v>
+      </c>
+      <c r="D150" s="14" t="s">
+        <v>411</v>
+      </c>
+      <c r="E150" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="F150" s="14" t="s">
+        <v>713</v>
+      </c>
+      <c r="G150" s="14" t="s">
+        <v>714</v>
+      </c>
+      <c r="H150" s="14"/>
+      <c r="I150" s="15" t="s">
+        <v>715</v>
+      </c>
+      <c r="J150" s="17" t="s">
+        <v>716</v>
+      </c>
+      <c r="K150" s="14"/>
+    </row>
+    <row r="151" spans="1:11" ht="13">
+      <c r="A151" s="14" t="s">
+        <v>278</v>
+      </c>
+      <c r="B151" s="14" t="s">
+        <v>361</v>
+      </c>
+      <c r="C151" s="17" t="s">
+        <v>362</v>
+      </c>
+      <c r="D151" s="14" t="s">
+        <v>419</v>
+      </c>
+      <c r="E151" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="F151" s="14" t="s">
+        <v>363</v>
+      </c>
+      <c r="G151" s="14" t="s">
+        <v>717</v>
+      </c>
+      <c r="H151" s="14"/>
+      <c r="I151" s="15" t="s">
+        <v>364</v>
+      </c>
+      <c r="J151" s="17" t="s">
+        <v>718</v>
+      </c>
+      <c r="K151" s="14"/>
+    </row>
+    <row r="152" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A152" s="14" t="s">
+        <v>775</v>
+      </c>
+      <c r="B152" s="14" t="s">
+        <v>777</v>
+      </c>
+      <c r="C152" s="14" t="s">
+        <v>725</v>
+      </c>
+      <c r="D152" s="14" t="s">
+        <v>411</v>
+      </c>
+      <c r="E152" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="F152" s="14" t="s">
+        <v>776</v>
+      </c>
+      <c r="G152" s="14" t="s">
+        <v>778</v>
+      </c>
+      <c r="H152" s="14"/>
+      <c r="I152" s="29" t="s">
         <v>779</v>
       </c>
-      <c r="J145" s="17" t="s">
+      <c r="J152" s="17" t="s">
         <v>780</v>
       </c>
-      <c r="K145" s="14"/>
+      <c r="K152" s="14"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -15324,125 +15673,132 @@
     <hyperlink ref="I26" r:id="rId23" xr:uid="{00000000-0004-0000-0100-000016000000}"/>
     <hyperlink ref="I27" r:id="rId24" xr:uid="{00000000-0004-0000-0100-000017000000}"/>
     <hyperlink ref="I28" r:id="rId25" xr:uid="{00000000-0004-0000-0100-000018000000}"/>
-    <hyperlink ref="I29" r:id="rId26" xr:uid="{00000000-0004-0000-0100-000019000000}"/>
-    <hyperlink ref="I30" r:id="rId27" xr:uid="{00000000-0004-0000-0100-00001A000000}"/>
-    <hyperlink ref="I31" r:id="rId28" xr:uid="{00000000-0004-0000-0100-00001B000000}"/>
-    <hyperlink ref="I32" r:id="rId29" xr:uid="{00000000-0004-0000-0100-00001C000000}"/>
-    <hyperlink ref="I33" r:id="rId30" xr:uid="{00000000-0004-0000-0100-00001D000000}"/>
-    <hyperlink ref="I34" r:id="rId31" xr:uid="{00000000-0004-0000-0100-00001E000000}"/>
-    <hyperlink ref="I35" r:id="rId32" xr:uid="{00000000-0004-0000-0100-00001F000000}"/>
-    <hyperlink ref="I38" r:id="rId33" xr:uid="{00000000-0004-0000-0100-000020000000}"/>
-    <hyperlink ref="I39" r:id="rId34" xr:uid="{00000000-0004-0000-0100-000021000000}"/>
-    <hyperlink ref="I40" r:id="rId35" xr:uid="{00000000-0004-0000-0100-000022000000}"/>
-    <hyperlink ref="I41" r:id="rId36" xr:uid="{00000000-0004-0000-0100-000023000000}"/>
-    <hyperlink ref="I42" r:id="rId37" xr:uid="{00000000-0004-0000-0100-000024000000}"/>
-    <hyperlink ref="I43" r:id="rId38" xr:uid="{00000000-0004-0000-0100-000025000000}"/>
-    <hyperlink ref="I44" r:id="rId39" xr:uid="{00000000-0004-0000-0100-000026000000}"/>
-    <hyperlink ref="I45" r:id="rId40" xr:uid="{00000000-0004-0000-0100-000027000000}"/>
-    <hyperlink ref="I46" r:id="rId41" xr:uid="{00000000-0004-0000-0100-000028000000}"/>
-    <hyperlink ref="I47" r:id="rId42" xr:uid="{00000000-0004-0000-0100-000029000000}"/>
-    <hyperlink ref="I48" r:id="rId43" xr:uid="{00000000-0004-0000-0100-00002A000000}"/>
-    <hyperlink ref="I49" r:id="rId44" xr:uid="{00000000-0004-0000-0100-00002B000000}"/>
-    <hyperlink ref="I50" r:id="rId45" xr:uid="{00000000-0004-0000-0100-00002C000000}"/>
-    <hyperlink ref="I51" r:id="rId46" xr:uid="{00000000-0004-0000-0100-00002D000000}"/>
-    <hyperlink ref="I52" r:id="rId47" xr:uid="{00000000-0004-0000-0100-00002E000000}"/>
-    <hyperlink ref="I53" r:id="rId48" xr:uid="{00000000-0004-0000-0100-00002F000000}"/>
-    <hyperlink ref="I58" r:id="rId49" xr:uid="{00000000-0004-0000-0100-000030000000}"/>
-    <hyperlink ref="I59" r:id="rId50" xr:uid="{00000000-0004-0000-0100-000031000000}"/>
-    <hyperlink ref="I60" r:id="rId51" xr:uid="{00000000-0004-0000-0100-000032000000}"/>
-    <hyperlink ref="I61" r:id="rId52" xr:uid="{00000000-0004-0000-0100-000033000000}"/>
-    <hyperlink ref="I62" r:id="rId53" xr:uid="{00000000-0004-0000-0100-000034000000}"/>
-    <hyperlink ref="I64" r:id="rId54" xr:uid="{00000000-0004-0000-0100-000035000000}"/>
-    <hyperlink ref="I65" r:id="rId55" xr:uid="{00000000-0004-0000-0100-000036000000}"/>
-    <hyperlink ref="I66" r:id="rId56" xr:uid="{00000000-0004-0000-0100-000037000000}"/>
-    <hyperlink ref="I67" r:id="rId57" xr:uid="{00000000-0004-0000-0100-000038000000}"/>
-    <hyperlink ref="I68" r:id="rId58" xr:uid="{00000000-0004-0000-0100-000039000000}"/>
-    <hyperlink ref="I69" r:id="rId59" xr:uid="{00000000-0004-0000-0100-00003A000000}"/>
-    <hyperlink ref="I70" r:id="rId60" xr:uid="{00000000-0004-0000-0100-00003B000000}"/>
-    <hyperlink ref="I71" r:id="rId61" xr:uid="{00000000-0004-0000-0100-00003C000000}"/>
-    <hyperlink ref="I72" r:id="rId62" xr:uid="{00000000-0004-0000-0100-00003D000000}"/>
-    <hyperlink ref="I73" r:id="rId63" xr:uid="{00000000-0004-0000-0100-00003E000000}"/>
-    <hyperlink ref="I74" r:id="rId64" xr:uid="{00000000-0004-0000-0100-00003F000000}"/>
-    <hyperlink ref="I75" r:id="rId65" xr:uid="{00000000-0004-0000-0100-000040000000}"/>
-    <hyperlink ref="I77" r:id="rId66" xr:uid="{00000000-0004-0000-0100-000041000000}"/>
-    <hyperlink ref="I78" r:id="rId67" xr:uid="{00000000-0004-0000-0100-000042000000}"/>
-    <hyperlink ref="I80" r:id="rId68" xr:uid="{00000000-0004-0000-0100-000043000000}"/>
-    <hyperlink ref="I81" r:id="rId69" xr:uid="{00000000-0004-0000-0100-000044000000}"/>
-    <hyperlink ref="I82" r:id="rId70" xr:uid="{00000000-0004-0000-0100-000045000000}"/>
-    <hyperlink ref="I83" r:id="rId71" xr:uid="{00000000-0004-0000-0100-000046000000}"/>
-    <hyperlink ref="I84" r:id="rId72" xr:uid="{00000000-0004-0000-0100-000047000000}"/>
-    <hyperlink ref="I85" r:id="rId73" xr:uid="{00000000-0004-0000-0100-000048000000}"/>
-    <hyperlink ref="I86" r:id="rId74" xr:uid="{00000000-0004-0000-0100-000049000000}"/>
-    <hyperlink ref="I87" r:id="rId75" xr:uid="{00000000-0004-0000-0100-00004A000000}"/>
-    <hyperlink ref="I88" r:id="rId76" xr:uid="{00000000-0004-0000-0100-00004B000000}"/>
-    <hyperlink ref="I89" r:id="rId77" xr:uid="{00000000-0004-0000-0100-00004C000000}"/>
-    <hyperlink ref="I91" r:id="rId78" xr:uid="{00000000-0004-0000-0100-00004D000000}"/>
-    <hyperlink ref="I93" r:id="rId79" xr:uid="{00000000-0004-0000-0100-00004E000000}"/>
-    <hyperlink ref="I94" r:id="rId80" xr:uid="{00000000-0004-0000-0100-00004F000000}"/>
-    <hyperlink ref="I95" r:id="rId81" xr:uid="{00000000-0004-0000-0100-000050000000}"/>
-    <hyperlink ref="I96" r:id="rId82" xr:uid="{00000000-0004-0000-0100-000051000000}"/>
-    <hyperlink ref="I97" r:id="rId83" xr:uid="{00000000-0004-0000-0100-000052000000}"/>
-    <hyperlink ref="I98" r:id="rId84" xr:uid="{00000000-0004-0000-0100-000053000000}"/>
-    <hyperlink ref="I99" r:id="rId85" xr:uid="{00000000-0004-0000-0100-000054000000}"/>
-    <hyperlink ref="I100" r:id="rId86" xr:uid="{00000000-0004-0000-0100-000055000000}"/>
-    <hyperlink ref="I103" r:id="rId87" xr:uid="{00000000-0004-0000-0100-000056000000}"/>
-    <hyperlink ref="I105" r:id="rId88" xr:uid="{00000000-0004-0000-0100-000057000000}"/>
-    <hyperlink ref="I106" r:id="rId89" xr:uid="{00000000-0004-0000-0100-000058000000}"/>
-    <hyperlink ref="I107" r:id="rId90" xr:uid="{00000000-0004-0000-0100-000059000000}"/>
-    <hyperlink ref="I108" r:id="rId91" xr:uid="{00000000-0004-0000-0100-00005A000000}"/>
-    <hyperlink ref="I109" r:id="rId92" xr:uid="{00000000-0004-0000-0100-00005B000000}"/>
-    <hyperlink ref="I110" r:id="rId93" xr:uid="{00000000-0004-0000-0100-00005C000000}"/>
-    <hyperlink ref="I111" r:id="rId94" xr:uid="{00000000-0004-0000-0100-00005D000000}"/>
-    <hyperlink ref="I112" r:id="rId95" xr:uid="{00000000-0004-0000-0100-00005E000000}"/>
-    <hyperlink ref="I113" r:id="rId96" xr:uid="{00000000-0004-0000-0100-00005F000000}"/>
-    <hyperlink ref="I114" r:id="rId97" xr:uid="{00000000-0004-0000-0100-000060000000}"/>
-    <hyperlink ref="I115" r:id="rId98" xr:uid="{00000000-0004-0000-0100-000061000000}"/>
-    <hyperlink ref="I116" r:id="rId99" xr:uid="{00000000-0004-0000-0100-000062000000}"/>
-    <hyperlink ref="I117" r:id="rId100" xr:uid="{00000000-0004-0000-0100-000063000000}"/>
-    <hyperlink ref="I118" r:id="rId101" xr:uid="{00000000-0004-0000-0100-000064000000}"/>
-    <hyperlink ref="I120" r:id="rId102" xr:uid="{00000000-0004-0000-0100-000065000000}"/>
-    <hyperlink ref="I121" r:id="rId103" xr:uid="{00000000-0004-0000-0100-000066000000}"/>
-    <hyperlink ref="I122" r:id="rId104" xr:uid="{00000000-0004-0000-0100-000067000000}"/>
-    <hyperlink ref="I123" r:id="rId105" xr:uid="{00000000-0004-0000-0100-000068000000}"/>
-    <hyperlink ref="I126" r:id="rId106" xr:uid="{00000000-0004-0000-0100-00006A000000}"/>
-    <hyperlink ref="I129" r:id="rId107" xr:uid="{00000000-0004-0000-0100-00006B000000}"/>
-    <hyperlink ref="I130" r:id="rId108" xr:uid="{00000000-0004-0000-0100-00006C000000}"/>
-    <hyperlink ref="I131" r:id="rId109" xr:uid="{00000000-0004-0000-0100-00006D000000}"/>
-    <hyperlink ref="I132" r:id="rId110" xr:uid="{00000000-0004-0000-0100-00006E000000}"/>
-    <hyperlink ref="I133" r:id="rId111" xr:uid="{00000000-0004-0000-0100-00006F000000}"/>
-    <hyperlink ref="I134" r:id="rId112" xr:uid="{00000000-0004-0000-0100-000070000000}"/>
-    <hyperlink ref="I135" r:id="rId113" xr:uid="{00000000-0004-0000-0100-000071000000}"/>
-    <hyperlink ref="I136" r:id="rId114" xr:uid="{00000000-0004-0000-0100-000072000000}"/>
-    <hyperlink ref="I137" r:id="rId115" xr:uid="{00000000-0004-0000-0100-000073000000}"/>
-    <hyperlink ref="I138" r:id="rId116" xr:uid="{00000000-0004-0000-0100-000074000000}"/>
-    <hyperlink ref="I139" r:id="rId117" xr:uid="{00000000-0004-0000-0100-000075000000}"/>
-    <hyperlink ref="I140" r:id="rId118" xr:uid="{00000000-0004-0000-0100-000076000000}"/>
-    <hyperlink ref="I141" r:id="rId119" xr:uid="{00000000-0004-0000-0100-000077000000}"/>
-    <hyperlink ref="I143" r:id="rId120" xr:uid="{00000000-0004-0000-0100-000078000000}"/>
-    <hyperlink ref="I144" r:id="rId121" xr:uid="{00000000-0004-0000-0100-000079000000}"/>
+    <hyperlink ref="I30" r:id="rId26" xr:uid="{00000000-0004-0000-0100-000019000000}"/>
+    <hyperlink ref="I31" r:id="rId27" xr:uid="{00000000-0004-0000-0100-00001A000000}"/>
+    <hyperlink ref="I32" r:id="rId28" xr:uid="{00000000-0004-0000-0100-00001B000000}"/>
+    <hyperlink ref="I33" r:id="rId29" xr:uid="{00000000-0004-0000-0100-00001C000000}"/>
+    <hyperlink ref="I34" r:id="rId30" xr:uid="{00000000-0004-0000-0100-00001D000000}"/>
+    <hyperlink ref="I35" r:id="rId31" xr:uid="{00000000-0004-0000-0100-00001E000000}"/>
+    <hyperlink ref="I36" r:id="rId32" xr:uid="{00000000-0004-0000-0100-00001F000000}"/>
+    <hyperlink ref="I39" r:id="rId33" xr:uid="{00000000-0004-0000-0100-000020000000}"/>
+    <hyperlink ref="I40" r:id="rId34" xr:uid="{00000000-0004-0000-0100-000021000000}"/>
+    <hyperlink ref="I42" r:id="rId35" xr:uid="{00000000-0004-0000-0100-000022000000}"/>
+    <hyperlink ref="I43" r:id="rId36" xr:uid="{00000000-0004-0000-0100-000023000000}"/>
+    <hyperlink ref="I44" r:id="rId37" xr:uid="{00000000-0004-0000-0100-000024000000}"/>
+    <hyperlink ref="I45" r:id="rId38" xr:uid="{00000000-0004-0000-0100-000025000000}"/>
+    <hyperlink ref="I46" r:id="rId39" xr:uid="{00000000-0004-0000-0100-000026000000}"/>
+    <hyperlink ref="I47" r:id="rId40" xr:uid="{00000000-0004-0000-0100-000027000000}"/>
+    <hyperlink ref="I48" r:id="rId41" xr:uid="{00000000-0004-0000-0100-000028000000}"/>
+    <hyperlink ref="I49" r:id="rId42" xr:uid="{00000000-0004-0000-0100-000029000000}"/>
+    <hyperlink ref="I50" r:id="rId43" xr:uid="{00000000-0004-0000-0100-00002A000000}"/>
+    <hyperlink ref="I51" r:id="rId44" xr:uid="{00000000-0004-0000-0100-00002B000000}"/>
+    <hyperlink ref="I52" r:id="rId45" xr:uid="{00000000-0004-0000-0100-00002C000000}"/>
+    <hyperlink ref="I54" r:id="rId46" xr:uid="{00000000-0004-0000-0100-00002D000000}"/>
+    <hyperlink ref="I55" r:id="rId47" xr:uid="{00000000-0004-0000-0100-00002E000000}"/>
+    <hyperlink ref="I56" r:id="rId48" xr:uid="{00000000-0004-0000-0100-00002F000000}"/>
+    <hyperlink ref="I61" r:id="rId49" xr:uid="{00000000-0004-0000-0100-000030000000}"/>
+    <hyperlink ref="I62" r:id="rId50" xr:uid="{00000000-0004-0000-0100-000031000000}"/>
+    <hyperlink ref="I63" r:id="rId51" xr:uid="{00000000-0004-0000-0100-000032000000}"/>
+    <hyperlink ref="I64" r:id="rId52" xr:uid="{00000000-0004-0000-0100-000033000000}"/>
+    <hyperlink ref="I65" r:id="rId53" xr:uid="{00000000-0004-0000-0100-000034000000}"/>
+    <hyperlink ref="I68" r:id="rId54" xr:uid="{00000000-0004-0000-0100-000035000000}"/>
+    <hyperlink ref="I69" r:id="rId55" xr:uid="{00000000-0004-0000-0100-000036000000}"/>
+    <hyperlink ref="I70" r:id="rId56" xr:uid="{00000000-0004-0000-0100-000037000000}"/>
+    <hyperlink ref="I71" r:id="rId57" xr:uid="{00000000-0004-0000-0100-000038000000}"/>
+    <hyperlink ref="I72" r:id="rId58" xr:uid="{00000000-0004-0000-0100-000039000000}"/>
+    <hyperlink ref="I73" r:id="rId59" xr:uid="{00000000-0004-0000-0100-00003A000000}"/>
+    <hyperlink ref="I74" r:id="rId60" xr:uid="{00000000-0004-0000-0100-00003B000000}"/>
+    <hyperlink ref="I75" r:id="rId61" xr:uid="{00000000-0004-0000-0100-00003C000000}"/>
+    <hyperlink ref="I76" r:id="rId62" xr:uid="{00000000-0004-0000-0100-00003D000000}"/>
+    <hyperlink ref="I77" r:id="rId63" xr:uid="{00000000-0004-0000-0100-00003E000000}"/>
+    <hyperlink ref="I78" r:id="rId64" xr:uid="{00000000-0004-0000-0100-00003F000000}"/>
+    <hyperlink ref="I79" r:id="rId65" xr:uid="{00000000-0004-0000-0100-000040000000}"/>
+    <hyperlink ref="I81" r:id="rId66" xr:uid="{00000000-0004-0000-0100-000041000000}"/>
+    <hyperlink ref="I82" r:id="rId67" xr:uid="{00000000-0004-0000-0100-000042000000}"/>
+    <hyperlink ref="I84" r:id="rId68" xr:uid="{00000000-0004-0000-0100-000043000000}"/>
+    <hyperlink ref="I85" r:id="rId69" xr:uid="{00000000-0004-0000-0100-000044000000}"/>
+    <hyperlink ref="I86" r:id="rId70" xr:uid="{00000000-0004-0000-0100-000045000000}"/>
+    <hyperlink ref="I87" r:id="rId71" xr:uid="{00000000-0004-0000-0100-000046000000}"/>
+    <hyperlink ref="I88" r:id="rId72" xr:uid="{00000000-0004-0000-0100-000047000000}"/>
+    <hyperlink ref="I89" r:id="rId73" xr:uid="{00000000-0004-0000-0100-000048000000}"/>
+    <hyperlink ref="I91" r:id="rId74" xr:uid="{00000000-0004-0000-0100-000049000000}"/>
+    <hyperlink ref="I92" r:id="rId75" xr:uid="{00000000-0004-0000-0100-00004A000000}"/>
+    <hyperlink ref="I93" r:id="rId76" xr:uid="{00000000-0004-0000-0100-00004B000000}"/>
+    <hyperlink ref="I94" r:id="rId77" xr:uid="{00000000-0004-0000-0100-00004C000000}"/>
+    <hyperlink ref="I96" r:id="rId78" xr:uid="{00000000-0004-0000-0100-00004D000000}"/>
+    <hyperlink ref="I98" r:id="rId79" xr:uid="{00000000-0004-0000-0100-00004E000000}"/>
+    <hyperlink ref="I99" r:id="rId80" xr:uid="{00000000-0004-0000-0100-00004F000000}"/>
+    <hyperlink ref="I100" r:id="rId81" xr:uid="{00000000-0004-0000-0100-000050000000}"/>
+    <hyperlink ref="I101" r:id="rId82" xr:uid="{00000000-0004-0000-0100-000051000000}"/>
+    <hyperlink ref="I102" r:id="rId83" xr:uid="{00000000-0004-0000-0100-000052000000}"/>
+    <hyperlink ref="I103" r:id="rId84" xr:uid="{00000000-0004-0000-0100-000053000000}"/>
+    <hyperlink ref="I104" r:id="rId85" xr:uid="{00000000-0004-0000-0100-000054000000}"/>
+    <hyperlink ref="I105" r:id="rId86" xr:uid="{00000000-0004-0000-0100-000055000000}"/>
+    <hyperlink ref="I109" r:id="rId87" xr:uid="{00000000-0004-0000-0100-000056000000}"/>
+    <hyperlink ref="I111" r:id="rId88" xr:uid="{00000000-0004-0000-0100-000057000000}"/>
+    <hyperlink ref="I112" r:id="rId89" xr:uid="{00000000-0004-0000-0100-000058000000}"/>
+    <hyperlink ref="I113" r:id="rId90" xr:uid="{00000000-0004-0000-0100-000059000000}"/>
+    <hyperlink ref="I114" r:id="rId91" xr:uid="{00000000-0004-0000-0100-00005A000000}"/>
+    <hyperlink ref="I115" r:id="rId92" xr:uid="{00000000-0004-0000-0100-00005B000000}"/>
+    <hyperlink ref="I116" r:id="rId93" xr:uid="{00000000-0004-0000-0100-00005C000000}"/>
+    <hyperlink ref="I117" r:id="rId94" xr:uid="{00000000-0004-0000-0100-00005D000000}"/>
+    <hyperlink ref="I118" r:id="rId95" xr:uid="{00000000-0004-0000-0100-00005E000000}"/>
+    <hyperlink ref="I119" r:id="rId96" xr:uid="{00000000-0004-0000-0100-00005F000000}"/>
+    <hyperlink ref="I120" r:id="rId97" xr:uid="{00000000-0004-0000-0100-000060000000}"/>
+    <hyperlink ref="I121" r:id="rId98" xr:uid="{00000000-0004-0000-0100-000061000000}"/>
+    <hyperlink ref="I122" r:id="rId99" xr:uid="{00000000-0004-0000-0100-000062000000}"/>
+    <hyperlink ref="I123" r:id="rId100" xr:uid="{00000000-0004-0000-0100-000063000000}"/>
+    <hyperlink ref="I124" r:id="rId101" xr:uid="{00000000-0004-0000-0100-000064000000}"/>
+    <hyperlink ref="I127" r:id="rId102" xr:uid="{00000000-0004-0000-0100-000065000000}"/>
+    <hyperlink ref="I128" r:id="rId103" xr:uid="{00000000-0004-0000-0100-000066000000}"/>
+    <hyperlink ref="I129" r:id="rId104" xr:uid="{00000000-0004-0000-0100-000067000000}"/>
+    <hyperlink ref="I130" r:id="rId105" xr:uid="{00000000-0004-0000-0100-000068000000}"/>
+    <hyperlink ref="I133" r:id="rId106" xr:uid="{00000000-0004-0000-0100-00006A000000}"/>
+    <hyperlink ref="I136" r:id="rId107" xr:uid="{00000000-0004-0000-0100-00006B000000}"/>
+    <hyperlink ref="I137" r:id="rId108" xr:uid="{00000000-0004-0000-0100-00006C000000}"/>
+    <hyperlink ref="I138" r:id="rId109" xr:uid="{00000000-0004-0000-0100-00006D000000}"/>
+    <hyperlink ref="I139" r:id="rId110" xr:uid="{00000000-0004-0000-0100-00006E000000}"/>
+    <hyperlink ref="I140" r:id="rId111" xr:uid="{00000000-0004-0000-0100-00006F000000}"/>
+    <hyperlink ref="I141" r:id="rId112" xr:uid="{00000000-0004-0000-0100-000070000000}"/>
+    <hyperlink ref="I142" r:id="rId113" xr:uid="{00000000-0004-0000-0100-000071000000}"/>
+    <hyperlink ref="I143" r:id="rId114" xr:uid="{00000000-0004-0000-0100-000072000000}"/>
+    <hyperlink ref="I144" r:id="rId115" xr:uid="{00000000-0004-0000-0100-000073000000}"/>
+    <hyperlink ref="I145" r:id="rId116" xr:uid="{00000000-0004-0000-0100-000074000000}"/>
+    <hyperlink ref="I146" r:id="rId117" xr:uid="{00000000-0004-0000-0100-000075000000}"/>
+    <hyperlink ref="I147" r:id="rId118" xr:uid="{00000000-0004-0000-0100-000076000000}"/>
+    <hyperlink ref="I148" r:id="rId119" xr:uid="{00000000-0004-0000-0100-000077000000}"/>
+    <hyperlink ref="I150" r:id="rId120" xr:uid="{00000000-0004-0000-0100-000078000000}"/>
+    <hyperlink ref="I151" r:id="rId121" xr:uid="{00000000-0004-0000-0100-000079000000}"/>
     <hyperlink ref="I17" r:id="rId122" xr:uid="{881F0F65-3DCC-E94A-9FE5-2CC264A8F337}"/>
     <hyperlink ref="I18" r:id="rId123" xr:uid="{AC40193A-1232-474A-A421-B55FFA7E99B8}"/>
-    <hyperlink ref="I36" r:id="rId124" xr:uid="{D41ADE90-9772-8F41-AC9B-8DE303E9D7A9}"/>
-    <hyperlink ref="I37" r:id="rId125" xr:uid="{85F37ABA-4B3B-764B-A1ED-9DD3AFFF0004}"/>
-    <hyperlink ref="I63" r:id="rId126" xr:uid="{F5E14AAB-D49A-EF45-A165-3757EFF2E9B4}"/>
-    <hyperlink ref="I79" r:id="rId127" xr:uid="{759707EA-D94A-2D42-8FE0-FAE01578CF99}"/>
-    <hyperlink ref="I104" r:id="rId128" xr:uid="{1A936B77-62AA-804C-B853-4343ADD2D925}"/>
-    <hyperlink ref="I124" r:id="rId129" xr:uid="{00000000-0004-0000-0100-000069000000}"/>
-    <hyperlink ref="I119" r:id="rId130" xr:uid="{2929B0EA-E15F-E444-ADC1-C2E3E232D526}"/>
-    <hyperlink ref="I125" r:id="rId131" xr:uid="{7770BE98-2823-3047-9E72-08DB2B79C177}"/>
-    <hyperlink ref="I127" r:id="rId132" xr:uid="{A91F97A2-47FA-FB49-8866-2B9AA1419B2B}"/>
-    <hyperlink ref="I142" r:id="rId133" xr:uid="{11EEE67C-10E9-AB44-91F6-D7C7B31697FA}"/>
-    <hyperlink ref="I145" r:id="rId134" xr:uid="{8E930EBE-7205-BD41-9ED8-FE8F970A98EF}"/>
-    <hyperlink ref="I128" r:id="rId135" xr:uid="{3AF5EB12-868F-C842-91DC-4FC147AA3C86}"/>
-    <hyperlink ref="I54" r:id="rId136" xr:uid="{7BDCEA69-27F3-FF41-BB2B-817D4FD2C9C0}"/>
-    <hyperlink ref="I55" r:id="rId137" xr:uid="{7A940ACA-466B-9E49-8CB5-9BA664F7C3C9}"/>
-    <hyperlink ref="I56" r:id="rId138" xr:uid="{088C717E-7DC5-EF4C-8C34-370DC45C6BEE}"/>
-    <hyperlink ref="I57" r:id="rId139" xr:uid="{A670C44A-19C9-984F-9EAA-8D5EBCE39C79}"/>
-    <hyperlink ref="I90" r:id="rId140" xr:uid="{713BB907-BFF9-AE42-B777-2AF591DA7D9B}"/>
-    <hyperlink ref="I92" r:id="rId141" xr:uid="{EC0C54FA-684B-A440-BF57-B5B57FDD99C9}"/>
-    <hyperlink ref="I101" r:id="rId142" xr:uid="{9081BA3E-9CF8-074E-BF5B-0F2FA156F0B7}"/>
-    <hyperlink ref="I102" r:id="rId143" xr:uid="{8C2FD4CC-DF59-734E-8449-EA5B9F5E7D3D}"/>
-    <hyperlink ref="I76" r:id="rId144" xr:uid="{9845498D-A3A6-524F-9A69-7DC2DB7F7639}"/>
+    <hyperlink ref="I37" r:id="rId124" xr:uid="{D41ADE90-9772-8F41-AC9B-8DE303E9D7A9}"/>
+    <hyperlink ref="I38" r:id="rId125" xr:uid="{85F37ABA-4B3B-764B-A1ED-9DD3AFFF0004}"/>
+    <hyperlink ref="I67" r:id="rId126" xr:uid="{F5E14AAB-D49A-EF45-A165-3757EFF2E9B4}"/>
+    <hyperlink ref="I83" r:id="rId127" xr:uid="{759707EA-D94A-2D42-8FE0-FAE01578CF99}"/>
+    <hyperlink ref="I110" r:id="rId128" xr:uid="{1A936B77-62AA-804C-B853-4343ADD2D925}"/>
+    <hyperlink ref="I131" r:id="rId129" xr:uid="{00000000-0004-0000-0100-000069000000}"/>
+    <hyperlink ref="I125" r:id="rId130" xr:uid="{2929B0EA-E15F-E444-ADC1-C2E3E232D526}"/>
+    <hyperlink ref="I132" r:id="rId131" xr:uid="{7770BE98-2823-3047-9E72-08DB2B79C177}"/>
+    <hyperlink ref="I134" r:id="rId132" xr:uid="{A91F97A2-47FA-FB49-8866-2B9AA1419B2B}"/>
+    <hyperlink ref="I149" r:id="rId133" xr:uid="{11EEE67C-10E9-AB44-91F6-D7C7B31697FA}"/>
+    <hyperlink ref="I152" r:id="rId134" xr:uid="{8E930EBE-7205-BD41-9ED8-FE8F970A98EF}"/>
+    <hyperlink ref="I135" r:id="rId135" xr:uid="{3AF5EB12-868F-C842-91DC-4FC147AA3C86}"/>
+    <hyperlink ref="I57" r:id="rId136" xr:uid="{7BDCEA69-27F3-FF41-BB2B-817D4FD2C9C0}"/>
+    <hyperlink ref="I58" r:id="rId137" xr:uid="{7A940ACA-466B-9E49-8CB5-9BA664F7C3C9}"/>
+    <hyperlink ref="I59" r:id="rId138" xr:uid="{088C717E-7DC5-EF4C-8C34-370DC45C6BEE}"/>
+    <hyperlink ref="I60" r:id="rId139" xr:uid="{A670C44A-19C9-984F-9EAA-8D5EBCE39C79}"/>
+    <hyperlink ref="I95" r:id="rId140" xr:uid="{713BB907-BFF9-AE42-B777-2AF591DA7D9B}"/>
+    <hyperlink ref="I97" r:id="rId141" xr:uid="{EC0C54FA-684B-A440-BF57-B5B57FDD99C9}"/>
+    <hyperlink ref="I107" r:id="rId142" xr:uid="{9081BA3E-9CF8-074E-BF5B-0F2FA156F0B7}"/>
+    <hyperlink ref="I108" r:id="rId143" xr:uid="{8C2FD4CC-DF59-734E-8449-EA5B9F5E7D3D}"/>
+    <hyperlink ref="I80" r:id="rId144" xr:uid="{9845498D-A3A6-524F-9A69-7DC2DB7F7639}"/>
+    <hyperlink ref="I106" r:id="rId145" xr:uid="{CFDD3EC3-C992-0E4C-8C8D-2A9AC6885E0B}"/>
+    <hyperlink ref="I90" r:id="rId146" xr:uid="{C634E917-B836-414F-BB3B-9A111E16653C}"/>
+    <hyperlink ref="I53" r:id="rId147" xr:uid="{8548A361-62F7-A648-BBBE-9F37385F0E45}"/>
+    <hyperlink ref="I66" r:id="rId148" xr:uid="{8EA062F9-78F8-A44B-BEDA-61CF758CB831}"/>
+    <hyperlink ref="I41" r:id="rId149" xr:uid="{7C7CB4D2-6B37-544C-B631-930D91F3AA17}"/>
+    <hyperlink ref="I126" r:id="rId150" xr:uid="{5694CC0C-366D-8848-BBD7-150B284E15DA}"/>
+    <hyperlink ref="I29" r:id="rId151" xr:uid="{7E8D5837-BD50-6844-B288-6217DFD05E29}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/docs/香港素食餐廳大全.xlsx
+++ b/docs/香港素食餐廳大全.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tim/_Python_OpenAI/My-projects/7-hk-veg-map/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{736ACF59-8C12-2D48-94A8-CA22F5085930}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{004FDD8A-D745-FE40-A6A1-2EAA890D54F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12400" yWindow="1040" windowWidth="16400" windowHeight="15760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9640" yWindow="500" windowWidth="16400" windowHeight="15760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="香港素食餐廳大全" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2010" uniqueCount="877">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2037" uniqueCount="892">
   <si>
     <t>** 更新自: 13 Aug 2023 (deprecated, go to sheet 2 "hk_veg_restaurants_data instead")</t>
   </si>
@@ -2652,6 +2652,51 @@
   </si>
   <si>
     <t>55008812</t>
+  </si>
+  <si>
+    <t>意素園</t>
+  </si>
+  <si>
+    <t>北角北角道10號北角亞太商業中心地下1號舖</t>
+  </si>
+  <si>
+    <t>22.29141537447339, 114.1967093731363</t>
+  </si>
+  <si>
+    <t>https://www.openrice.com/zh/hongkong/r-%E6%84%8F%E7%B4%A0%E5%9C%92-%E5%8C%97%E8%A7%92-%E7%B2%B5%E8%8F%9C-%E5%BB%A3%E6%9D%B1-%E7%B4%A0%E9%A3%9F-r785290</t>
+  </si>
+  <si>
+    <t>90363481</t>
+  </si>
+  <si>
+    <t>素食園坊</t>
+  </si>
+  <si>
+    <t>北角英皇道406-408號康威大廈地下3號舖</t>
+  </si>
+  <si>
+    <t>22.290595307097032, 114.1988781708931</t>
+  </si>
+  <si>
+    <t>https://www.openrice.com/zh/hongkong/r-%E7%B4%A0%E9%A3%9F%E5%9C%92%E5%9D%8A-%E5%8C%97%E8%A7%92-%E6%B8%AF%E5%BC%8F-%E7%B4%A0%E9%A3%9F-r666149</t>
+  </si>
+  <si>
+    <t>28779411</t>
+  </si>
+  <si>
+    <t>素回家</t>
+  </si>
+  <si>
+    <t>沙田牛皮沙街2號愉翠街市地下2-3號舖</t>
+  </si>
+  <si>
+    <t>22.38192557560017, 114.20533929104847</t>
+  </si>
+  <si>
+    <t>https://www.openrice.com/zh/hongkong/r-%E7%B4%A0%E5%9B%9E%E5%AE%B6-%E6%B2%99%E7%94%B0-%E7%B2%B5%E8%8F%9C-%E5%BB%A3%E6%9D%B1-%E7%B4%A0%E9%A3%9F-r718296</t>
+  </si>
+  <si>
+    <t>61449506</t>
   </si>
 </sst>
 </file>
@@ -10920,10 +10965,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:K152"/>
+  <dimension ref="A1:K155"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D10" zoomScale="108" workbookViewId="0">
-      <selection activeCell="J29" sqref="J29"/>
+    <sheetView tabSelected="1" topLeftCell="D119" zoomScale="108" workbookViewId="0">
+      <selection activeCell="J152" sqref="J152"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -12214,29 +12259,29 @@
         <v>10</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>121</v>
+        <v>882</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>411</v>
+        <v>117</v>
       </c>
       <c r="E42" s="5" t="s">
         <v>25</v>
       </c>
       <c r="F42" s="5" t="s">
-        <v>122</v>
+        <v>883</v>
       </c>
       <c r="G42" s="5" t="s">
-        <v>488</v>
+        <v>884</v>
       </c>
       <c r="H42" s="5"/>
-      <c r="I42" s="6" t="s">
-        <v>123</v>
+      <c r="I42" s="24" t="s">
+        <v>885</v>
       </c>
       <c r="J42" s="25" t="s">
-        <v>489</v>
+        <v>886</v>
       </c>
       <c r="K42" s="5"/>
     </row>
@@ -12245,29 +12290,29 @@
         <v>10</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>125</v>
+        <v>877</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>47</v>
+        <v>411</v>
       </c>
       <c r="E43" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F43" s="5" t="s">
-        <v>126</v>
+        <v>878</v>
       </c>
       <c r="G43" s="5" t="s">
-        <v>490</v>
+        <v>879</v>
       </c>
       <c r="H43" s="5"/>
-      <c r="I43" s="6" t="s">
-        <v>127</v>
+      <c r="I43" s="24" t="s">
+        <v>880</v>
       </c>
       <c r="J43" s="25" t="s">
-        <v>491</v>
+        <v>881</v>
       </c>
       <c r="K43" s="5"/>
     </row>
@@ -12276,10 +12321,10 @@
         <v>10</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="D44" s="5" t="s">
         <v>411</v>
@@ -12288,81 +12333,81 @@
         <v>25</v>
       </c>
       <c r="F44" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="G44" s="5" t="s">
+        <v>488</v>
+      </c>
+      <c r="H44" s="5"/>
+      <c r="I44" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="J44" s="25" t="s">
+        <v>489</v>
+      </c>
+      <c r="K44" s="5"/>
+    </row>
+    <row r="45" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A45" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="D45" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E45" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F45" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="G45" s="5" t="s">
+        <v>490</v>
+      </c>
+      <c r="H45" s="5"/>
+      <c r="I45" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="J45" s="25" t="s">
+        <v>491</v>
+      </c>
+      <c r="K45" s="5"/>
+    </row>
+    <row r="46" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A46" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="D46" s="5" t="s">
+        <v>411</v>
+      </c>
+      <c r="E46" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F46" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="G44" s="5" t="s">
+      <c r="G46" s="5" t="s">
         <v>492</v>
       </c>
-      <c r="H44" s="5"/>
-      <c r="I44" s="7" t="s">
+      <c r="H46" s="5"/>
+      <c r="I46" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="J44" s="25" t="s">
+      <c r="J46" s="25" t="s">
         <v>493</v>
       </c>
-      <c r="K44" s="5"/>
-    </row>
-    <row r="45" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A45" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="B45" s="9" t="s">
-        <v>133</v>
-      </c>
-      <c r="C45" s="9" t="s">
-        <v>494</v>
-      </c>
-      <c r="D45" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="E45" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F45" s="9" t="s">
-        <v>495</v>
-      </c>
-      <c r="G45" s="9" t="s">
-        <v>496</v>
-      </c>
-      <c r="H45" s="9"/>
-      <c r="I45" s="10" t="s">
-        <v>497</v>
-      </c>
-      <c r="J45" s="26" t="s">
-        <v>498</v>
-      </c>
-      <c r="K45" s="9"/>
-    </row>
-    <row r="46" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A46" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="B46" s="9" t="s">
-        <v>133</v>
-      </c>
-      <c r="C46" s="9" t="s">
-        <v>134</v>
-      </c>
-      <c r="D46" s="9" t="s">
-        <v>411</v>
-      </c>
-      <c r="E46" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="F46" s="9" t="s">
-        <v>135</v>
-      </c>
-      <c r="G46" s="9" t="s">
-        <v>499</v>
-      </c>
-      <c r="H46" s="9"/>
-      <c r="I46" s="10" t="s">
-        <v>136</v>
-      </c>
-      <c r="J46" s="26" t="s">
-        <v>500</v>
-      </c>
-      <c r="K46" s="9"/>
+      <c r="K46" s="5"/>
     </row>
     <row r="47" spans="1:11" ht="15.75" customHeight="1">
       <c r="A47" s="9" t="s">
@@ -12372,26 +12417,26 @@
         <v>133</v>
       </c>
       <c r="C47" s="9" t="s">
-        <v>501</v>
+        <v>494</v>
       </c>
       <c r="D47" s="9" t="s">
-        <v>411</v>
+        <v>47</v>
       </c>
       <c r="E47" s="9" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="F47" s="9" t="s">
-        <v>502</v>
+        <v>495</v>
       </c>
       <c r="G47" s="9" t="s">
-        <v>503</v>
+        <v>496</v>
       </c>
       <c r="H47" s="9"/>
       <c r="I47" s="10" t="s">
-        <v>504</v>
+        <v>497</v>
       </c>
       <c r="J47" s="26" t="s">
-        <v>505</v>
+        <v>498</v>
       </c>
       <c r="K47" s="9"/>
     </row>
@@ -12403,26 +12448,26 @@
         <v>133</v>
       </c>
       <c r="C48" s="9" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="D48" s="9" t="s">
-        <v>474</v>
+        <v>411</v>
       </c>
       <c r="E48" s="9" t="s">
         <v>25</v>
       </c>
       <c r="F48" s="9" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="G48" s="9" t="s">
-        <v>506</v>
+        <v>499</v>
       </c>
       <c r="H48" s="9"/>
       <c r="I48" s="10" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="J48" s="26" t="s">
-        <v>507</v>
+        <v>500</v>
       </c>
       <c r="K48" s="9"/>
     </row>
@@ -12434,26 +12479,26 @@
         <v>133</v>
       </c>
       <c r="C49" s="9" t="s">
-        <v>381</v>
+        <v>501</v>
       </c>
       <c r="D49" s="9" t="s">
-        <v>382</v>
+        <v>411</v>
       </c>
       <c r="E49" s="9" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="F49" s="9" t="s">
-        <v>508</v>
+        <v>502</v>
       </c>
       <c r="G49" s="9" t="s">
-        <v>782</v>
+        <v>503</v>
       </c>
       <c r="H49" s="9"/>
       <c r="I49" s="10" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="J49" s="26" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="K49" s="9"/>
     </row>
@@ -12465,26 +12510,26 @@
         <v>133</v>
       </c>
       <c r="C50" s="9" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="D50" s="9" t="s">
-        <v>75</v>
+        <v>474</v>
       </c>
       <c r="E50" s="9" t="s">
         <v>25</v>
       </c>
       <c r="F50" s="9" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="G50" s="9" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="H50" s="9"/>
-      <c r="I50" s="28" t="s">
-        <v>859</v>
+      <c r="I50" s="10" t="s">
+        <v>139</v>
       </c>
       <c r="J50" s="26" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="K50" s="9"/>
     </row>
@@ -12496,26 +12541,26 @@
         <v>133</v>
       </c>
       <c r="C51" s="9" t="s">
-        <v>143</v>
+        <v>381</v>
       </c>
       <c r="D51" s="9" t="s">
-        <v>75</v>
+        <v>382</v>
       </c>
       <c r="E51" s="9" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="F51" s="9" t="s">
-        <v>144</v>
+        <v>508</v>
       </c>
       <c r="G51" s="9" t="s">
-        <v>513</v>
+        <v>782</v>
       </c>
       <c r="H51" s="9"/>
-      <c r="I51" s="28" t="s">
-        <v>860</v>
+      <c r="I51" s="10" t="s">
+        <v>509</v>
       </c>
       <c r="J51" s="26" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="K51" s="9"/>
     </row>
@@ -12527,26 +12572,26 @@
         <v>133</v>
       </c>
       <c r="C52" s="9" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="D52" s="9" t="s">
-        <v>515</v>
+        <v>75</v>
       </c>
       <c r="E52" s="9" t="s">
         <v>25</v>
       </c>
       <c r="F52" s="9" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="G52" s="9" t="s">
-        <v>516</v>
+        <v>511</v>
       </c>
       <c r="H52" s="9"/>
-      <c r="I52" s="11" t="s">
-        <v>149</v>
+      <c r="I52" s="28" t="s">
+        <v>859</v>
       </c>
       <c r="J52" s="26" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="K52" s="9"/>
     </row>
@@ -12558,30 +12603,30 @@
         <v>133</v>
       </c>
       <c r="C53" s="9" t="s">
-        <v>843</v>
+        <v>143</v>
       </c>
       <c r="D53" s="9" t="s">
-        <v>411</v>
+        <v>75</v>
       </c>
       <c r="E53" s="9" t="s">
         <v>25</v>
       </c>
       <c r="F53" s="9" t="s">
-        <v>844</v>
+        <v>144</v>
       </c>
       <c r="G53" s="9" t="s">
-        <v>845</v>
+        <v>513</v>
       </c>
       <c r="H53" s="9"/>
       <c r="I53" s="28" t="s">
-        <v>846</v>
+        <v>860</v>
       </c>
       <c r="J53" s="26" t="s">
-        <v>847</v>
+        <v>514</v>
       </c>
       <c r="K53" s="9"/>
     </row>
-    <row r="54" spans="1:11" ht="13">
+    <row r="54" spans="1:11" ht="15.75" customHeight="1">
       <c r="A54" s="9" t="s">
         <v>132</v>
       </c>
@@ -12589,30 +12634,30 @@
         <v>133</v>
       </c>
       <c r="C54" s="9" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="D54" s="9" t="s">
-        <v>55</v>
+        <v>515</v>
       </c>
       <c r="E54" s="9" t="s">
         <v>25</v>
       </c>
       <c r="F54" s="9" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="G54" s="9" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="H54" s="9"/>
-      <c r="I54" s="10" t="s">
-        <v>152</v>
+      <c r="I54" s="11" t="s">
+        <v>149</v>
       </c>
       <c r="J54" s="26" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="K54" s="9"/>
     </row>
-    <row r="55" spans="1:11" ht="13">
+    <row r="55" spans="1:11" ht="15.75" customHeight="1">
       <c r="A55" s="9" t="s">
         <v>132</v>
       </c>
@@ -12620,26 +12665,26 @@
         <v>133</v>
       </c>
       <c r="C55" s="9" t="s">
-        <v>153</v>
+        <v>843</v>
       </c>
       <c r="D55" s="9" t="s">
-        <v>75</v>
+        <v>411</v>
       </c>
       <c r="E55" s="9" t="s">
         <v>25</v>
       </c>
       <c r="F55" s="9" t="s">
-        <v>154</v>
+        <v>844</v>
       </c>
       <c r="G55" s="9" t="s">
-        <v>520</v>
+        <v>845</v>
       </c>
       <c r="H55" s="9"/>
-      <c r="I55" s="10" t="s">
-        <v>155</v>
+      <c r="I55" s="28" t="s">
+        <v>846</v>
       </c>
       <c r="J55" s="26" t="s">
-        <v>521</v>
+        <v>847</v>
       </c>
       <c r="K55" s="9"/>
     </row>
@@ -12651,26 +12696,26 @@
         <v>133</v>
       </c>
       <c r="C56" s="9" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="D56" s="9" t="s">
-        <v>157</v>
+        <v>55</v>
       </c>
       <c r="E56" s="9" t="s">
         <v>25</v>
       </c>
       <c r="F56" s="9" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="G56" s="9" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="H56" s="9"/>
       <c r="I56" s="10" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="J56" s="26" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="K56" s="9"/>
     </row>
@@ -12682,26 +12727,26 @@
         <v>133</v>
       </c>
       <c r="C57" s="9" t="s">
-        <v>783</v>
+        <v>153</v>
       </c>
       <c r="D57" s="9" t="s">
-        <v>47</v>
+        <v>75</v>
       </c>
       <c r="E57" s="9" t="s">
         <v>25</v>
       </c>
       <c r="F57" s="9" t="s">
-        <v>796</v>
+        <v>154</v>
       </c>
       <c r="G57" s="9" t="s">
-        <v>797</v>
+        <v>520</v>
       </c>
       <c r="H57" s="9"/>
-      <c r="I57" s="28" t="s">
-        <v>798</v>
+      <c r="I57" s="10" t="s">
+        <v>155</v>
       </c>
       <c r="J57" s="26" t="s">
-        <v>799</v>
+        <v>521</v>
       </c>
       <c r="K57" s="9"/>
     </row>
@@ -12713,26 +12758,26 @@
         <v>133</v>
       </c>
       <c r="C58" s="9" t="s">
-        <v>784</v>
+        <v>156</v>
       </c>
       <c r="D58" s="9" t="s">
-        <v>411</v>
+        <v>157</v>
       </c>
       <c r="E58" s="9" t="s">
         <v>25</v>
       </c>
       <c r="F58" s="9" t="s">
-        <v>800</v>
+        <v>158</v>
       </c>
       <c r="G58" s="9" t="s">
-        <v>801</v>
+        <v>522</v>
       </c>
       <c r="H58" s="9"/>
-      <c r="I58" s="28" t="s">
-        <v>802</v>
+      <c r="I58" s="10" t="s">
+        <v>159</v>
       </c>
       <c r="J58" s="26" t="s">
-        <v>803</v>
+        <v>523</v>
       </c>
       <c r="K58" s="9"/>
     </row>
@@ -12744,26 +12789,26 @@
         <v>133</v>
       </c>
       <c r="C59" s="9" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="D59" s="9" t="s">
         <v>47</v>
       </c>
       <c r="E59" s="9" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="F59" s="9" t="s">
-        <v>804</v>
+        <v>796</v>
       </c>
       <c r="G59" s="9" t="s">
-        <v>805</v>
+        <v>797</v>
       </c>
       <c r="H59" s="9"/>
       <c r="I59" s="28" t="s">
-        <v>806</v>
+        <v>798</v>
       </c>
       <c r="J59" s="26" t="s">
-        <v>807</v>
+        <v>799</v>
       </c>
       <c r="K59" s="9"/>
     </row>
@@ -12775,26 +12820,26 @@
         <v>133</v>
       </c>
       <c r="C60" s="9" t="s">
-        <v>727</v>
+        <v>784</v>
       </c>
       <c r="D60" s="9" t="s">
-        <v>117</v>
+        <v>411</v>
       </c>
       <c r="E60" s="9" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="F60" s="9" t="s">
-        <v>808</v>
+        <v>800</v>
       </c>
       <c r="G60" s="9" t="s">
-        <v>809</v>
+        <v>801</v>
       </c>
       <c r="H60" s="9"/>
       <c r="I60" s="28" t="s">
-        <v>810</v>
+        <v>802</v>
       </c>
       <c r="J60" s="26" t="s">
-        <v>811</v>
+        <v>803</v>
       </c>
       <c r="K60" s="9"/>
     </row>
@@ -12806,26 +12851,26 @@
         <v>133</v>
       </c>
       <c r="C61" s="9" t="s">
-        <v>160</v>
+        <v>785</v>
       </c>
       <c r="D61" s="9" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="E61" s="9" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="F61" s="9" t="s">
-        <v>161</v>
+        <v>804</v>
       </c>
       <c r="G61" s="9" t="s">
-        <v>524</v>
+        <v>805</v>
       </c>
       <c r="H61" s="9"/>
-      <c r="I61" s="10" t="s">
-        <v>162</v>
+      <c r="I61" s="28" t="s">
+        <v>806</v>
       </c>
       <c r="J61" s="26" t="s">
-        <v>525</v>
+        <v>807</v>
       </c>
       <c r="K61" s="9"/>
     </row>
@@ -12834,29 +12879,29 @@
         <v>132</v>
       </c>
       <c r="B62" s="9" t="s">
-        <v>163</v>
+        <v>133</v>
       </c>
       <c r="C62" s="9" t="s">
-        <v>164</v>
+        <v>727</v>
       </c>
       <c r="D62" s="9" t="s">
-        <v>411</v>
+        <v>117</v>
       </c>
       <c r="E62" s="9" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="F62" s="9" t="s">
-        <v>165</v>
+        <v>808</v>
       </c>
       <c r="G62" s="9" t="s">
-        <v>526</v>
+        <v>809</v>
       </c>
       <c r="H62" s="9"/>
-      <c r="I62" s="10" t="s">
-        <v>166</v>
+      <c r="I62" s="28" t="s">
+        <v>810</v>
       </c>
       <c r="J62" s="26" t="s">
-        <v>527</v>
+        <v>811</v>
       </c>
       <c r="K62" s="9"/>
     </row>
@@ -12865,29 +12910,29 @@
         <v>132</v>
       </c>
       <c r="B63" s="9" t="s">
-        <v>163</v>
+        <v>133</v>
       </c>
       <c r="C63" s="9" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="D63" s="9" t="s">
-        <v>411</v>
+        <v>55</v>
       </c>
       <c r="E63" s="9" t="s">
         <v>25</v>
       </c>
       <c r="F63" s="9" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="G63" s="9" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="H63" s="9"/>
       <c r="I63" s="10" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="J63" s="26" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="K63" s="9"/>
     </row>
@@ -12899,26 +12944,26 @@
         <v>163</v>
       </c>
       <c r="C64" s="9" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="D64" s="9" t="s">
-        <v>117</v>
+        <v>411</v>
       </c>
       <c r="E64" s="9" t="s">
         <v>25</v>
       </c>
       <c r="F64" s="9" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="G64" s="9" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="H64" s="9"/>
-      <c r="I64" s="28" t="s">
-        <v>861</v>
+      <c r="I64" s="10" t="s">
+        <v>166</v>
       </c>
       <c r="J64" s="26" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="K64" s="9"/>
     </row>
@@ -12930,26 +12975,26 @@
         <v>163</v>
       </c>
       <c r="C65" s="9" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="D65" s="9" t="s">
-        <v>117</v>
+        <v>411</v>
       </c>
       <c r="E65" s="9" t="s">
         <v>25</v>
       </c>
       <c r="F65" s="9" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="G65" s="9" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="H65" s="9"/>
       <c r="I65" s="10" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="J65" s="26" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="K65" s="9"/>
     </row>
@@ -12961,26 +13006,26 @@
         <v>163</v>
       </c>
       <c r="C66" s="9" t="s">
-        <v>848</v>
+        <v>170</v>
       </c>
       <c r="D66" s="9" t="s">
-        <v>411</v>
+        <v>117</v>
       </c>
       <c r="E66" s="9" t="s">
         <v>25</v>
       </c>
       <c r="F66" s="9" t="s">
-        <v>849</v>
+        <v>171</v>
       </c>
       <c r="G66" s="9" t="s">
-        <v>850</v>
+        <v>530</v>
       </c>
       <c r="H66" s="9"/>
       <c r="I66" s="28" t="s">
-        <v>851</v>
+        <v>861</v>
       </c>
       <c r="J66" s="26" t="s">
-        <v>852</v>
+        <v>531</v>
       </c>
       <c r="K66" s="9"/>
     </row>
@@ -12989,29 +13034,29 @@
         <v>132</v>
       </c>
       <c r="B67" s="9" t="s">
-        <v>728</v>
+        <v>163</v>
       </c>
       <c r="C67" s="9" t="s">
-        <v>727</v>
+        <v>173</v>
       </c>
       <c r="D67" s="9" t="s">
-        <v>411</v>
+        <v>117</v>
       </c>
       <c r="E67" s="9" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="F67" s="9" t="s">
-        <v>748</v>
+        <v>174</v>
       </c>
       <c r="G67" s="9" t="s">
-        <v>749</v>
+        <v>532</v>
       </c>
       <c r="H67" s="9"/>
-      <c r="I67" s="28" t="s">
-        <v>750</v>
+      <c r="I67" s="10" t="s">
+        <v>175</v>
       </c>
       <c r="J67" s="26" t="s">
-        <v>751</v>
+        <v>533</v>
       </c>
       <c r="K67" s="9"/>
     </row>
@@ -13020,29 +13065,29 @@
         <v>132</v>
       </c>
       <c r="B68" s="9" t="s">
-        <v>534</v>
+        <v>163</v>
       </c>
       <c r="C68" s="9" t="s">
-        <v>535</v>
+        <v>848</v>
       </c>
       <c r="D68" s="9" t="s">
-        <v>157</v>
+        <v>411</v>
       </c>
       <c r="E68" s="9" t="s">
         <v>25</v>
       </c>
       <c r="F68" s="9" t="s">
-        <v>536</v>
+        <v>849</v>
       </c>
       <c r="G68" s="9" t="s">
-        <v>537</v>
+        <v>850</v>
       </c>
       <c r="H68" s="9"/>
-      <c r="I68" s="11" t="s">
-        <v>538</v>
+      <c r="I68" s="28" t="s">
+        <v>851</v>
       </c>
       <c r="J68" s="26" t="s">
-        <v>539</v>
+        <v>852</v>
       </c>
       <c r="K68" s="9"/>
     </row>
@@ -13051,29 +13096,29 @@
         <v>132</v>
       </c>
       <c r="B69" s="9" t="s">
-        <v>534</v>
+        <v>728</v>
       </c>
       <c r="C69" s="9" t="s">
-        <v>381</v>
+        <v>727</v>
       </c>
       <c r="D69" s="9" t="s">
-        <v>382</v>
+        <v>411</v>
       </c>
       <c r="E69" s="9" t="s">
         <v>14</v>
       </c>
       <c r="F69" s="9" t="s">
-        <v>540</v>
+        <v>748</v>
       </c>
       <c r="G69" s="9" t="s">
-        <v>781</v>
+        <v>749</v>
       </c>
       <c r="H69" s="9"/>
-      <c r="I69" s="10" t="s">
-        <v>541</v>
+      <c r="I69" s="28" t="s">
+        <v>750</v>
       </c>
       <c r="J69" s="26" t="s">
-        <v>542</v>
+        <v>751</v>
       </c>
       <c r="K69" s="9"/>
     </row>
@@ -13082,29 +13127,29 @@
         <v>132</v>
       </c>
       <c r="B70" s="9" t="s">
-        <v>176</v>
+        <v>534</v>
       </c>
       <c r="C70" s="9" t="s">
-        <v>543</v>
+        <v>535</v>
       </c>
       <c r="D70" s="9" t="s">
-        <v>411</v>
+        <v>157</v>
       </c>
       <c r="E70" s="9" t="s">
         <v>25</v>
       </c>
       <c r="F70" s="9" t="s">
-        <v>544</v>
+        <v>536</v>
       </c>
       <c r="G70" s="9" t="s">
-        <v>545</v>
+        <v>537</v>
       </c>
       <c r="H70" s="9"/>
-      <c r="I70" s="10" t="s">
-        <v>546</v>
+      <c r="I70" s="11" t="s">
+        <v>538</v>
       </c>
       <c r="J70" s="26" t="s">
-        <v>547</v>
+        <v>539</v>
       </c>
       <c r="K70" s="9"/>
     </row>
@@ -13113,29 +13158,29 @@
         <v>132</v>
       </c>
       <c r="B71" s="9" t="s">
-        <v>176</v>
+        <v>534</v>
       </c>
       <c r="C71" s="9" t="s">
-        <v>177</v>
+        <v>381</v>
       </c>
       <c r="D71" s="9" t="s">
-        <v>411</v>
+        <v>382</v>
       </c>
       <c r="E71" s="9" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="F71" s="9" t="s">
-        <v>548</v>
+        <v>540</v>
       </c>
       <c r="G71" s="9" t="s">
-        <v>549</v>
+        <v>781</v>
       </c>
       <c r="H71" s="9"/>
       <c r="I71" s="10" t="s">
-        <v>179</v>
+        <v>541</v>
       </c>
       <c r="J71" s="26" t="s">
-        <v>550</v>
+        <v>542</v>
       </c>
       <c r="K71" s="9"/>
     </row>
@@ -13147,26 +13192,26 @@
         <v>176</v>
       </c>
       <c r="C72" s="9" t="s">
-        <v>180</v>
+        <v>543</v>
       </c>
       <c r="D72" s="9" t="s">
-        <v>181</v>
+        <v>411</v>
       </c>
       <c r="E72" s="9" t="s">
         <v>25</v>
       </c>
       <c r="F72" s="9" t="s">
-        <v>182</v>
+        <v>544</v>
       </c>
       <c r="G72" s="9" t="s">
-        <v>551</v>
+        <v>545</v>
       </c>
       <c r="H72" s="9"/>
       <c r="I72" s="10" t="s">
-        <v>183</v>
+        <v>546</v>
       </c>
       <c r="J72" s="26" t="s">
-        <v>552</v>
+        <v>547</v>
       </c>
       <c r="K72" s="9"/>
     </row>
@@ -13175,10 +13220,10 @@
         <v>132</v>
       </c>
       <c r="B73" s="9" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="C73" s="9" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="D73" s="9" t="s">
         <v>411</v>
@@ -13187,17 +13232,17 @@
         <v>25</v>
       </c>
       <c r="F73" s="9" t="s">
-        <v>186</v>
+        <v>548</v>
       </c>
       <c r="G73" s="9" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="H73" s="9"/>
       <c r="I73" s="10" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="J73" s="26" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="K73" s="9"/>
     </row>
@@ -13206,29 +13251,29 @@
         <v>132</v>
       </c>
       <c r="B74" s="9" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="C74" s="9" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="D74" s="9" t="s">
-        <v>117</v>
+        <v>181</v>
       </c>
       <c r="E74" s="9" t="s">
         <v>25</v>
       </c>
       <c r="F74" s="9" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="G74" s="9" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="H74" s="9"/>
       <c r="I74" s="10" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="J74" s="26" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
       <c r="K74" s="9"/>
     </row>
@@ -13240,26 +13285,26 @@
         <v>184</v>
       </c>
       <c r="C75" s="9" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="D75" s="9" t="s">
-        <v>192</v>
+        <v>411</v>
       </c>
       <c r="E75" s="9" t="s">
         <v>25</v>
       </c>
       <c r="F75" s="9" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="G75" s="9" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
       <c r="H75" s="9"/>
       <c r="I75" s="10" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="J75" s="26" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
       <c r="K75" s="9"/>
     </row>
@@ -13271,26 +13316,26 @@
         <v>184</v>
       </c>
       <c r="C76" s="9" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="D76" s="9" t="s">
-        <v>51</v>
+        <v>117</v>
       </c>
       <c r="E76" s="9" t="s">
         <v>25</v>
       </c>
       <c r="F76" s="9" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="G76" s="9" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="H76" s="9"/>
       <c r="I76" s="10" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="J76" s="26" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
       <c r="K76" s="9"/>
     </row>
@@ -13302,26 +13347,26 @@
         <v>184</v>
       </c>
       <c r="C77" s="9" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="D77" s="9" t="s">
-        <v>419</v>
+        <v>192</v>
       </c>
       <c r="E77" s="9" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="F77" s="9" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="G77" s="9" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="H77" s="9"/>
       <c r="I77" s="10" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="J77" s="26" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="K77" s="9"/>
     </row>
@@ -13333,26 +13378,26 @@
         <v>184</v>
       </c>
       <c r="C78" s="9" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="D78" s="9" t="s">
-        <v>419</v>
+        <v>51</v>
       </c>
       <c r="E78" s="9" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="F78" s="9" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="G78" s="9" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="H78" s="9"/>
       <c r="I78" s="10" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="J78" s="26" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="K78" s="9"/>
     </row>
@@ -13363,8 +13408,8 @@
       <c r="B79" s="9" t="s">
         <v>184</v>
       </c>
-      <c r="C79" s="12" t="s">
-        <v>204</v>
+      <c r="C79" s="9" t="s">
+        <v>198</v>
       </c>
       <c r="D79" s="9" t="s">
         <v>419</v>
@@ -13373,17 +13418,17 @@
         <v>14</v>
       </c>
       <c r="F79" s="9" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="G79" s="9" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="H79" s="9"/>
-      <c r="I79" s="11" t="s">
-        <v>206</v>
+      <c r="I79" s="10" t="s">
+        <v>200</v>
       </c>
       <c r="J79" s="26" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="K79" s="9"/>
     </row>
@@ -13394,27 +13439,27 @@
       <c r="B80" s="9" t="s">
         <v>184</v>
       </c>
-      <c r="C80" s="12" t="s">
-        <v>828</v>
+      <c r="C80" s="9" t="s">
+        <v>201</v>
       </c>
       <c r="D80" s="9" t="s">
-        <v>411</v>
+        <v>419</v>
       </c>
       <c r="E80" s="9" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="F80" s="9" t="s">
-        <v>829</v>
+        <v>202</v>
       </c>
       <c r="G80" s="9" t="s">
-        <v>830</v>
+        <v>563</v>
       </c>
       <c r="H80" s="9"/>
-      <c r="I80" s="28" t="s">
-        <v>831</v>
+      <c r="I80" s="10" t="s">
+        <v>203</v>
       </c>
       <c r="J80" s="26" t="s">
-        <v>832</v>
+        <v>564</v>
       </c>
       <c r="K80" s="9"/>
     </row>
@@ -13426,26 +13471,26 @@
         <v>184</v>
       </c>
       <c r="C81" s="12" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="D81" s="9" t="s">
         <v>419</v>
       </c>
       <c r="E81" s="9" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="F81" s="9" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="G81" s="9" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="H81" s="9"/>
       <c r="I81" s="11" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="J81" s="26" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="K81" s="9"/>
     </row>
@@ -13454,29 +13499,29 @@
         <v>132</v>
       </c>
       <c r="B82" s="9" t="s">
-        <v>210</v>
+        <v>184</v>
       </c>
       <c r="C82" s="12" t="s">
-        <v>211</v>
+        <v>828</v>
       </c>
       <c r="D82" s="9" t="s">
-        <v>419</v>
+        <v>411</v>
       </c>
       <c r="E82" s="9" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="F82" s="9" t="s">
-        <v>212</v>
+        <v>829</v>
       </c>
       <c r="G82" s="9" t="s">
-        <v>569</v>
+        <v>830</v>
       </c>
       <c r="H82" s="9"/>
-      <c r="I82" s="10" t="s">
-        <v>213</v>
+      <c r="I82" s="28" t="s">
+        <v>831</v>
       </c>
       <c r="J82" s="26" t="s">
-        <v>570</v>
+        <v>832</v>
       </c>
       <c r="K82" s="9"/>
     </row>
@@ -13485,29 +13530,29 @@
         <v>132</v>
       </c>
       <c r="B83" s="9" t="s">
-        <v>722</v>
+        <v>184</v>
       </c>
       <c r="C83" s="12" t="s">
-        <v>721</v>
+        <v>207</v>
       </c>
       <c r="D83" s="9" t="s">
-        <v>411</v>
+        <v>419</v>
       </c>
       <c r="E83" s="9" t="s">
         <v>25</v>
       </c>
       <c r="F83" s="9" t="s">
-        <v>753</v>
+        <v>208</v>
       </c>
       <c r="G83" s="9" t="s">
-        <v>752</v>
+        <v>567</v>
       </c>
       <c r="H83" s="9"/>
-      <c r="I83" s="28" t="s">
-        <v>754</v>
+      <c r="I83" s="11" t="s">
+        <v>209</v>
       </c>
       <c r="J83" s="26" t="s">
-        <v>755</v>
+        <v>568</v>
       </c>
       <c r="K83" s="9"/>
     </row>
@@ -13516,29 +13561,29 @@
         <v>132</v>
       </c>
       <c r="B84" s="9" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="C84" s="12" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="D84" s="9" t="s">
-        <v>47</v>
+        <v>419</v>
       </c>
       <c r="E84" s="9" t="s">
         <v>14</v>
       </c>
       <c r="F84" s="9" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="G84" s="9" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="H84" s="9"/>
       <c r="I84" s="10" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="J84" s="26" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="K84" s="9"/>
     </row>
@@ -13547,29 +13592,29 @@
         <v>132</v>
       </c>
       <c r="B85" s="9" t="s">
-        <v>214</v>
+        <v>722</v>
       </c>
       <c r="C85" s="12" t="s">
-        <v>218</v>
+        <v>721</v>
       </c>
       <c r="D85" s="9" t="s">
-        <v>157</v>
+        <v>411</v>
       </c>
       <c r="E85" s="9" t="s">
         <v>25</v>
       </c>
       <c r="F85" s="9" t="s">
-        <v>219</v>
+        <v>753</v>
       </c>
       <c r="G85" s="9" t="s">
-        <v>573</v>
+        <v>752</v>
       </c>
       <c r="H85" s="9"/>
-      <c r="I85" s="10" t="s">
-        <v>220</v>
+      <c r="I85" s="28" t="s">
+        <v>754</v>
       </c>
       <c r="J85" s="26" t="s">
-        <v>574</v>
+        <v>755</v>
       </c>
       <c r="K85" s="9"/>
     </row>
@@ -13578,29 +13623,29 @@
         <v>132</v>
       </c>
       <c r="B86" s="9" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="C86" s="12" t="s">
-        <v>575</v>
+        <v>215</v>
       </c>
       <c r="D86" s="9" t="s">
-        <v>411</v>
+        <v>47</v>
       </c>
       <c r="E86" s="9" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="F86" s="9" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="G86" s="9" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
       <c r="H86" s="9"/>
       <c r="I86" s="10" t="s">
-        <v>577</v>
+        <v>217</v>
       </c>
       <c r="J86" s="26" t="s">
-        <v>578</v>
+        <v>572</v>
       </c>
       <c r="K86" s="9"/>
     </row>
@@ -13609,29 +13654,29 @@
         <v>132</v>
       </c>
       <c r="B87" s="9" t="s">
-        <v>225</v>
+        <v>214</v>
       </c>
       <c r="C87" s="12" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="D87" s="9" t="s">
-        <v>419</v>
+        <v>157</v>
       </c>
       <c r="E87" s="9" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="F87" s="9" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="G87" s="9" t="s">
-        <v>579</v>
+        <v>573</v>
       </c>
       <c r="H87" s="9"/>
       <c r="I87" s="10" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="J87" s="26" t="s">
-        <v>580</v>
+        <v>574</v>
       </c>
       <c r="K87" s="9"/>
     </row>
@@ -13640,10 +13685,10 @@
         <v>132</v>
       </c>
       <c r="B88" s="9" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="C88" s="12" t="s">
-        <v>229</v>
+        <v>575</v>
       </c>
       <c r="D88" s="9" t="s">
         <v>411</v>
@@ -13652,17 +13697,17 @@
         <v>25</v>
       </c>
       <c r="F88" s="9" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="G88" s="9" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="H88" s="9"/>
       <c r="I88" s="10" t="s">
-        <v>231</v>
+        <v>577</v>
       </c>
       <c r="J88" s="26" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="K88" s="9"/>
     </row>
@@ -13671,29 +13716,29 @@
         <v>132</v>
       </c>
       <c r="B89" s="9" t="s">
-        <v>583</v>
-      </c>
-      <c r="C89" s="9" t="s">
-        <v>584</v>
+        <v>225</v>
+      </c>
+      <c r="C89" s="12" t="s">
+        <v>226</v>
       </c>
       <c r="D89" s="9" t="s">
-        <v>411</v>
+        <v>419</v>
       </c>
       <c r="E89" s="9" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="F89" s="9" t="s">
-        <v>585</v>
+        <v>227</v>
       </c>
       <c r="G89" s="9" t="s">
-        <v>586</v>
+        <v>579</v>
       </c>
       <c r="H89" s="9"/>
-      <c r="I89" s="11" t="s">
-        <v>587</v>
+      <c r="I89" s="10" t="s">
+        <v>228</v>
       </c>
       <c r="J89" s="26" t="s">
-        <v>588</v>
+        <v>580</v>
       </c>
       <c r="K89" s="9"/>
     </row>
@@ -13702,29 +13747,29 @@
         <v>132</v>
       </c>
       <c r="B90" s="9" t="s">
-        <v>583</v>
-      </c>
-      <c r="C90" s="9" t="s">
-        <v>838</v>
+        <v>225</v>
+      </c>
+      <c r="C90" s="12" t="s">
+        <v>229</v>
       </c>
       <c r="D90" s="9" t="s">
-        <v>117</v>
+        <v>411</v>
       </c>
       <c r="E90" s="9" t="s">
         <v>25</v>
       </c>
       <c r="F90" s="9" t="s">
-        <v>839</v>
+        <v>230</v>
       </c>
       <c r="G90" s="9" t="s">
-        <v>840</v>
+        <v>581</v>
       </c>
       <c r="H90" s="9"/>
-      <c r="I90" s="28" t="s">
-        <v>841</v>
+      <c r="I90" s="10" t="s">
+        <v>231</v>
       </c>
       <c r="J90" s="26" t="s">
-        <v>842</v>
+        <v>582</v>
       </c>
       <c r="K90" s="9"/>
     </row>
@@ -13733,10 +13778,10 @@
         <v>132</v>
       </c>
       <c r="B91" s="9" t="s">
-        <v>232</v>
+        <v>583</v>
       </c>
       <c r="C91" s="9" t="s">
-        <v>233</v>
+        <v>584</v>
       </c>
       <c r="D91" s="9" t="s">
         <v>411</v>
@@ -13745,17 +13790,17 @@
         <v>25</v>
       </c>
       <c r="F91" s="9" t="s">
-        <v>234</v>
+        <v>585</v>
       </c>
       <c r="G91" s="9" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="H91" s="9"/>
-      <c r="I91" s="10" t="s">
-        <v>235</v>
+      <c r="I91" s="11" t="s">
+        <v>587</v>
       </c>
       <c r="J91" s="26" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="K91" s="9"/>
     </row>
@@ -13764,29 +13809,29 @@
         <v>132</v>
       </c>
       <c r="B92" s="9" t="s">
-        <v>236</v>
+        <v>583</v>
       </c>
       <c r="C92" s="9" t="s">
-        <v>381</v>
+        <v>838</v>
       </c>
       <c r="D92" s="9" t="s">
-        <v>382</v>
+        <v>117</v>
       </c>
       <c r="E92" s="9" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="F92" s="9" t="s">
-        <v>591</v>
+        <v>839</v>
       </c>
       <c r="G92" s="9" t="s">
-        <v>592</v>
+        <v>840</v>
       </c>
       <c r="H92" s="9"/>
-      <c r="I92" s="11" t="s">
-        <v>593</v>
+      <c r="I92" s="28" t="s">
+        <v>841</v>
       </c>
       <c r="J92" s="26" t="s">
-        <v>594</v>
+        <v>842</v>
       </c>
       <c r="K92" s="9"/>
     </row>
@@ -13795,10 +13840,10 @@
         <v>132</v>
       </c>
       <c r="B93" s="9" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="C93" s="9" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="D93" s="9" t="s">
         <v>411</v>
@@ -13807,17 +13852,17 @@
         <v>25</v>
       </c>
       <c r="F93" s="9" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="G93" s="9" t="s">
-        <v>595</v>
+        <v>589</v>
       </c>
       <c r="H93" s="9"/>
       <c r="I93" s="10" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="J93" s="26" t="s">
-        <v>596</v>
+        <v>590</v>
       </c>
       <c r="K93" s="9"/>
     </row>
@@ -13829,26 +13874,26 @@
         <v>236</v>
       </c>
       <c r="C94" s="9" t="s">
-        <v>240</v>
+        <v>381</v>
       </c>
       <c r="D94" s="9" t="s">
-        <v>241</v>
+        <v>382</v>
       </c>
       <c r="E94" s="9" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="F94" s="9" t="s">
-        <v>242</v>
+        <v>591</v>
       </c>
       <c r="G94" s="9" t="s">
-        <v>597</v>
+        <v>592</v>
       </c>
       <c r="H94" s="9"/>
-      <c r="I94" s="10" t="s">
-        <v>243</v>
+      <c r="I94" s="11" t="s">
+        <v>593</v>
       </c>
       <c r="J94" s="26" t="s">
-        <v>598</v>
+        <v>594</v>
       </c>
       <c r="K94" s="9"/>
     </row>
@@ -13860,26 +13905,26 @@
         <v>236</v>
       </c>
       <c r="C95" s="9" t="s">
-        <v>790</v>
+        <v>237</v>
       </c>
       <c r="D95" s="9" t="s">
-        <v>117</v>
+        <v>411</v>
       </c>
       <c r="E95" s="9" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="F95" s="9" t="s">
-        <v>812</v>
+        <v>238</v>
       </c>
       <c r="G95" s="9" t="s">
-        <v>813</v>
+        <v>595</v>
       </c>
       <c r="H95" s="9"/>
-      <c r="I95" s="28" t="s">
-        <v>814</v>
+      <c r="I95" s="10" t="s">
+        <v>239</v>
       </c>
       <c r="J95" s="26" t="s">
-        <v>815</v>
+        <v>596</v>
       </c>
       <c r="K95" s="9"/>
     </row>
@@ -13888,10 +13933,10 @@
         <v>132</v>
       </c>
       <c r="B96" s="9" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="C96" s="9" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="D96" s="9" t="s">
         <v>241</v>
@@ -13900,17 +13945,17 @@
         <v>25</v>
       </c>
       <c r="F96" s="9" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="G96" s="9" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="H96" s="9"/>
       <c r="I96" s="10" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="J96" s="26" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="K96" s="9"/>
     </row>
@@ -13919,29 +13964,29 @@
         <v>132</v>
       </c>
       <c r="B97" s="9" t="s">
-        <v>789</v>
+        <v>236</v>
       </c>
       <c r="C97" s="9" t="s">
-        <v>788</v>
+        <v>790</v>
       </c>
       <c r="D97" s="9" t="s">
-        <v>411</v>
+        <v>117</v>
       </c>
       <c r="E97" s="9" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="F97" s="9" t="s">
-        <v>816</v>
+        <v>812</v>
       </c>
       <c r="G97" s="9" t="s">
-        <v>817</v>
+        <v>813</v>
       </c>
       <c r="H97" s="9"/>
       <c r="I97" s="28" t="s">
-        <v>818</v>
+        <v>814</v>
       </c>
       <c r="J97" s="26" t="s">
-        <v>819</v>
+        <v>815</v>
       </c>
       <c r="K97" s="9"/>
     </row>
@@ -13950,29 +13995,29 @@
         <v>132</v>
       </c>
       <c r="B98" s="9" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="C98" s="9" t="s">
-        <v>381</v>
+        <v>245</v>
       </c>
       <c r="D98" s="9" t="s">
-        <v>382</v>
+        <v>241</v>
       </c>
       <c r="E98" s="9" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="F98" s="9" t="s">
-        <v>601</v>
+        <v>246</v>
       </c>
       <c r="G98" s="9" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="H98" s="9"/>
       <c r="I98" s="10" t="s">
-        <v>603</v>
+        <v>247</v>
       </c>
       <c r="J98" s="26" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="K98" s="9"/>
     </row>
@@ -13981,29 +14026,29 @@
         <v>132</v>
       </c>
       <c r="B99" s="9" t="s">
-        <v>248</v>
+        <v>789</v>
       </c>
       <c r="C99" s="9" t="s">
-        <v>249</v>
+        <v>788</v>
       </c>
       <c r="D99" s="9" t="s">
-        <v>117</v>
+        <v>411</v>
       </c>
       <c r="E99" s="9" t="s">
         <v>25</v>
       </c>
       <c r="F99" s="9" t="s">
-        <v>250</v>
+        <v>816</v>
       </c>
       <c r="G99" s="9" t="s">
-        <v>605</v>
+        <v>817</v>
       </c>
       <c r="H99" s="9"/>
-      <c r="I99" s="10" t="s">
-        <v>251</v>
+      <c r="I99" s="28" t="s">
+        <v>818</v>
       </c>
       <c r="J99" s="26" t="s">
-        <v>606</v>
+        <v>819</v>
       </c>
       <c r="K99" s="9"/>
     </row>
@@ -14015,26 +14060,26 @@
         <v>248</v>
       </c>
       <c r="C100" s="9" t="s">
-        <v>252</v>
+        <v>381</v>
       </c>
       <c r="D100" s="9" t="s">
-        <v>411</v>
+        <v>382</v>
       </c>
       <c r="E100" s="9" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="F100" s="9" t="s">
-        <v>253</v>
+        <v>601</v>
       </c>
       <c r="G100" s="9" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="H100" s="9"/>
       <c r="I100" s="10" t="s">
-        <v>254</v>
+        <v>603</v>
       </c>
       <c r="J100" s="26" t="s">
-        <v>608</v>
+        <v>604</v>
       </c>
       <c r="K100" s="9"/>
     </row>
@@ -14046,26 +14091,26 @@
         <v>248</v>
       </c>
       <c r="C101" s="9" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="D101" s="9" t="s">
         <v>117</v>
       </c>
       <c r="E101" s="9" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="F101" s="9" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="G101" s="9" t="s">
-        <v>609</v>
+        <v>605</v>
       </c>
       <c r="H101" s="9"/>
       <c r="I101" s="10" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="J101" s="26" t="s">
-        <v>610</v>
+        <v>606</v>
       </c>
       <c r="K101" s="9"/>
     </row>
@@ -14074,29 +14119,29 @@
         <v>132</v>
       </c>
       <c r="B102" s="9" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="C102" s="9" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="D102" s="9" t="s">
-        <v>117</v>
+        <v>411</v>
       </c>
       <c r="E102" s="9" t="s">
         <v>25</v>
       </c>
       <c r="F102" s="9" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="G102" s="9" t="s">
-        <v>611</v>
+        <v>607</v>
       </c>
       <c r="H102" s="9"/>
       <c r="I102" s="10" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="J102" s="26" t="s">
-        <v>612</v>
+        <v>608</v>
       </c>
       <c r="K102" s="9"/>
     </row>
@@ -14105,29 +14150,29 @@
         <v>132</v>
       </c>
       <c r="B103" s="9" t="s">
-        <v>262</v>
+        <v>248</v>
       </c>
       <c r="C103" s="9" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="D103" s="9" t="s">
-        <v>613</v>
+        <v>117</v>
       </c>
       <c r="E103" s="9" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="F103" s="9" t="s">
-        <v>265</v>
+        <v>256</v>
       </c>
       <c r="G103" s="9" t="s">
-        <v>614</v>
+        <v>609</v>
       </c>
       <c r="H103" s="9"/>
-      <c r="I103" s="11" t="s">
-        <v>266</v>
+      <c r="I103" s="10" t="s">
+        <v>257</v>
       </c>
       <c r="J103" s="26" t="s">
-        <v>615</v>
+        <v>610</v>
       </c>
       <c r="K103" s="9"/>
     </row>
@@ -14136,29 +14181,29 @@
         <v>132</v>
       </c>
       <c r="B104" s="9" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="C104" s="9" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="D104" s="9" t="s">
-        <v>411</v>
+        <v>117</v>
       </c>
       <c r="E104" s="9" t="s">
         <v>25</v>
       </c>
       <c r="F104" s="9" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="G104" s="9" t="s">
-        <v>616</v>
+        <v>611</v>
       </c>
       <c r="H104" s="9"/>
-      <c r="I104" s="11" t="s">
-        <v>269</v>
+      <c r="I104" s="10" t="s">
+        <v>261</v>
       </c>
       <c r="J104" s="26" t="s">
-        <v>617</v>
+        <v>612</v>
       </c>
       <c r="K104" s="9"/>
     </row>
@@ -14170,26 +14215,26 @@
         <v>262</v>
       </c>
       <c r="C105" s="9" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="D105" s="9" t="s">
-        <v>419</v>
+        <v>613</v>
       </c>
       <c r="E105" s="9" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="F105" s="9" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="G105" s="9" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
       <c r="H105" s="9"/>
       <c r="I105" s="11" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="J105" s="26" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
       <c r="K105" s="9"/>
     </row>
@@ -14201,7 +14246,7 @@
         <v>262</v>
       </c>
       <c r="C106" s="9" t="s">
-        <v>833</v>
+        <v>267</v>
       </c>
       <c r="D106" s="9" t="s">
         <v>411</v>
@@ -14210,17 +14255,17 @@
         <v>25</v>
       </c>
       <c r="F106" s="9" t="s">
-        <v>834</v>
+        <v>268</v>
       </c>
       <c r="G106" s="9" t="s">
-        <v>835</v>
+        <v>616</v>
       </c>
       <c r="H106" s="9"/>
-      <c r="I106" s="28" t="s">
-        <v>836</v>
+      <c r="I106" s="11" t="s">
+        <v>269</v>
       </c>
       <c r="J106" s="26" t="s">
-        <v>837</v>
+        <v>617</v>
       </c>
       <c r="K106" s="9"/>
     </row>
@@ -14232,26 +14277,26 @@
         <v>262</v>
       </c>
       <c r="C107" s="9" t="s">
-        <v>786</v>
+        <v>270</v>
       </c>
       <c r="D107" s="9" t="s">
-        <v>117</v>
+        <v>419</v>
       </c>
       <c r="E107" s="9" t="s">
         <v>25</v>
       </c>
       <c r="F107" s="9" t="s">
-        <v>820</v>
+        <v>271</v>
       </c>
       <c r="G107" s="9" t="s">
-        <v>821</v>
+        <v>618</v>
       </c>
       <c r="H107" s="9"/>
-      <c r="I107" s="28" t="s">
-        <v>822</v>
+      <c r="I107" s="11" t="s">
+        <v>272</v>
       </c>
       <c r="J107" s="26" t="s">
-        <v>823</v>
+        <v>619</v>
       </c>
       <c r="K107" s="9"/>
     </row>
@@ -14263,26 +14308,26 @@
         <v>262</v>
       </c>
       <c r="C108" s="9" t="s">
-        <v>787</v>
+        <v>833</v>
       </c>
       <c r="D108" s="9" t="s">
-        <v>117</v>
+        <v>411</v>
       </c>
       <c r="E108" s="9" t="s">
         <v>25</v>
       </c>
       <c r="F108" s="9" t="s">
-        <v>824</v>
+        <v>834</v>
       </c>
       <c r="G108" s="9" t="s">
-        <v>825</v>
+        <v>835</v>
       </c>
       <c r="H108" s="9"/>
       <c r="I108" s="28" t="s">
-        <v>826</v>
+        <v>836</v>
       </c>
       <c r="J108" s="26" t="s">
-        <v>827</v>
+        <v>837</v>
       </c>
       <c r="K108" s="9"/>
     </row>
@@ -14294,26 +14339,26 @@
         <v>262</v>
       </c>
       <c r="C109" s="9" t="s">
-        <v>273</v>
+        <v>786</v>
       </c>
       <c r="D109" s="9" t="s">
-        <v>613</v>
+        <v>117</v>
       </c>
       <c r="E109" s="9" t="s">
         <v>25</v>
       </c>
       <c r="F109" s="9" t="s">
-        <v>274</v>
+        <v>820</v>
       </c>
       <c r="G109" s="9" t="s">
-        <v>620</v>
+        <v>821</v>
       </c>
       <c r="H109" s="9"/>
-      <c r="I109" s="11" t="s">
-        <v>275</v>
+      <c r="I109" s="28" t="s">
+        <v>822</v>
       </c>
       <c r="J109" s="26" t="s">
-        <v>621</v>
+        <v>823</v>
       </c>
       <c r="K109" s="9"/>
     </row>
@@ -14325,26 +14370,26 @@
         <v>262</v>
       </c>
       <c r="C110" s="9" t="s">
-        <v>724</v>
+        <v>787</v>
       </c>
       <c r="D110" s="9" t="s">
-        <v>398</v>
+        <v>117</v>
       </c>
       <c r="E110" s="9" t="s">
         <v>25</v>
       </c>
       <c r="F110" s="9" t="s">
-        <v>756</v>
+        <v>824</v>
       </c>
       <c r="G110" s="9" t="s">
-        <v>757</v>
+        <v>825</v>
       </c>
       <c r="H110" s="9"/>
       <c r="I110" s="28" t="s">
-        <v>758</v>
+        <v>826</v>
       </c>
       <c r="J110" s="26" t="s">
-        <v>759</v>
+        <v>827</v>
       </c>
       <c r="K110" s="9"/>
     </row>
@@ -14356,117 +14401,117 @@
         <v>262</v>
       </c>
       <c r="C111" s="9" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="D111" s="9" t="s">
-        <v>398</v>
+        <v>613</v>
       </c>
       <c r="E111" s="9" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="F111" s="9" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="G111" s="9" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="H111" s="9"/>
       <c r="I111" s="11" t="s">
+        <v>275</v>
+      </c>
+      <c r="J111" s="26" t="s">
+        <v>621</v>
+      </c>
+      <c r="K111" s="9"/>
+    </row>
+    <row r="112" spans="1:11" ht="13">
+      <c r="A112" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="B112" s="9" t="s">
+        <v>262</v>
+      </c>
+      <c r="C112" s="9" t="s">
+        <v>724</v>
+      </c>
+      <c r="D112" s="9" t="s">
+        <v>398</v>
+      </c>
+      <c r="E112" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F112" s="9" t="s">
+        <v>756</v>
+      </c>
+      <c r="G112" s="9" t="s">
+        <v>757</v>
+      </c>
+      <c r="H112" s="9"/>
+      <c r="I112" s="28" t="s">
+        <v>758</v>
+      </c>
+      <c r="J112" s="26" t="s">
+        <v>759</v>
+      </c>
+      <c r="K112" s="9"/>
+    </row>
+    <row r="113" spans="1:11" ht="13">
+      <c r="A113" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="B113" s="9" t="s">
+        <v>262</v>
+      </c>
+      <c r="C113" s="9" t="s">
+        <v>276</v>
+      </c>
+      <c r="D113" s="9" t="s">
+        <v>398</v>
+      </c>
+      <c r="E113" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F113" s="9" t="s">
+        <v>277</v>
+      </c>
+      <c r="G113" s="9" t="s">
+        <v>622</v>
+      </c>
+      <c r="H113" s="9"/>
+      <c r="I113" s="11" t="s">
         <v>623</v>
       </c>
-      <c r="J111" s="26"/>
-      <c r="K111" s="9"/>
-    </row>
-    <row r="112" spans="1:11" ht="13">
-      <c r="A112" s="14" t="s">
-        <v>278</v>
-      </c>
-      <c r="B112" s="14" t="s">
-        <v>624</v>
-      </c>
-      <c r="C112" s="14" t="s">
-        <v>625</v>
-      </c>
-      <c r="D112" s="14" t="s">
-        <v>157</v>
-      </c>
-      <c r="E112" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="F112" s="14" t="s">
-        <v>626</v>
-      </c>
-      <c r="G112" s="14" t="s">
-        <v>627</v>
-      </c>
-      <c r="H112" s="14"/>
-      <c r="I112" s="16" t="s">
-        <v>628</v>
-      </c>
-      <c r="J112" s="17" t="s">
-        <v>629</v>
-      </c>
-      <c r="K112" s="14"/>
-    </row>
-    <row r="113" spans="1:11" ht="13">
-      <c r="A113" s="14" t="s">
-        <v>278</v>
-      </c>
-      <c r="B113" s="14" t="s">
-        <v>624</v>
-      </c>
-      <c r="C113" s="14" t="s">
-        <v>630</v>
-      </c>
-      <c r="D113" s="14" t="s">
-        <v>411</v>
-      </c>
-      <c r="E113" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="F113" s="14" t="s">
-        <v>631</v>
-      </c>
-      <c r="G113" s="14" t="s">
-        <v>632</v>
-      </c>
-      <c r="H113" s="14"/>
-      <c r="I113" s="16" t="s">
-        <v>633</v>
-      </c>
-      <c r="J113" s="17" t="s">
-        <v>634</v>
-      </c>
-      <c r="K113" s="14"/>
+      <c r="J113" s="26"/>
+      <c r="K113" s="9"/>
     </row>
     <row r="114" spans="1:11" ht="13">
       <c r="A114" s="14" t="s">
         <v>278</v>
       </c>
       <c r="B114" s="14" t="s">
-        <v>279</v>
+        <v>624</v>
       </c>
       <c r="C114" s="14" t="s">
-        <v>635</v>
+        <v>625</v>
       </c>
       <c r="D114" s="14" t="s">
-        <v>47</v>
+        <v>157</v>
       </c>
       <c r="E114" s="14" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="F114" s="14" t="s">
-        <v>636</v>
+        <v>626</v>
       </c>
       <c r="G114" s="14" t="s">
-        <v>637</v>
+        <v>627</v>
       </c>
       <c r="H114" s="14"/>
-      <c r="I114" s="15" t="s">
-        <v>638</v>
+      <c r="I114" s="16" t="s">
+        <v>628</v>
       </c>
       <c r="J114" s="17" t="s">
-        <v>639</v>
+        <v>629</v>
       </c>
       <c r="K114" s="14"/>
     </row>
@@ -14475,29 +14520,29 @@
         <v>278</v>
       </c>
       <c r="B115" s="14" t="s">
-        <v>279</v>
+        <v>624</v>
       </c>
       <c r="C115" s="14" t="s">
-        <v>640</v>
+        <v>630</v>
       </c>
       <c r="D115" s="14" t="s">
-        <v>157</v>
+        <v>411</v>
       </c>
       <c r="E115" s="14" t="s">
         <v>25</v>
       </c>
       <c r="F115" s="14" t="s">
-        <v>641</v>
+        <v>631</v>
       </c>
       <c r="G115" s="14" t="s">
-        <v>642</v>
+        <v>632</v>
       </c>
       <c r="H115" s="14"/>
-      <c r="I115" s="15" t="s">
-        <v>643</v>
+      <c r="I115" s="16" t="s">
+        <v>633</v>
       </c>
       <c r="J115" s="17" t="s">
-        <v>644</v>
+        <v>634</v>
       </c>
       <c r="K115" s="14"/>
     </row>
@@ -14509,26 +14554,26 @@
         <v>279</v>
       </c>
       <c r="C116" s="14" t="s">
-        <v>645</v>
+        <v>635</v>
       </c>
       <c r="D116" s="14" t="s">
-        <v>411</v>
+        <v>47</v>
       </c>
       <c r="E116" s="14" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="F116" s="14" t="s">
-        <v>646</v>
+        <v>636</v>
       </c>
       <c r="G116" s="14" t="s">
-        <v>647</v>
+        <v>637</v>
       </c>
       <c r="H116" s="14"/>
       <c r="I116" s="15" t="s">
-        <v>648</v>
+        <v>638</v>
       </c>
       <c r="J116" s="17" t="s">
-        <v>649</v>
+        <v>639</v>
       </c>
       <c r="K116" s="14"/>
     </row>
@@ -14540,25 +14585,27 @@
         <v>279</v>
       </c>
       <c r="C117" s="14" t="s">
-        <v>381</v>
+        <v>640</v>
       </c>
       <c r="D117" s="14" t="s">
-        <v>382</v>
+        <v>157</v>
       </c>
       <c r="E117" s="14" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="F117" s="14" t="s">
-        <v>650</v>
+        <v>641</v>
       </c>
       <c r="G117" s="14" t="s">
-        <v>651</v>
+        <v>642</v>
       </c>
       <c r="H117" s="14"/>
       <c r="I117" s="15" t="s">
-        <v>652</v>
-      </c>
-      <c r="J117" s="17"/>
+        <v>643</v>
+      </c>
+      <c r="J117" s="17" t="s">
+        <v>644</v>
+      </c>
       <c r="K117" s="14"/>
     </row>
     <row r="118" spans="1:11" ht="13">
@@ -14569,26 +14616,26 @@
         <v>279</v>
       </c>
       <c r="C118" s="14" t="s">
-        <v>280</v>
+        <v>645</v>
       </c>
       <c r="D118" s="14" t="s">
-        <v>157</v>
+        <v>411</v>
       </c>
       <c r="E118" s="14" t="s">
         <v>25</v>
       </c>
       <c r="F118" s="14" t="s">
-        <v>281</v>
+        <v>646</v>
       </c>
       <c r="G118" s="14" t="s">
-        <v>653</v>
+        <v>647</v>
       </c>
       <c r="H118" s="14"/>
       <c r="I118" s="15" t="s">
-        <v>282</v>
+        <v>648</v>
       </c>
       <c r="J118" s="17" t="s">
-        <v>654</v>
+        <v>649</v>
       </c>
       <c r="K118" s="14"/>
     </row>
@@ -14600,27 +14647,25 @@
         <v>279</v>
       </c>
       <c r="C119" s="14" t="s">
-        <v>283</v>
+        <v>381</v>
       </c>
       <c r="D119" s="14" t="s">
-        <v>411</v>
+        <v>382</v>
       </c>
       <c r="E119" s="14" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="F119" s="14" t="s">
-        <v>284</v>
+        <v>650</v>
       </c>
       <c r="G119" s="14" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
       <c r="H119" s="14"/>
       <c r="I119" s="15" t="s">
-        <v>285</v>
-      </c>
-      <c r="J119" s="17" t="s">
-        <v>656</v>
-      </c>
+        <v>652</v>
+      </c>
+      <c r="J119" s="17"/>
       <c r="K119" s="14"/>
     </row>
     <row r="120" spans="1:11" ht="13">
@@ -14631,26 +14676,26 @@
         <v>279</v>
       </c>
       <c r="C120" s="14" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="D120" s="14" t="s">
-        <v>419</v>
+        <v>157</v>
       </c>
       <c r="E120" s="14" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="F120" s="14" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="G120" s="14" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
       <c r="H120" s="14"/>
-      <c r="I120" s="16" t="s">
-        <v>288</v>
+      <c r="I120" s="15" t="s">
+        <v>282</v>
       </c>
       <c r="J120" s="17" t="s">
-        <v>658</v>
+        <v>654</v>
       </c>
       <c r="K120" s="14"/>
     </row>
@@ -14662,26 +14707,26 @@
         <v>279</v>
       </c>
       <c r="C121" s="14" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="D121" s="14" t="s">
-        <v>117</v>
+        <v>411</v>
       </c>
       <c r="E121" s="14" t="s">
         <v>25</v>
       </c>
       <c r="F121" s="14" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="G121" s="14" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="H121" s="14"/>
-      <c r="I121" s="16" t="s">
-        <v>291</v>
+      <c r="I121" s="15" t="s">
+        <v>285</v>
       </c>
       <c r="J121" s="17" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
       <c r="K121" s="14"/>
     </row>
@@ -14693,26 +14738,26 @@
         <v>279</v>
       </c>
       <c r="C122" s="14" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="D122" s="14" t="s">
-        <v>47</v>
+        <v>419</v>
       </c>
       <c r="E122" s="14" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="F122" s="14" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="G122" s="14" t="s">
-        <v>661</v>
+        <v>657</v>
       </c>
       <c r="H122" s="14"/>
       <c r="I122" s="16" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="J122" s="17" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
       <c r="K122" s="14"/>
     </row>
@@ -14724,26 +14769,26 @@
         <v>279</v>
       </c>
       <c r="C123" s="14" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="D123" s="14" t="s">
-        <v>411</v>
+        <v>117</v>
       </c>
       <c r="E123" s="14" t="s">
         <v>25</v>
       </c>
       <c r="F123" s="14" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="G123" s="14" t="s">
-        <v>663</v>
+        <v>659</v>
       </c>
       <c r="H123" s="14"/>
       <c r="I123" s="16" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="J123" s="17" t="s">
-        <v>664</v>
+        <v>660</v>
       </c>
       <c r="K123" s="14"/>
     </row>
@@ -14755,26 +14800,26 @@
         <v>279</v>
       </c>
       <c r="C124" s="14" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="D124" s="14" t="s">
-        <v>411</v>
+        <v>47</v>
       </c>
       <c r="E124" s="14" t="s">
         <v>25</v>
       </c>
       <c r="F124" s="14" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="G124" s="14" t="s">
-        <v>665</v>
+        <v>661</v>
       </c>
       <c r="H124" s="14"/>
       <c r="I124" s="16" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="J124" s="17" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
       <c r="K124" s="14"/>
     </row>
@@ -14786,26 +14831,26 @@
         <v>279</v>
       </c>
       <c r="C125" s="14" t="s">
-        <v>191</v>
+        <v>295</v>
       </c>
       <c r="D125" s="14" t="s">
-        <v>117</v>
+        <v>411</v>
       </c>
       <c r="E125" s="14" t="s">
         <v>25</v>
       </c>
       <c r="F125" s="14" t="s">
-        <v>760</v>
+        <v>296</v>
       </c>
       <c r="G125" s="14" t="s">
-        <v>761</v>
+        <v>663</v>
       </c>
       <c r="H125" s="14"/>
-      <c r="I125" s="29" t="s">
-        <v>762</v>
+      <c r="I125" s="16" t="s">
+        <v>297</v>
       </c>
       <c r="J125" s="17" t="s">
-        <v>558</v>
+        <v>664</v>
       </c>
       <c r="K125" s="14"/>
     </row>
@@ -14817,26 +14862,26 @@
         <v>279</v>
       </c>
       <c r="C126" s="14" t="s">
-        <v>867</v>
+        <v>298</v>
       </c>
       <c r="D126" s="14" t="s">
-        <v>55</v>
+        <v>411</v>
       </c>
       <c r="E126" s="14" t="s">
         <v>25</v>
       </c>
       <c r="F126" s="14" t="s">
-        <v>868</v>
+        <v>299</v>
       </c>
       <c r="G126" s="14" t="s">
-        <v>869</v>
+        <v>665</v>
       </c>
       <c r="H126" s="14"/>
-      <c r="I126" s="29" t="s">
-        <v>870</v>
+      <c r="I126" s="16" t="s">
+        <v>300</v>
       </c>
       <c r="J126" s="17" t="s">
-        <v>871</v>
+        <v>666</v>
       </c>
       <c r="K126" s="14"/>
     </row>
@@ -14845,10 +14890,10 @@
         <v>278</v>
       </c>
       <c r="B127" s="14" t="s">
-        <v>301</v>
+        <v>279</v>
       </c>
       <c r="C127" s="14" t="s">
-        <v>302</v>
+        <v>191</v>
       </c>
       <c r="D127" s="14" t="s">
         <v>117</v>
@@ -14857,17 +14902,17 @@
         <v>25</v>
       </c>
       <c r="F127" s="14" t="s">
-        <v>303</v>
+        <v>760</v>
       </c>
       <c r="G127" s="14" t="s">
-        <v>667</v>
+        <v>761</v>
       </c>
       <c r="H127" s="14"/>
-      <c r="I127" s="15" t="s">
-        <v>304</v>
+      <c r="I127" s="29" t="s">
+        <v>762</v>
       </c>
       <c r="J127" s="17" t="s">
-        <v>668</v>
+        <v>558</v>
       </c>
       <c r="K127" s="14"/>
     </row>
@@ -14876,29 +14921,29 @@
         <v>278</v>
       </c>
       <c r="B128" s="14" t="s">
-        <v>301</v>
+        <v>279</v>
       </c>
       <c r="C128" s="14" t="s">
-        <v>381</v>
+        <v>867</v>
       </c>
       <c r="D128" s="14" t="s">
-        <v>382</v>
+        <v>55</v>
       </c>
       <c r="E128" s="14" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="F128" s="14" t="s">
-        <v>669</v>
+        <v>868</v>
       </c>
       <c r="G128" s="14" t="s">
-        <v>670</v>
+        <v>869</v>
       </c>
       <c r="H128" s="14"/>
-      <c r="I128" s="15" t="s">
-        <v>671</v>
+      <c r="I128" s="29" t="s">
+        <v>870</v>
       </c>
       <c r="J128" s="17" t="s">
-        <v>672</v>
+        <v>871</v>
       </c>
       <c r="K128" s="14"/>
     </row>
@@ -14907,29 +14952,29 @@
         <v>278</v>
       </c>
       <c r="B129" s="14" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="C129" s="14" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="D129" s="14" t="s">
-        <v>411</v>
+        <v>117</v>
       </c>
       <c r="E129" s="14" t="s">
         <v>25</v>
       </c>
       <c r="F129" s="14" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="G129" s="14" t="s">
-        <v>673</v>
+        <v>667</v>
       </c>
       <c r="H129" s="14"/>
       <c r="I129" s="15" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="J129" s="17" t="s">
-        <v>674</v>
+        <v>668</v>
       </c>
       <c r="K129" s="14"/>
     </row>
@@ -14938,29 +14983,29 @@
         <v>278</v>
       </c>
       <c r="B130" s="14" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="C130" s="14" t="s">
-        <v>298</v>
+        <v>381</v>
       </c>
       <c r="D130" s="14" t="s">
-        <v>411</v>
+        <v>382</v>
       </c>
       <c r="E130" s="14" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="F130" s="14" t="s">
-        <v>309</v>
+        <v>669</v>
       </c>
       <c r="G130" s="14" t="s">
-        <v>675</v>
+        <v>670</v>
       </c>
       <c r="H130" s="14"/>
       <c r="I130" s="15" t="s">
-        <v>310</v>
+        <v>671</v>
       </c>
       <c r="J130" s="17" t="s">
-        <v>676</v>
+        <v>672</v>
       </c>
       <c r="K130" s="14"/>
     </row>
@@ -14972,26 +15017,26 @@
         <v>305</v>
       </c>
       <c r="C131" s="14" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="D131" s="14" t="s">
-        <v>312</v>
+        <v>411</v>
       </c>
       <c r="E131" s="14" t="s">
         <v>25</v>
       </c>
       <c r="F131" s="14" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="G131" s="14" t="s">
-        <v>677</v>
+        <v>673</v>
       </c>
       <c r="H131" s="14"/>
       <c r="I131" s="15" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="J131" s="17" t="s">
-        <v>678</v>
+        <v>674</v>
       </c>
       <c r="K131" s="14"/>
     </row>
@@ -15003,7 +15048,7 @@
         <v>305</v>
       </c>
       <c r="C132" s="14" t="s">
-        <v>729</v>
+        <v>298</v>
       </c>
       <c r="D132" s="14" t="s">
         <v>411</v>
@@ -15012,17 +15057,17 @@
         <v>25</v>
       </c>
       <c r="F132" s="14" t="s">
-        <v>763</v>
+        <v>309</v>
       </c>
       <c r="G132" s="14" t="s">
-        <v>764</v>
+        <v>675</v>
       </c>
       <c r="H132" s="14"/>
-      <c r="I132" s="29" t="s">
-        <v>765</v>
+      <c r="I132" s="15" t="s">
+        <v>310</v>
       </c>
       <c r="J132" s="17" t="s">
-        <v>766</v>
+        <v>676</v>
       </c>
       <c r="K132" s="14"/>
     </row>
@@ -15031,29 +15076,29 @@
         <v>278</v>
       </c>
       <c r="B133" s="14" t="s">
-        <v>315</v>
+        <v>305</v>
       </c>
       <c r="C133" s="14" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="D133" s="14" t="s">
-        <v>411</v>
+        <v>312</v>
       </c>
       <c r="E133" s="14" t="s">
         <v>25</v>
       </c>
       <c r="F133" s="14" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="G133" s="14" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="H133" s="14"/>
       <c r="I133" s="15" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="J133" s="17" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="K133" s="14"/>
     </row>
@@ -15062,29 +15107,29 @@
         <v>278</v>
       </c>
       <c r="B134" s="14" t="s">
-        <v>315</v>
+        <v>305</v>
       </c>
       <c r="C134" s="14" t="s">
-        <v>720</v>
+        <v>729</v>
       </c>
       <c r="D134" s="14" t="s">
-        <v>55</v>
+        <v>411</v>
       </c>
       <c r="E134" s="14" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="F134" s="14" t="s">
-        <v>767</v>
+        <v>763</v>
       </c>
       <c r="G134" s="14" t="s">
-        <v>768</v>
+        <v>764</v>
       </c>
       <c r="H134" s="14"/>
       <c r="I134" s="29" t="s">
-        <v>769</v>
+        <v>765</v>
       </c>
       <c r="J134" s="17" t="s">
-        <v>770</v>
+        <v>766</v>
       </c>
       <c r="K134" s="14"/>
     </row>
@@ -15096,7 +15141,7 @@
         <v>315</v>
       </c>
       <c r="C135" s="14" t="s">
-        <v>791</v>
+        <v>316</v>
       </c>
       <c r="D135" s="14" t="s">
         <v>411</v>
@@ -15105,17 +15150,17 @@
         <v>25</v>
       </c>
       <c r="F135" s="14" t="s">
-        <v>792</v>
+        <v>317</v>
       </c>
       <c r="G135" s="14" t="s">
-        <v>793</v>
+        <v>679</v>
       </c>
       <c r="H135" s="14"/>
-      <c r="I135" s="29" t="s">
-        <v>794</v>
+      <c r="I135" s="15" t="s">
+        <v>318</v>
       </c>
       <c r="J135" s="17" t="s">
-        <v>795</v>
+        <v>680</v>
       </c>
       <c r="K135" s="14"/>
     </row>
@@ -15124,29 +15169,29 @@
         <v>278</v>
       </c>
       <c r="B136" s="14" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="C136" s="14" t="s">
-        <v>320</v>
+        <v>720</v>
       </c>
       <c r="D136" s="14" t="s">
-        <v>411</v>
+        <v>55</v>
       </c>
       <c r="E136" s="14" t="s">
         <v>14</v>
       </c>
       <c r="F136" s="14" t="s">
-        <v>681</v>
+        <v>767</v>
       </c>
       <c r="G136" s="14" t="s">
-        <v>682</v>
+        <v>768</v>
       </c>
       <c r="H136" s="14"/>
-      <c r="I136" s="16" t="s">
-        <v>683</v>
+      <c r="I136" s="29" t="s">
+        <v>769</v>
       </c>
       <c r="J136" s="17" t="s">
-        <v>684</v>
+        <v>770</v>
       </c>
       <c r="K136" s="14"/>
     </row>
@@ -15155,29 +15200,29 @@
         <v>278</v>
       </c>
       <c r="B137" s="14" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="C137" s="14" t="s">
-        <v>323</v>
+        <v>791</v>
       </c>
       <c r="D137" s="14" t="s">
         <v>411</v>
       </c>
       <c r="E137" s="14" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="F137" s="14" t="s">
-        <v>324</v>
+        <v>792</v>
       </c>
       <c r="G137" s="14" t="s">
-        <v>685</v>
+        <v>793</v>
       </c>
       <c r="H137" s="14"/>
-      <c r="I137" s="15" t="s">
-        <v>325</v>
+      <c r="I137" s="29" t="s">
+        <v>794</v>
       </c>
       <c r="J137" s="17" t="s">
-        <v>686</v>
+        <v>795</v>
       </c>
       <c r="K137" s="14"/>
     </row>
@@ -15189,7 +15234,7 @@
         <v>319</v>
       </c>
       <c r="C138" s="14" t="s">
-        <v>687</v>
+        <v>320</v>
       </c>
       <c r="D138" s="14" t="s">
         <v>411</v>
@@ -15198,17 +15243,17 @@
         <v>14</v>
       </c>
       <c r="F138" s="14" t="s">
-        <v>327</v>
+        <v>681</v>
       </c>
       <c r="G138" s="14" t="s">
-        <v>688</v>
+        <v>682</v>
       </c>
       <c r="H138" s="14"/>
-      <c r="I138" s="15" t="s">
-        <v>328</v>
+      <c r="I138" s="16" t="s">
+        <v>683</v>
       </c>
       <c r="J138" s="17" t="s">
-        <v>689</v>
+        <v>684</v>
       </c>
       <c r="K138" s="14"/>
     </row>
@@ -15217,29 +15262,29 @@
         <v>278</v>
       </c>
       <c r="B139" s="14" t="s">
-        <v>329</v>
+        <v>319</v>
       </c>
       <c r="C139" s="14" t="s">
-        <v>167</v>
+        <v>323</v>
       </c>
       <c r="D139" s="14" t="s">
         <v>411</v>
       </c>
       <c r="E139" s="14" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="F139" s="14" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="G139" s="14" t="s">
-        <v>690</v>
+        <v>685</v>
       </c>
       <c r="H139" s="14"/>
       <c r="I139" s="15" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="J139" s="17" t="s">
-        <v>691</v>
+        <v>686</v>
       </c>
       <c r="K139" s="14"/>
     </row>
@@ -15248,29 +15293,29 @@
         <v>278</v>
       </c>
       <c r="B140" s="14" t="s">
-        <v>329</v>
+        <v>319</v>
       </c>
       <c r="C140" s="14" t="s">
-        <v>332</v>
+        <v>687</v>
       </c>
       <c r="D140" s="14" t="s">
-        <v>419</v>
+        <v>411</v>
       </c>
       <c r="E140" s="14" t="s">
         <v>14</v>
       </c>
       <c r="F140" s="14" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="G140" s="14" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="H140" s="14"/>
       <c r="I140" s="15" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="J140" s="17" t="s">
-        <v>693</v>
+        <v>689</v>
       </c>
       <c r="K140" s="14"/>
     </row>
@@ -15282,26 +15327,26 @@
         <v>329</v>
       </c>
       <c r="C141" s="14" t="s">
-        <v>335</v>
+        <v>167</v>
       </c>
       <c r="D141" s="14" t="s">
-        <v>47</v>
+        <v>411</v>
       </c>
       <c r="E141" s="14" t="s">
         <v>25</v>
       </c>
       <c r="F141" s="14" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="G141" s="14" t="s">
-        <v>694</v>
+        <v>690</v>
       </c>
       <c r="H141" s="14"/>
       <c r="I141" s="15" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="J141" s="17" t="s">
-        <v>695</v>
+        <v>691</v>
       </c>
       <c r="K141" s="14"/>
     </row>
@@ -15313,26 +15358,26 @@
         <v>329</v>
       </c>
       <c r="C142" s="14" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="D142" s="14" t="s">
-        <v>117</v>
+        <v>419</v>
       </c>
       <c r="E142" s="14" t="s">
-        <v>39</v>
+        <v>14</v>
       </c>
       <c r="F142" s="14" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="G142" s="14" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
       <c r="H142" s="14"/>
       <c r="I142" s="15" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="J142" s="17" t="s">
-        <v>697</v>
+        <v>693</v>
       </c>
       <c r="K142" s="14"/>
     </row>
@@ -15344,26 +15389,26 @@
         <v>329</v>
       </c>
       <c r="C143" s="14" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="D143" s="14" t="s">
-        <v>342</v>
+        <v>47</v>
       </c>
       <c r="E143" s="14" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="F143" s="14" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="G143" s="14" t="s">
-        <v>698</v>
+        <v>694</v>
       </c>
       <c r="H143" s="14"/>
       <c r="I143" s="15" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="J143" s="17" t="s">
-        <v>699</v>
+        <v>695</v>
       </c>
       <c r="K143" s="14"/>
     </row>
@@ -15375,26 +15420,26 @@
         <v>329</v>
       </c>
       <c r="C144" s="14" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="D144" s="14" t="s">
-        <v>47</v>
+        <v>117</v>
       </c>
       <c r="E144" s="14" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="F144" s="14" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
       <c r="G144" s="14" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
       <c r="H144" s="14"/>
       <c r="I144" s="15" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
       <c r="J144" s="17" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="K144" s="14"/>
     </row>
@@ -15403,29 +15448,29 @@
         <v>278</v>
       </c>
       <c r="B145" s="14" t="s">
-        <v>348</v>
+        <v>329</v>
       </c>
       <c r="C145" s="14" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
       <c r="D145" s="14" t="s">
-        <v>75</v>
+        <v>342</v>
       </c>
       <c r="E145" s="14" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="F145" s="14" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="G145" s="14" t="s">
-        <v>702</v>
+        <v>698</v>
       </c>
       <c r="H145" s="14"/>
-      <c r="I145" s="29" t="s">
-        <v>862</v>
+      <c r="I145" s="15" t="s">
+        <v>344</v>
       </c>
       <c r="J145" s="17" t="s">
-        <v>703</v>
+        <v>699</v>
       </c>
       <c r="K145" s="14"/>
     </row>
@@ -15434,29 +15479,29 @@
         <v>278</v>
       </c>
       <c r="B146" s="14" t="s">
-        <v>348</v>
+        <v>329</v>
       </c>
       <c r="C146" s="14" t="s">
-        <v>704</v>
+        <v>345</v>
       </c>
       <c r="D146" s="14" t="s">
-        <v>419</v>
+        <v>47</v>
       </c>
       <c r="E146" s="14" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="F146" s="14" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="G146" s="14" t="s">
-        <v>705</v>
+        <v>700</v>
       </c>
       <c r="H146" s="14"/>
-      <c r="I146" s="16" t="s">
-        <v>354</v>
+      <c r="I146" s="15" t="s">
+        <v>347</v>
       </c>
       <c r="J146" s="17" t="s">
-        <v>706</v>
+        <v>701</v>
       </c>
       <c r="K146" s="14"/>
     </row>
@@ -15465,29 +15510,29 @@
         <v>278</v>
       </c>
       <c r="B147" s="14" t="s">
-        <v>355</v>
+        <v>348</v>
       </c>
       <c r="C147" s="14" t="s">
-        <v>302</v>
+        <v>349</v>
       </c>
       <c r="D147" s="14" t="s">
-        <v>117</v>
+        <v>75</v>
       </c>
       <c r="E147" s="14" t="s">
         <v>25</v>
       </c>
       <c r="F147" s="14" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="G147" s="14" t="s">
-        <v>707</v>
+        <v>702</v>
       </c>
       <c r="H147" s="14"/>
-      <c r="I147" s="15" t="s">
-        <v>357</v>
+      <c r="I147" s="29" t="s">
+        <v>862</v>
       </c>
       <c r="J147" s="17" t="s">
-        <v>708</v>
+        <v>703</v>
       </c>
       <c r="K147" s="14"/>
     </row>
@@ -15496,29 +15541,29 @@
         <v>278</v>
       </c>
       <c r="B148" s="14" t="s">
-        <v>355</v>
+        <v>348</v>
       </c>
       <c r="C148" s="14" t="s">
-        <v>358</v>
+        <v>704</v>
       </c>
       <c r="D148" s="14" t="s">
-        <v>411</v>
+        <v>419</v>
       </c>
       <c r="E148" s="14" t="s">
         <v>25</v>
       </c>
       <c r="F148" s="14" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="G148" s="14" t="s">
-        <v>709</v>
+        <v>705</v>
       </c>
       <c r="H148" s="14"/>
-      <c r="I148" s="15" t="s">
-        <v>360</v>
+      <c r="I148" s="16" t="s">
+        <v>354</v>
       </c>
       <c r="J148" s="17" t="s">
-        <v>710</v>
+        <v>706</v>
       </c>
       <c r="K148" s="14"/>
     </row>
@@ -15530,26 +15575,26 @@
         <v>355</v>
       </c>
       <c r="C149" s="14" t="s">
-        <v>723</v>
+        <v>302</v>
       </c>
       <c r="D149" s="14" t="s">
-        <v>51</v>
+        <v>117</v>
       </c>
       <c r="E149" s="14" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="F149" s="14" t="s">
-        <v>771</v>
+        <v>356</v>
       </c>
       <c r="G149" s="14" t="s">
-        <v>772</v>
+        <v>707</v>
       </c>
       <c r="H149" s="14"/>
-      <c r="I149" s="29" t="s">
-        <v>773</v>
+      <c r="I149" s="15" t="s">
+        <v>357</v>
       </c>
       <c r="J149" s="17" t="s">
-        <v>774</v>
+        <v>708</v>
       </c>
       <c r="K149" s="14"/>
     </row>
@@ -15558,10 +15603,10 @@
         <v>278</v>
       </c>
       <c r="B150" s="14" t="s">
-        <v>711</v>
-      </c>
-      <c r="C150" s="17" t="s">
-        <v>712</v>
+        <v>355</v>
+      </c>
+      <c r="C150" s="14" t="s">
+        <v>358</v>
       </c>
       <c r="D150" s="14" t="s">
         <v>411</v>
@@ -15570,17 +15615,17 @@
         <v>25</v>
       </c>
       <c r="F150" s="14" t="s">
-        <v>713</v>
+        <v>359</v>
       </c>
       <c r="G150" s="14" t="s">
-        <v>714</v>
+        <v>709</v>
       </c>
       <c r="H150" s="14"/>
       <c r="I150" s="15" t="s">
-        <v>715</v>
+        <v>360</v>
       </c>
       <c r="J150" s="17" t="s">
-        <v>716</v>
+        <v>710</v>
       </c>
       <c r="K150" s="14"/>
     </row>
@@ -15589,62 +15634,155 @@
         <v>278</v>
       </c>
       <c r="B151" s="14" t="s">
-        <v>361</v>
-      </c>
-      <c r="C151" s="17" t="s">
-        <v>362</v>
+        <v>355</v>
+      </c>
+      <c r="C151" s="14" t="s">
+        <v>723</v>
       </c>
       <c r="D151" s="14" t="s">
-        <v>419</v>
+        <v>51</v>
       </c>
       <c r="E151" s="14" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="F151" s="14" t="s">
-        <v>363</v>
+        <v>771</v>
       </c>
       <c r="G151" s="14" t="s">
-        <v>717</v>
+        <v>772</v>
       </c>
       <c r="H151" s="14"/>
-      <c r="I151" s="15" t="s">
-        <v>364</v>
+      <c r="I151" s="29" t="s">
+        <v>773</v>
       </c>
       <c r="J151" s="17" t="s">
-        <v>718</v>
+        <v>774</v>
       </c>
       <c r="K151" s="14"/>
     </row>
-    <row r="152" spans="1:11" ht="15.75" customHeight="1">
+    <row r="152" spans="1:11" ht="13">
       <c r="A152" s="14" t="s">
-        <v>775</v>
+        <v>278</v>
       </c>
       <c r="B152" s="14" t="s">
-        <v>777</v>
+        <v>355</v>
       </c>
       <c r="C152" s="14" t="s">
-        <v>725</v>
+        <v>887</v>
       </c>
       <c r="D152" s="14" t="s">
         <v>411</v>
       </c>
       <c r="E152" s="14" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="F152" s="14" t="s">
-        <v>776</v>
+        <v>888</v>
       </c>
       <c r="G152" s="14" t="s">
-        <v>778</v>
+        <v>889</v>
       </c>
       <c r="H152" s="14"/>
       <c r="I152" s="29" t="s">
+        <v>890</v>
+      </c>
+      <c r="J152" s="17" t="s">
+        <v>891</v>
+      </c>
+      <c r="K152" s="14"/>
+    </row>
+    <row r="153" spans="1:11" ht="13">
+      <c r="A153" s="14" t="s">
+        <v>278</v>
+      </c>
+      <c r="B153" s="14" t="s">
+        <v>711</v>
+      </c>
+      <c r="C153" s="17" t="s">
+        <v>712</v>
+      </c>
+      <c r="D153" s="14" t="s">
+        <v>411</v>
+      </c>
+      <c r="E153" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="F153" s="14" t="s">
+        <v>713</v>
+      </c>
+      <c r="G153" s="14" t="s">
+        <v>714</v>
+      </c>
+      <c r="H153" s="14"/>
+      <c r="I153" s="15" t="s">
+        <v>715</v>
+      </c>
+      <c r="J153" s="17" t="s">
+        <v>716</v>
+      </c>
+      <c r="K153" s="14"/>
+    </row>
+    <row r="154" spans="1:11" ht="13">
+      <c r="A154" s="14" t="s">
+        <v>278</v>
+      </c>
+      <c r="B154" s="14" t="s">
+        <v>361</v>
+      </c>
+      <c r="C154" s="17" t="s">
+        <v>362</v>
+      </c>
+      <c r="D154" s="14" t="s">
+        <v>419</v>
+      </c>
+      <c r="E154" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="F154" s="14" t="s">
+        <v>363</v>
+      </c>
+      <c r="G154" s="14" t="s">
+        <v>717</v>
+      </c>
+      <c r="H154" s="14"/>
+      <c r="I154" s="15" t="s">
+        <v>364</v>
+      </c>
+      <c r="J154" s="17" t="s">
+        <v>718</v>
+      </c>
+      <c r="K154" s="14"/>
+    </row>
+    <row r="155" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A155" s="14" t="s">
+        <v>775</v>
+      </c>
+      <c r="B155" s="14" t="s">
+        <v>777</v>
+      </c>
+      <c r="C155" s="14" t="s">
+        <v>725</v>
+      </c>
+      <c r="D155" s="14" t="s">
+        <v>411</v>
+      </c>
+      <c r="E155" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="F155" s="14" t="s">
+        <v>776</v>
+      </c>
+      <c r="G155" s="14" t="s">
+        <v>778</v>
+      </c>
+      <c r="H155" s="14"/>
+      <c r="I155" s="29" t="s">
         <v>779</v>
       </c>
-      <c r="J152" s="17" t="s">
+      <c r="J155" s="17" t="s">
         <v>780</v>
       </c>
-      <c r="K152" s="14"/>
+      <c r="K155" s="14"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -15682,123 +15820,126 @@
     <hyperlink ref="I36" r:id="rId32" xr:uid="{00000000-0004-0000-0100-00001F000000}"/>
     <hyperlink ref="I39" r:id="rId33" xr:uid="{00000000-0004-0000-0100-000020000000}"/>
     <hyperlink ref="I40" r:id="rId34" xr:uid="{00000000-0004-0000-0100-000021000000}"/>
-    <hyperlink ref="I42" r:id="rId35" xr:uid="{00000000-0004-0000-0100-000022000000}"/>
-    <hyperlink ref="I43" r:id="rId36" xr:uid="{00000000-0004-0000-0100-000023000000}"/>
-    <hyperlink ref="I44" r:id="rId37" xr:uid="{00000000-0004-0000-0100-000024000000}"/>
-    <hyperlink ref="I45" r:id="rId38" xr:uid="{00000000-0004-0000-0100-000025000000}"/>
-    <hyperlink ref="I46" r:id="rId39" xr:uid="{00000000-0004-0000-0100-000026000000}"/>
-    <hyperlink ref="I47" r:id="rId40" xr:uid="{00000000-0004-0000-0100-000027000000}"/>
-    <hyperlink ref="I48" r:id="rId41" xr:uid="{00000000-0004-0000-0100-000028000000}"/>
-    <hyperlink ref="I49" r:id="rId42" xr:uid="{00000000-0004-0000-0100-000029000000}"/>
-    <hyperlink ref="I50" r:id="rId43" xr:uid="{00000000-0004-0000-0100-00002A000000}"/>
-    <hyperlink ref="I51" r:id="rId44" xr:uid="{00000000-0004-0000-0100-00002B000000}"/>
-    <hyperlink ref="I52" r:id="rId45" xr:uid="{00000000-0004-0000-0100-00002C000000}"/>
-    <hyperlink ref="I54" r:id="rId46" xr:uid="{00000000-0004-0000-0100-00002D000000}"/>
-    <hyperlink ref="I55" r:id="rId47" xr:uid="{00000000-0004-0000-0100-00002E000000}"/>
-    <hyperlink ref="I56" r:id="rId48" xr:uid="{00000000-0004-0000-0100-00002F000000}"/>
-    <hyperlink ref="I61" r:id="rId49" xr:uid="{00000000-0004-0000-0100-000030000000}"/>
-    <hyperlink ref="I62" r:id="rId50" xr:uid="{00000000-0004-0000-0100-000031000000}"/>
-    <hyperlink ref="I63" r:id="rId51" xr:uid="{00000000-0004-0000-0100-000032000000}"/>
-    <hyperlink ref="I64" r:id="rId52" xr:uid="{00000000-0004-0000-0100-000033000000}"/>
-    <hyperlink ref="I65" r:id="rId53" xr:uid="{00000000-0004-0000-0100-000034000000}"/>
-    <hyperlink ref="I68" r:id="rId54" xr:uid="{00000000-0004-0000-0100-000035000000}"/>
-    <hyperlink ref="I69" r:id="rId55" xr:uid="{00000000-0004-0000-0100-000036000000}"/>
-    <hyperlink ref="I70" r:id="rId56" xr:uid="{00000000-0004-0000-0100-000037000000}"/>
-    <hyperlink ref="I71" r:id="rId57" xr:uid="{00000000-0004-0000-0100-000038000000}"/>
-    <hyperlink ref="I72" r:id="rId58" xr:uid="{00000000-0004-0000-0100-000039000000}"/>
-    <hyperlink ref="I73" r:id="rId59" xr:uid="{00000000-0004-0000-0100-00003A000000}"/>
-    <hyperlink ref="I74" r:id="rId60" xr:uid="{00000000-0004-0000-0100-00003B000000}"/>
-    <hyperlink ref="I75" r:id="rId61" xr:uid="{00000000-0004-0000-0100-00003C000000}"/>
-    <hyperlink ref="I76" r:id="rId62" xr:uid="{00000000-0004-0000-0100-00003D000000}"/>
-    <hyperlink ref="I77" r:id="rId63" xr:uid="{00000000-0004-0000-0100-00003E000000}"/>
-    <hyperlink ref="I78" r:id="rId64" xr:uid="{00000000-0004-0000-0100-00003F000000}"/>
-    <hyperlink ref="I79" r:id="rId65" xr:uid="{00000000-0004-0000-0100-000040000000}"/>
-    <hyperlink ref="I81" r:id="rId66" xr:uid="{00000000-0004-0000-0100-000041000000}"/>
-    <hyperlink ref="I82" r:id="rId67" xr:uid="{00000000-0004-0000-0100-000042000000}"/>
-    <hyperlink ref="I84" r:id="rId68" xr:uid="{00000000-0004-0000-0100-000043000000}"/>
-    <hyperlink ref="I85" r:id="rId69" xr:uid="{00000000-0004-0000-0100-000044000000}"/>
-    <hyperlink ref="I86" r:id="rId70" xr:uid="{00000000-0004-0000-0100-000045000000}"/>
-    <hyperlink ref="I87" r:id="rId71" xr:uid="{00000000-0004-0000-0100-000046000000}"/>
-    <hyperlink ref="I88" r:id="rId72" xr:uid="{00000000-0004-0000-0100-000047000000}"/>
-    <hyperlink ref="I89" r:id="rId73" xr:uid="{00000000-0004-0000-0100-000048000000}"/>
-    <hyperlink ref="I91" r:id="rId74" xr:uid="{00000000-0004-0000-0100-000049000000}"/>
-    <hyperlink ref="I92" r:id="rId75" xr:uid="{00000000-0004-0000-0100-00004A000000}"/>
-    <hyperlink ref="I93" r:id="rId76" xr:uid="{00000000-0004-0000-0100-00004B000000}"/>
-    <hyperlink ref="I94" r:id="rId77" xr:uid="{00000000-0004-0000-0100-00004C000000}"/>
-    <hyperlink ref="I96" r:id="rId78" xr:uid="{00000000-0004-0000-0100-00004D000000}"/>
-    <hyperlink ref="I98" r:id="rId79" xr:uid="{00000000-0004-0000-0100-00004E000000}"/>
-    <hyperlink ref="I99" r:id="rId80" xr:uid="{00000000-0004-0000-0100-00004F000000}"/>
-    <hyperlink ref="I100" r:id="rId81" xr:uid="{00000000-0004-0000-0100-000050000000}"/>
-    <hyperlink ref="I101" r:id="rId82" xr:uid="{00000000-0004-0000-0100-000051000000}"/>
-    <hyperlink ref="I102" r:id="rId83" xr:uid="{00000000-0004-0000-0100-000052000000}"/>
-    <hyperlink ref="I103" r:id="rId84" xr:uid="{00000000-0004-0000-0100-000053000000}"/>
-    <hyperlink ref="I104" r:id="rId85" xr:uid="{00000000-0004-0000-0100-000054000000}"/>
-    <hyperlink ref="I105" r:id="rId86" xr:uid="{00000000-0004-0000-0100-000055000000}"/>
-    <hyperlink ref="I109" r:id="rId87" xr:uid="{00000000-0004-0000-0100-000056000000}"/>
-    <hyperlink ref="I111" r:id="rId88" xr:uid="{00000000-0004-0000-0100-000057000000}"/>
-    <hyperlink ref="I112" r:id="rId89" xr:uid="{00000000-0004-0000-0100-000058000000}"/>
-    <hyperlink ref="I113" r:id="rId90" xr:uid="{00000000-0004-0000-0100-000059000000}"/>
-    <hyperlink ref="I114" r:id="rId91" xr:uid="{00000000-0004-0000-0100-00005A000000}"/>
-    <hyperlink ref="I115" r:id="rId92" xr:uid="{00000000-0004-0000-0100-00005B000000}"/>
-    <hyperlink ref="I116" r:id="rId93" xr:uid="{00000000-0004-0000-0100-00005C000000}"/>
-    <hyperlink ref="I117" r:id="rId94" xr:uid="{00000000-0004-0000-0100-00005D000000}"/>
-    <hyperlink ref="I118" r:id="rId95" xr:uid="{00000000-0004-0000-0100-00005E000000}"/>
-    <hyperlink ref="I119" r:id="rId96" xr:uid="{00000000-0004-0000-0100-00005F000000}"/>
-    <hyperlink ref="I120" r:id="rId97" xr:uid="{00000000-0004-0000-0100-000060000000}"/>
-    <hyperlink ref="I121" r:id="rId98" xr:uid="{00000000-0004-0000-0100-000061000000}"/>
-    <hyperlink ref="I122" r:id="rId99" xr:uid="{00000000-0004-0000-0100-000062000000}"/>
-    <hyperlink ref="I123" r:id="rId100" xr:uid="{00000000-0004-0000-0100-000063000000}"/>
-    <hyperlink ref="I124" r:id="rId101" xr:uid="{00000000-0004-0000-0100-000064000000}"/>
-    <hyperlink ref="I127" r:id="rId102" xr:uid="{00000000-0004-0000-0100-000065000000}"/>
-    <hyperlink ref="I128" r:id="rId103" xr:uid="{00000000-0004-0000-0100-000066000000}"/>
-    <hyperlink ref="I129" r:id="rId104" xr:uid="{00000000-0004-0000-0100-000067000000}"/>
-    <hyperlink ref="I130" r:id="rId105" xr:uid="{00000000-0004-0000-0100-000068000000}"/>
-    <hyperlink ref="I133" r:id="rId106" xr:uid="{00000000-0004-0000-0100-00006A000000}"/>
-    <hyperlink ref="I136" r:id="rId107" xr:uid="{00000000-0004-0000-0100-00006B000000}"/>
-    <hyperlink ref="I137" r:id="rId108" xr:uid="{00000000-0004-0000-0100-00006C000000}"/>
-    <hyperlink ref="I138" r:id="rId109" xr:uid="{00000000-0004-0000-0100-00006D000000}"/>
-    <hyperlink ref="I139" r:id="rId110" xr:uid="{00000000-0004-0000-0100-00006E000000}"/>
-    <hyperlink ref="I140" r:id="rId111" xr:uid="{00000000-0004-0000-0100-00006F000000}"/>
-    <hyperlink ref="I141" r:id="rId112" xr:uid="{00000000-0004-0000-0100-000070000000}"/>
-    <hyperlink ref="I142" r:id="rId113" xr:uid="{00000000-0004-0000-0100-000071000000}"/>
-    <hyperlink ref="I143" r:id="rId114" xr:uid="{00000000-0004-0000-0100-000072000000}"/>
-    <hyperlink ref="I144" r:id="rId115" xr:uid="{00000000-0004-0000-0100-000073000000}"/>
-    <hyperlink ref="I145" r:id="rId116" xr:uid="{00000000-0004-0000-0100-000074000000}"/>
-    <hyperlink ref="I146" r:id="rId117" xr:uid="{00000000-0004-0000-0100-000075000000}"/>
-    <hyperlink ref="I147" r:id="rId118" xr:uid="{00000000-0004-0000-0100-000076000000}"/>
-    <hyperlink ref="I148" r:id="rId119" xr:uid="{00000000-0004-0000-0100-000077000000}"/>
-    <hyperlink ref="I150" r:id="rId120" xr:uid="{00000000-0004-0000-0100-000078000000}"/>
-    <hyperlink ref="I151" r:id="rId121" xr:uid="{00000000-0004-0000-0100-000079000000}"/>
+    <hyperlink ref="I44" r:id="rId35" xr:uid="{00000000-0004-0000-0100-000022000000}"/>
+    <hyperlink ref="I45" r:id="rId36" xr:uid="{00000000-0004-0000-0100-000023000000}"/>
+    <hyperlink ref="I46" r:id="rId37" xr:uid="{00000000-0004-0000-0100-000024000000}"/>
+    <hyperlink ref="I47" r:id="rId38" xr:uid="{00000000-0004-0000-0100-000025000000}"/>
+    <hyperlink ref="I48" r:id="rId39" xr:uid="{00000000-0004-0000-0100-000026000000}"/>
+    <hyperlink ref="I49" r:id="rId40" xr:uid="{00000000-0004-0000-0100-000027000000}"/>
+    <hyperlink ref="I50" r:id="rId41" xr:uid="{00000000-0004-0000-0100-000028000000}"/>
+    <hyperlink ref="I51" r:id="rId42" xr:uid="{00000000-0004-0000-0100-000029000000}"/>
+    <hyperlink ref="I52" r:id="rId43" xr:uid="{00000000-0004-0000-0100-00002A000000}"/>
+    <hyperlink ref="I53" r:id="rId44" xr:uid="{00000000-0004-0000-0100-00002B000000}"/>
+    <hyperlink ref="I54" r:id="rId45" xr:uid="{00000000-0004-0000-0100-00002C000000}"/>
+    <hyperlink ref="I56" r:id="rId46" xr:uid="{00000000-0004-0000-0100-00002D000000}"/>
+    <hyperlink ref="I57" r:id="rId47" xr:uid="{00000000-0004-0000-0100-00002E000000}"/>
+    <hyperlink ref="I58" r:id="rId48" xr:uid="{00000000-0004-0000-0100-00002F000000}"/>
+    <hyperlink ref="I63" r:id="rId49" xr:uid="{00000000-0004-0000-0100-000030000000}"/>
+    <hyperlink ref="I64" r:id="rId50" xr:uid="{00000000-0004-0000-0100-000031000000}"/>
+    <hyperlink ref="I65" r:id="rId51" xr:uid="{00000000-0004-0000-0100-000032000000}"/>
+    <hyperlink ref="I66" r:id="rId52" xr:uid="{00000000-0004-0000-0100-000033000000}"/>
+    <hyperlink ref="I67" r:id="rId53" xr:uid="{00000000-0004-0000-0100-000034000000}"/>
+    <hyperlink ref="I70" r:id="rId54" xr:uid="{00000000-0004-0000-0100-000035000000}"/>
+    <hyperlink ref="I71" r:id="rId55" xr:uid="{00000000-0004-0000-0100-000036000000}"/>
+    <hyperlink ref="I72" r:id="rId56" xr:uid="{00000000-0004-0000-0100-000037000000}"/>
+    <hyperlink ref="I73" r:id="rId57" xr:uid="{00000000-0004-0000-0100-000038000000}"/>
+    <hyperlink ref="I74" r:id="rId58" xr:uid="{00000000-0004-0000-0100-000039000000}"/>
+    <hyperlink ref="I75" r:id="rId59" xr:uid="{00000000-0004-0000-0100-00003A000000}"/>
+    <hyperlink ref="I76" r:id="rId60" xr:uid="{00000000-0004-0000-0100-00003B000000}"/>
+    <hyperlink ref="I77" r:id="rId61" xr:uid="{00000000-0004-0000-0100-00003C000000}"/>
+    <hyperlink ref="I78" r:id="rId62" xr:uid="{00000000-0004-0000-0100-00003D000000}"/>
+    <hyperlink ref="I79" r:id="rId63" xr:uid="{00000000-0004-0000-0100-00003E000000}"/>
+    <hyperlink ref="I80" r:id="rId64" xr:uid="{00000000-0004-0000-0100-00003F000000}"/>
+    <hyperlink ref="I81" r:id="rId65" xr:uid="{00000000-0004-0000-0100-000040000000}"/>
+    <hyperlink ref="I83" r:id="rId66" xr:uid="{00000000-0004-0000-0100-000041000000}"/>
+    <hyperlink ref="I84" r:id="rId67" xr:uid="{00000000-0004-0000-0100-000042000000}"/>
+    <hyperlink ref="I86" r:id="rId68" xr:uid="{00000000-0004-0000-0100-000043000000}"/>
+    <hyperlink ref="I87" r:id="rId69" xr:uid="{00000000-0004-0000-0100-000044000000}"/>
+    <hyperlink ref="I88" r:id="rId70" xr:uid="{00000000-0004-0000-0100-000045000000}"/>
+    <hyperlink ref="I89" r:id="rId71" xr:uid="{00000000-0004-0000-0100-000046000000}"/>
+    <hyperlink ref="I90" r:id="rId72" xr:uid="{00000000-0004-0000-0100-000047000000}"/>
+    <hyperlink ref="I91" r:id="rId73" xr:uid="{00000000-0004-0000-0100-000048000000}"/>
+    <hyperlink ref="I93" r:id="rId74" xr:uid="{00000000-0004-0000-0100-000049000000}"/>
+    <hyperlink ref="I94" r:id="rId75" xr:uid="{00000000-0004-0000-0100-00004A000000}"/>
+    <hyperlink ref="I95" r:id="rId76" xr:uid="{00000000-0004-0000-0100-00004B000000}"/>
+    <hyperlink ref="I96" r:id="rId77" xr:uid="{00000000-0004-0000-0100-00004C000000}"/>
+    <hyperlink ref="I98" r:id="rId78" xr:uid="{00000000-0004-0000-0100-00004D000000}"/>
+    <hyperlink ref="I100" r:id="rId79" xr:uid="{00000000-0004-0000-0100-00004E000000}"/>
+    <hyperlink ref="I101" r:id="rId80" xr:uid="{00000000-0004-0000-0100-00004F000000}"/>
+    <hyperlink ref="I102" r:id="rId81" xr:uid="{00000000-0004-0000-0100-000050000000}"/>
+    <hyperlink ref="I103" r:id="rId82" xr:uid="{00000000-0004-0000-0100-000051000000}"/>
+    <hyperlink ref="I104" r:id="rId83" xr:uid="{00000000-0004-0000-0100-000052000000}"/>
+    <hyperlink ref="I105" r:id="rId84" xr:uid="{00000000-0004-0000-0100-000053000000}"/>
+    <hyperlink ref="I106" r:id="rId85" xr:uid="{00000000-0004-0000-0100-000054000000}"/>
+    <hyperlink ref="I107" r:id="rId86" xr:uid="{00000000-0004-0000-0100-000055000000}"/>
+    <hyperlink ref="I111" r:id="rId87" xr:uid="{00000000-0004-0000-0100-000056000000}"/>
+    <hyperlink ref="I113" r:id="rId88" xr:uid="{00000000-0004-0000-0100-000057000000}"/>
+    <hyperlink ref="I114" r:id="rId89" xr:uid="{00000000-0004-0000-0100-000058000000}"/>
+    <hyperlink ref="I115" r:id="rId90" xr:uid="{00000000-0004-0000-0100-000059000000}"/>
+    <hyperlink ref="I116" r:id="rId91" xr:uid="{00000000-0004-0000-0100-00005A000000}"/>
+    <hyperlink ref="I117" r:id="rId92" xr:uid="{00000000-0004-0000-0100-00005B000000}"/>
+    <hyperlink ref="I118" r:id="rId93" xr:uid="{00000000-0004-0000-0100-00005C000000}"/>
+    <hyperlink ref="I119" r:id="rId94" xr:uid="{00000000-0004-0000-0100-00005D000000}"/>
+    <hyperlink ref="I120" r:id="rId95" xr:uid="{00000000-0004-0000-0100-00005E000000}"/>
+    <hyperlink ref="I121" r:id="rId96" xr:uid="{00000000-0004-0000-0100-00005F000000}"/>
+    <hyperlink ref="I122" r:id="rId97" xr:uid="{00000000-0004-0000-0100-000060000000}"/>
+    <hyperlink ref="I123" r:id="rId98" xr:uid="{00000000-0004-0000-0100-000061000000}"/>
+    <hyperlink ref="I124" r:id="rId99" xr:uid="{00000000-0004-0000-0100-000062000000}"/>
+    <hyperlink ref="I125" r:id="rId100" xr:uid="{00000000-0004-0000-0100-000063000000}"/>
+    <hyperlink ref="I126" r:id="rId101" xr:uid="{00000000-0004-0000-0100-000064000000}"/>
+    <hyperlink ref="I129" r:id="rId102" xr:uid="{00000000-0004-0000-0100-000065000000}"/>
+    <hyperlink ref="I130" r:id="rId103" xr:uid="{00000000-0004-0000-0100-000066000000}"/>
+    <hyperlink ref="I131" r:id="rId104" xr:uid="{00000000-0004-0000-0100-000067000000}"/>
+    <hyperlink ref="I132" r:id="rId105" xr:uid="{00000000-0004-0000-0100-000068000000}"/>
+    <hyperlink ref="I135" r:id="rId106" xr:uid="{00000000-0004-0000-0100-00006A000000}"/>
+    <hyperlink ref="I138" r:id="rId107" xr:uid="{00000000-0004-0000-0100-00006B000000}"/>
+    <hyperlink ref="I139" r:id="rId108" xr:uid="{00000000-0004-0000-0100-00006C000000}"/>
+    <hyperlink ref="I140" r:id="rId109" xr:uid="{00000000-0004-0000-0100-00006D000000}"/>
+    <hyperlink ref="I141" r:id="rId110" xr:uid="{00000000-0004-0000-0100-00006E000000}"/>
+    <hyperlink ref="I142" r:id="rId111" xr:uid="{00000000-0004-0000-0100-00006F000000}"/>
+    <hyperlink ref="I143" r:id="rId112" xr:uid="{00000000-0004-0000-0100-000070000000}"/>
+    <hyperlink ref="I144" r:id="rId113" xr:uid="{00000000-0004-0000-0100-000071000000}"/>
+    <hyperlink ref="I145" r:id="rId114" xr:uid="{00000000-0004-0000-0100-000072000000}"/>
+    <hyperlink ref="I146" r:id="rId115" xr:uid="{00000000-0004-0000-0100-000073000000}"/>
+    <hyperlink ref="I147" r:id="rId116" xr:uid="{00000000-0004-0000-0100-000074000000}"/>
+    <hyperlink ref="I148" r:id="rId117" xr:uid="{00000000-0004-0000-0100-000075000000}"/>
+    <hyperlink ref="I149" r:id="rId118" xr:uid="{00000000-0004-0000-0100-000076000000}"/>
+    <hyperlink ref="I150" r:id="rId119" xr:uid="{00000000-0004-0000-0100-000077000000}"/>
+    <hyperlink ref="I153" r:id="rId120" xr:uid="{00000000-0004-0000-0100-000078000000}"/>
+    <hyperlink ref="I154" r:id="rId121" xr:uid="{00000000-0004-0000-0100-000079000000}"/>
     <hyperlink ref="I17" r:id="rId122" xr:uid="{881F0F65-3DCC-E94A-9FE5-2CC264A8F337}"/>
     <hyperlink ref="I18" r:id="rId123" xr:uid="{AC40193A-1232-474A-A421-B55FFA7E99B8}"/>
     <hyperlink ref="I37" r:id="rId124" xr:uid="{D41ADE90-9772-8F41-AC9B-8DE303E9D7A9}"/>
     <hyperlink ref="I38" r:id="rId125" xr:uid="{85F37ABA-4B3B-764B-A1ED-9DD3AFFF0004}"/>
-    <hyperlink ref="I67" r:id="rId126" xr:uid="{F5E14AAB-D49A-EF45-A165-3757EFF2E9B4}"/>
-    <hyperlink ref="I83" r:id="rId127" xr:uid="{759707EA-D94A-2D42-8FE0-FAE01578CF99}"/>
-    <hyperlink ref="I110" r:id="rId128" xr:uid="{1A936B77-62AA-804C-B853-4343ADD2D925}"/>
-    <hyperlink ref="I131" r:id="rId129" xr:uid="{00000000-0004-0000-0100-000069000000}"/>
-    <hyperlink ref="I125" r:id="rId130" xr:uid="{2929B0EA-E15F-E444-ADC1-C2E3E232D526}"/>
-    <hyperlink ref="I132" r:id="rId131" xr:uid="{7770BE98-2823-3047-9E72-08DB2B79C177}"/>
-    <hyperlink ref="I134" r:id="rId132" xr:uid="{A91F97A2-47FA-FB49-8866-2B9AA1419B2B}"/>
-    <hyperlink ref="I149" r:id="rId133" xr:uid="{11EEE67C-10E9-AB44-91F6-D7C7B31697FA}"/>
-    <hyperlink ref="I152" r:id="rId134" xr:uid="{8E930EBE-7205-BD41-9ED8-FE8F970A98EF}"/>
-    <hyperlink ref="I135" r:id="rId135" xr:uid="{3AF5EB12-868F-C842-91DC-4FC147AA3C86}"/>
-    <hyperlink ref="I57" r:id="rId136" xr:uid="{7BDCEA69-27F3-FF41-BB2B-817D4FD2C9C0}"/>
-    <hyperlink ref="I58" r:id="rId137" xr:uid="{7A940ACA-466B-9E49-8CB5-9BA664F7C3C9}"/>
-    <hyperlink ref="I59" r:id="rId138" xr:uid="{088C717E-7DC5-EF4C-8C34-370DC45C6BEE}"/>
-    <hyperlink ref="I60" r:id="rId139" xr:uid="{A670C44A-19C9-984F-9EAA-8D5EBCE39C79}"/>
-    <hyperlink ref="I95" r:id="rId140" xr:uid="{713BB907-BFF9-AE42-B777-2AF591DA7D9B}"/>
-    <hyperlink ref="I97" r:id="rId141" xr:uid="{EC0C54FA-684B-A440-BF57-B5B57FDD99C9}"/>
-    <hyperlink ref="I107" r:id="rId142" xr:uid="{9081BA3E-9CF8-074E-BF5B-0F2FA156F0B7}"/>
-    <hyperlink ref="I108" r:id="rId143" xr:uid="{8C2FD4CC-DF59-734E-8449-EA5B9F5E7D3D}"/>
-    <hyperlink ref="I80" r:id="rId144" xr:uid="{9845498D-A3A6-524F-9A69-7DC2DB7F7639}"/>
-    <hyperlink ref="I106" r:id="rId145" xr:uid="{CFDD3EC3-C992-0E4C-8C8D-2A9AC6885E0B}"/>
-    <hyperlink ref="I90" r:id="rId146" xr:uid="{C634E917-B836-414F-BB3B-9A111E16653C}"/>
-    <hyperlink ref="I53" r:id="rId147" xr:uid="{8548A361-62F7-A648-BBBE-9F37385F0E45}"/>
-    <hyperlink ref="I66" r:id="rId148" xr:uid="{8EA062F9-78F8-A44B-BEDA-61CF758CB831}"/>
+    <hyperlink ref="I69" r:id="rId126" xr:uid="{F5E14AAB-D49A-EF45-A165-3757EFF2E9B4}"/>
+    <hyperlink ref="I85" r:id="rId127" xr:uid="{759707EA-D94A-2D42-8FE0-FAE01578CF99}"/>
+    <hyperlink ref="I112" r:id="rId128" xr:uid="{1A936B77-62AA-804C-B853-4343ADD2D925}"/>
+    <hyperlink ref="I133" r:id="rId129" xr:uid="{00000000-0004-0000-0100-000069000000}"/>
+    <hyperlink ref="I127" r:id="rId130" xr:uid="{2929B0EA-E15F-E444-ADC1-C2E3E232D526}"/>
+    <hyperlink ref="I134" r:id="rId131" xr:uid="{7770BE98-2823-3047-9E72-08DB2B79C177}"/>
+    <hyperlink ref="I136" r:id="rId132" xr:uid="{A91F97A2-47FA-FB49-8866-2B9AA1419B2B}"/>
+    <hyperlink ref="I151" r:id="rId133" xr:uid="{11EEE67C-10E9-AB44-91F6-D7C7B31697FA}"/>
+    <hyperlink ref="I155" r:id="rId134" xr:uid="{8E930EBE-7205-BD41-9ED8-FE8F970A98EF}"/>
+    <hyperlink ref="I137" r:id="rId135" xr:uid="{3AF5EB12-868F-C842-91DC-4FC147AA3C86}"/>
+    <hyperlink ref="I59" r:id="rId136" xr:uid="{7BDCEA69-27F3-FF41-BB2B-817D4FD2C9C0}"/>
+    <hyperlink ref="I60" r:id="rId137" xr:uid="{7A940ACA-466B-9E49-8CB5-9BA664F7C3C9}"/>
+    <hyperlink ref="I61" r:id="rId138" xr:uid="{088C717E-7DC5-EF4C-8C34-370DC45C6BEE}"/>
+    <hyperlink ref="I62" r:id="rId139" xr:uid="{A670C44A-19C9-984F-9EAA-8D5EBCE39C79}"/>
+    <hyperlink ref="I97" r:id="rId140" xr:uid="{713BB907-BFF9-AE42-B777-2AF591DA7D9B}"/>
+    <hyperlink ref="I99" r:id="rId141" xr:uid="{EC0C54FA-684B-A440-BF57-B5B57FDD99C9}"/>
+    <hyperlink ref="I109" r:id="rId142" xr:uid="{9081BA3E-9CF8-074E-BF5B-0F2FA156F0B7}"/>
+    <hyperlink ref="I110" r:id="rId143" xr:uid="{8C2FD4CC-DF59-734E-8449-EA5B9F5E7D3D}"/>
+    <hyperlink ref="I82" r:id="rId144" xr:uid="{9845498D-A3A6-524F-9A69-7DC2DB7F7639}"/>
+    <hyperlink ref="I108" r:id="rId145" xr:uid="{CFDD3EC3-C992-0E4C-8C8D-2A9AC6885E0B}"/>
+    <hyperlink ref="I92" r:id="rId146" xr:uid="{C634E917-B836-414F-BB3B-9A111E16653C}"/>
+    <hyperlink ref="I55" r:id="rId147" xr:uid="{8548A361-62F7-A648-BBBE-9F37385F0E45}"/>
+    <hyperlink ref="I68" r:id="rId148" xr:uid="{8EA062F9-78F8-A44B-BEDA-61CF758CB831}"/>
     <hyperlink ref="I41" r:id="rId149" xr:uid="{7C7CB4D2-6B37-544C-B631-930D91F3AA17}"/>
-    <hyperlink ref="I126" r:id="rId150" xr:uid="{5694CC0C-366D-8848-BBD7-150B284E15DA}"/>
+    <hyperlink ref="I128" r:id="rId150" xr:uid="{5694CC0C-366D-8848-BBD7-150B284E15DA}"/>
     <hyperlink ref="I29" r:id="rId151" xr:uid="{7E8D5837-BD50-6844-B288-6217DFD05E29}"/>
+    <hyperlink ref="I43" r:id="rId152" xr:uid="{E89C4D5B-786F-9A4C-9914-80D4DF36F89C}"/>
+    <hyperlink ref="I42" r:id="rId153" xr:uid="{EDBD0C6E-D96D-734B-85A9-4D26B3421D83}"/>
+    <hyperlink ref="I152" r:id="rId154" xr:uid="{12FA5E40-D722-4344-995B-86BBF8B4F3F3}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/docs/香港素食餐廳大全.xlsx
+++ b/docs/香港素食餐廳大全.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tim/_Python_OpenAI/My-projects/7-hk-veg-map/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{004FDD8A-D745-FE40-A6A1-2EAA890D54F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6776B842-6C86-1A4C-BF92-1805361BD2B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9640" yWindow="500" windowWidth="16400" windowHeight="15760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10080" yWindow="500" windowWidth="17400" windowHeight="16160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="香港素食餐廳大全" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2037" uniqueCount="892">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2222" uniqueCount="993">
   <si>
     <t>** 更新自: 13 Aug 2023 (deprecated, go to sheet 2 "hk_veg_restaurants_data instead")</t>
   </si>
@@ -2697,6 +2697,309 @@
   </si>
   <si>
     <t>61449506</t>
+  </si>
+  <si>
+    <t>Mother Pearl 圓貝</t>
+  </si>
+  <si>
+    <t>吉祥草</t>
+  </si>
+  <si>
+    <t>西環</t>
+  </si>
+  <si>
+    <t>Clean</t>
+  </si>
+  <si>
+    <t>清心齋</t>
+  </si>
+  <si>
+    <t>Sujata Café</t>
+  </si>
+  <si>
+    <t>Sow Vegan</t>
+  </si>
+  <si>
+    <t>荃灣港安醫院餐廳</t>
+  </si>
+  <si>
+    <t>圓玄素菜館</t>
+  </si>
+  <si>
+    <t>天天素食</t>
+  </si>
+  <si>
+    <t>藍田</t>
+  </si>
+  <si>
+    <t>天后</t>
+  </si>
+  <si>
+    <t>鯉魚門</t>
+  </si>
+  <si>
+    <t>緻素坊 Veggie Kingdom</t>
+  </si>
+  <si>
+    <t>Kailash Parbat</t>
+  </si>
+  <si>
+    <t>新意達 Sangeetha Vegetarian Restaurant</t>
+  </si>
+  <si>
+    <t>活蘭印度素食 Woodlands Indian Vegetarian Restaurant</t>
+  </si>
+  <si>
+    <t>Clean Coffee</t>
+  </si>
+  <si>
+    <t xml:space="preserve">野玩田店 Something Wild - The Farms </t>
+  </si>
+  <si>
+    <t>MUM 日常野菜料理</t>
+  </si>
+  <si>
+    <t>健康齋廚</t>
+  </si>
+  <si>
+    <t>西環石塘咀皇后大道西604號地舖</t>
+  </si>
+  <si>
+    <t>22.286529411510077, 114.1328650618579</t>
+  </si>
+  <si>
+    <t>https://www.openrice.com/zh/hongkong/r-%E5%AF%B6%E8%93%AE%E8%8B%91%E7%B4%A0%E9%A3%9F-%E8%A5%BF%E7%92%B0-%E7%B2%B5%E8%8F%9C-%E5%BB%A3%E6%9D%B1-%E7%B4%A0%E9%A3%9F-r118537</t>
+  </si>
+  <si>
+    <t>25438981</t>
+  </si>
+  <si>
+    <t>西環德輔道西343號均益大廈2期商場地下22號舖</t>
+  </si>
+  <si>
+    <t>22.287785250100853, 114.13797099510727</t>
+  </si>
+  <si>
+    <t>https://www.openrice.com/zh/hongkong/r-%E5%90%89%E7%A5%A5%E8%8D%89-%E8%A5%BF%E7%92%B0-%E5%A4%9A%E5%9C%8B%E8%8F%9C-all-day-breakfast-r672383</t>
+  </si>
+  <si>
+    <t>57071151</t>
+  </si>
+  <si>
+    <t>西環皇后大道西100號地舖</t>
+  </si>
+  <si>
+    <t>22.28619734154833, 114.14643942016238</t>
+  </si>
+  <si>
+    <t>https://www.openrice.com/zh/hongkong/r-clean-%E8%A5%BF%E7%92%B0-%E8%A5%BF%E5%BC%8F-r731690</t>
+  </si>
+  <si>
+    <t>91975360</t>
+  </si>
+  <si>
+    <t>中環擺花街23-39號中環大廈地舖</t>
+  </si>
+  <si>
+    <t>22.282710892005422, 114.15365998601268</t>
+  </si>
+  <si>
+    <t>https://www.openrice.com/zh/hongkong/r-%E5%9C%93%E8%B2%9D-%E4%B8%AD%E7%92%B0-%E5%8F%B0%E7%81%A3%E8%8F%9C-%E7%B4%A0%E9%A3%9F-r678743</t>
+  </si>
+  <si>
+    <t>35965100</t>
+  </si>
+  <si>
+    <t>天后英皇道14號天后蘋果商場G6-7號舖</t>
+  </si>
+  <si>
+    <t>22.282811109656564, 114.19250202456449</t>
+  </si>
+  <si>
+    <t>https://www.openrice.com/zh/hongkong/r-%E5%A4%A9%E5%A4%A9%E7%B4%A0%E9%A3%9F-%E5%A4%A9%E5%90%8E-%E7%B2%B5%E8%8F%9C-%E5%BB%A3%E6%9D%B1-%E7%B4%A0%E9%A3%9F-r30333</t>
+  </si>
+  <si>
+    <t>25660096</t>
+  </si>
+  <si>
+    <t>尖沙咀寶勒巷3號萬事昌廣場3樓302室</t>
+  </si>
+  <si>
+    <t>22.29841966737484, 114.1742863656605</t>
+  </si>
+  <si>
+    <t>https://www.openrice.com/zh/hongkong/r-kailash-parbat-%E5%B0%96%E6%B2%99%E5%92%80-%E5%8D%B0%E5%BA%A6%E8%8F%9C-%E7%B4%A0%E9%A3%9F-r571224</t>
+  </si>
+  <si>
+    <t>34285545</t>
+  </si>
+  <si>
+    <t>尖沙咀彌敦道36-44號Heath地庫12號舖</t>
+  </si>
+  <si>
+    <t>22.296464029845154, 114.17243223182228</t>
+  </si>
+  <si>
+    <t>https://www.openrice.com/zh/hongkong/r-clean-coffee-%E5%B0%96%E6%B2%99%E5%92%80-%E8%A5%BF%E5%BC%8F-r795969</t>
+  </si>
+  <si>
+    <t>黃大仙飛鳳街34號地舖</t>
+  </si>
+  <si>
+    <t>22.34381418460536, 114.1964172175659</t>
+  </si>
+  <si>
+    <t>https://www.openrice.com/zh/hongkong/r-%E5%81%A5%E5%BA%B7%E9%BD%8B%E5%BB%9A-%E9%BB%83%E5%A4%A7%E4%BB%99-%E6%B8%AF%E5%BC%8F-%E7%B4%A0%E9%A3%9F-r543465</t>
+  </si>
+  <si>
+    <t>67330283</t>
+  </si>
+  <si>
+    <t>22.334466327888848, 114.19489936683681</t>
+  </si>
+  <si>
+    <t>新蒲崗仁愛街34號地下B號舖</t>
+  </si>
+  <si>
+    <t>https://www.openrice.com/zh/hongkong/r-mum-%E6%97%A5%E5%B8%B8%E9%87%8E%E8%8F%9C%E6%96%99%E7%90%86-%E6%96%B0%E8%92%B2%E5%B4%97-%E6%B8%AF%E5%BC%8F-%E7%84%A1%E8%82%89%E9%A4%90%E5%96%AE-r719730</t>
+  </si>
+  <si>
+    <t>54007869</t>
+  </si>
+  <si>
+    <t>觀塘成業街11-13號華成工商中心9樓907號舖</t>
+  </si>
+  <si>
+    <t>22.310687039683632, 114.2265577811886</t>
+  </si>
+  <si>
+    <t>https://www.openrice.com/zh/hongkong/r-sujata-cafe-%E8%A7%80%E5%A1%98-%E5%A4%9A%E5%9C%8B%E8%8F%9C-%E7%B4%A0%E9%A3%9F-r552739</t>
+  </si>
+  <si>
+    <t>27608003</t>
+  </si>
+  <si>
+    <t>觀塘鴻圖道43號鴻達工業大廈11樓1102室</t>
+  </si>
+  <si>
+    <t>22.311909092426834, 114.22109273374961</t>
+  </si>
+  <si>
+    <t>https://www.openrice.com/zh/hongkong/r-sow-vegan-%E8%A7%80%E5%A1%98-%E8%A5%BF%E5%BC%8F-%E6%B2%99%E5%BE%8B-r560639</t>
+  </si>
+  <si>
+    <t>90293009</t>
+  </si>
+  <si>
+    <t>藍田匯景商場3樓17-18號舖</t>
+  </si>
+  <si>
+    <t>https://www.openrice.com/zh/hongkong/r-%E5%A4%A9%E5%A4%A9%E7%B4%A0%E9%A3%9F-%E8%97%8D%E7%94%B0-%E7%B2%B5%E8%8F%9C-%E5%BB%A3%E6%9D%B1-%E7%B4%A0%E9%A3%9F-r13416</t>
+  </si>
+  <si>
+    <t>22.30744106393968, 114.23340645054999</t>
+  </si>
+  <si>
+    <t>23468396</t>
+  </si>
+  <si>
+    <t>鯉魚門鯉魚門路80號鯉魚門廣場1樓116號舖</t>
+  </si>
+  <si>
+    <t>22.29641394443872, 114.23941951545329</t>
+  </si>
+  <si>
+    <t>https://www.openrice.com/zh/hongkong/r-%E5%A4%A9%E5%A4%A9%E7%B4%A0%E9%A3%9F-%E9%AF%89%E9%AD%9A%E9%96%80-%E7%B2%B5%E8%8F%9C-%E5%BB%A3%E6%9D%B1-%E7%B4%A0%E9%A3%9F-r599468</t>
+  </si>
+  <si>
+    <t>21105056</t>
+  </si>
+  <si>
+    <t>荔枝角荔枝角道833號昇悅居昇悅商場1樓125號舖</t>
+  </si>
+  <si>
+    <t>22.334593093902523, 114.14904304979176</t>
+  </si>
+  <si>
+    <t>https://www.openrice.com/zh/hongkong/r-%E6%B8%85%E5%BF%83%E9%BD%8B-%E8%8D%94%E6%9E%9D%E8%A7%92-%E7%B2%B5%E8%8F%9C-%E5%BB%A3%E6%9D%B1-%E7%B4%A0%E9%A3%9F-r758757</t>
+  </si>
+  <si>
+    <t>將軍澳坑口常寧路2號TKO Gateway地下Food Lane EF11號舖</t>
+  </si>
+  <si>
+    <t>將軍澳欣景路8號新都城中心二期1樓1021號舖</t>
+  </si>
+  <si>
+    <t>22.317473965053466, 114.26629431654462</t>
+  </si>
+  <si>
+    <t>https://www.openrice.com/zh/hongkong/r-%E6%B8%85%E5%BF%83%E9%BD%8B-%E5%B0%87%E8%BB%8D%E6%BE%B3-%E7%B2%B5%E8%8F%9C-%E5%BB%A3%E6%9D%B1-%E7%B4%A0%E9%A3%9F-r568379</t>
+  </si>
+  <si>
+    <t>22.323196030792072, 114.2577936042632</t>
+  </si>
+  <si>
+    <t>https://www.openrice.com/zh/hongkong/r-%E6%B8%85%E5%BF%83%E9%BD%8B-%E5%B0%87%E8%BB%8D%E6%BE%B3-%E7%B2%B5%E8%8F%9C-%E5%BB%A3%E6%9D%B1-%E7%B4%A0%E9%A3%9F-r757115</t>
+  </si>
+  <si>
+    <t>荃灣荃景圍199號港安醫院主座6樓</t>
+  </si>
+  <si>
+    <t>22.376536323943157, 114.1040966671474</t>
+  </si>
+  <si>
+    <t>https://www.openrice.com/zh/hongkong/r-%E8%8D%83%E7%81%A3%E6%B8%AF%E5%AE%89%E9%86%AB%E9%99%A2%E9%A4%90%E5%BB%B3-%E8%8D%83%E7%81%A3-%E5%A4%9A%E5%9C%8B%E8%8F%9C-%E7%84%A1%E8%82%89%E9%A4%90%E5%96%AE-r42795</t>
+  </si>
+  <si>
+    <t>22756690</t>
+  </si>
+  <si>
+    <t>荃灣沙咀道254-276號廣發大廈地下4B號舖</t>
+  </si>
+  <si>
+    <t>22.369762427199912, 114.11629731858706</t>
+  </si>
+  <si>
+    <t>https://www.openrice.com/zh/hongkong/r-%E6%9D%B1%E6%96%B9%E5%B0%8F%E7%A5%87%E5%9C%92-%E8%8D%83%E7%81%A3-%E7%B2%B5%E8%8F%9C-%E5%BB%A3%E6%9D%B1-%E7%B4%A0%E9%A3%9F-r754343</t>
+  </si>
+  <si>
+    <t>35687452</t>
+  </si>
+  <si>
+    <t>荃灣青山公路荃灣段264-298號南豐中心1樓A440-1號舖</t>
+  </si>
+  <si>
+    <t>荃灣富華中心商場1樓2B(B)</t>
+  </si>
+  <si>
+    <t>22.373578159978333, 114.11669265707091</t>
+  </si>
+  <si>
+    <t>https://www.openrice.com/zh/hongkong/r-%E5%A4%A9%E5%A4%A9%E7%B4%A0%E9%A3%9F-%E8%8D%83%E7%81%A3-%E7%B2%B5%E8%8F%9C-%E5%BB%A3%E6%9D%B1-%E7%B4%A0%E9%A3%9F-r12410</t>
+  </si>
+  <si>
+    <t>24125712</t>
+  </si>
+  <si>
+    <t>22.372900471168006, 114.11829513497348</t>
+  </si>
+  <si>
+    <t>https://www.openrice.com/zh/hongkong/r-%E5%A4%A9%E5%A4%A9%E7%B4%A0%E9%A3%9F-%E8%8D%83%E7%81%A3-%E7%B2%B5%E8%8F%9C-%E5%BB%A3%E6%9D%B1-%E7%B4%A0%E9%A3%9F-r83412</t>
+  </si>
+  <si>
+    <t>25959178</t>
+  </si>
+  <si>
+    <t>荃灣三疊潭老圍路圓玄學院</t>
+  </si>
+  <si>
+    <t>22.383556643640606, 114.12301009889201</t>
+  </si>
+  <si>
+    <t>https://www.openrice.com/zh/hongkong/r-%E5%9C%93%E7%8E%84%E7%B4%A0%E8%8F%9C%E9%A4%A8-%E8%8D%83%E7%81%A3-%E7%B2%B5%E8%8F%9C-%E5%BB%A3%E6%9D%B1-%E7%B4%A0%E9%A3%9F-r4186</t>
+  </si>
+  <si>
+    <t>24909882</t>
   </si>
 </sst>
 </file>
@@ -10965,10 +11268,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:K155"/>
+  <dimension ref="A1:K176"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D119" zoomScale="108" workbookViewId="0">
-      <selection activeCell="J152" sqref="J152"/>
+    <sheetView tabSelected="1" topLeftCell="E130" zoomScale="132" workbookViewId="0">
+      <selection activeCell="J149" sqref="J149"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -11050,29 +11353,29 @@
         <v>10</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>17</v>
+        <v>894</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>397</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>398</v>
+        <v>411</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>399</v>
+        <v>913</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>400</v>
+        <v>914</v>
       </c>
       <c r="H3" s="5"/>
-      <c r="I3" s="7" t="s">
-        <v>401</v>
+      <c r="I3" s="24" t="s">
+        <v>915</v>
       </c>
       <c r="J3" s="25" t="s">
-        <v>402</v>
+        <v>916</v>
       </c>
       <c r="K3" s="5"/>
     </row>
@@ -11081,29 +11384,29 @@
         <v>10</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>17</v>
+        <v>894</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>18</v>
+        <v>893</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>403</v>
+        <v>419</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>20</v>
+        <v>917</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>404</v>
+        <v>918</v>
       </c>
       <c r="H4" s="5"/>
-      <c r="I4" s="7" t="s">
-        <v>21</v>
+      <c r="I4" s="24" t="s">
+        <v>919</v>
       </c>
       <c r="J4" s="25" t="s">
-        <v>405</v>
+        <v>920</v>
       </c>
       <c r="K4" s="5"/>
     </row>
@@ -11112,29 +11415,29 @@
         <v>10</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>22</v>
+        <v>894</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>406</v>
+        <v>895</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>157</v>
+        <v>419</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>25</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>407</v>
+        <v>921</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>408</v>
+        <v>922</v>
       </c>
       <c r="H5" s="5"/>
-      <c r="I5" s="6" t="s">
-        <v>409</v>
+      <c r="I5" s="24" t="s">
+        <v>923</v>
       </c>
       <c r="J5" s="25" t="s">
-        <v>410</v>
+        <v>924</v>
       </c>
       <c r="K5" s="5"/>
     </row>
@@ -11143,29 +11446,29 @@
         <v>10</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>23</v>
+        <v>397</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>411</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>26</v>
+        <v>399</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>412</v>
+        <v>400</v>
       </c>
       <c r="H6" s="5"/>
       <c r="I6" s="7" t="s">
-        <v>27</v>
+        <v>401</v>
       </c>
       <c r="J6" s="25" t="s">
-        <v>413</v>
+        <v>402</v>
       </c>
       <c r="K6" s="5"/>
     </row>
@@ -11174,29 +11477,29 @@
         <v>10</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>381</v>
+        <v>18</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>382</v>
+        <v>403</v>
       </c>
       <c r="E7" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>414</v>
+        <v>20</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>719</v>
+        <v>404</v>
       </c>
       <c r="H7" s="5"/>
       <c r="I7" s="7" t="s">
-        <v>415</v>
+        <v>21</v>
       </c>
       <c r="J7" s="25" t="s">
-        <v>416</v>
+        <v>405</v>
       </c>
       <c r="K7" s="5"/>
     </row>
@@ -11208,30 +11511,28 @@
         <v>22</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>28</v>
+        <v>406</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>29</v>
+        <v>157</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>30</v>
+        <v>407</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>417</v>
+        <v>408</v>
       </c>
       <c r="H8" s="5"/>
-      <c r="I8" s="7" t="s">
-        <v>31</v>
+      <c r="I8" s="6" t="s">
+        <v>409</v>
       </c>
       <c r="J8" s="25" t="s">
-        <v>418</v>
-      </c>
-      <c r="K8" s="5" t="s">
-        <v>32</v>
-      </c>
+        <v>410</v>
+      </c>
+      <c r="K8" s="5"/>
     </row>
     <row r="9" spans="1:11" ht="15.75" customHeight="1">
       <c r="A9" s="5" t="s">
@@ -11241,26 +11542,26 @@
         <v>22</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>419</v>
+        <v>411</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>420</v>
+        <v>412</v>
       </c>
       <c r="H9" s="5"/>
-      <c r="I9" s="24" t="s">
-        <v>863</v>
+      <c r="I9" s="7" t="s">
+        <v>27</v>
       </c>
       <c r="J9" s="25" t="s">
-        <v>421</v>
+        <v>413</v>
       </c>
       <c r="K9" s="5"/>
     </row>
@@ -11272,25 +11573,27 @@
         <v>22</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>37</v>
+        <v>381</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>38</v>
+        <v>382</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>39</v>
+        <v>14</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>40</v>
+        <v>414</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>422</v>
+        <v>719</v>
       </c>
       <c r="H10" s="5"/>
       <c r="I10" s="7" t="s">
-        <v>423</v>
-      </c>
-      <c r="J10" s="25"/>
+        <v>415</v>
+      </c>
+      <c r="J10" s="25" t="s">
+        <v>416</v>
+      </c>
       <c r="K10" s="5"/>
     </row>
     <row r="11" spans="1:11" ht="15.75" customHeight="1">
@@ -11301,26 +11604,30 @@
         <v>22</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>424</v>
+        <v>417</v>
       </c>
       <c r="H11" s="5"/>
       <c r="I11" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="J11" s="25"/>
-      <c r="K11" s="5"/>
+        <v>31</v>
+      </c>
+      <c r="J11" s="25" t="s">
+        <v>418</v>
+      </c>
+      <c r="K11" s="5" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="12" spans="1:11" ht="15.75" customHeight="1">
       <c r="A12" s="5" t="s">
@@ -11330,26 +11637,26 @@
         <v>22</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>47</v>
+        <v>419</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="H12" s="5"/>
-      <c r="I12" s="6" t="s">
-        <v>49</v>
+      <c r="I12" s="24" t="s">
+        <v>863</v>
       </c>
       <c r="J12" s="25" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="K12" s="5"/>
     </row>
@@ -11361,27 +11668,25 @@
         <v>22</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="E13" s="5" t="s">
         <v>39</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="H13" s="5"/>
       <c r="I13" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="J13" s="25" t="s">
-        <v>428</v>
-      </c>
+        <v>423</v>
+      </c>
+      <c r="J13" s="25"/>
       <c r="K13" s="5"/>
     </row>
     <row r="14" spans="1:11" ht="15.75" customHeight="1">
@@ -11392,27 +11697,25 @@
         <v>22</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="E14" s="5" t="s">
         <v>25</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="H14" s="5"/>
-      <c r="I14" s="24" t="s">
-        <v>864</v>
-      </c>
-      <c r="J14" s="25" t="s">
-        <v>430</v>
-      </c>
+      <c r="I14" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="J14" s="25"/>
       <c r="K14" s="5"/>
     </row>
     <row r="15" spans="1:11" ht="15.75" customHeight="1">
@@ -11423,26 +11726,26 @@
         <v>22</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>39</v>
+        <v>14</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="H15" s="5"/>
-      <c r="I15" s="7" t="s">
-        <v>61</v>
+      <c r="I15" s="6" t="s">
+        <v>49</v>
       </c>
       <c r="J15" s="25" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="K15" s="5"/>
     </row>
@@ -11454,26 +11757,26 @@
         <v>22</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>411</v>
+        <v>51</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>433</v>
+        <v>427</v>
       </c>
       <c r="H16" s="5"/>
       <c r="I16" s="7" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="J16" s="25" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
       <c r="K16" s="5"/>
     </row>
@@ -11485,26 +11788,26 @@
         <v>22</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>726</v>
+        <v>892</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>47</v>
+        <v>382</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>733</v>
+        <v>925</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>734</v>
+        <v>926</v>
       </c>
       <c r="H17" s="5"/>
       <c r="I17" s="24" t="s">
-        <v>735</v>
-      </c>
-      <c r="J17" s="25">
-        <v>37553067</v>
+        <v>927</v>
+      </c>
+      <c r="J17" s="25" t="s">
+        <v>928</v>
       </c>
       <c r="K17" s="5"/>
     </row>
@@ -11516,26 +11819,26 @@
         <v>22</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>732</v>
+        <v>54</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="E18" s="5" t="s">
         <v>25</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>736</v>
+        <v>56</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>737</v>
+        <v>429</v>
       </c>
       <c r="H18" s="5"/>
       <c r="I18" s="24" t="s">
-        <v>738</v>
+        <v>864</v>
       </c>
       <c r="J18" s="25" t="s">
-        <v>739</v>
+        <v>430</v>
       </c>
       <c r="K18" s="5"/>
     </row>
@@ -11544,29 +11847,29 @@
         <v>10</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>65</v>
+        <v>22</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>411</v>
+        <v>59</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>435</v>
+        <v>60</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="H19" s="5"/>
-      <c r="I19" s="6" t="s">
-        <v>68</v>
+      <c r="I19" s="7" t="s">
+        <v>61</v>
       </c>
       <c r="J19" s="25" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="K19" s="5"/>
     </row>
@@ -11575,29 +11878,29 @@
         <v>10</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>65</v>
+        <v>22</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>381</v>
+        <v>62</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>382</v>
+        <v>411</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>438</v>
+        <v>63</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
       <c r="H20" s="5"/>
-      <c r="I20" s="6" t="s">
-        <v>440</v>
+      <c r="I20" s="7" t="s">
+        <v>64</v>
       </c>
       <c r="J20" s="25" t="s">
-        <v>441</v>
+        <v>434</v>
       </c>
       <c r="K20" s="5"/>
     </row>
@@ -11606,29 +11909,29 @@
         <v>10</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>69</v>
+        <v>22</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>70</v>
+        <v>726</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>71</v>
+        <v>47</v>
       </c>
       <c r="E21" s="5" t="s">
         <v>25</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>72</v>
+        <v>733</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>442</v>
+        <v>734</v>
       </c>
       <c r="H21" s="5"/>
-      <c r="I21" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="J21" s="25" t="s">
-        <v>443</v>
+      <c r="I21" s="24" t="s">
+        <v>735</v>
+      </c>
+      <c r="J21" s="25">
+        <v>37553067</v>
       </c>
       <c r="K21" s="5"/>
     </row>
@@ -11637,29 +11940,29 @@
         <v>10</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>69</v>
+        <v>22</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>74</v>
+        <v>732</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>75</v>
+        <v>47</v>
       </c>
       <c r="E22" s="5" t="s">
         <v>25</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>76</v>
+        <v>736</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>444</v>
+        <v>737</v>
       </c>
       <c r="H22" s="5"/>
       <c r="I22" s="24" t="s">
-        <v>865</v>
+        <v>738</v>
       </c>
       <c r="J22" s="25" t="s">
-        <v>445</v>
+        <v>739</v>
       </c>
       <c r="K22" s="5"/>
     </row>
@@ -11668,29 +11971,29 @@
         <v>10</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>394</v>
+        <v>411</v>
       </c>
       <c r="E23" s="5" t="s">
         <v>25</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>79</v>
+        <v>435</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="H23" s="5"/>
-      <c r="I23" s="7" t="s">
-        <v>80</v>
+      <c r="I23" s="6" t="s">
+        <v>68</v>
       </c>
       <c r="J23" s="25" t="s">
-        <v>447</v>
+        <v>437</v>
       </c>
       <c r="K23" s="5"/>
     </row>
@@ -11699,29 +12002,29 @@
         <v>10</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>81</v>
+        <v>381</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>411</v>
+        <v>382</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>82</v>
+        <v>438</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>448</v>
+        <v>439</v>
       </c>
       <c r="H24" s="5"/>
-      <c r="I24" s="7" t="s">
-        <v>83</v>
+      <c r="I24" s="6" t="s">
+        <v>440</v>
       </c>
       <c r="J24" s="25" t="s">
-        <v>449</v>
+        <v>441</v>
       </c>
       <c r="K24" s="5"/>
     </row>
@@ -11733,26 +12036,26 @@
         <v>69</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>411</v>
+        <v>71</v>
       </c>
       <c r="E25" s="5" t="s">
         <v>25</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>450</v>
+        <v>442</v>
       </c>
       <c r="H25" s="5"/>
       <c r="I25" s="6" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="J25" s="25" t="s">
-        <v>451</v>
+        <v>443</v>
       </c>
       <c r="K25" s="5"/>
     </row>
@@ -11764,26 +12067,26 @@
         <v>69</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>87</v>
+        <v>908</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>411</v>
+        <v>75</v>
       </c>
       <c r="E26" s="5" t="s">
         <v>25</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>452</v>
+        <v>444</v>
       </c>
       <c r="H26" s="5"/>
-      <c r="I26" s="6" t="s">
-        <v>89</v>
+      <c r="I26" s="24" t="s">
+        <v>865</v>
       </c>
       <c r="J26" s="25" t="s">
-        <v>453</v>
+        <v>445</v>
       </c>
       <c r="K26" s="5"/>
     </row>
@@ -11795,26 +12098,26 @@
         <v>69</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>51</v>
+        <v>394</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>454</v>
+        <v>446</v>
       </c>
       <c r="H27" s="5"/>
-      <c r="I27" s="6" t="s">
-        <v>92</v>
+      <c r="I27" s="7" t="s">
+        <v>80</v>
       </c>
       <c r="J27" s="25" t="s">
-        <v>455</v>
+        <v>447</v>
       </c>
       <c r="K27" s="5"/>
     </row>
@@ -11826,26 +12129,26 @@
         <v>69</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>55</v>
+        <v>411</v>
       </c>
       <c r="E28" s="5" t="s">
         <v>25</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="G28" s="5" t="s">
-        <v>456</v>
+        <v>448</v>
       </c>
       <c r="H28" s="5"/>
-      <c r="I28" s="6" t="s">
-        <v>95</v>
+      <c r="I28" s="7" t="s">
+        <v>83</v>
       </c>
       <c r="J28" s="25" t="s">
-        <v>457</v>
+        <v>449</v>
       </c>
       <c r="K28" s="5"/>
     </row>
@@ -11857,26 +12160,26 @@
         <v>69</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>872</v>
+        <v>84</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>51</v>
+        <v>411</v>
       </c>
       <c r="E29" s="5" t="s">
         <v>25</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>873</v>
+        <v>85</v>
       </c>
       <c r="G29" s="5" t="s">
-        <v>874</v>
+        <v>450</v>
       </c>
       <c r="H29" s="5"/>
-      <c r="I29" s="24" t="s">
-        <v>875</v>
+      <c r="I29" s="6" t="s">
+        <v>86</v>
       </c>
       <c r="J29" s="25" t="s">
-        <v>876</v>
+        <v>451</v>
       </c>
       <c r="K29" s="5"/>
     </row>
@@ -11888,26 +12191,26 @@
         <v>69</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>419</v>
+        <v>411</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="G30" s="5" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
       <c r="H30" s="5"/>
-      <c r="I30" s="24" t="s">
-        <v>866</v>
+      <c r="I30" s="6" t="s">
+        <v>89</v>
       </c>
       <c r="J30" s="25" t="s">
-        <v>459</v>
+        <v>453</v>
       </c>
       <c r="K30" s="5"/>
     </row>
@@ -11916,29 +12219,29 @@
         <v>10</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>99</v>
+        <v>69</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>460</v>
+        <v>90</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>411</v>
+        <v>51</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>461</v>
+        <v>91</v>
       </c>
       <c r="G31" s="5" t="s">
-        <v>462</v>
+        <v>454</v>
       </c>
       <c r="H31" s="5"/>
       <c r="I31" s="6" t="s">
-        <v>463</v>
+        <v>92</v>
       </c>
       <c r="J31" s="25" t="s">
-        <v>464</v>
+        <v>455</v>
       </c>
       <c r="K31" s="5"/>
     </row>
@@ -11947,29 +12250,29 @@
         <v>10</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>99</v>
+        <v>69</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>381</v>
+        <v>93</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>382</v>
+        <v>55</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>465</v>
+        <v>94</v>
       </c>
       <c r="G32" s="5" t="s">
-        <v>466</v>
+        <v>456</v>
       </c>
       <c r="H32" s="5"/>
       <c r="I32" s="6" t="s">
-        <v>467</v>
+        <v>95</v>
       </c>
       <c r="J32" s="25" t="s">
-        <v>468</v>
+        <v>457</v>
       </c>
       <c r="K32" s="5"/>
     </row>
@@ -11978,62 +12281,60 @@
         <v>10</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>99</v>
+        <v>69</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>100</v>
+        <v>872</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E33" s="5" t="s">
         <v>25</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>101</v>
+        <v>873</v>
       </c>
       <c r="G33" s="5" t="s">
-        <v>469</v>
+        <v>874</v>
       </c>
       <c r="H33" s="5"/>
-      <c r="I33" s="6" t="s">
-        <v>102</v>
+      <c r="I33" s="24" t="s">
+        <v>875</v>
       </c>
       <c r="J33" s="25" t="s">
-        <v>470</v>
-      </c>
-      <c r="K33" s="5" t="s">
-        <v>103</v>
-      </c>
+        <v>876</v>
+      </c>
+      <c r="K33" s="5"/>
     </row>
     <row r="34" spans="1:11" ht="15.75" customHeight="1">
       <c r="A34" s="5" t="s">
         <v>10</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>99</v>
+        <v>69</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>471</v>
+        <v>419</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>39</v>
+        <v>14</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="G34" s="5" t="s">
-        <v>472</v>
+        <v>458</v>
       </c>
       <c r="H34" s="5"/>
-      <c r="I34" s="7" t="s">
-        <v>107</v>
+      <c r="I34" s="24" t="s">
+        <v>866</v>
       </c>
       <c r="J34" s="25" t="s">
-        <v>473</v>
+        <v>459</v>
       </c>
       <c r="K34" s="5"/>
     </row>
@@ -12045,26 +12346,26 @@
         <v>99</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>108</v>
+        <v>460</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>474</v>
+        <v>411</v>
       </c>
       <c r="E35" s="5" t="s">
         <v>25</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>475</v>
+        <v>461</v>
       </c>
       <c r="G35" s="5" t="s">
-        <v>476</v>
+        <v>462</v>
       </c>
       <c r="H35" s="5"/>
       <c r="I35" s="6" t="s">
-        <v>477</v>
+        <v>463</v>
       </c>
       <c r="J35" s="25" t="s">
-        <v>478</v>
+        <v>464</v>
       </c>
       <c r="K35" s="5"/>
     </row>
@@ -12076,26 +12377,26 @@
         <v>99</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>112</v>
+        <v>381</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>55</v>
+        <v>382</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>113</v>
+        <v>465</v>
       </c>
       <c r="G36" s="5" t="s">
-        <v>479</v>
+        <v>466</v>
       </c>
       <c r="H36" s="5"/>
       <c r="I36" s="6" t="s">
-        <v>114</v>
+        <v>467</v>
       </c>
       <c r="J36" s="25" t="s">
-        <v>480</v>
+        <v>468</v>
       </c>
       <c r="K36" s="5"/>
     </row>
@@ -12107,57 +12408,59 @@
         <v>99</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>730</v>
+        <v>100</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>181</v>
+        <v>47</v>
       </c>
       <c r="E37" s="5" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="F37" s="5" t="s">
-        <v>740</v>
+        <v>101</v>
       </c>
       <c r="G37" s="5" t="s">
-        <v>741</v>
+        <v>469</v>
       </c>
       <c r="H37" s="5"/>
-      <c r="I37" s="24" t="s">
-        <v>742</v>
+      <c r="I37" s="6" t="s">
+        <v>102</v>
       </c>
       <c r="J37" s="25" t="s">
-        <v>743</v>
-      </c>
-      <c r="K37" s="5"/>
+        <v>470</v>
+      </c>
+      <c r="K37" s="5" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="38" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A38" s="23" t="s">
+      <c r="A38" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B38" s="23" t="s">
+      <c r="B38" s="5" t="s">
         <v>99</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>731</v>
+        <v>104</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>411</v>
+        <v>471</v>
       </c>
       <c r="E38" s="5" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>744</v>
+        <v>106</v>
       </c>
       <c r="G38" s="5" t="s">
-        <v>745</v>
+        <v>472</v>
       </c>
       <c r="H38" s="5"/>
-      <c r="I38" s="24" t="s">
-        <v>746</v>
+      <c r="I38" s="7" t="s">
+        <v>107</v>
       </c>
       <c r="J38" s="25" t="s">
-        <v>747</v>
+        <v>473</v>
       </c>
       <c r="K38" s="5"/>
     </row>
@@ -12166,29 +12469,29 @@
         <v>10</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>115</v>
+        <v>99</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>481</v>
+        <v>108</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>47</v>
+        <v>474</v>
       </c>
       <c r="E39" s="5" t="s">
         <v>25</v>
       </c>
       <c r="F39" s="5" t="s">
-        <v>482</v>
+        <v>475</v>
       </c>
       <c r="G39" s="5" t="s">
-        <v>483</v>
+        <v>476</v>
       </c>
       <c r="H39" s="5"/>
       <c r="I39" s="6" t="s">
-        <v>484</v>
+        <v>477</v>
       </c>
       <c r="J39" s="25" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="K39" s="5"/>
     </row>
@@ -12197,29 +12500,29 @@
         <v>10</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>115</v>
+        <v>99</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>117</v>
+        <v>55</v>
       </c>
       <c r="E40" s="5" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="G40" s="5" t="s">
-        <v>486</v>
+        <v>479</v>
       </c>
       <c r="H40" s="5"/>
-      <c r="I40" s="24" t="s">
-        <v>858</v>
+      <c r="I40" s="6" t="s">
+        <v>114</v>
       </c>
       <c r="J40" s="25" t="s">
-        <v>487</v>
+        <v>480</v>
       </c>
       <c r="K40" s="5"/>
     </row>
@@ -12228,60 +12531,60 @@
         <v>10</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>115</v>
+        <v>99</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>853</v>
+        <v>730</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>411</v>
+        <v>181</v>
       </c>
       <c r="E41" s="5" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="F41" s="5" t="s">
-        <v>854</v>
+        <v>740</v>
       </c>
       <c r="G41" s="5" t="s">
-        <v>855</v>
+        <v>741</v>
       </c>
       <c r="H41" s="5"/>
       <c r="I41" s="24" t="s">
-        <v>856</v>
+        <v>742</v>
       </c>
       <c r="J41" s="25" t="s">
-        <v>857</v>
+        <v>743</v>
       </c>
       <c r="K41" s="5"/>
     </row>
     <row r="42" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A42" s="5" t="s">
+      <c r="A42" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="B42" s="5" t="s">
-        <v>115</v>
+      <c r="B42" s="23" t="s">
+        <v>99</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>882</v>
+        <v>731</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>117</v>
+        <v>411</v>
       </c>
       <c r="E42" s="5" t="s">
         <v>25</v>
       </c>
       <c r="F42" s="5" t="s">
-        <v>883</v>
+        <v>744</v>
       </c>
       <c r="G42" s="5" t="s">
-        <v>884</v>
+        <v>745</v>
       </c>
       <c r="H42" s="5"/>
       <c r="I42" s="24" t="s">
-        <v>885</v>
+        <v>746</v>
       </c>
       <c r="J42" s="25" t="s">
-        <v>886</v>
+        <v>747</v>
       </c>
       <c r="K42" s="5"/>
     </row>
@@ -12289,30 +12592,30 @@
       <c r="A43" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B43" s="5" t="s">
-        <v>115</v>
+      <c r="B43" s="23" t="s">
+        <v>903</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>877</v>
+        <v>901</v>
       </c>
       <c r="D43" s="5" t="s">
         <v>411</v>
       </c>
       <c r="E43" s="5" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="F43" s="5" t="s">
-        <v>878</v>
+        <v>929</v>
       </c>
       <c r="G43" s="5" t="s">
-        <v>879</v>
+        <v>930</v>
       </c>
       <c r="H43" s="5"/>
       <c r="I43" s="24" t="s">
-        <v>880</v>
+        <v>931</v>
       </c>
       <c r="J43" s="25" t="s">
-        <v>881</v>
+        <v>932</v>
       </c>
       <c r="K43" s="5"/>
     </row>
@@ -12321,29 +12624,29 @@
         <v>10</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>121</v>
+        <v>481</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>411</v>
+        <v>47</v>
       </c>
       <c r="E44" s="5" t="s">
         <v>25</v>
       </c>
       <c r="F44" s="5" t="s">
-        <v>122</v>
+        <v>482</v>
       </c>
       <c r="G44" s="5" t="s">
-        <v>488</v>
+        <v>483</v>
       </c>
       <c r="H44" s="5"/>
       <c r="I44" s="6" t="s">
-        <v>123</v>
+        <v>484</v>
       </c>
       <c r="J44" s="25" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="K44" s="5"/>
     </row>
@@ -12352,29 +12655,29 @@
         <v>10</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>47</v>
+        <v>117</v>
       </c>
       <c r="E45" s="5" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="F45" s="5" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="G45" s="5" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="H45" s="5"/>
-      <c r="I45" s="6" t="s">
-        <v>127</v>
+      <c r="I45" s="24" t="s">
+        <v>858</v>
       </c>
       <c r="J45" s="25" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="K45" s="5"/>
     </row>
@@ -12383,10 +12686,10 @@
         <v>10</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>128</v>
+        <v>115</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>129</v>
+        <v>853</v>
       </c>
       <c r="D46" s="5" t="s">
         <v>411</v>
@@ -12395,174 +12698,174 @@
         <v>25</v>
       </c>
       <c r="F46" s="5" t="s">
+        <v>854</v>
+      </c>
+      <c r="G46" s="5" t="s">
+        <v>855</v>
+      </c>
+      <c r="H46" s="5"/>
+      <c r="I46" s="24" t="s">
+        <v>856</v>
+      </c>
+      <c r="J46" s="25" t="s">
+        <v>857</v>
+      </c>
+      <c r="K46" s="5"/>
+    </row>
+    <row r="47" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A47" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="C47" s="5" t="s">
+        <v>882</v>
+      </c>
+      <c r="D47" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="E47" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F47" s="5" t="s">
+        <v>883</v>
+      </c>
+      <c r="G47" s="5" t="s">
+        <v>884</v>
+      </c>
+      <c r="H47" s="5"/>
+      <c r="I47" s="24" t="s">
+        <v>885</v>
+      </c>
+      <c r="J47" s="25" t="s">
+        <v>886</v>
+      </c>
+      <c r="K47" s="5"/>
+    </row>
+    <row r="48" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A48" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="C48" s="5" t="s">
+        <v>877</v>
+      </c>
+      <c r="D48" s="5" t="s">
+        <v>411</v>
+      </c>
+      <c r="E48" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F48" s="5" t="s">
+        <v>878</v>
+      </c>
+      <c r="G48" s="5" t="s">
+        <v>879</v>
+      </c>
+      <c r="H48" s="5"/>
+      <c r="I48" s="24" t="s">
+        <v>880</v>
+      </c>
+      <c r="J48" s="25" t="s">
+        <v>881</v>
+      </c>
+      <c r="K48" s="5"/>
+    </row>
+    <row r="49" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A49" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B49" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="C49" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="D49" s="5" t="s">
+        <v>411</v>
+      </c>
+      <c r="E49" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F49" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="G49" s="5" t="s">
+        <v>488</v>
+      </c>
+      <c r="H49" s="5"/>
+      <c r="I49" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="J49" s="25" t="s">
+        <v>489</v>
+      </c>
+      <c r="K49" s="5"/>
+    </row>
+    <row r="50" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A50" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B50" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="C50" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="D50" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E50" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F50" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="G50" s="5" t="s">
+        <v>490</v>
+      </c>
+      <c r="H50" s="5"/>
+      <c r="I50" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="J50" s="25" t="s">
+        <v>491</v>
+      </c>
+      <c r="K50" s="5"/>
+    </row>
+    <row r="51" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A51" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B51" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="C51" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="D51" s="5" t="s">
+        <v>411</v>
+      </c>
+      <c r="E51" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F51" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="G46" s="5" t="s">
+      <c r="G51" s="5" t="s">
         <v>492</v>
       </c>
-      <c r="H46" s="5"/>
-      <c r="I46" s="7" t="s">
+      <c r="H51" s="5"/>
+      <c r="I51" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="J46" s="25" t="s">
+      <c r="J51" s="25" t="s">
         <v>493</v>
       </c>
-      <c r="K46" s="5"/>
-    </row>
-    <row r="47" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A47" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="B47" s="9" t="s">
-        <v>133</v>
-      </c>
-      <c r="C47" s="9" t="s">
-        <v>494</v>
-      </c>
-      <c r="D47" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="E47" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F47" s="9" t="s">
-        <v>495</v>
-      </c>
-      <c r="G47" s="9" t="s">
-        <v>496</v>
-      </c>
-      <c r="H47" s="9"/>
-      <c r="I47" s="10" t="s">
-        <v>497</v>
-      </c>
-      <c r="J47" s="26" t="s">
-        <v>498</v>
-      </c>
-      <c r="K47" s="9"/>
-    </row>
-    <row r="48" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A48" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="B48" s="9" t="s">
-        <v>133</v>
-      </c>
-      <c r="C48" s="9" t="s">
-        <v>134</v>
-      </c>
-      <c r="D48" s="9" t="s">
-        <v>411</v>
-      </c>
-      <c r="E48" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="F48" s="9" t="s">
-        <v>135</v>
-      </c>
-      <c r="G48" s="9" t="s">
-        <v>499</v>
-      </c>
-      <c r="H48" s="9"/>
-      <c r="I48" s="10" t="s">
-        <v>136</v>
-      </c>
-      <c r="J48" s="26" t="s">
-        <v>500</v>
-      </c>
-      <c r="K48" s="9"/>
-    </row>
-    <row r="49" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A49" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="B49" s="9" t="s">
-        <v>133</v>
-      </c>
-      <c r="C49" s="9" t="s">
-        <v>501</v>
-      </c>
-      <c r="D49" s="9" t="s">
-        <v>411</v>
-      </c>
-      <c r="E49" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="F49" s="9" t="s">
-        <v>502</v>
-      </c>
-      <c r="G49" s="9" t="s">
-        <v>503</v>
-      </c>
-      <c r="H49" s="9"/>
-      <c r="I49" s="10" t="s">
-        <v>504</v>
-      </c>
-      <c r="J49" s="26" t="s">
-        <v>505</v>
-      </c>
-      <c r="K49" s="9"/>
-    </row>
-    <row r="50" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A50" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="B50" s="9" t="s">
-        <v>133</v>
-      </c>
-      <c r="C50" s="9" t="s">
-        <v>137</v>
-      </c>
-      <c r="D50" s="9" t="s">
-        <v>474</v>
-      </c>
-      <c r="E50" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="F50" s="9" t="s">
-        <v>138</v>
-      </c>
-      <c r="G50" s="9" t="s">
-        <v>506</v>
-      </c>
-      <c r="H50" s="9"/>
-      <c r="I50" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="J50" s="26" t="s">
-        <v>507</v>
-      </c>
-      <c r="K50" s="9"/>
-    </row>
-    <row r="51" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A51" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="B51" s="9" t="s">
-        <v>133</v>
-      </c>
-      <c r="C51" s="9" t="s">
-        <v>381</v>
-      </c>
-      <c r="D51" s="9" t="s">
-        <v>382</v>
-      </c>
-      <c r="E51" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F51" s="9" t="s">
-        <v>508</v>
-      </c>
-      <c r="G51" s="9" t="s">
-        <v>782</v>
-      </c>
-      <c r="H51" s="9"/>
-      <c r="I51" s="10" t="s">
-        <v>509</v>
-      </c>
-      <c r="J51" s="26" t="s">
-        <v>510</v>
-      </c>
-      <c r="K51" s="9"/>
+      <c r="K51" s="5"/>
     </row>
     <row r="52" spans="1:11" ht="15.75" customHeight="1">
       <c r="A52" s="9" t="s">
@@ -12572,26 +12875,26 @@
         <v>133</v>
       </c>
       <c r="C52" s="9" t="s">
-        <v>140</v>
+        <v>494</v>
       </c>
       <c r="D52" s="9" t="s">
-        <v>75</v>
+        <v>47</v>
       </c>
       <c r="E52" s="9" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="F52" s="9" t="s">
-        <v>141</v>
+        <v>495</v>
       </c>
       <c r="G52" s="9" t="s">
-        <v>511</v>
+        <v>496</v>
       </c>
       <c r="H52" s="9"/>
-      <c r="I52" s="28" t="s">
-        <v>859</v>
+      <c r="I52" s="10" t="s">
+        <v>497</v>
       </c>
       <c r="J52" s="26" t="s">
-        <v>512</v>
+        <v>498</v>
       </c>
       <c r="K52" s="9"/>
     </row>
@@ -12603,26 +12906,26 @@
         <v>133</v>
       </c>
       <c r="C53" s="9" t="s">
-        <v>143</v>
+        <v>905</v>
       </c>
       <c r="D53" s="9" t="s">
-        <v>75</v>
+        <v>411</v>
       </c>
       <c r="E53" s="9" t="s">
         <v>25</v>
       </c>
       <c r="F53" s="9" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="G53" s="9" t="s">
-        <v>513</v>
+        <v>499</v>
       </c>
       <c r="H53" s="9"/>
-      <c r="I53" s="28" t="s">
-        <v>860</v>
+      <c r="I53" s="10" t="s">
+        <v>136</v>
       </c>
       <c r="J53" s="26" t="s">
-        <v>514</v>
+        <v>500</v>
       </c>
       <c r="K53" s="9"/>
     </row>
@@ -12634,26 +12937,26 @@
         <v>133</v>
       </c>
       <c r="C54" s="9" t="s">
-        <v>146</v>
+        <v>501</v>
       </c>
       <c r="D54" s="9" t="s">
-        <v>515</v>
+        <v>411</v>
       </c>
       <c r="E54" s="9" t="s">
         <v>25</v>
       </c>
       <c r="F54" s="9" t="s">
-        <v>148</v>
+        <v>502</v>
       </c>
       <c r="G54" s="9" t="s">
-        <v>516</v>
+        <v>503</v>
       </c>
       <c r="H54" s="9"/>
-      <c r="I54" s="11" t="s">
-        <v>149</v>
+      <c r="I54" s="10" t="s">
+        <v>504</v>
       </c>
       <c r="J54" s="26" t="s">
-        <v>517</v>
+        <v>505</v>
       </c>
       <c r="K54" s="9"/>
     </row>
@@ -12665,30 +12968,30 @@
         <v>133</v>
       </c>
       <c r="C55" s="9" t="s">
-        <v>843</v>
+        <v>137</v>
       </c>
       <c r="D55" s="9" t="s">
-        <v>411</v>
+        <v>474</v>
       </c>
       <c r="E55" s="9" t="s">
         <v>25</v>
       </c>
       <c r="F55" s="9" t="s">
-        <v>844</v>
+        <v>138</v>
       </c>
       <c r="G55" s="9" t="s">
-        <v>845</v>
+        <v>506</v>
       </c>
       <c r="H55" s="9"/>
-      <c r="I55" s="28" t="s">
-        <v>846</v>
+      <c r="I55" s="10" t="s">
+        <v>139</v>
       </c>
       <c r="J55" s="26" t="s">
-        <v>847</v>
+        <v>507</v>
       </c>
       <c r="K55" s="9"/>
     </row>
-    <row r="56" spans="1:11" ht="13">
+    <row r="56" spans="1:11" ht="15.75" customHeight="1">
       <c r="A56" s="9" t="s">
         <v>132</v>
       </c>
@@ -12696,30 +12999,30 @@
         <v>133</v>
       </c>
       <c r="C56" s="9" t="s">
-        <v>150</v>
+        <v>381</v>
       </c>
       <c r="D56" s="9" t="s">
-        <v>55</v>
+        <v>382</v>
       </c>
       <c r="E56" s="9" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="F56" s="9" t="s">
-        <v>151</v>
+        <v>508</v>
       </c>
       <c r="G56" s="9" t="s">
-        <v>518</v>
+        <v>782</v>
       </c>
       <c r="H56" s="9"/>
       <c r="I56" s="10" t="s">
-        <v>152</v>
+        <v>509</v>
       </c>
       <c r="J56" s="26" t="s">
-        <v>519</v>
+        <v>510</v>
       </c>
       <c r="K56" s="9"/>
     </row>
-    <row r="57" spans="1:11" ht="13">
+    <row r="57" spans="1:11" ht="15.75" customHeight="1">
       <c r="A57" s="9" t="s">
         <v>132</v>
       </c>
@@ -12727,7 +13030,7 @@
         <v>133</v>
       </c>
       <c r="C57" s="9" t="s">
-        <v>153</v>
+        <v>908</v>
       </c>
       <c r="D57" s="9" t="s">
         <v>75</v>
@@ -12736,21 +13039,21 @@
         <v>25</v>
       </c>
       <c r="F57" s="9" t="s">
-        <v>154</v>
+        <v>141</v>
       </c>
       <c r="G57" s="9" t="s">
-        <v>520</v>
+        <v>511</v>
       </c>
       <c r="H57" s="9"/>
-      <c r="I57" s="10" t="s">
-        <v>155</v>
+      <c r="I57" s="28" t="s">
+        <v>859</v>
       </c>
       <c r="J57" s="26" t="s">
-        <v>521</v>
+        <v>512</v>
       </c>
       <c r="K57" s="9"/>
     </row>
-    <row r="58" spans="1:11" ht="13">
+    <row r="58" spans="1:11" ht="15.75" customHeight="1">
       <c r="A58" s="9" t="s">
         <v>132</v>
       </c>
@@ -12758,30 +13061,30 @@
         <v>133</v>
       </c>
       <c r="C58" s="9" t="s">
-        <v>156</v>
+        <v>907</v>
       </c>
       <c r="D58" s="9" t="s">
-        <v>157</v>
+        <v>75</v>
       </c>
       <c r="E58" s="9" t="s">
         <v>25</v>
       </c>
       <c r="F58" s="9" t="s">
-        <v>158</v>
+        <v>144</v>
       </c>
       <c r="G58" s="9" t="s">
-        <v>522</v>
+        <v>513</v>
       </c>
       <c r="H58" s="9"/>
-      <c r="I58" s="10" t="s">
-        <v>159</v>
+      <c r="I58" s="28" t="s">
+        <v>860</v>
       </c>
       <c r="J58" s="26" t="s">
-        <v>523</v>
+        <v>514</v>
       </c>
       <c r="K58" s="9"/>
     </row>
-    <row r="59" spans="1:11" ht="13">
+    <row r="59" spans="1:11" ht="15.75" customHeight="1">
       <c r="A59" s="9" t="s">
         <v>132</v>
       </c>
@@ -12789,30 +13092,30 @@
         <v>133</v>
       </c>
       <c r="C59" s="9" t="s">
-        <v>783</v>
+        <v>146</v>
       </c>
       <c r="D59" s="9" t="s">
-        <v>47</v>
+        <v>515</v>
       </c>
       <c r="E59" s="9" t="s">
         <v>25</v>
       </c>
       <c r="F59" s="9" t="s">
-        <v>796</v>
+        <v>148</v>
       </c>
       <c r="G59" s="9" t="s">
-        <v>797</v>
+        <v>516</v>
       </c>
       <c r="H59" s="9"/>
-      <c r="I59" s="28" t="s">
-        <v>798</v>
+      <c r="I59" s="11" t="s">
+        <v>149</v>
       </c>
       <c r="J59" s="26" t="s">
-        <v>799</v>
+        <v>517</v>
       </c>
       <c r="K59" s="9"/>
     </row>
-    <row r="60" spans="1:11" ht="13">
+    <row r="60" spans="1:11" ht="15.75" customHeight="1">
       <c r="A60" s="9" t="s">
         <v>132</v>
       </c>
@@ -12820,7 +13123,7 @@
         <v>133</v>
       </c>
       <c r="C60" s="9" t="s">
-        <v>784</v>
+        <v>843</v>
       </c>
       <c r="D60" s="9" t="s">
         <v>411</v>
@@ -12829,17 +13132,17 @@
         <v>25</v>
       </c>
       <c r="F60" s="9" t="s">
-        <v>800</v>
+        <v>844</v>
       </c>
       <c r="G60" s="9" t="s">
-        <v>801</v>
+        <v>845</v>
       </c>
       <c r="H60" s="9"/>
       <c r="I60" s="28" t="s">
-        <v>802</v>
+        <v>846</v>
       </c>
       <c r="J60" s="26" t="s">
-        <v>803</v>
+        <v>847</v>
       </c>
       <c r="K60" s="9"/>
     </row>
@@ -12851,26 +13154,26 @@
         <v>133</v>
       </c>
       <c r="C61" s="9" t="s">
-        <v>785</v>
+        <v>910</v>
       </c>
       <c r="D61" s="9" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="E61" s="9" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="F61" s="9" t="s">
-        <v>804</v>
+        <v>151</v>
       </c>
       <c r="G61" s="9" t="s">
-        <v>805</v>
+        <v>518</v>
       </c>
       <c r="H61" s="9"/>
-      <c r="I61" s="28" t="s">
-        <v>806</v>
+      <c r="I61" s="10" t="s">
+        <v>152</v>
       </c>
       <c r="J61" s="26" t="s">
-        <v>807</v>
+        <v>519</v>
       </c>
       <c r="K61" s="9"/>
     </row>
@@ -12882,26 +13185,26 @@
         <v>133</v>
       </c>
       <c r="C62" s="9" t="s">
-        <v>727</v>
+        <v>153</v>
       </c>
       <c r="D62" s="9" t="s">
-        <v>117</v>
+        <v>75</v>
       </c>
       <c r="E62" s="9" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="F62" s="9" t="s">
-        <v>808</v>
+        <v>154</v>
       </c>
       <c r="G62" s="9" t="s">
-        <v>809</v>
+        <v>520</v>
       </c>
       <c r="H62" s="9"/>
-      <c r="I62" s="28" t="s">
-        <v>810</v>
+      <c r="I62" s="10" t="s">
+        <v>155</v>
       </c>
       <c r="J62" s="26" t="s">
-        <v>811</v>
+        <v>521</v>
       </c>
       <c r="K62" s="9"/>
     </row>
@@ -12913,26 +13216,26 @@
         <v>133</v>
       </c>
       <c r="C63" s="9" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="D63" s="9" t="s">
-        <v>55</v>
+        <v>157</v>
       </c>
       <c r="E63" s="9" t="s">
         <v>25</v>
       </c>
       <c r="F63" s="9" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="G63" s="9" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="H63" s="9"/>
       <c r="I63" s="10" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="J63" s="26" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="K63" s="9"/>
     </row>
@@ -12941,29 +13244,29 @@
         <v>132</v>
       </c>
       <c r="B64" s="9" t="s">
-        <v>163</v>
+        <v>133</v>
       </c>
       <c r="C64" s="9" t="s">
-        <v>164</v>
+        <v>783</v>
       </c>
       <c r="D64" s="9" t="s">
-        <v>411</v>
+        <v>47</v>
       </c>
       <c r="E64" s="9" t="s">
         <v>25</v>
       </c>
       <c r="F64" s="9" t="s">
-        <v>165</v>
+        <v>796</v>
       </c>
       <c r="G64" s="9" t="s">
-        <v>526</v>
+        <v>797</v>
       </c>
       <c r="H64" s="9"/>
-      <c r="I64" s="10" t="s">
-        <v>166</v>
+      <c r="I64" s="28" t="s">
+        <v>798</v>
       </c>
       <c r="J64" s="26" t="s">
-        <v>527</v>
+        <v>799</v>
       </c>
       <c r="K64" s="9"/>
     </row>
@@ -12972,10 +13275,10 @@
         <v>132</v>
       </c>
       <c r="B65" s="9" t="s">
-        <v>163</v>
+        <v>133</v>
       </c>
       <c r="C65" s="9" t="s">
-        <v>167</v>
+        <v>784</v>
       </c>
       <c r="D65" s="9" t="s">
         <v>411</v>
@@ -12984,17 +13287,17 @@
         <v>25</v>
       </c>
       <c r="F65" s="9" t="s">
-        <v>168</v>
+        <v>800</v>
       </c>
       <c r="G65" s="9" t="s">
-        <v>528</v>
+        <v>801</v>
       </c>
       <c r="H65" s="9"/>
-      <c r="I65" s="10" t="s">
-        <v>169</v>
+      <c r="I65" s="28" t="s">
+        <v>802</v>
       </c>
       <c r="J65" s="26" t="s">
-        <v>529</v>
+        <v>803</v>
       </c>
       <c r="K65" s="9"/>
     </row>
@@ -13003,29 +13306,29 @@
         <v>132</v>
       </c>
       <c r="B66" s="9" t="s">
-        <v>163</v>
+        <v>133</v>
       </c>
       <c r="C66" s="9" t="s">
-        <v>170</v>
+        <v>906</v>
       </c>
       <c r="D66" s="9" t="s">
-        <v>117</v>
+        <v>75</v>
       </c>
       <c r="E66" s="9" t="s">
         <v>25</v>
       </c>
       <c r="F66" s="9" t="s">
-        <v>171</v>
+        <v>933</v>
       </c>
       <c r="G66" s="9" t="s">
-        <v>530</v>
+        <v>934</v>
       </c>
       <c r="H66" s="9"/>
       <c r="I66" s="28" t="s">
-        <v>861</v>
+        <v>935</v>
       </c>
       <c r="J66" s="26" t="s">
-        <v>531</v>
+        <v>936</v>
       </c>
       <c r="K66" s="9"/>
     </row>
@@ -13034,29 +13337,29 @@
         <v>132</v>
       </c>
       <c r="B67" s="9" t="s">
-        <v>163</v>
+        <v>133</v>
       </c>
       <c r="C67" s="9" t="s">
-        <v>173</v>
+        <v>785</v>
       </c>
       <c r="D67" s="9" t="s">
-        <v>117</v>
+        <v>47</v>
       </c>
       <c r="E67" s="9" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="F67" s="9" t="s">
-        <v>174</v>
+        <v>804</v>
       </c>
       <c r="G67" s="9" t="s">
-        <v>532</v>
+        <v>805</v>
       </c>
       <c r="H67" s="9"/>
-      <c r="I67" s="10" t="s">
-        <v>175</v>
+      <c r="I67" s="28" t="s">
+        <v>806</v>
       </c>
       <c r="J67" s="26" t="s">
-        <v>533</v>
+        <v>807</v>
       </c>
       <c r="K67" s="9"/>
     </row>
@@ -13065,29 +13368,29 @@
         <v>132</v>
       </c>
       <c r="B68" s="9" t="s">
-        <v>163</v>
+        <v>133</v>
       </c>
       <c r="C68" s="9" t="s">
-        <v>848</v>
+        <v>727</v>
       </c>
       <c r="D68" s="9" t="s">
-        <v>411</v>
+        <v>117</v>
       </c>
       <c r="E68" s="9" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="F68" s="9" t="s">
-        <v>849</v>
+        <v>808</v>
       </c>
       <c r="G68" s="9" t="s">
-        <v>850</v>
+        <v>809</v>
       </c>
       <c r="H68" s="9"/>
       <c r="I68" s="28" t="s">
-        <v>851</v>
+        <v>810</v>
       </c>
       <c r="J68" s="26" t="s">
-        <v>852</v>
+        <v>811</v>
       </c>
       <c r="K68" s="9"/>
     </row>
@@ -13096,29 +13399,29 @@
         <v>132</v>
       </c>
       <c r="B69" s="9" t="s">
-        <v>728</v>
+        <v>133</v>
       </c>
       <c r="C69" s="9" t="s">
-        <v>727</v>
+        <v>160</v>
       </c>
       <c r="D69" s="9" t="s">
-        <v>411</v>
+        <v>55</v>
       </c>
       <c r="E69" s="9" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="F69" s="9" t="s">
-        <v>748</v>
+        <v>161</v>
       </c>
       <c r="G69" s="9" t="s">
-        <v>749</v>
+        <v>524</v>
       </c>
       <c r="H69" s="9"/>
-      <c r="I69" s="28" t="s">
-        <v>750</v>
+      <c r="I69" s="10" t="s">
+        <v>162</v>
       </c>
       <c r="J69" s="26" t="s">
-        <v>751</v>
+        <v>525</v>
       </c>
       <c r="K69" s="9"/>
     </row>
@@ -13127,30 +13430,28 @@
         <v>132</v>
       </c>
       <c r="B70" s="9" t="s">
-        <v>534</v>
+        <v>133</v>
       </c>
       <c r="C70" s="9" t="s">
-        <v>535</v>
+        <v>909</v>
       </c>
       <c r="D70" s="9" t="s">
-        <v>157</v>
+        <v>403</v>
       </c>
       <c r="E70" s="9" t="s">
         <v>25</v>
       </c>
       <c r="F70" s="9" t="s">
-        <v>536</v>
+        <v>937</v>
       </c>
       <c r="G70" s="9" t="s">
-        <v>537</v>
+        <v>938</v>
       </c>
       <c r="H70" s="9"/>
-      <c r="I70" s="11" t="s">
-        <v>538</v>
-      </c>
-      <c r="J70" s="26" t="s">
-        <v>539</v>
-      </c>
+      <c r="I70" s="28" t="s">
+        <v>939</v>
+      </c>
+      <c r="J70" s="26"/>
       <c r="K70" s="9"/>
     </row>
     <row r="71" spans="1:11" ht="13">
@@ -13158,29 +13459,29 @@
         <v>132</v>
       </c>
       <c r="B71" s="9" t="s">
-        <v>534</v>
+        <v>163</v>
       </c>
       <c r="C71" s="9" t="s">
-        <v>381</v>
+        <v>164</v>
       </c>
       <c r="D71" s="9" t="s">
-        <v>382</v>
+        <v>411</v>
       </c>
       <c r="E71" s="9" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="F71" s="9" t="s">
-        <v>540</v>
+        <v>165</v>
       </c>
       <c r="G71" s="9" t="s">
-        <v>781</v>
+        <v>526</v>
       </c>
       <c r="H71" s="9"/>
       <c r="I71" s="10" t="s">
-        <v>541</v>
+        <v>166</v>
       </c>
       <c r="J71" s="26" t="s">
-        <v>542</v>
+        <v>527</v>
       </c>
       <c r="K71" s="9"/>
     </row>
@@ -13189,10 +13490,10 @@
         <v>132</v>
       </c>
       <c r="B72" s="9" t="s">
-        <v>176</v>
+        <v>163</v>
       </c>
       <c r="C72" s="9" t="s">
-        <v>543</v>
+        <v>167</v>
       </c>
       <c r="D72" s="9" t="s">
         <v>411</v>
@@ -13201,17 +13502,17 @@
         <v>25</v>
       </c>
       <c r="F72" s="9" t="s">
-        <v>544</v>
+        <v>168</v>
       </c>
       <c r="G72" s="9" t="s">
-        <v>545</v>
+        <v>528</v>
       </c>
       <c r="H72" s="9"/>
       <c r="I72" s="10" t="s">
-        <v>546</v>
+        <v>169</v>
       </c>
       <c r="J72" s="26" t="s">
-        <v>547</v>
+        <v>529</v>
       </c>
       <c r="K72" s="9"/>
     </row>
@@ -13220,29 +13521,29 @@
         <v>132</v>
       </c>
       <c r="B73" s="9" t="s">
-        <v>176</v>
+        <v>163</v>
       </c>
       <c r="C73" s="9" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="D73" s="9" t="s">
-        <v>411</v>
+        <v>117</v>
       </c>
       <c r="E73" s="9" t="s">
         <v>25</v>
       </c>
       <c r="F73" s="9" t="s">
-        <v>548</v>
+        <v>171</v>
       </c>
       <c r="G73" s="9" t="s">
-        <v>549</v>
+        <v>530</v>
       </c>
       <c r="H73" s="9"/>
-      <c r="I73" s="10" t="s">
-        <v>179</v>
+      <c r="I73" s="28" t="s">
+        <v>861</v>
       </c>
       <c r="J73" s="26" t="s">
-        <v>550</v>
+        <v>531</v>
       </c>
       <c r="K73" s="9"/>
     </row>
@@ -13251,29 +13552,29 @@
         <v>132</v>
       </c>
       <c r="B74" s="9" t="s">
-        <v>176</v>
+        <v>163</v>
       </c>
       <c r="C74" s="9" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="D74" s="9" t="s">
-        <v>181</v>
+        <v>117</v>
       </c>
       <c r="E74" s="9" t="s">
         <v>25</v>
       </c>
       <c r="F74" s="9" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="G74" s="9" t="s">
-        <v>551</v>
+        <v>532</v>
       </c>
       <c r="H74" s="9"/>
       <c r="I74" s="10" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="J74" s="26" t="s">
-        <v>552</v>
+        <v>533</v>
       </c>
       <c r="K74" s="9"/>
     </row>
@@ -13282,10 +13583,10 @@
         <v>132</v>
       </c>
       <c r="B75" s="9" t="s">
-        <v>184</v>
+        <v>163</v>
       </c>
       <c r="C75" s="9" t="s">
-        <v>185</v>
+        <v>848</v>
       </c>
       <c r="D75" s="9" t="s">
         <v>411</v>
@@ -13294,17 +13595,17 @@
         <v>25</v>
       </c>
       <c r="F75" s="9" t="s">
-        <v>186</v>
+        <v>849</v>
       </c>
       <c r="G75" s="9" t="s">
-        <v>553</v>
+        <v>850</v>
       </c>
       <c r="H75" s="9"/>
-      <c r="I75" s="10" t="s">
-        <v>187</v>
+      <c r="I75" s="28" t="s">
+        <v>851</v>
       </c>
       <c r="J75" s="26" t="s">
-        <v>554</v>
+        <v>852</v>
       </c>
       <c r="K75" s="9"/>
     </row>
@@ -13313,29 +13614,29 @@
         <v>132</v>
       </c>
       <c r="B76" s="9" t="s">
-        <v>184</v>
+        <v>728</v>
       </c>
       <c r="C76" s="9" t="s">
-        <v>188</v>
+        <v>727</v>
       </c>
       <c r="D76" s="9" t="s">
-        <v>117</v>
+        <v>411</v>
       </c>
       <c r="E76" s="9" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="F76" s="9" t="s">
-        <v>189</v>
+        <v>748</v>
       </c>
       <c r="G76" s="9" t="s">
-        <v>555</v>
+        <v>749</v>
       </c>
       <c r="H76" s="9"/>
-      <c r="I76" s="10" t="s">
-        <v>190</v>
+      <c r="I76" s="28" t="s">
+        <v>750</v>
       </c>
       <c r="J76" s="26" t="s">
-        <v>556</v>
+        <v>751</v>
       </c>
       <c r="K76" s="9"/>
     </row>
@@ -13344,29 +13645,29 @@
         <v>132</v>
       </c>
       <c r="B77" s="9" t="s">
-        <v>184</v>
+        <v>534</v>
       </c>
       <c r="C77" s="9" t="s">
-        <v>191</v>
+        <v>535</v>
       </c>
       <c r="D77" s="9" t="s">
-        <v>192</v>
+        <v>157</v>
       </c>
       <c r="E77" s="9" t="s">
         <v>25</v>
       </c>
       <c r="F77" s="9" t="s">
-        <v>193</v>
+        <v>536</v>
       </c>
       <c r="G77" s="9" t="s">
-        <v>557</v>
+        <v>537</v>
       </c>
       <c r="H77" s="9"/>
-      <c r="I77" s="10" t="s">
-        <v>194</v>
+      <c r="I77" s="11" t="s">
+        <v>538</v>
       </c>
       <c r="J77" s="26" t="s">
-        <v>558</v>
+        <v>539</v>
       </c>
       <c r="K77" s="9"/>
     </row>
@@ -13375,29 +13676,29 @@
         <v>132</v>
       </c>
       <c r="B78" s="9" t="s">
-        <v>184</v>
+        <v>534</v>
       </c>
       <c r="C78" s="9" t="s">
-        <v>195</v>
+        <v>381</v>
       </c>
       <c r="D78" s="9" t="s">
-        <v>51</v>
+        <v>382</v>
       </c>
       <c r="E78" s="9" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="F78" s="9" t="s">
-        <v>196</v>
+        <v>540</v>
       </c>
       <c r="G78" s="9" t="s">
-        <v>559</v>
+        <v>781</v>
       </c>
       <c r="H78" s="9"/>
       <c r="I78" s="10" t="s">
-        <v>197</v>
+        <v>541</v>
       </c>
       <c r="J78" s="26" t="s">
-        <v>560</v>
+        <v>542</v>
       </c>
       <c r="K78" s="9"/>
     </row>
@@ -13406,29 +13707,29 @@
         <v>132</v>
       </c>
       <c r="B79" s="9" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="C79" s="9" t="s">
-        <v>198</v>
+        <v>543</v>
       </c>
       <c r="D79" s="9" t="s">
-        <v>419</v>
+        <v>411</v>
       </c>
       <c r="E79" s="9" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="F79" s="9" t="s">
-        <v>199</v>
+        <v>544</v>
       </c>
       <c r="G79" s="9" t="s">
-        <v>561</v>
+        <v>545</v>
       </c>
       <c r="H79" s="9"/>
       <c r="I79" s="10" t="s">
-        <v>200</v>
+        <v>546</v>
       </c>
       <c r="J79" s="26" t="s">
-        <v>562</v>
+        <v>547</v>
       </c>
       <c r="K79" s="9"/>
     </row>
@@ -13437,29 +13738,29 @@
         <v>132</v>
       </c>
       <c r="B80" s="9" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="C80" s="9" t="s">
-        <v>201</v>
+        <v>177</v>
       </c>
       <c r="D80" s="9" t="s">
-        <v>419</v>
+        <v>411</v>
       </c>
       <c r="E80" s="9" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="F80" s="9" t="s">
-        <v>202</v>
+        <v>548</v>
       </c>
       <c r="G80" s="9" t="s">
-        <v>563</v>
+        <v>549</v>
       </c>
       <c r="H80" s="9"/>
       <c r="I80" s="10" t="s">
-        <v>203</v>
+        <v>179</v>
       </c>
       <c r="J80" s="26" t="s">
-        <v>564</v>
+        <v>550</v>
       </c>
       <c r="K80" s="9"/>
     </row>
@@ -13468,29 +13769,29 @@
         <v>132</v>
       </c>
       <c r="B81" s="9" t="s">
-        <v>184</v>
-      </c>
-      <c r="C81" s="12" t="s">
-        <v>204</v>
+        <v>176</v>
+      </c>
+      <c r="C81" s="9" t="s">
+        <v>180</v>
       </c>
       <c r="D81" s="9" t="s">
-        <v>419</v>
+        <v>181</v>
       </c>
       <c r="E81" s="9" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="F81" s="9" t="s">
-        <v>205</v>
+        <v>182</v>
       </c>
       <c r="G81" s="9" t="s">
-        <v>565</v>
+        <v>551</v>
       </c>
       <c r="H81" s="9"/>
-      <c r="I81" s="11" t="s">
-        <v>206</v>
+      <c r="I81" s="10" t="s">
+        <v>183</v>
       </c>
       <c r="J81" s="26" t="s">
-        <v>566</v>
+        <v>552</v>
       </c>
       <c r="K81" s="9"/>
     </row>
@@ -13501,8 +13802,8 @@
       <c r="B82" s="9" t="s">
         <v>184</v>
       </c>
-      <c r="C82" s="12" t="s">
-        <v>828</v>
+      <c r="C82" s="9" t="s">
+        <v>185</v>
       </c>
       <c r="D82" s="9" t="s">
         <v>411</v>
@@ -13511,17 +13812,17 @@
         <v>25</v>
       </c>
       <c r="F82" s="9" t="s">
-        <v>829</v>
+        <v>186</v>
       </c>
       <c r="G82" s="9" t="s">
-        <v>830</v>
+        <v>553</v>
       </c>
       <c r="H82" s="9"/>
-      <c r="I82" s="28" t="s">
-        <v>831</v>
+      <c r="I82" s="10" t="s">
+        <v>187</v>
       </c>
       <c r="J82" s="26" t="s">
-        <v>832</v>
+        <v>554</v>
       </c>
       <c r="K82" s="9"/>
     </row>
@@ -13532,27 +13833,27 @@
       <c r="B83" s="9" t="s">
         <v>184</v>
       </c>
-      <c r="C83" s="12" t="s">
-        <v>207</v>
+      <c r="C83" s="9" t="s">
+        <v>188</v>
       </c>
       <c r="D83" s="9" t="s">
-        <v>419</v>
+        <v>117</v>
       </c>
       <c r="E83" s="9" t="s">
         <v>25</v>
       </c>
       <c r="F83" s="9" t="s">
-        <v>208</v>
+        <v>189</v>
       </c>
       <c r="G83" s="9" t="s">
-        <v>567</v>
+        <v>555</v>
       </c>
       <c r="H83" s="9"/>
-      <c r="I83" s="11" t="s">
-        <v>209</v>
+      <c r="I83" s="10" t="s">
+        <v>190</v>
       </c>
       <c r="J83" s="26" t="s">
-        <v>568</v>
+        <v>556</v>
       </c>
       <c r="K83" s="9"/>
     </row>
@@ -13561,29 +13862,29 @@
         <v>132</v>
       </c>
       <c r="B84" s="9" t="s">
-        <v>210</v>
-      </c>
-      <c r="C84" s="12" t="s">
-        <v>211</v>
+        <v>184</v>
+      </c>
+      <c r="C84" s="9" t="s">
+        <v>191</v>
       </c>
       <c r="D84" s="9" t="s">
-        <v>419</v>
+        <v>192</v>
       </c>
       <c r="E84" s="9" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="F84" s="9" t="s">
-        <v>212</v>
+        <v>193</v>
       </c>
       <c r="G84" s="9" t="s">
-        <v>569</v>
+        <v>557</v>
       </c>
       <c r="H84" s="9"/>
       <c r="I84" s="10" t="s">
-        <v>213</v>
+        <v>194</v>
       </c>
       <c r="J84" s="26" t="s">
-        <v>570</v>
+        <v>558</v>
       </c>
       <c r="K84" s="9"/>
     </row>
@@ -13592,29 +13893,29 @@
         <v>132</v>
       </c>
       <c r="B85" s="9" t="s">
-        <v>722</v>
-      </c>
-      <c r="C85" s="12" t="s">
-        <v>721</v>
+        <v>184</v>
+      </c>
+      <c r="C85" s="9" t="s">
+        <v>195</v>
       </c>
       <c r="D85" s="9" t="s">
-        <v>411</v>
+        <v>51</v>
       </c>
       <c r="E85" s="9" t="s">
         <v>25</v>
       </c>
       <c r="F85" s="9" t="s">
-        <v>753</v>
+        <v>196</v>
       </c>
       <c r="G85" s="9" t="s">
-        <v>752</v>
+        <v>559</v>
       </c>
       <c r="H85" s="9"/>
-      <c r="I85" s="28" t="s">
-        <v>754</v>
+      <c r="I85" s="10" t="s">
+        <v>197</v>
       </c>
       <c r="J85" s="26" t="s">
-        <v>755</v>
+        <v>560</v>
       </c>
       <c r="K85" s="9"/>
     </row>
@@ -13623,29 +13924,29 @@
         <v>132</v>
       </c>
       <c r="B86" s="9" t="s">
-        <v>214</v>
-      </c>
-      <c r="C86" s="12" t="s">
-        <v>215</v>
+        <v>184</v>
+      </c>
+      <c r="C86" s="9" t="s">
+        <v>198</v>
       </c>
       <c r="D86" s="9" t="s">
-        <v>47</v>
+        <v>419</v>
       </c>
       <c r="E86" s="9" t="s">
         <v>14</v>
       </c>
       <c r="F86" s="9" t="s">
-        <v>216</v>
+        <v>199</v>
       </c>
       <c r="G86" s="9" t="s">
-        <v>571</v>
+        <v>561</v>
       </c>
       <c r="H86" s="9"/>
       <c r="I86" s="10" t="s">
-        <v>217</v>
+        <v>200</v>
       </c>
       <c r="J86" s="26" t="s">
-        <v>572</v>
+        <v>562</v>
       </c>
       <c r="K86" s="9"/>
     </row>
@@ -13654,29 +13955,29 @@
         <v>132</v>
       </c>
       <c r="B87" s="9" t="s">
-        <v>214</v>
-      </c>
-      <c r="C87" s="12" t="s">
-        <v>218</v>
+        <v>184</v>
+      </c>
+      <c r="C87" s="9" t="s">
+        <v>201</v>
       </c>
       <c r="D87" s="9" t="s">
-        <v>157</v>
+        <v>419</v>
       </c>
       <c r="E87" s="9" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="F87" s="9" t="s">
-        <v>219</v>
+        <v>202</v>
       </c>
       <c r="G87" s="9" t="s">
-        <v>573</v>
+        <v>563</v>
       </c>
       <c r="H87" s="9"/>
       <c r="I87" s="10" t="s">
-        <v>220</v>
+        <v>203</v>
       </c>
       <c r="J87" s="26" t="s">
-        <v>574</v>
+        <v>564</v>
       </c>
       <c r="K87" s="9"/>
     </row>
@@ -13685,29 +13986,29 @@
         <v>132</v>
       </c>
       <c r="B88" s="9" t="s">
-        <v>221</v>
+        <v>184</v>
       </c>
       <c r="C88" s="12" t="s">
-        <v>575</v>
+        <v>204</v>
       </c>
       <c r="D88" s="9" t="s">
-        <v>411</v>
+        <v>419</v>
       </c>
       <c r="E88" s="9" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="F88" s="9" t="s">
-        <v>223</v>
+        <v>205</v>
       </c>
       <c r="G88" s="9" t="s">
-        <v>576</v>
+        <v>565</v>
       </c>
       <c r="H88" s="9"/>
-      <c r="I88" s="10" t="s">
-        <v>577</v>
+      <c r="I88" s="11" t="s">
+        <v>206</v>
       </c>
       <c r="J88" s="26" t="s">
-        <v>578</v>
+        <v>566</v>
       </c>
       <c r="K88" s="9"/>
     </row>
@@ -13716,29 +14017,29 @@
         <v>132</v>
       </c>
       <c r="B89" s="9" t="s">
-        <v>225</v>
+        <v>184</v>
       </c>
       <c r="C89" s="12" t="s">
-        <v>226</v>
+        <v>828</v>
       </c>
       <c r="D89" s="9" t="s">
-        <v>419</v>
+        <v>411</v>
       </c>
       <c r="E89" s="9" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="F89" s="9" t="s">
-        <v>227</v>
+        <v>829</v>
       </c>
       <c r="G89" s="9" t="s">
-        <v>579</v>
+        <v>830</v>
       </c>
       <c r="H89" s="9"/>
-      <c r="I89" s="10" t="s">
-        <v>228</v>
+      <c r="I89" s="28" t="s">
+        <v>831</v>
       </c>
       <c r="J89" s="26" t="s">
-        <v>580</v>
+        <v>832</v>
       </c>
       <c r="K89" s="9"/>
     </row>
@@ -13747,29 +14048,29 @@
         <v>132</v>
       </c>
       <c r="B90" s="9" t="s">
-        <v>225</v>
+        <v>184</v>
       </c>
       <c r="C90" s="12" t="s">
-        <v>229</v>
+        <v>207</v>
       </c>
       <c r="D90" s="9" t="s">
-        <v>411</v>
+        <v>419</v>
       </c>
       <c r="E90" s="9" t="s">
         <v>25</v>
       </c>
       <c r="F90" s="9" t="s">
-        <v>230</v>
+        <v>208</v>
       </c>
       <c r="G90" s="9" t="s">
-        <v>581</v>
+        <v>567</v>
       </c>
       <c r="H90" s="9"/>
-      <c r="I90" s="10" t="s">
-        <v>231</v>
+      <c r="I90" s="11" t="s">
+        <v>209</v>
       </c>
       <c r="J90" s="26" t="s">
-        <v>582</v>
+        <v>568</v>
       </c>
       <c r="K90" s="9"/>
     </row>
@@ -13778,29 +14079,29 @@
         <v>132</v>
       </c>
       <c r="B91" s="9" t="s">
-        <v>583</v>
-      </c>
-      <c r="C91" s="9" t="s">
-        <v>584</v>
+        <v>210</v>
+      </c>
+      <c r="C91" s="12" t="s">
+        <v>211</v>
       </c>
       <c r="D91" s="9" t="s">
-        <v>411</v>
+        <v>419</v>
       </c>
       <c r="E91" s="9" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="F91" s="9" t="s">
-        <v>585</v>
+        <v>212</v>
       </c>
       <c r="G91" s="9" t="s">
-        <v>586</v>
+        <v>569</v>
       </c>
       <c r="H91" s="9"/>
-      <c r="I91" s="11" t="s">
-        <v>587</v>
+      <c r="I91" s="10" t="s">
+        <v>213</v>
       </c>
       <c r="J91" s="26" t="s">
-        <v>588</v>
+        <v>570</v>
       </c>
       <c r="K91" s="9"/>
     </row>
@@ -13809,29 +14110,29 @@
         <v>132</v>
       </c>
       <c r="B92" s="9" t="s">
-        <v>583</v>
-      </c>
-      <c r="C92" s="9" t="s">
-        <v>838</v>
+        <v>722</v>
+      </c>
+      <c r="C92" s="12" t="s">
+        <v>721</v>
       </c>
       <c r="D92" s="9" t="s">
-        <v>117</v>
+        <v>411</v>
       </c>
       <c r="E92" s="9" t="s">
         <v>25</v>
       </c>
       <c r="F92" s="9" t="s">
-        <v>839</v>
+        <v>753</v>
       </c>
       <c r="G92" s="9" t="s">
-        <v>840</v>
+        <v>752</v>
       </c>
       <c r="H92" s="9"/>
       <c r="I92" s="28" t="s">
-        <v>841</v>
+        <v>754</v>
       </c>
       <c r="J92" s="26" t="s">
-        <v>842</v>
+        <v>755</v>
       </c>
       <c r="K92" s="9"/>
     </row>
@@ -13840,10 +14141,10 @@
         <v>132</v>
       </c>
       <c r="B93" s="9" t="s">
-        <v>232</v>
-      </c>
-      <c r="C93" s="9" t="s">
-        <v>233</v>
+        <v>722</v>
+      </c>
+      <c r="C93" s="12" t="s">
+        <v>896</v>
       </c>
       <c r="D93" s="9" t="s">
         <v>411</v>
@@ -13852,18 +14153,16 @@
         <v>25</v>
       </c>
       <c r="F93" s="9" t="s">
-        <v>234</v>
+        <v>964</v>
       </c>
       <c r="G93" s="9" t="s">
-        <v>589</v>
+        <v>965</v>
       </c>
       <c r="H93" s="9"/>
-      <c r="I93" s="10" t="s">
-        <v>235</v>
-      </c>
-      <c r="J93" s="26" t="s">
-        <v>590</v>
-      </c>
+      <c r="I93" s="28" t="s">
+        <v>966</v>
+      </c>
+      <c r="J93" s="26"/>
       <c r="K93" s="9"/>
     </row>
     <row r="94" spans="1:11" ht="13">
@@ -13871,29 +14170,29 @@
         <v>132</v>
       </c>
       <c r="B94" s="9" t="s">
-        <v>236</v>
-      </c>
-      <c r="C94" s="9" t="s">
-        <v>381</v>
+        <v>214</v>
+      </c>
+      <c r="C94" s="12" t="s">
+        <v>215</v>
       </c>
       <c r="D94" s="9" t="s">
-        <v>382</v>
+        <v>47</v>
       </c>
       <c r="E94" s="9" t="s">
         <v>14</v>
       </c>
       <c r="F94" s="9" t="s">
-        <v>591</v>
+        <v>216</v>
       </c>
       <c r="G94" s="9" t="s">
-        <v>592</v>
+        <v>571</v>
       </c>
       <c r="H94" s="9"/>
-      <c r="I94" s="11" t="s">
-        <v>593</v>
+      <c r="I94" s="10" t="s">
+        <v>217</v>
       </c>
       <c r="J94" s="26" t="s">
-        <v>594</v>
+        <v>572</v>
       </c>
       <c r="K94" s="9"/>
     </row>
@@ -13902,29 +14201,29 @@
         <v>132</v>
       </c>
       <c r="B95" s="9" t="s">
-        <v>236</v>
-      </c>
-      <c r="C95" s="9" t="s">
-        <v>237</v>
+        <v>214</v>
+      </c>
+      <c r="C95" s="12" t="s">
+        <v>218</v>
       </c>
       <c r="D95" s="9" t="s">
-        <v>411</v>
+        <v>157</v>
       </c>
       <c r="E95" s="9" t="s">
         <v>25</v>
       </c>
       <c r="F95" s="9" t="s">
-        <v>238</v>
+        <v>219</v>
       </c>
       <c r="G95" s="9" t="s">
-        <v>595</v>
+        <v>573</v>
       </c>
       <c r="H95" s="9"/>
       <c r="I95" s="10" t="s">
-        <v>239</v>
+        <v>220</v>
       </c>
       <c r="J95" s="26" t="s">
-        <v>596</v>
+        <v>574</v>
       </c>
       <c r="K95" s="9"/>
     </row>
@@ -13933,29 +14232,29 @@
         <v>132</v>
       </c>
       <c r="B96" s="9" t="s">
-        <v>236</v>
-      </c>
-      <c r="C96" s="9" t="s">
-        <v>240</v>
+        <v>221</v>
+      </c>
+      <c r="C96" s="12" t="s">
+        <v>575</v>
       </c>
       <c r="D96" s="9" t="s">
-        <v>241</v>
+        <v>411</v>
       </c>
       <c r="E96" s="9" t="s">
         <v>25</v>
       </c>
       <c r="F96" s="9" t="s">
-        <v>242</v>
+        <v>223</v>
       </c>
       <c r="G96" s="9" t="s">
-        <v>597</v>
+        <v>576</v>
       </c>
       <c r="H96" s="9"/>
       <c r="I96" s="10" t="s">
-        <v>243</v>
+        <v>577</v>
       </c>
       <c r="J96" s="26" t="s">
-        <v>598</v>
+        <v>578</v>
       </c>
       <c r="K96" s="9"/>
     </row>
@@ -13964,29 +14263,29 @@
         <v>132</v>
       </c>
       <c r="B97" s="9" t="s">
-        <v>236</v>
-      </c>
-      <c r="C97" s="9" t="s">
-        <v>790</v>
+        <v>225</v>
+      </c>
+      <c r="C97" s="12" t="s">
+        <v>226</v>
       </c>
       <c r="D97" s="9" t="s">
-        <v>117</v>
+        <v>419</v>
       </c>
       <c r="E97" s="9" t="s">
         <v>14</v>
       </c>
       <c r="F97" s="9" t="s">
-        <v>812</v>
+        <v>227</v>
       </c>
       <c r="G97" s="9" t="s">
-        <v>813</v>
+        <v>579</v>
       </c>
       <c r="H97" s="9"/>
-      <c r="I97" s="28" t="s">
-        <v>814</v>
+      <c r="I97" s="10" t="s">
+        <v>228</v>
       </c>
       <c r="J97" s="26" t="s">
-        <v>815</v>
+        <v>580</v>
       </c>
       <c r="K97" s="9"/>
     </row>
@@ -13995,29 +14294,29 @@
         <v>132</v>
       </c>
       <c r="B98" s="9" t="s">
-        <v>244</v>
-      </c>
-      <c r="C98" s="9" t="s">
-        <v>245</v>
+        <v>225</v>
+      </c>
+      <c r="C98" s="12" t="s">
+        <v>229</v>
       </c>
       <c r="D98" s="9" t="s">
-        <v>241</v>
+        <v>411</v>
       </c>
       <c r="E98" s="9" t="s">
         <v>25</v>
       </c>
       <c r="F98" s="9" t="s">
-        <v>246</v>
+        <v>230</v>
       </c>
       <c r="G98" s="9" t="s">
-        <v>599</v>
+        <v>581</v>
       </c>
       <c r="H98" s="9"/>
       <c r="I98" s="10" t="s">
-        <v>247</v>
+        <v>231</v>
       </c>
       <c r="J98" s="26" t="s">
-        <v>600</v>
+        <v>582</v>
       </c>
       <c r="K98" s="9"/>
     </row>
@@ -14026,10 +14325,10 @@
         <v>132</v>
       </c>
       <c r="B99" s="9" t="s">
-        <v>789</v>
+        <v>583</v>
       </c>
       <c r="C99" s="9" t="s">
-        <v>788</v>
+        <v>584</v>
       </c>
       <c r="D99" s="9" t="s">
         <v>411</v>
@@ -14038,17 +14337,17 @@
         <v>25</v>
       </c>
       <c r="F99" s="9" t="s">
-        <v>816</v>
+        <v>585</v>
       </c>
       <c r="G99" s="9" t="s">
-        <v>817</v>
+        <v>586</v>
       </c>
       <c r="H99" s="9"/>
-      <c r="I99" s="28" t="s">
-        <v>818</v>
+      <c r="I99" s="11" t="s">
+        <v>587</v>
       </c>
       <c r="J99" s="26" t="s">
-        <v>819</v>
+        <v>588</v>
       </c>
       <c r="K99" s="9"/>
     </row>
@@ -14057,29 +14356,29 @@
         <v>132</v>
       </c>
       <c r="B100" s="9" t="s">
-        <v>248</v>
+        <v>583</v>
       </c>
       <c r="C100" s="9" t="s">
-        <v>381</v>
+        <v>838</v>
       </c>
       <c r="D100" s="9" t="s">
-        <v>382</v>
+        <v>117</v>
       </c>
       <c r="E100" s="9" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="F100" s="9" t="s">
-        <v>601</v>
+        <v>839</v>
       </c>
       <c r="G100" s="9" t="s">
-        <v>602</v>
+        <v>840</v>
       </c>
       <c r="H100" s="9"/>
-      <c r="I100" s="10" t="s">
-        <v>603</v>
+      <c r="I100" s="28" t="s">
+        <v>841</v>
       </c>
       <c r="J100" s="26" t="s">
-        <v>604</v>
+        <v>842</v>
       </c>
       <c r="K100" s="9"/>
     </row>
@@ -14088,10 +14387,10 @@
         <v>132</v>
       </c>
       <c r="B101" s="9" t="s">
-        <v>248</v>
+        <v>583</v>
       </c>
       <c r="C101" s="9" t="s">
-        <v>249</v>
+        <v>912</v>
       </c>
       <c r="D101" s="9" t="s">
         <v>117</v>
@@ -14100,17 +14399,17 @@
         <v>25</v>
       </c>
       <c r="F101" s="9" t="s">
-        <v>250</v>
+        <v>940</v>
       </c>
       <c r="G101" s="9" t="s">
-        <v>605</v>
+        <v>941</v>
       </c>
       <c r="H101" s="9"/>
-      <c r="I101" s="10" t="s">
-        <v>251</v>
+      <c r="I101" s="28" t="s">
+        <v>942</v>
       </c>
       <c r="J101" s="26" t="s">
-        <v>606</v>
+        <v>943</v>
       </c>
       <c r="K101" s="9"/>
     </row>
@@ -14119,10 +14418,10 @@
         <v>132</v>
       </c>
       <c r="B102" s="9" t="s">
-        <v>248</v>
+        <v>232</v>
       </c>
       <c r="C102" s="9" t="s">
-        <v>252</v>
+        <v>233</v>
       </c>
       <c r="D102" s="9" t="s">
         <v>411</v>
@@ -14131,17 +14430,17 @@
         <v>25</v>
       </c>
       <c r="F102" s="9" t="s">
-        <v>253</v>
+        <v>234</v>
       </c>
       <c r="G102" s="9" t="s">
-        <v>607</v>
+        <v>589</v>
       </c>
       <c r="H102" s="9"/>
       <c r="I102" s="10" t="s">
-        <v>254</v>
+        <v>235</v>
       </c>
       <c r="J102" s="26" t="s">
-        <v>608</v>
+        <v>590</v>
       </c>
       <c r="K102" s="9"/>
     </row>
@@ -14150,29 +14449,29 @@
         <v>132</v>
       </c>
       <c r="B103" s="9" t="s">
-        <v>248</v>
+        <v>236</v>
       </c>
       <c r="C103" s="9" t="s">
-        <v>255</v>
+        <v>381</v>
       </c>
       <c r="D103" s="9" t="s">
-        <v>117</v>
+        <v>382</v>
       </c>
       <c r="E103" s="9" t="s">
-        <v>39</v>
+        <v>14</v>
       </c>
       <c r="F103" s="9" t="s">
-        <v>256</v>
+        <v>591</v>
       </c>
       <c r="G103" s="9" t="s">
-        <v>609</v>
+        <v>592</v>
       </c>
       <c r="H103" s="9"/>
-      <c r="I103" s="10" t="s">
-        <v>257</v>
+      <c r="I103" s="11" t="s">
+        <v>593</v>
       </c>
       <c r="J103" s="26" t="s">
-        <v>610</v>
+        <v>594</v>
       </c>
       <c r="K103" s="9"/>
     </row>
@@ -14181,29 +14480,29 @@
         <v>132</v>
       </c>
       <c r="B104" s="9" t="s">
-        <v>258</v>
+        <v>236</v>
       </c>
       <c r="C104" s="9" t="s">
-        <v>259</v>
+        <v>237</v>
       </c>
       <c r="D104" s="9" t="s">
-        <v>117</v>
+        <v>411</v>
       </c>
       <c r="E104" s="9" t="s">
         <v>25</v>
       </c>
       <c r="F104" s="9" t="s">
-        <v>260</v>
+        <v>238</v>
       </c>
       <c r="G104" s="9" t="s">
-        <v>611</v>
+        <v>595</v>
       </c>
       <c r="H104" s="9"/>
       <c r="I104" s="10" t="s">
-        <v>261</v>
+        <v>239</v>
       </c>
       <c r="J104" s="26" t="s">
-        <v>612</v>
+        <v>596</v>
       </c>
       <c r="K104" s="9"/>
     </row>
@@ -14212,29 +14511,29 @@
         <v>132</v>
       </c>
       <c r="B105" s="9" t="s">
-        <v>262</v>
+        <v>236</v>
       </c>
       <c r="C105" s="9" t="s">
-        <v>263</v>
+        <v>240</v>
       </c>
       <c r="D105" s="9" t="s">
-        <v>613</v>
+        <v>241</v>
       </c>
       <c r="E105" s="9" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="F105" s="9" t="s">
-        <v>265</v>
+        <v>242</v>
       </c>
       <c r="G105" s="9" t="s">
-        <v>614</v>
+        <v>597</v>
       </c>
       <c r="H105" s="9"/>
-      <c r="I105" s="11" t="s">
-        <v>266</v>
+      <c r="I105" s="10" t="s">
+        <v>243</v>
       </c>
       <c r="J105" s="26" t="s">
-        <v>615</v>
+        <v>598</v>
       </c>
       <c r="K105" s="9"/>
     </row>
@@ -14243,29 +14542,29 @@
         <v>132</v>
       </c>
       <c r="B106" s="9" t="s">
-        <v>262</v>
+        <v>236</v>
       </c>
       <c r="C106" s="9" t="s">
-        <v>267</v>
+        <v>790</v>
       </c>
       <c r="D106" s="9" t="s">
-        <v>411</v>
+        <v>117</v>
       </c>
       <c r="E106" s="9" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="F106" s="9" t="s">
-        <v>268</v>
+        <v>812</v>
       </c>
       <c r="G106" s="9" t="s">
-        <v>616</v>
+        <v>813</v>
       </c>
       <c r="H106" s="9"/>
-      <c r="I106" s="11" t="s">
-        <v>269</v>
+      <c r="I106" s="28" t="s">
+        <v>814</v>
       </c>
       <c r="J106" s="26" t="s">
-        <v>617</v>
+        <v>815</v>
       </c>
       <c r="K106" s="9"/>
     </row>
@@ -14274,10 +14573,10 @@
         <v>132</v>
       </c>
       <c r="B107" s="9" t="s">
-        <v>262</v>
+        <v>236</v>
       </c>
       <c r="C107" s="9" t="s">
-        <v>270</v>
+        <v>911</v>
       </c>
       <c r="D107" s="9" t="s">
         <v>419</v>
@@ -14286,17 +14585,17 @@
         <v>25</v>
       </c>
       <c r="F107" s="9" t="s">
-        <v>271</v>
+        <v>945</v>
       </c>
       <c r="G107" s="9" t="s">
-        <v>618</v>
+        <v>944</v>
       </c>
       <c r="H107" s="9"/>
-      <c r="I107" s="11" t="s">
-        <v>272</v>
+      <c r="I107" s="28" t="s">
+        <v>946</v>
       </c>
       <c r="J107" s="26" t="s">
-        <v>619</v>
+        <v>947</v>
       </c>
       <c r="K107" s="9"/>
     </row>
@@ -14305,29 +14604,29 @@
         <v>132</v>
       </c>
       <c r="B108" s="9" t="s">
-        <v>262</v>
+        <v>244</v>
       </c>
       <c r="C108" s="9" t="s">
-        <v>833</v>
+        <v>245</v>
       </c>
       <c r="D108" s="9" t="s">
-        <v>411</v>
+        <v>241</v>
       </c>
       <c r="E108" s="9" t="s">
         <v>25</v>
       </c>
       <c r="F108" s="9" t="s">
-        <v>834</v>
+        <v>246</v>
       </c>
       <c r="G108" s="9" t="s">
-        <v>835</v>
+        <v>599</v>
       </c>
       <c r="H108" s="9"/>
-      <c r="I108" s="28" t="s">
-        <v>836</v>
+      <c r="I108" s="10" t="s">
+        <v>247</v>
       </c>
       <c r="J108" s="26" t="s">
-        <v>837</v>
+        <v>600</v>
       </c>
       <c r="K108" s="9"/>
     </row>
@@ -14336,29 +14635,29 @@
         <v>132</v>
       </c>
       <c r="B109" s="9" t="s">
-        <v>262</v>
+        <v>789</v>
       </c>
       <c r="C109" s="9" t="s">
-        <v>786</v>
+        <v>788</v>
       </c>
       <c r="D109" s="9" t="s">
-        <v>117</v>
+        <v>411</v>
       </c>
       <c r="E109" s="9" t="s">
         <v>25</v>
       </c>
       <c r="F109" s="9" t="s">
-        <v>820</v>
+        <v>816</v>
       </c>
       <c r="G109" s="9" t="s">
-        <v>821</v>
+        <v>817</v>
       </c>
       <c r="H109" s="9"/>
       <c r="I109" s="28" t="s">
-        <v>822</v>
+        <v>818</v>
       </c>
       <c r="J109" s="26" t="s">
-        <v>823</v>
+        <v>819</v>
       </c>
       <c r="K109" s="9"/>
     </row>
@@ -14367,29 +14666,29 @@
         <v>132</v>
       </c>
       <c r="B110" s="9" t="s">
-        <v>262</v>
+        <v>248</v>
       </c>
       <c r="C110" s="9" t="s">
-        <v>787</v>
+        <v>381</v>
       </c>
       <c r="D110" s="9" t="s">
-        <v>117</v>
+        <v>382</v>
       </c>
       <c r="E110" s="9" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="F110" s="9" t="s">
-        <v>824</v>
+        <v>601</v>
       </c>
       <c r="G110" s="9" t="s">
-        <v>825</v>
+        <v>602</v>
       </c>
       <c r="H110" s="9"/>
-      <c r="I110" s="28" t="s">
-        <v>826</v>
+      <c r="I110" s="10" t="s">
+        <v>603</v>
       </c>
       <c r="J110" s="26" t="s">
-        <v>827</v>
+        <v>604</v>
       </c>
       <c r="K110" s="9"/>
     </row>
@@ -14398,29 +14697,29 @@
         <v>132</v>
       </c>
       <c r="B111" s="9" t="s">
-        <v>262</v>
+        <v>248</v>
       </c>
       <c r="C111" s="9" t="s">
-        <v>273</v>
+        <v>249</v>
       </c>
       <c r="D111" s="9" t="s">
-        <v>613</v>
+        <v>117</v>
       </c>
       <c r="E111" s="9" t="s">
         <v>25</v>
       </c>
       <c r="F111" s="9" t="s">
-        <v>274</v>
+        <v>250</v>
       </c>
       <c r="G111" s="9" t="s">
-        <v>620</v>
+        <v>605</v>
       </c>
       <c r="H111" s="9"/>
-      <c r="I111" s="11" t="s">
-        <v>275</v>
+      <c r="I111" s="10" t="s">
+        <v>251</v>
       </c>
       <c r="J111" s="26" t="s">
-        <v>621</v>
+        <v>606</v>
       </c>
       <c r="K111" s="9"/>
     </row>
@@ -14429,29 +14728,29 @@
         <v>132</v>
       </c>
       <c r="B112" s="9" t="s">
-        <v>262</v>
+        <v>248</v>
       </c>
       <c r="C112" s="9" t="s">
-        <v>724</v>
+        <v>252</v>
       </c>
       <c r="D112" s="9" t="s">
-        <v>398</v>
+        <v>411</v>
       </c>
       <c r="E112" s="9" t="s">
         <v>25</v>
       </c>
       <c r="F112" s="9" t="s">
-        <v>756</v>
+        <v>253</v>
       </c>
       <c r="G112" s="9" t="s">
-        <v>757</v>
+        <v>607</v>
       </c>
       <c r="H112" s="9"/>
-      <c r="I112" s="28" t="s">
-        <v>758</v>
+      <c r="I112" s="10" t="s">
+        <v>254</v>
       </c>
       <c r="J112" s="26" t="s">
-        <v>759</v>
+        <v>608</v>
       </c>
       <c r="K112" s="9"/>
     </row>
@@ -14460,490 +14759,492 @@
         <v>132</v>
       </c>
       <c r="B113" s="9" t="s">
+        <v>248</v>
+      </c>
+      <c r="C113" s="9" t="s">
+        <v>255</v>
+      </c>
+      <c r="D113" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="E113" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="F113" s="9" t="s">
+        <v>256</v>
+      </c>
+      <c r="G113" s="9" t="s">
+        <v>609</v>
+      </c>
+      <c r="H113" s="9"/>
+      <c r="I113" s="10" t="s">
+        <v>257</v>
+      </c>
+      <c r="J113" s="26" t="s">
+        <v>610</v>
+      </c>
+      <c r="K113" s="9"/>
+    </row>
+    <row r="114" spans="1:11" ht="13">
+      <c r="A114" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="B114" s="9" t="s">
+        <v>258</v>
+      </c>
+      <c r="C114" s="9" t="s">
+        <v>259</v>
+      </c>
+      <c r="D114" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="E114" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F114" s="9" t="s">
+        <v>260</v>
+      </c>
+      <c r="G114" s="9" t="s">
+        <v>611</v>
+      </c>
+      <c r="H114" s="9"/>
+      <c r="I114" s="10" t="s">
+        <v>261</v>
+      </c>
+      <c r="J114" s="26" t="s">
+        <v>612</v>
+      </c>
+      <c r="K114" s="9"/>
+    </row>
+    <row r="115" spans="1:11" ht="13">
+      <c r="A115" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="B115" s="9" t="s">
         <v>262</v>
       </c>
-      <c r="C113" s="9" t="s">
+      <c r="C115" s="9" t="s">
+        <v>263</v>
+      </c>
+      <c r="D115" s="9" t="s">
+        <v>613</v>
+      </c>
+      <c r="E115" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F115" s="9" t="s">
+        <v>265</v>
+      </c>
+      <c r="G115" s="9" t="s">
+        <v>614</v>
+      </c>
+      <c r="H115" s="9"/>
+      <c r="I115" s="11" t="s">
+        <v>266</v>
+      </c>
+      <c r="J115" s="26" t="s">
+        <v>615</v>
+      </c>
+      <c r="K115" s="9"/>
+    </row>
+    <row r="116" spans="1:11" ht="13">
+      <c r="A116" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="B116" s="9" t="s">
+        <v>262</v>
+      </c>
+      <c r="C116" s="9" t="s">
+        <v>267</v>
+      </c>
+      <c r="D116" s="9" t="s">
+        <v>411</v>
+      </c>
+      <c r="E116" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F116" s="9" t="s">
+        <v>268</v>
+      </c>
+      <c r="G116" s="9" t="s">
+        <v>616</v>
+      </c>
+      <c r="H116" s="9"/>
+      <c r="I116" s="11" t="s">
+        <v>269</v>
+      </c>
+      <c r="J116" s="26" t="s">
+        <v>617</v>
+      </c>
+      <c r="K116" s="9"/>
+    </row>
+    <row r="117" spans="1:11" ht="13">
+      <c r="A117" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="B117" s="9" t="s">
+        <v>262</v>
+      </c>
+      <c r="C117" s="9" t="s">
+        <v>270</v>
+      </c>
+      <c r="D117" s="9" t="s">
+        <v>419</v>
+      </c>
+      <c r="E117" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F117" s="9" t="s">
+        <v>271</v>
+      </c>
+      <c r="G117" s="9" t="s">
+        <v>618</v>
+      </c>
+      <c r="H117" s="9"/>
+      <c r="I117" s="11" t="s">
+        <v>272</v>
+      </c>
+      <c r="J117" s="26" t="s">
+        <v>619</v>
+      </c>
+      <c r="K117" s="9"/>
+    </row>
+    <row r="118" spans="1:11" ht="13">
+      <c r="A118" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="B118" s="9" t="s">
+        <v>262</v>
+      </c>
+      <c r="C118" s="9" t="s">
+        <v>833</v>
+      </c>
+      <c r="D118" s="9" t="s">
+        <v>411</v>
+      </c>
+      <c r="E118" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F118" s="9" t="s">
+        <v>834</v>
+      </c>
+      <c r="G118" s="9" t="s">
+        <v>835</v>
+      </c>
+      <c r="H118" s="9"/>
+      <c r="I118" s="28" t="s">
+        <v>836</v>
+      </c>
+      <c r="J118" s="26" t="s">
+        <v>837</v>
+      </c>
+      <c r="K118" s="9"/>
+    </row>
+    <row r="119" spans="1:11" ht="13">
+      <c r="A119" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="B119" s="9" t="s">
+        <v>262</v>
+      </c>
+      <c r="C119" s="9" t="s">
+        <v>786</v>
+      </c>
+      <c r="D119" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="E119" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F119" s="9" t="s">
+        <v>820</v>
+      </c>
+      <c r="G119" s="9" t="s">
+        <v>821</v>
+      </c>
+      <c r="H119" s="9"/>
+      <c r="I119" s="28" t="s">
+        <v>822</v>
+      </c>
+      <c r="J119" s="26" t="s">
+        <v>823</v>
+      </c>
+      <c r="K119" s="9"/>
+    </row>
+    <row r="120" spans="1:11" ht="13">
+      <c r="A120" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="B120" s="9" t="s">
+        <v>262</v>
+      </c>
+      <c r="C120" s="9" t="s">
+        <v>897</v>
+      </c>
+      <c r="D120" s="9" t="s">
+        <v>419</v>
+      </c>
+      <c r="E120" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F120" s="9" t="s">
+        <v>948</v>
+      </c>
+      <c r="G120" s="9" t="s">
+        <v>949</v>
+      </c>
+      <c r="H120" s="9"/>
+      <c r="I120" s="28" t="s">
+        <v>950</v>
+      </c>
+      <c r="J120" s="26" t="s">
+        <v>951</v>
+      </c>
+      <c r="K120" s="9"/>
+    </row>
+    <row r="121" spans="1:11" ht="13">
+      <c r="A121" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="B121" s="9" t="s">
+        <v>262</v>
+      </c>
+      <c r="C121" s="9" t="s">
+        <v>787</v>
+      </c>
+      <c r="D121" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="E121" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F121" s="9" t="s">
+        <v>824</v>
+      </c>
+      <c r="G121" s="9" t="s">
+        <v>825</v>
+      </c>
+      <c r="H121" s="9"/>
+      <c r="I121" s="28" t="s">
+        <v>826</v>
+      </c>
+      <c r="J121" s="26" t="s">
+        <v>827</v>
+      </c>
+      <c r="K121" s="9"/>
+    </row>
+    <row r="122" spans="1:11" ht="13">
+      <c r="A122" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="B122" s="9" t="s">
+        <v>262</v>
+      </c>
+      <c r="C122" s="9" t="s">
+        <v>273</v>
+      </c>
+      <c r="D122" s="9" t="s">
+        <v>613</v>
+      </c>
+      <c r="E122" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F122" s="9" t="s">
+        <v>274</v>
+      </c>
+      <c r="G122" s="9" t="s">
+        <v>620</v>
+      </c>
+      <c r="H122" s="9"/>
+      <c r="I122" s="11" t="s">
+        <v>275</v>
+      </c>
+      <c r="J122" s="26" t="s">
+        <v>621</v>
+      </c>
+      <c r="K122" s="9"/>
+    </row>
+    <row r="123" spans="1:11" ht="13">
+      <c r="A123" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="B123" s="9" t="s">
+        <v>262</v>
+      </c>
+      <c r="C123" s="9" t="s">
+        <v>898</v>
+      </c>
+      <c r="D123" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="E123" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F123" s="9" t="s">
+        <v>952</v>
+      </c>
+      <c r="G123" s="9" t="s">
+        <v>953</v>
+      </c>
+      <c r="H123" s="9"/>
+      <c r="I123" s="28" t="s">
+        <v>954</v>
+      </c>
+      <c r="J123" s="26" t="s">
+        <v>955</v>
+      </c>
+      <c r="K123" s="9"/>
+    </row>
+    <row r="124" spans="1:11" ht="13">
+      <c r="A124" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="B124" s="9" t="s">
+        <v>262</v>
+      </c>
+      <c r="C124" s="9" t="s">
+        <v>724</v>
+      </c>
+      <c r="D124" s="9" t="s">
+        <v>398</v>
+      </c>
+      <c r="E124" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F124" s="9" t="s">
+        <v>756</v>
+      </c>
+      <c r="G124" s="9" t="s">
+        <v>757</v>
+      </c>
+      <c r="H124" s="9"/>
+      <c r="I124" s="28" t="s">
+        <v>758</v>
+      </c>
+      <c r="J124" s="26" t="s">
+        <v>759</v>
+      </c>
+      <c r="K124" s="9"/>
+    </row>
+    <row r="125" spans="1:11" ht="13">
+      <c r="A125" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="B125" s="9" t="s">
+        <v>262</v>
+      </c>
+      <c r="C125" s="9" t="s">
         <v>276</v>
       </c>
-      <c r="D113" s="9" t="s">
+      <c r="D125" s="9" t="s">
         <v>398</v>
       </c>
-      <c r="E113" s="9" t="s">
+      <c r="E125" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="F113" s="9" t="s">
+      <c r="F125" s="9" t="s">
         <v>277</v>
       </c>
-      <c r="G113" s="9" t="s">
+      <c r="G125" s="9" t="s">
         <v>622</v>
       </c>
-      <c r="H113" s="9"/>
-      <c r="I113" s="11" t="s">
+      <c r="H125" s="9"/>
+      <c r="I125" s="11" t="s">
         <v>623</v>
       </c>
-      <c r="J113" s="26"/>
-      <c r="K113" s="9"/>
-    </row>
-    <row r="114" spans="1:11" ht="13">
-      <c r="A114" s="14" t="s">
-        <v>278</v>
-      </c>
-      <c r="B114" s="14" t="s">
-        <v>624</v>
-      </c>
-      <c r="C114" s="14" t="s">
-        <v>625</v>
-      </c>
-      <c r="D114" s="14" t="s">
-        <v>157</v>
-      </c>
-      <c r="E114" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="F114" s="14" t="s">
-        <v>626</v>
-      </c>
-      <c r="G114" s="14" t="s">
-        <v>627</v>
-      </c>
-      <c r="H114" s="14"/>
-      <c r="I114" s="16" t="s">
-        <v>628</v>
-      </c>
-      <c r="J114" s="17" t="s">
-        <v>629</v>
-      </c>
-      <c r="K114" s="14"/>
-    </row>
-    <row r="115" spans="1:11" ht="13">
-      <c r="A115" s="14" t="s">
-        <v>278</v>
-      </c>
-      <c r="B115" s="14" t="s">
-        <v>624</v>
-      </c>
-      <c r="C115" s="14" t="s">
-        <v>630</v>
-      </c>
-      <c r="D115" s="14" t="s">
-        <v>411</v>
-      </c>
-      <c r="E115" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="F115" s="14" t="s">
-        <v>631</v>
-      </c>
-      <c r="G115" s="14" t="s">
-        <v>632</v>
-      </c>
-      <c r="H115" s="14"/>
-      <c r="I115" s="16" t="s">
-        <v>633</v>
-      </c>
-      <c r="J115" s="17" t="s">
-        <v>634</v>
-      </c>
-      <c r="K115" s="14"/>
-    </row>
-    <row r="116" spans="1:11" ht="13">
-      <c r="A116" s="14" t="s">
-        <v>278</v>
-      </c>
-      <c r="B116" s="14" t="s">
-        <v>279</v>
-      </c>
-      <c r="C116" s="14" t="s">
-        <v>635</v>
-      </c>
-      <c r="D116" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="E116" s="14" t="s">
+      <c r="J125" s="26"/>
+      <c r="K125" s="9"/>
+    </row>
+    <row r="126" spans="1:11" ht="13">
+      <c r="A126" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="B126" s="9" t="s">
+        <v>902</v>
+      </c>
+      <c r="C126" s="9" t="s">
+        <v>901</v>
+      </c>
+      <c r="D126" s="9" t="s">
+        <v>398</v>
+      </c>
+      <c r="E126" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="F116" s="14" t="s">
-        <v>636</v>
-      </c>
-      <c r="G116" s="14" t="s">
-        <v>637</v>
-      </c>
-      <c r="H116" s="14"/>
-      <c r="I116" s="15" t="s">
-        <v>638</v>
-      </c>
-      <c r="J116" s="17" t="s">
-        <v>639</v>
-      </c>
-      <c r="K116" s="14"/>
-    </row>
-    <row r="117" spans="1:11" ht="13">
-      <c r="A117" s="14" t="s">
-        <v>278</v>
-      </c>
-      <c r="B117" s="14" t="s">
-        <v>279</v>
-      </c>
-      <c r="C117" s="14" t="s">
-        <v>640</v>
-      </c>
-      <c r="D117" s="14" t="s">
-        <v>157</v>
-      </c>
-      <c r="E117" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="F117" s="14" t="s">
-        <v>641</v>
-      </c>
-      <c r="G117" s="14" t="s">
-        <v>642</v>
-      </c>
-      <c r="H117" s="14"/>
-      <c r="I117" s="15" t="s">
-        <v>643</v>
-      </c>
-      <c r="J117" s="17" t="s">
-        <v>644</v>
-      </c>
-      <c r="K117" s="14"/>
-    </row>
-    <row r="118" spans="1:11" ht="13">
-      <c r="A118" s="14" t="s">
-        <v>278</v>
-      </c>
-      <c r="B118" s="14" t="s">
-        <v>279</v>
-      </c>
-      <c r="C118" s="14" t="s">
-        <v>645</v>
-      </c>
-      <c r="D118" s="14" t="s">
-        <v>411</v>
-      </c>
-      <c r="E118" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="F118" s="14" t="s">
-        <v>646</v>
-      </c>
-      <c r="G118" s="14" t="s">
-        <v>647</v>
-      </c>
-      <c r="H118" s="14"/>
-      <c r="I118" s="15" t="s">
-        <v>648</v>
-      </c>
-      <c r="J118" s="17" t="s">
-        <v>649</v>
-      </c>
-      <c r="K118" s="14"/>
-    </row>
-    <row r="119" spans="1:11" ht="13">
-      <c r="A119" s="14" t="s">
-        <v>278</v>
-      </c>
-      <c r="B119" s="14" t="s">
-        <v>279</v>
-      </c>
-      <c r="C119" s="14" t="s">
-        <v>381</v>
-      </c>
-      <c r="D119" s="14" t="s">
-        <v>382</v>
-      </c>
-      <c r="E119" s="14" t="s">
+      <c r="F126" s="9" t="s">
+        <v>956</v>
+      </c>
+      <c r="G126" s="9" t="s">
+        <v>958</v>
+      </c>
+      <c r="H126" s="9"/>
+      <c r="I126" s="28" t="s">
+        <v>957</v>
+      </c>
+      <c r="J126" s="26" t="s">
+        <v>959</v>
+      </c>
+      <c r="K126" s="9"/>
+    </row>
+    <row r="127" spans="1:11" ht="13">
+      <c r="A127" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="B127" s="9" t="s">
+        <v>904</v>
+      </c>
+      <c r="C127" s="9" t="s">
+        <v>901</v>
+      </c>
+      <c r="D127" s="9" t="s">
+        <v>398</v>
+      </c>
+      <c r="E127" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="F119" s="14" t="s">
-        <v>650</v>
-      </c>
-      <c r="G119" s="14" t="s">
-        <v>651</v>
-      </c>
-      <c r="H119" s="14"/>
-      <c r="I119" s="15" t="s">
-        <v>652</v>
-      </c>
-      <c r="J119" s="17"/>
-      <c r="K119" s="14"/>
-    </row>
-    <row r="120" spans="1:11" ht="13">
-      <c r="A120" s="14" t="s">
-        <v>278</v>
-      </c>
-      <c r="B120" s="14" t="s">
-        <v>279</v>
-      </c>
-      <c r="C120" s="14" t="s">
-        <v>280</v>
-      </c>
-      <c r="D120" s="14" t="s">
-        <v>157</v>
-      </c>
-      <c r="E120" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="F120" s="14" t="s">
-        <v>281</v>
-      </c>
-      <c r="G120" s="14" t="s">
-        <v>653</v>
-      </c>
-      <c r="H120" s="14"/>
-      <c r="I120" s="15" t="s">
-        <v>282</v>
-      </c>
-      <c r="J120" s="17" t="s">
-        <v>654</v>
-      </c>
-      <c r="K120" s="14"/>
-    </row>
-    <row r="121" spans="1:11" ht="13">
-      <c r="A121" s="14" t="s">
-        <v>278</v>
-      </c>
-      <c r="B121" s="14" t="s">
-        <v>279</v>
-      </c>
-      <c r="C121" s="14" t="s">
-        <v>283</v>
-      </c>
-      <c r="D121" s="14" t="s">
-        <v>411</v>
-      </c>
-      <c r="E121" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="F121" s="14" t="s">
-        <v>284</v>
-      </c>
-      <c r="G121" s="14" t="s">
-        <v>655</v>
-      </c>
-      <c r="H121" s="14"/>
-      <c r="I121" s="15" t="s">
-        <v>285</v>
-      </c>
-      <c r="J121" s="17" t="s">
-        <v>656</v>
-      </c>
-      <c r="K121" s="14"/>
-    </row>
-    <row r="122" spans="1:11" ht="13">
-      <c r="A122" s="14" t="s">
-        <v>278</v>
-      </c>
-      <c r="B122" s="14" t="s">
-        <v>279</v>
-      </c>
-      <c r="C122" s="14" t="s">
-        <v>286</v>
-      </c>
-      <c r="D122" s="14" t="s">
-        <v>419</v>
-      </c>
-      <c r="E122" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="F122" s="14" t="s">
-        <v>287</v>
-      </c>
-      <c r="G122" s="14" t="s">
-        <v>657</v>
-      </c>
-      <c r="H122" s="14"/>
-      <c r="I122" s="16" t="s">
-        <v>288</v>
-      </c>
-      <c r="J122" s="17" t="s">
-        <v>658</v>
-      </c>
-      <c r="K122" s="14"/>
-    </row>
-    <row r="123" spans="1:11" ht="13">
-      <c r="A123" s="14" t="s">
-        <v>278</v>
-      </c>
-      <c r="B123" s="14" t="s">
-        <v>279</v>
-      </c>
-      <c r="C123" s="14" t="s">
-        <v>289</v>
-      </c>
-      <c r="D123" s="14" t="s">
-        <v>117</v>
-      </c>
-      <c r="E123" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="F123" s="14" t="s">
-        <v>290</v>
-      </c>
-      <c r="G123" s="14" t="s">
-        <v>659</v>
-      </c>
-      <c r="H123" s="14"/>
-      <c r="I123" s="16" t="s">
-        <v>291</v>
-      </c>
-      <c r="J123" s="17" t="s">
-        <v>660</v>
-      </c>
-      <c r="K123" s="14"/>
-    </row>
-    <row r="124" spans="1:11" ht="13">
-      <c r="A124" s="14" t="s">
-        <v>278</v>
-      </c>
-      <c r="B124" s="14" t="s">
-        <v>279</v>
-      </c>
-      <c r="C124" s="14" t="s">
-        <v>292</v>
-      </c>
-      <c r="D124" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="E124" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="F124" s="14" t="s">
-        <v>293</v>
-      </c>
-      <c r="G124" s="14" t="s">
-        <v>661</v>
-      </c>
-      <c r="H124" s="14"/>
-      <c r="I124" s="16" t="s">
-        <v>294</v>
-      </c>
-      <c r="J124" s="17" t="s">
-        <v>662</v>
-      </c>
-      <c r="K124" s="14"/>
-    </row>
-    <row r="125" spans="1:11" ht="13">
-      <c r="A125" s="14" t="s">
-        <v>278</v>
-      </c>
-      <c r="B125" s="14" t="s">
-        <v>279</v>
-      </c>
-      <c r="C125" s="14" t="s">
-        <v>295</v>
-      </c>
-      <c r="D125" s="14" t="s">
-        <v>411</v>
-      </c>
-      <c r="E125" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="F125" s="14" t="s">
-        <v>296</v>
-      </c>
-      <c r="G125" s="14" t="s">
-        <v>663</v>
-      </c>
-      <c r="H125" s="14"/>
-      <c r="I125" s="16" t="s">
-        <v>297</v>
-      </c>
-      <c r="J125" s="17" t="s">
-        <v>664</v>
-      </c>
-      <c r="K125" s="14"/>
-    </row>
-    <row r="126" spans="1:11" ht="13">
-      <c r="A126" s="14" t="s">
-        <v>278</v>
-      </c>
-      <c r="B126" s="14" t="s">
-        <v>279</v>
-      </c>
-      <c r="C126" s="14" t="s">
-        <v>298</v>
-      </c>
-      <c r="D126" s="14" t="s">
-        <v>411</v>
-      </c>
-      <c r="E126" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="F126" s="14" t="s">
-        <v>299</v>
-      </c>
-      <c r="G126" s="14" t="s">
-        <v>665</v>
-      </c>
-      <c r="H126" s="14"/>
-      <c r="I126" s="16" t="s">
-        <v>300</v>
-      </c>
-      <c r="J126" s="17" t="s">
-        <v>666</v>
-      </c>
-      <c r="K126" s="14"/>
-    </row>
-    <row r="127" spans="1:11" ht="13">
-      <c r="A127" s="14" t="s">
-        <v>278</v>
-      </c>
-      <c r="B127" s="14" t="s">
-        <v>279</v>
-      </c>
-      <c r="C127" s="14" t="s">
-        <v>191</v>
-      </c>
-      <c r="D127" s="14" t="s">
-        <v>117</v>
-      </c>
-      <c r="E127" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="F127" s="14" t="s">
-        <v>760</v>
-      </c>
-      <c r="G127" s="14" t="s">
-        <v>761</v>
-      </c>
-      <c r="H127" s="14"/>
-      <c r="I127" s="29" t="s">
-        <v>762</v>
-      </c>
-      <c r="J127" s="17" t="s">
-        <v>558</v>
-      </c>
-      <c r="K127" s="14"/>
+      <c r="F127" s="9" t="s">
+        <v>960</v>
+      </c>
+      <c r="G127" s="9" t="s">
+        <v>961</v>
+      </c>
+      <c r="H127" s="9"/>
+      <c r="I127" s="28" t="s">
+        <v>962</v>
+      </c>
+      <c r="J127" s="26" t="s">
+        <v>963</v>
+      </c>
+      <c r="K127" s="9"/>
     </row>
     <row r="128" spans="1:11" ht="13">
       <c r="A128" s="14" t="s">
         <v>278</v>
       </c>
       <c r="B128" s="14" t="s">
-        <v>279</v>
+        <v>624</v>
       </c>
       <c r="C128" s="14" t="s">
-        <v>867</v>
+        <v>625</v>
       </c>
       <c r="D128" s="14" t="s">
-        <v>55</v>
+        <v>157</v>
       </c>
       <c r="E128" s="14" t="s">
         <v>25</v>
       </c>
       <c r="F128" s="14" t="s">
-        <v>868</v>
+        <v>626</v>
       </c>
       <c r="G128" s="14" t="s">
-        <v>869</v>
+        <v>627</v>
       </c>
       <c r="H128" s="14"/>
-      <c r="I128" s="29" t="s">
-        <v>870</v>
+      <c r="I128" s="16" t="s">
+        <v>628</v>
       </c>
       <c r="J128" s="17" t="s">
-        <v>871</v>
+        <v>629</v>
       </c>
       <c r="K128" s="14"/>
     </row>
@@ -14952,29 +15253,29 @@
         <v>278</v>
       </c>
       <c r="B129" s="14" t="s">
-        <v>301</v>
+        <v>624</v>
       </c>
       <c r="C129" s="14" t="s">
-        <v>302</v>
+        <v>630</v>
       </c>
       <c r="D129" s="14" t="s">
-        <v>117</v>
+        <v>411</v>
       </c>
       <c r="E129" s="14" t="s">
         <v>25</v>
       </c>
       <c r="F129" s="14" t="s">
-        <v>303</v>
+        <v>631</v>
       </c>
       <c r="G129" s="14" t="s">
-        <v>667</v>
+        <v>632</v>
       </c>
       <c r="H129" s="14"/>
-      <c r="I129" s="15" t="s">
-        <v>304</v>
+      <c r="I129" s="16" t="s">
+        <v>633</v>
       </c>
       <c r="J129" s="17" t="s">
-        <v>668</v>
+        <v>634</v>
       </c>
       <c r="K129" s="14"/>
     </row>
@@ -14983,30 +15284,28 @@
         <v>278</v>
       </c>
       <c r="B130" s="14" t="s">
-        <v>301</v>
+        <v>624</v>
       </c>
       <c r="C130" s="14" t="s">
-        <v>381</v>
+        <v>896</v>
       </c>
       <c r="D130" s="14" t="s">
-        <v>382</v>
+        <v>411</v>
       </c>
       <c r="E130" s="14" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="F130" s="14" t="s">
-        <v>669</v>
+        <v>967</v>
       </c>
       <c r="G130" s="14" t="s">
-        <v>670</v>
+        <v>969</v>
       </c>
       <c r="H130" s="14"/>
-      <c r="I130" s="15" t="s">
-        <v>671</v>
-      </c>
-      <c r="J130" s="17" t="s">
-        <v>672</v>
-      </c>
+      <c r="I130" s="29" t="s">
+        <v>970</v>
+      </c>
+      <c r="J130" s="17"/>
       <c r="K130" s="14"/>
     </row>
     <row r="131" spans="1:11" ht="13">
@@ -15014,10 +15313,10 @@
         <v>278</v>
       </c>
       <c r="B131" s="14" t="s">
-        <v>305</v>
+        <v>624</v>
       </c>
       <c r="C131" s="14" t="s">
-        <v>306</v>
+        <v>896</v>
       </c>
       <c r="D131" s="14" t="s">
         <v>411</v>
@@ -15026,18 +15325,16 @@
         <v>25</v>
       </c>
       <c r="F131" s="14" t="s">
-        <v>307</v>
+        <v>968</v>
       </c>
       <c r="G131" s="14" t="s">
-        <v>673</v>
+        <v>971</v>
       </c>
       <c r="H131" s="14"/>
-      <c r="I131" s="15" t="s">
-        <v>308</v>
-      </c>
-      <c r="J131" s="17" t="s">
-        <v>674</v>
-      </c>
+      <c r="I131" s="29" t="s">
+        <v>972</v>
+      </c>
+      <c r="J131" s="17"/>
       <c r="K131" s="14"/>
     </row>
     <row r="132" spans="1:11" ht="13">
@@ -15045,29 +15342,29 @@
         <v>278</v>
       </c>
       <c r="B132" s="14" t="s">
-        <v>305</v>
+        <v>279</v>
       </c>
       <c r="C132" s="14" t="s">
-        <v>298</v>
+        <v>899</v>
       </c>
       <c r="D132" s="14" t="s">
-        <v>411</v>
+        <v>47</v>
       </c>
       <c r="E132" s="14" t="s">
         <v>25</v>
       </c>
       <c r="F132" s="14" t="s">
-        <v>309</v>
+        <v>973</v>
       </c>
       <c r="G132" s="14" t="s">
-        <v>675</v>
+        <v>974</v>
       </c>
       <c r="H132" s="14"/>
-      <c r="I132" s="15" t="s">
-        <v>310</v>
+      <c r="I132" s="29" t="s">
+        <v>975</v>
       </c>
       <c r="J132" s="17" t="s">
-        <v>676</v>
+        <v>976</v>
       </c>
       <c r="K132" s="14"/>
     </row>
@@ -15076,29 +15373,29 @@
         <v>278</v>
       </c>
       <c r="B133" s="14" t="s">
-        <v>305</v>
+        <v>279</v>
       </c>
       <c r="C133" s="14" t="s">
-        <v>311</v>
+        <v>635</v>
       </c>
       <c r="D133" s="14" t="s">
-        <v>312</v>
+        <v>47</v>
       </c>
       <c r="E133" s="14" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="F133" s="14" t="s">
-        <v>313</v>
+        <v>636</v>
       </c>
       <c r="G133" s="14" t="s">
-        <v>677</v>
+        <v>637</v>
       </c>
       <c r="H133" s="14"/>
       <c r="I133" s="15" t="s">
-        <v>314</v>
+        <v>638</v>
       </c>
       <c r="J133" s="17" t="s">
-        <v>678</v>
+        <v>639</v>
       </c>
       <c r="K133" s="14"/>
     </row>
@@ -15107,29 +15404,29 @@
         <v>278</v>
       </c>
       <c r="B134" s="14" t="s">
-        <v>305</v>
+        <v>279</v>
       </c>
       <c r="C134" s="14" t="s">
-        <v>729</v>
+        <v>640</v>
       </c>
       <c r="D134" s="14" t="s">
-        <v>411</v>
+        <v>157</v>
       </c>
       <c r="E134" s="14" t="s">
         <v>25</v>
       </c>
       <c r="F134" s="14" t="s">
-        <v>763</v>
+        <v>641</v>
       </c>
       <c r="G134" s="14" t="s">
-        <v>764</v>
+        <v>642</v>
       </c>
       <c r="H134" s="14"/>
-      <c r="I134" s="29" t="s">
-        <v>765</v>
+      <c r="I134" s="15" t="s">
+        <v>643</v>
       </c>
       <c r="J134" s="17" t="s">
-        <v>766</v>
+        <v>644</v>
       </c>
       <c r="K134" s="14"/>
     </row>
@@ -15138,10 +15435,10 @@
         <v>278</v>
       </c>
       <c r="B135" s="14" t="s">
-        <v>315</v>
+        <v>279</v>
       </c>
       <c r="C135" s="14" t="s">
-        <v>316</v>
+        <v>645</v>
       </c>
       <c r="D135" s="14" t="s">
         <v>411</v>
@@ -15150,17 +15447,17 @@
         <v>25</v>
       </c>
       <c r="F135" s="14" t="s">
-        <v>317</v>
+        <v>646</v>
       </c>
       <c r="G135" s="14" t="s">
-        <v>679</v>
+        <v>647</v>
       </c>
       <c r="H135" s="14"/>
       <c r="I135" s="15" t="s">
-        <v>318</v>
+        <v>648</v>
       </c>
       <c r="J135" s="17" t="s">
-        <v>680</v>
+        <v>649</v>
       </c>
       <c r="K135" s="14"/>
     </row>
@@ -15169,30 +15466,28 @@
         <v>278</v>
       </c>
       <c r="B136" s="14" t="s">
-        <v>315</v>
+        <v>279</v>
       </c>
       <c r="C136" s="14" t="s">
-        <v>720</v>
+        <v>381</v>
       </c>
       <c r="D136" s="14" t="s">
-        <v>55</v>
+        <v>382</v>
       </c>
       <c r="E136" s="14" t="s">
         <v>14</v>
       </c>
       <c r="F136" s="14" t="s">
-        <v>767</v>
+        <v>650</v>
       </c>
       <c r="G136" s="14" t="s">
-        <v>768</v>
+        <v>651</v>
       </c>
       <c r="H136" s="14"/>
-      <c r="I136" s="29" t="s">
-        <v>769</v>
-      </c>
-      <c r="J136" s="17" t="s">
-        <v>770</v>
-      </c>
+      <c r="I136" s="15" t="s">
+        <v>652</v>
+      </c>
+      <c r="J136" s="17"/>
       <c r="K136" s="14"/>
     </row>
     <row r="137" spans="1:11" ht="13">
@@ -15200,10 +15495,10 @@
         <v>278</v>
       </c>
       <c r="B137" s="14" t="s">
-        <v>315</v>
+        <v>279</v>
       </c>
       <c r="C137" s="14" t="s">
-        <v>791</v>
+        <v>87</v>
       </c>
       <c r="D137" s="14" t="s">
         <v>411</v>
@@ -15212,17 +15507,17 @@
         <v>25</v>
       </c>
       <c r="F137" s="14" t="s">
-        <v>792</v>
+        <v>977</v>
       </c>
       <c r="G137" s="14" t="s">
-        <v>793</v>
+        <v>978</v>
       </c>
       <c r="H137" s="14"/>
       <c r="I137" s="29" t="s">
-        <v>794</v>
+        <v>979</v>
       </c>
       <c r="J137" s="17" t="s">
-        <v>795</v>
+        <v>980</v>
       </c>
       <c r="K137" s="14"/>
     </row>
@@ -15231,29 +15526,29 @@
         <v>278</v>
       </c>
       <c r="B138" s="14" t="s">
-        <v>319</v>
+        <v>279</v>
       </c>
       <c r="C138" s="14" t="s">
-        <v>320</v>
+        <v>280</v>
       </c>
       <c r="D138" s="14" t="s">
-        <v>411</v>
+        <v>157</v>
       </c>
       <c r="E138" s="14" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="F138" s="14" t="s">
-        <v>681</v>
+        <v>281</v>
       </c>
       <c r="G138" s="14" t="s">
-        <v>682</v>
+        <v>653</v>
       </c>
       <c r="H138" s="14"/>
-      <c r="I138" s="16" t="s">
-        <v>683</v>
+      <c r="I138" s="15" t="s">
+        <v>282</v>
       </c>
       <c r="J138" s="17" t="s">
-        <v>684</v>
+        <v>654</v>
       </c>
       <c r="K138" s="14"/>
     </row>
@@ -15262,29 +15557,29 @@
         <v>278</v>
       </c>
       <c r="B139" s="14" t="s">
-        <v>319</v>
+        <v>279</v>
       </c>
       <c r="C139" s="14" t="s">
-        <v>323</v>
+        <v>283</v>
       </c>
       <c r="D139" s="14" t="s">
         <v>411</v>
       </c>
       <c r="E139" s="14" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="F139" s="14" t="s">
-        <v>324</v>
+        <v>284</v>
       </c>
       <c r="G139" s="14" t="s">
-        <v>685</v>
+        <v>655</v>
       </c>
       <c r="H139" s="14"/>
       <c r="I139" s="15" t="s">
-        <v>325</v>
+        <v>285</v>
       </c>
       <c r="J139" s="17" t="s">
-        <v>686</v>
+        <v>656</v>
       </c>
       <c r="K139" s="14"/>
     </row>
@@ -15293,29 +15588,29 @@
         <v>278</v>
       </c>
       <c r="B140" s="14" t="s">
-        <v>319</v>
+        <v>279</v>
       </c>
       <c r="C140" s="14" t="s">
-        <v>687</v>
+        <v>286</v>
       </c>
       <c r="D140" s="14" t="s">
-        <v>411</v>
+        <v>419</v>
       </c>
       <c r="E140" s="14" t="s">
         <v>14</v>
       </c>
       <c r="F140" s="14" t="s">
-        <v>327</v>
+        <v>287</v>
       </c>
       <c r="G140" s="14" t="s">
-        <v>688</v>
+        <v>657</v>
       </c>
       <c r="H140" s="14"/>
-      <c r="I140" s="15" t="s">
-        <v>328</v>
+      <c r="I140" s="16" t="s">
+        <v>288</v>
       </c>
       <c r="J140" s="17" t="s">
-        <v>689</v>
+        <v>658</v>
       </c>
       <c r="K140" s="14"/>
     </row>
@@ -15324,29 +15619,29 @@
         <v>278</v>
       </c>
       <c r="B141" s="14" t="s">
-        <v>329</v>
+        <v>279</v>
       </c>
       <c r="C141" s="14" t="s">
-        <v>167</v>
+        <v>289</v>
       </c>
       <c r="D141" s="14" t="s">
-        <v>411</v>
+        <v>117</v>
       </c>
       <c r="E141" s="14" t="s">
         <v>25</v>
       </c>
       <c r="F141" s="14" t="s">
-        <v>330</v>
+        <v>290</v>
       </c>
       <c r="G141" s="14" t="s">
-        <v>690</v>
+        <v>659</v>
       </c>
       <c r="H141" s="14"/>
-      <c r="I141" s="15" t="s">
-        <v>331</v>
+      <c r="I141" s="16" t="s">
+        <v>291</v>
       </c>
       <c r="J141" s="17" t="s">
-        <v>691</v>
+        <v>660</v>
       </c>
       <c r="K141" s="14"/>
     </row>
@@ -15355,29 +15650,29 @@
         <v>278</v>
       </c>
       <c r="B142" s="14" t="s">
-        <v>329</v>
+        <v>279</v>
       </c>
       <c r="C142" s="14" t="s">
-        <v>332</v>
+        <v>292</v>
       </c>
       <c r="D142" s="14" t="s">
-        <v>419</v>
+        <v>47</v>
       </c>
       <c r="E142" s="14" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="F142" s="14" t="s">
-        <v>333</v>
+        <v>293</v>
       </c>
       <c r="G142" s="14" t="s">
-        <v>692</v>
+        <v>661</v>
       </c>
       <c r="H142" s="14"/>
-      <c r="I142" s="15" t="s">
-        <v>334</v>
+      <c r="I142" s="16" t="s">
+        <v>294</v>
       </c>
       <c r="J142" s="17" t="s">
-        <v>693</v>
+        <v>662</v>
       </c>
       <c r="K142" s="14"/>
     </row>
@@ -15386,29 +15681,29 @@
         <v>278</v>
       </c>
       <c r="B143" s="14" t="s">
-        <v>329</v>
+        <v>279</v>
       </c>
       <c r="C143" s="14" t="s">
-        <v>335</v>
+        <v>295</v>
       </c>
       <c r="D143" s="14" t="s">
-        <v>47</v>
+        <v>411</v>
       </c>
       <c r="E143" s="14" t="s">
         <v>25</v>
       </c>
       <c r="F143" s="14" t="s">
-        <v>336</v>
+        <v>296</v>
       </c>
       <c r="G143" s="14" t="s">
-        <v>694</v>
+        <v>663</v>
       </c>
       <c r="H143" s="14"/>
-      <c r="I143" s="15" t="s">
-        <v>337</v>
+      <c r="I143" s="16" t="s">
+        <v>297</v>
       </c>
       <c r="J143" s="17" t="s">
-        <v>695</v>
+        <v>664</v>
       </c>
       <c r="K143" s="14"/>
     </row>
@@ -15417,29 +15712,29 @@
         <v>278</v>
       </c>
       <c r="B144" s="14" t="s">
-        <v>329</v>
+        <v>279</v>
       </c>
       <c r="C144" s="14" t="s">
-        <v>338</v>
+        <v>298</v>
       </c>
       <c r="D144" s="14" t="s">
-        <v>117</v>
+        <v>411</v>
       </c>
       <c r="E144" s="14" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="F144" s="14" t="s">
-        <v>339</v>
+        <v>299</v>
       </c>
       <c r="G144" s="14" t="s">
-        <v>696</v>
+        <v>665</v>
       </c>
       <c r="H144" s="14"/>
-      <c r="I144" s="15" t="s">
-        <v>340</v>
+      <c r="I144" s="16" t="s">
+        <v>300</v>
       </c>
       <c r="J144" s="17" t="s">
-        <v>697</v>
+        <v>666</v>
       </c>
       <c r="K144" s="14"/>
     </row>
@@ -15448,29 +15743,29 @@
         <v>278</v>
       </c>
       <c r="B145" s="14" t="s">
-        <v>329</v>
+        <v>279</v>
       </c>
       <c r="C145" s="14" t="s">
-        <v>341</v>
+        <v>191</v>
       </c>
       <c r="D145" s="14" t="s">
-        <v>342</v>
+        <v>117</v>
       </c>
       <c r="E145" s="14" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="F145" s="14" t="s">
-        <v>343</v>
+        <v>760</v>
       </c>
       <c r="G145" s="14" t="s">
-        <v>698</v>
+        <v>761</v>
       </c>
       <c r="H145" s="14"/>
-      <c r="I145" s="15" t="s">
-        <v>344</v>
+      <c r="I145" s="29" t="s">
+        <v>762</v>
       </c>
       <c r="J145" s="17" t="s">
-        <v>699</v>
+        <v>558</v>
       </c>
       <c r="K145" s="14"/>
     </row>
@@ -15479,29 +15774,29 @@
         <v>278</v>
       </c>
       <c r="B146" s="14" t="s">
-        <v>329</v>
+        <v>279</v>
       </c>
       <c r="C146" s="14" t="s">
-        <v>345</v>
+        <v>867</v>
       </c>
       <c r="D146" s="14" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="E146" s="14" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="F146" s="14" t="s">
-        <v>346</v>
+        <v>868</v>
       </c>
       <c r="G146" s="14" t="s">
-        <v>700</v>
+        <v>869</v>
       </c>
       <c r="H146" s="14"/>
-      <c r="I146" s="15" t="s">
-        <v>347</v>
+      <c r="I146" s="29" t="s">
+        <v>870</v>
       </c>
       <c r="J146" s="17" t="s">
-        <v>701</v>
+        <v>871</v>
       </c>
       <c r="K146" s="14"/>
     </row>
@@ -15510,29 +15805,29 @@
         <v>278</v>
       </c>
       <c r="B147" s="14" t="s">
-        <v>348</v>
+        <v>279</v>
       </c>
       <c r="C147" s="14" t="s">
-        <v>349</v>
+        <v>901</v>
       </c>
       <c r="D147" s="14" t="s">
-        <v>75</v>
+        <v>398</v>
       </c>
       <c r="E147" s="14" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="F147" s="14" t="s">
-        <v>350</v>
+        <v>981</v>
       </c>
       <c r="G147" s="14" t="s">
-        <v>702</v>
+        <v>983</v>
       </c>
       <c r="H147" s="14"/>
       <c r="I147" s="29" t="s">
-        <v>862</v>
+        <v>984</v>
       </c>
       <c r="J147" s="17" t="s">
-        <v>703</v>
+        <v>985</v>
       </c>
       <c r="K147" s="14"/>
     </row>
@@ -15541,29 +15836,29 @@
         <v>278</v>
       </c>
       <c r="B148" s="14" t="s">
-        <v>348</v>
+        <v>279</v>
       </c>
       <c r="C148" s="14" t="s">
-        <v>704</v>
+        <v>901</v>
       </c>
       <c r="D148" s="14" t="s">
-        <v>419</v>
+        <v>398</v>
       </c>
       <c r="E148" s="14" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="F148" s="14" t="s">
-        <v>353</v>
+        <v>982</v>
       </c>
       <c r="G148" s="14" t="s">
-        <v>705</v>
+        <v>986</v>
       </c>
       <c r="H148" s="14"/>
-      <c r="I148" s="16" t="s">
-        <v>354</v>
+      <c r="I148" s="29" t="s">
+        <v>987</v>
       </c>
       <c r="J148" s="17" t="s">
-        <v>706</v>
+        <v>988</v>
       </c>
       <c r="K148" s="14"/>
     </row>
@@ -15572,29 +15867,29 @@
         <v>278</v>
       </c>
       <c r="B149" s="14" t="s">
-        <v>355</v>
+        <v>279</v>
       </c>
       <c r="C149" s="14" t="s">
-        <v>302</v>
+        <v>900</v>
       </c>
       <c r="D149" s="14" t="s">
-        <v>117</v>
+        <v>411</v>
       </c>
       <c r="E149" s="14" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="F149" s="14" t="s">
-        <v>356</v>
+        <v>989</v>
       </c>
       <c r="G149" s="14" t="s">
-        <v>707</v>
+        <v>990</v>
       </c>
       <c r="H149" s="14"/>
-      <c r="I149" s="15" t="s">
-        <v>357</v>
+      <c r="I149" s="29" t="s">
+        <v>991</v>
       </c>
       <c r="J149" s="17" t="s">
-        <v>708</v>
+        <v>992</v>
       </c>
       <c r="K149" s="14"/>
     </row>
@@ -15603,29 +15898,29 @@
         <v>278</v>
       </c>
       <c r="B150" s="14" t="s">
-        <v>355</v>
+        <v>301</v>
       </c>
       <c r="C150" s="14" t="s">
-        <v>358</v>
+        <v>302</v>
       </c>
       <c r="D150" s="14" t="s">
-        <v>411</v>
+        <v>117</v>
       </c>
       <c r="E150" s="14" t="s">
         <v>25</v>
       </c>
       <c r="F150" s="14" t="s">
-        <v>359</v>
+        <v>303</v>
       </c>
       <c r="G150" s="14" t="s">
-        <v>709</v>
+        <v>667</v>
       </c>
       <c r="H150" s="14"/>
       <c r="I150" s="15" t="s">
-        <v>360</v>
+        <v>304</v>
       </c>
       <c r="J150" s="17" t="s">
-        <v>710</v>
+        <v>668</v>
       </c>
       <c r="K150" s="14"/>
     </row>
@@ -15634,29 +15929,29 @@
         <v>278</v>
       </c>
       <c r="B151" s="14" t="s">
-        <v>355</v>
+        <v>301</v>
       </c>
       <c r="C151" s="14" t="s">
-        <v>723</v>
+        <v>381</v>
       </c>
       <c r="D151" s="14" t="s">
-        <v>51</v>
+        <v>382</v>
       </c>
       <c r="E151" s="14" t="s">
-        <v>39</v>
+        <v>14</v>
       </c>
       <c r="F151" s="14" t="s">
-        <v>771</v>
+        <v>669</v>
       </c>
       <c r="G151" s="14" t="s">
-        <v>772</v>
+        <v>670</v>
       </c>
       <c r="H151" s="14"/>
-      <c r="I151" s="29" t="s">
-        <v>773</v>
+      <c r="I151" s="15" t="s">
+        <v>671</v>
       </c>
       <c r="J151" s="17" t="s">
-        <v>774</v>
+        <v>672</v>
       </c>
       <c r="K151" s="14"/>
     </row>
@@ -15665,10 +15960,10 @@
         <v>278</v>
       </c>
       <c r="B152" s="14" t="s">
-        <v>355</v>
+        <v>305</v>
       </c>
       <c r="C152" s="14" t="s">
-        <v>887</v>
+        <v>306</v>
       </c>
       <c r="D152" s="14" t="s">
         <v>411</v>
@@ -15677,17 +15972,17 @@
         <v>25</v>
       </c>
       <c r="F152" s="14" t="s">
-        <v>888</v>
+        <v>307</v>
       </c>
       <c r="G152" s="14" t="s">
-        <v>889</v>
+        <v>673</v>
       </c>
       <c r="H152" s="14"/>
-      <c r="I152" s="29" t="s">
-        <v>890</v>
+      <c r="I152" s="15" t="s">
+        <v>308</v>
       </c>
       <c r="J152" s="17" t="s">
-        <v>891</v>
+        <v>674</v>
       </c>
       <c r="K152" s="14"/>
     </row>
@@ -15696,10 +15991,10 @@
         <v>278</v>
       </c>
       <c r="B153" s="14" t="s">
-        <v>711</v>
-      </c>
-      <c r="C153" s="17" t="s">
-        <v>712</v>
+        <v>305</v>
+      </c>
+      <c r="C153" s="14" t="s">
+        <v>298</v>
       </c>
       <c r="D153" s="14" t="s">
         <v>411</v>
@@ -15708,17 +16003,17 @@
         <v>25</v>
       </c>
       <c r="F153" s="14" t="s">
-        <v>713</v>
+        <v>309</v>
       </c>
       <c r="G153" s="14" t="s">
-        <v>714</v>
+        <v>675</v>
       </c>
       <c r="H153" s="14"/>
       <c r="I153" s="15" t="s">
-        <v>715</v>
+        <v>310</v>
       </c>
       <c r="J153" s="17" t="s">
-        <v>716</v>
+        <v>676</v>
       </c>
       <c r="K153" s="14"/>
     </row>
@@ -15727,219 +16022,891 @@
         <v>278</v>
       </c>
       <c r="B154" s="14" t="s">
-        <v>361</v>
-      </c>
-      <c r="C154" s="17" t="s">
-        <v>362</v>
+        <v>305</v>
+      </c>
+      <c r="C154" s="14" t="s">
+        <v>311</v>
       </c>
       <c r="D154" s="14" t="s">
-        <v>419</v>
+        <v>312</v>
       </c>
       <c r="E154" s="14" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="F154" s="14" t="s">
-        <v>363</v>
+        <v>313</v>
       </c>
       <c r="G154" s="14" t="s">
-        <v>717</v>
+        <v>677</v>
       </c>
       <c r="H154" s="14"/>
       <c r="I154" s="15" t="s">
-        <v>364</v>
+        <v>314</v>
       </c>
       <c r="J154" s="17" t="s">
-        <v>718</v>
+        <v>678</v>
       </c>
       <c r="K154" s="14"/>
     </row>
-    <row r="155" spans="1:11" ht="15.75" customHeight="1">
+    <row r="155" spans="1:11" ht="13">
       <c r="A155" s="14" t="s">
-        <v>775</v>
+        <v>278</v>
       </c>
       <c r="B155" s="14" t="s">
-        <v>777</v>
+        <v>305</v>
       </c>
       <c r="C155" s="14" t="s">
-        <v>725</v>
+        <v>729</v>
       </c>
       <c r="D155" s="14" t="s">
         <v>411</v>
       </c>
       <c r="E155" s="14" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="F155" s="14" t="s">
-        <v>776</v>
+        <v>763</v>
       </c>
       <c r="G155" s="14" t="s">
-        <v>778</v>
+        <v>764</v>
       </c>
       <c r="H155" s="14"/>
       <c r="I155" s="29" t="s">
+        <v>765</v>
+      </c>
+      <c r="J155" s="17" t="s">
+        <v>766</v>
+      </c>
+      <c r="K155" s="14"/>
+    </row>
+    <row r="156" spans="1:11" ht="13">
+      <c r="A156" s="14" t="s">
+        <v>278</v>
+      </c>
+      <c r="B156" s="14" t="s">
+        <v>315</v>
+      </c>
+      <c r="C156" s="14" t="s">
+        <v>316</v>
+      </c>
+      <c r="D156" s="14" t="s">
+        <v>411</v>
+      </c>
+      <c r="E156" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="F156" s="14" t="s">
+        <v>317</v>
+      </c>
+      <c r="G156" s="14" t="s">
+        <v>679</v>
+      </c>
+      <c r="H156" s="14"/>
+      <c r="I156" s="15" t="s">
+        <v>318</v>
+      </c>
+      <c r="J156" s="17" t="s">
+        <v>680</v>
+      </c>
+      <c r="K156" s="14"/>
+    </row>
+    <row r="157" spans="1:11" ht="13">
+      <c r="A157" s="14" t="s">
+        <v>278</v>
+      </c>
+      <c r="B157" s="14" t="s">
+        <v>315</v>
+      </c>
+      <c r="C157" s="14" t="s">
+        <v>720</v>
+      </c>
+      <c r="D157" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="E157" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="F157" s="14" t="s">
+        <v>767</v>
+      </c>
+      <c r="G157" s="14" t="s">
+        <v>768</v>
+      </c>
+      <c r="H157" s="14"/>
+      <c r="I157" s="29" t="s">
+        <v>769</v>
+      </c>
+      <c r="J157" s="17" t="s">
+        <v>770</v>
+      </c>
+      <c r="K157" s="14"/>
+    </row>
+    <row r="158" spans="1:11" ht="13">
+      <c r="A158" s="14" t="s">
+        <v>278</v>
+      </c>
+      <c r="B158" s="14" t="s">
+        <v>315</v>
+      </c>
+      <c r="C158" s="14" t="s">
+        <v>791</v>
+      </c>
+      <c r="D158" s="14" t="s">
+        <v>411</v>
+      </c>
+      <c r="E158" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="F158" s="14" t="s">
+        <v>792</v>
+      </c>
+      <c r="G158" s="14" t="s">
+        <v>793</v>
+      </c>
+      <c r="H158" s="14"/>
+      <c r="I158" s="29" t="s">
+        <v>794</v>
+      </c>
+      <c r="J158" s="17" t="s">
+        <v>795</v>
+      </c>
+      <c r="K158" s="14"/>
+    </row>
+    <row r="159" spans="1:11" ht="13">
+      <c r="A159" s="14" t="s">
+        <v>278</v>
+      </c>
+      <c r="B159" s="14" t="s">
+        <v>319</v>
+      </c>
+      <c r="C159" s="14" t="s">
+        <v>320</v>
+      </c>
+      <c r="D159" s="14" t="s">
+        <v>411</v>
+      </c>
+      <c r="E159" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="F159" s="14" t="s">
+        <v>681</v>
+      </c>
+      <c r="G159" s="14" t="s">
+        <v>682</v>
+      </c>
+      <c r="H159" s="14"/>
+      <c r="I159" s="16" t="s">
+        <v>683</v>
+      </c>
+      <c r="J159" s="17" t="s">
+        <v>684</v>
+      </c>
+      <c r="K159" s="14"/>
+    </row>
+    <row r="160" spans="1:11" ht="13">
+      <c r="A160" s="14" t="s">
+        <v>278</v>
+      </c>
+      <c r="B160" s="14" t="s">
+        <v>319</v>
+      </c>
+      <c r="C160" s="14" t="s">
+        <v>323</v>
+      </c>
+      <c r="D160" s="14" t="s">
+        <v>411</v>
+      </c>
+      <c r="E160" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="F160" s="14" t="s">
+        <v>324</v>
+      </c>
+      <c r="G160" s="14" t="s">
+        <v>685</v>
+      </c>
+      <c r="H160" s="14"/>
+      <c r="I160" s="15" t="s">
+        <v>325</v>
+      </c>
+      <c r="J160" s="17" t="s">
+        <v>686</v>
+      </c>
+      <c r="K160" s="14"/>
+    </row>
+    <row r="161" spans="1:11" ht="13">
+      <c r="A161" s="14" t="s">
+        <v>278</v>
+      </c>
+      <c r="B161" s="14" t="s">
+        <v>319</v>
+      </c>
+      <c r="C161" s="14" t="s">
+        <v>687</v>
+      </c>
+      <c r="D161" s="14" t="s">
+        <v>411</v>
+      </c>
+      <c r="E161" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="F161" s="14" t="s">
+        <v>327</v>
+      </c>
+      <c r="G161" s="14" t="s">
+        <v>688</v>
+      </c>
+      <c r="H161" s="14"/>
+      <c r="I161" s="15" t="s">
+        <v>328</v>
+      </c>
+      <c r="J161" s="17" t="s">
+        <v>689</v>
+      </c>
+      <c r="K161" s="14"/>
+    </row>
+    <row r="162" spans="1:11" ht="13">
+      <c r="A162" s="14" t="s">
+        <v>278</v>
+      </c>
+      <c r="B162" s="14" t="s">
+        <v>329</v>
+      </c>
+      <c r="C162" s="14" t="s">
+        <v>167</v>
+      </c>
+      <c r="D162" s="14" t="s">
+        <v>411</v>
+      </c>
+      <c r="E162" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="F162" s="14" t="s">
+        <v>330</v>
+      </c>
+      <c r="G162" s="14" t="s">
+        <v>690</v>
+      </c>
+      <c r="H162" s="14"/>
+      <c r="I162" s="15" t="s">
+        <v>331</v>
+      </c>
+      <c r="J162" s="17" t="s">
+        <v>691</v>
+      </c>
+      <c r="K162" s="14"/>
+    </row>
+    <row r="163" spans="1:11" ht="13">
+      <c r="A163" s="14" t="s">
+        <v>278</v>
+      </c>
+      <c r="B163" s="14" t="s">
+        <v>329</v>
+      </c>
+      <c r="C163" s="14" t="s">
+        <v>332</v>
+      </c>
+      <c r="D163" s="14" t="s">
+        <v>419</v>
+      </c>
+      <c r="E163" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="F163" s="14" t="s">
+        <v>333</v>
+      </c>
+      <c r="G163" s="14" t="s">
+        <v>692</v>
+      </c>
+      <c r="H163" s="14"/>
+      <c r="I163" s="15" t="s">
+        <v>334</v>
+      </c>
+      <c r="J163" s="17" t="s">
+        <v>693</v>
+      </c>
+      <c r="K163" s="14"/>
+    </row>
+    <row r="164" spans="1:11" ht="13">
+      <c r="A164" s="14" t="s">
+        <v>278</v>
+      </c>
+      <c r="B164" s="14" t="s">
+        <v>329</v>
+      </c>
+      <c r="C164" s="14" t="s">
+        <v>335</v>
+      </c>
+      <c r="D164" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="E164" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="F164" s="14" t="s">
+        <v>336</v>
+      </c>
+      <c r="G164" s="14" t="s">
+        <v>694</v>
+      </c>
+      <c r="H164" s="14"/>
+      <c r="I164" s="15" t="s">
+        <v>337</v>
+      </c>
+      <c r="J164" s="17" t="s">
+        <v>695</v>
+      </c>
+      <c r="K164" s="14"/>
+    </row>
+    <row r="165" spans="1:11" ht="13">
+      <c r="A165" s="14" t="s">
+        <v>278</v>
+      </c>
+      <c r="B165" s="14" t="s">
+        <v>329</v>
+      </c>
+      <c r="C165" s="14" t="s">
+        <v>338</v>
+      </c>
+      <c r="D165" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="E165" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="F165" s="14" t="s">
+        <v>339</v>
+      </c>
+      <c r="G165" s="14" t="s">
+        <v>696</v>
+      </c>
+      <c r="H165" s="14"/>
+      <c r="I165" s="15" t="s">
+        <v>340</v>
+      </c>
+      <c r="J165" s="17" t="s">
+        <v>697</v>
+      </c>
+      <c r="K165" s="14"/>
+    </row>
+    <row r="166" spans="1:11" ht="13">
+      <c r="A166" s="14" t="s">
+        <v>278</v>
+      </c>
+      <c r="B166" s="14" t="s">
+        <v>329</v>
+      </c>
+      <c r="C166" s="14" t="s">
+        <v>341</v>
+      </c>
+      <c r="D166" s="14" t="s">
+        <v>342</v>
+      </c>
+      <c r="E166" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="F166" s="14" t="s">
+        <v>343</v>
+      </c>
+      <c r="G166" s="14" t="s">
+        <v>698</v>
+      </c>
+      <c r="H166" s="14"/>
+      <c r="I166" s="15" t="s">
+        <v>344</v>
+      </c>
+      <c r="J166" s="17" t="s">
+        <v>699</v>
+      </c>
+      <c r="K166" s="14"/>
+    </row>
+    <row r="167" spans="1:11" ht="13">
+      <c r="A167" s="14" t="s">
+        <v>278</v>
+      </c>
+      <c r="B167" s="14" t="s">
+        <v>329</v>
+      </c>
+      <c r="C167" s="14" t="s">
+        <v>345</v>
+      </c>
+      <c r="D167" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="E167" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="F167" s="14" t="s">
+        <v>346</v>
+      </c>
+      <c r="G167" s="14" t="s">
+        <v>700</v>
+      </c>
+      <c r="H167" s="14"/>
+      <c r="I167" s="15" t="s">
+        <v>347</v>
+      </c>
+      <c r="J167" s="17" t="s">
+        <v>701</v>
+      </c>
+      <c r="K167" s="14"/>
+    </row>
+    <row r="168" spans="1:11" ht="13">
+      <c r="A168" s="14" t="s">
+        <v>278</v>
+      </c>
+      <c r="B168" s="14" t="s">
+        <v>348</v>
+      </c>
+      <c r="C168" s="14" t="s">
+        <v>349</v>
+      </c>
+      <c r="D168" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="E168" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="F168" s="14" t="s">
+        <v>350</v>
+      </c>
+      <c r="G168" s="14" t="s">
+        <v>702</v>
+      </c>
+      <c r="H168" s="14"/>
+      <c r="I168" s="29" t="s">
+        <v>862</v>
+      </c>
+      <c r="J168" s="17" t="s">
+        <v>703</v>
+      </c>
+      <c r="K168" s="14"/>
+    </row>
+    <row r="169" spans="1:11" ht="13">
+      <c r="A169" s="14" t="s">
+        <v>278</v>
+      </c>
+      <c r="B169" s="14" t="s">
+        <v>348</v>
+      </c>
+      <c r="C169" s="14" t="s">
+        <v>704</v>
+      </c>
+      <c r="D169" s="14" t="s">
+        <v>419</v>
+      </c>
+      <c r="E169" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="F169" s="14" t="s">
+        <v>353</v>
+      </c>
+      <c r="G169" s="14" t="s">
+        <v>705</v>
+      </c>
+      <c r="H169" s="14"/>
+      <c r="I169" s="16" t="s">
+        <v>354</v>
+      </c>
+      <c r="J169" s="17" t="s">
+        <v>706</v>
+      </c>
+      <c r="K169" s="14"/>
+    </row>
+    <row r="170" spans="1:11" ht="13">
+      <c r="A170" s="14" t="s">
+        <v>278</v>
+      </c>
+      <c r="B170" s="14" t="s">
+        <v>355</v>
+      </c>
+      <c r="C170" s="14" t="s">
+        <v>302</v>
+      </c>
+      <c r="D170" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="E170" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="F170" s="14" t="s">
+        <v>356</v>
+      </c>
+      <c r="G170" s="14" t="s">
+        <v>707</v>
+      </c>
+      <c r="H170" s="14"/>
+      <c r="I170" s="15" t="s">
+        <v>357</v>
+      </c>
+      <c r="J170" s="17" t="s">
+        <v>708</v>
+      </c>
+      <c r="K170" s="14"/>
+    </row>
+    <row r="171" spans="1:11" ht="13">
+      <c r="A171" s="14" t="s">
+        <v>278</v>
+      </c>
+      <c r="B171" s="14" t="s">
+        <v>355</v>
+      </c>
+      <c r="C171" s="14" t="s">
+        <v>358</v>
+      </c>
+      <c r="D171" s="14" t="s">
+        <v>411</v>
+      </c>
+      <c r="E171" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="F171" s="14" t="s">
+        <v>359</v>
+      </c>
+      <c r="G171" s="14" t="s">
+        <v>709</v>
+      </c>
+      <c r="H171" s="14"/>
+      <c r="I171" s="15" t="s">
+        <v>360</v>
+      </c>
+      <c r="J171" s="17" t="s">
+        <v>710</v>
+      </c>
+      <c r="K171" s="14"/>
+    </row>
+    <row r="172" spans="1:11" ht="13">
+      <c r="A172" s="14" t="s">
+        <v>278</v>
+      </c>
+      <c r="B172" s="14" t="s">
+        <v>355</v>
+      </c>
+      <c r="C172" s="14" t="s">
+        <v>723</v>
+      </c>
+      <c r="D172" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="E172" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="F172" s="14" t="s">
+        <v>771</v>
+      </c>
+      <c r="G172" s="14" t="s">
+        <v>772</v>
+      </c>
+      <c r="H172" s="14"/>
+      <c r="I172" s="29" t="s">
+        <v>773</v>
+      </c>
+      <c r="J172" s="17" t="s">
+        <v>774</v>
+      </c>
+      <c r="K172" s="14"/>
+    </row>
+    <row r="173" spans="1:11" ht="13">
+      <c r="A173" s="14" t="s">
+        <v>278</v>
+      </c>
+      <c r="B173" s="14" t="s">
+        <v>355</v>
+      </c>
+      <c r="C173" s="14" t="s">
+        <v>887</v>
+      </c>
+      <c r="D173" s="14" t="s">
+        <v>411</v>
+      </c>
+      <c r="E173" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="F173" s="14" t="s">
+        <v>888</v>
+      </c>
+      <c r="G173" s="14" t="s">
+        <v>889</v>
+      </c>
+      <c r="H173" s="14"/>
+      <c r="I173" s="29" t="s">
+        <v>890</v>
+      </c>
+      <c r="J173" s="17" t="s">
+        <v>891</v>
+      </c>
+      <c r="K173" s="14"/>
+    </row>
+    <row r="174" spans="1:11" ht="13">
+      <c r="A174" s="14" t="s">
+        <v>278</v>
+      </c>
+      <c r="B174" s="14" t="s">
+        <v>711</v>
+      </c>
+      <c r="C174" s="17" t="s">
+        <v>712</v>
+      </c>
+      <c r="D174" s="14" t="s">
+        <v>411</v>
+      </c>
+      <c r="E174" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="F174" s="14" t="s">
+        <v>713</v>
+      </c>
+      <c r="G174" s="14" t="s">
+        <v>714</v>
+      </c>
+      <c r="H174" s="14"/>
+      <c r="I174" s="15" t="s">
+        <v>715</v>
+      </c>
+      <c r="J174" s="17" t="s">
+        <v>716</v>
+      </c>
+      <c r="K174" s="14"/>
+    </row>
+    <row r="175" spans="1:11" ht="13">
+      <c r="A175" s="14" t="s">
+        <v>278</v>
+      </c>
+      <c r="B175" s="14" t="s">
+        <v>361</v>
+      </c>
+      <c r="C175" s="17" t="s">
+        <v>362</v>
+      </c>
+      <c r="D175" s="14" t="s">
+        <v>419</v>
+      </c>
+      <c r="E175" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="F175" s="14" t="s">
+        <v>363</v>
+      </c>
+      <c r="G175" s="14" t="s">
+        <v>717</v>
+      </c>
+      <c r="H175" s="14"/>
+      <c r="I175" s="15" t="s">
+        <v>364</v>
+      </c>
+      <c r="J175" s="17" t="s">
+        <v>718</v>
+      </c>
+      <c r="K175" s="14"/>
+    </row>
+    <row r="176" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A176" s="14" t="s">
+        <v>775</v>
+      </c>
+      <c r="B176" s="14" t="s">
+        <v>777</v>
+      </c>
+      <c r="C176" s="14" t="s">
+        <v>725</v>
+      </c>
+      <c r="D176" s="14" t="s">
+        <v>411</v>
+      </c>
+      <c r="E176" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="F176" s="14" t="s">
+        <v>776</v>
+      </c>
+      <c r="G176" s="14" t="s">
+        <v>778</v>
+      </c>
+      <c r="H176" s="14"/>
+      <c r="I176" s="29" t="s">
         <v>779</v>
       </c>
-      <c r="J155" s="17" t="s">
+      <c r="J176" s="17" t="s">
         <v>780</v>
       </c>
-      <c r="K155" s="14"/>
+      <c r="K176" s="14"/>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="I2" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
-    <hyperlink ref="I3" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
-    <hyperlink ref="I4" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
-    <hyperlink ref="I5" r:id="rId4" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
-    <hyperlink ref="I6" r:id="rId5" xr:uid="{00000000-0004-0000-0100-000004000000}"/>
-    <hyperlink ref="I7" r:id="rId6" xr:uid="{00000000-0004-0000-0100-000005000000}"/>
-    <hyperlink ref="I8" r:id="rId7" xr:uid="{00000000-0004-0000-0100-000006000000}"/>
-    <hyperlink ref="I9" r:id="rId8" xr:uid="{00000000-0004-0000-0100-000007000000}"/>
-    <hyperlink ref="I10" r:id="rId9" xr:uid="{00000000-0004-0000-0100-000008000000}"/>
-    <hyperlink ref="I11" r:id="rId10" xr:uid="{00000000-0004-0000-0100-000009000000}"/>
-    <hyperlink ref="I12" r:id="rId11" xr:uid="{00000000-0004-0000-0100-00000A000000}"/>
-    <hyperlink ref="I13" r:id="rId12" xr:uid="{00000000-0004-0000-0100-00000B000000}"/>
-    <hyperlink ref="I14" r:id="rId13" xr:uid="{00000000-0004-0000-0100-00000C000000}"/>
-    <hyperlink ref="I15" r:id="rId14" xr:uid="{00000000-0004-0000-0100-00000D000000}"/>
-    <hyperlink ref="I16" r:id="rId15" xr:uid="{00000000-0004-0000-0100-00000E000000}"/>
-    <hyperlink ref="I19" r:id="rId16" xr:uid="{00000000-0004-0000-0100-00000F000000}"/>
-    <hyperlink ref="I20" r:id="rId17" xr:uid="{00000000-0004-0000-0100-000010000000}"/>
-    <hyperlink ref="I21" r:id="rId18" xr:uid="{00000000-0004-0000-0100-000011000000}"/>
-    <hyperlink ref="I22" r:id="rId19" xr:uid="{00000000-0004-0000-0100-000012000000}"/>
-    <hyperlink ref="I23" r:id="rId20" xr:uid="{00000000-0004-0000-0100-000013000000}"/>
-    <hyperlink ref="I24" r:id="rId21" xr:uid="{00000000-0004-0000-0100-000014000000}"/>
-    <hyperlink ref="I25" r:id="rId22" xr:uid="{00000000-0004-0000-0100-000015000000}"/>
-    <hyperlink ref="I26" r:id="rId23" xr:uid="{00000000-0004-0000-0100-000016000000}"/>
-    <hyperlink ref="I27" r:id="rId24" xr:uid="{00000000-0004-0000-0100-000017000000}"/>
-    <hyperlink ref="I28" r:id="rId25" xr:uid="{00000000-0004-0000-0100-000018000000}"/>
-    <hyperlink ref="I30" r:id="rId26" xr:uid="{00000000-0004-0000-0100-000019000000}"/>
-    <hyperlink ref="I31" r:id="rId27" xr:uid="{00000000-0004-0000-0100-00001A000000}"/>
-    <hyperlink ref="I32" r:id="rId28" xr:uid="{00000000-0004-0000-0100-00001B000000}"/>
-    <hyperlink ref="I33" r:id="rId29" xr:uid="{00000000-0004-0000-0100-00001C000000}"/>
-    <hyperlink ref="I34" r:id="rId30" xr:uid="{00000000-0004-0000-0100-00001D000000}"/>
-    <hyperlink ref="I35" r:id="rId31" xr:uid="{00000000-0004-0000-0100-00001E000000}"/>
-    <hyperlink ref="I36" r:id="rId32" xr:uid="{00000000-0004-0000-0100-00001F000000}"/>
-    <hyperlink ref="I39" r:id="rId33" xr:uid="{00000000-0004-0000-0100-000020000000}"/>
-    <hyperlink ref="I40" r:id="rId34" xr:uid="{00000000-0004-0000-0100-000021000000}"/>
-    <hyperlink ref="I44" r:id="rId35" xr:uid="{00000000-0004-0000-0100-000022000000}"/>
-    <hyperlink ref="I45" r:id="rId36" xr:uid="{00000000-0004-0000-0100-000023000000}"/>
-    <hyperlink ref="I46" r:id="rId37" xr:uid="{00000000-0004-0000-0100-000024000000}"/>
-    <hyperlink ref="I47" r:id="rId38" xr:uid="{00000000-0004-0000-0100-000025000000}"/>
-    <hyperlink ref="I48" r:id="rId39" xr:uid="{00000000-0004-0000-0100-000026000000}"/>
-    <hyperlink ref="I49" r:id="rId40" xr:uid="{00000000-0004-0000-0100-000027000000}"/>
-    <hyperlink ref="I50" r:id="rId41" xr:uid="{00000000-0004-0000-0100-000028000000}"/>
-    <hyperlink ref="I51" r:id="rId42" xr:uid="{00000000-0004-0000-0100-000029000000}"/>
-    <hyperlink ref="I52" r:id="rId43" xr:uid="{00000000-0004-0000-0100-00002A000000}"/>
-    <hyperlink ref="I53" r:id="rId44" xr:uid="{00000000-0004-0000-0100-00002B000000}"/>
-    <hyperlink ref="I54" r:id="rId45" xr:uid="{00000000-0004-0000-0100-00002C000000}"/>
-    <hyperlink ref="I56" r:id="rId46" xr:uid="{00000000-0004-0000-0100-00002D000000}"/>
-    <hyperlink ref="I57" r:id="rId47" xr:uid="{00000000-0004-0000-0100-00002E000000}"/>
-    <hyperlink ref="I58" r:id="rId48" xr:uid="{00000000-0004-0000-0100-00002F000000}"/>
-    <hyperlink ref="I63" r:id="rId49" xr:uid="{00000000-0004-0000-0100-000030000000}"/>
-    <hyperlink ref="I64" r:id="rId50" xr:uid="{00000000-0004-0000-0100-000031000000}"/>
-    <hyperlink ref="I65" r:id="rId51" xr:uid="{00000000-0004-0000-0100-000032000000}"/>
-    <hyperlink ref="I66" r:id="rId52" xr:uid="{00000000-0004-0000-0100-000033000000}"/>
-    <hyperlink ref="I67" r:id="rId53" xr:uid="{00000000-0004-0000-0100-000034000000}"/>
-    <hyperlink ref="I70" r:id="rId54" xr:uid="{00000000-0004-0000-0100-000035000000}"/>
-    <hyperlink ref="I71" r:id="rId55" xr:uid="{00000000-0004-0000-0100-000036000000}"/>
-    <hyperlink ref="I72" r:id="rId56" xr:uid="{00000000-0004-0000-0100-000037000000}"/>
-    <hyperlink ref="I73" r:id="rId57" xr:uid="{00000000-0004-0000-0100-000038000000}"/>
-    <hyperlink ref="I74" r:id="rId58" xr:uid="{00000000-0004-0000-0100-000039000000}"/>
-    <hyperlink ref="I75" r:id="rId59" xr:uid="{00000000-0004-0000-0100-00003A000000}"/>
-    <hyperlink ref="I76" r:id="rId60" xr:uid="{00000000-0004-0000-0100-00003B000000}"/>
-    <hyperlink ref="I77" r:id="rId61" xr:uid="{00000000-0004-0000-0100-00003C000000}"/>
-    <hyperlink ref="I78" r:id="rId62" xr:uid="{00000000-0004-0000-0100-00003D000000}"/>
-    <hyperlink ref="I79" r:id="rId63" xr:uid="{00000000-0004-0000-0100-00003E000000}"/>
-    <hyperlink ref="I80" r:id="rId64" xr:uid="{00000000-0004-0000-0100-00003F000000}"/>
-    <hyperlink ref="I81" r:id="rId65" xr:uid="{00000000-0004-0000-0100-000040000000}"/>
-    <hyperlink ref="I83" r:id="rId66" xr:uid="{00000000-0004-0000-0100-000041000000}"/>
-    <hyperlink ref="I84" r:id="rId67" xr:uid="{00000000-0004-0000-0100-000042000000}"/>
-    <hyperlink ref="I86" r:id="rId68" xr:uid="{00000000-0004-0000-0100-000043000000}"/>
-    <hyperlink ref="I87" r:id="rId69" xr:uid="{00000000-0004-0000-0100-000044000000}"/>
-    <hyperlink ref="I88" r:id="rId70" xr:uid="{00000000-0004-0000-0100-000045000000}"/>
-    <hyperlink ref="I89" r:id="rId71" xr:uid="{00000000-0004-0000-0100-000046000000}"/>
-    <hyperlink ref="I90" r:id="rId72" xr:uid="{00000000-0004-0000-0100-000047000000}"/>
-    <hyperlink ref="I91" r:id="rId73" xr:uid="{00000000-0004-0000-0100-000048000000}"/>
-    <hyperlink ref="I93" r:id="rId74" xr:uid="{00000000-0004-0000-0100-000049000000}"/>
-    <hyperlink ref="I94" r:id="rId75" xr:uid="{00000000-0004-0000-0100-00004A000000}"/>
-    <hyperlink ref="I95" r:id="rId76" xr:uid="{00000000-0004-0000-0100-00004B000000}"/>
-    <hyperlink ref="I96" r:id="rId77" xr:uid="{00000000-0004-0000-0100-00004C000000}"/>
-    <hyperlink ref="I98" r:id="rId78" xr:uid="{00000000-0004-0000-0100-00004D000000}"/>
-    <hyperlink ref="I100" r:id="rId79" xr:uid="{00000000-0004-0000-0100-00004E000000}"/>
-    <hyperlink ref="I101" r:id="rId80" xr:uid="{00000000-0004-0000-0100-00004F000000}"/>
-    <hyperlink ref="I102" r:id="rId81" xr:uid="{00000000-0004-0000-0100-000050000000}"/>
-    <hyperlink ref="I103" r:id="rId82" xr:uid="{00000000-0004-0000-0100-000051000000}"/>
-    <hyperlink ref="I104" r:id="rId83" xr:uid="{00000000-0004-0000-0100-000052000000}"/>
-    <hyperlink ref="I105" r:id="rId84" xr:uid="{00000000-0004-0000-0100-000053000000}"/>
-    <hyperlink ref="I106" r:id="rId85" xr:uid="{00000000-0004-0000-0100-000054000000}"/>
-    <hyperlink ref="I107" r:id="rId86" xr:uid="{00000000-0004-0000-0100-000055000000}"/>
-    <hyperlink ref="I111" r:id="rId87" xr:uid="{00000000-0004-0000-0100-000056000000}"/>
-    <hyperlink ref="I113" r:id="rId88" xr:uid="{00000000-0004-0000-0100-000057000000}"/>
-    <hyperlink ref="I114" r:id="rId89" xr:uid="{00000000-0004-0000-0100-000058000000}"/>
-    <hyperlink ref="I115" r:id="rId90" xr:uid="{00000000-0004-0000-0100-000059000000}"/>
-    <hyperlink ref="I116" r:id="rId91" xr:uid="{00000000-0004-0000-0100-00005A000000}"/>
-    <hyperlink ref="I117" r:id="rId92" xr:uid="{00000000-0004-0000-0100-00005B000000}"/>
-    <hyperlink ref="I118" r:id="rId93" xr:uid="{00000000-0004-0000-0100-00005C000000}"/>
-    <hyperlink ref="I119" r:id="rId94" xr:uid="{00000000-0004-0000-0100-00005D000000}"/>
-    <hyperlink ref="I120" r:id="rId95" xr:uid="{00000000-0004-0000-0100-00005E000000}"/>
-    <hyperlink ref="I121" r:id="rId96" xr:uid="{00000000-0004-0000-0100-00005F000000}"/>
-    <hyperlink ref="I122" r:id="rId97" xr:uid="{00000000-0004-0000-0100-000060000000}"/>
-    <hyperlink ref="I123" r:id="rId98" xr:uid="{00000000-0004-0000-0100-000061000000}"/>
-    <hyperlink ref="I124" r:id="rId99" xr:uid="{00000000-0004-0000-0100-000062000000}"/>
-    <hyperlink ref="I125" r:id="rId100" xr:uid="{00000000-0004-0000-0100-000063000000}"/>
-    <hyperlink ref="I126" r:id="rId101" xr:uid="{00000000-0004-0000-0100-000064000000}"/>
-    <hyperlink ref="I129" r:id="rId102" xr:uid="{00000000-0004-0000-0100-000065000000}"/>
-    <hyperlink ref="I130" r:id="rId103" xr:uid="{00000000-0004-0000-0100-000066000000}"/>
-    <hyperlink ref="I131" r:id="rId104" xr:uid="{00000000-0004-0000-0100-000067000000}"/>
-    <hyperlink ref="I132" r:id="rId105" xr:uid="{00000000-0004-0000-0100-000068000000}"/>
-    <hyperlink ref="I135" r:id="rId106" xr:uid="{00000000-0004-0000-0100-00006A000000}"/>
-    <hyperlink ref="I138" r:id="rId107" xr:uid="{00000000-0004-0000-0100-00006B000000}"/>
-    <hyperlink ref="I139" r:id="rId108" xr:uid="{00000000-0004-0000-0100-00006C000000}"/>
-    <hyperlink ref="I140" r:id="rId109" xr:uid="{00000000-0004-0000-0100-00006D000000}"/>
-    <hyperlink ref="I141" r:id="rId110" xr:uid="{00000000-0004-0000-0100-00006E000000}"/>
-    <hyperlink ref="I142" r:id="rId111" xr:uid="{00000000-0004-0000-0100-00006F000000}"/>
-    <hyperlink ref="I143" r:id="rId112" xr:uid="{00000000-0004-0000-0100-000070000000}"/>
-    <hyperlink ref="I144" r:id="rId113" xr:uid="{00000000-0004-0000-0100-000071000000}"/>
-    <hyperlink ref="I145" r:id="rId114" xr:uid="{00000000-0004-0000-0100-000072000000}"/>
-    <hyperlink ref="I146" r:id="rId115" xr:uid="{00000000-0004-0000-0100-000073000000}"/>
-    <hyperlink ref="I147" r:id="rId116" xr:uid="{00000000-0004-0000-0100-000074000000}"/>
-    <hyperlink ref="I148" r:id="rId117" xr:uid="{00000000-0004-0000-0100-000075000000}"/>
-    <hyperlink ref="I149" r:id="rId118" xr:uid="{00000000-0004-0000-0100-000076000000}"/>
-    <hyperlink ref="I150" r:id="rId119" xr:uid="{00000000-0004-0000-0100-000077000000}"/>
-    <hyperlink ref="I153" r:id="rId120" xr:uid="{00000000-0004-0000-0100-000078000000}"/>
-    <hyperlink ref="I154" r:id="rId121" xr:uid="{00000000-0004-0000-0100-000079000000}"/>
-    <hyperlink ref="I17" r:id="rId122" xr:uid="{881F0F65-3DCC-E94A-9FE5-2CC264A8F337}"/>
-    <hyperlink ref="I18" r:id="rId123" xr:uid="{AC40193A-1232-474A-A421-B55FFA7E99B8}"/>
-    <hyperlink ref="I37" r:id="rId124" xr:uid="{D41ADE90-9772-8F41-AC9B-8DE303E9D7A9}"/>
-    <hyperlink ref="I38" r:id="rId125" xr:uid="{85F37ABA-4B3B-764B-A1ED-9DD3AFFF0004}"/>
-    <hyperlink ref="I69" r:id="rId126" xr:uid="{F5E14AAB-D49A-EF45-A165-3757EFF2E9B4}"/>
-    <hyperlink ref="I85" r:id="rId127" xr:uid="{759707EA-D94A-2D42-8FE0-FAE01578CF99}"/>
-    <hyperlink ref="I112" r:id="rId128" xr:uid="{1A936B77-62AA-804C-B853-4343ADD2D925}"/>
-    <hyperlink ref="I133" r:id="rId129" xr:uid="{00000000-0004-0000-0100-000069000000}"/>
-    <hyperlink ref="I127" r:id="rId130" xr:uid="{2929B0EA-E15F-E444-ADC1-C2E3E232D526}"/>
-    <hyperlink ref="I134" r:id="rId131" xr:uid="{7770BE98-2823-3047-9E72-08DB2B79C177}"/>
-    <hyperlink ref="I136" r:id="rId132" xr:uid="{A91F97A2-47FA-FB49-8866-2B9AA1419B2B}"/>
-    <hyperlink ref="I151" r:id="rId133" xr:uid="{11EEE67C-10E9-AB44-91F6-D7C7B31697FA}"/>
-    <hyperlink ref="I155" r:id="rId134" xr:uid="{8E930EBE-7205-BD41-9ED8-FE8F970A98EF}"/>
-    <hyperlink ref="I137" r:id="rId135" xr:uid="{3AF5EB12-868F-C842-91DC-4FC147AA3C86}"/>
-    <hyperlink ref="I59" r:id="rId136" xr:uid="{7BDCEA69-27F3-FF41-BB2B-817D4FD2C9C0}"/>
-    <hyperlink ref="I60" r:id="rId137" xr:uid="{7A940ACA-466B-9E49-8CB5-9BA664F7C3C9}"/>
-    <hyperlink ref="I61" r:id="rId138" xr:uid="{088C717E-7DC5-EF4C-8C34-370DC45C6BEE}"/>
-    <hyperlink ref="I62" r:id="rId139" xr:uid="{A670C44A-19C9-984F-9EAA-8D5EBCE39C79}"/>
-    <hyperlink ref="I97" r:id="rId140" xr:uid="{713BB907-BFF9-AE42-B777-2AF591DA7D9B}"/>
-    <hyperlink ref="I99" r:id="rId141" xr:uid="{EC0C54FA-684B-A440-BF57-B5B57FDD99C9}"/>
-    <hyperlink ref="I109" r:id="rId142" xr:uid="{9081BA3E-9CF8-074E-BF5B-0F2FA156F0B7}"/>
-    <hyperlink ref="I110" r:id="rId143" xr:uid="{8C2FD4CC-DF59-734E-8449-EA5B9F5E7D3D}"/>
-    <hyperlink ref="I82" r:id="rId144" xr:uid="{9845498D-A3A6-524F-9A69-7DC2DB7F7639}"/>
-    <hyperlink ref="I108" r:id="rId145" xr:uid="{CFDD3EC3-C992-0E4C-8C8D-2A9AC6885E0B}"/>
-    <hyperlink ref="I92" r:id="rId146" xr:uid="{C634E917-B836-414F-BB3B-9A111E16653C}"/>
-    <hyperlink ref="I55" r:id="rId147" xr:uid="{8548A361-62F7-A648-BBBE-9F37385F0E45}"/>
-    <hyperlink ref="I68" r:id="rId148" xr:uid="{8EA062F9-78F8-A44B-BEDA-61CF758CB831}"/>
-    <hyperlink ref="I41" r:id="rId149" xr:uid="{7C7CB4D2-6B37-544C-B631-930D91F3AA17}"/>
-    <hyperlink ref="I128" r:id="rId150" xr:uid="{5694CC0C-366D-8848-BBD7-150B284E15DA}"/>
-    <hyperlink ref="I29" r:id="rId151" xr:uid="{7E8D5837-BD50-6844-B288-6217DFD05E29}"/>
-    <hyperlink ref="I43" r:id="rId152" xr:uid="{E89C4D5B-786F-9A4C-9914-80D4DF36F89C}"/>
-    <hyperlink ref="I42" r:id="rId153" xr:uid="{EDBD0C6E-D96D-734B-85A9-4D26B3421D83}"/>
-    <hyperlink ref="I152" r:id="rId154" xr:uid="{12FA5E40-D722-4344-995B-86BBF8B4F3F3}"/>
+    <hyperlink ref="I6" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
+    <hyperlink ref="I7" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
+    <hyperlink ref="I8" r:id="rId4" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
+    <hyperlink ref="I9" r:id="rId5" xr:uid="{00000000-0004-0000-0100-000004000000}"/>
+    <hyperlink ref="I10" r:id="rId6" xr:uid="{00000000-0004-0000-0100-000005000000}"/>
+    <hyperlink ref="I11" r:id="rId7" xr:uid="{00000000-0004-0000-0100-000006000000}"/>
+    <hyperlink ref="I12" r:id="rId8" xr:uid="{00000000-0004-0000-0100-000007000000}"/>
+    <hyperlink ref="I13" r:id="rId9" xr:uid="{00000000-0004-0000-0100-000008000000}"/>
+    <hyperlink ref="I14" r:id="rId10" xr:uid="{00000000-0004-0000-0100-000009000000}"/>
+    <hyperlink ref="I15" r:id="rId11" xr:uid="{00000000-0004-0000-0100-00000A000000}"/>
+    <hyperlink ref="I16" r:id="rId12" xr:uid="{00000000-0004-0000-0100-00000B000000}"/>
+    <hyperlink ref="I18" r:id="rId13" xr:uid="{00000000-0004-0000-0100-00000C000000}"/>
+    <hyperlink ref="I19" r:id="rId14" xr:uid="{00000000-0004-0000-0100-00000D000000}"/>
+    <hyperlink ref="I20" r:id="rId15" xr:uid="{00000000-0004-0000-0100-00000E000000}"/>
+    <hyperlink ref="I23" r:id="rId16" xr:uid="{00000000-0004-0000-0100-00000F000000}"/>
+    <hyperlink ref="I24" r:id="rId17" xr:uid="{00000000-0004-0000-0100-000010000000}"/>
+    <hyperlink ref="I25" r:id="rId18" xr:uid="{00000000-0004-0000-0100-000011000000}"/>
+    <hyperlink ref="I26" r:id="rId19" xr:uid="{00000000-0004-0000-0100-000012000000}"/>
+    <hyperlink ref="I27" r:id="rId20" xr:uid="{00000000-0004-0000-0100-000013000000}"/>
+    <hyperlink ref="I28" r:id="rId21" xr:uid="{00000000-0004-0000-0100-000014000000}"/>
+    <hyperlink ref="I29" r:id="rId22" xr:uid="{00000000-0004-0000-0100-000015000000}"/>
+    <hyperlink ref="I30" r:id="rId23" xr:uid="{00000000-0004-0000-0100-000016000000}"/>
+    <hyperlink ref="I31" r:id="rId24" xr:uid="{00000000-0004-0000-0100-000017000000}"/>
+    <hyperlink ref="I32" r:id="rId25" xr:uid="{00000000-0004-0000-0100-000018000000}"/>
+    <hyperlink ref="I34" r:id="rId26" xr:uid="{00000000-0004-0000-0100-000019000000}"/>
+    <hyperlink ref="I35" r:id="rId27" xr:uid="{00000000-0004-0000-0100-00001A000000}"/>
+    <hyperlink ref="I36" r:id="rId28" xr:uid="{00000000-0004-0000-0100-00001B000000}"/>
+    <hyperlink ref="I37" r:id="rId29" xr:uid="{00000000-0004-0000-0100-00001C000000}"/>
+    <hyperlink ref="I38" r:id="rId30" xr:uid="{00000000-0004-0000-0100-00001D000000}"/>
+    <hyperlink ref="I39" r:id="rId31" xr:uid="{00000000-0004-0000-0100-00001E000000}"/>
+    <hyperlink ref="I40" r:id="rId32" xr:uid="{00000000-0004-0000-0100-00001F000000}"/>
+    <hyperlink ref="I44" r:id="rId33" xr:uid="{00000000-0004-0000-0100-000020000000}"/>
+    <hyperlink ref="I45" r:id="rId34" xr:uid="{00000000-0004-0000-0100-000021000000}"/>
+    <hyperlink ref="I49" r:id="rId35" xr:uid="{00000000-0004-0000-0100-000022000000}"/>
+    <hyperlink ref="I50" r:id="rId36" xr:uid="{00000000-0004-0000-0100-000023000000}"/>
+    <hyperlink ref="I51" r:id="rId37" xr:uid="{00000000-0004-0000-0100-000024000000}"/>
+    <hyperlink ref="I52" r:id="rId38" xr:uid="{00000000-0004-0000-0100-000025000000}"/>
+    <hyperlink ref="I53" r:id="rId39" xr:uid="{00000000-0004-0000-0100-000026000000}"/>
+    <hyperlink ref="I54" r:id="rId40" xr:uid="{00000000-0004-0000-0100-000027000000}"/>
+    <hyperlink ref="I55" r:id="rId41" xr:uid="{00000000-0004-0000-0100-000028000000}"/>
+    <hyperlink ref="I56" r:id="rId42" xr:uid="{00000000-0004-0000-0100-000029000000}"/>
+    <hyperlink ref="I57" r:id="rId43" xr:uid="{00000000-0004-0000-0100-00002A000000}"/>
+    <hyperlink ref="I58" r:id="rId44" xr:uid="{00000000-0004-0000-0100-00002B000000}"/>
+    <hyperlink ref="I59" r:id="rId45" xr:uid="{00000000-0004-0000-0100-00002C000000}"/>
+    <hyperlink ref="I61" r:id="rId46" xr:uid="{00000000-0004-0000-0100-00002D000000}"/>
+    <hyperlink ref="I62" r:id="rId47" xr:uid="{00000000-0004-0000-0100-00002E000000}"/>
+    <hyperlink ref="I63" r:id="rId48" xr:uid="{00000000-0004-0000-0100-00002F000000}"/>
+    <hyperlink ref="I69" r:id="rId49" xr:uid="{00000000-0004-0000-0100-000030000000}"/>
+    <hyperlink ref="I71" r:id="rId50" xr:uid="{00000000-0004-0000-0100-000031000000}"/>
+    <hyperlink ref="I72" r:id="rId51" xr:uid="{00000000-0004-0000-0100-000032000000}"/>
+    <hyperlink ref="I73" r:id="rId52" xr:uid="{00000000-0004-0000-0100-000033000000}"/>
+    <hyperlink ref="I74" r:id="rId53" xr:uid="{00000000-0004-0000-0100-000034000000}"/>
+    <hyperlink ref="I77" r:id="rId54" xr:uid="{00000000-0004-0000-0100-000035000000}"/>
+    <hyperlink ref="I78" r:id="rId55" xr:uid="{00000000-0004-0000-0100-000036000000}"/>
+    <hyperlink ref="I79" r:id="rId56" xr:uid="{00000000-0004-0000-0100-000037000000}"/>
+    <hyperlink ref="I80" r:id="rId57" xr:uid="{00000000-0004-0000-0100-000038000000}"/>
+    <hyperlink ref="I81" r:id="rId58" xr:uid="{00000000-0004-0000-0100-000039000000}"/>
+    <hyperlink ref="I82" r:id="rId59" xr:uid="{00000000-0004-0000-0100-00003A000000}"/>
+    <hyperlink ref="I83" r:id="rId60" xr:uid="{00000000-0004-0000-0100-00003B000000}"/>
+    <hyperlink ref="I84" r:id="rId61" xr:uid="{00000000-0004-0000-0100-00003C000000}"/>
+    <hyperlink ref="I85" r:id="rId62" xr:uid="{00000000-0004-0000-0100-00003D000000}"/>
+    <hyperlink ref="I86" r:id="rId63" xr:uid="{00000000-0004-0000-0100-00003E000000}"/>
+    <hyperlink ref="I87" r:id="rId64" xr:uid="{00000000-0004-0000-0100-00003F000000}"/>
+    <hyperlink ref="I88" r:id="rId65" xr:uid="{00000000-0004-0000-0100-000040000000}"/>
+    <hyperlink ref="I90" r:id="rId66" xr:uid="{00000000-0004-0000-0100-000041000000}"/>
+    <hyperlink ref="I91" r:id="rId67" xr:uid="{00000000-0004-0000-0100-000042000000}"/>
+    <hyperlink ref="I94" r:id="rId68" xr:uid="{00000000-0004-0000-0100-000043000000}"/>
+    <hyperlink ref="I95" r:id="rId69" xr:uid="{00000000-0004-0000-0100-000044000000}"/>
+    <hyperlink ref="I96" r:id="rId70" xr:uid="{00000000-0004-0000-0100-000045000000}"/>
+    <hyperlink ref="I97" r:id="rId71" xr:uid="{00000000-0004-0000-0100-000046000000}"/>
+    <hyperlink ref="I98" r:id="rId72" xr:uid="{00000000-0004-0000-0100-000047000000}"/>
+    <hyperlink ref="I99" r:id="rId73" xr:uid="{00000000-0004-0000-0100-000048000000}"/>
+    <hyperlink ref="I102" r:id="rId74" xr:uid="{00000000-0004-0000-0100-000049000000}"/>
+    <hyperlink ref="I103" r:id="rId75" xr:uid="{00000000-0004-0000-0100-00004A000000}"/>
+    <hyperlink ref="I104" r:id="rId76" xr:uid="{00000000-0004-0000-0100-00004B000000}"/>
+    <hyperlink ref="I105" r:id="rId77" xr:uid="{00000000-0004-0000-0100-00004C000000}"/>
+    <hyperlink ref="I108" r:id="rId78" xr:uid="{00000000-0004-0000-0100-00004D000000}"/>
+    <hyperlink ref="I110" r:id="rId79" xr:uid="{00000000-0004-0000-0100-00004E000000}"/>
+    <hyperlink ref="I111" r:id="rId80" xr:uid="{00000000-0004-0000-0100-00004F000000}"/>
+    <hyperlink ref="I112" r:id="rId81" xr:uid="{00000000-0004-0000-0100-000050000000}"/>
+    <hyperlink ref="I113" r:id="rId82" xr:uid="{00000000-0004-0000-0100-000051000000}"/>
+    <hyperlink ref="I114" r:id="rId83" xr:uid="{00000000-0004-0000-0100-000052000000}"/>
+    <hyperlink ref="I115" r:id="rId84" xr:uid="{00000000-0004-0000-0100-000053000000}"/>
+    <hyperlink ref="I116" r:id="rId85" xr:uid="{00000000-0004-0000-0100-000054000000}"/>
+    <hyperlink ref="I117" r:id="rId86" xr:uid="{00000000-0004-0000-0100-000055000000}"/>
+    <hyperlink ref="I122" r:id="rId87" xr:uid="{00000000-0004-0000-0100-000056000000}"/>
+    <hyperlink ref="I125" r:id="rId88" xr:uid="{00000000-0004-0000-0100-000057000000}"/>
+    <hyperlink ref="I128" r:id="rId89" xr:uid="{00000000-0004-0000-0100-000058000000}"/>
+    <hyperlink ref="I129" r:id="rId90" xr:uid="{00000000-0004-0000-0100-000059000000}"/>
+    <hyperlink ref="I133" r:id="rId91" xr:uid="{00000000-0004-0000-0100-00005A000000}"/>
+    <hyperlink ref="I134" r:id="rId92" xr:uid="{00000000-0004-0000-0100-00005B000000}"/>
+    <hyperlink ref="I135" r:id="rId93" xr:uid="{00000000-0004-0000-0100-00005C000000}"/>
+    <hyperlink ref="I136" r:id="rId94" xr:uid="{00000000-0004-0000-0100-00005D000000}"/>
+    <hyperlink ref="I138" r:id="rId95" xr:uid="{00000000-0004-0000-0100-00005E000000}"/>
+    <hyperlink ref="I139" r:id="rId96" xr:uid="{00000000-0004-0000-0100-00005F000000}"/>
+    <hyperlink ref="I140" r:id="rId97" xr:uid="{00000000-0004-0000-0100-000060000000}"/>
+    <hyperlink ref="I141" r:id="rId98" xr:uid="{00000000-0004-0000-0100-000061000000}"/>
+    <hyperlink ref="I142" r:id="rId99" xr:uid="{00000000-0004-0000-0100-000062000000}"/>
+    <hyperlink ref="I143" r:id="rId100" xr:uid="{00000000-0004-0000-0100-000063000000}"/>
+    <hyperlink ref="I144" r:id="rId101" xr:uid="{00000000-0004-0000-0100-000064000000}"/>
+    <hyperlink ref="I150" r:id="rId102" xr:uid="{00000000-0004-0000-0100-000065000000}"/>
+    <hyperlink ref="I151" r:id="rId103" xr:uid="{00000000-0004-0000-0100-000066000000}"/>
+    <hyperlink ref="I152" r:id="rId104" xr:uid="{00000000-0004-0000-0100-000067000000}"/>
+    <hyperlink ref="I153" r:id="rId105" xr:uid="{00000000-0004-0000-0100-000068000000}"/>
+    <hyperlink ref="I156" r:id="rId106" xr:uid="{00000000-0004-0000-0100-00006A000000}"/>
+    <hyperlink ref="I159" r:id="rId107" xr:uid="{00000000-0004-0000-0100-00006B000000}"/>
+    <hyperlink ref="I160" r:id="rId108" xr:uid="{00000000-0004-0000-0100-00006C000000}"/>
+    <hyperlink ref="I161" r:id="rId109" xr:uid="{00000000-0004-0000-0100-00006D000000}"/>
+    <hyperlink ref="I162" r:id="rId110" xr:uid="{00000000-0004-0000-0100-00006E000000}"/>
+    <hyperlink ref="I163" r:id="rId111" xr:uid="{00000000-0004-0000-0100-00006F000000}"/>
+    <hyperlink ref="I164" r:id="rId112" xr:uid="{00000000-0004-0000-0100-000070000000}"/>
+    <hyperlink ref="I165" r:id="rId113" xr:uid="{00000000-0004-0000-0100-000071000000}"/>
+    <hyperlink ref="I166" r:id="rId114" xr:uid="{00000000-0004-0000-0100-000072000000}"/>
+    <hyperlink ref="I167" r:id="rId115" xr:uid="{00000000-0004-0000-0100-000073000000}"/>
+    <hyperlink ref="I168" r:id="rId116" xr:uid="{00000000-0004-0000-0100-000074000000}"/>
+    <hyperlink ref="I169" r:id="rId117" xr:uid="{00000000-0004-0000-0100-000075000000}"/>
+    <hyperlink ref="I170" r:id="rId118" xr:uid="{00000000-0004-0000-0100-000076000000}"/>
+    <hyperlink ref="I171" r:id="rId119" xr:uid="{00000000-0004-0000-0100-000077000000}"/>
+    <hyperlink ref="I174" r:id="rId120" xr:uid="{00000000-0004-0000-0100-000078000000}"/>
+    <hyperlink ref="I175" r:id="rId121" xr:uid="{00000000-0004-0000-0100-000079000000}"/>
+    <hyperlink ref="I21" r:id="rId122" xr:uid="{881F0F65-3DCC-E94A-9FE5-2CC264A8F337}"/>
+    <hyperlink ref="I22" r:id="rId123" xr:uid="{AC40193A-1232-474A-A421-B55FFA7E99B8}"/>
+    <hyperlink ref="I41" r:id="rId124" xr:uid="{D41ADE90-9772-8F41-AC9B-8DE303E9D7A9}"/>
+    <hyperlink ref="I42" r:id="rId125" xr:uid="{85F37ABA-4B3B-764B-A1ED-9DD3AFFF0004}"/>
+    <hyperlink ref="I76" r:id="rId126" xr:uid="{F5E14AAB-D49A-EF45-A165-3757EFF2E9B4}"/>
+    <hyperlink ref="I92" r:id="rId127" xr:uid="{759707EA-D94A-2D42-8FE0-FAE01578CF99}"/>
+    <hyperlink ref="I124" r:id="rId128" xr:uid="{1A936B77-62AA-804C-B853-4343ADD2D925}"/>
+    <hyperlink ref="I154" r:id="rId129" xr:uid="{00000000-0004-0000-0100-000069000000}"/>
+    <hyperlink ref="I145" r:id="rId130" xr:uid="{2929B0EA-E15F-E444-ADC1-C2E3E232D526}"/>
+    <hyperlink ref="I155" r:id="rId131" xr:uid="{7770BE98-2823-3047-9E72-08DB2B79C177}"/>
+    <hyperlink ref="I157" r:id="rId132" xr:uid="{A91F97A2-47FA-FB49-8866-2B9AA1419B2B}"/>
+    <hyperlink ref="I172" r:id="rId133" xr:uid="{11EEE67C-10E9-AB44-91F6-D7C7B31697FA}"/>
+    <hyperlink ref="I176" r:id="rId134" xr:uid="{8E930EBE-7205-BD41-9ED8-FE8F970A98EF}"/>
+    <hyperlink ref="I158" r:id="rId135" xr:uid="{3AF5EB12-868F-C842-91DC-4FC147AA3C86}"/>
+    <hyperlink ref="I64" r:id="rId136" xr:uid="{7BDCEA69-27F3-FF41-BB2B-817D4FD2C9C0}"/>
+    <hyperlink ref="I65" r:id="rId137" xr:uid="{7A940ACA-466B-9E49-8CB5-9BA664F7C3C9}"/>
+    <hyperlink ref="I67" r:id="rId138" xr:uid="{088C717E-7DC5-EF4C-8C34-370DC45C6BEE}"/>
+    <hyperlink ref="I68" r:id="rId139" xr:uid="{A670C44A-19C9-984F-9EAA-8D5EBCE39C79}"/>
+    <hyperlink ref="I106" r:id="rId140" xr:uid="{713BB907-BFF9-AE42-B777-2AF591DA7D9B}"/>
+    <hyperlink ref="I109" r:id="rId141" xr:uid="{EC0C54FA-684B-A440-BF57-B5B57FDD99C9}"/>
+    <hyperlink ref="I119" r:id="rId142" xr:uid="{9081BA3E-9CF8-074E-BF5B-0F2FA156F0B7}"/>
+    <hyperlink ref="I121" r:id="rId143" xr:uid="{8C2FD4CC-DF59-734E-8449-EA5B9F5E7D3D}"/>
+    <hyperlink ref="I89" r:id="rId144" xr:uid="{9845498D-A3A6-524F-9A69-7DC2DB7F7639}"/>
+    <hyperlink ref="I118" r:id="rId145" xr:uid="{CFDD3EC3-C992-0E4C-8C8D-2A9AC6885E0B}"/>
+    <hyperlink ref="I100" r:id="rId146" xr:uid="{C634E917-B836-414F-BB3B-9A111E16653C}"/>
+    <hyperlink ref="I60" r:id="rId147" xr:uid="{8548A361-62F7-A648-BBBE-9F37385F0E45}"/>
+    <hyperlink ref="I75" r:id="rId148" xr:uid="{8EA062F9-78F8-A44B-BEDA-61CF758CB831}"/>
+    <hyperlink ref="I46" r:id="rId149" xr:uid="{7C7CB4D2-6B37-544C-B631-930D91F3AA17}"/>
+    <hyperlink ref="I146" r:id="rId150" xr:uid="{5694CC0C-366D-8848-BBD7-150B284E15DA}"/>
+    <hyperlink ref="I33" r:id="rId151" xr:uid="{7E8D5837-BD50-6844-B288-6217DFD05E29}"/>
+    <hyperlink ref="I48" r:id="rId152" xr:uid="{E89C4D5B-786F-9A4C-9914-80D4DF36F89C}"/>
+    <hyperlink ref="I47" r:id="rId153" xr:uid="{EDBD0C6E-D96D-734B-85A9-4D26B3421D83}"/>
+    <hyperlink ref="I173" r:id="rId154" xr:uid="{12FA5E40-D722-4344-995B-86BBF8B4F3F3}"/>
+    <hyperlink ref="I3" r:id="rId155" xr:uid="{90F3D795-8796-3941-81B5-D72CA324E042}"/>
+    <hyperlink ref="I4" r:id="rId156" xr:uid="{16E7DE01-C66E-B349-8DAD-CA4C99C20CD5}"/>
+    <hyperlink ref="I5" r:id="rId157" xr:uid="{7E09A861-DD77-2E4B-B800-EAC5DEA70EDC}"/>
+    <hyperlink ref="I17" r:id="rId158" xr:uid="{D6A698C2-16EA-6D43-BD05-DCD8B998FD48}"/>
+    <hyperlink ref="I43" r:id="rId159" xr:uid="{4D236EF9-AFFB-FE4D-BCD1-638D19B0E2AD}"/>
+    <hyperlink ref="I66" r:id="rId160" xr:uid="{219D9E22-5730-534D-8B55-6BD3916AD9D3}"/>
+    <hyperlink ref="I70" r:id="rId161" xr:uid="{F2124805-E683-1A42-A341-E4B4C798FCF6}"/>
+    <hyperlink ref="I101" r:id="rId162" xr:uid="{03D19417-5ACF-4747-87E3-FF4A7F6B8C5E}"/>
+    <hyperlink ref="I107" r:id="rId163" xr:uid="{E08A2438-5DB8-9A45-84DD-CD243288C3B9}"/>
+    <hyperlink ref="I120" r:id="rId164" xr:uid="{84BE2579-BA68-7D4D-B2CB-86D3681369AA}"/>
+    <hyperlink ref="I123" r:id="rId165" xr:uid="{91EB2E87-6831-0145-A4FB-E8981B8045C7}"/>
+    <hyperlink ref="I126" r:id="rId166" xr:uid="{54C086FF-A8B9-6C43-B277-A9032F8666B1}"/>
+    <hyperlink ref="I127" r:id="rId167" xr:uid="{2EF760AC-07D9-8548-93B1-88352B9C3C7F}"/>
+    <hyperlink ref="I93" r:id="rId168" xr:uid="{A5C672A7-87AF-E940-AAE7-D59695E4A0C6}"/>
+    <hyperlink ref="I130" r:id="rId169" xr:uid="{235F1B30-BA9C-2944-96E8-044D9C42D2E4}"/>
+    <hyperlink ref="I131" r:id="rId170" xr:uid="{86BA7BFD-9A67-EC49-A9D6-2A3459D321FF}"/>
+    <hyperlink ref="I132" r:id="rId171" xr:uid="{877A9B01-36F7-6D47-9B86-75B4F4BC541E}"/>
+    <hyperlink ref="I137" r:id="rId172" xr:uid="{5546ECD3-6F35-E74E-9357-32E1AF022690}"/>
+    <hyperlink ref="I147" r:id="rId173" xr:uid="{88D1FADA-4A32-0D4F-AF24-3FE72EBBEB68}"/>
+    <hyperlink ref="I148" r:id="rId174" xr:uid="{AF329473-0DFD-8C4C-BE43-8A06EA57AD9B}"/>
+    <hyperlink ref="I149" r:id="rId175" xr:uid="{6A2FDA52-E721-2D45-8440-DE26731358E6}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/docs/香港素食餐廳大全.xlsx
+++ b/docs/香港素食餐廳大全.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tim/_Python_OpenAI/My-projects/7-hk-veg-map/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6776B842-6C86-1A4C-BF92-1805361BD2B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5829BBE0-1C21-7344-91CA-119E3A9D8577}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="10080" yWindow="500" windowWidth="17400" windowHeight="16160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1223,9 +1223,6 @@
     <t>西環西營盤皇后大道西308號地舖</t>
   </si>
   <si>
-    <t>22.286558194966503, 114.13287325455504</t>
-  </si>
-  <si>
     <t>https://www.openrice.com/zh/hongkong/r-%E5%AF%B6%E8%93%AE%E8%8B%91%E7%B4%A0%E9%A3%9F-%E8%A5%BF%E7%92%B0-%E7%B2%B5%E8%8F%9C-%E5%BB%A3%E6%9D%B1-%E7%B4%A0%E9%A3%9F-r18683</t>
   </si>
   <si>
@@ -2765,9 +2762,6 @@
     <t>西環石塘咀皇后大道西604號地舖</t>
   </si>
   <si>
-    <t>22.286529411510077, 114.1328650618579</t>
-  </si>
-  <si>
     <t>https://www.openrice.com/zh/hongkong/r-%E5%AF%B6%E8%93%AE%E8%8B%91%E7%B4%A0%E9%A3%9F-%E8%A5%BF%E7%92%B0-%E7%B2%B5%E8%8F%9C-%E5%BB%A3%E6%9D%B1-%E7%B4%A0%E9%A3%9F-r118537</t>
   </si>
   <si>
@@ -3000,6 +2994,12 @@
   </si>
   <si>
     <t>24909882</t>
+  </si>
+  <si>
+    <t>22.28685826375319, 114.14190254509603</t>
+  </si>
+  <si>
+    <t>22.286503012490105, 114.13286233595076</t>
   </si>
 </sst>
 </file>
@@ -11270,8 +11270,8 @@
   </sheetPr>
   <dimension ref="A1:K176"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E130" zoomScale="132" workbookViewId="0">
-      <selection activeCell="J149" sqref="J149"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="132" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -11353,29 +11353,29 @@
         <v>10</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>397</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>914</v>
+        <v>992</v>
       </c>
       <c r="H3" s="5"/>
       <c r="I3" s="24" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="J3" s="25" t="s">
-        <v>916</v>
+        <v>914</v>
       </c>
       <c r="K3" s="5"/>
     </row>
@@ -11384,29 +11384,29 @@
         <v>10</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>918</v>
+        <v>916</v>
       </c>
       <c r="H4" s="5"/>
       <c r="I4" s="24" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="J4" s="25" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
       <c r="K4" s="5"/>
     </row>
@@ -11415,29 +11415,29 @@
         <v>10</v>
       </c>
       <c r="B5" s="5" t="s">
+        <v>893</v>
+      </c>
+      <c r="C5" s="5" t="s">
         <v>894</v>
       </c>
-      <c r="C5" s="5" t="s">
-        <v>895</v>
-      </c>
       <c r="D5" s="5" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>25</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="H5" s="5"/>
       <c r="I5" s="24" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="J5" s="25" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="K5" s="5"/>
     </row>
@@ -11452,7 +11452,7 @@
         <v>397</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>14</v>
@@ -11461,14 +11461,14 @@
         <v>399</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>400</v>
+        <v>991</v>
       </c>
       <c r="H6" s="5"/>
       <c r="I6" s="7" t="s">
+        <v>400</v>
+      </c>
+      <c r="J6" s="25" t="s">
         <v>401</v>
-      </c>
-      <c r="J6" s="25" t="s">
-        <v>402</v>
       </c>
       <c r="K6" s="5"/>
     </row>
@@ -11483,7 +11483,7 @@
         <v>18</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="E7" s="5" t="s">
         <v>14</v>
@@ -11492,14 +11492,14 @@
         <v>20</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="H7" s="5"/>
       <c r="I7" s="7" t="s">
         <v>21</v>
       </c>
       <c r="J7" s="25" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="K7" s="5"/>
     </row>
@@ -11511,7 +11511,7 @@
         <v>22</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>157</v>
@@ -11520,17 +11520,17 @@
         <v>25</v>
       </c>
       <c r="F8" s="5" t="s">
+        <v>406</v>
+      </c>
+      <c r="G8" s="5" t="s">
         <v>407</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>408</v>
       </c>
       <c r="H8" s="5"/>
       <c r="I8" s="6" t="s">
+        <v>408</v>
+      </c>
+      <c r="J8" s="25" t="s">
         <v>409</v>
-      </c>
-      <c r="J8" s="25" t="s">
-        <v>410</v>
       </c>
       <c r="K8" s="5"/>
     </row>
@@ -11545,7 +11545,7 @@
         <v>23</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="E9" s="5" t="s">
         <v>25</v>
@@ -11554,14 +11554,14 @@
         <v>26</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="H9" s="5"/>
       <c r="I9" s="7" t="s">
         <v>27</v>
       </c>
       <c r="J9" s="25" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="K9" s="5"/>
     </row>
@@ -11582,17 +11582,17 @@
         <v>14</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="H10" s="5"/>
       <c r="I10" s="7" t="s">
+        <v>414</v>
+      </c>
+      <c r="J10" s="25" t="s">
         <v>415</v>
-      </c>
-      <c r="J10" s="25" t="s">
-        <v>416</v>
       </c>
       <c r="K10" s="5"/>
     </row>
@@ -11616,14 +11616,14 @@
         <v>30</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="H11" s="5"/>
       <c r="I11" s="7" t="s">
         <v>31</v>
       </c>
       <c r="J11" s="25" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="K11" s="5" t="s">
         <v>32</v>
@@ -11640,7 +11640,7 @@
         <v>33</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>14</v>
@@ -11649,14 +11649,14 @@
         <v>35</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="H12" s="5"/>
       <c r="I12" s="24" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="J12" s="25" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="K12" s="5"/>
     </row>
@@ -11680,11 +11680,11 @@
         <v>40</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="H13" s="5"/>
       <c r="I13" s="7" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="J13" s="25"/>
       <c r="K13" s="5"/>
@@ -11709,7 +11709,7 @@
         <v>44</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="H14" s="5"/>
       <c r="I14" s="7" t="s">
@@ -11738,14 +11738,14 @@
         <v>48</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="H15" s="5"/>
       <c r="I15" s="6" t="s">
         <v>49</v>
       </c>
       <c r="J15" s="25" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="K15" s="5"/>
     </row>
@@ -11769,14 +11769,14 @@
         <v>52</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="H16" s="5"/>
       <c r="I16" s="7" t="s">
         <v>53</v>
       </c>
       <c r="J16" s="25" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="K16" s="5"/>
     </row>
@@ -11788,7 +11788,7 @@
         <v>22</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="D17" s="5" t="s">
         <v>382</v>
@@ -11797,17 +11797,17 @@
         <v>14</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="H17" s="5"/>
       <c r="I17" s="24" t="s">
-        <v>927</v>
+        <v>925</v>
       </c>
       <c r="J17" s="25" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
       <c r="K17" s="5"/>
     </row>
@@ -11831,14 +11831,14 @@
         <v>56</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="H18" s="5"/>
       <c r="I18" s="24" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="J18" s="25" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="K18" s="5"/>
     </row>
@@ -11862,14 +11862,14 @@
         <v>60</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="H19" s="5"/>
       <c r="I19" s="7" t="s">
         <v>61</v>
       </c>
       <c r="J19" s="25" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="K19" s="5"/>
     </row>
@@ -11884,7 +11884,7 @@
         <v>62</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="E20" s="5" t="s">
         <v>25</v>
@@ -11893,14 +11893,14 @@
         <v>63</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="H20" s="5"/>
       <c r="I20" s="7" t="s">
         <v>64</v>
       </c>
       <c r="J20" s="25" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="K20" s="5"/>
     </row>
@@ -11912,7 +11912,7 @@
         <v>22</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="D21" s="5" t="s">
         <v>47</v>
@@ -11921,14 +11921,14 @@
         <v>25</v>
       </c>
       <c r="F21" s="5" t="s">
+        <v>732</v>
+      </c>
+      <c r="G21" s="5" t="s">
         <v>733</v>
-      </c>
-      <c r="G21" s="5" t="s">
-        <v>734</v>
       </c>
       <c r="H21" s="5"/>
       <c r="I21" s="24" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="J21" s="25">
         <v>37553067</v>
@@ -11943,7 +11943,7 @@
         <v>22</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="D22" s="5" t="s">
         <v>47</v>
@@ -11952,17 +11952,17 @@
         <v>25</v>
       </c>
       <c r="F22" s="5" t="s">
+        <v>735</v>
+      </c>
+      <c r="G22" s="5" t="s">
         <v>736</v>
-      </c>
-      <c r="G22" s="5" t="s">
-        <v>737</v>
       </c>
       <c r="H22" s="5"/>
       <c r="I22" s="24" t="s">
+        <v>737</v>
+      </c>
+      <c r="J22" s="25" t="s">
         <v>738</v>
-      </c>
-      <c r="J22" s="25" t="s">
-        <v>739</v>
       </c>
       <c r="K22" s="5"/>
     </row>
@@ -11977,23 +11977,23 @@
         <v>66</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="E23" s="5" t="s">
         <v>25</v>
       </c>
       <c r="F23" s="5" t="s">
+        <v>434</v>
+      </c>
+      <c r="G23" s="5" t="s">
         <v>435</v>
-      </c>
-      <c r="G23" s="5" t="s">
-        <v>436</v>
       </c>
       <c r="H23" s="5"/>
       <c r="I23" s="6" t="s">
         <v>68</v>
       </c>
       <c r="J23" s="25" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="K23" s="5"/>
     </row>
@@ -12014,17 +12014,17 @@
         <v>14</v>
       </c>
       <c r="F24" s="5" t="s">
+        <v>437</v>
+      </c>
+      <c r="G24" s="5" t="s">
         <v>438</v>
-      </c>
-      <c r="G24" s="5" t="s">
-        <v>439</v>
       </c>
       <c r="H24" s="5"/>
       <c r="I24" s="6" t="s">
+        <v>439</v>
+      </c>
+      <c r="J24" s="25" t="s">
         <v>440</v>
-      </c>
-      <c r="J24" s="25" t="s">
-        <v>441</v>
       </c>
       <c r="K24" s="5"/>
     </row>
@@ -12048,14 +12048,14 @@
         <v>72</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="H25" s="5"/>
       <c r="I25" s="6" t="s">
         <v>73</v>
       </c>
       <c r="J25" s="25" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="K25" s="5"/>
     </row>
@@ -12067,7 +12067,7 @@
         <v>69</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="D26" s="5" t="s">
         <v>75</v>
@@ -12079,14 +12079,14 @@
         <v>76</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="H26" s="5"/>
       <c r="I26" s="24" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="J26" s="25" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="K26" s="5"/>
     </row>
@@ -12110,14 +12110,14 @@
         <v>79</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="H27" s="5"/>
       <c r="I27" s="7" t="s">
         <v>80</v>
       </c>
       <c r="J27" s="25" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="K27" s="5"/>
     </row>
@@ -12132,7 +12132,7 @@
         <v>81</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="E28" s="5" t="s">
         <v>25</v>
@@ -12141,14 +12141,14 @@
         <v>82</v>
       </c>
       <c r="G28" s="5" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="H28" s="5"/>
       <c r="I28" s="7" t="s">
         <v>83</v>
       </c>
       <c r="J28" s="25" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="K28" s="5"/>
     </row>
@@ -12163,7 +12163,7 @@
         <v>84</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="E29" s="5" t="s">
         <v>25</v>
@@ -12172,14 +12172,14 @@
         <v>85</v>
       </c>
       <c r="G29" s="5" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="H29" s="5"/>
       <c r="I29" s="6" t="s">
         <v>86</v>
       </c>
       <c r="J29" s="25" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="K29" s="5"/>
     </row>
@@ -12194,7 +12194,7 @@
         <v>87</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="E30" s="5" t="s">
         <v>25</v>
@@ -12203,14 +12203,14 @@
         <v>88</v>
       </c>
       <c r="G30" s="5" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="H30" s="5"/>
       <c r="I30" s="6" t="s">
         <v>89</v>
       </c>
       <c r="J30" s="25" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="K30" s="5"/>
     </row>
@@ -12234,14 +12234,14 @@
         <v>91</v>
       </c>
       <c r="G31" s="5" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="H31" s="5"/>
       <c r="I31" s="6" t="s">
         <v>92</v>
       </c>
       <c r="J31" s="25" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="K31" s="5"/>
     </row>
@@ -12265,14 +12265,14 @@
         <v>94</v>
       </c>
       <c r="G32" s="5" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="H32" s="5"/>
       <c r="I32" s="6" t="s">
         <v>95</v>
       </c>
       <c r="J32" s="25" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="K32" s="5"/>
     </row>
@@ -12284,7 +12284,7 @@
         <v>69</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="D33" s="5" t="s">
         <v>51</v>
@@ -12293,17 +12293,17 @@
         <v>25</v>
       </c>
       <c r="F33" s="5" t="s">
+        <v>872</v>
+      </c>
+      <c r="G33" s="5" t="s">
         <v>873</v>
-      </c>
-      <c r="G33" s="5" t="s">
-        <v>874</v>
       </c>
       <c r="H33" s="5"/>
       <c r="I33" s="24" t="s">
+        <v>874</v>
+      </c>
+      <c r="J33" s="25" t="s">
         <v>875</v>
-      </c>
-      <c r="J33" s="25" t="s">
-        <v>876</v>
       </c>
       <c r="K33" s="5"/>
     </row>
@@ -12318,7 +12318,7 @@
         <v>96</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="E34" s="5" t="s">
         <v>14</v>
@@ -12327,14 +12327,14 @@
         <v>97</v>
       </c>
       <c r="G34" s="5" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="H34" s="5"/>
       <c r="I34" s="24" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="J34" s="25" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="K34" s="5"/>
     </row>
@@ -12346,26 +12346,26 @@
         <v>99</v>
       </c>
       <c r="C35" s="5" t="s">
+        <v>459</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>410</v>
+      </c>
+      <c r="E35" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F35" s="5" t="s">
         <v>460</v>
       </c>
-      <c r="D35" s="5" t="s">
-        <v>411</v>
-      </c>
-      <c r="E35" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="F35" s="5" t="s">
+      <c r="G35" s="5" t="s">
         <v>461</v>
-      </c>
-      <c r="G35" s="5" t="s">
-        <v>462</v>
       </c>
       <c r="H35" s="5"/>
       <c r="I35" s="6" t="s">
+        <v>462</v>
+      </c>
+      <c r="J35" s="25" t="s">
         <v>463</v>
-      </c>
-      <c r="J35" s="25" t="s">
-        <v>464</v>
       </c>
       <c r="K35" s="5"/>
     </row>
@@ -12386,17 +12386,17 @@
         <v>14</v>
       </c>
       <c r="F36" s="5" t="s">
+        <v>464</v>
+      </c>
+      <c r="G36" s="5" t="s">
         <v>465</v>
-      </c>
-      <c r="G36" s="5" t="s">
-        <v>466</v>
       </c>
       <c r="H36" s="5"/>
       <c r="I36" s="6" t="s">
+        <v>466</v>
+      </c>
+      <c r="J36" s="25" t="s">
         <v>467</v>
-      </c>
-      <c r="J36" s="25" t="s">
-        <v>468</v>
       </c>
       <c r="K36" s="5"/>
     </row>
@@ -12420,14 +12420,14 @@
         <v>101</v>
       </c>
       <c r="G37" s="5" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="H37" s="5"/>
       <c r="I37" s="6" t="s">
         <v>102</v>
       </c>
       <c r="J37" s="25" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="K37" s="5" t="s">
         <v>103</v>
@@ -12444,7 +12444,7 @@
         <v>104</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="E38" s="5" t="s">
         <v>39</v>
@@ -12453,14 +12453,14 @@
         <v>106</v>
       </c>
       <c r="G38" s="5" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="H38" s="5"/>
       <c r="I38" s="7" t="s">
         <v>107</v>
       </c>
       <c r="J38" s="25" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="K38" s="5"/>
     </row>
@@ -12475,23 +12475,23 @@
         <v>108</v>
       </c>
       <c r="D39" s="5" t="s">
+        <v>473</v>
+      </c>
+      <c r="E39" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F39" s="5" t="s">
         <v>474</v>
       </c>
-      <c r="E39" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="F39" s="5" t="s">
+      <c r="G39" s="5" t="s">
         <v>475</v>
-      </c>
-      <c r="G39" s="5" t="s">
-        <v>476</v>
       </c>
       <c r="H39" s="5"/>
       <c r="I39" s="6" t="s">
+        <v>476</v>
+      </c>
+      <c r="J39" s="25" t="s">
         <v>477</v>
-      </c>
-      <c r="J39" s="25" t="s">
-        <v>478</v>
       </c>
       <c r="K39" s="5"/>
     </row>
@@ -12515,14 +12515,14 @@
         <v>113</v>
       </c>
       <c r="G40" s="5" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="H40" s="5"/>
       <c r="I40" s="6" t="s">
         <v>114</v>
       </c>
       <c r="J40" s="25" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="K40" s="5"/>
     </row>
@@ -12534,7 +12534,7 @@
         <v>99</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="D41" s="5" t="s">
         <v>181</v>
@@ -12543,17 +12543,17 @@
         <v>14</v>
       </c>
       <c r="F41" s="5" t="s">
+        <v>739</v>
+      </c>
+      <c r="G41" s="5" t="s">
         <v>740</v>
-      </c>
-      <c r="G41" s="5" t="s">
-        <v>741</v>
       </c>
       <c r="H41" s="5"/>
       <c r="I41" s="24" t="s">
+        <v>741</v>
+      </c>
+      <c r="J41" s="25" t="s">
         <v>742</v>
-      </c>
-      <c r="J41" s="25" t="s">
-        <v>743</v>
       </c>
       <c r="K41" s="5"/>
     </row>
@@ -12565,26 +12565,26 @@
         <v>99</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="E42" s="5" t="s">
         <v>25</v>
       </c>
       <c r="F42" s="5" t="s">
+        <v>743</v>
+      </c>
+      <c r="G42" s="5" t="s">
         <v>744</v>
-      </c>
-      <c r="G42" s="5" t="s">
-        <v>745</v>
       </c>
       <c r="H42" s="5"/>
       <c r="I42" s="24" t="s">
+        <v>745</v>
+      </c>
+      <c r="J42" s="25" t="s">
         <v>746</v>
-      </c>
-      <c r="J42" s="25" t="s">
-        <v>747</v>
       </c>
       <c r="K42" s="5"/>
     </row>
@@ -12593,29 +12593,29 @@
         <v>10</v>
       </c>
       <c r="B43" s="23" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="E43" s="5" t="s">
         <v>25</v>
       </c>
       <c r="F43" s="5" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
       <c r="G43" s="5" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
       <c r="H43" s="5"/>
       <c r="I43" s="24" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="J43" s="25" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
       <c r="K43" s="5"/>
     </row>
@@ -12627,7 +12627,7 @@
         <v>115</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="D44" s="5" t="s">
         <v>47</v>
@@ -12636,17 +12636,17 @@
         <v>25</v>
       </c>
       <c r="F44" s="5" t="s">
+        <v>481</v>
+      </c>
+      <c r="G44" s="5" t="s">
         <v>482</v>
-      </c>
-      <c r="G44" s="5" t="s">
-        <v>483</v>
       </c>
       <c r="H44" s="5"/>
       <c r="I44" s="6" t="s">
+        <v>483</v>
+      </c>
+      <c r="J44" s="25" t="s">
         <v>484</v>
-      </c>
-      <c r="J44" s="25" t="s">
-        <v>485</v>
       </c>
       <c r="K44" s="5"/>
     </row>
@@ -12670,14 +12670,14 @@
         <v>118</v>
       </c>
       <c r="G45" s="5" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="H45" s="5"/>
       <c r="I45" s="24" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="J45" s="25" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="K45" s="5"/>
     </row>
@@ -12689,26 +12689,26 @@
         <v>115</v>
       </c>
       <c r="C46" s="5" t="s">
+        <v>852</v>
+      </c>
+      <c r="D46" s="5" t="s">
+        <v>410</v>
+      </c>
+      <c r="E46" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F46" s="5" t="s">
         <v>853</v>
       </c>
-      <c r="D46" s="5" t="s">
-        <v>411</v>
-      </c>
-      <c r="E46" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="F46" s="5" t="s">
+      <c r="G46" s="5" t="s">
         <v>854</v>
-      </c>
-      <c r="G46" s="5" t="s">
-        <v>855</v>
       </c>
       <c r="H46" s="5"/>
       <c r="I46" s="24" t="s">
+        <v>855</v>
+      </c>
+      <c r="J46" s="25" t="s">
         <v>856</v>
-      </c>
-      <c r="J46" s="25" t="s">
-        <v>857</v>
       </c>
       <c r="K46" s="5"/>
     </row>
@@ -12720,7 +12720,7 @@
         <v>115</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="D47" s="5" t="s">
         <v>117</v>
@@ -12729,17 +12729,17 @@
         <v>25</v>
       </c>
       <c r="F47" s="5" t="s">
+        <v>882</v>
+      </c>
+      <c r="G47" s="5" t="s">
         <v>883</v>
-      </c>
-      <c r="G47" s="5" t="s">
-        <v>884</v>
       </c>
       <c r="H47" s="5"/>
       <c r="I47" s="24" t="s">
+        <v>884</v>
+      </c>
+      <c r="J47" s="25" t="s">
         <v>885</v>
-      </c>
-      <c r="J47" s="25" t="s">
-        <v>886</v>
       </c>
       <c r="K47" s="5"/>
     </row>
@@ -12751,26 +12751,26 @@
         <v>115</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="E48" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F48" s="5" t="s">
+        <v>877</v>
+      </c>
+      <c r="G48" s="5" t="s">
         <v>878</v>
-      </c>
-      <c r="G48" s="5" t="s">
-        <v>879</v>
       </c>
       <c r="H48" s="5"/>
       <c r="I48" s="24" t="s">
+        <v>879</v>
+      </c>
+      <c r="J48" s="25" t="s">
         <v>880</v>
-      </c>
-      <c r="J48" s="25" t="s">
-        <v>881</v>
       </c>
       <c r="K48" s="5"/>
     </row>
@@ -12785,7 +12785,7 @@
         <v>121</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="E49" s="5" t="s">
         <v>25</v>
@@ -12794,14 +12794,14 @@
         <v>122</v>
       </c>
       <c r="G49" s="5" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="H49" s="5"/>
       <c r="I49" s="6" t="s">
         <v>123</v>
       </c>
       <c r="J49" s="25" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="K49" s="5"/>
     </row>
@@ -12825,14 +12825,14 @@
         <v>126</v>
       </c>
       <c r="G50" s="5" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="H50" s="5"/>
       <c r="I50" s="6" t="s">
         <v>127</v>
       </c>
       <c r="J50" s="25" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="K50" s="5"/>
     </row>
@@ -12847,7 +12847,7 @@
         <v>129</v>
       </c>
       <c r="D51" s="5" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="E51" s="5" t="s">
         <v>25</v>
@@ -12856,14 +12856,14 @@
         <v>130</v>
       </c>
       <c r="G51" s="5" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="H51" s="5"/>
       <c r="I51" s="7" t="s">
         <v>131</v>
       </c>
       <c r="J51" s="25" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="K51" s="5"/>
     </row>
@@ -12875,7 +12875,7 @@
         <v>133</v>
       </c>
       <c r="C52" s="9" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="D52" s="9" t="s">
         <v>47</v>
@@ -12884,17 +12884,17 @@
         <v>14</v>
       </c>
       <c r="F52" s="9" t="s">
+        <v>494</v>
+      </c>
+      <c r="G52" s="9" t="s">
         <v>495</v>
-      </c>
-      <c r="G52" s="9" t="s">
-        <v>496</v>
       </c>
       <c r="H52" s="9"/>
       <c r="I52" s="10" t="s">
+        <v>496</v>
+      </c>
+      <c r="J52" s="26" t="s">
         <v>497</v>
-      </c>
-      <c r="J52" s="26" t="s">
-        <v>498</v>
       </c>
       <c r="K52" s="9"/>
     </row>
@@ -12906,10 +12906,10 @@
         <v>133</v>
       </c>
       <c r="C53" s="9" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="D53" s="9" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="E53" s="9" t="s">
         <v>25</v>
@@ -12918,14 +12918,14 @@
         <v>135</v>
       </c>
       <c r="G53" s="9" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="H53" s="9"/>
       <c r="I53" s="10" t="s">
         <v>136</v>
       </c>
       <c r="J53" s="26" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="K53" s="9"/>
     </row>
@@ -12937,26 +12937,26 @@
         <v>133</v>
       </c>
       <c r="C54" s="9" t="s">
+        <v>500</v>
+      </c>
+      <c r="D54" s="9" t="s">
+        <v>410</v>
+      </c>
+      <c r="E54" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F54" s="9" t="s">
         <v>501</v>
       </c>
-      <c r="D54" s="9" t="s">
-        <v>411</v>
-      </c>
-      <c r="E54" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="F54" s="9" t="s">
+      <c r="G54" s="9" t="s">
         <v>502</v>
-      </c>
-      <c r="G54" s="9" t="s">
-        <v>503</v>
       </c>
       <c r="H54" s="9"/>
       <c r="I54" s="10" t="s">
+        <v>503</v>
+      </c>
+      <c r="J54" s="26" t="s">
         <v>504</v>
-      </c>
-      <c r="J54" s="26" t="s">
-        <v>505</v>
       </c>
       <c r="K54" s="9"/>
     </row>
@@ -12971,7 +12971,7 @@
         <v>137</v>
       </c>
       <c r="D55" s="9" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="E55" s="9" t="s">
         <v>25</v>
@@ -12980,14 +12980,14 @@
         <v>138</v>
       </c>
       <c r="G55" s="9" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="H55" s="9"/>
       <c r="I55" s="10" t="s">
         <v>139</v>
       </c>
       <c r="J55" s="26" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="K55" s="9"/>
     </row>
@@ -13008,17 +13008,17 @@
         <v>14</v>
       </c>
       <c r="F56" s="9" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="G56" s="9" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="H56" s="9"/>
       <c r="I56" s="10" t="s">
+        <v>508</v>
+      </c>
+      <c r="J56" s="26" t="s">
         <v>509</v>
-      </c>
-      <c r="J56" s="26" t="s">
-        <v>510</v>
       </c>
       <c r="K56" s="9"/>
     </row>
@@ -13030,7 +13030,7 @@
         <v>133</v>
       </c>
       <c r="C57" s="9" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="D57" s="9" t="s">
         <v>75</v>
@@ -13042,14 +13042,14 @@
         <v>141</v>
       </c>
       <c r="G57" s="9" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="H57" s="9"/>
       <c r="I57" s="28" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="J57" s="26" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="K57" s="9"/>
     </row>
@@ -13061,7 +13061,7 @@
         <v>133</v>
       </c>
       <c r="C58" s="9" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="D58" s="9" t="s">
         <v>75</v>
@@ -13073,14 +13073,14 @@
         <v>144</v>
       </c>
       <c r="G58" s="9" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="H58" s="9"/>
       <c r="I58" s="28" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="J58" s="26" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="K58" s="9"/>
     </row>
@@ -13095,7 +13095,7 @@
         <v>146</v>
       </c>
       <c r="D59" s="9" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="E59" s="9" t="s">
         <v>25</v>
@@ -13104,14 +13104,14 @@
         <v>148</v>
       </c>
       <c r="G59" s="9" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="H59" s="9"/>
       <c r="I59" s="11" t="s">
         <v>149</v>
       </c>
       <c r="J59" s="26" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="K59" s="9"/>
     </row>
@@ -13123,26 +13123,26 @@
         <v>133</v>
       </c>
       <c r="C60" s="9" t="s">
+        <v>842</v>
+      </c>
+      <c r="D60" s="9" t="s">
+        <v>410</v>
+      </c>
+      <c r="E60" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F60" s="9" t="s">
         <v>843</v>
       </c>
-      <c r="D60" s="9" t="s">
-        <v>411</v>
-      </c>
-      <c r="E60" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="F60" s="9" t="s">
+      <c r="G60" s="9" t="s">
         <v>844</v>
-      </c>
-      <c r="G60" s="9" t="s">
-        <v>845</v>
       </c>
       <c r="H60" s="9"/>
       <c r="I60" s="28" t="s">
+        <v>845</v>
+      </c>
+      <c r="J60" s="26" t="s">
         <v>846</v>
-      </c>
-      <c r="J60" s="26" t="s">
-        <v>847</v>
       </c>
       <c r="K60" s="9"/>
     </row>
@@ -13154,7 +13154,7 @@
         <v>133</v>
       </c>
       <c r="C61" s="9" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="D61" s="9" t="s">
         <v>55</v>
@@ -13166,14 +13166,14 @@
         <v>151</v>
       </c>
       <c r="G61" s="9" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="H61" s="9"/>
       <c r="I61" s="10" t="s">
         <v>152</v>
       </c>
       <c r="J61" s="26" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="K61" s="9"/>
     </row>
@@ -13197,14 +13197,14 @@
         <v>154</v>
       </c>
       <c r="G62" s="9" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="H62" s="9"/>
       <c r="I62" s="10" t="s">
         <v>155</v>
       </c>
       <c r="J62" s="26" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="K62" s="9"/>
     </row>
@@ -13228,14 +13228,14 @@
         <v>158</v>
       </c>
       <c r="G63" s="9" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="H63" s="9"/>
       <c r="I63" s="10" t="s">
         <v>159</v>
       </c>
       <c r="J63" s="26" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="K63" s="9"/>
     </row>
@@ -13247,7 +13247,7 @@
         <v>133</v>
       </c>
       <c r="C64" s="9" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="D64" s="9" t="s">
         <v>47</v>
@@ -13256,17 +13256,17 @@
         <v>25</v>
       </c>
       <c r="F64" s="9" t="s">
+        <v>795</v>
+      </c>
+      <c r="G64" s="9" t="s">
         <v>796</v>
-      </c>
-      <c r="G64" s="9" t="s">
-        <v>797</v>
       </c>
       <c r="H64" s="9"/>
       <c r="I64" s="28" t="s">
+        <v>797</v>
+      </c>
+      <c r="J64" s="26" t="s">
         <v>798</v>
-      </c>
-      <c r="J64" s="26" t="s">
-        <v>799</v>
       </c>
       <c r="K64" s="9"/>
     </row>
@@ -13278,26 +13278,26 @@
         <v>133</v>
       </c>
       <c r="C65" s="9" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="D65" s="9" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="E65" s="9" t="s">
         <v>25</v>
       </c>
       <c r="F65" s="9" t="s">
+        <v>799</v>
+      </c>
+      <c r="G65" s="9" t="s">
         <v>800</v>
-      </c>
-      <c r="G65" s="9" t="s">
-        <v>801</v>
       </c>
       <c r="H65" s="9"/>
       <c r="I65" s="28" t="s">
+        <v>801</v>
+      </c>
+      <c r="J65" s="26" t="s">
         <v>802</v>
-      </c>
-      <c r="J65" s="26" t="s">
-        <v>803</v>
       </c>
       <c r="K65" s="9"/>
     </row>
@@ -13309,7 +13309,7 @@
         <v>133</v>
       </c>
       <c r="C66" s="9" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="D66" s="9" t="s">
         <v>75</v>
@@ -13318,17 +13318,17 @@
         <v>25</v>
       </c>
       <c r="F66" s="9" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="G66" s="9" t="s">
-        <v>934</v>
+        <v>932</v>
       </c>
       <c r="H66" s="9"/>
       <c r="I66" s="28" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
       <c r="J66" s="26" t="s">
-        <v>936</v>
+        <v>934</v>
       </c>
       <c r="K66" s="9"/>
     </row>
@@ -13340,7 +13340,7 @@
         <v>133</v>
       </c>
       <c r="C67" s="9" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="D67" s="9" t="s">
         <v>47</v>
@@ -13349,17 +13349,17 @@
         <v>14</v>
       </c>
       <c r="F67" s="9" t="s">
+        <v>803</v>
+      </c>
+      <c r="G67" s="9" t="s">
         <v>804</v>
-      </c>
-      <c r="G67" s="9" t="s">
-        <v>805</v>
       </c>
       <c r="H67" s="9"/>
       <c r="I67" s="28" t="s">
+        <v>805</v>
+      </c>
+      <c r="J67" s="26" t="s">
         <v>806</v>
-      </c>
-      <c r="J67" s="26" t="s">
-        <v>807</v>
       </c>
       <c r="K67" s="9"/>
     </row>
@@ -13371,7 +13371,7 @@
         <v>133</v>
       </c>
       <c r="C68" s="9" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="D68" s="9" t="s">
         <v>117</v>
@@ -13380,17 +13380,17 @@
         <v>14</v>
       </c>
       <c r="F68" s="9" t="s">
+        <v>807</v>
+      </c>
+      <c r="G68" s="9" t="s">
         <v>808</v>
-      </c>
-      <c r="G68" s="9" t="s">
-        <v>809</v>
       </c>
       <c r="H68" s="9"/>
       <c r="I68" s="28" t="s">
+        <v>809</v>
+      </c>
+      <c r="J68" s="26" t="s">
         <v>810</v>
-      </c>
-      <c r="J68" s="26" t="s">
-        <v>811</v>
       </c>
       <c r="K68" s="9"/>
     </row>
@@ -13414,14 +13414,14 @@
         <v>161</v>
       </c>
       <c r="G69" s="9" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="H69" s="9"/>
       <c r="I69" s="10" t="s">
         <v>162</v>
       </c>
       <c r="J69" s="26" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="K69" s="9"/>
     </row>
@@ -13433,23 +13433,23 @@
         <v>133</v>
       </c>
       <c r="C70" s="9" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="D70" s="9" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="E70" s="9" t="s">
         <v>25</v>
       </c>
       <c r="F70" s="9" t="s">
-        <v>937</v>
+        <v>935</v>
       </c>
       <c r="G70" s="9" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
       <c r="H70" s="9"/>
       <c r="I70" s="28" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="J70" s="26"/>
       <c r="K70" s="9"/>
@@ -13465,7 +13465,7 @@
         <v>164</v>
       </c>
       <c r="D71" s="9" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="E71" s="9" t="s">
         <v>25</v>
@@ -13474,14 +13474,14 @@
         <v>165</v>
       </c>
       <c r="G71" s="9" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="H71" s="9"/>
       <c r="I71" s="10" t="s">
         <v>166</v>
       </c>
       <c r="J71" s="26" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="K71" s="9"/>
     </row>
@@ -13496,7 +13496,7 @@
         <v>167</v>
       </c>
       <c r="D72" s="9" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="E72" s="9" t="s">
         <v>25</v>
@@ -13505,14 +13505,14 @@
         <v>168</v>
       </c>
       <c r="G72" s="9" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="H72" s="9"/>
       <c r="I72" s="10" t="s">
         <v>169</v>
       </c>
       <c r="J72" s="26" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="K72" s="9"/>
     </row>
@@ -13536,14 +13536,14 @@
         <v>171</v>
       </c>
       <c r="G73" s="9" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="H73" s="9"/>
       <c r="I73" s="28" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="J73" s="26" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="K73" s="9"/>
     </row>
@@ -13567,14 +13567,14 @@
         <v>174</v>
       </c>
       <c r="G74" s="9" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="H74" s="9"/>
       <c r="I74" s="10" t="s">
         <v>175</v>
       </c>
       <c r="J74" s="26" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="K74" s="9"/>
     </row>
@@ -13586,26 +13586,26 @@
         <v>163</v>
       </c>
       <c r="C75" s="9" t="s">
+        <v>847</v>
+      </c>
+      <c r="D75" s="9" t="s">
+        <v>410</v>
+      </c>
+      <c r="E75" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F75" s="9" t="s">
         <v>848</v>
       </c>
-      <c r="D75" s="9" t="s">
-        <v>411</v>
-      </c>
-      <c r="E75" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="F75" s="9" t="s">
+      <c r="G75" s="9" t="s">
         <v>849</v>
-      </c>
-      <c r="G75" s="9" t="s">
-        <v>850</v>
       </c>
       <c r="H75" s="9"/>
       <c r="I75" s="28" t="s">
+        <v>850</v>
+      </c>
+      <c r="J75" s="26" t="s">
         <v>851</v>
-      </c>
-      <c r="J75" s="26" t="s">
-        <v>852</v>
       </c>
       <c r="K75" s="9"/>
     </row>
@@ -13614,29 +13614,29 @@
         <v>132</v>
       </c>
       <c r="B76" s="9" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="C76" s="9" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="D76" s="9" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="E76" s="9" t="s">
         <v>14</v>
       </c>
       <c r="F76" s="9" t="s">
+        <v>747</v>
+      </c>
+      <c r="G76" s="9" t="s">
         <v>748</v>
-      </c>
-      <c r="G76" s="9" t="s">
-        <v>749</v>
       </c>
       <c r="H76" s="9"/>
       <c r="I76" s="28" t="s">
+        <v>749</v>
+      </c>
+      <c r="J76" s="26" t="s">
         <v>750</v>
-      </c>
-      <c r="J76" s="26" t="s">
-        <v>751</v>
       </c>
       <c r="K76" s="9"/>
     </row>
@@ -13645,10 +13645,10 @@
         <v>132</v>
       </c>
       <c r="B77" s="9" t="s">
+        <v>533</v>
+      </c>
+      <c r="C77" s="9" t="s">
         <v>534</v>
-      </c>
-      <c r="C77" s="9" t="s">
-        <v>535</v>
       </c>
       <c r="D77" s="9" t="s">
         <v>157</v>
@@ -13657,17 +13657,17 @@
         <v>25</v>
       </c>
       <c r="F77" s="9" t="s">
+        <v>535</v>
+      </c>
+      <c r="G77" s="9" t="s">
         <v>536</v>
-      </c>
-      <c r="G77" s="9" t="s">
-        <v>537</v>
       </c>
       <c r="H77" s="9"/>
       <c r="I77" s="11" t="s">
+        <v>537</v>
+      </c>
+      <c r="J77" s="26" t="s">
         <v>538</v>
-      </c>
-      <c r="J77" s="26" t="s">
-        <v>539</v>
       </c>
       <c r="K77" s="9"/>
     </row>
@@ -13676,7 +13676,7 @@
         <v>132</v>
       </c>
       <c r="B78" s="9" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="C78" s="9" t="s">
         <v>381</v>
@@ -13688,17 +13688,17 @@
         <v>14</v>
       </c>
       <c r="F78" s="9" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="G78" s="9" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="H78" s="9"/>
       <c r="I78" s="10" t="s">
+        <v>540</v>
+      </c>
+      <c r="J78" s="26" t="s">
         <v>541</v>
-      </c>
-      <c r="J78" s="26" t="s">
-        <v>542</v>
       </c>
       <c r="K78" s="9"/>
     </row>
@@ -13710,26 +13710,26 @@
         <v>176</v>
       </c>
       <c r="C79" s="9" t="s">
+        <v>542</v>
+      </c>
+      <c r="D79" s="9" t="s">
+        <v>410</v>
+      </c>
+      <c r="E79" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F79" s="9" t="s">
         <v>543</v>
       </c>
-      <c r="D79" s="9" t="s">
-        <v>411</v>
-      </c>
-      <c r="E79" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="F79" s="9" t="s">
+      <c r="G79" s="9" t="s">
         <v>544</v>
-      </c>
-      <c r="G79" s="9" t="s">
-        <v>545</v>
       </c>
       <c r="H79" s="9"/>
       <c r="I79" s="10" t="s">
+        <v>545</v>
+      </c>
+      <c r="J79" s="26" t="s">
         <v>546</v>
-      </c>
-      <c r="J79" s="26" t="s">
-        <v>547</v>
       </c>
       <c r="K79" s="9"/>
     </row>
@@ -13744,23 +13744,23 @@
         <v>177</v>
       </c>
       <c r="D80" s="9" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="E80" s="9" t="s">
         <v>25</v>
       </c>
       <c r="F80" s="9" t="s">
+        <v>547</v>
+      </c>
+      <c r="G80" s="9" t="s">
         <v>548</v>
-      </c>
-      <c r="G80" s="9" t="s">
-        <v>549</v>
       </c>
       <c r="H80" s="9"/>
       <c r="I80" s="10" t="s">
         <v>179</v>
       </c>
       <c r="J80" s="26" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="K80" s="9"/>
     </row>
@@ -13784,14 +13784,14 @@
         <v>182</v>
       </c>
       <c r="G81" s="9" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="H81" s="9"/>
       <c r="I81" s="10" t="s">
         <v>183</v>
       </c>
       <c r="J81" s="26" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="K81" s="9"/>
     </row>
@@ -13806,7 +13806,7 @@
         <v>185</v>
       </c>
       <c r="D82" s="9" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="E82" s="9" t="s">
         <v>25</v>
@@ -13815,14 +13815,14 @@
         <v>186</v>
       </c>
       <c r="G82" s="9" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="H82" s="9"/>
       <c r="I82" s="10" t="s">
         <v>187</v>
       </c>
       <c r="J82" s="26" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="K82" s="9"/>
     </row>
@@ -13846,14 +13846,14 @@
         <v>189</v>
       </c>
       <c r="G83" s="9" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="H83" s="9"/>
       <c r="I83" s="10" t="s">
         <v>190</v>
       </c>
       <c r="J83" s="26" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="K83" s="9"/>
     </row>
@@ -13877,14 +13877,14 @@
         <v>193</v>
       </c>
       <c r="G84" s="9" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="H84" s="9"/>
       <c r="I84" s="10" t="s">
         <v>194</v>
       </c>
       <c r="J84" s="26" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="K84" s="9"/>
     </row>
@@ -13908,14 +13908,14 @@
         <v>196</v>
       </c>
       <c r="G85" s="9" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="H85" s="9"/>
       <c r="I85" s="10" t="s">
         <v>197</v>
       </c>
       <c r="J85" s="26" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="K85" s="9"/>
     </row>
@@ -13930,7 +13930,7 @@
         <v>198</v>
       </c>
       <c r="D86" s="9" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="E86" s="9" t="s">
         <v>14</v>
@@ -13939,14 +13939,14 @@
         <v>199</v>
       </c>
       <c r="G86" s="9" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="H86" s="9"/>
       <c r="I86" s="10" t="s">
         <v>200</v>
       </c>
       <c r="J86" s="26" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="K86" s="9"/>
     </row>
@@ -13961,7 +13961,7 @@
         <v>201</v>
       </c>
       <c r="D87" s="9" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="E87" s="9" t="s">
         <v>14</v>
@@ -13970,14 +13970,14 @@
         <v>202</v>
       </c>
       <c r="G87" s="9" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="H87" s="9"/>
       <c r="I87" s="10" t="s">
         <v>203</v>
       </c>
       <c r="J87" s="26" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="K87" s="9"/>
     </row>
@@ -13992,7 +13992,7 @@
         <v>204</v>
       </c>
       <c r="D88" s="9" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="E88" s="9" t="s">
         <v>14</v>
@@ -14001,14 +14001,14 @@
         <v>205</v>
       </c>
       <c r="G88" s="9" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="H88" s="9"/>
       <c r="I88" s="11" t="s">
         <v>206</v>
       </c>
       <c r="J88" s="26" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="K88" s="9"/>
     </row>
@@ -14020,26 +14020,26 @@
         <v>184</v>
       </c>
       <c r="C89" s="12" t="s">
+        <v>827</v>
+      </c>
+      <c r="D89" s="9" t="s">
+        <v>410</v>
+      </c>
+      <c r="E89" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F89" s="9" t="s">
         <v>828</v>
       </c>
-      <c r="D89" s="9" t="s">
-        <v>411</v>
-      </c>
-      <c r="E89" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="F89" s="9" t="s">
+      <c r="G89" s="9" t="s">
         <v>829</v>
-      </c>
-      <c r="G89" s="9" t="s">
-        <v>830</v>
       </c>
       <c r="H89" s="9"/>
       <c r="I89" s="28" t="s">
+        <v>830</v>
+      </c>
+      <c r="J89" s="26" t="s">
         <v>831</v>
-      </c>
-      <c r="J89" s="26" t="s">
-        <v>832</v>
       </c>
       <c r="K89" s="9"/>
     </row>
@@ -14054,7 +14054,7 @@
         <v>207</v>
       </c>
       <c r="D90" s="9" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="E90" s="9" t="s">
         <v>25</v>
@@ -14063,14 +14063,14 @@
         <v>208</v>
       </c>
       <c r="G90" s="9" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="H90" s="9"/>
       <c r="I90" s="11" t="s">
         <v>209</v>
       </c>
       <c r="J90" s="26" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="K90" s="9"/>
     </row>
@@ -14085,7 +14085,7 @@
         <v>211</v>
       </c>
       <c r="D91" s="9" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="E91" s="9" t="s">
         <v>14</v>
@@ -14094,14 +14094,14 @@
         <v>212</v>
       </c>
       <c r="G91" s="9" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="H91" s="9"/>
       <c r="I91" s="10" t="s">
         <v>213</v>
       </c>
       <c r="J91" s="26" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="K91" s="9"/>
     </row>
@@ -14110,29 +14110,29 @@
         <v>132</v>
       </c>
       <c r="B92" s="9" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="C92" s="12" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="D92" s="9" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="E92" s="9" t="s">
         <v>25</v>
       </c>
       <c r="F92" s="9" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="G92" s="9" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="H92" s="9"/>
       <c r="I92" s="28" t="s">
+        <v>753</v>
+      </c>
+      <c r="J92" s="26" t="s">
         <v>754</v>
-      </c>
-      <c r="J92" s="26" t="s">
-        <v>755</v>
       </c>
       <c r="K92" s="9"/>
     </row>
@@ -14141,26 +14141,26 @@
         <v>132</v>
       </c>
       <c r="B93" s="9" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="C93" s="12" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="D93" s="9" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="E93" s="9" t="s">
         <v>25</v>
       </c>
       <c r="F93" s="9" t="s">
-        <v>964</v>
+        <v>962</v>
       </c>
       <c r="G93" s="9" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
       <c r="H93" s="9"/>
       <c r="I93" s="28" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
       <c r="J93" s="26"/>
       <c r="K93" s="9"/>
@@ -14185,14 +14185,14 @@
         <v>216</v>
       </c>
       <c r="G94" s="9" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="H94" s="9"/>
       <c r="I94" s="10" t="s">
         <v>217</v>
       </c>
       <c r="J94" s="26" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="K94" s="9"/>
     </row>
@@ -14216,14 +14216,14 @@
         <v>219</v>
       </c>
       <c r="G95" s="9" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="H95" s="9"/>
       <c r="I95" s="10" t="s">
         <v>220</v>
       </c>
       <c r="J95" s="26" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="K95" s="9"/>
     </row>
@@ -14235,10 +14235,10 @@
         <v>221</v>
       </c>
       <c r="C96" s="12" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="D96" s="9" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="E96" s="9" t="s">
         <v>25</v>
@@ -14247,14 +14247,14 @@
         <v>223</v>
       </c>
       <c r="G96" s="9" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="H96" s="9"/>
       <c r="I96" s="10" t="s">
+        <v>576</v>
+      </c>
+      <c r="J96" s="26" t="s">
         <v>577</v>
-      </c>
-      <c r="J96" s="26" t="s">
-        <v>578</v>
       </c>
       <c r="K96" s="9"/>
     </row>
@@ -14269,7 +14269,7 @@
         <v>226</v>
       </c>
       <c r="D97" s="9" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="E97" s="9" t="s">
         <v>14</v>
@@ -14278,14 +14278,14 @@
         <v>227</v>
       </c>
       <c r="G97" s="9" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="H97" s="9"/>
       <c r="I97" s="10" t="s">
         <v>228</v>
       </c>
       <c r="J97" s="26" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="K97" s="9"/>
     </row>
@@ -14300,7 +14300,7 @@
         <v>229</v>
       </c>
       <c r="D98" s="9" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="E98" s="9" t="s">
         <v>25</v>
@@ -14309,14 +14309,14 @@
         <v>230</v>
       </c>
       <c r="G98" s="9" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="H98" s="9"/>
       <c r="I98" s="10" t="s">
         <v>231</v>
       </c>
       <c r="J98" s="26" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="K98" s="9"/>
     </row>
@@ -14325,29 +14325,29 @@
         <v>132</v>
       </c>
       <c r="B99" s="9" t="s">
+        <v>582</v>
+      </c>
+      <c r="C99" s="9" t="s">
         <v>583</v>
       </c>
-      <c r="C99" s="9" t="s">
+      <c r="D99" s="9" t="s">
+        <v>410</v>
+      </c>
+      <c r="E99" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F99" s="9" t="s">
         <v>584</v>
       </c>
-      <c r="D99" s="9" t="s">
-        <v>411</v>
-      </c>
-      <c r="E99" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="F99" s="9" t="s">
+      <c r="G99" s="9" t="s">
         <v>585</v>
-      </c>
-      <c r="G99" s="9" t="s">
-        <v>586</v>
       </c>
       <c r="H99" s="9"/>
       <c r="I99" s="11" t="s">
+        <v>586</v>
+      </c>
+      <c r="J99" s="26" t="s">
         <v>587</v>
-      </c>
-      <c r="J99" s="26" t="s">
-        <v>588</v>
       </c>
       <c r="K99" s="9"/>
     </row>
@@ -14356,10 +14356,10 @@
         <v>132</v>
       </c>
       <c r="B100" s="9" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C100" s="9" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="D100" s="9" t="s">
         <v>117</v>
@@ -14368,17 +14368,17 @@
         <v>25</v>
       </c>
       <c r="F100" s="9" t="s">
+        <v>838</v>
+      </c>
+      <c r="G100" s="9" t="s">
         <v>839</v>
-      </c>
-      <c r="G100" s="9" t="s">
-        <v>840</v>
       </c>
       <c r="H100" s="9"/>
       <c r="I100" s="28" t="s">
+        <v>840</v>
+      </c>
+      <c r="J100" s="26" t="s">
         <v>841</v>
-      </c>
-      <c r="J100" s="26" t="s">
-        <v>842</v>
       </c>
       <c r="K100" s="9"/>
     </row>
@@ -14387,10 +14387,10 @@
         <v>132</v>
       </c>
       <c r="B101" s="9" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C101" s="9" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="D101" s="9" t="s">
         <v>117</v>
@@ -14399,17 +14399,17 @@
         <v>25</v>
       </c>
       <c r="F101" s="9" t="s">
-        <v>940</v>
+        <v>938</v>
       </c>
       <c r="G101" s="9" t="s">
-        <v>941</v>
+        <v>939</v>
       </c>
       <c r="H101" s="9"/>
       <c r="I101" s="28" t="s">
-        <v>942</v>
+        <v>940</v>
       </c>
       <c r="J101" s="26" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
       <c r="K101" s="9"/>
     </row>
@@ -14424,7 +14424,7 @@
         <v>233</v>
       </c>
       <c r="D102" s="9" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="E102" s="9" t="s">
         <v>25</v>
@@ -14433,14 +14433,14 @@
         <v>234</v>
       </c>
       <c r="G102" s="9" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="H102" s="9"/>
       <c r="I102" s="10" t="s">
         <v>235</v>
       </c>
       <c r="J102" s="26" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="K102" s="9"/>
     </row>
@@ -14461,17 +14461,17 @@
         <v>14</v>
       </c>
       <c r="F103" s="9" t="s">
+        <v>590</v>
+      </c>
+      <c r="G103" s="9" t="s">
         <v>591</v>
-      </c>
-      <c r="G103" s="9" t="s">
-        <v>592</v>
       </c>
       <c r="H103" s="9"/>
       <c r="I103" s="11" t="s">
+        <v>592</v>
+      </c>
+      <c r="J103" s="26" t="s">
         <v>593</v>
-      </c>
-      <c r="J103" s="26" t="s">
-        <v>594</v>
       </c>
       <c r="K103" s="9"/>
     </row>
@@ -14486,7 +14486,7 @@
         <v>237</v>
       </c>
       <c r="D104" s="9" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="E104" s="9" t="s">
         <v>25</v>
@@ -14495,14 +14495,14 @@
         <v>238</v>
       </c>
       <c r="G104" s="9" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="H104" s="9"/>
       <c r="I104" s="10" t="s">
         <v>239</v>
       </c>
       <c r="J104" s="26" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="K104" s="9"/>
     </row>
@@ -14526,14 +14526,14 @@
         <v>242</v>
       </c>
       <c r="G105" s="9" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="H105" s="9"/>
       <c r="I105" s="10" t="s">
         <v>243</v>
       </c>
       <c r="J105" s="26" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="K105" s="9"/>
     </row>
@@ -14545,7 +14545,7 @@
         <v>236</v>
       </c>
       <c r="C106" s="9" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="D106" s="9" t="s">
         <v>117</v>
@@ -14554,17 +14554,17 @@
         <v>14</v>
       </c>
       <c r="F106" s="9" t="s">
+        <v>811</v>
+      </c>
+      <c r="G106" s="9" t="s">
         <v>812</v>
-      </c>
-      <c r="G106" s="9" t="s">
-        <v>813</v>
       </c>
       <c r="H106" s="9"/>
       <c r="I106" s="28" t="s">
+        <v>813</v>
+      </c>
+      <c r="J106" s="26" t="s">
         <v>814</v>
-      </c>
-      <c r="J106" s="26" t="s">
-        <v>815</v>
       </c>
       <c r="K106" s="9"/>
     </row>
@@ -14576,26 +14576,26 @@
         <v>236</v>
       </c>
       <c r="C107" s="9" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="D107" s="9" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="E107" s="9" t="s">
         <v>25</v>
       </c>
       <c r="F107" s="9" t="s">
-        <v>945</v>
+        <v>943</v>
       </c>
       <c r="G107" s="9" t="s">
-        <v>944</v>
+        <v>942</v>
       </c>
       <c r="H107" s="9"/>
       <c r="I107" s="28" t="s">
-        <v>946</v>
+        <v>944</v>
       </c>
       <c r="J107" s="26" t="s">
-        <v>947</v>
+        <v>945</v>
       </c>
       <c r="K107" s="9"/>
     </row>
@@ -14619,14 +14619,14 @@
         <v>246</v>
       </c>
       <c r="G108" s="9" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="H108" s="9"/>
       <c r="I108" s="10" t="s">
         <v>247</v>
       </c>
       <c r="J108" s="26" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="K108" s="9"/>
     </row>
@@ -14635,29 +14635,29 @@
         <v>132</v>
       </c>
       <c r="B109" s="9" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="C109" s="9" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="D109" s="9" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="E109" s="9" t="s">
         <v>25</v>
       </c>
       <c r="F109" s="9" t="s">
+        <v>815</v>
+      </c>
+      <c r="G109" s="9" t="s">
         <v>816</v>
-      </c>
-      <c r="G109" s="9" t="s">
-        <v>817</v>
       </c>
       <c r="H109" s="9"/>
       <c r="I109" s="28" t="s">
+        <v>817</v>
+      </c>
+      <c r="J109" s="26" t="s">
         <v>818</v>
-      </c>
-      <c r="J109" s="26" t="s">
-        <v>819</v>
       </c>
       <c r="K109" s="9"/>
     </row>
@@ -14678,17 +14678,17 @@
         <v>14</v>
       </c>
       <c r="F110" s="9" t="s">
+        <v>600</v>
+      </c>
+      <c r="G110" s="9" t="s">
         <v>601</v>
-      </c>
-      <c r="G110" s="9" t="s">
-        <v>602</v>
       </c>
       <c r="H110" s="9"/>
       <c r="I110" s="10" t="s">
+        <v>602</v>
+      </c>
+      <c r="J110" s="26" t="s">
         <v>603</v>
-      </c>
-      <c r="J110" s="26" t="s">
-        <v>604</v>
       </c>
       <c r="K110" s="9"/>
     </row>
@@ -14712,14 +14712,14 @@
         <v>250</v>
       </c>
       <c r="G111" s="9" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="H111" s="9"/>
       <c r="I111" s="10" t="s">
         <v>251</v>
       </c>
       <c r="J111" s="26" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="K111" s="9"/>
     </row>
@@ -14734,7 +14734,7 @@
         <v>252</v>
       </c>
       <c r="D112" s="9" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="E112" s="9" t="s">
         <v>25</v>
@@ -14743,14 +14743,14 @@
         <v>253</v>
       </c>
       <c r="G112" s="9" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="H112" s="9"/>
       <c r="I112" s="10" t="s">
         <v>254</v>
       </c>
       <c r="J112" s="26" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="K112" s="9"/>
     </row>
@@ -14774,14 +14774,14 @@
         <v>256</v>
       </c>
       <c r="G113" s="9" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="H113" s="9"/>
       <c r="I113" s="10" t="s">
         <v>257</v>
       </c>
       <c r="J113" s="26" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="K113" s="9"/>
     </row>
@@ -14805,14 +14805,14 @@
         <v>260</v>
       </c>
       <c r="G114" s="9" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="H114" s="9"/>
       <c r="I114" s="10" t="s">
         <v>261</v>
       </c>
       <c r="J114" s="26" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="K114" s="9"/>
     </row>
@@ -14827,7 +14827,7 @@
         <v>263</v>
       </c>
       <c r="D115" s="9" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="E115" s="9" t="s">
         <v>14</v>
@@ -14836,14 +14836,14 @@
         <v>265</v>
       </c>
       <c r="G115" s="9" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="H115" s="9"/>
       <c r="I115" s="11" t="s">
         <v>266</v>
       </c>
       <c r="J115" s="26" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="K115" s="9"/>
     </row>
@@ -14858,7 +14858,7 @@
         <v>267</v>
       </c>
       <c r="D116" s="9" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="E116" s="9" t="s">
         <v>25</v>
@@ -14867,14 +14867,14 @@
         <v>268</v>
       </c>
       <c r="G116" s="9" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="H116" s="9"/>
       <c r="I116" s="11" t="s">
         <v>269</v>
       </c>
       <c r="J116" s="26" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="K116" s="9"/>
     </row>
@@ -14889,7 +14889,7 @@
         <v>270</v>
       </c>
       <c r="D117" s="9" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="E117" s="9" t="s">
         <v>25</v>
@@ -14898,14 +14898,14 @@
         <v>271</v>
       </c>
       <c r="G117" s="9" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="H117" s="9"/>
       <c r="I117" s="11" t="s">
         <v>272</v>
       </c>
       <c r="J117" s="26" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="K117" s="9"/>
     </row>
@@ -14917,26 +14917,26 @@
         <v>262</v>
       </c>
       <c r="C118" s="9" t="s">
+        <v>832</v>
+      </c>
+      <c r="D118" s="9" t="s">
+        <v>410</v>
+      </c>
+      <c r="E118" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F118" s="9" t="s">
         <v>833</v>
       </c>
-      <c r="D118" s="9" t="s">
-        <v>411</v>
-      </c>
-      <c r="E118" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="F118" s="9" t="s">
+      <c r="G118" s="9" t="s">
         <v>834</v>
-      </c>
-      <c r="G118" s="9" t="s">
-        <v>835</v>
       </c>
       <c r="H118" s="9"/>
       <c r="I118" s="28" t="s">
+        <v>835</v>
+      </c>
+      <c r="J118" s="26" t="s">
         <v>836</v>
-      </c>
-      <c r="J118" s="26" t="s">
-        <v>837</v>
       </c>
       <c r="K118" s="9"/>
     </row>
@@ -14948,7 +14948,7 @@
         <v>262</v>
       </c>
       <c r="C119" s="9" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D119" s="9" t="s">
         <v>117</v>
@@ -14957,17 +14957,17 @@
         <v>25</v>
       </c>
       <c r="F119" s="9" t="s">
+        <v>819</v>
+      </c>
+      <c r="G119" s="9" t="s">
         <v>820</v>
-      </c>
-      <c r="G119" s="9" t="s">
-        <v>821</v>
       </c>
       <c r="H119" s="9"/>
       <c r="I119" s="28" t="s">
+        <v>821</v>
+      </c>
+      <c r="J119" s="26" t="s">
         <v>822</v>
-      </c>
-      <c r="J119" s="26" t="s">
-        <v>823</v>
       </c>
       <c r="K119" s="9"/>
     </row>
@@ -14979,26 +14979,26 @@
         <v>262</v>
       </c>
       <c r="C120" s="9" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="D120" s="9" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="E120" s="9" t="s">
         <v>25</v>
       </c>
       <c r="F120" s="9" t="s">
-        <v>948</v>
+        <v>946</v>
       </c>
       <c r="G120" s="9" t="s">
-        <v>949</v>
+        <v>947</v>
       </c>
       <c r="H120" s="9"/>
       <c r="I120" s="28" t="s">
-        <v>950</v>
+        <v>948</v>
       </c>
       <c r="J120" s="26" t="s">
-        <v>951</v>
+        <v>949</v>
       </c>
       <c r="K120" s="9"/>
     </row>
@@ -15010,7 +15010,7 @@
         <v>262</v>
       </c>
       <c r="C121" s="9" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="D121" s="9" t="s">
         <v>117</v>
@@ -15019,17 +15019,17 @@
         <v>25</v>
       </c>
       <c r="F121" s="9" t="s">
+        <v>823</v>
+      </c>
+      <c r="G121" s="9" t="s">
         <v>824</v>
-      </c>
-      <c r="G121" s="9" t="s">
-        <v>825</v>
       </c>
       <c r="H121" s="9"/>
       <c r="I121" s="28" t="s">
+        <v>825</v>
+      </c>
+      <c r="J121" s="26" t="s">
         <v>826</v>
-      </c>
-      <c r="J121" s="26" t="s">
-        <v>827</v>
       </c>
       <c r="K121" s="9"/>
     </row>
@@ -15044,7 +15044,7 @@
         <v>273</v>
       </c>
       <c r="D122" s="9" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="E122" s="9" t="s">
         <v>25</v>
@@ -15053,14 +15053,14 @@
         <v>274</v>
       </c>
       <c r="G122" s="9" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H122" s="9"/>
       <c r="I122" s="11" t="s">
         <v>275</v>
       </c>
       <c r="J122" s="26" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="K122" s="9"/>
     </row>
@@ -15072,7 +15072,7 @@
         <v>262</v>
       </c>
       <c r="C123" s="9" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="D123" s="9" t="s">
         <v>55</v>
@@ -15081,17 +15081,17 @@
         <v>14</v>
       </c>
       <c r="F123" s="9" t="s">
-        <v>952</v>
+        <v>950</v>
       </c>
       <c r="G123" s="9" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="H123" s="9"/>
       <c r="I123" s="28" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
       <c r="J123" s="26" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
       <c r="K123" s="9"/>
     </row>
@@ -15103,7 +15103,7 @@
         <v>262</v>
       </c>
       <c r="C124" s="9" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="D124" s="9" t="s">
         <v>398</v>
@@ -15112,17 +15112,17 @@
         <v>25</v>
       </c>
       <c r="F124" s="9" t="s">
+        <v>755</v>
+      </c>
+      <c r="G124" s="9" t="s">
         <v>756</v>
-      </c>
-      <c r="G124" s="9" t="s">
-        <v>757</v>
       </c>
       <c r="H124" s="9"/>
       <c r="I124" s="28" t="s">
+        <v>757</v>
+      </c>
+      <c r="J124" s="26" t="s">
         <v>758</v>
-      </c>
-      <c r="J124" s="26" t="s">
-        <v>759</v>
       </c>
       <c r="K124" s="9"/>
     </row>
@@ -15146,11 +15146,11 @@
         <v>277</v>
       </c>
       <c r="G125" s="9" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="H125" s="9"/>
       <c r="I125" s="11" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="J125" s="26"/>
       <c r="K125" s="9"/>
@@ -15160,10 +15160,10 @@
         <v>132</v>
       </c>
       <c r="B126" s="9" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="C126" s="9" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="D126" s="9" t="s">
         <v>398</v>
@@ -15172,17 +15172,17 @@
         <v>14</v>
       </c>
       <c r="F126" s="9" t="s">
+        <v>954</v>
+      </c>
+      <c r="G126" s="9" t="s">
         <v>956</v>
-      </c>
-      <c r="G126" s="9" t="s">
-        <v>958</v>
       </c>
       <c r="H126" s="9"/>
       <c r="I126" s="28" t="s">
+        <v>955</v>
+      </c>
+      <c r="J126" s="26" t="s">
         <v>957</v>
-      </c>
-      <c r="J126" s="26" t="s">
-        <v>959</v>
       </c>
       <c r="K126" s="9"/>
     </row>
@@ -15191,10 +15191,10 @@
         <v>132</v>
       </c>
       <c r="B127" s="9" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="C127" s="9" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="D127" s="9" t="s">
         <v>398</v>
@@ -15203,17 +15203,17 @@
         <v>14</v>
       </c>
       <c r="F127" s="9" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
       <c r="G127" s="9" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
       <c r="H127" s="9"/>
       <c r="I127" s="28" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="J127" s="26" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
       <c r="K127" s="9"/>
     </row>
@@ -15222,10 +15222,10 @@
         <v>278</v>
       </c>
       <c r="B128" s="14" t="s">
+        <v>623</v>
+      </c>
+      <c r="C128" s="14" t="s">
         <v>624</v>
-      </c>
-      <c r="C128" s="14" t="s">
-        <v>625</v>
       </c>
       <c r="D128" s="14" t="s">
         <v>157</v>
@@ -15234,17 +15234,17 @@
         <v>25</v>
       </c>
       <c r="F128" s="14" t="s">
+        <v>625</v>
+      </c>
+      <c r="G128" s="14" t="s">
         <v>626</v>
-      </c>
-      <c r="G128" s="14" t="s">
-        <v>627</v>
       </c>
       <c r="H128" s="14"/>
       <c r="I128" s="16" t="s">
+        <v>627</v>
+      </c>
+      <c r="J128" s="17" t="s">
         <v>628</v>
-      </c>
-      <c r="J128" s="17" t="s">
-        <v>629</v>
       </c>
       <c r="K128" s="14"/>
     </row>
@@ -15253,29 +15253,29 @@
         <v>278</v>
       </c>
       <c r="B129" s="14" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="C129" s="14" t="s">
+        <v>629</v>
+      </c>
+      <c r="D129" s="14" t="s">
+        <v>410</v>
+      </c>
+      <c r="E129" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="F129" s="14" t="s">
         <v>630</v>
       </c>
-      <c r="D129" s="14" t="s">
-        <v>411</v>
-      </c>
-      <c r="E129" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="F129" s="14" t="s">
+      <c r="G129" s="14" t="s">
         <v>631</v>
-      </c>
-      <c r="G129" s="14" t="s">
-        <v>632</v>
       </c>
       <c r="H129" s="14"/>
       <c r="I129" s="16" t="s">
+        <v>632</v>
+      </c>
+      <c r="J129" s="17" t="s">
         <v>633</v>
-      </c>
-      <c r="J129" s="17" t="s">
-        <v>634</v>
       </c>
       <c r="K129" s="14"/>
     </row>
@@ -15284,26 +15284,26 @@
         <v>278</v>
       </c>
       <c r="B130" s="14" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="C130" s="14" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="D130" s="14" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="E130" s="14" t="s">
         <v>25</v>
       </c>
       <c r="F130" s="14" t="s">
+        <v>965</v>
+      </c>
+      <c r="G130" s="14" t="s">
         <v>967</v>
-      </c>
-      <c r="G130" s="14" t="s">
-        <v>969</v>
       </c>
       <c r="H130" s="14"/>
       <c r="I130" s="29" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
       <c r="J130" s="17"/>
       <c r="K130" s="14"/>
@@ -15313,26 +15313,26 @@
         <v>278</v>
       </c>
       <c r="B131" s="14" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="C131" s="14" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="D131" s="14" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="E131" s="14" t="s">
         <v>25</v>
       </c>
       <c r="F131" s="14" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
       <c r="G131" s="14" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
       <c r="H131" s="14"/>
       <c r="I131" s="29" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
       <c r="J131" s="17"/>
       <c r="K131" s="14"/>
@@ -15345,7 +15345,7 @@
         <v>279</v>
       </c>
       <c r="C132" s="14" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="D132" s="14" t="s">
         <v>47</v>
@@ -15354,17 +15354,17 @@
         <v>25</v>
       </c>
       <c r="F132" s="14" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
       <c r="G132" s="14" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
       <c r="H132" s="14"/>
       <c r="I132" s="29" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
       <c r="J132" s="17" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
       <c r="K132" s="14"/>
     </row>
@@ -15376,7 +15376,7 @@
         <v>279</v>
       </c>
       <c r="C133" s="14" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="D133" s="14" t="s">
         <v>47</v>
@@ -15385,17 +15385,17 @@
         <v>14</v>
       </c>
       <c r="F133" s="14" t="s">
+        <v>635</v>
+      </c>
+      <c r="G133" s="14" t="s">
         <v>636</v>
-      </c>
-      <c r="G133" s="14" t="s">
-        <v>637</v>
       </c>
       <c r="H133" s="14"/>
       <c r="I133" s="15" t="s">
+        <v>637</v>
+      </c>
+      <c r="J133" s="17" t="s">
         <v>638</v>
-      </c>
-      <c r="J133" s="17" t="s">
-        <v>639</v>
       </c>
       <c r="K133" s="14"/>
     </row>
@@ -15407,7 +15407,7 @@
         <v>279</v>
       </c>
       <c r="C134" s="14" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="D134" s="14" t="s">
         <v>157</v>
@@ -15416,17 +15416,17 @@
         <v>25</v>
       </c>
       <c r="F134" s="14" t="s">
+        <v>640</v>
+      </c>
+      <c r="G134" s="14" t="s">
         <v>641</v>
-      </c>
-      <c r="G134" s="14" t="s">
-        <v>642</v>
       </c>
       <c r="H134" s="14"/>
       <c r="I134" s="15" t="s">
+        <v>642</v>
+      </c>
+      <c r="J134" s="17" t="s">
         <v>643</v>
-      </c>
-      <c r="J134" s="17" t="s">
-        <v>644</v>
       </c>
       <c r="K134" s="14"/>
     </row>
@@ -15438,26 +15438,26 @@
         <v>279</v>
       </c>
       <c r="C135" s="14" t="s">
+        <v>644</v>
+      </c>
+      <c r="D135" s="14" t="s">
+        <v>410</v>
+      </c>
+      <c r="E135" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="F135" s="14" t="s">
         <v>645</v>
       </c>
-      <c r="D135" s="14" t="s">
-        <v>411</v>
-      </c>
-      <c r="E135" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="F135" s="14" t="s">
+      <c r="G135" s="14" t="s">
         <v>646</v>
-      </c>
-      <c r="G135" s="14" t="s">
-        <v>647</v>
       </c>
       <c r="H135" s="14"/>
       <c r="I135" s="15" t="s">
+        <v>647</v>
+      </c>
+      <c r="J135" s="17" t="s">
         <v>648</v>
-      </c>
-      <c r="J135" s="17" t="s">
-        <v>649</v>
       </c>
       <c r="K135" s="14"/>
     </row>
@@ -15478,14 +15478,14 @@
         <v>14</v>
       </c>
       <c r="F136" s="14" t="s">
+        <v>649</v>
+      </c>
+      <c r="G136" s="14" t="s">
         <v>650</v>
-      </c>
-      <c r="G136" s="14" t="s">
-        <v>651</v>
       </c>
       <c r="H136" s="14"/>
       <c r="I136" s="15" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="J136" s="17"/>
       <c r="K136" s="14"/>
@@ -15501,23 +15501,23 @@
         <v>87</v>
       </c>
       <c r="D137" s="14" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="E137" s="14" t="s">
         <v>25</v>
       </c>
       <c r="F137" s="14" t="s">
-        <v>977</v>
+        <v>975</v>
       </c>
       <c r="G137" s="14" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
       <c r="H137" s="14"/>
       <c r="I137" s="29" t="s">
-        <v>979</v>
+        <v>977</v>
       </c>
       <c r="J137" s="17" t="s">
-        <v>980</v>
+        <v>978</v>
       </c>
       <c r="K137" s="14"/>
     </row>
@@ -15541,14 +15541,14 @@
         <v>281</v>
       </c>
       <c r="G138" s="14" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="H138" s="14"/>
       <c r="I138" s="15" t="s">
         <v>282</v>
       </c>
       <c r="J138" s="17" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="K138" s="14"/>
     </row>
@@ -15563,7 +15563,7 @@
         <v>283</v>
       </c>
       <c r="D139" s="14" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="E139" s="14" t="s">
         <v>25</v>
@@ -15572,14 +15572,14 @@
         <v>284</v>
       </c>
       <c r="G139" s="14" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="H139" s="14"/>
       <c r="I139" s="15" t="s">
         <v>285</v>
       </c>
       <c r="J139" s="17" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="K139" s="14"/>
     </row>
@@ -15594,7 +15594,7 @@
         <v>286</v>
       </c>
       <c r="D140" s="14" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="E140" s="14" t="s">
         <v>14</v>
@@ -15603,14 +15603,14 @@
         <v>287</v>
       </c>
       <c r="G140" s="14" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="H140" s="14"/>
       <c r="I140" s="16" t="s">
         <v>288</v>
       </c>
       <c r="J140" s="17" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="K140" s="14"/>
     </row>
@@ -15634,14 +15634,14 @@
         <v>290</v>
       </c>
       <c r="G141" s="14" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="H141" s="14"/>
       <c r="I141" s="16" t="s">
         <v>291</v>
       </c>
       <c r="J141" s="17" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="K141" s="14"/>
     </row>
@@ -15665,14 +15665,14 @@
         <v>293</v>
       </c>
       <c r="G142" s="14" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="H142" s="14"/>
       <c r="I142" s="16" t="s">
         <v>294</v>
       </c>
       <c r="J142" s="17" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="K142" s="14"/>
     </row>
@@ -15687,7 +15687,7 @@
         <v>295</v>
       </c>
       <c r="D143" s="14" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="E143" s="14" t="s">
         <v>25</v>
@@ -15696,14 +15696,14 @@
         <v>296</v>
       </c>
       <c r="G143" s="14" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="H143" s="14"/>
       <c r="I143" s="16" t="s">
         <v>297</v>
       </c>
       <c r="J143" s="17" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="K143" s="14"/>
     </row>
@@ -15718,7 +15718,7 @@
         <v>298</v>
       </c>
       <c r="D144" s="14" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="E144" s="14" t="s">
         <v>25</v>
@@ -15727,14 +15727,14 @@
         <v>299</v>
       </c>
       <c r="G144" s="14" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="H144" s="14"/>
       <c r="I144" s="16" t="s">
         <v>300</v>
       </c>
       <c r="J144" s="17" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="K144" s="14"/>
     </row>
@@ -15755,17 +15755,17 @@
         <v>25</v>
       </c>
       <c r="F145" s="14" t="s">
+        <v>759</v>
+      </c>
+      <c r="G145" s="14" t="s">
         <v>760</v>
-      </c>
-      <c r="G145" s="14" t="s">
-        <v>761</v>
       </c>
       <c r="H145" s="14"/>
       <c r="I145" s="29" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="J145" s="17" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="K145" s="14"/>
     </row>
@@ -15777,7 +15777,7 @@
         <v>279</v>
       </c>
       <c r="C146" s="14" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="D146" s="14" t="s">
         <v>55</v>
@@ -15786,17 +15786,17 @@
         <v>25</v>
       </c>
       <c r="F146" s="14" t="s">
+        <v>867</v>
+      </c>
+      <c r="G146" s="14" t="s">
         <v>868</v>
-      </c>
-      <c r="G146" s="14" t="s">
-        <v>869</v>
       </c>
       <c r="H146" s="14"/>
       <c r="I146" s="29" t="s">
+        <v>869</v>
+      </c>
+      <c r="J146" s="17" t="s">
         <v>870</v>
-      </c>
-      <c r="J146" s="17" t="s">
-        <v>871</v>
       </c>
       <c r="K146" s="14"/>
     </row>
@@ -15808,7 +15808,7 @@
         <v>279</v>
       </c>
       <c r="C147" s="14" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="D147" s="14" t="s">
         <v>398</v>
@@ -15817,17 +15817,17 @@
         <v>14</v>
       </c>
       <c r="F147" s="14" t="s">
+        <v>979</v>
+      </c>
+      <c r="G147" s="14" t="s">
         <v>981</v>
-      </c>
-      <c r="G147" s="14" t="s">
-        <v>983</v>
       </c>
       <c r="H147" s="14"/>
       <c r="I147" s="29" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
       <c r="J147" s="17" t="s">
-        <v>985</v>
+        <v>983</v>
       </c>
       <c r="K147" s="14"/>
     </row>
@@ -15839,7 +15839,7 @@
         <v>279</v>
       </c>
       <c r="C148" s="14" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="D148" s="14" t="s">
         <v>398</v>
@@ -15848,17 +15848,17 @@
         <v>14</v>
       </c>
       <c r="F148" s="14" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
       <c r="G148" s="14" t="s">
-        <v>986</v>
+        <v>984</v>
       </c>
       <c r="H148" s="14"/>
       <c r="I148" s="29" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
       <c r="J148" s="17" t="s">
-        <v>988</v>
+        <v>986</v>
       </c>
       <c r="K148" s="14"/>
     </row>
@@ -15870,26 +15870,26 @@
         <v>279</v>
       </c>
       <c r="C149" s="14" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="D149" s="14" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="E149" s="14" t="s">
         <v>14</v>
       </c>
       <c r="F149" s="14" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
       <c r="G149" s="14" t="s">
-        <v>990</v>
+        <v>988</v>
       </c>
       <c r="H149" s="14"/>
       <c r="I149" s="29" t="s">
-        <v>991</v>
+        <v>989</v>
       </c>
       <c r="J149" s="17" t="s">
-        <v>992</v>
+        <v>990</v>
       </c>
       <c r="K149" s="14"/>
     </row>
@@ -15913,14 +15913,14 @@
         <v>303</v>
       </c>
       <c r="G150" s="14" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="H150" s="14"/>
       <c r="I150" s="15" t="s">
         <v>304</v>
       </c>
       <c r="J150" s="17" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="K150" s="14"/>
     </row>
@@ -15941,17 +15941,17 @@
         <v>14</v>
       </c>
       <c r="F151" s="14" t="s">
+        <v>668</v>
+      </c>
+      <c r="G151" s="14" t="s">
         <v>669</v>
-      </c>
-      <c r="G151" s="14" t="s">
-        <v>670</v>
       </c>
       <c r="H151" s="14"/>
       <c r="I151" s="15" t="s">
+        <v>670</v>
+      </c>
+      <c r="J151" s="17" t="s">
         <v>671</v>
-      </c>
-      <c r="J151" s="17" t="s">
-        <v>672</v>
       </c>
       <c r="K151" s="14"/>
     </row>
@@ -15966,7 +15966,7 @@
         <v>306</v>
       </c>
       <c r="D152" s="14" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="E152" s="14" t="s">
         <v>25</v>
@@ -15975,14 +15975,14 @@
         <v>307</v>
       </c>
       <c r="G152" s="14" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="H152" s="14"/>
       <c r="I152" s="15" t="s">
         <v>308</v>
       </c>
       <c r="J152" s="17" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="K152" s="14"/>
     </row>
@@ -15997,7 +15997,7 @@
         <v>298</v>
       </c>
       <c r="D153" s="14" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="E153" s="14" t="s">
         <v>25</v>
@@ -16006,14 +16006,14 @@
         <v>309</v>
       </c>
       <c r="G153" s="14" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="H153" s="14"/>
       <c r="I153" s="15" t="s">
         <v>310</v>
       </c>
       <c r="J153" s="17" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="K153" s="14"/>
     </row>
@@ -16037,14 +16037,14 @@
         <v>313</v>
       </c>
       <c r="G154" s="14" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="H154" s="14"/>
       <c r="I154" s="15" t="s">
         <v>314</v>
       </c>
       <c r="J154" s="17" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="K154" s="14"/>
     </row>
@@ -16056,26 +16056,26 @@
         <v>305</v>
       </c>
       <c r="C155" s="14" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="D155" s="14" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="E155" s="14" t="s">
         <v>25</v>
       </c>
       <c r="F155" s="14" t="s">
+        <v>762</v>
+      </c>
+      <c r="G155" s="14" t="s">
         <v>763</v>
-      </c>
-      <c r="G155" s="14" t="s">
-        <v>764</v>
       </c>
       <c r="H155" s="14"/>
       <c r="I155" s="29" t="s">
+        <v>764</v>
+      </c>
+      <c r="J155" s="17" t="s">
         <v>765</v>
-      </c>
-      <c r="J155" s="17" t="s">
-        <v>766</v>
       </c>
       <c r="K155" s="14"/>
     </row>
@@ -16090,7 +16090,7 @@
         <v>316</v>
       </c>
       <c r="D156" s="14" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="E156" s="14" t="s">
         <v>25</v>
@@ -16099,14 +16099,14 @@
         <v>317</v>
       </c>
       <c r="G156" s="14" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="H156" s="14"/>
       <c r="I156" s="15" t="s">
         <v>318</v>
       </c>
       <c r="J156" s="17" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="K156" s="14"/>
     </row>
@@ -16118,7 +16118,7 @@
         <v>315</v>
       </c>
       <c r="C157" s="14" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="D157" s="14" t="s">
         <v>55</v>
@@ -16127,17 +16127,17 @@
         <v>14</v>
       </c>
       <c r="F157" s="14" t="s">
+        <v>766</v>
+      </c>
+      <c r="G157" s="14" t="s">
         <v>767</v>
-      </c>
-      <c r="G157" s="14" t="s">
-        <v>768</v>
       </c>
       <c r="H157" s="14"/>
       <c r="I157" s="29" t="s">
+        <v>768</v>
+      </c>
+      <c r="J157" s="17" t="s">
         <v>769</v>
-      </c>
-      <c r="J157" s="17" t="s">
-        <v>770</v>
       </c>
       <c r="K157" s="14"/>
     </row>
@@ -16149,26 +16149,26 @@
         <v>315</v>
       </c>
       <c r="C158" s="14" t="s">
+        <v>790</v>
+      </c>
+      <c r="D158" s="14" t="s">
+        <v>410</v>
+      </c>
+      <c r="E158" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="F158" s="14" t="s">
         <v>791</v>
       </c>
-      <c r="D158" s="14" t="s">
-        <v>411</v>
-      </c>
-      <c r="E158" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="F158" s="14" t="s">
+      <c r="G158" s="14" t="s">
         <v>792</v>
-      </c>
-      <c r="G158" s="14" t="s">
-        <v>793</v>
       </c>
       <c r="H158" s="14"/>
       <c r="I158" s="29" t="s">
+        <v>793</v>
+      </c>
+      <c r="J158" s="17" t="s">
         <v>794</v>
-      </c>
-      <c r="J158" s="17" t="s">
-        <v>795</v>
       </c>
       <c r="K158" s="14"/>
     </row>
@@ -16183,23 +16183,23 @@
         <v>320</v>
       </c>
       <c r="D159" s="14" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="E159" s="14" t="s">
         <v>14</v>
       </c>
       <c r="F159" s="14" t="s">
+        <v>680</v>
+      </c>
+      <c r="G159" s="14" t="s">
         <v>681</v>
-      </c>
-      <c r="G159" s="14" t="s">
-        <v>682</v>
       </c>
       <c r="H159" s="14"/>
       <c r="I159" s="16" t="s">
+        <v>682</v>
+      </c>
+      <c r="J159" s="17" t="s">
         <v>683</v>
-      </c>
-      <c r="J159" s="17" t="s">
-        <v>684</v>
       </c>
       <c r="K159" s="14"/>
     </row>
@@ -16214,7 +16214,7 @@
         <v>323</v>
       </c>
       <c r="D160" s="14" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="E160" s="14" t="s">
         <v>14</v>
@@ -16223,14 +16223,14 @@
         <v>324</v>
       </c>
       <c r="G160" s="14" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="H160" s="14"/>
       <c r="I160" s="15" t="s">
         <v>325</v>
       </c>
       <c r="J160" s="17" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="K160" s="14"/>
     </row>
@@ -16242,10 +16242,10 @@
         <v>319</v>
       </c>
       <c r="C161" s="14" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="D161" s="14" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="E161" s="14" t="s">
         <v>14</v>
@@ -16254,14 +16254,14 @@
         <v>327</v>
       </c>
       <c r="G161" s="14" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="H161" s="14"/>
       <c r="I161" s="15" t="s">
         <v>328</v>
       </c>
       <c r="J161" s="17" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="K161" s="14"/>
     </row>
@@ -16276,7 +16276,7 @@
         <v>167</v>
       </c>
       <c r="D162" s="14" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="E162" s="14" t="s">
         <v>25</v>
@@ -16285,14 +16285,14 @@
         <v>330</v>
       </c>
       <c r="G162" s="14" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="H162" s="14"/>
       <c r="I162" s="15" t="s">
         <v>331</v>
       </c>
       <c r="J162" s="17" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="K162" s="14"/>
     </row>
@@ -16307,7 +16307,7 @@
         <v>332</v>
       </c>
       <c r="D163" s="14" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="E163" s="14" t="s">
         <v>14</v>
@@ -16316,14 +16316,14 @@
         <v>333</v>
       </c>
       <c r="G163" s="14" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="H163" s="14"/>
       <c r="I163" s="15" t="s">
         <v>334</v>
       </c>
       <c r="J163" s="17" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="K163" s="14"/>
     </row>
@@ -16347,14 +16347,14 @@
         <v>336</v>
       </c>
       <c r="G164" s="14" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="H164" s="14"/>
       <c r="I164" s="15" t="s">
         <v>337</v>
       </c>
       <c r="J164" s="17" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="K164" s="14"/>
     </row>
@@ -16378,14 +16378,14 @@
         <v>339</v>
       </c>
       <c r="G165" s="14" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="H165" s="14"/>
       <c r="I165" s="15" t="s">
         <v>340</v>
       </c>
       <c r="J165" s="17" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="K165" s="14"/>
     </row>
@@ -16409,14 +16409,14 @@
         <v>343</v>
       </c>
       <c r="G166" s="14" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="H166" s="14"/>
       <c r="I166" s="15" t="s">
         <v>344</v>
       </c>
       <c r="J166" s="17" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="K166" s="14"/>
     </row>
@@ -16440,14 +16440,14 @@
         <v>346</v>
       </c>
       <c r="G167" s="14" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="H167" s="14"/>
       <c r="I167" s="15" t="s">
         <v>347</v>
       </c>
       <c r="J167" s="17" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="K167" s="14"/>
     </row>
@@ -16471,14 +16471,14 @@
         <v>350</v>
       </c>
       <c r="G168" s="14" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="H168" s="14"/>
       <c r="I168" s="29" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="J168" s="17" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="K168" s="14"/>
     </row>
@@ -16490,10 +16490,10 @@
         <v>348</v>
       </c>
       <c r="C169" s="14" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="D169" s="14" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="E169" s="14" t="s">
         <v>25</v>
@@ -16502,14 +16502,14 @@
         <v>353</v>
       </c>
       <c r="G169" s="14" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="H169" s="14"/>
       <c r="I169" s="16" t="s">
         <v>354</v>
       </c>
       <c r="J169" s="17" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="K169" s="14"/>
     </row>
@@ -16533,14 +16533,14 @@
         <v>356</v>
       </c>
       <c r="G170" s="14" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="H170" s="14"/>
       <c r="I170" s="15" t="s">
         <v>357</v>
       </c>
       <c r="J170" s="17" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="K170" s="14"/>
     </row>
@@ -16555,7 +16555,7 @@
         <v>358</v>
       </c>
       <c r="D171" s="14" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="E171" s="14" t="s">
         <v>25</v>
@@ -16564,14 +16564,14 @@
         <v>359</v>
       </c>
       <c r="G171" s="14" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="H171" s="14"/>
       <c r="I171" s="15" t="s">
         <v>360</v>
       </c>
       <c r="J171" s="17" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="K171" s="14"/>
     </row>
@@ -16583,7 +16583,7 @@
         <v>355</v>
       </c>
       <c r="C172" s="14" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="D172" s="14" t="s">
         <v>51</v>
@@ -16592,17 +16592,17 @@
         <v>39</v>
       </c>
       <c r="F172" s="14" t="s">
+        <v>770</v>
+      </c>
+      <c r="G172" s="14" t="s">
         <v>771</v>
-      </c>
-      <c r="G172" s="14" t="s">
-        <v>772</v>
       </c>
       <c r="H172" s="14"/>
       <c r="I172" s="29" t="s">
+        <v>772</v>
+      </c>
+      <c r="J172" s="17" t="s">
         <v>773</v>
-      </c>
-      <c r="J172" s="17" t="s">
-        <v>774</v>
       </c>
       <c r="K172" s="14"/>
     </row>
@@ -16614,26 +16614,26 @@
         <v>355</v>
       </c>
       <c r="C173" s="14" t="s">
+        <v>886</v>
+      </c>
+      <c r="D173" s="14" t="s">
+        <v>410</v>
+      </c>
+      <c r="E173" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="F173" s="14" t="s">
         <v>887</v>
       </c>
-      <c r="D173" s="14" t="s">
-        <v>411</v>
-      </c>
-      <c r="E173" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="F173" s="14" t="s">
+      <c r="G173" s="14" t="s">
         <v>888</v>
-      </c>
-      <c r="G173" s="14" t="s">
-        <v>889</v>
       </c>
       <c r="H173" s="14"/>
       <c r="I173" s="29" t="s">
+        <v>889</v>
+      </c>
+      <c r="J173" s="17" t="s">
         <v>890</v>
-      </c>
-      <c r="J173" s="17" t="s">
-        <v>891</v>
       </c>
       <c r="K173" s="14"/>
     </row>
@@ -16642,29 +16642,29 @@
         <v>278</v>
       </c>
       <c r="B174" s="14" t="s">
+        <v>710</v>
+      </c>
+      <c r="C174" s="17" t="s">
         <v>711</v>
       </c>
-      <c r="C174" s="17" t="s">
+      <c r="D174" s="14" t="s">
+        <v>410</v>
+      </c>
+      <c r="E174" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="F174" s="14" t="s">
         <v>712</v>
       </c>
-      <c r="D174" s="14" t="s">
-        <v>411</v>
-      </c>
-      <c r="E174" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="F174" s="14" t="s">
+      <c r="G174" s="14" t="s">
         <v>713</v>
-      </c>
-      <c r="G174" s="14" t="s">
-        <v>714</v>
       </c>
       <c r="H174" s="14"/>
       <c r="I174" s="15" t="s">
+        <v>714</v>
+      </c>
+      <c r="J174" s="17" t="s">
         <v>715</v>
-      </c>
-      <c r="J174" s="17" t="s">
-        <v>716</v>
       </c>
       <c r="K174" s="14"/>
     </row>
@@ -16679,7 +16679,7 @@
         <v>362</v>
       </c>
       <c r="D175" s="14" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="E175" s="14" t="s">
         <v>14</v>
@@ -16688,45 +16688,45 @@
         <v>363</v>
       </c>
       <c r="G175" s="14" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="H175" s="14"/>
       <c r="I175" s="15" t="s">
         <v>364</v>
       </c>
       <c r="J175" s="17" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="K175" s="14"/>
     </row>
     <row r="176" spans="1:11" ht="15.75" customHeight="1">
       <c r="A176" s="14" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="B176" s="14" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="C176" s="14" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="D176" s="14" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="E176" s="14" t="s">
         <v>14</v>
       </c>
       <c r="F176" s="14" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="G176" s="14" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="H176" s="14"/>
       <c r="I176" s="29" t="s">
+        <v>778</v>
+      </c>
+      <c r="J176" s="17" t="s">
         <v>779</v>
-      </c>
-      <c r="J176" s="17" t="s">
-        <v>780</v>
       </c>
       <c r="K176" s="14"/>
     </row>

--- a/docs/香港素食餐廳大全.xlsx
+++ b/docs/香港素食餐廳大全.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10910"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tim/_Python_OpenAI/My-projects/7-hk-veg-map/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5829BBE0-1C21-7344-91CA-119E3A9D8577}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90ABCB5E-B67E-9C43-940C-5DD3FE845871}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10080" yWindow="500" windowWidth="17400" windowHeight="16160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10040" yWindow="500" windowWidth="17400" windowHeight="16160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="香港素食餐廳大全" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2222" uniqueCount="993">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2240" uniqueCount="1003">
   <si>
     <t>** 更新自: 13 Aug 2023 (deprecated, go to sheet 2 "hk_veg_restaurants_data instead")</t>
   </si>
@@ -3000,6 +3000,36 @@
   </si>
   <si>
     <t>22.286503012490105, 114.13286233595076</t>
+  </si>
+  <si>
+    <t>上善素餐廳</t>
+  </si>
+  <si>
+    <t>轉素快</t>
+  </si>
+  <si>
+    <t>北角錦屏街7-9號地舖</t>
+  </si>
+  <si>
+    <t>22.290752131681803, 114.20005369677503</t>
+  </si>
+  <si>
+    <t>https://www.openrice.com/zh/hongkong/r-%E4%B8%8A%E5%96%84%E7%B4%A0%E9%A4%90%E5%BB%B3-%E5%8C%97%E8%A7%92-%E7%B2%B5%E8%8F%9C-%E5%BB%A3%E6%9D%B1-%E7%B4%A0%E9%A3%9F-r563019</t>
+  </si>
+  <si>
+    <t>66832121</t>
+  </si>
+  <si>
+    <t>北角電氣道308號聯和大廈地下C4號舖</t>
+  </si>
+  <si>
+    <t>22.290431930432458, 114.19478194621597</t>
+  </si>
+  <si>
+    <t>https://www.openrice.com/zh/hongkong/r-%E8%BD%89%E7%B4%A0%E5%BF%AB-%E5%8C%97%E8%A7%92-%E6%B8%AF%E5%BC%8F-%E7%B4%A0%E9%A3%9F-r809041</t>
+  </si>
+  <si>
+    <t>67462803</t>
   </si>
 </sst>
 </file>
@@ -11268,10 +11298,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:K176"/>
+  <dimension ref="A1:K178"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="132" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView tabSelected="1" topLeftCell="F35" zoomScale="132" workbookViewId="0">
+      <selection activeCell="J50" sqref="J50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -12779,10 +12809,10 @@
         <v>10</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>121</v>
+        <v>993</v>
       </c>
       <c r="D49" s="5" t="s">
         <v>410</v>
@@ -12791,17 +12821,17 @@
         <v>25</v>
       </c>
       <c r="F49" s="5" t="s">
-        <v>122</v>
+        <v>995</v>
       </c>
       <c r="G49" s="5" t="s">
-        <v>487</v>
+        <v>996</v>
       </c>
       <c r="H49" s="5"/>
-      <c r="I49" s="6" t="s">
-        <v>123</v>
+      <c r="I49" s="24" t="s">
+        <v>997</v>
       </c>
       <c r="J49" s="25" t="s">
-        <v>488</v>
+        <v>998</v>
       </c>
       <c r="K49" s="5"/>
     </row>
@@ -12810,29 +12840,29 @@
         <v>10</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>125</v>
+        <v>994</v>
       </c>
       <c r="D50" s="5" t="s">
-        <v>47</v>
+        <v>117</v>
       </c>
       <c r="E50" s="5" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="F50" s="5" t="s">
-        <v>126</v>
+        <v>999</v>
       </c>
       <c r="G50" s="5" t="s">
-        <v>489</v>
+        <v>1000</v>
       </c>
       <c r="H50" s="5"/>
-      <c r="I50" s="6" t="s">
-        <v>127</v>
+      <c r="I50" s="24" t="s">
+        <v>1001</v>
       </c>
       <c r="J50" s="25" t="s">
-        <v>490</v>
+        <v>1002</v>
       </c>
       <c r="K50" s="5"/>
     </row>
@@ -12841,10 +12871,10 @@
         <v>10</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="D51" s="5" t="s">
         <v>410</v>
@@ -12853,81 +12883,81 @@
         <v>25</v>
       </c>
       <c r="F51" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="G51" s="5" t="s">
+        <v>487</v>
+      </c>
+      <c r="H51" s="5"/>
+      <c r="I51" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="J51" s="25" t="s">
+        <v>488</v>
+      </c>
+      <c r="K51" s="5"/>
+    </row>
+    <row r="52" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A52" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B52" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="C52" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="D52" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E52" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F52" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="G52" s="5" t="s">
+        <v>489</v>
+      </c>
+      <c r="H52" s="5"/>
+      <c r="I52" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="J52" s="25" t="s">
+        <v>490</v>
+      </c>
+      <c r="K52" s="5"/>
+    </row>
+    <row r="53" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A53" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B53" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="C53" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="D53" s="5" t="s">
+        <v>410</v>
+      </c>
+      <c r="E53" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F53" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="G51" s="5" t="s">
+      <c r="G53" s="5" t="s">
         <v>491</v>
       </c>
-      <c r="H51" s="5"/>
-      <c r="I51" s="7" t="s">
+      <c r="H53" s="5"/>
+      <c r="I53" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="J51" s="25" t="s">
+      <c r="J53" s="25" t="s">
         <v>492</v>
       </c>
-      <c r="K51" s="5"/>
-    </row>
-    <row r="52" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A52" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="B52" s="9" t="s">
-        <v>133</v>
-      </c>
-      <c r="C52" s="9" t="s">
-        <v>493</v>
-      </c>
-      <c r="D52" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="E52" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F52" s="9" t="s">
-        <v>494</v>
-      </c>
-      <c r="G52" s="9" t="s">
-        <v>495</v>
-      </c>
-      <c r="H52" s="9"/>
-      <c r="I52" s="10" t="s">
-        <v>496</v>
-      </c>
-      <c r="J52" s="26" t="s">
-        <v>497</v>
-      </c>
-      <c r="K52" s="9"/>
-    </row>
-    <row r="53" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A53" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="B53" s="9" t="s">
-        <v>133</v>
-      </c>
-      <c r="C53" s="9" t="s">
-        <v>904</v>
-      </c>
-      <c r="D53" s="9" t="s">
-        <v>410</v>
-      </c>
-      <c r="E53" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="F53" s="9" t="s">
-        <v>135</v>
-      </c>
-      <c r="G53" s="9" t="s">
-        <v>498</v>
-      </c>
-      <c r="H53" s="9"/>
-      <c r="I53" s="10" t="s">
-        <v>136</v>
-      </c>
-      <c r="J53" s="26" t="s">
-        <v>499</v>
-      </c>
-      <c r="K53" s="9"/>
+      <c r="K53" s="5"/>
     </row>
     <row r="54" spans="1:11" ht="15.75" customHeight="1">
       <c r="A54" s="9" t="s">
@@ -12937,26 +12967,26 @@
         <v>133</v>
       </c>
       <c r="C54" s="9" t="s">
-        <v>500</v>
+        <v>493</v>
       </c>
       <c r="D54" s="9" t="s">
-        <v>410</v>
+        <v>47</v>
       </c>
       <c r="E54" s="9" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="F54" s="9" t="s">
-        <v>501</v>
+        <v>494</v>
       </c>
       <c r="G54" s="9" t="s">
-        <v>502</v>
+        <v>495</v>
       </c>
       <c r="H54" s="9"/>
       <c r="I54" s="10" t="s">
-        <v>503</v>
+        <v>496</v>
       </c>
       <c r="J54" s="26" t="s">
-        <v>504</v>
+        <v>497</v>
       </c>
       <c r="K54" s="9"/>
     </row>
@@ -12968,26 +12998,26 @@
         <v>133</v>
       </c>
       <c r="C55" s="9" t="s">
-        <v>137</v>
+        <v>904</v>
       </c>
       <c r="D55" s="9" t="s">
-        <v>473</v>
+        <v>410</v>
       </c>
       <c r="E55" s="9" t="s">
         <v>25</v>
       </c>
       <c r="F55" s="9" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="G55" s="9" t="s">
-        <v>505</v>
+        <v>498</v>
       </c>
       <c r="H55" s="9"/>
       <c r="I55" s="10" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="J55" s="26" t="s">
-        <v>506</v>
+        <v>499</v>
       </c>
       <c r="K55" s="9"/>
     </row>
@@ -12999,26 +13029,26 @@
         <v>133</v>
       </c>
       <c r="C56" s="9" t="s">
-        <v>381</v>
+        <v>500</v>
       </c>
       <c r="D56" s="9" t="s">
-        <v>382</v>
+        <v>410</v>
       </c>
       <c r="E56" s="9" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="F56" s="9" t="s">
-        <v>507</v>
+        <v>501</v>
       </c>
       <c r="G56" s="9" t="s">
-        <v>781</v>
+        <v>502</v>
       </c>
       <c r="H56" s="9"/>
       <c r="I56" s="10" t="s">
-        <v>508</v>
+        <v>503</v>
       </c>
       <c r="J56" s="26" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="K56" s="9"/>
     </row>
@@ -13030,26 +13060,26 @@
         <v>133</v>
       </c>
       <c r="C57" s="9" t="s">
-        <v>907</v>
+        <v>137</v>
       </c>
       <c r="D57" s="9" t="s">
-        <v>75</v>
+        <v>473</v>
       </c>
       <c r="E57" s="9" t="s">
         <v>25</v>
       </c>
       <c r="F57" s="9" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="G57" s="9" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="H57" s="9"/>
-      <c r="I57" s="28" t="s">
-        <v>858</v>
+      <c r="I57" s="10" t="s">
+        <v>139</v>
       </c>
       <c r="J57" s="26" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="K57" s="9"/>
     </row>
@@ -13061,26 +13091,26 @@
         <v>133</v>
       </c>
       <c r="C58" s="9" t="s">
-        <v>906</v>
+        <v>381</v>
       </c>
       <c r="D58" s="9" t="s">
-        <v>75</v>
+        <v>382</v>
       </c>
       <c r="E58" s="9" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="F58" s="9" t="s">
-        <v>144</v>
+        <v>507</v>
       </c>
       <c r="G58" s="9" t="s">
-        <v>512</v>
+        <v>781</v>
       </c>
       <c r="H58" s="9"/>
-      <c r="I58" s="28" t="s">
-        <v>859</v>
+      <c r="I58" s="10" t="s">
+        <v>508</v>
       </c>
       <c r="J58" s="26" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="K58" s="9"/>
     </row>
@@ -13092,26 +13122,26 @@
         <v>133</v>
       </c>
       <c r="C59" s="9" t="s">
-        <v>146</v>
+        <v>907</v>
       </c>
       <c r="D59" s="9" t="s">
-        <v>514</v>
+        <v>75</v>
       </c>
       <c r="E59" s="9" t="s">
         <v>25</v>
       </c>
       <c r="F59" s="9" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="G59" s="9" t="s">
-        <v>515</v>
+        <v>510</v>
       </c>
       <c r="H59" s="9"/>
-      <c r="I59" s="11" t="s">
-        <v>149</v>
+      <c r="I59" s="28" t="s">
+        <v>858</v>
       </c>
       <c r="J59" s="26" t="s">
-        <v>516</v>
+        <v>511</v>
       </c>
       <c r="K59" s="9"/>
     </row>
@@ -13123,30 +13153,30 @@
         <v>133</v>
       </c>
       <c r="C60" s="9" t="s">
-        <v>842</v>
+        <v>906</v>
       </c>
       <c r="D60" s="9" t="s">
-        <v>410</v>
+        <v>75</v>
       </c>
       <c r="E60" s="9" t="s">
         <v>25</v>
       </c>
       <c r="F60" s="9" t="s">
-        <v>843</v>
+        <v>144</v>
       </c>
       <c r="G60" s="9" t="s">
-        <v>844</v>
+        <v>512</v>
       </c>
       <c r="H60" s="9"/>
       <c r="I60" s="28" t="s">
-        <v>845</v>
+        <v>859</v>
       </c>
       <c r="J60" s="26" t="s">
-        <v>846</v>
+        <v>513</v>
       </c>
       <c r="K60" s="9"/>
     </row>
-    <row r="61" spans="1:11" ht="13">
+    <row r="61" spans="1:11" ht="15.75" customHeight="1">
       <c r="A61" s="9" t="s">
         <v>132</v>
       </c>
@@ -13154,30 +13184,30 @@
         <v>133</v>
       </c>
       <c r="C61" s="9" t="s">
-        <v>909</v>
+        <v>146</v>
       </c>
       <c r="D61" s="9" t="s">
-        <v>55</v>
+        <v>514</v>
       </c>
       <c r="E61" s="9" t="s">
         <v>25</v>
       </c>
       <c r="F61" s="9" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="G61" s="9" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="H61" s="9"/>
-      <c r="I61" s="10" t="s">
-        <v>152</v>
+      <c r="I61" s="11" t="s">
+        <v>149</v>
       </c>
       <c r="J61" s="26" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="K61" s="9"/>
     </row>
-    <row r="62" spans="1:11" ht="13">
+    <row r="62" spans="1:11" ht="15.75" customHeight="1">
       <c r="A62" s="9" t="s">
         <v>132</v>
       </c>
@@ -13185,26 +13215,26 @@
         <v>133</v>
       </c>
       <c r="C62" s="9" t="s">
-        <v>153</v>
+        <v>842</v>
       </c>
       <c r="D62" s="9" t="s">
-        <v>75</v>
+        <v>410</v>
       </c>
       <c r="E62" s="9" t="s">
         <v>25</v>
       </c>
       <c r="F62" s="9" t="s">
-        <v>154</v>
+        <v>843</v>
       </c>
       <c r="G62" s="9" t="s">
-        <v>519</v>
+        <v>844</v>
       </c>
       <c r="H62" s="9"/>
-      <c r="I62" s="10" t="s">
-        <v>155</v>
+      <c r="I62" s="28" t="s">
+        <v>845</v>
       </c>
       <c r="J62" s="26" t="s">
-        <v>520</v>
+        <v>846</v>
       </c>
       <c r="K62" s="9"/>
     </row>
@@ -13216,26 +13246,26 @@
         <v>133</v>
       </c>
       <c r="C63" s="9" t="s">
-        <v>156</v>
+        <v>909</v>
       </c>
       <c r="D63" s="9" t="s">
-        <v>157</v>
+        <v>55</v>
       </c>
       <c r="E63" s="9" t="s">
         <v>25</v>
       </c>
       <c r="F63" s="9" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="G63" s="9" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="H63" s="9"/>
       <c r="I63" s="10" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="J63" s="26" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="K63" s="9"/>
     </row>
@@ -13247,26 +13277,26 @@
         <v>133</v>
       </c>
       <c r="C64" s="9" t="s">
-        <v>782</v>
+        <v>153</v>
       </c>
       <c r="D64" s="9" t="s">
-        <v>47</v>
+        <v>75</v>
       </c>
       <c r="E64" s="9" t="s">
         <v>25</v>
       </c>
       <c r="F64" s="9" t="s">
-        <v>795</v>
+        <v>154</v>
       </c>
       <c r="G64" s="9" t="s">
-        <v>796</v>
+        <v>519</v>
       </c>
       <c r="H64" s="9"/>
-      <c r="I64" s="28" t="s">
-        <v>797</v>
+      <c r="I64" s="10" t="s">
+        <v>155</v>
       </c>
       <c r="J64" s="26" t="s">
-        <v>798</v>
+        <v>520</v>
       </c>
       <c r="K64" s="9"/>
     </row>
@@ -13278,26 +13308,26 @@
         <v>133</v>
       </c>
       <c r="C65" s="9" t="s">
-        <v>783</v>
+        <v>156</v>
       </c>
       <c r="D65" s="9" t="s">
-        <v>410</v>
+        <v>157</v>
       </c>
       <c r="E65" s="9" t="s">
         <v>25</v>
       </c>
       <c r="F65" s="9" t="s">
-        <v>799</v>
+        <v>158</v>
       </c>
       <c r="G65" s="9" t="s">
-        <v>800</v>
+        <v>521</v>
       </c>
       <c r="H65" s="9"/>
-      <c r="I65" s="28" t="s">
-        <v>801</v>
+      <c r="I65" s="10" t="s">
+        <v>159</v>
       </c>
       <c r="J65" s="26" t="s">
-        <v>802</v>
+        <v>522</v>
       </c>
       <c r="K65" s="9"/>
     </row>
@@ -13309,26 +13339,26 @@
         <v>133</v>
       </c>
       <c r="C66" s="9" t="s">
-        <v>905</v>
+        <v>782</v>
       </c>
       <c r="D66" s="9" t="s">
-        <v>75</v>
+        <v>47</v>
       </c>
       <c r="E66" s="9" t="s">
         <v>25</v>
       </c>
       <c r="F66" s="9" t="s">
-        <v>931</v>
+        <v>795</v>
       </c>
       <c r="G66" s="9" t="s">
-        <v>932</v>
+        <v>796</v>
       </c>
       <c r="H66" s="9"/>
       <c r="I66" s="28" t="s">
-        <v>933</v>
+        <v>797</v>
       </c>
       <c r="J66" s="26" t="s">
-        <v>934</v>
+        <v>798</v>
       </c>
       <c r="K66" s="9"/>
     </row>
@@ -13340,26 +13370,26 @@
         <v>133</v>
       </c>
       <c r="C67" s="9" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="D67" s="9" t="s">
-        <v>47</v>
+        <v>410</v>
       </c>
       <c r="E67" s="9" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="F67" s="9" t="s">
-        <v>803</v>
+        <v>799</v>
       </c>
       <c r="G67" s="9" t="s">
-        <v>804</v>
+        <v>800</v>
       </c>
       <c r="H67" s="9"/>
       <c r="I67" s="28" t="s">
-        <v>805</v>
+        <v>801</v>
       </c>
       <c r="J67" s="26" t="s">
-        <v>806</v>
+        <v>802</v>
       </c>
       <c r="K67" s="9"/>
     </row>
@@ -13371,26 +13401,26 @@
         <v>133</v>
       </c>
       <c r="C68" s="9" t="s">
-        <v>726</v>
+        <v>905</v>
       </c>
       <c r="D68" s="9" t="s">
-        <v>117</v>
+        <v>75</v>
       </c>
       <c r="E68" s="9" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="F68" s="9" t="s">
-        <v>807</v>
+        <v>931</v>
       </c>
       <c r="G68" s="9" t="s">
-        <v>808</v>
+        <v>932</v>
       </c>
       <c r="H68" s="9"/>
       <c r="I68" s="28" t="s">
-        <v>809</v>
+        <v>933</v>
       </c>
       <c r="J68" s="26" t="s">
-        <v>810</v>
+        <v>934</v>
       </c>
       <c r="K68" s="9"/>
     </row>
@@ -13402,26 +13432,26 @@
         <v>133</v>
       </c>
       <c r="C69" s="9" t="s">
-        <v>160</v>
+        <v>784</v>
       </c>
       <c r="D69" s="9" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="E69" s="9" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="F69" s="9" t="s">
-        <v>161</v>
+        <v>803</v>
       </c>
       <c r="G69" s="9" t="s">
-        <v>523</v>
+        <v>804</v>
       </c>
       <c r="H69" s="9"/>
-      <c r="I69" s="10" t="s">
-        <v>162</v>
+      <c r="I69" s="28" t="s">
+        <v>805</v>
       </c>
       <c r="J69" s="26" t="s">
-        <v>524</v>
+        <v>806</v>
       </c>
       <c r="K69" s="9"/>
     </row>
@@ -13433,25 +13463,27 @@
         <v>133</v>
       </c>
       <c r="C70" s="9" t="s">
-        <v>908</v>
+        <v>726</v>
       </c>
       <c r="D70" s="9" t="s">
-        <v>402</v>
+        <v>117</v>
       </c>
       <c r="E70" s="9" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="F70" s="9" t="s">
-        <v>935</v>
+        <v>807</v>
       </c>
       <c r="G70" s="9" t="s">
-        <v>936</v>
+        <v>808</v>
       </c>
       <c r="H70" s="9"/>
       <c r="I70" s="28" t="s">
-        <v>937</v>
-      </c>
-      <c r="J70" s="26"/>
+        <v>809</v>
+      </c>
+      <c r="J70" s="26" t="s">
+        <v>810</v>
+      </c>
       <c r="K70" s="9"/>
     </row>
     <row r="71" spans="1:11" ht="13">
@@ -13459,29 +13491,29 @@
         <v>132</v>
       </c>
       <c r="B71" s="9" t="s">
-        <v>163</v>
+        <v>133</v>
       </c>
       <c r="C71" s="9" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="D71" s="9" t="s">
-        <v>410</v>
+        <v>55</v>
       </c>
       <c r="E71" s="9" t="s">
         <v>25</v>
       </c>
       <c r="F71" s="9" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="G71" s="9" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="H71" s="9"/>
       <c r="I71" s="10" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="J71" s="26" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="K71" s="9"/>
     </row>
@@ -13490,30 +13522,28 @@
         <v>132</v>
       </c>
       <c r="B72" s="9" t="s">
-        <v>163</v>
+        <v>133</v>
       </c>
       <c r="C72" s="9" t="s">
-        <v>167</v>
+        <v>908</v>
       </c>
       <c r="D72" s="9" t="s">
-        <v>410</v>
+        <v>402</v>
       </c>
       <c r="E72" s="9" t="s">
         <v>25</v>
       </c>
       <c r="F72" s="9" t="s">
-        <v>168</v>
+        <v>935</v>
       </c>
       <c r="G72" s="9" t="s">
-        <v>527</v>
+        <v>936</v>
       </c>
       <c r="H72" s="9"/>
-      <c r="I72" s="10" t="s">
-        <v>169</v>
-      </c>
-      <c r="J72" s="26" t="s">
-        <v>528</v>
-      </c>
+      <c r="I72" s="28" t="s">
+        <v>937</v>
+      </c>
+      <c r="J72" s="26"/>
       <c r="K72" s="9"/>
     </row>
     <row r="73" spans="1:11" ht="13">
@@ -13524,26 +13554,26 @@
         <v>163</v>
       </c>
       <c r="C73" s="9" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="D73" s="9" t="s">
-        <v>117</v>
+        <v>410</v>
       </c>
       <c r="E73" s="9" t="s">
         <v>25</v>
       </c>
       <c r="F73" s="9" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="G73" s="9" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="H73" s="9"/>
-      <c r="I73" s="28" t="s">
-        <v>860</v>
+      <c r="I73" s="10" t="s">
+        <v>166</v>
       </c>
       <c r="J73" s="26" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="K73" s="9"/>
     </row>
@@ -13555,26 +13585,26 @@
         <v>163</v>
       </c>
       <c r="C74" s="9" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="D74" s="9" t="s">
-        <v>117</v>
+        <v>410</v>
       </c>
       <c r="E74" s="9" t="s">
         <v>25</v>
       </c>
       <c r="F74" s="9" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="G74" s="9" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="H74" s="9"/>
       <c r="I74" s="10" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="J74" s="26" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="K74" s="9"/>
     </row>
@@ -13586,26 +13616,26 @@
         <v>163</v>
       </c>
       <c r="C75" s="9" t="s">
-        <v>847</v>
+        <v>170</v>
       </c>
       <c r="D75" s="9" t="s">
-        <v>410</v>
+        <v>117</v>
       </c>
       <c r="E75" s="9" t="s">
         <v>25</v>
       </c>
       <c r="F75" s="9" t="s">
-        <v>848</v>
+        <v>171</v>
       </c>
       <c r="G75" s="9" t="s">
-        <v>849</v>
+        <v>529</v>
       </c>
       <c r="H75" s="9"/>
       <c r="I75" s="28" t="s">
-        <v>850</v>
+        <v>860</v>
       </c>
       <c r="J75" s="26" t="s">
-        <v>851</v>
+        <v>530</v>
       </c>
       <c r="K75" s="9"/>
     </row>
@@ -13614,29 +13644,29 @@
         <v>132</v>
       </c>
       <c r="B76" s="9" t="s">
-        <v>727</v>
+        <v>163</v>
       </c>
       <c r="C76" s="9" t="s">
-        <v>726</v>
+        <v>173</v>
       </c>
       <c r="D76" s="9" t="s">
-        <v>410</v>
+        <v>117</v>
       </c>
       <c r="E76" s="9" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="F76" s="9" t="s">
-        <v>747</v>
+        <v>174</v>
       </c>
       <c r="G76" s="9" t="s">
-        <v>748</v>
+        <v>531</v>
       </c>
       <c r="H76" s="9"/>
-      <c r="I76" s="28" t="s">
-        <v>749</v>
+      <c r="I76" s="10" t="s">
+        <v>175</v>
       </c>
       <c r="J76" s="26" t="s">
-        <v>750</v>
+        <v>532</v>
       </c>
       <c r="K76" s="9"/>
     </row>
@@ -13645,29 +13675,29 @@
         <v>132</v>
       </c>
       <c r="B77" s="9" t="s">
-        <v>533</v>
+        <v>163</v>
       </c>
       <c r="C77" s="9" t="s">
-        <v>534</v>
+        <v>847</v>
       </c>
       <c r="D77" s="9" t="s">
-        <v>157</v>
+        <v>410</v>
       </c>
       <c r="E77" s="9" t="s">
         <v>25</v>
       </c>
       <c r="F77" s="9" t="s">
-        <v>535</v>
+        <v>848</v>
       </c>
       <c r="G77" s="9" t="s">
-        <v>536</v>
+        <v>849</v>
       </c>
       <c r="H77" s="9"/>
-      <c r="I77" s="11" t="s">
-        <v>537</v>
+      <c r="I77" s="28" t="s">
+        <v>850</v>
       </c>
       <c r="J77" s="26" t="s">
-        <v>538</v>
+        <v>851</v>
       </c>
       <c r="K77" s="9"/>
     </row>
@@ -13676,29 +13706,29 @@
         <v>132</v>
       </c>
       <c r="B78" s="9" t="s">
-        <v>533</v>
+        <v>727</v>
       </c>
       <c r="C78" s="9" t="s">
-        <v>381</v>
+        <v>726</v>
       </c>
       <c r="D78" s="9" t="s">
-        <v>382</v>
+        <v>410</v>
       </c>
       <c r="E78" s="9" t="s">
         <v>14</v>
       </c>
       <c r="F78" s="9" t="s">
-        <v>539</v>
+        <v>747</v>
       </c>
       <c r="G78" s="9" t="s">
-        <v>780</v>
+        <v>748</v>
       </c>
       <c r="H78" s="9"/>
-      <c r="I78" s="10" t="s">
-        <v>540</v>
+      <c r="I78" s="28" t="s">
+        <v>749</v>
       </c>
       <c r="J78" s="26" t="s">
-        <v>541</v>
+        <v>750</v>
       </c>
       <c r="K78" s="9"/>
     </row>
@@ -13707,29 +13737,29 @@
         <v>132</v>
       </c>
       <c r="B79" s="9" t="s">
-        <v>176</v>
+        <v>533</v>
       </c>
       <c r="C79" s="9" t="s">
-        <v>542</v>
+        <v>534</v>
       </c>
       <c r="D79" s="9" t="s">
-        <v>410</v>
+        <v>157</v>
       </c>
       <c r="E79" s="9" t="s">
         <v>25</v>
       </c>
       <c r="F79" s="9" t="s">
-        <v>543</v>
+        <v>535</v>
       </c>
       <c r="G79" s="9" t="s">
-        <v>544</v>
+        <v>536</v>
       </c>
       <c r="H79" s="9"/>
-      <c r="I79" s="10" t="s">
-        <v>545</v>
+      <c r="I79" s="11" t="s">
+        <v>537</v>
       </c>
       <c r="J79" s="26" t="s">
-        <v>546</v>
+        <v>538</v>
       </c>
       <c r="K79" s="9"/>
     </row>
@@ -13738,29 +13768,29 @@
         <v>132</v>
       </c>
       <c r="B80" s="9" t="s">
-        <v>176</v>
+        <v>533</v>
       </c>
       <c r="C80" s="9" t="s">
-        <v>177</v>
+        <v>381</v>
       </c>
       <c r="D80" s="9" t="s">
-        <v>410</v>
+        <v>382</v>
       </c>
       <c r="E80" s="9" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="F80" s="9" t="s">
-        <v>547</v>
+        <v>539</v>
       </c>
       <c r="G80" s="9" t="s">
-        <v>548</v>
+        <v>780</v>
       </c>
       <c r="H80" s="9"/>
       <c r="I80" s="10" t="s">
-        <v>179</v>
+        <v>540</v>
       </c>
       <c r="J80" s="26" t="s">
-        <v>549</v>
+        <v>541</v>
       </c>
       <c r="K80" s="9"/>
     </row>
@@ -13772,26 +13802,26 @@
         <v>176</v>
       </c>
       <c r="C81" s="9" t="s">
-        <v>180</v>
+        <v>542</v>
       </c>
       <c r="D81" s="9" t="s">
-        <v>181</v>
+        <v>410</v>
       </c>
       <c r="E81" s="9" t="s">
         <v>25</v>
       </c>
       <c r="F81" s="9" t="s">
-        <v>182</v>
+        <v>543</v>
       </c>
       <c r="G81" s="9" t="s">
-        <v>550</v>
+        <v>544</v>
       </c>
       <c r="H81" s="9"/>
       <c r="I81" s="10" t="s">
-        <v>183</v>
+        <v>545</v>
       </c>
       <c r="J81" s="26" t="s">
-        <v>551</v>
+        <v>546</v>
       </c>
       <c r="K81" s="9"/>
     </row>
@@ -13800,10 +13830,10 @@
         <v>132</v>
       </c>
       <c r="B82" s="9" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="C82" s="9" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="D82" s="9" t="s">
         <v>410</v>
@@ -13812,17 +13842,17 @@
         <v>25</v>
       </c>
       <c r="F82" s="9" t="s">
-        <v>186</v>
+        <v>547</v>
       </c>
       <c r="G82" s="9" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="H82" s="9"/>
       <c r="I82" s="10" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="J82" s="26" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="K82" s="9"/>
     </row>
@@ -13831,29 +13861,29 @@
         <v>132</v>
       </c>
       <c r="B83" s="9" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="C83" s="9" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="D83" s="9" t="s">
-        <v>117</v>
+        <v>181</v>
       </c>
       <c r="E83" s="9" t="s">
         <v>25</v>
       </c>
       <c r="F83" s="9" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="G83" s="9" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="H83" s="9"/>
       <c r="I83" s="10" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="J83" s="26" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="K83" s="9"/>
     </row>
@@ -13865,26 +13895,26 @@
         <v>184</v>
       </c>
       <c r="C84" s="9" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="D84" s="9" t="s">
-        <v>192</v>
+        <v>410</v>
       </c>
       <c r="E84" s="9" t="s">
         <v>25</v>
       </c>
       <c r="F84" s="9" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="G84" s="9" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
       <c r="H84" s="9"/>
       <c r="I84" s="10" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="J84" s="26" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
       <c r="K84" s="9"/>
     </row>
@@ -13896,26 +13926,26 @@
         <v>184</v>
       </c>
       <c r="C85" s="9" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="D85" s="9" t="s">
-        <v>51</v>
+        <v>117</v>
       </c>
       <c r="E85" s="9" t="s">
         <v>25</v>
       </c>
       <c r="F85" s="9" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="G85" s="9" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
       <c r="H85" s="9"/>
       <c r="I85" s="10" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="J85" s="26" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="K85" s="9"/>
     </row>
@@ -13927,26 +13957,26 @@
         <v>184</v>
       </c>
       <c r="C86" s="9" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="D86" s="9" t="s">
-        <v>418</v>
+        <v>192</v>
       </c>
       <c r="E86" s="9" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="F86" s="9" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="G86" s="9" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
       <c r="H86" s="9"/>
       <c r="I86" s="10" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="J86" s="26" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="K86" s="9"/>
     </row>
@@ -13958,26 +13988,26 @@
         <v>184</v>
       </c>
       <c r="C87" s="9" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="D87" s="9" t="s">
-        <v>418</v>
+        <v>51</v>
       </c>
       <c r="E87" s="9" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="F87" s="9" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="G87" s="9" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="H87" s="9"/>
       <c r="I87" s="10" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="J87" s="26" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="K87" s="9"/>
     </row>
@@ -13988,8 +14018,8 @@
       <c r="B88" s="9" t="s">
         <v>184</v>
       </c>
-      <c r="C88" s="12" t="s">
-        <v>204</v>
+      <c r="C88" s="9" t="s">
+        <v>198</v>
       </c>
       <c r="D88" s="9" t="s">
         <v>418</v>
@@ -13998,17 +14028,17 @@
         <v>14</v>
       </c>
       <c r="F88" s="9" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="G88" s="9" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="H88" s="9"/>
-      <c r="I88" s="11" t="s">
-        <v>206</v>
+      <c r="I88" s="10" t="s">
+        <v>200</v>
       </c>
       <c r="J88" s="26" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="K88" s="9"/>
     </row>
@@ -14019,27 +14049,27 @@
       <c r="B89" s="9" t="s">
         <v>184</v>
       </c>
-      <c r="C89" s="12" t="s">
-        <v>827</v>
+      <c r="C89" s="9" t="s">
+        <v>201</v>
       </c>
       <c r="D89" s="9" t="s">
-        <v>410</v>
+        <v>418</v>
       </c>
       <c r="E89" s="9" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="F89" s="9" t="s">
-        <v>828</v>
+        <v>202</v>
       </c>
       <c r="G89" s="9" t="s">
-        <v>829</v>
+        <v>562</v>
       </c>
       <c r="H89" s="9"/>
-      <c r="I89" s="28" t="s">
-        <v>830</v>
+      <c r="I89" s="10" t="s">
+        <v>203</v>
       </c>
       <c r="J89" s="26" t="s">
-        <v>831</v>
+        <v>563</v>
       </c>
       <c r="K89" s="9"/>
     </row>
@@ -14051,26 +14081,26 @@
         <v>184</v>
       </c>
       <c r="C90" s="12" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="D90" s="9" t="s">
         <v>418</v>
       </c>
       <c r="E90" s="9" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="F90" s="9" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="G90" s="9" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="H90" s="9"/>
       <c r="I90" s="11" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="J90" s="26" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="K90" s="9"/>
     </row>
@@ -14079,29 +14109,29 @@
         <v>132</v>
       </c>
       <c r="B91" s="9" t="s">
-        <v>210</v>
+        <v>184</v>
       </c>
       <c r="C91" s="12" t="s">
-        <v>211</v>
+        <v>827</v>
       </c>
       <c r="D91" s="9" t="s">
-        <v>418</v>
+        <v>410</v>
       </c>
       <c r="E91" s="9" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="F91" s="9" t="s">
-        <v>212</v>
+        <v>828</v>
       </c>
       <c r="G91" s="9" t="s">
-        <v>568</v>
+        <v>829</v>
       </c>
       <c r="H91" s="9"/>
-      <c r="I91" s="10" t="s">
-        <v>213</v>
+      <c r="I91" s="28" t="s">
+        <v>830</v>
       </c>
       <c r="J91" s="26" t="s">
-        <v>569</v>
+        <v>831</v>
       </c>
       <c r="K91" s="9"/>
     </row>
@@ -14110,29 +14140,29 @@
         <v>132</v>
       </c>
       <c r="B92" s="9" t="s">
-        <v>721</v>
+        <v>184</v>
       </c>
       <c r="C92" s="12" t="s">
-        <v>720</v>
+        <v>207</v>
       </c>
       <c r="D92" s="9" t="s">
-        <v>410</v>
+        <v>418</v>
       </c>
       <c r="E92" s="9" t="s">
         <v>25</v>
       </c>
       <c r="F92" s="9" t="s">
-        <v>752</v>
+        <v>208</v>
       </c>
       <c r="G92" s="9" t="s">
-        <v>751</v>
+        <v>566</v>
       </c>
       <c r="H92" s="9"/>
-      <c r="I92" s="28" t="s">
-        <v>753</v>
+      <c r="I92" s="11" t="s">
+        <v>209</v>
       </c>
       <c r="J92" s="26" t="s">
-        <v>754</v>
+        <v>567</v>
       </c>
       <c r="K92" s="9"/>
     </row>
@@ -14141,28 +14171,30 @@
         <v>132</v>
       </c>
       <c r="B93" s="9" t="s">
-        <v>721</v>
+        <v>210</v>
       </c>
       <c r="C93" s="12" t="s">
-        <v>895</v>
+        <v>211</v>
       </c>
       <c r="D93" s="9" t="s">
-        <v>410</v>
+        <v>418</v>
       </c>
       <c r="E93" s="9" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="F93" s="9" t="s">
-        <v>962</v>
+        <v>212</v>
       </c>
       <c r="G93" s="9" t="s">
-        <v>963</v>
+        <v>568</v>
       </c>
       <c r="H93" s="9"/>
-      <c r="I93" s="28" t="s">
-        <v>964</v>
-      </c>
-      <c r="J93" s="26"/>
+      <c r="I93" s="10" t="s">
+        <v>213</v>
+      </c>
+      <c r="J93" s="26" t="s">
+        <v>569</v>
+      </c>
       <c r="K93" s="9"/>
     </row>
     <row r="94" spans="1:11" ht="13">
@@ -14170,29 +14202,29 @@
         <v>132</v>
       </c>
       <c r="B94" s="9" t="s">
-        <v>214</v>
+        <v>721</v>
       </c>
       <c r="C94" s="12" t="s">
-        <v>215</v>
+        <v>720</v>
       </c>
       <c r="D94" s="9" t="s">
-        <v>47</v>
+        <v>410</v>
       </c>
       <c r="E94" s="9" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="F94" s="9" t="s">
-        <v>216</v>
+        <v>752</v>
       </c>
       <c r="G94" s="9" t="s">
-        <v>570</v>
+        <v>751</v>
       </c>
       <c r="H94" s="9"/>
-      <c r="I94" s="10" t="s">
-        <v>217</v>
+      <c r="I94" s="28" t="s">
+        <v>753</v>
       </c>
       <c r="J94" s="26" t="s">
-        <v>571</v>
+        <v>754</v>
       </c>
       <c r="K94" s="9"/>
     </row>
@@ -14201,30 +14233,28 @@
         <v>132</v>
       </c>
       <c r="B95" s="9" t="s">
-        <v>214</v>
+        <v>721</v>
       </c>
       <c r="C95" s="12" t="s">
-        <v>218</v>
+        <v>895</v>
       </c>
       <c r="D95" s="9" t="s">
-        <v>157</v>
+        <v>410</v>
       </c>
       <c r="E95" s="9" t="s">
         <v>25</v>
       </c>
       <c r="F95" s="9" t="s">
-        <v>219</v>
+        <v>962</v>
       </c>
       <c r="G95" s="9" t="s">
-        <v>572</v>
+        <v>963</v>
       </c>
       <c r="H95" s="9"/>
-      <c r="I95" s="10" t="s">
-        <v>220</v>
-      </c>
-      <c r="J95" s="26" t="s">
-        <v>573</v>
-      </c>
+      <c r="I95" s="28" t="s">
+        <v>964</v>
+      </c>
+      <c r="J95" s="26"/>
       <c r="K95" s="9"/>
     </row>
     <row r="96" spans="1:11" ht="13">
@@ -14232,29 +14262,29 @@
         <v>132</v>
       </c>
       <c r="B96" s="9" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="C96" s="12" t="s">
-        <v>574</v>
+        <v>215</v>
       </c>
       <c r="D96" s="9" t="s">
-        <v>410</v>
+        <v>47</v>
       </c>
       <c r="E96" s="9" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="F96" s="9" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="G96" s="9" t="s">
-        <v>575</v>
+        <v>570</v>
       </c>
       <c r="H96" s="9"/>
       <c r="I96" s="10" t="s">
-        <v>576</v>
+        <v>217</v>
       </c>
       <c r="J96" s="26" t="s">
-        <v>577</v>
+        <v>571</v>
       </c>
       <c r="K96" s="9"/>
     </row>
@@ -14263,29 +14293,29 @@
         <v>132</v>
       </c>
       <c r="B97" s="9" t="s">
-        <v>225</v>
+        <v>214</v>
       </c>
       <c r="C97" s="12" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="D97" s="9" t="s">
-        <v>418</v>
+        <v>157</v>
       </c>
       <c r="E97" s="9" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="F97" s="9" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="G97" s="9" t="s">
-        <v>578</v>
+        <v>572</v>
       </c>
       <c r="H97" s="9"/>
       <c r="I97" s="10" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="J97" s="26" t="s">
-        <v>579</v>
+        <v>573</v>
       </c>
       <c r="K97" s="9"/>
     </row>
@@ -14294,10 +14324,10 @@
         <v>132</v>
       </c>
       <c r="B98" s="9" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="C98" s="12" t="s">
-        <v>229</v>
+        <v>574</v>
       </c>
       <c r="D98" s="9" t="s">
         <v>410</v>
@@ -14306,17 +14336,17 @@
         <v>25</v>
       </c>
       <c r="F98" s="9" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="G98" s="9" t="s">
-        <v>580</v>
+        <v>575</v>
       </c>
       <c r="H98" s="9"/>
       <c r="I98" s="10" t="s">
-        <v>231</v>
+        <v>576</v>
       </c>
       <c r="J98" s="26" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="K98" s="9"/>
     </row>
@@ -14325,29 +14355,29 @@
         <v>132</v>
       </c>
       <c r="B99" s="9" t="s">
-        <v>582</v>
-      </c>
-      <c r="C99" s="9" t="s">
-        <v>583</v>
+        <v>225</v>
+      </c>
+      <c r="C99" s="12" t="s">
+        <v>226</v>
       </c>
       <c r="D99" s="9" t="s">
-        <v>410</v>
+        <v>418</v>
       </c>
       <c r="E99" s="9" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="F99" s="9" t="s">
-        <v>584</v>
+        <v>227</v>
       </c>
       <c r="G99" s="9" t="s">
-        <v>585</v>
+        <v>578</v>
       </c>
       <c r="H99" s="9"/>
-      <c r="I99" s="11" t="s">
-        <v>586</v>
+      <c r="I99" s="10" t="s">
+        <v>228</v>
       </c>
       <c r="J99" s="26" t="s">
-        <v>587</v>
+        <v>579</v>
       </c>
       <c r="K99" s="9"/>
     </row>
@@ -14356,29 +14386,29 @@
         <v>132</v>
       </c>
       <c r="B100" s="9" t="s">
-        <v>582</v>
-      </c>
-      <c r="C100" s="9" t="s">
-        <v>837</v>
+        <v>225</v>
+      </c>
+      <c r="C100" s="12" t="s">
+        <v>229</v>
       </c>
       <c r="D100" s="9" t="s">
-        <v>117</v>
+        <v>410</v>
       </c>
       <c r="E100" s="9" t="s">
         <v>25</v>
       </c>
       <c r="F100" s="9" t="s">
-        <v>838</v>
+        <v>230</v>
       </c>
       <c r="G100" s="9" t="s">
-        <v>839</v>
+        <v>580</v>
       </c>
       <c r="H100" s="9"/>
-      <c r="I100" s="28" t="s">
-        <v>840</v>
+      <c r="I100" s="10" t="s">
+        <v>231</v>
       </c>
       <c r="J100" s="26" t="s">
-        <v>841</v>
+        <v>581</v>
       </c>
       <c r="K100" s="9"/>
     </row>
@@ -14390,26 +14420,26 @@
         <v>582</v>
       </c>
       <c r="C101" s="9" t="s">
-        <v>911</v>
+        <v>583</v>
       </c>
       <c r="D101" s="9" t="s">
-        <v>117</v>
+        <v>410</v>
       </c>
       <c r="E101" s="9" t="s">
         <v>25</v>
       </c>
       <c r="F101" s="9" t="s">
-        <v>938</v>
+        <v>584</v>
       </c>
       <c r="G101" s="9" t="s">
-        <v>939</v>
+        <v>585</v>
       </c>
       <c r="H101" s="9"/>
-      <c r="I101" s="28" t="s">
-        <v>940</v>
+      <c r="I101" s="11" t="s">
+        <v>586</v>
       </c>
       <c r="J101" s="26" t="s">
-        <v>941</v>
+        <v>587</v>
       </c>
       <c r="K101" s="9"/>
     </row>
@@ -14418,29 +14448,29 @@
         <v>132</v>
       </c>
       <c r="B102" s="9" t="s">
-        <v>232</v>
+        <v>582</v>
       </c>
       <c r="C102" s="9" t="s">
-        <v>233</v>
+        <v>837</v>
       </c>
       <c r="D102" s="9" t="s">
-        <v>410</v>
+        <v>117</v>
       </c>
       <c r="E102" s="9" t="s">
         <v>25</v>
       </c>
       <c r="F102" s="9" t="s">
-        <v>234</v>
+        <v>838</v>
       </c>
       <c r="G102" s="9" t="s">
-        <v>588</v>
+        <v>839</v>
       </c>
       <c r="H102" s="9"/>
-      <c r="I102" s="10" t="s">
-        <v>235</v>
+      <c r="I102" s="28" t="s">
+        <v>840</v>
       </c>
       <c r="J102" s="26" t="s">
-        <v>589</v>
+        <v>841</v>
       </c>
       <c r="K102" s="9"/>
     </row>
@@ -14449,29 +14479,29 @@
         <v>132</v>
       </c>
       <c r="B103" s="9" t="s">
-        <v>236</v>
+        <v>582</v>
       </c>
       <c r="C103" s="9" t="s">
-        <v>381</v>
+        <v>911</v>
       </c>
       <c r="D103" s="9" t="s">
-        <v>382</v>
+        <v>117</v>
       </c>
       <c r="E103" s="9" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="F103" s="9" t="s">
-        <v>590</v>
+        <v>938</v>
       </c>
       <c r="G103" s="9" t="s">
-        <v>591</v>
+        <v>939</v>
       </c>
       <c r="H103" s="9"/>
-      <c r="I103" s="11" t="s">
-        <v>592</v>
+      <c r="I103" s="28" t="s">
+        <v>940</v>
       </c>
       <c r="J103" s="26" t="s">
-        <v>593</v>
+        <v>941</v>
       </c>
       <c r="K103" s="9"/>
     </row>
@@ -14480,10 +14510,10 @@
         <v>132</v>
       </c>
       <c r="B104" s="9" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="C104" s="9" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="D104" s="9" t="s">
         <v>410</v>
@@ -14492,17 +14522,17 @@
         <v>25</v>
       </c>
       <c r="F104" s="9" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="G104" s="9" t="s">
-        <v>594</v>
+        <v>588</v>
       </c>
       <c r="H104" s="9"/>
       <c r="I104" s="10" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="J104" s="26" t="s">
-        <v>595</v>
+        <v>589</v>
       </c>
       <c r="K104" s="9"/>
     </row>
@@ -14514,26 +14544,26 @@
         <v>236</v>
       </c>
       <c r="C105" s="9" t="s">
-        <v>240</v>
+        <v>381</v>
       </c>
       <c r="D105" s="9" t="s">
-        <v>241</v>
+        <v>382</v>
       </c>
       <c r="E105" s="9" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="F105" s="9" t="s">
-        <v>242</v>
+        <v>590</v>
       </c>
       <c r="G105" s="9" t="s">
-        <v>596</v>
+        <v>591</v>
       </c>
       <c r="H105" s="9"/>
-      <c r="I105" s="10" t="s">
-        <v>243</v>
+      <c r="I105" s="11" t="s">
+        <v>592</v>
       </c>
       <c r="J105" s="26" t="s">
-        <v>597</v>
+        <v>593</v>
       </c>
       <c r="K105" s="9"/>
     </row>
@@ -14545,26 +14575,26 @@
         <v>236</v>
       </c>
       <c r="C106" s="9" t="s">
-        <v>789</v>
+        <v>237</v>
       </c>
       <c r="D106" s="9" t="s">
-        <v>117</v>
+        <v>410</v>
       </c>
       <c r="E106" s="9" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="F106" s="9" t="s">
-        <v>811</v>
+        <v>238</v>
       </c>
       <c r="G106" s="9" t="s">
-        <v>812</v>
+        <v>594</v>
       </c>
       <c r="H106" s="9"/>
-      <c r="I106" s="28" t="s">
-        <v>813</v>
+      <c r="I106" s="10" t="s">
+        <v>239</v>
       </c>
       <c r="J106" s="26" t="s">
-        <v>814</v>
+        <v>595</v>
       </c>
       <c r="K106" s="9"/>
     </row>
@@ -14576,26 +14606,26 @@
         <v>236</v>
       </c>
       <c r="C107" s="9" t="s">
-        <v>910</v>
+        <v>240</v>
       </c>
       <c r="D107" s="9" t="s">
-        <v>418</v>
+        <v>241</v>
       </c>
       <c r="E107" s="9" t="s">
         <v>25</v>
       </c>
       <c r="F107" s="9" t="s">
-        <v>943</v>
+        <v>242</v>
       </c>
       <c r="G107" s="9" t="s">
-        <v>942</v>
+        <v>596</v>
       </c>
       <c r="H107" s="9"/>
-      <c r="I107" s="28" t="s">
-        <v>944</v>
+      <c r="I107" s="10" t="s">
+        <v>243</v>
       </c>
       <c r="J107" s="26" t="s">
-        <v>945</v>
+        <v>597</v>
       </c>
       <c r="K107" s="9"/>
     </row>
@@ -14604,29 +14634,29 @@
         <v>132</v>
       </c>
       <c r="B108" s="9" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="C108" s="9" t="s">
-        <v>245</v>
+        <v>789</v>
       </c>
       <c r="D108" s="9" t="s">
-        <v>241</v>
+        <v>117</v>
       </c>
       <c r="E108" s="9" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="F108" s="9" t="s">
-        <v>246</v>
+        <v>811</v>
       </c>
       <c r="G108" s="9" t="s">
-        <v>598</v>
+        <v>812</v>
       </c>
       <c r="H108" s="9"/>
-      <c r="I108" s="10" t="s">
-        <v>247</v>
+      <c r="I108" s="28" t="s">
+        <v>813</v>
       </c>
       <c r="J108" s="26" t="s">
-        <v>599</v>
+        <v>814</v>
       </c>
       <c r="K108" s="9"/>
     </row>
@@ -14635,29 +14665,29 @@
         <v>132</v>
       </c>
       <c r="B109" s="9" t="s">
-        <v>788</v>
+        <v>236</v>
       </c>
       <c r="C109" s="9" t="s">
-        <v>787</v>
+        <v>910</v>
       </c>
       <c r="D109" s="9" t="s">
-        <v>410</v>
+        <v>418</v>
       </c>
       <c r="E109" s="9" t="s">
         <v>25</v>
       </c>
       <c r="F109" s="9" t="s">
-        <v>815</v>
+        <v>943</v>
       </c>
       <c r="G109" s="9" t="s">
-        <v>816</v>
+        <v>942</v>
       </c>
       <c r="H109" s="9"/>
       <c r="I109" s="28" t="s">
-        <v>817</v>
+        <v>944</v>
       </c>
       <c r="J109" s="26" t="s">
-        <v>818</v>
+        <v>945</v>
       </c>
       <c r="K109" s="9"/>
     </row>
@@ -14666,29 +14696,29 @@
         <v>132</v>
       </c>
       <c r="B110" s="9" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="C110" s="9" t="s">
-        <v>381</v>
+        <v>245</v>
       </c>
       <c r="D110" s="9" t="s">
-        <v>382</v>
+        <v>241</v>
       </c>
       <c r="E110" s="9" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="F110" s="9" t="s">
-        <v>600</v>
+        <v>246</v>
       </c>
       <c r="G110" s="9" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="H110" s="9"/>
       <c r="I110" s="10" t="s">
-        <v>602</v>
+        <v>247</v>
       </c>
       <c r="J110" s="26" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
       <c r="K110" s="9"/>
     </row>
@@ -14697,29 +14727,29 @@
         <v>132</v>
       </c>
       <c r="B111" s="9" t="s">
-        <v>248</v>
+        <v>788</v>
       </c>
       <c r="C111" s="9" t="s">
-        <v>249</v>
+        <v>787</v>
       </c>
       <c r="D111" s="9" t="s">
-        <v>117</v>
+        <v>410</v>
       </c>
       <c r="E111" s="9" t="s">
         <v>25</v>
       </c>
       <c r="F111" s="9" t="s">
-        <v>250</v>
+        <v>815</v>
       </c>
       <c r="G111" s="9" t="s">
-        <v>604</v>
+        <v>816</v>
       </c>
       <c r="H111" s="9"/>
-      <c r="I111" s="10" t="s">
-        <v>251</v>
+      <c r="I111" s="28" t="s">
+        <v>817</v>
       </c>
       <c r="J111" s="26" t="s">
-        <v>605</v>
+        <v>818</v>
       </c>
       <c r="K111" s="9"/>
     </row>
@@ -14731,26 +14761,26 @@
         <v>248</v>
       </c>
       <c r="C112" s="9" t="s">
-        <v>252</v>
+        <v>381</v>
       </c>
       <c r="D112" s="9" t="s">
-        <v>410</v>
+        <v>382</v>
       </c>
       <c r="E112" s="9" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="F112" s="9" t="s">
-        <v>253</v>
+        <v>600</v>
       </c>
       <c r="G112" s="9" t="s">
-        <v>606</v>
+        <v>601</v>
       </c>
       <c r="H112" s="9"/>
       <c r="I112" s="10" t="s">
-        <v>254</v>
+        <v>602</v>
       </c>
       <c r="J112" s="26" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="K112" s="9"/>
     </row>
@@ -14762,26 +14792,26 @@
         <v>248</v>
       </c>
       <c r="C113" s="9" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="D113" s="9" t="s">
         <v>117</v>
       </c>
       <c r="E113" s="9" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="F113" s="9" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="G113" s="9" t="s">
-        <v>608</v>
+        <v>604</v>
       </c>
       <c r="H113" s="9"/>
       <c r="I113" s="10" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="J113" s="26" t="s">
-        <v>609</v>
+        <v>605</v>
       </c>
       <c r="K113" s="9"/>
     </row>
@@ -14790,29 +14820,29 @@
         <v>132</v>
       </c>
       <c r="B114" s="9" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="C114" s="9" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="D114" s="9" t="s">
-        <v>117</v>
+        <v>410</v>
       </c>
       <c r="E114" s="9" t="s">
         <v>25</v>
       </c>
       <c r="F114" s="9" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="G114" s="9" t="s">
-        <v>610</v>
+        <v>606</v>
       </c>
       <c r="H114" s="9"/>
       <c r="I114" s="10" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="J114" s="26" t="s">
-        <v>611</v>
+        <v>607</v>
       </c>
       <c r="K114" s="9"/>
     </row>
@@ -14821,29 +14851,29 @@
         <v>132</v>
       </c>
       <c r="B115" s="9" t="s">
-        <v>262</v>
+        <v>248</v>
       </c>
       <c r="C115" s="9" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="D115" s="9" t="s">
-        <v>612</v>
+        <v>117</v>
       </c>
       <c r="E115" s="9" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="F115" s="9" t="s">
-        <v>265</v>
+        <v>256</v>
       </c>
       <c r="G115" s="9" t="s">
-        <v>613</v>
+        <v>608</v>
       </c>
       <c r="H115" s="9"/>
-      <c r="I115" s="11" t="s">
-        <v>266</v>
+      <c r="I115" s="10" t="s">
+        <v>257</v>
       </c>
       <c r="J115" s="26" t="s">
-        <v>614</v>
+        <v>609</v>
       </c>
       <c r="K115" s="9"/>
     </row>
@@ -14852,29 +14882,29 @@
         <v>132</v>
       </c>
       <c r="B116" s="9" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="C116" s="9" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="D116" s="9" t="s">
-        <v>410</v>
+        <v>117</v>
       </c>
       <c r="E116" s="9" t="s">
         <v>25</v>
       </c>
       <c r="F116" s="9" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="G116" s="9" t="s">
-        <v>615</v>
+        <v>610</v>
       </c>
       <c r="H116" s="9"/>
-      <c r="I116" s="11" t="s">
-        <v>269</v>
+      <c r="I116" s="10" t="s">
+        <v>261</v>
       </c>
       <c r="J116" s="26" t="s">
-        <v>616</v>
+        <v>611</v>
       </c>
       <c r="K116" s="9"/>
     </row>
@@ -14886,26 +14916,26 @@
         <v>262</v>
       </c>
       <c r="C117" s="9" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="D117" s="9" t="s">
-        <v>418</v>
+        <v>612</v>
       </c>
       <c r="E117" s="9" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="F117" s="9" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="G117" s="9" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="H117" s="9"/>
       <c r="I117" s="11" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="J117" s="26" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
       <c r="K117" s="9"/>
     </row>
@@ -14917,7 +14947,7 @@
         <v>262</v>
       </c>
       <c r="C118" s="9" t="s">
-        <v>832</v>
+        <v>267</v>
       </c>
       <c r="D118" s="9" t="s">
         <v>410</v>
@@ -14926,17 +14956,17 @@
         <v>25</v>
       </c>
       <c r="F118" s="9" t="s">
-        <v>833</v>
+        <v>268</v>
       </c>
       <c r="G118" s="9" t="s">
-        <v>834</v>
+        <v>615</v>
       </c>
       <c r="H118" s="9"/>
-      <c r="I118" s="28" t="s">
-        <v>835</v>
+      <c r="I118" s="11" t="s">
+        <v>269</v>
       </c>
       <c r="J118" s="26" t="s">
-        <v>836</v>
+        <v>616</v>
       </c>
       <c r="K118" s="9"/>
     </row>
@@ -14948,26 +14978,26 @@
         <v>262</v>
       </c>
       <c r="C119" s="9" t="s">
-        <v>785</v>
+        <v>270</v>
       </c>
       <c r="D119" s="9" t="s">
-        <v>117</v>
+        <v>418</v>
       </c>
       <c r="E119" s="9" t="s">
         <v>25</v>
       </c>
       <c r="F119" s="9" t="s">
-        <v>819</v>
+        <v>271</v>
       </c>
       <c r="G119" s="9" t="s">
-        <v>820</v>
+        <v>617</v>
       </c>
       <c r="H119" s="9"/>
-      <c r="I119" s="28" t="s">
-        <v>821</v>
+      <c r="I119" s="11" t="s">
+        <v>272</v>
       </c>
       <c r="J119" s="26" t="s">
-        <v>822</v>
+        <v>618</v>
       </c>
       <c r="K119" s="9"/>
     </row>
@@ -14979,26 +15009,26 @@
         <v>262</v>
       </c>
       <c r="C120" s="9" t="s">
-        <v>896</v>
+        <v>832</v>
       </c>
       <c r="D120" s="9" t="s">
-        <v>418</v>
+        <v>410</v>
       </c>
       <c r="E120" s="9" t="s">
         <v>25</v>
       </c>
       <c r="F120" s="9" t="s">
-        <v>946</v>
+        <v>833</v>
       </c>
       <c r="G120" s="9" t="s">
-        <v>947</v>
+        <v>834</v>
       </c>
       <c r="H120" s="9"/>
       <c r="I120" s="28" t="s">
-        <v>948</v>
+        <v>835</v>
       </c>
       <c r="J120" s="26" t="s">
-        <v>949</v>
+        <v>836</v>
       </c>
       <c r="K120" s="9"/>
     </row>
@@ -15010,7 +15040,7 @@
         <v>262</v>
       </c>
       <c r="C121" s="9" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D121" s="9" t="s">
         <v>117</v>
@@ -15019,17 +15049,17 @@
         <v>25</v>
       </c>
       <c r="F121" s="9" t="s">
-        <v>823</v>
+        <v>819</v>
       </c>
       <c r="G121" s="9" t="s">
-        <v>824</v>
+        <v>820</v>
       </c>
       <c r="H121" s="9"/>
       <c r="I121" s="28" t="s">
-        <v>825</v>
+        <v>821</v>
       </c>
       <c r="J121" s="26" t="s">
-        <v>826</v>
+        <v>822</v>
       </c>
       <c r="K121" s="9"/>
     </row>
@@ -15041,26 +15071,26 @@
         <v>262</v>
       </c>
       <c r="C122" s="9" t="s">
-        <v>273</v>
+        <v>896</v>
       </c>
       <c r="D122" s="9" t="s">
-        <v>612</v>
+        <v>418</v>
       </c>
       <c r="E122" s="9" t="s">
         <v>25</v>
       </c>
       <c r="F122" s="9" t="s">
-        <v>274</v>
+        <v>946</v>
       </c>
       <c r="G122" s="9" t="s">
-        <v>619</v>
+        <v>947</v>
       </c>
       <c r="H122" s="9"/>
-      <c r="I122" s="11" t="s">
-        <v>275</v>
+      <c r="I122" s="28" t="s">
+        <v>948</v>
       </c>
       <c r="J122" s="26" t="s">
-        <v>620</v>
+        <v>949</v>
       </c>
       <c r="K122" s="9"/>
     </row>
@@ -15072,26 +15102,26 @@
         <v>262</v>
       </c>
       <c r="C123" s="9" t="s">
-        <v>897</v>
+        <v>786</v>
       </c>
       <c r="D123" s="9" t="s">
-        <v>55</v>
+        <v>117</v>
       </c>
       <c r="E123" s="9" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="F123" s="9" t="s">
-        <v>950</v>
+        <v>823</v>
       </c>
       <c r="G123" s="9" t="s">
-        <v>951</v>
+        <v>824</v>
       </c>
       <c r="H123" s="9"/>
       <c r="I123" s="28" t="s">
-        <v>952</v>
+        <v>825</v>
       </c>
       <c r="J123" s="26" t="s">
-        <v>953</v>
+        <v>826</v>
       </c>
       <c r="K123" s="9"/>
     </row>
@@ -15103,26 +15133,26 @@
         <v>262</v>
       </c>
       <c r="C124" s="9" t="s">
-        <v>723</v>
+        <v>273</v>
       </c>
       <c r="D124" s="9" t="s">
-        <v>398</v>
+        <v>612</v>
       </c>
       <c r="E124" s="9" t="s">
         <v>25</v>
       </c>
       <c r="F124" s="9" t="s">
-        <v>755</v>
+        <v>274</v>
       </c>
       <c r="G124" s="9" t="s">
-        <v>756</v>
+        <v>619</v>
       </c>
       <c r="H124" s="9"/>
-      <c r="I124" s="28" t="s">
-        <v>757</v>
+      <c r="I124" s="11" t="s">
+        <v>275</v>
       </c>
       <c r="J124" s="26" t="s">
-        <v>758</v>
+        <v>620</v>
       </c>
       <c r="K124" s="9"/>
     </row>
@@ -15134,25 +15164,27 @@
         <v>262</v>
       </c>
       <c r="C125" s="9" t="s">
-        <v>276</v>
+        <v>897</v>
       </c>
       <c r="D125" s="9" t="s">
-        <v>398</v>
+        <v>55</v>
       </c>
       <c r="E125" s="9" t="s">
         <v>14</v>
       </c>
       <c r="F125" s="9" t="s">
-        <v>277</v>
+        <v>950</v>
       </c>
       <c r="G125" s="9" t="s">
-        <v>621</v>
+        <v>951</v>
       </c>
       <c r="H125" s="9"/>
-      <c r="I125" s="11" t="s">
-        <v>622</v>
-      </c>
-      <c r="J125" s="26"/>
+      <c r="I125" s="28" t="s">
+        <v>952</v>
+      </c>
+      <c r="J125" s="26" t="s">
+        <v>953</v>
+      </c>
       <c r="K125" s="9"/>
     </row>
     <row r="126" spans="1:11" ht="13">
@@ -15160,29 +15192,29 @@
         <v>132</v>
       </c>
       <c r="B126" s="9" t="s">
-        <v>901</v>
+        <v>262</v>
       </c>
       <c r="C126" s="9" t="s">
-        <v>900</v>
+        <v>723</v>
       </c>
       <c r="D126" s="9" t="s">
         <v>398</v>
       </c>
       <c r="E126" s="9" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="F126" s="9" t="s">
-        <v>954</v>
+        <v>755</v>
       </c>
       <c r="G126" s="9" t="s">
-        <v>956</v>
+        <v>756</v>
       </c>
       <c r="H126" s="9"/>
       <c r="I126" s="28" t="s">
-        <v>955</v>
+        <v>757</v>
       </c>
       <c r="J126" s="26" t="s">
-        <v>957</v>
+        <v>758</v>
       </c>
       <c r="K126" s="9"/>
     </row>
@@ -15191,10 +15223,10 @@
         <v>132</v>
       </c>
       <c r="B127" s="9" t="s">
-        <v>903</v>
+        <v>262</v>
       </c>
       <c r="C127" s="9" t="s">
-        <v>900</v>
+        <v>276</v>
       </c>
       <c r="D127" s="9" t="s">
         <v>398</v>
@@ -15203,81 +15235,79 @@
         <v>14</v>
       </c>
       <c r="F127" s="9" t="s">
+        <v>277</v>
+      </c>
+      <c r="G127" s="9" t="s">
+        <v>621</v>
+      </c>
+      <c r="H127" s="9"/>
+      <c r="I127" s="11" t="s">
+        <v>622</v>
+      </c>
+      <c r="J127" s="26"/>
+      <c r="K127" s="9"/>
+    </row>
+    <row r="128" spans="1:11" ht="13">
+      <c r="A128" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="B128" s="9" t="s">
+        <v>901</v>
+      </c>
+      <c r="C128" s="9" t="s">
+        <v>900</v>
+      </c>
+      <c r="D128" s="9" t="s">
+        <v>398</v>
+      </c>
+      <c r="E128" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F128" s="9" t="s">
+        <v>954</v>
+      </c>
+      <c r="G128" s="9" t="s">
+        <v>956</v>
+      </c>
+      <c r="H128" s="9"/>
+      <c r="I128" s="28" t="s">
+        <v>955</v>
+      </c>
+      <c r="J128" s="26" t="s">
+        <v>957</v>
+      </c>
+      <c r="K128" s="9"/>
+    </row>
+    <row r="129" spans="1:11" ht="13">
+      <c r="A129" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="B129" s="9" t="s">
+        <v>903</v>
+      </c>
+      <c r="C129" s="9" t="s">
+        <v>900</v>
+      </c>
+      <c r="D129" s="9" t="s">
+        <v>398</v>
+      </c>
+      <c r="E129" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F129" s="9" t="s">
         <v>958</v>
       </c>
-      <c r="G127" s="9" t="s">
+      <c r="G129" s="9" t="s">
         <v>959</v>
       </c>
-      <c r="H127" s="9"/>
-      <c r="I127" s="28" t="s">
+      <c r="H129" s="9"/>
+      <c r="I129" s="28" t="s">
         <v>960</v>
       </c>
-      <c r="J127" s="26" t="s">
+      <c r="J129" s="26" t="s">
         <v>961</v>
       </c>
-      <c r="K127" s="9"/>
-    </row>
-    <row r="128" spans="1:11" ht="13">
-      <c r="A128" s="14" t="s">
-        <v>278</v>
-      </c>
-      <c r="B128" s="14" t="s">
-        <v>623</v>
-      </c>
-      <c r="C128" s="14" t="s">
-        <v>624</v>
-      </c>
-      <c r="D128" s="14" t="s">
-        <v>157</v>
-      </c>
-      <c r="E128" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="F128" s="14" t="s">
-        <v>625</v>
-      </c>
-      <c r="G128" s="14" t="s">
-        <v>626</v>
-      </c>
-      <c r="H128" s="14"/>
-      <c r="I128" s="16" t="s">
-        <v>627</v>
-      </c>
-      <c r="J128" s="17" t="s">
-        <v>628</v>
-      </c>
-      <c r="K128" s="14"/>
-    </row>
-    <row r="129" spans="1:11" ht="13">
-      <c r="A129" s="14" t="s">
-        <v>278</v>
-      </c>
-      <c r="B129" s="14" t="s">
-        <v>623</v>
-      </c>
-      <c r="C129" s="14" t="s">
-        <v>629</v>
-      </c>
-      <c r="D129" s="14" t="s">
-        <v>410</v>
-      </c>
-      <c r="E129" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="F129" s="14" t="s">
-        <v>630</v>
-      </c>
-      <c r="G129" s="14" t="s">
-        <v>631</v>
-      </c>
-      <c r="H129" s="14"/>
-      <c r="I129" s="16" t="s">
-        <v>632</v>
-      </c>
-      <c r="J129" s="17" t="s">
-        <v>633</v>
-      </c>
-      <c r="K129" s="14"/>
+      <c r="K129" s="9"/>
     </row>
     <row r="130" spans="1:11" ht="13">
       <c r="A130" s="14" t="s">
@@ -15287,25 +15317,27 @@
         <v>623</v>
       </c>
       <c r="C130" s="14" t="s">
-        <v>895</v>
+        <v>624</v>
       </c>
       <c r="D130" s="14" t="s">
-        <v>410</v>
+        <v>157</v>
       </c>
       <c r="E130" s="14" t="s">
         <v>25</v>
       </c>
       <c r="F130" s="14" t="s">
-        <v>965</v>
+        <v>625</v>
       </c>
       <c r="G130" s="14" t="s">
-        <v>967</v>
+        <v>626</v>
       </c>
       <c r="H130" s="14"/>
-      <c r="I130" s="29" t="s">
-        <v>968</v>
-      </c>
-      <c r="J130" s="17"/>
+      <c r="I130" s="16" t="s">
+        <v>627</v>
+      </c>
+      <c r="J130" s="17" t="s">
+        <v>628</v>
+      </c>
       <c r="K130" s="14"/>
     </row>
     <row r="131" spans="1:11" ht="13">
@@ -15316,7 +15348,7 @@
         <v>623</v>
       </c>
       <c r="C131" s="14" t="s">
-        <v>895</v>
+        <v>629</v>
       </c>
       <c r="D131" s="14" t="s">
         <v>410</v>
@@ -15325,16 +15357,18 @@
         <v>25</v>
       </c>
       <c r="F131" s="14" t="s">
-        <v>966</v>
+        <v>630</v>
       </c>
       <c r="G131" s="14" t="s">
-        <v>969</v>
+        <v>631</v>
       </c>
       <c r="H131" s="14"/>
-      <c r="I131" s="29" t="s">
-        <v>970</v>
-      </c>
-      <c r="J131" s="17"/>
+      <c r="I131" s="16" t="s">
+        <v>632</v>
+      </c>
+      <c r="J131" s="17" t="s">
+        <v>633</v>
+      </c>
       <c r="K131" s="14"/>
     </row>
     <row r="132" spans="1:11" ht="13">
@@ -15342,30 +15376,28 @@
         <v>278</v>
       </c>
       <c r="B132" s="14" t="s">
-        <v>279</v>
+        <v>623</v>
       </c>
       <c r="C132" s="14" t="s">
-        <v>898</v>
+        <v>895</v>
       </c>
       <c r="D132" s="14" t="s">
-        <v>47</v>
+        <v>410</v>
       </c>
       <c r="E132" s="14" t="s">
         <v>25</v>
       </c>
       <c r="F132" s="14" t="s">
-        <v>971</v>
+        <v>965</v>
       </c>
       <c r="G132" s="14" t="s">
-        <v>972</v>
+        <v>967</v>
       </c>
       <c r="H132" s="14"/>
       <c r="I132" s="29" t="s">
-        <v>973</v>
-      </c>
-      <c r="J132" s="17" t="s">
-        <v>974</v>
-      </c>
+        <v>968</v>
+      </c>
+      <c r="J132" s="17"/>
       <c r="K132" s="14"/>
     </row>
     <row r="133" spans="1:11" ht="13">
@@ -15373,30 +15405,28 @@
         <v>278</v>
       </c>
       <c r="B133" s="14" t="s">
-        <v>279</v>
+        <v>623</v>
       </c>
       <c r="C133" s="14" t="s">
-        <v>634</v>
+        <v>895</v>
       </c>
       <c r="D133" s="14" t="s">
-        <v>47</v>
+        <v>410</v>
       </c>
       <c r="E133" s="14" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="F133" s="14" t="s">
-        <v>635</v>
+        <v>966</v>
       </c>
       <c r="G133" s="14" t="s">
-        <v>636</v>
+        <v>969</v>
       </c>
       <c r="H133" s="14"/>
-      <c r="I133" s="15" t="s">
-        <v>637</v>
-      </c>
-      <c r="J133" s="17" t="s">
-        <v>638</v>
-      </c>
+      <c r="I133" s="29" t="s">
+        <v>970</v>
+      </c>
+      <c r="J133" s="17"/>
       <c r="K133" s="14"/>
     </row>
     <row r="134" spans="1:11" ht="13">
@@ -15407,26 +15437,26 @@
         <v>279</v>
       </c>
       <c r="C134" s="14" t="s">
-        <v>639</v>
+        <v>898</v>
       </c>
       <c r="D134" s="14" t="s">
-        <v>157</v>
+        <v>47</v>
       </c>
       <c r="E134" s="14" t="s">
         <v>25</v>
       </c>
       <c r="F134" s="14" t="s">
-        <v>640</v>
+        <v>971</v>
       </c>
       <c r="G134" s="14" t="s">
-        <v>641</v>
+        <v>972</v>
       </c>
       <c r="H134" s="14"/>
-      <c r="I134" s="15" t="s">
-        <v>642</v>
+      <c r="I134" s="29" t="s">
+        <v>973</v>
       </c>
       <c r="J134" s="17" t="s">
-        <v>643</v>
+        <v>974</v>
       </c>
       <c r="K134" s="14"/>
     </row>
@@ -15438,26 +15468,26 @@
         <v>279</v>
       </c>
       <c r="C135" s="14" t="s">
-        <v>644</v>
+        <v>634</v>
       </c>
       <c r="D135" s="14" t="s">
-        <v>410</v>
+        <v>47</v>
       </c>
       <c r="E135" s="14" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="F135" s="14" t="s">
-        <v>645</v>
+        <v>635</v>
       </c>
       <c r="G135" s="14" t="s">
-        <v>646</v>
+        <v>636</v>
       </c>
       <c r="H135" s="14"/>
       <c r="I135" s="15" t="s">
-        <v>647</v>
+        <v>637</v>
       </c>
       <c r="J135" s="17" t="s">
-        <v>648</v>
+        <v>638</v>
       </c>
       <c r="K135" s="14"/>
     </row>
@@ -15469,25 +15499,27 @@
         <v>279</v>
       </c>
       <c r="C136" s="14" t="s">
-        <v>381</v>
+        <v>639</v>
       </c>
       <c r="D136" s="14" t="s">
-        <v>382</v>
+        <v>157</v>
       </c>
       <c r="E136" s="14" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="F136" s="14" t="s">
-        <v>649</v>
+        <v>640</v>
       </c>
       <c r="G136" s="14" t="s">
-        <v>650</v>
+        <v>641</v>
       </c>
       <c r="H136" s="14"/>
       <c r="I136" s="15" t="s">
-        <v>651</v>
-      </c>
-      <c r="J136" s="17"/>
+        <v>642</v>
+      </c>
+      <c r="J136" s="17" t="s">
+        <v>643</v>
+      </c>
       <c r="K136" s="14"/>
     </row>
     <row r="137" spans="1:11" ht="13">
@@ -15498,7 +15530,7 @@
         <v>279</v>
       </c>
       <c r="C137" s="14" t="s">
-        <v>87</v>
+        <v>644</v>
       </c>
       <c r="D137" s="14" t="s">
         <v>410</v>
@@ -15507,17 +15539,17 @@
         <v>25</v>
       </c>
       <c r="F137" s="14" t="s">
-        <v>975</v>
+        <v>645</v>
       </c>
       <c r="G137" s="14" t="s">
-        <v>976</v>
+        <v>646</v>
       </c>
       <c r="H137" s="14"/>
-      <c r="I137" s="29" t="s">
-        <v>977</v>
+      <c r="I137" s="15" t="s">
+        <v>647</v>
       </c>
       <c r="J137" s="17" t="s">
-        <v>978</v>
+        <v>648</v>
       </c>
       <c r="K137" s="14"/>
     </row>
@@ -15529,27 +15561,25 @@
         <v>279</v>
       </c>
       <c r="C138" s="14" t="s">
-        <v>280</v>
+        <v>381</v>
       </c>
       <c r="D138" s="14" t="s">
-        <v>157</v>
+        <v>382</v>
       </c>
       <c r="E138" s="14" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="F138" s="14" t="s">
-        <v>281</v>
+        <v>649</v>
       </c>
       <c r="G138" s="14" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="H138" s="14"/>
       <c r="I138" s="15" t="s">
-        <v>282</v>
-      </c>
-      <c r="J138" s="17" t="s">
-        <v>653</v>
-      </c>
+        <v>651</v>
+      </c>
+      <c r="J138" s="17"/>
       <c r="K138" s="14"/>
     </row>
     <row r="139" spans="1:11" ht="13">
@@ -15560,7 +15590,7 @@
         <v>279</v>
       </c>
       <c r="C139" s="14" t="s">
-        <v>283</v>
+        <v>87</v>
       </c>
       <c r="D139" s="14" t="s">
         <v>410</v>
@@ -15569,17 +15599,17 @@
         <v>25</v>
       </c>
       <c r="F139" s="14" t="s">
-        <v>284</v>
+        <v>975</v>
       </c>
       <c r="G139" s="14" t="s">
-        <v>654</v>
+        <v>976</v>
       </c>
       <c r="H139" s="14"/>
-      <c r="I139" s="15" t="s">
-        <v>285</v>
+      <c r="I139" s="29" t="s">
+        <v>977</v>
       </c>
       <c r="J139" s="17" t="s">
-        <v>655</v>
+        <v>978</v>
       </c>
       <c r="K139" s="14"/>
     </row>
@@ -15591,26 +15621,26 @@
         <v>279</v>
       </c>
       <c r="C140" s="14" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="D140" s="14" t="s">
-        <v>418</v>
+        <v>157</v>
       </c>
       <c r="E140" s="14" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="F140" s="14" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="G140" s="14" t="s">
-        <v>656</v>
+        <v>652</v>
       </c>
       <c r="H140" s="14"/>
-      <c r="I140" s="16" t="s">
-        <v>288</v>
+      <c r="I140" s="15" t="s">
+        <v>282</v>
       </c>
       <c r="J140" s="17" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
       <c r="K140" s="14"/>
     </row>
@@ -15622,26 +15652,26 @@
         <v>279</v>
       </c>
       <c r="C141" s="14" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="D141" s="14" t="s">
-        <v>117</v>
+        <v>410</v>
       </c>
       <c r="E141" s="14" t="s">
         <v>25</v>
       </c>
       <c r="F141" s="14" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="G141" s="14" t="s">
-        <v>658</v>
+        <v>654</v>
       </c>
       <c r="H141" s="14"/>
-      <c r="I141" s="16" t="s">
-        <v>291</v>
+      <c r="I141" s="15" t="s">
+        <v>285</v>
       </c>
       <c r="J141" s="17" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="K141" s="14"/>
     </row>
@@ -15653,26 +15683,26 @@
         <v>279</v>
       </c>
       <c r="C142" s="14" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="D142" s="14" t="s">
-        <v>47</v>
+        <v>418</v>
       </c>
       <c r="E142" s="14" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="F142" s="14" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="G142" s="14" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
       <c r="H142" s="14"/>
       <c r="I142" s="16" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="J142" s="17" t="s">
-        <v>661</v>
+        <v>657</v>
       </c>
       <c r="K142" s="14"/>
     </row>
@@ -15684,26 +15714,26 @@
         <v>279</v>
       </c>
       <c r="C143" s="14" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="D143" s="14" t="s">
-        <v>410</v>
+        <v>117</v>
       </c>
       <c r="E143" s="14" t="s">
         <v>25</v>
       </c>
       <c r="F143" s="14" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="G143" s="14" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
       <c r="H143" s="14"/>
       <c r="I143" s="16" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="J143" s="17" t="s">
-        <v>663</v>
+        <v>659</v>
       </c>
       <c r="K143" s="14"/>
     </row>
@@ -15715,26 +15745,26 @@
         <v>279</v>
       </c>
       <c r="C144" s="14" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="D144" s="14" t="s">
-        <v>410</v>
+        <v>47</v>
       </c>
       <c r="E144" s="14" t="s">
         <v>25</v>
       </c>
       <c r="F144" s="14" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="G144" s="14" t="s">
-        <v>664</v>
+        <v>660</v>
       </c>
       <c r="H144" s="14"/>
       <c r="I144" s="16" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="J144" s="17" t="s">
-        <v>665</v>
+        <v>661</v>
       </c>
       <c r="K144" s="14"/>
     </row>
@@ -15746,26 +15776,26 @@
         <v>279</v>
       </c>
       <c r="C145" s="14" t="s">
-        <v>191</v>
+        <v>295</v>
       </c>
       <c r="D145" s="14" t="s">
-        <v>117</v>
+        <v>410</v>
       </c>
       <c r="E145" s="14" t="s">
         <v>25</v>
       </c>
       <c r="F145" s="14" t="s">
-        <v>759</v>
+        <v>296</v>
       </c>
       <c r="G145" s="14" t="s">
-        <v>760</v>
+        <v>662</v>
       </c>
       <c r="H145" s="14"/>
-      <c r="I145" s="29" t="s">
-        <v>761</v>
+      <c r="I145" s="16" t="s">
+        <v>297</v>
       </c>
       <c r="J145" s="17" t="s">
-        <v>557</v>
+        <v>663</v>
       </c>
       <c r="K145" s="14"/>
     </row>
@@ -15777,26 +15807,26 @@
         <v>279</v>
       </c>
       <c r="C146" s="14" t="s">
-        <v>866</v>
+        <v>298</v>
       </c>
       <c r="D146" s="14" t="s">
-        <v>55</v>
+        <v>410</v>
       </c>
       <c r="E146" s="14" t="s">
         <v>25</v>
       </c>
       <c r="F146" s="14" t="s">
-        <v>867</v>
+        <v>299</v>
       </c>
       <c r="G146" s="14" t="s">
-        <v>868</v>
+        <v>664</v>
       </c>
       <c r="H146" s="14"/>
-      <c r="I146" s="29" t="s">
-        <v>869</v>
+      <c r="I146" s="16" t="s">
+        <v>300</v>
       </c>
       <c r="J146" s="17" t="s">
-        <v>870</v>
+        <v>665</v>
       </c>
       <c r="K146" s="14"/>
     </row>
@@ -15808,26 +15838,26 @@
         <v>279</v>
       </c>
       <c r="C147" s="14" t="s">
-        <v>900</v>
+        <v>191</v>
       </c>
       <c r="D147" s="14" t="s">
-        <v>398</v>
+        <v>117</v>
       </c>
       <c r="E147" s="14" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="F147" s="14" t="s">
-        <v>979</v>
+        <v>759</v>
       </c>
       <c r="G147" s="14" t="s">
-        <v>981</v>
+        <v>760</v>
       </c>
       <c r="H147" s="14"/>
       <c r="I147" s="29" t="s">
-        <v>982</v>
+        <v>761</v>
       </c>
       <c r="J147" s="17" t="s">
-        <v>983</v>
+        <v>557</v>
       </c>
       <c r="K147" s="14"/>
     </row>
@@ -15839,26 +15869,26 @@
         <v>279</v>
       </c>
       <c r="C148" s="14" t="s">
-        <v>900</v>
+        <v>866</v>
       </c>
       <c r="D148" s="14" t="s">
-        <v>398</v>
+        <v>55</v>
       </c>
       <c r="E148" s="14" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="F148" s="14" t="s">
-        <v>980</v>
+        <v>867</v>
       </c>
       <c r="G148" s="14" t="s">
-        <v>984</v>
+        <v>868</v>
       </c>
       <c r="H148" s="14"/>
       <c r="I148" s="29" t="s">
-        <v>985</v>
+        <v>869</v>
       </c>
       <c r="J148" s="17" t="s">
-        <v>986</v>
+        <v>870</v>
       </c>
       <c r="K148" s="14"/>
     </row>
@@ -15870,26 +15900,26 @@
         <v>279</v>
       </c>
       <c r="C149" s="14" t="s">
-        <v>899</v>
+        <v>900</v>
       </c>
       <c r="D149" s="14" t="s">
-        <v>410</v>
+        <v>398</v>
       </c>
       <c r="E149" s="14" t="s">
         <v>14</v>
       </c>
       <c r="F149" s="14" t="s">
-        <v>987</v>
+        <v>979</v>
       </c>
       <c r="G149" s="14" t="s">
-        <v>988</v>
+        <v>981</v>
       </c>
       <c r="H149" s="14"/>
       <c r="I149" s="29" t="s">
-        <v>989</v>
+        <v>982</v>
       </c>
       <c r="J149" s="17" t="s">
-        <v>990</v>
+        <v>983</v>
       </c>
       <c r="K149" s="14"/>
     </row>
@@ -15898,29 +15928,29 @@
         <v>278</v>
       </c>
       <c r="B150" s="14" t="s">
-        <v>301</v>
+        <v>279</v>
       </c>
       <c r="C150" s="14" t="s">
-        <v>302</v>
+        <v>900</v>
       </c>
       <c r="D150" s="14" t="s">
-        <v>117</v>
+        <v>398</v>
       </c>
       <c r="E150" s="14" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="F150" s="14" t="s">
-        <v>303</v>
+        <v>980</v>
       </c>
       <c r="G150" s="14" t="s">
-        <v>666</v>
+        <v>984</v>
       </c>
       <c r="H150" s="14"/>
-      <c r="I150" s="15" t="s">
-        <v>304</v>
+      <c r="I150" s="29" t="s">
+        <v>985</v>
       </c>
       <c r="J150" s="17" t="s">
-        <v>667</v>
+        <v>986</v>
       </c>
       <c r="K150" s="14"/>
     </row>
@@ -15929,29 +15959,29 @@
         <v>278</v>
       </c>
       <c r="B151" s="14" t="s">
-        <v>301</v>
+        <v>279</v>
       </c>
       <c r="C151" s="14" t="s">
-        <v>381</v>
+        <v>899</v>
       </c>
       <c r="D151" s="14" t="s">
-        <v>382</v>
+        <v>410</v>
       </c>
       <c r="E151" s="14" t="s">
         <v>14</v>
       </c>
       <c r="F151" s="14" t="s">
-        <v>668</v>
+        <v>987</v>
       </c>
       <c r="G151" s="14" t="s">
-        <v>669</v>
+        <v>988</v>
       </c>
       <c r="H151" s="14"/>
-      <c r="I151" s="15" t="s">
-        <v>670</v>
+      <c r="I151" s="29" t="s">
+        <v>989</v>
       </c>
       <c r="J151" s="17" t="s">
-        <v>671</v>
+        <v>990</v>
       </c>
       <c r="K151" s="14"/>
     </row>
@@ -15960,29 +15990,29 @@
         <v>278</v>
       </c>
       <c r="B152" s="14" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="C152" s="14" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="D152" s="14" t="s">
-        <v>410</v>
+        <v>117</v>
       </c>
       <c r="E152" s="14" t="s">
         <v>25</v>
       </c>
       <c r="F152" s="14" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="G152" s="14" t="s">
-        <v>672</v>
+        <v>666</v>
       </c>
       <c r="H152" s="14"/>
       <c r="I152" s="15" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="J152" s="17" t="s">
-        <v>673</v>
+        <v>667</v>
       </c>
       <c r="K152" s="14"/>
     </row>
@@ -15991,29 +16021,29 @@
         <v>278</v>
       </c>
       <c r="B153" s="14" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="C153" s="14" t="s">
-        <v>298</v>
+        <v>381</v>
       </c>
       <c r="D153" s="14" t="s">
-        <v>410</v>
+        <v>382</v>
       </c>
       <c r="E153" s="14" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="F153" s="14" t="s">
-        <v>309</v>
+        <v>668</v>
       </c>
       <c r="G153" s="14" t="s">
-        <v>674</v>
+        <v>669</v>
       </c>
       <c r="H153" s="14"/>
       <c r="I153" s="15" t="s">
-        <v>310</v>
+        <v>670</v>
       </c>
       <c r="J153" s="17" t="s">
-        <v>675</v>
+        <v>671</v>
       </c>
       <c r="K153" s="14"/>
     </row>
@@ -16025,26 +16055,26 @@
         <v>305</v>
       </c>
       <c r="C154" s="14" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="D154" s="14" t="s">
-        <v>312</v>
+        <v>410</v>
       </c>
       <c r="E154" s="14" t="s">
         <v>25</v>
       </c>
       <c r="F154" s="14" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="G154" s="14" t="s">
-        <v>676</v>
+        <v>672</v>
       </c>
       <c r="H154" s="14"/>
       <c r="I154" s="15" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="J154" s="17" t="s">
-        <v>677</v>
+        <v>673</v>
       </c>
       <c r="K154" s="14"/>
     </row>
@@ -16056,7 +16086,7 @@
         <v>305</v>
       </c>
       <c r="C155" s="14" t="s">
-        <v>728</v>
+        <v>298</v>
       </c>
       <c r="D155" s="14" t="s">
         <v>410</v>
@@ -16065,17 +16095,17 @@
         <v>25</v>
       </c>
       <c r="F155" s="14" t="s">
-        <v>762</v>
+        <v>309</v>
       </c>
       <c r="G155" s="14" t="s">
-        <v>763</v>
+        <v>674</v>
       </c>
       <c r="H155" s="14"/>
-      <c r="I155" s="29" t="s">
-        <v>764</v>
+      <c r="I155" s="15" t="s">
+        <v>310</v>
       </c>
       <c r="J155" s="17" t="s">
-        <v>765</v>
+        <v>675</v>
       </c>
       <c r="K155" s="14"/>
     </row>
@@ -16084,29 +16114,29 @@
         <v>278</v>
       </c>
       <c r="B156" s="14" t="s">
-        <v>315</v>
+        <v>305</v>
       </c>
       <c r="C156" s="14" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="D156" s="14" t="s">
-        <v>410</v>
+        <v>312</v>
       </c>
       <c r="E156" s="14" t="s">
         <v>25</v>
       </c>
       <c r="F156" s="14" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="G156" s="14" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="H156" s="14"/>
       <c r="I156" s="15" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="J156" s="17" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="K156" s="14"/>
     </row>
@@ -16115,29 +16145,29 @@
         <v>278</v>
       </c>
       <c r="B157" s="14" t="s">
-        <v>315</v>
+        <v>305</v>
       </c>
       <c r="C157" s="14" t="s">
-        <v>719</v>
+        <v>728</v>
       </c>
       <c r="D157" s="14" t="s">
-        <v>55</v>
+        <v>410</v>
       </c>
       <c r="E157" s="14" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="F157" s="14" t="s">
-        <v>766</v>
+        <v>762</v>
       </c>
       <c r="G157" s="14" t="s">
-        <v>767</v>
+        <v>763</v>
       </c>
       <c r="H157" s="14"/>
       <c r="I157" s="29" t="s">
-        <v>768</v>
+        <v>764</v>
       </c>
       <c r="J157" s="17" t="s">
-        <v>769</v>
+        <v>765</v>
       </c>
       <c r="K157" s="14"/>
     </row>
@@ -16149,7 +16179,7 @@
         <v>315</v>
       </c>
       <c r="C158" s="14" t="s">
-        <v>790</v>
+        <v>316</v>
       </c>
       <c r="D158" s="14" t="s">
         <v>410</v>
@@ -16158,17 +16188,17 @@
         <v>25</v>
       </c>
       <c r="F158" s="14" t="s">
-        <v>791</v>
+        <v>317</v>
       </c>
       <c r="G158" s="14" t="s">
-        <v>792</v>
+        <v>678</v>
       </c>
       <c r="H158" s="14"/>
-      <c r="I158" s="29" t="s">
-        <v>793</v>
+      <c r="I158" s="15" t="s">
+        <v>318</v>
       </c>
       <c r="J158" s="17" t="s">
-        <v>794</v>
+        <v>679</v>
       </c>
       <c r="K158" s="14"/>
     </row>
@@ -16177,29 +16207,29 @@
         <v>278</v>
       </c>
       <c r="B159" s="14" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="C159" s="14" t="s">
-        <v>320</v>
+        <v>719</v>
       </c>
       <c r="D159" s="14" t="s">
-        <v>410</v>
+        <v>55</v>
       </c>
       <c r="E159" s="14" t="s">
         <v>14</v>
       </c>
       <c r="F159" s="14" t="s">
-        <v>680</v>
+        <v>766</v>
       </c>
       <c r="G159" s="14" t="s">
-        <v>681</v>
+        <v>767</v>
       </c>
       <c r="H159" s="14"/>
-      <c r="I159" s="16" t="s">
-        <v>682</v>
+      <c r="I159" s="29" t="s">
+        <v>768</v>
       </c>
       <c r="J159" s="17" t="s">
-        <v>683</v>
+        <v>769</v>
       </c>
       <c r="K159" s="14"/>
     </row>
@@ -16208,29 +16238,29 @@
         <v>278</v>
       </c>
       <c r="B160" s="14" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="C160" s="14" t="s">
-        <v>323</v>
+        <v>790</v>
       </c>
       <c r="D160" s="14" t="s">
         <v>410</v>
       </c>
       <c r="E160" s="14" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="F160" s="14" t="s">
-        <v>324</v>
+        <v>791</v>
       </c>
       <c r="G160" s="14" t="s">
-        <v>684</v>
+        <v>792</v>
       </c>
       <c r="H160" s="14"/>
-      <c r="I160" s="15" t="s">
-        <v>325</v>
+      <c r="I160" s="29" t="s">
+        <v>793</v>
       </c>
       <c r="J160" s="17" t="s">
-        <v>685</v>
+        <v>794</v>
       </c>
       <c r="K160" s="14"/>
     </row>
@@ -16242,7 +16272,7 @@
         <v>319</v>
       </c>
       <c r="C161" s="14" t="s">
-        <v>686</v>
+        <v>320</v>
       </c>
       <c r="D161" s="14" t="s">
         <v>410</v>
@@ -16251,17 +16281,17 @@
         <v>14</v>
       </c>
       <c r="F161" s="14" t="s">
-        <v>327</v>
+        <v>680</v>
       </c>
       <c r="G161" s="14" t="s">
-        <v>687</v>
+        <v>681</v>
       </c>
       <c r="H161" s="14"/>
-      <c r="I161" s="15" t="s">
-        <v>328</v>
+      <c r="I161" s="16" t="s">
+        <v>682</v>
       </c>
       <c r="J161" s="17" t="s">
-        <v>688</v>
+        <v>683</v>
       </c>
       <c r="K161" s="14"/>
     </row>
@@ -16270,29 +16300,29 @@
         <v>278</v>
       </c>
       <c r="B162" s="14" t="s">
-        <v>329</v>
+        <v>319</v>
       </c>
       <c r="C162" s="14" t="s">
-        <v>167</v>
+        <v>323</v>
       </c>
       <c r="D162" s="14" t="s">
         <v>410</v>
       </c>
       <c r="E162" s="14" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="F162" s="14" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="G162" s="14" t="s">
-        <v>689</v>
+        <v>684</v>
       </c>
       <c r="H162" s="14"/>
       <c r="I162" s="15" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="J162" s="17" t="s">
-        <v>690</v>
+        <v>685</v>
       </c>
       <c r="K162" s="14"/>
     </row>
@@ -16301,29 +16331,29 @@
         <v>278</v>
       </c>
       <c r="B163" s="14" t="s">
-        <v>329</v>
+        <v>319</v>
       </c>
       <c r="C163" s="14" t="s">
-        <v>332</v>
+        <v>686</v>
       </c>
       <c r="D163" s="14" t="s">
-        <v>418</v>
+        <v>410</v>
       </c>
       <c r="E163" s="14" t="s">
         <v>14</v>
       </c>
       <c r="F163" s="14" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="G163" s="14" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
       <c r="H163" s="14"/>
       <c r="I163" s="15" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="J163" s="17" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="K163" s="14"/>
     </row>
@@ -16335,26 +16365,26 @@
         <v>329</v>
       </c>
       <c r="C164" s="14" t="s">
-        <v>335</v>
+        <v>167</v>
       </c>
       <c r="D164" s="14" t="s">
-        <v>47</v>
+        <v>410</v>
       </c>
       <c r="E164" s="14" t="s">
         <v>25</v>
       </c>
       <c r="F164" s="14" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="G164" s="14" t="s">
-        <v>693</v>
+        <v>689</v>
       </c>
       <c r="H164" s="14"/>
       <c r="I164" s="15" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="J164" s="17" t="s">
-        <v>694</v>
+        <v>690</v>
       </c>
       <c r="K164" s="14"/>
     </row>
@@ -16366,26 +16396,26 @@
         <v>329</v>
       </c>
       <c r="C165" s="14" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="D165" s="14" t="s">
-        <v>117</v>
+        <v>418</v>
       </c>
       <c r="E165" s="14" t="s">
-        <v>39</v>
+        <v>14</v>
       </c>
       <c r="F165" s="14" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="G165" s="14" t="s">
-        <v>695</v>
+        <v>691</v>
       </c>
       <c r="H165" s="14"/>
       <c r="I165" s="15" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="J165" s="17" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
       <c r="K165" s="14"/>
     </row>
@@ -16397,26 +16427,26 @@
         <v>329</v>
       </c>
       <c r="C166" s="14" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="D166" s="14" t="s">
-        <v>342</v>
+        <v>47</v>
       </c>
       <c r="E166" s="14" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="F166" s="14" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="G166" s="14" t="s">
-        <v>697</v>
+        <v>693</v>
       </c>
       <c r="H166" s="14"/>
       <c r="I166" s="15" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="J166" s="17" t="s">
-        <v>698</v>
+        <v>694</v>
       </c>
       <c r="K166" s="14"/>
     </row>
@@ -16428,26 +16458,26 @@
         <v>329</v>
       </c>
       <c r="C167" s="14" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="D167" s="14" t="s">
-        <v>47</v>
+        <v>117</v>
       </c>
       <c r="E167" s="14" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="F167" s="14" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
       <c r="G167" s="14" t="s">
-        <v>699</v>
+        <v>695</v>
       </c>
       <c r="H167" s="14"/>
       <c r="I167" s="15" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
       <c r="J167" s="17" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
       <c r="K167" s="14"/>
     </row>
@@ -16456,29 +16486,29 @@
         <v>278</v>
       </c>
       <c r="B168" s="14" t="s">
-        <v>348</v>
+        <v>329</v>
       </c>
       <c r="C168" s="14" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
       <c r="D168" s="14" t="s">
-        <v>75</v>
+        <v>342</v>
       </c>
       <c r="E168" s="14" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="F168" s="14" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="G168" s="14" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="H168" s="14"/>
-      <c r="I168" s="29" t="s">
-        <v>861</v>
+      <c r="I168" s="15" t="s">
+        <v>344</v>
       </c>
       <c r="J168" s="17" t="s">
-        <v>702</v>
+        <v>698</v>
       </c>
       <c r="K168" s="14"/>
     </row>
@@ -16487,29 +16517,29 @@
         <v>278</v>
       </c>
       <c r="B169" s="14" t="s">
-        <v>348</v>
+        <v>329</v>
       </c>
       <c r="C169" s="14" t="s">
-        <v>703</v>
+        <v>345</v>
       </c>
       <c r="D169" s="14" t="s">
-        <v>418</v>
+        <v>47</v>
       </c>
       <c r="E169" s="14" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="F169" s="14" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="G169" s="14" t="s">
-        <v>704</v>
+        <v>699</v>
       </c>
       <c r="H169" s="14"/>
-      <c r="I169" s="16" t="s">
-        <v>354</v>
+      <c r="I169" s="15" t="s">
+        <v>347</v>
       </c>
       <c r="J169" s="17" t="s">
-        <v>705</v>
+        <v>700</v>
       </c>
       <c r="K169" s="14"/>
     </row>
@@ -16518,29 +16548,29 @@
         <v>278</v>
       </c>
       <c r="B170" s="14" t="s">
-        <v>355</v>
+        <v>348</v>
       </c>
       <c r="C170" s="14" t="s">
-        <v>302</v>
+        <v>349</v>
       </c>
       <c r="D170" s="14" t="s">
-        <v>117</v>
+        <v>75</v>
       </c>
       <c r="E170" s="14" t="s">
         <v>25</v>
       </c>
       <c r="F170" s="14" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="G170" s="14" t="s">
-        <v>706</v>
+        <v>701</v>
       </c>
       <c r="H170" s="14"/>
-      <c r="I170" s="15" t="s">
-        <v>357</v>
+      <c r="I170" s="29" t="s">
+        <v>861</v>
       </c>
       <c r="J170" s="17" t="s">
-        <v>707</v>
+        <v>702</v>
       </c>
       <c r="K170" s="14"/>
     </row>
@@ -16549,29 +16579,29 @@
         <v>278</v>
       </c>
       <c r="B171" s="14" t="s">
-        <v>355</v>
+        <v>348</v>
       </c>
       <c r="C171" s="14" t="s">
-        <v>358</v>
+        <v>703</v>
       </c>
       <c r="D171" s="14" t="s">
-        <v>410</v>
+        <v>418</v>
       </c>
       <c r="E171" s="14" t="s">
         <v>25</v>
       </c>
       <c r="F171" s="14" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="G171" s="14" t="s">
-        <v>708</v>
+        <v>704</v>
       </c>
       <c r="H171" s="14"/>
-      <c r="I171" s="15" t="s">
-        <v>360</v>
+      <c r="I171" s="16" t="s">
+        <v>354</v>
       </c>
       <c r="J171" s="17" t="s">
-        <v>709</v>
+        <v>705</v>
       </c>
       <c r="K171" s="14"/>
     </row>
@@ -16583,26 +16613,26 @@
         <v>355</v>
       </c>
       <c r="C172" s="14" t="s">
-        <v>722</v>
+        <v>302</v>
       </c>
       <c r="D172" s="14" t="s">
-        <v>51</v>
+        <v>117</v>
       </c>
       <c r="E172" s="14" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="F172" s="14" t="s">
-        <v>770</v>
+        <v>356</v>
       </c>
       <c r="G172" s="14" t="s">
-        <v>771</v>
+        <v>706</v>
       </c>
       <c r="H172" s="14"/>
-      <c r="I172" s="29" t="s">
-        <v>772</v>
+      <c r="I172" s="15" t="s">
+        <v>357</v>
       </c>
       <c r="J172" s="17" t="s">
-        <v>773</v>
+        <v>707</v>
       </c>
       <c r="K172" s="14"/>
     </row>
@@ -16614,7 +16644,7 @@
         <v>355</v>
       </c>
       <c r="C173" s="14" t="s">
-        <v>886</v>
+        <v>358</v>
       </c>
       <c r="D173" s="14" t="s">
         <v>410</v>
@@ -16623,17 +16653,17 @@
         <v>25</v>
       </c>
       <c r="F173" s="14" t="s">
-        <v>887</v>
+        <v>359</v>
       </c>
       <c r="G173" s="14" t="s">
-        <v>888</v>
+        <v>708</v>
       </c>
       <c r="H173" s="14"/>
-      <c r="I173" s="29" t="s">
-        <v>889</v>
+      <c r="I173" s="15" t="s">
+        <v>360</v>
       </c>
       <c r="J173" s="17" t="s">
-        <v>890</v>
+        <v>709</v>
       </c>
       <c r="K173" s="14"/>
     </row>
@@ -16642,29 +16672,29 @@
         <v>278</v>
       </c>
       <c r="B174" s="14" t="s">
-        <v>710</v>
-      </c>
-      <c r="C174" s="17" t="s">
-        <v>711</v>
+        <v>355</v>
+      </c>
+      <c r="C174" s="14" t="s">
+        <v>722</v>
       </c>
       <c r="D174" s="14" t="s">
-        <v>410</v>
+        <v>51</v>
       </c>
       <c r="E174" s="14" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="F174" s="14" t="s">
-        <v>712</v>
+        <v>770</v>
       </c>
       <c r="G174" s="14" t="s">
-        <v>713</v>
+        <v>771</v>
       </c>
       <c r="H174" s="14"/>
-      <c r="I174" s="15" t="s">
-        <v>714</v>
+      <c r="I174" s="29" t="s">
+        <v>772</v>
       </c>
       <c r="J174" s="17" t="s">
-        <v>715</v>
+        <v>773</v>
       </c>
       <c r="K174" s="14"/>
     </row>
@@ -16673,62 +16703,124 @@
         <v>278</v>
       </c>
       <c r="B175" s="14" t="s">
-        <v>361</v>
-      </c>
-      <c r="C175" s="17" t="s">
-        <v>362</v>
+        <v>355</v>
+      </c>
+      <c r="C175" s="14" t="s">
+        <v>886</v>
       </c>
       <c r="D175" s="14" t="s">
-        <v>418</v>
+        <v>410</v>
       </c>
       <c r="E175" s="14" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="F175" s="14" t="s">
-        <v>363</v>
+        <v>887</v>
       </c>
       <c r="G175" s="14" t="s">
-        <v>716</v>
+        <v>888</v>
       </c>
       <c r="H175" s="14"/>
-      <c r="I175" s="15" t="s">
-        <v>364</v>
+      <c r="I175" s="29" t="s">
+        <v>889</v>
       </c>
       <c r="J175" s="17" t="s">
-        <v>717</v>
+        <v>890</v>
       </c>
       <c r="K175" s="14"/>
     </row>
-    <row r="176" spans="1:11" ht="15.75" customHeight="1">
+    <row r="176" spans="1:11" ht="13">
       <c r="A176" s="14" t="s">
-        <v>774</v>
+        <v>278</v>
       </c>
       <c r="B176" s="14" t="s">
-        <v>776</v>
-      </c>
-      <c r="C176" s="14" t="s">
-        <v>724</v>
+        <v>710</v>
+      </c>
+      <c r="C176" s="17" t="s">
+        <v>711</v>
       </c>
       <c r="D176" s="14" t="s">
         <v>410</v>
       </c>
       <c r="E176" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="F176" s="14" t="s">
+        <v>712</v>
+      </c>
+      <c r="G176" s="14" t="s">
+        <v>713</v>
+      </c>
+      <c r="H176" s="14"/>
+      <c r="I176" s="15" t="s">
+        <v>714</v>
+      </c>
+      <c r="J176" s="17" t="s">
+        <v>715</v>
+      </c>
+      <c r="K176" s="14"/>
+    </row>
+    <row r="177" spans="1:11" ht="13">
+      <c r="A177" s="14" t="s">
+        <v>278</v>
+      </c>
+      <c r="B177" s="14" t="s">
+        <v>361</v>
+      </c>
+      <c r="C177" s="17" t="s">
+        <v>362</v>
+      </c>
+      <c r="D177" s="14" t="s">
+        <v>418</v>
+      </c>
+      <c r="E177" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="F176" s="14" t="s">
+      <c r="F177" s="14" t="s">
+        <v>363</v>
+      </c>
+      <c r="G177" s="14" t="s">
+        <v>716</v>
+      </c>
+      <c r="H177" s="14"/>
+      <c r="I177" s="15" t="s">
+        <v>364</v>
+      </c>
+      <c r="J177" s="17" t="s">
+        <v>717</v>
+      </c>
+      <c r="K177" s="14"/>
+    </row>
+    <row r="178" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A178" s="14" t="s">
+        <v>774</v>
+      </c>
+      <c r="B178" s="14" t="s">
+        <v>776</v>
+      </c>
+      <c r="C178" s="14" t="s">
+        <v>724</v>
+      </c>
+      <c r="D178" s="14" t="s">
+        <v>410</v>
+      </c>
+      <c r="E178" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="F178" s="14" t="s">
         <v>775</v>
       </c>
-      <c r="G176" s="14" t="s">
+      <c r="G178" s="14" t="s">
         <v>777</v>
       </c>
-      <c r="H176" s="14"/>
-      <c r="I176" s="29" t="s">
+      <c r="H178" s="14"/>
+      <c r="I178" s="29" t="s">
         <v>778</v>
       </c>
-      <c r="J176" s="17" t="s">
+      <c r="J178" s="17" t="s">
         <v>779</v>
       </c>
-      <c r="K176" s="14"/>
+      <c r="K178" s="14"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -16766,147 +16858,149 @@
     <hyperlink ref="I40" r:id="rId32" xr:uid="{00000000-0004-0000-0100-00001F000000}"/>
     <hyperlink ref="I44" r:id="rId33" xr:uid="{00000000-0004-0000-0100-000020000000}"/>
     <hyperlink ref="I45" r:id="rId34" xr:uid="{00000000-0004-0000-0100-000021000000}"/>
-    <hyperlink ref="I49" r:id="rId35" xr:uid="{00000000-0004-0000-0100-000022000000}"/>
-    <hyperlink ref="I50" r:id="rId36" xr:uid="{00000000-0004-0000-0100-000023000000}"/>
-    <hyperlink ref="I51" r:id="rId37" xr:uid="{00000000-0004-0000-0100-000024000000}"/>
-    <hyperlink ref="I52" r:id="rId38" xr:uid="{00000000-0004-0000-0100-000025000000}"/>
-    <hyperlink ref="I53" r:id="rId39" xr:uid="{00000000-0004-0000-0100-000026000000}"/>
-    <hyperlink ref="I54" r:id="rId40" xr:uid="{00000000-0004-0000-0100-000027000000}"/>
-    <hyperlink ref="I55" r:id="rId41" xr:uid="{00000000-0004-0000-0100-000028000000}"/>
-    <hyperlink ref="I56" r:id="rId42" xr:uid="{00000000-0004-0000-0100-000029000000}"/>
-    <hyperlink ref="I57" r:id="rId43" xr:uid="{00000000-0004-0000-0100-00002A000000}"/>
-    <hyperlink ref="I58" r:id="rId44" xr:uid="{00000000-0004-0000-0100-00002B000000}"/>
-    <hyperlink ref="I59" r:id="rId45" xr:uid="{00000000-0004-0000-0100-00002C000000}"/>
-    <hyperlink ref="I61" r:id="rId46" xr:uid="{00000000-0004-0000-0100-00002D000000}"/>
-    <hyperlink ref="I62" r:id="rId47" xr:uid="{00000000-0004-0000-0100-00002E000000}"/>
-    <hyperlink ref="I63" r:id="rId48" xr:uid="{00000000-0004-0000-0100-00002F000000}"/>
-    <hyperlink ref="I69" r:id="rId49" xr:uid="{00000000-0004-0000-0100-000030000000}"/>
-    <hyperlink ref="I71" r:id="rId50" xr:uid="{00000000-0004-0000-0100-000031000000}"/>
-    <hyperlink ref="I72" r:id="rId51" xr:uid="{00000000-0004-0000-0100-000032000000}"/>
-    <hyperlink ref="I73" r:id="rId52" xr:uid="{00000000-0004-0000-0100-000033000000}"/>
-    <hyperlink ref="I74" r:id="rId53" xr:uid="{00000000-0004-0000-0100-000034000000}"/>
-    <hyperlink ref="I77" r:id="rId54" xr:uid="{00000000-0004-0000-0100-000035000000}"/>
-    <hyperlink ref="I78" r:id="rId55" xr:uid="{00000000-0004-0000-0100-000036000000}"/>
-    <hyperlink ref="I79" r:id="rId56" xr:uid="{00000000-0004-0000-0100-000037000000}"/>
-    <hyperlink ref="I80" r:id="rId57" xr:uid="{00000000-0004-0000-0100-000038000000}"/>
-    <hyperlink ref="I81" r:id="rId58" xr:uid="{00000000-0004-0000-0100-000039000000}"/>
-    <hyperlink ref="I82" r:id="rId59" xr:uid="{00000000-0004-0000-0100-00003A000000}"/>
-    <hyperlink ref="I83" r:id="rId60" xr:uid="{00000000-0004-0000-0100-00003B000000}"/>
-    <hyperlink ref="I84" r:id="rId61" xr:uid="{00000000-0004-0000-0100-00003C000000}"/>
-    <hyperlink ref="I85" r:id="rId62" xr:uid="{00000000-0004-0000-0100-00003D000000}"/>
-    <hyperlink ref="I86" r:id="rId63" xr:uid="{00000000-0004-0000-0100-00003E000000}"/>
-    <hyperlink ref="I87" r:id="rId64" xr:uid="{00000000-0004-0000-0100-00003F000000}"/>
-    <hyperlink ref="I88" r:id="rId65" xr:uid="{00000000-0004-0000-0100-000040000000}"/>
-    <hyperlink ref="I90" r:id="rId66" xr:uid="{00000000-0004-0000-0100-000041000000}"/>
-    <hyperlink ref="I91" r:id="rId67" xr:uid="{00000000-0004-0000-0100-000042000000}"/>
-    <hyperlink ref="I94" r:id="rId68" xr:uid="{00000000-0004-0000-0100-000043000000}"/>
-    <hyperlink ref="I95" r:id="rId69" xr:uid="{00000000-0004-0000-0100-000044000000}"/>
-    <hyperlink ref="I96" r:id="rId70" xr:uid="{00000000-0004-0000-0100-000045000000}"/>
-    <hyperlink ref="I97" r:id="rId71" xr:uid="{00000000-0004-0000-0100-000046000000}"/>
-    <hyperlink ref="I98" r:id="rId72" xr:uid="{00000000-0004-0000-0100-000047000000}"/>
-    <hyperlink ref="I99" r:id="rId73" xr:uid="{00000000-0004-0000-0100-000048000000}"/>
-    <hyperlink ref="I102" r:id="rId74" xr:uid="{00000000-0004-0000-0100-000049000000}"/>
-    <hyperlink ref="I103" r:id="rId75" xr:uid="{00000000-0004-0000-0100-00004A000000}"/>
-    <hyperlink ref="I104" r:id="rId76" xr:uid="{00000000-0004-0000-0100-00004B000000}"/>
-    <hyperlink ref="I105" r:id="rId77" xr:uid="{00000000-0004-0000-0100-00004C000000}"/>
-    <hyperlink ref="I108" r:id="rId78" xr:uid="{00000000-0004-0000-0100-00004D000000}"/>
-    <hyperlink ref="I110" r:id="rId79" xr:uid="{00000000-0004-0000-0100-00004E000000}"/>
-    <hyperlink ref="I111" r:id="rId80" xr:uid="{00000000-0004-0000-0100-00004F000000}"/>
-    <hyperlink ref="I112" r:id="rId81" xr:uid="{00000000-0004-0000-0100-000050000000}"/>
-    <hyperlink ref="I113" r:id="rId82" xr:uid="{00000000-0004-0000-0100-000051000000}"/>
-    <hyperlink ref="I114" r:id="rId83" xr:uid="{00000000-0004-0000-0100-000052000000}"/>
-    <hyperlink ref="I115" r:id="rId84" xr:uid="{00000000-0004-0000-0100-000053000000}"/>
-    <hyperlink ref="I116" r:id="rId85" xr:uid="{00000000-0004-0000-0100-000054000000}"/>
-    <hyperlink ref="I117" r:id="rId86" xr:uid="{00000000-0004-0000-0100-000055000000}"/>
-    <hyperlink ref="I122" r:id="rId87" xr:uid="{00000000-0004-0000-0100-000056000000}"/>
-    <hyperlink ref="I125" r:id="rId88" xr:uid="{00000000-0004-0000-0100-000057000000}"/>
-    <hyperlink ref="I128" r:id="rId89" xr:uid="{00000000-0004-0000-0100-000058000000}"/>
-    <hyperlink ref="I129" r:id="rId90" xr:uid="{00000000-0004-0000-0100-000059000000}"/>
-    <hyperlink ref="I133" r:id="rId91" xr:uid="{00000000-0004-0000-0100-00005A000000}"/>
-    <hyperlink ref="I134" r:id="rId92" xr:uid="{00000000-0004-0000-0100-00005B000000}"/>
-    <hyperlink ref="I135" r:id="rId93" xr:uid="{00000000-0004-0000-0100-00005C000000}"/>
-    <hyperlink ref="I136" r:id="rId94" xr:uid="{00000000-0004-0000-0100-00005D000000}"/>
-    <hyperlink ref="I138" r:id="rId95" xr:uid="{00000000-0004-0000-0100-00005E000000}"/>
-    <hyperlink ref="I139" r:id="rId96" xr:uid="{00000000-0004-0000-0100-00005F000000}"/>
-    <hyperlink ref="I140" r:id="rId97" xr:uid="{00000000-0004-0000-0100-000060000000}"/>
-    <hyperlink ref="I141" r:id="rId98" xr:uid="{00000000-0004-0000-0100-000061000000}"/>
-    <hyperlink ref="I142" r:id="rId99" xr:uid="{00000000-0004-0000-0100-000062000000}"/>
-    <hyperlink ref="I143" r:id="rId100" xr:uid="{00000000-0004-0000-0100-000063000000}"/>
-    <hyperlink ref="I144" r:id="rId101" xr:uid="{00000000-0004-0000-0100-000064000000}"/>
-    <hyperlink ref="I150" r:id="rId102" xr:uid="{00000000-0004-0000-0100-000065000000}"/>
-    <hyperlink ref="I151" r:id="rId103" xr:uid="{00000000-0004-0000-0100-000066000000}"/>
-    <hyperlink ref="I152" r:id="rId104" xr:uid="{00000000-0004-0000-0100-000067000000}"/>
-    <hyperlink ref="I153" r:id="rId105" xr:uid="{00000000-0004-0000-0100-000068000000}"/>
-    <hyperlink ref="I156" r:id="rId106" xr:uid="{00000000-0004-0000-0100-00006A000000}"/>
-    <hyperlink ref="I159" r:id="rId107" xr:uid="{00000000-0004-0000-0100-00006B000000}"/>
-    <hyperlink ref="I160" r:id="rId108" xr:uid="{00000000-0004-0000-0100-00006C000000}"/>
-    <hyperlink ref="I161" r:id="rId109" xr:uid="{00000000-0004-0000-0100-00006D000000}"/>
-    <hyperlink ref="I162" r:id="rId110" xr:uid="{00000000-0004-0000-0100-00006E000000}"/>
-    <hyperlink ref="I163" r:id="rId111" xr:uid="{00000000-0004-0000-0100-00006F000000}"/>
-    <hyperlink ref="I164" r:id="rId112" xr:uid="{00000000-0004-0000-0100-000070000000}"/>
-    <hyperlink ref="I165" r:id="rId113" xr:uid="{00000000-0004-0000-0100-000071000000}"/>
-    <hyperlink ref="I166" r:id="rId114" xr:uid="{00000000-0004-0000-0100-000072000000}"/>
-    <hyperlink ref="I167" r:id="rId115" xr:uid="{00000000-0004-0000-0100-000073000000}"/>
-    <hyperlink ref="I168" r:id="rId116" xr:uid="{00000000-0004-0000-0100-000074000000}"/>
-    <hyperlink ref="I169" r:id="rId117" xr:uid="{00000000-0004-0000-0100-000075000000}"/>
-    <hyperlink ref="I170" r:id="rId118" xr:uid="{00000000-0004-0000-0100-000076000000}"/>
-    <hyperlink ref="I171" r:id="rId119" xr:uid="{00000000-0004-0000-0100-000077000000}"/>
-    <hyperlink ref="I174" r:id="rId120" xr:uid="{00000000-0004-0000-0100-000078000000}"/>
-    <hyperlink ref="I175" r:id="rId121" xr:uid="{00000000-0004-0000-0100-000079000000}"/>
+    <hyperlink ref="I51" r:id="rId35" xr:uid="{00000000-0004-0000-0100-000022000000}"/>
+    <hyperlink ref="I52" r:id="rId36" xr:uid="{00000000-0004-0000-0100-000023000000}"/>
+    <hyperlink ref="I53" r:id="rId37" xr:uid="{00000000-0004-0000-0100-000024000000}"/>
+    <hyperlink ref="I54" r:id="rId38" xr:uid="{00000000-0004-0000-0100-000025000000}"/>
+    <hyperlink ref="I55" r:id="rId39" xr:uid="{00000000-0004-0000-0100-000026000000}"/>
+    <hyperlink ref="I56" r:id="rId40" xr:uid="{00000000-0004-0000-0100-000027000000}"/>
+    <hyperlink ref="I57" r:id="rId41" xr:uid="{00000000-0004-0000-0100-000028000000}"/>
+    <hyperlink ref="I58" r:id="rId42" xr:uid="{00000000-0004-0000-0100-000029000000}"/>
+    <hyperlink ref="I59" r:id="rId43" xr:uid="{00000000-0004-0000-0100-00002A000000}"/>
+    <hyperlink ref="I60" r:id="rId44" xr:uid="{00000000-0004-0000-0100-00002B000000}"/>
+    <hyperlink ref="I61" r:id="rId45" xr:uid="{00000000-0004-0000-0100-00002C000000}"/>
+    <hyperlink ref="I63" r:id="rId46" xr:uid="{00000000-0004-0000-0100-00002D000000}"/>
+    <hyperlink ref="I64" r:id="rId47" xr:uid="{00000000-0004-0000-0100-00002E000000}"/>
+    <hyperlink ref="I65" r:id="rId48" xr:uid="{00000000-0004-0000-0100-00002F000000}"/>
+    <hyperlink ref="I71" r:id="rId49" xr:uid="{00000000-0004-0000-0100-000030000000}"/>
+    <hyperlink ref="I73" r:id="rId50" xr:uid="{00000000-0004-0000-0100-000031000000}"/>
+    <hyperlink ref="I74" r:id="rId51" xr:uid="{00000000-0004-0000-0100-000032000000}"/>
+    <hyperlink ref="I75" r:id="rId52" xr:uid="{00000000-0004-0000-0100-000033000000}"/>
+    <hyperlink ref="I76" r:id="rId53" xr:uid="{00000000-0004-0000-0100-000034000000}"/>
+    <hyperlink ref="I79" r:id="rId54" xr:uid="{00000000-0004-0000-0100-000035000000}"/>
+    <hyperlink ref="I80" r:id="rId55" xr:uid="{00000000-0004-0000-0100-000036000000}"/>
+    <hyperlink ref="I81" r:id="rId56" xr:uid="{00000000-0004-0000-0100-000037000000}"/>
+    <hyperlink ref="I82" r:id="rId57" xr:uid="{00000000-0004-0000-0100-000038000000}"/>
+    <hyperlink ref="I83" r:id="rId58" xr:uid="{00000000-0004-0000-0100-000039000000}"/>
+    <hyperlink ref="I84" r:id="rId59" xr:uid="{00000000-0004-0000-0100-00003A000000}"/>
+    <hyperlink ref="I85" r:id="rId60" xr:uid="{00000000-0004-0000-0100-00003B000000}"/>
+    <hyperlink ref="I86" r:id="rId61" xr:uid="{00000000-0004-0000-0100-00003C000000}"/>
+    <hyperlink ref="I87" r:id="rId62" xr:uid="{00000000-0004-0000-0100-00003D000000}"/>
+    <hyperlink ref="I88" r:id="rId63" xr:uid="{00000000-0004-0000-0100-00003E000000}"/>
+    <hyperlink ref="I89" r:id="rId64" xr:uid="{00000000-0004-0000-0100-00003F000000}"/>
+    <hyperlink ref="I90" r:id="rId65" xr:uid="{00000000-0004-0000-0100-000040000000}"/>
+    <hyperlink ref="I92" r:id="rId66" xr:uid="{00000000-0004-0000-0100-000041000000}"/>
+    <hyperlink ref="I93" r:id="rId67" xr:uid="{00000000-0004-0000-0100-000042000000}"/>
+    <hyperlink ref="I96" r:id="rId68" xr:uid="{00000000-0004-0000-0100-000043000000}"/>
+    <hyperlink ref="I97" r:id="rId69" xr:uid="{00000000-0004-0000-0100-000044000000}"/>
+    <hyperlink ref="I98" r:id="rId70" xr:uid="{00000000-0004-0000-0100-000045000000}"/>
+    <hyperlink ref="I99" r:id="rId71" xr:uid="{00000000-0004-0000-0100-000046000000}"/>
+    <hyperlink ref="I100" r:id="rId72" xr:uid="{00000000-0004-0000-0100-000047000000}"/>
+    <hyperlink ref="I101" r:id="rId73" xr:uid="{00000000-0004-0000-0100-000048000000}"/>
+    <hyperlink ref="I104" r:id="rId74" xr:uid="{00000000-0004-0000-0100-000049000000}"/>
+    <hyperlink ref="I105" r:id="rId75" xr:uid="{00000000-0004-0000-0100-00004A000000}"/>
+    <hyperlink ref="I106" r:id="rId76" xr:uid="{00000000-0004-0000-0100-00004B000000}"/>
+    <hyperlink ref="I107" r:id="rId77" xr:uid="{00000000-0004-0000-0100-00004C000000}"/>
+    <hyperlink ref="I110" r:id="rId78" xr:uid="{00000000-0004-0000-0100-00004D000000}"/>
+    <hyperlink ref="I112" r:id="rId79" xr:uid="{00000000-0004-0000-0100-00004E000000}"/>
+    <hyperlink ref="I113" r:id="rId80" xr:uid="{00000000-0004-0000-0100-00004F000000}"/>
+    <hyperlink ref="I114" r:id="rId81" xr:uid="{00000000-0004-0000-0100-000050000000}"/>
+    <hyperlink ref="I115" r:id="rId82" xr:uid="{00000000-0004-0000-0100-000051000000}"/>
+    <hyperlink ref="I116" r:id="rId83" xr:uid="{00000000-0004-0000-0100-000052000000}"/>
+    <hyperlink ref="I117" r:id="rId84" xr:uid="{00000000-0004-0000-0100-000053000000}"/>
+    <hyperlink ref="I118" r:id="rId85" xr:uid="{00000000-0004-0000-0100-000054000000}"/>
+    <hyperlink ref="I119" r:id="rId86" xr:uid="{00000000-0004-0000-0100-000055000000}"/>
+    <hyperlink ref="I124" r:id="rId87" xr:uid="{00000000-0004-0000-0100-000056000000}"/>
+    <hyperlink ref="I127" r:id="rId88" xr:uid="{00000000-0004-0000-0100-000057000000}"/>
+    <hyperlink ref="I130" r:id="rId89" xr:uid="{00000000-0004-0000-0100-000058000000}"/>
+    <hyperlink ref="I131" r:id="rId90" xr:uid="{00000000-0004-0000-0100-000059000000}"/>
+    <hyperlink ref="I135" r:id="rId91" xr:uid="{00000000-0004-0000-0100-00005A000000}"/>
+    <hyperlink ref="I136" r:id="rId92" xr:uid="{00000000-0004-0000-0100-00005B000000}"/>
+    <hyperlink ref="I137" r:id="rId93" xr:uid="{00000000-0004-0000-0100-00005C000000}"/>
+    <hyperlink ref="I138" r:id="rId94" xr:uid="{00000000-0004-0000-0100-00005D000000}"/>
+    <hyperlink ref="I140" r:id="rId95" xr:uid="{00000000-0004-0000-0100-00005E000000}"/>
+    <hyperlink ref="I141" r:id="rId96" xr:uid="{00000000-0004-0000-0100-00005F000000}"/>
+    <hyperlink ref="I142" r:id="rId97" xr:uid="{00000000-0004-0000-0100-000060000000}"/>
+    <hyperlink ref="I143" r:id="rId98" xr:uid="{00000000-0004-0000-0100-000061000000}"/>
+    <hyperlink ref="I144" r:id="rId99" xr:uid="{00000000-0004-0000-0100-000062000000}"/>
+    <hyperlink ref="I145" r:id="rId100" xr:uid="{00000000-0004-0000-0100-000063000000}"/>
+    <hyperlink ref="I146" r:id="rId101" xr:uid="{00000000-0004-0000-0100-000064000000}"/>
+    <hyperlink ref="I152" r:id="rId102" xr:uid="{00000000-0004-0000-0100-000065000000}"/>
+    <hyperlink ref="I153" r:id="rId103" xr:uid="{00000000-0004-0000-0100-000066000000}"/>
+    <hyperlink ref="I154" r:id="rId104" xr:uid="{00000000-0004-0000-0100-000067000000}"/>
+    <hyperlink ref="I155" r:id="rId105" xr:uid="{00000000-0004-0000-0100-000068000000}"/>
+    <hyperlink ref="I158" r:id="rId106" xr:uid="{00000000-0004-0000-0100-00006A000000}"/>
+    <hyperlink ref="I161" r:id="rId107" xr:uid="{00000000-0004-0000-0100-00006B000000}"/>
+    <hyperlink ref="I162" r:id="rId108" xr:uid="{00000000-0004-0000-0100-00006C000000}"/>
+    <hyperlink ref="I163" r:id="rId109" xr:uid="{00000000-0004-0000-0100-00006D000000}"/>
+    <hyperlink ref="I164" r:id="rId110" xr:uid="{00000000-0004-0000-0100-00006E000000}"/>
+    <hyperlink ref="I165" r:id="rId111" xr:uid="{00000000-0004-0000-0100-00006F000000}"/>
+    <hyperlink ref="I166" r:id="rId112" xr:uid="{00000000-0004-0000-0100-000070000000}"/>
+    <hyperlink ref="I167" r:id="rId113" xr:uid="{00000000-0004-0000-0100-000071000000}"/>
+    <hyperlink ref="I168" r:id="rId114" xr:uid="{00000000-0004-0000-0100-000072000000}"/>
+    <hyperlink ref="I169" r:id="rId115" xr:uid="{00000000-0004-0000-0100-000073000000}"/>
+    <hyperlink ref="I170" r:id="rId116" xr:uid="{00000000-0004-0000-0100-000074000000}"/>
+    <hyperlink ref="I171" r:id="rId117" xr:uid="{00000000-0004-0000-0100-000075000000}"/>
+    <hyperlink ref="I172" r:id="rId118" xr:uid="{00000000-0004-0000-0100-000076000000}"/>
+    <hyperlink ref="I173" r:id="rId119" xr:uid="{00000000-0004-0000-0100-000077000000}"/>
+    <hyperlink ref="I176" r:id="rId120" xr:uid="{00000000-0004-0000-0100-000078000000}"/>
+    <hyperlink ref="I177" r:id="rId121" xr:uid="{00000000-0004-0000-0100-000079000000}"/>
     <hyperlink ref="I21" r:id="rId122" xr:uid="{881F0F65-3DCC-E94A-9FE5-2CC264A8F337}"/>
     <hyperlink ref="I22" r:id="rId123" xr:uid="{AC40193A-1232-474A-A421-B55FFA7E99B8}"/>
     <hyperlink ref="I41" r:id="rId124" xr:uid="{D41ADE90-9772-8F41-AC9B-8DE303E9D7A9}"/>
     <hyperlink ref="I42" r:id="rId125" xr:uid="{85F37ABA-4B3B-764B-A1ED-9DD3AFFF0004}"/>
-    <hyperlink ref="I76" r:id="rId126" xr:uid="{F5E14AAB-D49A-EF45-A165-3757EFF2E9B4}"/>
-    <hyperlink ref="I92" r:id="rId127" xr:uid="{759707EA-D94A-2D42-8FE0-FAE01578CF99}"/>
-    <hyperlink ref="I124" r:id="rId128" xr:uid="{1A936B77-62AA-804C-B853-4343ADD2D925}"/>
-    <hyperlink ref="I154" r:id="rId129" xr:uid="{00000000-0004-0000-0100-000069000000}"/>
-    <hyperlink ref="I145" r:id="rId130" xr:uid="{2929B0EA-E15F-E444-ADC1-C2E3E232D526}"/>
-    <hyperlink ref="I155" r:id="rId131" xr:uid="{7770BE98-2823-3047-9E72-08DB2B79C177}"/>
-    <hyperlink ref="I157" r:id="rId132" xr:uid="{A91F97A2-47FA-FB49-8866-2B9AA1419B2B}"/>
-    <hyperlink ref="I172" r:id="rId133" xr:uid="{11EEE67C-10E9-AB44-91F6-D7C7B31697FA}"/>
-    <hyperlink ref="I176" r:id="rId134" xr:uid="{8E930EBE-7205-BD41-9ED8-FE8F970A98EF}"/>
-    <hyperlink ref="I158" r:id="rId135" xr:uid="{3AF5EB12-868F-C842-91DC-4FC147AA3C86}"/>
-    <hyperlink ref="I64" r:id="rId136" xr:uid="{7BDCEA69-27F3-FF41-BB2B-817D4FD2C9C0}"/>
-    <hyperlink ref="I65" r:id="rId137" xr:uid="{7A940ACA-466B-9E49-8CB5-9BA664F7C3C9}"/>
-    <hyperlink ref="I67" r:id="rId138" xr:uid="{088C717E-7DC5-EF4C-8C34-370DC45C6BEE}"/>
-    <hyperlink ref="I68" r:id="rId139" xr:uid="{A670C44A-19C9-984F-9EAA-8D5EBCE39C79}"/>
-    <hyperlink ref="I106" r:id="rId140" xr:uid="{713BB907-BFF9-AE42-B777-2AF591DA7D9B}"/>
-    <hyperlink ref="I109" r:id="rId141" xr:uid="{EC0C54FA-684B-A440-BF57-B5B57FDD99C9}"/>
-    <hyperlink ref="I119" r:id="rId142" xr:uid="{9081BA3E-9CF8-074E-BF5B-0F2FA156F0B7}"/>
-    <hyperlink ref="I121" r:id="rId143" xr:uid="{8C2FD4CC-DF59-734E-8449-EA5B9F5E7D3D}"/>
-    <hyperlink ref="I89" r:id="rId144" xr:uid="{9845498D-A3A6-524F-9A69-7DC2DB7F7639}"/>
-    <hyperlink ref="I118" r:id="rId145" xr:uid="{CFDD3EC3-C992-0E4C-8C8D-2A9AC6885E0B}"/>
-    <hyperlink ref="I100" r:id="rId146" xr:uid="{C634E917-B836-414F-BB3B-9A111E16653C}"/>
-    <hyperlink ref="I60" r:id="rId147" xr:uid="{8548A361-62F7-A648-BBBE-9F37385F0E45}"/>
-    <hyperlink ref="I75" r:id="rId148" xr:uid="{8EA062F9-78F8-A44B-BEDA-61CF758CB831}"/>
+    <hyperlink ref="I78" r:id="rId126" xr:uid="{F5E14AAB-D49A-EF45-A165-3757EFF2E9B4}"/>
+    <hyperlink ref="I94" r:id="rId127" xr:uid="{759707EA-D94A-2D42-8FE0-FAE01578CF99}"/>
+    <hyperlink ref="I126" r:id="rId128" xr:uid="{1A936B77-62AA-804C-B853-4343ADD2D925}"/>
+    <hyperlink ref="I156" r:id="rId129" xr:uid="{00000000-0004-0000-0100-000069000000}"/>
+    <hyperlink ref="I147" r:id="rId130" xr:uid="{2929B0EA-E15F-E444-ADC1-C2E3E232D526}"/>
+    <hyperlink ref="I157" r:id="rId131" xr:uid="{7770BE98-2823-3047-9E72-08DB2B79C177}"/>
+    <hyperlink ref="I159" r:id="rId132" xr:uid="{A91F97A2-47FA-FB49-8866-2B9AA1419B2B}"/>
+    <hyperlink ref="I174" r:id="rId133" xr:uid="{11EEE67C-10E9-AB44-91F6-D7C7B31697FA}"/>
+    <hyperlink ref="I178" r:id="rId134" xr:uid="{8E930EBE-7205-BD41-9ED8-FE8F970A98EF}"/>
+    <hyperlink ref="I160" r:id="rId135" xr:uid="{3AF5EB12-868F-C842-91DC-4FC147AA3C86}"/>
+    <hyperlink ref="I66" r:id="rId136" xr:uid="{7BDCEA69-27F3-FF41-BB2B-817D4FD2C9C0}"/>
+    <hyperlink ref="I67" r:id="rId137" xr:uid="{7A940ACA-466B-9E49-8CB5-9BA664F7C3C9}"/>
+    <hyperlink ref="I69" r:id="rId138" xr:uid="{088C717E-7DC5-EF4C-8C34-370DC45C6BEE}"/>
+    <hyperlink ref="I70" r:id="rId139" xr:uid="{A670C44A-19C9-984F-9EAA-8D5EBCE39C79}"/>
+    <hyperlink ref="I108" r:id="rId140" xr:uid="{713BB907-BFF9-AE42-B777-2AF591DA7D9B}"/>
+    <hyperlink ref="I111" r:id="rId141" xr:uid="{EC0C54FA-684B-A440-BF57-B5B57FDD99C9}"/>
+    <hyperlink ref="I121" r:id="rId142" xr:uid="{9081BA3E-9CF8-074E-BF5B-0F2FA156F0B7}"/>
+    <hyperlink ref="I123" r:id="rId143" xr:uid="{8C2FD4CC-DF59-734E-8449-EA5B9F5E7D3D}"/>
+    <hyperlink ref="I91" r:id="rId144" xr:uid="{9845498D-A3A6-524F-9A69-7DC2DB7F7639}"/>
+    <hyperlink ref="I120" r:id="rId145" xr:uid="{CFDD3EC3-C992-0E4C-8C8D-2A9AC6885E0B}"/>
+    <hyperlink ref="I102" r:id="rId146" xr:uid="{C634E917-B836-414F-BB3B-9A111E16653C}"/>
+    <hyperlink ref="I62" r:id="rId147" xr:uid="{8548A361-62F7-A648-BBBE-9F37385F0E45}"/>
+    <hyperlink ref="I77" r:id="rId148" xr:uid="{8EA062F9-78F8-A44B-BEDA-61CF758CB831}"/>
     <hyperlink ref="I46" r:id="rId149" xr:uid="{7C7CB4D2-6B37-544C-B631-930D91F3AA17}"/>
-    <hyperlink ref="I146" r:id="rId150" xr:uid="{5694CC0C-366D-8848-BBD7-150B284E15DA}"/>
+    <hyperlink ref="I148" r:id="rId150" xr:uid="{5694CC0C-366D-8848-BBD7-150B284E15DA}"/>
     <hyperlink ref="I33" r:id="rId151" xr:uid="{7E8D5837-BD50-6844-B288-6217DFD05E29}"/>
     <hyperlink ref="I48" r:id="rId152" xr:uid="{E89C4D5B-786F-9A4C-9914-80D4DF36F89C}"/>
     <hyperlink ref="I47" r:id="rId153" xr:uid="{EDBD0C6E-D96D-734B-85A9-4D26B3421D83}"/>
-    <hyperlink ref="I173" r:id="rId154" xr:uid="{12FA5E40-D722-4344-995B-86BBF8B4F3F3}"/>
+    <hyperlink ref="I175" r:id="rId154" xr:uid="{12FA5E40-D722-4344-995B-86BBF8B4F3F3}"/>
     <hyperlink ref="I3" r:id="rId155" xr:uid="{90F3D795-8796-3941-81B5-D72CA324E042}"/>
     <hyperlink ref="I4" r:id="rId156" xr:uid="{16E7DE01-C66E-B349-8DAD-CA4C99C20CD5}"/>
     <hyperlink ref="I5" r:id="rId157" xr:uid="{7E09A861-DD77-2E4B-B800-EAC5DEA70EDC}"/>
     <hyperlink ref="I17" r:id="rId158" xr:uid="{D6A698C2-16EA-6D43-BD05-DCD8B998FD48}"/>
     <hyperlink ref="I43" r:id="rId159" xr:uid="{4D236EF9-AFFB-FE4D-BCD1-638D19B0E2AD}"/>
-    <hyperlink ref="I66" r:id="rId160" xr:uid="{219D9E22-5730-534D-8B55-6BD3916AD9D3}"/>
-    <hyperlink ref="I70" r:id="rId161" xr:uid="{F2124805-E683-1A42-A341-E4B4C798FCF6}"/>
-    <hyperlink ref="I101" r:id="rId162" xr:uid="{03D19417-5ACF-4747-87E3-FF4A7F6B8C5E}"/>
-    <hyperlink ref="I107" r:id="rId163" xr:uid="{E08A2438-5DB8-9A45-84DD-CD243288C3B9}"/>
-    <hyperlink ref="I120" r:id="rId164" xr:uid="{84BE2579-BA68-7D4D-B2CB-86D3681369AA}"/>
-    <hyperlink ref="I123" r:id="rId165" xr:uid="{91EB2E87-6831-0145-A4FB-E8981B8045C7}"/>
-    <hyperlink ref="I126" r:id="rId166" xr:uid="{54C086FF-A8B9-6C43-B277-A9032F8666B1}"/>
-    <hyperlink ref="I127" r:id="rId167" xr:uid="{2EF760AC-07D9-8548-93B1-88352B9C3C7F}"/>
-    <hyperlink ref="I93" r:id="rId168" xr:uid="{A5C672A7-87AF-E940-AAE7-D59695E4A0C6}"/>
-    <hyperlink ref="I130" r:id="rId169" xr:uid="{235F1B30-BA9C-2944-96E8-044D9C42D2E4}"/>
-    <hyperlink ref="I131" r:id="rId170" xr:uid="{86BA7BFD-9A67-EC49-A9D6-2A3459D321FF}"/>
-    <hyperlink ref="I132" r:id="rId171" xr:uid="{877A9B01-36F7-6D47-9B86-75B4F4BC541E}"/>
-    <hyperlink ref="I137" r:id="rId172" xr:uid="{5546ECD3-6F35-E74E-9357-32E1AF022690}"/>
-    <hyperlink ref="I147" r:id="rId173" xr:uid="{88D1FADA-4A32-0D4F-AF24-3FE72EBBEB68}"/>
-    <hyperlink ref="I148" r:id="rId174" xr:uid="{AF329473-0DFD-8C4C-BE43-8A06EA57AD9B}"/>
-    <hyperlink ref="I149" r:id="rId175" xr:uid="{6A2FDA52-E721-2D45-8440-DE26731358E6}"/>
+    <hyperlink ref="I68" r:id="rId160" xr:uid="{219D9E22-5730-534D-8B55-6BD3916AD9D3}"/>
+    <hyperlink ref="I72" r:id="rId161" xr:uid="{F2124805-E683-1A42-A341-E4B4C798FCF6}"/>
+    <hyperlink ref="I103" r:id="rId162" xr:uid="{03D19417-5ACF-4747-87E3-FF4A7F6B8C5E}"/>
+    <hyperlink ref="I109" r:id="rId163" xr:uid="{E08A2438-5DB8-9A45-84DD-CD243288C3B9}"/>
+    <hyperlink ref="I122" r:id="rId164" xr:uid="{84BE2579-BA68-7D4D-B2CB-86D3681369AA}"/>
+    <hyperlink ref="I125" r:id="rId165" xr:uid="{91EB2E87-6831-0145-A4FB-E8981B8045C7}"/>
+    <hyperlink ref="I128" r:id="rId166" xr:uid="{54C086FF-A8B9-6C43-B277-A9032F8666B1}"/>
+    <hyperlink ref="I129" r:id="rId167" xr:uid="{2EF760AC-07D9-8548-93B1-88352B9C3C7F}"/>
+    <hyperlink ref="I95" r:id="rId168" xr:uid="{A5C672A7-87AF-E940-AAE7-D59695E4A0C6}"/>
+    <hyperlink ref="I132" r:id="rId169" xr:uid="{235F1B30-BA9C-2944-96E8-044D9C42D2E4}"/>
+    <hyperlink ref="I133" r:id="rId170" xr:uid="{86BA7BFD-9A67-EC49-A9D6-2A3459D321FF}"/>
+    <hyperlink ref="I134" r:id="rId171" xr:uid="{877A9B01-36F7-6D47-9B86-75B4F4BC541E}"/>
+    <hyperlink ref="I139" r:id="rId172" xr:uid="{5546ECD3-6F35-E74E-9357-32E1AF022690}"/>
+    <hyperlink ref="I149" r:id="rId173" xr:uid="{88D1FADA-4A32-0D4F-AF24-3FE72EBBEB68}"/>
+    <hyperlink ref="I150" r:id="rId174" xr:uid="{AF329473-0DFD-8C4C-BE43-8A06EA57AD9B}"/>
+    <hyperlink ref="I151" r:id="rId175" xr:uid="{6A2FDA52-E721-2D45-8440-DE26731358E6}"/>
+    <hyperlink ref="I49" r:id="rId176" xr:uid="{AE7D1622-F9B9-DF48-8E55-336B7BB6750F}"/>
+    <hyperlink ref="I50" r:id="rId177" xr:uid="{59C3C7D9-F3C2-4241-BF17-62CD57E349CD}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/docs/香港素食餐廳大全.xlsx
+++ b/docs/香港素食餐廳大全.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tim/_Python_OpenAI/My-projects/7-hk-veg-map/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90ABCB5E-B67E-9C43-940C-5DD3FE845871}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B2AD047-43FE-F749-A316-44989C254281}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10040" yWindow="500" windowWidth="17400" windowHeight="16160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10000" yWindow="500" windowWidth="17400" windowHeight="16160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="香港素食餐廳大全" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2240" uniqueCount="1003">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2249" uniqueCount="1009">
   <si>
     <t>** 更新自: 13 Aug 2023 (deprecated, go to sheet 2 "hk_veg_restaurants_data instead")</t>
   </si>
@@ -3030,6 +3030,24 @@
   </si>
   <si>
     <t>67462803</t>
+  </si>
+  <si>
+    <t>石硤尾</t>
+  </si>
+  <si>
+    <t>晶晶素食店</t>
+  </si>
+  <si>
+    <t>石硤尾偉智里1-3號白田購物中心地下71號舖</t>
+  </si>
+  <si>
+    <t>22.334997745318244, 114.16701651373708</t>
+  </si>
+  <si>
+    <t>https://www.openrice.com/zh/hongkong/r-%E6%99%B6%E6%99%B6%E7%B4%A0%E9%A3%9F%E5%BA%97-%E7%9F%B3%E7%A1%A4%E5%B0%BE-%E7%B2%B5%E8%8F%9C-%E5%BB%A3%E6%9D%B1-%E7%84%A1%E8%82%89%E9%A4%90%E5%96%AE-r754357</t>
+  </si>
+  <si>
+    <t>46146544</t>
   </si>
 </sst>
 </file>
@@ -11298,10 +11316,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:K178"/>
+  <dimension ref="A1:K179"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F35" zoomScale="132" workbookViewId="0">
-      <selection activeCell="J50" sqref="J50"/>
+    <sheetView tabSelected="1" topLeftCell="F69" zoomScale="132" workbookViewId="0">
+      <selection activeCell="J84" sqref="J84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -13892,10 +13910,10 @@
         <v>132</v>
       </c>
       <c r="B84" s="9" t="s">
-        <v>184</v>
+        <v>1003</v>
       </c>
       <c r="C84" s="9" t="s">
-        <v>185</v>
+        <v>1004</v>
       </c>
       <c r="D84" s="9" t="s">
         <v>410</v>
@@ -13904,17 +13922,17 @@
         <v>25</v>
       </c>
       <c r="F84" s="9" t="s">
-        <v>186</v>
+        <v>1005</v>
       </c>
       <c r="G84" s="9" t="s">
-        <v>552</v>
+        <v>1006</v>
       </c>
       <c r="H84" s="9"/>
-      <c r="I84" s="10" t="s">
-        <v>187</v>
+      <c r="I84" s="28" t="s">
+        <v>1007</v>
       </c>
       <c r="J84" s="26" t="s">
-        <v>553</v>
+        <v>1008</v>
       </c>
       <c r="K84" s="9"/>
     </row>
@@ -13926,26 +13944,26 @@
         <v>184</v>
       </c>
       <c r="C85" s="9" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="D85" s="9" t="s">
-        <v>117</v>
+        <v>410</v>
       </c>
       <c r="E85" s="9" t="s">
         <v>25</v>
       </c>
       <c r="F85" s="9" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="G85" s="9" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="H85" s="9"/>
       <c r="I85" s="10" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="J85" s="26" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="K85" s="9"/>
     </row>
@@ -13957,26 +13975,26 @@
         <v>184</v>
       </c>
       <c r="C86" s="9" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="D86" s="9" t="s">
-        <v>192</v>
+        <v>117</v>
       </c>
       <c r="E86" s="9" t="s">
         <v>25</v>
       </c>
       <c r="F86" s="9" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="G86" s="9" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="H86" s="9"/>
       <c r="I86" s="10" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="J86" s="26" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="K86" s="9"/>
     </row>
@@ -13988,26 +14006,26 @@
         <v>184</v>
       </c>
       <c r="C87" s="9" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="D87" s="9" t="s">
-        <v>51</v>
+        <v>192</v>
       </c>
       <c r="E87" s="9" t="s">
         <v>25</v>
       </c>
       <c r="F87" s="9" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="G87" s="9" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="H87" s="9"/>
       <c r="I87" s="10" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="J87" s="26" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="K87" s="9"/>
     </row>
@@ -14019,26 +14037,26 @@
         <v>184</v>
       </c>
       <c r="C88" s="9" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="D88" s="9" t="s">
-        <v>418</v>
+        <v>51</v>
       </c>
       <c r="E88" s="9" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="F88" s="9" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="G88" s="9" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="H88" s="9"/>
       <c r="I88" s="10" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="J88" s="26" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="K88" s="9"/>
     </row>
@@ -14050,7 +14068,7 @@
         <v>184</v>
       </c>
       <c r="C89" s="9" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="D89" s="9" t="s">
         <v>418</v>
@@ -14059,17 +14077,17 @@
         <v>14</v>
       </c>
       <c r="F89" s="9" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="G89" s="9" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="H89" s="9"/>
       <c r="I89" s="10" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="J89" s="26" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="K89" s="9"/>
     </row>
@@ -14080,8 +14098,8 @@
       <c r="B90" s="9" t="s">
         <v>184</v>
       </c>
-      <c r="C90" s="12" t="s">
-        <v>204</v>
+      <c r="C90" s="9" t="s">
+        <v>201</v>
       </c>
       <c r="D90" s="9" t="s">
         <v>418</v>
@@ -14090,17 +14108,17 @@
         <v>14</v>
       </c>
       <c r="F90" s="9" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="G90" s="9" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="H90" s="9"/>
-      <c r="I90" s="11" t="s">
-        <v>206</v>
+      <c r="I90" s="10" t="s">
+        <v>203</v>
       </c>
       <c r="J90" s="26" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="K90" s="9"/>
     </row>
@@ -14112,26 +14130,26 @@
         <v>184</v>
       </c>
       <c r="C91" s="12" t="s">
-        <v>827</v>
+        <v>204</v>
       </c>
       <c r="D91" s="9" t="s">
-        <v>410</v>
+        <v>418</v>
       </c>
       <c r="E91" s="9" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="F91" s="9" t="s">
-        <v>828</v>
+        <v>205</v>
       </c>
       <c r="G91" s="9" t="s">
-        <v>829</v>
+        <v>564</v>
       </c>
       <c r="H91" s="9"/>
-      <c r="I91" s="28" t="s">
-        <v>830</v>
+      <c r="I91" s="11" t="s">
+        <v>206</v>
       </c>
       <c r="J91" s="26" t="s">
-        <v>831</v>
+        <v>565</v>
       </c>
       <c r="K91" s="9"/>
     </row>
@@ -14143,26 +14161,26 @@
         <v>184</v>
       </c>
       <c r="C92" s="12" t="s">
-        <v>207</v>
+        <v>827</v>
       </c>
       <c r="D92" s="9" t="s">
-        <v>418</v>
+        <v>410</v>
       </c>
       <c r="E92" s="9" t="s">
         <v>25</v>
       </c>
       <c r="F92" s="9" t="s">
-        <v>208</v>
+        <v>828</v>
       </c>
       <c r="G92" s="9" t="s">
-        <v>566</v>
+        <v>829</v>
       </c>
       <c r="H92" s="9"/>
-      <c r="I92" s="11" t="s">
-        <v>209</v>
+      <c r="I92" s="28" t="s">
+        <v>830</v>
       </c>
       <c r="J92" s="26" t="s">
-        <v>567</v>
+        <v>831</v>
       </c>
       <c r="K92" s="9"/>
     </row>
@@ -14171,29 +14189,29 @@
         <v>132</v>
       </c>
       <c r="B93" s="9" t="s">
-        <v>210</v>
+        <v>184</v>
       </c>
       <c r="C93" s="12" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="D93" s="9" t="s">
         <v>418</v>
       </c>
       <c r="E93" s="9" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="F93" s="9" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="G93" s="9" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="H93" s="9"/>
-      <c r="I93" s="10" t="s">
-        <v>213</v>
+      <c r="I93" s="11" t="s">
+        <v>209</v>
       </c>
       <c r="J93" s="26" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="K93" s="9"/>
     </row>
@@ -14202,29 +14220,29 @@
         <v>132</v>
       </c>
       <c r="B94" s="9" t="s">
-        <v>721</v>
+        <v>210</v>
       </c>
       <c r="C94" s="12" t="s">
-        <v>720</v>
+        <v>211</v>
       </c>
       <c r="D94" s="9" t="s">
-        <v>410</v>
+        <v>418</v>
       </c>
       <c r="E94" s="9" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="F94" s="9" t="s">
-        <v>752</v>
+        <v>212</v>
       </c>
       <c r="G94" s="9" t="s">
-        <v>751</v>
+        <v>568</v>
       </c>
       <c r="H94" s="9"/>
-      <c r="I94" s="28" t="s">
-        <v>753</v>
+      <c r="I94" s="10" t="s">
+        <v>213</v>
       </c>
       <c r="J94" s="26" t="s">
-        <v>754</v>
+        <v>569</v>
       </c>
       <c r="K94" s="9"/>
     </row>
@@ -14236,7 +14254,7 @@
         <v>721</v>
       </c>
       <c r="C95" s="12" t="s">
-        <v>895</v>
+        <v>720</v>
       </c>
       <c r="D95" s="9" t="s">
         <v>410</v>
@@ -14245,16 +14263,18 @@
         <v>25</v>
       </c>
       <c r="F95" s="9" t="s">
-        <v>962</v>
+        <v>752</v>
       </c>
       <c r="G95" s="9" t="s">
-        <v>963</v>
+        <v>751</v>
       </c>
       <c r="H95" s="9"/>
       <c r="I95" s="28" t="s">
-        <v>964</v>
-      </c>
-      <c r="J95" s="26"/>
+        <v>753</v>
+      </c>
+      <c r="J95" s="26" t="s">
+        <v>754</v>
+      </c>
       <c r="K95" s="9"/>
     </row>
     <row r="96" spans="1:11" ht="13">
@@ -14262,30 +14282,28 @@
         <v>132</v>
       </c>
       <c r="B96" s="9" t="s">
-        <v>214</v>
+        <v>721</v>
       </c>
       <c r="C96" s="12" t="s">
-        <v>215</v>
+        <v>895</v>
       </c>
       <c r="D96" s="9" t="s">
-        <v>47</v>
+        <v>410</v>
       </c>
       <c r="E96" s="9" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="F96" s="9" t="s">
-        <v>216</v>
+        <v>962</v>
       </c>
       <c r="G96" s="9" t="s">
-        <v>570</v>
+        <v>963</v>
       </c>
       <c r="H96" s="9"/>
-      <c r="I96" s="10" t="s">
-        <v>217</v>
-      </c>
-      <c r="J96" s="26" t="s">
-        <v>571</v>
-      </c>
+      <c r="I96" s="28" t="s">
+        <v>964</v>
+      </c>
+      <c r="J96" s="26"/>
       <c r="K96" s="9"/>
     </row>
     <row r="97" spans="1:11" ht="13">
@@ -14296,26 +14314,26 @@
         <v>214</v>
       </c>
       <c r="C97" s="12" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D97" s="9" t="s">
-        <v>157</v>
+        <v>47</v>
       </c>
       <c r="E97" s="9" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="F97" s="9" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="G97" s="9" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="H97" s="9"/>
       <c r="I97" s="10" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="J97" s="26" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="K97" s="9"/>
     </row>
@@ -14324,29 +14342,29 @@
         <v>132</v>
       </c>
       <c r="B98" s="9" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="C98" s="12" t="s">
-        <v>574</v>
+        <v>218</v>
       </c>
       <c r="D98" s="9" t="s">
-        <v>410</v>
+        <v>157</v>
       </c>
       <c r="E98" s="9" t="s">
         <v>25</v>
       </c>
       <c r="F98" s="9" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="G98" s="9" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="H98" s="9"/>
       <c r="I98" s="10" t="s">
-        <v>576</v>
+        <v>220</v>
       </c>
       <c r="J98" s="26" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="K98" s="9"/>
     </row>
@@ -14355,29 +14373,29 @@
         <v>132</v>
       </c>
       <c r="B99" s="9" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="C99" s="12" t="s">
-        <v>226</v>
+        <v>574</v>
       </c>
       <c r="D99" s="9" t="s">
-        <v>418</v>
+        <v>410</v>
       </c>
       <c r="E99" s="9" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="F99" s="9" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="G99" s="9" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="H99" s="9"/>
       <c r="I99" s="10" t="s">
-        <v>228</v>
+        <v>576</v>
       </c>
       <c r="J99" s="26" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="K99" s="9"/>
     </row>
@@ -14389,26 +14407,26 @@
         <v>225</v>
       </c>
       <c r="C100" s="12" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="D100" s="9" t="s">
-        <v>410</v>
+        <v>418</v>
       </c>
       <c r="E100" s="9" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="F100" s="9" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="G100" s="9" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="H100" s="9"/>
       <c r="I100" s="10" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="J100" s="26" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="K100" s="9"/>
     </row>
@@ -14417,10 +14435,10 @@
         <v>132</v>
       </c>
       <c r="B101" s="9" t="s">
-        <v>582</v>
-      </c>
-      <c r="C101" s="9" t="s">
-        <v>583</v>
+        <v>225</v>
+      </c>
+      <c r="C101" s="12" t="s">
+        <v>229</v>
       </c>
       <c r="D101" s="9" t="s">
         <v>410</v>
@@ -14429,17 +14447,17 @@
         <v>25</v>
       </c>
       <c r="F101" s="9" t="s">
-        <v>584</v>
+        <v>230</v>
       </c>
       <c r="G101" s="9" t="s">
-        <v>585</v>
+        <v>580</v>
       </c>
       <c r="H101" s="9"/>
-      <c r="I101" s="11" t="s">
-        <v>586</v>
+      <c r="I101" s="10" t="s">
+        <v>231</v>
       </c>
       <c r="J101" s="26" t="s">
-        <v>587</v>
+        <v>581</v>
       </c>
       <c r="K101" s="9"/>
     </row>
@@ -14451,26 +14469,26 @@
         <v>582</v>
       </c>
       <c r="C102" s="9" t="s">
-        <v>837</v>
+        <v>583</v>
       </c>
       <c r="D102" s="9" t="s">
-        <v>117</v>
+        <v>410</v>
       </c>
       <c r="E102" s="9" t="s">
         <v>25</v>
       </c>
       <c r="F102" s="9" t="s">
-        <v>838</v>
+        <v>584</v>
       </c>
       <c r="G102" s="9" t="s">
-        <v>839</v>
+        <v>585</v>
       </c>
       <c r="H102" s="9"/>
-      <c r="I102" s="28" t="s">
-        <v>840</v>
+      <c r="I102" s="11" t="s">
+        <v>586</v>
       </c>
       <c r="J102" s="26" t="s">
-        <v>841</v>
+        <v>587</v>
       </c>
       <c r="K102" s="9"/>
     </row>
@@ -14482,7 +14500,7 @@
         <v>582</v>
       </c>
       <c r="C103" s="9" t="s">
-        <v>911</v>
+        <v>837</v>
       </c>
       <c r="D103" s="9" t="s">
         <v>117</v>
@@ -14491,17 +14509,17 @@
         <v>25</v>
       </c>
       <c r="F103" s="9" t="s">
-        <v>938</v>
+        <v>838</v>
       </c>
       <c r="G103" s="9" t="s">
-        <v>939</v>
+        <v>839</v>
       </c>
       <c r="H103" s="9"/>
       <c r="I103" s="28" t="s">
-        <v>940</v>
+        <v>840</v>
       </c>
       <c r="J103" s="26" t="s">
-        <v>941</v>
+        <v>841</v>
       </c>
       <c r="K103" s="9"/>
     </row>
@@ -14510,29 +14528,29 @@
         <v>132</v>
       </c>
       <c r="B104" s="9" t="s">
-        <v>232</v>
+        <v>582</v>
       </c>
       <c r="C104" s="9" t="s">
-        <v>233</v>
+        <v>911</v>
       </c>
       <c r="D104" s="9" t="s">
-        <v>410</v>
+        <v>117</v>
       </c>
       <c r="E104" s="9" t="s">
         <v>25</v>
       </c>
       <c r="F104" s="9" t="s">
-        <v>234</v>
+        <v>938</v>
       </c>
       <c r="G104" s="9" t="s">
-        <v>588</v>
+        <v>939</v>
       </c>
       <c r="H104" s="9"/>
-      <c r="I104" s="10" t="s">
-        <v>235</v>
+      <c r="I104" s="28" t="s">
+        <v>940</v>
       </c>
       <c r="J104" s="26" t="s">
-        <v>589</v>
+        <v>941</v>
       </c>
       <c r="K104" s="9"/>
     </row>
@@ -14541,29 +14559,29 @@
         <v>132</v>
       </c>
       <c r="B105" s="9" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="C105" s="9" t="s">
-        <v>381</v>
+        <v>233</v>
       </c>
       <c r="D105" s="9" t="s">
-        <v>382</v>
+        <v>410</v>
       </c>
       <c r="E105" s="9" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="F105" s="9" t="s">
-        <v>590</v>
+        <v>234</v>
       </c>
       <c r="G105" s="9" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="H105" s="9"/>
-      <c r="I105" s="11" t="s">
-        <v>592</v>
+      <c r="I105" s="10" t="s">
+        <v>235</v>
       </c>
       <c r="J105" s="26" t="s">
-        <v>593</v>
+        <v>589</v>
       </c>
       <c r="K105" s="9"/>
     </row>
@@ -14575,26 +14593,26 @@
         <v>236</v>
       </c>
       <c r="C106" s="9" t="s">
-        <v>237</v>
+        <v>381</v>
       </c>
       <c r="D106" s="9" t="s">
-        <v>410</v>
+        <v>382</v>
       </c>
       <c r="E106" s="9" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="F106" s="9" t="s">
-        <v>238</v>
+        <v>590</v>
       </c>
       <c r="G106" s="9" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="H106" s="9"/>
-      <c r="I106" s="10" t="s">
-        <v>239</v>
+      <c r="I106" s="11" t="s">
+        <v>592</v>
       </c>
       <c r="J106" s="26" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="K106" s="9"/>
     </row>
@@ -14606,26 +14624,26 @@
         <v>236</v>
       </c>
       <c r="C107" s="9" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="D107" s="9" t="s">
-        <v>241</v>
+        <v>410</v>
       </c>
       <c r="E107" s="9" t="s">
         <v>25</v>
       </c>
       <c r="F107" s="9" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="G107" s="9" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="H107" s="9"/>
       <c r="I107" s="10" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="J107" s="26" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="K107" s="9"/>
     </row>
@@ -14637,26 +14655,26 @@
         <v>236</v>
       </c>
       <c r="C108" s="9" t="s">
-        <v>789</v>
+        <v>240</v>
       </c>
       <c r="D108" s="9" t="s">
-        <v>117</v>
+        <v>241</v>
       </c>
       <c r="E108" s="9" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="F108" s="9" t="s">
-        <v>811</v>
+        <v>242</v>
       </c>
       <c r="G108" s="9" t="s">
-        <v>812</v>
+        <v>596</v>
       </c>
       <c r="H108" s="9"/>
-      <c r="I108" s="28" t="s">
-        <v>813</v>
+      <c r="I108" s="10" t="s">
+        <v>243</v>
       </c>
       <c r="J108" s="26" t="s">
-        <v>814</v>
+        <v>597</v>
       </c>
       <c r="K108" s="9"/>
     </row>
@@ -14668,26 +14686,26 @@
         <v>236</v>
       </c>
       <c r="C109" s="9" t="s">
-        <v>910</v>
+        <v>789</v>
       </c>
       <c r="D109" s="9" t="s">
-        <v>418</v>
+        <v>117</v>
       </c>
       <c r="E109" s="9" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="F109" s="9" t="s">
-        <v>943</v>
+        <v>811</v>
       </c>
       <c r="G109" s="9" t="s">
-        <v>942</v>
+        <v>812</v>
       </c>
       <c r="H109" s="9"/>
       <c r="I109" s="28" t="s">
-        <v>944</v>
+        <v>813</v>
       </c>
       <c r="J109" s="26" t="s">
-        <v>945</v>
+        <v>814</v>
       </c>
       <c r="K109" s="9"/>
     </row>
@@ -14696,29 +14714,29 @@
         <v>132</v>
       </c>
       <c r="B110" s="9" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="C110" s="9" t="s">
-        <v>245</v>
+        <v>910</v>
       </c>
       <c r="D110" s="9" t="s">
-        <v>241</v>
+        <v>418</v>
       </c>
       <c r="E110" s="9" t="s">
         <v>25</v>
       </c>
       <c r="F110" s="9" t="s">
-        <v>246</v>
+        <v>943</v>
       </c>
       <c r="G110" s="9" t="s">
-        <v>598</v>
+        <v>942</v>
       </c>
       <c r="H110" s="9"/>
-      <c r="I110" s="10" t="s">
-        <v>247</v>
+      <c r="I110" s="28" t="s">
+        <v>944</v>
       </c>
       <c r="J110" s="26" t="s">
-        <v>599</v>
+        <v>945</v>
       </c>
       <c r="K110" s="9"/>
     </row>
@@ -14727,29 +14745,29 @@
         <v>132</v>
       </c>
       <c r="B111" s="9" t="s">
-        <v>788</v>
+        <v>244</v>
       </c>
       <c r="C111" s="9" t="s">
-        <v>787</v>
+        <v>245</v>
       </c>
       <c r="D111" s="9" t="s">
-        <v>410</v>
+        <v>241</v>
       </c>
       <c r="E111" s="9" t="s">
         <v>25</v>
       </c>
       <c r="F111" s="9" t="s">
-        <v>815</v>
+        <v>246</v>
       </c>
       <c r="G111" s="9" t="s">
-        <v>816</v>
+        <v>598</v>
       </c>
       <c r="H111" s="9"/>
-      <c r="I111" s="28" t="s">
-        <v>817</v>
+      <c r="I111" s="10" t="s">
+        <v>247</v>
       </c>
       <c r="J111" s="26" t="s">
-        <v>818</v>
+        <v>599</v>
       </c>
       <c r="K111" s="9"/>
     </row>
@@ -14758,29 +14776,29 @@
         <v>132</v>
       </c>
       <c r="B112" s="9" t="s">
-        <v>248</v>
+        <v>788</v>
       </c>
       <c r="C112" s="9" t="s">
-        <v>381</v>
+        <v>787</v>
       </c>
       <c r="D112" s="9" t="s">
-        <v>382</v>
+        <v>410</v>
       </c>
       <c r="E112" s="9" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="F112" s="9" t="s">
-        <v>600</v>
+        <v>815</v>
       </c>
       <c r="G112" s="9" t="s">
-        <v>601</v>
+        <v>816</v>
       </c>
       <c r="H112" s="9"/>
-      <c r="I112" s="10" t="s">
-        <v>602</v>
+      <c r="I112" s="28" t="s">
+        <v>817</v>
       </c>
       <c r="J112" s="26" t="s">
-        <v>603</v>
+        <v>818</v>
       </c>
       <c r="K112" s="9"/>
     </row>
@@ -14792,26 +14810,26 @@
         <v>248</v>
       </c>
       <c r="C113" s="9" t="s">
-        <v>249</v>
+        <v>381</v>
       </c>
       <c r="D113" s="9" t="s">
-        <v>117</v>
+        <v>382</v>
       </c>
       <c r="E113" s="9" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="F113" s="9" t="s">
-        <v>250</v>
+        <v>600</v>
       </c>
       <c r="G113" s="9" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="H113" s="9"/>
       <c r="I113" s="10" t="s">
-        <v>251</v>
+        <v>602</v>
       </c>
       <c r="J113" s="26" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="K113" s="9"/>
     </row>
@@ -14823,26 +14841,26 @@
         <v>248</v>
       </c>
       <c r="C114" s="9" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="D114" s="9" t="s">
-        <v>410</v>
+        <v>117</v>
       </c>
       <c r="E114" s="9" t="s">
         <v>25</v>
       </c>
       <c r="F114" s="9" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="G114" s="9" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="H114" s="9"/>
       <c r="I114" s="10" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="J114" s="26" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="K114" s="9"/>
     </row>
@@ -14854,26 +14872,26 @@
         <v>248</v>
       </c>
       <c r="C115" s="9" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="D115" s="9" t="s">
-        <v>117</v>
+        <v>410</v>
       </c>
       <c r="E115" s="9" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="F115" s="9" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="G115" s="9" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="H115" s="9"/>
       <c r="I115" s="10" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="J115" s="26" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="K115" s="9"/>
     </row>
@@ -14882,29 +14900,29 @@
         <v>132</v>
       </c>
       <c r="B116" s="9" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="C116" s="9" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="D116" s="9" t="s">
         <v>117</v>
       </c>
       <c r="E116" s="9" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="F116" s="9" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="G116" s="9" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="H116" s="9"/>
       <c r="I116" s="10" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="J116" s="26" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="K116" s="9"/>
     </row>
@@ -14913,29 +14931,29 @@
         <v>132</v>
       </c>
       <c r="B117" s="9" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="C117" s="9" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="D117" s="9" t="s">
-        <v>612</v>
+        <v>117</v>
       </c>
       <c r="E117" s="9" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="F117" s="9" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="G117" s="9" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="H117" s="9"/>
-      <c r="I117" s="11" t="s">
-        <v>266</v>
+      <c r="I117" s="10" t="s">
+        <v>261</v>
       </c>
       <c r="J117" s="26" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="K117" s="9"/>
     </row>
@@ -14947,26 +14965,26 @@
         <v>262</v>
       </c>
       <c r="C118" s="9" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="D118" s="9" t="s">
-        <v>410</v>
+        <v>612</v>
       </c>
       <c r="E118" s="9" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="F118" s="9" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="G118" s="9" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="H118" s="9"/>
       <c r="I118" s="11" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="J118" s="26" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="K118" s="9"/>
     </row>
@@ -14978,26 +14996,26 @@
         <v>262</v>
       </c>
       <c r="C119" s="9" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="D119" s="9" t="s">
-        <v>418</v>
+        <v>410</v>
       </c>
       <c r="E119" s="9" t="s">
         <v>25</v>
       </c>
       <c r="F119" s="9" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="G119" s="9" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="H119" s="9"/>
       <c r="I119" s="11" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="J119" s="26" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="K119" s="9"/>
     </row>
@@ -15009,26 +15027,26 @@
         <v>262</v>
       </c>
       <c r="C120" s="9" t="s">
-        <v>832</v>
+        <v>270</v>
       </c>
       <c r="D120" s="9" t="s">
-        <v>410</v>
+        <v>418</v>
       </c>
       <c r="E120" s="9" t="s">
         <v>25</v>
       </c>
       <c r="F120" s="9" t="s">
-        <v>833</v>
+        <v>271</v>
       </c>
       <c r="G120" s="9" t="s">
-        <v>834</v>
+        <v>617</v>
       </c>
       <c r="H120" s="9"/>
-      <c r="I120" s="28" t="s">
-        <v>835</v>
+      <c r="I120" s="11" t="s">
+        <v>272</v>
       </c>
       <c r="J120" s="26" t="s">
-        <v>836</v>
+        <v>618</v>
       </c>
       <c r="K120" s="9"/>
     </row>
@@ -15040,26 +15058,26 @@
         <v>262</v>
       </c>
       <c r="C121" s="9" t="s">
-        <v>785</v>
+        <v>832</v>
       </c>
       <c r="D121" s="9" t="s">
-        <v>117</v>
+        <v>410</v>
       </c>
       <c r="E121" s="9" t="s">
         <v>25</v>
       </c>
       <c r="F121" s="9" t="s">
-        <v>819</v>
+        <v>833</v>
       </c>
       <c r="G121" s="9" t="s">
-        <v>820</v>
+        <v>834</v>
       </c>
       <c r="H121" s="9"/>
       <c r="I121" s="28" t="s">
-        <v>821</v>
+        <v>835</v>
       </c>
       <c r="J121" s="26" t="s">
-        <v>822</v>
+        <v>836</v>
       </c>
       <c r="K121" s="9"/>
     </row>
@@ -15071,26 +15089,26 @@
         <v>262</v>
       </c>
       <c r="C122" s="9" t="s">
-        <v>896</v>
+        <v>785</v>
       </c>
       <c r="D122" s="9" t="s">
-        <v>418</v>
+        <v>117</v>
       </c>
       <c r="E122" s="9" t="s">
         <v>25</v>
       </c>
       <c r="F122" s="9" t="s">
-        <v>946</v>
+        <v>819</v>
       </c>
       <c r="G122" s="9" t="s">
-        <v>947</v>
+        <v>820</v>
       </c>
       <c r="H122" s="9"/>
       <c r="I122" s="28" t="s">
-        <v>948</v>
+        <v>821</v>
       </c>
       <c r="J122" s="26" t="s">
-        <v>949</v>
+        <v>822</v>
       </c>
       <c r="K122" s="9"/>
     </row>
@@ -15102,26 +15120,26 @@
         <v>262</v>
       </c>
       <c r="C123" s="9" t="s">
-        <v>786</v>
+        <v>896</v>
       </c>
       <c r="D123" s="9" t="s">
-        <v>117</v>
+        <v>418</v>
       </c>
       <c r="E123" s="9" t="s">
         <v>25</v>
       </c>
       <c r="F123" s="9" t="s">
-        <v>823</v>
+        <v>946</v>
       </c>
       <c r="G123" s="9" t="s">
-        <v>824</v>
+        <v>947</v>
       </c>
       <c r="H123" s="9"/>
       <c r="I123" s="28" t="s">
-        <v>825</v>
+        <v>948</v>
       </c>
       <c r="J123" s="26" t="s">
-        <v>826</v>
+        <v>949</v>
       </c>
       <c r="K123" s="9"/>
     </row>
@@ -15133,26 +15151,26 @@
         <v>262</v>
       </c>
       <c r="C124" s="9" t="s">
-        <v>273</v>
+        <v>786</v>
       </c>
       <c r="D124" s="9" t="s">
-        <v>612</v>
+        <v>117</v>
       </c>
       <c r="E124" s="9" t="s">
         <v>25</v>
       </c>
       <c r="F124" s="9" t="s">
-        <v>274</v>
+        <v>823</v>
       </c>
       <c r="G124" s="9" t="s">
-        <v>619</v>
+        <v>824</v>
       </c>
       <c r="H124" s="9"/>
-      <c r="I124" s="11" t="s">
-        <v>275</v>
+      <c r="I124" s="28" t="s">
+        <v>825</v>
       </c>
       <c r="J124" s="26" t="s">
-        <v>620</v>
+        <v>826</v>
       </c>
       <c r="K124" s="9"/>
     </row>
@@ -15164,26 +15182,26 @@
         <v>262</v>
       </c>
       <c r="C125" s="9" t="s">
-        <v>897</v>
+        <v>273</v>
       </c>
       <c r="D125" s="9" t="s">
-        <v>55</v>
+        <v>612</v>
       </c>
       <c r="E125" s="9" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="F125" s="9" t="s">
-        <v>950</v>
+        <v>274</v>
       </c>
       <c r="G125" s="9" t="s">
-        <v>951</v>
+        <v>619</v>
       </c>
       <c r="H125" s="9"/>
-      <c r="I125" s="28" t="s">
-        <v>952</v>
+      <c r="I125" s="11" t="s">
+        <v>275</v>
       </c>
       <c r="J125" s="26" t="s">
-        <v>953</v>
+        <v>620</v>
       </c>
       <c r="K125" s="9"/>
     </row>
@@ -15195,26 +15213,26 @@
         <v>262</v>
       </c>
       <c r="C126" s="9" t="s">
-        <v>723</v>
+        <v>897</v>
       </c>
       <c r="D126" s="9" t="s">
-        <v>398</v>
+        <v>55</v>
       </c>
       <c r="E126" s="9" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="F126" s="9" t="s">
-        <v>755</v>
+        <v>950</v>
       </c>
       <c r="G126" s="9" t="s">
-        <v>756</v>
+        <v>951</v>
       </c>
       <c r="H126" s="9"/>
       <c r="I126" s="28" t="s">
-        <v>757</v>
+        <v>952</v>
       </c>
       <c r="J126" s="26" t="s">
-        <v>758</v>
+        <v>953</v>
       </c>
       <c r="K126" s="9"/>
     </row>
@@ -15226,25 +15244,27 @@
         <v>262</v>
       </c>
       <c r="C127" s="9" t="s">
-        <v>276</v>
+        <v>723</v>
       </c>
       <c r="D127" s="9" t="s">
         <v>398</v>
       </c>
       <c r="E127" s="9" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="F127" s="9" t="s">
-        <v>277</v>
+        <v>755</v>
       </c>
       <c r="G127" s="9" t="s">
-        <v>621</v>
+        <v>756</v>
       </c>
       <c r="H127" s="9"/>
-      <c r="I127" s="11" t="s">
-        <v>622</v>
-      </c>
-      <c r="J127" s="26"/>
+      <c r="I127" s="28" t="s">
+        <v>757</v>
+      </c>
+      <c r="J127" s="26" t="s">
+        <v>758</v>
+      </c>
       <c r="K127" s="9"/>
     </row>
     <row r="128" spans="1:11" ht="13">
@@ -15252,10 +15272,10 @@
         <v>132</v>
       </c>
       <c r="B128" s="9" t="s">
-        <v>901</v>
+        <v>262</v>
       </c>
       <c r="C128" s="9" t="s">
-        <v>900</v>
+        <v>276</v>
       </c>
       <c r="D128" s="9" t="s">
         <v>398</v>
@@ -15264,18 +15284,16 @@
         <v>14</v>
       </c>
       <c r="F128" s="9" t="s">
-        <v>954</v>
+        <v>277</v>
       </c>
       <c r="G128" s="9" t="s">
-        <v>956</v>
+        <v>621</v>
       </c>
       <c r="H128" s="9"/>
-      <c r="I128" s="28" t="s">
-        <v>955</v>
-      </c>
-      <c r="J128" s="26" t="s">
-        <v>957</v>
-      </c>
+      <c r="I128" s="11" t="s">
+        <v>622</v>
+      </c>
+      <c r="J128" s="26"/>
       <c r="K128" s="9"/>
     </row>
     <row r="129" spans="1:11" ht="13">
@@ -15283,7 +15301,7 @@
         <v>132</v>
       </c>
       <c r="B129" s="9" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="C129" s="9" t="s">
         <v>900</v>
@@ -15295,50 +15313,50 @@
         <v>14</v>
       </c>
       <c r="F129" s="9" t="s">
-        <v>958</v>
+        <v>954</v>
       </c>
       <c r="G129" s="9" t="s">
-        <v>959</v>
+        <v>956</v>
       </c>
       <c r="H129" s="9"/>
       <c r="I129" s="28" t="s">
+        <v>955</v>
+      </c>
+      <c r="J129" s="26" t="s">
+        <v>957</v>
+      </c>
+      <c r="K129" s="9"/>
+    </row>
+    <row r="130" spans="1:11" ht="13">
+      <c r="A130" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="B130" s="9" t="s">
+        <v>903</v>
+      </c>
+      <c r="C130" s="9" t="s">
+        <v>900</v>
+      </c>
+      <c r="D130" s="9" t="s">
+        <v>398</v>
+      </c>
+      <c r="E130" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F130" s="9" t="s">
+        <v>958</v>
+      </c>
+      <c r="G130" s="9" t="s">
+        <v>959</v>
+      </c>
+      <c r="H130" s="9"/>
+      <c r="I130" s="28" t="s">
         <v>960</v>
       </c>
-      <c r="J129" s="26" t="s">
+      <c r="J130" s="26" t="s">
         <v>961</v>
       </c>
-      <c r="K129" s="9"/>
-    </row>
-    <row r="130" spans="1:11" ht="13">
-      <c r="A130" s="14" t="s">
-        <v>278</v>
-      </c>
-      <c r="B130" s="14" t="s">
-        <v>623</v>
-      </c>
-      <c r="C130" s="14" t="s">
-        <v>624</v>
-      </c>
-      <c r="D130" s="14" t="s">
-        <v>157</v>
-      </c>
-      <c r="E130" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="F130" s="14" t="s">
-        <v>625</v>
-      </c>
-      <c r="G130" s="14" t="s">
-        <v>626</v>
-      </c>
-      <c r="H130" s="14"/>
-      <c r="I130" s="16" t="s">
-        <v>627</v>
-      </c>
-      <c r="J130" s="17" t="s">
-        <v>628</v>
-      </c>
-      <c r="K130" s="14"/>
+      <c r="K130" s="9"/>
     </row>
     <row r="131" spans="1:11" ht="13">
       <c r="A131" s="14" t="s">
@@ -15348,26 +15366,26 @@
         <v>623</v>
       </c>
       <c r="C131" s="14" t="s">
-        <v>629</v>
+        <v>624</v>
       </c>
       <c r="D131" s="14" t="s">
-        <v>410</v>
+        <v>157</v>
       </c>
       <c r="E131" s="14" t="s">
         <v>25</v>
       </c>
       <c r="F131" s="14" t="s">
-        <v>630</v>
+        <v>625</v>
       </c>
       <c r="G131" s="14" t="s">
-        <v>631</v>
+        <v>626</v>
       </c>
       <c r="H131" s="14"/>
       <c r="I131" s="16" t="s">
-        <v>632</v>
+        <v>627</v>
       </c>
       <c r="J131" s="17" t="s">
-        <v>633</v>
+        <v>628</v>
       </c>
       <c r="K131" s="14"/>
     </row>
@@ -15379,7 +15397,7 @@
         <v>623</v>
       </c>
       <c r="C132" s="14" t="s">
-        <v>895</v>
+        <v>629</v>
       </c>
       <c r="D132" s="14" t="s">
         <v>410</v>
@@ -15388,16 +15406,18 @@
         <v>25</v>
       </c>
       <c r="F132" s="14" t="s">
-        <v>965</v>
+        <v>630</v>
       </c>
       <c r="G132" s="14" t="s">
-        <v>967</v>
+        <v>631</v>
       </c>
       <c r="H132" s="14"/>
-      <c r="I132" s="29" t="s">
-        <v>968</v>
-      </c>
-      <c r="J132" s="17"/>
+      <c r="I132" s="16" t="s">
+        <v>632</v>
+      </c>
+      <c r="J132" s="17" t="s">
+        <v>633</v>
+      </c>
       <c r="K132" s="14"/>
     </row>
     <row r="133" spans="1:11" ht="13">
@@ -15417,14 +15437,14 @@
         <v>25</v>
       </c>
       <c r="F133" s="14" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="G133" s="14" t="s">
-        <v>969</v>
+        <v>967</v>
       </c>
       <c r="H133" s="14"/>
       <c r="I133" s="29" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
       <c r="J133" s="17"/>
       <c r="K133" s="14"/>
@@ -15434,30 +15454,28 @@
         <v>278</v>
       </c>
       <c r="B134" s="14" t="s">
-        <v>279</v>
+        <v>623</v>
       </c>
       <c r="C134" s="14" t="s">
-        <v>898</v>
+        <v>895</v>
       </c>
       <c r="D134" s="14" t="s">
-        <v>47</v>
+        <v>410</v>
       </c>
       <c r="E134" s="14" t="s">
         <v>25</v>
       </c>
       <c r="F134" s="14" t="s">
-        <v>971</v>
+        <v>966</v>
       </c>
       <c r="G134" s="14" t="s">
-        <v>972</v>
+        <v>969</v>
       </c>
       <c r="H134" s="14"/>
       <c r="I134" s="29" t="s">
-        <v>973</v>
-      </c>
-      <c r="J134" s="17" t="s">
-        <v>974</v>
-      </c>
+        <v>970</v>
+      </c>
+      <c r="J134" s="17"/>
       <c r="K134" s="14"/>
     </row>
     <row r="135" spans="1:11" ht="13">
@@ -15468,26 +15486,26 @@
         <v>279</v>
       </c>
       <c r="C135" s="14" t="s">
-        <v>634</v>
+        <v>898</v>
       </c>
       <c r="D135" s="14" t="s">
         <v>47</v>
       </c>
       <c r="E135" s="14" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="F135" s="14" t="s">
-        <v>635</v>
+        <v>971</v>
       </c>
       <c r="G135" s="14" t="s">
-        <v>636</v>
+        <v>972</v>
       </c>
       <c r="H135" s="14"/>
-      <c r="I135" s="15" t="s">
-        <v>637</v>
+      <c r="I135" s="29" t="s">
+        <v>973</v>
       </c>
       <c r="J135" s="17" t="s">
-        <v>638</v>
+        <v>974</v>
       </c>
       <c r="K135" s="14"/>
     </row>
@@ -15499,26 +15517,26 @@
         <v>279</v>
       </c>
       <c r="C136" s="14" t="s">
-        <v>639</v>
+        <v>634</v>
       </c>
       <c r="D136" s="14" t="s">
-        <v>157</v>
+        <v>47</v>
       </c>
       <c r="E136" s="14" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="F136" s="14" t="s">
-        <v>640</v>
+        <v>635</v>
       </c>
       <c r="G136" s="14" t="s">
-        <v>641</v>
+        <v>636</v>
       </c>
       <c r="H136" s="14"/>
       <c r="I136" s="15" t="s">
-        <v>642</v>
+        <v>637</v>
       </c>
       <c r="J136" s="17" t="s">
-        <v>643</v>
+        <v>638</v>
       </c>
       <c r="K136" s="14"/>
     </row>
@@ -15530,26 +15548,26 @@
         <v>279</v>
       </c>
       <c r="C137" s="14" t="s">
-        <v>644</v>
+        <v>639</v>
       </c>
       <c r="D137" s="14" t="s">
-        <v>410</v>
+        <v>157</v>
       </c>
       <c r="E137" s="14" t="s">
         <v>25</v>
       </c>
       <c r="F137" s="14" t="s">
-        <v>645</v>
+        <v>640</v>
       </c>
       <c r="G137" s="14" t="s">
-        <v>646</v>
+        <v>641</v>
       </c>
       <c r="H137" s="14"/>
       <c r="I137" s="15" t="s">
-        <v>647</v>
+        <v>642</v>
       </c>
       <c r="J137" s="17" t="s">
-        <v>648</v>
+        <v>643</v>
       </c>
       <c r="K137" s="14"/>
     </row>
@@ -15561,25 +15579,27 @@
         <v>279</v>
       </c>
       <c r="C138" s="14" t="s">
-        <v>381</v>
+        <v>644</v>
       </c>
       <c r="D138" s="14" t="s">
-        <v>382</v>
+        <v>410</v>
       </c>
       <c r="E138" s="14" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="F138" s="14" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
       <c r="G138" s="14" t="s">
-        <v>650</v>
+        <v>646</v>
       </c>
       <c r="H138" s="14"/>
       <c r="I138" s="15" t="s">
-        <v>651</v>
-      </c>
-      <c r="J138" s="17"/>
+        <v>647</v>
+      </c>
+      <c r="J138" s="17" t="s">
+        <v>648</v>
+      </c>
       <c r="K138" s="14"/>
     </row>
     <row r="139" spans="1:11" ht="13">
@@ -15590,27 +15610,25 @@
         <v>279</v>
       </c>
       <c r="C139" s="14" t="s">
-        <v>87</v>
+        <v>381</v>
       </c>
       <c r="D139" s="14" t="s">
-        <v>410</v>
+        <v>382</v>
       </c>
       <c r="E139" s="14" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="F139" s="14" t="s">
-        <v>975</v>
+        <v>649</v>
       </c>
       <c r="G139" s="14" t="s">
-        <v>976</v>
+        <v>650</v>
       </c>
       <c r="H139" s="14"/>
-      <c r="I139" s="29" t="s">
-        <v>977</v>
-      </c>
-      <c r="J139" s="17" t="s">
-        <v>978</v>
-      </c>
+      <c r="I139" s="15" t="s">
+        <v>651</v>
+      </c>
+      <c r="J139" s="17"/>
       <c r="K139" s="14"/>
     </row>
     <row r="140" spans="1:11" ht="13">
@@ -15621,26 +15639,26 @@
         <v>279</v>
       </c>
       <c r="C140" s="14" t="s">
-        <v>280</v>
+        <v>87</v>
       </c>
       <c r="D140" s="14" t="s">
-        <v>157</v>
+        <v>410</v>
       </c>
       <c r="E140" s="14" t="s">
         <v>25</v>
       </c>
       <c r="F140" s="14" t="s">
-        <v>281</v>
+        <v>975</v>
       </c>
       <c r="G140" s="14" t="s">
-        <v>652</v>
+        <v>976</v>
       </c>
       <c r="H140" s="14"/>
-      <c r="I140" s="15" t="s">
-        <v>282</v>
+      <c r="I140" s="29" t="s">
+        <v>977</v>
       </c>
       <c r="J140" s="17" t="s">
-        <v>653</v>
+        <v>978</v>
       </c>
       <c r="K140" s="14"/>
     </row>
@@ -15652,26 +15670,26 @@
         <v>279</v>
       </c>
       <c r="C141" s="14" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="D141" s="14" t="s">
-        <v>410</v>
+        <v>157</v>
       </c>
       <c r="E141" s="14" t="s">
         <v>25</v>
       </c>
       <c r="F141" s="14" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="G141" s="14" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="H141" s="14"/>
       <c r="I141" s="15" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="J141" s="17" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="K141" s="14"/>
     </row>
@@ -15683,26 +15701,26 @@
         <v>279</v>
       </c>
       <c r="C142" s="14" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="D142" s="14" t="s">
-        <v>418</v>
+        <v>410</v>
       </c>
       <c r="E142" s="14" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="F142" s="14" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="G142" s="14" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="H142" s="14"/>
-      <c r="I142" s="16" t="s">
-        <v>288</v>
+      <c r="I142" s="15" t="s">
+        <v>285</v>
       </c>
       <c r="J142" s="17" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="K142" s="14"/>
     </row>
@@ -15714,26 +15732,26 @@
         <v>279</v>
       </c>
       <c r="C143" s="14" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="D143" s="14" t="s">
-        <v>117</v>
+        <v>418</v>
       </c>
       <c r="E143" s="14" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="F143" s="14" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="G143" s="14" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="H143" s="14"/>
       <c r="I143" s="16" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="J143" s="17" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="K143" s="14"/>
     </row>
@@ -15745,26 +15763,26 @@
         <v>279</v>
       </c>
       <c r="C144" s="14" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D144" s="14" t="s">
-        <v>47</v>
+        <v>117</v>
       </c>
       <c r="E144" s="14" t="s">
         <v>25</v>
       </c>
       <c r="F144" s="14" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="G144" s="14" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="H144" s="14"/>
       <c r="I144" s="16" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="J144" s="17" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="K144" s="14"/>
     </row>
@@ -15776,26 +15794,26 @@
         <v>279</v>
       </c>
       <c r="C145" s="14" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="D145" s="14" t="s">
-        <v>410</v>
+        <v>47</v>
       </c>
       <c r="E145" s="14" t="s">
         <v>25</v>
       </c>
       <c r="F145" s="14" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="G145" s="14" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="H145" s="14"/>
       <c r="I145" s="16" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="J145" s="17" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="K145" s="14"/>
     </row>
@@ -15807,7 +15825,7 @@
         <v>279</v>
       </c>
       <c r="C146" s="14" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="D146" s="14" t="s">
         <v>410</v>
@@ -15816,17 +15834,17 @@
         <v>25</v>
       </c>
       <c r="F146" s="14" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="G146" s="14" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="H146" s="14"/>
       <c r="I146" s="16" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="J146" s="17" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="K146" s="14"/>
     </row>
@@ -15838,26 +15856,26 @@
         <v>279</v>
       </c>
       <c r="C147" s="14" t="s">
-        <v>191</v>
+        <v>298</v>
       </c>
       <c r="D147" s="14" t="s">
-        <v>117</v>
+        <v>410</v>
       </c>
       <c r="E147" s="14" t="s">
         <v>25</v>
       </c>
       <c r="F147" s="14" t="s">
-        <v>759</v>
+        <v>299</v>
       </c>
       <c r="G147" s="14" t="s">
-        <v>760</v>
+        <v>664</v>
       </c>
       <c r="H147" s="14"/>
-      <c r="I147" s="29" t="s">
-        <v>761</v>
+      <c r="I147" s="16" t="s">
+        <v>300</v>
       </c>
       <c r="J147" s="17" t="s">
-        <v>557</v>
+        <v>665</v>
       </c>
       <c r="K147" s="14"/>
     </row>
@@ -15869,26 +15887,26 @@
         <v>279</v>
       </c>
       <c r="C148" s="14" t="s">
-        <v>866</v>
+        <v>191</v>
       </c>
       <c r="D148" s="14" t="s">
-        <v>55</v>
+        <v>117</v>
       </c>
       <c r="E148" s="14" t="s">
         <v>25</v>
       </c>
       <c r="F148" s="14" t="s">
-        <v>867</v>
+        <v>759</v>
       </c>
       <c r="G148" s="14" t="s">
-        <v>868</v>
+        <v>760</v>
       </c>
       <c r="H148" s="14"/>
       <c r="I148" s="29" t="s">
-        <v>869</v>
+        <v>761</v>
       </c>
       <c r="J148" s="17" t="s">
-        <v>870</v>
+        <v>557</v>
       </c>
       <c r="K148" s="14"/>
     </row>
@@ -15900,26 +15918,26 @@
         <v>279</v>
       </c>
       <c r="C149" s="14" t="s">
-        <v>900</v>
+        <v>866</v>
       </c>
       <c r="D149" s="14" t="s">
-        <v>398</v>
+        <v>55</v>
       </c>
       <c r="E149" s="14" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="F149" s="14" t="s">
-        <v>979</v>
+        <v>867</v>
       </c>
       <c r="G149" s="14" t="s">
-        <v>981</v>
+        <v>868</v>
       </c>
       <c r="H149" s="14"/>
       <c r="I149" s="29" t="s">
-        <v>982</v>
+        <v>869</v>
       </c>
       <c r="J149" s="17" t="s">
-        <v>983</v>
+        <v>870</v>
       </c>
       <c r="K149" s="14"/>
     </row>
@@ -15940,17 +15958,17 @@
         <v>14</v>
       </c>
       <c r="F150" s="14" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="G150" s="14" t="s">
-        <v>984</v>
+        <v>981</v>
       </c>
       <c r="H150" s="14"/>
       <c r="I150" s="29" t="s">
-        <v>985</v>
+        <v>982</v>
       </c>
       <c r="J150" s="17" t="s">
-        <v>986</v>
+        <v>983</v>
       </c>
       <c r="K150" s="14"/>
     </row>
@@ -15962,26 +15980,26 @@
         <v>279</v>
       </c>
       <c r="C151" s="14" t="s">
-        <v>899</v>
+        <v>900</v>
       </c>
       <c r="D151" s="14" t="s">
-        <v>410</v>
+        <v>398</v>
       </c>
       <c r="E151" s="14" t="s">
         <v>14</v>
       </c>
       <c r="F151" s="14" t="s">
-        <v>987</v>
+        <v>980</v>
       </c>
       <c r="G151" s="14" t="s">
-        <v>988</v>
+        <v>984</v>
       </c>
       <c r="H151" s="14"/>
       <c r="I151" s="29" t="s">
-        <v>989</v>
+        <v>985</v>
       </c>
       <c r="J151" s="17" t="s">
-        <v>990</v>
+        <v>986</v>
       </c>
       <c r="K151" s="14"/>
     </row>
@@ -15990,29 +16008,29 @@
         <v>278</v>
       </c>
       <c r="B152" s="14" t="s">
-        <v>301</v>
+        <v>279</v>
       </c>
       <c r="C152" s="14" t="s">
-        <v>302</v>
+        <v>899</v>
       </c>
       <c r="D152" s="14" t="s">
-        <v>117</v>
+        <v>410</v>
       </c>
       <c r="E152" s="14" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="F152" s="14" t="s">
-        <v>303</v>
+        <v>987</v>
       </c>
       <c r="G152" s="14" t="s">
-        <v>666</v>
+        <v>988</v>
       </c>
       <c r="H152" s="14"/>
-      <c r="I152" s="15" t="s">
-        <v>304</v>
+      <c r="I152" s="29" t="s">
+        <v>989</v>
       </c>
       <c r="J152" s="17" t="s">
-        <v>667</v>
+        <v>990</v>
       </c>
       <c r="K152" s="14"/>
     </row>
@@ -16024,26 +16042,26 @@
         <v>301</v>
       </c>
       <c r="C153" s="14" t="s">
-        <v>381</v>
+        <v>302</v>
       </c>
       <c r="D153" s="14" t="s">
-        <v>382</v>
+        <v>117</v>
       </c>
       <c r="E153" s="14" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="F153" s="14" t="s">
-        <v>668</v>
+        <v>303</v>
       </c>
       <c r="G153" s="14" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
       <c r="H153" s="14"/>
       <c r="I153" s="15" t="s">
-        <v>670</v>
+        <v>304</v>
       </c>
       <c r="J153" s="17" t="s">
-        <v>671</v>
+        <v>667</v>
       </c>
       <c r="K153" s="14"/>
     </row>
@@ -16052,29 +16070,29 @@
         <v>278</v>
       </c>
       <c r="B154" s="14" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="C154" s="14" t="s">
-        <v>306</v>
+        <v>381</v>
       </c>
       <c r="D154" s="14" t="s">
-        <v>410</v>
+        <v>382</v>
       </c>
       <c r="E154" s="14" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="F154" s="14" t="s">
-        <v>307</v>
+        <v>668</v>
       </c>
       <c r="G154" s="14" t="s">
-        <v>672</v>
+        <v>669</v>
       </c>
       <c r="H154" s="14"/>
       <c r="I154" s="15" t="s">
-        <v>308</v>
+        <v>670</v>
       </c>
       <c r="J154" s="17" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="K154" s="14"/>
     </row>
@@ -16086,7 +16104,7 @@
         <v>305</v>
       </c>
       <c r="C155" s="14" t="s">
-        <v>298</v>
+        <v>306</v>
       </c>
       <c r="D155" s="14" t="s">
         <v>410</v>
@@ -16095,17 +16113,17 @@
         <v>25</v>
       </c>
       <c r="F155" s="14" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="G155" s="14" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="H155" s="14"/>
       <c r="I155" s="15" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="J155" s="17" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="K155" s="14"/>
     </row>
@@ -16117,26 +16135,26 @@
         <v>305</v>
       </c>
       <c r="C156" s="14" t="s">
-        <v>311</v>
+        <v>298</v>
       </c>
       <c r="D156" s="14" t="s">
-        <v>312</v>
+        <v>410</v>
       </c>
       <c r="E156" s="14" t="s">
         <v>25</v>
       </c>
       <c r="F156" s="14" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="G156" s="14" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="H156" s="14"/>
       <c r="I156" s="15" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="J156" s="17" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="K156" s="14"/>
     </row>
@@ -16148,26 +16166,26 @@
         <v>305</v>
       </c>
       <c r="C157" s="14" t="s">
-        <v>728</v>
+        <v>311</v>
       </c>
       <c r="D157" s="14" t="s">
-        <v>410</v>
+        <v>312</v>
       </c>
       <c r="E157" s="14" t="s">
         <v>25</v>
       </c>
       <c r="F157" s="14" t="s">
-        <v>762</v>
+        <v>313</v>
       </c>
       <c r="G157" s="14" t="s">
-        <v>763</v>
+        <v>676</v>
       </c>
       <c r="H157" s="14"/>
-      <c r="I157" s="29" t="s">
-        <v>764</v>
+      <c r="I157" s="15" t="s">
+        <v>314</v>
       </c>
       <c r="J157" s="17" t="s">
-        <v>765</v>
+        <v>677</v>
       </c>
       <c r="K157" s="14"/>
     </row>
@@ -16176,10 +16194,10 @@
         <v>278</v>
       </c>
       <c r="B158" s="14" t="s">
-        <v>315</v>
+        <v>305</v>
       </c>
       <c r="C158" s="14" t="s">
-        <v>316</v>
+        <v>728</v>
       </c>
       <c r="D158" s="14" t="s">
         <v>410</v>
@@ -16188,17 +16206,17 @@
         <v>25</v>
       </c>
       <c r="F158" s="14" t="s">
-        <v>317</v>
+        <v>762</v>
       </c>
       <c r="G158" s="14" t="s">
-        <v>678</v>
+        <v>763</v>
       </c>
       <c r="H158" s="14"/>
-      <c r="I158" s="15" t="s">
-        <v>318</v>
+      <c r="I158" s="29" t="s">
+        <v>764</v>
       </c>
       <c r="J158" s="17" t="s">
-        <v>679</v>
+        <v>765</v>
       </c>
       <c r="K158" s="14"/>
     </row>
@@ -16210,26 +16228,26 @@
         <v>315</v>
       </c>
       <c r="C159" s="14" t="s">
-        <v>719</v>
+        <v>316</v>
       </c>
       <c r="D159" s="14" t="s">
-        <v>55</v>
+        <v>410</v>
       </c>
       <c r="E159" s="14" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="F159" s="14" t="s">
-        <v>766</v>
+        <v>317</v>
       </c>
       <c r="G159" s="14" t="s">
-        <v>767</v>
+        <v>678</v>
       </c>
       <c r="H159" s="14"/>
-      <c r="I159" s="29" t="s">
-        <v>768</v>
+      <c r="I159" s="15" t="s">
+        <v>318</v>
       </c>
       <c r="J159" s="17" t="s">
-        <v>769</v>
+        <v>679</v>
       </c>
       <c r="K159" s="14"/>
     </row>
@@ -16241,26 +16259,26 @@
         <v>315</v>
       </c>
       <c r="C160" s="14" t="s">
-        <v>790</v>
+        <v>719</v>
       </c>
       <c r="D160" s="14" t="s">
-        <v>410</v>
+        <v>55</v>
       </c>
       <c r="E160" s="14" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="F160" s="14" t="s">
-        <v>791</v>
+        <v>766</v>
       </c>
       <c r="G160" s="14" t="s">
-        <v>792</v>
+        <v>767</v>
       </c>
       <c r="H160" s="14"/>
       <c r="I160" s="29" t="s">
-        <v>793</v>
+        <v>768</v>
       </c>
       <c r="J160" s="17" t="s">
-        <v>794</v>
+        <v>769</v>
       </c>
       <c r="K160" s="14"/>
     </row>
@@ -16269,29 +16287,29 @@
         <v>278</v>
       </c>
       <c r="B161" s="14" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="C161" s="14" t="s">
-        <v>320</v>
+        <v>790</v>
       </c>
       <c r="D161" s="14" t="s">
         <v>410</v>
       </c>
       <c r="E161" s="14" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="F161" s="14" t="s">
-        <v>680</v>
+        <v>791</v>
       </c>
       <c r="G161" s="14" t="s">
-        <v>681</v>
+        <v>792</v>
       </c>
       <c r="H161" s="14"/>
-      <c r="I161" s="16" t="s">
-        <v>682</v>
+      <c r="I161" s="29" t="s">
+        <v>793</v>
       </c>
       <c r="J161" s="17" t="s">
-        <v>683</v>
+        <v>794</v>
       </c>
       <c r="K161" s="14"/>
     </row>
@@ -16303,7 +16321,7 @@
         <v>319</v>
       </c>
       <c r="C162" s="14" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="D162" s="14" t="s">
         <v>410</v>
@@ -16312,17 +16330,17 @@
         <v>14</v>
       </c>
       <c r="F162" s="14" t="s">
-        <v>324</v>
+        <v>680</v>
       </c>
       <c r="G162" s="14" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
       <c r="H162" s="14"/>
-      <c r="I162" s="15" t="s">
-        <v>325</v>
+      <c r="I162" s="16" t="s">
+        <v>682</v>
       </c>
       <c r="J162" s="17" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="K162" s="14"/>
     </row>
@@ -16334,7 +16352,7 @@
         <v>319</v>
       </c>
       <c r="C163" s="14" t="s">
-        <v>686</v>
+        <v>323</v>
       </c>
       <c r="D163" s="14" t="s">
         <v>410</v>
@@ -16343,17 +16361,17 @@
         <v>14</v>
       </c>
       <c r="F163" s="14" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="G163" s="14" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
       <c r="H163" s="14"/>
       <c r="I163" s="15" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="J163" s="17" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
       <c r="K163" s="14"/>
     </row>
@@ -16362,29 +16380,29 @@
         <v>278</v>
       </c>
       <c r="B164" s="14" t="s">
-        <v>329</v>
+        <v>319</v>
       </c>
       <c r="C164" s="14" t="s">
-        <v>167</v>
+        <v>686</v>
       </c>
       <c r="D164" s="14" t="s">
         <v>410</v>
       </c>
       <c r="E164" s="14" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="F164" s="14" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="G164" s="14" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="H164" s="14"/>
       <c r="I164" s="15" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="J164" s="17" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="K164" s="14"/>
     </row>
@@ -16396,26 +16414,26 @@
         <v>329</v>
       </c>
       <c r="C165" s="14" t="s">
-        <v>332</v>
+        <v>167</v>
       </c>
       <c r="D165" s="14" t="s">
-        <v>418</v>
+        <v>410</v>
       </c>
       <c r="E165" s="14" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="F165" s="14" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="G165" s="14" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="H165" s="14"/>
       <c r="I165" s="15" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="J165" s="17" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="K165" s="14"/>
     </row>
@@ -16427,26 +16445,26 @@
         <v>329</v>
       </c>
       <c r="C166" s="14" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="D166" s="14" t="s">
-        <v>47</v>
+        <v>418</v>
       </c>
       <c r="E166" s="14" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="F166" s="14" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="G166" s="14" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="H166" s="14"/>
       <c r="I166" s="15" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="J166" s="17" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="K166" s="14"/>
     </row>
@@ -16458,26 +16476,26 @@
         <v>329</v>
       </c>
       <c r="C167" s="14" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="D167" s="14" t="s">
-        <v>117</v>
+        <v>47</v>
       </c>
       <c r="E167" s="14" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="F167" s="14" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="G167" s="14" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="H167" s="14"/>
       <c r="I167" s="15" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="J167" s="17" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="K167" s="14"/>
     </row>
@@ -16489,26 +16507,26 @@
         <v>329</v>
       </c>
       <c r="C168" s="14" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="D168" s="14" t="s">
-        <v>342</v>
+        <v>117</v>
       </c>
       <c r="E168" s="14" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="F168" s="14" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="G168" s="14" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="H168" s="14"/>
       <c r="I168" s="15" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="J168" s="17" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="K168" s="14"/>
     </row>
@@ -16520,26 +16538,26 @@
         <v>329</v>
       </c>
       <c r="C169" s="14" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="D169" s="14" t="s">
-        <v>47</v>
+        <v>342</v>
       </c>
       <c r="E169" s="14" t="s">
         <v>14</v>
       </c>
       <c r="F169" s="14" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="G169" s="14" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="H169" s="14"/>
       <c r="I169" s="15" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="J169" s="17" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="K169" s="14"/>
     </row>
@@ -16548,29 +16566,29 @@
         <v>278</v>
       </c>
       <c r="B170" s="14" t="s">
-        <v>348</v>
+        <v>329</v>
       </c>
       <c r="C170" s="14" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="D170" s="14" t="s">
-        <v>75</v>
+        <v>47</v>
       </c>
       <c r="E170" s="14" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="F170" s="14" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="G170" s="14" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="H170" s="14"/>
-      <c r="I170" s="29" t="s">
-        <v>861</v>
+      <c r="I170" s="15" t="s">
+        <v>347</v>
       </c>
       <c r="J170" s="17" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="K170" s="14"/>
     </row>
@@ -16582,26 +16600,26 @@
         <v>348</v>
       </c>
       <c r="C171" s="14" t="s">
-        <v>703</v>
+        <v>349</v>
       </c>
       <c r="D171" s="14" t="s">
-        <v>418</v>
+        <v>75</v>
       </c>
       <c r="E171" s="14" t="s">
         <v>25</v>
       </c>
       <c r="F171" s="14" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="G171" s="14" t="s">
-        <v>704</v>
+        <v>701</v>
       </c>
       <c r="H171" s="14"/>
-      <c r="I171" s="16" t="s">
-        <v>354</v>
+      <c r="I171" s="29" t="s">
+        <v>861</v>
       </c>
       <c r="J171" s="17" t="s">
-        <v>705</v>
+        <v>702</v>
       </c>
       <c r="K171" s="14"/>
     </row>
@@ -16610,29 +16628,29 @@
         <v>278</v>
       </c>
       <c r="B172" s="14" t="s">
-        <v>355</v>
+        <v>348</v>
       </c>
       <c r="C172" s="14" t="s">
-        <v>302</v>
+        <v>703</v>
       </c>
       <c r="D172" s="14" t="s">
-        <v>117</v>
+        <v>418</v>
       </c>
       <c r="E172" s="14" t="s">
         <v>25</v>
       </c>
       <c r="F172" s="14" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="G172" s="14" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="H172" s="14"/>
-      <c r="I172" s="15" t="s">
-        <v>357</v>
+      <c r="I172" s="16" t="s">
+        <v>354</v>
       </c>
       <c r="J172" s="17" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="K172" s="14"/>
     </row>
@@ -16644,26 +16662,26 @@
         <v>355</v>
       </c>
       <c r="C173" s="14" t="s">
-        <v>358</v>
+        <v>302</v>
       </c>
       <c r="D173" s="14" t="s">
-        <v>410</v>
+        <v>117</v>
       </c>
       <c r="E173" s="14" t="s">
         <v>25</v>
       </c>
       <c r="F173" s="14" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="G173" s="14" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="H173" s="14"/>
       <c r="I173" s="15" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="J173" s="17" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="K173" s="14"/>
     </row>
@@ -16675,26 +16693,26 @@
         <v>355</v>
       </c>
       <c r="C174" s="14" t="s">
-        <v>722</v>
+        <v>358</v>
       </c>
       <c r="D174" s="14" t="s">
-        <v>51</v>
+        <v>410</v>
       </c>
       <c r="E174" s="14" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="F174" s="14" t="s">
-        <v>770</v>
+        <v>359</v>
       </c>
       <c r="G174" s="14" t="s">
-        <v>771</v>
+        <v>708</v>
       </c>
       <c r="H174" s="14"/>
-      <c r="I174" s="29" t="s">
-        <v>772</v>
+      <c r="I174" s="15" t="s">
+        <v>360</v>
       </c>
       <c r="J174" s="17" t="s">
-        <v>773</v>
+        <v>709</v>
       </c>
       <c r="K174" s="14"/>
     </row>
@@ -16706,26 +16724,26 @@
         <v>355</v>
       </c>
       <c r="C175" s="14" t="s">
-        <v>886</v>
+        <v>722</v>
       </c>
       <c r="D175" s="14" t="s">
-        <v>410</v>
+        <v>51</v>
       </c>
       <c r="E175" s="14" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="F175" s="14" t="s">
-        <v>887</v>
+        <v>770</v>
       </c>
       <c r="G175" s="14" t="s">
-        <v>888</v>
+        <v>771</v>
       </c>
       <c r="H175" s="14"/>
       <c r="I175" s="29" t="s">
-        <v>889</v>
+        <v>772</v>
       </c>
       <c r="J175" s="17" t="s">
-        <v>890</v>
+        <v>773</v>
       </c>
       <c r="K175" s="14"/>
     </row>
@@ -16734,10 +16752,10 @@
         <v>278</v>
       </c>
       <c r="B176" s="14" t="s">
-        <v>710</v>
-      </c>
-      <c r="C176" s="17" t="s">
-        <v>711</v>
+        <v>355</v>
+      </c>
+      <c r="C176" s="14" t="s">
+        <v>886</v>
       </c>
       <c r="D176" s="14" t="s">
         <v>410</v>
@@ -16746,17 +16764,17 @@
         <v>25</v>
       </c>
       <c r="F176" s="14" t="s">
-        <v>712</v>
+        <v>887</v>
       </c>
       <c r="G176" s="14" t="s">
-        <v>713</v>
+        <v>888</v>
       </c>
       <c r="H176" s="14"/>
-      <c r="I176" s="15" t="s">
-        <v>714</v>
+      <c r="I176" s="29" t="s">
+        <v>889</v>
       </c>
       <c r="J176" s="17" t="s">
-        <v>715</v>
+        <v>890</v>
       </c>
       <c r="K176" s="14"/>
     </row>
@@ -16765,62 +16783,93 @@
         <v>278</v>
       </c>
       <c r="B177" s="14" t="s">
-        <v>361</v>
+        <v>710</v>
       </c>
       <c r="C177" s="17" t="s">
-        <v>362</v>
+        <v>711</v>
       </c>
       <c r="D177" s="14" t="s">
-        <v>418</v>
+        <v>410</v>
       </c>
       <c r="E177" s="14" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="F177" s="14" t="s">
-        <v>363</v>
+        <v>712</v>
       </c>
       <c r="G177" s="14" t="s">
-        <v>716</v>
+        <v>713</v>
       </c>
       <c r="H177" s="14"/>
       <c r="I177" s="15" t="s">
-        <v>364</v>
+        <v>714</v>
       </c>
       <c r="J177" s="17" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="K177" s="14"/>
     </row>
-    <row r="178" spans="1:11" ht="15.75" customHeight="1">
+    <row r="178" spans="1:11" ht="13">
       <c r="A178" s="14" t="s">
-        <v>774</v>
+        <v>278</v>
       </c>
       <c r="B178" s="14" t="s">
-        <v>776</v>
-      </c>
-      <c r="C178" s="14" t="s">
-        <v>724</v>
+        <v>361</v>
+      </c>
+      <c r="C178" s="17" t="s">
+        <v>362</v>
       </c>
       <c r="D178" s="14" t="s">
-        <v>410</v>
+        <v>418</v>
       </c>
       <c r="E178" s="14" t="s">
         <v>14</v>
       </c>
       <c r="F178" s="14" t="s">
+        <v>363</v>
+      </c>
+      <c r="G178" s="14" t="s">
+        <v>716</v>
+      </c>
+      <c r="H178" s="14"/>
+      <c r="I178" s="15" t="s">
+        <v>364</v>
+      </c>
+      <c r="J178" s="17" t="s">
+        <v>717</v>
+      </c>
+      <c r="K178" s="14"/>
+    </row>
+    <row r="179" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A179" s="14" t="s">
+        <v>774</v>
+      </c>
+      <c r="B179" s="14" t="s">
+        <v>776</v>
+      </c>
+      <c r="C179" s="14" t="s">
+        <v>724</v>
+      </c>
+      <c r="D179" s="14" t="s">
+        <v>410</v>
+      </c>
+      <c r="E179" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="F179" s="14" t="s">
         <v>775</v>
       </c>
-      <c r="G178" s="14" t="s">
+      <c r="G179" s="14" t="s">
         <v>777</v>
       </c>
-      <c r="H178" s="14"/>
-      <c r="I178" s="29" t="s">
+      <c r="H179" s="14"/>
+      <c r="I179" s="29" t="s">
         <v>778</v>
       </c>
-      <c r="J178" s="17" t="s">
+      <c r="J179" s="17" t="s">
         <v>779</v>
       </c>
-      <c r="K178" s="14"/>
+      <c r="K179" s="14"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -16882,102 +16931,102 @@
     <hyperlink ref="I81" r:id="rId56" xr:uid="{00000000-0004-0000-0100-000037000000}"/>
     <hyperlink ref="I82" r:id="rId57" xr:uid="{00000000-0004-0000-0100-000038000000}"/>
     <hyperlink ref="I83" r:id="rId58" xr:uid="{00000000-0004-0000-0100-000039000000}"/>
-    <hyperlink ref="I84" r:id="rId59" xr:uid="{00000000-0004-0000-0100-00003A000000}"/>
-    <hyperlink ref="I85" r:id="rId60" xr:uid="{00000000-0004-0000-0100-00003B000000}"/>
-    <hyperlink ref="I86" r:id="rId61" xr:uid="{00000000-0004-0000-0100-00003C000000}"/>
-    <hyperlink ref="I87" r:id="rId62" xr:uid="{00000000-0004-0000-0100-00003D000000}"/>
-    <hyperlink ref="I88" r:id="rId63" xr:uid="{00000000-0004-0000-0100-00003E000000}"/>
-    <hyperlink ref="I89" r:id="rId64" xr:uid="{00000000-0004-0000-0100-00003F000000}"/>
-    <hyperlink ref="I90" r:id="rId65" xr:uid="{00000000-0004-0000-0100-000040000000}"/>
-    <hyperlink ref="I92" r:id="rId66" xr:uid="{00000000-0004-0000-0100-000041000000}"/>
-    <hyperlink ref="I93" r:id="rId67" xr:uid="{00000000-0004-0000-0100-000042000000}"/>
-    <hyperlink ref="I96" r:id="rId68" xr:uid="{00000000-0004-0000-0100-000043000000}"/>
-    <hyperlink ref="I97" r:id="rId69" xr:uid="{00000000-0004-0000-0100-000044000000}"/>
-    <hyperlink ref="I98" r:id="rId70" xr:uid="{00000000-0004-0000-0100-000045000000}"/>
-    <hyperlink ref="I99" r:id="rId71" xr:uid="{00000000-0004-0000-0100-000046000000}"/>
-    <hyperlink ref="I100" r:id="rId72" xr:uid="{00000000-0004-0000-0100-000047000000}"/>
-    <hyperlink ref="I101" r:id="rId73" xr:uid="{00000000-0004-0000-0100-000048000000}"/>
-    <hyperlink ref="I104" r:id="rId74" xr:uid="{00000000-0004-0000-0100-000049000000}"/>
-    <hyperlink ref="I105" r:id="rId75" xr:uid="{00000000-0004-0000-0100-00004A000000}"/>
-    <hyperlink ref="I106" r:id="rId76" xr:uid="{00000000-0004-0000-0100-00004B000000}"/>
-    <hyperlink ref="I107" r:id="rId77" xr:uid="{00000000-0004-0000-0100-00004C000000}"/>
-    <hyperlink ref="I110" r:id="rId78" xr:uid="{00000000-0004-0000-0100-00004D000000}"/>
-    <hyperlink ref="I112" r:id="rId79" xr:uid="{00000000-0004-0000-0100-00004E000000}"/>
-    <hyperlink ref="I113" r:id="rId80" xr:uid="{00000000-0004-0000-0100-00004F000000}"/>
-    <hyperlink ref="I114" r:id="rId81" xr:uid="{00000000-0004-0000-0100-000050000000}"/>
-    <hyperlink ref="I115" r:id="rId82" xr:uid="{00000000-0004-0000-0100-000051000000}"/>
-    <hyperlink ref="I116" r:id="rId83" xr:uid="{00000000-0004-0000-0100-000052000000}"/>
-    <hyperlink ref="I117" r:id="rId84" xr:uid="{00000000-0004-0000-0100-000053000000}"/>
-    <hyperlink ref="I118" r:id="rId85" xr:uid="{00000000-0004-0000-0100-000054000000}"/>
-    <hyperlink ref="I119" r:id="rId86" xr:uid="{00000000-0004-0000-0100-000055000000}"/>
-    <hyperlink ref="I124" r:id="rId87" xr:uid="{00000000-0004-0000-0100-000056000000}"/>
-    <hyperlink ref="I127" r:id="rId88" xr:uid="{00000000-0004-0000-0100-000057000000}"/>
-    <hyperlink ref="I130" r:id="rId89" xr:uid="{00000000-0004-0000-0100-000058000000}"/>
-    <hyperlink ref="I131" r:id="rId90" xr:uid="{00000000-0004-0000-0100-000059000000}"/>
-    <hyperlink ref="I135" r:id="rId91" xr:uid="{00000000-0004-0000-0100-00005A000000}"/>
-    <hyperlink ref="I136" r:id="rId92" xr:uid="{00000000-0004-0000-0100-00005B000000}"/>
-    <hyperlink ref="I137" r:id="rId93" xr:uid="{00000000-0004-0000-0100-00005C000000}"/>
-    <hyperlink ref="I138" r:id="rId94" xr:uid="{00000000-0004-0000-0100-00005D000000}"/>
-    <hyperlink ref="I140" r:id="rId95" xr:uid="{00000000-0004-0000-0100-00005E000000}"/>
-    <hyperlink ref="I141" r:id="rId96" xr:uid="{00000000-0004-0000-0100-00005F000000}"/>
-    <hyperlink ref="I142" r:id="rId97" xr:uid="{00000000-0004-0000-0100-000060000000}"/>
-    <hyperlink ref="I143" r:id="rId98" xr:uid="{00000000-0004-0000-0100-000061000000}"/>
-    <hyperlink ref="I144" r:id="rId99" xr:uid="{00000000-0004-0000-0100-000062000000}"/>
-    <hyperlink ref="I145" r:id="rId100" xr:uid="{00000000-0004-0000-0100-000063000000}"/>
-    <hyperlink ref="I146" r:id="rId101" xr:uid="{00000000-0004-0000-0100-000064000000}"/>
-    <hyperlink ref="I152" r:id="rId102" xr:uid="{00000000-0004-0000-0100-000065000000}"/>
-    <hyperlink ref="I153" r:id="rId103" xr:uid="{00000000-0004-0000-0100-000066000000}"/>
-    <hyperlink ref="I154" r:id="rId104" xr:uid="{00000000-0004-0000-0100-000067000000}"/>
-    <hyperlink ref="I155" r:id="rId105" xr:uid="{00000000-0004-0000-0100-000068000000}"/>
-    <hyperlink ref="I158" r:id="rId106" xr:uid="{00000000-0004-0000-0100-00006A000000}"/>
-    <hyperlink ref="I161" r:id="rId107" xr:uid="{00000000-0004-0000-0100-00006B000000}"/>
-    <hyperlink ref="I162" r:id="rId108" xr:uid="{00000000-0004-0000-0100-00006C000000}"/>
-    <hyperlink ref="I163" r:id="rId109" xr:uid="{00000000-0004-0000-0100-00006D000000}"/>
-    <hyperlink ref="I164" r:id="rId110" xr:uid="{00000000-0004-0000-0100-00006E000000}"/>
-    <hyperlink ref="I165" r:id="rId111" xr:uid="{00000000-0004-0000-0100-00006F000000}"/>
-    <hyperlink ref="I166" r:id="rId112" xr:uid="{00000000-0004-0000-0100-000070000000}"/>
-    <hyperlink ref="I167" r:id="rId113" xr:uid="{00000000-0004-0000-0100-000071000000}"/>
-    <hyperlink ref="I168" r:id="rId114" xr:uid="{00000000-0004-0000-0100-000072000000}"/>
-    <hyperlink ref="I169" r:id="rId115" xr:uid="{00000000-0004-0000-0100-000073000000}"/>
-    <hyperlink ref="I170" r:id="rId116" xr:uid="{00000000-0004-0000-0100-000074000000}"/>
-    <hyperlink ref="I171" r:id="rId117" xr:uid="{00000000-0004-0000-0100-000075000000}"/>
-    <hyperlink ref="I172" r:id="rId118" xr:uid="{00000000-0004-0000-0100-000076000000}"/>
-    <hyperlink ref="I173" r:id="rId119" xr:uid="{00000000-0004-0000-0100-000077000000}"/>
-    <hyperlink ref="I176" r:id="rId120" xr:uid="{00000000-0004-0000-0100-000078000000}"/>
-    <hyperlink ref="I177" r:id="rId121" xr:uid="{00000000-0004-0000-0100-000079000000}"/>
+    <hyperlink ref="I85" r:id="rId59" xr:uid="{00000000-0004-0000-0100-00003A000000}"/>
+    <hyperlink ref="I86" r:id="rId60" xr:uid="{00000000-0004-0000-0100-00003B000000}"/>
+    <hyperlink ref="I87" r:id="rId61" xr:uid="{00000000-0004-0000-0100-00003C000000}"/>
+    <hyperlink ref="I88" r:id="rId62" xr:uid="{00000000-0004-0000-0100-00003D000000}"/>
+    <hyperlink ref="I89" r:id="rId63" xr:uid="{00000000-0004-0000-0100-00003E000000}"/>
+    <hyperlink ref="I90" r:id="rId64" xr:uid="{00000000-0004-0000-0100-00003F000000}"/>
+    <hyperlink ref="I91" r:id="rId65" xr:uid="{00000000-0004-0000-0100-000040000000}"/>
+    <hyperlink ref="I93" r:id="rId66" xr:uid="{00000000-0004-0000-0100-000041000000}"/>
+    <hyperlink ref="I94" r:id="rId67" xr:uid="{00000000-0004-0000-0100-000042000000}"/>
+    <hyperlink ref="I97" r:id="rId68" xr:uid="{00000000-0004-0000-0100-000043000000}"/>
+    <hyperlink ref="I98" r:id="rId69" xr:uid="{00000000-0004-0000-0100-000044000000}"/>
+    <hyperlink ref="I99" r:id="rId70" xr:uid="{00000000-0004-0000-0100-000045000000}"/>
+    <hyperlink ref="I100" r:id="rId71" xr:uid="{00000000-0004-0000-0100-000046000000}"/>
+    <hyperlink ref="I101" r:id="rId72" xr:uid="{00000000-0004-0000-0100-000047000000}"/>
+    <hyperlink ref="I102" r:id="rId73" xr:uid="{00000000-0004-0000-0100-000048000000}"/>
+    <hyperlink ref="I105" r:id="rId74" xr:uid="{00000000-0004-0000-0100-000049000000}"/>
+    <hyperlink ref="I106" r:id="rId75" xr:uid="{00000000-0004-0000-0100-00004A000000}"/>
+    <hyperlink ref="I107" r:id="rId76" xr:uid="{00000000-0004-0000-0100-00004B000000}"/>
+    <hyperlink ref="I108" r:id="rId77" xr:uid="{00000000-0004-0000-0100-00004C000000}"/>
+    <hyperlink ref="I111" r:id="rId78" xr:uid="{00000000-0004-0000-0100-00004D000000}"/>
+    <hyperlink ref="I113" r:id="rId79" xr:uid="{00000000-0004-0000-0100-00004E000000}"/>
+    <hyperlink ref="I114" r:id="rId80" xr:uid="{00000000-0004-0000-0100-00004F000000}"/>
+    <hyperlink ref="I115" r:id="rId81" xr:uid="{00000000-0004-0000-0100-000050000000}"/>
+    <hyperlink ref="I116" r:id="rId82" xr:uid="{00000000-0004-0000-0100-000051000000}"/>
+    <hyperlink ref="I117" r:id="rId83" xr:uid="{00000000-0004-0000-0100-000052000000}"/>
+    <hyperlink ref="I118" r:id="rId84" xr:uid="{00000000-0004-0000-0100-000053000000}"/>
+    <hyperlink ref="I119" r:id="rId85" xr:uid="{00000000-0004-0000-0100-000054000000}"/>
+    <hyperlink ref="I120" r:id="rId86" xr:uid="{00000000-0004-0000-0100-000055000000}"/>
+    <hyperlink ref="I125" r:id="rId87" xr:uid="{00000000-0004-0000-0100-000056000000}"/>
+    <hyperlink ref="I128" r:id="rId88" xr:uid="{00000000-0004-0000-0100-000057000000}"/>
+    <hyperlink ref="I131" r:id="rId89" xr:uid="{00000000-0004-0000-0100-000058000000}"/>
+    <hyperlink ref="I132" r:id="rId90" xr:uid="{00000000-0004-0000-0100-000059000000}"/>
+    <hyperlink ref="I136" r:id="rId91" xr:uid="{00000000-0004-0000-0100-00005A000000}"/>
+    <hyperlink ref="I137" r:id="rId92" xr:uid="{00000000-0004-0000-0100-00005B000000}"/>
+    <hyperlink ref="I138" r:id="rId93" xr:uid="{00000000-0004-0000-0100-00005C000000}"/>
+    <hyperlink ref="I139" r:id="rId94" xr:uid="{00000000-0004-0000-0100-00005D000000}"/>
+    <hyperlink ref="I141" r:id="rId95" xr:uid="{00000000-0004-0000-0100-00005E000000}"/>
+    <hyperlink ref="I142" r:id="rId96" xr:uid="{00000000-0004-0000-0100-00005F000000}"/>
+    <hyperlink ref="I143" r:id="rId97" xr:uid="{00000000-0004-0000-0100-000060000000}"/>
+    <hyperlink ref="I144" r:id="rId98" xr:uid="{00000000-0004-0000-0100-000061000000}"/>
+    <hyperlink ref="I145" r:id="rId99" xr:uid="{00000000-0004-0000-0100-000062000000}"/>
+    <hyperlink ref="I146" r:id="rId100" xr:uid="{00000000-0004-0000-0100-000063000000}"/>
+    <hyperlink ref="I147" r:id="rId101" xr:uid="{00000000-0004-0000-0100-000064000000}"/>
+    <hyperlink ref="I153" r:id="rId102" xr:uid="{00000000-0004-0000-0100-000065000000}"/>
+    <hyperlink ref="I154" r:id="rId103" xr:uid="{00000000-0004-0000-0100-000066000000}"/>
+    <hyperlink ref="I155" r:id="rId104" xr:uid="{00000000-0004-0000-0100-000067000000}"/>
+    <hyperlink ref="I156" r:id="rId105" xr:uid="{00000000-0004-0000-0100-000068000000}"/>
+    <hyperlink ref="I159" r:id="rId106" xr:uid="{00000000-0004-0000-0100-00006A000000}"/>
+    <hyperlink ref="I162" r:id="rId107" xr:uid="{00000000-0004-0000-0100-00006B000000}"/>
+    <hyperlink ref="I163" r:id="rId108" xr:uid="{00000000-0004-0000-0100-00006C000000}"/>
+    <hyperlink ref="I164" r:id="rId109" xr:uid="{00000000-0004-0000-0100-00006D000000}"/>
+    <hyperlink ref="I165" r:id="rId110" xr:uid="{00000000-0004-0000-0100-00006E000000}"/>
+    <hyperlink ref="I166" r:id="rId111" xr:uid="{00000000-0004-0000-0100-00006F000000}"/>
+    <hyperlink ref="I167" r:id="rId112" xr:uid="{00000000-0004-0000-0100-000070000000}"/>
+    <hyperlink ref="I168" r:id="rId113" xr:uid="{00000000-0004-0000-0100-000071000000}"/>
+    <hyperlink ref="I169" r:id="rId114" xr:uid="{00000000-0004-0000-0100-000072000000}"/>
+    <hyperlink ref="I170" r:id="rId115" xr:uid="{00000000-0004-0000-0100-000073000000}"/>
+    <hyperlink ref="I171" r:id="rId116" xr:uid="{00000000-0004-0000-0100-000074000000}"/>
+    <hyperlink ref="I172" r:id="rId117" xr:uid="{00000000-0004-0000-0100-000075000000}"/>
+    <hyperlink ref="I173" r:id="rId118" xr:uid="{00000000-0004-0000-0100-000076000000}"/>
+    <hyperlink ref="I174" r:id="rId119" xr:uid="{00000000-0004-0000-0100-000077000000}"/>
+    <hyperlink ref="I177" r:id="rId120" xr:uid="{00000000-0004-0000-0100-000078000000}"/>
+    <hyperlink ref="I178" r:id="rId121" xr:uid="{00000000-0004-0000-0100-000079000000}"/>
     <hyperlink ref="I21" r:id="rId122" xr:uid="{881F0F65-3DCC-E94A-9FE5-2CC264A8F337}"/>
     <hyperlink ref="I22" r:id="rId123" xr:uid="{AC40193A-1232-474A-A421-B55FFA7E99B8}"/>
     <hyperlink ref="I41" r:id="rId124" xr:uid="{D41ADE90-9772-8F41-AC9B-8DE303E9D7A9}"/>
     <hyperlink ref="I42" r:id="rId125" xr:uid="{85F37ABA-4B3B-764B-A1ED-9DD3AFFF0004}"/>
     <hyperlink ref="I78" r:id="rId126" xr:uid="{F5E14AAB-D49A-EF45-A165-3757EFF2E9B4}"/>
-    <hyperlink ref="I94" r:id="rId127" xr:uid="{759707EA-D94A-2D42-8FE0-FAE01578CF99}"/>
-    <hyperlink ref="I126" r:id="rId128" xr:uid="{1A936B77-62AA-804C-B853-4343ADD2D925}"/>
-    <hyperlink ref="I156" r:id="rId129" xr:uid="{00000000-0004-0000-0100-000069000000}"/>
-    <hyperlink ref="I147" r:id="rId130" xr:uid="{2929B0EA-E15F-E444-ADC1-C2E3E232D526}"/>
-    <hyperlink ref="I157" r:id="rId131" xr:uid="{7770BE98-2823-3047-9E72-08DB2B79C177}"/>
-    <hyperlink ref="I159" r:id="rId132" xr:uid="{A91F97A2-47FA-FB49-8866-2B9AA1419B2B}"/>
-    <hyperlink ref="I174" r:id="rId133" xr:uid="{11EEE67C-10E9-AB44-91F6-D7C7B31697FA}"/>
-    <hyperlink ref="I178" r:id="rId134" xr:uid="{8E930EBE-7205-BD41-9ED8-FE8F970A98EF}"/>
-    <hyperlink ref="I160" r:id="rId135" xr:uid="{3AF5EB12-868F-C842-91DC-4FC147AA3C86}"/>
+    <hyperlink ref="I95" r:id="rId127" xr:uid="{759707EA-D94A-2D42-8FE0-FAE01578CF99}"/>
+    <hyperlink ref="I127" r:id="rId128" xr:uid="{1A936B77-62AA-804C-B853-4343ADD2D925}"/>
+    <hyperlink ref="I157" r:id="rId129" xr:uid="{00000000-0004-0000-0100-000069000000}"/>
+    <hyperlink ref="I148" r:id="rId130" xr:uid="{2929B0EA-E15F-E444-ADC1-C2E3E232D526}"/>
+    <hyperlink ref="I158" r:id="rId131" xr:uid="{7770BE98-2823-3047-9E72-08DB2B79C177}"/>
+    <hyperlink ref="I160" r:id="rId132" xr:uid="{A91F97A2-47FA-FB49-8866-2B9AA1419B2B}"/>
+    <hyperlink ref="I175" r:id="rId133" xr:uid="{11EEE67C-10E9-AB44-91F6-D7C7B31697FA}"/>
+    <hyperlink ref="I179" r:id="rId134" xr:uid="{8E930EBE-7205-BD41-9ED8-FE8F970A98EF}"/>
+    <hyperlink ref="I161" r:id="rId135" xr:uid="{3AF5EB12-868F-C842-91DC-4FC147AA3C86}"/>
     <hyperlink ref="I66" r:id="rId136" xr:uid="{7BDCEA69-27F3-FF41-BB2B-817D4FD2C9C0}"/>
     <hyperlink ref="I67" r:id="rId137" xr:uid="{7A940ACA-466B-9E49-8CB5-9BA664F7C3C9}"/>
     <hyperlink ref="I69" r:id="rId138" xr:uid="{088C717E-7DC5-EF4C-8C34-370DC45C6BEE}"/>
     <hyperlink ref="I70" r:id="rId139" xr:uid="{A670C44A-19C9-984F-9EAA-8D5EBCE39C79}"/>
-    <hyperlink ref="I108" r:id="rId140" xr:uid="{713BB907-BFF9-AE42-B777-2AF591DA7D9B}"/>
-    <hyperlink ref="I111" r:id="rId141" xr:uid="{EC0C54FA-684B-A440-BF57-B5B57FDD99C9}"/>
-    <hyperlink ref="I121" r:id="rId142" xr:uid="{9081BA3E-9CF8-074E-BF5B-0F2FA156F0B7}"/>
-    <hyperlink ref="I123" r:id="rId143" xr:uid="{8C2FD4CC-DF59-734E-8449-EA5B9F5E7D3D}"/>
-    <hyperlink ref="I91" r:id="rId144" xr:uid="{9845498D-A3A6-524F-9A69-7DC2DB7F7639}"/>
-    <hyperlink ref="I120" r:id="rId145" xr:uid="{CFDD3EC3-C992-0E4C-8C8D-2A9AC6885E0B}"/>
-    <hyperlink ref="I102" r:id="rId146" xr:uid="{C634E917-B836-414F-BB3B-9A111E16653C}"/>
+    <hyperlink ref="I109" r:id="rId140" xr:uid="{713BB907-BFF9-AE42-B777-2AF591DA7D9B}"/>
+    <hyperlink ref="I112" r:id="rId141" xr:uid="{EC0C54FA-684B-A440-BF57-B5B57FDD99C9}"/>
+    <hyperlink ref="I122" r:id="rId142" xr:uid="{9081BA3E-9CF8-074E-BF5B-0F2FA156F0B7}"/>
+    <hyperlink ref="I124" r:id="rId143" xr:uid="{8C2FD4CC-DF59-734E-8449-EA5B9F5E7D3D}"/>
+    <hyperlink ref="I92" r:id="rId144" xr:uid="{9845498D-A3A6-524F-9A69-7DC2DB7F7639}"/>
+    <hyperlink ref="I121" r:id="rId145" xr:uid="{CFDD3EC3-C992-0E4C-8C8D-2A9AC6885E0B}"/>
+    <hyperlink ref="I103" r:id="rId146" xr:uid="{C634E917-B836-414F-BB3B-9A111E16653C}"/>
     <hyperlink ref="I62" r:id="rId147" xr:uid="{8548A361-62F7-A648-BBBE-9F37385F0E45}"/>
     <hyperlink ref="I77" r:id="rId148" xr:uid="{8EA062F9-78F8-A44B-BEDA-61CF758CB831}"/>
     <hyperlink ref="I46" r:id="rId149" xr:uid="{7C7CB4D2-6B37-544C-B631-930D91F3AA17}"/>
-    <hyperlink ref="I148" r:id="rId150" xr:uid="{5694CC0C-366D-8848-BBD7-150B284E15DA}"/>
+    <hyperlink ref="I149" r:id="rId150" xr:uid="{5694CC0C-366D-8848-BBD7-150B284E15DA}"/>
     <hyperlink ref="I33" r:id="rId151" xr:uid="{7E8D5837-BD50-6844-B288-6217DFD05E29}"/>
     <hyperlink ref="I48" r:id="rId152" xr:uid="{E89C4D5B-786F-9A4C-9914-80D4DF36F89C}"/>
     <hyperlink ref="I47" r:id="rId153" xr:uid="{EDBD0C6E-D96D-734B-85A9-4D26B3421D83}"/>
-    <hyperlink ref="I175" r:id="rId154" xr:uid="{12FA5E40-D722-4344-995B-86BBF8B4F3F3}"/>
+    <hyperlink ref="I176" r:id="rId154" xr:uid="{12FA5E40-D722-4344-995B-86BBF8B4F3F3}"/>
     <hyperlink ref="I3" r:id="rId155" xr:uid="{90F3D795-8796-3941-81B5-D72CA324E042}"/>
     <hyperlink ref="I4" r:id="rId156" xr:uid="{16E7DE01-C66E-B349-8DAD-CA4C99C20CD5}"/>
     <hyperlink ref="I5" r:id="rId157" xr:uid="{7E09A861-DD77-2E4B-B800-EAC5DEA70EDC}"/>
@@ -16985,22 +17034,23 @@
     <hyperlink ref="I43" r:id="rId159" xr:uid="{4D236EF9-AFFB-FE4D-BCD1-638D19B0E2AD}"/>
     <hyperlink ref="I68" r:id="rId160" xr:uid="{219D9E22-5730-534D-8B55-6BD3916AD9D3}"/>
     <hyperlink ref="I72" r:id="rId161" xr:uid="{F2124805-E683-1A42-A341-E4B4C798FCF6}"/>
-    <hyperlink ref="I103" r:id="rId162" xr:uid="{03D19417-5ACF-4747-87E3-FF4A7F6B8C5E}"/>
-    <hyperlink ref="I109" r:id="rId163" xr:uid="{E08A2438-5DB8-9A45-84DD-CD243288C3B9}"/>
-    <hyperlink ref="I122" r:id="rId164" xr:uid="{84BE2579-BA68-7D4D-B2CB-86D3681369AA}"/>
-    <hyperlink ref="I125" r:id="rId165" xr:uid="{91EB2E87-6831-0145-A4FB-E8981B8045C7}"/>
-    <hyperlink ref="I128" r:id="rId166" xr:uid="{54C086FF-A8B9-6C43-B277-A9032F8666B1}"/>
-    <hyperlink ref="I129" r:id="rId167" xr:uid="{2EF760AC-07D9-8548-93B1-88352B9C3C7F}"/>
-    <hyperlink ref="I95" r:id="rId168" xr:uid="{A5C672A7-87AF-E940-AAE7-D59695E4A0C6}"/>
-    <hyperlink ref="I132" r:id="rId169" xr:uid="{235F1B30-BA9C-2944-96E8-044D9C42D2E4}"/>
-    <hyperlink ref="I133" r:id="rId170" xr:uid="{86BA7BFD-9A67-EC49-A9D6-2A3459D321FF}"/>
-    <hyperlink ref="I134" r:id="rId171" xr:uid="{877A9B01-36F7-6D47-9B86-75B4F4BC541E}"/>
-    <hyperlink ref="I139" r:id="rId172" xr:uid="{5546ECD3-6F35-E74E-9357-32E1AF022690}"/>
-    <hyperlink ref="I149" r:id="rId173" xr:uid="{88D1FADA-4A32-0D4F-AF24-3FE72EBBEB68}"/>
-    <hyperlink ref="I150" r:id="rId174" xr:uid="{AF329473-0DFD-8C4C-BE43-8A06EA57AD9B}"/>
-    <hyperlink ref="I151" r:id="rId175" xr:uid="{6A2FDA52-E721-2D45-8440-DE26731358E6}"/>
+    <hyperlink ref="I104" r:id="rId162" xr:uid="{03D19417-5ACF-4747-87E3-FF4A7F6B8C5E}"/>
+    <hyperlink ref="I110" r:id="rId163" xr:uid="{E08A2438-5DB8-9A45-84DD-CD243288C3B9}"/>
+    <hyperlink ref="I123" r:id="rId164" xr:uid="{84BE2579-BA68-7D4D-B2CB-86D3681369AA}"/>
+    <hyperlink ref="I126" r:id="rId165" xr:uid="{91EB2E87-6831-0145-A4FB-E8981B8045C7}"/>
+    <hyperlink ref="I129" r:id="rId166" xr:uid="{54C086FF-A8B9-6C43-B277-A9032F8666B1}"/>
+    <hyperlink ref="I130" r:id="rId167" xr:uid="{2EF760AC-07D9-8548-93B1-88352B9C3C7F}"/>
+    <hyperlink ref="I96" r:id="rId168" xr:uid="{A5C672A7-87AF-E940-AAE7-D59695E4A0C6}"/>
+    <hyperlink ref="I133" r:id="rId169" xr:uid="{235F1B30-BA9C-2944-96E8-044D9C42D2E4}"/>
+    <hyperlink ref="I134" r:id="rId170" xr:uid="{86BA7BFD-9A67-EC49-A9D6-2A3459D321FF}"/>
+    <hyperlink ref="I135" r:id="rId171" xr:uid="{877A9B01-36F7-6D47-9B86-75B4F4BC541E}"/>
+    <hyperlink ref="I140" r:id="rId172" xr:uid="{5546ECD3-6F35-E74E-9357-32E1AF022690}"/>
+    <hyperlink ref="I150" r:id="rId173" xr:uid="{88D1FADA-4A32-0D4F-AF24-3FE72EBBEB68}"/>
+    <hyperlink ref="I151" r:id="rId174" xr:uid="{AF329473-0DFD-8C4C-BE43-8A06EA57AD9B}"/>
+    <hyperlink ref="I152" r:id="rId175" xr:uid="{6A2FDA52-E721-2D45-8440-DE26731358E6}"/>
     <hyperlink ref="I49" r:id="rId176" xr:uid="{AE7D1622-F9B9-DF48-8E55-336B7BB6750F}"/>
     <hyperlink ref="I50" r:id="rId177" xr:uid="{59C3C7D9-F3C2-4241-BF17-62CD57E349CD}"/>
+    <hyperlink ref="I84" r:id="rId178" xr:uid="{808B590E-E469-FC42-8AED-648218F9285B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/docs/香港素食餐廳大全.xlsx
+++ b/docs/香港素食餐廳大全.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10910"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tim/_Python_OpenAI/My-projects/7-hk-veg-map/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B2AD047-43FE-F749-A316-44989C254281}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0828B3D-CAE4-D645-94ED-7B4AB1CE0E29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10000" yWindow="500" windowWidth="17400" windowHeight="16160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9520" yWindow="500" windowWidth="17620" windowHeight="16260" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="香港素食餐廳大全" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2249" uniqueCount="1009">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2276" uniqueCount="1024">
   <si>
     <t>** 更新自: 13 Aug 2023 (deprecated, go to sheet 2 "hk_veg_restaurants_data instead")</t>
   </si>
@@ -1313,12 +1313,6 @@
     <t>37912277</t>
   </si>
   <si>
-    <t>22.284456738622275, 114.15197536654318</t>
-  </si>
-  <si>
-    <t>59102378</t>
-  </si>
-  <si>
     <t>22.28193798940442, 114.15433563756797</t>
   </si>
   <si>
@@ -3048,6 +3042,57 @@
   </si>
   <si>
     <t>46146544</t>
+  </si>
+  <si>
+    <t>EFG Eat for Green</t>
+  </si>
+  <si>
+    <t>觀塘開源道60號駱駝漆大廈第三座3樓P室</t>
+  </si>
+  <si>
+    <t>22.31014677141835, 114.22507058388389</t>
+  </si>
+  <si>
+    <t>https://www.openrice.com/zh/hongkong/r-efg-eat-for-green-%E8%A7%80%E5%A1%98-%E8%A5%BF%E5%BC%8F-%E7%84%A1%E8%82%89%E9%A4%90%E5%96%AE-r746157</t>
+  </si>
+  <si>
+    <t>70742818</t>
+  </si>
+  <si>
+    <t>65868047</t>
+  </si>
+  <si>
+    <t>Mayse Pizzeria</t>
+  </si>
+  <si>
+    <t>佐敦吳松街5-11號地舖</t>
+  </si>
+  <si>
+    <t>22.30831384234082, 114.17085483383964</t>
+  </si>
+  <si>
+    <t>https://www.openrice.com/zh/hongkong/r-mayse-pizzeria-%E4%BD%90%E6%95%A6-%E8%A5%BF%E5%BC%8F-%E8%96%84%E9%A4%85-r821465</t>
+  </si>
+  <si>
+    <t>95352907</t>
+  </si>
+  <si>
+    <t>22.473053607378237, 114.23264978801974</t>
+  </si>
+  <si>
+    <t>元朗錦田高埔村110號天空之城地下17號舖</t>
+  </si>
+  <si>
+    <t>VEG-MIND CAFÉ</t>
+  </si>
+  <si>
+    <t>22.441662529715845, 114.05506007193001</t>
+  </si>
+  <si>
+    <t>https://www.openrice.com/zh/hongkong/r-veg-mind-cafe-%E5%85%83%E6%9C%97-%E8%A5%BF%E5%BC%8F-%E7%84%A1%E8%82%89%E9%A4%90%E5%96%AE-r724690</t>
+  </si>
+  <si>
+    <t>28816621</t>
   </si>
 </sst>
 </file>
@@ -11316,10 +11361,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:K179"/>
+  <dimension ref="A1:K182"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F69" zoomScale="132" workbookViewId="0">
-      <selection activeCell="J84" sqref="J84"/>
+    <sheetView tabSelected="1" topLeftCell="F145" zoomScale="132" workbookViewId="0">
+      <selection activeCell="J163" sqref="J163"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -11401,7 +11446,7 @@
         <v>10</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>397</v>
@@ -11413,17 +11458,17 @@
         <v>14</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>912</v>
+        <v>910</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>992</v>
+        <v>990</v>
       </c>
       <c r="H3" s="5"/>
       <c r="I3" s="24" t="s">
-        <v>913</v>
+        <v>911</v>
       </c>
       <c r="J3" s="25" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
       <c r="K3" s="5"/>
     </row>
@@ -11432,10 +11477,10 @@
         <v>10</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>418</v>
@@ -11444,17 +11489,17 @@
         <v>14</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>916</v>
+        <v>914</v>
       </c>
       <c r="H4" s="5"/>
       <c r="I4" s="24" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="J4" s="25" t="s">
-        <v>918</v>
+        <v>916</v>
       </c>
       <c r="K4" s="5"/>
     </row>
@@ -11463,10 +11508,10 @@
         <v>10</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>418</v>
@@ -11475,17 +11520,17 @@
         <v>25</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
       <c r="H5" s="5"/>
       <c r="I5" s="24" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="J5" s="25" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="K5" s="5"/>
     </row>
@@ -11509,7 +11554,7 @@
         <v>399</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>991</v>
+        <v>989</v>
       </c>
       <c r="H6" s="5"/>
       <c r="I6" s="7" t="s">
@@ -11633,7 +11678,7 @@
         <v>413</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="H10" s="5"/>
       <c r="I10" s="7" t="s">
@@ -11701,7 +11746,7 @@
       </c>
       <c r="H12" s="5"/>
       <c r="I12" s="24" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
       <c r="J12" s="25" t="s">
         <v>420</v>
@@ -11836,7 +11881,7 @@
         <v>22</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="D17" s="5" t="s">
         <v>382</v>
@@ -11845,17 +11890,17 @@
         <v>14</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="H17" s="5"/>
       <c r="I17" s="24" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="J17" s="25" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="K17" s="5"/>
     </row>
@@ -11883,7 +11928,7 @@
       </c>
       <c r="H18" s="5"/>
       <c r="I18" s="24" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="J18" s="25" t="s">
         <v>429</v>
@@ -11898,23 +11943,23 @@
         <v>22</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>59</v>
+        <v>410</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="G19" s="5" t="s">
         <v>430</v>
       </c>
       <c r="H19" s="5"/>
       <c r="I19" s="7" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="J19" s="25" t="s">
         <v>431</v>
@@ -11929,26 +11974,26 @@
         <v>22</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>62</v>
+        <v>723</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>410</v>
+        <v>47</v>
       </c>
       <c r="E20" s="5" t="s">
         <v>25</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>63</v>
+        <v>730</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>432</v>
+        <v>731</v>
       </c>
       <c r="H20" s="5"/>
-      <c r="I20" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="J20" s="25" t="s">
-        <v>433</v>
+      <c r="I20" s="24" t="s">
+        <v>732</v>
+      </c>
+      <c r="J20" s="25">
+        <v>37553067</v>
       </c>
       <c r="K20" s="5"/>
     </row>
@@ -11960,7 +12005,7 @@
         <v>22</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>725</v>
+        <v>729</v>
       </c>
       <c r="D21" s="5" t="s">
         <v>47</v>
@@ -11969,17 +12014,17 @@
         <v>25</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="H21" s="5"/>
       <c r="I21" s="24" t="s">
-        <v>734</v>
-      </c>
-      <c r="J21" s="25">
-        <v>37553067</v>
+        <v>735</v>
+      </c>
+      <c r="J21" s="25" t="s">
+        <v>736</v>
       </c>
       <c r="K21" s="5"/>
     </row>
@@ -11988,29 +12033,29 @@
         <v>10</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>22</v>
+        <v>65</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>731</v>
+        <v>66</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>47</v>
+        <v>410</v>
       </c>
       <c r="E22" s="5" t="s">
         <v>25</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>735</v>
+        <v>432</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>736</v>
+        <v>433</v>
       </c>
       <c r="H22" s="5"/>
-      <c r="I22" s="24" t="s">
-        <v>737</v>
+      <c r="I22" s="6" t="s">
+        <v>68</v>
       </c>
       <c r="J22" s="25" t="s">
-        <v>738</v>
+        <v>434</v>
       </c>
       <c r="K22" s="5"/>
     </row>
@@ -12022,26 +12067,26 @@
         <v>65</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>66</v>
+        <v>381</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>410</v>
+        <v>382</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="H23" s="5"/>
       <c r="I23" s="6" t="s">
-        <v>68</v>
+        <v>437</v>
       </c>
       <c r="J23" s="25" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="K23" s="5"/>
     </row>
@@ -12050,26 +12095,26 @@
         <v>10</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>381</v>
+        <v>70</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>382</v>
+        <v>71</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>437</v>
+        <v>72</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="H24" s="5"/>
       <c r="I24" s="6" t="s">
-        <v>439</v>
+        <v>73</v>
       </c>
       <c r="J24" s="25" t="s">
         <v>440</v>
@@ -12084,23 +12129,23 @@
         <v>69</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>70</v>
+        <v>905</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="E25" s="5" t="s">
         <v>25</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="G25" s="5" t="s">
         <v>441</v>
       </c>
       <c r="H25" s="5"/>
-      <c r="I25" s="6" t="s">
-        <v>73</v>
+      <c r="I25" s="24" t="s">
+        <v>862</v>
       </c>
       <c r="J25" s="25" t="s">
         <v>442</v>
@@ -12115,23 +12160,23 @@
         <v>69</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>907</v>
+        <v>78</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>75</v>
+        <v>394</v>
       </c>
       <c r="E26" s="5" t="s">
         <v>25</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="G26" s="5" t="s">
         <v>443</v>
       </c>
       <c r="H26" s="5"/>
-      <c r="I26" s="24" t="s">
-        <v>864</v>
+      <c r="I26" s="7" t="s">
+        <v>80</v>
       </c>
       <c r="J26" s="25" t="s">
         <v>444</v>
@@ -12146,23 +12191,23 @@
         <v>69</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>394</v>
+        <v>410</v>
       </c>
       <c r="E27" s="5" t="s">
         <v>25</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="G27" s="5" t="s">
         <v>445</v>
       </c>
       <c r="H27" s="5"/>
       <c r="I27" s="7" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="J27" s="25" t="s">
         <v>446</v>
@@ -12177,7 +12222,7 @@
         <v>69</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="D28" s="5" t="s">
         <v>410</v>
@@ -12186,14 +12231,14 @@
         <v>25</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="G28" s="5" t="s">
         <v>447</v>
       </c>
       <c r="H28" s="5"/>
-      <c r="I28" s="7" t="s">
-        <v>83</v>
+      <c r="I28" s="6" t="s">
+        <v>86</v>
       </c>
       <c r="J28" s="25" t="s">
         <v>448</v>
@@ -12208,7 +12253,7 @@
         <v>69</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="D29" s="5" t="s">
         <v>410</v>
@@ -12217,14 +12262,14 @@
         <v>25</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="G29" s="5" t="s">
         <v>449</v>
       </c>
       <c r="H29" s="5"/>
       <c r="I29" s="6" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="J29" s="25" t="s">
         <v>450</v>
@@ -12239,23 +12284,23 @@
         <v>69</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>410</v>
+        <v>51</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="G30" s="5" t="s">
         <v>451</v>
       </c>
       <c r="H30" s="5"/>
       <c r="I30" s="6" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="J30" s="25" t="s">
         <v>452</v>
@@ -12270,23 +12315,23 @@
         <v>69</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="G31" s="5" t="s">
         <v>453</v>
       </c>
       <c r="H31" s="5"/>
       <c r="I31" s="6" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="J31" s="25" t="s">
         <v>454</v>
@@ -12301,26 +12346,26 @@
         <v>69</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>93</v>
+        <v>869</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="E32" s="5" t="s">
         <v>25</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>94</v>
+        <v>870</v>
       </c>
       <c r="G32" s="5" t="s">
-        <v>455</v>
+        <v>871</v>
       </c>
       <c r="H32" s="5"/>
-      <c r="I32" s="6" t="s">
-        <v>95</v>
+      <c r="I32" s="24" t="s">
+        <v>872</v>
       </c>
       <c r="J32" s="25" t="s">
-        <v>456</v>
+        <v>873</v>
       </c>
       <c r="K32" s="5"/>
     </row>
@@ -12332,26 +12377,26 @@
         <v>69</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>871</v>
+        <v>96</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>51</v>
+        <v>418</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>872</v>
+        <v>97</v>
       </c>
       <c r="G33" s="5" t="s">
-        <v>873</v>
+        <v>455</v>
       </c>
       <c r="H33" s="5"/>
       <c r="I33" s="24" t="s">
-        <v>874</v>
+        <v>863</v>
       </c>
       <c r="J33" s="25" t="s">
-        <v>875</v>
+        <v>456</v>
       </c>
       <c r="K33" s="5"/>
     </row>
@@ -12360,29 +12405,29 @@
         <v>10</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>69</v>
+        <v>99</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>96</v>
+        <v>457</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>418</v>
+        <v>410</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>97</v>
+        <v>458</v>
       </c>
       <c r="G34" s="5" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="H34" s="5"/>
-      <c r="I34" s="24" t="s">
-        <v>865</v>
+      <c r="I34" s="6" t="s">
+        <v>460</v>
       </c>
       <c r="J34" s="25" t="s">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="K34" s="5"/>
     </row>
@@ -12394,26 +12439,26 @@
         <v>99</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>459</v>
+        <v>381</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>410</v>
+        <v>382</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="G35" s="5" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="H35" s="5"/>
       <c r="I35" s="6" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="J35" s="25" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="K35" s="5"/>
     </row>
@@ -12425,28 +12470,30 @@
         <v>99</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>381</v>
+        <v>100</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>382</v>
+        <v>47</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>464</v>
+        <v>101</v>
       </c>
       <c r="G36" s="5" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="H36" s="5"/>
       <c r="I36" s="6" t="s">
-        <v>466</v>
+        <v>102</v>
       </c>
       <c r="J36" s="25" t="s">
         <v>467</v>
       </c>
-      <c r="K36" s="5"/>
+      <c r="K36" s="5" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="37" spans="1:11" ht="15.75" customHeight="1">
       <c r="A37" s="5" t="s">
@@ -12456,30 +12503,28 @@
         <v>99</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>47</v>
+        <v>468</v>
       </c>
       <c r="E37" s="5" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="F37" s="5" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="G37" s="5" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="H37" s="5"/>
-      <c r="I37" s="6" t="s">
-        <v>102</v>
+      <c r="I37" s="7" t="s">
+        <v>107</v>
       </c>
       <c r="J37" s="25" t="s">
-        <v>469</v>
-      </c>
-      <c r="K37" s="5" t="s">
-        <v>103</v>
-      </c>
+        <v>470</v>
+      </c>
+      <c r="K37" s="5"/>
     </row>
     <row r="38" spans="1:11" ht="15.75" customHeight="1">
       <c r="A38" s="5" t="s">
@@ -12489,26 +12534,26 @@
         <v>99</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="E38" s="5" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>106</v>
+        <v>472</v>
       </c>
       <c r="G38" s="5" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="H38" s="5"/>
-      <c r="I38" s="7" t="s">
-        <v>107</v>
+      <c r="I38" s="6" t="s">
+        <v>474</v>
       </c>
       <c r="J38" s="25" t="s">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="K38" s="5"/>
     </row>
@@ -12520,23 +12565,23 @@
         <v>99</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>473</v>
+        <v>55</v>
       </c>
       <c r="E39" s="5" t="s">
         <v>25</v>
       </c>
       <c r="F39" s="5" t="s">
-        <v>474</v>
+        <v>113</v>
       </c>
       <c r="G39" s="5" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="H39" s="5"/>
       <c r="I39" s="6" t="s">
-        <v>476</v>
+        <v>114</v>
       </c>
       <c r="J39" s="25" t="s">
         <v>477</v>
@@ -12551,69 +12596,69 @@
         <v>99</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>112</v>
+        <v>727</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>55</v>
+        <v>181</v>
       </c>
       <c r="E40" s="5" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>113</v>
+        <v>737</v>
       </c>
       <c r="G40" s="5" t="s">
-        <v>478</v>
+        <v>738</v>
       </c>
       <c r="H40" s="5"/>
-      <c r="I40" s="6" t="s">
-        <v>114</v>
+      <c r="I40" s="24" t="s">
+        <v>739</v>
       </c>
       <c r="J40" s="25" t="s">
-        <v>479</v>
+        <v>740</v>
       </c>
       <c r="K40" s="5"/>
     </row>
     <row r="41" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A41" s="5" t="s">
+      <c r="A41" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="B41" s="5" t="s">
+      <c r="B41" s="23" t="s">
         <v>99</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>181</v>
+        <v>410</v>
       </c>
       <c r="E41" s="5" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="F41" s="5" t="s">
-        <v>739</v>
+        <v>741</v>
       </c>
       <c r="G41" s="5" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
       <c r="H41" s="5"/>
       <c r="I41" s="24" t="s">
-        <v>741</v>
+        <v>743</v>
       </c>
       <c r="J41" s="25" t="s">
-        <v>742</v>
+        <v>744</v>
       </c>
       <c r="K41" s="5"/>
     </row>
     <row r="42" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A42" s="23" t="s">
+      <c r="A42" s="5" t="s">
         <v>10</v>
       </c>
       <c r="B42" s="23" t="s">
-        <v>99</v>
+        <v>900</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>730</v>
+        <v>898</v>
       </c>
       <c r="D42" s="5" t="s">
         <v>410</v>
@@ -12622,17 +12667,17 @@
         <v>25</v>
       </c>
       <c r="F42" s="5" t="s">
-        <v>743</v>
+        <v>925</v>
       </c>
       <c r="G42" s="5" t="s">
-        <v>744</v>
+        <v>926</v>
       </c>
       <c r="H42" s="5"/>
       <c r="I42" s="24" t="s">
-        <v>745</v>
+        <v>927</v>
       </c>
       <c r="J42" s="25" t="s">
-        <v>746</v>
+        <v>928</v>
       </c>
       <c r="K42" s="5"/>
     </row>
@@ -12640,30 +12685,30 @@
       <c r="A43" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B43" s="23" t="s">
-        <v>902</v>
+      <c r="B43" s="5" t="s">
+        <v>115</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>900</v>
+        <v>478</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>410</v>
+        <v>47</v>
       </c>
       <c r="E43" s="5" t="s">
         <v>25</v>
       </c>
       <c r="F43" s="5" t="s">
-        <v>927</v>
+        <v>479</v>
       </c>
       <c r="G43" s="5" t="s">
-        <v>928</v>
+        <v>480</v>
       </c>
       <c r="H43" s="5"/>
-      <c r="I43" s="24" t="s">
-        <v>929</v>
+      <c r="I43" s="6" t="s">
+        <v>481</v>
       </c>
       <c r="J43" s="25" t="s">
-        <v>930</v>
+        <v>482</v>
       </c>
       <c r="K43" s="5"/>
     </row>
@@ -12675,23 +12720,23 @@
         <v>115</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>480</v>
+        <v>116</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>47</v>
+        <v>117</v>
       </c>
       <c r="E44" s="5" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="F44" s="5" t="s">
-        <v>481</v>
+        <v>118</v>
       </c>
       <c r="G44" s="5" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="H44" s="5"/>
-      <c r="I44" s="6" t="s">
-        <v>483</v>
+      <c r="I44" s="24" t="s">
+        <v>855</v>
       </c>
       <c r="J44" s="25" t="s">
         <v>484</v>
@@ -12706,26 +12751,26 @@
         <v>115</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>116</v>
+        <v>850</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>117</v>
+        <v>410</v>
       </c>
       <c r="E45" s="5" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="F45" s="5" t="s">
-        <v>118</v>
+        <v>851</v>
       </c>
       <c r="G45" s="5" t="s">
-        <v>485</v>
+        <v>852</v>
       </c>
       <c r="H45" s="5"/>
       <c r="I45" s="24" t="s">
-        <v>857</v>
+        <v>853</v>
       </c>
       <c r="J45" s="25" t="s">
-        <v>486</v>
+        <v>854</v>
       </c>
       <c r="K45" s="5"/>
     </row>
@@ -12737,26 +12782,26 @@
         <v>115</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>852</v>
+        <v>879</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>410</v>
+        <v>117</v>
       </c>
       <c r="E46" s="5" t="s">
         <v>25</v>
       </c>
       <c r="F46" s="5" t="s">
-        <v>853</v>
+        <v>880</v>
       </c>
       <c r="G46" s="5" t="s">
-        <v>854</v>
+        <v>881</v>
       </c>
       <c r="H46" s="5"/>
       <c r="I46" s="24" t="s">
-        <v>855</v>
+        <v>882</v>
       </c>
       <c r="J46" s="25" t="s">
-        <v>856</v>
+        <v>883</v>
       </c>
       <c r="K46" s="5"/>
     </row>
@@ -12768,26 +12813,26 @@
         <v>115</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>881</v>
+        <v>874</v>
       </c>
       <c r="D47" s="5" t="s">
-        <v>117</v>
+        <v>410</v>
       </c>
       <c r="E47" s="5" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="F47" s="5" t="s">
-        <v>882</v>
+        <v>875</v>
       </c>
       <c r="G47" s="5" t="s">
-        <v>883</v>
+        <v>876</v>
       </c>
       <c r="H47" s="5"/>
       <c r="I47" s="24" t="s">
-        <v>884</v>
+        <v>877</v>
       </c>
       <c r="J47" s="25" t="s">
-        <v>885</v>
+        <v>878</v>
       </c>
       <c r="K47" s="5"/>
     </row>
@@ -12799,26 +12844,26 @@
         <v>115</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>876</v>
+        <v>991</v>
       </c>
       <c r="D48" s="5" t="s">
         <v>410</v>
       </c>
       <c r="E48" s="5" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="F48" s="5" t="s">
-        <v>877</v>
+        <v>993</v>
       </c>
       <c r="G48" s="5" t="s">
-        <v>878</v>
+        <v>994</v>
       </c>
       <c r="H48" s="5"/>
       <c r="I48" s="24" t="s">
-        <v>879</v>
+        <v>995</v>
       </c>
       <c r="J48" s="25" t="s">
-        <v>880</v>
+        <v>996</v>
       </c>
       <c r="K48" s="5"/>
     </row>
@@ -12830,26 +12875,26 @@
         <v>115</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>410</v>
+        <v>117</v>
       </c>
       <c r="E49" s="5" t="s">
         <v>25</v>
       </c>
       <c r="F49" s="5" t="s">
-        <v>995</v>
+        <v>997</v>
       </c>
       <c r="G49" s="5" t="s">
-        <v>996</v>
+        <v>998</v>
       </c>
       <c r="H49" s="5"/>
       <c r="I49" s="24" t="s">
-        <v>997</v>
+        <v>999</v>
       </c>
       <c r="J49" s="25" t="s">
-        <v>998</v>
+        <v>1000</v>
       </c>
       <c r="K49" s="5"/>
     </row>
@@ -12858,29 +12903,29 @@
         <v>10</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>994</v>
+        <v>121</v>
       </c>
       <c r="D50" s="5" t="s">
-        <v>117</v>
+        <v>410</v>
       </c>
       <c r="E50" s="5" t="s">
         <v>25</v>
       </c>
       <c r="F50" s="5" t="s">
-        <v>999</v>
+        <v>122</v>
       </c>
       <c r="G50" s="5" t="s">
-        <v>1000</v>
+        <v>485</v>
       </c>
       <c r="H50" s="5"/>
-      <c r="I50" s="24" t="s">
-        <v>1001</v>
+      <c r="I50" s="6" t="s">
+        <v>123</v>
       </c>
       <c r="J50" s="25" t="s">
-        <v>1002</v>
+        <v>486</v>
       </c>
       <c r="K50" s="5"/>
     </row>
@@ -12889,26 +12934,26 @@
         <v>10</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="D51" s="5" t="s">
-        <v>410</v>
+        <v>47</v>
       </c>
       <c r="E51" s="5" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="F51" s="5" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="G51" s="5" t="s">
         <v>487</v>
       </c>
       <c r="H51" s="5"/>
       <c r="I51" s="6" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="J51" s="25" t="s">
         <v>488</v>
@@ -12920,26 +12965,26 @@
         <v>10</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="D52" s="5" t="s">
-        <v>47</v>
+        <v>410</v>
       </c>
       <c r="E52" s="5" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="F52" s="5" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="G52" s="5" t="s">
         <v>489</v>
       </c>
       <c r="H52" s="5"/>
-      <c r="I52" s="6" t="s">
-        <v>127</v>
+      <c r="I52" s="7" t="s">
+        <v>131</v>
       </c>
       <c r="J52" s="25" t="s">
         <v>490</v>
@@ -12947,35 +12992,35 @@
       <c r="K52" s="5"/>
     </row>
     <row r="53" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A53" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B53" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="C53" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="D53" s="5" t="s">
-        <v>410</v>
-      </c>
-      <c r="E53" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="F53" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="G53" s="5" t="s">
+      <c r="A53" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="B53" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="C53" s="9" t="s">
         <v>491</v>
       </c>
-      <c r="H53" s="5"/>
-      <c r="I53" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="J53" s="25" t="s">
+      <c r="D53" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="E53" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F53" s="9" t="s">
         <v>492</v>
       </c>
-      <c r="K53" s="5"/>
+      <c r="G53" s="9" t="s">
+        <v>493</v>
+      </c>
+      <c r="H53" s="9"/>
+      <c r="I53" s="10" t="s">
+        <v>494</v>
+      </c>
+      <c r="J53" s="26" t="s">
+        <v>495</v>
+      </c>
+      <c r="K53" s="9"/>
     </row>
     <row r="54" spans="1:11" ht="15.75" customHeight="1">
       <c r="A54" s="9" t="s">
@@ -12985,23 +13030,23 @@
         <v>133</v>
       </c>
       <c r="C54" s="9" t="s">
-        <v>493</v>
+        <v>902</v>
       </c>
       <c r="D54" s="9" t="s">
-        <v>47</v>
+        <v>410</v>
       </c>
       <c r="E54" s="9" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="F54" s="9" t="s">
-        <v>494</v>
+        <v>135</v>
       </c>
       <c r="G54" s="9" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="H54" s="9"/>
       <c r="I54" s="10" t="s">
-        <v>496</v>
+        <v>136</v>
       </c>
       <c r="J54" s="26" t="s">
         <v>497</v>
@@ -13016,7 +13061,7 @@
         <v>133</v>
       </c>
       <c r="C55" s="9" t="s">
-        <v>904</v>
+        <v>498</v>
       </c>
       <c r="D55" s="9" t="s">
         <v>410</v>
@@ -13025,17 +13070,17 @@
         <v>25</v>
       </c>
       <c r="F55" s="9" t="s">
-        <v>135</v>
+        <v>499</v>
       </c>
       <c r="G55" s="9" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="H55" s="9"/>
       <c r="I55" s="10" t="s">
-        <v>136</v>
+        <v>501</v>
       </c>
       <c r="J55" s="26" t="s">
-        <v>499</v>
+        <v>502</v>
       </c>
       <c r="K55" s="9"/>
     </row>
@@ -13047,23 +13092,23 @@
         <v>133</v>
       </c>
       <c r="C56" s="9" t="s">
-        <v>500</v>
+        <v>137</v>
       </c>
       <c r="D56" s="9" t="s">
-        <v>410</v>
+        <v>471</v>
       </c>
       <c r="E56" s="9" t="s">
         <v>25</v>
       </c>
       <c r="F56" s="9" t="s">
-        <v>501</v>
+        <v>138</v>
       </c>
       <c r="G56" s="9" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="H56" s="9"/>
       <c r="I56" s="10" t="s">
-        <v>503</v>
+        <v>139</v>
       </c>
       <c r="J56" s="26" t="s">
         <v>504</v>
@@ -13078,26 +13123,26 @@
         <v>133</v>
       </c>
       <c r="C57" s="9" t="s">
-        <v>137</v>
+        <v>381</v>
       </c>
       <c r="D57" s="9" t="s">
-        <v>473</v>
+        <v>382</v>
       </c>
       <c r="E57" s="9" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="F57" s="9" t="s">
-        <v>138</v>
+        <v>505</v>
       </c>
       <c r="G57" s="9" t="s">
-        <v>505</v>
+        <v>779</v>
       </c>
       <c r="H57" s="9"/>
       <c r="I57" s="10" t="s">
-        <v>139</v>
+        <v>506</v>
       </c>
       <c r="J57" s="26" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="K57" s="9"/>
     </row>
@@ -13109,23 +13154,23 @@
         <v>133</v>
       </c>
       <c r="C58" s="9" t="s">
-        <v>381</v>
+        <v>905</v>
       </c>
       <c r="D58" s="9" t="s">
-        <v>382</v>
+        <v>75</v>
       </c>
       <c r="E58" s="9" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="F58" s="9" t="s">
-        <v>507</v>
+        <v>141</v>
       </c>
       <c r="G58" s="9" t="s">
-        <v>781</v>
+        <v>508</v>
       </c>
       <c r="H58" s="9"/>
-      <c r="I58" s="10" t="s">
-        <v>508</v>
+      <c r="I58" s="28" t="s">
+        <v>856</v>
       </c>
       <c r="J58" s="26" t="s">
         <v>509</v>
@@ -13140,7 +13185,7 @@
         <v>133</v>
       </c>
       <c r="C59" s="9" t="s">
-        <v>907</v>
+        <v>904</v>
       </c>
       <c r="D59" s="9" t="s">
         <v>75</v>
@@ -13149,14 +13194,14 @@
         <v>25</v>
       </c>
       <c r="F59" s="9" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="G59" s="9" t="s">
         <v>510</v>
       </c>
       <c r="H59" s="9"/>
       <c r="I59" s="28" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="J59" s="26" t="s">
         <v>511</v>
@@ -13171,26 +13216,26 @@
         <v>133</v>
       </c>
       <c r="C60" s="9" t="s">
-        <v>906</v>
+        <v>146</v>
       </c>
       <c r="D60" s="9" t="s">
-        <v>75</v>
+        <v>512</v>
       </c>
       <c r="E60" s="9" t="s">
         <v>25</v>
       </c>
       <c r="F60" s="9" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="G60" s="9" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="H60" s="9"/>
-      <c r="I60" s="28" t="s">
-        <v>859</v>
+      <c r="I60" s="11" t="s">
+        <v>149</v>
       </c>
       <c r="J60" s="26" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="K60" s="9"/>
     </row>
@@ -13202,30 +13247,30 @@
         <v>133</v>
       </c>
       <c r="C61" s="9" t="s">
-        <v>146</v>
+        <v>840</v>
       </c>
       <c r="D61" s="9" t="s">
-        <v>514</v>
+        <v>410</v>
       </c>
       <c r="E61" s="9" t="s">
         <v>25</v>
       </c>
       <c r="F61" s="9" t="s">
-        <v>148</v>
+        <v>841</v>
       </c>
       <c r="G61" s="9" t="s">
-        <v>515</v>
+        <v>842</v>
       </c>
       <c r="H61" s="9"/>
-      <c r="I61" s="11" t="s">
-        <v>149</v>
+      <c r="I61" s="28" t="s">
+        <v>843</v>
       </c>
       <c r="J61" s="26" t="s">
-        <v>516</v>
+        <v>844</v>
       </c>
       <c r="K61" s="9"/>
     </row>
-    <row r="62" spans="1:11" ht="15.75" customHeight="1">
+    <row r="62" spans="1:11" ht="13">
       <c r="A62" s="9" t="s">
         <v>132</v>
       </c>
@@ -13233,26 +13278,26 @@
         <v>133</v>
       </c>
       <c r="C62" s="9" t="s">
-        <v>842</v>
+        <v>907</v>
       </c>
       <c r="D62" s="9" t="s">
-        <v>410</v>
+        <v>55</v>
       </c>
       <c r="E62" s="9" t="s">
         <v>25</v>
       </c>
       <c r="F62" s="9" t="s">
-        <v>843</v>
+        <v>151</v>
       </c>
       <c r="G62" s="9" t="s">
-        <v>844</v>
+        <v>515</v>
       </c>
       <c r="H62" s="9"/>
-      <c r="I62" s="28" t="s">
-        <v>845</v>
+      <c r="I62" s="10" t="s">
+        <v>152</v>
       </c>
       <c r="J62" s="26" t="s">
-        <v>846</v>
+        <v>516</v>
       </c>
       <c r="K62" s="9"/>
     </row>
@@ -13264,23 +13309,23 @@
         <v>133</v>
       </c>
       <c r="C63" s="9" t="s">
-        <v>909</v>
+        <v>153</v>
       </c>
       <c r="D63" s="9" t="s">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="E63" s="9" t="s">
         <v>25</v>
       </c>
       <c r="F63" s="9" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="G63" s="9" t="s">
         <v>517</v>
       </c>
       <c r="H63" s="9"/>
       <c r="I63" s="10" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="J63" s="26" t="s">
         <v>518</v>
@@ -13295,23 +13340,23 @@
         <v>133</v>
       </c>
       <c r="C64" s="9" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="D64" s="9" t="s">
-        <v>75</v>
+        <v>157</v>
       </c>
       <c r="E64" s="9" t="s">
         <v>25</v>
       </c>
       <c r="F64" s="9" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="G64" s="9" t="s">
         <v>519</v>
       </c>
       <c r="H64" s="9"/>
       <c r="I64" s="10" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="J64" s="26" t="s">
         <v>520</v>
@@ -13326,26 +13371,26 @@
         <v>133</v>
       </c>
       <c r="C65" s="9" t="s">
-        <v>156</v>
+        <v>780</v>
       </c>
       <c r="D65" s="9" t="s">
-        <v>157</v>
+        <v>47</v>
       </c>
       <c r="E65" s="9" t="s">
         <v>25</v>
       </c>
       <c r="F65" s="9" t="s">
-        <v>158</v>
+        <v>793</v>
       </c>
       <c r="G65" s="9" t="s">
-        <v>521</v>
+        <v>794</v>
       </c>
       <c r="H65" s="9"/>
-      <c r="I65" s="10" t="s">
-        <v>159</v>
+      <c r="I65" s="28" t="s">
+        <v>795</v>
       </c>
       <c r="J65" s="26" t="s">
-        <v>522</v>
+        <v>796</v>
       </c>
       <c r="K65" s="9"/>
     </row>
@@ -13357,26 +13402,26 @@
         <v>133</v>
       </c>
       <c r="C66" s="9" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="D66" s="9" t="s">
-        <v>47</v>
+        <v>410</v>
       </c>
       <c r="E66" s="9" t="s">
         <v>25</v>
       </c>
       <c r="F66" s="9" t="s">
-        <v>795</v>
+        <v>797</v>
       </c>
       <c r="G66" s="9" t="s">
-        <v>796</v>
+        <v>798</v>
       </c>
       <c r="H66" s="9"/>
       <c r="I66" s="28" t="s">
-        <v>797</v>
+        <v>799</v>
       </c>
       <c r="J66" s="26" t="s">
-        <v>798</v>
+        <v>800</v>
       </c>
       <c r="K66" s="9"/>
     </row>
@@ -13388,26 +13433,26 @@
         <v>133</v>
       </c>
       <c r="C67" s="9" t="s">
-        <v>783</v>
+        <v>903</v>
       </c>
       <c r="D67" s="9" t="s">
-        <v>410</v>
+        <v>75</v>
       </c>
       <c r="E67" s="9" t="s">
         <v>25</v>
       </c>
       <c r="F67" s="9" t="s">
-        <v>799</v>
+        <v>929</v>
       </c>
       <c r="G67" s="9" t="s">
-        <v>800</v>
+        <v>930</v>
       </c>
       <c r="H67" s="9"/>
       <c r="I67" s="28" t="s">
-        <v>801</v>
+        <v>931</v>
       </c>
       <c r="J67" s="26" t="s">
-        <v>802</v>
+        <v>932</v>
       </c>
       <c r="K67" s="9"/>
     </row>
@@ -13419,26 +13464,26 @@
         <v>133</v>
       </c>
       <c r="C68" s="9" t="s">
-        <v>905</v>
+        <v>782</v>
       </c>
       <c r="D68" s="9" t="s">
-        <v>75</v>
+        <v>47</v>
       </c>
       <c r="E68" s="9" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="F68" s="9" t="s">
-        <v>931</v>
+        <v>801</v>
       </c>
       <c r="G68" s="9" t="s">
-        <v>932</v>
+        <v>802</v>
       </c>
       <c r="H68" s="9"/>
       <c r="I68" s="28" t="s">
-        <v>933</v>
+        <v>803</v>
       </c>
       <c r="J68" s="26" t="s">
-        <v>934</v>
+        <v>804</v>
       </c>
       <c r="K68" s="9"/>
     </row>
@@ -13450,26 +13495,26 @@
         <v>133</v>
       </c>
       <c r="C69" s="9" t="s">
-        <v>784</v>
+        <v>724</v>
       </c>
       <c r="D69" s="9" t="s">
-        <v>47</v>
+        <v>117</v>
       </c>
       <c r="E69" s="9" t="s">
         <v>14</v>
       </c>
       <c r="F69" s="9" t="s">
-        <v>803</v>
+        <v>805</v>
       </c>
       <c r="G69" s="9" t="s">
-        <v>804</v>
+        <v>806</v>
       </c>
       <c r="H69" s="9"/>
       <c r="I69" s="28" t="s">
-        <v>805</v>
+        <v>807</v>
       </c>
       <c r="J69" s="26" t="s">
-        <v>806</v>
+        <v>808</v>
       </c>
       <c r="K69" s="9"/>
     </row>
@@ -13481,26 +13526,26 @@
         <v>133</v>
       </c>
       <c r="C70" s="9" t="s">
-        <v>726</v>
+        <v>160</v>
       </c>
       <c r="D70" s="9" t="s">
-        <v>117</v>
+        <v>55</v>
       </c>
       <c r="E70" s="9" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="F70" s="9" t="s">
-        <v>807</v>
+        <v>161</v>
       </c>
       <c r="G70" s="9" t="s">
-        <v>808</v>
+        <v>521</v>
       </c>
       <c r="H70" s="9"/>
-      <c r="I70" s="28" t="s">
-        <v>809</v>
+      <c r="I70" s="10" t="s">
+        <v>162</v>
       </c>
       <c r="J70" s="26" t="s">
-        <v>810</v>
+        <v>522</v>
       </c>
       <c r="K70" s="9"/>
     </row>
@@ -13512,27 +13557,25 @@
         <v>133</v>
       </c>
       <c r="C71" s="9" t="s">
-        <v>160</v>
+        <v>906</v>
       </c>
       <c r="D71" s="9" t="s">
-        <v>55</v>
+        <v>402</v>
       </c>
       <c r="E71" s="9" t="s">
         <v>25</v>
       </c>
       <c r="F71" s="9" t="s">
-        <v>161</v>
+        <v>933</v>
       </c>
       <c r="G71" s="9" t="s">
-        <v>523</v>
+        <v>934</v>
       </c>
       <c r="H71" s="9"/>
-      <c r="I71" s="10" t="s">
-        <v>162</v>
-      </c>
-      <c r="J71" s="26" t="s">
-        <v>524</v>
-      </c>
+      <c r="I71" s="28" t="s">
+        <v>935</v>
+      </c>
+      <c r="J71" s="26"/>
       <c r="K71" s="9"/>
     </row>
     <row r="72" spans="1:11" ht="13">
@@ -13540,28 +13583,30 @@
         <v>132</v>
       </c>
       <c r="B72" s="9" t="s">
-        <v>133</v>
+        <v>163</v>
       </c>
       <c r="C72" s="9" t="s">
-        <v>908</v>
+        <v>164</v>
       </c>
       <c r="D72" s="9" t="s">
-        <v>402</v>
+        <v>410</v>
       </c>
       <c r="E72" s="9" t="s">
         <v>25</v>
       </c>
       <c r="F72" s="9" t="s">
-        <v>935</v>
+        <v>165</v>
       </c>
       <c r="G72" s="9" t="s">
-        <v>936</v>
+        <v>523</v>
       </c>
       <c r="H72" s="9"/>
-      <c r="I72" s="28" t="s">
-        <v>937</v>
-      </c>
-      <c r="J72" s="26"/>
+      <c r="I72" s="10" t="s">
+        <v>166</v>
+      </c>
+      <c r="J72" s="26" t="s">
+        <v>524</v>
+      </c>
       <c r="K72" s="9"/>
     </row>
     <row r="73" spans="1:11" ht="13">
@@ -13572,7 +13617,7 @@
         <v>163</v>
       </c>
       <c r="C73" s="9" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="D73" s="9" t="s">
         <v>410</v>
@@ -13581,14 +13626,14 @@
         <v>25</v>
       </c>
       <c r="F73" s="9" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="G73" s="9" t="s">
         <v>525</v>
       </c>
       <c r="H73" s="9"/>
       <c r="I73" s="10" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="J73" s="26" t="s">
         <v>526</v>
@@ -13603,23 +13648,23 @@
         <v>163</v>
       </c>
       <c r="C74" s="9" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="D74" s="9" t="s">
-        <v>410</v>
+        <v>117</v>
       </c>
       <c r="E74" s="9" t="s">
         <v>25</v>
       </c>
       <c r="F74" s="9" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="G74" s="9" t="s">
         <v>527</v>
       </c>
       <c r="H74" s="9"/>
-      <c r="I74" s="10" t="s">
-        <v>169</v>
+      <c r="I74" s="28" t="s">
+        <v>858</v>
       </c>
       <c r="J74" s="26" t="s">
         <v>528</v>
@@ -13634,7 +13679,7 @@
         <v>163</v>
       </c>
       <c r="C75" s="9" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="D75" s="9" t="s">
         <v>117</v>
@@ -13643,14 +13688,14 @@
         <v>25</v>
       </c>
       <c r="F75" s="9" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="G75" s="9" t="s">
         <v>529</v>
       </c>
       <c r="H75" s="9"/>
-      <c r="I75" s="28" t="s">
-        <v>860</v>
+      <c r="I75" s="10" t="s">
+        <v>175</v>
       </c>
       <c r="J75" s="26" t="s">
         <v>530</v>
@@ -13665,26 +13710,26 @@
         <v>163</v>
       </c>
       <c r="C76" s="9" t="s">
-        <v>173</v>
+        <v>845</v>
       </c>
       <c r="D76" s="9" t="s">
-        <v>117</v>
+        <v>410</v>
       </c>
       <c r="E76" s="9" t="s">
         <v>25</v>
       </c>
       <c r="F76" s="9" t="s">
-        <v>174</v>
+        <v>846</v>
       </c>
       <c r="G76" s="9" t="s">
-        <v>531</v>
+        <v>847</v>
       </c>
       <c r="H76" s="9"/>
-      <c r="I76" s="10" t="s">
-        <v>175</v>
+      <c r="I76" s="28" t="s">
+        <v>848</v>
       </c>
       <c r="J76" s="26" t="s">
-        <v>532</v>
+        <v>849</v>
       </c>
       <c r="K76" s="9"/>
     </row>
@@ -13696,26 +13741,26 @@
         <v>163</v>
       </c>
       <c r="C77" s="9" t="s">
-        <v>847</v>
+        <v>1013</v>
       </c>
       <c r="D77" s="9" t="s">
-        <v>410</v>
+        <v>312</v>
       </c>
       <c r="E77" s="9" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="F77" s="9" t="s">
-        <v>848</v>
+        <v>1014</v>
       </c>
       <c r="G77" s="9" t="s">
-        <v>849</v>
+        <v>1015</v>
       </c>
       <c r="H77" s="9"/>
       <c r="I77" s="28" t="s">
-        <v>850</v>
+        <v>1016</v>
       </c>
       <c r="J77" s="26" t="s">
-        <v>851</v>
+        <v>1017</v>
       </c>
       <c r="K77" s="9"/>
     </row>
@@ -13724,10 +13769,10 @@
         <v>132</v>
       </c>
       <c r="B78" s="9" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="C78" s="9" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="D78" s="9" t="s">
         <v>410</v>
@@ -13736,17 +13781,17 @@
         <v>14</v>
       </c>
       <c r="F78" s="9" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="G78" s="9" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="H78" s="9"/>
       <c r="I78" s="28" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="J78" s="26" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="K78" s="9"/>
     </row>
@@ -13755,10 +13800,10 @@
         <v>132</v>
       </c>
       <c r="B79" s="9" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="C79" s="9" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="D79" s="9" t="s">
         <v>157</v>
@@ -13767,17 +13812,17 @@
         <v>25</v>
       </c>
       <c r="F79" s="9" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="G79" s="9" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="H79" s="9"/>
       <c r="I79" s="11" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="J79" s="26" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="K79" s="9"/>
     </row>
@@ -13786,7 +13831,7 @@
         <v>132</v>
       </c>
       <c r="B80" s="9" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="C80" s="9" t="s">
         <v>381</v>
@@ -13798,17 +13843,17 @@
         <v>14</v>
       </c>
       <c r="F80" s="9" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="G80" s="9" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="H80" s="9"/>
       <c r="I80" s="10" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="J80" s="26" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="K80" s="9"/>
     </row>
@@ -13820,7 +13865,7 @@
         <v>176</v>
       </c>
       <c r="C81" s="9" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="D81" s="9" t="s">
         <v>410</v>
@@ -13829,17 +13874,17 @@
         <v>25</v>
       </c>
       <c r="F81" s="9" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="G81" s="9" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="H81" s="9"/>
       <c r="I81" s="10" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="J81" s="26" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="K81" s="9"/>
     </row>
@@ -13860,17 +13905,17 @@
         <v>25</v>
       </c>
       <c r="F82" s="9" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="G82" s="9" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="H82" s="9"/>
       <c r="I82" s="10" t="s">
         <v>179</v>
       </c>
       <c r="J82" s="26" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="K82" s="9"/>
     </row>
@@ -13894,14 +13939,14 @@
         <v>182</v>
       </c>
       <c r="G83" s="9" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="H83" s="9"/>
       <c r="I83" s="10" t="s">
         <v>183</v>
       </c>
       <c r="J83" s="26" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="K83" s="9"/>
     </row>
@@ -13910,10 +13955,10 @@
         <v>132</v>
       </c>
       <c r="B84" s="9" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="C84" s="9" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="D84" s="9" t="s">
         <v>410</v>
@@ -13922,17 +13967,17 @@
         <v>25</v>
       </c>
       <c r="F84" s="9" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="G84" s="9" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
       <c r="H84" s="9"/>
       <c r="I84" s="28" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
       <c r="J84" s="26" t="s">
-        <v>1008</v>
+        <v>1006</v>
       </c>
       <c r="K84" s="9"/>
     </row>
@@ -13956,14 +14001,14 @@
         <v>186</v>
       </c>
       <c r="G85" s="9" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="H85" s="9"/>
       <c r="I85" s="10" t="s">
         <v>187</v>
       </c>
       <c r="J85" s="26" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="K85" s="9"/>
     </row>
@@ -13987,14 +14032,14 @@
         <v>189</v>
       </c>
       <c r="G86" s="9" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="H86" s="9"/>
       <c r="I86" s="10" t="s">
         <v>190</v>
       </c>
       <c r="J86" s="26" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="K86" s="9"/>
     </row>
@@ -14018,14 +14063,14 @@
         <v>193</v>
       </c>
       <c r="G87" s="9" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="H87" s="9"/>
       <c r="I87" s="10" t="s">
         <v>194</v>
       </c>
       <c r="J87" s="26" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="K87" s="9"/>
     </row>
@@ -14049,14 +14094,14 @@
         <v>196</v>
       </c>
       <c r="G88" s="9" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="H88" s="9"/>
       <c r="I88" s="10" t="s">
         <v>197</v>
       </c>
       <c r="J88" s="26" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="K88" s="9"/>
     </row>
@@ -14080,14 +14125,14 @@
         <v>199</v>
       </c>
       <c r="G89" s="9" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="H89" s="9"/>
       <c r="I89" s="10" t="s">
         <v>200</v>
       </c>
       <c r="J89" s="26" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="K89" s="9"/>
     </row>
@@ -14111,14 +14156,14 @@
         <v>202</v>
       </c>
       <c r="G90" s="9" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="H90" s="9"/>
       <c r="I90" s="10" t="s">
         <v>203</v>
       </c>
       <c r="J90" s="26" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="K90" s="9"/>
     </row>
@@ -14142,14 +14187,14 @@
         <v>205</v>
       </c>
       <c r="G91" s="9" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="H91" s="9"/>
       <c r="I91" s="11" t="s">
         <v>206</v>
       </c>
       <c r="J91" s="26" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="K91" s="9"/>
     </row>
@@ -14161,7 +14206,7 @@
         <v>184</v>
       </c>
       <c r="C92" s="12" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="D92" s="9" t="s">
         <v>410</v>
@@ -14170,17 +14215,17 @@
         <v>25</v>
       </c>
       <c r="F92" s="9" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="G92" s="9" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="H92" s="9"/>
       <c r="I92" s="28" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="J92" s="26" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="K92" s="9"/>
     </row>
@@ -14204,14 +14249,14 @@
         <v>208</v>
       </c>
       <c r="G93" s="9" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="H93" s="9"/>
       <c r="I93" s="11" t="s">
         <v>209</v>
       </c>
       <c r="J93" s="26" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="K93" s="9"/>
     </row>
@@ -14235,14 +14280,14 @@
         <v>212</v>
       </c>
       <c r="G94" s="9" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="H94" s="9"/>
       <c r="I94" s="10" t="s">
         <v>213</v>
       </c>
       <c r="J94" s="26" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="K94" s="9"/>
     </row>
@@ -14251,10 +14296,10 @@
         <v>132</v>
       </c>
       <c r="B95" s="9" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="C95" s="12" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="D95" s="9" t="s">
         <v>410</v>
@@ -14263,17 +14308,17 @@
         <v>25</v>
       </c>
       <c r="F95" s="9" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="G95" s="9" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="H95" s="9"/>
       <c r="I95" s="28" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="J95" s="26" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="K95" s="9"/>
     </row>
@@ -14282,10 +14327,10 @@
         <v>132</v>
       </c>
       <c r="B96" s="9" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="C96" s="12" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
       <c r="D96" s="9" t="s">
         <v>410</v>
@@ -14294,14 +14339,14 @@
         <v>25</v>
       </c>
       <c r="F96" s="9" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="G96" s="9" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
       <c r="H96" s="9"/>
       <c r="I96" s="28" t="s">
-        <v>964</v>
+        <v>962</v>
       </c>
       <c r="J96" s="26"/>
       <c r="K96" s="9"/>
@@ -14326,14 +14371,14 @@
         <v>216</v>
       </c>
       <c r="G97" s="9" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="H97" s="9"/>
       <c r="I97" s="10" t="s">
         <v>217</v>
       </c>
       <c r="J97" s="26" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="K97" s="9"/>
     </row>
@@ -14357,14 +14402,14 @@
         <v>219</v>
       </c>
       <c r="G98" s="9" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="H98" s="9"/>
       <c r="I98" s="10" t="s">
         <v>220</v>
       </c>
       <c r="J98" s="26" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="K98" s="9"/>
     </row>
@@ -14376,7 +14421,7 @@
         <v>221</v>
       </c>
       <c r="C99" s="12" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="D99" s="9" t="s">
         <v>410</v>
@@ -14388,14 +14433,14 @@
         <v>223</v>
       </c>
       <c r="G99" s="9" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="H99" s="9"/>
       <c r="I99" s="10" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="J99" s="26" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="K99" s="9"/>
     </row>
@@ -14419,14 +14464,14 @@
         <v>227</v>
       </c>
       <c r="G100" s="9" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="H100" s="9"/>
       <c r="I100" s="10" t="s">
         <v>228</v>
       </c>
       <c r="J100" s="26" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="K100" s="9"/>
     </row>
@@ -14450,14 +14495,14 @@
         <v>230</v>
       </c>
       <c r="G101" s="9" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="H101" s="9"/>
       <c r="I101" s="10" t="s">
         <v>231</v>
       </c>
       <c r="J101" s="26" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="K101" s="9"/>
     </row>
@@ -14466,10 +14511,10 @@
         <v>132</v>
       </c>
       <c r="B102" s="9" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="C102" s="9" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="D102" s="9" t="s">
         <v>410</v>
@@ -14478,17 +14523,17 @@
         <v>25</v>
       </c>
       <c r="F102" s="9" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="G102" s="9" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="H102" s="9"/>
       <c r="I102" s="11" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="J102" s="26" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="K102" s="9"/>
     </row>
@@ -14497,10 +14542,10 @@
         <v>132</v>
       </c>
       <c r="B103" s="9" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="C103" s="9" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="D103" s="9" t="s">
         <v>117</v>
@@ -14509,17 +14554,17 @@
         <v>25</v>
       </c>
       <c r="F103" s="9" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="G103" s="9" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
       <c r="H103" s="9"/>
       <c r="I103" s="28" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="J103" s="26" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="K103" s="9"/>
     </row>
@@ -14528,10 +14573,10 @@
         <v>132</v>
       </c>
       <c r="B104" s="9" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="C104" s="9" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
       <c r="D104" s="9" t="s">
         <v>117</v>
@@ -14540,17 +14585,17 @@
         <v>25</v>
       </c>
       <c r="F104" s="9" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
       <c r="G104" s="9" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="H104" s="9"/>
       <c r="I104" s="28" t="s">
-        <v>940</v>
+        <v>938</v>
       </c>
       <c r="J104" s="26" t="s">
-        <v>941</v>
+        <v>939</v>
       </c>
       <c r="K104" s="9"/>
     </row>
@@ -14574,14 +14619,14 @@
         <v>234</v>
       </c>
       <c r="G105" s="9" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="H105" s="9"/>
       <c r="I105" s="10" t="s">
         <v>235</v>
       </c>
       <c r="J105" s="26" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="K105" s="9"/>
     </row>
@@ -14602,17 +14647,17 @@
         <v>14</v>
       </c>
       <c r="F106" s="9" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="G106" s="9" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="H106" s="9"/>
       <c r="I106" s="11" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="J106" s="26" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="K106" s="9"/>
     </row>
@@ -14636,14 +14681,14 @@
         <v>238</v>
       </c>
       <c r="G107" s="9" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="H107" s="9"/>
       <c r="I107" s="10" t="s">
         <v>239</v>
       </c>
       <c r="J107" s="26" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="K107" s="9"/>
     </row>
@@ -14667,14 +14712,14 @@
         <v>242</v>
       </c>
       <c r="G108" s="9" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="H108" s="9"/>
       <c r="I108" s="10" t="s">
         <v>243</v>
       </c>
       <c r="J108" s="26" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="K108" s="9"/>
     </row>
@@ -14686,7 +14731,7 @@
         <v>236</v>
       </c>
       <c r="C109" s="9" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="D109" s="9" t="s">
         <v>117</v>
@@ -14695,17 +14740,17 @@
         <v>14</v>
       </c>
       <c r="F109" s="9" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="G109" s="9" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="H109" s="9"/>
       <c r="I109" s="28" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="J109" s="26" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="K109" s="9"/>
     </row>
@@ -14717,7 +14762,7 @@
         <v>236</v>
       </c>
       <c r="C110" s="9" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="D110" s="9" t="s">
         <v>418</v>
@@ -14726,17 +14771,17 @@
         <v>25</v>
       </c>
       <c r="F110" s="9" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
       <c r="G110" s="9" t="s">
-        <v>942</v>
+        <v>940</v>
       </c>
       <c r="H110" s="9"/>
       <c r="I110" s="28" t="s">
-        <v>944</v>
+        <v>942</v>
       </c>
       <c r="J110" s="26" t="s">
-        <v>945</v>
+        <v>943</v>
       </c>
       <c r="K110" s="9"/>
     </row>
@@ -14760,14 +14805,14 @@
         <v>246</v>
       </c>
       <c r="G111" s="9" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="H111" s="9"/>
       <c r="I111" s="10" t="s">
         <v>247</v>
       </c>
       <c r="J111" s="26" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="K111" s="9"/>
     </row>
@@ -14776,10 +14821,10 @@
         <v>132</v>
       </c>
       <c r="B112" s="9" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="C112" s="9" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="D112" s="9" t="s">
         <v>410</v>
@@ -14788,17 +14833,17 @@
         <v>25</v>
       </c>
       <c r="F112" s="9" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="G112" s="9" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="H112" s="9"/>
       <c r="I112" s="28" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="J112" s="26" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="K112" s="9"/>
     </row>
@@ -14819,17 +14864,17 @@
         <v>14</v>
       </c>
       <c r="F113" s="9" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="G113" s="9" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="H113" s="9"/>
       <c r="I113" s="10" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="J113" s="26" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="K113" s="9"/>
     </row>
@@ -14853,14 +14898,14 @@
         <v>250</v>
       </c>
       <c r="G114" s="9" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="H114" s="9"/>
       <c r="I114" s="10" t="s">
         <v>251</v>
       </c>
       <c r="J114" s="26" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="K114" s="9"/>
     </row>
@@ -14884,14 +14929,14 @@
         <v>253</v>
       </c>
       <c r="G115" s="9" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="H115" s="9"/>
       <c r="I115" s="10" t="s">
         <v>254</v>
       </c>
       <c r="J115" s="26" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="K115" s="9"/>
     </row>
@@ -14915,14 +14960,14 @@
         <v>256</v>
       </c>
       <c r="G116" s="9" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="H116" s="9"/>
       <c r="I116" s="10" t="s">
         <v>257</v>
       </c>
       <c r="J116" s="26" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="K116" s="9"/>
     </row>
@@ -14946,14 +14991,14 @@
         <v>260</v>
       </c>
       <c r="G117" s="9" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="H117" s="9"/>
       <c r="I117" s="10" t="s">
         <v>261</v>
       </c>
       <c r="J117" s="26" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="K117" s="9"/>
     </row>
@@ -14968,7 +15013,7 @@
         <v>263</v>
       </c>
       <c r="D118" s="9" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="E118" s="9" t="s">
         <v>14</v>
@@ -14977,14 +15022,14 @@
         <v>265</v>
       </c>
       <c r="G118" s="9" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="H118" s="9"/>
       <c r="I118" s="11" t="s">
         <v>266</v>
       </c>
       <c r="J118" s="26" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="K118" s="9"/>
     </row>
@@ -15008,14 +15053,14 @@
         <v>268</v>
       </c>
       <c r="G119" s="9" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="H119" s="9"/>
       <c r="I119" s="11" t="s">
         <v>269</v>
       </c>
       <c r="J119" s="26" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="K119" s="9"/>
     </row>
@@ -15039,14 +15084,14 @@
         <v>271</v>
       </c>
       <c r="G120" s="9" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="H120" s="9"/>
       <c r="I120" s="11" t="s">
         <v>272</v>
       </c>
       <c r="J120" s="26" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="K120" s="9"/>
     </row>
@@ -15058,7 +15103,7 @@
         <v>262</v>
       </c>
       <c r="C121" s="9" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="D121" s="9" t="s">
         <v>410</v>
@@ -15067,17 +15112,17 @@
         <v>25</v>
       </c>
       <c r="F121" s="9" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="G121" s="9" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="H121" s="9"/>
       <c r="I121" s="28" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="J121" s="26" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="K121" s="9"/>
     </row>
@@ -15089,7 +15134,7 @@
         <v>262</v>
       </c>
       <c r="C122" s="9" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="D122" s="9" t="s">
         <v>117</v>
@@ -15098,17 +15143,17 @@
         <v>25</v>
       </c>
       <c r="F122" s="9" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="G122" s="9" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="H122" s="9"/>
       <c r="I122" s="28" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="J122" s="26" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="K122" s="9"/>
     </row>
@@ -15120,7 +15165,7 @@
         <v>262</v>
       </c>
       <c r="C123" s="9" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
       <c r="D123" s="9" t="s">
         <v>418</v>
@@ -15129,17 +15174,17 @@
         <v>25</v>
       </c>
       <c r="F123" s="9" t="s">
-        <v>946</v>
+        <v>944</v>
       </c>
       <c r="G123" s="9" t="s">
-        <v>947</v>
+        <v>945</v>
       </c>
       <c r="H123" s="9"/>
       <c r="I123" s="28" t="s">
-        <v>948</v>
+        <v>946</v>
       </c>
       <c r="J123" s="26" t="s">
-        <v>949</v>
+        <v>947</v>
       </c>
       <c r="K123" s="9"/>
     </row>
@@ -15151,7 +15196,7 @@
         <v>262</v>
       </c>
       <c r="C124" s="9" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="D124" s="9" t="s">
         <v>117</v>
@@ -15160,17 +15205,17 @@
         <v>25</v>
       </c>
       <c r="F124" s="9" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="G124" s="9" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="H124" s="9"/>
       <c r="I124" s="28" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="J124" s="26" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="K124" s="9"/>
     </row>
@@ -15185,7 +15230,7 @@
         <v>273</v>
       </c>
       <c r="D125" s="9" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="E125" s="9" t="s">
         <v>25</v>
@@ -15194,14 +15239,14 @@
         <v>274</v>
       </c>
       <c r="G125" s="9" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="H125" s="9"/>
       <c r="I125" s="11" t="s">
         <v>275</v>
       </c>
       <c r="J125" s="26" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="K125" s="9"/>
     </row>
@@ -15213,7 +15258,7 @@
         <v>262</v>
       </c>
       <c r="C126" s="9" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
       <c r="D126" s="9" t="s">
         <v>55</v>
@@ -15222,17 +15267,17 @@
         <v>14</v>
       </c>
       <c r="F126" s="9" t="s">
-        <v>950</v>
+        <v>948</v>
       </c>
       <c r="G126" s="9" t="s">
-        <v>951</v>
+        <v>949</v>
       </c>
       <c r="H126" s="9"/>
       <c r="I126" s="28" t="s">
-        <v>952</v>
+        <v>950</v>
       </c>
       <c r="J126" s="26" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="K126" s="9"/>
     </row>
@@ -15244,7 +15289,7 @@
         <v>262</v>
       </c>
       <c r="C127" s="9" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="D127" s="9" t="s">
         <v>398</v>
@@ -15253,17 +15298,17 @@
         <v>25</v>
       </c>
       <c r="F127" s="9" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="G127" s="9" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="H127" s="9"/>
       <c r="I127" s="28" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="J127" s="26" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="K127" s="9"/>
     </row>
@@ -15287,13 +15332,15 @@
         <v>277</v>
       </c>
       <c r="G128" s="9" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="H128" s="9"/>
       <c r="I128" s="11" t="s">
-        <v>622</v>
-      </c>
-      <c r="J128" s="26"/>
+        <v>620</v>
+      </c>
+      <c r="J128" s="26" t="s">
+        <v>1012</v>
+      </c>
       <c r="K128" s="9"/>
     </row>
     <row r="129" spans="1:11" ht="13">
@@ -15301,29 +15348,29 @@
         <v>132</v>
       </c>
       <c r="B129" s="9" t="s">
-        <v>901</v>
+        <v>262</v>
       </c>
       <c r="C129" s="9" t="s">
-        <v>900</v>
+        <v>1007</v>
       </c>
       <c r="D129" s="9" t="s">
-        <v>398</v>
+        <v>55</v>
       </c>
       <c r="E129" s="9" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="F129" s="9" t="s">
-        <v>954</v>
+        <v>1008</v>
       </c>
       <c r="G129" s="9" t="s">
-        <v>956</v>
+        <v>1009</v>
       </c>
       <c r="H129" s="9"/>
       <c r="I129" s="28" t="s">
-        <v>955</v>
+        <v>1010</v>
       </c>
       <c r="J129" s="26" t="s">
-        <v>957</v>
+        <v>1011</v>
       </c>
       <c r="K129" s="9"/>
     </row>
@@ -15332,10 +15379,10 @@
         <v>132</v>
       </c>
       <c r="B130" s="9" t="s">
-        <v>903</v>
+        <v>899</v>
       </c>
       <c r="C130" s="9" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="D130" s="9" t="s">
         <v>398</v>
@@ -15344,79 +15391,79 @@
         <v>14</v>
       </c>
       <c r="F130" s="9" t="s">
-        <v>958</v>
+        <v>952</v>
       </c>
       <c r="G130" s="9" t="s">
-        <v>959</v>
+        <v>954</v>
       </c>
       <c r="H130" s="9"/>
       <c r="I130" s="28" t="s">
-        <v>960</v>
+        <v>953</v>
       </c>
       <c r="J130" s="26" t="s">
-        <v>961</v>
+        <v>955</v>
       </c>
       <c r="K130" s="9"/>
     </row>
     <row r="131" spans="1:11" ht="13">
-      <c r="A131" s="14" t="s">
-        <v>278</v>
-      </c>
-      <c r="B131" s="14" t="s">
-        <v>623</v>
-      </c>
-      <c r="C131" s="14" t="s">
-        <v>624</v>
-      </c>
-      <c r="D131" s="14" t="s">
-        <v>157</v>
-      </c>
-      <c r="E131" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="F131" s="14" t="s">
-        <v>625</v>
-      </c>
-      <c r="G131" s="14" t="s">
-        <v>626</v>
-      </c>
-      <c r="H131" s="14"/>
-      <c r="I131" s="16" t="s">
-        <v>627</v>
-      </c>
-      <c r="J131" s="17" t="s">
-        <v>628</v>
-      </c>
-      <c r="K131" s="14"/>
+      <c r="A131" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="B131" s="9" t="s">
+        <v>901</v>
+      </c>
+      <c r="C131" s="9" t="s">
+        <v>898</v>
+      </c>
+      <c r="D131" s="9" t="s">
+        <v>398</v>
+      </c>
+      <c r="E131" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F131" s="9" t="s">
+        <v>956</v>
+      </c>
+      <c r="G131" s="9" t="s">
+        <v>957</v>
+      </c>
+      <c r="H131" s="9"/>
+      <c r="I131" s="28" t="s">
+        <v>958</v>
+      </c>
+      <c r="J131" s="26" t="s">
+        <v>959</v>
+      </c>
+      <c r="K131" s="9"/>
     </row>
     <row r="132" spans="1:11" ht="13">
       <c r="A132" s="14" t="s">
         <v>278</v>
       </c>
       <c r="B132" s="14" t="s">
+        <v>621</v>
+      </c>
+      <c r="C132" s="14" t="s">
+        <v>622</v>
+      </c>
+      <c r="D132" s="14" t="s">
+        <v>157</v>
+      </c>
+      <c r="E132" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="F132" s="14" t="s">
         <v>623</v>
       </c>
-      <c r="C132" s="14" t="s">
-        <v>629</v>
-      </c>
-      <c r="D132" s="14" t="s">
-        <v>410</v>
-      </c>
-      <c r="E132" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="F132" s="14" t="s">
-        <v>630</v>
-      </c>
       <c r="G132" s="14" t="s">
-        <v>631</v>
+        <v>624</v>
       </c>
       <c r="H132" s="14"/>
       <c r="I132" s="16" t="s">
-        <v>632</v>
+        <v>625</v>
       </c>
       <c r="J132" s="17" t="s">
-        <v>633</v>
+        <v>626</v>
       </c>
       <c r="K132" s="14"/>
     </row>
@@ -15425,10 +15472,10 @@
         <v>278</v>
       </c>
       <c r="B133" s="14" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="C133" s="14" t="s">
-        <v>895</v>
+        <v>627</v>
       </c>
       <c r="D133" s="14" t="s">
         <v>410</v>
@@ -15437,16 +15484,18 @@
         <v>25</v>
       </c>
       <c r="F133" s="14" t="s">
-        <v>965</v>
+        <v>628</v>
       </c>
       <c r="G133" s="14" t="s">
-        <v>967</v>
+        <v>629</v>
       </c>
       <c r="H133" s="14"/>
-      <c r="I133" s="29" t="s">
-        <v>968</v>
-      </c>
-      <c r="J133" s="17"/>
+      <c r="I133" s="16" t="s">
+        <v>630</v>
+      </c>
+      <c r="J133" s="17" t="s">
+        <v>631</v>
+      </c>
       <c r="K133" s="14"/>
     </row>
     <row r="134" spans="1:11" ht="13">
@@ -15454,10 +15503,10 @@
         <v>278</v>
       </c>
       <c r="B134" s="14" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="C134" s="14" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
       <c r="D134" s="14" t="s">
         <v>410</v>
@@ -15466,14 +15515,14 @@
         <v>25</v>
       </c>
       <c r="F134" s="14" t="s">
-        <v>966</v>
+        <v>963</v>
       </c>
       <c r="G134" s="14" t="s">
-        <v>969</v>
+        <v>965</v>
       </c>
       <c r="H134" s="14"/>
       <c r="I134" s="29" t="s">
-        <v>970</v>
+        <v>966</v>
       </c>
       <c r="J134" s="17"/>
       <c r="K134" s="14"/>
@@ -15483,30 +15532,28 @@
         <v>278</v>
       </c>
       <c r="B135" s="14" t="s">
-        <v>279</v>
+        <v>621</v>
       </c>
       <c r="C135" s="14" t="s">
-        <v>898</v>
+        <v>893</v>
       </c>
       <c r="D135" s="14" t="s">
-        <v>47</v>
+        <v>410</v>
       </c>
       <c r="E135" s="14" t="s">
         <v>25</v>
       </c>
       <c r="F135" s="14" t="s">
-        <v>971</v>
+        <v>964</v>
       </c>
       <c r="G135" s="14" t="s">
-        <v>972</v>
+        <v>967</v>
       </c>
       <c r="H135" s="14"/>
       <c r="I135" s="29" t="s">
-        <v>973</v>
-      </c>
-      <c r="J135" s="17" t="s">
-        <v>974</v>
-      </c>
+        <v>968</v>
+      </c>
+      <c r="J135" s="17"/>
       <c r="K135" s="14"/>
     </row>
     <row r="136" spans="1:11" ht="13">
@@ -15517,26 +15564,26 @@
         <v>279</v>
       </c>
       <c r="C136" s="14" t="s">
-        <v>634</v>
+        <v>896</v>
       </c>
       <c r="D136" s="14" t="s">
         <v>47</v>
       </c>
       <c r="E136" s="14" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="F136" s="14" t="s">
-        <v>635</v>
+        <v>969</v>
       </c>
       <c r="G136" s="14" t="s">
-        <v>636</v>
+        <v>970</v>
       </c>
       <c r="H136" s="14"/>
-      <c r="I136" s="15" t="s">
-        <v>637</v>
+      <c r="I136" s="29" t="s">
+        <v>971</v>
       </c>
       <c r="J136" s="17" t="s">
-        <v>638</v>
+        <v>972</v>
       </c>
       <c r="K136" s="14"/>
     </row>
@@ -15548,26 +15595,26 @@
         <v>279</v>
       </c>
       <c r="C137" s="14" t="s">
-        <v>639</v>
+        <v>632</v>
       </c>
       <c r="D137" s="14" t="s">
-        <v>157</v>
+        <v>47</v>
       </c>
       <c r="E137" s="14" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="F137" s="14" t="s">
-        <v>640</v>
+        <v>633</v>
       </c>
       <c r="G137" s="14" t="s">
-        <v>641</v>
+        <v>634</v>
       </c>
       <c r="H137" s="14"/>
       <c r="I137" s="15" t="s">
-        <v>642</v>
+        <v>635</v>
       </c>
       <c r="J137" s="17" t="s">
-        <v>643</v>
+        <v>636</v>
       </c>
       <c r="K137" s="14"/>
     </row>
@@ -15579,26 +15626,26 @@
         <v>279</v>
       </c>
       <c r="C138" s="14" t="s">
-        <v>644</v>
+        <v>637</v>
       </c>
       <c r="D138" s="14" t="s">
-        <v>410</v>
+        <v>157</v>
       </c>
       <c r="E138" s="14" t="s">
         <v>25</v>
       </c>
       <c r="F138" s="14" t="s">
-        <v>645</v>
+        <v>638</v>
       </c>
       <c r="G138" s="14" t="s">
-        <v>646</v>
+        <v>639</v>
       </c>
       <c r="H138" s="14"/>
       <c r="I138" s="15" t="s">
-        <v>647</v>
+        <v>640</v>
       </c>
       <c r="J138" s="17" t="s">
-        <v>648</v>
+        <v>641</v>
       </c>
       <c r="K138" s="14"/>
     </row>
@@ -15610,25 +15657,27 @@
         <v>279</v>
       </c>
       <c r="C139" s="14" t="s">
-        <v>381</v>
+        <v>642</v>
       </c>
       <c r="D139" s="14" t="s">
-        <v>382</v>
+        <v>410</v>
       </c>
       <c r="E139" s="14" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="F139" s="14" t="s">
-        <v>649</v>
+        <v>643</v>
       </c>
       <c r="G139" s="14" t="s">
-        <v>650</v>
+        <v>644</v>
       </c>
       <c r="H139" s="14"/>
       <c r="I139" s="15" t="s">
-        <v>651</v>
-      </c>
-      <c r="J139" s="17"/>
+        <v>645</v>
+      </c>
+      <c r="J139" s="17" t="s">
+        <v>646</v>
+      </c>
       <c r="K139" s="14"/>
     </row>
     <row r="140" spans="1:11" ht="13">
@@ -15639,27 +15688,25 @@
         <v>279</v>
       </c>
       <c r="C140" s="14" t="s">
-        <v>87</v>
+        <v>381</v>
       </c>
       <c r="D140" s="14" t="s">
-        <v>410</v>
+        <v>382</v>
       </c>
       <c r="E140" s="14" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="F140" s="14" t="s">
-        <v>975</v>
+        <v>647</v>
       </c>
       <c r="G140" s="14" t="s">
-        <v>976</v>
+        <v>648</v>
       </c>
       <c r="H140" s="14"/>
-      <c r="I140" s="29" t="s">
-        <v>977</v>
-      </c>
-      <c r="J140" s="17" t="s">
-        <v>978</v>
-      </c>
+      <c r="I140" s="15" t="s">
+        <v>649</v>
+      </c>
+      <c r="J140" s="17"/>
       <c r="K140" s="14"/>
     </row>
     <row r="141" spans="1:11" ht="13">
@@ -15670,26 +15717,26 @@
         <v>279</v>
       </c>
       <c r="C141" s="14" t="s">
-        <v>280</v>
+        <v>87</v>
       </c>
       <c r="D141" s="14" t="s">
-        <v>157</v>
+        <v>410</v>
       </c>
       <c r="E141" s="14" t="s">
         <v>25</v>
       </c>
       <c r="F141" s="14" t="s">
-        <v>281</v>
+        <v>973</v>
       </c>
       <c r="G141" s="14" t="s">
-        <v>652</v>
+        <v>974</v>
       </c>
       <c r="H141" s="14"/>
-      <c r="I141" s="15" t="s">
-        <v>282</v>
+      <c r="I141" s="29" t="s">
+        <v>975</v>
       </c>
       <c r="J141" s="17" t="s">
-        <v>653</v>
+        <v>976</v>
       </c>
       <c r="K141" s="14"/>
     </row>
@@ -15701,26 +15748,26 @@
         <v>279</v>
       </c>
       <c r="C142" s="14" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="D142" s="14" t="s">
-        <v>410</v>
+        <v>157</v>
       </c>
       <c r="E142" s="14" t="s">
         <v>25</v>
       </c>
       <c r="F142" s="14" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="G142" s="14" t="s">
-        <v>654</v>
+        <v>650</v>
       </c>
       <c r="H142" s="14"/>
       <c r="I142" s="15" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="J142" s="17" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
       <c r="K142" s="14"/>
     </row>
@@ -15732,26 +15779,26 @@
         <v>279</v>
       </c>
       <c r="C143" s="14" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="D143" s="14" t="s">
-        <v>418</v>
+        <v>410</v>
       </c>
       <c r="E143" s="14" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="F143" s="14" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="G143" s="14" t="s">
-        <v>656</v>
+        <v>652</v>
       </c>
       <c r="H143" s="14"/>
-      <c r="I143" s="16" t="s">
-        <v>288</v>
+      <c r="I143" s="15" t="s">
+        <v>285</v>
       </c>
       <c r="J143" s="17" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
       <c r="K143" s="14"/>
     </row>
@@ -15763,26 +15810,26 @@
         <v>279</v>
       </c>
       <c r="C144" s="14" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="D144" s="14" t="s">
-        <v>117</v>
+        <v>418</v>
       </c>
       <c r="E144" s="14" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="F144" s="14" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="G144" s="14" t="s">
-        <v>658</v>
+        <v>654</v>
       </c>
       <c r="H144" s="14"/>
       <c r="I144" s="16" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="J144" s="17" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="K144" s="14"/>
     </row>
@@ -15794,26 +15841,26 @@
         <v>279</v>
       </c>
       <c r="C145" s="14" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D145" s="14" t="s">
-        <v>47</v>
+        <v>117</v>
       </c>
       <c r="E145" s="14" t="s">
         <v>25</v>
       </c>
       <c r="F145" s="14" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="G145" s="14" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
       <c r="H145" s="14"/>
       <c r="I145" s="16" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="J145" s="17" t="s">
-        <v>661</v>
+        <v>657</v>
       </c>
       <c r="K145" s="14"/>
     </row>
@@ -15825,26 +15872,26 @@
         <v>279</v>
       </c>
       <c r="C146" s="14" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="D146" s="14" t="s">
-        <v>410</v>
+        <v>47</v>
       </c>
       <c r="E146" s="14" t="s">
         <v>25</v>
       </c>
       <c r="F146" s="14" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="G146" s="14" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
       <c r="H146" s="14"/>
       <c r="I146" s="16" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="J146" s="17" t="s">
-        <v>663</v>
+        <v>659</v>
       </c>
       <c r="K146" s="14"/>
     </row>
@@ -15856,7 +15903,7 @@
         <v>279</v>
       </c>
       <c r="C147" s="14" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="D147" s="14" t="s">
         <v>410</v>
@@ -15865,17 +15912,17 @@
         <v>25</v>
       </c>
       <c r="F147" s="14" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="G147" s="14" t="s">
-        <v>664</v>
+        <v>660</v>
       </c>
       <c r="H147" s="14"/>
       <c r="I147" s="16" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="J147" s="17" t="s">
-        <v>665</v>
+        <v>661</v>
       </c>
       <c r="K147" s="14"/>
     </row>
@@ -15887,26 +15934,26 @@
         <v>279</v>
       </c>
       <c r="C148" s="14" t="s">
-        <v>191</v>
+        <v>298</v>
       </c>
       <c r="D148" s="14" t="s">
-        <v>117</v>
+        <v>410</v>
       </c>
       <c r="E148" s="14" t="s">
         <v>25</v>
       </c>
       <c r="F148" s="14" t="s">
-        <v>759</v>
+        <v>299</v>
       </c>
       <c r="G148" s="14" t="s">
-        <v>760</v>
+        <v>662</v>
       </c>
       <c r="H148" s="14"/>
-      <c r="I148" s="29" t="s">
-        <v>761</v>
+      <c r="I148" s="16" t="s">
+        <v>300</v>
       </c>
       <c r="J148" s="17" t="s">
-        <v>557</v>
+        <v>663</v>
       </c>
       <c r="K148" s="14"/>
     </row>
@@ -15918,26 +15965,26 @@
         <v>279</v>
       </c>
       <c r="C149" s="14" t="s">
-        <v>866</v>
+        <v>191</v>
       </c>
       <c r="D149" s="14" t="s">
-        <v>55</v>
+        <v>117</v>
       </c>
       <c r="E149" s="14" t="s">
         <v>25</v>
       </c>
       <c r="F149" s="14" t="s">
-        <v>867</v>
+        <v>757</v>
       </c>
       <c r="G149" s="14" t="s">
-        <v>868</v>
+        <v>758</v>
       </c>
       <c r="H149" s="14"/>
       <c r="I149" s="29" t="s">
-        <v>869</v>
+        <v>759</v>
       </c>
       <c r="J149" s="17" t="s">
-        <v>870</v>
+        <v>555</v>
       </c>
       <c r="K149" s="14"/>
     </row>
@@ -15949,26 +15996,26 @@
         <v>279</v>
       </c>
       <c r="C150" s="14" t="s">
-        <v>900</v>
+        <v>864</v>
       </c>
       <c r="D150" s="14" t="s">
-        <v>398</v>
+        <v>55</v>
       </c>
       <c r="E150" s="14" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="F150" s="14" t="s">
-        <v>979</v>
+        <v>865</v>
       </c>
       <c r="G150" s="14" t="s">
-        <v>981</v>
+        <v>866</v>
       </c>
       <c r="H150" s="14"/>
       <c r="I150" s="29" t="s">
-        <v>982</v>
+        <v>867</v>
       </c>
       <c r="J150" s="17" t="s">
-        <v>983</v>
+        <v>868</v>
       </c>
       <c r="K150" s="14"/>
     </row>
@@ -15980,7 +16027,7 @@
         <v>279</v>
       </c>
       <c r="C151" s="14" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="D151" s="14" t="s">
         <v>398</v>
@@ -15989,17 +16036,17 @@
         <v>14</v>
       </c>
       <c r="F151" s="14" t="s">
-        <v>980</v>
+        <v>977</v>
       </c>
       <c r="G151" s="14" t="s">
-        <v>984</v>
+        <v>979</v>
       </c>
       <c r="H151" s="14"/>
       <c r="I151" s="29" t="s">
-        <v>985</v>
+        <v>980</v>
       </c>
       <c r="J151" s="17" t="s">
-        <v>986</v>
+        <v>981</v>
       </c>
       <c r="K151" s="14"/>
     </row>
@@ -16011,26 +16058,26 @@
         <v>279</v>
       </c>
       <c r="C152" s="14" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="D152" s="14" t="s">
-        <v>410</v>
+        <v>398</v>
       </c>
       <c r="E152" s="14" t="s">
         <v>14</v>
       </c>
       <c r="F152" s="14" t="s">
-        <v>987</v>
+        <v>978</v>
       </c>
       <c r="G152" s="14" t="s">
-        <v>988</v>
+        <v>982</v>
       </c>
       <c r="H152" s="14"/>
       <c r="I152" s="29" t="s">
-        <v>989</v>
+        <v>983</v>
       </c>
       <c r="J152" s="17" t="s">
-        <v>990</v>
+        <v>984</v>
       </c>
       <c r="K152" s="14"/>
     </row>
@@ -16039,29 +16086,29 @@
         <v>278</v>
       </c>
       <c r="B153" s="14" t="s">
-        <v>301</v>
+        <v>279</v>
       </c>
       <c r="C153" s="14" t="s">
-        <v>302</v>
+        <v>897</v>
       </c>
       <c r="D153" s="14" t="s">
-        <v>117</v>
+        <v>410</v>
       </c>
       <c r="E153" s="14" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="F153" s="14" t="s">
-        <v>303</v>
+        <v>985</v>
       </c>
       <c r="G153" s="14" t="s">
-        <v>666</v>
+        <v>986</v>
       </c>
       <c r="H153" s="14"/>
-      <c r="I153" s="15" t="s">
-        <v>304</v>
+      <c r="I153" s="29" t="s">
+        <v>987</v>
       </c>
       <c r="J153" s="17" t="s">
-        <v>667</v>
+        <v>988</v>
       </c>
       <c r="K153" s="14"/>
     </row>
@@ -16073,26 +16120,26 @@
         <v>301</v>
       </c>
       <c r="C154" s="14" t="s">
-        <v>381</v>
+        <v>302</v>
       </c>
       <c r="D154" s="14" t="s">
-        <v>382</v>
+        <v>117</v>
       </c>
       <c r="E154" s="14" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="F154" s="14" t="s">
-        <v>668</v>
+        <v>303</v>
       </c>
       <c r="G154" s="14" t="s">
-        <v>669</v>
+        <v>664</v>
       </c>
       <c r="H154" s="14"/>
       <c r="I154" s="15" t="s">
-        <v>670</v>
+        <v>304</v>
       </c>
       <c r="J154" s="17" t="s">
-        <v>671</v>
+        <v>665</v>
       </c>
       <c r="K154" s="14"/>
     </row>
@@ -16101,29 +16148,29 @@
         <v>278</v>
       </c>
       <c r="B155" s="14" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="C155" s="14" t="s">
-        <v>306</v>
+        <v>381</v>
       </c>
       <c r="D155" s="14" t="s">
-        <v>410</v>
+        <v>382</v>
       </c>
       <c r="E155" s="14" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="F155" s="14" t="s">
-        <v>307</v>
+        <v>666</v>
       </c>
       <c r="G155" s="14" t="s">
-        <v>672</v>
+        <v>667</v>
       </c>
       <c r="H155" s="14"/>
       <c r="I155" s="15" t="s">
-        <v>308</v>
+        <v>668</v>
       </c>
       <c r="J155" s="17" t="s">
-        <v>673</v>
+        <v>669</v>
       </c>
       <c r="K155" s="14"/>
     </row>
@@ -16135,7 +16182,7 @@
         <v>305</v>
       </c>
       <c r="C156" s="14" t="s">
-        <v>298</v>
+        <v>306</v>
       </c>
       <c r="D156" s="14" t="s">
         <v>410</v>
@@ -16144,17 +16191,17 @@
         <v>25</v>
       </c>
       <c r="F156" s="14" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="G156" s="14" t="s">
-        <v>674</v>
+        <v>670</v>
       </c>
       <c r="H156" s="14"/>
       <c r="I156" s="15" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="J156" s="17" t="s">
-        <v>675</v>
+        <v>671</v>
       </c>
       <c r="K156" s="14"/>
     </row>
@@ -16166,26 +16213,26 @@
         <v>305</v>
       </c>
       <c r="C157" s="14" t="s">
-        <v>311</v>
+        <v>298</v>
       </c>
       <c r="D157" s="14" t="s">
-        <v>312</v>
+        <v>410</v>
       </c>
       <c r="E157" s="14" t="s">
         <v>25</v>
       </c>
       <c r="F157" s="14" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="G157" s="14" t="s">
-        <v>676</v>
+        <v>672</v>
       </c>
       <c r="H157" s="14"/>
       <c r="I157" s="15" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="J157" s="17" t="s">
-        <v>677</v>
+        <v>673</v>
       </c>
       <c r="K157" s="14"/>
     </row>
@@ -16197,26 +16244,26 @@
         <v>305</v>
       </c>
       <c r="C158" s="14" t="s">
-        <v>728</v>
+        <v>311</v>
       </c>
       <c r="D158" s="14" t="s">
-        <v>410</v>
+        <v>312</v>
       </c>
       <c r="E158" s="14" t="s">
         <v>25</v>
       </c>
       <c r="F158" s="14" t="s">
-        <v>762</v>
+        <v>313</v>
       </c>
       <c r="G158" s="14" t="s">
-        <v>763</v>
+        <v>674</v>
       </c>
       <c r="H158" s="14"/>
-      <c r="I158" s="29" t="s">
-        <v>764</v>
+      <c r="I158" s="15" t="s">
+        <v>314</v>
       </c>
       <c r="J158" s="17" t="s">
-        <v>765</v>
+        <v>675</v>
       </c>
       <c r="K158" s="14"/>
     </row>
@@ -16225,10 +16272,10 @@
         <v>278</v>
       </c>
       <c r="B159" s="14" t="s">
-        <v>315</v>
+        <v>305</v>
       </c>
       <c r="C159" s="14" t="s">
-        <v>316</v>
+        <v>726</v>
       </c>
       <c r="D159" s="14" t="s">
         <v>410</v>
@@ -16237,17 +16284,17 @@
         <v>25</v>
       </c>
       <c r="F159" s="14" t="s">
-        <v>317</v>
+        <v>760</v>
       </c>
       <c r="G159" s="14" t="s">
-        <v>678</v>
+        <v>761</v>
       </c>
       <c r="H159" s="14"/>
-      <c r="I159" s="15" t="s">
-        <v>318</v>
+      <c r="I159" s="29" t="s">
+        <v>762</v>
       </c>
       <c r="J159" s="17" t="s">
-        <v>679</v>
+        <v>763</v>
       </c>
       <c r="K159" s="14"/>
     </row>
@@ -16259,26 +16306,26 @@
         <v>315</v>
       </c>
       <c r="C160" s="14" t="s">
-        <v>719</v>
+        <v>316</v>
       </c>
       <c r="D160" s="14" t="s">
-        <v>55</v>
+        <v>410</v>
       </c>
       <c r="E160" s="14" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="F160" s="14" t="s">
-        <v>766</v>
+        <v>317</v>
       </c>
       <c r="G160" s="14" t="s">
-        <v>767</v>
+        <v>676</v>
       </c>
       <c r="H160" s="14"/>
-      <c r="I160" s="29" t="s">
-        <v>768</v>
+      <c r="I160" s="15" t="s">
+        <v>318</v>
       </c>
       <c r="J160" s="17" t="s">
-        <v>769</v>
+        <v>677</v>
       </c>
       <c r="K160" s="14"/>
     </row>
@@ -16290,26 +16337,26 @@
         <v>315</v>
       </c>
       <c r="C161" s="14" t="s">
-        <v>790</v>
+        <v>717</v>
       </c>
       <c r="D161" s="14" t="s">
-        <v>410</v>
+        <v>55</v>
       </c>
       <c r="E161" s="14" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="F161" s="14" t="s">
-        <v>791</v>
+        <v>764</v>
       </c>
       <c r="G161" s="14" t="s">
-        <v>792</v>
+        <v>765</v>
       </c>
       <c r="H161" s="14"/>
       <c r="I161" s="29" t="s">
-        <v>793</v>
+        <v>766</v>
       </c>
       <c r="J161" s="17" t="s">
-        <v>794</v>
+        <v>767</v>
       </c>
       <c r="K161" s="14"/>
     </row>
@@ -16318,29 +16365,29 @@
         <v>278</v>
       </c>
       <c r="B162" s="14" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="C162" s="14" t="s">
-        <v>320</v>
+        <v>788</v>
       </c>
       <c r="D162" s="14" t="s">
         <v>410</v>
       </c>
       <c r="E162" s="14" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="F162" s="14" t="s">
-        <v>680</v>
+        <v>789</v>
       </c>
       <c r="G162" s="14" t="s">
-        <v>681</v>
+        <v>790</v>
       </c>
       <c r="H162" s="14"/>
-      <c r="I162" s="16" t="s">
-        <v>682</v>
+      <c r="I162" s="29" t="s">
+        <v>791</v>
       </c>
       <c r="J162" s="17" t="s">
-        <v>683</v>
+        <v>792</v>
       </c>
       <c r="K162" s="14"/>
     </row>
@@ -16349,29 +16396,29 @@
         <v>278</v>
       </c>
       <c r="B163" s="14" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="C163" s="14" t="s">
-        <v>323</v>
+        <v>1020</v>
       </c>
       <c r="D163" s="14" t="s">
-        <v>410</v>
+        <v>418</v>
       </c>
       <c r="E163" s="14" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="F163" s="14" t="s">
-        <v>324</v>
+        <v>1019</v>
       </c>
       <c r="G163" s="14" t="s">
-        <v>684</v>
+        <v>1021</v>
       </c>
       <c r="H163" s="14"/>
-      <c r="I163" s="15" t="s">
-        <v>325</v>
+      <c r="I163" s="29" t="s">
+        <v>1022</v>
       </c>
       <c r="J163" s="17" t="s">
-        <v>685</v>
+        <v>1023</v>
       </c>
       <c r="K163" s="14"/>
     </row>
@@ -16383,7 +16430,7 @@
         <v>319</v>
       </c>
       <c r="C164" s="14" t="s">
-        <v>686</v>
+        <v>320</v>
       </c>
       <c r="D164" s="14" t="s">
         <v>410</v>
@@ -16392,17 +16439,17 @@
         <v>14</v>
       </c>
       <c r="F164" s="14" t="s">
-        <v>327</v>
+        <v>678</v>
       </c>
       <c r="G164" s="14" t="s">
-        <v>687</v>
+        <v>679</v>
       </c>
       <c r="H164" s="14"/>
-      <c r="I164" s="15" t="s">
-        <v>328</v>
+      <c r="I164" s="16" t="s">
+        <v>680</v>
       </c>
       <c r="J164" s="17" t="s">
-        <v>688</v>
+        <v>681</v>
       </c>
       <c r="K164" s="14"/>
     </row>
@@ -16411,29 +16458,29 @@
         <v>278</v>
       </c>
       <c r="B165" s="14" t="s">
-        <v>329</v>
+        <v>319</v>
       </c>
       <c r="C165" s="14" t="s">
-        <v>167</v>
+        <v>323</v>
       </c>
       <c r="D165" s="14" t="s">
         <v>410</v>
       </c>
       <c r="E165" s="14" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="F165" s="14" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="G165" s="14" t="s">
-        <v>689</v>
+        <v>682</v>
       </c>
       <c r="H165" s="14"/>
       <c r="I165" s="15" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="J165" s="17" t="s">
-        <v>690</v>
+        <v>683</v>
       </c>
       <c r="K165" s="14"/>
     </row>
@@ -16442,29 +16489,29 @@
         <v>278</v>
       </c>
       <c r="B166" s="14" t="s">
-        <v>329</v>
+        <v>319</v>
       </c>
       <c r="C166" s="14" t="s">
-        <v>332</v>
+        <v>684</v>
       </c>
       <c r="D166" s="14" t="s">
-        <v>418</v>
+        <v>410</v>
       </c>
       <c r="E166" s="14" t="s">
         <v>14</v>
       </c>
       <c r="F166" s="14" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="G166" s="14" t="s">
-        <v>691</v>
+        <v>685</v>
       </c>
       <c r="H166" s="14"/>
       <c r="I166" s="15" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="J166" s="17" t="s">
-        <v>692</v>
+        <v>686</v>
       </c>
       <c r="K166" s="14"/>
     </row>
@@ -16476,26 +16523,26 @@
         <v>329</v>
       </c>
       <c r="C167" s="14" t="s">
-        <v>335</v>
+        <v>167</v>
       </c>
       <c r="D167" s="14" t="s">
-        <v>47</v>
+        <v>410</v>
       </c>
       <c r="E167" s="14" t="s">
         <v>25</v>
       </c>
       <c r="F167" s="14" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="G167" s="14" t="s">
-        <v>693</v>
+        <v>687</v>
       </c>
       <c r="H167" s="14"/>
       <c r="I167" s="15" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="J167" s="17" t="s">
-        <v>694</v>
+        <v>688</v>
       </c>
       <c r="K167" s="14"/>
     </row>
@@ -16507,26 +16554,26 @@
         <v>329</v>
       </c>
       <c r="C168" s="14" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="D168" s="14" t="s">
-        <v>117</v>
+        <v>418</v>
       </c>
       <c r="E168" s="14" t="s">
-        <v>39</v>
+        <v>14</v>
       </c>
       <c r="F168" s="14" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="G168" s="14" t="s">
-        <v>695</v>
+        <v>689</v>
       </c>
       <c r="H168" s="14"/>
       <c r="I168" s="15" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="J168" s="17" t="s">
-        <v>696</v>
+        <v>690</v>
       </c>
       <c r="K168" s="14"/>
     </row>
@@ -16538,26 +16585,26 @@
         <v>329</v>
       </c>
       <c r="C169" s="14" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="D169" s="14" t="s">
-        <v>342</v>
+        <v>47</v>
       </c>
       <c r="E169" s="14" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="F169" s="14" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="G169" s="14" t="s">
-        <v>697</v>
+        <v>691</v>
       </c>
       <c r="H169" s="14"/>
       <c r="I169" s="15" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="J169" s="17" t="s">
-        <v>698</v>
+        <v>692</v>
       </c>
       <c r="K169" s="14"/>
     </row>
@@ -16569,26 +16616,26 @@
         <v>329</v>
       </c>
       <c r="C170" s="14" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="D170" s="14" t="s">
-        <v>47</v>
+        <v>117</v>
       </c>
       <c r="E170" s="14" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="F170" s="14" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
       <c r="G170" s="14" t="s">
-        <v>699</v>
+        <v>693</v>
       </c>
       <c r="H170" s="14"/>
       <c r="I170" s="15" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
       <c r="J170" s="17" t="s">
-        <v>700</v>
+        <v>694</v>
       </c>
       <c r="K170" s="14"/>
     </row>
@@ -16597,29 +16644,29 @@
         <v>278</v>
       </c>
       <c r="B171" s="14" t="s">
-        <v>348</v>
+        <v>329</v>
       </c>
       <c r="C171" s="14" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
       <c r="D171" s="14" t="s">
-        <v>75</v>
+        <v>342</v>
       </c>
       <c r="E171" s="14" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="F171" s="14" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="G171" s="14" t="s">
-        <v>701</v>
+        <v>695</v>
       </c>
       <c r="H171" s="14"/>
-      <c r="I171" s="29" t="s">
-        <v>861</v>
+      <c r="I171" s="15" t="s">
+        <v>344</v>
       </c>
       <c r="J171" s="17" t="s">
-        <v>702</v>
+        <v>696</v>
       </c>
       <c r="K171" s="14"/>
     </row>
@@ -16628,29 +16675,29 @@
         <v>278</v>
       </c>
       <c r="B172" s="14" t="s">
-        <v>348</v>
+        <v>329</v>
       </c>
       <c r="C172" s="14" t="s">
-        <v>703</v>
+        <v>345</v>
       </c>
       <c r="D172" s="14" t="s">
-        <v>418</v>
+        <v>47</v>
       </c>
       <c r="E172" s="14" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="F172" s="14" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="G172" s="14" t="s">
-        <v>704</v>
+        <v>697</v>
       </c>
       <c r="H172" s="14"/>
-      <c r="I172" s="16" t="s">
-        <v>354</v>
+      <c r="I172" s="15" t="s">
+        <v>347</v>
       </c>
       <c r="J172" s="17" t="s">
-        <v>705</v>
+        <v>698</v>
       </c>
       <c r="K172" s="14"/>
     </row>
@@ -16659,30 +16706,28 @@
         <v>278</v>
       </c>
       <c r="B173" s="14" t="s">
-        <v>355</v>
+        <v>329</v>
       </c>
       <c r="C173" s="14" t="s">
-        <v>302</v>
+        <v>343</v>
       </c>
       <c r="D173" s="14" t="s">
-        <v>117</v>
+        <v>312</v>
       </c>
       <c r="E173" s="14" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="F173" s="14" t="s">
-        <v>356</v>
+        <v>343</v>
       </c>
       <c r="G173" s="14" t="s">
-        <v>706</v>
+        <v>1018</v>
       </c>
       <c r="H173" s="14"/>
-      <c r="I173" s="15" t="s">
-        <v>357</v>
-      </c>
-      <c r="J173" s="17" t="s">
-        <v>707</v>
-      </c>
+      <c r="I173" s="29" t="s">
+        <v>344</v>
+      </c>
+      <c r="J173" s="17"/>
       <c r="K173" s="14"/>
     </row>
     <row r="174" spans="1:11" ht="13">
@@ -16690,29 +16735,29 @@
         <v>278</v>
       </c>
       <c r="B174" s="14" t="s">
-        <v>355</v>
+        <v>348</v>
       </c>
       <c r="C174" s="14" t="s">
-        <v>358</v>
+        <v>349</v>
       </c>
       <c r="D174" s="14" t="s">
-        <v>410</v>
+        <v>75</v>
       </c>
       <c r="E174" s="14" t="s">
         <v>25</v>
       </c>
       <c r="F174" s="14" t="s">
-        <v>359</v>
+        <v>350</v>
       </c>
       <c r="G174" s="14" t="s">
-        <v>708</v>
+        <v>699</v>
       </c>
       <c r="H174" s="14"/>
-      <c r="I174" s="15" t="s">
-        <v>360</v>
+      <c r="I174" s="29" t="s">
+        <v>859</v>
       </c>
       <c r="J174" s="17" t="s">
-        <v>709</v>
+        <v>700</v>
       </c>
       <c r="K174" s="14"/>
     </row>
@@ -16721,29 +16766,29 @@
         <v>278</v>
       </c>
       <c r="B175" s="14" t="s">
-        <v>355</v>
+        <v>348</v>
       </c>
       <c r="C175" s="14" t="s">
-        <v>722</v>
+        <v>701</v>
       </c>
       <c r="D175" s="14" t="s">
-        <v>51</v>
+        <v>418</v>
       </c>
       <c r="E175" s="14" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="F175" s="14" t="s">
-        <v>770</v>
+        <v>353</v>
       </c>
       <c r="G175" s="14" t="s">
-        <v>771</v>
+        <v>702</v>
       </c>
       <c r="H175" s="14"/>
-      <c r="I175" s="29" t="s">
-        <v>772</v>
+      <c r="I175" s="16" t="s">
+        <v>354</v>
       </c>
       <c r="J175" s="17" t="s">
-        <v>773</v>
+        <v>703</v>
       </c>
       <c r="K175" s="14"/>
     </row>
@@ -16755,26 +16800,26 @@
         <v>355</v>
       </c>
       <c r="C176" s="14" t="s">
-        <v>886</v>
+        <v>302</v>
       </c>
       <c r="D176" s="14" t="s">
-        <v>410</v>
+        <v>117</v>
       </c>
       <c r="E176" s="14" t="s">
         <v>25</v>
       </c>
       <c r="F176" s="14" t="s">
-        <v>887</v>
+        <v>356</v>
       </c>
       <c r="G176" s="14" t="s">
-        <v>888</v>
+        <v>704</v>
       </c>
       <c r="H176" s="14"/>
-      <c r="I176" s="29" t="s">
-        <v>889</v>
+      <c r="I176" s="15" t="s">
+        <v>357</v>
       </c>
       <c r="J176" s="17" t="s">
-        <v>890</v>
+        <v>705</v>
       </c>
       <c r="K176" s="14"/>
     </row>
@@ -16783,10 +16828,10 @@
         <v>278</v>
       </c>
       <c r="B177" s="14" t="s">
-        <v>710</v>
-      </c>
-      <c r="C177" s="17" t="s">
-        <v>711</v>
+        <v>355</v>
+      </c>
+      <c r="C177" s="14" t="s">
+        <v>358</v>
       </c>
       <c r="D177" s="14" t="s">
         <v>410</v>
@@ -16795,17 +16840,17 @@
         <v>25</v>
       </c>
       <c r="F177" s="14" t="s">
-        <v>712</v>
+        <v>359</v>
       </c>
       <c r="G177" s="14" t="s">
-        <v>713</v>
+        <v>706</v>
       </c>
       <c r="H177" s="14"/>
       <c r="I177" s="15" t="s">
-        <v>714</v>
+        <v>360</v>
       </c>
       <c r="J177" s="17" t="s">
-        <v>715</v>
+        <v>707</v>
       </c>
       <c r="K177" s="14"/>
     </row>
@@ -16814,62 +16859,155 @@
         <v>278</v>
       </c>
       <c r="B178" s="14" t="s">
-        <v>361</v>
-      </c>
-      <c r="C178" s="17" t="s">
-        <v>362</v>
+        <v>355</v>
+      </c>
+      <c r="C178" s="14" t="s">
+        <v>720</v>
       </c>
       <c r="D178" s="14" t="s">
-        <v>418</v>
+        <v>51</v>
       </c>
       <c r="E178" s="14" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="F178" s="14" t="s">
-        <v>363</v>
+        <v>768</v>
       </c>
       <c r="G178" s="14" t="s">
-        <v>716</v>
+        <v>769</v>
       </c>
       <c r="H178" s="14"/>
-      <c r="I178" s="15" t="s">
-        <v>364</v>
+      <c r="I178" s="29" t="s">
+        <v>770</v>
       </c>
       <c r="J178" s="17" t="s">
-        <v>717</v>
+        <v>771</v>
       </c>
       <c r="K178" s="14"/>
     </row>
-    <row r="179" spans="1:11" ht="15.75" customHeight="1">
+    <row r="179" spans="1:11" ht="13">
       <c r="A179" s="14" t="s">
-        <v>774</v>
+        <v>278</v>
       </c>
       <c r="B179" s="14" t="s">
-        <v>776</v>
+        <v>355</v>
       </c>
       <c r="C179" s="14" t="s">
-        <v>724</v>
+        <v>884</v>
       </c>
       <c r="D179" s="14" t="s">
         <v>410</v>
       </c>
       <c r="E179" s="14" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="F179" s="14" t="s">
-        <v>775</v>
+        <v>885</v>
       </c>
       <c r="G179" s="14" t="s">
-        <v>777</v>
+        <v>886</v>
       </c>
       <c r="H179" s="14"/>
       <c r="I179" s="29" t="s">
-        <v>778</v>
+        <v>887</v>
       </c>
       <c r="J179" s="17" t="s">
-        <v>779</v>
+        <v>888</v>
       </c>
       <c r="K179" s="14"/>
+    </row>
+    <row r="180" spans="1:11" ht="13">
+      <c r="A180" s="14" t="s">
+        <v>278</v>
+      </c>
+      <c r="B180" s="14" t="s">
+        <v>708</v>
+      </c>
+      <c r="C180" s="17" t="s">
+        <v>709</v>
+      </c>
+      <c r="D180" s="14" t="s">
+        <v>410</v>
+      </c>
+      <c r="E180" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="F180" s="14" t="s">
+        <v>710</v>
+      </c>
+      <c r="G180" s="14" t="s">
+        <v>711</v>
+      </c>
+      <c r="H180" s="14"/>
+      <c r="I180" s="15" t="s">
+        <v>712</v>
+      </c>
+      <c r="J180" s="17" t="s">
+        <v>713</v>
+      </c>
+      <c r="K180" s="14"/>
+    </row>
+    <row r="181" spans="1:11" ht="13">
+      <c r="A181" s="14" t="s">
+        <v>278</v>
+      </c>
+      <c r="B181" s="14" t="s">
+        <v>361</v>
+      </c>
+      <c r="C181" s="17" t="s">
+        <v>362</v>
+      </c>
+      <c r="D181" s="14" t="s">
+        <v>418</v>
+      </c>
+      <c r="E181" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="F181" s="14" t="s">
+        <v>363</v>
+      </c>
+      <c r="G181" s="14" t="s">
+        <v>714</v>
+      </c>
+      <c r="H181" s="14"/>
+      <c r="I181" s="15" t="s">
+        <v>364</v>
+      </c>
+      <c r="J181" s="17" t="s">
+        <v>715</v>
+      </c>
+      <c r="K181" s="14"/>
+    </row>
+    <row r="182" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A182" s="14" t="s">
+        <v>772</v>
+      </c>
+      <c r="B182" s="14" t="s">
+        <v>774</v>
+      </c>
+      <c r="C182" s="14" t="s">
+        <v>722</v>
+      </c>
+      <c r="D182" s="14" t="s">
+        <v>410</v>
+      </c>
+      <c r="E182" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="F182" s="14" t="s">
+        <v>773</v>
+      </c>
+      <c r="G182" s="14" t="s">
+        <v>775</v>
+      </c>
+      <c r="H182" s="14"/>
+      <c r="I182" s="29" t="s">
+        <v>776</v>
+      </c>
+      <c r="J182" s="17" t="s">
+        <v>777</v>
+      </c>
+      <c r="K182" s="14"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -16886,171 +17024,174 @@
     <hyperlink ref="I15" r:id="rId11" xr:uid="{00000000-0004-0000-0100-00000A000000}"/>
     <hyperlink ref="I16" r:id="rId12" xr:uid="{00000000-0004-0000-0100-00000B000000}"/>
     <hyperlink ref="I18" r:id="rId13" xr:uid="{00000000-0004-0000-0100-00000C000000}"/>
-    <hyperlink ref="I19" r:id="rId14" xr:uid="{00000000-0004-0000-0100-00000D000000}"/>
-    <hyperlink ref="I20" r:id="rId15" xr:uid="{00000000-0004-0000-0100-00000E000000}"/>
-    <hyperlink ref="I23" r:id="rId16" xr:uid="{00000000-0004-0000-0100-00000F000000}"/>
-    <hyperlink ref="I24" r:id="rId17" xr:uid="{00000000-0004-0000-0100-000010000000}"/>
-    <hyperlink ref="I25" r:id="rId18" xr:uid="{00000000-0004-0000-0100-000011000000}"/>
-    <hyperlink ref="I26" r:id="rId19" xr:uid="{00000000-0004-0000-0100-000012000000}"/>
-    <hyperlink ref="I27" r:id="rId20" xr:uid="{00000000-0004-0000-0100-000013000000}"/>
-    <hyperlink ref="I28" r:id="rId21" xr:uid="{00000000-0004-0000-0100-000014000000}"/>
-    <hyperlink ref="I29" r:id="rId22" xr:uid="{00000000-0004-0000-0100-000015000000}"/>
-    <hyperlink ref="I30" r:id="rId23" xr:uid="{00000000-0004-0000-0100-000016000000}"/>
-    <hyperlink ref="I31" r:id="rId24" xr:uid="{00000000-0004-0000-0100-000017000000}"/>
-    <hyperlink ref="I32" r:id="rId25" xr:uid="{00000000-0004-0000-0100-000018000000}"/>
-    <hyperlink ref="I34" r:id="rId26" xr:uid="{00000000-0004-0000-0100-000019000000}"/>
-    <hyperlink ref="I35" r:id="rId27" xr:uid="{00000000-0004-0000-0100-00001A000000}"/>
-    <hyperlink ref="I36" r:id="rId28" xr:uid="{00000000-0004-0000-0100-00001B000000}"/>
-    <hyperlink ref="I37" r:id="rId29" xr:uid="{00000000-0004-0000-0100-00001C000000}"/>
-    <hyperlink ref="I38" r:id="rId30" xr:uid="{00000000-0004-0000-0100-00001D000000}"/>
-    <hyperlink ref="I39" r:id="rId31" xr:uid="{00000000-0004-0000-0100-00001E000000}"/>
-    <hyperlink ref="I40" r:id="rId32" xr:uid="{00000000-0004-0000-0100-00001F000000}"/>
-    <hyperlink ref="I44" r:id="rId33" xr:uid="{00000000-0004-0000-0100-000020000000}"/>
-    <hyperlink ref="I45" r:id="rId34" xr:uid="{00000000-0004-0000-0100-000021000000}"/>
-    <hyperlink ref="I51" r:id="rId35" xr:uid="{00000000-0004-0000-0100-000022000000}"/>
-    <hyperlink ref="I52" r:id="rId36" xr:uid="{00000000-0004-0000-0100-000023000000}"/>
-    <hyperlink ref="I53" r:id="rId37" xr:uid="{00000000-0004-0000-0100-000024000000}"/>
-    <hyperlink ref="I54" r:id="rId38" xr:uid="{00000000-0004-0000-0100-000025000000}"/>
-    <hyperlink ref="I55" r:id="rId39" xr:uid="{00000000-0004-0000-0100-000026000000}"/>
-    <hyperlink ref="I56" r:id="rId40" xr:uid="{00000000-0004-0000-0100-000027000000}"/>
-    <hyperlink ref="I57" r:id="rId41" xr:uid="{00000000-0004-0000-0100-000028000000}"/>
-    <hyperlink ref="I58" r:id="rId42" xr:uid="{00000000-0004-0000-0100-000029000000}"/>
-    <hyperlink ref="I59" r:id="rId43" xr:uid="{00000000-0004-0000-0100-00002A000000}"/>
-    <hyperlink ref="I60" r:id="rId44" xr:uid="{00000000-0004-0000-0100-00002B000000}"/>
-    <hyperlink ref="I61" r:id="rId45" xr:uid="{00000000-0004-0000-0100-00002C000000}"/>
-    <hyperlink ref="I63" r:id="rId46" xr:uid="{00000000-0004-0000-0100-00002D000000}"/>
-    <hyperlink ref="I64" r:id="rId47" xr:uid="{00000000-0004-0000-0100-00002E000000}"/>
-    <hyperlink ref="I65" r:id="rId48" xr:uid="{00000000-0004-0000-0100-00002F000000}"/>
-    <hyperlink ref="I71" r:id="rId49" xr:uid="{00000000-0004-0000-0100-000030000000}"/>
-    <hyperlink ref="I73" r:id="rId50" xr:uid="{00000000-0004-0000-0100-000031000000}"/>
-    <hyperlink ref="I74" r:id="rId51" xr:uid="{00000000-0004-0000-0100-000032000000}"/>
-    <hyperlink ref="I75" r:id="rId52" xr:uid="{00000000-0004-0000-0100-000033000000}"/>
-    <hyperlink ref="I76" r:id="rId53" xr:uid="{00000000-0004-0000-0100-000034000000}"/>
-    <hyperlink ref="I79" r:id="rId54" xr:uid="{00000000-0004-0000-0100-000035000000}"/>
-    <hyperlink ref="I80" r:id="rId55" xr:uid="{00000000-0004-0000-0100-000036000000}"/>
-    <hyperlink ref="I81" r:id="rId56" xr:uid="{00000000-0004-0000-0100-000037000000}"/>
-    <hyperlink ref="I82" r:id="rId57" xr:uid="{00000000-0004-0000-0100-000038000000}"/>
-    <hyperlink ref="I83" r:id="rId58" xr:uid="{00000000-0004-0000-0100-000039000000}"/>
-    <hyperlink ref="I85" r:id="rId59" xr:uid="{00000000-0004-0000-0100-00003A000000}"/>
-    <hyperlink ref="I86" r:id="rId60" xr:uid="{00000000-0004-0000-0100-00003B000000}"/>
-    <hyperlink ref="I87" r:id="rId61" xr:uid="{00000000-0004-0000-0100-00003C000000}"/>
-    <hyperlink ref="I88" r:id="rId62" xr:uid="{00000000-0004-0000-0100-00003D000000}"/>
-    <hyperlink ref="I89" r:id="rId63" xr:uid="{00000000-0004-0000-0100-00003E000000}"/>
-    <hyperlink ref="I90" r:id="rId64" xr:uid="{00000000-0004-0000-0100-00003F000000}"/>
-    <hyperlink ref="I91" r:id="rId65" xr:uid="{00000000-0004-0000-0100-000040000000}"/>
-    <hyperlink ref="I93" r:id="rId66" xr:uid="{00000000-0004-0000-0100-000041000000}"/>
-    <hyperlink ref="I94" r:id="rId67" xr:uid="{00000000-0004-0000-0100-000042000000}"/>
-    <hyperlink ref="I97" r:id="rId68" xr:uid="{00000000-0004-0000-0100-000043000000}"/>
-    <hyperlink ref="I98" r:id="rId69" xr:uid="{00000000-0004-0000-0100-000044000000}"/>
-    <hyperlink ref="I99" r:id="rId70" xr:uid="{00000000-0004-0000-0100-000045000000}"/>
-    <hyperlink ref="I100" r:id="rId71" xr:uid="{00000000-0004-0000-0100-000046000000}"/>
-    <hyperlink ref="I101" r:id="rId72" xr:uid="{00000000-0004-0000-0100-000047000000}"/>
-    <hyperlink ref="I102" r:id="rId73" xr:uid="{00000000-0004-0000-0100-000048000000}"/>
-    <hyperlink ref="I105" r:id="rId74" xr:uid="{00000000-0004-0000-0100-000049000000}"/>
-    <hyperlink ref="I106" r:id="rId75" xr:uid="{00000000-0004-0000-0100-00004A000000}"/>
-    <hyperlink ref="I107" r:id="rId76" xr:uid="{00000000-0004-0000-0100-00004B000000}"/>
-    <hyperlink ref="I108" r:id="rId77" xr:uid="{00000000-0004-0000-0100-00004C000000}"/>
-    <hyperlink ref="I111" r:id="rId78" xr:uid="{00000000-0004-0000-0100-00004D000000}"/>
-    <hyperlink ref="I113" r:id="rId79" xr:uid="{00000000-0004-0000-0100-00004E000000}"/>
-    <hyperlink ref="I114" r:id="rId80" xr:uid="{00000000-0004-0000-0100-00004F000000}"/>
-    <hyperlink ref="I115" r:id="rId81" xr:uid="{00000000-0004-0000-0100-000050000000}"/>
-    <hyperlink ref="I116" r:id="rId82" xr:uid="{00000000-0004-0000-0100-000051000000}"/>
-    <hyperlink ref="I117" r:id="rId83" xr:uid="{00000000-0004-0000-0100-000052000000}"/>
-    <hyperlink ref="I118" r:id="rId84" xr:uid="{00000000-0004-0000-0100-000053000000}"/>
-    <hyperlink ref="I119" r:id="rId85" xr:uid="{00000000-0004-0000-0100-000054000000}"/>
-    <hyperlink ref="I120" r:id="rId86" xr:uid="{00000000-0004-0000-0100-000055000000}"/>
-    <hyperlink ref="I125" r:id="rId87" xr:uid="{00000000-0004-0000-0100-000056000000}"/>
-    <hyperlink ref="I128" r:id="rId88" xr:uid="{00000000-0004-0000-0100-000057000000}"/>
-    <hyperlink ref="I131" r:id="rId89" xr:uid="{00000000-0004-0000-0100-000058000000}"/>
-    <hyperlink ref="I132" r:id="rId90" xr:uid="{00000000-0004-0000-0100-000059000000}"/>
-    <hyperlink ref="I136" r:id="rId91" xr:uid="{00000000-0004-0000-0100-00005A000000}"/>
-    <hyperlink ref="I137" r:id="rId92" xr:uid="{00000000-0004-0000-0100-00005B000000}"/>
-    <hyperlink ref="I138" r:id="rId93" xr:uid="{00000000-0004-0000-0100-00005C000000}"/>
-    <hyperlink ref="I139" r:id="rId94" xr:uid="{00000000-0004-0000-0100-00005D000000}"/>
-    <hyperlink ref="I141" r:id="rId95" xr:uid="{00000000-0004-0000-0100-00005E000000}"/>
-    <hyperlink ref="I142" r:id="rId96" xr:uid="{00000000-0004-0000-0100-00005F000000}"/>
-    <hyperlink ref="I143" r:id="rId97" xr:uid="{00000000-0004-0000-0100-000060000000}"/>
-    <hyperlink ref="I144" r:id="rId98" xr:uid="{00000000-0004-0000-0100-000061000000}"/>
-    <hyperlink ref="I145" r:id="rId99" xr:uid="{00000000-0004-0000-0100-000062000000}"/>
-    <hyperlink ref="I146" r:id="rId100" xr:uid="{00000000-0004-0000-0100-000063000000}"/>
-    <hyperlink ref="I147" r:id="rId101" xr:uid="{00000000-0004-0000-0100-000064000000}"/>
-    <hyperlink ref="I153" r:id="rId102" xr:uid="{00000000-0004-0000-0100-000065000000}"/>
-    <hyperlink ref="I154" r:id="rId103" xr:uid="{00000000-0004-0000-0100-000066000000}"/>
-    <hyperlink ref="I155" r:id="rId104" xr:uid="{00000000-0004-0000-0100-000067000000}"/>
-    <hyperlink ref="I156" r:id="rId105" xr:uid="{00000000-0004-0000-0100-000068000000}"/>
-    <hyperlink ref="I159" r:id="rId106" xr:uid="{00000000-0004-0000-0100-00006A000000}"/>
-    <hyperlink ref="I162" r:id="rId107" xr:uid="{00000000-0004-0000-0100-00006B000000}"/>
-    <hyperlink ref="I163" r:id="rId108" xr:uid="{00000000-0004-0000-0100-00006C000000}"/>
-    <hyperlink ref="I164" r:id="rId109" xr:uid="{00000000-0004-0000-0100-00006D000000}"/>
-    <hyperlink ref="I165" r:id="rId110" xr:uid="{00000000-0004-0000-0100-00006E000000}"/>
-    <hyperlink ref="I166" r:id="rId111" xr:uid="{00000000-0004-0000-0100-00006F000000}"/>
-    <hyperlink ref="I167" r:id="rId112" xr:uid="{00000000-0004-0000-0100-000070000000}"/>
-    <hyperlink ref="I168" r:id="rId113" xr:uid="{00000000-0004-0000-0100-000071000000}"/>
-    <hyperlink ref="I169" r:id="rId114" xr:uid="{00000000-0004-0000-0100-000072000000}"/>
-    <hyperlink ref="I170" r:id="rId115" xr:uid="{00000000-0004-0000-0100-000073000000}"/>
-    <hyperlink ref="I171" r:id="rId116" xr:uid="{00000000-0004-0000-0100-000074000000}"/>
-    <hyperlink ref="I172" r:id="rId117" xr:uid="{00000000-0004-0000-0100-000075000000}"/>
-    <hyperlink ref="I173" r:id="rId118" xr:uid="{00000000-0004-0000-0100-000076000000}"/>
-    <hyperlink ref="I174" r:id="rId119" xr:uid="{00000000-0004-0000-0100-000077000000}"/>
-    <hyperlink ref="I177" r:id="rId120" xr:uid="{00000000-0004-0000-0100-000078000000}"/>
-    <hyperlink ref="I178" r:id="rId121" xr:uid="{00000000-0004-0000-0100-000079000000}"/>
-    <hyperlink ref="I21" r:id="rId122" xr:uid="{881F0F65-3DCC-E94A-9FE5-2CC264A8F337}"/>
-    <hyperlink ref="I22" r:id="rId123" xr:uid="{AC40193A-1232-474A-A421-B55FFA7E99B8}"/>
-    <hyperlink ref="I41" r:id="rId124" xr:uid="{D41ADE90-9772-8F41-AC9B-8DE303E9D7A9}"/>
-    <hyperlink ref="I42" r:id="rId125" xr:uid="{85F37ABA-4B3B-764B-A1ED-9DD3AFFF0004}"/>
-    <hyperlink ref="I78" r:id="rId126" xr:uid="{F5E14AAB-D49A-EF45-A165-3757EFF2E9B4}"/>
-    <hyperlink ref="I95" r:id="rId127" xr:uid="{759707EA-D94A-2D42-8FE0-FAE01578CF99}"/>
-    <hyperlink ref="I127" r:id="rId128" xr:uid="{1A936B77-62AA-804C-B853-4343ADD2D925}"/>
-    <hyperlink ref="I157" r:id="rId129" xr:uid="{00000000-0004-0000-0100-000069000000}"/>
-    <hyperlink ref="I148" r:id="rId130" xr:uid="{2929B0EA-E15F-E444-ADC1-C2E3E232D526}"/>
-    <hyperlink ref="I158" r:id="rId131" xr:uid="{7770BE98-2823-3047-9E72-08DB2B79C177}"/>
-    <hyperlink ref="I160" r:id="rId132" xr:uid="{A91F97A2-47FA-FB49-8866-2B9AA1419B2B}"/>
-    <hyperlink ref="I175" r:id="rId133" xr:uid="{11EEE67C-10E9-AB44-91F6-D7C7B31697FA}"/>
-    <hyperlink ref="I179" r:id="rId134" xr:uid="{8E930EBE-7205-BD41-9ED8-FE8F970A98EF}"/>
-    <hyperlink ref="I161" r:id="rId135" xr:uid="{3AF5EB12-868F-C842-91DC-4FC147AA3C86}"/>
-    <hyperlink ref="I66" r:id="rId136" xr:uid="{7BDCEA69-27F3-FF41-BB2B-817D4FD2C9C0}"/>
-    <hyperlink ref="I67" r:id="rId137" xr:uid="{7A940ACA-466B-9E49-8CB5-9BA664F7C3C9}"/>
-    <hyperlink ref="I69" r:id="rId138" xr:uid="{088C717E-7DC5-EF4C-8C34-370DC45C6BEE}"/>
-    <hyperlink ref="I70" r:id="rId139" xr:uid="{A670C44A-19C9-984F-9EAA-8D5EBCE39C79}"/>
-    <hyperlink ref="I109" r:id="rId140" xr:uid="{713BB907-BFF9-AE42-B777-2AF591DA7D9B}"/>
-    <hyperlink ref="I112" r:id="rId141" xr:uid="{EC0C54FA-684B-A440-BF57-B5B57FDD99C9}"/>
-    <hyperlink ref="I122" r:id="rId142" xr:uid="{9081BA3E-9CF8-074E-BF5B-0F2FA156F0B7}"/>
-    <hyperlink ref="I124" r:id="rId143" xr:uid="{8C2FD4CC-DF59-734E-8449-EA5B9F5E7D3D}"/>
-    <hyperlink ref="I92" r:id="rId144" xr:uid="{9845498D-A3A6-524F-9A69-7DC2DB7F7639}"/>
-    <hyperlink ref="I121" r:id="rId145" xr:uid="{CFDD3EC3-C992-0E4C-8C8D-2A9AC6885E0B}"/>
-    <hyperlink ref="I103" r:id="rId146" xr:uid="{C634E917-B836-414F-BB3B-9A111E16653C}"/>
-    <hyperlink ref="I62" r:id="rId147" xr:uid="{8548A361-62F7-A648-BBBE-9F37385F0E45}"/>
-    <hyperlink ref="I77" r:id="rId148" xr:uid="{8EA062F9-78F8-A44B-BEDA-61CF758CB831}"/>
-    <hyperlink ref="I46" r:id="rId149" xr:uid="{7C7CB4D2-6B37-544C-B631-930D91F3AA17}"/>
-    <hyperlink ref="I149" r:id="rId150" xr:uid="{5694CC0C-366D-8848-BBD7-150B284E15DA}"/>
-    <hyperlink ref="I33" r:id="rId151" xr:uid="{7E8D5837-BD50-6844-B288-6217DFD05E29}"/>
-    <hyperlink ref="I48" r:id="rId152" xr:uid="{E89C4D5B-786F-9A4C-9914-80D4DF36F89C}"/>
-    <hyperlink ref="I47" r:id="rId153" xr:uid="{EDBD0C6E-D96D-734B-85A9-4D26B3421D83}"/>
-    <hyperlink ref="I176" r:id="rId154" xr:uid="{12FA5E40-D722-4344-995B-86BBF8B4F3F3}"/>
-    <hyperlink ref="I3" r:id="rId155" xr:uid="{90F3D795-8796-3941-81B5-D72CA324E042}"/>
-    <hyperlink ref="I4" r:id="rId156" xr:uid="{16E7DE01-C66E-B349-8DAD-CA4C99C20CD5}"/>
-    <hyperlink ref="I5" r:id="rId157" xr:uid="{7E09A861-DD77-2E4B-B800-EAC5DEA70EDC}"/>
-    <hyperlink ref="I17" r:id="rId158" xr:uid="{D6A698C2-16EA-6D43-BD05-DCD8B998FD48}"/>
-    <hyperlink ref="I43" r:id="rId159" xr:uid="{4D236EF9-AFFB-FE4D-BCD1-638D19B0E2AD}"/>
-    <hyperlink ref="I68" r:id="rId160" xr:uid="{219D9E22-5730-534D-8B55-6BD3916AD9D3}"/>
-    <hyperlink ref="I72" r:id="rId161" xr:uid="{F2124805-E683-1A42-A341-E4B4C798FCF6}"/>
-    <hyperlink ref="I104" r:id="rId162" xr:uid="{03D19417-5ACF-4747-87E3-FF4A7F6B8C5E}"/>
-    <hyperlink ref="I110" r:id="rId163" xr:uid="{E08A2438-5DB8-9A45-84DD-CD243288C3B9}"/>
-    <hyperlink ref="I123" r:id="rId164" xr:uid="{84BE2579-BA68-7D4D-B2CB-86D3681369AA}"/>
-    <hyperlink ref="I126" r:id="rId165" xr:uid="{91EB2E87-6831-0145-A4FB-E8981B8045C7}"/>
-    <hyperlink ref="I129" r:id="rId166" xr:uid="{54C086FF-A8B9-6C43-B277-A9032F8666B1}"/>
-    <hyperlink ref="I130" r:id="rId167" xr:uid="{2EF760AC-07D9-8548-93B1-88352B9C3C7F}"/>
-    <hyperlink ref="I96" r:id="rId168" xr:uid="{A5C672A7-87AF-E940-AAE7-D59695E4A0C6}"/>
-    <hyperlink ref="I133" r:id="rId169" xr:uid="{235F1B30-BA9C-2944-96E8-044D9C42D2E4}"/>
-    <hyperlink ref="I134" r:id="rId170" xr:uid="{86BA7BFD-9A67-EC49-A9D6-2A3459D321FF}"/>
-    <hyperlink ref="I135" r:id="rId171" xr:uid="{877A9B01-36F7-6D47-9B86-75B4F4BC541E}"/>
-    <hyperlink ref="I140" r:id="rId172" xr:uid="{5546ECD3-6F35-E74E-9357-32E1AF022690}"/>
-    <hyperlink ref="I150" r:id="rId173" xr:uid="{88D1FADA-4A32-0D4F-AF24-3FE72EBBEB68}"/>
-    <hyperlink ref="I151" r:id="rId174" xr:uid="{AF329473-0DFD-8C4C-BE43-8A06EA57AD9B}"/>
-    <hyperlink ref="I152" r:id="rId175" xr:uid="{6A2FDA52-E721-2D45-8440-DE26731358E6}"/>
-    <hyperlink ref="I49" r:id="rId176" xr:uid="{AE7D1622-F9B9-DF48-8E55-336B7BB6750F}"/>
-    <hyperlink ref="I50" r:id="rId177" xr:uid="{59C3C7D9-F3C2-4241-BF17-62CD57E349CD}"/>
-    <hyperlink ref="I84" r:id="rId178" xr:uid="{808B590E-E469-FC42-8AED-648218F9285B}"/>
+    <hyperlink ref="I19" r:id="rId14" xr:uid="{00000000-0004-0000-0100-00000E000000}"/>
+    <hyperlink ref="I22" r:id="rId15" xr:uid="{00000000-0004-0000-0100-00000F000000}"/>
+    <hyperlink ref="I23" r:id="rId16" xr:uid="{00000000-0004-0000-0100-000010000000}"/>
+    <hyperlink ref="I24" r:id="rId17" xr:uid="{00000000-0004-0000-0100-000011000000}"/>
+    <hyperlink ref="I25" r:id="rId18" xr:uid="{00000000-0004-0000-0100-000012000000}"/>
+    <hyperlink ref="I26" r:id="rId19" xr:uid="{00000000-0004-0000-0100-000013000000}"/>
+    <hyperlink ref="I27" r:id="rId20" xr:uid="{00000000-0004-0000-0100-000014000000}"/>
+    <hyperlink ref="I28" r:id="rId21" xr:uid="{00000000-0004-0000-0100-000015000000}"/>
+    <hyperlink ref="I29" r:id="rId22" xr:uid="{00000000-0004-0000-0100-000016000000}"/>
+    <hyperlink ref="I30" r:id="rId23" xr:uid="{00000000-0004-0000-0100-000017000000}"/>
+    <hyperlink ref="I31" r:id="rId24" xr:uid="{00000000-0004-0000-0100-000018000000}"/>
+    <hyperlink ref="I33" r:id="rId25" xr:uid="{00000000-0004-0000-0100-000019000000}"/>
+    <hyperlink ref="I34" r:id="rId26" xr:uid="{00000000-0004-0000-0100-00001A000000}"/>
+    <hyperlink ref="I35" r:id="rId27" xr:uid="{00000000-0004-0000-0100-00001B000000}"/>
+    <hyperlink ref="I36" r:id="rId28" xr:uid="{00000000-0004-0000-0100-00001C000000}"/>
+    <hyperlink ref="I37" r:id="rId29" xr:uid="{00000000-0004-0000-0100-00001D000000}"/>
+    <hyperlink ref="I38" r:id="rId30" xr:uid="{00000000-0004-0000-0100-00001E000000}"/>
+    <hyperlink ref="I39" r:id="rId31" xr:uid="{00000000-0004-0000-0100-00001F000000}"/>
+    <hyperlink ref="I43" r:id="rId32" xr:uid="{00000000-0004-0000-0100-000020000000}"/>
+    <hyperlink ref="I44" r:id="rId33" xr:uid="{00000000-0004-0000-0100-000021000000}"/>
+    <hyperlink ref="I50" r:id="rId34" xr:uid="{00000000-0004-0000-0100-000022000000}"/>
+    <hyperlink ref="I51" r:id="rId35" xr:uid="{00000000-0004-0000-0100-000023000000}"/>
+    <hyperlink ref="I52" r:id="rId36" xr:uid="{00000000-0004-0000-0100-000024000000}"/>
+    <hyperlink ref="I53" r:id="rId37" xr:uid="{00000000-0004-0000-0100-000025000000}"/>
+    <hyperlink ref="I54" r:id="rId38" xr:uid="{00000000-0004-0000-0100-000026000000}"/>
+    <hyperlink ref="I55" r:id="rId39" xr:uid="{00000000-0004-0000-0100-000027000000}"/>
+    <hyperlink ref="I56" r:id="rId40" xr:uid="{00000000-0004-0000-0100-000028000000}"/>
+    <hyperlink ref="I57" r:id="rId41" xr:uid="{00000000-0004-0000-0100-000029000000}"/>
+    <hyperlink ref="I58" r:id="rId42" xr:uid="{00000000-0004-0000-0100-00002A000000}"/>
+    <hyperlink ref="I59" r:id="rId43" xr:uid="{00000000-0004-0000-0100-00002B000000}"/>
+    <hyperlink ref="I60" r:id="rId44" xr:uid="{00000000-0004-0000-0100-00002C000000}"/>
+    <hyperlink ref="I62" r:id="rId45" xr:uid="{00000000-0004-0000-0100-00002D000000}"/>
+    <hyperlink ref="I63" r:id="rId46" xr:uid="{00000000-0004-0000-0100-00002E000000}"/>
+    <hyperlink ref="I64" r:id="rId47" xr:uid="{00000000-0004-0000-0100-00002F000000}"/>
+    <hyperlink ref="I70" r:id="rId48" xr:uid="{00000000-0004-0000-0100-000030000000}"/>
+    <hyperlink ref="I72" r:id="rId49" xr:uid="{00000000-0004-0000-0100-000031000000}"/>
+    <hyperlink ref="I73" r:id="rId50" xr:uid="{00000000-0004-0000-0100-000032000000}"/>
+    <hyperlink ref="I74" r:id="rId51" xr:uid="{00000000-0004-0000-0100-000033000000}"/>
+    <hyperlink ref="I75" r:id="rId52" xr:uid="{00000000-0004-0000-0100-000034000000}"/>
+    <hyperlink ref="I79" r:id="rId53" xr:uid="{00000000-0004-0000-0100-000035000000}"/>
+    <hyperlink ref="I80" r:id="rId54" xr:uid="{00000000-0004-0000-0100-000036000000}"/>
+    <hyperlink ref="I81" r:id="rId55" xr:uid="{00000000-0004-0000-0100-000037000000}"/>
+    <hyperlink ref="I82" r:id="rId56" xr:uid="{00000000-0004-0000-0100-000038000000}"/>
+    <hyperlink ref="I83" r:id="rId57" xr:uid="{00000000-0004-0000-0100-000039000000}"/>
+    <hyperlink ref="I85" r:id="rId58" xr:uid="{00000000-0004-0000-0100-00003A000000}"/>
+    <hyperlink ref="I86" r:id="rId59" xr:uid="{00000000-0004-0000-0100-00003B000000}"/>
+    <hyperlink ref="I87" r:id="rId60" xr:uid="{00000000-0004-0000-0100-00003C000000}"/>
+    <hyperlink ref="I88" r:id="rId61" xr:uid="{00000000-0004-0000-0100-00003D000000}"/>
+    <hyperlink ref="I89" r:id="rId62" xr:uid="{00000000-0004-0000-0100-00003E000000}"/>
+    <hyperlink ref="I90" r:id="rId63" xr:uid="{00000000-0004-0000-0100-00003F000000}"/>
+    <hyperlink ref="I91" r:id="rId64" xr:uid="{00000000-0004-0000-0100-000040000000}"/>
+    <hyperlink ref="I93" r:id="rId65" xr:uid="{00000000-0004-0000-0100-000041000000}"/>
+    <hyperlink ref="I94" r:id="rId66" xr:uid="{00000000-0004-0000-0100-000042000000}"/>
+    <hyperlink ref="I97" r:id="rId67" xr:uid="{00000000-0004-0000-0100-000043000000}"/>
+    <hyperlink ref="I98" r:id="rId68" xr:uid="{00000000-0004-0000-0100-000044000000}"/>
+    <hyperlink ref="I99" r:id="rId69" xr:uid="{00000000-0004-0000-0100-000045000000}"/>
+    <hyperlink ref="I100" r:id="rId70" xr:uid="{00000000-0004-0000-0100-000046000000}"/>
+    <hyperlink ref="I101" r:id="rId71" xr:uid="{00000000-0004-0000-0100-000047000000}"/>
+    <hyperlink ref="I102" r:id="rId72" xr:uid="{00000000-0004-0000-0100-000048000000}"/>
+    <hyperlink ref="I105" r:id="rId73" xr:uid="{00000000-0004-0000-0100-000049000000}"/>
+    <hyperlink ref="I106" r:id="rId74" xr:uid="{00000000-0004-0000-0100-00004A000000}"/>
+    <hyperlink ref="I107" r:id="rId75" xr:uid="{00000000-0004-0000-0100-00004B000000}"/>
+    <hyperlink ref="I108" r:id="rId76" xr:uid="{00000000-0004-0000-0100-00004C000000}"/>
+    <hyperlink ref="I111" r:id="rId77" xr:uid="{00000000-0004-0000-0100-00004D000000}"/>
+    <hyperlink ref="I113" r:id="rId78" xr:uid="{00000000-0004-0000-0100-00004E000000}"/>
+    <hyperlink ref="I114" r:id="rId79" xr:uid="{00000000-0004-0000-0100-00004F000000}"/>
+    <hyperlink ref="I115" r:id="rId80" xr:uid="{00000000-0004-0000-0100-000050000000}"/>
+    <hyperlink ref="I116" r:id="rId81" xr:uid="{00000000-0004-0000-0100-000051000000}"/>
+    <hyperlink ref="I117" r:id="rId82" xr:uid="{00000000-0004-0000-0100-000052000000}"/>
+    <hyperlink ref="I118" r:id="rId83" xr:uid="{00000000-0004-0000-0100-000053000000}"/>
+    <hyperlink ref="I119" r:id="rId84" xr:uid="{00000000-0004-0000-0100-000054000000}"/>
+    <hyperlink ref="I120" r:id="rId85" xr:uid="{00000000-0004-0000-0100-000055000000}"/>
+    <hyperlink ref="I125" r:id="rId86" xr:uid="{00000000-0004-0000-0100-000056000000}"/>
+    <hyperlink ref="I128" r:id="rId87" xr:uid="{00000000-0004-0000-0100-000057000000}"/>
+    <hyperlink ref="I132" r:id="rId88" xr:uid="{00000000-0004-0000-0100-000058000000}"/>
+    <hyperlink ref="I133" r:id="rId89" xr:uid="{00000000-0004-0000-0100-000059000000}"/>
+    <hyperlink ref="I137" r:id="rId90" xr:uid="{00000000-0004-0000-0100-00005A000000}"/>
+    <hyperlink ref="I138" r:id="rId91" xr:uid="{00000000-0004-0000-0100-00005B000000}"/>
+    <hyperlink ref="I139" r:id="rId92" xr:uid="{00000000-0004-0000-0100-00005C000000}"/>
+    <hyperlink ref="I140" r:id="rId93" xr:uid="{00000000-0004-0000-0100-00005D000000}"/>
+    <hyperlink ref="I142" r:id="rId94" xr:uid="{00000000-0004-0000-0100-00005E000000}"/>
+    <hyperlink ref="I143" r:id="rId95" xr:uid="{00000000-0004-0000-0100-00005F000000}"/>
+    <hyperlink ref="I144" r:id="rId96" xr:uid="{00000000-0004-0000-0100-000060000000}"/>
+    <hyperlink ref="I145" r:id="rId97" xr:uid="{00000000-0004-0000-0100-000061000000}"/>
+    <hyperlink ref="I146" r:id="rId98" xr:uid="{00000000-0004-0000-0100-000062000000}"/>
+    <hyperlink ref="I147" r:id="rId99" xr:uid="{00000000-0004-0000-0100-000063000000}"/>
+    <hyperlink ref="I148" r:id="rId100" xr:uid="{00000000-0004-0000-0100-000064000000}"/>
+    <hyperlink ref="I154" r:id="rId101" xr:uid="{00000000-0004-0000-0100-000065000000}"/>
+    <hyperlink ref="I155" r:id="rId102" xr:uid="{00000000-0004-0000-0100-000066000000}"/>
+    <hyperlink ref="I156" r:id="rId103" xr:uid="{00000000-0004-0000-0100-000067000000}"/>
+    <hyperlink ref="I157" r:id="rId104" xr:uid="{00000000-0004-0000-0100-000068000000}"/>
+    <hyperlink ref="I160" r:id="rId105" xr:uid="{00000000-0004-0000-0100-00006A000000}"/>
+    <hyperlink ref="I164" r:id="rId106" xr:uid="{00000000-0004-0000-0100-00006B000000}"/>
+    <hyperlink ref="I165" r:id="rId107" xr:uid="{00000000-0004-0000-0100-00006C000000}"/>
+    <hyperlink ref="I166" r:id="rId108" xr:uid="{00000000-0004-0000-0100-00006D000000}"/>
+    <hyperlink ref="I167" r:id="rId109" xr:uid="{00000000-0004-0000-0100-00006E000000}"/>
+    <hyperlink ref="I168" r:id="rId110" xr:uid="{00000000-0004-0000-0100-00006F000000}"/>
+    <hyperlink ref="I169" r:id="rId111" xr:uid="{00000000-0004-0000-0100-000070000000}"/>
+    <hyperlink ref="I170" r:id="rId112" xr:uid="{00000000-0004-0000-0100-000071000000}"/>
+    <hyperlink ref="I171" r:id="rId113" xr:uid="{00000000-0004-0000-0100-000072000000}"/>
+    <hyperlink ref="I172" r:id="rId114" xr:uid="{00000000-0004-0000-0100-000073000000}"/>
+    <hyperlink ref="I174" r:id="rId115" xr:uid="{00000000-0004-0000-0100-000074000000}"/>
+    <hyperlink ref="I175" r:id="rId116" xr:uid="{00000000-0004-0000-0100-000075000000}"/>
+    <hyperlink ref="I176" r:id="rId117" xr:uid="{00000000-0004-0000-0100-000076000000}"/>
+    <hyperlink ref="I177" r:id="rId118" xr:uid="{00000000-0004-0000-0100-000077000000}"/>
+    <hyperlink ref="I180" r:id="rId119" xr:uid="{00000000-0004-0000-0100-000078000000}"/>
+    <hyperlink ref="I181" r:id="rId120" xr:uid="{00000000-0004-0000-0100-000079000000}"/>
+    <hyperlink ref="I20" r:id="rId121" xr:uid="{881F0F65-3DCC-E94A-9FE5-2CC264A8F337}"/>
+    <hyperlink ref="I21" r:id="rId122" xr:uid="{AC40193A-1232-474A-A421-B55FFA7E99B8}"/>
+    <hyperlink ref="I40" r:id="rId123" xr:uid="{D41ADE90-9772-8F41-AC9B-8DE303E9D7A9}"/>
+    <hyperlink ref="I41" r:id="rId124" xr:uid="{85F37ABA-4B3B-764B-A1ED-9DD3AFFF0004}"/>
+    <hyperlink ref="I78" r:id="rId125" xr:uid="{F5E14AAB-D49A-EF45-A165-3757EFF2E9B4}"/>
+    <hyperlink ref="I95" r:id="rId126" xr:uid="{759707EA-D94A-2D42-8FE0-FAE01578CF99}"/>
+    <hyperlink ref="I127" r:id="rId127" xr:uid="{1A936B77-62AA-804C-B853-4343ADD2D925}"/>
+    <hyperlink ref="I158" r:id="rId128" xr:uid="{00000000-0004-0000-0100-000069000000}"/>
+    <hyperlink ref="I149" r:id="rId129" xr:uid="{2929B0EA-E15F-E444-ADC1-C2E3E232D526}"/>
+    <hyperlink ref="I159" r:id="rId130" xr:uid="{7770BE98-2823-3047-9E72-08DB2B79C177}"/>
+    <hyperlink ref="I161" r:id="rId131" xr:uid="{A91F97A2-47FA-FB49-8866-2B9AA1419B2B}"/>
+    <hyperlink ref="I178" r:id="rId132" xr:uid="{11EEE67C-10E9-AB44-91F6-D7C7B31697FA}"/>
+    <hyperlink ref="I182" r:id="rId133" xr:uid="{8E930EBE-7205-BD41-9ED8-FE8F970A98EF}"/>
+    <hyperlink ref="I162" r:id="rId134" xr:uid="{3AF5EB12-868F-C842-91DC-4FC147AA3C86}"/>
+    <hyperlink ref="I65" r:id="rId135" xr:uid="{7BDCEA69-27F3-FF41-BB2B-817D4FD2C9C0}"/>
+    <hyperlink ref="I66" r:id="rId136" xr:uid="{7A940ACA-466B-9E49-8CB5-9BA664F7C3C9}"/>
+    <hyperlink ref="I68" r:id="rId137" xr:uid="{088C717E-7DC5-EF4C-8C34-370DC45C6BEE}"/>
+    <hyperlink ref="I69" r:id="rId138" xr:uid="{A670C44A-19C9-984F-9EAA-8D5EBCE39C79}"/>
+    <hyperlink ref="I109" r:id="rId139" xr:uid="{713BB907-BFF9-AE42-B777-2AF591DA7D9B}"/>
+    <hyperlink ref="I112" r:id="rId140" xr:uid="{EC0C54FA-684B-A440-BF57-B5B57FDD99C9}"/>
+    <hyperlink ref="I122" r:id="rId141" xr:uid="{9081BA3E-9CF8-074E-BF5B-0F2FA156F0B7}"/>
+    <hyperlink ref="I124" r:id="rId142" xr:uid="{8C2FD4CC-DF59-734E-8449-EA5B9F5E7D3D}"/>
+    <hyperlink ref="I92" r:id="rId143" xr:uid="{9845498D-A3A6-524F-9A69-7DC2DB7F7639}"/>
+    <hyperlink ref="I121" r:id="rId144" xr:uid="{CFDD3EC3-C992-0E4C-8C8D-2A9AC6885E0B}"/>
+    <hyperlink ref="I103" r:id="rId145" xr:uid="{C634E917-B836-414F-BB3B-9A111E16653C}"/>
+    <hyperlink ref="I61" r:id="rId146" xr:uid="{8548A361-62F7-A648-BBBE-9F37385F0E45}"/>
+    <hyperlink ref="I76" r:id="rId147" xr:uid="{8EA062F9-78F8-A44B-BEDA-61CF758CB831}"/>
+    <hyperlink ref="I45" r:id="rId148" xr:uid="{7C7CB4D2-6B37-544C-B631-930D91F3AA17}"/>
+    <hyperlink ref="I150" r:id="rId149" xr:uid="{5694CC0C-366D-8848-BBD7-150B284E15DA}"/>
+    <hyperlink ref="I32" r:id="rId150" xr:uid="{7E8D5837-BD50-6844-B288-6217DFD05E29}"/>
+    <hyperlink ref="I47" r:id="rId151" xr:uid="{E89C4D5B-786F-9A4C-9914-80D4DF36F89C}"/>
+    <hyperlink ref="I46" r:id="rId152" xr:uid="{EDBD0C6E-D96D-734B-85A9-4D26B3421D83}"/>
+    <hyperlink ref="I179" r:id="rId153" xr:uid="{12FA5E40-D722-4344-995B-86BBF8B4F3F3}"/>
+    <hyperlink ref="I3" r:id="rId154" xr:uid="{90F3D795-8796-3941-81B5-D72CA324E042}"/>
+    <hyperlink ref="I4" r:id="rId155" xr:uid="{16E7DE01-C66E-B349-8DAD-CA4C99C20CD5}"/>
+    <hyperlink ref="I5" r:id="rId156" xr:uid="{7E09A861-DD77-2E4B-B800-EAC5DEA70EDC}"/>
+    <hyperlink ref="I17" r:id="rId157" xr:uid="{D6A698C2-16EA-6D43-BD05-DCD8B998FD48}"/>
+    <hyperlink ref="I42" r:id="rId158" xr:uid="{4D236EF9-AFFB-FE4D-BCD1-638D19B0E2AD}"/>
+    <hyperlink ref="I67" r:id="rId159" xr:uid="{219D9E22-5730-534D-8B55-6BD3916AD9D3}"/>
+    <hyperlink ref="I71" r:id="rId160" xr:uid="{F2124805-E683-1A42-A341-E4B4C798FCF6}"/>
+    <hyperlink ref="I104" r:id="rId161" xr:uid="{03D19417-5ACF-4747-87E3-FF4A7F6B8C5E}"/>
+    <hyperlink ref="I110" r:id="rId162" xr:uid="{E08A2438-5DB8-9A45-84DD-CD243288C3B9}"/>
+    <hyperlink ref="I123" r:id="rId163" xr:uid="{84BE2579-BA68-7D4D-B2CB-86D3681369AA}"/>
+    <hyperlink ref="I126" r:id="rId164" xr:uid="{91EB2E87-6831-0145-A4FB-E8981B8045C7}"/>
+    <hyperlink ref="I130" r:id="rId165" xr:uid="{54C086FF-A8B9-6C43-B277-A9032F8666B1}"/>
+    <hyperlink ref="I131" r:id="rId166" xr:uid="{2EF760AC-07D9-8548-93B1-88352B9C3C7F}"/>
+    <hyperlink ref="I96" r:id="rId167" xr:uid="{A5C672A7-87AF-E940-AAE7-D59695E4A0C6}"/>
+    <hyperlink ref="I134" r:id="rId168" xr:uid="{235F1B30-BA9C-2944-96E8-044D9C42D2E4}"/>
+    <hyperlink ref="I135" r:id="rId169" xr:uid="{86BA7BFD-9A67-EC49-A9D6-2A3459D321FF}"/>
+    <hyperlink ref="I136" r:id="rId170" xr:uid="{877A9B01-36F7-6D47-9B86-75B4F4BC541E}"/>
+    <hyperlink ref="I141" r:id="rId171" xr:uid="{5546ECD3-6F35-E74E-9357-32E1AF022690}"/>
+    <hyperlink ref="I151" r:id="rId172" xr:uid="{88D1FADA-4A32-0D4F-AF24-3FE72EBBEB68}"/>
+    <hyperlink ref="I152" r:id="rId173" xr:uid="{AF329473-0DFD-8C4C-BE43-8A06EA57AD9B}"/>
+    <hyperlink ref="I153" r:id="rId174" xr:uid="{6A2FDA52-E721-2D45-8440-DE26731358E6}"/>
+    <hyperlink ref="I48" r:id="rId175" xr:uid="{AE7D1622-F9B9-DF48-8E55-336B7BB6750F}"/>
+    <hyperlink ref="I49" r:id="rId176" xr:uid="{59C3C7D9-F3C2-4241-BF17-62CD57E349CD}"/>
+    <hyperlink ref="I84" r:id="rId177" xr:uid="{808B590E-E469-FC42-8AED-648218F9285B}"/>
+    <hyperlink ref="I129" r:id="rId178" xr:uid="{0BFD14EA-48B9-E242-A6F8-2B6996870F1C}"/>
+    <hyperlink ref="I77" r:id="rId179" xr:uid="{3D1F78F1-16B2-474B-91A0-3DFB6DB099C3}"/>
+    <hyperlink ref="I173" r:id="rId180" xr:uid="{D7BE4482-76F9-0648-8D97-B29A2C647580}"/>
+    <hyperlink ref="I163" r:id="rId181" xr:uid="{8BB3CB7A-FD3E-4242-B0D4-4CCA5F192666}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/docs/香港素食餐廳大全.xlsx
+++ b/docs/香港素食餐廳大全.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tim/_Python_OpenAI/My-projects/7-hk-veg-map/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0828B3D-CAE4-D645-94ED-7B4AB1CE0E29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA144B73-43AE-FB4D-8ABD-2A36EDC63449}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="9520" yWindow="500" windowWidth="17620" windowHeight="16260" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2276" uniqueCount="1024">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2285" uniqueCount="1028">
   <si>
     <t>** 更新自: 13 Aug 2023 (deprecated, go to sheet 2 "hk_veg_restaurants_data instead")</t>
   </si>
@@ -3093,6 +3093,18 @@
   </si>
   <si>
     <t>28816621</t>
+  </si>
+  <si>
+    <t>九龍城福佬村道39號地舖</t>
+  </si>
+  <si>
+    <t>22.328732440533496, 114.18747458922431</t>
+  </si>
+  <si>
+    <t>https://www.openrice.com/zh/hongkong/r-%E8%93%AE%E8%8A%B1%E5%81%A5%E5%BA%B7%E7%B4%A0%E9%A3%9F-%E4%B9%9D%E9%BE%8D%E5%9F%8E-%E7%B2%B5%E8%8F%9C-%E5%BB%A3%E6%9D%B1-%E7%B4%A0%E9%A3%9F-r31908</t>
+  </si>
+  <si>
+    <t>23828290</t>
   </si>
 </sst>
 </file>
@@ -11361,10 +11373,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:K182"/>
+  <dimension ref="A1:K183"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F145" zoomScale="132" workbookViewId="0">
-      <selection activeCell="J163" sqref="J163"/>
+    <sheetView tabSelected="1" topLeftCell="F98" zoomScale="132" workbookViewId="0">
+      <selection activeCell="J112" sqref="J112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -14821,10 +14833,10 @@
         <v>132</v>
       </c>
       <c r="B112" s="9" t="s">
-        <v>786</v>
+        <v>244</v>
       </c>
       <c r="C112" s="9" t="s">
-        <v>785</v>
+        <v>167</v>
       </c>
       <c r="D112" s="9" t="s">
         <v>410</v>
@@ -14833,17 +14845,17 @@
         <v>25</v>
       </c>
       <c r="F112" s="9" t="s">
-        <v>813</v>
+        <v>1024</v>
       </c>
       <c r="G112" s="9" t="s">
-        <v>814</v>
+        <v>1025</v>
       </c>
       <c r="H112" s="9"/>
       <c r="I112" s="28" t="s">
-        <v>815</v>
+        <v>1026</v>
       </c>
       <c r="J112" s="26" t="s">
-        <v>816</v>
+        <v>1027</v>
       </c>
       <c r="K112" s="9"/>
     </row>
@@ -14852,29 +14864,29 @@
         <v>132</v>
       </c>
       <c r="B113" s="9" t="s">
-        <v>248</v>
+        <v>786</v>
       </c>
       <c r="C113" s="9" t="s">
-        <v>381</v>
+        <v>785</v>
       </c>
       <c r="D113" s="9" t="s">
-        <v>382</v>
+        <v>410</v>
       </c>
       <c r="E113" s="9" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="F113" s="9" t="s">
-        <v>598</v>
+        <v>813</v>
       </c>
       <c r="G113" s="9" t="s">
-        <v>599</v>
+        <v>814</v>
       </c>
       <c r="H113" s="9"/>
-      <c r="I113" s="10" t="s">
-        <v>600</v>
+      <c r="I113" s="28" t="s">
+        <v>815</v>
       </c>
       <c r="J113" s="26" t="s">
-        <v>601</v>
+        <v>816</v>
       </c>
       <c r="K113" s="9"/>
     </row>
@@ -14886,26 +14898,26 @@
         <v>248</v>
       </c>
       <c r="C114" s="9" t="s">
-        <v>249</v>
+        <v>381</v>
       </c>
       <c r="D114" s="9" t="s">
-        <v>117</v>
+        <v>382</v>
       </c>
       <c r="E114" s="9" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="F114" s="9" t="s">
-        <v>250</v>
+        <v>598</v>
       </c>
       <c r="G114" s="9" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="H114" s="9"/>
       <c r="I114" s="10" t="s">
-        <v>251</v>
+        <v>600</v>
       </c>
       <c r="J114" s="26" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="K114" s="9"/>
     </row>
@@ -14917,26 +14929,26 @@
         <v>248</v>
       </c>
       <c r="C115" s="9" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="D115" s="9" t="s">
-        <v>410</v>
+        <v>117</v>
       </c>
       <c r="E115" s="9" t="s">
         <v>25</v>
       </c>
       <c r="F115" s="9" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="G115" s="9" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="H115" s="9"/>
       <c r="I115" s="10" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="J115" s="26" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="K115" s="9"/>
     </row>
@@ -14948,26 +14960,26 @@
         <v>248</v>
       </c>
       <c r="C116" s="9" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="D116" s="9" t="s">
-        <v>117</v>
+        <v>410</v>
       </c>
       <c r="E116" s="9" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="F116" s="9" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="G116" s="9" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="H116" s="9"/>
       <c r="I116" s="10" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="J116" s="26" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="K116" s="9"/>
     </row>
@@ -14976,29 +14988,29 @@
         <v>132</v>
       </c>
       <c r="B117" s="9" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="C117" s="9" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="D117" s="9" t="s">
         <v>117</v>
       </c>
       <c r="E117" s="9" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="F117" s="9" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="G117" s="9" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="H117" s="9"/>
       <c r="I117" s="10" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="J117" s="26" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="K117" s="9"/>
     </row>
@@ -15007,29 +15019,29 @@
         <v>132</v>
       </c>
       <c r="B118" s="9" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="C118" s="9" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="D118" s="9" t="s">
-        <v>610</v>
+        <v>117</v>
       </c>
       <c r="E118" s="9" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="F118" s="9" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="G118" s="9" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="H118" s="9"/>
-      <c r="I118" s="11" t="s">
-        <v>266</v>
+      <c r="I118" s="10" t="s">
+        <v>261</v>
       </c>
       <c r="J118" s="26" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="K118" s="9"/>
     </row>
@@ -15041,26 +15053,26 @@
         <v>262</v>
       </c>
       <c r="C119" s="9" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="D119" s="9" t="s">
-        <v>410</v>
+        <v>610</v>
       </c>
       <c r="E119" s="9" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="F119" s="9" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="G119" s="9" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="H119" s="9"/>
       <c r="I119" s="11" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="J119" s="26" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="K119" s="9"/>
     </row>
@@ -15072,26 +15084,26 @@
         <v>262</v>
       </c>
       <c r="C120" s="9" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="D120" s="9" t="s">
-        <v>418</v>
+        <v>410</v>
       </c>
       <c r="E120" s="9" t="s">
         <v>25</v>
       </c>
       <c r="F120" s="9" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="G120" s="9" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="H120" s="9"/>
       <c r="I120" s="11" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="J120" s="26" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="K120" s="9"/>
     </row>
@@ -15103,26 +15115,26 @@
         <v>262</v>
       </c>
       <c r="C121" s="9" t="s">
-        <v>830</v>
+        <v>270</v>
       </c>
       <c r="D121" s="9" t="s">
-        <v>410</v>
+        <v>418</v>
       </c>
       <c r="E121" s="9" t="s">
         <v>25</v>
       </c>
       <c r="F121" s="9" t="s">
-        <v>831</v>
+        <v>271</v>
       </c>
       <c r="G121" s="9" t="s">
-        <v>832</v>
+        <v>615</v>
       </c>
       <c r="H121" s="9"/>
-      <c r="I121" s="28" t="s">
-        <v>833</v>
+      <c r="I121" s="11" t="s">
+        <v>272</v>
       </c>
       <c r="J121" s="26" t="s">
-        <v>834</v>
+        <v>616</v>
       </c>
       <c r="K121" s="9"/>
     </row>
@@ -15134,26 +15146,26 @@
         <v>262</v>
       </c>
       <c r="C122" s="9" t="s">
-        <v>783</v>
+        <v>830</v>
       </c>
       <c r="D122" s="9" t="s">
-        <v>117</v>
+        <v>410</v>
       </c>
       <c r="E122" s="9" t="s">
         <v>25</v>
       </c>
       <c r="F122" s="9" t="s">
-        <v>817</v>
+        <v>831</v>
       </c>
       <c r="G122" s="9" t="s">
-        <v>818</v>
+        <v>832</v>
       </c>
       <c r="H122" s="9"/>
       <c r="I122" s="28" t="s">
-        <v>819</v>
+        <v>833</v>
       </c>
       <c r="J122" s="26" t="s">
-        <v>820</v>
+        <v>834</v>
       </c>
       <c r="K122" s="9"/>
     </row>
@@ -15165,26 +15177,26 @@
         <v>262</v>
       </c>
       <c r="C123" s="9" t="s">
-        <v>894</v>
+        <v>783</v>
       </c>
       <c r="D123" s="9" t="s">
-        <v>418</v>
+        <v>117</v>
       </c>
       <c r="E123" s="9" t="s">
         <v>25</v>
       </c>
       <c r="F123" s="9" t="s">
-        <v>944</v>
+        <v>817</v>
       </c>
       <c r="G123" s="9" t="s">
-        <v>945</v>
+        <v>818</v>
       </c>
       <c r="H123" s="9"/>
       <c r="I123" s="28" t="s">
-        <v>946</v>
+        <v>819</v>
       </c>
       <c r="J123" s="26" t="s">
-        <v>947</v>
+        <v>820</v>
       </c>
       <c r="K123" s="9"/>
     </row>
@@ -15196,26 +15208,26 @@
         <v>262</v>
       </c>
       <c r="C124" s="9" t="s">
-        <v>784</v>
+        <v>894</v>
       </c>
       <c r="D124" s="9" t="s">
-        <v>117</v>
+        <v>418</v>
       </c>
       <c r="E124" s="9" t="s">
         <v>25</v>
       </c>
       <c r="F124" s="9" t="s">
-        <v>821</v>
+        <v>944</v>
       </c>
       <c r="G124" s="9" t="s">
-        <v>822</v>
+        <v>945</v>
       </c>
       <c r="H124" s="9"/>
       <c r="I124" s="28" t="s">
-        <v>823</v>
+        <v>946</v>
       </c>
       <c r="J124" s="26" t="s">
-        <v>824</v>
+        <v>947</v>
       </c>
       <c r="K124" s="9"/>
     </row>
@@ -15227,26 +15239,26 @@
         <v>262</v>
       </c>
       <c r="C125" s="9" t="s">
-        <v>273</v>
+        <v>784</v>
       </c>
       <c r="D125" s="9" t="s">
-        <v>610</v>
+        <v>117</v>
       </c>
       <c r="E125" s="9" t="s">
         <v>25</v>
       </c>
       <c r="F125" s="9" t="s">
-        <v>274</v>
+        <v>821</v>
       </c>
       <c r="G125" s="9" t="s">
-        <v>617</v>
+        <v>822</v>
       </c>
       <c r="H125" s="9"/>
-      <c r="I125" s="11" t="s">
-        <v>275</v>
+      <c r="I125" s="28" t="s">
+        <v>823</v>
       </c>
       <c r="J125" s="26" t="s">
-        <v>618</v>
+        <v>824</v>
       </c>
       <c r="K125" s="9"/>
     </row>
@@ -15258,26 +15270,26 @@
         <v>262</v>
       </c>
       <c r="C126" s="9" t="s">
-        <v>895</v>
+        <v>273</v>
       </c>
       <c r="D126" s="9" t="s">
-        <v>55</v>
+        <v>610</v>
       </c>
       <c r="E126" s="9" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="F126" s="9" t="s">
-        <v>948</v>
+        <v>274</v>
       </c>
       <c r="G126" s="9" t="s">
-        <v>949</v>
+        <v>617</v>
       </c>
       <c r="H126" s="9"/>
-      <c r="I126" s="28" t="s">
-        <v>950</v>
+      <c r="I126" s="11" t="s">
+        <v>275</v>
       </c>
       <c r="J126" s="26" t="s">
-        <v>951</v>
+        <v>618</v>
       </c>
       <c r="K126" s="9"/>
     </row>
@@ -15289,26 +15301,26 @@
         <v>262</v>
       </c>
       <c r="C127" s="9" t="s">
-        <v>721</v>
+        <v>895</v>
       </c>
       <c r="D127" s="9" t="s">
-        <v>398</v>
+        <v>55</v>
       </c>
       <c r="E127" s="9" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="F127" s="9" t="s">
-        <v>753</v>
+        <v>948</v>
       </c>
       <c r="G127" s="9" t="s">
-        <v>754</v>
+        <v>949</v>
       </c>
       <c r="H127" s="9"/>
       <c r="I127" s="28" t="s">
-        <v>755</v>
+        <v>950</v>
       </c>
       <c r="J127" s="26" t="s">
-        <v>756</v>
+        <v>951</v>
       </c>
       <c r="K127" s="9"/>
     </row>
@@ -15320,26 +15332,26 @@
         <v>262</v>
       </c>
       <c r="C128" s="9" t="s">
-        <v>276</v>
+        <v>721</v>
       </c>
       <c r="D128" s="9" t="s">
         <v>398</v>
       </c>
       <c r="E128" s="9" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="F128" s="9" t="s">
-        <v>277</v>
+        <v>753</v>
       </c>
       <c r="G128" s="9" t="s">
-        <v>619</v>
+        <v>754</v>
       </c>
       <c r="H128" s="9"/>
-      <c r="I128" s="11" t="s">
-        <v>620</v>
+      <c r="I128" s="28" t="s">
+        <v>755</v>
       </c>
       <c r="J128" s="26" t="s">
-        <v>1012</v>
+        <v>756</v>
       </c>
       <c r="K128" s="9"/>
     </row>
@@ -15351,26 +15363,26 @@
         <v>262</v>
       </c>
       <c r="C129" s="9" t="s">
-        <v>1007</v>
+        <v>276</v>
       </c>
       <c r="D129" s="9" t="s">
-        <v>55</v>
+        <v>398</v>
       </c>
       <c r="E129" s="9" t="s">
-        <v>39</v>
+        <v>14</v>
       </c>
       <c r="F129" s="9" t="s">
-        <v>1008</v>
+        <v>277</v>
       </c>
       <c r="G129" s="9" t="s">
-        <v>1009</v>
+        <v>619</v>
       </c>
       <c r="H129" s="9"/>
-      <c r="I129" s="28" t="s">
-        <v>1010</v>
+      <c r="I129" s="11" t="s">
+        <v>620</v>
       </c>
       <c r="J129" s="26" t="s">
-        <v>1011</v>
+        <v>1012</v>
       </c>
       <c r="K129" s="9"/>
     </row>
@@ -15379,29 +15391,29 @@
         <v>132</v>
       </c>
       <c r="B130" s="9" t="s">
-        <v>899</v>
+        <v>262</v>
       </c>
       <c r="C130" s="9" t="s">
-        <v>898</v>
+        <v>1007</v>
       </c>
       <c r="D130" s="9" t="s">
-        <v>398</v>
+        <v>55</v>
       </c>
       <c r="E130" s="9" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="F130" s="9" t="s">
-        <v>952</v>
+        <v>1008</v>
       </c>
       <c r="G130" s="9" t="s">
-        <v>954</v>
+        <v>1009</v>
       </c>
       <c r="H130" s="9"/>
       <c r="I130" s="28" t="s">
-        <v>953</v>
+        <v>1010</v>
       </c>
       <c r="J130" s="26" t="s">
-        <v>955</v>
+        <v>1011</v>
       </c>
       <c r="K130" s="9"/>
     </row>
@@ -15410,7 +15422,7 @@
         <v>132</v>
       </c>
       <c r="B131" s="9" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
       <c r="C131" s="9" t="s">
         <v>898</v>
@@ -15422,50 +15434,50 @@
         <v>14</v>
       </c>
       <c r="F131" s="9" t="s">
-        <v>956</v>
+        <v>952</v>
       </c>
       <c r="G131" s="9" t="s">
-        <v>957</v>
+        <v>954</v>
       </c>
       <c r="H131" s="9"/>
       <c r="I131" s="28" t="s">
+        <v>953</v>
+      </c>
+      <c r="J131" s="26" t="s">
+        <v>955</v>
+      </c>
+      <c r="K131" s="9"/>
+    </row>
+    <row r="132" spans="1:11" ht="13">
+      <c r="A132" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="B132" s="9" t="s">
+        <v>901</v>
+      </c>
+      <c r="C132" s="9" t="s">
+        <v>898</v>
+      </c>
+      <c r="D132" s="9" t="s">
+        <v>398</v>
+      </c>
+      <c r="E132" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F132" s="9" t="s">
+        <v>956</v>
+      </c>
+      <c r="G132" s="9" t="s">
+        <v>957</v>
+      </c>
+      <c r="H132" s="9"/>
+      <c r="I132" s="28" t="s">
         <v>958</v>
       </c>
-      <c r="J131" s="26" t="s">
+      <c r="J132" s="26" t="s">
         <v>959</v>
       </c>
-      <c r="K131" s="9"/>
-    </row>
-    <row r="132" spans="1:11" ht="13">
-      <c r="A132" s="14" t="s">
-        <v>278</v>
-      </c>
-      <c r="B132" s="14" t="s">
-        <v>621</v>
-      </c>
-      <c r="C132" s="14" t="s">
-        <v>622</v>
-      </c>
-      <c r="D132" s="14" t="s">
-        <v>157</v>
-      </c>
-      <c r="E132" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="F132" s="14" t="s">
-        <v>623</v>
-      </c>
-      <c r="G132" s="14" t="s">
-        <v>624</v>
-      </c>
-      <c r="H132" s="14"/>
-      <c r="I132" s="16" t="s">
-        <v>625</v>
-      </c>
-      <c r="J132" s="17" t="s">
-        <v>626</v>
-      </c>
-      <c r="K132" s="14"/>
+      <c r="K132" s="9"/>
     </row>
     <row r="133" spans="1:11" ht="13">
       <c r="A133" s="14" t="s">
@@ -15475,26 +15487,26 @@
         <v>621</v>
       </c>
       <c r="C133" s="14" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="D133" s="14" t="s">
-        <v>410</v>
+        <v>157</v>
       </c>
       <c r="E133" s="14" t="s">
         <v>25</v>
       </c>
       <c r="F133" s="14" t="s">
-        <v>628</v>
+        <v>623</v>
       </c>
       <c r="G133" s="14" t="s">
-        <v>629</v>
+        <v>624</v>
       </c>
       <c r="H133" s="14"/>
       <c r="I133" s="16" t="s">
-        <v>630</v>
+        <v>625</v>
       </c>
       <c r="J133" s="17" t="s">
-        <v>631</v>
+        <v>626</v>
       </c>
       <c r="K133" s="14"/>
     </row>
@@ -15506,7 +15518,7 @@
         <v>621</v>
       </c>
       <c r="C134" s="14" t="s">
-        <v>893</v>
+        <v>627</v>
       </c>
       <c r="D134" s="14" t="s">
         <v>410</v>
@@ -15515,16 +15527,18 @@
         <v>25</v>
       </c>
       <c r="F134" s="14" t="s">
-        <v>963</v>
+        <v>628</v>
       </c>
       <c r="G134" s="14" t="s">
-        <v>965</v>
+        <v>629</v>
       </c>
       <c r="H134" s="14"/>
-      <c r="I134" s="29" t="s">
-        <v>966</v>
-      </c>
-      <c r="J134" s="17"/>
+      <c r="I134" s="16" t="s">
+        <v>630</v>
+      </c>
+      <c r="J134" s="17" t="s">
+        <v>631</v>
+      </c>
       <c r="K134" s="14"/>
     </row>
     <row r="135" spans="1:11" ht="13">
@@ -15544,14 +15558,14 @@
         <v>25</v>
       </c>
       <c r="F135" s="14" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="G135" s="14" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
       <c r="H135" s="14"/>
       <c r="I135" s="29" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
       <c r="J135" s="17"/>
       <c r="K135" s="14"/>
@@ -15561,30 +15575,28 @@
         <v>278</v>
       </c>
       <c r="B136" s="14" t="s">
-        <v>279</v>
+        <v>621</v>
       </c>
       <c r="C136" s="14" t="s">
-        <v>896</v>
+        <v>893</v>
       </c>
       <c r="D136" s="14" t="s">
-        <v>47</v>
+        <v>410</v>
       </c>
       <c r="E136" s="14" t="s">
         <v>25</v>
       </c>
       <c r="F136" s="14" t="s">
-        <v>969</v>
+        <v>964</v>
       </c>
       <c r="G136" s="14" t="s">
-        <v>970</v>
+        <v>967</v>
       </c>
       <c r="H136" s="14"/>
       <c r="I136" s="29" t="s">
-        <v>971</v>
-      </c>
-      <c r="J136" s="17" t="s">
-        <v>972</v>
-      </c>
+        <v>968</v>
+      </c>
+      <c r="J136" s="17"/>
       <c r="K136" s="14"/>
     </row>
     <row r="137" spans="1:11" ht="13">
@@ -15595,26 +15607,26 @@
         <v>279</v>
       </c>
       <c r="C137" s="14" t="s">
-        <v>632</v>
+        <v>896</v>
       </c>
       <c r="D137" s="14" t="s">
         <v>47</v>
       </c>
       <c r="E137" s="14" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="F137" s="14" t="s">
-        <v>633</v>
+        <v>969</v>
       </c>
       <c r="G137" s="14" t="s">
-        <v>634</v>
+        <v>970</v>
       </c>
       <c r="H137" s="14"/>
-      <c r="I137" s="15" t="s">
-        <v>635</v>
+      <c r="I137" s="29" t="s">
+        <v>971</v>
       </c>
       <c r="J137" s="17" t="s">
-        <v>636</v>
+        <v>972</v>
       </c>
       <c r="K137" s="14"/>
     </row>
@@ -15626,26 +15638,26 @@
         <v>279</v>
       </c>
       <c r="C138" s="14" t="s">
-        <v>637</v>
+        <v>632</v>
       </c>
       <c r="D138" s="14" t="s">
-        <v>157</v>
+        <v>47</v>
       </c>
       <c r="E138" s="14" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="F138" s="14" t="s">
-        <v>638</v>
+        <v>633</v>
       </c>
       <c r="G138" s="14" t="s">
-        <v>639</v>
+        <v>634</v>
       </c>
       <c r="H138" s="14"/>
       <c r="I138" s="15" t="s">
-        <v>640</v>
+        <v>635</v>
       </c>
       <c r="J138" s="17" t="s">
-        <v>641</v>
+        <v>636</v>
       </c>
       <c r="K138" s="14"/>
     </row>
@@ -15657,26 +15669,26 @@
         <v>279</v>
       </c>
       <c r="C139" s="14" t="s">
-        <v>642</v>
+        <v>637</v>
       </c>
       <c r="D139" s="14" t="s">
-        <v>410</v>
+        <v>157</v>
       </c>
       <c r="E139" s="14" t="s">
         <v>25</v>
       </c>
       <c r="F139" s="14" t="s">
-        <v>643</v>
+        <v>638</v>
       </c>
       <c r="G139" s="14" t="s">
-        <v>644</v>
+        <v>639</v>
       </c>
       <c r="H139" s="14"/>
       <c r="I139" s="15" t="s">
-        <v>645</v>
+        <v>640</v>
       </c>
       <c r="J139" s="17" t="s">
-        <v>646</v>
+        <v>641</v>
       </c>
       <c r="K139" s="14"/>
     </row>
@@ -15688,25 +15700,27 @@
         <v>279</v>
       </c>
       <c r="C140" s="14" t="s">
-        <v>381</v>
+        <v>642</v>
       </c>
       <c r="D140" s="14" t="s">
-        <v>382</v>
+        <v>410</v>
       </c>
       <c r="E140" s="14" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="F140" s="14" t="s">
-        <v>647</v>
+        <v>643</v>
       </c>
       <c r="G140" s="14" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
       <c r="H140" s="14"/>
       <c r="I140" s="15" t="s">
-        <v>649</v>
-      </c>
-      <c r="J140" s="17"/>
+        <v>645</v>
+      </c>
+      <c r="J140" s="17" t="s">
+        <v>646</v>
+      </c>
       <c r="K140" s="14"/>
     </row>
     <row r="141" spans="1:11" ht="13">
@@ -15717,27 +15731,25 @@
         <v>279</v>
       </c>
       <c r="C141" s="14" t="s">
-        <v>87</v>
+        <v>381</v>
       </c>
       <c r="D141" s="14" t="s">
-        <v>410</v>
+        <v>382</v>
       </c>
       <c r="E141" s="14" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="F141" s="14" t="s">
-        <v>973</v>
+        <v>647</v>
       </c>
       <c r="G141" s="14" t="s">
-        <v>974</v>
+        <v>648</v>
       </c>
       <c r="H141" s="14"/>
-      <c r="I141" s="29" t="s">
-        <v>975</v>
-      </c>
-      <c r="J141" s="17" t="s">
-        <v>976</v>
-      </c>
+      <c r="I141" s="15" t="s">
+        <v>649</v>
+      </c>
+      <c r="J141" s="17"/>
       <c r="K141" s="14"/>
     </row>
     <row r="142" spans="1:11" ht="13">
@@ -15748,26 +15760,26 @@
         <v>279</v>
       </c>
       <c r="C142" s="14" t="s">
-        <v>280</v>
+        <v>87</v>
       </c>
       <c r="D142" s="14" t="s">
-        <v>157</v>
+        <v>410</v>
       </c>
       <c r="E142" s="14" t="s">
         <v>25</v>
       </c>
       <c r="F142" s="14" t="s">
-        <v>281</v>
+        <v>973</v>
       </c>
       <c r="G142" s="14" t="s">
-        <v>650</v>
+        <v>974</v>
       </c>
       <c r="H142" s="14"/>
-      <c r="I142" s="15" t="s">
-        <v>282</v>
+      <c r="I142" s="29" t="s">
+        <v>975</v>
       </c>
       <c r="J142" s="17" t="s">
-        <v>651</v>
+        <v>976</v>
       </c>
       <c r="K142" s="14"/>
     </row>
@@ -15779,26 +15791,26 @@
         <v>279</v>
       </c>
       <c r="C143" s="14" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="D143" s="14" t="s">
-        <v>410</v>
+        <v>157</v>
       </c>
       <c r="E143" s="14" t="s">
         <v>25</v>
       </c>
       <c r="F143" s="14" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="G143" s="14" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="H143" s="14"/>
       <c r="I143" s="15" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="J143" s="17" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="K143" s="14"/>
     </row>
@@ -15810,26 +15822,26 @@
         <v>279</v>
       </c>
       <c r="C144" s="14" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="D144" s="14" t="s">
-        <v>418</v>
+        <v>410</v>
       </c>
       <c r="E144" s="14" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="F144" s="14" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="G144" s="14" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="H144" s="14"/>
-      <c r="I144" s="16" t="s">
-        <v>288</v>
+      <c r="I144" s="15" t="s">
+        <v>285</v>
       </c>
       <c r="J144" s="17" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="K144" s="14"/>
     </row>
@@ -15841,26 +15853,26 @@
         <v>279</v>
       </c>
       <c r="C145" s="14" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="D145" s="14" t="s">
-        <v>117</v>
+        <v>418</v>
       </c>
       <c r="E145" s="14" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="F145" s="14" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="G145" s="14" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="H145" s="14"/>
       <c r="I145" s="16" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="J145" s="17" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="K145" s="14"/>
     </row>
@@ -15872,26 +15884,26 @@
         <v>279</v>
       </c>
       <c r="C146" s="14" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D146" s="14" t="s">
-        <v>47</v>
+        <v>117</v>
       </c>
       <c r="E146" s="14" t="s">
         <v>25</v>
       </c>
       <c r="F146" s="14" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="G146" s="14" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="H146" s="14"/>
       <c r="I146" s="16" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="J146" s="17" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="K146" s="14"/>
     </row>
@@ -15903,26 +15915,26 @@
         <v>279</v>
       </c>
       <c r="C147" s="14" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="D147" s="14" t="s">
-        <v>410</v>
+        <v>47</v>
       </c>
       <c r="E147" s="14" t="s">
         <v>25</v>
       </c>
       <c r="F147" s="14" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="G147" s="14" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="H147" s="14"/>
       <c r="I147" s="16" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="J147" s="17" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="K147" s="14"/>
     </row>
@@ -15934,7 +15946,7 @@
         <v>279</v>
       </c>
       <c r="C148" s="14" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="D148" s="14" t="s">
         <v>410</v>
@@ -15943,17 +15955,17 @@
         <v>25</v>
       </c>
       <c r="F148" s="14" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="G148" s="14" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="H148" s="14"/>
       <c r="I148" s="16" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="J148" s="17" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="K148" s="14"/>
     </row>
@@ -15965,26 +15977,26 @@
         <v>279</v>
       </c>
       <c r="C149" s="14" t="s">
-        <v>191</v>
+        <v>298</v>
       </c>
       <c r="D149" s="14" t="s">
-        <v>117</v>
+        <v>410</v>
       </c>
       <c r="E149" s="14" t="s">
         <v>25</v>
       </c>
       <c r="F149" s="14" t="s">
-        <v>757</v>
+        <v>299</v>
       </c>
       <c r="G149" s="14" t="s">
-        <v>758</v>
+        <v>662</v>
       </c>
       <c r="H149" s="14"/>
-      <c r="I149" s="29" t="s">
-        <v>759</v>
+      <c r="I149" s="16" t="s">
+        <v>300</v>
       </c>
       <c r="J149" s="17" t="s">
-        <v>555</v>
+        <v>663</v>
       </c>
       <c r="K149" s="14"/>
     </row>
@@ -15996,26 +16008,26 @@
         <v>279</v>
       </c>
       <c r="C150" s="14" t="s">
-        <v>864</v>
+        <v>191</v>
       </c>
       <c r="D150" s="14" t="s">
-        <v>55</v>
+        <v>117</v>
       </c>
       <c r="E150" s="14" t="s">
         <v>25</v>
       </c>
       <c r="F150" s="14" t="s">
-        <v>865</v>
+        <v>757</v>
       </c>
       <c r="G150" s="14" t="s">
-        <v>866</v>
+        <v>758</v>
       </c>
       <c r="H150" s="14"/>
       <c r="I150" s="29" t="s">
-        <v>867</v>
+        <v>759</v>
       </c>
       <c r="J150" s="17" t="s">
-        <v>868</v>
+        <v>555</v>
       </c>
       <c r="K150" s="14"/>
     </row>
@@ -16027,26 +16039,26 @@
         <v>279</v>
       </c>
       <c r="C151" s="14" t="s">
-        <v>898</v>
+        <v>864</v>
       </c>
       <c r="D151" s="14" t="s">
-        <v>398</v>
+        <v>55</v>
       </c>
       <c r="E151" s="14" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="F151" s="14" t="s">
-        <v>977</v>
+        <v>865</v>
       </c>
       <c r="G151" s="14" t="s">
-        <v>979</v>
+        <v>866</v>
       </c>
       <c r="H151" s="14"/>
       <c r="I151" s="29" t="s">
-        <v>980</v>
+        <v>867</v>
       </c>
       <c r="J151" s="17" t="s">
-        <v>981</v>
+        <v>868</v>
       </c>
       <c r="K151" s="14"/>
     </row>
@@ -16067,17 +16079,17 @@
         <v>14</v>
       </c>
       <c r="F152" s="14" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="G152" s="14" t="s">
-        <v>982</v>
+        <v>979</v>
       </c>
       <c r="H152" s="14"/>
       <c r="I152" s="29" t="s">
-        <v>983</v>
+        <v>980</v>
       </c>
       <c r="J152" s="17" t="s">
-        <v>984</v>
+        <v>981</v>
       </c>
       <c r="K152" s="14"/>
     </row>
@@ -16089,26 +16101,26 @@
         <v>279</v>
       </c>
       <c r="C153" s="14" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="D153" s="14" t="s">
-        <v>410</v>
+        <v>398</v>
       </c>
       <c r="E153" s="14" t="s">
         <v>14</v>
       </c>
       <c r="F153" s="14" t="s">
-        <v>985</v>
+        <v>978</v>
       </c>
       <c r="G153" s="14" t="s">
-        <v>986</v>
+        <v>982</v>
       </c>
       <c r="H153" s="14"/>
       <c r="I153" s="29" t="s">
-        <v>987</v>
+        <v>983</v>
       </c>
       <c r="J153" s="17" t="s">
-        <v>988</v>
+        <v>984</v>
       </c>
       <c r="K153" s="14"/>
     </row>
@@ -16117,29 +16129,29 @@
         <v>278</v>
       </c>
       <c r="B154" s="14" t="s">
-        <v>301</v>
+        <v>279</v>
       </c>
       <c r="C154" s="14" t="s">
-        <v>302</v>
+        <v>897</v>
       </c>
       <c r="D154" s="14" t="s">
-        <v>117</v>
+        <v>410</v>
       </c>
       <c r="E154" s="14" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="F154" s="14" t="s">
-        <v>303</v>
+        <v>985</v>
       </c>
       <c r="G154" s="14" t="s">
-        <v>664</v>
+        <v>986</v>
       </c>
       <c r="H154" s="14"/>
-      <c r="I154" s="15" t="s">
-        <v>304</v>
+      <c r="I154" s="29" t="s">
+        <v>987</v>
       </c>
       <c r="J154" s="17" t="s">
-        <v>665</v>
+        <v>988</v>
       </c>
       <c r="K154" s="14"/>
     </row>
@@ -16151,26 +16163,26 @@
         <v>301</v>
       </c>
       <c r="C155" s="14" t="s">
-        <v>381</v>
+        <v>302</v>
       </c>
       <c r="D155" s="14" t="s">
-        <v>382</v>
+        <v>117</v>
       </c>
       <c r="E155" s="14" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="F155" s="14" t="s">
-        <v>666</v>
+        <v>303</v>
       </c>
       <c r="G155" s="14" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
       <c r="H155" s="14"/>
       <c r="I155" s="15" t="s">
-        <v>668</v>
+        <v>304</v>
       </c>
       <c r="J155" s="17" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="K155" s="14"/>
     </row>
@@ -16179,29 +16191,29 @@
         <v>278</v>
       </c>
       <c r="B156" s="14" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="C156" s="14" t="s">
-        <v>306</v>
+        <v>381</v>
       </c>
       <c r="D156" s="14" t="s">
-        <v>410</v>
+        <v>382</v>
       </c>
       <c r="E156" s="14" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="F156" s="14" t="s">
-        <v>307</v>
+        <v>666</v>
       </c>
       <c r="G156" s="14" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="H156" s="14"/>
       <c r="I156" s="15" t="s">
-        <v>308</v>
+        <v>668</v>
       </c>
       <c r="J156" s="17" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="K156" s="14"/>
     </row>
@@ -16213,7 +16225,7 @@
         <v>305</v>
       </c>
       <c r="C157" s="14" t="s">
-        <v>298</v>
+        <v>306</v>
       </c>
       <c r="D157" s="14" t="s">
         <v>410</v>
@@ -16222,17 +16234,17 @@
         <v>25</v>
       </c>
       <c r="F157" s="14" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="G157" s="14" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="H157" s="14"/>
       <c r="I157" s="15" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="J157" s="17" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="K157" s="14"/>
     </row>
@@ -16244,26 +16256,26 @@
         <v>305</v>
       </c>
       <c r="C158" s="14" t="s">
-        <v>311</v>
+        <v>298</v>
       </c>
       <c r="D158" s="14" t="s">
-        <v>312</v>
+        <v>410</v>
       </c>
       <c r="E158" s="14" t="s">
         <v>25</v>
       </c>
       <c r="F158" s="14" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="G158" s="14" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="H158" s="14"/>
       <c r="I158" s="15" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="J158" s="17" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="K158" s="14"/>
     </row>
@@ -16275,26 +16287,26 @@
         <v>305</v>
       </c>
       <c r="C159" s="14" t="s">
-        <v>726</v>
+        <v>311</v>
       </c>
       <c r="D159" s="14" t="s">
-        <v>410</v>
+        <v>312</v>
       </c>
       <c r="E159" s="14" t="s">
         <v>25</v>
       </c>
       <c r="F159" s="14" t="s">
-        <v>760</v>
+        <v>313</v>
       </c>
       <c r="G159" s="14" t="s">
-        <v>761</v>
+        <v>674</v>
       </c>
       <c r="H159" s="14"/>
-      <c r="I159" s="29" t="s">
-        <v>762</v>
+      <c r="I159" s="15" t="s">
+        <v>314</v>
       </c>
       <c r="J159" s="17" t="s">
-        <v>763</v>
+        <v>675</v>
       </c>
       <c r="K159" s="14"/>
     </row>
@@ -16303,10 +16315,10 @@
         <v>278</v>
       </c>
       <c r="B160" s="14" t="s">
-        <v>315</v>
+        <v>305</v>
       </c>
       <c r="C160" s="14" t="s">
-        <v>316</v>
+        <v>726</v>
       </c>
       <c r="D160" s="14" t="s">
         <v>410</v>
@@ -16315,17 +16327,17 @@
         <v>25</v>
       </c>
       <c r="F160" s="14" t="s">
-        <v>317</v>
+        <v>760</v>
       </c>
       <c r="G160" s="14" t="s">
-        <v>676</v>
+        <v>761</v>
       </c>
       <c r="H160" s="14"/>
-      <c r="I160" s="15" t="s">
-        <v>318</v>
+      <c r="I160" s="29" t="s">
+        <v>762</v>
       </c>
       <c r="J160" s="17" t="s">
-        <v>677</v>
+        <v>763</v>
       </c>
       <c r="K160" s="14"/>
     </row>
@@ -16337,26 +16349,26 @@
         <v>315</v>
       </c>
       <c r="C161" s="14" t="s">
-        <v>717</v>
+        <v>316</v>
       </c>
       <c r="D161" s="14" t="s">
-        <v>55</v>
+        <v>410</v>
       </c>
       <c r="E161" s="14" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="F161" s="14" t="s">
-        <v>764</v>
+        <v>317</v>
       </c>
       <c r="G161" s="14" t="s">
-        <v>765</v>
+        <v>676</v>
       </c>
       <c r="H161" s="14"/>
-      <c r="I161" s="29" t="s">
-        <v>766</v>
+      <c r="I161" s="15" t="s">
+        <v>318</v>
       </c>
       <c r="J161" s="17" t="s">
-        <v>767</v>
+        <v>677</v>
       </c>
       <c r="K161" s="14"/>
     </row>
@@ -16368,26 +16380,26 @@
         <v>315</v>
       </c>
       <c r="C162" s="14" t="s">
-        <v>788</v>
+        <v>717</v>
       </c>
       <c r="D162" s="14" t="s">
-        <v>410</v>
+        <v>55</v>
       </c>
       <c r="E162" s="14" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="F162" s="14" t="s">
-        <v>789</v>
+        <v>764</v>
       </c>
       <c r="G162" s="14" t="s">
-        <v>790</v>
+        <v>765</v>
       </c>
       <c r="H162" s="14"/>
       <c r="I162" s="29" t="s">
-        <v>791</v>
+        <v>766</v>
       </c>
       <c r="J162" s="17" t="s">
-        <v>792</v>
+        <v>767</v>
       </c>
       <c r="K162" s="14"/>
     </row>
@@ -16399,26 +16411,26 @@
         <v>315</v>
       </c>
       <c r="C163" s="14" t="s">
-        <v>1020</v>
+        <v>788</v>
       </c>
       <c r="D163" s="14" t="s">
-        <v>418</v>
+        <v>410</v>
       </c>
       <c r="E163" s="14" t="s">
         <v>25</v>
       </c>
       <c r="F163" s="14" t="s">
-        <v>1019</v>
+        <v>789</v>
       </c>
       <c r="G163" s="14" t="s">
-        <v>1021</v>
+        <v>790</v>
       </c>
       <c r="H163" s="14"/>
       <c r="I163" s="29" t="s">
-        <v>1022</v>
+        <v>791</v>
       </c>
       <c r="J163" s="17" t="s">
-        <v>1023</v>
+        <v>792</v>
       </c>
       <c r="K163" s="14"/>
     </row>
@@ -16427,29 +16439,29 @@
         <v>278</v>
       </c>
       <c r="B164" s="14" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="C164" s="14" t="s">
-        <v>320</v>
+        <v>1020</v>
       </c>
       <c r="D164" s="14" t="s">
-        <v>410</v>
+        <v>418</v>
       </c>
       <c r="E164" s="14" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="F164" s="14" t="s">
-        <v>678</v>
+        <v>1019</v>
       </c>
       <c r="G164" s="14" t="s">
-        <v>679</v>
+        <v>1021</v>
       </c>
       <c r="H164" s="14"/>
-      <c r="I164" s="16" t="s">
-        <v>680</v>
+      <c r="I164" s="29" t="s">
+        <v>1022</v>
       </c>
       <c r="J164" s="17" t="s">
-        <v>681</v>
+        <v>1023</v>
       </c>
       <c r="K164" s="14"/>
     </row>
@@ -16461,7 +16473,7 @@
         <v>319</v>
       </c>
       <c r="C165" s="14" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="D165" s="14" t="s">
         <v>410</v>
@@ -16470,17 +16482,17 @@
         <v>14</v>
       </c>
       <c r="F165" s="14" t="s">
-        <v>324</v>
+        <v>678</v>
       </c>
       <c r="G165" s="14" t="s">
-        <v>682</v>
+        <v>679</v>
       </c>
       <c r="H165" s="14"/>
-      <c r="I165" s="15" t="s">
-        <v>325</v>
+      <c r="I165" s="16" t="s">
+        <v>680</v>
       </c>
       <c r="J165" s="17" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="K165" s="14"/>
     </row>
@@ -16492,7 +16504,7 @@
         <v>319</v>
       </c>
       <c r="C166" s="14" t="s">
-        <v>684</v>
+        <v>323</v>
       </c>
       <c r="D166" s="14" t="s">
         <v>410</v>
@@ -16501,17 +16513,17 @@
         <v>14</v>
       </c>
       <c r="F166" s="14" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="G166" s="14" t="s">
-        <v>685</v>
+        <v>682</v>
       </c>
       <c r="H166" s="14"/>
       <c r="I166" s="15" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="J166" s="17" t="s">
-        <v>686</v>
+        <v>683</v>
       </c>
       <c r="K166" s="14"/>
     </row>
@@ -16520,29 +16532,29 @@
         <v>278</v>
       </c>
       <c r="B167" s="14" t="s">
-        <v>329</v>
+        <v>319</v>
       </c>
       <c r="C167" s="14" t="s">
-        <v>167</v>
+        <v>684</v>
       </c>
       <c r="D167" s="14" t="s">
         <v>410</v>
       </c>
       <c r="E167" s="14" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="F167" s="14" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="G167" s="14" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="H167" s="14"/>
       <c r="I167" s="15" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="J167" s="17" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="K167" s="14"/>
     </row>
@@ -16554,26 +16566,26 @@
         <v>329</v>
       </c>
       <c r="C168" s="14" t="s">
-        <v>332</v>
+        <v>167</v>
       </c>
       <c r="D168" s="14" t="s">
-        <v>418</v>
+        <v>410</v>
       </c>
       <c r="E168" s="14" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="F168" s="14" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="G168" s="14" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="H168" s="14"/>
       <c r="I168" s="15" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="J168" s="17" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="K168" s="14"/>
     </row>
@@ -16585,26 +16597,26 @@
         <v>329</v>
       </c>
       <c r="C169" s="14" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="D169" s="14" t="s">
-        <v>47</v>
+        <v>418</v>
       </c>
       <c r="E169" s="14" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="F169" s="14" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="G169" s="14" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="H169" s="14"/>
       <c r="I169" s="15" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="J169" s="17" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="K169" s="14"/>
     </row>
@@ -16616,26 +16628,26 @@
         <v>329</v>
       </c>
       <c r="C170" s="14" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="D170" s="14" t="s">
-        <v>117</v>
+        <v>47</v>
       </c>
       <c r="E170" s="14" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="F170" s="14" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="G170" s="14" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="H170" s="14"/>
       <c r="I170" s="15" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="J170" s="17" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="K170" s="14"/>
     </row>
@@ -16647,26 +16659,26 @@
         <v>329</v>
       </c>
       <c r="C171" s="14" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="D171" s="14" t="s">
-        <v>342</v>
+        <v>117</v>
       </c>
       <c r="E171" s="14" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="F171" s="14" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="G171" s="14" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="H171" s="14"/>
       <c r="I171" s="15" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="J171" s="17" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="K171" s="14"/>
     </row>
@@ -16678,26 +16690,26 @@
         <v>329</v>
       </c>
       <c r="C172" s="14" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="D172" s="14" t="s">
-        <v>47</v>
+        <v>342</v>
       </c>
       <c r="E172" s="14" t="s">
         <v>14</v>
       </c>
       <c r="F172" s="14" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="G172" s="14" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="H172" s="14"/>
       <c r="I172" s="15" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="J172" s="17" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="K172" s="14"/>
     </row>
@@ -16709,25 +16721,27 @@
         <v>329</v>
       </c>
       <c r="C173" s="14" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="D173" s="14" t="s">
-        <v>312</v>
+        <v>47</v>
       </c>
       <c r="E173" s="14" t="s">
         <v>14</v>
       </c>
       <c r="F173" s="14" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="G173" s="14" t="s">
-        <v>1018</v>
+        <v>697</v>
       </c>
       <c r="H173" s="14"/>
-      <c r="I173" s="29" t="s">
-        <v>344</v>
-      </c>
-      <c r="J173" s="17"/>
+      <c r="I173" s="15" t="s">
+        <v>347</v>
+      </c>
+      <c r="J173" s="17" t="s">
+        <v>698</v>
+      </c>
       <c r="K173" s="14"/>
     </row>
     <row r="174" spans="1:11" ht="13">
@@ -16735,30 +16749,28 @@
         <v>278</v>
       </c>
       <c r="B174" s="14" t="s">
-        <v>348</v>
+        <v>329</v>
       </c>
       <c r="C174" s="14" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="D174" s="14" t="s">
-        <v>75</v>
+        <v>312</v>
       </c>
       <c r="E174" s="14" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="F174" s="14" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="G174" s="14" t="s">
-        <v>699</v>
+        <v>1018</v>
       </c>
       <c r="H174" s="14"/>
       <c r="I174" s="29" t="s">
-        <v>859</v>
-      </c>
-      <c r="J174" s="17" t="s">
-        <v>700</v>
-      </c>
+        <v>344</v>
+      </c>
+      <c r="J174" s="17"/>
       <c r="K174" s="14"/>
     </row>
     <row r="175" spans="1:11" ht="13">
@@ -16769,26 +16781,26 @@
         <v>348</v>
       </c>
       <c r="C175" s="14" t="s">
-        <v>701</v>
+        <v>349</v>
       </c>
       <c r="D175" s="14" t="s">
-        <v>418</v>
+        <v>75</v>
       </c>
       <c r="E175" s="14" t="s">
         <v>25</v>
       </c>
       <c r="F175" s="14" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="G175" s="14" t="s">
-        <v>702</v>
+        <v>699</v>
       </c>
       <c r="H175" s="14"/>
-      <c r="I175" s="16" t="s">
-        <v>354</v>
+      <c r="I175" s="29" t="s">
+        <v>859</v>
       </c>
       <c r="J175" s="17" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
       <c r="K175" s="14"/>
     </row>
@@ -16797,29 +16809,29 @@
         <v>278</v>
       </c>
       <c r="B176" s="14" t="s">
-        <v>355</v>
+        <v>348</v>
       </c>
       <c r="C176" s="14" t="s">
-        <v>302</v>
+        <v>701</v>
       </c>
       <c r="D176" s="14" t="s">
-        <v>117</v>
+        <v>418</v>
       </c>
       <c r="E176" s="14" t="s">
         <v>25</v>
       </c>
       <c r="F176" s="14" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="G176" s="14" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="H176" s="14"/>
-      <c r="I176" s="15" t="s">
-        <v>357</v>
+      <c r="I176" s="16" t="s">
+        <v>354</v>
       </c>
       <c r="J176" s="17" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="K176" s="14"/>
     </row>
@@ -16831,26 +16843,26 @@
         <v>355</v>
       </c>
       <c r="C177" s="14" t="s">
-        <v>358</v>
+        <v>302</v>
       </c>
       <c r="D177" s="14" t="s">
-        <v>410</v>
+        <v>117</v>
       </c>
       <c r="E177" s="14" t="s">
         <v>25</v>
       </c>
       <c r="F177" s="14" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="G177" s="14" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="H177" s="14"/>
       <c r="I177" s="15" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="J177" s="17" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="K177" s="14"/>
     </row>
@@ -16862,26 +16874,26 @@
         <v>355</v>
       </c>
       <c r="C178" s="14" t="s">
-        <v>720</v>
+        <v>358</v>
       </c>
       <c r="D178" s="14" t="s">
-        <v>51</v>
+        <v>410</v>
       </c>
       <c r="E178" s="14" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="F178" s="14" t="s">
-        <v>768</v>
+        <v>359</v>
       </c>
       <c r="G178" s="14" t="s">
-        <v>769</v>
+        <v>706</v>
       </c>
       <c r="H178" s="14"/>
-      <c r="I178" s="29" t="s">
-        <v>770</v>
+      <c r="I178" s="15" t="s">
+        <v>360</v>
       </c>
       <c r="J178" s="17" t="s">
-        <v>771</v>
+        <v>707</v>
       </c>
       <c r="K178" s="14"/>
     </row>
@@ -16893,26 +16905,26 @@
         <v>355</v>
       </c>
       <c r="C179" s="14" t="s">
-        <v>884</v>
+        <v>720</v>
       </c>
       <c r="D179" s="14" t="s">
-        <v>410</v>
+        <v>51</v>
       </c>
       <c r="E179" s="14" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="F179" s="14" t="s">
-        <v>885</v>
+        <v>768</v>
       </c>
       <c r="G179" s="14" t="s">
-        <v>886</v>
+        <v>769</v>
       </c>
       <c r="H179" s="14"/>
       <c r="I179" s="29" t="s">
-        <v>887</v>
+        <v>770</v>
       </c>
       <c r="J179" s="17" t="s">
-        <v>888</v>
+        <v>771</v>
       </c>
       <c r="K179" s="14"/>
     </row>
@@ -16921,10 +16933,10 @@
         <v>278</v>
       </c>
       <c r="B180" s="14" t="s">
-        <v>708</v>
-      </c>
-      <c r="C180" s="17" t="s">
-        <v>709</v>
+        <v>355</v>
+      </c>
+      <c r="C180" s="14" t="s">
+        <v>884</v>
       </c>
       <c r="D180" s="14" t="s">
         <v>410</v>
@@ -16933,17 +16945,17 @@
         <v>25</v>
       </c>
       <c r="F180" s="14" t="s">
-        <v>710</v>
+        <v>885</v>
       </c>
       <c r="G180" s="14" t="s">
-        <v>711</v>
+        <v>886</v>
       </c>
       <c r="H180" s="14"/>
-      <c r="I180" s="15" t="s">
-        <v>712</v>
+      <c r="I180" s="29" t="s">
+        <v>887</v>
       </c>
       <c r="J180" s="17" t="s">
-        <v>713</v>
+        <v>888</v>
       </c>
       <c r="K180" s="14"/>
     </row>
@@ -16952,62 +16964,93 @@
         <v>278</v>
       </c>
       <c r="B181" s="14" t="s">
-        <v>361</v>
+        <v>708</v>
       </c>
       <c r="C181" s="17" t="s">
-        <v>362</v>
+        <v>709</v>
       </c>
       <c r="D181" s="14" t="s">
-        <v>418</v>
+        <v>410</v>
       </c>
       <c r="E181" s="14" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="F181" s="14" t="s">
-        <v>363</v>
+        <v>710</v>
       </c>
       <c r="G181" s="14" t="s">
-        <v>714</v>
+        <v>711</v>
       </c>
       <c r="H181" s="14"/>
       <c r="I181" s="15" t="s">
-        <v>364</v>
+        <v>712</v>
       </c>
       <c r="J181" s="17" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="K181" s="14"/>
     </row>
-    <row r="182" spans="1:11" ht="15.75" customHeight="1">
+    <row r="182" spans="1:11" ht="13">
       <c r="A182" s="14" t="s">
-        <v>772</v>
+        <v>278</v>
       </c>
       <c r="B182" s="14" t="s">
-        <v>774</v>
-      </c>
-      <c r="C182" s="14" t="s">
-        <v>722</v>
+        <v>361</v>
+      </c>
+      <c r="C182" s="17" t="s">
+        <v>362</v>
       </c>
       <c r="D182" s="14" t="s">
-        <v>410</v>
+        <v>418</v>
       </c>
       <c r="E182" s="14" t="s">
         <v>14</v>
       </c>
       <c r="F182" s="14" t="s">
+        <v>363</v>
+      </c>
+      <c r="G182" s="14" t="s">
+        <v>714</v>
+      </c>
+      <c r="H182" s="14"/>
+      <c r="I182" s="15" t="s">
+        <v>364</v>
+      </c>
+      <c r="J182" s="17" t="s">
+        <v>715</v>
+      </c>
+      <c r="K182" s="14"/>
+    </row>
+    <row r="183" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A183" s="14" t="s">
+        <v>772</v>
+      </c>
+      <c r="B183" s="14" t="s">
+        <v>774</v>
+      </c>
+      <c r="C183" s="14" t="s">
+        <v>722</v>
+      </c>
+      <c r="D183" s="14" t="s">
+        <v>410</v>
+      </c>
+      <c r="E183" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="F183" s="14" t="s">
         <v>773</v>
       </c>
-      <c r="G182" s="14" t="s">
+      <c r="G183" s="14" t="s">
         <v>775</v>
       </c>
-      <c r="H182" s="14"/>
-      <c r="I182" s="29" t="s">
+      <c r="H183" s="14"/>
+      <c r="I183" s="29" t="s">
         <v>776</v>
       </c>
-      <c r="J182" s="17" t="s">
+      <c r="J183" s="17" t="s">
         <v>777</v>
       </c>
-      <c r="K182" s="14"/>
+      <c r="K183" s="14"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -17088,82 +17131,82 @@
     <hyperlink ref="I107" r:id="rId75" xr:uid="{00000000-0004-0000-0100-00004B000000}"/>
     <hyperlink ref="I108" r:id="rId76" xr:uid="{00000000-0004-0000-0100-00004C000000}"/>
     <hyperlink ref="I111" r:id="rId77" xr:uid="{00000000-0004-0000-0100-00004D000000}"/>
-    <hyperlink ref="I113" r:id="rId78" xr:uid="{00000000-0004-0000-0100-00004E000000}"/>
-    <hyperlink ref="I114" r:id="rId79" xr:uid="{00000000-0004-0000-0100-00004F000000}"/>
-    <hyperlink ref="I115" r:id="rId80" xr:uid="{00000000-0004-0000-0100-000050000000}"/>
-    <hyperlink ref="I116" r:id="rId81" xr:uid="{00000000-0004-0000-0100-000051000000}"/>
-    <hyperlink ref="I117" r:id="rId82" xr:uid="{00000000-0004-0000-0100-000052000000}"/>
-    <hyperlink ref="I118" r:id="rId83" xr:uid="{00000000-0004-0000-0100-000053000000}"/>
-    <hyperlink ref="I119" r:id="rId84" xr:uid="{00000000-0004-0000-0100-000054000000}"/>
-    <hyperlink ref="I120" r:id="rId85" xr:uid="{00000000-0004-0000-0100-000055000000}"/>
-    <hyperlink ref="I125" r:id="rId86" xr:uid="{00000000-0004-0000-0100-000056000000}"/>
-    <hyperlink ref="I128" r:id="rId87" xr:uid="{00000000-0004-0000-0100-000057000000}"/>
-    <hyperlink ref="I132" r:id="rId88" xr:uid="{00000000-0004-0000-0100-000058000000}"/>
-    <hyperlink ref="I133" r:id="rId89" xr:uid="{00000000-0004-0000-0100-000059000000}"/>
-    <hyperlink ref="I137" r:id="rId90" xr:uid="{00000000-0004-0000-0100-00005A000000}"/>
-    <hyperlink ref="I138" r:id="rId91" xr:uid="{00000000-0004-0000-0100-00005B000000}"/>
-    <hyperlink ref="I139" r:id="rId92" xr:uid="{00000000-0004-0000-0100-00005C000000}"/>
-    <hyperlink ref="I140" r:id="rId93" xr:uid="{00000000-0004-0000-0100-00005D000000}"/>
-    <hyperlink ref="I142" r:id="rId94" xr:uid="{00000000-0004-0000-0100-00005E000000}"/>
-    <hyperlink ref="I143" r:id="rId95" xr:uid="{00000000-0004-0000-0100-00005F000000}"/>
-    <hyperlink ref="I144" r:id="rId96" xr:uid="{00000000-0004-0000-0100-000060000000}"/>
-    <hyperlink ref="I145" r:id="rId97" xr:uid="{00000000-0004-0000-0100-000061000000}"/>
-    <hyperlink ref="I146" r:id="rId98" xr:uid="{00000000-0004-0000-0100-000062000000}"/>
-    <hyperlink ref="I147" r:id="rId99" xr:uid="{00000000-0004-0000-0100-000063000000}"/>
-    <hyperlink ref="I148" r:id="rId100" xr:uid="{00000000-0004-0000-0100-000064000000}"/>
-    <hyperlink ref="I154" r:id="rId101" xr:uid="{00000000-0004-0000-0100-000065000000}"/>
-    <hyperlink ref="I155" r:id="rId102" xr:uid="{00000000-0004-0000-0100-000066000000}"/>
-    <hyperlink ref="I156" r:id="rId103" xr:uid="{00000000-0004-0000-0100-000067000000}"/>
-    <hyperlink ref="I157" r:id="rId104" xr:uid="{00000000-0004-0000-0100-000068000000}"/>
-    <hyperlink ref="I160" r:id="rId105" xr:uid="{00000000-0004-0000-0100-00006A000000}"/>
-    <hyperlink ref="I164" r:id="rId106" xr:uid="{00000000-0004-0000-0100-00006B000000}"/>
-    <hyperlink ref="I165" r:id="rId107" xr:uid="{00000000-0004-0000-0100-00006C000000}"/>
-    <hyperlink ref="I166" r:id="rId108" xr:uid="{00000000-0004-0000-0100-00006D000000}"/>
-    <hyperlink ref="I167" r:id="rId109" xr:uid="{00000000-0004-0000-0100-00006E000000}"/>
-    <hyperlink ref="I168" r:id="rId110" xr:uid="{00000000-0004-0000-0100-00006F000000}"/>
-    <hyperlink ref="I169" r:id="rId111" xr:uid="{00000000-0004-0000-0100-000070000000}"/>
-    <hyperlink ref="I170" r:id="rId112" xr:uid="{00000000-0004-0000-0100-000071000000}"/>
-    <hyperlink ref="I171" r:id="rId113" xr:uid="{00000000-0004-0000-0100-000072000000}"/>
-    <hyperlink ref="I172" r:id="rId114" xr:uid="{00000000-0004-0000-0100-000073000000}"/>
-    <hyperlink ref="I174" r:id="rId115" xr:uid="{00000000-0004-0000-0100-000074000000}"/>
-    <hyperlink ref="I175" r:id="rId116" xr:uid="{00000000-0004-0000-0100-000075000000}"/>
-    <hyperlink ref="I176" r:id="rId117" xr:uid="{00000000-0004-0000-0100-000076000000}"/>
-    <hyperlink ref="I177" r:id="rId118" xr:uid="{00000000-0004-0000-0100-000077000000}"/>
-    <hyperlink ref="I180" r:id="rId119" xr:uid="{00000000-0004-0000-0100-000078000000}"/>
-    <hyperlink ref="I181" r:id="rId120" xr:uid="{00000000-0004-0000-0100-000079000000}"/>
+    <hyperlink ref="I114" r:id="rId78" xr:uid="{00000000-0004-0000-0100-00004E000000}"/>
+    <hyperlink ref="I115" r:id="rId79" xr:uid="{00000000-0004-0000-0100-00004F000000}"/>
+    <hyperlink ref="I116" r:id="rId80" xr:uid="{00000000-0004-0000-0100-000050000000}"/>
+    <hyperlink ref="I117" r:id="rId81" xr:uid="{00000000-0004-0000-0100-000051000000}"/>
+    <hyperlink ref="I118" r:id="rId82" xr:uid="{00000000-0004-0000-0100-000052000000}"/>
+    <hyperlink ref="I119" r:id="rId83" xr:uid="{00000000-0004-0000-0100-000053000000}"/>
+    <hyperlink ref="I120" r:id="rId84" xr:uid="{00000000-0004-0000-0100-000054000000}"/>
+    <hyperlink ref="I121" r:id="rId85" xr:uid="{00000000-0004-0000-0100-000055000000}"/>
+    <hyperlink ref="I126" r:id="rId86" xr:uid="{00000000-0004-0000-0100-000056000000}"/>
+    <hyperlink ref="I129" r:id="rId87" xr:uid="{00000000-0004-0000-0100-000057000000}"/>
+    <hyperlink ref="I133" r:id="rId88" xr:uid="{00000000-0004-0000-0100-000058000000}"/>
+    <hyperlink ref="I134" r:id="rId89" xr:uid="{00000000-0004-0000-0100-000059000000}"/>
+    <hyperlink ref="I138" r:id="rId90" xr:uid="{00000000-0004-0000-0100-00005A000000}"/>
+    <hyperlink ref="I139" r:id="rId91" xr:uid="{00000000-0004-0000-0100-00005B000000}"/>
+    <hyperlink ref="I140" r:id="rId92" xr:uid="{00000000-0004-0000-0100-00005C000000}"/>
+    <hyperlink ref="I141" r:id="rId93" xr:uid="{00000000-0004-0000-0100-00005D000000}"/>
+    <hyperlink ref="I143" r:id="rId94" xr:uid="{00000000-0004-0000-0100-00005E000000}"/>
+    <hyperlink ref="I144" r:id="rId95" xr:uid="{00000000-0004-0000-0100-00005F000000}"/>
+    <hyperlink ref="I145" r:id="rId96" xr:uid="{00000000-0004-0000-0100-000060000000}"/>
+    <hyperlink ref="I146" r:id="rId97" xr:uid="{00000000-0004-0000-0100-000061000000}"/>
+    <hyperlink ref="I147" r:id="rId98" xr:uid="{00000000-0004-0000-0100-000062000000}"/>
+    <hyperlink ref="I148" r:id="rId99" xr:uid="{00000000-0004-0000-0100-000063000000}"/>
+    <hyperlink ref="I149" r:id="rId100" xr:uid="{00000000-0004-0000-0100-000064000000}"/>
+    <hyperlink ref="I155" r:id="rId101" xr:uid="{00000000-0004-0000-0100-000065000000}"/>
+    <hyperlink ref="I156" r:id="rId102" xr:uid="{00000000-0004-0000-0100-000066000000}"/>
+    <hyperlink ref="I157" r:id="rId103" xr:uid="{00000000-0004-0000-0100-000067000000}"/>
+    <hyperlink ref="I158" r:id="rId104" xr:uid="{00000000-0004-0000-0100-000068000000}"/>
+    <hyperlink ref="I161" r:id="rId105" xr:uid="{00000000-0004-0000-0100-00006A000000}"/>
+    <hyperlink ref="I165" r:id="rId106" xr:uid="{00000000-0004-0000-0100-00006B000000}"/>
+    <hyperlink ref="I166" r:id="rId107" xr:uid="{00000000-0004-0000-0100-00006C000000}"/>
+    <hyperlink ref="I167" r:id="rId108" xr:uid="{00000000-0004-0000-0100-00006D000000}"/>
+    <hyperlink ref="I168" r:id="rId109" xr:uid="{00000000-0004-0000-0100-00006E000000}"/>
+    <hyperlink ref="I169" r:id="rId110" xr:uid="{00000000-0004-0000-0100-00006F000000}"/>
+    <hyperlink ref="I170" r:id="rId111" xr:uid="{00000000-0004-0000-0100-000070000000}"/>
+    <hyperlink ref="I171" r:id="rId112" xr:uid="{00000000-0004-0000-0100-000071000000}"/>
+    <hyperlink ref="I172" r:id="rId113" xr:uid="{00000000-0004-0000-0100-000072000000}"/>
+    <hyperlink ref="I173" r:id="rId114" xr:uid="{00000000-0004-0000-0100-000073000000}"/>
+    <hyperlink ref="I175" r:id="rId115" xr:uid="{00000000-0004-0000-0100-000074000000}"/>
+    <hyperlink ref="I176" r:id="rId116" xr:uid="{00000000-0004-0000-0100-000075000000}"/>
+    <hyperlink ref="I177" r:id="rId117" xr:uid="{00000000-0004-0000-0100-000076000000}"/>
+    <hyperlink ref="I178" r:id="rId118" xr:uid="{00000000-0004-0000-0100-000077000000}"/>
+    <hyperlink ref="I181" r:id="rId119" xr:uid="{00000000-0004-0000-0100-000078000000}"/>
+    <hyperlink ref="I182" r:id="rId120" xr:uid="{00000000-0004-0000-0100-000079000000}"/>
     <hyperlink ref="I20" r:id="rId121" xr:uid="{881F0F65-3DCC-E94A-9FE5-2CC264A8F337}"/>
     <hyperlink ref="I21" r:id="rId122" xr:uid="{AC40193A-1232-474A-A421-B55FFA7E99B8}"/>
     <hyperlink ref="I40" r:id="rId123" xr:uid="{D41ADE90-9772-8F41-AC9B-8DE303E9D7A9}"/>
     <hyperlink ref="I41" r:id="rId124" xr:uid="{85F37ABA-4B3B-764B-A1ED-9DD3AFFF0004}"/>
     <hyperlink ref="I78" r:id="rId125" xr:uid="{F5E14AAB-D49A-EF45-A165-3757EFF2E9B4}"/>
     <hyperlink ref="I95" r:id="rId126" xr:uid="{759707EA-D94A-2D42-8FE0-FAE01578CF99}"/>
-    <hyperlink ref="I127" r:id="rId127" xr:uid="{1A936B77-62AA-804C-B853-4343ADD2D925}"/>
-    <hyperlink ref="I158" r:id="rId128" xr:uid="{00000000-0004-0000-0100-000069000000}"/>
-    <hyperlink ref="I149" r:id="rId129" xr:uid="{2929B0EA-E15F-E444-ADC1-C2E3E232D526}"/>
-    <hyperlink ref="I159" r:id="rId130" xr:uid="{7770BE98-2823-3047-9E72-08DB2B79C177}"/>
-    <hyperlink ref="I161" r:id="rId131" xr:uid="{A91F97A2-47FA-FB49-8866-2B9AA1419B2B}"/>
-    <hyperlink ref="I178" r:id="rId132" xr:uid="{11EEE67C-10E9-AB44-91F6-D7C7B31697FA}"/>
-    <hyperlink ref="I182" r:id="rId133" xr:uid="{8E930EBE-7205-BD41-9ED8-FE8F970A98EF}"/>
-    <hyperlink ref="I162" r:id="rId134" xr:uid="{3AF5EB12-868F-C842-91DC-4FC147AA3C86}"/>
+    <hyperlink ref="I128" r:id="rId127" xr:uid="{1A936B77-62AA-804C-B853-4343ADD2D925}"/>
+    <hyperlink ref="I159" r:id="rId128" xr:uid="{00000000-0004-0000-0100-000069000000}"/>
+    <hyperlink ref="I150" r:id="rId129" xr:uid="{2929B0EA-E15F-E444-ADC1-C2E3E232D526}"/>
+    <hyperlink ref="I160" r:id="rId130" xr:uid="{7770BE98-2823-3047-9E72-08DB2B79C177}"/>
+    <hyperlink ref="I162" r:id="rId131" xr:uid="{A91F97A2-47FA-FB49-8866-2B9AA1419B2B}"/>
+    <hyperlink ref="I179" r:id="rId132" xr:uid="{11EEE67C-10E9-AB44-91F6-D7C7B31697FA}"/>
+    <hyperlink ref="I183" r:id="rId133" xr:uid="{8E930EBE-7205-BD41-9ED8-FE8F970A98EF}"/>
+    <hyperlink ref="I163" r:id="rId134" xr:uid="{3AF5EB12-868F-C842-91DC-4FC147AA3C86}"/>
     <hyperlink ref="I65" r:id="rId135" xr:uid="{7BDCEA69-27F3-FF41-BB2B-817D4FD2C9C0}"/>
     <hyperlink ref="I66" r:id="rId136" xr:uid="{7A940ACA-466B-9E49-8CB5-9BA664F7C3C9}"/>
     <hyperlink ref="I68" r:id="rId137" xr:uid="{088C717E-7DC5-EF4C-8C34-370DC45C6BEE}"/>
     <hyperlink ref="I69" r:id="rId138" xr:uid="{A670C44A-19C9-984F-9EAA-8D5EBCE39C79}"/>
     <hyperlink ref="I109" r:id="rId139" xr:uid="{713BB907-BFF9-AE42-B777-2AF591DA7D9B}"/>
-    <hyperlink ref="I112" r:id="rId140" xr:uid="{EC0C54FA-684B-A440-BF57-B5B57FDD99C9}"/>
-    <hyperlink ref="I122" r:id="rId141" xr:uid="{9081BA3E-9CF8-074E-BF5B-0F2FA156F0B7}"/>
-    <hyperlink ref="I124" r:id="rId142" xr:uid="{8C2FD4CC-DF59-734E-8449-EA5B9F5E7D3D}"/>
+    <hyperlink ref="I113" r:id="rId140" xr:uid="{EC0C54FA-684B-A440-BF57-B5B57FDD99C9}"/>
+    <hyperlink ref="I123" r:id="rId141" xr:uid="{9081BA3E-9CF8-074E-BF5B-0F2FA156F0B7}"/>
+    <hyperlink ref="I125" r:id="rId142" xr:uid="{8C2FD4CC-DF59-734E-8449-EA5B9F5E7D3D}"/>
     <hyperlink ref="I92" r:id="rId143" xr:uid="{9845498D-A3A6-524F-9A69-7DC2DB7F7639}"/>
-    <hyperlink ref="I121" r:id="rId144" xr:uid="{CFDD3EC3-C992-0E4C-8C8D-2A9AC6885E0B}"/>
+    <hyperlink ref="I122" r:id="rId144" xr:uid="{CFDD3EC3-C992-0E4C-8C8D-2A9AC6885E0B}"/>
     <hyperlink ref="I103" r:id="rId145" xr:uid="{C634E917-B836-414F-BB3B-9A111E16653C}"/>
     <hyperlink ref="I61" r:id="rId146" xr:uid="{8548A361-62F7-A648-BBBE-9F37385F0E45}"/>
     <hyperlink ref="I76" r:id="rId147" xr:uid="{8EA062F9-78F8-A44B-BEDA-61CF758CB831}"/>
     <hyperlink ref="I45" r:id="rId148" xr:uid="{7C7CB4D2-6B37-544C-B631-930D91F3AA17}"/>
-    <hyperlink ref="I150" r:id="rId149" xr:uid="{5694CC0C-366D-8848-BBD7-150B284E15DA}"/>
+    <hyperlink ref="I151" r:id="rId149" xr:uid="{5694CC0C-366D-8848-BBD7-150B284E15DA}"/>
     <hyperlink ref="I32" r:id="rId150" xr:uid="{7E8D5837-BD50-6844-B288-6217DFD05E29}"/>
     <hyperlink ref="I47" r:id="rId151" xr:uid="{E89C4D5B-786F-9A4C-9914-80D4DF36F89C}"/>
     <hyperlink ref="I46" r:id="rId152" xr:uid="{EDBD0C6E-D96D-734B-85A9-4D26B3421D83}"/>
-    <hyperlink ref="I179" r:id="rId153" xr:uid="{12FA5E40-D722-4344-995B-86BBF8B4F3F3}"/>
+    <hyperlink ref="I180" r:id="rId153" xr:uid="{12FA5E40-D722-4344-995B-86BBF8B4F3F3}"/>
     <hyperlink ref="I3" r:id="rId154" xr:uid="{90F3D795-8796-3941-81B5-D72CA324E042}"/>
     <hyperlink ref="I4" r:id="rId155" xr:uid="{16E7DE01-C66E-B349-8DAD-CA4C99C20CD5}"/>
     <hyperlink ref="I5" r:id="rId156" xr:uid="{7E09A861-DD77-2E4B-B800-EAC5DEA70EDC}"/>
@@ -17173,25 +17216,26 @@
     <hyperlink ref="I71" r:id="rId160" xr:uid="{F2124805-E683-1A42-A341-E4B4C798FCF6}"/>
     <hyperlink ref="I104" r:id="rId161" xr:uid="{03D19417-5ACF-4747-87E3-FF4A7F6B8C5E}"/>
     <hyperlink ref="I110" r:id="rId162" xr:uid="{E08A2438-5DB8-9A45-84DD-CD243288C3B9}"/>
-    <hyperlink ref="I123" r:id="rId163" xr:uid="{84BE2579-BA68-7D4D-B2CB-86D3681369AA}"/>
-    <hyperlink ref="I126" r:id="rId164" xr:uid="{91EB2E87-6831-0145-A4FB-E8981B8045C7}"/>
-    <hyperlink ref="I130" r:id="rId165" xr:uid="{54C086FF-A8B9-6C43-B277-A9032F8666B1}"/>
-    <hyperlink ref="I131" r:id="rId166" xr:uid="{2EF760AC-07D9-8548-93B1-88352B9C3C7F}"/>
+    <hyperlink ref="I124" r:id="rId163" xr:uid="{84BE2579-BA68-7D4D-B2CB-86D3681369AA}"/>
+    <hyperlink ref="I127" r:id="rId164" xr:uid="{91EB2E87-6831-0145-A4FB-E8981B8045C7}"/>
+    <hyperlink ref="I131" r:id="rId165" xr:uid="{54C086FF-A8B9-6C43-B277-A9032F8666B1}"/>
+    <hyperlink ref="I132" r:id="rId166" xr:uid="{2EF760AC-07D9-8548-93B1-88352B9C3C7F}"/>
     <hyperlink ref="I96" r:id="rId167" xr:uid="{A5C672A7-87AF-E940-AAE7-D59695E4A0C6}"/>
-    <hyperlink ref="I134" r:id="rId168" xr:uid="{235F1B30-BA9C-2944-96E8-044D9C42D2E4}"/>
-    <hyperlink ref="I135" r:id="rId169" xr:uid="{86BA7BFD-9A67-EC49-A9D6-2A3459D321FF}"/>
-    <hyperlink ref="I136" r:id="rId170" xr:uid="{877A9B01-36F7-6D47-9B86-75B4F4BC541E}"/>
-    <hyperlink ref="I141" r:id="rId171" xr:uid="{5546ECD3-6F35-E74E-9357-32E1AF022690}"/>
-    <hyperlink ref="I151" r:id="rId172" xr:uid="{88D1FADA-4A32-0D4F-AF24-3FE72EBBEB68}"/>
-    <hyperlink ref="I152" r:id="rId173" xr:uid="{AF329473-0DFD-8C4C-BE43-8A06EA57AD9B}"/>
-    <hyperlink ref="I153" r:id="rId174" xr:uid="{6A2FDA52-E721-2D45-8440-DE26731358E6}"/>
+    <hyperlink ref="I135" r:id="rId168" xr:uid="{235F1B30-BA9C-2944-96E8-044D9C42D2E4}"/>
+    <hyperlink ref="I136" r:id="rId169" xr:uid="{86BA7BFD-9A67-EC49-A9D6-2A3459D321FF}"/>
+    <hyperlink ref="I137" r:id="rId170" xr:uid="{877A9B01-36F7-6D47-9B86-75B4F4BC541E}"/>
+    <hyperlink ref="I142" r:id="rId171" xr:uid="{5546ECD3-6F35-E74E-9357-32E1AF022690}"/>
+    <hyperlink ref="I152" r:id="rId172" xr:uid="{88D1FADA-4A32-0D4F-AF24-3FE72EBBEB68}"/>
+    <hyperlink ref="I153" r:id="rId173" xr:uid="{AF329473-0DFD-8C4C-BE43-8A06EA57AD9B}"/>
+    <hyperlink ref="I154" r:id="rId174" xr:uid="{6A2FDA52-E721-2D45-8440-DE26731358E6}"/>
     <hyperlink ref="I48" r:id="rId175" xr:uid="{AE7D1622-F9B9-DF48-8E55-336B7BB6750F}"/>
     <hyperlink ref="I49" r:id="rId176" xr:uid="{59C3C7D9-F3C2-4241-BF17-62CD57E349CD}"/>
     <hyperlink ref="I84" r:id="rId177" xr:uid="{808B590E-E469-FC42-8AED-648218F9285B}"/>
-    <hyperlink ref="I129" r:id="rId178" xr:uid="{0BFD14EA-48B9-E242-A6F8-2B6996870F1C}"/>
+    <hyperlink ref="I130" r:id="rId178" xr:uid="{0BFD14EA-48B9-E242-A6F8-2B6996870F1C}"/>
     <hyperlink ref="I77" r:id="rId179" xr:uid="{3D1F78F1-16B2-474B-91A0-3DFB6DB099C3}"/>
-    <hyperlink ref="I173" r:id="rId180" xr:uid="{D7BE4482-76F9-0648-8D97-B29A2C647580}"/>
-    <hyperlink ref="I163" r:id="rId181" xr:uid="{8BB3CB7A-FD3E-4242-B0D4-4CCA5F192666}"/>
+    <hyperlink ref="I174" r:id="rId180" xr:uid="{D7BE4482-76F9-0648-8D97-B29A2C647580}"/>
+    <hyperlink ref="I164" r:id="rId181" xr:uid="{8BB3CB7A-FD3E-4242-B0D4-4CCA5F192666}"/>
+    <hyperlink ref="I112" r:id="rId182" xr:uid="{166E1088-3416-B54E-83D7-F3C78813399E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/docs/香港素食餐廳大全.xlsx
+++ b/docs/香港素食餐廳大全.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tim/_Python_OpenAI/My-projects/7-hk-veg-map/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA144B73-43AE-FB4D-8ABD-2A36EDC63449}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7990D4A-D205-1B4D-B4EA-9FA2589EB224}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9520" yWindow="500" windowWidth="17620" windowHeight="16260" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8800" yWindow="500" windowWidth="17620" windowHeight="16260" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="香港素食餐廳大全" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2285" uniqueCount="1028">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2294" uniqueCount="1033">
   <si>
     <t>** 更新自: 13 Aug 2023 (deprecated, go to sheet 2 "hk_veg_restaurants_data instead")</t>
   </si>
@@ -1805,9 +1805,6 @@
     <t>36184826</t>
   </si>
   <si>
-    <t>22.335432910041234, 114.19471785106248</t>
-  </si>
-  <si>
     <t>22905232</t>
   </si>
   <si>
@@ -3105,6 +3102,24 @@
   </si>
   <si>
     <t>23828290</t>
+  </si>
+  <si>
+    <t>富 Madame Fu</t>
+  </si>
+  <si>
+    <t>中環荷李活道10號(舊中區警署)大館營房大樓3樓</t>
+  </si>
+  <si>
+    <t>22.28142490744273, 114.15386469594584</t>
+  </si>
+  <si>
+    <t>https://www.openrice.com/zh/hongkong/r-%E5%AF%8C-%E4%B8%AD%E7%92%B0-%E7%B2%B5%E8%8F%9C-%E5%BB%A3%E6%9D%B1-%E9%BB%9E%E5%BF%83-r578998</t>
+  </si>
+  <si>
+    <t>21142118</t>
+  </si>
+  <si>
+    <t>22.3352690855467, 114.19477208002255</t>
   </si>
 </sst>
 </file>
@@ -11373,10 +11388,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:K183"/>
+  <dimension ref="A1:K184"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F98" zoomScale="132" workbookViewId="0">
-      <selection activeCell="J112" sqref="J112"/>
+    <sheetView tabSelected="1" topLeftCell="D86" zoomScale="132" workbookViewId="0">
+      <selection activeCell="G109" sqref="G109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -11458,7 +11473,7 @@
         <v>10</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>397</v>
@@ -11470,17 +11485,17 @@
         <v>14</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="H3" s="5"/>
       <c r="I3" s="24" t="s">
+        <v>910</v>
+      </c>
+      <c r="J3" s="25" t="s">
         <v>911</v>
-      </c>
-      <c r="J3" s="25" t="s">
-        <v>912</v>
       </c>
       <c r="K3" s="5"/>
     </row>
@@ -11489,10 +11504,10 @@
         <v>10</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>418</v>
@@ -11501,17 +11516,17 @@
         <v>14</v>
       </c>
       <c r="F4" s="5" t="s">
+        <v>912</v>
+      </c>
+      <c r="G4" s="5" t="s">
         <v>913</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>914</v>
       </c>
       <c r="H4" s="5"/>
       <c r="I4" s="24" t="s">
+        <v>914</v>
+      </c>
+      <c r="J4" s="25" t="s">
         <v>915</v>
-      </c>
-      <c r="J4" s="25" t="s">
-        <v>916</v>
       </c>
       <c r="K4" s="5"/>
     </row>
@@ -11520,10 +11535,10 @@
         <v>10</v>
       </c>
       <c r="B5" s="5" t="s">
+        <v>890</v>
+      </c>
+      <c r="C5" s="5" t="s">
         <v>891</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>892</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>418</v>
@@ -11532,17 +11547,17 @@
         <v>25</v>
       </c>
       <c r="F5" s="5" t="s">
+        <v>916</v>
+      </c>
+      <c r="G5" s="5" t="s">
         <v>917</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>918</v>
       </c>
       <c r="H5" s="5"/>
       <c r="I5" s="24" t="s">
+        <v>918</v>
+      </c>
+      <c r="J5" s="25" t="s">
         <v>919</v>
-      </c>
-      <c r="J5" s="25" t="s">
-        <v>920</v>
       </c>
       <c r="K5" s="5"/>
     </row>
@@ -11566,7 +11581,7 @@
         <v>399</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="H6" s="5"/>
       <c r="I6" s="7" t="s">
@@ -11690,7 +11705,7 @@
         <v>413</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="H10" s="5"/>
       <c r="I10" s="7" t="s">
@@ -11758,7 +11773,7 @@
       </c>
       <c r="H12" s="5"/>
       <c r="I12" s="24" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="J12" s="25" t="s">
         <v>420</v>
@@ -11893,7 +11908,7 @@
         <v>22</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="D17" s="5" t="s">
         <v>382</v>
@@ -11902,17 +11917,17 @@
         <v>14</v>
       </c>
       <c r="F17" s="5" t="s">
+        <v>920</v>
+      </c>
+      <c r="G17" s="5" t="s">
         <v>921</v>
-      </c>
-      <c r="G17" s="5" t="s">
-        <v>922</v>
       </c>
       <c r="H17" s="5"/>
       <c r="I17" s="24" t="s">
+        <v>922</v>
+      </c>
+      <c r="J17" s="25" t="s">
         <v>923</v>
-      </c>
-      <c r="J17" s="25" t="s">
-        <v>924</v>
       </c>
       <c r="K17" s="5"/>
     </row>
@@ -11940,7 +11955,7 @@
       </c>
       <c r="H18" s="5"/>
       <c r="I18" s="24" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="J18" s="25" t="s">
         <v>429</v>
@@ -11986,26 +12001,26 @@
         <v>22</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>723</v>
+        <v>1027</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>47</v>
+        <v>410</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>730</v>
+        <v>1028</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>731</v>
+        <v>1029</v>
       </c>
       <c r="H20" s="5"/>
       <c r="I20" s="24" t="s">
-        <v>732</v>
-      </c>
-      <c r="J20" s="25">
-        <v>37553067</v>
+        <v>1030</v>
+      </c>
+      <c r="J20" s="25" t="s">
+        <v>1031</v>
       </c>
       <c r="K20" s="5"/>
     </row>
@@ -12017,7 +12032,7 @@
         <v>22</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>729</v>
+        <v>722</v>
       </c>
       <c r="D21" s="5" t="s">
         <v>47</v>
@@ -12026,17 +12041,17 @@
         <v>25</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="H21" s="5"/>
       <c r="I21" s="24" t="s">
-        <v>735</v>
-      </c>
-      <c r="J21" s="25" t="s">
-        <v>736</v>
+        <v>731</v>
+      </c>
+      <c r="J21" s="25">
+        <v>37553067</v>
       </c>
       <c r="K21" s="5"/>
     </row>
@@ -12045,29 +12060,29 @@
         <v>10</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>65</v>
+        <v>22</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>66</v>
+        <v>728</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>410</v>
+        <v>47</v>
       </c>
       <c r="E22" s="5" t="s">
         <v>25</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>432</v>
+        <v>732</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>433</v>
+        <v>733</v>
       </c>
       <c r="H22" s="5"/>
-      <c r="I22" s="6" t="s">
-        <v>68</v>
+      <c r="I22" s="24" t="s">
+        <v>734</v>
       </c>
       <c r="J22" s="25" t="s">
-        <v>434</v>
+        <v>735</v>
       </c>
       <c r="K22" s="5"/>
     </row>
@@ -12079,26 +12094,26 @@
         <v>65</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>381</v>
+        <v>66</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>382</v>
+        <v>410</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="H23" s="5"/>
       <c r="I23" s="6" t="s">
-        <v>437</v>
+        <v>68</v>
       </c>
       <c r="J23" s="25" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="K23" s="5"/>
     </row>
@@ -12107,29 +12122,29 @@
         <v>10</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>70</v>
+        <v>381</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>71</v>
+        <v>382</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>72</v>
+        <v>435</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="H24" s="5"/>
       <c r="I24" s="6" t="s">
-        <v>73</v>
+        <v>437</v>
       </c>
       <c r="J24" s="25" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="K24" s="5"/>
     </row>
@@ -12141,26 +12156,26 @@
         <v>69</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>905</v>
+        <v>70</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="E25" s="5" t="s">
         <v>25</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="H25" s="5"/>
-      <c r="I25" s="24" t="s">
-        <v>862</v>
+      <c r="I25" s="6" t="s">
+        <v>73</v>
       </c>
       <c r="J25" s="25" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="K25" s="5"/>
     </row>
@@ -12172,26 +12187,26 @@
         <v>69</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>78</v>
+        <v>904</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>394</v>
+        <v>75</v>
       </c>
       <c r="E26" s="5" t="s">
         <v>25</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="H26" s="5"/>
-      <c r="I26" s="7" t="s">
-        <v>80</v>
+      <c r="I26" s="24" t="s">
+        <v>861</v>
       </c>
       <c r="J26" s="25" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="K26" s="5"/>
     </row>
@@ -12203,26 +12218,26 @@
         <v>69</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>410</v>
+        <v>394</v>
       </c>
       <c r="E27" s="5" t="s">
         <v>25</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="H27" s="5"/>
       <c r="I27" s="7" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="J27" s="25" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="K27" s="5"/>
     </row>
@@ -12234,7 +12249,7 @@
         <v>69</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D28" s="5" t="s">
         <v>410</v>
@@ -12243,17 +12258,17 @@
         <v>25</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="G28" s="5" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="H28" s="5"/>
-      <c r="I28" s="6" t="s">
-        <v>86</v>
+      <c r="I28" s="7" t="s">
+        <v>83</v>
       </c>
       <c r="J28" s="25" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="K28" s="5"/>
     </row>
@@ -12265,7 +12280,7 @@
         <v>69</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D29" s="5" t="s">
         <v>410</v>
@@ -12274,17 +12289,17 @@
         <v>25</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="G29" s="5" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="H29" s="5"/>
       <c r="I29" s="6" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="J29" s="25" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="K29" s="5"/>
     </row>
@@ -12296,26 +12311,26 @@
         <v>69</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>51</v>
+        <v>410</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="G30" s="5" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="H30" s="5"/>
       <c r="I30" s="6" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="J30" s="25" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="K30" s="5"/>
     </row>
@@ -12327,26 +12342,26 @@
         <v>69</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="G31" s="5" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="H31" s="5"/>
       <c r="I31" s="6" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="J31" s="25" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="K31" s="5"/>
     </row>
@@ -12358,26 +12373,26 @@
         <v>69</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>869</v>
+        <v>93</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E32" s="5" t="s">
         <v>25</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>870</v>
+        <v>94</v>
       </c>
       <c r="G32" s="5" t="s">
-        <v>871</v>
+        <v>453</v>
       </c>
       <c r="H32" s="5"/>
-      <c r="I32" s="24" t="s">
-        <v>872</v>
+      <c r="I32" s="6" t="s">
+        <v>95</v>
       </c>
       <c r="J32" s="25" t="s">
-        <v>873</v>
+        <v>454</v>
       </c>
       <c r="K32" s="5"/>
     </row>
@@ -12389,26 +12404,26 @@
         <v>69</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>96</v>
+        <v>868</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>418</v>
+        <v>51</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>97</v>
+        <v>869</v>
       </c>
       <c r="G33" s="5" t="s">
-        <v>455</v>
+        <v>870</v>
       </c>
       <c r="H33" s="5"/>
       <c r="I33" s="24" t="s">
-        <v>863</v>
+        <v>871</v>
       </c>
       <c r="J33" s="25" t="s">
-        <v>456</v>
+        <v>872</v>
       </c>
       <c r="K33" s="5"/>
     </row>
@@ -12417,29 +12432,29 @@
         <v>10</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>99</v>
+        <v>69</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>457</v>
+        <v>96</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>410</v>
+        <v>418</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>458</v>
+        <v>97</v>
       </c>
       <c r="G34" s="5" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="H34" s="5"/>
-      <c r="I34" s="6" t="s">
-        <v>460</v>
+      <c r="I34" s="24" t="s">
+        <v>862</v>
       </c>
       <c r="J34" s="25" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="K34" s="5"/>
     </row>
@@ -12451,26 +12466,26 @@
         <v>99</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>381</v>
+        <v>457</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>382</v>
+        <v>410</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="G35" s="5" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="H35" s="5"/>
       <c r="I35" s="6" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="J35" s="25" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="K35" s="5"/>
     </row>
@@ -12482,30 +12497,28 @@
         <v>99</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>100</v>
+        <v>381</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>47</v>
+        <v>382</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>101</v>
+        <v>462</v>
       </c>
       <c r="G36" s="5" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="H36" s="5"/>
       <c r="I36" s="6" t="s">
-        <v>102</v>
+        <v>464</v>
       </c>
       <c r="J36" s="25" t="s">
-        <v>467</v>
-      </c>
-      <c r="K36" s="5" t="s">
-        <v>103</v>
-      </c>
+        <v>465</v>
+      </c>
+      <c r="K36" s="5"/>
     </row>
     <row r="37" spans="1:11" ht="15.75" customHeight="1">
       <c r="A37" s="5" t="s">
@@ -12515,28 +12528,30 @@
         <v>99</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>468</v>
+        <v>47</v>
       </c>
       <c r="E37" s="5" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="F37" s="5" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="G37" s="5" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="H37" s="5"/>
-      <c r="I37" s="7" t="s">
-        <v>107</v>
+      <c r="I37" s="6" t="s">
+        <v>102</v>
       </c>
       <c r="J37" s="25" t="s">
-        <v>470</v>
-      </c>
-      <c r="K37" s="5"/>
+        <v>467</v>
+      </c>
+      <c r="K37" s="5" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="38" spans="1:11" ht="15.75" customHeight="1">
       <c r="A38" s="5" t="s">
@@ -12546,26 +12561,26 @@
         <v>99</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="E38" s="5" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>472</v>
+        <v>106</v>
       </c>
       <c r="G38" s="5" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="H38" s="5"/>
-      <c r="I38" s="6" t="s">
-        <v>474</v>
+      <c r="I38" s="7" t="s">
+        <v>107</v>
       </c>
       <c r="J38" s="25" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
       <c r="K38" s="5"/>
     </row>
@@ -12577,26 +12592,26 @@
         <v>99</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>55</v>
+        <v>471</v>
       </c>
       <c r="E39" s="5" t="s">
         <v>25</v>
       </c>
       <c r="F39" s="5" t="s">
-        <v>113</v>
+        <v>472</v>
       </c>
       <c r="G39" s="5" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="H39" s="5"/>
       <c r="I39" s="6" t="s">
-        <v>114</v>
+        <v>474</v>
       </c>
       <c r="J39" s="25" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="K39" s="5"/>
     </row>
@@ -12608,69 +12623,69 @@
         <v>99</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>727</v>
+        <v>112</v>
       </c>
       <c r="D40" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="E40" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F40" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="G40" s="5" t="s">
+        <v>476</v>
+      </c>
+      <c r="H40" s="5"/>
+      <c r="I40" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="J40" s="25" t="s">
+        <v>477</v>
+      </c>
+      <c r="K40" s="5"/>
+    </row>
+    <row r="41" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A41" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>726</v>
+      </c>
+      <c r="D41" s="5" t="s">
         <v>181</v>
       </c>
-      <c r="E40" s="5" t="s">
+      <c r="E41" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="F40" s="5" t="s">
+      <c r="F41" s="5" t="s">
+        <v>736</v>
+      </c>
+      <c r="G41" s="5" t="s">
         <v>737</v>
-      </c>
-      <c r="G40" s="5" t="s">
-        <v>738</v>
-      </c>
-      <c r="H40" s="5"/>
-      <c r="I40" s="24" t="s">
-        <v>739</v>
-      </c>
-      <c r="J40" s="25" t="s">
-        <v>740</v>
-      </c>
-      <c r="K40" s="5"/>
-    </row>
-    <row r="41" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A41" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="B41" s="23" t="s">
-        <v>99</v>
-      </c>
-      <c r="C41" s="5" t="s">
-        <v>728</v>
-      </c>
-      <c r="D41" s="5" t="s">
-        <v>410</v>
-      </c>
-      <c r="E41" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="F41" s="5" t="s">
-        <v>741</v>
-      </c>
-      <c r="G41" s="5" t="s">
-        <v>742</v>
       </c>
       <c r="H41" s="5"/>
       <c r="I41" s="24" t="s">
-        <v>743</v>
+        <v>738</v>
       </c>
       <c r="J41" s="25" t="s">
-        <v>744</v>
+        <v>739</v>
       </c>
       <c r="K41" s="5"/>
     </row>
     <row r="42" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A42" s="5" t="s">
+      <c r="A42" s="23" t="s">
         <v>10</v>
       </c>
       <c r="B42" s="23" t="s">
-        <v>900</v>
+        <v>99</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>898</v>
+        <v>727</v>
       </c>
       <c r="D42" s="5" t="s">
         <v>410</v>
@@ -12679,17 +12694,17 @@
         <v>25</v>
       </c>
       <c r="F42" s="5" t="s">
-        <v>925</v>
+        <v>740</v>
       </c>
       <c r="G42" s="5" t="s">
-        <v>926</v>
+        <v>741</v>
       </c>
       <c r="H42" s="5"/>
       <c r="I42" s="24" t="s">
-        <v>927</v>
+        <v>742</v>
       </c>
       <c r="J42" s="25" t="s">
-        <v>928</v>
+        <v>743</v>
       </c>
       <c r="K42" s="5"/>
     </row>
@@ -12697,30 +12712,30 @@
       <c r="A43" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B43" s="5" t="s">
-        <v>115</v>
+      <c r="B43" s="23" t="s">
+        <v>899</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>478</v>
+        <v>897</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>47</v>
+        <v>410</v>
       </c>
       <c r="E43" s="5" t="s">
         <v>25</v>
       </c>
       <c r="F43" s="5" t="s">
-        <v>479</v>
+        <v>924</v>
       </c>
       <c r="G43" s="5" t="s">
-        <v>480</v>
+        <v>925</v>
       </c>
       <c r="H43" s="5"/>
-      <c r="I43" s="6" t="s">
-        <v>481</v>
+      <c r="I43" s="24" t="s">
+        <v>926</v>
       </c>
       <c r="J43" s="25" t="s">
-        <v>482</v>
+        <v>927</v>
       </c>
       <c r="K43" s="5"/>
     </row>
@@ -12732,26 +12747,26 @@
         <v>115</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>116</v>
+        <v>478</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>117</v>
+        <v>47</v>
       </c>
       <c r="E44" s="5" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="F44" s="5" t="s">
-        <v>118</v>
+        <v>479</v>
       </c>
       <c r="G44" s="5" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="H44" s="5"/>
-      <c r="I44" s="24" t="s">
-        <v>855</v>
+      <c r="I44" s="6" t="s">
+        <v>481</v>
       </c>
       <c r="J44" s="25" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="K44" s="5"/>
     </row>
@@ -12763,26 +12778,26 @@
         <v>115</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>850</v>
+        <v>116</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>410</v>
+        <v>117</v>
       </c>
       <c r="E45" s="5" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="F45" s="5" t="s">
-        <v>851</v>
+        <v>118</v>
       </c>
       <c r="G45" s="5" t="s">
-        <v>852</v>
+        <v>483</v>
       </c>
       <c r="H45" s="5"/>
       <c r="I45" s="24" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="J45" s="25" t="s">
-        <v>854</v>
+        <v>484</v>
       </c>
       <c r="K45" s="5"/>
     </row>
@@ -12794,26 +12809,26 @@
         <v>115</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>879</v>
+        <v>849</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>117</v>
+        <v>410</v>
       </c>
       <c r="E46" s="5" t="s">
         <v>25</v>
       </c>
       <c r="F46" s="5" t="s">
-        <v>880</v>
+        <v>850</v>
       </c>
       <c r="G46" s="5" t="s">
-        <v>881</v>
+        <v>851</v>
       </c>
       <c r="H46" s="5"/>
       <c r="I46" s="24" t="s">
-        <v>882</v>
+        <v>852</v>
       </c>
       <c r="J46" s="25" t="s">
-        <v>883</v>
+        <v>853</v>
       </c>
       <c r="K46" s="5"/>
     </row>
@@ -12825,26 +12840,26 @@
         <v>115</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>874</v>
+        <v>878</v>
       </c>
       <c r="D47" s="5" t="s">
-        <v>410</v>
+        <v>117</v>
       </c>
       <c r="E47" s="5" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="F47" s="5" t="s">
-        <v>875</v>
+        <v>879</v>
       </c>
       <c r="G47" s="5" t="s">
-        <v>876</v>
+        <v>880</v>
       </c>
       <c r="H47" s="5"/>
       <c r="I47" s="24" t="s">
-        <v>877</v>
+        <v>881</v>
       </c>
       <c r="J47" s="25" t="s">
-        <v>878</v>
+        <v>882</v>
       </c>
       <c r="K47" s="5"/>
     </row>
@@ -12856,26 +12871,26 @@
         <v>115</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>991</v>
+        <v>873</v>
       </c>
       <c r="D48" s="5" t="s">
         <v>410</v>
       </c>
       <c r="E48" s="5" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="F48" s="5" t="s">
-        <v>993</v>
+        <v>874</v>
       </c>
       <c r="G48" s="5" t="s">
-        <v>994</v>
+        <v>875</v>
       </c>
       <c r="H48" s="5"/>
       <c r="I48" s="24" t="s">
-        <v>995</v>
+        <v>876</v>
       </c>
       <c r="J48" s="25" t="s">
-        <v>996</v>
+        <v>877</v>
       </c>
       <c r="K48" s="5"/>
     </row>
@@ -12887,26 +12902,26 @@
         <v>115</v>
       </c>
       <c r="C49" s="5" t="s">
+        <v>990</v>
+      </c>
+      <c r="D49" s="5" t="s">
+        <v>410</v>
+      </c>
+      <c r="E49" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F49" s="5" t="s">
         <v>992</v>
       </c>
-      <c r="D49" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="E49" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="F49" s="5" t="s">
-        <v>997</v>
-      </c>
       <c r="G49" s="5" t="s">
-        <v>998</v>
+        <v>993</v>
       </c>
       <c r="H49" s="5"/>
       <c r="I49" s="24" t="s">
-        <v>999</v>
+        <v>994</v>
       </c>
       <c r="J49" s="25" t="s">
-        <v>1000</v>
+        <v>995</v>
       </c>
       <c r="K49" s="5"/>
     </row>
@@ -12915,29 +12930,29 @@
         <v>10</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>121</v>
+        <v>991</v>
       </c>
       <c r="D50" s="5" t="s">
-        <v>410</v>
+        <v>117</v>
       </c>
       <c r="E50" s="5" t="s">
         <v>25</v>
       </c>
       <c r="F50" s="5" t="s">
-        <v>122</v>
+        <v>996</v>
       </c>
       <c r="G50" s="5" t="s">
-        <v>485</v>
+        <v>997</v>
       </c>
       <c r="H50" s="5"/>
-      <c r="I50" s="6" t="s">
-        <v>123</v>
+      <c r="I50" s="24" t="s">
+        <v>998</v>
       </c>
       <c r="J50" s="25" t="s">
-        <v>486</v>
+        <v>999</v>
       </c>
       <c r="K50" s="5"/>
     </row>
@@ -12946,29 +12961,29 @@
         <v>10</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="D51" s="5" t="s">
-        <v>47</v>
+        <v>410</v>
       </c>
       <c r="E51" s="5" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="F51" s="5" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="G51" s="5" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="H51" s="5"/>
       <c r="I51" s="6" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="J51" s="25" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="K51" s="5"/>
     </row>
@@ -12977,62 +12992,62 @@
         <v>10</v>
       </c>
       <c r="B52" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="C52" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="D52" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E52" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F52" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="G52" s="5" t="s">
+        <v>487</v>
+      </c>
+      <c r="H52" s="5"/>
+      <c r="I52" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="J52" s="25" t="s">
+        <v>488</v>
+      </c>
+      <c r="K52" s="5"/>
+    </row>
+    <row r="53" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A53" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B53" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="C52" s="5" t="s">
+      <c r="C53" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="D52" s="5" t="s">
+      <c r="D53" s="5" t="s">
         <v>410</v>
       </c>
-      <c r="E52" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="F52" s="5" t="s">
+      <c r="E53" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F53" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="G52" s="5" t="s">
+      <c r="G53" s="5" t="s">
         <v>489</v>
       </c>
-      <c r="H52" s="5"/>
-      <c r="I52" s="7" t="s">
+      <c r="H53" s="5"/>
+      <c r="I53" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="J52" s="25" t="s">
+      <c r="J53" s="25" t="s">
         <v>490</v>
       </c>
-      <c r="K52" s="5"/>
-    </row>
-    <row r="53" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A53" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="B53" s="9" t="s">
-        <v>133</v>
-      </c>
-      <c r="C53" s="9" t="s">
-        <v>491</v>
-      </c>
-      <c r="D53" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="E53" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F53" s="9" t="s">
-        <v>492</v>
-      </c>
-      <c r="G53" s="9" t="s">
-        <v>493</v>
-      </c>
-      <c r="H53" s="9"/>
-      <c r="I53" s="10" t="s">
-        <v>494</v>
-      </c>
-      <c r="J53" s="26" t="s">
-        <v>495</v>
-      </c>
-      <c r="K53" s="9"/>
+      <c r="K53" s="5"/>
     </row>
     <row r="54" spans="1:11" ht="15.75" customHeight="1">
       <c r="A54" s="9" t="s">
@@ -13042,26 +13057,26 @@
         <v>133</v>
       </c>
       <c r="C54" s="9" t="s">
-        <v>902</v>
+        <v>491</v>
       </c>
       <c r="D54" s="9" t="s">
-        <v>410</v>
+        <v>47</v>
       </c>
       <c r="E54" s="9" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="F54" s="9" t="s">
-        <v>135</v>
+        <v>492</v>
       </c>
       <c r="G54" s="9" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="H54" s="9"/>
       <c r="I54" s="10" t="s">
-        <v>136</v>
+        <v>494</v>
       </c>
       <c r="J54" s="26" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="K54" s="9"/>
     </row>
@@ -13073,7 +13088,7 @@
         <v>133</v>
       </c>
       <c r="C55" s="9" t="s">
-        <v>498</v>
+        <v>901</v>
       </c>
       <c r="D55" s="9" t="s">
         <v>410</v>
@@ -13082,17 +13097,17 @@
         <v>25</v>
       </c>
       <c r="F55" s="9" t="s">
-        <v>499</v>
+        <v>135</v>
       </c>
       <c r="G55" s="9" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="H55" s="9"/>
       <c r="I55" s="10" t="s">
-        <v>501</v>
+        <v>136</v>
       </c>
       <c r="J55" s="26" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
       <c r="K55" s="9"/>
     </row>
@@ -13104,26 +13119,26 @@
         <v>133</v>
       </c>
       <c r="C56" s="9" t="s">
-        <v>137</v>
+        <v>498</v>
       </c>
       <c r="D56" s="9" t="s">
-        <v>471</v>
+        <v>410</v>
       </c>
       <c r="E56" s="9" t="s">
         <v>25</v>
       </c>
       <c r="F56" s="9" t="s">
-        <v>138</v>
+        <v>499</v>
       </c>
       <c r="G56" s="9" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="H56" s="9"/>
       <c r="I56" s="10" t="s">
-        <v>139</v>
+        <v>501</v>
       </c>
       <c r="J56" s="26" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="K56" s="9"/>
     </row>
@@ -13135,26 +13150,26 @@
         <v>133</v>
       </c>
       <c r="C57" s="9" t="s">
-        <v>381</v>
+        <v>137</v>
       </c>
       <c r="D57" s="9" t="s">
-        <v>382</v>
+        <v>471</v>
       </c>
       <c r="E57" s="9" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="F57" s="9" t="s">
-        <v>505</v>
+        <v>138</v>
       </c>
       <c r="G57" s="9" t="s">
-        <v>779</v>
+        <v>503</v>
       </c>
       <c r="H57" s="9"/>
       <c r="I57" s="10" t="s">
-        <v>506</v>
+        <v>139</v>
       </c>
       <c r="J57" s="26" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="K57" s="9"/>
     </row>
@@ -13166,26 +13181,26 @@
         <v>133</v>
       </c>
       <c r="C58" s="9" t="s">
-        <v>905</v>
+        <v>381</v>
       </c>
       <c r="D58" s="9" t="s">
-        <v>75</v>
+        <v>382</v>
       </c>
       <c r="E58" s="9" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="F58" s="9" t="s">
-        <v>141</v>
+        <v>505</v>
       </c>
       <c r="G58" s="9" t="s">
-        <v>508</v>
+        <v>778</v>
       </c>
       <c r="H58" s="9"/>
-      <c r="I58" s="28" t="s">
-        <v>856</v>
+      <c r="I58" s="10" t="s">
+        <v>506</v>
       </c>
       <c r="J58" s="26" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="K58" s="9"/>
     </row>
@@ -13206,17 +13221,17 @@
         <v>25</v>
       </c>
       <c r="F59" s="9" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="G59" s="9" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="H59" s="9"/>
       <c r="I59" s="28" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="J59" s="26" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="K59" s="9"/>
     </row>
@@ -13228,26 +13243,26 @@
         <v>133</v>
       </c>
       <c r="C60" s="9" t="s">
-        <v>146</v>
+        <v>903</v>
       </c>
       <c r="D60" s="9" t="s">
-        <v>512</v>
+        <v>75</v>
       </c>
       <c r="E60" s="9" t="s">
         <v>25</v>
       </c>
       <c r="F60" s="9" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="G60" s="9" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="H60" s="9"/>
-      <c r="I60" s="11" t="s">
-        <v>149</v>
+      <c r="I60" s="28" t="s">
+        <v>856</v>
       </c>
       <c r="J60" s="26" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="K60" s="9"/>
     </row>
@@ -13259,30 +13274,30 @@
         <v>133</v>
       </c>
       <c r="C61" s="9" t="s">
-        <v>840</v>
+        <v>146</v>
       </c>
       <c r="D61" s="9" t="s">
-        <v>410</v>
+        <v>512</v>
       </c>
       <c r="E61" s="9" t="s">
         <v>25</v>
       </c>
       <c r="F61" s="9" t="s">
-        <v>841</v>
+        <v>148</v>
       </c>
       <c r="G61" s="9" t="s">
-        <v>842</v>
+        <v>513</v>
       </c>
       <c r="H61" s="9"/>
-      <c r="I61" s="28" t="s">
-        <v>843</v>
+      <c r="I61" s="11" t="s">
+        <v>149</v>
       </c>
       <c r="J61" s="26" t="s">
-        <v>844</v>
+        <v>514</v>
       </c>
       <c r="K61" s="9"/>
     </row>
-    <row r="62" spans="1:11" ht="13">
+    <row r="62" spans="1:11" ht="15.75" customHeight="1">
       <c r="A62" s="9" t="s">
         <v>132</v>
       </c>
@@ -13290,26 +13305,26 @@
         <v>133</v>
       </c>
       <c r="C62" s="9" t="s">
-        <v>907</v>
+        <v>839</v>
       </c>
       <c r="D62" s="9" t="s">
-        <v>55</v>
+        <v>410</v>
       </c>
       <c r="E62" s="9" t="s">
         <v>25</v>
       </c>
       <c r="F62" s="9" t="s">
-        <v>151</v>
+        <v>840</v>
       </c>
       <c r="G62" s="9" t="s">
-        <v>515</v>
+        <v>841</v>
       </c>
       <c r="H62" s="9"/>
-      <c r="I62" s="10" t="s">
-        <v>152</v>
+      <c r="I62" s="28" t="s">
+        <v>842</v>
       </c>
       <c r="J62" s="26" t="s">
-        <v>516</v>
+        <v>843</v>
       </c>
       <c r="K62" s="9"/>
     </row>
@@ -13321,26 +13336,26 @@
         <v>133</v>
       </c>
       <c r="C63" s="9" t="s">
-        <v>153</v>
+        <v>906</v>
       </c>
       <c r="D63" s="9" t="s">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="E63" s="9" t="s">
         <v>25</v>
       </c>
       <c r="F63" s="9" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="G63" s="9" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="H63" s="9"/>
       <c r="I63" s="10" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="J63" s="26" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="K63" s="9"/>
     </row>
@@ -13352,26 +13367,26 @@
         <v>133</v>
       </c>
       <c r="C64" s="9" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="D64" s="9" t="s">
-        <v>157</v>
+        <v>75</v>
       </c>
       <c r="E64" s="9" t="s">
         <v>25</v>
       </c>
       <c r="F64" s="9" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="G64" s="9" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="H64" s="9"/>
       <c r="I64" s="10" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="J64" s="26" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="K64" s="9"/>
     </row>
@@ -13383,26 +13398,26 @@
         <v>133</v>
       </c>
       <c r="C65" s="9" t="s">
-        <v>780</v>
+        <v>156</v>
       </c>
       <c r="D65" s="9" t="s">
-        <v>47</v>
+        <v>157</v>
       </c>
       <c r="E65" s="9" t="s">
         <v>25</v>
       </c>
       <c r="F65" s="9" t="s">
-        <v>793</v>
+        <v>158</v>
       </c>
       <c r="G65" s="9" t="s">
-        <v>794</v>
+        <v>519</v>
       </c>
       <c r="H65" s="9"/>
-      <c r="I65" s="28" t="s">
-        <v>795</v>
+      <c r="I65" s="10" t="s">
+        <v>159</v>
       </c>
       <c r="J65" s="26" t="s">
-        <v>796</v>
+        <v>520</v>
       </c>
       <c r="K65" s="9"/>
     </row>
@@ -13414,26 +13429,26 @@
         <v>133</v>
       </c>
       <c r="C66" s="9" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="D66" s="9" t="s">
-        <v>410</v>
+        <v>47</v>
       </c>
       <c r="E66" s="9" t="s">
         <v>25</v>
       </c>
       <c r="F66" s="9" t="s">
-        <v>797</v>
+        <v>792</v>
       </c>
       <c r="G66" s="9" t="s">
-        <v>798</v>
+        <v>793</v>
       </c>
       <c r="H66" s="9"/>
       <c r="I66" s="28" t="s">
-        <v>799</v>
+        <v>794</v>
       </c>
       <c r="J66" s="26" t="s">
-        <v>800</v>
+        <v>795</v>
       </c>
       <c r="K66" s="9"/>
     </row>
@@ -13445,26 +13460,26 @@
         <v>133</v>
       </c>
       <c r="C67" s="9" t="s">
-        <v>903</v>
+        <v>780</v>
       </c>
       <c r="D67" s="9" t="s">
-        <v>75</v>
+        <v>410</v>
       </c>
       <c r="E67" s="9" t="s">
         <v>25</v>
       </c>
       <c r="F67" s="9" t="s">
-        <v>929</v>
+        <v>796</v>
       </c>
       <c r="G67" s="9" t="s">
-        <v>930</v>
+        <v>797</v>
       </c>
       <c r="H67" s="9"/>
       <c r="I67" s="28" t="s">
-        <v>931</v>
+        <v>798</v>
       </c>
       <c r="J67" s="26" t="s">
-        <v>932</v>
+        <v>799</v>
       </c>
       <c r="K67" s="9"/>
     </row>
@@ -13476,26 +13491,26 @@
         <v>133</v>
       </c>
       <c r="C68" s="9" t="s">
-        <v>782</v>
+        <v>902</v>
       </c>
       <c r="D68" s="9" t="s">
-        <v>47</v>
+        <v>75</v>
       </c>
       <c r="E68" s="9" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="F68" s="9" t="s">
-        <v>801</v>
+        <v>928</v>
       </c>
       <c r="G68" s="9" t="s">
-        <v>802</v>
+        <v>929</v>
       </c>
       <c r="H68" s="9"/>
       <c r="I68" s="28" t="s">
-        <v>803</v>
+        <v>930</v>
       </c>
       <c r="J68" s="26" t="s">
-        <v>804</v>
+        <v>931</v>
       </c>
       <c r="K68" s="9"/>
     </row>
@@ -13507,26 +13522,26 @@
         <v>133</v>
       </c>
       <c r="C69" s="9" t="s">
-        <v>724</v>
+        <v>781</v>
       </c>
       <c r="D69" s="9" t="s">
-        <v>117</v>
+        <v>47</v>
       </c>
       <c r="E69" s="9" t="s">
         <v>14</v>
       </c>
       <c r="F69" s="9" t="s">
-        <v>805</v>
+        <v>800</v>
       </c>
       <c r="G69" s="9" t="s">
-        <v>806</v>
+        <v>801</v>
       </c>
       <c r="H69" s="9"/>
       <c r="I69" s="28" t="s">
-        <v>807</v>
+        <v>802</v>
       </c>
       <c r="J69" s="26" t="s">
-        <v>808</v>
+        <v>803</v>
       </c>
       <c r="K69" s="9"/>
     </row>
@@ -13538,26 +13553,26 @@
         <v>133</v>
       </c>
       <c r="C70" s="9" t="s">
-        <v>160</v>
+        <v>723</v>
       </c>
       <c r="D70" s="9" t="s">
-        <v>55</v>
+        <v>117</v>
       </c>
       <c r="E70" s="9" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="F70" s="9" t="s">
-        <v>161</v>
+        <v>804</v>
       </c>
       <c r="G70" s="9" t="s">
-        <v>521</v>
+        <v>805</v>
       </c>
       <c r="H70" s="9"/>
-      <c r="I70" s="10" t="s">
-        <v>162</v>
+      <c r="I70" s="28" t="s">
+        <v>806</v>
       </c>
       <c r="J70" s="26" t="s">
-        <v>522</v>
+        <v>807</v>
       </c>
       <c r="K70" s="9"/>
     </row>
@@ -13569,25 +13584,27 @@
         <v>133</v>
       </c>
       <c r="C71" s="9" t="s">
-        <v>906</v>
+        <v>160</v>
       </c>
       <c r="D71" s="9" t="s">
-        <v>402</v>
+        <v>55</v>
       </c>
       <c r="E71" s="9" t="s">
         <v>25</v>
       </c>
       <c r="F71" s="9" t="s">
-        <v>933</v>
+        <v>161</v>
       </c>
       <c r="G71" s="9" t="s">
-        <v>934</v>
+        <v>521</v>
       </c>
       <c r="H71" s="9"/>
-      <c r="I71" s="28" t="s">
-        <v>935</v>
-      </c>
-      <c r="J71" s="26"/>
+      <c r="I71" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="J71" s="26" t="s">
+        <v>522</v>
+      </c>
       <c r="K71" s="9"/>
     </row>
     <row r="72" spans="1:11" ht="13">
@@ -13595,30 +13612,28 @@
         <v>132</v>
       </c>
       <c r="B72" s="9" t="s">
-        <v>163</v>
+        <v>133</v>
       </c>
       <c r="C72" s="9" t="s">
-        <v>164</v>
+        <v>905</v>
       </c>
       <c r="D72" s="9" t="s">
-        <v>410</v>
+        <v>402</v>
       </c>
       <c r="E72" s="9" t="s">
         <v>25</v>
       </c>
       <c r="F72" s="9" t="s">
-        <v>165</v>
+        <v>932</v>
       </c>
       <c r="G72" s="9" t="s">
-        <v>523</v>
+        <v>933</v>
       </c>
       <c r="H72" s="9"/>
-      <c r="I72" s="10" t="s">
-        <v>166</v>
-      </c>
-      <c r="J72" s="26" t="s">
-        <v>524</v>
-      </c>
+      <c r="I72" s="28" t="s">
+        <v>934</v>
+      </c>
+      <c r="J72" s="26"/>
       <c r="K72" s="9"/>
     </row>
     <row r="73" spans="1:11" ht="13">
@@ -13629,7 +13644,7 @@
         <v>163</v>
       </c>
       <c r="C73" s="9" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="D73" s="9" t="s">
         <v>410</v>
@@ -13638,17 +13653,17 @@
         <v>25</v>
       </c>
       <c r="F73" s="9" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="G73" s="9" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="H73" s="9"/>
       <c r="I73" s="10" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="J73" s="26" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="K73" s="9"/>
     </row>
@@ -13660,26 +13675,26 @@
         <v>163</v>
       </c>
       <c r="C74" s="9" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="D74" s="9" t="s">
-        <v>117</v>
+        <v>410</v>
       </c>
       <c r="E74" s="9" t="s">
         <v>25</v>
       </c>
       <c r="F74" s="9" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="G74" s="9" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="H74" s="9"/>
-      <c r="I74" s="28" t="s">
-        <v>858</v>
+      <c r="I74" s="10" t="s">
+        <v>169</v>
       </c>
       <c r="J74" s="26" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="K74" s="9"/>
     </row>
@@ -13691,7 +13706,7 @@
         <v>163</v>
       </c>
       <c r="C75" s="9" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="D75" s="9" t="s">
         <v>117</v>
@@ -13700,17 +13715,17 @@
         <v>25</v>
       </c>
       <c r="F75" s="9" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="G75" s="9" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="H75" s="9"/>
-      <c r="I75" s="10" t="s">
-        <v>175</v>
+      <c r="I75" s="28" t="s">
+        <v>857</v>
       </c>
       <c r="J75" s="26" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="K75" s="9"/>
     </row>
@@ -13722,26 +13737,26 @@
         <v>163</v>
       </c>
       <c r="C76" s="9" t="s">
-        <v>845</v>
+        <v>173</v>
       </c>
       <c r="D76" s="9" t="s">
-        <v>410</v>
+        <v>117</v>
       </c>
       <c r="E76" s="9" t="s">
         <v>25</v>
       </c>
       <c r="F76" s="9" t="s">
-        <v>846</v>
+        <v>174</v>
       </c>
       <c r="G76" s="9" t="s">
-        <v>847</v>
+        <v>529</v>
       </c>
       <c r="H76" s="9"/>
-      <c r="I76" s="28" t="s">
-        <v>848</v>
+      <c r="I76" s="10" t="s">
+        <v>175</v>
       </c>
       <c r="J76" s="26" t="s">
-        <v>849</v>
+        <v>530</v>
       </c>
       <c r="K76" s="9"/>
     </row>
@@ -13753,26 +13768,26 @@
         <v>163</v>
       </c>
       <c r="C77" s="9" t="s">
-        <v>1013</v>
+        <v>844</v>
       </c>
       <c r="D77" s="9" t="s">
-        <v>312</v>
+        <v>410</v>
       </c>
       <c r="E77" s="9" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="F77" s="9" t="s">
-        <v>1014</v>
+        <v>845</v>
       </c>
       <c r="G77" s="9" t="s">
-        <v>1015</v>
+        <v>846</v>
       </c>
       <c r="H77" s="9"/>
       <c r="I77" s="28" t="s">
-        <v>1016</v>
+        <v>847</v>
       </c>
       <c r="J77" s="26" t="s">
-        <v>1017</v>
+        <v>848</v>
       </c>
       <c r="K77" s="9"/>
     </row>
@@ -13781,29 +13796,29 @@
         <v>132</v>
       </c>
       <c r="B78" s="9" t="s">
-        <v>725</v>
+        <v>163</v>
       </c>
       <c r="C78" s="9" t="s">
-        <v>724</v>
+        <v>1012</v>
       </c>
       <c r="D78" s="9" t="s">
-        <v>410</v>
+        <v>312</v>
       </c>
       <c r="E78" s="9" t="s">
         <v>14</v>
       </c>
       <c r="F78" s="9" t="s">
-        <v>745</v>
+        <v>1013</v>
       </c>
       <c r="G78" s="9" t="s">
-        <v>746</v>
+        <v>1014</v>
       </c>
       <c r="H78" s="9"/>
       <c r="I78" s="28" t="s">
-        <v>747</v>
+        <v>1015</v>
       </c>
       <c r="J78" s="26" t="s">
-        <v>748</v>
+        <v>1016</v>
       </c>
       <c r="K78" s="9"/>
     </row>
@@ -13812,29 +13827,29 @@
         <v>132</v>
       </c>
       <c r="B79" s="9" t="s">
-        <v>531</v>
+        <v>724</v>
       </c>
       <c r="C79" s="9" t="s">
-        <v>532</v>
+        <v>723</v>
       </c>
       <c r="D79" s="9" t="s">
-        <v>157</v>
+        <v>410</v>
       </c>
       <c r="E79" s="9" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="F79" s="9" t="s">
-        <v>533</v>
+        <v>744</v>
       </c>
       <c r="G79" s="9" t="s">
-        <v>534</v>
+        <v>745</v>
       </c>
       <c r="H79" s="9"/>
-      <c r="I79" s="11" t="s">
-        <v>535</v>
+      <c r="I79" s="28" t="s">
+        <v>746</v>
       </c>
       <c r="J79" s="26" t="s">
-        <v>536</v>
+        <v>747</v>
       </c>
       <c r="K79" s="9"/>
     </row>
@@ -13846,26 +13861,26 @@
         <v>531</v>
       </c>
       <c r="C80" s="9" t="s">
-        <v>381</v>
+        <v>532</v>
       </c>
       <c r="D80" s="9" t="s">
-        <v>382</v>
+        <v>157</v>
       </c>
       <c r="E80" s="9" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="F80" s="9" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="G80" s="9" t="s">
-        <v>778</v>
+        <v>534</v>
       </c>
       <c r="H80" s="9"/>
-      <c r="I80" s="10" t="s">
-        <v>538</v>
+      <c r="I80" s="11" t="s">
+        <v>535</v>
       </c>
       <c r="J80" s="26" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="K80" s="9"/>
     </row>
@@ -13874,29 +13889,29 @@
         <v>132</v>
       </c>
       <c r="B81" s="9" t="s">
-        <v>176</v>
+        <v>531</v>
       </c>
       <c r="C81" s="9" t="s">
-        <v>540</v>
+        <v>381</v>
       </c>
       <c r="D81" s="9" t="s">
-        <v>410</v>
+        <v>382</v>
       </c>
       <c r="E81" s="9" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="F81" s="9" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="G81" s="9" t="s">
-        <v>542</v>
+        <v>777</v>
       </c>
       <c r="H81" s="9"/>
       <c r="I81" s="10" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
       <c r="J81" s="26" t="s">
-        <v>544</v>
+        <v>539</v>
       </c>
       <c r="K81" s="9"/>
     </row>
@@ -13908,7 +13923,7 @@
         <v>176</v>
       </c>
       <c r="C82" s="9" t="s">
-        <v>177</v>
+        <v>540</v>
       </c>
       <c r="D82" s="9" t="s">
         <v>410</v>
@@ -13917,17 +13932,17 @@
         <v>25</v>
       </c>
       <c r="F82" s="9" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="G82" s="9" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="H82" s="9"/>
       <c r="I82" s="10" t="s">
-        <v>179</v>
+        <v>543</v>
       </c>
       <c r="J82" s="26" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="K82" s="9"/>
     </row>
@@ -13939,26 +13954,26 @@
         <v>176</v>
       </c>
       <c r="C83" s="9" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D83" s="9" t="s">
-        <v>181</v>
+        <v>410</v>
       </c>
       <c r="E83" s="9" t="s">
         <v>25</v>
       </c>
       <c r="F83" s="9" t="s">
-        <v>182</v>
+        <v>545</v>
       </c>
       <c r="G83" s="9" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="H83" s="9"/>
       <c r="I83" s="10" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="J83" s="26" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="K83" s="9"/>
     </row>
@@ -13967,29 +13982,29 @@
         <v>132</v>
       </c>
       <c r="B84" s="9" t="s">
-        <v>1001</v>
+        <v>176</v>
       </c>
       <c r="C84" s="9" t="s">
-        <v>1002</v>
+        <v>180</v>
       </c>
       <c r="D84" s="9" t="s">
-        <v>410</v>
+        <v>181</v>
       </c>
       <c r="E84" s="9" t="s">
         <v>25</v>
       </c>
       <c r="F84" s="9" t="s">
-        <v>1003</v>
+        <v>182</v>
       </c>
       <c r="G84" s="9" t="s">
-        <v>1004</v>
+        <v>548</v>
       </c>
       <c r="H84" s="9"/>
-      <c r="I84" s="28" t="s">
-        <v>1005</v>
+      <c r="I84" s="10" t="s">
+        <v>183</v>
       </c>
       <c r="J84" s="26" t="s">
-        <v>1006</v>
+        <v>549</v>
       </c>
       <c r="K84" s="9"/>
     </row>
@@ -13998,10 +14013,10 @@
         <v>132</v>
       </c>
       <c r="B85" s="9" t="s">
-        <v>184</v>
+        <v>1000</v>
       </c>
       <c r="C85" s="9" t="s">
-        <v>185</v>
+        <v>1001</v>
       </c>
       <c r="D85" s="9" t="s">
         <v>410</v>
@@ -14010,17 +14025,17 @@
         <v>25</v>
       </c>
       <c r="F85" s="9" t="s">
-        <v>186</v>
+        <v>1002</v>
       </c>
       <c r="G85" s="9" t="s">
-        <v>550</v>
+        <v>1003</v>
       </c>
       <c r="H85" s="9"/>
-      <c r="I85" s="10" t="s">
-        <v>187</v>
+      <c r="I85" s="28" t="s">
+        <v>1004</v>
       </c>
       <c r="J85" s="26" t="s">
-        <v>551</v>
+        <v>1005</v>
       </c>
       <c r="K85" s="9"/>
     </row>
@@ -14032,26 +14047,26 @@
         <v>184</v>
       </c>
       <c r="C86" s="9" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="D86" s="9" t="s">
-        <v>117</v>
+        <v>410</v>
       </c>
       <c r="E86" s="9" t="s">
         <v>25</v>
       </c>
       <c r="F86" s="9" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="G86" s="9" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="H86" s="9"/>
       <c r="I86" s="10" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="J86" s="26" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="K86" s="9"/>
     </row>
@@ -14063,26 +14078,26 @@
         <v>184</v>
       </c>
       <c r="C87" s="9" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="D87" s="9" t="s">
-        <v>192</v>
+        <v>117</v>
       </c>
       <c r="E87" s="9" t="s">
         <v>25</v>
       </c>
       <c r="F87" s="9" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="G87" s="9" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="H87" s="9"/>
       <c r="I87" s="10" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="J87" s="26" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="K87" s="9"/>
     </row>
@@ -14094,26 +14109,26 @@
         <v>184</v>
       </c>
       <c r="C88" s="9" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="D88" s="9" t="s">
-        <v>51</v>
+        <v>192</v>
       </c>
       <c r="E88" s="9" t="s">
         <v>25</v>
       </c>
       <c r="F88" s="9" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="G88" s="9" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="H88" s="9"/>
       <c r="I88" s="10" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="J88" s="26" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="K88" s="9"/>
     </row>
@@ -14125,26 +14140,26 @@
         <v>184</v>
       </c>
       <c r="C89" s="9" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="D89" s="9" t="s">
-        <v>418</v>
+        <v>51</v>
       </c>
       <c r="E89" s="9" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="F89" s="9" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="G89" s="9" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="H89" s="9"/>
       <c r="I89" s="10" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="J89" s="26" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="K89" s="9"/>
     </row>
@@ -14156,7 +14171,7 @@
         <v>184</v>
       </c>
       <c r="C90" s="9" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="D90" s="9" t="s">
         <v>418</v>
@@ -14165,17 +14180,17 @@
         <v>14</v>
       </c>
       <c r="F90" s="9" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="G90" s="9" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="H90" s="9"/>
       <c r="I90" s="10" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="J90" s="26" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="K90" s="9"/>
     </row>
@@ -14186,8 +14201,8 @@
       <c r="B91" s="9" t="s">
         <v>184</v>
       </c>
-      <c r="C91" s="12" t="s">
-        <v>204</v>
+      <c r="C91" s="9" t="s">
+        <v>201</v>
       </c>
       <c r="D91" s="9" t="s">
         <v>418</v>
@@ -14196,17 +14211,17 @@
         <v>14</v>
       </c>
       <c r="F91" s="9" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="G91" s="9" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="H91" s="9"/>
-      <c r="I91" s="11" t="s">
-        <v>206</v>
+      <c r="I91" s="10" t="s">
+        <v>203</v>
       </c>
       <c r="J91" s="26" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="K91" s="9"/>
     </row>
@@ -14218,26 +14233,26 @@
         <v>184</v>
       </c>
       <c r="C92" s="12" t="s">
-        <v>825</v>
+        <v>204</v>
       </c>
       <c r="D92" s="9" t="s">
-        <v>410</v>
+        <v>418</v>
       </c>
       <c r="E92" s="9" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="F92" s="9" t="s">
-        <v>826</v>
+        <v>205</v>
       </c>
       <c r="G92" s="9" t="s">
-        <v>827</v>
+        <v>562</v>
       </c>
       <c r="H92" s="9"/>
-      <c r="I92" s="28" t="s">
-        <v>828</v>
+      <c r="I92" s="11" t="s">
+        <v>206</v>
       </c>
       <c r="J92" s="26" t="s">
-        <v>829</v>
+        <v>563</v>
       </c>
       <c r="K92" s="9"/>
     </row>
@@ -14249,26 +14264,26 @@
         <v>184</v>
       </c>
       <c r="C93" s="12" t="s">
-        <v>207</v>
+        <v>824</v>
       </c>
       <c r="D93" s="9" t="s">
-        <v>418</v>
+        <v>410</v>
       </c>
       <c r="E93" s="9" t="s">
         <v>25</v>
       </c>
       <c r="F93" s="9" t="s">
-        <v>208</v>
+        <v>825</v>
       </c>
       <c r="G93" s="9" t="s">
-        <v>564</v>
+        <v>826</v>
       </c>
       <c r="H93" s="9"/>
-      <c r="I93" s="11" t="s">
-        <v>209</v>
+      <c r="I93" s="28" t="s">
+        <v>827</v>
       </c>
       <c r="J93" s="26" t="s">
-        <v>565</v>
+        <v>828</v>
       </c>
       <c r="K93" s="9"/>
     </row>
@@ -14277,29 +14292,29 @@
         <v>132</v>
       </c>
       <c r="B94" s="9" t="s">
-        <v>210</v>
+        <v>184</v>
       </c>
       <c r="C94" s="12" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="D94" s="9" t="s">
         <v>418</v>
       </c>
       <c r="E94" s="9" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="F94" s="9" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="G94" s="9" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="H94" s="9"/>
-      <c r="I94" s="10" t="s">
-        <v>213</v>
+      <c r="I94" s="11" t="s">
+        <v>209</v>
       </c>
       <c r="J94" s="26" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="K94" s="9"/>
     </row>
@@ -14308,29 +14323,29 @@
         <v>132</v>
       </c>
       <c r="B95" s="9" t="s">
-        <v>719</v>
+        <v>210</v>
       </c>
       <c r="C95" s="12" t="s">
-        <v>718</v>
+        <v>211</v>
       </c>
       <c r="D95" s="9" t="s">
-        <v>410</v>
+        <v>418</v>
       </c>
       <c r="E95" s="9" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="F95" s="9" t="s">
-        <v>750</v>
+        <v>212</v>
       </c>
       <c r="G95" s="9" t="s">
-        <v>749</v>
+        <v>566</v>
       </c>
       <c r="H95" s="9"/>
-      <c r="I95" s="28" t="s">
-        <v>751</v>
+      <c r="I95" s="10" t="s">
+        <v>213</v>
       </c>
       <c r="J95" s="26" t="s">
-        <v>752</v>
+        <v>567</v>
       </c>
       <c r="K95" s="9"/>
     </row>
@@ -14339,10 +14354,10 @@
         <v>132</v>
       </c>
       <c r="B96" s="9" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="C96" s="12" t="s">
-        <v>893</v>
+        <v>717</v>
       </c>
       <c r="D96" s="9" t="s">
         <v>410</v>
@@ -14351,16 +14366,18 @@
         <v>25</v>
       </c>
       <c r="F96" s="9" t="s">
-        <v>960</v>
+        <v>749</v>
       </c>
       <c r="G96" s="9" t="s">
-        <v>961</v>
+        <v>748</v>
       </c>
       <c r="H96" s="9"/>
       <c r="I96" s="28" t="s">
-        <v>962</v>
-      </c>
-      <c r="J96" s="26"/>
+        <v>750</v>
+      </c>
+      <c r="J96" s="26" t="s">
+        <v>751</v>
+      </c>
       <c r="K96" s="9"/>
     </row>
     <row r="97" spans="1:11" ht="13">
@@ -14368,30 +14385,28 @@
         <v>132</v>
       </c>
       <c r="B97" s="9" t="s">
-        <v>214</v>
+        <v>718</v>
       </c>
       <c r="C97" s="12" t="s">
-        <v>215</v>
+        <v>892</v>
       </c>
       <c r="D97" s="9" t="s">
-        <v>47</v>
+        <v>410</v>
       </c>
       <c r="E97" s="9" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="F97" s="9" t="s">
-        <v>216</v>
+        <v>959</v>
       </c>
       <c r="G97" s="9" t="s">
-        <v>568</v>
+        <v>960</v>
       </c>
       <c r="H97" s="9"/>
-      <c r="I97" s="10" t="s">
-        <v>217</v>
-      </c>
-      <c r="J97" s="26" t="s">
-        <v>569</v>
-      </c>
+      <c r="I97" s="28" t="s">
+        <v>961</v>
+      </c>
+      <c r="J97" s="26"/>
       <c r="K97" s="9"/>
     </row>
     <row r="98" spans="1:11" ht="13">
@@ -14402,26 +14417,26 @@
         <v>214</v>
       </c>
       <c r="C98" s="12" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D98" s="9" t="s">
-        <v>157</v>
+        <v>47</v>
       </c>
       <c r="E98" s="9" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="F98" s="9" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="G98" s="9" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="H98" s="9"/>
       <c r="I98" s="10" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="J98" s="26" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="K98" s="9"/>
     </row>
@@ -14430,29 +14445,29 @@
         <v>132</v>
       </c>
       <c r="B99" s="9" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="C99" s="12" t="s">
-        <v>572</v>
+        <v>218</v>
       </c>
       <c r="D99" s="9" t="s">
-        <v>410</v>
+        <v>157</v>
       </c>
       <c r="E99" s="9" t="s">
         <v>25</v>
       </c>
       <c r="F99" s="9" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="G99" s="9" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="H99" s="9"/>
       <c r="I99" s="10" t="s">
-        <v>574</v>
+        <v>220</v>
       </c>
       <c r="J99" s="26" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="K99" s="9"/>
     </row>
@@ -14461,29 +14476,29 @@
         <v>132</v>
       </c>
       <c r="B100" s="9" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="C100" s="12" t="s">
-        <v>226</v>
+        <v>572</v>
       </c>
       <c r="D100" s="9" t="s">
-        <v>418</v>
+        <v>410</v>
       </c>
       <c r="E100" s="9" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="F100" s="9" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="G100" s="9" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="H100" s="9"/>
       <c r="I100" s="10" t="s">
-        <v>228</v>
+        <v>574</v>
       </c>
       <c r="J100" s="26" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="K100" s="9"/>
     </row>
@@ -14495,26 +14510,26 @@
         <v>225</v>
       </c>
       <c r="C101" s="12" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="D101" s="9" t="s">
-        <v>410</v>
+        <v>418</v>
       </c>
       <c r="E101" s="9" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="F101" s="9" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="G101" s="9" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="H101" s="9"/>
       <c r="I101" s="10" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="J101" s="26" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="K101" s="9"/>
     </row>
@@ -14523,10 +14538,10 @@
         <v>132</v>
       </c>
       <c r="B102" s="9" t="s">
-        <v>580</v>
-      </c>
-      <c r="C102" s="9" t="s">
-        <v>581</v>
+        <v>225</v>
+      </c>
+      <c r="C102" s="12" t="s">
+        <v>229</v>
       </c>
       <c r="D102" s="9" t="s">
         <v>410</v>
@@ -14535,17 +14550,17 @@
         <v>25</v>
       </c>
       <c r="F102" s="9" t="s">
-        <v>582</v>
+        <v>230</v>
       </c>
       <c r="G102" s="9" t="s">
-        <v>583</v>
+        <v>578</v>
       </c>
       <c r="H102" s="9"/>
-      <c r="I102" s="11" t="s">
-        <v>584</v>
+      <c r="I102" s="10" t="s">
+        <v>231</v>
       </c>
       <c r="J102" s="26" t="s">
-        <v>585</v>
+        <v>579</v>
       </c>
       <c r="K102" s="9"/>
     </row>
@@ -14557,26 +14572,26 @@
         <v>580</v>
       </c>
       <c r="C103" s="9" t="s">
-        <v>835</v>
+        <v>581</v>
       </c>
       <c r="D103" s="9" t="s">
-        <v>117</v>
+        <v>410</v>
       </c>
       <c r="E103" s="9" t="s">
         <v>25</v>
       </c>
       <c r="F103" s="9" t="s">
-        <v>836</v>
+        <v>582</v>
       </c>
       <c r="G103" s="9" t="s">
-        <v>837</v>
+        <v>583</v>
       </c>
       <c r="H103" s="9"/>
-      <c r="I103" s="28" t="s">
-        <v>838</v>
+      <c r="I103" s="11" t="s">
+        <v>584</v>
       </c>
       <c r="J103" s="26" t="s">
-        <v>839</v>
+        <v>585</v>
       </c>
       <c r="K103" s="9"/>
     </row>
@@ -14588,7 +14603,7 @@
         <v>580</v>
       </c>
       <c r="C104" s="9" t="s">
-        <v>909</v>
+        <v>834</v>
       </c>
       <c r="D104" s="9" t="s">
         <v>117</v>
@@ -14597,17 +14612,17 @@
         <v>25</v>
       </c>
       <c r="F104" s="9" t="s">
-        <v>936</v>
+        <v>835</v>
       </c>
       <c r="G104" s="9" t="s">
-        <v>937</v>
+        <v>836</v>
       </c>
       <c r="H104" s="9"/>
       <c r="I104" s="28" t="s">
-        <v>938</v>
+        <v>837</v>
       </c>
       <c r="J104" s="26" t="s">
-        <v>939</v>
+        <v>838</v>
       </c>
       <c r="K104" s="9"/>
     </row>
@@ -14616,29 +14631,29 @@
         <v>132</v>
       </c>
       <c r="B105" s="9" t="s">
-        <v>232</v>
+        <v>580</v>
       </c>
       <c r="C105" s="9" t="s">
-        <v>233</v>
+        <v>908</v>
       </c>
       <c r="D105" s="9" t="s">
-        <v>410</v>
+        <v>117</v>
       </c>
       <c r="E105" s="9" t="s">
         <v>25</v>
       </c>
       <c r="F105" s="9" t="s">
-        <v>234</v>
+        <v>935</v>
       </c>
       <c r="G105" s="9" t="s">
-        <v>586</v>
+        <v>936</v>
       </c>
       <c r="H105" s="9"/>
-      <c r="I105" s="10" t="s">
-        <v>235</v>
+      <c r="I105" s="28" t="s">
+        <v>937</v>
       </c>
       <c r="J105" s="26" t="s">
-        <v>587</v>
+        <v>938</v>
       </c>
       <c r="K105" s="9"/>
     </row>
@@ -14647,29 +14662,29 @@
         <v>132</v>
       </c>
       <c r="B106" s="9" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="C106" s="9" t="s">
-        <v>381</v>
+        <v>233</v>
       </c>
       <c r="D106" s="9" t="s">
-        <v>382</v>
+        <v>410</v>
       </c>
       <c r="E106" s="9" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="F106" s="9" t="s">
-        <v>588</v>
+        <v>234</v>
       </c>
       <c r="G106" s="9" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="H106" s="9"/>
-      <c r="I106" s="11" t="s">
-        <v>590</v>
+      <c r="I106" s="10" t="s">
+        <v>235</v>
       </c>
       <c r="J106" s="26" t="s">
-        <v>591</v>
+        <v>587</v>
       </c>
       <c r="K106" s="9"/>
     </row>
@@ -14681,26 +14696,26 @@
         <v>236</v>
       </c>
       <c r="C107" s="9" t="s">
-        <v>237</v>
+        <v>381</v>
       </c>
       <c r="D107" s="9" t="s">
-        <v>410</v>
+        <v>382</v>
       </c>
       <c r="E107" s="9" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="F107" s="9" t="s">
-        <v>238</v>
+        <v>588</v>
       </c>
       <c r="G107" s="9" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="H107" s="9"/>
-      <c r="I107" s="10" t="s">
-        <v>239</v>
+      <c r="I107" s="11" t="s">
+        <v>590</v>
       </c>
       <c r="J107" s="26" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="K107" s="9"/>
     </row>
@@ -14712,26 +14727,26 @@
         <v>236</v>
       </c>
       <c r="C108" s="9" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="D108" s="9" t="s">
-        <v>241</v>
+        <v>410</v>
       </c>
       <c r="E108" s="9" t="s">
         <v>25</v>
       </c>
       <c r="F108" s="9" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="G108" s="9" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="H108" s="9"/>
       <c r="I108" s="10" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="J108" s="26" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="K108" s="9"/>
     </row>
@@ -14743,26 +14758,26 @@
         <v>236</v>
       </c>
       <c r="C109" s="9" t="s">
-        <v>787</v>
+        <v>240</v>
       </c>
       <c r="D109" s="9" t="s">
-        <v>117</v>
+        <v>241</v>
       </c>
       <c r="E109" s="9" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="F109" s="9" t="s">
-        <v>809</v>
+        <v>242</v>
       </c>
       <c r="G109" s="9" t="s">
-        <v>810</v>
+        <v>1032</v>
       </c>
       <c r="H109" s="9"/>
-      <c r="I109" s="28" t="s">
-        <v>811</v>
+      <c r="I109" s="10" t="s">
+        <v>243</v>
       </c>
       <c r="J109" s="26" t="s">
-        <v>812</v>
+        <v>594</v>
       </c>
       <c r="K109" s="9"/>
     </row>
@@ -14774,26 +14789,26 @@
         <v>236</v>
       </c>
       <c r="C110" s="9" t="s">
-        <v>908</v>
+        <v>786</v>
       </c>
       <c r="D110" s="9" t="s">
-        <v>418</v>
+        <v>117</v>
       </c>
       <c r="E110" s="9" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="F110" s="9" t="s">
-        <v>941</v>
+        <v>808</v>
       </c>
       <c r="G110" s="9" t="s">
-        <v>940</v>
+        <v>809</v>
       </c>
       <c r="H110" s="9"/>
       <c r="I110" s="28" t="s">
-        <v>942</v>
+        <v>810</v>
       </c>
       <c r="J110" s="26" t="s">
-        <v>943</v>
+        <v>811</v>
       </c>
       <c r="K110" s="9"/>
     </row>
@@ -14802,29 +14817,29 @@
         <v>132</v>
       </c>
       <c r="B111" s="9" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="C111" s="9" t="s">
-        <v>245</v>
+        <v>907</v>
       </c>
       <c r="D111" s="9" t="s">
-        <v>241</v>
+        <v>418</v>
       </c>
       <c r="E111" s="9" t="s">
         <v>25</v>
       </c>
       <c r="F111" s="9" t="s">
-        <v>246</v>
+        <v>940</v>
       </c>
       <c r="G111" s="9" t="s">
-        <v>596</v>
+        <v>939</v>
       </c>
       <c r="H111" s="9"/>
-      <c r="I111" s="10" t="s">
-        <v>247</v>
+      <c r="I111" s="28" t="s">
+        <v>941</v>
       </c>
       <c r="J111" s="26" t="s">
-        <v>597</v>
+        <v>942</v>
       </c>
       <c r="K111" s="9"/>
     </row>
@@ -14836,26 +14851,26 @@
         <v>244</v>
       </c>
       <c r="C112" s="9" t="s">
-        <v>167</v>
+        <v>245</v>
       </c>
       <c r="D112" s="9" t="s">
-        <v>410</v>
+        <v>241</v>
       </c>
       <c r="E112" s="9" t="s">
         <v>25</v>
       </c>
       <c r="F112" s="9" t="s">
-        <v>1024</v>
+        <v>246</v>
       </c>
       <c r="G112" s="9" t="s">
-        <v>1025</v>
+        <v>595</v>
       </c>
       <c r="H112" s="9"/>
-      <c r="I112" s="28" t="s">
-        <v>1026</v>
+      <c r="I112" s="10" t="s">
+        <v>247</v>
       </c>
       <c r="J112" s="26" t="s">
-        <v>1027</v>
+        <v>596</v>
       </c>
       <c r="K112" s="9"/>
     </row>
@@ -14864,10 +14879,10 @@
         <v>132</v>
       </c>
       <c r="B113" s="9" t="s">
-        <v>786</v>
+        <v>244</v>
       </c>
       <c r="C113" s="9" t="s">
-        <v>785</v>
+        <v>167</v>
       </c>
       <c r="D113" s="9" t="s">
         <v>410</v>
@@ -14876,17 +14891,17 @@
         <v>25</v>
       </c>
       <c r="F113" s="9" t="s">
-        <v>813</v>
+        <v>1023</v>
       </c>
       <c r="G113" s="9" t="s">
-        <v>814</v>
+        <v>1024</v>
       </c>
       <c r="H113" s="9"/>
       <c r="I113" s="28" t="s">
-        <v>815</v>
+        <v>1025</v>
       </c>
       <c r="J113" s="26" t="s">
-        <v>816</v>
+        <v>1026</v>
       </c>
       <c r="K113" s="9"/>
     </row>
@@ -14895,29 +14910,29 @@
         <v>132</v>
       </c>
       <c r="B114" s="9" t="s">
-        <v>248</v>
+        <v>785</v>
       </c>
       <c r="C114" s="9" t="s">
-        <v>381</v>
+        <v>784</v>
       </c>
       <c r="D114" s="9" t="s">
-        <v>382</v>
+        <v>410</v>
       </c>
       <c r="E114" s="9" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="F114" s="9" t="s">
-        <v>598</v>
+        <v>812</v>
       </c>
       <c r="G114" s="9" t="s">
-        <v>599</v>
+        <v>813</v>
       </c>
       <c r="H114" s="9"/>
-      <c r="I114" s="10" t="s">
-        <v>600</v>
+      <c r="I114" s="28" t="s">
+        <v>814</v>
       </c>
       <c r="J114" s="26" t="s">
-        <v>601</v>
+        <v>815</v>
       </c>
       <c r="K114" s="9"/>
     </row>
@@ -14929,26 +14944,26 @@
         <v>248</v>
       </c>
       <c r="C115" s="9" t="s">
-        <v>249</v>
+        <v>381</v>
       </c>
       <c r="D115" s="9" t="s">
-        <v>117</v>
+        <v>382</v>
       </c>
       <c r="E115" s="9" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="F115" s="9" t="s">
-        <v>250</v>
+        <v>597</v>
       </c>
       <c r="G115" s="9" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
       <c r="H115" s="9"/>
       <c r="I115" s="10" t="s">
-        <v>251</v>
+        <v>599</v>
       </c>
       <c r="J115" s="26" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="K115" s="9"/>
     </row>
@@ -14960,26 +14975,26 @@
         <v>248</v>
       </c>
       <c r="C116" s="9" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="D116" s="9" t="s">
-        <v>410</v>
+        <v>117</v>
       </c>
       <c r="E116" s="9" t="s">
         <v>25</v>
       </c>
       <c r="F116" s="9" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="G116" s="9" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="H116" s="9"/>
       <c r="I116" s="10" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="J116" s="26" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="K116" s="9"/>
     </row>
@@ -14991,26 +15006,26 @@
         <v>248</v>
       </c>
       <c r="C117" s="9" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="D117" s="9" t="s">
-        <v>117</v>
+        <v>410</v>
       </c>
       <c r="E117" s="9" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="F117" s="9" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="G117" s="9" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="H117" s="9"/>
       <c r="I117" s="10" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="J117" s="26" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="K117" s="9"/>
     </row>
@@ -15019,29 +15034,29 @@
         <v>132</v>
       </c>
       <c r="B118" s="9" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="C118" s="9" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="D118" s="9" t="s">
         <v>117</v>
       </c>
       <c r="E118" s="9" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="F118" s="9" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="G118" s="9" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="H118" s="9"/>
       <c r="I118" s="10" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="J118" s="26" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="K118" s="9"/>
     </row>
@@ -15050,29 +15065,29 @@
         <v>132</v>
       </c>
       <c r="B119" s="9" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="C119" s="9" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="D119" s="9" t="s">
-        <v>610</v>
+        <v>117</v>
       </c>
       <c r="E119" s="9" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="F119" s="9" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="G119" s="9" t="s">
-        <v>611</v>
+        <v>607</v>
       </c>
       <c r="H119" s="9"/>
-      <c r="I119" s="11" t="s">
-        <v>266</v>
+      <c r="I119" s="10" t="s">
+        <v>261</v>
       </c>
       <c r="J119" s="26" t="s">
-        <v>612</v>
+        <v>608</v>
       </c>
       <c r="K119" s="9"/>
     </row>
@@ -15084,26 +15099,26 @@
         <v>262</v>
       </c>
       <c r="C120" s="9" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="D120" s="9" t="s">
-        <v>410</v>
+        <v>609</v>
       </c>
       <c r="E120" s="9" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="F120" s="9" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="G120" s="9" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="H120" s="9"/>
       <c r="I120" s="11" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="J120" s="26" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="K120" s="9"/>
     </row>
@@ -15115,26 +15130,26 @@
         <v>262</v>
       </c>
       <c r="C121" s="9" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="D121" s="9" t="s">
-        <v>418</v>
+        <v>410</v>
       </c>
       <c r="E121" s="9" t="s">
         <v>25</v>
       </c>
       <c r="F121" s="9" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="G121" s="9" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="H121" s="9"/>
       <c r="I121" s="11" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="J121" s="26" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="K121" s="9"/>
     </row>
@@ -15146,26 +15161,26 @@
         <v>262</v>
       </c>
       <c r="C122" s="9" t="s">
-        <v>830</v>
+        <v>270</v>
       </c>
       <c r="D122" s="9" t="s">
-        <v>410</v>
+        <v>418</v>
       </c>
       <c r="E122" s="9" t="s">
         <v>25</v>
       </c>
       <c r="F122" s="9" t="s">
-        <v>831</v>
+        <v>271</v>
       </c>
       <c r="G122" s="9" t="s">
-        <v>832</v>
+        <v>614</v>
       </c>
       <c r="H122" s="9"/>
-      <c r="I122" s="28" t="s">
-        <v>833</v>
+      <c r="I122" s="11" t="s">
+        <v>272</v>
       </c>
       <c r="J122" s="26" t="s">
-        <v>834</v>
+        <v>615</v>
       </c>
       <c r="K122" s="9"/>
     </row>
@@ -15177,26 +15192,26 @@
         <v>262</v>
       </c>
       <c r="C123" s="9" t="s">
-        <v>783</v>
+        <v>829</v>
       </c>
       <c r="D123" s="9" t="s">
-        <v>117</v>
+        <v>410</v>
       </c>
       <c r="E123" s="9" t="s">
         <v>25</v>
       </c>
       <c r="F123" s="9" t="s">
-        <v>817</v>
+        <v>830</v>
       </c>
       <c r="G123" s="9" t="s">
-        <v>818</v>
+        <v>831</v>
       </c>
       <c r="H123" s="9"/>
       <c r="I123" s="28" t="s">
-        <v>819</v>
+        <v>832</v>
       </c>
       <c r="J123" s="26" t="s">
-        <v>820</v>
+        <v>833</v>
       </c>
       <c r="K123" s="9"/>
     </row>
@@ -15208,26 +15223,26 @@
         <v>262</v>
       </c>
       <c r="C124" s="9" t="s">
-        <v>894</v>
+        <v>782</v>
       </c>
       <c r="D124" s="9" t="s">
-        <v>418</v>
+        <v>117</v>
       </c>
       <c r="E124" s="9" t="s">
         <v>25</v>
       </c>
       <c r="F124" s="9" t="s">
-        <v>944</v>
+        <v>816</v>
       </c>
       <c r="G124" s="9" t="s">
-        <v>945</v>
+        <v>817</v>
       </c>
       <c r="H124" s="9"/>
       <c r="I124" s="28" t="s">
-        <v>946</v>
+        <v>818</v>
       </c>
       <c r="J124" s="26" t="s">
-        <v>947</v>
+        <v>819</v>
       </c>
       <c r="K124" s="9"/>
     </row>
@@ -15239,26 +15254,26 @@
         <v>262</v>
       </c>
       <c r="C125" s="9" t="s">
-        <v>784</v>
+        <v>893</v>
       </c>
       <c r="D125" s="9" t="s">
-        <v>117</v>
+        <v>418</v>
       </c>
       <c r="E125" s="9" t="s">
         <v>25</v>
       </c>
       <c r="F125" s="9" t="s">
-        <v>821</v>
+        <v>943</v>
       </c>
       <c r="G125" s="9" t="s">
-        <v>822</v>
+        <v>944</v>
       </c>
       <c r="H125" s="9"/>
       <c r="I125" s="28" t="s">
-        <v>823</v>
+        <v>945</v>
       </c>
       <c r="J125" s="26" t="s">
-        <v>824</v>
+        <v>946</v>
       </c>
       <c r="K125" s="9"/>
     </row>
@@ -15270,26 +15285,26 @@
         <v>262</v>
       </c>
       <c r="C126" s="9" t="s">
-        <v>273</v>
+        <v>783</v>
       </c>
       <c r="D126" s="9" t="s">
-        <v>610</v>
+        <v>117</v>
       </c>
       <c r="E126" s="9" t="s">
         <v>25</v>
       </c>
       <c r="F126" s="9" t="s">
-        <v>274</v>
+        <v>820</v>
       </c>
       <c r="G126" s="9" t="s">
-        <v>617</v>
+        <v>821</v>
       </c>
       <c r="H126" s="9"/>
-      <c r="I126" s="11" t="s">
-        <v>275</v>
+      <c r="I126" s="28" t="s">
+        <v>822</v>
       </c>
       <c r="J126" s="26" t="s">
-        <v>618</v>
+        <v>823</v>
       </c>
       <c r="K126" s="9"/>
     </row>
@@ -15301,26 +15316,26 @@
         <v>262</v>
       </c>
       <c r="C127" s="9" t="s">
-        <v>895</v>
+        <v>273</v>
       </c>
       <c r="D127" s="9" t="s">
-        <v>55</v>
+        <v>609</v>
       </c>
       <c r="E127" s="9" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="F127" s="9" t="s">
-        <v>948</v>
+        <v>274</v>
       </c>
       <c r="G127" s="9" t="s">
-        <v>949</v>
+        <v>616</v>
       </c>
       <c r="H127" s="9"/>
-      <c r="I127" s="28" t="s">
-        <v>950</v>
+      <c r="I127" s="11" t="s">
+        <v>275</v>
       </c>
       <c r="J127" s="26" t="s">
-        <v>951</v>
+        <v>617</v>
       </c>
       <c r="K127" s="9"/>
     </row>
@@ -15332,26 +15347,26 @@
         <v>262</v>
       </c>
       <c r="C128" s="9" t="s">
-        <v>721</v>
+        <v>894</v>
       </c>
       <c r="D128" s="9" t="s">
-        <v>398</v>
+        <v>55</v>
       </c>
       <c r="E128" s="9" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="F128" s="9" t="s">
-        <v>753</v>
+        <v>947</v>
       </c>
       <c r="G128" s="9" t="s">
-        <v>754</v>
+        <v>948</v>
       </c>
       <c r="H128" s="9"/>
       <c r="I128" s="28" t="s">
-        <v>755</v>
+        <v>949</v>
       </c>
       <c r="J128" s="26" t="s">
-        <v>756</v>
+        <v>950</v>
       </c>
       <c r="K128" s="9"/>
     </row>
@@ -15363,26 +15378,26 @@
         <v>262</v>
       </c>
       <c r="C129" s="9" t="s">
-        <v>276</v>
+        <v>720</v>
       </c>
       <c r="D129" s="9" t="s">
         <v>398</v>
       </c>
       <c r="E129" s="9" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="F129" s="9" t="s">
-        <v>277</v>
+        <v>752</v>
       </c>
       <c r="G129" s="9" t="s">
-        <v>619</v>
+        <v>753</v>
       </c>
       <c r="H129" s="9"/>
-      <c r="I129" s="11" t="s">
-        <v>620</v>
+      <c r="I129" s="28" t="s">
+        <v>754</v>
       </c>
       <c r="J129" s="26" t="s">
-        <v>1012</v>
+        <v>755</v>
       </c>
       <c r="K129" s="9"/>
     </row>
@@ -15394,23 +15409,23 @@
         <v>262</v>
       </c>
       <c r="C130" s="9" t="s">
-        <v>1007</v>
+        <v>276</v>
       </c>
       <c r="D130" s="9" t="s">
-        <v>55</v>
+        <v>398</v>
       </c>
       <c r="E130" s="9" t="s">
-        <v>39</v>
+        <v>14</v>
       </c>
       <c r="F130" s="9" t="s">
-        <v>1008</v>
+        <v>277</v>
       </c>
       <c r="G130" s="9" t="s">
-        <v>1009</v>
+        <v>618</v>
       </c>
       <c r="H130" s="9"/>
-      <c r="I130" s="28" t="s">
-        <v>1010</v>
+      <c r="I130" s="11" t="s">
+        <v>619</v>
       </c>
       <c r="J130" s="26" t="s">
         <v>1011</v>
@@ -15422,29 +15437,29 @@
         <v>132</v>
       </c>
       <c r="B131" s="9" t="s">
-        <v>899</v>
+        <v>262</v>
       </c>
       <c r="C131" s="9" t="s">
-        <v>898</v>
+        <v>1006</v>
       </c>
       <c r="D131" s="9" t="s">
-        <v>398</v>
+        <v>55</v>
       </c>
       <c r="E131" s="9" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="F131" s="9" t="s">
-        <v>952</v>
+        <v>1007</v>
       </c>
       <c r="G131" s="9" t="s">
-        <v>954</v>
+        <v>1008</v>
       </c>
       <c r="H131" s="9"/>
       <c r="I131" s="28" t="s">
-        <v>953</v>
+        <v>1009</v>
       </c>
       <c r="J131" s="26" t="s">
-        <v>955</v>
+        <v>1010</v>
       </c>
       <c r="K131" s="9"/>
     </row>
@@ -15453,10 +15468,10 @@
         <v>132</v>
       </c>
       <c r="B132" s="9" t="s">
-        <v>901</v>
+        <v>898</v>
       </c>
       <c r="C132" s="9" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="D132" s="9" t="s">
         <v>398</v>
@@ -15465,79 +15480,79 @@
         <v>14</v>
       </c>
       <c r="F132" s="9" t="s">
-        <v>956</v>
+        <v>951</v>
       </c>
       <c r="G132" s="9" t="s">
-        <v>957</v>
+        <v>953</v>
       </c>
       <c r="H132" s="9"/>
       <c r="I132" s="28" t="s">
+        <v>952</v>
+      </c>
+      <c r="J132" s="26" t="s">
+        <v>954</v>
+      </c>
+      <c r="K132" s="9"/>
+    </row>
+    <row r="133" spans="1:11" ht="13">
+      <c r="A133" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="B133" s="9" t="s">
+        <v>900</v>
+      </c>
+      <c r="C133" s="9" t="s">
+        <v>897</v>
+      </c>
+      <c r="D133" s="9" t="s">
+        <v>398</v>
+      </c>
+      <c r="E133" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F133" s="9" t="s">
+        <v>955</v>
+      </c>
+      <c r="G133" s="9" t="s">
+        <v>956</v>
+      </c>
+      <c r="H133" s="9"/>
+      <c r="I133" s="28" t="s">
+        <v>957</v>
+      </c>
+      <c r="J133" s="26" t="s">
         <v>958</v>
       </c>
-      <c r="J132" s="26" t="s">
-        <v>959</v>
-      </c>
-      <c r="K132" s="9"/>
-    </row>
-    <row r="133" spans="1:11" ht="13">
-      <c r="A133" s="14" t="s">
-        <v>278</v>
-      </c>
-      <c r="B133" s="14" t="s">
-        <v>621</v>
-      </c>
-      <c r="C133" s="14" t="s">
-        <v>622</v>
-      </c>
-      <c r="D133" s="14" t="s">
-        <v>157</v>
-      </c>
-      <c r="E133" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="F133" s="14" t="s">
-        <v>623</v>
-      </c>
-      <c r="G133" s="14" t="s">
-        <v>624</v>
-      </c>
-      <c r="H133" s="14"/>
-      <c r="I133" s="16" t="s">
-        <v>625</v>
-      </c>
-      <c r="J133" s="17" t="s">
-        <v>626</v>
-      </c>
-      <c r="K133" s="14"/>
+      <c r="K133" s="9"/>
     </row>
     <row r="134" spans="1:11" ht="13">
       <c r="A134" s="14" t="s">
         <v>278</v>
       </c>
       <c r="B134" s="14" t="s">
+        <v>620</v>
+      </c>
+      <c r="C134" s="14" t="s">
         <v>621</v>
       </c>
-      <c r="C134" s="14" t="s">
-        <v>627</v>
-      </c>
       <c r="D134" s="14" t="s">
-        <v>410</v>
+        <v>157</v>
       </c>
       <c r="E134" s="14" t="s">
         <v>25</v>
       </c>
       <c r="F134" s="14" t="s">
-        <v>628</v>
+        <v>622</v>
       </c>
       <c r="G134" s="14" t="s">
-        <v>629</v>
+        <v>623</v>
       </c>
       <c r="H134" s="14"/>
       <c r="I134" s="16" t="s">
-        <v>630</v>
+        <v>624</v>
       </c>
       <c r="J134" s="17" t="s">
-        <v>631</v>
+        <v>625</v>
       </c>
       <c r="K134" s="14"/>
     </row>
@@ -15546,10 +15561,10 @@
         <v>278</v>
       </c>
       <c r="B135" s="14" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="C135" s="14" t="s">
-        <v>893</v>
+        <v>626</v>
       </c>
       <c r="D135" s="14" t="s">
         <v>410</v>
@@ -15558,16 +15573,18 @@
         <v>25</v>
       </c>
       <c r="F135" s="14" t="s">
-        <v>963</v>
+        <v>627</v>
       </c>
       <c r="G135" s="14" t="s">
-        <v>965</v>
+        <v>628</v>
       </c>
       <c r="H135" s="14"/>
-      <c r="I135" s="29" t="s">
-        <v>966</v>
-      </c>
-      <c r="J135" s="17"/>
+      <c r="I135" s="16" t="s">
+        <v>629</v>
+      </c>
+      <c r="J135" s="17" t="s">
+        <v>630</v>
+      </c>
       <c r="K135" s="14"/>
     </row>
     <row r="136" spans="1:11" ht="13">
@@ -15575,10 +15592,10 @@
         <v>278</v>
       </c>
       <c r="B136" s="14" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="C136" s="14" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="D136" s="14" t="s">
         <v>410</v>
@@ -15587,14 +15604,14 @@
         <v>25</v>
       </c>
       <c r="F136" s="14" t="s">
+        <v>962</v>
+      </c>
+      <c r="G136" s="14" t="s">
         <v>964</v>
-      </c>
-      <c r="G136" s="14" t="s">
-        <v>967</v>
       </c>
       <c r="H136" s="14"/>
       <c r="I136" s="29" t="s">
-        <v>968</v>
+        <v>965</v>
       </c>
       <c r="J136" s="17"/>
       <c r="K136" s="14"/>
@@ -15604,30 +15621,28 @@
         <v>278</v>
       </c>
       <c r="B137" s="14" t="s">
-        <v>279</v>
+        <v>620</v>
       </c>
       <c r="C137" s="14" t="s">
-        <v>896</v>
+        <v>892</v>
       </c>
       <c r="D137" s="14" t="s">
-        <v>47</v>
+        <v>410</v>
       </c>
       <c r="E137" s="14" t="s">
         <v>25</v>
       </c>
       <c r="F137" s="14" t="s">
-        <v>969</v>
+        <v>963</v>
       </c>
       <c r="G137" s="14" t="s">
-        <v>970</v>
+        <v>966</v>
       </c>
       <c r="H137" s="14"/>
       <c r="I137" s="29" t="s">
-        <v>971</v>
-      </c>
-      <c r="J137" s="17" t="s">
-        <v>972</v>
-      </c>
+        <v>967</v>
+      </c>
+      <c r="J137" s="17"/>
       <c r="K137" s="14"/>
     </row>
     <row r="138" spans="1:11" ht="13">
@@ -15638,26 +15653,26 @@
         <v>279</v>
       </c>
       <c r="C138" s="14" t="s">
-        <v>632</v>
+        <v>895</v>
       </c>
       <c r="D138" s="14" t="s">
         <v>47</v>
       </c>
       <c r="E138" s="14" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="F138" s="14" t="s">
-        <v>633</v>
+        <v>968</v>
       </c>
       <c r="G138" s="14" t="s">
-        <v>634</v>
+        <v>969</v>
       </c>
       <c r="H138" s="14"/>
-      <c r="I138" s="15" t="s">
-        <v>635</v>
+      <c r="I138" s="29" t="s">
+        <v>970</v>
       </c>
       <c r="J138" s="17" t="s">
-        <v>636</v>
+        <v>971</v>
       </c>
       <c r="K138" s="14"/>
     </row>
@@ -15669,26 +15684,26 @@
         <v>279</v>
       </c>
       <c r="C139" s="14" t="s">
-        <v>637</v>
+        <v>631</v>
       </c>
       <c r="D139" s="14" t="s">
-        <v>157</v>
+        <v>47</v>
       </c>
       <c r="E139" s="14" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="F139" s="14" t="s">
-        <v>638</v>
+        <v>632</v>
       </c>
       <c r="G139" s="14" t="s">
-        <v>639</v>
+        <v>633</v>
       </c>
       <c r="H139" s="14"/>
       <c r="I139" s="15" t="s">
-        <v>640</v>
+        <v>634</v>
       </c>
       <c r="J139" s="17" t="s">
-        <v>641</v>
+        <v>635</v>
       </c>
       <c r="K139" s="14"/>
     </row>
@@ -15700,26 +15715,26 @@
         <v>279</v>
       </c>
       <c r="C140" s="14" t="s">
-        <v>642</v>
+        <v>636</v>
       </c>
       <c r="D140" s="14" t="s">
-        <v>410</v>
+        <v>157</v>
       </c>
       <c r="E140" s="14" t="s">
         <v>25</v>
       </c>
       <c r="F140" s="14" t="s">
-        <v>643</v>
+        <v>637</v>
       </c>
       <c r="G140" s="14" t="s">
-        <v>644</v>
+        <v>638</v>
       </c>
       <c r="H140" s="14"/>
       <c r="I140" s="15" t="s">
-        <v>645</v>
+        <v>639</v>
       </c>
       <c r="J140" s="17" t="s">
-        <v>646</v>
+        <v>640</v>
       </c>
       <c r="K140" s="14"/>
     </row>
@@ -15731,25 +15746,27 @@
         <v>279</v>
       </c>
       <c r="C141" s="14" t="s">
-        <v>381</v>
+        <v>641</v>
       </c>
       <c r="D141" s="14" t="s">
-        <v>382</v>
+        <v>410</v>
       </c>
       <c r="E141" s="14" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="F141" s="14" t="s">
-        <v>647</v>
+        <v>642</v>
       </c>
       <c r="G141" s="14" t="s">
-        <v>648</v>
+        <v>643</v>
       </c>
       <c r="H141" s="14"/>
       <c r="I141" s="15" t="s">
-        <v>649</v>
-      </c>
-      <c r="J141" s="17"/>
+        <v>644</v>
+      </c>
+      <c r="J141" s="17" t="s">
+        <v>645</v>
+      </c>
       <c r="K141" s="14"/>
     </row>
     <row r="142" spans="1:11" ht="13">
@@ -15760,27 +15777,25 @@
         <v>279</v>
       </c>
       <c r="C142" s="14" t="s">
-        <v>87</v>
+        <v>381</v>
       </c>
       <c r="D142" s="14" t="s">
-        <v>410</v>
+        <v>382</v>
       </c>
       <c r="E142" s="14" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="F142" s="14" t="s">
-        <v>973</v>
+        <v>646</v>
       </c>
       <c r="G142" s="14" t="s">
-        <v>974</v>
+        <v>647</v>
       </c>
       <c r="H142" s="14"/>
-      <c r="I142" s="29" t="s">
-        <v>975</v>
-      </c>
-      <c r="J142" s="17" t="s">
-        <v>976</v>
-      </c>
+      <c r="I142" s="15" t="s">
+        <v>648</v>
+      </c>
+      <c r="J142" s="17"/>
       <c r="K142" s="14"/>
     </row>
     <row r="143" spans="1:11" ht="13">
@@ -15791,26 +15806,26 @@
         <v>279</v>
       </c>
       <c r="C143" s="14" t="s">
-        <v>280</v>
+        <v>87</v>
       </c>
       <c r="D143" s="14" t="s">
-        <v>157</v>
+        <v>410</v>
       </c>
       <c r="E143" s="14" t="s">
         <v>25</v>
       </c>
       <c r="F143" s="14" t="s">
-        <v>281</v>
+        <v>972</v>
       </c>
       <c r="G143" s="14" t="s">
-        <v>650</v>
+        <v>973</v>
       </c>
       <c r="H143" s="14"/>
-      <c r="I143" s="15" t="s">
-        <v>282</v>
+      <c r="I143" s="29" t="s">
+        <v>974</v>
       </c>
       <c r="J143" s="17" t="s">
-        <v>651</v>
+        <v>975</v>
       </c>
       <c r="K143" s="14"/>
     </row>
@@ -15822,26 +15837,26 @@
         <v>279</v>
       </c>
       <c r="C144" s="14" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="D144" s="14" t="s">
-        <v>410</v>
+        <v>157</v>
       </c>
       <c r="E144" s="14" t="s">
         <v>25</v>
       </c>
       <c r="F144" s="14" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="G144" s="14" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="H144" s="14"/>
       <c r="I144" s="15" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="J144" s="17" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="K144" s="14"/>
     </row>
@@ -15853,26 +15868,26 @@
         <v>279</v>
       </c>
       <c r="C145" s="14" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="D145" s="14" t="s">
-        <v>418</v>
+        <v>410</v>
       </c>
       <c r="E145" s="14" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="F145" s="14" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="G145" s="14" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
       <c r="H145" s="14"/>
-      <c r="I145" s="16" t="s">
-        <v>288</v>
+      <c r="I145" s="15" t="s">
+        <v>285</v>
       </c>
       <c r="J145" s="17" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="K145" s="14"/>
     </row>
@@ -15884,26 +15899,26 @@
         <v>279</v>
       </c>
       <c r="C146" s="14" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="D146" s="14" t="s">
-        <v>117</v>
+        <v>418</v>
       </c>
       <c r="E146" s="14" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="F146" s="14" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="G146" s="14" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
       <c r="H146" s="14"/>
       <c r="I146" s="16" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="J146" s="17" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="K146" s="14"/>
     </row>
@@ -15915,26 +15930,26 @@
         <v>279</v>
       </c>
       <c r="C147" s="14" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D147" s="14" t="s">
-        <v>47</v>
+        <v>117</v>
       </c>
       <c r="E147" s="14" t="s">
         <v>25</v>
       </c>
       <c r="F147" s="14" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="G147" s="14" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
       <c r="H147" s="14"/>
       <c r="I147" s="16" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="J147" s="17" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
       <c r="K147" s="14"/>
     </row>
@@ -15946,26 +15961,26 @@
         <v>279</v>
       </c>
       <c r="C148" s="14" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="D148" s="14" t="s">
-        <v>410</v>
+        <v>47</v>
       </c>
       <c r="E148" s="14" t="s">
         <v>25</v>
       </c>
       <c r="F148" s="14" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="G148" s="14" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="H148" s="14"/>
       <c r="I148" s="16" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="J148" s="17" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="K148" s="14"/>
     </row>
@@ -15977,7 +15992,7 @@
         <v>279</v>
       </c>
       <c r="C149" s="14" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="D149" s="14" t="s">
         <v>410</v>
@@ -15986,17 +16001,17 @@
         <v>25</v>
       </c>
       <c r="F149" s="14" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="G149" s="14" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
       <c r="H149" s="14"/>
       <c r="I149" s="16" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="J149" s="17" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="K149" s="14"/>
     </row>
@@ -16008,26 +16023,26 @@
         <v>279</v>
       </c>
       <c r="C150" s="14" t="s">
-        <v>191</v>
+        <v>298</v>
       </c>
       <c r="D150" s="14" t="s">
-        <v>117</v>
+        <v>410</v>
       </c>
       <c r="E150" s="14" t="s">
         <v>25</v>
       </c>
       <c r="F150" s="14" t="s">
-        <v>757</v>
+        <v>299</v>
       </c>
       <c r="G150" s="14" t="s">
-        <v>758</v>
+        <v>661</v>
       </c>
       <c r="H150" s="14"/>
-      <c r="I150" s="29" t="s">
-        <v>759</v>
+      <c r="I150" s="16" t="s">
+        <v>300</v>
       </c>
       <c r="J150" s="17" t="s">
-        <v>555</v>
+        <v>662</v>
       </c>
       <c r="K150" s="14"/>
     </row>
@@ -16039,26 +16054,26 @@
         <v>279</v>
       </c>
       <c r="C151" s="14" t="s">
-        <v>864</v>
+        <v>191</v>
       </c>
       <c r="D151" s="14" t="s">
-        <v>55</v>
+        <v>117</v>
       </c>
       <c r="E151" s="14" t="s">
         <v>25</v>
       </c>
       <c r="F151" s="14" t="s">
-        <v>865</v>
+        <v>756</v>
       </c>
       <c r="G151" s="14" t="s">
-        <v>866</v>
+        <v>757</v>
       </c>
       <c r="H151" s="14"/>
       <c r="I151" s="29" t="s">
-        <v>867</v>
+        <v>758</v>
       </c>
       <c r="J151" s="17" t="s">
-        <v>868</v>
+        <v>555</v>
       </c>
       <c r="K151" s="14"/>
     </row>
@@ -16070,26 +16085,26 @@
         <v>279</v>
       </c>
       <c r="C152" s="14" t="s">
-        <v>898</v>
+        <v>863</v>
       </c>
       <c r="D152" s="14" t="s">
-        <v>398</v>
+        <v>55</v>
       </c>
       <c r="E152" s="14" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="F152" s="14" t="s">
-        <v>977</v>
+        <v>864</v>
       </c>
       <c r="G152" s="14" t="s">
-        <v>979</v>
+        <v>865</v>
       </c>
       <c r="H152" s="14"/>
       <c r="I152" s="29" t="s">
-        <v>980</v>
+        <v>866</v>
       </c>
       <c r="J152" s="17" t="s">
-        <v>981</v>
+        <v>867</v>
       </c>
       <c r="K152" s="14"/>
     </row>
@@ -16101,7 +16116,7 @@
         <v>279</v>
       </c>
       <c r="C153" s="14" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="D153" s="14" t="s">
         <v>398</v>
@@ -16110,17 +16125,17 @@
         <v>14</v>
       </c>
       <c r="F153" s="14" t="s">
+        <v>976</v>
+      </c>
+      <c r="G153" s="14" t="s">
         <v>978</v>
-      </c>
-      <c r="G153" s="14" t="s">
-        <v>982</v>
       </c>
       <c r="H153" s="14"/>
       <c r="I153" s="29" t="s">
-        <v>983</v>
+        <v>979</v>
       </c>
       <c r="J153" s="17" t="s">
-        <v>984</v>
+        <v>980</v>
       </c>
       <c r="K153" s="14"/>
     </row>
@@ -16135,23 +16150,23 @@
         <v>897</v>
       </c>
       <c r="D154" s="14" t="s">
-        <v>410</v>
+        <v>398</v>
       </c>
       <c r="E154" s="14" t="s">
         <v>14</v>
       </c>
       <c r="F154" s="14" t="s">
-        <v>985</v>
+        <v>977</v>
       </c>
       <c r="G154" s="14" t="s">
-        <v>986</v>
+        <v>981</v>
       </c>
       <c r="H154" s="14"/>
       <c r="I154" s="29" t="s">
-        <v>987</v>
+        <v>982</v>
       </c>
       <c r="J154" s="17" t="s">
-        <v>988</v>
+        <v>983</v>
       </c>
       <c r="K154" s="14"/>
     </row>
@@ -16160,29 +16175,29 @@
         <v>278</v>
       </c>
       <c r="B155" s="14" t="s">
-        <v>301</v>
+        <v>279</v>
       </c>
       <c r="C155" s="14" t="s">
-        <v>302</v>
+        <v>896</v>
       </c>
       <c r="D155" s="14" t="s">
-        <v>117</v>
+        <v>410</v>
       </c>
       <c r="E155" s="14" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="F155" s="14" t="s">
-        <v>303</v>
+        <v>984</v>
       </c>
       <c r="G155" s="14" t="s">
-        <v>664</v>
+        <v>985</v>
       </c>
       <c r="H155" s="14"/>
-      <c r="I155" s="15" t="s">
-        <v>304</v>
+      <c r="I155" s="29" t="s">
+        <v>986</v>
       </c>
       <c r="J155" s="17" t="s">
-        <v>665</v>
+        <v>987</v>
       </c>
       <c r="K155" s="14"/>
     </row>
@@ -16194,26 +16209,26 @@
         <v>301</v>
       </c>
       <c r="C156" s="14" t="s">
-        <v>381</v>
+        <v>302</v>
       </c>
       <c r="D156" s="14" t="s">
-        <v>382</v>
+        <v>117</v>
       </c>
       <c r="E156" s="14" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="F156" s="14" t="s">
-        <v>666</v>
+        <v>303</v>
       </c>
       <c r="G156" s="14" t="s">
-        <v>667</v>
+        <v>663</v>
       </c>
       <c r="H156" s="14"/>
       <c r="I156" s="15" t="s">
-        <v>668</v>
+        <v>304</v>
       </c>
       <c r="J156" s="17" t="s">
-        <v>669</v>
+        <v>664</v>
       </c>
       <c r="K156" s="14"/>
     </row>
@@ -16222,29 +16237,29 @@
         <v>278</v>
       </c>
       <c r="B157" s="14" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="C157" s="14" t="s">
-        <v>306</v>
+        <v>381</v>
       </c>
       <c r="D157" s="14" t="s">
-        <v>410</v>
+        <v>382</v>
       </c>
       <c r="E157" s="14" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="F157" s="14" t="s">
-        <v>307</v>
+        <v>665</v>
       </c>
       <c r="G157" s="14" t="s">
-        <v>670</v>
+        <v>666</v>
       </c>
       <c r="H157" s="14"/>
       <c r="I157" s="15" t="s">
-        <v>308</v>
+        <v>667</v>
       </c>
       <c r="J157" s="17" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="K157" s="14"/>
     </row>
@@ -16256,7 +16271,7 @@
         <v>305</v>
       </c>
       <c r="C158" s="14" t="s">
-        <v>298</v>
+        <v>306</v>
       </c>
       <c r="D158" s="14" t="s">
         <v>410</v>
@@ -16265,17 +16280,17 @@
         <v>25</v>
       </c>
       <c r="F158" s="14" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="G158" s="14" t="s">
-        <v>672</v>
+        <v>669</v>
       </c>
       <c r="H158" s="14"/>
       <c r="I158" s="15" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="J158" s="17" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
       <c r="K158" s="14"/>
     </row>
@@ -16287,26 +16302,26 @@
         <v>305</v>
       </c>
       <c r="C159" s="14" t="s">
-        <v>311</v>
+        <v>298</v>
       </c>
       <c r="D159" s="14" t="s">
-        <v>312</v>
+        <v>410</v>
       </c>
       <c r="E159" s="14" t="s">
         <v>25</v>
       </c>
       <c r="F159" s="14" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="G159" s="14" t="s">
-        <v>674</v>
+        <v>671</v>
       </c>
       <c r="H159" s="14"/>
       <c r="I159" s="15" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="J159" s="17" t="s">
-        <v>675</v>
+        <v>672</v>
       </c>
       <c r="K159" s="14"/>
     </row>
@@ -16318,26 +16333,26 @@
         <v>305</v>
       </c>
       <c r="C160" s="14" t="s">
-        <v>726</v>
+        <v>311</v>
       </c>
       <c r="D160" s="14" t="s">
-        <v>410</v>
+        <v>312</v>
       </c>
       <c r="E160" s="14" t="s">
         <v>25</v>
       </c>
       <c r="F160" s="14" t="s">
-        <v>760</v>
+        <v>313</v>
       </c>
       <c r="G160" s="14" t="s">
-        <v>761</v>
+        <v>673</v>
       </c>
       <c r="H160" s="14"/>
-      <c r="I160" s="29" t="s">
-        <v>762</v>
+      <c r="I160" s="15" t="s">
+        <v>314</v>
       </c>
       <c r="J160" s="17" t="s">
-        <v>763</v>
+        <v>674</v>
       </c>
       <c r="K160" s="14"/>
     </row>
@@ -16346,10 +16361,10 @@
         <v>278</v>
       </c>
       <c r="B161" s="14" t="s">
-        <v>315</v>
+        <v>305</v>
       </c>
       <c r="C161" s="14" t="s">
-        <v>316</v>
+        <v>725</v>
       </c>
       <c r="D161" s="14" t="s">
         <v>410</v>
@@ -16358,17 +16373,17 @@
         <v>25</v>
       </c>
       <c r="F161" s="14" t="s">
-        <v>317</v>
+        <v>759</v>
       </c>
       <c r="G161" s="14" t="s">
-        <v>676</v>
+        <v>760</v>
       </c>
       <c r="H161" s="14"/>
-      <c r="I161" s="15" t="s">
-        <v>318</v>
+      <c r="I161" s="29" t="s">
+        <v>761</v>
       </c>
       <c r="J161" s="17" t="s">
-        <v>677</v>
+        <v>762</v>
       </c>
       <c r="K161" s="14"/>
     </row>
@@ -16380,26 +16395,26 @@
         <v>315</v>
       </c>
       <c r="C162" s="14" t="s">
-        <v>717</v>
+        <v>316</v>
       </c>
       <c r="D162" s="14" t="s">
-        <v>55</v>
+        <v>410</v>
       </c>
       <c r="E162" s="14" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="F162" s="14" t="s">
-        <v>764</v>
+        <v>317</v>
       </c>
       <c r="G162" s="14" t="s">
-        <v>765</v>
+        <v>675</v>
       </c>
       <c r="H162" s="14"/>
-      <c r="I162" s="29" t="s">
-        <v>766</v>
+      <c r="I162" s="15" t="s">
+        <v>318</v>
       </c>
       <c r="J162" s="17" t="s">
-        <v>767</v>
+        <v>676</v>
       </c>
       <c r="K162" s="14"/>
     </row>
@@ -16411,26 +16426,26 @@
         <v>315</v>
       </c>
       <c r="C163" s="14" t="s">
-        <v>788</v>
+        <v>716</v>
       </c>
       <c r="D163" s="14" t="s">
-        <v>410</v>
+        <v>55</v>
       </c>
       <c r="E163" s="14" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="F163" s="14" t="s">
-        <v>789</v>
+        <v>763</v>
       </c>
       <c r="G163" s="14" t="s">
-        <v>790</v>
+        <v>764</v>
       </c>
       <c r="H163" s="14"/>
       <c r="I163" s="29" t="s">
-        <v>791</v>
+        <v>765</v>
       </c>
       <c r="J163" s="17" t="s">
-        <v>792</v>
+        <v>766</v>
       </c>
       <c r="K163" s="14"/>
     </row>
@@ -16442,26 +16457,26 @@
         <v>315</v>
       </c>
       <c r="C164" s="14" t="s">
-        <v>1020</v>
+        <v>787</v>
       </c>
       <c r="D164" s="14" t="s">
-        <v>418</v>
+        <v>410</v>
       </c>
       <c r="E164" s="14" t="s">
         <v>25</v>
       </c>
       <c r="F164" s="14" t="s">
-        <v>1019</v>
+        <v>788</v>
       </c>
       <c r="G164" s="14" t="s">
-        <v>1021</v>
+        <v>789</v>
       </c>
       <c r="H164" s="14"/>
       <c r="I164" s="29" t="s">
-        <v>1022</v>
+        <v>790</v>
       </c>
       <c r="J164" s="17" t="s">
-        <v>1023</v>
+        <v>791</v>
       </c>
       <c r="K164" s="14"/>
     </row>
@@ -16470,29 +16485,29 @@
         <v>278</v>
       </c>
       <c r="B165" s="14" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="C165" s="14" t="s">
-        <v>320</v>
+        <v>1019</v>
       </c>
       <c r="D165" s="14" t="s">
-        <v>410</v>
+        <v>418</v>
       </c>
       <c r="E165" s="14" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="F165" s="14" t="s">
-        <v>678</v>
+        <v>1018</v>
       </c>
       <c r="G165" s="14" t="s">
-        <v>679</v>
+        <v>1020</v>
       </c>
       <c r="H165" s="14"/>
-      <c r="I165" s="16" t="s">
-        <v>680</v>
+      <c r="I165" s="29" t="s">
+        <v>1021</v>
       </c>
       <c r="J165" s="17" t="s">
-        <v>681</v>
+        <v>1022</v>
       </c>
       <c r="K165" s="14"/>
     </row>
@@ -16504,7 +16519,7 @@
         <v>319</v>
       </c>
       <c r="C166" s="14" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="D166" s="14" t="s">
         <v>410</v>
@@ -16513,17 +16528,17 @@
         <v>14</v>
       </c>
       <c r="F166" s="14" t="s">
-        <v>324</v>
+        <v>677</v>
       </c>
       <c r="G166" s="14" t="s">
-        <v>682</v>
+        <v>678</v>
       </c>
       <c r="H166" s="14"/>
-      <c r="I166" s="15" t="s">
-        <v>325</v>
+      <c r="I166" s="16" t="s">
+        <v>679</v>
       </c>
       <c r="J166" s="17" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="K166" s="14"/>
     </row>
@@ -16535,7 +16550,7 @@
         <v>319</v>
       </c>
       <c r="C167" s="14" t="s">
-        <v>684</v>
+        <v>323</v>
       </c>
       <c r="D167" s="14" t="s">
         <v>410</v>
@@ -16544,17 +16559,17 @@
         <v>14</v>
       </c>
       <c r="F167" s="14" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="G167" s="14" t="s">
-        <v>685</v>
+        <v>681</v>
       </c>
       <c r="H167" s="14"/>
       <c r="I167" s="15" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="J167" s="17" t="s">
-        <v>686</v>
+        <v>682</v>
       </c>
       <c r="K167" s="14"/>
     </row>
@@ -16563,29 +16578,29 @@
         <v>278</v>
       </c>
       <c r="B168" s="14" t="s">
-        <v>329</v>
+        <v>319</v>
       </c>
       <c r="C168" s="14" t="s">
-        <v>167</v>
+        <v>683</v>
       </c>
       <c r="D168" s="14" t="s">
         <v>410</v>
       </c>
       <c r="E168" s="14" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="F168" s="14" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="G168" s="14" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
       <c r="H168" s="14"/>
       <c r="I168" s="15" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="J168" s="17" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
       <c r="K168" s="14"/>
     </row>
@@ -16597,26 +16612,26 @@
         <v>329</v>
       </c>
       <c r="C169" s="14" t="s">
-        <v>332</v>
+        <v>167</v>
       </c>
       <c r="D169" s="14" t="s">
-        <v>418</v>
+        <v>410</v>
       </c>
       <c r="E169" s="14" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="F169" s="14" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="G169" s="14" t="s">
-        <v>689</v>
+        <v>686</v>
       </c>
       <c r="H169" s="14"/>
       <c r="I169" s="15" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="J169" s="17" t="s">
-        <v>690</v>
+        <v>687</v>
       </c>
       <c r="K169" s="14"/>
     </row>
@@ -16628,26 +16643,26 @@
         <v>329</v>
       </c>
       <c r="C170" s="14" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="D170" s="14" t="s">
-        <v>47</v>
+        <v>418</v>
       </c>
       <c r="E170" s="14" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="F170" s="14" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="G170" s="14" t="s">
-        <v>691</v>
+        <v>688</v>
       </c>
       <c r="H170" s="14"/>
       <c r="I170" s="15" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="J170" s="17" t="s">
-        <v>692</v>
+        <v>689</v>
       </c>
       <c r="K170" s="14"/>
     </row>
@@ -16659,26 +16674,26 @@
         <v>329</v>
       </c>
       <c r="C171" s="14" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="D171" s="14" t="s">
-        <v>117</v>
+        <v>47</v>
       </c>
       <c r="E171" s="14" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="F171" s="14" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="G171" s="14" t="s">
-        <v>693</v>
+        <v>690</v>
       </c>
       <c r="H171" s="14"/>
       <c r="I171" s="15" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="J171" s="17" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
       <c r="K171" s="14"/>
     </row>
@@ -16690,26 +16705,26 @@
         <v>329</v>
       </c>
       <c r="C172" s="14" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="D172" s="14" t="s">
-        <v>342</v>
+        <v>117</v>
       </c>
       <c r="E172" s="14" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="F172" s="14" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="G172" s="14" t="s">
-        <v>695</v>
+        <v>692</v>
       </c>
       <c r="H172" s="14"/>
       <c r="I172" s="15" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="J172" s="17" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
       <c r="K172" s="14"/>
     </row>
@@ -16721,26 +16736,26 @@
         <v>329</v>
       </c>
       <c r="C173" s="14" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="D173" s="14" t="s">
-        <v>47</v>
+        <v>342</v>
       </c>
       <c r="E173" s="14" t="s">
         <v>14</v>
       </c>
       <c r="F173" s="14" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="G173" s="14" t="s">
-        <v>697</v>
+        <v>694</v>
       </c>
       <c r="H173" s="14"/>
       <c r="I173" s="15" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="J173" s="17" t="s">
-        <v>698</v>
+        <v>695</v>
       </c>
       <c r="K173" s="14"/>
     </row>
@@ -16752,25 +16767,27 @@
         <v>329</v>
       </c>
       <c r="C174" s="14" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="D174" s="14" t="s">
-        <v>312</v>
+        <v>47</v>
       </c>
       <c r="E174" s="14" t="s">
         <v>14</v>
       </c>
       <c r="F174" s="14" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="G174" s="14" t="s">
-        <v>1018</v>
+        <v>696</v>
       </c>
       <c r="H174" s="14"/>
-      <c r="I174" s="29" t="s">
-        <v>344</v>
-      </c>
-      <c r="J174" s="17"/>
+      <c r="I174" s="15" t="s">
+        <v>347</v>
+      </c>
+      <c r="J174" s="17" t="s">
+        <v>697</v>
+      </c>
       <c r="K174" s="14"/>
     </row>
     <row r="175" spans="1:11" ht="13">
@@ -16778,30 +16795,28 @@
         <v>278</v>
       </c>
       <c r="B175" s="14" t="s">
-        <v>348</v>
+        <v>329</v>
       </c>
       <c r="C175" s="14" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="D175" s="14" t="s">
-        <v>75</v>
+        <v>312</v>
       </c>
       <c r="E175" s="14" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="F175" s="14" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="G175" s="14" t="s">
-        <v>699</v>
+        <v>1017</v>
       </c>
       <c r="H175" s="14"/>
       <c r="I175" s="29" t="s">
-        <v>859</v>
-      </c>
-      <c r="J175" s="17" t="s">
-        <v>700</v>
-      </c>
+        <v>344</v>
+      </c>
+      <c r="J175" s="17"/>
       <c r="K175" s="14"/>
     </row>
     <row r="176" spans="1:11" ht="13">
@@ -16812,26 +16827,26 @@
         <v>348</v>
       </c>
       <c r="C176" s="14" t="s">
-        <v>701</v>
+        <v>349</v>
       </c>
       <c r="D176" s="14" t="s">
-        <v>418</v>
+        <v>75</v>
       </c>
       <c r="E176" s="14" t="s">
         <v>25</v>
       </c>
       <c r="F176" s="14" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="G176" s="14" t="s">
-        <v>702</v>
+        <v>698</v>
       </c>
       <c r="H176" s="14"/>
-      <c r="I176" s="16" t="s">
-        <v>354</v>
+      <c r="I176" s="29" t="s">
+        <v>858</v>
       </c>
       <c r="J176" s="17" t="s">
-        <v>703</v>
+        <v>699</v>
       </c>
       <c r="K176" s="14"/>
     </row>
@@ -16840,29 +16855,29 @@
         <v>278</v>
       </c>
       <c r="B177" s="14" t="s">
-        <v>355</v>
+        <v>348</v>
       </c>
       <c r="C177" s="14" t="s">
-        <v>302</v>
+        <v>700</v>
       </c>
       <c r="D177" s="14" t="s">
-        <v>117</v>
+        <v>418</v>
       </c>
       <c r="E177" s="14" t="s">
         <v>25</v>
       </c>
       <c r="F177" s="14" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="G177" s="14" t="s">
-        <v>704</v>
+        <v>701</v>
       </c>
       <c r="H177" s="14"/>
-      <c r="I177" s="15" t="s">
-        <v>357</v>
+      <c r="I177" s="16" t="s">
+        <v>354</v>
       </c>
       <c r="J177" s="17" t="s">
-        <v>705</v>
+        <v>702</v>
       </c>
       <c r="K177" s="14"/>
     </row>
@@ -16874,26 +16889,26 @@
         <v>355</v>
       </c>
       <c r="C178" s="14" t="s">
-        <v>358</v>
+        <v>302</v>
       </c>
       <c r="D178" s="14" t="s">
-        <v>410</v>
+        <v>117</v>
       </c>
       <c r="E178" s="14" t="s">
         <v>25</v>
       </c>
       <c r="F178" s="14" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="G178" s="14" t="s">
-        <v>706</v>
+        <v>703</v>
       </c>
       <c r="H178" s="14"/>
       <c r="I178" s="15" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="J178" s="17" t="s">
-        <v>707</v>
+        <v>704</v>
       </c>
       <c r="K178" s="14"/>
     </row>
@@ -16905,26 +16920,26 @@
         <v>355</v>
       </c>
       <c r="C179" s="14" t="s">
-        <v>720</v>
+        <v>358</v>
       </c>
       <c r="D179" s="14" t="s">
-        <v>51</v>
+        <v>410</v>
       </c>
       <c r="E179" s="14" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="F179" s="14" t="s">
-        <v>768</v>
+        <v>359</v>
       </c>
       <c r="G179" s="14" t="s">
-        <v>769</v>
+        <v>705</v>
       </c>
       <c r="H179" s="14"/>
-      <c r="I179" s="29" t="s">
-        <v>770</v>
+      <c r="I179" s="15" t="s">
+        <v>360</v>
       </c>
       <c r="J179" s="17" t="s">
-        <v>771</v>
+        <v>706</v>
       </c>
       <c r="K179" s="14"/>
     </row>
@@ -16936,26 +16951,26 @@
         <v>355</v>
       </c>
       <c r="C180" s="14" t="s">
-        <v>884</v>
+        <v>719</v>
       </c>
       <c r="D180" s="14" t="s">
-        <v>410</v>
+        <v>51</v>
       </c>
       <c r="E180" s="14" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="F180" s="14" t="s">
-        <v>885</v>
+        <v>767</v>
       </c>
       <c r="G180" s="14" t="s">
-        <v>886</v>
+        <v>768</v>
       </c>
       <c r="H180" s="14"/>
       <c r="I180" s="29" t="s">
-        <v>887</v>
+        <v>769</v>
       </c>
       <c r="J180" s="17" t="s">
-        <v>888</v>
+        <v>770</v>
       </c>
       <c r="K180" s="14"/>
     </row>
@@ -16964,10 +16979,10 @@
         <v>278</v>
       </c>
       <c r="B181" s="14" t="s">
-        <v>708</v>
-      </c>
-      <c r="C181" s="17" t="s">
-        <v>709</v>
+        <v>355</v>
+      </c>
+      <c r="C181" s="14" t="s">
+        <v>883</v>
       </c>
       <c r="D181" s="14" t="s">
         <v>410</v>
@@ -16976,17 +16991,17 @@
         <v>25</v>
       </c>
       <c r="F181" s="14" t="s">
-        <v>710</v>
+        <v>884</v>
       </c>
       <c r="G181" s="14" t="s">
-        <v>711</v>
+        <v>885</v>
       </c>
       <c r="H181" s="14"/>
-      <c r="I181" s="15" t="s">
-        <v>712</v>
+      <c r="I181" s="29" t="s">
+        <v>886</v>
       </c>
       <c r="J181" s="17" t="s">
-        <v>713</v>
+        <v>887</v>
       </c>
       <c r="K181" s="14"/>
     </row>
@@ -16995,62 +17010,93 @@
         <v>278</v>
       </c>
       <c r="B182" s="14" t="s">
-        <v>361</v>
+        <v>707</v>
       </c>
       <c r="C182" s="17" t="s">
-        <v>362</v>
+        <v>708</v>
       </c>
       <c r="D182" s="14" t="s">
-        <v>418</v>
+        <v>410</v>
       </c>
       <c r="E182" s="14" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="F182" s="14" t="s">
-        <v>363</v>
+        <v>709</v>
       </c>
       <c r="G182" s="14" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
       <c r="H182" s="14"/>
       <c r="I182" s="15" t="s">
-        <v>364</v>
+        <v>711</v>
       </c>
       <c r="J182" s="17" t="s">
-        <v>715</v>
+        <v>712</v>
       </c>
       <c r="K182" s="14"/>
     </row>
-    <row r="183" spans="1:11" ht="15.75" customHeight="1">
+    <row r="183" spans="1:11" ht="13">
       <c r="A183" s="14" t="s">
-        <v>772</v>
+        <v>278</v>
       </c>
       <c r="B183" s="14" t="s">
-        <v>774</v>
-      </c>
-      <c r="C183" s="14" t="s">
-        <v>722</v>
+        <v>361</v>
+      </c>
+      <c r="C183" s="17" t="s">
+        <v>362</v>
       </c>
       <c r="D183" s="14" t="s">
-        <v>410</v>
+        <v>418</v>
       </c>
       <c r="E183" s="14" t="s">
         <v>14</v>
       </c>
       <c r="F183" s="14" t="s">
+        <v>363</v>
+      </c>
+      <c r="G183" s="14" t="s">
+        <v>713</v>
+      </c>
+      <c r="H183" s="14"/>
+      <c r="I183" s="15" t="s">
+        <v>364</v>
+      </c>
+      <c r="J183" s="17" t="s">
+        <v>714</v>
+      </c>
+      <c r="K183" s="14"/>
+    </row>
+    <row r="184" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A184" s="14" t="s">
+        <v>771</v>
+      </c>
+      <c r="B184" s="14" t="s">
         <v>773</v>
       </c>
-      <c r="G183" s="14" t="s">
+      <c r="C184" s="14" t="s">
+        <v>721</v>
+      </c>
+      <c r="D184" s="14" t="s">
+        <v>410</v>
+      </c>
+      <c r="E184" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="F184" s="14" t="s">
+        <v>772</v>
+      </c>
+      <c r="G184" s="14" t="s">
+        <v>774</v>
+      </c>
+      <c r="H184" s="14"/>
+      <c r="I184" s="29" t="s">
         <v>775</v>
       </c>
-      <c r="H183" s="14"/>
-      <c r="I183" s="29" t="s">
+      <c r="J184" s="17" t="s">
         <v>776</v>
       </c>
-      <c r="J183" s="17" t="s">
-        <v>777</v>
-      </c>
-      <c r="K183" s="14"/>
+      <c r="K184" s="14"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -17068,174 +17114,175 @@
     <hyperlink ref="I16" r:id="rId12" xr:uid="{00000000-0004-0000-0100-00000B000000}"/>
     <hyperlink ref="I18" r:id="rId13" xr:uid="{00000000-0004-0000-0100-00000C000000}"/>
     <hyperlink ref="I19" r:id="rId14" xr:uid="{00000000-0004-0000-0100-00000E000000}"/>
-    <hyperlink ref="I22" r:id="rId15" xr:uid="{00000000-0004-0000-0100-00000F000000}"/>
-    <hyperlink ref="I23" r:id="rId16" xr:uid="{00000000-0004-0000-0100-000010000000}"/>
-    <hyperlink ref="I24" r:id="rId17" xr:uid="{00000000-0004-0000-0100-000011000000}"/>
-    <hyperlink ref="I25" r:id="rId18" xr:uid="{00000000-0004-0000-0100-000012000000}"/>
-    <hyperlink ref="I26" r:id="rId19" xr:uid="{00000000-0004-0000-0100-000013000000}"/>
-    <hyperlink ref="I27" r:id="rId20" xr:uid="{00000000-0004-0000-0100-000014000000}"/>
-    <hyperlink ref="I28" r:id="rId21" xr:uid="{00000000-0004-0000-0100-000015000000}"/>
-    <hyperlink ref="I29" r:id="rId22" xr:uid="{00000000-0004-0000-0100-000016000000}"/>
-    <hyperlink ref="I30" r:id="rId23" xr:uid="{00000000-0004-0000-0100-000017000000}"/>
-    <hyperlink ref="I31" r:id="rId24" xr:uid="{00000000-0004-0000-0100-000018000000}"/>
-    <hyperlink ref="I33" r:id="rId25" xr:uid="{00000000-0004-0000-0100-000019000000}"/>
-    <hyperlink ref="I34" r:id="rId26" xr:uid="{00000000-0004-0000-0100-00001A000000}"/>
-    <hyperlink ref="I35" r:id="rId27" xr:uid="{00000000-0004-0000-0100-00001B000000}"/>
-    <hyperlink ref="I36" r:id="rId28" xr:uid="{00000000-0004-0000-0100-00001C000000}"/>
-    <hyperlink ref="I37" r:id="rId29" xr:uid="{00000000-0004-0000-0100-00001D000000}"/>
-    <hyperlink ref="I38" r:id="rId30" xr:uid="{00000000-0004-0000-0100-00001E000000}"/>
-    <hyperlink ref="I39" r:id="rId31" xr:uid="{00000000-0004-0000-0100-00001F000000}"/>
-    <hyperlink ref="I43" r:id="rId32" xr:uid="{00000000-0004-0000-0100-000020000000}"/>
-    <hyperlink ref="I44" r:id="rId33" xr:uid="{00000000-0004-0000-0100-000021000000}"/>
-    <hyperlink ref="I50" r:id="rId34" xr:uid="{00000000-0004-0000-0100-000022000000}"/>
-    <hyperlink ref="I51" r:id="rId35" xr:uid="{00000000-0004-0000-0100-000023000000}"/>
-    <hyperlink ref="I52" r:id="rId36" xr:uid="{00000000-0004-0000-0100-000024000000}"/>
-    <hyperlink ref="I53" r:id="rId37" xr:uid="{00000000-0004-0000-0100-000025000000}"/>
-    <hyperlink ref="I54" r:id="rId38" xr:uid="{00000000-0004-0000-0100-000026000000}"/>
-    <hyperlink ref="I55" r:id="rId39" xr:uid="{00000000-0004-0000-0100-000027000000}"/>
-    <hyperlink ref="I56" r:id="rId40" xr:uid="{00000000-0004-0000-0100-000028000000}"/>
-    <hyperlink ref="I57" r:id="rId41" xr:uid="{00000000-0004-0000-0100-000029000000}"/>
-    <hyperlink ref="I58" r:id="rId42" xr:uid="{00000000-0004-0000-0100-00002A000000}"/>
-    <hyperlink ref="I59" r:id="rId43" xr:uid="{00000000-0004-0000-0100-00002B000000}"/>
-    <hyperlink ref="I60" r:id="rId44" xr:uid="{00000000-0004-0000-0100-00002C000000}"/>
-    <hyperlink ref="I62" r:id="rId45" xr:uid="{00000000-0004-0000-0100-00002D000000}"/>
-    <hyperlink ref="I63" r:id="rId46" xr:uid="{00000000-0004-0000-0100-00002E000000}"/>
-    <hyperlink ref="I64" r:id="rId47" xr:uid="{00000000-0004-0000-0100-00002F000000}"/>
-    <hyperlink ref="I70" r:id="rId48" xr:uid="{00000000-0004-0000-0100-000030000000}"/>
-    <hyperlink ref="I72" r:id="rId49" xr:uid="{00000000-0004-0000-0100-000031000000}"/>
-    <hyperlink ref="I73" r:id="rId50" xr:uid="{00000000-0004-0000-0100-000032000000}"/>
-    <hyperlink ref="I74" r:id="rId51" xr:uid="{00000000-0004-0000-0100-000033000000}"/>
-    <hyperlink ref="I75" r:id="rId52" xr:uid="{00000000-0004-0000-0100-000034000000}"/>
-    <hyperlink ref="I79" r:id="rId53" xr:uid="{00000000-0004-0000-0100-000035000000}"/>
-    <hyperlink ref="I80" r:id="rId54" xr:uid="{00000000-0004-0000-0100-000036000000}"/>
-    <hyperlink ref="I81" r:id="rId55" xr:uid="{00000000-0004-0000-0100-000037000000}"/>
-    <hyperlink ref="I82" r:id="rId56" xr:uid="{00000000-0004-0000-0100-000038000000}"/>
-    <hyperlink ref="I83" r:id="rId57" xr:uid="{00000000-0004-0000-0100-000039000000}"/>
-    <hyperlink ref="I85" r:id="rId58" xr:uid="{00000000-0004-0000-0100-00003A000000}"/>
-    <hyperlink ref="I86" r:id="rId59" xr:uid="{00000000-0004-0000-0100-00003B000000}"/>
-    <hyperlink ref="I87" r:id="rId60" xr:uid="{00000000-0004-0000-0100-00003C000000}"/>
-    <hyperlink ref="I88" r:id="rId61" xr:uid="{00000000-0004-0000-0100-00003D000000}"/>
-    <hyperlink ref="I89" r:id="rId62" xr:uid="{00000000-0004-0000-0100-00003E000000}"/>
-    <hyperlink ref="I90" r:id="rId63" xr:uid="{00000000-0004-0000-0100-00003F000000}"/>
-    <hyperlink ref="I91" r:id="rId64" xr:uid="{00000000-0004-0000-0100-000040000000}"/>
-    <hyperlink ref="I93" r:id="rId65" xr:uid="{00000000-0004-0000-0100-000041000000}"/>
-    <hyperlink ref="I94" r:id="rId66" xr:uid="{00000000-0004-0000-0100-000042000000}"/>
-    <hyperlink ref="I97" r:id="rId67" xr:uid="{00000000-0004-0000-0100-000043000000}"/>
-    <hyperlink ref="I98" r:id="rId68" xr:uid="{00000000-0004-0000-0100-000044000000}"/>
-    <hyperlink ref="I99" r:id="rId69" xr:uid="{00000000-0004-0000-0100-000045000000}"/>
-    <hyperlink ref="I100" r:id="rId70" xr:uid="{00000000-0004-0000-0100-000046000000}"/>
-    <hyperlink ref="I101" r:id="rId71" xr:uid="{00000000-0004-0000-0100-000047000000}"/>
-    <hyperlink ref="I102" r:id="rId72" xr:uid="{00000000-0004-0000-0100-000048000000}"/>
-    <hyperlink ref="I105" r:id="rId73" xr:uid="{00000000-0004-0000-0100-000049000000}"/>
-    <hyperlink ref="I106" r:id="rId74" xr:uid="{00000000-0004-0000-0100-00004A000000}"/>
-    <hyperlink ref="I107" r:id="rId75" xr:uid="{00000000-0004-0000-0100-00004B000000}"/>
-    <hyperlink ref="I108" r:id="rId76" xr:uid="{00000000-0004-0000-0100-00004C000000}"/>
-    <hyperlink ref="I111" r:id="rId77" xr:uid="{00000000-0004-0000-0100-00004D000000}"/>
-    <hyperlink ref="I114" r:id="rId78" xr:uid="{00000000-0004-0000-0100-00004E000000}"/>
-    <hyperlink ref="I115" r:id="rId79" xr:uid="{00000000-0004-0000-0100-00004F000000}"/>
-    <hyperlink ref="I116" r:id="rId80" xr:uid="{00000000-0004-0000-0100-000050000000}"/>
-    <hyperlink ref="I117" r:id="rId81" xr:uid="{00000000-0004-0000-0100-000051000000}"/>
-    <hyperlink ref="I118" r:id="rId82" xr:uid="{00000000-0004-0000-0100-000052000000}"/>
-    <hyperlink ref="I119" r:id="rId83" xr:uid="{00000000-0004-0000-0100-000053000000}"/>
-    <hyperlink ref="I120" r:id="rId84" xr:uid="{00000000-0004-0000-0100-000054000000}"/>
-    <hyperlink ref="I121" r:id="rId85" xr:uid="{00000000-0004-0000-0100-000055000000}"/>
-    <hyperlink ref="I126" r:id="rId86" xr:uid="{00000000-0004-0000-0100-000056000000}"/>
-    <hyperlink ref="I129" r:id="rId87" xr:uid="{00000000-0004-0000-0100-000057000000}"/>
-    <hyperlink ref="I133" r:id="rId88" xr:uid="{00000000-0004-0000-0100-000058000000}"/>
-    <hyperlink ref="I134" r:id="rId89" xr:uid="{00000000-0004-0000-0100-000059000000}"/>
-    <hyperlink ref="I138" r:id="rId90" xr:uid="{00000000-0004-0000-0100-00005A000000}"/>
-    <hyperlink ref="I139" r:id="rId91" xr:uid="{00000000-0004-0000-0100-00005B000000}"/>
-    <hyperlink ref="I140" r:id="rId92" xr:uid="{00000000-0004-0000-0100-00005C000000}"/>
-    <hyperlink ref="I141" r:id="rId93" xr:uid="{00000000-0004-0000-0100-00005D000000}"/>
-    <hyperlink ref="I143" r:id="rId94" xr:uid="{00000000-0004-0000-0100-00005E000000}"/>
-    <hyperlink ref="I144" r:id="rId95" xr:uid="{00000000-0004-0000-0100-00005F000000}"/>
-    <hyperlink ref="I145" r:id="rId96" xr:uid="{00000000-0004-0000-0100-000060000000}"/>
-    <hyperlink ref="I146" r:id="rId97" xr:uid="{00000000-0004-0000-0100-000061000000}"/>
-    <hyperlink ref="I147" r:id="rId98" xr:uid="{00000000-0004-0000-0100-000062000000}"/>
-    <hyperlink ref="I148" r:id="rId99" xr:uid="{00000000-0004-0000-0100-000063000000}"/>
-    <hyperlink ref="I149" r:id="rId100" xr:uid="{00000000-0004-0000-0100-000064000000}"/>
-    <hyperlink ref="I155" r:id="rId101" xr:uid="{00000000-0004-0000-0100-000065000000}"/>
-    <hyperlink ref="I156" r:id="rId102" xr:uid="{00000000-0004-0000-0100-000066000000}"/>
-    <hyperlink ref="I157" r:id="rId103" xr:uid="{00000000-0004-0000-0100-000067000000}"/>
-    <hyperlink ref="I158" r:id="rId104" xr:uid="{00000000-0004-0000-0100-000068000000}"/>
-    <hyperlink ref="I161" r:id="rId105" xr:uid="{00000000-0004-0000-0100-00006A000000}"/>
-    <hyperlink ref="I165" r:id="rId106" xr:uid="{00000000-0004-0000-0100-00006B000000}"/>
-    <hyperlink ref="I166" r:id="rId107" xr:uid="{00000000-0004-0000-0100-00006C000000}"/>
-    <hyperlink ref="I167" r:id="rId108" xr:uid="{00000000-0004-0000-0100-00006D000000}"/>
-    <hyperlink ref="I168" r:id="rId109" xr:uid="{00000000-0004-0000-0100-00006E000000}"/>
-    <hyperlink ref="I169" r:id="rId110" xr:uid="{00000000-0004-0000-0100-00006F000000}"/>
-    <hyperlink ref="I170" r:id="rId111" xr:uid="{00000000-0004-0000-0100-000070000000}"/>
-    <hyperlink ref="I171" r:id="rId112" xr:uid="{00000000-0004-0000-0100-000071000000}"/>
-    <hyperlink ref="I172" r:id="rId113" xr:uid="{00000000-0004-0000-0100-000072000000}"/>
-    <hyperlink ref="I173" r:id="rId114" xr:uid="{00000000-0004-0000-0100-000073000000}"/>
-    <hyperlink ref="I175" r:id="rId115" xr:uid="{00000000-0004-0000-0100-000074000000}"/>
-    <hyperlink ref="I176" r:id="rId116" xr:uid="{00000000-0004-0000-0100-000075000000}"/>
-    <hyperlink ref="I177" r:id="rId117" xr:uid="{00000000-0004-0000-0100-000076000000}"/>
-    <hyperlink ref="I178" r:id="rId118" xr:uid="{00000000-0004-0000-0100-000077000000}"/>
-    <hyperlink ref="I181" r:id="rId119" xr:uid="{00000000-0004-0000-0100-000078000000}"/>
-    <hyperlink ref="I182" r:id="rId120" xr:uid="{00000000-0004-0000-0100-000079000000}"/>
-    <hyperlink ref="I20" r:id="rId121" xr:uid="{881F0F65-3DCC-E94A-9FE5-2CC264A8F337}"/>
-    <hyperlink ref="I21" r:id="rId122" xr:uid="{AC40193A-1232-474A-A421-B55FFA7E99B8}"/>
-    <hyperlink ref="I40" r:id="rId123" xr:uid="{D41ADE90-9772-8F41-AC9B-8DE303E9D7A9}"/>
-    <hyperlink ref="I41" r:id="rId124" xr:uid="{85F37ABA-4B3B-764B-A1ED-9DD3AFFF0004}"/>
-    <hyperlink ref="I78" r:id="rId125" xr:uid="{F5E14AAB-D49A-EF45-A165-3757EFF2E9B4}"/>
-    <hyperlink ref="I95" r:id="rId126" xr:uid="{759707EA-D94A-2D42-8FE0-FAE01578CF99}"/>
-    <hyperlink ref="I128" r:id="rId127" xr:uid="{1A936B77-62AA-804C-B853-4343ADD2D925}"/>
-    <hyperlink ref="I159" r:id="rId128" xr:uid="{00000000-0004-0000-0100-000069000000}"/>
-    <hyperlink ref="I150" r:id="rId129" xr:uid="{2929B0EA-E15F-E444-ADC1-C2E3E232D526}"/>
-    <hyperlink ref="I160" r:id="rId130" xr:uid="{7770BE98-2823-3047-9E72-08DB2B79C177}"/>
-    <hyperlink ref="I162" r:id="rId131" xr:uid="{A91F97A2-47FA-FB49-8866-2B9AA1419B2B}"/>
-    <hyperlink ref="I179" r:id="rId132" xr:uid="{11EEE67C-10E9-AB44-91F6-D7C7B31697FA}"/>
-    <hyperlink ref="I183" r:id="rId133" xr:uid="{8E930EBE-7205-BD41-9ED8-FE8F970A98EF}"/>
-    <hyperlink ref="I163" r:id="rId134" xr:uid="{3AF5EB12-868F-C842-91DC-4FC147AA3C86}"/>
-    <hyperlink ref="I65" r:id="rId135" xr:uid="{7BDCEA69-27F3-FF41-BB2B-817D4FD2C9C0}"/>
-    <hyperlink ref="I66" r:id="rId136" xr:uid="{7A940ACA-466B-9E49-8CB5-9BA664F7C3C9}"/>
-    <hyperlink ref="I68" r:id="rId137" xr:uid="{088C717E-7DC5-EF4C-8C34-370DC45C6BEE}"/>
-    <hyperlink ref="I69" r:id="rId138" xr:uid="{A670C44A-19C9-984F-9EAA-8D5EBCE39C79}"/>
-    <hyperlink ref="I109" r:id="rId139" xr:uid="{713BB907-BFF9-AE42-B777-2AF591DA7D9B}"/>
-    <hyperlink ref="I113" r:id="rId140" xr:uid="{EC0C54FA-684B-A440-BF57-B5B57FDD99C9}"/>
-    <hyperlink ref="I123" r:id="rId141" xr:uid="{9081BA3E-9CF8-074E-BF5B-0F2FA156F0B7}"/>
-    <hyperlink ref="I125" r:id="rId142" xr:uid="{8C2FD4CC-DF59-734E-8449-EA5B9F5E7D3D}"/>
-    <hyperlink ref="I92" r:id="rId143" xr:uid="{9845498D-A3A6-524F-9A69-7DC2DB7F7639}"/>
-    <hyperlink ref="I122" r:id="rId144" xr:uid="{CFDD3EC3-C992-0E4C-8C8D-2A9AC6885E0B}"/>
-    <hyperlink ref="I103" r:id="rId145" xr:uid="{C634E917-B836-414F-BB3B-9A111E16653C}"/>
-    <hyperlink ref="I61" r:id="rId146" xr:uid="{8548A361-62F7-A648-BBBE-9F37385F0E45}"/>
-    <hyperlink ref="I76" r:id="rId147" xr:uid="{8EA062F9-78F8-A44B-BEDA-61CF758CB831}"/>
-    <hyperlink ref="I45" r:id="rId148" xr:uid="{7C7CB4D2-6B37-544C-B631-930D91F3AA17}"/>
-    <hyperlink ref="I151" r:id="rId149" xr:uid="{5694CC0C-366D-8848-BBD7-150B284E15DA}"/>
-    <hyperlink ref="I32" r:id="rId150" xr:uid="{7E8D5837-BD50-6844-B288-6217DFD05E29}"/>
-    <hyperlink ref="I47" r:id="rId151" xr:uid="{E89C4D5B-786F-9A4C-9914-80D4DF36F89C}"/>
-    <hyperlink ref="I46" r:id="rId152" xr:uid="{EDBD0C6E-D96D-734B-85A9-4D26B3421D83}"/>
-    <hyperlink ref="I180" r:id="rId153" xr:uid="{12FA5E40-D722-4344-995B-86BBF8B4F3F3}"/>
+    <hyperlink ref="I23" r:id="rId15" xr:uid="{00000000-0004-0000-0100-00000F000000}"/>
+    <hyperlink ref="I24" r:id="rId16" xr:uid="{00000000-0004-0000-0100-000010000000}"/>
+    <hyperlink ref="I25" r:id="rId17" xr:uid="{00000000-0004-0000-0100-000011000000}"/>
+    <hyperlink ref="I26" r:id="rId18" xr:uid="{00000000-0004-0000-0100-000012000000}"/>
+    <hyperlink ref="I27" r:id="rId19" xr:uid="{00000000-0004-0000-0100-000013000000}"/>
+    <hyperlink ref="I28" r:id="rId20" xr:uid="{00000000-0004-0000-0100-000014000000}"/>
+    <hyperlink ref="I29" r:id="rId21" xr:uid="{00000000-0004-0000-0100-000015000000}"/>
+    <hyperlink ref="I30" r:id="rId22" xr:uid="{00000000-0004-0000-0100-000016000000}"/>
+    <hyperlink ref="I31" r:id="rId23" xr:uid="{00000000-0004-0000-0100-000017000000}"/>
+    <hyperlink ref="I32" r:id="rId24" xr:uid="{00000000-0004-0000-0100-000018000000}"/>
+    <hyperlink ref="I34" r:id="rId25" xr:uid="{00000000-0004-0000-0100-000019000000}"/>
+    <hyperlink ref="I35" r:id="rId26" xr:uid="{00000000-0004-0000-0100-00001A000000}"/>
+    <hyperlink ref="I36" r:id="rId27" xr:uid="{00000000-0004-0000-0100-00001B000000}"/>
+    <hyperlink ref="I37" r:id="rId28" xr:uid="{00000000-0004-0000-0100-00001C000000}"/>
+    <hyperlink ref="I38" r:id="rId29" xr:uid="{00000000-0004-0000-0100-00001D000000}"/>
+    <hyperlink ref="I39" r:id="rId30" xr:uid="{00000000-0004-0000-0100-00001E000000}"/>
+    <hyperlink ref="I40" r:id="rId31" xr:uid="{00000000-0004-0000-0100-00001F000000}"/>
+    <hyperlink ref="I44" r:id="rId32" xr:uid="{00000000-0004-0000-0100-000020000000}"/>
+    <hyperlink ref="I45" r:id="rId33" xr:uid="{00000000-0004-0000-0100-000021000000}"/>
+    <hyperlink ref="I51" r:id="rId34" xr:uid="{00000000-0004-0000-0100-000022000000}"/>
+    <hyperlink ref="I52" r:id="rId35" xr:uid="{00000000-0004-0000-0100-000023000000}"/>
+    <hyperlink ref="I53" r:id="rId36" xr:uid="{00000000-0004-0000-0100-000024000000}"/>
+    <hyperlink ref="I54" r:id="rId37" xr:uid="{00000000-0004-0000-0100-000025000000}"/>
+    <hyperlink ref="I55" r:id="rId38" xr:uid="{00000000-0004-0000-0100-000026000000}"/>
+    <hyperlink ref="I56" r:id="rId39" xr:uid="{00000000-0004-0000-0100-000027000000}"/>
+    <hyperlink ref="I57" r:id="rId40" xr:uid="{00000000-0004-0000-0100-000028000000}"/>
+    <hyperlink ref="I58" r:id="rId41" xr:uid="{00000000-0004-0000-0100-000029000000}"/>
+    <hyperlink ref="I59" r:id="rId42" xr:uid="{00000000-0004-0000-0100-00002A000000}"/>
+    <hyperlink ref="I60" r:id="rId43" xr:uid="{00000000-0004-0000-0100-00002B000000}"/>
+    <hyperlink ref="I61" r:id="rId44" xr:uid="{00000000-0004-0000-0100-00002C000000}"/>
+    <hyperlink ref="I63" r:id="rId45" xr:uid="{00000000-0004-0000-0100-00002D000000}"/>
+    <hyperlink ref="I64" r:id="rId46" xr:uid="{00000000-0004-0000-0100-00002E000000}"/>
+    <hyperlink ref="I65" r:id="rId47" xr:uid="{00000000-0004-0000-0100-00002F000000}"/>
+    <hyperlink ref="I71" r:id="rId48" xr:uid="{00000000-0004-0000-0100-000030000000}"/>
+    <hyperlink ref="I73" r:id="rId49" xr:uid="{00000000-0004-0000-0100-000031000000}"/>
+    <hyperlink ref="I74" r:id="rId50" xr:uid="{00000000-0004-0000-0100-000032000000}"/>
+    <hyperlink ref="I75" r:id="rId51" xr:uid="{00000000-0004-0000-0100-000033000000}"/>
+    <hyperlink ref="I76" r:id="rId52" xr:uid="{00000000-0004-0000-0100-000034000000}"/>
+    <hyperlink ref="I80" r:id="rId53" xr:uid="{00000000-0004-0000-0100-000035000000}"/>
+    <hyperlink ref="I81" r:id="rId54" xr:uid="{00000000-0004-0000-0100-000036000000}"/>
+    <hyperlink ref="I82" r:id="rId55" xr:uid="{00000000-0004-0000-0100-000037000000}"/>
+    <hyperlink ref="I83" r:id="rId56" xr:uid="{00000000-0004-0000-0100-000038000000}"/>
+    <hyperlink ref="I84" r:id="rId57" xr:uid="{00000000-0004-0000-0100-000039000000}"/>
+    <hyperlink ref="I86" r:id="rId58" xr:uid="{00000000-0004-0000-0100-00003A000000}"/>
+    <hyperlink ref="I87" r:id="rId59" xr:uid="{00000000-0004-0000-0100-00003B000000}"/>
+    <hyperlink ref="I88" r:id="rId60" xr:uid="{00000000-0004-0000-0100-00003C000000}"/>
+    <hyperlink ref="I89" r:id="rId61" xr:uid="{00000000-0004-0000-0100-00003D000000}"/>
+    <hyperlink ref="I90" r:id="rId62" xr:uid="{00000000-0004-0000-0100-00003E000000}"/>
+    <hyperlink ref="I91" r:id="rId63" xr:uid="{00000000-0004-0000-0100-00003F000000}"/>
+    <hyperlink ref="I92" r:id="rId64" xr:uid="{00000000-0004-0000-0100-000040000000}"/>
+    <hyperlink ref="I94" r:id="rId65" xr:uid="{00000000-0004-0000-0100-000041000000}"/>
+    <hyperlink ref="I95" r:id="rId66" xr:uid="{00000000-0004-0000-0100-000042000000}"/>
+    <hyperlink ref="I98" r:id="rId67" xr:uid="{00000000-0004-0000-0100-000043000000}"/>
+    <hyperlink ref="I99" r:id="rId68" xr:uid="{00000000-0004-0000-0100-000044000000}"/>
+    <hyperlink ref="I100" r:id="rId69" xr:uid="{00000000-0004-0000-0100-000045000000}"/>
+    <hyperlink ref="I101" r:id="rId70" xr:uid="{00000000-0004-0000-0100-000046000000}"/>
+    <hyperlink ref="I102" r:id="rId71" xr:uid="{00000000-0004-0000-0100-000047000000}"/>
+    <hyperlink ref="I103" r:id="rId72" xr:uid="{00000000-0004-0000-0100-000048000000}"/>
+    <hyperlink ref="I106" r:id="rId73" xr:uid="{00000000-0004-0000-0100-000049000000}"/>
+    <hyperlink ref="I107" r:id="rId74" xr:uid="{00000000-0004-0000-0100-00004A000000}"/>
+    <hyperlink ref="I108" r:id="rId75" xr:uid="{00000000-0004-0000-0100-00004B000000}"/>
+    <hyperlink ref="I109" r:id="rId76" xr:uid="{00000000-0004-0000-0100-00004C000000}"/>
+    <hyperlink ref="I112" r:id="rId77" xr:uid="{00000000-0004-0000-0100-00004D000000}"/>
+    <hyperlink ref="I115" r:id="rId78" xr:uid="{00000000-0004-0000-0100-00004E000000}"/>
+    <hyperlink ref="I116" r:id="rId79" xr:uid="{00000000-0004-0000-0100-00004F000000}"/>
+    <hyperlink ref="I117" r:id="rId80" xr:uid="{00000000-0004-0000-0100-000050000000}"/>
+    <hyperlink ref="I118" r:id="rId81" xr:uid="{00000000-0004-0000-0100-000051000000}"/>
+    <hyperlink ref="I119" r:id="rId82" xr:uid="{00000000-0004-0000-0100-000052000000}"/>
+    <hyperlink ref="I120" r:id="rId83" xr:uid="{00000000-0004-0000-0100-000053000000}"/>
+    <hyperlink ref="I121" r:id="rId84" xr:uid="{00000000-0004-0000-0100-000054000000}"/>
+    <hyperlink ref="I122" r:id="rId85" xr:uid="{00000000-0004-0000-0100-000055000000}"/>
+    <hyperlink ref="I127" r:id="rId86" xr:uid="{00000000-0004-0000-0100-000056000000}"/>
+    <hyperlink ref="I130" r:id="rId87" xr:uid="{00000000-0004-0000-0100-000057000000}"/>
+    <hyperlink ref="I134" r:id="rId88" xr:uid="{00000000-0004-0000-0100-000058000000}"/>
+    <hyperlink ref="I135" r:id="rId89" xr:uid="{00000000-0004-0000-0100-000059000000}"/>
+    <hyperlink ref="I139" r:id="rId90" xr:uid="{00000000-0004-0000-0100-00005A000000}"/>
+    <hyperlink ref="I140" r:id="rId91" xr:uid="{00000000-0004-0000-0100-00005B000000}"/>
+    <hyperlink ref="I141" r:id="rId92" xr:uid="{00000000-0004-0000-0100-00005C000000}"/>
+    <hyperlink ref="I142" r:id="rId93" xr:uid="{00000000-0004-0000-0100-00005D000000}"/>
+    <hyperlink ref="I144" r:id="rId94" xr:uid="{00000000-0004-0000-0100-00005E000000}"/>
+    <hyperlink ref="I145" r:id="rId95" xr:uid="{00000000-0004-0000-0100-00005F000000}"/>
+    <hyperlink ref="I146" r:id="rId96" xr:uid="{00000000-0004-0000-0100-000060000000}"/>
+    <hyperlink ref="I147" r:id="rId97" xr:uid="{00000000-0004-0000-0100-000061000000}"/>
+    <hyperlink ref="I148" r:id="rId98" xr:uid="{00000000-0004-0000-0100-000062000000}"/>
+    <hyperlink ref="I149" r:id="rId99" xr:uid="{00000000-0004-0000-0100-000063000000}"/>
+    <hyperlink ref="I150" r:id="rId100" xr:uid="{00000000-0004-0000-0100-000064000000}"/>
+    <hyperlink ref="I156" r:id="rId101" xr:uid="{00000000-0004-0000-0100-000065000000}"/>
+    <hyperlink ref="I157" r:id="rId102" xr:uid="{00000000-0004-0000-0100-000066000000}"/>
+    <hyperlink ref="I158" r:id="rId103" xr:uid="{00000000-0004-0000-0100-000067000000}"/>
+    <hyperlink ref="I159" r:id="rId104" xr:uid="{00000000-0004-0000-0100-000068000000}"/>
+    <hyperlink ref="I162" r:id="rId105" xr:uid="{00000000-0004-0000-0100-00006A000000}"/>
+    <hyperlink ref="I166" r:id="rId106" xr:uid="{00000000-0004-0000-0100-00006B000000}"/>
+    <hyperlink ref="I167" r:id="rId107" xr:uid="{00000000-0004-0000-0100-00006C000000}"/>
+    <hyperlink ref="I168" r:id="rId108" xr:uid="{00000000-0004-0000-0100-00006D000000}"/>
+    <hyperlink ref="I169" r:id="rId109" xr:uid="{00000000-0004-0000-0100-00006E000000}"/>
+    <hyperlink ref="I170" r:id="rId110" xr:uid="{00000000-0004-0000-0100-00006F000000}"/>
+    <hyperlink ref="I171" r:id="rId111" xr:uid="{00000000-0004-0000-0100-000070000000}"/>
+    <hyperlink ref="I172" r:id="rId112" xr:uid="{00000000-0004-0000-0100-000071000000}"/>
+    <hyperlink ref="I173" r:id="rId113" xr:uid="{00000000-0004-0000-0100-000072000000}"/>
+    <hyperlink ref="I174" r:id="rId114" xr:uid="{00000000-0004-0000-0100-000073000000}"/>
+    <hyperlink ref="I176" r:id="rId115" xr:uid="{00000000-0004-0000-0100-000074000000}"/>
+    <hyperlink ref="I177" r:id="rId116" xr:uid="{00000000-0004-0000-0100-000075000000}"/>
+    <hyperlink ref="I178" r:id="rId117" xr:uid="{00000000-0004-0000-0100-000076000000}"/>
+    <hyperlink ref="I179" r:id="rId118" xr:uid="{00000000-0004-0000-0100-000077000000}"/>
+    <hyperlink ref="I182" r:id="rId119" xr:uid="{00000000-0004-0000-0100-000078000000}"/>
+    <hyperlink ref="I183" r:id="rId120" xr:uid="{00000000-0004-0000-0100-000079000000}"/>
+    <hyperlink ref="I21" r:id="rId121" xr:uid="{881F0F65-3DCC-E94A-9FE5-2CC264A8F337}"/>
+    <hyperlink ref="I22" r:id="rId122" xr:uid="{AC40193A-1232-474A-A421-B55FFA7E99B8}"/>
+    <hyperlink ref="I41" r:id="rId123" xr:uid="{D41ADE90-9772-8F41-AC9B-8DE303E9D7A9}"/>
+    <hyperlink ref="I42" r:id="rId124" xr:uid="{85F37ABA-4B3B-764B-A1ED-9DD3AFFF0004}"/>
+    <hyperlink ref="I79" r:id="rId125" xr:uid="{F5E14AAB-D49A-EF45-A165-3757EFF2E9B4}"/>
+    <hyperlink ref="I96" r:id="rId126" xr:uid="{759707EA-D94A-2D42-8FE0-FAE01578CF99}"/>
+    <hyperlink ref="I129" r:id="rId127" xr:uid="{1A936B77-62AA-804C-B853-4343ADD2D925}"/>
+    <hyperlink ref="I160" r:id="rId128" xr:uid="{00000000-0004-0000-0100-000069000000}"/>
+    <hyperlink ref="I151" r:id="rId129" xr:uid="{2929B0EA-E15F-E444-ADC1-C2E3E232D526}"/>
+    <hyperlink ref="I161" r:id="rId130" xr:uid="{7770BE98-2823-3047-9E72-08DB2B79C177}"/>
+    <hyperlink ref="I163" r:id="rId131" xr:uid="{A91F97A2-47FA-FB49-8866-2B9AA1419B2B}"/>
+    <hyperlink ref="I180" r:id="rId132" xr:uid="{11EEE67C-10E9-AB44-91F6-D7C7B31697FA}"/>
+    <hyperlink ref="I184" r:id="rId133" xr:uid="{8E930EBE-7205-BD41-9ED8-FE8F970A98EF}"/>
+    <hyperlink ref="I164" r:id="rId134" xr:uid="{3AF5EB12-868F-C842-91DC-4FC147AA3C86}"/>
+    <hyperlink ref="I66" r:id="rId135" xr:uid="{7BDCEA69-27F3-FF41-BB2B-817D4FD2C9C0}"/>
+    <hyperlink ref="I67" r:id="rId136" xr:uid="{7A940ACA-466B-9E49-8CB5-9BA664F7C3C9}"/>
+    <hyperlink ref="I69" r:id="rId137" xr:uid="{088C717E-7DC5-EF4C-8C34-370DC45C6BEE}"/>
+    <hyperlink ref="I70" r:id="rId138" xr:uid="{A670C44A-19C9-984F-9EAA-8D5EBCE39C79}"/>
+    <hyperlink ref="I110" r:id="rId139" xr:uid="{713BB907-BFF9-AE42-B777-2AF591DA7D9B}"/>
+    <hyperlink ref="I114" r:id="rId140" xr:uid="{EC0C54FA-684B-A440-BF57-B5B57FDD99C9}"/>
+    <hyperlink ref="I124" r:id="rId141" xr:uid="{9081BA3E-9CF8-074E-BF5B-0F2FA156F0B7}"/>
+    <hyperlink ref="I126" r:id="rId142" xr:uid="{8C2FD4CC-DF59-734E-8449-EA5B9F5E7D3D}"/>
+    <hyperlink ref="I93" r:id="rId143" xr:uid="{9845498D-A3A6-524F-9A69-7DC2DB7F7639}"/>
+    <hyperlink ref="I123" r:id="rId144" xr:uid="{CFDD3EC3-C992-0E4C-8C8D-2A9AC6885E0B}"/>
+    <hyperlink ref="I104" r:id="rId145" xr:uid="{C634E917-B836-414F-BB3B-9A111E16653C}"/>
+    <hyperlink ref="I62" r:id="rId146" xr:uid="{8548A361-62F7-A648-BBBE-9F37385F0E45}"/>
+    <hyperlink ref="I77" r:id="rId147" xr:uid="{8EA062F9-78F8-A44B-BEDA-61CF758CB831}"/>
+    <hyperlink ref="I46" r:id="rId148" xr:uid="{7C7CB4D2-6B37-544C-B631-930D91F3AA17}"/>
+    <hyperlink ref="I152" r:id="rId149" xr:uid="{5694CC0C-366D-8848-BBD7-150B284E15DA}"/>
+    <hyperlink ref="I33" r:id="rId150" xr:uid="{7E8D5837-BD50-6844-B288-6217DFD05E29}"/>
+    <hyperlink ref="I48" r:id="rId151" xr:uid="{E89C4D5B-786F-9A4C-9914-80D4DF36F89C}"/>
+    <hyperlink ref="I47" r:id="rId152" xr:uid="{EDBD0C6E-D96D-734B-85A9-4D26B3421D83}"/>
+    <hyperlink ref="I181" r:id="rId153" xr:uid="{12FA5E40-D722-4344-995B-86BBF8B4F3F3}"/>
     <hyperlink ref="I3" r:id="rId154" xr:uid="{90F3D795-8796-3941-81B5-D72CA324E042}"/>
     <hyperlink ref="I4" r:id="rId155" xr:uid="{16E7DE01-C66E-B349-8DAD-CA4C99C20CD5}"/>
     <hyperlink ref="I5" r:id="rId156" xr:uid="{7E09A861-DD77-2E4B-B800-EAC5DEA70EDC}"/>
     <hyperlink ref="I17" r:id="rId157" xr:uid="{D6A698C2-16EA-6D43-BD05-DCD8B998FD48}"/>
-    <hyperlink ref="I42" r:id="rId158" xr:uid="{4D236EF9-AFFB-FE4D-BCD1-638D19B0E2AD}"/>
-    <hyperlink ref="I67" r:id="rId159" xr:uid="{219D9E22-5730-534D-8B55-6BD3916AD9D3}"/>
-    <hyperlink ref="I71" r:id="rId160" xr:uid="{F2124805-E683-1A42-A341-E4B4C798FCF6}"/>
-    <hyperlink ref="I104" r:id="rId161" xr:uid="{03D19417-5ACF-4747-87E3-FF4A7F6B8C5E}"/>
-    <hyperlink ref="I110" r:id="rId162" xr:uid="{E08A2438-5DB8-9A45-84DD-CD243288C3B9}"/>
-    <hyperlink ref="I124" r:id="rId163" xr:uid="{84BE2579-BA68-7D4D-B2CB-86D3681369AA}"/>
-    <hyperlink ref="I127" r:id="rId164" xr:uid="{91EB2E87-6831-0145-A4FB-E8981B8045C7}"/>
-    <hyperlink ref="I131" r:id="rId165" xr:uid="{54C086FF-A8B9-6C43-B277-A9032F8666B1}"/>
-    <hyperlink ref="I132" r:id="rId166" xr:uid="{2EF760AC-07D9-8548-93B1-88352B9C3C7F}"/>
-    <hyperlink ref="I96" r:id="rId167" xr:uid="{A5C672A7-87AF-E940-AAE7-D59695E4A0C6}"/>
-    <hyperlink ref="I135" r:id="rId168" xr:uid="{235F1B30-BA9C-2944-96E8-044D9C42D2E4}"/>
-    <hyperlink ref="I136" r:id="rId169" xr:uid="{86BA7BFD-9A67-EC49-A9D6-2A3459D321FF}"/>
-    <hyperlink ref="I137" r:id="rId170" xr:uid="{877A9B01-36F7-6D47-9B86-75B4F4BC541E}"/>
-    <hyperlink ref="I142" r:id="rId171" xr:uid="{5546ECD3-6F35-E74E-9357-32E1AF022690}"/>
-    <hyperlink ref="I152" r:id="rId172" xr:uid="{88D1FADA-4A32-0D4F-AF24-3FE72EBBEB68}"/>
-    <hyperlink ref="I153" r:id="rId173" xr:uid="{AF329473-0DFD-8C4C-BE43-8A06EA57AD9B}"/>
-    <hyperlink ref="I154" r:id="rId174" xr:uid="{6A2FDA52-E721-2D45-8440-DE26731358E6}"/>
-    <hyperlink ref="I48" r:id="rId175" xr:uid="{AE7D1622-F9B9-DF48-8E55-336B7BB6750F}"/>
-    <hyperlink ref="I49" r:id="rId176" xr:uid="{59C3C7D9-F3C2-4241-BF17-62CD57E349CD}"/>
-    <hyperlink ref="I84" r:id="rId177" xr:uid="{808B590E-E469-FC42-8AED-648218F9285B}"/>
-    <hyperlink ref="I130" r:id="rId178" xr:uid="{0BFD14EA-48B9-E242-A6F8-2B6996870F1C}"/>
-    <hyperlink ref="I77" r:id="rId179" xr:uid="{3D1F78F1-16B2-474B-91A0-3DFB6DB099C3}"/>
-    <hyperlink ref="I174" r:id="rId180" xr:uid="{D7BE4482-76F9-0648-8D97-B29A2C647580}"/>
-    <hyperlink ref="I164" r:id="rId181" xr:uid="{8BB3CB7A-FD3E-4242-B0D4-4CCA5F192666}"/>
-    <hyperlink ref="I112" r:id="rId182" xr:uid="{166E1088-3416-B54E-83D7-F3C78813399E}"/>
+    <hyperlink ref="I43" r:id="rId158" xr:uid="{4D236EF9-AFFB-FE4D-BCD1-638D19B0E2AD}"/>
+    <hyperlink ref="I68" r:id="rId159" xr:uid="{219D9E22-5730-534D-8B55-6BD3916AD9D3}"/>
+    <hyperlink ref="I72" r:id="rId160" xr:uid="{F2124805-E683-1A42-A341-E4B4C798FCF6}"/>
+    <hyperlink ref="I105" r:id="rId161" xr:uid="{03D19417-5ACF-4747-87E3-FF4A7F6B8C5E}"/>
+    <hyperlink ref="I111" r:id="rId162" xr:uid="{E08A2438-5DB8-9A45-84DD-CD243288C3B9}"/>
+    <hyperlink ref="I125" r:id="rId163" xr:uid="{84BE2579-BA68-7D4D-B2CB-86D3681369AA}"/>
+    <hyperlink ref="I128" r:id="rId164" xr:uid="{91EB2E87-6831-0145-A4FB-E8981B8045C7}"/>
+    <hyperlink ref="I132" r:id="rId165" xr:uid="{54C086FF-A8B9-6C43-B277-A9032F8666B1}"/>
+    <hyperlink ref="I133" r:id="rId166" xr:uid="{2EF760AC-07D9-8548-93B1-88352B9C3C7F}"/>
+    <hyperlink ref="I97" r:id="rId167" xr:uid="{A5C672A7-87AF-E940-AAE7-D59695E4A0C6}"/>
+    <hyperlink ref="I136" r:id="rId168" xr:uid="{235F1B30-BA9C-2944-96E8-044D9C42D2E4}"/>
+    <hyperlink ref="I137" r:id="rId169" xr:uid="{86BA7BFD-9A67-EC49-A9D6-2A3459D321FF}"/>
+    <hyperlink ref="I138" r:id="rId170" xr:uid="{877A9B01-36F7-6D47-9B86-75B4F4BC541E}"/>
+    <hyperlink ref="I143" r:id="rId171" xr:uid="{5546ECD3-6F35-E74E-9357-32E1AF022690}"/>
+    <hyperlink ref="I153" r:id="rId172" xr:uid="{88D1FADA-4A32-0D4F-AF24-3FE72EBBEB68}"/>
+    <hyperlink ref="I154" r:id="rId173" xr:uid="{AF329473-0DFD-8C4C-BE43-8A06EA57AD9B}"/>
+    <hyperlink ref="I155" r:id="rId174" xr:uid="{6A2FDA52-E721-2D45-8440-DE26731358E6}"/>
+    <hyperlink ref="I49" r:id="rId175" xr:uid="{AE7D1622-F9B9-DF48-8E55-336B7BB6750F}"/>
+    <hyperlink ref="I50" r:id="rId176" xr:uid="{59C3C7D9-F3C2-4241-BF17-62CD57E349CD}"/>
+    <hyperlink ref="I85" r:id="rId177" xr:uid="{808B590E-E469-FC42-8AED-648218F9285B}"/>
+    <hyperlink ref="I131" r:id="rId178" xr:uid="{0BFD14EA-48B9-E242-A6F8-2B6996870F1C}"/>
+    <hyperlink ref="I78" r:id="rId179" xr:uid="{3D1F78F1-16B2-474B-91A0-3DFB6DB099C3}"/>
+    <hyperlink ref="I175" r:id="rId180" xr:uid="{D7BE4482-76F9-0648-8D97-B29A2C647580}"/>
+    <hyperlink ref="I165" r:id="rId181" xr:uid="{8BB3CB7A-FD3E-4242-B0D4-4CCA5F192666}"/>
+    <hyperlink ref="I113" r:id="rId182" xr:uid="{166E1088-3416-B54E-83D7-F3C78813399E}"/>
+    <hyperlink ref="I20" r:id="rId183" xr:uid="{908AA4B9-E7B0-6142-A293-990E38D22A48}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/docs/香港素食餐廳大全.xlsx
+++ b/docs/香港素食餐廳大全.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tim/_Python_OpenAI/My-projects/7-hk-veg-map/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7990D4A-D205-1B4D-B4EA-9FA2589EB224}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86590DA7-A682-A74C-93FF-625741510F92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8800" yWindow="500" windowWidth="17620" windowHeight="16260" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8780" yWindow="500" windowWidth="17620" windowHeight="16260" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="香港素食餐廳大全" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2294" uniqueCount="1033">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2304" uniqueCount="1041">
   <si>
     <t>** 更新自: 13 Aug 2023 (deprecated, go to sheet 2 "hk_veg_restaurants_data instead")</t>
   </si>
@@ -3120,6 +3120,30 @@
   </si>
   <si>
     <t>22.3352690855467, 114.19477208002255</t>
+  </si>
+  <si>
+    <t>早稻石磨腸粉</t>
+  </si>
+  <si>
+    <t>土瓜灣炮仗街46-48號地下E號舖</t>
+  </si>
+  <si>
+    <t>22.318808444939926, 114.18863610064383</t>
+  </si>
+  <si>
+    <t>https://www.openrice.com/zh/hongkong/r-%E6%97%A9%E7%A8%BB%E7%9F%B3%E7%A3%A8%E8%85%B8%E7%B2%89-%E5%9C%9F%E7%93%9C%E7%81%A3-%E7%B2%B5%E8%8F%9C-%E5%BB%A3%E6%9D%B1-r678906</t>
+  </si>
+  <si>
+    <t>68591069</t>
+  </si>
+  <si>
+    <t>不定期放假，建議去前打電話確認開店</t>
+  </si>
+  <si>
+    <t>食之前一定要 Whatsapp 預約</t>
+  </si>
+  <si>
+    <t>位於唐3樓，要行樓梯；食之前一定要Whatsapp 預約</t>
   </si>
 </sst>
 </file>
@@ -11388,10 +11412,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:K184"/>
+  <dimension ref="A1:K185"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D86" zoomScale="132" workbookViewId="0">
-      <selection activeCell="G109" sqref="G109"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="132" workbookViewId="0">
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -11746,7 +11770,7 @@
         <v>417</v>
       </c>
       <c r="K11" s="5" t="s">
-        <v>32</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="15.75" customHeight="1">
@@ -12550,7 +12574,7 @@
         <v>467</v>
       </c>
       <c r="K37" s="5" t="s">
-        <v>103</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="38" spans="1:11" ht="15.75" customHeight="1">
@@ -14913,57 +14937,59 @@
         <v>785</v>
       </c>
       <c r="C114" s="9" t="s">
-        <v>784</v>
+        <v>1033</v>
       </c>
       <c r="D114" s="9" t="s">
         <v>410</v>
       </c>
       <c r="E114" s="9" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="F114" s="9" t="s">
-        <v>812</v>
+        <v>1034</v>
       </c>
       <c r="G114" s="9" t="s">
-        <v>813</v>
+        <v>1035</v>
       </c>
       <c r="H114" s="9"/>
       <c r="I114" s="28" t="s">
-        <v>814</v>
+        <v>1036</v>
       </c>
       <c r="J114" s="26" t="s">
-        <v>815</v>
-      </c>
-      <c r="K114" s="9"/>
+        <v>1037</v>
+      </c>
+      <c r="K114" s="9" t="s">
+        <v>1038</v>
+      </c>
     </row>
     <row r="115" spans="1:11" ht="13">
       <c r="A115" s="9" t="s">
         <v>132</v>
       </c>
       <c r="B115" s="9" t="s">
-        <v>248</v>
+        <v>785</v>
       </c>
       <c r="C115" s="9" t="s">
-        <v>381</v>
+        <v>784</v>
       </c>
       <c r="D115" s="9" t="s">
-        <v>382</v>
+        <v>410</v>
       </c>
       <c r="E115" s="9" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="F115" s="9" t="s">
-        <v>597</v>
+        <v>812</v>
       </c>
       <c r="G115" s="9" t="s">
-        <v>598</v>
+        <v>813</v>
       </c>
       <c r="H115" s="9"/>
-      <c r="I115" s="10" t="s">
-        <v>599</v>
+      <c r="I115" s="28" t="s">
+        <v>814</v>
       </c>
       <c r="J115" s="26" t="s">
-        <v>600</v>
+        <v>815</v>
       </c>
       <c r="K115" s="9"/>
     </row>
@@ -14975,26 +15001,26 @@
         <v>248</v>
       </c>
       <c r="C116" s="9" t="s">
-        <v>249</v>
+        <v>381</v>
       </c>
       <c r="D116" s="9" t="s">
-        <v>117</v>
+        <v>382</v>
       </c>
       <c r="E116" s="9" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="F116" s="9" t="s">
-        <v>250</v>
+        <v>597</v>
       </c>
       <c r="G116" s="9" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="H116" s="9"/>
       <c r="I116" s="10" t="s">
-        <v>251</v>
+        <v>599</v>
       </c>
       <c r="J116" s="26" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="K116" s="9"/>
     </row>
@@ -15006,26 +15032,26 @@
         <v>248</v>
       </c>
       <c r="C117" s="9" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="D117" s="9" t="s">
-        <v>410</v>
+        <v>117</v>
       </c>
       <c r="E117" s="9" t="s">
         <v>25</v>
       </c>
       <c r="F117" s="9" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="G117" s="9" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="H117" s="9"/>
       <c r="I117" s="10" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="J117" s="26" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="K117" s="9"/>
     </row>
@@ -15037,26 +15063,26 @@
         <v>248</v>
       </c>
       <c r="C118" s="9" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="D118" s="9" t="s">
-        <v>117</v>
+        <v>410</v>
       </c>
       <c r="E118" s="9" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="F118" s="9" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="G118" s="9" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="H118" s="9"/>
       <c r="I118" s="10" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="J118" s="26" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="K118" s="9"/>
     </row>
@@ -15065,29 +15091,29 @@
         <v>132</v>
       </c>
       <c r="B119" s="9" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="C119" s="9" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="D119" s="9" t="s">
         <v>117</v>
       </c>
       <c r="E119" s="9" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="F119" s="9" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="G119" s="9" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="H119" s="9"/>
       <c r="I119" s="10" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="J119" s="26" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="K119" s="9"/>
     </row>
@@ -15096,29 +15122,29 @@
         <v>132</v>
       </c>
       <c r="B120" s="9" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="C120" s="9" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="D120" s="9" t="s">
-        <v>609</v>
+        <v>117</v>
       </c>
       <c r="E120" s="9" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="F120" s="9" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="G120" s="9" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="H120" s="9"/>
-      <c r="I120" s="11" t="s">
-        <v>266</v>
+      <c r="I120" s="10" t="s">
+        <v>261</v>
       </c>
       <c r="J120" s="26" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="K120" s="9"/>
     </row>
@@ -15130,26 +15156,26 @@
         <v>262</v>
       </c>
       <c r="C121" s="9" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="D121" s="9" t="s">
-        <v>410</v>
+        <v>609</v>
       </c>
       <c r="E121" s="9" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="F121" s="9" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="G121" s="9" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="H121" s="9"/>
       <c r="I121" s="11" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="J121" s="26" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="K121" s="9"/>
     </row>
@@ -15161,26 +15187,26 @@
         <v>262</v>
       </c>
       <c r="C122" s="9" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="D122" s="9" t="s">
-        <v>418</v>
+        <v>410</v>
       </c>
       <c r="E122" s="9" t="s">
         <v>25</v>
       </c>
       <c r="F122" s="9" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="G122" s="9" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="H122" s="9"/>
       <c r="I122" s="11" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="J122" s="26" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="K122" s="9"/>
     </row>
@@ -15192,26 +15218,26 @@
         <v>262</v>
       </c>
       <c r="C123" s="9" t="s">
-        <v>829</v>
+        <v>270</v>
       </c>
       <c r="D123" s="9" t="s">
-        <v>410</v>
+        <v>418</v>
       </c>
       <c r="E123" s="9" t="s">
         <v>25</v>
       </c>
       <c r="F123" s="9" t="s">
-        <v>830</v>
+        <v>271</v>
       </c>
       <c r="G123" s="9" t="s">
-        <v>831</v>
+        <v>614</v>
       </c>
       <c r="H123" s="9"/>
-      <c r="I123" s="28" t="s">
-        <v>832</v>
+      <c r="I123" s="11" t="s">
+        <v>272</v>
       </c>
       <c r="J123" s="26" t="s">
-        <v>833</v>
+        <v>615</v>
       </c>
       <c r="K123" s="9"/>
     </row>
@@ -15223,26 +15249,26 @@
         <v>262</v>
       </c>
       <c r="C124" s="9" t="s">
-        <v>782</v>
+        <v>829</v>
       </c>
       <c r="D124" s="9" t="s">
-        <v>117</v>
+        <v>410</v>
       </c>
       <c r="E124" s="9" t="s">
         <v>25</v>
       </c>
       <c r="F124" s="9" t="s">
-        <v>816</v>
+        <v>830</v>
       </c>
       <c r="G124" s="9" t="s">
-        <v>817</v>
+        <v>831</v>
       </c>
       <c r="H124" s="9"/>
       <c r="I124" s="28" t="s">
-        <v>818</v>
+        <v>832</v>
       </c>
       <c r="J124" s="26" t="s">
-        <v>819</v>
+        <v>833</v>
       </c>
       <c r="K124" s="9"/>
     </row>
@@ -15254,26 +15280,26 @@
         <v>262</v>
       </c>
       <c r="C125" s="9" t="s">
-        <v>893</v>
+        <v>782</v>
       </c>
       <c r="D125" s="9" t="s">
-        <v>418</v>
+        <v>117</v>
       </c>
       <c r="E125" s="9" t="s">
         <v>25</v>
       </c>
       <c r="F125" s="9" t="s">
-        <v>943</v>
+        <v>816</v>
       </c>
       <c r="G125" s="9" t="s">
-        <v>944</v>
+        <v>817</v>
       </c>
       <c r="H125" s="9"/>
       <c r="I125" s="28" t="s">
-        <v>945</v>
+        <v>818</v>
       </c>
       <c r="J125" s="26" t="s">
-        <v>946</v>
+        <v>819</v>
       </c>
       <c r="K125" s="9"/>
     </row>
@@ -15285,26 +15311,26 @@
         <v>262</v>
       </c>
       <c r="C126" s="9" t="s">
-        <v>783</v>
+        <v>893</v>
       </c>
       <c r="D126" s="9" t="s">
-        <v>117</v>
+        <v>418</v>
       </c>
       <c r="E126" s="9" t="s">
         <v>25</v>
       </c>
       <c r="F126" s="9" t="s">
-        <v>820</v>
+        <v>943</v>
       </c>
       <c r="G126" s="9" t="s">
-        <v>821</v>
+        <v>944</v>
       </c>
       <c r="H126" s="9"/>
       <c r="I126" s="28" t="s">
-        <v>822</v>
+        <v>945</v>
       </c>
       <c r="J126" s="26" t="s">
-        <v>823</v>
+        <v>946</v>
       </c>
       <c r="K126" s="9"/>
     </row>
@@ -15316,26 +15342,26 @@
         <v>262</v>
       </c>
       <c r="C127" s="9" t="s">
-        <v>273</v>
+        <v>783</v>
       </c>
       <c r="D127" s="9" t="s">
-        <v>609</v>
+        <v>117</v>
       </c>
       <c r="E127" s="9" t="s">
         <v>25</v>
       </c>
       <c r="F127" s="9" t="s">
-        <v>274</v>
+        <v>820</v>
       </c>
       <c r="G127" s="9" t="s">
-        <v>616</v>
+        <v>821</v>
       </c>
       <c r="H127" s="9"/>
-      <c r="I127" s="11" t="s">
-        <v>275</v>
+      <c r="I127" s="28" t="s">
+        <v>822</v>
       </c>
       <c r="J127" s="26" t="s">
-        <v>617</v>
+        <v>823</v>
       </c>
       <c r="K127" s="9"/>
     </row>
@@ -15347,26 +15373,26 @@
         <v>262</v>
       </c>
       <c r="C128" s="9" t="s">
-        <v>894</v>
+        <v>273</v>
       </c>
       <c r="D128" s="9" t="s">
-        <v>55</v>
+        <v>609</v>
       </c>
       <c r="E128" s="9" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="F128" s="9" t="s">
-        <v>947</v>
+        <v>274</v>
       </c>
       <c r="G128" s="9" t="s">
-        <v>948</v>
+        <v>616</v>
       </c>
       <c r="H128" s="9"/>
-      <c r="I128" s="28" t="s">
-        <v>949</v>
+      <c r="I128" s="11" t="s">
+        <v>275</v>
       </c>
       <c r="J128" s="26" t="s">
-        <v>950</v>
+        <v>617</v>
       </c>
       <c r="K128" s="9"/>
     </row>
@@ -15378,26 +15404,26 @@
         <v>262</v>
       </c>
       <c r="C129" s="9" t="s">
-        <v>720</v>
+        <v>894</v>
       </c>
       <c r="D129" s="9" t="s">
-        <v>398</v>
+        <v>55</v>
       </c>
       <c r="E129" s="9" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="F129" s="9" t="s">
-        <v>752</v>
+        <v>947</v>
       </c>
       <c r="G129" s="9" t="s">
-        <v>753</v>
+        <v>948</v>
       </c>
       <c r="H129" s="9"/>
       <c r="I129" s="28" t="s">
-        <v>754</v>
+        <v>949</v>
       </c>
       <c r="J129" s="26" t="s">
-        <v>755</v>
+        <v>950</v>
       </c>
       <c r="K129" s="9"/>
     </row>
@@ -15409,26 +15435,26 @@
         <v>262</v>
       </c>
       <c r="C130" s="9" t="s">
-        <v>276</v>
+        <v>720</v>
       </c>
       <c r="D130" s="9" t="s">
         <v>398</v>
       </c>
       <c r="E130" s="9" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="F130" s="9" t="s">
-        <v>277</v>
+        <v>752</v>
       </c>
       <c r="G130" s="9" t="s">
-        <v>618</v>
+        <v>753</v>
       </c>
       <c r="H130" s="9"/>
-      <c r="I130" s="11" t="s">
-        <v>619</v>
+      <c r="I130" s="28" t="s">
+        <v>754</v>
       </c>
       <c r="J130" s="26" t="s">
-        <v>1011</v>
+        <v>755</v>
       </c>
       <c r="K130" s="9"/>
     </row>
@@ -15440,26 +15466,26 @@
         <v>262</v>
       </c>
       <c r="C131" s="9" t="s">
-        <v>1006</v>
+        <v>276</v>
       </c>
       <c r="D131" s="9" t="s">
-        <v>55</v>
+        <v>398</v>
       </c>
       <c r="E131" s="9" t="s">
-        <v>39</v>
+        <v>14</v>
       </c>
       <c r="F131" s="9" t="s">
-        <v>1007</v>
+        <v>277</v>
       </c>
       <c r="G131" s="9" t="s">
-        <v>1008</v>
+        <v>618</v>
       </c>
       <c r="H131" s="9"/>
-      <c r="I131" s="28" t="s">
-        <v>1009</v>
+      <c r="I131" s="11" t="s">
+        <v>619</v>
       </c>
       <c r="J131" s="26" t="s">
-        <v>1010</v>
+        <v>1011</v>
       </c>
       <c r="K131" s="9"/>
     </row>
@@ -15468,29 +15494,29 @@
         <v>132</v>
       </c>
       <c r="B132" s="9" t="s">
-        <v>898</v>
+        <v>262</v>
       </c>
       <c r="C132" s="9" t="s">
-        <v>897</v>
+        <v>1006</v>
       </c>
       <c r="D132" s="9" t="s">
-        <v>398</v>
+        <v>55</v>
       </c>
       <c r="E132" s="9" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="F132" s="9" t="s">
-        <v>951</v>
+        <v>1007</v>
       </c>
       <c r="G132" s="9" t="s">
-        <v>953</v>
+        <v>1008</v>
       </c>
       <c r="H132" s="9"/>
       <c r="I132" s="28" t="s">
-        <v>952</v>
+        <v>1009</v>
       </c>
       <c r="J132" s="26" t="s">
-        <v>954</v>
+        <v>1010</v>
       </c>
       <c r="K132" s="9"/>
     </row>
@@ -15499,7 +15525,7 @@
         <v>132</v>
       </c>
       <c r="B133" s="9" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="C133" s="9" t="s">
         <v>897</v>
@@ -15511,50 +15537,50 @@
         <v>14</v>
       </c>
       <c r="F133" s="9" t="s">
-        <v>955</v>
+        <v>951</v>
       </c>
       <c r="G133" s="9" t="s">
-        <v>956</v>
+        <v>953</v>
       </c>
       <c r="H133" s="9"/>
       <c r="I133" s="28" t="s">
+        <v>952</v>
+      </c>
+      <c r="J133" s="26" t="s">
+        <v>954</v>
+      </c>
+      <c r="K133" s="9"/>
+    </row>
+    <row r="134" spans="1:11" ht="13">
+      <c r="A134" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="B134" s="9" t="s">
+        <v>900</v>
+      </c>
+      <c r="C134" s="9" t="s">
+        <v>897</v>
+      </c>
+      <c r="D134" s="9" t="s">
+        <v>398</v>
+      </c>
+      <c r="E134" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F134" s="9" t="s">
+        <v>955</v>
+      </c>
+      <c r="G134" s="9" t="s">
+        <v>956</v>
+      </c>
+      <c r="H134" s="9"/>
+      <c r="I134" s="28" t="s">
         <v>957</v>
       </c>
-      <c r="J133" s="26" t="s">
+      <c r="J134" s="26" t="s">
         <v>958</v>
       </c>
-      <c r="K133" s="9"/>
-    </row>
-    <row r="134" spans="1:11" ht="13">
-      <c r="A134" s="14" t="s">
-        <v>278</v>
-      </c>
-      <c r="B134" s="14" t="s">
-        <v>620</v>
-      </c>
-      <c r="C134" s="14" t="s">
-        <v>621</v>
-      </c>
-      <c r="D134" s="14" t="s">
-        <v>157</v>
-      </c>
-      <c r="E134" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="F134" s="14" t="s">
-        <v>622</v>
-      </c>
-      <c r="G134" s="14" t="s">
-        <v>623</v>
-      </c>
-      <c r="H134" s="14"/>
-      <c r="I134" s="16" t="s">
-        <v>624</v>
-      </c>
-      <c r="J134" s="17" t="s">
-        <v>625</v>
-      </c>
-      <c r="K134" s="14"/>
+      <c r="K134" s="9"/>
     </row>
     <row r="135" spans="1:11" ht="13">
       <c r="A135" s="14" t="s">
@@ -15564,26 +15590,26 @@
         <v>620</v>
       </c>
       <c r="C135" s="14" t="s">
-        <v>626</v>
+        <v>621</v>
       </c>
       <c r="D135" s="14" t="s">
-        <v>410</v>
+        <v>157</v>
       </c>
       <c r="E135" s="14" t="s">
         <v>25</v>
       </c>
       <c r="F135" s="14" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="G135" s="14" t="s">
-        <v>628</v>
+        <v>623</v>
       </c>
       <c r="H135" s="14"/>
       <c r="I135" s="16" t="s">
-        <v>629</v>
+        <v>624</v>
       </c>
       <c r="J135" s="17" t="s">
-        <v>630</v>
+        <v>625</v>
       </c>
       <c r="K135" s="14"/>
     </row>
@@ -15595,7 +15621,7 @@
         <v>620</v>
       </c>
       <c r="C136" s="14" t="s">
-        <v>892</v>
+        <v>626</v>
       </c>
       <c r="D136" s="14" t="s">
         <v>410</v>
@@ -15604,16 +15630,18 @@
         <v>25</v>
       </c>
       <c r="F136" s="14" t="s">
-        <v>962</v>
+        <v>627</v>
       </c>
       <c r="G136" s="14" t="s">
-        <v>964</v>
+        <v>628</v>
       </c>
       <c r="H136" s="14"/>
-      <c r="I136" s="29" t="s">
-        <v>965</v>
-      </c>
-      <c r="J136" s="17"/>
+      <c r="I136" s="16" t="s">
+        <v>629</v>
+      </c>
+      <c r="J136" s="17" t="s">
+        <v>630</v>
+      </c>
       <c r="K136" s="14"/>
     </row>
     <row r="137" spans="1:11" ht="13">
@@ -15633,14 +15661,14 @@
         <v>25</v>
       </c>
       <c r="F137" s="14" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="G137" s="14" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
       <c r="H137" s="14"/>
       <c r="I137" s="29" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
       <c r="J137" s="17"/>
       <c r="K137" s="14"/>
@@ -15650,30 +15678,28 @@
         <v>278</v>
       </c>
       <c r="B138" s="14" t="s">
-        <v>279</v>
+        <v>620</v>
       </c>
       <c r="C138" s="14" t="s">
-        <v>895</v>
+        <v>892</v>
       </c>
       <c r="D138" s="14" t="s">
-        <v>47</v>
+        <v>410</v>
       </c>
       <c r="E138" s="14" t="s">
         <v>25</v>
       </c>
       <c r="F138" s="14" t="s">
-        <v>968</v>
+        <v>963</v>
       </c>
       <c r="G138" s="14" t="s">
-        <v>969</v>
+        <v>966</v>
       </c>
       <c r="H138" s="14"/>
       <c r="I138" s="29" t="s">
-        <v>970</v>
-      </c>
-      <c r="J138" s="17" t="s">
-        <v>971</v>
-      </c>
+        <v>967</v>
+      </c>
+      <c r="J138" s="17"/>
       <c r="K138" s="14"/>
     </row>
     <row r="139" spans="1:11" ht="13">
@@ -15684,26 +15710,26 @@
         <v>279</v>
       </c>
       <c r="C139" s="14" t="s">
-        <v>631</v>
+        <v>895</v>
       </c>
       <c r="D139" s="14" t="s">
         <v>47</v>
       </c>
       <c r="E139" s="14" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="F139" s="14" t="s">
-        <v>632</v>
+        <v>968</v>
       </c>
       <c r="G139" s="14" t="s">
-        <v>633</v>
+        <v>969</v>
       </c>
       <c r="H139" s="14"/>
-      <c r="I139" s="15" t="s">
-        <v>634</v>
+      <c r="I139" s="29" t="s">
+        <v>970</v>
       </c>
       <c r="J139" s="17" t="s">
-        <v>635</v>
+        <v>971</v>
       </c>
       <c r="K139" s="14"/>
     </row>
@@ -15715,26 +15741,26 @@
         <v>279</v>
       </c>
       <c r="C140" s="14" t="s">
-        <v>636</v>
+        <v>631</v>
       </c>
       <c r="D140" s="14" t="s">
-        <v>157</v>
+        <v>47</v>
       </c>
       <c r="E140" s="14" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="F140" s="14" t="s">
-        <v>637</v>
+        <v>632</v>
       </c>
       <c r="G140" s="14" t="s">
-        <v>638</v>
+        <v>633</v>
       </c>
       <c r="H140" s="14"/>
       <c r="I140" s="15" t="s">
-        <v>639</v>
+        <v>634</v>
       </c>
       <c r="J140" s="17" t="s">
-        <v>640</v>
+        <v>635</v>
       </c>
       <c r="K140" s="14"/>
     </row>
@@ -15746,26 +15772,26 @@
         <v>279</v>
       </c>
       <c r="C141" s="14" t="s">
-        <v>641</v>
+        <v>636</v>
       </c>
       <c r="D141" s="14" t="s">
-        <v>410</v>
+        <v>157</v>
       </c>
       <c r="E141" s="14" t="s">
         <v>25</v>
       </c>
       <c r="F141" s="14" t="s">
-        <v>642</v>
+        <v>637</v>
       </c>
       <c r="G141" s="14" t="s">
-        <v>643</v>
+        <v>638</v>
       </c>
       <c r="H141" s="14"/>
       <c r="I141" s="15" t="s">
-        <v>644</v>
+        <v>639</v>
       </c>
       <c r="J141" s="17" t="s">
-        <v>645</v>
+        <v>640</v>
       </c>
       <c r="K141" s="14"/>
     </row>
@@ -15777,25 +15803,27 @@
         <v>279</v>
       </c>
       <c r="C142" s="14" t="s">
-        <v>381</v>
+        <v>641</v>
       </c>
       <c r="D142" s="14" t="s">
-        <v>382</v>
+        <v>410</v>
       </c>
       <c r="E142" s="14" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="F142" s="14" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
       <c r="G142" s="14" t="s">
-        <v>647</v>
+        <v>643</v>
       </c>
       <c r="H142" s="14"/>
       <c r="I142" s="15" t="s">
-        <v>648</v>
-      </c>
-      <c r="J142" s="17"/>
+        <v>644</v>
+      </c>
+      <c r="J142" s="17" t="s">
+        <v>645</v>
+      </c>
       <c r="K142" s="14"/>
     </row>
     <row r="143" spans="1:11" ht="13">
@@ -15806,27 +15834,25 @@
         <v>279</v>
       </c>
       <c r="C143" s="14" t="s">
-        <v>87</v>
+        <v>381</v>
       </c>
       <c r="D143" s="14" t="s">
-        <v>410</v>
+        <v>382</v>
       </c>
       <c r="E143" s="14" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="F143" s="14" t="s">
-        <v>972</v>
+        <v>646</v>
       </c>
       <c r="G143" s="14" t="s">
-        <v>973</v>
+        <v>647</v>
       </c>
       <c r="H143" s="14"/>
-      <c r="I143" s="29" t="s">
-        <v>974</v>
-      </c>
-      <c r="J143" s="17" t="s">
-        <v>975</v>
-      </c>
+      <c r="I143" s="15" t="s">
+        <v>648</v>
+      </c>
+      <c r="J143" s="17"/>
       <c r="K143" s="14"/>
     </row>
     <row r="144" spans="1:11" ht="13">
@@ -15837,26 +15863,26 @@
         <v>279</v>
       </c>
       <c r="C144" s="14" t="s">
-        <v>280</v>
+        <v>87</v>
       </c>
       <c r="D144" s="14" t="s">
-        <v>157</v>
+        <v>410</v>
       </c>
       <c r="E144" s="14" t="s">
         <v>25</v>
       </c>
       <c r="F144" s="14" t="s">
-        <v>281</v>
+        <v>972</v>
       </c>
       <c r="G144" s="14" t="s">
-        <v>649</v>
+        <v>973</v>
       </c>
       <c r="H144" s="14"/>
-      <c r="I144" s="15" t="s">
-        <v>282</v>
+      <c r="I144" s="29" t="s">
+        <v>974</v>
       </c>
       <c r="J144" s="17" t="s">
-        <v>650</v>
+        <v>975</v>
       </c>
       <c r="K144" s="14"/>
     </row>
@@ -15868,26 +15894,26 @@
         <v>279</v>
       </c>
       <c r="C145" s="14" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="D145" s="14" t="s">
-        <v>410</v>
+        <v>157</v>
       </c>
       <c r="E145" s="14" t="s">
         <v>25</v>
       </c>
       <c r="F145" s="14" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="G145" s="14" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="H145" s="14"/>
       <c r="I145" s="15" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="J145" s="17" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="K145" s="14"/>
     </row>
@@ -15899,26 +15925,26 @@
         <v>279</v>
       </c>
       <c r="C146" s="14" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="D146" s="14" t="s">
-        <v>418</v>
+        <v>410</v>
       </c>
       <c r="E146" s="14" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="F146" s="14" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="G146" s="14" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="H146" s="14"/>
-      <c r="I146" s="16" t="s">
-        <v>288</v>
+      <c r="I146" s="15" t="s">
+        <v>285</v>
       </c>
       <c r="J146" s="17" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="K146" s="14"/>
     </row>
@@ -15930,26 +15956,26 @@
         <v>279</v>
       </c>
       <c r="C147" s="14" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="D147" s="14" t="s">
-        <v>117</v>
+        <v>418</v>
       </c>
       <c r="E147" s="14" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="F147" s="14" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="G147" s="14" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="H147" s="14"/>
       <c r="I147" s="16" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="J147" s="17" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="K147" s="14"/>
     </row>
@@ -15961,26 +15987,26 @@
         <v>279</v>
       </c>
       <c r="C148" s="14" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D148" s="14" t="s">
-        <v>47</v>
+        <v>117</v>
       </c>
       <c r="E148" s="14" t="s">
         <v>25</v>
       </c>
       <c r="F148" s="14" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="G148" s="14" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="H148" s="14"/>
       <c r="I148" s="16" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="J148" s="17" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="K148" s="14"/>
     </row>
@@ -15992,26 +16018,26 @@
         <v>279</v>
       </c>
       <c r="C149" s="14" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="D149" s="14" t="s">
-        <v>410</v>
+        <v>47</v>
       </c>
       <c r="E149" s="14" t="s">
         <v>25</v>
       </c>
       <c r="F149" s="14" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="G149" s="14" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="H149" s="14"/>
       <c r="I149" s="16" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="J149" s="17" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="K149" s="14"/>
     </row>
@@ -16023,7 +16049,7 @@
         <v>279</v>
       </c>
       <c r="C150" s="14" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="D150" s="14" t="s">
         <v>410</v>
@@ -16032,17 +16058,17 @@
         <v>25</v>
       </c>
       <c r="F150" s="14" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="G150" s="14" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="H150" s="14"/>
       <c r="I150" s="16" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="J150" s="17" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="K150" s="14"/>
     </row>
@@ -16054,26 +16080,26 @@
         <v>279</v>
       </c>
       <c r="C151" s="14" t="s">
-        <v>191</v>
+        <v>298</v>
       </c>
       <c r="D151" s="14" t="s">
-        <v>117</v>
+        <v>410</v>
       </c>
       <c r="E151" s="14" t="s">
         <v>25</v>
       </c>
       <c r="F151" s="14" t="s">
-        <v>756</v>
+        <v>299</v>
       </c>
       <c r="G151" s="14" t="s">
-        <v>757</v>
+        <v>661</v>
       </c>
       <c r="H151" s="14"/>
-      <c r="I151" s="29" t="s">
-        <v>758</v>
+      <c r="I151" s="16" t="s">
+        <v>300</v>
       </c>
       <c r="J151" s="17" t="s">
-        <v>555</v>
+        <v>662</v>
       </c>
       <c r="K151" s="14"/>
     </row>
@@ -16085,26 +16111,26 @@
         <v>279</v>
       </c>
       <c r="C152" s="14" t="s">
-        <v>863</v>
+        <v>191</v>
       </c>
       <c r="D152" s="14" t="s">
-        <v>55</v>
+        <v>117</v>
       </c>
       <c r="E152" s="14" t="s">
         <v>25</v>
       </c>
       <c r="F152" s="14" t="s">
-        <v>864</v>
+        <v>756</v>
       </c>
       <c r="G152" s="14" t="s">
-        <v>865</v>
+        <v>757</v>
       </c>
       <c r="H152" s="14"/>
       <c r="I152" s="29" t="s">
-        <v>866</v>
+        <v>758</v>
       </c>
       <c r="J152" s="17" t="s">
-        <v>867</v>
+        <v>555</v>
       </c>
       <c r="K152" s="14"/>
     </row>
@@ -16116,26 +16142,26 @@
         <v>279</v>
       </c>
       <c r="C153" s="14" t="s">
-        <v>897</v>
+        <v>863</v>
       </c>
       <c r="D153" s="14" t="s">
-        <v>398</v>
+        <v>55</v>
       </c>
       <c r="E153" s="14" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="F153" s="14" t="s">
-        <v>976</v>
+        <v>864</v>
       </c>
       <c r="G153" s="14" t="s">
-        <v>978</v>
+        <v>865</v>
       </c>
       <c r="H153" s="14"/>
       <c r="I153" s="29" t="s">
-        <v>979</v>
+        <v>866</v>
       </c>
       <c r="J153" s="17" t="s">
-        <v>980</v>
+        <v>867</v>
       </c>
       <c r="K153" s="14"/>
     </row>
@@ -16156,17 +16182,17 @@
         <v>14</v>
       </c>
       <c r="F154" s="14" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="G154" s="14" t="s">
-        <v>981</v>
+        <v>978</v>
       </c>
       <c r="H154" s="14"/>
       <c r="I154" s="29" t="s">
-        <v>982</v>
+        <v>979</v>
       </c>
       <c r="J154" s="17" t="s">
-        <v>983</v>
+        <v>980</v>
       </c>
       <c r="K154" s="14"/>
     </row>
@@ -16178,26 +16204,26 @@
         <v>279</v>
       </c>
       <c r="C155" s="14" t="s">
-        <v>896</v>
+        <v>897</v>
       </c>
       <c r="D155" s="14" t="s">
-        <v>410</v>
+        <v>398</v>
       </c>
       <c r="E155" s="14" t="s">
         <v>14</v>
       </c>
       <c r="F155" s="14" t="s">
-        <v>984</v>
+        <v>977</v>
       </c>
       <c r="G155" s="14" t="s">
-        <v>985</v>
+        <v>981</v>
       </c>
       <c r="H155" s="14"/>
       <c r="I155" s="29" t="s">
-        <v>986</v>
+        <v>982</v>
       </c>
       <c r="J155" s="17" t="s">
-        <v>987</v>
+        <v>983</v>
       </c>
       <c r="K155" s="14"/>
     </row>
@@ -16206,29 +16232,29 @@
         <v>278</v>
       </c>
       <c r="B156" s="14" t="s">
-        <v>301</v>
+        <v>279</v>
       </c>
       <c r="C156" s="14" t="s">
-        <v>302</v>
+        <v>896</v>
       </c>
       <c r="D156" s="14" t="s">
-        <v>117</v>
+        <v>410</v>
       </c>
       <c r="E156" s="14" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="F156" s="14" t="s">
-        <v>303</v>
+        <v>984</v>
       </c>
       <c r="G156" s="14" t="s">
-        <v>663</v>
+        <v>985</v>
       </c>
       <c r="H156" s="14"/>
-      <c r="I156" s="15" t="s">
-        <v>304</v>
+      <c r="I156" s="29" t="s">
+        <v>986</v>
       </c>
       <c r="J156" s="17" t="s">
-        <v>664</v>
+        <v>987</v>
       </c>
       <c r="K156" s="14"/>
     </row>
@@ -16240,26 +16266,26 @@
         <v>301</v>
       </c>
       <c r="C157" s="14" t="s">
-        <v>381</v>
+        <v>302</v>
       </c>
       <c r="D157" s="14" t="s">
-        <v>382</v>
+        <v>117</v>
       </c>
       <c r="E157" s="14" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="F157" s="14" t="s">
-        <v>665</v>
+        <v>303</v>
       </c>
       <c r="G157" s="14" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
       <c r="H157" s="14"/>
       <c r="I157" s="15" t="s">
-        <v>667</v>
+        <v>304</v>
       </c>
       <c r="J157" s="17" t="s">
-        <v>668</v>
+        <v>664</v>
       </c>
       <c r="K157" s="14"/>
     </row>
@@ -16268,29 +16294,29 @@
         <v>278</v>
       </c>
       <c r="B158" s="14" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="C158" s="14" t="s">
-        <v>306</v>
+        <v>381</v>
       </c>
       <c r="D158" s="14" t="s">
-        <v>410</v>
+        <v>382</v>
       </c>
       <c r="E158" s="14" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="F158" s="14" t="s">
-        <v>307</v>
+        <v>665</v>
       </c>
       <c r="G158" s="14" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
       <c r="H158" s="14"/>
       <c r="I158" s="15" t="s">
-        <v>308</v>
+        <v>667</v>
       </c>
       <c r="J158" s="17" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="K158" s="14"/>
     </row>
@@ -16302,7 +16328,7 @@
         <v>305</v>
       </c>
       <c r="C159" s="14" t="s">
-        <v>298</v>
+        <v>306</v>
       </c>
       <c r="D159" s="14" t="s">
         <v>410</v>
@@ -16311,17 +16337,17 @@
         <v>25</v>
       </c>
       <c r="F159" s="14" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="G159" s="14" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="H159" s="14"/>
       <c r="I159" s="15" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="J159" s="17" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="K159" s="14"/>
     </row>
@@ -16333,26 +16359,26 @@
         <v>305</v>
       </c>
       <c r="C160" s="14" t="s">
-        <v>311</v>
+        <v>298</v>
       </c>
       <c r="D160" s="14" t="s">
-        <v>312</v>
+        <v>410</v>
       </c>
       <c r="E160" s="14" t="s">
         <v>25</v>
       </c>
       <c r="F160" s="14" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="G160" s="14" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="H160" s="14"/>
       <c r="I160" s="15" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="J160" s="17" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="K160" s="14"/>
     </row>
@@ -16364,26 +16390,26 @@
         <v>305</v>
       </c>
       <c r="C161" s="14" t="s">
-        <v>725</v>
+        <v>311</v>
       </c>
       <c r="D161" s="14" t="s">
-        <v>410</v>
+        <v>312</v>
       </c>
       <c r="E161" s="14" t="s">
         <v>25</v>
       </c>
       <c r="F161" s="14" t="s">
-        <v>759</v>
+        <v>313</v>
       </c>
       <c r="G161" s="14" t="s">
-        <v>760</v>
+        <v>673</v>
       </c>
       <c r="H161" s="14"/>
-      <c r="I161" s="29" t="s">
-        <v>761</v>
+      <c r="I161" s="15" t="s">
+        <v>314</v>
       </c>
       <c r="J161" s="17" t="s">
-        <v>762</v>
+        <v>674</v>
       </c>
       <c r="K161" s="14"/>
     </row>
@@ -16392,10 +16418,10 @@
         <v>278</v>
       </c>
       <c r="B162" s="14" t="s">
-        <v>315</v>
+        <v>305</v>
       </c>
       <c r="C162" s="14" t="s">
-        <v>316</v>
+        <v>725</v>
       </c>
       <c r="D162" s="14" t="s">
         <v>410</v>
@@ -16404,17 +16430,17 @@
         <v>25</v>
       </c>
       <c r="F162" s="14" t="s">
-        <v>317</v>
+        <v>759</v>
       </c>
       <c r="G162" s="14" t="s">
-        <v>675</v>
+        <v>760</v>
       </c>
       <c r="H162" s="14"/>
-      <c r="I162" s="15" t="s">
-        <v>318</v>
+      <c r="I162" s="29" t="s">
+        <v>761</v>
       </c>
       <c r="J162" s="17" t="s">
-        <v>676</v>
+        <v>762</v>
       </c>
       <c r="K162" s="14"/>
     </row>
@@ -16426,26 +16452,26 @@
         <v>315</v>
       </c>
       <c r="C163" s="14" t="s">
-        <v>716</v>
+        <v>316</v>
       </c>
       <c r="D163" s="14" t="s">
-        <v>55</v>
+        <v>410</v>
       </c>
       <c r="E163" s="14" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="F163" s="14" t="s">
-        <v>763</v>
+        <v>317</v>
       </c>
       <c r="G163" s="14" t="s">
-        <v>764</v>
+        <v>675</v>
       </c>
       <c r="H163" s="14"/>
-      <c r="I163" s="29" t="s">
-        <v>765</v>
+      <c r="I163" s="15" t="s">
+        <v>318</v>
       </c>
       <c r="J163" s="17" t="s">
-        <v>766</v>
+        <v>676</v>
       </c>
       <c r="K163" s="14"/>
     </row>
@@ -16457,26 +16483,26 @@
         <v>315</v>
       </c>
       <c r="C164" s="14" t="s">
-        <v>787</v>
+        <v>716</v>
       </c>
       <c r="D164" s="14" t="s">
-        <v>410</v>
+        <v>55</v>
       </c>
       <c r="E164" s="14" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="F164" s="14" t="s">
-        <v>788</v>
+        <v>763</v>
       </c>
       <c r="G164" s="14" t="s">
-        <v>789</v>
+        <v>764</v>
       </c>
       <c r="H164" s="14"/>
       <c r="I164" s="29" t="s">
-        <v>790</v>
+        <v>765</v>
       </c>
       <c r="J164" s="17" t="s">
-        <v>791</v>
+        <v>766</v>
       </c>
       <c r="K164" s="14"/>
     </row>
@@ -16488,26 +16514,26 @@
         <v>315</v>
       </c>
       <c r="C165" s="14" t="s">
-        <v>1019</v>
+        <v>787</v>
       </c>
       <c r="D165" s="14" t="s">
-        <v>418</v>
+        <v>410</v>
       </c>
       <c r="E165" s="14" t="s">
         <v>25</v>
       </c>
       <c r="F165" s="14" t="s">
-        <v>1018</v>
+        <v>788</v>
       </c>
       <c r="G165" s="14" t="s">
-        <v>1020</v>
+        <v>789</v>
       </c>
       <c r="H165" s="14"/>
       <c r="I165" s="29" t="s">
-        <v>1021</v>
+        <v>790</v>
       </c>
       <c r="J165" s="17" t="s">
-        <v>1022</v>
+        <v>791</v>
       </c>
       <c r="K165" s="14"/>
     </row>
@@ -16516,29 +16542,29 @@
         <v>278</v>
       </c>
       <c r="B166" s="14" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="C166" s="14" t="s">
-        <v>320</v>
+        <v>1019</v>
       </c>
       <c r="D166" s="14" t="s">
-        <v>410</v>
+        <v>418</v>
       </c>
       <c r="E166" s="14" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="F166" s="14" t="s">
-        <v>677</v>
+        <v>1018</v>
       </c>
       <c r="G166" s="14" t="s">
-        <v>678</v>
+        <v>1020</v>
       </c>
       <c r="H166" s="14"/>
-      <c r="I166" s="16" t="s">
-        <v>679</v>
+      <c r="I166" s="29" t="s">
+        <v>1021</v>
       </c>
       <c r="J166" s="17" t="s">
-        <v>680</v>
+        <v>1022</v>
       </c>
       <c r="K166" s="14"/>
     </row>
@@ -16550,7 +16576,7 @@
         <v>319</v>
       </c>
       <c r="C167" s="14" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="D167" s="14" t="s">
         <v>410</v>
@@ -16559,17 +16585,17 @@
         <v>14</v>
       </c>
       <c r="F167" s="14" t="s">
-        <v>324</v>
+        <v>677</v>
       </c>
       <c r="G167" s="14" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="H167" s="14"/>
-      <c r="I167" s="15" t="s">
-        <v>325</v>
+      <c r="I167" s="16" t="s">
+        <v>679</v>
       </c>
       <c r="J167" s="17" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="K167" s="14"/>
     </row>
@@ -16581,7 +16607,7 @@
         <v>319</v>
       </c>
       <c r="C168" s="14" t="s">
-        <v>683</v>
+        <v>323</v>
       </c>
       <c r="D168" s="14" t="s">
         <v>410</v>
@@ -16590,17 +16616,17 @@
         <v>14</v>
       </c>
       <c r="F168" s="14" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="G168" s="14" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
       <c r="H168" s="14"/>
       <c r="I168" s="15" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="J168" s="17" t="s">
-        <v>685</v>
+        <v>682</v>
       </c>
       <c r="K168" s="14"/>
     </row>
@@ -16609,29 +16635,29 @@
         <v>278</v>
       </c>
       <c r="B169" s="14" t="s">
-        <v>329</v>
+        <v>319</v>
       </c>
       <c r="C169" s="14" t="s">
-        <v>167</v>
+        <v>683</v>
       </c>
       <c r="D169" s="14" t="s">
         <v>410</v>
       </c>
       <c r="E169" s="14" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="F169" s="14" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="G169" s="14" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="H169" s="14"/>
       <c r="I169" s="15" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="J169" s="17" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="K169" s="14"/>
     </row>
@@ -16643,26 +16669,26 @@
         <v>329</v>
       </c>
       <c r="C170" s="14" t="s">
-        <v>332</v>
+        <v>167</v>
       </c>
       <c r="D170" s="14" t="s">
-        <v>418</v>
+        <v>410</v>
       </c>
       <c r="E170" s="14" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="F170" s="14" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="G170" s="14" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="H170" s="14"/>
       <c r="I170" s="15" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="J170" s="17" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="K170" s="14"/>
     </row>
@@ -16674,26 +16700,26 @@
         <v>329</v>
       </c>
       <c r="C171" s="14" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="D171" s="14" t="s">
-        <v>47</v>
+        <v>418</v>
       </c>
       <c r="E171" s="14" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="F171" s="14" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="G171" s="14" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="H171" s="14"/>
       <c r="I171" s="15" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="J171" s="17" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="K171" s="14"/>
     </row>
@@ -16705,26 +16731,26 @@
         <v>329</v>
       </c>
       <c r="C172" s="14" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="D172" s="14" t="s">
-        <v>117</v>
+        <v>47</v>
       </c>
       <c r="E172" s="14" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="F172" s="14" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="G172" s="14" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="H172" s="14"/>
       <c r="I172" s="15" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="J172" s="17" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="K172" s="14"/>
     </row>
@@ -16736,26 +16762,26 @@
         <v>329</v>
       </c>
       <c r="C173" s="14" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="D173" s="14" t="s">
-        <v>342</v>
+        <v>117</v>
       </c>
       <c r="E173" s="14" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="F173" s="14" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="G173" s="14" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="H173" s="14"/>
       <c r="I173" s="15" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="J173" s="17" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="K173" s="14"/>
     </row>
@@ -16767,26 +16793,26 @@
         <v>329</v>
       </c>
       <c r="C174" s="14" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="D174" s="14" t="s">
-        <v>47</v>
+        <v>342</v>
       </c>
       <c r="E174" s="14" t="s">
         <v>14</v>
       </c>
       <c r="F174" s="14" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="G174" s="14" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="H174" s="14"/>
       <c r="I174" s="15" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="J174" s="17" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="K174" s="14"/>
     </row>
@@ -16798,25 +16824,27 @@
         <v>329</v>
       </c>
       <c r="C175" s="14" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="D175" s="14" t="s">
-        <v>312</v>
+        <v>47</v>
       </c>
       <c r="E175" s="14" t="s">
         <v>14</v>
       </c>
       <c r="F175" s="14" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="G175" s="14" t="s">
-        <v>1017</v>
+        <v>696</v>
       </c>
       <c r="H175" s="14"/>
-      <c r="I175" s="29" t="s">
-        <v>344</v>
-      </c>
-      <c r="J175" s="17"/>
+      <c r="I175" s="15" t="s">
+        <v>347</v>
+      </c>
+      <c r="J175" s="17" t="s">
+        <v>697</v>
+      </c>
       <c r="K175" s="14"/>
     </row>
     <row r="176" spans="1:11" ht="13">
@@ -16824,30 +16852,28 @@
         <v>278</v>
       </c>
       <c r="B176" s="14" t="s">
-        <v>348</v>
+        <v>329</v>
       </c>
       <c r="C176" s="14" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="D176" s="14" t="s">
-        <v>75</v>
+        <v>312</v>
       </c>
       <c r="E176" s="14" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="F176" s="14" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="G176" s="14" t="s">
-        <v>698</v>
+        <v>1017</v>
       </c>
       <c r="H176" s="14"/>
       <c r="I176" s="29" t="s">
-        <v>858</v>
-      </c>
-      <c r="J176" s="17" t="s">
-        <v>699</v>
-      </c>
+        <v>344</v>
+      </c>
+      <c r="J176" s="17"/>
       <c r="K176" s="14"/>
     </row>
     <row r="177" spans="1:11" ht="13">
@@ -16858,26 +16884,26 @@
         <v>348</v>
       </c>
       <c r="C177" s="14" t="s">
-        <v>700</v>
+        <v>349</v>
       </c>
       <c r="D177" s="14" t="s">
-        <v>418</v>
+        <v>75</v>
       </c>
       <c r="E177" s="14" t="s">
         <v>25</v>
       </c>
       <c r="F177" s="14" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="G177" s="14" t="s">
-        <v>701</v>
+        <v>698</v>
       </c>
       <c r="H177" s="14"/>
-      <c r="I177" s="16" t="s">
-        <v>354</v>
+      <c r="I177" s="29" t="s">
+        <v>858</v>
       </c>
       <c r="J177" s="17" t="s">
-        <v>702</v>
+        <v>699</v>
       </c>
       <c r="K177" s="14"/>
     </row>
@@ -16886,29 +16912,29 @@
         <v>278</v>
       </c>
       <c r="B178" s="14" t="s">
-        <v>355</v>
+        <v>348</v>
       </c>
       <c r="C178" s="14" t="s">
-        <v>302</v>
+        <v>700</v>
       </c>
       <c r="D178" s="14" t="s">
-        <v>117</v>
+        <v>418</v>
       </c>
       <c r="E178" s="14" t="s">
         <v>25</v>
       </c>
       <c r="F178" s="14" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="G178" s="14" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="H178" s="14"/>
-      <c r="I178" s="15" t="s">
-        <v>357</v>
+      <c r="I178" s="16" t="s">
+        <v>354</v>
       </c>
       <c r="J178" s="17" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="K178" s="14"/>
     </row>
@@ -16920,26 +16946,26 @@
         <v>355</v>
       </c>
       <c r="C179" s="14" t="s">
-        <v>358</v>
+        <v>302</v>
       </c>
       <c r="D179" s="14" t="s">
-        <v>410</v>
+        <v>117</v>
       </c>
       <c r="E179" s="14" t="s">
         <v>25</v>
       </c>
       <c r="F179" s="14" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="G179" s="14" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="H179" s="14"/>
       <c r="I179" s="15" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="J179" s="17" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="K179" s="14"/>
     </row>
@@ -16951,26 +16977,26 @@
         <v>355</v>
       </c>
       <c r="C180" s="14" t="s">
-        <v>719</v>
+        <v>358</v>
       </c>
       <c r="D180" s="14" t="s">
-        <v>51</v>
+        <v>410</v>
       </c>
       <c r="E180" s="14" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="F180" s="14" t="s">
-        <v>767</v>
+        <v>359</v>
       </c>
       <c r="G180" s="14" t="s">
-        <v>768</v>
+        <v>705</v>
       </c>
       <c r="H180" s="14"/>
-      <c r="I180" s="29" t="s">
-        <v>769</v>
+      <c r="I180" s="15" t="s">
+        <v>360</v>
       </c>
       <c r="J180" s="17" t="s">
-        <v>770</v>
+        <v>706</v>
       </c>
       <c r="K180" s="14"/>
     </row>
@@ -16982,26 +17008,26 @@
         <v>355</v>
       </c>
       <c r="C181" s="14" t="s">
-        <v>883</v>
+        <v>719</v>
       </c>
       <c r="D181" s="14" t="s">
-        <v>410</v>
+        <v>51</v>
       </c>
       <c r="E181" s="14" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="F181" s="14" t="s">
-        <v>884</v>
+        <v>767</v>
       </c>
       <c r="G181" s="14" t="s">
-        <v>885</v>
+        <v>768</v>
       </c>
       <c r="H181" s="14"/>
       <c r="I181" s="29" t="s">
-        <v>886</v>
+        <v>769</v>
       </c>
       <c r="J181" s="17" t="s">
-        <v>887</v>
+        <v>770</v>
       </c>
       <c r="K181" s="14"/>
     </row>
@@ -17010,10 +17036,10 @@
         <v>278</v>
       </c>
       <c r="B182" s="14" t="s">
-        <v>707</v>
-      </c>
-      <c r="C182" s="17" t="s">
-        <v>708</v>
+        <v>355</v>
+      </c>
+      <c r="C182" s="14" t="s">
+        <v>883</v>
       </c>
       <c r="D182" s="14" t="s">
         <v>410</v>
@@ -17022,17 +17048,17 @@
         <v>25</v>
       </c>
       <c r="F182" s="14" t="s">
-        <v>709</v>
+        <v>884</v>
       </c>
       <c r="G182" s="14" t="s">
-        <v>710</v>
+        <v>885</v>
       </c>
       <c r="H182" s="14"/>
-      <c r="I182" s="15" t="s">
-        <v>711</v>
+      <c r="I182" s="29" t="s">
+        <v>886</v>
       </c>
       <c r="J182" s="17" t="s">
-        <v>712</v>
+        <v>887</v>
       </c>
       <c r="K182" s="14"/>
     </row>
@@ -17041,62 +17067,93 @@
         <v>278</v>
       </c>
       <c r="B183" s="14" t="s">
-        <v>361</v>
+        <v>707</v>
       </c>
       <c r="C183" s="17" t="s">
-        <v>362</v>
+        <v>708</v>
       </c>
       <c r="D183" s="14" t="s">
-        <v>418</v>
+        <v>410</v>
       </c>
       <c r="E183" s="14" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="F183" s="14" t="s">
-        <v>363</v>
+        <v>709</v>
       </c>
       <c r="G183" s="14" t="s">
-        <v>713</v>
+        <v>710</v>
       </c>
       <c r="H183" s="14"/>
       <c r="I183" s="15" t="s">
-        <v>364</v>
+        <v>711</v>
       </c>
       <c r="J183" s="17" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="K183" s="14"/>
     </row>
-    <row r="184" spans="1:11" ht="15.75" customHeight="1">
+    <row r="184" spans="1:11" ht="13">
       <c r="A184" s="14" t="s">
-        <v>771</v>
+        <v>278</v>
       </c>
       <c r="B184" s="14" t="s">
-        <v>773</v>
-      </c>
-      <c r="C184" s="14" t="s">
-        <v>721</v>
+        <v>361</v>
+      </c>
+      <c r="C184" s="17" t="s">
+        <v>362</v>
       </c>
       <c r="D184" s="14" t="s">
-        <v>410</v>
+        <v>418</v>
       </c>
       <c r="E184" s="14" t="s">
         <v>14</v>
       </c>
       <c r="F184" s="14" t="s">
+        <v>363</v>
+      </c>
+      <c r="G184" s="14" t="s">
+        <v>713</v>
+      </c>
+      <c r="H184" s="14"/>
+      <c r="I184" s="15" t="s">
+        <v>364</v>
+      </c>
+      <c r="J184" s="17" t="s">
+        <v>714</v>
+      </c>
+      <c r="K184" s="14"/>
+    </row>
+    <row r="185" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A185" s="14" t="s">
+        <v>771</v>
+      </c>
+      <c r="B185" s="14" t="s">
+        <v>773</v>
+      </c>
+      <c r="C185" s="14" t="s">
+        <v>721</v>
+      </c>
+      <c r="D185" s="14" t="s">
+        <v>410</v>
+      </c>
+      <c r="E185" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="F185" s="14" t="s">
         <v>772</v>
       </c>
-      <c r="G184" s="14" t="s">
+      <c r="G185" s="14" t="s">
         <v>774</v>
       </c>
-      <c r="H184" s="14"/>
-      <c r="I184" s="29" t="s">
+      <c r="H185" s="14"/>
+      <c r="I185" s="29" t="s">
         <v>775</v>
       </c>
-      <c r="J184" s="17" t="s">
+      <c r="J185" s="17" t="s">
         <v>776</v>
       </c>
-      <c r="K184" s="14"/>
+      <c r="K185" s="14"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -17177,82 +17234,82 @@
     <hyperlink ref="I108" r:id="rId75" xr:uid="{00000000-0004-0000-0100-00004B000000}"/>
     <hyperlink ref="I109" r:id="rId76" xr:uid="{00000000-0004-0000-0100-00004C000000}"/>
     <hyperlink ref="I112" r:id="rId77" xr:uid="{00000000-0004-0000-0100-00004D000000}"/>
-    <hyperlink ref="I115" r:id="rId78" xr:uid="{00000000-0004-0000-0100-00004E000000}"/>
-    <hyperlink ref="I116" r:id="rId79" xr:uid="{00000000-0004-0000-0100-00004F000000}"/>
-    <hyperlink ref="I117" r:id="rId80" xr:uid="{00000000-0004-0000-0100-000050000000}"/>
-    <hyperlink ref="I118" r:id="rId81" xr:uid="{00000000-0004-0000-0100-000051000000}"/>
-    <hyperlink ref="I119" r:id="rId82" xr:uid="{00000000-0004-0000-0100-000052000000}"/>
-    <hyperlink ref="I120" r:id="rId83" xr:uid="{00000000-0004-0000-0100-000053000000}"/>
-    <hyperlink ref="I121" r:id="rId84" xr:uid="{00000000-0004-0000-0100-000054000000}"/>
-    <hyperlink ref="I122" r:id="rId85" xr:uid="{00000000-0004-0000-0100-000055000000}"/>
-    <hyperlink ref="I127" r:id="rId86" xr:uid="{00000000-0004-0000-0100-000056000000}"/>
-    <hyperlink ref="I130" r:id="rId87" xr:uid="{00000000-0004-0000-0100-000057000000}"/>
-    <hyperlink ref="I134" r:id="rId88" xr:uid="{00000000-0004-0000-0100-000058000000}"/>
-    <hyperlink ref="I135" r:id="rId89" xr:uid="{00000000-0004-0000-0100-000059000000}"/>
-    <hyperlink ref="I139" r:id="rId90" xr:uid="{00000000-0004-0000-0100-00005A000000}"/>
-    <hyperlink ref="I140" r:id="rId91" xr:uid="{00000000-0004-0000-0100-00005B000000}"/>
-    <hyperlink ref="I141" r:id="rId92" xr:uid="{00000000-0004-0000-0100-00005C000000}"/>
-    <hyperlink ref="I142" r:id="rId93" xr:uid="{00000000-0004-0000-0100-00005D000000}"/>
-    <hyperlink ref="I144" r:id="rId94" xr:uid="{00000000-0004-0000-0100-00005E000000}"/>
-    <hyperlink ref="I145" r:id="rId95" xr:uid="{00000000-0004-0000-0100-00005F000000}"/>
-    <hyperlink ref="I146" r:id="rId96" xr:uid="{00000000-0004-0000-0100-000060000000}"/>
-    <hyperlink ref="I147" r:id="rId97" xr:uid="{00000000-0004-0000-0100-000061000000}"/>
-    <hyperlink ref="I148" r:id="rId98" xr:uid="{00000000-0004-0000-0100-000062000000}"/>
-    <hyperlink ref="I149" r:id="rId99" xr:uid="{00000000-0004-0000-0100-000063000000}"/>
-    <hyperlink ref="I150" r:id="rId100" xr:uid="{00000000-0004-0000-0100-000064000000}"/>
-    <hyperlink ref="I156" r:id="rId101" xr:uid="{00000000-0004-0000-0100-000065000000}"/>
-    <hyperlink ref="I157" r:id="rId102" xr:uid="{00000000-0004-0000-0100-000066000000}"/>
-    <hyperlink ref="I158" r:id="rId103" xr:uid="{00000000-0004-0000-0100-000067000000}"/>
-    <hyperlink ref="I159" r:id="rId104" xr:uid="{00000000-0004-0000-0100-000068000000}"/>
-    <hyperlink ref="I162" r:id="rId105" xr:uid="{00000000-0004-0000-0100-00006A000000}"/>
-    <hyperlink ref="I166" r:id="rId106" xr:uid="{00000000-0004-0000-0100-00006B000000}"/>
-    <hyperlink ref="I167" r:id="rId107" xr:uid="{00000000-0004-0000-0100-00006C000000}"/>
-    <hyperlink ref="I168" r:id="rId108" xr:uid="{00000000-0004-0000-0100-00006D000000}"/>
-    <hyperlink ref="I169" r:id="rId109" xr:uid="{00000000-0004-0000-0100-00006E000000}"/>
-    <hyperlink ref="I170" r:id="rId110" xr:uid="{00000000-0004-0000-0100-00006F000000}"/>
-    <hyperlink ref="I171" r:id="rId111" xr:uid="{00000000-0004-0000-0100-000070000000}"/>
-    <hyperlink ref="I172" r:id="rId112" xr:uid="{00000000-0004-0000-0100-000071000000}"/>
-    <hyperlink ref="I173" r:id="rId113" xr:uid="{00000000-0004-0000-0100-000072000000}"/>
-    <hyperlink ref="I174" r:id="rId114" xr:uid="{00000000-0004-0000-0100-000073000000}"/>
-    <hyperlink ref="I176" r:id="rId115" xr:uid="{00000000-0004-0000-0100-000074000000}"/>
-    <hyperlink ref="I177" r:id="rId116" xr:uid="{00000000-0004-0000-0100-000075000000}"/>
-    <hyperlink ref="I178" r:id="rId117" xr:uid="{00000000-0004-0000-0100-000076000000}"/>
-    <hyperlink ref="I179" r:id="rId118" xr:uid="{00000000-0004-0000-0100-000077000000}"/>
-    <hyperlink ref="I182" r:id="rId119" xr:uid="{00000000-0004-0000-0100-000078000000}"/>
-    <hyperlink ref="I183" r:id="rId120" xr:uid="{00000000-0004-0000-0100-000079000000}"/>
+    <hyperlink ref="I116" r:id="rId78" xr:uid="{00000000-0004-0000-0100-00004E000000}"/>
+    <hyperlink ref="I117" r:id="rId79" xr:uid="{00000000-0004-0000-0100-00004F000000}"/>
+    <hyperlink ref="I118" r:id="rId80" xr:uid="{00000000-0004-0000-0100-000050000000}"/>
+    <hyperlink ref="I119" r:id="rId81" xr:uid="{00000000-0004-0000-0100-000051000000}"/>
+    <hyperlink ref="I120" r:id="rId82" xr:uid="{00000000-0004-0000-0100-000052000000}"/>
+    <hyperlink ref="I121" r:id="rId83" xr:uid="{00000000-0004-0000-0100-000053000000}"/>
+    <hyperlink ref="I122" r:id="rId84" xr:uid="{00000000-0004-0000-0100-000054000000}"/>
+    <hyperlink ref="I123" r:id="rId85" xr:uid="{00000000-0004-0000-0100-000055000000}"/>
+    <hyperlink ref="I128" r:id="rId86" xr:uid="{00000000-0004-0000-0100-000056000000}"/>
+    <hyperlink ref="I131" r:id="rId87" xr:uid="{00000000-0004-0000-0100-000057000000}"/>
+    <hyperlink ref="I135" r:id="rId88" xr:uid="{00000000-0004-0000-0100-000058000000}"/>
+    <hyperlink ref="I136" r:id="rId89" xr:uid="{00000000-0004-0000-0100-000059000000}"/>
+    <hyperlink ref="I140" r:id="rId90" xr:uid="{00000000-0004-0000-0100-00005A000000}"/>
+    <hyperlink ref="I141" r:id="rId91" xr:uid="{00000000-0004-0000-0100-00005B000000}"/>
+    <hyperlink ref="I142" r:id="rId92" xr:uid="{00000000-0004-0000-0100-00005C000000}"/>
+    <hyperlink ref="I143" r:id="rId93" xr:uid="{00000000-0004-0000-0100-00005D000000}"/>
+    <hyperlink ref="I145" r:id="rId94" xr:uid="{00000000-0004-0000-0100-00005E000000}"/>
+    <hyperlink ref="I146" r:id="rId95" xr:uid="{00000000-0004-0000-0100-00005F000000}"/>
+    <hyperlink ref="I147" r:id="rId96" xr:uid="{00000000-0004-0000-0100-000060000000}"/>
+    <hyperlink ref="I148" r:id="rId97" xr:uid="{00000000-0004-0000-0100-000061000000}"/>
+    <hyperlink ref="I149" r:id="rId98" xr:uid="{00000000-0004-0000-0100-000062000000}"/>
+    <hyperlink ref="I150" r:id="rId99" xr:uid="{00000000-0004-0000-0100-000063000000}"/>
+    <hyperlink ref="I151" r:id="rId100" xr:uid="{00000000-0004-0000-0100-000064000000}"/>
+    <hyperlink ref="I157" r:id="rId101" xr:uid="{00000000-0004-0000-0100-000065000000}"/>
+    <hyperlink ref="I158" r:id="rId102" xr:uid="{00000000-0004-0000-0100-000066000000}"/>
+    <hyperlink ref="I159" r:id="rId103" xr:uid="{00000000-0004-0000-0100-000067000000}"/>
+    <hyperlink ref="I160" r:id="rId104" xr:uid="{00000000-0004-0000-0100-000068000000}"/>
+    <hyperlink ref="I163" r:id="rId105" xr:uid="{00000000-0004-0000-0100-00006A000000}"/>
+    <hyperlink ref="I167" r:id="rId106" xr:uid="{00000000-0004-0000-0100-00006B000000}"/>
+    <hyperlink ref="I168" r:id="rId107" xr:uid="{00000000-0004-0000-0100-00006C000000}"/>
+    <hyperlink ref="I169" r:id="rId108" xr:uid="{00000000-0004-0000-0100-00006D000000}"/>
+    <hyperlink ref="I170" r:id="rId109" xr:uid="{00000000-0004-0000-0100-00006E000000}"/>
+    <hyperlink ref="I171" r:id="rId110" xr:uid="{00000000-0004-0000-0100-00006F000000}"/>
+    <hyperlink ref="I172" r:id="rId111" xr:uid="{00000000-0004-0000-0100-000070000000}"/>
+    <hyperlink ref="I173" r:id="rId112" xr:uid="{00000000-0004-0000-0100-000071000000}"/>
+    <hyperlink ref="I174" r:id="rId113" xr:uid="{00000000-0004-0000-0100-000072000000}"/>
+    <hyperlink ref="I175" r:id="rId114" xr:uid="{00000000-0004-0000-0100-000073000000}"/>
+    <hyperlink ref="I177" r:id="rId115" xr:uid="{00000000-0004-0000-0100-000074000000}"/>
+    <hyperlink ref="I178" r:id="rId116" xr:uid="{00000000-0004-0000-0100-000075000000}"/>
+    <hyperlink ref="I179" r:id="rId117" xr:uid="{00000000-0004-0000-0100-000076000000}"/>
+    <hyperlink ref="I180" r:id="rId118" xr:uid="{00000000-0004-0000-0100-000077000000}"/>
+    <hyperlink ref="I183" r:id="rId119" xr:uid="{00000000-0004-0000-0100-000078000000}"/>
+    <hyperlink ref="I184" r:id="rId120" xr:uid="{00000000-0004-0000-0100-000079000000}"/>
     <hyperlink ref="I21" r:id="rId121" xr:uid="{881F0F65-3DCC-E94A-9FE5-2CC264A8F337}"/>
     <hyperlink ref="I22" r:id="rId122" xr:uid="{AC40193A-1232-474A-A421-B55FFA7E99B8}"/>
     <hyperlink ref="I41" r:id="rId123" xr:uid="{D41ADE90-9772-8F41-AC9B-8DE303E9D7A9}"/>
     <hyperlink ref="I42" r:id="rId124" xr:uid="{85F37ABA-4B3B-764B-A1ED-9DD3AFFF0004}"/>
     <hyperlink ref="I79" r:id="rId125" xr:uid="{F5E14AAB-D49A-EF45-A165-3757EFF2E9B4}"/>
     <hyperlink ref="I96" r:id="rId126" xr:uid="{759707EA-D94A-2D42-8FE0-FAE01578CF99}"/>
-    <hyperlink ref="I129" r:id="rId127" xr:uid="{1A936B77-62AA-804C-B853-4343ADD2D925}"/>
-    <hyperlink ref="I160" r:id="rId128" xr:uid="{00000000-0004-0000-0100-000069000000}"/>
-    <hyperlink ref="I151" r:id="rId129" xr:uid="{2929B0EA-E15F-E444-ADC1-C2E3E232D526}"/>
-    <hyperlink ref="I161" r:id="rId130" xr:uid="{7770BE98-2823-3047-9E72-08DB2B79C177}"/>
-    <hyperlink ref="I163" r:id="rId131" xr:uid="{A91F97A2-47FA-FB49-8866-2B9AA1419B2B}"/>
-    <hyperlink ref="I180" r:id="rId132" xr:uid="{11EEE67C-10E9-AB44-91F6-D7C7B31697FA}"/>
-    <hyperlink ref="I184" r:id="rId133" xr:uid="{8E930EBE-7205-BD41-9ED8-FE8F970A98EF}"/>
-    <hyperlink ref="I164" r:id="rId134" xr:uid="{3AF5EB12-868F-C842-91DC-4FC147AA3C86}"/>
+    <hyperlink ref="I130" r:id="rId127" xr:uid="{1A936B77-62AA-804C-B853-4343ADD2D925}"/>
+    <hyperlink ref="I161" r:id="rId128" xr:uid="{00000000-0004-0000-0100-000069000000}"/>
+    <hyperlink ref="I152" r:id="rId129" xr:uid="{2929B0EA-E15F-E444-ADC1-C2E3E232D526}"/>
+    <hyperlink ref="I162" r:id="rId130" xr:uid="{7770BE98-2823-3047-9E72-08DB2B79C177}"/>
+    <hyperlink ref="I164" r:id="rId131" xr:uid="{A91F97A2-47FA-FB49-8866-2B9AA1419B2B}"/>
+    <hyperlink ref="I181" r:id="rId132" xr:uid="{11EEE67C-10E9-AB44-91F6-D7C7B31697FA}"/>
+    <hyperlink ref="I185" r:id="rId133" xr:uid="{8E930EBE-7205-BD41-9ED8-FE8F970A98EF}"/>
+    <hyperlink ref="I165" r:id="rId134" xr:uid="{3AF5EB12-868F-C842-91DC-4FC147AA3C86}"/>
     <hyperlink ref="I66" r:id="rId135" xr:uid="{7BDCEA69-27F3-FF41-BB2B-817D4FD2C9C0}"/>
     <hyperlink ref="I67" r:id="rId136" xr:uid="{7A940ACA-466B-9E49-8CB5-9BA664F7C3C9}"/>
     <hyperlink ref="I69" r:id="rId137" xr:uid="{088C717E-7DC5-EF4C-8C34-370DC45C6BEE}"/>
     <hyperlink ref="I70" r:id="rId138" xr:uid="{A670C44A-19C9-984F-9EAA-8D5EBCE39C79}"/>
     <hyperlink ref="I110" r:id="rId139" xr:uid="{713BB907-BFF9-AE42-B777-2AF591DA7D9B}"/>
-    <hyperlink ref="I114" r:id="rId140" xr:uid="{EC0C54FA-684B-A440-BF57-B5B57FDD99C9}"/>
-    <hyperlink ref="I124" r:id="rId141" xr:uid="{9081BA3E-9CF8-074E-BF5B-0F2FA156F0B7}"/>
-    <hyperlink ref="I126" r:id="rId142" xr:uid="{8C2FD4CC-DF59-734E-8449-EA5B9F5E7D3D}"/>
+    <hyperlink ref="I115" r:id="rId140" xr:uid="{EC0C54FA-684B-A440-BF57-B5B57FDD99C9}"/>
+    <hyperlink ref="I125" r:id="rId141" xr:uid="{9081BA3E-9CF8-074E-BF5B-0F2FA156F0B7}"/>
+    <hyperlink ref="I127" r:id="rId142" xr:uid="{8C2FD4CC-DF59-734E-8449-EA5B9F5E7D3D}"/>
     <hyperlink ref="I93" r:id="rId143" xr:uid="{9845498D-A3A6-524F-9A69-7DC2DB7F7639}"/>
-    <hyperlink ref="I123" r:id="rId144" xr:uid="{CFDD3EC3-C992-0E4C-8C8D-2A9AC6885E0B}"/>
+    <hyperlink ref="I124" r:id="rId144" xr:uid="{CFDD3EC3-C992-0E4C-8C8D-2A9AC6885E0B}"/>
     <hyperlink ref="I104" r:id="rId145" xr:uid="{C634E917-B836-414F-BB3B-9A111E16653C}"/>
     <hyperlink ref="I62" r:id="rId146" xr:uid="{8548A361-62F7-A648-BBBE-9F37385F0E45}"/>
     <hyperlink ref="I77" r:id="rId147" xr:uid="{8EA062F9-78F8-A44B-BEDA-61CF758CB831}"/>
     <hyperlink ref="I46" r:id="rId148" xr:uid="{7C7CB4D2-6B37-544C-B631-930D91F3AA17}"/>
-    <hyperlink ref="I152" r:id="rId149" xr:uid="{5694CC0C-366D-8848-BBD7-150B284E15DA}"/>
+    <hyperlink ref="I153" r:id="rId149" xr:uid="{5694CC0C-366D-8848-BBD7-150B284E15DA}"/>
     <hyperlink ref="I33" r:id="rId150" xr:uid="{7E8D5837-BD50-6844-B288-6217DFD05E29}"/>
     <hyperlink ref="I48" r:id="rId151" xr:uid="{E89C4D5B-786F-9A4C-9914-80D4DF36F89C}"/>
     <hyperlink ref="I47" r:id="rId152" xr:uid="{EDBD0C6E-D96D-734B-85A9-4D26B3421D83}"/>
-    <hyperlink ref="I181" r:id="rId153" xr:uid="{12FA5E40-D722-4344-995B-86BBF8B4F3F3}"/>
+    <hyperlink ref="I182" r:id="rId153" xr:uid="{12FA5E40-D722-4344-995B-86BBF8B4F3F3}"/>
     <hyperlink ref="I3" r:id="rId154" xr:uid="{90F3D795-8796-3941-81B5-D72CA324E042}"/>
     <hyperlink ref="I4" r:id="rId155" xr:uid="{16E7DE01-C66E-B349-8DAD-CA4C99C20CD5}"/>
     <hyperlink ref="I5" r:id="rId156" xr:uid="{7E09A861-DD77-2E4B-B800-EAC5DEA70EDC}"/>
@@ -17262,27 +17319,28 @@
     <hyperlink ref="I72" r:id="rId160" xr:uid="{F2124805-E683-1A42-A341-E4B4C798FCF6}"/>
     <hyperlink ref="I105" r:id="rId161" xr:uid="{03D19417-5ACF-4747-87E3-FF4A7F6B8C5E}"/>
     <hyperlink ref="I111" r:id="rId162" xr:uid="{E08A2438-5DB8-9A45-84DD-CD243288C3B9}"/>
-    <hyperlink ref="I125" r:id="rId163" xr:uid="{84BE2579-BA68-7D4D-B2CB-86D3681369AA}"/>
-    <hyperlink ref="I128" r:id="rId164" xr:uid="{91EB2E87-6831-0145-A4FB-E8981B8045C7}"/>
-    <hyperlink ref="I132" r:id="rId165" xr:uid="{54C086FF-A8B9-6C43-B277-A9032F8666B1}"/>
-    <hyperlink ref="I133" r:id="rId166" xr:uid="{2EF760AC-07D9-8548-93B1-88352B9C3C7F}"/>
+    <hyperlink ref="I126" r:id="rId163" xr:uid="{84BE2579-BA68-7D4D-B2CB-86D3681369AA}"/>
+    <hyperlink ref="I129" r:id="rId164" xr:uid="{91EB2E87-6831-0145-A4FB-E8981B8045C7}"/>
+    <hyperlink ref="I133" r:id="rId165" xr:uid="{54C086FF-A8B9-6C43-B277-A9032F8666B1}"/>
+    <hyperlink ref="I134" r:id="rId166" xr:uid="{2EF760AC-07D9-8548-93B1-88352B9C3C7F}"/>
     <hyperlink ref="I97" r:id="rId167" xr:uid="{A5C672A7-87AF-E940-AAE7-D59695E4A0C6}"/>
-    <hyperlink ref="I136" r:id="rId168" xr:uid="{235F1B30-BA9C-2944-96E8-044D9C42D2E4}"/>
-    <hyperlink ref="I137" r:id="rId169" xr:uid="{86BA7BFD-9A67-EC49-A9D6-2A3459D321FF}"/>
-    <hyperlink ref="I138" r:id="rId170" xr:uid="{877A9B01-36F7-6D47-9B86-75B4F4BC541E}"/>
-    <hyperlink ref="I143" r:id="rId171" xr:uid="{5546ECD3-6F35-E74E-9357-32E1AF022690}"/>
-    <hyperlink ref="I153" r:id="rId172" xr:uid="{88D1FADA-4A32-0D4F-AF24-3FE72EBBEB68}"/>
-    <hyperlink ref="I154" r:id="rId173" xr:uid="{AF329473-0DFD-8C4C-BE43-8A06EA57AD9B}"/>
-    <hyperlink ref="I155" r:id="rId174" xr:uid="{6A2FDA52-E721-2D45-8440-DE26731358E6}"/>
+    <hyperlink ref="I137" r:id="rId168" xr:uid="{235F1B30-BA9C-2944-96E8-044D9C42D2E4}"/>
+    <hyperlink ref="I138" r:id="rId169" xr:uid="{86BA7BFD-9A67-EC49-A9D6-2A3459D321FF}"/>
+    <hyperlink ref="I139" r:id="rId170" xr:uid="{877A9B01-36F7-6D47-9B86-75B4F4BC541E}"/>
+    <hyperlink ref="I144" r:id="rId171" xr:uid="{5546ECD3-6F35-E74E-9357-32E1AF022690}"/>
+    <hyperlink ref="I154" r:id="rId172" xr:uid="{88D1FADA-4A32-0D4F-AF24-3FE72EBBEB68}"/>
+    <hyperlink ref="I155" r:id="rId173" xr:uid="{AF329473-0DFD-8C4C-BE43-8A06EA57AD9B}"/>
+    <hyperlink ref="I156" r:id="rId174" xr:uid="{6A2FDA52-E721-2D45-8440-DE26731358E6}"/>
     <hyperlink ref="I49" r:id="rId175" xr:uid="{AE7D1622-F9B9-DF48-8E55-336B7BB6750F}"/>
     <hyperlink ref="I50" r:id="rId176" xr:uid="{59C3C7D9-F3C2-4241-BF17-62CD57E349CD}"/>
     <hyperlink ref="I85" r:id="rId177" xr:uid="{808B590E-E469-FC42-8AED-648218F9285B}"/>
-    <hyperlink ref="I131" r:id="rId178" xr:uid="{0BFD14EA-48B9-E242-A6F8-2B6996870F1C}"/>
+    <hyperlink ref="I132" r:id="rId178" xr:uid="{0BFD14EA-48B9-E242-A6F8-2B6996870F1C}"/>
     <hyperlink ref="I78" r:id="rId179" xr:uid="{3D1F78F1-16B2-474B-91A0-3DFB6DB099C3}"/>
-    <hyperlink ref="I175" r:id="rId180" xr:uid="{D7BE4482-76F9-0648-8D97-B29A2C647580}"/>
-    <hyperlink ref="I165" r:id="rId181" xr:uid="{8BB3CB7A-FD3E-4242-B0D4-4CCA5F192666}"/>
+    <hyperlink ref="I176" r:id="rId180" xr:uid="{D7BE4482-76F9-0648-8D97-B29A2C647580}"/>
+    <hyperlink ref="I166" r:id="rId181" xr:uid="{8BB3CB7A-FD3E-4242-B0D4-4CCA5F192666}"/>
     <hyperlink ref="I113" r:id="rId182" xr:uid="{166E1088-3416-B54E-83D7-F3C78813399E}"/>
     <hyperlink ref="I20" r:id="rId183" xr:uid="{908AA4B9-E7B0-6142-A293-990E38D22A48}"/>
+    <hyperlink ref="I114" r:id="rId184" xr:uid="{4613CEBC-EE7C-E34A-A90B-2FB250FA811B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/docs/香港素食餐廳大全.xlsx
+++ b/docs/香港素食餐廳大全.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tim/_Python_OpenAI/My-projects/7-hk-veg-map/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86590DA7-A682-A74C-93FF-625741510F92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E851E4E-E1EB-E940-A7DE-4CA9D8C5BA2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8780" yWindow="500" windowWidth="17620" windowHeight="16260" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8620" yWindow="500" windowWidth="17620" windowHeight="16260" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="香港素食餐廳大全" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2304" uniqueCount="1041">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2313" uniqueCount="1046">
   <si>
     <t>** 更新自: 13 Aug 2023 (deprecated, go to sheet 2 "hk_veg_restaurants_data instead")</t>
   </si>
@@ -3144,6 +3144,21 @@
   </si>
   <si>
     <t>位於唐3樓，要行樓梯；食之前一定要Whatsapp 預約</t>
+  </si>
+  <si>
+    <t>蓮子麗姐素食</t>
+  </si>
+  <si>
+    <t>灣仔石水渠街72A號地舖</t>
+  </si>
+  <si>
+    <t>22.27398164901108, 114.17410666649118</t>
+  </si>
+  <si>
+    <t>https://www.openrice.com/zh/hongkong/r-%E8%93%AE%E5%AD%90%E9%BA%97%E5%A7%90%E7%B4%A0%E9%A3%9F-%E7%81%A3%E4%BB%94-%E7%B2%B5%E8%8F%9C-%E5%BB%A3%E6%9D%B1-%E7%B4%A0%E9%A3%9F-r833481</t>
+  </si>
+  <si>
+    <t>28334604</t>
   </si>
 </sst>
 </file>
@@ -11412,10 +11427,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:K185"/>
+  <dimension ref="A1:K186"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="132" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+    <sheetView tabSelected="1" topLeftCell="G15" zoomScale="132" workbookViewId="0">
+      <selection activeCell="K26" sqref="K26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -12211,26 +12226,26 @@
         <v>69</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>904</v>
+        <v>1041</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="E26" s="5" t="s">
         <v>25</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>76</v>
+        <v>1042</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>441</v>
+        <v>1043</v>
       </c>
       <c r="H26" s="5"/>
       <c r="I26" s="24" t="s">
-        <v>861</v>
+        <v>1044</v>
       </c>
       <c r="J26" s="25" t="s">
-        <v>442</v>
+        <v>1045</v>
       </c>
       <c r="K26" s="5"/>
     </row>
@@ -12242,26 +12257,26 @@
         <v>69</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>78</v>
+        <v>904</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>394</v>
+        <v>75</v>
       </c>
       <c r="E27" s="5" t="s">
         <v>25</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="H27" s="5"/>
-      <c r="I27" s="7" t="s">
-        <v>80</v>
+      <c r="I27" s="24" t="s">
+        <v>861</v>
       </c>
       <c r="J27" s="25" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="K27" s="5"/>
     </row>
@@ -12273,26 +12288,26 @@
         <v>69</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>410</v>
+        <v>394</v>
       </c>
       <c r="E28" s="5" t="s">
         <v>25</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="G28" s="5" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="H28" s="5"/>
       <c r="I28" s="7" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="J28" s="25" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="K28" s="5"/>
     </row>
@@ -12304,7 +12319,7 @@
         <v>69</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D29" s="5" t="s">
         <v>410</v>
@@ -12313,17 +12328,17 @@
         <v>25</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="G29" s="5" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="H29" s="5"/>
-      <c r="I29" s="6" t="s">
-        <v>86</v>
+      <c r="I29" s="7" t="s">
+        <v>83</v>
       </c>
       <c r="J29" s="25" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="K29" s="5"/>
     </row>
@@ -12335,7 +12350,7 @@
         <v>69</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D30" s="5" t="s">
         <v>410</v>
@@ -12344,17 +12359,17 @@
         <v>25</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="G30" s="5" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="H30" s="5"/>
       <c r="I30" s="6" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="J30" s="25" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="K30" s="5"/>
     </row>
@@ -12366,26 +12381,26 @@
         <v>69</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>51</v>
+        <v>410</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="G31" s="5" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="H31" s="5"/>
       <c r="I31" s="6" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="J31" s="25" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="K31" s="5"/>
     </row>
@@ -12397,26 +12412,26 @@
         <v>69</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="G32" s="5" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="H32" s="5"/>
       <c r="I32" s="6" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="J32" s="25" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="K32" s="5"/>
     </row>
@@ -12428,26 +12443,26 @@
         <v>69</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>868</v>
+        <v>93</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E33" s="5" t="s">
         <v>25</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>869</v>
+        <v>94</v>
       </c>
       <c r="G33" s="5" t="s">
-        <v>870</v>
+        <v>453</v>
       </c>
       <c r="H33" s="5"/>
-      <c r="I33" s="24" t="s">
-        <v>871</v>
+      <c r="I33" s="6" t="s">
+        <v>95</v>
       </c>
       <c r="J33" s="25" t="s">
-        <v>872</v>
+        <v>454</v>
       </c>
       <c r="K33" s="5"/>
     </row>
@@ -12459,26 +12474,26 @@
         <v>69</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>96</v>
+        <v>868</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>418</v>
+        <v>51</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>97</v>
+        <v>869</v>
       </c>
       <c r="G34" s="5" t="s">
-        <v>455</v>
+        <v>870</v>
       </c>
       <c r="H34" s="5"/>
       <c r="I34" s="24" t="s">
-        <v>862</v>
+        <v>871</v>
       </c>
       <c r="J34" s="25" t="s">
-        <v>456</v>
+        <v>872</v>
       </c>
       <c r="K34" s="5"/>
     </row>
@@ -12487,29 +12502,29 @@
         <v>10</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>99</v>
+        <v>69</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>457</v>
+        <v>96</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>410</v>
+        <v>418</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>458</v>
+        <v>97</v>
       </c>
       <c r="G35" s="5" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="H35" s="5"/>
-      <c r="I35" s="6" t="s">
-        <v>460</v>
+      <c r="I35" s="24" t="s">
+        <v>862</v>
       </c>
       <c r="J35" s="25" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="K35" s="5"/>
     </row>
@@ -12521,26 +12536,26 @@
         <v>99</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>381</v>
+        <v>457</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>382</v>
+        <v>410</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="G36" s="5" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="H36" s="5"/>
       <c r="I36" s="6" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="J36" s="25" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="K36" s="5"/>
     </row>
@@ -12552,30 +12567,28 @@
         <v>99</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>100</v>
+        <v>381</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>47</v>
+        <v>382</v>
       </c>
       <c r="E37" s="5" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="F37" s="5" t="s">
-        <v>101</v>
+        <v>462</v>
       </c>
       <c r="G37" s="5" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="H37" s="5"/>
       <c r="I37" s="6" t="s">
-        <v>102</v>
+        <v>464</v>
       </c>
       <c r="J37" s="25" t="s">
-        <v>467</v>
-      </c>
-      <c r="K37" s="5" t="s">
-        <v>1039</v>
-      </c>
+        <v>465</v>
+      </c>
+      <c r="K37" s="5"/>
     </row>
     <row r="38" spans="1:11" ht="15.75" customHeight="1">
       <c r="A38" s="5" t="s">
@@ -12585,28 +12598,30 @@
         <v>99</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>468</v>
+        <v>47</v>
       </c>
       <c r="E38" s="5" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="G38" s="5" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="H38" s="5"/>
-      <c r="I38" s="7" t="s">
-        <v>107</v>
+      <c r="I38" s="6" t="s">
+        <v>102</v>
       </c>
       <c r="J38" s="25" t="s">
-        <v>470</v>
-      </c>
-      <c r="K38" s="5"/>
+        <v>467</v>
+      </c>
+      <c r="K38" s="5" t="s">
+        <v>1039</v>
+      </c>
     </row>
     <row r="39" spans="1:11" ht="15.75" customHeight="1">
       <c r="A39" s="5" t="s">
@@ -12616,26 +12631,26 @@
         <v>99</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="E39" s="5" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="F39" s="5" t="s">
-        <v>472</v>
+        <v>106</v>
       </c>
       <c r="G39" s="5" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="H39" s="5"/>
-      <c r="I39" s="6" t="s">
-        <v>474</v>
+      <c r="I39" s="7" t="s">
+        <v>107</v>
       </c>
       <c r="J39" s="25" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
       <c r="K39" s="5"/>
     </row>
@@ -12647,26 +12662,26 @@
         <v>99</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>55</v>
+        <v>471</v>
       </c>
       <c r="E40" s="5" t="s">
         <v>25</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>113</v>
+        <v>472</v>
       </c>
       <c r="G40" s="5" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="H40" s="5"/>
       <c r="I40" s="6" t="s">
-        <v>114</v>
+        <v>474</v>
       </c>
       <c r="J40" s="25" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="K40" s="5"/>
     </row>
@@ -12678,69 +12693,69 @@
         <v>99</v>
       </c>
       <c r="C41" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="E41" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F41" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="G41" s="5" t="s">
+        <v>476</v>
+      </c>
+      <c r="H41" s="5"/>
+      <c r="I41" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="J41" s="25" t="s">
+        <v>477</v>
+      </c>
+      <c r="K41" s="5"/>
+    </row>
+    <row r="42" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A42" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="C42" s="5" t="s">
         <v>726</v>
       </c>
-      <c r="D41" s="5" t="s">
+      <c r="D42" s="5" t="s">
         <v>181</v>
       </c>
-      <c r="E41" s="5" t="s">
+      <c r="E42" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="F41" s="5" t="s">
+      <c r="F42" s="5" t="s">
         <v>736</v>
       </c>
-      <c r="G41" s="5" t="s">
+      <c r="G42" s="5" t="s">
         <v>737</v>
-      </c>
-      <c r="H41" s="5"/>
-      <c r="I41" s="24" t="s">
-        <v>738</v>
-      </c>
-      <c r="J41" s="25" t="s">
-        <v>739</v>
-      </c>
-      <c r="K41" s="5"/>
-    </row>
-    <row r="42" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A42" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="B42" s="23" t="s">
-        <v>99</v>
-      </c>
-      <c r="C42" s="5" t="s">
-        <v>727</v>
-      </c>
-      <c r="D42" s="5" t="s">
-        <v>410</v>
-      </c>
-      <c r="E42" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="F42" s="5" t="s">
-        <v>740</v>
-      </c>
-      <c r="G42" s="5" t="s">
-        <v>741</v>
       </c>
       <c r="H42" s="5"/>
       <c r="I42" s="24" t="s">
-        <v>742</v>
+        <v>738</v>
       </c>
       <c r="J42" s="25" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
       <c r="K42" s="5"/>
     </row>
     <row r="43" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A43" s="5" t="s">
+      <c r="A43" s="23" t="s">
         <v>10</v>
       </c>
       <c r="B43" s="23" t="s">
-        <v>899</v>
+        <v>99</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>897</v>
+        <v>727</v>
       </c>
       <c r="D43" s="5" t="s">
         <v>410</v>
@@ -12749,17 +12764,17 @@
         <v>25</v>
       </c>
       <c r="F43" s="5" t="s">
-        <v>924</v>
+        <v>740</v>
       </c>
       <c r="G43" s="5" t="s">
-        <v>925</v>
+        <v>741</v>
       </c>
       <c r="H43" s="5"/>
       <c r="I43" s="24" t="s">
-        <v>926</v>
+        <v>742</v>
       </c>
       <c r="J43" s="25" t="s">
-        <v>927</v>
+        <v>743</v>
       </c>
       <c r="K43" s="5"/>
     </row>
@@ -12767,30 +12782,30 @@
       <c r="A44" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B44" s="5" t="s">
-        <v>115</v>
+      <c r="B44" s="23" t="s">
+        <v>899</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>478</v>
+        <v>897</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>47</v>
+        <v>410</v>
       </c>
       <c r="E44" s="5" t="s">
         <v>25</v>
       </c>
       <c r="F44" s="5" t="s">
-        <v>479</v>
+        <v>924</v>
       </c>
       <c r="G44" s="5" t="s">
-        <v>480</v>
+        <v>925</v>
       </c>
       <c r="H44" s="5"/>
-      <c r="I44" s="6" t="s">
-        <v>481</v>
+      <c r="I44" s="24" t="s">
+        <v>926</v>
       </c>
       <c r="J44" s="25" t="s">
-        <v>482</v>
+        <v>927</v>
       </c>
       <c r="K44" s="5"/>
     </row>
@@ -12802,26 +12817,26 @@
         <v>115</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>116</v>
+        <v>478</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>117</v>
+        <v>47</v>
       </c>
       <c r="E45" s="5" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="F45" s="5" t="s">
-        <v>118</v>
+        <v>479</v>
       </c>
       <c r="G45" s="5" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="H45" s="5"/>
-      <c r="I45" s="24" t="s">
-        <v>854</v>
+      <c r="I45" s="6" t="s">
+        <v>481</v>
       </c>
       <c r="J45" s="25" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="K45" s="5"/>
     </row>
@@ -12833,26 +12848,26 @@
         <v>115</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>849</v>
+        <v>116</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>410</v>
+        <v>117</v>
       </c>
       <c r="E46" s="5" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="F46" s="5" t="s">
-        <v>850</v>
+        <v>118</v>
       </c>
       <c r="G46" s="5" t="s">
-        <v>851</v>
+        <v>483</v>
       </c>
       <c r="H46" s="5"/>
       <c r="I46" s="24" t="s">
-        <v>852</v>
+        <v>854</v>
       </c>
       <c r="J46" s="25" t="s">
-        <v>853</v>
+        <v>484</v>
       </c>
       <c r="K46" s="5"/>
     </row>
@@ -12864,26 +12879,26 @@
         <v>115</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>878</v>
+        <v>849</v>
       </c>
       <c r="D47" s="5" t="s">
-        <v>117</v>
+        <v>410</v>
       </c>
       <c r="E47" s="5" t="s">
         <v>25</v>
       </c>
       <c r="F47" s="5" t="s">
-        <v>879</v>
+        <v>850</v>
       </c>
       <c r="G47" s="5" t="s">
-        <v>880</v>
+        <v>851</v>
       </c>
       <c r="H47" s="5"/>
       <c r="I47" s="24" t="s">
-        <v>881</v>
+        <v>852</v>
       </c>
       <c r="J47" s="25" t="s">
-        <v>882</v>
+        <v>853</v>
       </c>
       <c r="K47" s="5"/>
     </row>
@@ -12895,26 +12910,26 @@
         <v>115</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>873</v>
+        <v>878</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>410</v>
+        <v>117</v>
       </c>
       <c r="E48" s="5" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="F48" s="5" t="s">
-        <v>874</v>
+        <v>879</v>
       </c>
       <c r="G48" s="5" t="s">
-        <v>875</v>
+        <v>880</v>
       </c>
       <c r="H48" s="5"/>
       <c r="I48" s="24" t="s">
-        <v>876</v>
+        <v>881</v>
       </c>
       <c r="J48" s="25" t="s">
-        <v>877</v>
+        <v>882</v>
       </c>
       <c r="K48" s="5"/>
     </row>
@@ -12926,26 +12941,26 @@
         <v>115</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>990</v>
+        <v>873</v>
       </c>
       <c r="D49" s="5" t="s">
         <v>410</v>
       </c>
       <c r="E49" s="5" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="F49" s="5" t="s">
-        <v>992</v>
+        <v>874</v>
       </c>
       <c r="G49" s="5" t="s">
-        <v>993</v>
+        <v>875</v>
       </c>
       <c r="H49" s="5"/>
       <c r="I49" s="24" t="s">
-        <v>994</v>
+        <v>876</v>
       </c>
       <c r="J49" s="25" t="s">
-        <v>995</v>
+        <v>877</v>
       </c>
       <c r="K49" s="5"/>
     </row>
@@ -12957,26 +12972,26 @@
         <v>115</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="D50" s="5" t="s">
-        <v>117</v>
+        <v>410</v>
       </c>
       <c r="E50" s="5" t="s">
         <v>25</v>
       </c>
       <c r="F50" s="5" t="s">
-        <v>996</v>
+        <v>992</v>
       </c>
       <c r="G50" s="5" t="s">
-        <v>997</v>
+        <v>993</v>
       </c>
       <c r="H50" s="5"/>
       <c r="I50" s="24" t="s">
-        <v>998</v>
+        <v>994</v>
       </c>
       <c r="J50" s="25" t="s">
-        <v>999</v>
+        <v>995</v>
       </c>
       <c r="K50" s="5"/>
     </row>
@@ -12985,29 +13000,29 @@
         <v>10</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>121</v>
+        <v>991</v>
       </c>
       <c r="D51" s="5" t="s">
-        <v>410</v>
+        <v>117</v>
       </c>
       <c r="E51" s="5" t="s">
         <v>25</v>
       </c>
       <c r="F51" s="5" t="s">
-        <v>122</v>
+        <v>996</v>
       </c>
       <c r="G51" s="5" t="s">
-        <v>485</v>
+        <v>997</v>
       </c>
       <c r="H51" s="5"/>
-      <c r="I51" s="6" t="s">
-        <v>123</v>
+      <c r="I51" s="24" t="s">
+        <v>998</v>
       </c>
       <c r="J51" s="25" t="s">
-        <v>486</v>
+        <v>999</v>
       </c>
       <c r="K51" s="5"/>
     </row>
@@ -13016,29 +13031,29 @@
         <v>10</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="D52" s="5" t="s">
-        <v>47</v>
+        <v>410</v>
       </c>
       <c r="E52" s="5" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="F52" s="5" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="G52" s="5" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="H52" s="5"/>
       <c r="I52" s="6" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="J52" s="25" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="K52" s="5"/>
     </row>
@@ -13047,62 +13062,62 @@
         <v>10</v>
       </c>
       <c r="B53" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="C53" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="D53" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E53" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F53" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="G53" s="5" t="s">
+        <v>487</v>
+      </c>
+      <c r="H53" s="5"/>
+      <c r="I53" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="J53" s="25" t="s">
+        <v>488</v>
+      </c>
+      <c r="K53" s="5"/>
+    </row>
+    <row r="54" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A54" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B54" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="C53" s="5" t="s">
+      <c r="C54" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="D53" s="5" t="s">
+      <c r="D54" s="5" t="s">
         <v>410</v>
       </c>
-      <c r="E53" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="F53" s="5" t="s">
+      <c r="E54" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F54" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="G53" s="5" t="s">
+      <c r="G54" s="5" t="s">
         <v>489</v>
       </c>
-      <c r="H53" s="5"/>
-      <c r="I53" s="7" t="s">
+      <c r="H54" s="5"/>
+      <c r="I54" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="J53" s="25" t="s">
+      <c r="J54" s="25" t="s">
         <v>490</v>
       </c>
-      <c r="K53" s="5"/>
-    </row>
-    <row r="54" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A54" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="B54" s="9" t="s">
-        <v>133</v>
-      </c>
-      <c r="C54" s="9" t="s">
-        <v>491</v>
-      </c>
-      <c r="D54" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="E54" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F54" s="9" t="s">
-        <v>492</v>
-      </c>
-      <c r="G54" s="9" t="s">
-        <v>493</v>
-      </c>
-      <c r="H54" s="9"/>
-      <c r="I54" s="10" t="s">
-        <v>494</v>
-      </c>
-      <c r="J54" s="26" t="s">
-        <v>495</v>
-      </c>
-      <c r="K54" s="9"/>
+      <c r="K54" s="5"/>
     </row>
     <row r="55" spans="1:11" ht="15.75" customHeight="1">
       <c r="A55" s="9" t="s">
@@ -13112,26 +13127,26 @@
         <v>133</v>
       </c>
       <c r="C55" s="9" t="s">
-        <v>901</v>
+        <v>491</v>
       </c>
       <c r="D55" s="9" t="s">
-        <v>410</v>
+        <v>47</v>
       </c>
       <c r="E55" s="9" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="F55" s="9" t="s">
-        <v>135</v>
+        <v>492</v>
       </c>
       <c r="G55" s="9" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="H55" s="9"/>
       <c r="I55" s="10" t="s">
-        <v>136</v>
+        <v>494</v>
       </c>
       <c r="J55" s="26" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="K55" s="9"/>
     </row>
@@ -13143,7 +13158,7 @@
         <v>133</v>
       </c>
       <c r="C56" s="9" t="s">
-        <v>498</v>
+        <v>901</v>
       </c>
       <c r="D56" s="9" t="s">
         <v>410</v>
@@ -13152,17 +13167,17 @@
         <v>25</v>
       </c>
       <c r="F56" s="9" t="s">
-        <v>499</v>
+        <v>135</v>
       </c>
       <c r="G56" s="9" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="H56" s="9"/>
       <c r="I56" s="10" t="s">
-        <v>501</v>
+        <v>136</v>
       </c>
       <c r="J56" s="26" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
       <c r="K56" s="9"/>
     </row>
@@ -13174,26 +13189,26 @@
         <v>133</v>
       </c>
       <c r="C57" s="9" t="s">
-        <v>137</v>
+        <v>498</v>
       </c>
       <c r="D57" s="9" t="s">
-        <v>471</v>
+        <v>410</v>
       </c>
       <c r="E57" s="9" t="s">
         <v>25</v>
       </c>
       <c r="F57" s="9" t="s">
-        <v>138</v>
+        <v>499</v>
       </c>
       <c r="G57" s="9" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="H57" s="9"/>
       <c r="I57" s="10" t="s">
-        <v>139</v>
+        <v>501</v>
       </c>
       <c r="J57" s="26" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="K57" s="9"/>
     </row>
@@ -13205,26 +13220,26 @@
         <v>133</v>
       </c>
       <c r="C58" s="9" t="s">
-        <v>381</v>
+        <v>137</v>
       </c>
       <c r="D58" s="9" t="s">
-        <v>382</v>
+        <v>471</v>
       </c>
       <c r="E58" s="9" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="F58" s="9" t="s">
-        <v>505</v>
+        <v>138</v>
       </c>
       <c r="G58" s="9" t="s">
-        <v>778</v>
+        <v>503</v>
       </c>
       <c r="H58" s="9"/>
       <c r="I58" s="10" t="s">
-        <v>506</v>
+        <v>139</v>
       </c>
       <c r="J58" s="26" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="K58" s="9"/>
     </row>
@@ -13236,26 +13251,26 @@
         <v>133</v>
       </c>
       <c r="C59" s="9" t="s">
-        <v>904</v>
+        <v>381</v>
       </c>
       <c r="D59" s="9" t="s">
-        <v>75</v>
+        <v>382</v>
       </c>
       <c r="E59" s="9" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="F59" s="9" t="s">
-        <v>141</v>
+        <v>505</v>
       </c>
       <c r="G59" s="9" t="s">
-        <v>508</v>
+        <v>778</v>
       </c>
       <c r="H59" s="9"/>
-      <c r="I59" s="28" t="s">
-        <v>855</v>
+      <c r="I59" s="10" t="s">
+        <v>506</v>
       </c>
       <c r="J59" s="26" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="K59" s="9"/>
     </row>
@@ -13267,7 +13282,7 @@
         <v>133</v>
       </c>
       <c r="C60" s="9" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
       <c r="D60" s="9" t="s">
         <v>75</v>
@@ -13276,17 +13291,17 @@
         <v>25</v>
       </c>
       <c r="F60" s="9" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="G60" s="9" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="H60" s="9"/>
       <c r="I60" s="28" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="J60" s="26" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="K60" s="9"/>
     </row>
@@ -13298,26 +13313,26 @@
         <v>133</v>
       </c>
       <c r="C61" s="9" t="s">
-        <v>146</v>
+        <v>903</v>
       </c>
       <c r="D61" s="9" t="s">
-        <v>512</v>
+        <v>75</v>
       </c>
       <c r="E61" s="9" t="s">
         <v>25</v>
       </c>
       <c r="F61" s="9" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="G61" s="9" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="H61" s="9"/>
-      <c r="I61" s="11" t="s">
-        <v>149</v>
+      <c r="I61" s="28" t="s">
+        <v>856</v>
       </c>
       <c r="J61" s="26" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="K61" s="9"/>
     </row>
@@ -13329,30 +13344,30 @@
         <v>133</v>
       </c>
       <c r="C62" s="9" t="s">
-        <v>839</v>
+        <v>146</v>
       </c>
       <c r="D62" s="9" t="s">
-        <v>410</v>
+        <v>512</v>
       </c>
       <c r="E62" s="9" t="s">
         <v>25</v>
       </c>
       <c r="F62" s="9" t="s">
-        <v>840</v>
+        <v>148</v>
       </c>
       <c r="G62" s="9" t="s">
-        <v>841</v>
+        <v>513</v>
       </c>
       <c r="H62" s="9"/>
-      <c r="I62" s="28" t="s">
-        <v>842</v>
+      <c r="I62" s="11" t="s">
+        <v>149</v>
       </c>
       <c r="J62" s="26" t="s">
-        <v>843</v>
+        <v>514</v>
       </c>
       <c r="K62" s="9"/>
     </row>
-    <row r="63" spans="1:11" ht="13">
+    <row r="63" spans="1:11" ht="15.75" customHeight="1">
       <c r="A63" s="9" t="s">
         <v>132</v>
       </c>
@@ -13360,26 +13375,26 @@
         <v>133</v>
       </c>
       <c r="C63" s="9" t="s">
-        <v>906</v>
+        <v>839</v>
       </c>
       <c r="D63" s="9" t="s">
-        <v>55</v>
+        <v>410</v>
       </c>
       <c r="E63" s="9" t="s">
         <v>25</v>
       </c>
       <c r="F63" s="9" t="s">
-        <v>151</v>
+        <v>840</v>
       </c>
       <c r="G63" s="9" t="s">
-        <v>515</v>
+        <v>841</v>
       </c>
       <c r="H63" s="9"/>
-      <c r="I63" s="10" t="s">
-        <v>152</v>
+      <c r="I63" s="28" t="s">
+        <v>842</v>
       </c>
       <c r="J63" s="26" t="s">
-        <v>516</v>
+        <v>843</v>
       </c>
       <c r="K63" s="9"/>
     </row>
@@ -13391,26 +13406,26 @@
         <v>133</v>
       </c>
       <c r="C64" s="9" t="s">
-        <v>153</v>
+        <v>906</v>
       </c>
       <c r="D64" s="9" t="s">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="E64" s="9" t="s">
         <v>25</v>
       </c>
       <c r="F64" s="9" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="G64" s="9" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="H64" s="9"/>
       <c r="I64" s="10" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="J64" s="26" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="K64" s="9"/>
     </row>
@@ -13422,26 +13437,26 @@
         <v>133</v>
       </c>
       <c r="C65" s="9" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="D65" s="9" t="s">
-        <v>157</v>
+        <v>75</v>
       </c>
       <c r="E65" s="9" t="s">
         <v>25</v>
       </c>
       <c r="F65" s="9" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="G65" s="9" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="H65" s="9"/>
       <c r="I65" s="10" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="J65" s="26" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="K65" s="9"/>
     </row>
@@ -13453,26 +13468,26 @@
         <v>133</v>
       </c>
       <c r="C66" s="9" t="s">
-        <v>779</v>
+        <v>156</v>
       </c>
       <c r="D66" s="9" t="s">
-        <v>47</v>
+        <v>157</v>
       </c>
       <c r="E66" s="9" t="s">
         <v>25</v>
       </c>
       <c r="F66" s="9" t="s">
-        <v>792</v>
+        <v>158</v>
       </c>
       <c r="G66" s="9" t="s">
-        <v>793</v>
+        <v>519</v>
       </c>
       <c r="H66" s="9"/>
-      <c r="I66" s="28" t="s">
-        <v>794</v>
+      <c r="I66" s="10" t="s">
+        <v>159</v>
       </c>
       <c r="J66" s="26" t="s">
-        <v>795</v>
+        <v>520</v>
       </c>
       <c r="K66" s="9"/>
     </row>
@@ -13484,26 +13499,26 @@
         <v>133</v>
       </c>
       <c r="C67" s="9" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="D67" s="9" t="s">
-        <v>410</v>
+        <v>47</v>
       </c>
       <c r="E67" s="9" t="s">
         <v>25</v>
       </c>
       <c r="F67" s="9" t="s">
-        <v>796</v>
+        <v>792</v>
       </c>
       <c r="G67" s="9" t="s">
-        <v>797</v>
+        <v>793</v>
       </c>
       <c r="H67" s="9"/>
       <c r="I67" s="28" t="s">
-        <v>798</v>
+        <v>794</v>
       </c>
       <c r="J67" s="26" t="s">
-        <v>799</v>
+        <v>795</v>
       </c>
       <c r="K67" s="9"/>
     </row>
@@ -13515,26 +13530,26 @@
         <v>133</v>
       </c>
       <c r="C68" s="9" t="s">
-        <v>902</v>
+        <v>780</v>
       </c>
       <c r="D68" s="9" t="s">
-        <v>75</v>
+        <v>410</v>
       </c>
       <c r="E68" s="9" t="s">
         <v>25</v>
       </c>
       <c r="F68" s="9" t="s">
-        <v>928</v>
+        <v>796</v>
       </c>
       <c r="G68" s="9" t="s">
-        <v>929</v>
+        <v>797</v>
       </c>
       <c r="H68" s="9"/>
       <c r="I68" s="28" t="s">
-        <v>930</v>
+        <v>798</v>
       </c>
       <c r="J68" s="26" t="s">
-        <v>931</v>
+        <v>799</v>
       </c>
       <c r="K68" s="9"/>
     </row>
@@ -13546,26 +13561,26 @@
         <v>133</v>
       </c>
       <c r="C69" s="9" t="s">
-        <v>781</v>
+        <v>902</v>
       </c>
       <c r="D69" s="9" t="s">
-        <v>47</v>
+        <v>75</v>
       </c>
       <c r="E69" s="9" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="F69" s="9" t="s">
-        <v>800</v>
+        <v>928</v>
       </c>
       <c r="G69" s="9" t="s">
-        <v>801</v>
+        <v>929</v>
       </c>
       <c r="H69" s="9"/>
       <c r="I69" s="28" t="s">
-        <v>802</v>
+        <v>930</v>
       </c>
       <c r="J69" s="26" t="s">
-        <v>803</v>
+        <v>931</v>
       </c>
       <c r="K69" s="9"/>
     </row>
@@ -13577,26 +13592,26 @@
         <v>133</v>
       </c>
       <c r="C70" s="9" t="s">
-        <v>723</v>
+        <v>781</v>
       </c>
       <c r="D70" s="9" t="s">
-        <v>117</v>
+        <v>47</v>
       </c>
       <c r="E70" s="9" t="s">
         <v>14</v>
       </c>
       <c r="F70" s="9" t="s">
-        <v>804</v>
+        <v>800</v>
       </c>
       <c r="G70" s="9" t="s">
-        <v>805</v>
+        <v>801</v>
       </c>
       <c r="H70" s="9"/>
       <c r="I70" s="28" t="s">
-        <v>806</v>
+        <v>802</v>
       </c>
       <c r="J70" s="26" t="s">
-        <v>807</v>
+        <v>803</v>
       </c>
       <c r="K70" s="9"/>
     </row>
@@ -13608,26 +13623,26 @@
         <v>133</v>
       </c>
       <c r="C71" s="9" t="s">
-        <v>160</v>
+        <v>723</v>
       </c>
       <c r="D71" s="9" t="s">
-        <v>55</v>
+        <v>117</v>
       </c>
       <c r="E71" s="9" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="F71" s="9" t="s">
-        <v>161</v>
+        <v>804</v>
       </c>
       <c r="G71" s="9" t="s">
-        <v>521</v>
+        <v>805</v>
       </c>
       <c r="H71" s="9"/>
-      <c r="I71" s="10" t="s">
-        <v>162</v>
+      <c r="I71" s="28" t="s">
+        <v>806</v>
       </c>
       <c r="J71" s="26" t="s">
-        <v>522</v>
+        <v>807</v>
       </c>
       <c r="K71" s="9"/>
     </row>
@@ -13639,25 +13654,27 @@
         <v>133</v>
       </c>
       <c r="C72" s="9" t="s">
-        <v>905</v>
+        <v>160</v>
       </c>
       <c r="D72" s="9" t="s">
-        <v>402</v>
+        <v>55</v>
       </c>
       <c r="E72" s="9" t="s">
         <v>25</v>
       </c>
       <c r="F72" s="9" t="s">
-        <v>932</v>
+        <v>161</v>
       </c>
       <c r="G72" s="9" t="s">
-        <v>933</v>
+        <v>521</v>
       </c>
       <c r="H72" s="9"/>
-      <c r="I72" s="28" t="s">
-        <v>934</v>
-      </c>
-      <c r="J72" s="26"/>
+      <c r="I72" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="J72" s="26" t="s">
+        <v>522</v>
+      </c>
       <c r="K72" s="9"/>
     </row>
     <row r="73" spans="1:11" ht="13">
@@ -13665,30 +13682,28 @@
         <v>132</v>
       </c>
       <c r="B73" s="9" t="s">
-        <v>163</v>
+        <v>133</v>
       </c>
       <c r="C73" s="9" t="s">
-        <v>164</v>
+        <v>905</v>
       </c>
       <c r="D73" s="9" t="s">
-        <v>410</v>
+        <v>402</v>
       </c>
       <c r="E73" s="9" t="s">
         <v>25</v>
       </c>
       <c r="F73" s="9" t="s">
-        <v>165</v>
+        <v>932</v>
       </c>
       <c r="G73" s="9" t="s">
-        <v>523</v>
+        <v>933</v>
       </c>
       <c r="H73" s="9"/>
-      <c r="I73" s="10" t="s">
-        <v>166</v>
-      </c>
-      <c r="J73" s="26" t="s">
-        <v>524</v>
-      </c>
+      <c r="I73" s="28" t="s">
+        <v>934</v>
+      </c>
+      <c r="J73" s="26"/>
       <c r="K73" s="9"/>
     </row>
     <row r="74" spans="1:11" ht="13">
@@ -13699,7 +13714,7 @@
         <v>163</v>
       </c>
       <c r="C74" s="9" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="D74" s="9" t="s">
         <v>410</v>
@@ -13708,17 +13723,17 @@
         <v>25</v>
       </c>
       <c r="F74" s="9" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="G74" s="9" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="H74" s="9"/>
       <c r="I74" s="10" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="J74" s="26" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="K74" s="9"/>
     </row>
@@ -13730,26 +13745,26 @@
         <v>163</v>
       </c>
       <c r="C75" s="9" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="D75" s="9" t="s">
-        <v>117</v>
+        <v>410</v>
       </c>
       <c r="E75" s="9" t="s">
         <v>25</v>
       </c>
       <c r="F75" s="9" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="G75" s="9" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="H75" s="9"/>
-      <c r="I75" s="28" t="s">
-        <v>857</v>
+      <c r="I75" s="10" t="s">
+        <v>169</v>
       </c>
       <c r="J75" s="26" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="K75" s="9"/>
     </row>
@@ -13761,7 +13776,7 @@
         <v>163</v>
       </c>
       <c r="C76" s="9" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="D76" s="9" t="s">
         <v>117</v>
@@ -13770,17 +13785,17 @@
         <v>25</v>
       </c>
       <c r="F76" s="9" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="G76" s="9" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="H76" s="9"/>
-      <c r="I76" s="10" t="s">
-        <v>175</v>
+      <c r="I76" s="28" t="s">
+        <v>857</v>
       </c>
       <c r="J76" s="26" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="K76" s="9"/>
     </row>
@@ -13792,26 +13807,26 @@
         <v>163</v>
       </c>
       <c r="C77" s="9" t="s">
-        <v>844</v>
+        <v>173</v>
       </c>
       <c r="D77" s="9" t="s">
-        <v>410</v>
+        <v>117</v>
       </c>
       <c r="E77" s="9" t="s">
         <v>25</v>
       </c>
       <c r="F77" s="9" t="s">
-        <v>845</v>
+        <v>174</v>
       </c>
       <c r="G77" s="9" t="s">
-        <v>846</v>
+        <v>529</v>
       </c>
       <c r="H77" s="9"/>
-      <c r="I77" s="28" t="s">
-        <v>847</v>
+      <c r="I77" s="10" t="s">
+        <v>175</v>
       </c>
       <c r="J77" s="26" t="s">
-        <v>848</v>
+        <v>530</v>
       </c>
       <c r="K77" s="9"/>
     </row>
@@ -13823,26 +13838,26 @@
         <v>163</v>
       </c>
       <c r="C78" s="9" t="s">
-        <v>1012</v>
+        <v>844</v>
       </c>
       <c r="D78" s="9" t="s">
-        <v>312</v>
+        <v>410</v>
       </c>
       <c r="E78" s="9" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="F78" s="9" t="s">
-        <v>1013</v>
+        <v>845</v>
       </c>
       <c r="G78" s="9" t="s">
-        <v>1014</v>
+        <v>846</v>
       </c>
       <c r="H78" s="9"/>
       <c r="I78" s="28" t="s">
-        <v>1015</v>
+        <v>847</v>
       </c>
       <c r="J78" s="26" t="s">
-        <v>1016</v>
+        <v>848</v>
       </c>
       <c r="K78" s="9"/>
     </row>
@@ -13851,29 +13866,29 @@
         <v>132</v>
       </c>
       <c r="B79" s="9" t="s">
-        <v>724</v>
+        <v>163</v>
       </c>
       <c r="C79" s="9" t="s">
-        <v>723</v>
+        <v>1012</v>
       </c>
       <c r="D79" s="9" t="s">
-        <v>410</v>
+        <v>312</v>
       </c>
       <c r="E79" s="9" t="s">
         <v>14</v>
       </c>
       <c r="F79" s="9" t="s">
-        <v>744</v>
+        <v>1013</v>
       </c>
       <c r="G79" s="9" t="s">
-        <v>745</v>
+        <v>1014</v>
       </c>
       <c r="H79" s="9"/>
       <c r="I79" s="28" t="s">
-        <v>746</v>
+        <v>1015</v>
       </c>
       <c r="J79" s="26" t="s">
-        <v>747</v>
+        <v>1016</v>
       </c>
       <c r="K79" s="9"/>
     </row>
@@ -13882,29 +13897,29 @@
         <v>132</v>
       </c>
       <c r="B80" s="9" t="s">
-        <v>531</v>
+        <v>724</v>
       </c>
       <c r="C80" s="9" t="s">
-        <v>532</v>
+        <v>723</v>
       </c>
       <c r="D80" s="9" t="s">
-        <v>157</v>
+        <v>410</v>
       </c>
       <c r="E80" s="9" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="F80" s="9" t="s">
-        <v>533</v>
+        <v>744</v>
       </c>
       <c r="G80" s="9" t="s">
-        <v>534</v>
+        <v>745</v>
       </c>
       <c r="H80" s="9"/>
-      <c r="I80" s="11" t="s">
-        <v>535</v>
+      <c r="I80" s="28" t="s">
+        <v>746</v>
       </c>
       <c r="J80" s="26" t="s">
-        <v>536</v>
+        <v>747</v>
       </c>
       <c r="K80" s="9"/>
     </row>
@@ -13916,26 +13931,26 @@
         <v>531</v>
       </c>
       <c r="C81" s="9" t="s">
-        <v>381</v>
+        <v>532</v>
       </c>
       <c r="D81" s="9" t="s">
-        <v>382</v>
+        <v>157</v>
       </c>
       <c r="E81" s="9" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="F81" s="9" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="G81" s="9" t="s">
-        <v>777</v>
+        <v>534</v>
       </c>
       <c r="H81" s="9"/>
-      <c r="I81" s="10" t="s">
-        <v>538</v>
+      <c r="I81" s="11" t="s">
+        <v>535</v>
       </c>
       <c r="J81" s="26" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="K81" s="9"/>
     </row>
@@ -13944,29 +13959,29 @@
         <v>132</v>
       </c>
       <c r="B82" s="9" t="s">
-        <v>176</v>
+        <v>531</v>
       </c>
       <c r="C82" s="9" t="s">
-        <v>540</v>
+        <v>381</v>
       </c>
       <c r="D82" s="9" t="s">
-        <v>410</v>
+        <v>382</v>
       </c>
       <c r="E82" s="9" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="F82" s="9" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="G82" s="9" t="s">
-        <v>542</v>
+        <v>777</v>
       </c>
       <c r="H82" s="9"/>
       <c r="I82" s="10" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
       <c r="J82" s="26" t="s">
-        <v>544</v>
+        <v>539</v>
       </c>
       <c r="K82" s="9"/>
     </row>
@@ -13978,7 +13993,7 @@
         <v>176</v>
       </c>
       <c r="C83" s="9" t="s">
-        <v>177</v>
+        <v>540</v>
       </c>
       <c r="D83" s="9" t="s">
         <v>410</v>
@@ -13987,17 +14002,17 @@
         <v>25</v>
       </c>
       <c r="F83" s="9" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="G83" s="9" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="H83" s="9"/>
       <c r="I83" s="10" t="s">
-        <v>179</v>
+        <v>543</v>
       </c>
       <c r="J83" s="26" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="K83" s="9"/>
     </row>
@@ -14009,26 +14024,26 @@
         <v>176</v>
       </c>
       <c r="C84" s="9" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D84" s="9" t="s">
-        <v>181</v>
+        <v>410</v>
       </c>
       <c r="E84" s="9" t="s">
         <v>25</v>
       </c>
       <c r="F84" s="9" t="s">
-        <v>182</v>
+        <v>545</v>
       </c>
       <c r="G84" s="9" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="H84" s="9"/>
       <c r="I84" s="10" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="J84" s="26" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="K84" s="9"/>
     </row>
@@ -14037,29 +14052,29 @@
         <v>132</v>
       </c>
       <c r="B85" s="9" t="s">
-        <v>1000</v>
+        <v>176</v>
       </c>
       <c r="C85" s="9" t="s">
-        <v>1001</v>
+        <v>180</v>
       </c>
       <c r="D85" s="9" t="s">
-        <v>410</v>
+        <v>181</v>
       </c>
       <c r="E85" s="9" t="s">
         <v>25</v>
       </c>
       <c r="F85" s="9" t="s">
-        <v>1002</v>
+        <v>182</v>
       </c>
       <c r="G85" s="9" t="s">
-        <v>1003</v>
+        <v>548</v>
       </c>
       <c r="H85" s="9"/>
-      <c r="I85" s="28" t="s">
-        <v>1004</v>
+      <c r="I85" s="10" t="s">
+        <v>183</v>
       </c>
       <c r="J85" s="26" t="s">
-        <v>1005</v>
+        <v>549</v>
       </c>
       <c r="K85" s="9"/>
     </row>
@@ -14068,10 +14083,10 @@
         <v>132</v>
       </c>
       <c r="B86" s="9" t="s">
-        <v>184</v>
+        <v>1000</v>
       </c>
       <c r="C86" s="9" t="s">
-        <v>185</v>
+        <v>1001</v>
       </c>
       <c r="D86" s="9" t="s">
         <v>410</v>
@@ -14080,17 +14095,17 @@
         <v>25</v>
       </c>
       <c r="F86" s="9" t="s">
-        <v>186</v>
+        <v>1002</v>
       </c>
       <c r="G86" s="9" t="s">
-        <v>550</v>
+        <v>1003</v>
       </c>
       <c r="H86" s="9"/>
-      <c r="I86" s="10" t="s">
-        <v>187</v>
+      <c r="I86" s="28" t="s">
+        <v>1004</v>
       </c>
       <c r="J86" s="26" t="s">
-        <v>551</v>
+        <v>1005</v>
       </c>
       <c r="K86" s="9"/>
     </row>
@@ -14102,26 +14117,26 @@
         <v>184</v>
       </c>
       <c r="C87" s="9" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="D87" s="9" t="s">
-        <v>117</v>
+        <v>410</v>
       </c>
       <c r="E87" s="9" t="s">
         <v>25</v>
       </c>
       <c r="F87" s="9" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="G87" s="9" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="H87" s="9"/>
       <c r="I87" s="10" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="J87" s="26" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="K87" s="9"/>
     </row>
@@ -14133,26 +14148,26 @@
         <v>184</v>
       </c>
       <c r="C88" s="9" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="D88" s="9" t="s">
-        <v>192</v>
+        <v>117</v>
       </c>
       <c r="E88" s="9" t="s">
         <v>25</v>
       </c>
       <c r="F88" s="9" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="G88" s="9" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="H88" s="9"/>
       <c r="I88" s="10" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="J88" s="26" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="K88" s="9"/>
     </row>
@@ -14164,26 +14179,26 @@
         <v>184</v>
       </c>
       <c r="C89" s="9" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="D89" s="9" t="s">
-        <v>51</v>
+        <v>192</v>
       </c>
       <c r="E89" s="9" t="s">
         <v>25</v>
       </c>
       <c r="F89" s="9" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="G89" s="9" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="H89" s="9"/>
       <c r="I89" s="10" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="J89" s="26" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="K89" s="9"/>
     </row>
@@ -14195,26 +14210,26 @@
         <v>184</v>
       </c>
       <c r="C90" s="9" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="D90" s="9" t="s">
-        <v>418</v>
+        <v>51</v>
       </c>
       <c r="E90" s="9" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="F90" s="9" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="G90" s="9" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="H90" s="9"/>
       <c r="I90" s="10" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="J90" s="26" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="K90" s="9"/>
     </row>
@@ -14226,7 +14241,7 @@
         <v>184</v>
       </c>
       <c r="C91" s="9" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="D91" s="9" t="s">
         <v>418</v>
@@ -14235,17 +14250,17 @@
         <v>14</v>
       </c>
       <c r="F91" s="9" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="G91" s="9" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="H91" s="9"/>
       <c r="I91" s="10" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="J91" s="26" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="K91" s="9"/>
     </row>
@@ -14256,8 +14271,8 @@
       <c r="B92" s="9" t="s">
         <v>184</v>
       </c>
-      <c r="C92" s="12" t="s">
-        <v>204</v>
+      <c r="C92" s="9" t="s">
+        <v>201</v>
       </c>
       <c r="D92" s="9" t="s">
         <v>418</v>
@@ -14266,17 +14281,17 @@
         <v>14</v>
       </c>
       <c r="F92" s="9" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="G92" s="9" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="H92" s="9"/>
-      <c r="I92" s="11" t="s">
-        <v>206</v>
+      <c r="I92" s="10" t="s">
+        <v>203</v>
       </c>
       <c r="J92" s="26" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="K92" s="9"/>
     </row>
@@ -14288,26 +14303,26 @@
         <v>184</v>
       </c>
       <c r="C93" s="12" t="s">
-        <v>824</v>
+        <v>204</v>
       </c>
       <c r="D93" s="9" t="s">
-        <v>410</v>
+        <v>418</v>
       </c>
       <c r="E93" s="9" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="F93" s="9" t="s">
-        <v>825</v>
+        <v>205</v>
       </c>
       <c r="G93" s="9" t="s">
-        <v>826</v>
+        <v>562</v>
       </c>
       <c r="H93" s="9"/>
-      <c r="I93" s="28" t="s">
-        <v>827</v>
+      <c r="I93" s="11" t="s">
+        <v>206</v>
       </c>
       <c r="J93" s="26" t="s">
-        <v>828</v>
+        <v>563</v>
       </c>
       <c r="K93" s="9"/>
     </row>
@@ -14319,26 +14334,26 @@
         <v>184</v>
       </c>
       <c r="C94" s="12" t="s">
-        <v>207</v>
+        <v>824</v>
       </c>
       <c r="D94" s="9" t="s">
-        <v>418</v>
+        <v>410</v>
       </c>
       <c r="E94" s="9" t="s">
         <v>25</v>
       </c>
       <c r="F94" s="9" t="s">
-        <v>208</v>
+        <v>825</v>
       </c>
       <c r="G94" s="9" t="s">
-        <v>564</v>
+        <v>826</v>
       </c>
       <c r="H94" s="9"/>
-      <c r="I94" s="11" t="s">
-        <v>209</v>
+      <c r="I94" s="28" t="s">
+        <v>827</v>
       </c>
       <c r="J94" s="26" t="s">
-        <v>565</v>
+        <v>828</v>
       </c>
       <c r="K94" s="9"/>
     </row>
@@ -14347,29 +14362,29 @@
         <v>132</v>
       </c>
       <c r="B95" s="9" t="s">
-        <v>210</v>
+        <v>184</v>
       </c>
       <c r="C95" s="12" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="D95" s="9" t="s">
         <v>418</v>
       </c>
       <c r="E95" s="9" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="F95" s="9" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="G95" s="9" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="H95" s="9"/>
-      <c r="I95" s="10" t="s">
-        <v>213</v>
+      <c r="I95" s="11" t="s">
+        <v>209</v>
       </c>
       <c r="J95" s="26" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="K95" s="9"/>
     </row>
@@ -14378,29 +14393,29 @@
         <v>132</v>
       </c>
       <c r="B96" s="9" t="s">
-        <v>718</v>
+        <v>210</v>
       </c>
       <c r="C96" s="12" t="s">
-        <v>717</v>
+        <v>211</v>
       </c>
       <c r="D96" s="9" t="s">
-        <v>410</v>
+        <v>418</v>
       </c>
       <c r="E96" s="9" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="F96" s="9" t="s">
-        <v>749</v>
+        <v>212</v>
       </c>
       <c r="G96" s="9" t="s">
-        <v>748</v>
+        <v>566</v>
       </c>
       <c r="H96" s="9"/>
-      <c r="I96" s="28" t="s">
-        <v>750</v>
+      <c r="I96" s="10" t="s">
+        <v>213</v>
       </c>
       <c r="J96" s="26" t="s">
-        <v>751</v>
+        <v>567</v>
       </c>
       <c r="K96" s="9"/>
     </row>
@@ -14412,7 +14427,7 @@
         <v>718</v>
       </c>
       <c r="C97" s="12" t="s">
-        <v>892</v>
+        <v>717</v>
       </c>
       <c r="D97" s="9" t="s">
         <v>410</v>
@@ -14421,16 +14436,18 @@
         <v>25</v>
       </c>
       <c r="F97" s="9" t="s">
-        <v>959</v>
+        <v>749</v>
       </c>
       <c r="G97" s="9" t="s">
-        <v>960</v>
+        <v>748</v>
       </c>
       <c r="H97" s="9"/>
       <c r="I97" s="28" t="s">
-        <v>961</v>
-      </c>
-      <c r="J97" s="26"/>
+        <v>750</v>
+      </c>
+      <c r="J97" s="26" t="s">
+        <v>751</v>
+      </c>
       <c r="K97" s="9"/>
     </row>
     <row r="98" spans="1:11" ht="13">
@@ -14438,30 +14455,28 @@
         <v>132</v>
       </c>
       <c r="B98" s="9" t="s">
-        <v>214</v>
+        <v>718</v>
       </c>
       <c r="C98" s="12" t="s">
-        <v>215</v>
+        <v>892</v>
       </c>
       <c r="D98" s="9" t="s">
-        <v>47</v>
+        <v>410</v>
       </c>
       <c r="E98" s="9" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="F98" s="9" t="s">
-        <v>216</v>
+        <v>959</v>
       </c>
       <c r="G98" s="9" t="s">
-        <v>568</v>
+        <v>960</v>
       </c>
       <c r="H98" s="9"/>
-      <c r="I98" s="10" t="s">
-        <v>217</v>
-      </c>
-      <c r="J98" s="26" t="s">
-        <v>569</v>
-      </c>
+      <c r="I98" s="28" t="s">
+        <v>961</v>
+      </c>
+      <c r="J98" s="26"/>
       <c r="K98" s="9"/>
     </row>
     <row r="99" spans="1:11" ht="13">
@@ -14472,26 +14487,26 @@
         <v>214</v>
       </c>
       <c r="C99" s="12" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D99" s="9" t="s">
-        <v>157</v>
+        <v>47</v>
       </c>
       <c r="E99" s="9" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="F99" s="9" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="G99" s="9" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="H99" s="9"/>
       <c r="I99" s="10" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="J99" s="26" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="K99" s="9"/>
     </row>
@@ -14500,29 +14515,29 @@
         <v>132</v>
       </c>
       <c r="B100" s="9" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="C100" s="12" t="s">
-        <v>572</v>
+        <v>218</v>
       </c>
       <c r="D100" s="9" t="s">
-        <v>410</v>
+        <v>157</v>
       </c>
       <c r="E100" s="9" t="s">
         <v>25</v>
       </c>
       <c r="F100" s="9" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="G100" s="9" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="H100" s="9"/>
       <c r="I100" s="10" t="s">
-        <v>574</v>
+        <v>220</v>
       </c>
       <c r="J100" s="26" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="K100" s="9"/>
     </row>
@@ -14531,29 +14546,29 @@
         <v>132</v>
       </c>
       <c r="B101" s="9" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="C101" s="12" t="s">
-        <v>226</v>
+        <v>572</v>
       </c>
       <c r="D101" s="9" t="s">
-        <v>418</v>
+        <v>410</v>
       </c>
       <c r="E101" s="9" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="F101" s="9" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="G101" s="9" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="H101" s="9"/>
       <c r="I101" s="10" t="s">
-        <v>228</v>
+        <v>574</v>
       </c>
       <c r="J101" s="26" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="K101" s="9"/>
     </row>
@@ -14565,26 +14580,26 @@
         <v>225</v>
       </c>
       <c r="C102" s="12" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="D102" s="9" t="s">
-        <v>410</v>
+        <v>418</v>
       </c>
       <c r="E102" s="9" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="F102" s="9" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="G102" s="9" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="H102" s="9"/>
       <c r="I102" s="10" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="J102" s="26" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="K102" s="9"/>
     </row>
@@ -14593,10 +14608,10 @@
         <v>132</v>
       </c>
       <c r="B103" s="9" t="s">
-        <v>580</v>
-      </c>
-      <c r="C103" s="9" t="s">
-        <v>581</v>
+        <v>225</v>
+      </c>
+      <c r="C103" s="12" t="s">
+        <v>229</v>
       </c>
       <c r="D103" s="9" t="s">
         <v>410</v>
@@ -14605,17 +14620,17 @@
         <v>25</v>
       </c>
       <c r="F103" s="9" t="s">
-        <v>582</v>
+        <v>230</v>
       </c>
       <c r="G103" s="9" t="s">
-        <v>583</v>
+        <v>578</v>
       </c>
       <c r="H103" s="9"/>
-      <c r="I103" s="11" t="s">
-        <v>584</v>
+      <c r="I103" s="10" t="s">
+        <v>231</v>
       </c>
       <c r="J103" s="26" t="s">
-        <v>585</v>
+        <v>579</v>
       </c>
       <c r="K103" s="9"/>
     </row>
@@ -14627,26 +14642,26 @@
         <v>580</v>
       </c>
       <c r="C104" s="9" t="s">
-        <v>834</v>
+        <v>581</v>
       </c>
       <c r="D104" s="9" t="s">
-        <v>117</v>
+        <v>410</v>
       </c>
       <c r="E104" s="9" t="s">
         <v>25</v>
       </c>
       <c r="F104" s="9" t="s">
-        <v>835</v>
+        <v>582</v>
       </c>
       <c r="G104" s="9" t="s">
-        <v>836</v>
+        <v>583</v>
       </c>
       <c r="H104" s="9"/>
-      <c r="I104" s="28" t="s">
-        <v>837</v>
+      <c r="I104" s="11" t="s">
+        <v>584</v>
       </c>
       <c r="J104" s="26" t="s">
-        <v>838</v>
+        <v>585</v>
       </c>
       <c r="K104" s="9"/>
     </row>
@@ -14658,7 +14673,7 @@
         <v>580</v>
       </c>
       <c r="C105" s="9" t="s">
-        <v>908</v>
+        <v>834</v>
       </c>
       <c r="D105" s="9" t="s">
         <v>117</v>
@@ -14667,17 +14682,17 @@
         <v>25</v>
       </c>
       <c r="F105" s="9" t="s">
-        <v>935</v>
+        <v>835</v>
       </c>
       <c r="G105" s="9" t="s">
-        <v>936</v>
+        <v>836</v>
       </c>
       <c r="H105" s="9"/>
       <c r="I105" s="28" t="s">
-        <v>937</v>
+        <v>837</v>
       </c>
       <c r="J105" s="26" t="s">
-        <v>938</v>
+        <v>838</v>
       </c>
       <c r="K105" s="9"/>
     </row>
@@ -14686,29 +14701,29 @@
         <v>132</v>
       </c>
       <c r="B106" s="9" t="s">
-        <v>232</v>
+        <v>580</v>
       </c>
       <c r="C106" s="9" t="s">
-        <v>233</v>
+        <v>908</v>
       </c>
       <c r="D106" s="9" t="s">
-        <v>410</v>
+        <v>117</v>
       </c>
       <c r="E106" s="9" t="s">
         <v>25</v>
       </c>
       <c r="F106" s="9" t="s">
-        <v>234</v>
+        <v>935</v>
       </c>
       <c r="G106" s="9" t="s">
-        <v>586</v>
+        <v>936</v>
       </c>
       <c r="H106" s="9"/>
-      <c r="I106" s="10" t="s">
-        <v>235</v>
+      <c r="I106" s="28" t="s">
+        <v>937</v>
       </c>
       <c r="J106" s="26" t="s">
-        <v>587</v>
+        <v>938</v>
       </c>
       <c r="K106" s="9"/>
     </row>
@@ -14717,29 +14732,29 @@
         <v>132</v>
       </c>
       <c r="B107" s="9" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="C107" s="9" t="s">
-        <v>381</v>
+        <v>233</v>
       </c>
       <c r="D107" s="9" t="s">
-        <v>382</v>
+        <v>410</v>
       </c>
       <c r="E107" s="9" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="F107" s="9" t="s">
-        <v>588</v>
+        <v>234</v>
       </c>
       <c r="G107" s="9" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="H107" s="9"/>
-      <c r="I107" s="11" t="s">
-        <v>590</v>
+      <c r="I107" s="10" t="s">
+        <v>235</v>
       </c>
       <c r="J107" s="26" t="s">
-        <v>591</v>
+        <v>587</v>
       </c>
       <c r="K107" s="9"/>
     </row>
@@ -14751,26 +14766,26 @@
         <v>236</v>
       </c>
       <c r="C108" s="9" t="s">
-        <v>237</v>
+        <v>381</v>
       </c>
       <c r="D108" s="9" t="s">
-        <v>410</v>
+        <v>382</v>
       </c>
       <c r="E108" s="9" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="F108" s="9" t="s">
-        <v>238</v>
+        <v>588</v>
       </c>
       <c r="G108" s="9" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="H108" s="9"/>
-      <c r="I108" s="10" t="s">
-        <v>239</v>
+      <c r="I108" s="11" t="s">
+        <v>590</v>
       </c>
       <c r="J108" s="26" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="K108" s="9"/>
     </row>
@@ -14782,26 +14797,26 @@
         <v>236</v>
       </c>
       <c r="C109" s="9" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="D109" s="9" t="s">
-        <v>241</v>
+        <v>410</v>
       </c>
       <c r="E109" s="9" t="s">
         <v>25</v>
       </c>
       <c r="F109" s="9" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="G109" s="9" t="s">
-        <v>1032</v>
+        <v>592</v>
       </c>
       <c r="H109" s="9"/>
       <c r="I109" s="10" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="J109" s="26" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="K109" s="9"/>
     </row>
@@ -14813,26 +14828,26 @@
         <v>236</v>
       </c>
       <c r="C110" s="9" t="s">
-        <v>786</v>
+        <v>240</v>
       </c>
       <c r="D110" s="9" t="s">
-        <v>117</v>
+        <v>241</v>
       </c>
       <c r="E110" s="9" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="F110" s="9" t="s">
-        <v>808</v>
+        <v>242</v>
       </c>
       <c r="G110" s="9" t="s">
-        <v>809</v>
+        <v>1032</v>
       </c>
       <c r="H110" s="9"/>
-      <c r="I110" s="28" t="s">
-        <v>810</v>
+      <c r="I110" s="10" t="s">
+        <v>243</v>
       </c>
       <c r="J110" s="26" t="s">
-        <v>811</v>
+        <v>594</v>
       </c>
       <c r="K110" s="9"/>
     </row>
@@ -14844,26 +14859,26 @@
         <v>236</v>
       </c>
       <c r="C111" s="9" t="s">
-        <v>907</v>
+        <v>786</v>
       </c>
       <c r="D111" s="9" t="s">
-        <v>418</v>
+        <v>117</v>
       </c>
       <c r="E111" s="9" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="F111" s="9" t="s">
-        <v>940</v>
+        <v>808</v>
       </c>
       <c r="G111" s="9" t="s">
-        <v>939</v>
+        <v>809</v>
       </c>
       <c r="H111" s="9"/>
       <c r="I111" s="28" t="s">
-        <v>941</v>
+        <v>810</v>
       </c>
       <c r="J111" s="26" t="s">
-        <v>942</v>
+        <v>811</v>
       </c>
       <c r="K111" s="9"/>
     </row>
@@ -14872,29 +14887,29 @@
         <v>132</v>
       </c>
       <c r="B112" s="9" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="C112" s="9" t="s">
-        <v>245</v>
+        <v>907</v>
       </c>
       <c r="D112" s="9" t="s">
-        <v>241</v>
+        <v>418</v>
       </c>
       <c r="E112" s="9" t="s">
         <v>25</v>
       </c>
       <c r="F112" s="9" t="s">
-        <v>246</v>
+        <v>940</v>
       </c>
       <c r="G112" s="9" t="s">
-        <v>595</v>
+        <v>939</v>
       </c>
       <c r="H112" s="9"/>
-      <c r="I112" s="10" t="s">
-        <v>247</v>
+      <c r="I112" s="28" t="s">
+        <v>941</v>
       </c>
       <c r="J112" s="26" t="s">
-        <v>596</v>
+        <v>942</v>
       </c>
       <c r="K112" s="9"/>
     </row>
@@ -14906,26 +14921,26 @@
         <v>244</v>
       </c>
       <c r="C113" s="9" t="s">
-        <v>167</v>
+        <v>245</v>
       </c>
       <c r="D113" s="9" t="s">
-        <v>410</v>
+        <v>241</v>
       </c>
       <c r="E113" s="9" t="s">
         <v>25</v>
       </c>
       <c r="F113" s="9" t="s">
-        <v>1023</v>
+        <v>246</v>
       </c>
       <c r="G113" s="9" t="s">
-        <v>1024</v>
+        <v>595</v>
       </c>
       <c r="H113" s="9"/>
-      <c r="I113" s="28" t="s">
-        <v>1025</v>
+      <c r="I113" s="10" t="s">
+        <v>247</v>
       </c>
       <c r="J113" s="26" t="s">
-        <v>1026</v>
+        <v>596</v>
       </c>
       <c r="K113" s="9"/>
     </row>
@@ -14934,33 +14949,31 @@
         <v>132</v>
       </c>
       <c r="B114" s="9" t="s">
-        <v>785</v>
+        <v>244</v>
       </c>
       <c r="C114" s="9" t="s">
-        <v>1033</v>
+        <v>167</v>
       </c>
       <c r="D114" s="9" t="s">
         <v>410</v>
       </c>
       <c r="E114" s="9" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="F114" s="9" t="s">
-        <v>1034</v>
+        <v>1023</v>
       </c>
       <c r="G114" s="9" t="s">
-        <v>1035</v>
+        <v>1024</v>
       </c>
       <c r="H114" s="9"/>
       <c r="I114" s="28" t="s">
-        <v>1036</v>
+        <v>1025</v>
       </c>
       <c r="J114" s="26" t="s">
-        <v>1037</v>
-      </c>
-      <c r="K114" s="9" t="s">
-        <v>1038</v>
-      </c>
+        <v>1026</v>
+      </c>
+      <c r="K114" s="9"/>
     </row>
     <row r="115" spans="1:11" ht="13">
       <c r="A115" s="9" t="s">
@@ -14970,57 +14983,59 @@
         <v>785</v>
       </c>
       <c r="C115" s="9" t="s">
-        <v>784</v>
+        <v>1033</v>
       </c>
       <c r="D115" s="9" t="s">
         <v>410</v>
       </c>
       <c r="E115" s="9" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="F115" s="9" t="s">
-        <v>812</v>
+        <v>1034</v>
       </c>
       <c r="G115" s="9" t="s">
-        <v>813</v>
+        <v>1035</v>
       </c>
       <c r="H115" s="9"/>
       <c r="I115" s="28" t="s">
-        <v>814</v>
+        <v>1036</v>
       </c>
       <c r="J115" s="26" t="s">
-        <v>815</v>
-      </c>
-      <c r="K115" s="9"/>
+        <v>1037</v>
+      </c>
+      <c r="K115" s="9" t="s">
+        <v>1038</v>
+      </c>
     </row>
     <row r="116" spans="1:11" ht="13">
       <c r="A116" s="9" t="s">
         <v>132</v>
       </c>
       <c r="B116" s="9" t="s">
-        <v>248</v>
+        <v>785</v>
       </c>
       <c r="C116" s="9" t="s">
-        <v>381</v>
+        <v>784</v>
       </c>
       <c r="D116" s="9" t="s">
-        <v>382</v>
+        <v>410</v>
       </c>
       <c r="E116" s="9" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="F116" s="9" t="s">
-        <v>597</v>
+        <v>812</v>
       </c>
       <c r="G116" s="9" t="s">
-        <v>598</v>
+        <v>813</v>
       </c>
       <c r="H116" s="9"/>
-      <c r="I116" s="10" t="s">
-        <v>599</v>
+      <c r="I116" s="28" t="s">
+        <v>814</v>
       </c>
       <c r="J116" s="26" t="s">
-        <v>600</v>
+        <v>815</v>
       </c>
       <c r="K116" s="9"/>
     </row>
@@ -15032,26 +15047,26 @@
         <v>248</v>
       </c>
       <c r="C117" s="9" t="s">
-        <v>249</v>
+        <v>381</v>
       </c>
       <c r="D117" s="9" t="s">
-        <v>117</v>
+        <v>382</v>
       </c>
       <c r="E117" s="9" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="F117" s="9" t="s">
-        <v>250</v>
+        <v>597</v>
       </c>
       <c r="G117" s="9" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="H117" s="9"/>
       <c r="I117" s="10" t="s">
-        <v>251</v>
+        <v>599</v>
       </c>
       <c r="J117" s="26" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="K117" s="9"/>
     </row>
@@ -15063,26 +15078,26 @@
         <v>248</v>
       </c>
       <c r="C118" s="9" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="D118" s="9" t="s">
-        <v>410</v>
+        <v>117</v>
       </c>
       <c r="E118" s="9" t="s">
         <v>25</v>
       </c>
       <c r="F118" s="9" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="G118" s="9" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="H118" s="9"/>
       <c r="I118" s="10" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="J118" s="26" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="K118" s="9"/>
     </row>
@@ -15094,26 +15109,26 @@
         <v>248</v>
       </c>
       <c r="C119" s="9" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="D119" s="9" t="s">
-        <v>117</v>
+        <v>410</v>
       </c>
       <c r="E119" s="9" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="F119" s="9" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="G119" s="9" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="H119" s="9"/>
       <c r="I119" s="10" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="J119" s="26" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="K119" s="9"/>
     </row>
@@ -15122,29 +15137,29 @@
         <v>132</v>
       </c>
       <c r="B120" s="9" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="C120" s="9" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="D120" s="9" t="s">
         <v>117</v>
       </c>
       <c r="E120" s="9" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="F120" s="9" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="G120" s="9" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="H120" s="9"/>
       <c r="I120" s="10" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="J120" s="26" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="K120" s="9"/>
     </row>
@@ -15153,29 +15168,29 @@
         <v>132</v>
       </c>
       <c r="B121" s="9" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="C121" s="9" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="D121" s="9" t="s">
-        <v>609</v>
+        <v>117</v>
       </c>
       <c r="E121" s="9" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="F121" s="9" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="G121" s="9" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="H121" s="9"/>
-      <c r="I121" s="11" t="s">
-        <v>266</v>
+      <c r="I121" s="10" t="s">
+        <v>261</v>
       </c>
       <c r="J121" s="26" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="K121" s="9"/>
     </row>
@@ -15187,26 +15202,26 @@
         <v>262</v>
       </c>
       <c r="C122" s="9" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="D122" s="9" t="s">
-        <v>410</v>
+        <v>609</v>
       </c>
       <c r="E122" s="9" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="F122" s="9" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="G122" s="9" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="H122" s="9"/>
       <c r="I122" s="11" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="J122" s="26" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="K122" s="9"/>
     </row>
@@ -15218,26 +15233,26 @@
         <v>262</v>
       </c>
       <c r="C123" s="9" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="D123" s="9" t="s">
-        <v>418</v>
+        <v>410</v>
       </c>
       <c r="E123" s="9" t="s">
         <v>25</v>
       </c>
       <c r="F123" s="9" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="G123" s="9" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="H123" s="9"/>
       <c r="I123" s="11" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="J123" s="26" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="K123" s="9"/>
     </row>
@@ -15249,26 +15264,26 @@
         <v>262</v>
       </c>
       <c r="C124" s="9" t="s">
-        <v>829</v>
+        <v>270</v>
       </c>
       <c r="D124" s="9" t="s">
-        <v>410</v>
+        <v>418</v>
       </c>
       <c r="E124" s="9" t="s">
         <v>25</v>
       </c>
       <c r="F124" s="9" t="s">
-        <v>830</v>
+        <v>271</v>
       </c>
       <c r="G124" s="9" t="s">
-        <v>831</v>
+        <v>614</v>
       </c>
       <c r="H124" s="9"/>
-      <c r="I124" s="28" t="s">
-        <v>832</v>
+      <c r="I124" s="11" t="s">
+        <v>272</v>
       </c>
       <c r="J124" s="26" t="s">
-        <v>833</v>
+        <v>615</v>
       </c>
       <c r="K124" s="9"/>
     </row>
@@ -15280,26 +15295,26 @@
         <v>262</v>
       </c>
       <c r="C125" s="9" t="s">
-        <v>782</v>
+        <v>829</v>
       </c>
       <c r="D125" s="9" t="s">
-        <v>117</v>
+        <v>410</v>
       </c>
       <c r="E125" s="9" t="s">
         <v>25</v>
       </c>
       <c r="F125" s="9" t="s">
-        <v>816</v>
+        <v>830</v>
       </c>
       <c r="G125" s="9" t="s">
-        <v>817</v>
+        <v>831</v>
       </c>
       <c r="H125" s="9"/>
       <c r="I125" s="28" t="s">
-        <v>818</v>
+        <v>832</v>
       </c>
       <c r="J125" s="26" t="s">
-        <v>819</v>
+        <v>833</v>
       </c>
       <c r="K125" s="9"/>
     </row>
@@ -15311,26 +15326,26 @@
         <v>262</v>
       </c>
       <c r="C126" s="9" t="s">
-        <v>893</v>
+        <v>782</v>
       </c>
       <c r="D126" s="9" t="s">
-        <v>418</v>
+        <v>117</v>
       </c>
       <c r="E126" s="9" t="s">
         <v>25</v>
       </c>
       <c r="F126" s="9" t="s">
-        <v>943</v>
+        <v>816</v>
       </c>
       <c r="G126" s="9" t="s">
-        <v>944</v>
+        <v>817</v>
       </c>
       <c r="H126" s="9"/>
       <c r="I126" s="28" t="s">
-        <v>945</v>
+        <v>818</v>
       </c>
       <c r="J126" s="26" t="s">
-        <v>946</v>
+        <v>819</v>
       </c>
       <c r="K126" s="9"/>
     </row>
@@ -15342,26 +15357,26 @@
         <v>262</v>
       </c>
       <c r="C127" s="9" t="s">
-        <v>783</v>
+        <v>893</v>
       </c>
       <c r="D127" s="9" t="s">
-        <v>117</v>
+        <v>418</v>
       </c>
       <c r="E127" s="9" t="s">
         <v>25</v>
       </c>
       <c r="F127" s="9" t="s">
-        <v>820</v>
+        <v>943</v>
       </c>
       <c r="G127" s="9" t="s">
-        <v>821</v>
+        <v>944</v>
       </c>
       <c r="H127" s="9"/>
       <c r="I127" s="28" t="s">
-        <v>822</v>
+        <v>945</v>
       </c>
       <c r="J127" s="26" t="s">
-        <v>823</v>
+        <v>946</v>
       </c>
       <c r="K127" s="9"/>
     </row>
@@ -15373,26 +15388,26 @@
         <v>262</v>
       </c>
       <c r="C128" s="9" t="s">
-        <v>273</v>
+        <v>783</v>
       </c>
       <c r="D128" s="9" t="s">
-        <v>609</v>
+        <v>117</v>
       </c>
       <c r="E128" s="9" t="s">
         <v>25</v>
       </c>
       <c r="F128" s="9" t="s">
-        <v>274</v>
+        <v>820</v>
       </c>
       <c r="G128" s="9" t="s">
-        <v>616</v>
+        <v>821</v>
       </c>
       <c r="H128" s="9"/>
-      <c r="I128" s="11" t="s">
-        <v>275</v>
+      <c r="I128" s="28" t="s">
+        <v>822</v>
       </c>
       <c r="J128" s="26" t="s">
-        <v>617</v>
+        <v>823</v>
       </c>
       <c r="K128" s="9"/>
     </row>
@@ -15404,26 +15419,26 @@
         <v>262</v>
       </c>
       <c r="C129" s="9" t="s">
-        <v>894</v>
+        <v>273</v>
       </c>
       <c r="D129" s="9" t="s">
-        <v>55</v>
+        <v>609</v>
       </c>
       <c r="E129" s="9" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="F129" s="9" t="s">
-        <v>947</v>
+        <v>274</v>
       </c>
       <c r="G129" s="9" t="s">
-        <v>948</v>
+        <v>616</v>
       </c>
       <c r="H129" s="9"/>
-      <c r="I129" s="28" t="s">
-        <v>949</v>
+      <c r="I129" s="11" t="s">
+        <v>275</v>
       </c>
       <c r="J129" s="26" t="s">
-        <v>950</v>
+        <v>617</v>
       </c>
       <c r="K129" s="9"/>
     </row>
@@ -15435,26 +15450,26 @@
         <v>262</v>
       </c>
       <c r="C130" s="9" t="s">
-        <v>720</v>
+        <v>894</v>
       </c>
       <c r="D130" s="9" t="s">
-        <v>398</v>
+        <v>55</v>
       </c>
       <c r="E130" s="9" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="F130" s="9" t="s">
-        <v>752</v>
+        <v>947</v>
       </c>
       <c r="G130" s="9" t="s">
-        <v>753</v>
+        <v>948</v>
       </c>
       <c r="H130" s="9"/>
       <c r="I130" s="28" t="s">
-        <v>754</v>
+        <v>949</v>
       </c>
       <c r="J130" s="26" t="s">
-        <v>755</v>
+        <v>950</v>
       </c>
       <c r="K130" s="9"/>
     </row>
@@ -15466,26 +15481,26 @@
         <v>262</v>
       </c>
       <c r="C131" s="9" t="s">
-        <v>276</v>
+        <v>720</v>
       </c>
       <c r="D131" s="9" t="s">
         <v>398</v>
       </c>
       <c r="E131" s="9" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="F131" s="9" t="s">
-        <v>277</v>
+        <v>752</v>
       </c>
       <c r="G131" s="9" t="s">
-        <v>618</v>
+        <v>753</v>
       </c>
       <c r="H131" s="9"/>
-      <c r="I131" s="11" t="s">
-        <v>619</v>
+      <c r="I131" s="28" t="s">
+        <v>754</v>
       </c>
       <c r="J131" s="26" t="s">
-        <v>1011</v>
+        <v>755</v>
       </c>
       <c r="K131" s="9"/>
     </row>
@@ -15497,26 +15512,26 @@
         <v>262</v>
       </c>
       <c r="C132" s="9" t="s">
-        <v>1006</v>
+        <v>276</v>
       </c>
       <c r="D132" s="9" t="s">
-        <v>55</v>
+        <v>398</v>
       </c>
       <c r="E132" s="9" t="s">
-        <v>39</v>
+        <v>14</v>
       </c>
       <c r="F132" s="9" t="s">
-        <v>1007</v>
+        <v>277</v>
       </c>
       <c r="G132" s="9" t="s">
-        <v>1008</v>
+        <v>618</v>
       </c>
       <c r="H132" s="9"/>
-      <c r="I132" s="28" t="s">
-        <v>1009</v>
+      <c r="I132" s="11" t="s">
+        <v>619</v>
       </c>
       <c r="J132" s="26" t="s">
-        <v>1010</v>
+        <v>1011</v>
       </c>
       <c r="K132" s="9"/>
     </row>
@@ -15525,29 +15540,29 @@
         <v>132</v>
       </c>
       <c r="B133" s="9" t="s">
-        <v>898</v>
+        <v>262</v>
       </c>
       <c r="C133" s="9" t="s">
-        <v>897</v>
+        <v>1006</v>
       </c>
       <c r="D133" s="9" t="s">
-        <v>398</v>
+        <v>55</v>
       </c>
       <c r="E133" s="9" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="F133" s="9" t="s">
-        <v>951</v>
+        <v>1007</v>
       </c>
       <c r="G133" s="9" t="s">
-        <v>953</v>
+        <v>1008</v>
       </c>
       <c r="H133" s="9"/>
       <c r="I133" s="28" t="s">
-        <v>952</v>
+        <v>1009</v>
       </c>
       <c r="J133" s="26" t="s">
-        <v>954</v>
+        <v>1010</v>
       </c>
       <c r="K133" s="9"/>
     </row>
@@ -15556,7 +15571,7 @@
         <v>132</v>
       </c>
       <c r="B134" s="9" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="C134" s="9" t="s">
         <v>897</v>
@@ -15568,50 +15583,50 @@
         <v>14</v>
       </c>
       <c r="F134" s="9" t="s">
-        <v>955</v>
+        <v>951</v>
       </c>
       <c r="G134" s="9" t="s">
-        <v>956</v>
+        <v>953</v>
       </c>
       <c r="H134" s="9"/>
       <c r="I134" s="28" t="s">
+        <v>952</v>
+      </c>
+      <c r="J134" s="26" t="s">
+        <v>954</v>
+      </c>
+      <c r="K134" s="9"/>
+    </row>
+    <row r="135" spans="1:11" ht="13">
+      <c r="A135" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="B135" s="9" t="s">
+        <v>900</v>
+      </c>
+      <c r="C135" s="9" t="s">
+        <v>897</v>
+      </c>
+      <c r="D135" s="9" t="s">
+        <v>398</v>
+      </c>
+      <c r="E135" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F135" s="9" t="s">
+        <v>955</v>
+      </c>
+      <c r="G135" s="9" t="s">
+        <v>956</v>
+      </c>
+      <c r="H135" s="9"/>
+      <c r="I135" s="28" t="s">
         <v>957</v>
       </c>
-      <c r="J134" s="26" t="s">
+      <c r="J135" s="26" t="s">
         <v>958</v>
       </c>
-      <c r="K134" s="9"/>
-    </row>
-    <row r="135" spans="1:11" ht="13">
-      <c r="A135" s="14" t="s">
-        <v>278</v>
-      </c>
-      <c r="B135" s="14" t="s">
-        <v>620</v>
-      </c>
-      <c r="C135" s="14" t="s">
-        <v>621</v>
-      </c>
-      <c r="D135" s="14" t="s">
-        <v>157</v>
-      </c>
-      <c r="E135" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="F135" s="14" t="s">
-        <v>622</v>
-      </c>
-      <c r="G135" s="14" t="s">
-        <v>623</v>
-      </c>
-      <c r="H135" s="14"/>
-      <c r="I135" s="16" t="s">
-        <v>624</v>
-      </c>
-      <c r="J135" s="17" t="s">
-        <v>625</v>
-      </c>
-      <c r="K135" s="14"/>
+      <c r="K135" s="9"/>
     </row>
     <row r="136" spans="1:11" ht="13">
       <c r="A136" s="14" t="s">
@@ -15621,26 +15636,26 @@
         <v>620</v>
       </c>
       <c r="C136" s="14" t="s">
-        <v>626</v>
+        <v>621</v>
       </c>
       <c r="D136" s="14" t="s">
-        <v>410</v>
+        <v>157</v>
       </c>
       <c r="E136" s="14" t="s">
         <v>25</v>
       </c>
       <c r="F136" s="14" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="G136" s="14" t="s">
-        <v>628</v>
+        <v>623</v>
       </c>
       <c r="H136" s="14"/>
       <c r="I136" s="16" t="s">
-        <v>629</v>
+        <v>624</v>
       </c>
       <c r="J136" s="17" t="s">
-        <v>630</v>
+        <v>625</v>
       </c>
       <c r="K136" s="14"/>
     </row>
@@ -15652,7 +15667,7 @@
         <v>620</v>
       </c>
       <c r="C137" s="14" t="s">
-        <v>892</v>
+        <v>626</v>
       </c>
       <c r="D137" s="14" t="s">
         <v>410</v>
@@ -15661,16 +15676,18 @@
         <v>25</v>
       </c>
       <c r="F137" s="14" t="s">
-        <v>962</v>
+        <v>627</v>
       </c>
       <c r="G137" s="14" t="s">
-        <v>964</v>
+        <v>628</v>
       </c>
       <c r="H137" s="14"/>
-      <c r="I137" s="29" t="s">
-        <v>965</v>
-      </c>
-      <c r="J137" s="17"/>
+      <c r="I137" s="16" t="s">
+        <v>629</v>
+      </c>
+      <c r="J137" s="17" t="s">
+        <v>630</v>
+      </c>
       <c r="K137" s="14"/>
     </row>
     <row r="138" spans="1:11" ht="13">
@@ -15690,14 +15707,14 @@
         <v>25</v>
       </c>
       <c r="F138" s="14" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="G138" s="14" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
       <c r="H138" s="14"/>
       <c r="I138" s="29" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
       <c r="J138" s="17"/>
       <c r="K138" s="14"/>
@@ -15707,30 +15724,28 @@
         <v>278</v>
       </c>
       <c r="B139" s="14" t="s">
-        <v>279</v>
+        <v>620</v>
       </c>
       <c r="C139" s="14" t="s">
-        <v>895</v>
+        <v>892</v>
       </c>
       <c r="D139" s="14" t="s">
-        <v>47</v>
+        <v>410</v>
       </c>
       <c r="E139" s="14" t="s">
         <v>25</v>
       </c>
       <c r="F139" s="14" t="s">
-        <v>968</v>
+        <v>963</v>
       </c>
       <c r="G139" s="14" t="s">
-        <v>969</v>
+        <v>966</v>
       </c>
       <c r="H139" s="14"/>
       <c r="I139" s="29" t="s">
-        <v>970</v>
-      </c>
-      <c r="J139" s="17" t="s">
-        <v>971</v>
-      </c>
+        <v>967</v>
+      </c>
+      <c r="J139" s="17"/>
       <c r="K139" s="14"/>
     </row>
     <row r="140" spans="1:11" ht="13">
@@ -15741,26 +15756,26 @@
         <v>279</v>
       </c>
       <c r="C140" s="14" t="s">
-        <v>631</v>
+        <v>895</v>
       </c>
       <c r="D140" s="14" t="s">
         <v>47</v>
       </c>
       <c r="E140" s="14" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="F140" s="14" t="s">
-        <v>632</v>
+        <v>968</v>
       </c>
       <c r="G140" s="14" t="s">
-        <v>633</v>
+        <v>969</v>
       </c>
       <c r="H140" s="14"/>
-      <c r="I140" s="15" t="s">
-        <v>634</v>
+      <c r="I140" s="29" t="s">
+        <v>970</v>
       </c>
       <c r="J140" s="17" t="s">
-        <v>635</v>
+        <v>971</v>
       </c>
       <c r="K140" s="14"/>
     </row>
@@ -15772,26 +15787,26 @@
         <v>279</v>
       </c>
       <c r="C141" s="14" t="s">
-        <v>636</v>
+        <v>631</v>
       </c>
       <c r="D141" s="14" t="s">
-        <v>157</v>
+        <v>47</v>
       </c>
       <c r="E141" s="14" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="F141" s="14" t="s">
-        <v>637</v>
+        <v>632</v>
       </c>
       <c r="G141" s="14" t="s">
-        <v>638</v>
+        <v>633</v>
       </c>
       <c r="H141" s="14"/>
       <c r="I141" s="15" t="s">
-        <v>639</v>
+        <v>634</v>
       </c>
       <c r="J141" s="17" t="s">
-        <v>640</v>
+        <v>635</v>
       </c>
       <c r="K141" s="14"/>
     </row>
@@ -15803,26 +15818,26 @@
         <v>279</v>
       </c>
       <c r="C142" s="14" t="s">
-        <v>641</v>
+        <v>636</v>
       </c>
       <c r="D142" s="14" t="s">
-        <v>410</v>
+        <v>157</v>
       </c>
       <c r="E142" s="14" t="s">
         <v>25</v>
       </c>
       <c r="F142" s="14" t="s">
-        <v>642</v>
+        <v>637</v>
       </c>
       <c r="G142" s="14" t="s">
-        <v>643</v>
+        <v>638</v>
       </c>
       <c r="H142" s="14"/>
       <c r="I142" s="15" t="s">
-        <v>644</v>
+        <v>639</v>
       </c>
       <c r="J142" s="17" t="s">
-        <v>645</v>
+        <v>640</v>
       </c>
       <c r="K142" s="14"/>
     </row>
@@ -15834,25 +15849,27 @@
         <v>279</v>
       </c>
       <c r="C143" s="14" t="s">
-        <v>381</v>
+        <v>641</v>
       </c>
       <c r="D143" s="14" t="s">
-        <v>382</v>
+        <v>410</v>
       </c>
       <c r="E143" s="14" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="F143" s="14" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
       <c r="G143" s="14" t="s">
-        <v>647</v>
+        <v>643</v>
       </c>
       <c r="H143" s="14"/>
       <c r="I143" s="15" t="s">
-        <v>648</v>
-      </c>
-      <c r="J143" s="17"/>
+        <v>644</v>
+      </c>
+      <c r="J143" s="17" t="s">
+        <v>645</v>
+      </c>
       <c r="K143" s="14"/>
     </row>
     <row r="144" spans="1:11" ht="13">
@@ -15863,27 +15880,25 @@
         <v>279</v>
       </c>
       <c r="C144" s="14" t="s">
-        <v>87</v>
+        <v>381</v>
       </c>
       <c r="D144" s="14" t="s">
-        <v>410</v>
+        <v>382</v>
       </c>
       <c r="E144" s="14" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="F144" s="14" t="s">
-        <v>972</v>
+        <v>646</v>
       </c>
       <c r="G144" s="14" t="s">
-        <v>973</v>
+        <v>647</v>
       </c>
       <c r="H144" s="14"/>
-      <c r="I144" s="29" t="s">
-        <v>974</v>
-      </c>
-      <c r="J144" s="17" t="s">
-        <v>975</v>
-      </c>
+      <c r="I144" s="15" t="s">
+        <v>648</v>
+      </c>
+      <c r="J144" s="17"/>
       <c r="K144" s="14"/>
     </row>
     <row r="145" spans="1:11" ht="13">
@@ -15894,26 +15909,26 @@
         <v>279</v>
       </c>
       <c r="C145" s="14" t="s">
-        <v>280</v>
+        <v>87</v>
       </c>
       <c r="D145" s="14" t="s">
-        <v>157</v>
+        <v>410</v>
       </c>
       <c r="E145" s="14" t="s">
         <v>25</v>
       </c>
       <c r="F145" s="14" t="s">
-        <v>281</v>
+        <v>972</v>
       </c>
       <c r="G145" s="14" t="s">
-        <v>649</v>
+        <v>973</v>
       </c>
       <c r="H145" s="14"/>
-      <c r="I145" s="15" t="s">
-        <v>282</v>
+      <c r="I145" s="29" t="s">
+        <v>974</v>
       </c>
       <c r="J145" s="17" t="s">
-        <v>650</v>
+        <v>975</v>
       </c>
       <c r="K145" s="14"/>
     </row>
@@ -15925,26 +15940,26 @@
         <v>279</v>
       </c>
       <c r="C146" s="14" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="D146" s="14" t="s">
-        <v>410</v>
+        <v>157</v>
       </c>
       <c r="E146" s="14" t="s">
         <v>25</v>
       </c>
       <c r="F146" s="14" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="G146" s="14" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="H146" s="14"/>
       <c r="I146" s="15" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="J146" s="17" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="K146" s="14"/>
     </row>
@@ -15956,26 +15971,26 @@
         <v>279</v>
       </c>
       <c r="C147" s="14" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="D147" s="14" t="s">
-        <v>418</v>
+        <v>410</v>
       </c>
       <c r="E147" s="14" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="F147" s="14" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="G147" s="14" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="H147" s="14"/>
-      <c r="I147" s="16" t="s">
-        <v>288</v>
+      <c r="I147" s="15" t="s">
+        <v>285</v>
       </c>
       <c r="J147" s="17" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="K147" s="14"/>
     </row>
@@ -15987,26 +16002,26 @@
         <v>279</v>
       </c>
       <c r="C148" s="14" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="D148" s="14" t="s">
-        <v>117</v>
+        <v>418</v>
       </c>
       <c r="E148" s="14" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="F148" s="14" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="G148" s="14" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="H148" s="14"/>
       <c r="I148" s="16" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="J148" s="17" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="K148" s="14"/>
     </row>
@@ -16018,26 +16033,26 @@
         <v>279</v>
       </c>
       <c r="C149" s="14" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D149" s="14" t="s">
-        <v>47</v>
+        <v>117</v>
       </c>
       <c r="E149" s="14" t="s">
         <v>25</v>
       </c>
       <c r="F149" s="14" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="G149" s="14" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="H149" s="14"/>
       <c r="I149" s="16" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="J149" s="17" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="K149" s="14"/>
     </row>
@@ -16049,26 +16064,26 @@
         <v>279</v>
       </c>
       <c r="C150" s="14" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="D150" s="14" t="s">
-        <v>410</v>
+        <v>47</v>
       </c>
       <c r="E150" s="14" t="s">
         <v>25</v>
       </c>
       <c r="F150" s="14" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="G150" s="14" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="H150" s="14"/>
       <c r="I150" s="16" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="J150" s="17" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="K150" s="14"/>
     </row>
@@ -16080,7 +16095,7 @@
         <v>279</v>
       </c>
       <c r="C151" s="14" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="D151" s="14" t="s">
         <v>410</v>
@@ -16089,17 +16104,17 @@
         <v>25</v>
       </c>
       <c r="F151" s="14" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="G151" s="14" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="H151" s="14"/>
       <c r="I151" s="16" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="J151" s="17" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="K151" s="14"/>
     </row>
@@ -16111,26 +16126,26 @@
         <v>279</v>
       </c>
       <c r="C152" s="14" t="s">
-        <v>191</v>
+        <v>298</v>
       </c>
       <c r="D152" s="14" t="s">
-        <v>117</v>
+        <v>410</v>
       </c>
       <c r="E152" s="14" t="s">
         <v>25</v>
       </c>
       <c r="F152" s="14" t="s">
-        <v>756</v>
+        <v>299</v>
       </c>
       <c r="G152" s="14" t="s">
-        <v>757</v>
+        <v>661</v>
       </c>
       <c r="H152" s="14"/>
-      <c r="I152" s="29" t="s">
-        <v>758</v>
+      <c r="I152" s="16" t="s">
+        <v>300</v>
       </c>
       <c r="J152" s="17" t="s">
-        <v>555</v>
+        <v>662</v>
       </c>
       <c r="K152" s="14"/>
     </row>
@@ -16142,26 +16157,26 @@
         <v>279</v>
       </c>
       <c r="C153" s="14" t="s">
-        <v>863</v>
+        <v>191</v>
       </c>
       <c r="D153" s="14" t="s">
-        <v>55</v>
+        <v>117</v>
       </c>
       <c r="E153" s="14" t="s">
         <v>25</v>
       </c>
       <c r="F153" s="14" t="s">
-        <v>864</v>
+        <v>756</v>
       </c>
       <c r="G153" s="14" t="s">
-        <v>865</v>
+        <v>757</v>
       </c>
       <c r="H153" s="14"/>
       <c r="I153" s="29" t="s">
-        <v>866</v>
+        <v>758</v>
       </c>
       <c r="J153" s="17" t="s">
-        <v>867</v>
+        <v>555</v>
       </c>
       <c r="K153" s="14"/>
     </row>
@@ -16173,26 +16188,26 @@
         <v>279</v>
       </c>
       <c r="C154" s="14" t="s">
-        <v>897</v>
+        <v>863</v>
       </c>
       <c r="D154" s="14" t="s">
-        <v>398</v>
+        <v>55</v>
       </c>
       <c r="E154" s="14" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="F154" s="14" t="s">
-        <v>976</v>
+        <v>864</v>
       </c>
       <c r="G154" s="14" t="s">
-        <v>978</v>
+        <v>865</v>
       </c>
       <c r="H154" s="14"/>
       <c r="I154" s="29" t="s">
-        <v>979</v>
+        <v>866</v>
       </c>
       <c r="J154" s="17" t="s">
-        <v>980</v>
+        <v>867</v>
       </c>
       <c r="K154" s="14"/>
     </row>
@@ -16213,17 +16228,17 @@
         <v>14</v>
       </c>
       <c r="F155" s="14" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="G155" s="14" t="s">
-        <v>981</v>
+        <v>978</v>
       </c>
       <c r="H155" s="14"/>
       <c r="I155" s="29" t="s">
-        <v>982</v>
+        <v>979</v>
       </c>
       <c r="J155" s="17" t="s">
-        <v>983</v>
+        <v>980</v>
       </c>
       <c r="K155" s="14"/>
     </row>
@@ -16235,26 +16250,26 @@
         <v>279</v>
       </c>
       <c r="C156" s="14" t="s">
-        <v>896</v>
+        <v>897</v>
       </c>
       <c r="D156" s="14" t="s">
-        <v>410</v>
+        <v>398</v>
       </c>
       <c r="E156" s="14" t="s">
         <v>14</v>
       </c>
       <c r="F156" s="14" t="s">
-        <v>984</v>
+        <v>977</v>
       </c>
       <c r="G156" s="14" t="s">
-        <v>985</v>
+        <v>981</v>
       </c>
       <c r="H156" s="14"/>
       <c r="I156" s="29" t="s">
-        <v>986</v>
+        <v>982</v>
       </c>
       <c r="J156" s="17" t="s">
-        <v>987</v>
+        <v>983</v>
       </c>
       <c r="K156" s="14"/>
     </row>
@@ -16263,29 +16278,29 @@
         <v>278</v>
       </c>
       <c r="B157" s="14" t="s">
-        <v>301</v>
+        <v>279</v>
       </c>
       <c r="C157" s="14" t="s">
-        <v>302</v>
+        <v>896</v>
       </c>
       <c r="D157" s="14" t="s">
-        <v>117</v>
+        <v>410</v>
       </c>
       <c r="E157" s="14" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="F157" s="14" t="s">
-        <v>303</v>
+        <v>984</v>
       </c>
       <c r="G157" s="14" t="s">
-        <v>663</v>
+        <v>985</v>
       </c>
       <c r="H157" s="14"/>
-      <c r="I157" s="15" t="s">
-        <v>304</v>
+      <c r="I157" s="29" t="s">
+        <v>986</v>
       </c>
       <c r="J157" s="17" t="s">
-        <v>664</v>
+        <v>987</v>
       </c>
       <c r="K157" s="14"/>
     </row>
@@ -16297,26 +16312,26 @@
         <v>301</v>
       </c>
       <c r="C158" s="14" t="s">
-        <v>381</v>
+        <v>302</v>
       </c>
       <c r="D158" s="14" t="s">
-        <v>382</v>
+        <v>117</v>
       </c>
       <c r="E158" s="14" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="F158" s="14" t="s">
-        <v>665</v>
+        <v>303</v>
       </c>
       <c r="G158" s="14" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
       <c r="H158" s="14"/>
       <c r="I158" s="15" t="s">
-        <v>667</v>
+        <v>304</v>
       </c>
       <c r="J158" s="17" t="s">
-        <v>668</v>
+        <v>664</v>
       </c>
       <c r="K158" s="14"/>
     </row>
@@ -16325,29 +16340,29 @@
         <v>278</v>
       </c>
       <c r="B159" s="14" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="C159" s="14" t="s">
-        <v>306</v>
+        <v>381</v>
       </c>
       <c r="D159" s="14" t="s">
-        <v>410</v>
+        <v>382</v>
       </c>
       <c r="E159" s="14" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="F159" s="14" t="s">
-        <v>307</v>
+        <v>665</v>
       </c>
       <c r="G159" s="14" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
       <c r="H159" s="14"/>
       <c r="I159" s="15" t="s">
-        <v>308</v>
+        <v>667</v>
       </c>
       <c r="J159" s="17" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="K159" s="14"/>
     </row>
@@ -16359,7 +16374,7 @@
         <v>305</v>
       </c>
       <c r="C160" s="14" t="s">
-        <v>298</v>
+        <v>306</v>
       </c>
       <c r="D160" s="14" t="s">
         <v>410</v>
@@ -16368,17 +16383,17 @@
         <v>25</v>
       </c>
       <c r="F160" s="14" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="G160" s="14" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="H160" s="14"/>
       <c r="I160" s="15" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="J160" s="17" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="K160" s="14"/>
     </row>
@@ -16390,26 +16405,26 @@
         <v>305</v>
       </c>
       <c r="C161" s="14" t="s">
-        <v>311</v>
+        <v>298</v>
       </c>
       <c r="D161" s="14" t="s">
-        <v>312</v>
+        <v>410</v>
       </c>
       <c r="E161" s="14" t="s">
         <v>25</v>
       </c>
       <c r="F161" s="14" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="G161" s="14" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="H161" s="14"/>
       <c r="I161" s="15" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="J161" s="17" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="K161" s="14"/>
     </row>
@@ -16421,26 +16436,26 @@
         <v>305</v>
       </c>
       <c r="C162" s="14" t="s">
-        <v>725</v>
+        <v>311</v>
       </c>
       <c r="D162" s="14" t="s">
-        <v>410</v>
+        <v>312</v>
       </c>
       <c r="E162" s="14" t="s">
         <v>25</v>
       </c>
       <c r="F162" s="14" t="s">
-        <v>759</v>
+        <v>313</v>
       </c>
       <c r="G162" s="14" t="s">
-        <v>760</v>
+        <v>673</v>
       </c>
       <c r="H162" s="14"/>
-      <c r="I162" s="29" t="s">
-        <v>761</v>
+      <c r="I162" s="15" t="s">
+        <v>314</v>
       </c>
       <c r="J162" s="17" t="s">
-        <v>762</v>
+        <v>674</v>
       </c>
       <c r="K162" s="14"/>
     </row>
@@ -16449,10 +16464,10 @@
         <v>278</v>
       </c>
       <c r="B163" s="14" t="s">
-        <v>315</v>
+        <v>305</v>
       </c>
       <c r="C163" s="14" t="s">
-        <v>316</v>
+        <v>725</v>
       </c>
       <c r="D163" s="14" t="s">
         <v>410</v>
@@ -16461,17 +16476,17 @@
         <v>25</v>
       </c>
       <c r="F163" s="14" t="s">
-        <v>317</v>
+        <v>759</v>
       </c>
       <c r="G163" s="14" t="s">
-        <v>675</v>
+        <v>760</v>
       </c>
       <c r="H163" s="14"/>
-      <c r="I163" s="15" t="s">
-        <v>318</v>
+      <c r="I163" s="29" t="s">
+        <v>761</v>
       </c>
       <c r="J163" s="17" t="s">
-        <v>676</v>
+        <v>762</v>
       </c>
       <c r="K163" s="14"/>
     </row>
@@ -16483,26 +16498,26 @@
         <v>315</v>
       </c>
       <c r="C164" s="14" t="s">
-        <v>716</v>
+        <v>316</v>
       </c>
       <c r="D164" s="14" t="s">
-        <v>55</v>
+        <v>410</v>
       </c>
       <c r="E164" s="14" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="F164" s="14" t="s">
-        <v>763</v>
+        <v>317</v>
       </c>
       <c r="G164" s="14" t="s">
-        <v>764</v>
+        <v>675</v>
       </c>
       <c r="H164" s="14"/>
-      <c r="I164" s="29" t="s">
-        <v>765</v>
+      <c r="I164" s="15" t="s">
+        <v>318</v>
       </c>
       <c r="J164" s="17" t="s">
-        <v>766</v>
+        <v>676</v>
       </c>
       <c r="K164" s="14"/>
     </row>
@@ -16514,26 +16529,26 @@
         <v>315</v>
       </c>
       <c r="C165" s="14" t="s">
-        <v>787</v>
+        <v>716</v>
       </c>
       <c r="D165" s="14" t="s">
-        <v>410</v>
+        <v>55</v>
       </c>
       <c r="E165" s="14" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="F165" s="14" t="s">
-        <v>788</v>
+        <v>763</v>
       </c>
       <c r="G165" s="14" t="s">
-        <v>789</v>
+        <v>764</v>
       </c>
       <c r="H165" s="14"/>
       <c r="I165" s="29" t="s">
-        <v>790</v>
+        <v>765</v>
       </c>
       <c r="J165" s="17" t="s">
-        <v>791</v>
+        <v>766</v>
       </c>
       <c r="K165" s="14"/>
     </row>
@@ -16545,26 +16560,26 @@
         <v>315</v>
       </c>
       <c r="C166" s="14" t="s">
-        <v>1019</v>
+        <v>787</v>
       </c>
       <c r="D166" s="14" t="s">
-        <v>418</v>
+        <v>410</v>
       </c>
       <c r="E166" s="14" t="s">
         <v>25</v>
       </c>
       <c r="F166" s="14" t="s">
-        <v>1018</v>
+        <v>788</v>
       </c>
       <c r="G166" s="14" t="s">
-        <v>1020</v>
+        <v>789</v>
       </c>
       <c r="H166" s="14"/>
       <c r="I166" s="29" t="s">
-        <v>1021</v>
+        <v>790</v>
       </c>
       <c r="J166" s="17" t="s">
-        <v>1022</v>
+        <v>791</v>
       </c>
       <c r="K166" s="14"/>
     </row>
@@ -16573,29 +16588,29 @@
         <v>278</v>
       </c>
       <c r="B167" s="14" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="C167" s="14" t="s">
-        <v>320</v>
+        <v>1019</v>
       </c>
       <c r="D167" s="14" t="s">
-        <v>410</v>
+        <v>418</v>
       </c>
       <c r="E167" s="14" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="F167" s="14" t="s">
-        <v>677</v>
+        <v>1018</v>
       </c>
       <c r="G167" s="14" t="s">
-        <v>678</v>
+        <v>1020</v>
       </c>
       <c r="H167" s="14"/>
-      <c r="I167" s="16" t="s">
-        <v>679</v>
+      <c r="I167" s="29" t="s">
+        <v>1021</v>
       </c>
       <c r="J167" s="17" t="s">
-        <v>680</v>
+        <v>1022</v>
       </c>
       <c r="K167" s="14"/>
     </row>
@@ -16607,7 +16622,7 @@
         <v>319</v>
       </c>
       <c r="C168" s="14" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="D168" s="14" t="s">
         <v>410</v>
@@ -16616,17 +16631,17 @@
         <v>14</v>
       </c>
       <c r="F168" s="14" t="s">
-        <v>324</v>
+        <v>677</v>
       </c>
       <c r="G168" s="14" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="H168" s="14"/>
-      <c r="I168" s="15" t="s">
-        <v>325</v>
+      <c r="I168" s="16" t="s">
+        <v>679</v>
       </c>
       <c r="J168" s="17" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="K168" s="14"/>
     </row>
@@ -16638,7 +16653,7 @@
         <v>319</v>
       </c>
       <c r="C169" s="14" t="s">
-        <v>683</v>
+        <v>323</v>
       </c>
       <c r="D169" s="14" t="s">
         <v>410</v>
@@ -16647,17 +16662,17 @@
         <v>14</v>
       </c>
       <c r="F169" s="14" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="G169" s="14" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
       <c r="H169" s="14"/>
       <c r="I169" s="15" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="J169" s="17" t="s">
-        <v>685</v>
+        <v>682</v>
       </c>
       <c r="K169" s="14"/>
     </row>
@@ -16666,29 +16681,29 @@
         <v>278</v>
       </c>
       <c r="B170" s="14" t="s">
-        <v>329</v>
+        <v>319</v>
       </c>
       <c r="C170" s="14" t="s">
-        <v>167</v>
+        <v>683</v>
       </c>
       <c r="D170" s="14" t="s">
         <v>410</v>
       </c>
       <c r="E170" s="14" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="F170" s="14" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="G170" s="14" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="H170" s="14"/>
       <c r="I170" s="15" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="J170" s="17" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="K170" s="14"/>
     </row>
@@ -16700,26 +16715,26 @@
         <v>329</v>
       </c>
       <c r="C171" s="14" t="s">
-        <v>332</v>
+        <v>167</v>
       </c>
       <c r="D171" s="14" t="s">
-        <v>418</v>
+        <v>410</v>
       </c>
       <c r="E171" s="14" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="F171" s="14" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="G171" s="14" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="H171" s="14"/>
       <c r="I171" s="15" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="J171" s="17" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="K171" s="14"/>
     </row>
@@ -16731,26 +16746,26 @@
         <v>329</v>
       </c>
       <c r="C172" s="14" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="D172" s="14" t="s">
-        <v>47</v>
+        <v>418</v>
       </c>
       <c r="E172" s="14" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="F172" s="14" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="G172" s="14" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="H172" s="14"/>
       <c r="I172" s="15" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="J172" s="17" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="K172" s="14"/>
     </row>
@@ -16762,26 +16777,26 @@
         <v>329</v>
       </c>
       <c r="C173" s="14" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="D173" s="14" t="s">
-        <v>117</v>
+        <v>47</v>
       </c>
       <c r="E173" s="14" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="F173" s="14" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="G173" s="14" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="H173" s="14"/>
       <c r="I173" s="15" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="J173" s="17" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="K173" s="14"/>
     </row>
@@ -16793,26 +16808,26 @@
         <v>329</v>
       </c>
       <c r="C174" s="14" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="D174" s="14" t="s">
-        <v>342</v>
+        <v>117</v>
       </c>
       <c r="E174" s="14" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="F174" s="14" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="G174" s="14" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="H174" s="14"/>
       <c r="I174" s="15" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="J174" s="17" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="K174" s="14"/>
     </row>
@@ -16824,26 +16839,26 @@
         <v>329</v>
       </c>
       <c r="C175" s="14" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="D175" s="14" t="s">
-        <v>47</v>
+        <v>342</v>
       </c>
       <c r="E175" s="14" t="s">
         <v>14</v>
       </c>
       <c r="F175" s="14" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="G175" s="14" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="H175" s="14"/>
       <c r="I175" s="15" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="J175" s="17" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="K175" s="14"/>
     </row>
@@ -16855,25 +16870,27 @@
         <v>329</v>
       </c>
       <c r="C176" s="14" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="D176" s="14" t="s">
-        <v>312</v>
+        <v>47</v>
       </c>
       <c r="E176" s="14" t="s">
         <v>14</v>
       </c>
       <c r="F176" s="14" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="G176" s="14" t="s">
-        <v>1017</v>
+        <v>696</v>
       </c>
       <c r="H176" s="14"/>
-      <c r="I176" s="29" t="s">
-        <v>344</v>
-      </c>
-      <c r="J176" s="17"/>
+      <c r="I176" s="15" t="s">
+        <v>347</v>
+      </c>
+      <c r="J176" s="17" t="s">
+        <v>697</v>
+      </c>
       <c r="K176" s="14"/>
     </row>
     <row r="177" spans="1:11" ht="13">
@@ -16881,30 +16898,28 @@
         <v>278</v>
       </c>
       <c r="B177" s="14" t="s">
-        <v>348</v>
+        <v>329</v>
       </c>
       <c r="C177" s="14" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="D177" s="14" t="s">
-        <v>75</v>
+        <v>312</v>
       </c>
       <c r="E177" s="14" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="F177" s="14" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="G177" s="14" t="s">
-        <v>698</v>
+        <v>1017</v>
       </c>
       <c r="H177" s="14"/>
       <c r="I177" s="29" t="s">
-        <v>858</v>
-      </c>
-      <c r="J177" s="17" t="s">
-        <v>699</v>
-      </c>
+        <v>344</v>
+      </c>
+      <c r="J177" s="17"/>
       <c r="K177" s="14"/>
     </row>
     <row r="178" spans="1:11" ht="13">
@@ -16915,26 +16930,26 @@
         <v>348</v>
       </c>
       <c r="C178" s="14" t="s">
-        <v>700</v>
+        <v>349</v>
       </c>
       <c r="D178" s="14" t="s">
-        <v>418</v>
+        <v>75</v>
       </c>
       <c r="E178" s="14" t="s">
         <v>25</v>
       </c>
       <c r="F178" s="14" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="G178" s="14" t="s">
-        <v>701</v>
+        <v>698</v>
       </c>
       <c r="H178" s="14"/>
-      <c r="I178" s="16" t="s">
-        <v>354</v>
+      <c r="I178" s="29" t="s">
+        <v>858</v>
       </c>
       <c r="J178" s="17" t="s">
-        <v>702</v>
+        <v>699</v>
       </c>
       <c r="K178" s="14"/>
     </row>
@@ -16943,29 +16958,29 @@
         <v>278</v>
       </c>
       <c r="B179" s="14" t="s">
-        <v>355</v>
+        <v>348</v>
       </c>
       <c r="C179" s="14" t="s">
-        <v>302</v>
+        <v>700</v>
       </c>
       <c r="D179" s="14" t="s">
-        <v>117</v>
+        <v>418</v>
       </c>
       <c r="E179" s="14" t="s">
         <v>25</v>
       </c>
       <c r="F179" s="14" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="G179" s="14" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="H179" s="14"/>
-      <c r="I179" s="15" t="s">
-        <v>357</v>
+      <c r="I179" s="16" t="s">
+        <v>354</v>
       </c>
       <c r="J179" s="17" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="K179" s="14"/>
     </row>
@@ -16977,26 +16992,26 @@
         <v>355</v>
       </c>
       <c r="C180" s="14" t="s">
-        <v>358</v>
+        <v>302</v>
       </c>
       <c r="D180" s="14" t="s">
-        <v>410</v>
+        <v>117</v>
       </c>
       <c r="E180" s="14" t="s">
         <v>25</v>
       </c>
       <c r="F180" s="14" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="G180" s="14" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="H180" s="14"/>
       <c r="I180" s="15" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="J180" s="17" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="K180" s="14"/>
     </row>
@@ -17008,26 +17023,26 @@
         <v>355</v>
       </c>
       <c r="C181" s="14" t="s">
-        <v>719</v>
+        <v>358</v>
       </c>
       <c r="D181" s="14" t="s">
-        <v>51</v>
+        <v>410</v>
       </c>
       <c r="E181" s="14" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="F181" s="14" t="s">
-        <v>767</v>
+        <v>359</v>
       </c>
       <c r="G181" s="14" t="s">
-        <v>768</v>
+        <v>705</v>
       </c>
       <c r="H181" s="14"/>
-      <c r="I181" s="29" t="s">
-        <v>769</v>
+      <c r="I181" s="15" t="s">
+        <v>360</v>
       </c>
       <c r="J181" s="17" t="s">
-        <v>770</v>
+        <v>706</v>
       </c>
       <c r="K181" s="14"/>
     </row>
@@ -17039,26 +17054,26 @@
         <v>355</v>
       </c>
       <c r="C182" s="14" t="s">
-        <v>883</v>
+        <v>719</v>
       </c>
       <c r="D182" s="14" t="s">
-        <v>410</v>
+        <v>51</v>
       </c>
       <c r="E182" s="14" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="F182" s="14" t="s">
-        <v>884</v>
+        <v>767</v>
       </c>
       <c r="G182" s="14" t="s">
-        <v>885</v>
+        <v>768</v>
       </c>
       <c r="H182" s="14"/>
       <c r="I182" s="29" t="s">
-        <v>886</v>
+        <v>769</v>
       </c>
       <c r="J182" s="17" t="s">
-        <v>887</v>
+        <v>770</v>
       </c>
       <c r="K182" s="14"/>
     </row>
@@ -17067,10 +17082,10 @@
         <v>278</v>
       </c>
       <c r="B183" s="14" t="s">
-        <v>707</v>
-      </c>
-      <c r="C183" s="17" t="s">
-        <v>708</v>
+        <v>355</v>
+      </c>
+      <c r="C183" s="14" t="s">
+        <v>883</v>
       </c>
       <c r="D183" s="14" t="s">
         <v>410</v>
@@ -17079,17 +17094,17 @@
         <v>25</v>
       </c>
       <c r="F183" s="14" t="s">
-        <v>709</v>
+        <v>884</v>
       </c>
       <c r="G183" s="14" t="s">
-        <v>710</v>
+        <v>885</v>
       </c>
       <c r="H183" s="14"/>
-      <c r="I183" s="15" t="s">
-        <v>711</v>
+      <c r="I183" s="29" t="s">
+        <v>886</v>
       </c>
       <c r="J183" s="17" t="s">
-        <v>712</v>
+        <v>887</v>
       </c>
       <c r="K183" s="14"/>
     </row>
@@ -17098,62 +17113,93 @@
         <v>278</v>
       </c>
       <c r="B184" s="14" t="s">
-        <v>361</v>
+        <v>707</v>
       </c>
       <c r="C184" s="17" t="s">
-        <v>362</v>
+        <v>708</v>
       </c>
       <c r="D184" s="14" t="s">
-        <v>418</v>
+        <v>410</v>
       </c>
       <c r="E184" s="14" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="F184" s="14" t="s">
-        <v>363</v>
+        <v>709</v>
       </c>
       <c r="G184" s="14" t="s">
-        <v>713</v>
+        <v>710</v>
       </c>
       <c r="H184" s="14"/>
       <c r="I184" s="15" t="s">
-        <v>364</v>
+        <v>711</v>
       </c>
       <c r="J184" s="17" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="K184" s="14"/>
     </row>
-    <row r="185" spans="1:11" ht="15.75" customHeight="1">
+    <row r="185" spans="1:11" ht="13">
       <c r="A185" s="14" t="s">
-        <v>771</v>
+        <v>278</v>
       </c>
       <c r="B185" s="14" t="s">
-        <v>773</v>
-      </c>
-      <c r="C185" s="14" t="s">
-        <v>721</v>
+        <v>361</v>
+      </c>
+      <c r="C185" s="17" t="s">
+        <v>362</v>
       </c>
       <c r="D185" s="14" t="s">
-        <v>410</v>
+        <v>418</v>
       </c>
       <c r="E185" s="14" t="s">
         <v>14</v>
       </c>
       <c r="F185" s="14" t="s">
+        <v>363</v>
+      </c>
+      <c r="G185" s="14" t="s">
+        <v>713</v>
+      </c>
+      <c r="H185" s="14"/>
+      <c r="I185" s="15" t="s">
+        <v>364</v>
+      </c>
+      <c r="J185" s="17" t="s">
+        <v>714</v>
+      </c>
+      <c r="K185" s="14"/>
+    </row>
+    <row r="186" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A186" s="14" t="s">
+        <v>771</v>
+      </c>
+      <c r="B186" s="14" t="s">
+        <v>773</v>
+      </c>
+      <c r="C186" s="14" t="s">
+        <v>721</v>
+      </c>
+      <c r="D186" s="14" t="s">
+        <v>410</v>
+      </c>
+      <c r="E186" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="F186" s="14" t="s">
         <v>772</v>
       </c>
-      <c r="G185" s="14" t="s">
+      <c r="G186" s="14" t="s">
         <v>774</v>
       </c>
-      <c r="H185" s="14"/>
-      <c r="I185" s="29" t="s">
+      <c r="H186" s="14"/>
+      <c r="I186" s="29" t="s">
         <v>775</v>
       </c>
-      <c r="J185" s="17" t="s">
+      <c r="J186" s="17" t="s">
         <v>776</v>
       </c>
-      <c r="K185" s="14"/>
+      <c r="K186" s="14"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -17174,173 +17220,174 @@
     <hyperlink ref="I23" r:id="rId15" xr:uid="{00000000-0004-0000-0100-00000F000000}"/>
     <hyperlink ref="I24" r:id="rId16" xr:uid="{00000000-0004-0000-0100-000010000000}"/>
     <hyperlink ref="I25" r:id="rId17" xr:uid="{00000000-0004-0000-0100-000011000000}"/>
-    <hyperlink ref="I26" r:id="rId18" xr:uid="{00000000-0004-0000-0100-000012000000}"/>
-    <hyperlink ref="I27" r:id="rId19" xr:uid="{00000000-0004-0000-0100-000013000000}"/>
-    <hyperlink ref="I28" r:id="rId20" xr:uid="{00000000-0004-0000-0100-000014000000}"/>
-    <hyperlink ref="I29" r:id="rId21" xr:uid="{00000000-0004-0000-0100-000015000000}"/>
-    <hyperlink ref="I30" r:id="rId22" xr:uid="{00000000-0004-0000-0100-000016000000}"/>
-    <hyperlink ref="I31" r:id="rId23" xr:uid="{00000000-0004-0000-0100-000017000000}"/>
-    <hyperlink ref="I32" r:id="rId24" xr:uid="{00000000-0004-0000-0100-000018000000}"/>
-    <hyperlink ref="I34" r:id="rId25" xr:uid="{00000000-0004-0000-0100-000019000000}"/>
-    <hyperlink ref="I35" r:id="rId26" xr:uid="{00000000-0004-0000-0100-00001A000000}"/>
-    <hyperlink ref="I36" r:id="rId27" xr:uid="{00000000-0004-0000-0100-00001B000000}"/>
-    <hyperlink ref="I37" r:id="rId28" xr:uid="{00000000-0004-0000-0100-00001C000000}"/>
-    <hyperlink ref="I38" r:id="rId29" xr:uid="{00000000-0004-0000-0100-00001D000000}"/>
-    <hyperlink ref="I39" r:id="rId30" xr:uid="{00000000-0004-0000-0100-00001E000000}"/>
-    <hyperlink ref="I40" r:id="rId31" xr:uid="{00000000-0004-0000-0100-00001F000000}"/>
-    <hyperlink ref="I44" r:id="rId32" xr:uid="{00000000-0004-0000-0100-000020000000}"/>
-    <hyperlink ref="I45" r:id="rId33" xr:uid="{00000000-0004-0000-0100-000021000000}"/>
-    <hyperlink ref="I51" r:id="rId34" xr:uid="{00000000-0004-0000-0100-000022000000}"/>
-    <hyperlink ref="I52" r:id="rId35" xr:uid="{00000000-0004-0000-0100-000023000000}"/>
-    <hyperlink ref="I53" r:id="rId36" xr:uid="{00000000-0004-0000-0100-000024000000}"/>
-    <hyperlink ref="I54" r:id="rId37" xr:uid="{00000000-0004-0000-0100-000025000000}"/>
-    <hyperlink ref="I55" r:id="rId38" xr:uid="{00000000-0004-0000-0100-000026000000}"/>
-    <hyperlink ref="I56" r:id="rId39" xr:uid="{00000000-0004-0000-0100-000027000000}"/>
-    <hyperlink ref="I57" r:id="rId40" xr:uid="{00000000-0004-0000-0100-000028000000}"/>
-    <hyperlink ref="I58" r:id="rId41" xr:uid="{00000000-0004-0000-0100-000029000000}"/>
-    <hyperlink ref="I59" r:id="rId42" xr:uid="{00000000-0004-0000-0100-00002A000000}"/>
-    <hyperlink ref="I60" r:id="rId43" xr:uid="{00000000-0004-0000-0100-00002B000000}"/>
-    <hyperlink ref="I61" r:id="rId44" xr:uid="{00000000-0004-0000-0100-00002C000000}"/>
-    <hyperlink ref="I63" r:id="rId45" xr:uid="{00000000-0004-0000-0100-00002D000000}"/>
-    <hyperlink ref="I64" r:id="rId46" xr:uid="{00000000-0004-0000-0100-00002E000000}"/>
-    <hyperlink ref="I65" r:id="rId47" xr:uid="{00000000-0004-0000-0100-00002F000000}"/>
-    <hyperlink ref="I71" r:id="rId48" xr:uid="{00000000-0004-0000-0100-000030000000}"/>
-    <hyperlink ref="I73" r:id="rId49" xr:uid="{00000000-0004-0000-0100-000031000000}"/>
-    <hyperlink ref="I74" r:id="rId50" xr:uid="{00000000-0004-0000-0100-000032000000}"/>
-    <hyperlink ref="I75" r:id="rId51" xr:uid="{00000000-0004-0000-0100-000033000000}"/>
-    <hyperlink ref="I76" r:id="rId52" xr:uid="{00000000-0004-0000-0100-000034000000}"/>
-    <hyperlink ref="I80" r:id="rId53" xr:uid="{00000000-0004-0000-0100-000035000000}"/>
-    <hyperlink ref="I81" r:id="rId54" xr:uid="{00000000-0004-0000-0100-000036000000}"/>
-    <hyperlink ref="I82" r:id="rId55" xr:uid="{00000000-0004-0000-0100-000037000000}"/>
-    <hyperlink ref="I83" r:id="rId56" xr:uid="{00000000-0004-0000-0100-000038000000}"/>
-    <hyperlink ref="I84" r:id="rId57" xr:uid="{00000000-0004-0000-0100-000039000000}"/>
-    <hyperlink ref="I86" r:id="rId58" xr:uid="{00000000-0004-0000-0100-00003A000000}"/>
-    <hyperlink ref="I87" r:id="rId59" xr:uid="{00000000-0004-0000-0100-00003B000000}"/>
-    <hyperlink ref="I88" r:id="rId60" xr:uid="{00000000-0004-0000-0100-00003C000000}"/>
-    <hyperlink ref="I89" r:id="rId61" xr:uid="{00000000-0004-0000-0100-00003D000000}"/>
-    <hyperlink ref="I90" r:id="rId62" xr:uid="{00000000-0004-0000-0100-00003E000000}"/>
-    <hyperlink ref="I91" r:id="rId63" xr:uid="{00000000-0004-0000-0100-00003F000000}"/>
-    <hyperlink ref="I92" r:id="rId64" xr:uid="{00000000-0004-0000-0100-000040000000}"/>
-    <hyperlink ref="I94" r:id="rId65" xr:uid="{00000000-0004-0000-0100-000041000000}"/>
-    <hyperlink ref="I95" r:id="rId66" xr:uid="{00000000-0004-0000-0100-000042000000}"/>
-    <hyperlink ref="I98" r:id="rId67" xr:uid="{00000000-0004-0000-0100-000043000000}"/>
-    <hyperlink ref="I99" r:id="rId68" xr:uid="{00000000-0004-0000-0100-000044000000}"/>
-    <hyperlink ref="I100" r:id="rId69" xr:uid="{00000000-0004-0000-0100-000045000000}"/>
-    <hyperlink ref="I101" r:id="rId70" xr:uid="{00000000-0004-0000-0100-000046000000}"/>
-    <hyperlink ref="I102" r:id="rId71" xr:uid="{00000000-0004-0000-0100-000047000000}"/>
-    <hyperlink ref="I103" r:id="rId72" xr:uid="{00000000-0004-0000-0100-000048000000}"/>
-    <hyperlink ref="I106" r:id="rId73" xr:uid="{00000000-0004-0000-0100-000049000000}"/>
-    <hyperlink ref="I107" r:id="rId74" xr:uid="{00000000-0004-0000-0100-00004A000000}"/>
-    <hyperlink ref="I108" r:id="rId75" xr:uid="{00000000-0004-0000-0100-00004B000000}"/>
-    <hyperlink ref="I109" r:id="rId76" xr:uid="{00000000-0004-0000-0100-00004C000000}"/>
-    <hyperlink ref="I112" r:id="rId77" xr:uid="{00000000-0004-0000-0100-00004D000000}"/>
-    <hyperlink ref="I116" r:id="rId78" xr:uid="{00000000-0004-0000-0100-00004E000000}"/>
-    <hyperlink ref="I117" r:id="rId79" xr:uid="{00000000-0004-0000-0100-00004F000000}"/>
-    <hyperlink ref="I118" r:id="rId80" xr:uid="{00000000-0004-0000-0100-000050000000}"/>
-    <hyperlink ref="I119" r:id="rId81" xr:uid="{00000000-0004-0000-0100-000051000000}"/>
-    <hyperlink ref="I120" r:id="rId82" xr:uid="{00000000-0004-0000-0100-000052000000}"/>
-    <hyperlink ref="I121" r:id="rId83" xr:uid="{00000000-0004-0000-0100-000053000000}"/>
-    <hyperlink ref="I122" r:id="rId84" xr:uid="{00000000-0004-0000-0100-000054000000}"/>
-    <hyperlink ref="I123" r:id="rId85" xr:uid="{00000000-0004-0000-0100-000055000000}"/>
-    <hyperlink ref="I128" r:id="rId86" xr:uid="{00000000-0004-0000-0100-000056000000}"/>
-    <hyperlink ref="I131" r:id="rId87" xr:uid="{00000000-0004-0000-0100-000057000000}"/>
-    <hyperlink ref="I135" r:id="rId88" xr:uid="{00000000-0004-0000-0100-000058000000}"/>
-    <hyperlink ref="I136" r:id="rId89" xr:uid="{00000000-0004-0000-0100-000059000000}"/>
-    <hyperlink ref="I140" r:id="rId90" xr:uid="{00000000-0004-0000-0100-00005A000000}"/>
-    <hyperlink ref="I141" r:id="rId91" xr:uid="{00000000-0004-0000-0100-00005B000000}"/>
-    <hyperlink ref="I142" r:id="rId92" xr:uid="{00000000-0004-0000-0100-00005C000000}"/>
-    <hyperlink ref="I143" r:id="rId93" xr:uid="{00000000-0004-0000-0100-00005D000000}"/>
-    <hyperlink ref="I145" r:id="rId94" xr:uid="{00000000-0004-0000-0100-00005E000000}"/>
-    <hyperlink ref="I146" r:id="rId95" xr:uid="{00000000-0004-0000-0100-00005F000000}"/>
-    <hyperlink ref="I147" r:id="rId96" xr:uid="{00000000-0004-0000-0100-000060000000}"/>
-    <hyperlink ref="I148" r:id="rId97" xr:uid="{00000000-0004-0000-0100-000061000000}"/>
-    <hyperlink ref="I149" r:id="rId98" xr:uid="{00000000-0004-0000-0100-000062000000}"/>
-    <hyperlink ref="I150" r:id="rId99" xr:uid="{00000000-0004-0000-0100-000063000000}"/>
-    <hyperlink ref="I151" r:id="rId100" xr:uid="{00000000-0004-0000-0100-000064000000}"/>
-    <hyperlink ref="I157" r:id="rId101" xr:uid="{00000000-0004-0000-0100-000065000000}"/>
-    <hyperlink ref="I158" r:id="rId102" xr:uid="{00000000-0004-0000-0100-000066000000}"/>
-    <hyperlink ref="I159" r:id="rId103" xr:uid="{00000000-0004-0000-0100-000067000000}"/>
-    <hyperlink ref="I160" r:id="rId104" xr:uid="{00000000-0004-0000-0100-000068000000}"/>
-    <hyperlink ref="I163" r:id="rId105" xr:uid="{00000000-0004-0000-0100-00006A000000}"/>
-    <hyperlink ref="I167" r:id="rId106" xr:uid="{00000000-0004-0000-0100-00006B000000}"/>
-    <hyperlink ref="I168" r:id="rId107" xr:uid="{00000000-0004-0000-0100-00006C000000}"/>
-    <hyperlink ref="I169" r:id="rId108" xr:uid="{00000000-0004-0000-0100-00006D000000}"/>
-    <hyperlink ref="I170" r:id="rId109" xr:uid="{00000000-0004-0000-0100-00006E000000}"/>
-    <hyperlink ref="I171" r:id="rId110" xr:uid="{00000000-0004-0000-0100-00006F000000}"/>
-    <hyperlink ref="I172" r:id="rId111" xr:uid="{00000000-0004-0000-0100-000070000000}"/>
-    <hyperlink ref="I173" r:id="rId112" xr:uid="{00000000-0004-0000-0100-000071000000}"/>
-    <hyperlink ref="I174" r:id="rId113" xr:uid="{00000000-0004-0000-0100-000072000000}"/>
-    <hyperlink ref="I175" r:id="rId114" xr:uid="{00000000-0004-0000-0100-000073000000}"/>
-    <hyperlink ref="I177" r:id="rId115" xr:uid="{00000000-0004-0000-0100-000074000000}"/>
-    <hyperlink ref="I178" r:id="rId116" xr:uid="{00000000-0004-0000-0100-000075000000}"/>
-    <hyperlink ref="I179" r:id="rId117" xr:uid="{00000000-0004-0000-0100-000076000000}"/>
-    <hyperlink ref="I180" r:id="rId118" xr:uid="{00000000-0004-0000-0100-000077000000}"/>
-    <hyperlink ref="I183" r:id="rId119" xr:uid="{00000000-0004-0000-0100-000078000000}"/>
-    <hyperlink ref="I184" r:id="rId120" xr:uid="{00000000-0004-0000-0100-000079000000}"/>
+    <hyperlink ref="I27" r:id="rId18" xr:uid="{00000000-0004-0000-0100-000012000000}"/>
+    <hyperlink ref="I28" r:id="rId19" xr:uid="{00000000-0004-0000-0100-000013000000}"/>
+    <hyperlink ref="I29" r:id="rId20" xr:uid="{00000000-0004-0000-0100-000014000000}"/>
+    <hyperlink ref="I30" r:id="rId21" xr:uid="{00000000-0004-0000-0100-000015000000}"/>
+    <hyperlink ref="I31" r:id="rId22" xr:uid="{00000000-0004-0000-0100-000016000000}"/>
+    <hyperlink ref="I32" r:id="rId23" xr:uid="{00000000-0004-0000-0100-000017000000}"/>
+    <hyperlink ref="I33" r:id="rId24" xr:uid="{00000000-0004-0000-0100-000018000000}"/>
+    <hyperlink ref="I35" r:id="rId25" xr:uid="{00000000-0004-0000-0100-000019000000}"/>
+    <hyperlink ref="I36" r:id="rId26" xr:uid="{00000000-0004-0000-0100-00001A000000}"/>
+    <hyperlink ref="I37" r:id="rId27" xr:uid="{00000000-0004-0000-0100-00001B000000}"/>
+    <hyperlink ref="I38" r:id="rId28" xr:uid="{00000000-0004-0000-0100-00001C000000}"/>
+    <hyperlink ref="I39" r:id="rId29" xr:uid="{00000000-0004-0000-0100-00001D000000}"/>
+    <hyperlink ref="I40" r:id="rId30" xr:uid="{00000000-0004-0000-0100-00001E000000}"/>
+    <hyperlink ref="I41" r:id="rId31" xr:uid="{00000000-0004-0000-0100-00001F000000}"/>
+    <hyperlink ref="I45" r:id="rId32" xr:uid="{00000000-0004-0000-0100-000020000000}"/>
+    <hyperlink ref="I46" r:id="rId33" xr:uid="{00000000-0004-0000-0100-000021000000}"/>
+    <hyperlink ref="I52" r:id="rId34" xr:uid="{00000000-0004-0000-0100-000022000000}"/>
+    <hyperlink ref="I53" r:id="rId35" xr:uid="{00000000-0004-0000-0100-000023000000}"/>
+    <hyperlink ref="I54" r:id="rId36" xr:uid="{00000000-0004-0000-0100-000024000000}"/>
+    <hyperlink ref="I55" r:id="rId37" xr:uid="{00000000-0004-0000-0100-000025000000}"/>
+    <hyperlink ref="I56" r:id="rId38" xr:uid="{00000000-0004-0000-0100-000026000000}"/>
+    <hyperlink ref="I57" r:id="rId39" xr:uid="{00000000-0004-0000-0100-000027000000}"/>
+    <hyperlink ref="I58" r:id="rId40" xr:uid="{00000000-0004-0000-0100-000028000000}"/>
+    <hyperlink ref="I59" r:id="rId41" xr:uid="{00000000-0004-0000-0100-000029000000}"/>
+    <hyperlink ref="I60" r:id="rId42" xr:uid="{00000000-0004-0000-0100-00002A000000}"/>
+    <hyperlink ref="I61" r:id="rId43" xr:uid="{00000000-0004-0000-0100-00002B000000}"/>
+    <hyperlink ref="I62" r:id="rId44" xr:uid="{00000000-0004-0000-0100-00002C000000}"/>
+    <hyperlink ref="I64" r:id="rId45" xr:uid="{00000000-0004-0000-0100-00002D000000}"/>
+    <hyperlink ref="I65" r:id="rId46" xr:uid="{00000000-0004-0000-0100-00002E000000}"/>
+    <hyperlink ref="I66" r:id="rId47" xr:uid="{00000000-0004-0000-0100-00002F000000}"/>
+    <hyperlink ref="I72" r:id="rId48" xr:uid="{00000000-0004-0000-0100-000030000000}"/>
+    <hyperlink ref="I74" r:id="rId49" xr:uid="{00000000-0004-0000-0100-000031000000}"/>
+    <hyperlink ref="I75" r:id="rId50" xr:uid="{00000000-0004-0000-0100-000032000000}"/>
+    <hyperlink ref="I76" r:id="rId51" xr:uid="{00000000-0004-0000-0100-000033000000}"/>
+    <hyperlink ref="I77" r:id="rId52" xr:uid="{00000000-0004-0000-0100-000034000000}"/>
+    <hyperlink ref="I81" r:id="rId53" xr:uid="{00000000-0004-0000-0100-000035000000}"/>
+    <hyperlink ref="I82" r:id="rId54" xr:uid="{00000000-0004-0000-0100-000036000000}"/>
+    <hyperlink ref="I83" r:id="rId55" xr:uid="{00000000-0004-0000-0100-000037000000}"/>
+    <hyperlink ref="I84" r:id="rId56" xr:uid="{00000000-0004-0000-0100-000038000000}"/>
+    <hyperlink ref="I85" r:id="rId57" xr:uid="{00000000-0004-0000-0100-000039000000}"/>
+    <hyperlink ref="I87" r:id="rId58" xr:uid="{00000000-0004-0000-0100-00003A000000}"/>
+    <hyperlink ref="I88" r:id="rId59" xr:uid="{00000000-0004-0000-0100-00003B000000}"/>
+    <hyperlink ref="I89" r:id="rId60" xr:uid="{00000000-0004-0000-0100-00003C000000}"/>
+    <hyperlink ref="I90" r:id="rId61" xr:uid="{00000000-0004-0000-0100-00003D000000}"/>
+    <hyperlink ref="I91" r:id="rId62" xr:uid="{00000000-0004-0000-0100-00003E000000}"/>
+    <hyperlink ref="I92" r:id="rId63" xr:uid="{00000000-0004-0000-0100-00003F000000}"/>
+    <hyperlink ref="I93" r:id="rId64" xr:uid="{00000000-0004-0000-0100-000040000000}"/>
+    <hyperlink ref="I95" r:id="rId65" xr:uid="{00000000-0004-0000-0100-000041000000}"/>
+    <hyperlink ref="I96" r:id="rId66" xr:uid="{00000000-0004-0000-0100-000042000000}"/>
+    <hyperlink ref="I99" r:id="rId67" xr:uid="{00000000-0004-0000-0100-000043000000}"/>
+    <hyperlink ref="I100" r:id="rId68" xr:uid="{00000000-0004-0000-0100-000044000000}"/>
+    <hyperlink ref="I101" r:id="rId69" xr:uid="{00000000-0004-0000-0100-000045000000}"/>
+    <hyperlink ref="I102" r:id="rId70" xr:uid="{00000000-0004-0000-0100-000046000000}"/>
+    <hyperlink ref="I103" r:id="rId71" xr:uid="{00000000-0004-0000-0100-000047000000}"/>
+    <hyperlink ref="I104" r:id="rId72" xr:uid="{00000000-0004-0000-0100-000048000000}"/>
+    <hyperlink ref="I107" r:id="rId73" xr:uid="{00000000-0004-0000-0100-000049000000}"/>
+    <hyperlink ref="I108" r:id="rId74" xr:uid="{00000000-0004-0000-0100-00004A000000}"/>
+    <hyperlink ref="I109" r:id="rId75" xr:uid="{00000000-0004-0000-0100-00004B000000}"/>
+    <hyperlink ref="I110" r:id="rId76" xr:uid="{00000000-0004-0000-0100-00004C000000}"/>
+    <hyperlink ref="I113" r:id="rId77" xr:uid="{00000000-0004-0000-0100-00004D000000}"/>
+    <hyperlink ref="I117" r:id="rId78" xr:uid="{00000000-0004-0000-0100-00004E000000}"/>
+    <hyperlink ref="I118" r:id="rId79" xr:uid="{00000000-0004-0000-0100-00004F000000}"/>
+    <hyperlink ref="I119" r:id="rId80" xr:uid="{00000000-0004-0000-0100-000050000000}"/>
+    <hyperlink ref="I120" r:id="rId81" xr:uid="{00000000-0004-0000-0100-000051000000}"/>
+    <hyperlink ref="I121" r:id="rId82" xr:uid="{00000000-0004-0000-0100-000052000000}"/>
+    <hyperlink ref="I122" r:id="rId83" xr:uid="{00000000-0004-0000-0100-000053000000}"/>
+    <hyperlink ref="I123" r:id="rId84" xr:uid="{00000000-0004-0000-0100-000054000000}"/>
+    <hyperlink ref="I124" r:id="rId85" xr:uid="{00000000-0004-0000-0100-000055000000}"/>
+    <hyperlink ref="I129" r:id="rId86" xr:uid="{00000000-0004-0000-0100-000056000000}"/>
+    <hyperlink ref="I132" r:id="rId87" xr:uid="{00000000-0004-0000-0100-000057000000}"/>
+    <hyperlink ref="I136" r:id="rId88" xr:uid="{00000000-0004-0000-0100-000058000000}"/>
+    <hyperlink ref="I137" r:id="rId89" xr:uid="{00000000-0004-0000-0100-000059000000}"/>
+    <hyperlink ref="I141" r:id="rId90" xr:uid="{00000000-0004-0000-0100-00005A000000}"/>
+    <hyperlink ref="I142" r:id="rId91" xr:uid="{00000000-0004-0000-0100-00005B000000}"/>
+    <hyperlink ref="I143" r:id="rId92" xr:uid="{00000000-0004-0000-0100-00005C000000}"/>
+    <hyperlink ref="I144" r:id="rId93" xr:uid="{00000000-0004-0000-0100-00005D000000}"/>
+    <hyperlink ref="I146" r:id="rId94" xr:uid="{00000000-0004-0000-0100-00005E000000}"/>
+    <hyperlink ref="I147" r:id="rId95" xr:uid="{00000000-0004-0000-0100-00005F000000}"/>
+    <hyperlink ref="I148" r:id="rId96" xr:uid="{00000000-0004-0000-0100-000060000000}"/>
+    <hyperlink ref="I149" r:id="rId97" xr:uid="{00000000-0004-0000-0100-000061000000}"/>
+    <hyperlink ref="I150" r:id="rId98" xr:uid="{00000000-0004-0000-0100-000062000000}"/>
+    <hyperlink ref="I151" r:id="rId99" xr:uid="{00000000-0004-0000-0100-000063000000}"/>
+    <hyperlink ref="I152" r:id="rId100" xr:uid="{00000000-0004-0000-0100-000064000000}"/>
+    <hyperlink ref="I158" r:id="rId101" xr:uid="{00000000-0004-0000-0100-000065000000}"/>
+    <hyperlink ref="I159" r:id="rId102" xr:uid="{00000000-0004-0000-0100-000066000000}"/>
+    <hyperlink ref="I160" r:id="rId103" xr:uid="{00000000-0004-0000-0100-000067000000}"/>
+    <hyperlink ref="I161" r:id="rId104" xr:uid="{00000000-0004-0000-0100-000068000000}"/>
+    <hyperlink ref="I164" r:id="rId105" xr:uid="{00000000-0004-0000-0100-00006A000000}"/>
+    <hyperlink ref="I168" r:id="rId106" xr:uid="{00000000-0004-0000-0100-00006B000000}"/>
+    <hyperlink ref="I169" r:id="rId107" xr:uid="{00000000-0004-0000-0100-00006C000000}"/>
+    <hyperlink ref="I170" r:id="rId108" xr:uid="{00000000-0004-0000-0100-00006D000000}"/>
+    <hyperlink ref="I171" r:id="rId109" xr:uid="{00000000-0004-0000-0100-00006E000000}"/>
+    <hyperlink ref="I172" r:id="rId110" xr:uid="{00000000-0004-0000-0100-00006F000000}"/>
+    <hyperlink ref="I173" r:id="rId111" xr:uid="{00000000-0004-0000-0100-000070000000}"/>
+    <hyperlink ref="I174" r:id="rId112" xr:uid="{00000000-0004-0000-0100-000071000000}"/>
+    <hyperlink ref="I175" r:id="rId113" xr:uid="{00000000-0004-0000-0100-000072000000}"/>
+    <hyperlink ref="I176" r:id="rId114" xr:uid="{00000000-0004-0000-0100-000073000000}"/>
+    <hyperlink ref="I178" r:id="rId115" xr:uid="{00000000-0004-0000-0100-000074000000}"/>
+    <hyperlink ref="I179" r:id="rId116" xr:uid="{00000000-0004-0000-0100-000075000000}"/>
+    <hyperlink ref="I180" r:id="rId117" xr:uid="{00000000-0004-0000-0100-000076000000}"/>
+    <hyperlink ref="I181" r:id="rId118" xr:uid="{00000000-0004-0000-0100-000077000000}"/>
+    <hyperlink ref="I184" r:id="rId119" xr:uid="{00000000-0004-0000-0100-000078000000}"/>
+    <hyperlink ref="I185" r:id="rId120" xr:uid="{00000000-0004-0000-0100-000079000000}"/>
     <hyperlink ref="I21" r:id="rId121" xr:uid="{881F0F65-3DCC-E94A-9FE5-2CC264A8F337}"/>
     <hyperlink ref="I22" r:id="rId122" xr:uid="{AC40193A-1232-474A-A421-B55FFA7E99B8}"/>
-    <hyperlink ref="I41" r:id="rId123" xr:uid="{D41ADE90-9772-8F41-AC9B-8DE303E9D7A9}"/>
-    <hyperlink ref="I42" r:id="rId124" xr:uid="{85F37ABA-4B3B-764B-A1ED-9DD3AFFF0004}"/>
-    <hyperlink ref="I79" r:id="rId125" xr:uid="{F5E14AAB-D49A-EF45-A165-3757EFF2E9B4}"/>
-    <hyperlink ref="I96" r:id="rId126" xr:uid="{759707EA-D94A-2D42-8FE0-FAE01578CF99}"/>
-    <hyperlink ref="I130" r:id="rId127" xr:uid="{1A936B77-62AA-804C-B853-4343ADD2D925}"/>
-    <hyperlink ref="I161" r:id="rId128" xr:uid="{00000000-0004-0000-0100-000069000000}"/>
-    <hyperlink ref="I152" r:id="rId129" xr:uid="{2929B0EA-E15F-E444-ADC1-C2E3E232D526}"/>
-    <hyperlink ref="I162" r:id="rId130" xr:uid="{7770BE98-2823-3047-9E72-08DB2B79C177}"/>
-    <hyperlink ref="I164" r:id="rId131" xr:uid="{A91F97A2-47FA-FB49-8866-2B9AA1419B2B}"/>
-    <hyperlink ref="I181" r:id="rId132" xr:uid="{11EEE67C-10E9-AB44-91F6-D7C7B31697FA}"/>
-    <hyperlink ref="I185" r:id="rId133" xr:uid="{8E930EBE-7205-BD41-9ED8-FE8F970A98EF}"/>
-    <hyperlink ref="I165" r:id="rId134" xr:uid="{3AF5EB12-868F-C842-91DC-4FC147AA3C86}"/>
-    <hyperlink ref="I66" r:id="rId135" xr:uid="{7BDCEA69-27F3-FF41-BB2B-817D4FD2C9C0}"/>
-    <hyperlink ref="I67" r:id="rId136" xr:uid="{7A940ACA-466B-9E49-8CB5-9BA664F7C3C9}"/>
-    <hyperlink ref="I69" r:id="rId137" xr:uid="{088C717E-7DC5-EF4C-8C34-370DC45C6BEE}"/>
-    <hyperlink ref="I70" r:id="rId138" xr:uid="{A670C44A-19C9-984F-9EAA-8D5EBCE39C79}"/>
-    <hyperlink ref="I110" r:id="rId139" xr:uid="{713BB907-BFF9-AE42-B777-2AF591DA7D9B}"/>
-    <hyperlink ref="I115" r:id="rId140" xr:uid="{EC0C54FA-684B-A440-BF57-B5B57FDD99C9}"/>
-    <hyperlink ref="I125" r:id="rId141" xr:uid="{9081BA3E-9CF8-074E-BF5B-0F2FA156F0B7}"/>
-    <hyperlink ref="I127" r:id="rId142" xr:uid="{8C2FD4CC-DF59-734E-8449-EA5B9F5E7D3D}"/>
-    <hyperlink ref="I93" r:id="rId143" xr:uid="{9845498D-A3A6-524F-9A69-7DC2DB7F7639}"/>
-    <hyperlink ref="I124" r:id="rId144" xr:uid="{CFDD3EC3-C992-0E4C-8C8D-2A9AC6885E0B}"/>
-    <hyperlink ref="I104" r:id="rId145" xr:uid="{C634E917-B836-414F-BB3B-9A111E16653C}"/>
-    <hyperlink ref="I62" r:id="rId146" xr:uid="{8548A361-62F7-A648-BBBE-9F37385F0E45}"/>
-    <hyperlink ref="I77" r:id="rId147" xr:uid="{8EA062F9-78F8-A44B-BEDA-61CF758CB831}"/>
-    <hyperlink ref="I46" r:id="rId148" xr:uid="{7C7CB4D2-6B37-544C-B631-930D91F3AA17}"/>
-    <hyperlink ref="I153" r:id="rId149" xr:uid="{5694CC0C-366D-8848-BBD7-150B284E15DA}"/>
-    <hyperlink ref="I33" r:id="rId150" xr:uid="{7E8D5837-BD50-6844-B288-6217DFD05E29}"/>
-    <hyperlink ref="I48" r:id="rId151" xr:uid="{E89C4D5B-786F-9A4C-9914-80D4DF36F89C}"/>
-    <hyperlink ref="I47" r:id="rId152" xr:uid="{EDBD0C6E-D96D-734B-85A9-4D26B3421D83}"/>
-    <hyperlink ref="I182" r:id="rId153" xr:uid="{12FA5E40-D722-4344-995B-86BBF8B4F3F3}"/>
+    <hyperlink ref="I42" r:id="rId123" xr:uid="{D41ADE90-9772-8F41-AC9B-8DE303E9D7A9}"/>
+    <hyperlink ref="I43" r:id="rId124" xr:uid="{85F37ABA-4B3B-764B-A1ED-9DD3AFFF0004}"/>
+    <hyperlink ref="I80" r:id="rId125" xr:uid="{F5E14AAB-D49A-EF45-A165-3757EFF2E9B4}"/>
+    <hyperlink ref="I97" r:id="rId126" xr:uid="{759707EA-D94A-2D42-8FE0-FAE01578CF99}"/>
+    <hyperlink ref="I131" r:id="rId127" xr:uid="{1A936B77-62AA-804C-B853-4343ADD2D925}"/>
+    <hyperlink ref="I162" r:id="rId128" xr:uid="{00000000-0004-0000-0100-000069000000}"/>
+    <hyperlink ref="I153" r:id="rId129" xr:uid="{2929B0EA-E15F-E444-ADC1-C2E3E232D526}"/>
+    <hyperlink ref="I163" r:id="rId130" xr:uid="{7770BE98-2823-3047-9E72-08DB2B79C177}"/>
+    <hyperlink ref="I165" r:id="rId131" xr:uid="{A91F97A2-47FA-FB49-8866-2B9AA1419B2B}"/>
+    <hyperlink ref="I182" r:id="rId132" xr:uid="{11EEE67C-10E9-AB44-91F6-D7C7B31697FA}"/>
+    <hyperlink ref="I186" r:id="rId133" xr:uid="{8E930EBE-7205-BD41-9ED8-FE8F970A98EF}"/>
+    <hyperlink ref="I166" r:id="rId134" xr:uid="{3AF5EB12-868F-C842-91DC-4FC147AA3C86}"/>
+    <hyperlink ref="I67" r:id="rId135" xr:uid="{7BDCEA69-27F3-FF41-BB2B-817D4FD2C9C0}"/>
+    <hyperlink ref="I68" r:id="rId136" xr:uid="{7A940ACA-466B-9E49-8CB5-9BA664F7C3C9}"/>
+    <hyperlink ref="I70" r:id="rId137" xr:uid="{088C717E-7DC5-EF4C-8C34-370DC45C6BEE}"/>
+    <hyperlink ref="I71" r:id="rId138" xr:uid="{A670C44A-19C9-984F-9EAA-8D5EBCE39C79}"/>
+    <hyperlink ref="I111" r:id="rId139" xr:uid="{713BB907-BFF9-AE42-B777-2AF591DA7D9B}"/>
+    <hyperlink ref="I116" r:id="rId140" xr:uid="{EC0C54FA-684B-A440-BF57-B5B57FDD99C9}"/>
+    <hyperlink ref="I126" r:id="rId141" xr:uid="{9081BA3E-9CF8-074E-BF5B-0F2FA156F0B7}"/>
+    <hyperlink ref="I128" r:id="rId142" xr:uid="{8C2FD4CC-DF59-734E-8449-EA5B9F5E7D3D}"/>
+    <hyperlink ref="I94" r:id="rId143" xr:uid="{9845498D-A3A6-524F-9A69-7DC2DB7F7639}"/>
+    <hyperlink ref="I125" r:id="rId144" xr:uid="{CFDD3EC3-C992-0E4C-8C8D-2A9AC6885E0B}"/>
+    <hyperlink ref="I105" r:id="rId145" xr:uid="{C634E917-B836-414F-BB3B-9A111E16653C}"/>
+    <hyperlink ref="I63" r:id="rId146" xr:uid="{8548A361-62F7-A648-BBBE-9F37385F0E45}"/>
+    <hyperlink ref="I78" r:id="rId147" xr:uid="{8EA062F9-78F8-A44B-BEDA-61CF758CB831}"/>
+    <hyperlink ref="I47" r:id="rId148" xr:uid="{7C7CB4D2-6B37-544C-B631-930D91F3AA17}"/>
+    <hyperlink ref="I154" r:id="rId149" xr:uid="{5694CC0C-366D-8848-BBD7-150B284E15DA}"/>
+    <hyperlink ref="I34" r:id="rId150" xr:uid="{7E8D5837-BD50-6844-B288-6217DFD05E29}"/>
+    <hyperlink ref="I49" r:id="rId151" xr:uid="{E89C4D5B-786F-9A4C-9914-80D4DF36F89C}"/>
+    <hyperlink ref="I48" r:id="rId152" xr:uid="{EDBD0C6E-D96D-734B-85A9-4D26B3421D83}"/>
+    <hyperlink ref="I183" r:id="rId153" xr:uid="{12FA5E40-D722-4344-995B-86BBF8B4F3F3}"/>
     <hyperlink ref="I3" r:id="rId154" xr:uid="{90F3D795-8796-3941-81B5-D72CA324E042}"/>
     <hyperlink ref="I4" r:id="rId155" xr:uid="{16E7DE01-C66E-B349-8DAD-CA4C99C20CD5}"/>
     <hyperlink ref="I5" r:id="rId156" xr:uid="{7E09A861-DD77-2E4B-B800-EAC5DEA70EDC}"/>
     <hyperlink ref="I17" r:id="rId157" xr:uid="{D6A698C2-16EA-6D43-BD05-DCD8B998FD48}"/>
-    <hyperlink ref="I43" r:id="rId158" xr:uid="{4D236EF9-AFFB-FE4D-BCD1-638D19B0E2AD}"/>
-    <hyperlink ref="I68" r:id="rId159" xr:uid="{219D9E22-5730-534D-8B55-6BD3916AD9D3}"/>
-    <hyperlink ref="I72" r:id="rId160" xr:uid="{F2124805-E683-1A42-A341-E4B4C798FCF6}"/>
-    <hyperlink ref="I105" r:id="rId161" xr:uid="{03D19417-5ACF-4747-87E3-FF4A7F6B8C5E}"/>
-    <hyperlink ref="I111" r:id="rId162" xr:uid="{E08A2438-5DB8-9A45-84DD-CD243288C3B9}"/>
-    <hyperlink ref="I126" r:id="rId163" xr:uid="{84BE2579-BA68-7D4D-B2CB-86D3681369AA}"/>
-    <hyperlink ref="I129" r:id="rId164" xr:uid="{91EB2E87-6831-0145-A4FB-E8981B8045C7}"/>
-    <hyperlink ref="I133" r:id="rId165" xr:uid="{54C086FF-A8B9-6C43-B277-A9032F8666B1}"/>
-    <hyperlink ref="I134" r:id="rId166" xr:uid="{2EF760AC-07D9-8548-93B1-88352B9C3C7F}"/>
-    <hyperlink ref="I97" r:id="rId167" xr:uid="{A5C672A7-87AF-E940-AAE7-D59695E4A0C6}"/>
-    <hyperlink ref="I137" r:id="rId168" xr:uid="{235F1B30-BA9C-2944-96E8-044D9C42D2E4}"/>
-    <hyperlink ref="I138" r:id="rId169" xr:uid="{86BA7BFD-9A67-EC49-A9D6-2A3459D321FF}"/>
-    <hyperlink ref="I139" r:id="rId170" xr:uid="{877A9B01-36F7-6D47-9B86-75B4F4BC541E}"/>
-    <hyperlink ref="I144" r:id="rId171" xr:uid="{5546ECD3-6F35-E74E-9357-32E1AF022690}"/>
-    <hyperlink ref="I154" r:id="rId172" xr:uid="{88D1FADA-4A32-0D4F-AF24-3FE72EBBEB68}"/>
-    <hyperlink ref="I155" r:id="rId173" xr:uid="{AF329473-0DFD-8C4C-BE43-8A06EA57AD9B}"/>
-    <hyperlink ref="I156" r:id="rId174" xr:uid="{6A2FDA52-E721-2D45-8440-DE26731358E6}"/>
-    <hyperlink ref="I49" r:id="rId175" xr:uid="{AE7D1622-F9B9-DF48-8E55-336B7BB6750F}"/>
-    <hyperlink ref="I50" r:id="rId176" xr:uid="{59C3C7D9-F3C2-4241-BF17-62CD57E349CD}"/>
-    <hyperlink ref="I85" r:id="rId177" xr:uid="{808B590E-E469-FC42-8AED-648218F9285B}"/>
-    <hyperlink ref="I132" r:id="rId178" xr:uid="{0BFD14EA-48B9-E242-A6F8-2B6996870F1C}"/>
-    <hyperlink ref="I78" r:id="rId179" xr:uid="{3D1F78F1-16B2-474B-91A0-3DFB6DB099C3}"/>
-    <hyperlink ref="I176" r:id="rId180" xr:uid="{D7BE4482-76F9-0648-8D97-B29A2C647580}"/>
-    <hyperlink ref="I166" r:id="rId181" xr:uid="{8BB3CB7A-FD3E-4242-B0D4-4CCA5F192666}"/>
-    <hyperlink ref="I113" r:id="rId182" xr:uid="{166E1088-3416-B54E-83D7-F3C78813399E}"/>
+    <hyperlink ref="I44" r:id="rId158" xr:uid="{4D236EF9-AFFB-FE4D-BCD1-638D19B0E2AD}"/>
+    <hyperlink ref="I69" r:id="rId159" xr:uid="{219D9E22-5730-534D-8B55-6BD3916AD9D3}"/>
+    <hyperlink ref="I73" r:id="rId160" xr:uid="{F2124805-E683-1A42-A341-E4B4C798FCF6}"/>
+    <hyperlink ref="I106" r:id="rId161" xr:uid="{03D19417-5ACF-4747-87E3-FF4A7F6B8C5E}"/>
+    <hyperlink ref="I112" r:id="rId162" xr:uid="{E08A2438-5DB8-9A45-84DD-CD243288C3B9}"/>
+    <hyperlink ref="I127" r:id="rId163" xr:uid="{84BE2579-BA68-7D4D-B2CB-86D3681369AA}"/>
+    <hyperlink ref="I130" r:id="rId164" xr:uid="{91EB2E87-6831-0145-A4FB-E8981B8045C7}"/>
+    <hyperlink ref="I134" r:id="rId165" xr:uid="{54C086FF-A8B9-6C43-B277-A9032F8666B1}"/>
+    <hyperlink ref="I135" r:id="rId166" xr:uid="{2EF760AC-07D9-8548-93B1-88352B9C3C7F}"/>
+    <hyperlink ref="I98" r:id="rId167" xr:uid="{A5C672A7-87AF-E940-AAE7-D59695E4A0C6}"/>
+    <hyperlink ref="I138" r:id="rId168" xr:uid="{235F1B30-BA9C-2944-96E8-044D9C42D2E4}"/>
+    <hyperlink ref="I139" r:id="rId169" xr:uid="{86BA7BFD-9A67-EC49-A9D6-2A3459D321FF}"/>
+    <hyperlink ref="I140" r:id="rId170" xr:uid="{877A9B01-36F7-6D47-9B86-75B4F4BC541E}"/>
+    <hyperlink ref="I145" r:id="rId171" xr:uid="{5546ECD3-6F35-E74E-9357-32E1AF022690}"/>
+    <hyperlink ref="I155" r:id="rId172" xr:uid="{88D1FADA-4A32-0D4F-AF24-3FE72EBBEB68}"/>
+    <hyperlink ref="I156" r:id="rId173" xr:uid="{AF329473-0DFD-8C4C-BE43-8A06EA57AD9B}"/>
+    <hyperlink ref="I157" r:id="rId174" xr:uid="{6A2FDA52-E721-2D45-8440-DE26731358E6}"/>
+    <hyperlink ref="I50" r:id="rId175" xr:uid="{AE7D1622-F9B9-DF48-8E55-336B7BB6750F}"/>
+    <hyperlink ref="I51" r:id="rId176" xr:uid="{59C3C7D9-F3C2-4241-BF17-62CD57E349CD}"/>
+    <hyperlink ref="I86" r:id="rId177" xr:uid="{808B590E-E469-FC42-8AED-648218F9285B}"/>
+    <hyperlink ref="I133" r:id="rId178" xr:uid="{0BFD14EA-48B9-E242-A6F8-2B6996870F1C}"/>
+    <hyperlink ref="I79" r:id="rId179" xr:uid="{3D1F78F1-16B2-474B-91A0-3DFB6DB099C3}"/>
+    <hyperlink ref="I177" r:id="rId180" xr:uid="{D7BE4482-76F9-0648-8D97-B29A2C647580}"/>
+    <hyperlink ref="I167" r:id="rId181" xr:uid="{8BB3CB7A-FD3E-4242-B0D4-4CCA5F192666}"/>
+    <hyperlink ref="I114" r:id="rId182" xr:uid="{166E1088-3416-B54E-83D7-F3C78813399E}"/>
     <hyperlink ref="I20" r:id="rId183" xr:uid="{908AA4B9-E7B0-6142-A293-990E38D22A48}"/>
-    <hyperlink ref="I114" r:id="rId184" xr:uid="{4613CEBC-EE7C-E34A-A90B-2FB250FA811B}"/>
+    <hyperlink ref="I115" r:id="rId184" xr:uid="{4613CEBC-EE7C-E34A-A90B-2FB250FA811B}"/>
+    <hyperlink ref="I26" r:id="rId185" xr:uid="{2D22579F-04EA-9D48-9412-C118AC00920E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/docs/香港素食餐廳大全.xlsx
+++ b/docs/香港素食餐廳大全.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tim/_Python_OpenAI/My-projects/7-hk-veg-map/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E851E4E-E1EB-E940-A7DE-4CA9D8C5BA2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{199FB7A1-617E-9445-B2A1-0CCA2C57C474}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8620" yWindow="500" windowWidth="17620" windowHeight="16260" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7800" yWindow="500" windowWidth="18420" windowHeight="16260" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="香港素食餐廳大全" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2313" uniqueCount="1046">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2313" uniqueCount="1045">
   <si>
     <t>** 更新自: 13 Aug 2023 (deprecated, go to sheet 2 "hk_veg_restaurants_data instead")</t>
   </si>
@@ -1634,15 +1634,6 @@
     <t>28892938</t>
   </si>
   <si>
-    <t>旺角彌敦道688號旺角中心1樓F52號舖</t>
-  </si>
-  <si>
-    <t>https://www.openrice.com/zh/hongkong/r-nuttea-%E6%97%BA%E8%A7%92-%E5%8F%B0%E7%81%A3%E8%8F%9C-%E6%9E%9C%E6%B1%81-r674465</t>
-  </si>
-  <si>
-    <t>62003483</t>
-  </si>
-  <si>
     <t>大自然素食（太子）</t>
   </si>
   <si>
@@ -2354,9 +2345,6 @@
     <t>29854736</t>
   </si>
   <si>
-    <t>22.319903610218404, 114.16972036987416</t>
-  </si>
-  <si>
     <t>22.300668907966998, 114.17211620123605</t>
   </si>
   <si>
@@ -3159,6 +3147,15 @@
   </si>
   <si>
     <t>28334604</t>
+  </si>
+  <si>
+    <t>觀塘成業街7號東廣場地下G57號舖</t>
+  </si>
+  <si>
+    <t>22.310956493698, 114.22645048649463</t>
+  </si>
+  <si>
+    <t>https://www.openrice.com/zh/hongkong/r-%E4%B8%80%E7%B4%A0%E9%A3%9F%E8%AD%9C-%E8%A7%80%E5%A1%98-%E6%B8%AF%E5%BC%8F-%E7%B4%A0%E9%A3%9F-r572166?_sUrl=https%3A%2F%2Fs.openrice.com%2FQrbS01hi800~drFY0lXan</t>
   </si>
 </sst>
 </file>
@@ -11429,14 +11426,17 @@
   </sheetPr>
   <dimension ref="A1:K186"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G15" zoomScale="132" workbookViewId="0">
-      <selection activeCell="K26" sqref="K26"/>
+    <sheetView tabSelected="1" zoomScale="132" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1:G1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="3" max="3" width="32.5" customWidth="1"/>
-    <col min="6" max="6" width="41.83203125" customWidth="1"/>
+    <col min="1" max="1" width="8.1640625" customWidth="1"/>
+    <col min="2" max="2" width="7.6640625" customWidth="1"/>
+    <col min="3" max="3" width="16.83203125" customWidth="1"/>
+    <col min="5" max="5" width="7.1640625" customWidth="1"/>
+    <col min="6" max="6" width="20.1640625" customWidth="1"/>
     <col min="10" max="10" width="12.6640625" style="27"/>
     <col min="11" max="11" width="19" customWidth="1"/>
   </cols>
@@ -11512,7 +11512,7 @@
         <v>10</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>890</v>
+        <v>886</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>397</v>
@@ -11524,17 +11524,17 @@
         <v>14</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>909</v>
+        <v>905</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>989</v>
+        <v>985</v>
       </c>
       <c r="H3" s="5"/>
       <c r="I3" s="24" t="s">
-        <v>910</v>
+        <v>906</v>
       </c>
       <c r="J3" s="25" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="K3" s="5"/>
     </row>
@@ -11543,10 +11543,10 @@
         <v>10</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>890</v>
+        <v>886</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>889</v>
+        <v>885</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>418</v>
@@ -11555,17 +11555,17 @@
         <v>14</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
       <c r="H4" s="5"/>
       <c r="I4" s="24" t="s">
-        <v>914</v>
+        <v>910</v>
       </c>
       <c r="J4" s="25" t="s">
-        <v>915</v>
+        <v>911</v>
       </c>
       <c r="K4" s="5"/>
     </row>
@@ -11574,10 +11574,10 @@
         <v>10</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>890</v>
+        <v>886</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>891</v>
+        <v>887</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>418</v>
@@ -11586,17 +11586,17 @@
         <v>25</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>916</v>
+        <v>912</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>917</v>
+        <v>913</v>
       </c>
       <c r="H5" s="5"/>
       <c r="I5" s="24" t="s">
-        <v>918</v>
+        <v>914</v>
       </c>
       <c r="J5" s="25" t="s">
-        <v>919</v>
+        <v>915</v>
       </c>
       <c r="K5" s="5"/>
     </row>
@@ -11620,7 +11620,7 @@
         <v>399</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>988</v>
+        <v>984</v>
       </c>
       <c r="H6" s="5"/>
       <c r="I6" s="7" t="s">
@@ -11744,7 +11744,7 @@
         <v>413</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>715</v>
+        <v>712</v>
       </c>
       <c r="H10" s="5"/>
       <c r="I10" s="7" t="s">
@@ -11785,7 +11785,7 @@
         <v>417</v>
       </c>
       <c r="K11" s="5" t="s">
-        <v>1040</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="15.75" customHeight="1">
@@ -11812,7 +11812,7 @@
       </c>
       <c r="H12" s="5"/>
       <c r="I12" s="24" t="s">
-        <v>859</v>
+        <v>855</v>
       </c>
       <c r="J12" s="25" t="s">
         <v>420</v>
@@ -11947,7 +11947,7 @@
         <v>22</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>888</v>
+        <v>884</v>
       </c>
       <c r="D17" s="5" t="s">
         <v>382</v>
@@ -11956,17 +11956,17 @@
         <v>14</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>920</v>
+        <v>916</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>921</v>
+        <v>917</v>
       </c>
       <c r="H17" s="5"/>
       <c r="I17" s="24" t="s">
-        <v>922</v>
+        <v>918</v>
       </c>
       <c r="J17" s="25" t="s">
-        <v>923</v>
+        <v>919</v>
       </c>
       <c r="K17" s="5"/>
     </row>
@@ -11994,7 +11994,7 @@
       </c>
       <c r="H18" s="5"/>
       <c r="I18" s="24" t="s">
-        <v>860</v>
+        <v>856</v>
       </c>
       <c r="J18" s="25" t="s">
         <v>429</v>
@@ -12040,7 +12040,7 @@
         <v>22</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>1027</v>
+        <v>1023</v>
       </c>
       <c r="D20" s="5" t="s">
         <v>410</v>
@@ -12049,17 +12049,17 @@
         <v>39</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>1028</v>
+        <v>1024</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>1029</v>
+        <v>1025</v>
       </c>
       <c r="H20" s="5"/>
       <c r="I20" s="24" t="s">
-        <v>1030</v>
+        <v>1026</v>
       </c>
       <c r="J20" s="25" t="s">
-        <v>1031</v>
+        <v>1027</v>
       </c>
       <c r="K20" s="5"/>
     </row>
@@ -12071,7 +12071,7 @@
         <v>22</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="D21" s="5" t="s">
         <v>47</v>
@@ -12080,14 +12080,14 @@
         <v>25</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>729</v>
+        <v>726</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>730</v>
+        <v>727</v>
       </c>
       <c r="H21" s="5"/>
       <c r="I21" s="24" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="J21" s="25">
         <v>37553067</v>
@@ -12102,7 +12102,7 @@
         <v>22</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>728</v>
+        <v>725</v>
       </c>
       <c r="D22" s="5" t="s">
         <v>47</v>
@@ -12111,17 +12111,17 @@
         <v>25</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>732</v>
+        <v>729</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>733</v>
+        <v>730</v>
       </c>
       <c r="H22" s="5"/>
       <c r="I22" s="24" t="s">
-        <v>734</v>
+        <v>731</v>
       </c>
       <c r="J22" s="25" t="s">
-        <v>735</v>
+        <v>732</v>
       </c>
       <c r="K22" s="5"/>
     </row>
@@ -12226,7 +12226,7 @@
         <v>69</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>1041</v>
+        <v>1037</v>
       </c>
       <c r="D26" s="5" t="s">
         <v>71</v>
@@ -12235,17 +12235,17 @@
         <v>25</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>1042</v>
+        <v>1038</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>1043</v>
+        <v>1039</v>
       </c>
       <c r="H26" s="5"/>
       <c r="I26" s="24" t="s">
-        <v>1044</v>
+        <v>1040</v>
       </c>
       <c r="J26" s="25" t="s">
-        <v>1045</v>
+        <v>1041</v>
       </c>
       <c r="K26" s="5"/>
     </row>
@@ -12257,7 +12257,7 @@
         <v>69</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>904</v>
+        <v>900</v>
       </c>
       <c r="D27" s="5" t="s">
         <v>75</v>
@@ -12273,7 +12273,7 @@
       </c>
       <c r="H27" s="5"/>
       <c r="I27" s="24" t="s">
-        <v>861</v>
+        <v>857</v>
       </c>
       <c r="J27" s="25" t="s">
         <v>442</v>
@@ -12474,7 +12474,7 @@
         <v>69</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>868</v>
+        <v>864</v>
       </c>
       <c r="D34" s="5" t="s">
         <v>51</v>
@@ -12483,17 +12483,17 @@
         <v>25</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>869</v>
+        <v>865</v>
       </c>
       <c r="G34" s="5" t="s">
-        <v>870</v>
+        <v>866</v>
       </c>
       <c r="H34" s="5"/>
       <c r="I34" s="24" t="s">
-        <v>871</v>
+        <v>867</v>
       </c>
       <c r="J34" s="25" t="s">
-        <v>872</v>
+        <v>868</v>
       </c>
       <c r="K34" s="5"/>
     </row>
@@ -12521,7 +12521,7 @@
       </c>
       <c r="H35" s="5"/>
       <c r="I35" s="24" t="s">
-        <v>862</v>
+        <v>858</v>
       </c>
       <c r="J35" s="25" t="s">
         <v>456</v>
@@ -12620,7 +12620,7 @@
         <v>467</v>
       </c>
       <c r="K38" s="5" t="s">
-        <v>1039</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="39" spans="1:11" ht="15.75" customHeight="1">
@@ -12724,7 +12724,7 @@
         <v>99</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>726</v>
+        <v>723</v>
       </c>
       <c r="D42" s="5" t="s">
         <v>181</v>
@@ -12733,17 +12733,17 @@
         <v>14</v>
       </c>
       <c r="F42" s="5" t="s">
-        <v>736</v>
+        <v>733</v>
       </c>
       <c r="G42" s="5" t="s">
-        <v>737</v>
+        <v>734</v>
       </c>
       <c r="H42" s="5"/>
       <c r="I42" s="24" t="s">
-        <v>738</v>
+        <v>735</v>
       </c>
       <c r="J42" s="25" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
       <c r="K42" s="5"/>
     </row>
@@ -12755,7 +12755,7 @@
         <v>99</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>727</v>
+        <v>724</v>
       </c>
       <c r="D43" s="5" t="s">
         <v>410</v>
@@ -12764,17 +12764,17 @@
         <v>25</v>
       </c>
       <c r="F43" s="5" t="s">
-        <v>740</v>
+        <v>737</v>
       </c>
       <c r="G43" s="5" t="s">
-        <v>741</v>
+        <v>738</v>
       </c>
       <c r="H43" s="5"/>
       <c r="I43" s="24" t="s">
-        <v>742</v>
+        <v>739</v>
       </c>
       <c r="J43" s="25" t="s">
-        <v>743</v>
+        <v>740</v>
       </c>
       <c r="K43" s="5"/>
     </row>
@@ -12783,10 +12783,10 @@
         <v>10</v>
       </c>
       <c r="B44" s="23" t="s">
-        <v>899</v>
+        <v>895</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>897</v>
+        <v>893</v>
       </c>
       <c r="D44" s="5" t="s">
         <v>410</v>
@@ -12795,17 +12795,17 @@
         <v>25</v>
       </c>
       <c r="F44" s="5" t="s">
-        <v>924</v>
+        <v>920</v>
       </c>
       <c r="G44" s="5" t="s">
-        <v>925</v>
+        <v>921</v>
       </c>
       <c r="H44" s="5"/>
       <c r="I44" s="24" t="s">
-        <v>926</v>
+        <v>922</v>
       </c>
       <c r="J44" s="25" t="s">
-        <v>927</v>
+        <v>923</v>
       </c>
       <c r="K44" s="5"/>
     </row>
@@ -12864,7 +12864,7 @@
       </c>
       <c r="H46" s="5"/>
       <c r="I46" s="24" t="s">
-        <v>854</v>
+        <v>850</v>
       </c>
       <c r="J46" s="25" t="s">
         <v>484</v>
@@ -12879,7 +12879,7 @@
         <v>115</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>849</v>
+        <v>845</v>
       </c>
       <c r="D47" s="5" t="s">
         <v>410</v>
@@ -12888,17 +12888,17 @@
         <v>25</v>
       </c>
       <c r="F47" s="5" t="s">
-        <v>850</v>
+        <v>846</v>
       </c>
       <c r="G47" s="5" t="s">
-        <v>851</v>
+        <v>847</v>
       </c>
       <c r="H47" s="5"/>
       <c r="I47" s="24" t="s">
-        <v>852</v>
+        <v>848</v>
       </c>
       <c r="J47" s="25" t="s">
-        <v>853</v>
+        <v>849</v>
       </c>
       <c r="K47" s="5"/>
     </row>
@@ -12910,7 +12910,7 @@
         <v>115</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>878</v>
+        <v>874</v>
       </c>
       <c r="D48" s="5" t="s">
         <v>117</v>
@@ -12919,17 +12919,17 @@
         <v>25</v>
       </c>
       <c r="F48" s="5" t="s">
-        <v>879</v>
+        <v>875</v>
       </c>
       <c r="G48" s="5" t="s">
-        <v>880</v>
+        <v>876</v>
       </c>
       <c r="H48" s="5"/>
       <c r="I48" s="24" t="s">
-        <v>881</v>
+        <v>877</v>
       </c>
       <c r="J48" s="25" t="s">
-        <v>882</v>
+        <v>878</v>
       </c>
       <c r="K48" s="5"/>
     </row>
@@ -12941,7 +12941,7 @@
         <v>115</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>873</v>
+        <v>869</v>
       </c>
       <c r="D49" s="5" t="s">
         <v>410</v>
@@ -12950,17 +12950,17 @@
         <v>14</v>
       </c>
       <c r="F49" s="5" t="s">
-        <v>874</v>
+        <v>870</v>
       </c>
       <c r="G49" s="5" t="s">
-        <v>875</v>
+        <v>871</v>
       </c>
       <c r="H49" s="5"/>
       <c r="I49" s="24" t="s">
-        <v>876</v>
+        <v>872</v>
       </c>
       <c r="J49" s="25" t="s">
-        <v>877</v>
+        <v>873</v>
       </c>
       <c r="K49" s="5"/>
     </row>
@@ -12972,7 +12972,7 @@
         <v>115</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>990</v>
+        <v>986</v>
       </c>
       <c r="D50" s="5" t="s">
         <v>410</v>
@@ -12981,17 +12981,17 @@
         <v>25</v>
       </c>
       <c r="F50" s="5" t="s">
-        <v>992</v>
+        <v>988</v>
       </c>
       <c r="G50" s="5" t="s">
-        <v>993</v>
+        <v>989</v>
       </c>
       <c r="H50" s="5"/>
       <c r="I50" s="24" t="s">
-        <v>994</v>
+        <v>990</v>
       </c>
       <c r="J50" s="25" t="s">
-        <v>995</v>
+        <v>991</v>
       </c>
       <c r="K50" s="5"/>
     </row>
@@ -13003,7 +13003,7 @@
         <v>115</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>991</v>
+        <v>987</v>
       </c>
       <c r="D51" s="5" t="s">
         <v>117</v>
@@ -13012,17 +13012,17 @@
         <v>25</v>
       </c>
       <c r="F51" s="5" t="s">
-        <v>996</v>
+        <v>992</v>
       </c>
       <c r="G51" s="5" t="s">
-        <v>997</v>
+        <v>993</v>
       </c>
       <c r="H51" s="5"/>
       <c r="I51" s="24" t="s">
-        <v>998</v>
+        <v>994</v>
       </c>
       <c r="J51" s="25" t="s">
-        <v>999</v>
+        <v>995</v>
       </c>
       <c r="K51" s="5"/>
     </row>
@@ -13158,7 +13158,7 @@
         <v>133</v>
       </c>
       <c r="C56" s="9" t="s">
-        <v>901</v>
+        <v>897</v>
       </c>
       <c r="D56" s="9" t="s">
         <v>410</v>
@@ -13263,7 +13263,7 @@
         <v>505</v>
       </c>
       <c r="G59" s="9" t="s">
-        <v>778</v>
+        <v>774</v>
       </c>
       <c r="H59" s="9"/>
       <c r="I59" s="10" t="s">
@@ -13282,7 +13282,7 @@
         <v>133</v>
       </c>
       <c r="C60" s="9" t="s">
-        <v>904</v>
+        <v>900</v>
       </c>
       <c r="D60" s="9" t="s">
         <v>75</v>
@@ -13298,7 +13298,7 @@
       </c>
       <c r="H60" s="9"/>
       <c r="I60" s="28" t="s">
-        <v>855</v>
+        <v>851</v>
       </c>
       <c r="J60" s="26" t="s">
         <v>509</v>
@@ -13313,7 +13313,7 @@
         <v>133</v>
       </c>
       <c r="C61" s="9" t="s">
-        <v>903</v>
+        <v>899</v>
       </c>
       <c r="D61" s="9" t="s">
         <v>75</v>
@@ -13329,7 +13329,7 @@
       </c>
       <c r="H61" s="9"/>
       <c r="I61" s="28" t="s">
-        <v>856</v>
+        <v>852</v>
       </c>
       <c r="J61" s="26" t="s">
         <v>511</v>
@@ -13375,7 +13375,7 @@
         <v>133</v>
       </c>
       <c r="C63" s="9" t="s">
-        <v>839</v>
+        <v>835</v>
       </c>
       <c r="D63" s="9" t="s">
         <v>410</v>
@@ -13384,17 +13384,17 @@
         <v>25</v>
       </c>
       <c r="F63" s="9" t="s">
-        <v>840</v>
+        <v>836</v>
       </c>
       <c r="G63" s="9" t="s">
-        <v>841</v>
+        <v>837</v>
       </c>
       <c r="H63" s="9"/>
       <c r="I63" s="28" t="s">
-        <v>842</v>
+        <v>838</v>
       </c>
       <c r="J63" s="26" t="s">
-        <v>843</v>
+        <v>839</v>
       </c>
       <c r="K63" s="9"/>
     </row>
@@ -13406,7 +13406,7 @@
         <v>133</v>
       </c>
       <c r="C64" s="9" t="s">
-        <v>906</v>
+        <v>902</v>
       </c>
       <c r="D64" s="9" t="s">
         <v>55</v>
@@ -13499,7 +13499,7 @@
         <v>133</v>
       </c>
       <c r="C67" s="9" t="s">
-        <v>779</v>
+        <v>775</v>
       </c>
       <c r="D67" s="9" t="s">
         <v>47</v>
@@ -13508,17 +13508,17 @@
         <v>25</v>
       </c>
       <c r="F67" s="9" t="s">
-        <v>792</v>
+        <v>788</v>
       </c>
       <c r="G67" s="9" t="s">
-        <v>793</v>
+        <v>789</v>
       </c>
       <c r="H67" s="9"/>
       <c r="I67" s="28" t="s">
-        <v>794</v>
+        <v>790</v>
       </c>
       <c r="J67" s="26" t="s">
-        <v>795</v>
+        <v>791</v>
       </c>
       <c r="K67" s="9"/>
     </row>
@@ -13530,7 +13530,7 @@
         <v>133</v>
       </c>
       <c r="C68" s="9" t="s">
-        <v>780</v>
+        <v>776</v>
       </c>
       <c r="D68" s="9" t="s">
         <v>410</v>
@@ -13539,17 +13539,17 @@
         <v>25</v>
       </c>
       <c r="F68" s="9" t="s">
-        <v>796</v>
+        <v>792</v>
       </c>
       <c r="G68" s="9" t="s">
-        <v>797</v>
+        <v>793</v>
       </c>
       <c r="H68" s="9"/>
       <c r="I68" s="28" t="s">
-        <v>798</v>
+        <v>794</v>
       </c>
       <c r="J68" s="26" t="s">
-        <v>799</v>
+        <v>795</v>
       </c>
       <c r="K68" s="9"/>
     </row>
@@ -13561,7 +13561,7 @@
         <v>133</v>
       </c>
       <c r="C69" s="9" t="s">
-        <v>902</v>
+        <v>898</v>
       </c>
       <c r="D69" s="9" t="s">
         <v>75</v>
@@ -13570,17 +13570,17 @@
         <v>25</v>
       </c>
       <c r="F69" s="9" t="s">
-        <v>928</v>
+        <v>924</v>
       </c>
       <c r="G69" s="9" t="s">
-        <v>929</v>
+        <v>925</v>
       </c>
       <c r="H69" s="9"/>
       <c r="I69" s="28" t="s">
-        <v>930</v>
+        <v>926</v>
       </c>
       <c r="J69" s="26" t="s">
-        <v>931</v>
+        <v>927</v>
       </c>
       <c r="K69" s="9"/>
     </row>
@@ -13592,7 +13592,7 @@
         <v>133</v>
       </c>
       <c r="C70" s="9" t="s">
-        <v>781</v>
+        <v>777</v>
       </c>
       <c r="D70" s="9" t="s">
         <v>47</v>
@@ -13601,17 +13601,17 @@
         <v>14</v>
       </c>
       <c r="F70" s="9" t="s">
-        <v>800</v>
+        <v>796</v>
       </c>
       <c r="G70" s="9" t="s">
-        <v>801</v>
+        <v>797</v>
       </c>
       <c r="H70" s="9"/>
       <c r="I70" s="28" t="s">
-        <v>802</v>
+        <v>798</v>
       </c>
       <c r="J70" s="26" t="s">
-        <v>803</v>
+        <v>799</v>
       </c>
       <c r="K70" s="9"/>
     </row>
@@ -13623,7 +13623,7 @@
         <v>133</v>
       </c>
       <c r="C71" s="9" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="D71" s="9" t="s">
         <v>117</v>
@@ -13632,17 +13632,17 @@
         <v>14</v>
       </c>
       <c r="F71" s="9" t="s">
-        <v>804</v>
+        <v>800</v>
       </c>
       <c r="G71" s="9" t="s">
-        <v>805</v>
+        <v>801</v>
       </c>
       <c r="H71" s="9"/>
       <c r="I71" s="28" t="s">
-        <v>806</v>
+        <v>802</v>
       </c>
       <c r="J71" s="26" t="s">
-        <v>807</v>
+        <v>803</v>
       </c>
       <c r="K71" s="9"/>
     </row>
@@ -13685,7 +13685,7 @@
         <v>133</v>
       </c>
       <c r="C73" s="9" t="s">
-        <v>905</v>
+        <v>901</v>
       </c>
       <c r="D73" s="9" t="s">
         <v>402</v>
@@ -13694,14 +13694,14 @@
         <v>25</v>
       </c>
       <c r="F73" s="9" t="s">
-        <v>932</v>
+        <v>928</v>
       </c>
       <c r="G73" s="9" t="s">
-        <v>933</v>
+        <v>929</v>
       </c>
       <c r="H73" s="9"/>
       <c r="I73" s="28" t="s">
-        <v>934</v>
+        <v>930</v>
       </c>
       <c r="J73" s="26"/>
       <c r="K73" s="9"/>
@@ -13792,7 +13792,7 @@
       </c>
       <c r="H76" s="9"/>
       <c r="I76" s="28" t="s">
-        <v>857</v>
+        <v>853</v>
       </c>
       <c r="J76" s="26" t="s">
         <v>528</v>
@@ -13838,7 +13838,7 @@
         <v>163</v>
       </c>
       <c r="C78" s="9" t="s">
-        <v>844</v>
+        <v>840</v>
       </c>
       <c r="D78" s="9" t="s">
         <v>410</v>
@@ -13847,17 +13847,17 @@
         <v>25</v>
       </c>
       <c r="F78" s="9" t="s">
-        <v>845</v>
+        <v>841</v>
       </c>
       <c r="G78" s="9" t="s">
-        <v>846</v>
+        <v>842</v>
       </c>
       <c r="H78" s="9"/>
       <c r="I78" s="28" t="s">
-        <v>847</v>
+        <v>843</v>
       </c>
       <c r="J78" s="26" t="s">
-        <v>848</v>
+        <v>844</v>
       </c>
       <c r="K78" s="9"/>
     </row>
@@ -13869,7 +13869,7 @@
         <v>163</v>
       </c>
       <c r="C79" s="9" t="s">
-        <v>1012</v>
+        <v>1008</v>
       </c>
       <c r="D79" s="9" t="s">
         <v>312</v>
@@ -13878,17 +13878,17 @@
         <v>14</v>
       </c>
       <c r="F79" s="9" t="s">
-        <v>1013</v>
+        <v>1009</v>
       </c>
       <c r="G79" s="9" t="s">
-        <v>1014</v>
+        <v>1010</v>
       </c>
       <c r="H79" s="9"/>
       <c r="I79" s="28" t="s">
-        <v>1015</v>
+        <v>1011</v>
       </c>
       <c r="J79" s="26" t="s">
-        <v>1016</v>
+        <v>1012</v>
       </c>
       <c r="K79" s="9"/>
     </row>
@@ -13897,10 +13897,10 @@
         <v>132</v>
       </c>
       <c r="B80" s="9" t="s">
-        <v>724</v>
+        <v>721</v>
       </c>
       <c r="C80" s="9" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="D80" s="9" t="s">
         <v>410</v>
@@ -13909,17 +13909,17 @@
         <v>14</v>
       </c>
       <c r="F80" s="9" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
       <c r="G80" s="9" t="s">
-        <v>745</v>
+        <v>742</v>
       </c>
       <c r="H80" s="9"/>
       <c r="I80" s="28" t="s">
-        <v>746</v>
+        <v>743</v>
       </c>
       <c r="J80" s="26" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
       <c r="K80" s="9"/>
     </row>
@@ -13959,29 +13959,29 @@
         <v>132</v>
       </c>
       <c r="B82" s="9" t="s">
-        <v>531</v>
+        <v>176</v>
       </c>
       <c r="C82" s="9" t="s">
-        <v>381</v>
+        <v>537</v>
       </c>
       <c r="D82" s="9" t="s">
-        <v>382</v>
+        <v>410</v>
       </c>
       <c r="E82" s="9" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="F82" s="9" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="G82" s="9" t="s">
-        <v>777</v>
+        <v>539</v>
       </c>
       <c r="H82" s="9"/>
       <c r="I82" s="10" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="J82" s="26" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="K82" s="9"/>
     </row>
@@ -13993,7 +13993,7 @@
         <v>176</v>
       </c>
       <c r="C83" s="9" t="s">
-        <v>540</v>
+        <v>177</v>
       </c>
       <c r="D83" s="9" t="s">
         <v>410</v>
@@ -14002,14 +14002,14 @@
         <v>25</v>
       </c>
       <c r="F83" s="9" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="G83" s="9" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="H83" s="9"/>
       <c r="I83" s="10" t="s">
-        <v>543</v>
+        <v>179</v>
       </c>
       <c r="J83" s="26" t="s">
         <v>544</v>
@@ -14024,26 +14024,26 @@
         <v>176</v>
       </c>
       <c r="C84" s="9" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="D84" s="9" t="s">
-        <v>410</v>
+        <v>181</v>
       </c>
       <c r="E84" s="9" t="s">
         <v>25</v>
       </c>
       <c r="F84" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="G84" s="9" t="s">
         <v>545</v>
-      </c>
-      <c r="G84" s="9" t="s">
-        <v>546</v>
       </c>
       <c r="H84" s="9"/>
       <c r="I84" s="10" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="J84" s="26" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="K84" s="9"/>
     </row>
@@ -14052,29 +14052,29 @@
         <v>132</v>
       </c>
       <c r="B85" s="9" t="s">
-        <v>176</v>
+        <v>996</v>
       </c>
       <c r="C85" s="9" t="s">
-        <v>180</v>
+        <v>997</v>
       </c>
       <c r="D85" s="9" t="s">
-        <v>181</v>
+        <v>410</v>
       </c>
       <c r="E85" s="9" t="s">
         <v>25</v>
       </c>
       <c r="F85" s="9" t="s">
-        <v>182</v>
+        <v>998</v>
       </c>
       <c r="G85" s="9" t="s">
-        <v>548</v>
+        <v>999</v>
       </c>
       <c r="H85" s="9"/>
-      <c r="I85" s="10" t="s">
-        <v>183</v>
+      <c r="I85" s="28" t="s">
+        <v>1000</v>
       </c>
       <c r="J85" s="26" t="s">
-        <v>549</v>
+        <v>1001</v>
       </c>
       <c r="K85" s="9"/>
     </row>
@@ -14083,10 +14083,10 @@
         <v>132</v>
       </c>
       <c r="B86" s="9" t="s">
-        <v>1000</v>
+        <v>184</v>
       </c>
       <c r="C86" s="9" t="s">
-        <v>1001</v>
+        <v>185</v>
       </c>
       <c r="D86" s="9" t="s">
         <v>410</v>
@@ -14095,17 +14095,17 @@
         <v>25</v>
       </c>
       <c r="F86" s="9" t="s">
-        <v>1002</v>
+        <v>186</v>
       </c>
       <c r="G86" s="9" t="s">
-        <v>1003</v>
+        <v>547</v>
       </c>
       <c r="H86" s="9"/>
-      <c r="I86" s="28" t="s">
-        <v>1004</v>
+      <c r="I86" s="10" t="s">
+        <v>187</v>
       </c>
       <c r="J86" s="26" t="s">
-        <v>1005</v>
+        <v>548</v>
       </c>
       <c r="K86" s="9"/>
     </row>
@@ -14117,26 +14117,26 @@
         <v>184</v>
       </c>
       <c r="C87" s="9" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="D87" s="9" t="s">
-        <v>410</v>
+        <v>117</v>
       </c>
       <c r="E87" s="9" t="s">
         <v>25</v>
       </c>
       <c r="F87" s="9" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="G87" s="9" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="H87" s="9"/>
       <c r="I87" s="10" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="J87" s="26" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="K87" s="9"/>
     </row>
@@ -14148,26 +14148,26 @@
         <v>184</v>
       </c>
       <c r="C88" s="9" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="D88" s="9" t="s">
-        <v>117</v>
+        <v>192</v>
       </c>
       <c r="E88" s="9" t="s">
         <v>25</v>
       </c>
       <c r="F88" s="9" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="G88" s="9" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="H88" s="9"/>
       <c r="I88" s="10" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="J88" s="26" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="K88" s="9"/>
     </row>
@@ -14179,26 +14179,26 @@
         <v>184</v>
       </c>
       <c r="C89" s="9" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="D89" s="9" t="s">
-        <v>192</v>
+        <v>51</v>
       </c>
       <c r="E89" s="9" t="s">
         <v>25</v>
       </c>
       <c r="F89" s="9" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="G89" s="9" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="H89" s="9"/>
       <c r="I89" s="10" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="J89" s="26" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="K89" s="9"/>
     </row>
@@ -14210,26 +14210,26 @@
         <v>184</v>
       </c>
       <c r="C90" s="9" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="D90" s="9" t="s">
-        <v>51</v>
+        <v>418</v>
       </c>
       <c r="E90" s="9" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="F90" s="9" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="G90" s="9" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="H90" s="9"/>
       <c r="I90" s="10" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="J90" s="26" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="K90" s="9"/>
     </row>
@@ -14241,7 +14241,7 @@
         <v>184</v>
       </c>
       <c r="C91" s="9" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="D91" s="9" t="s">
         <v>418</v>
@@ -14250,17 +14250,17 @@
         <v>14</v>
       </c>
       <c r="F91" s="9" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="G91" s="9" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="H91" s="9"/>
       <c r="I91" s="10" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="J91" s="26" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="K91" s="9"/>
     </row>
@@ -14271,8 +14271,8 @@
       <c r="B92" s="9" t="s">
         <v>184</v>
       </c>
-      <c r="C92" s="9" t="s">
-        <v>201</v>
+      <c r="C92" s="12" t="s">
+        <v>204</v>
       </c>
       <c r="D92" s="9" t="s">
         <v>418</v>
@@ -14281,17 +14281,17 @@
         <v>14</v>
       </c>
       <c r="F92" s="9" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="G92" s="9" t="s">
+        <v>559</v>
+      </c>
+      <c r="H92" s="9"/>
+      <c r="I92" s="11" t="s">
+        <v>206</v>
+      </c>
+      <c r="J92" s="26" t="s">
         <v>560</v>
-      </c>
-      <c r="H92" s="9"/>
-      <c r="I92" s="10" t="s">
-        <v>203</v>
-      </c>
-      <c r="J92" s="26" t="s">
-        <v>561</v>
       </c>
       <c r="K92" s="9"/>
     </row>
@@ -14303,26 +14303,26 @@
         <v>184</v>
       </c>
       <c r="C93" s="12" t="s">
-        <v>204</v>
+        <v>820</v>
       </c>
       <c r="D93" s="9" t="s">
-        <v>418</v>
+        <v>410</v>
       </c>
       <c r="E93" s="9" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="F93" s="9" t="s">
-        <v>205</v>
+        <v>821</v>
       </c>
       <c r="G93" s="9" t="s">
-        <v>562</v>
+        <v>822</v>
       </c>
       <c r="H93" s="9"/>
-      <c r="I93" s="11" t="s">
-        <v>206</v>
+      <c r="I93" s="28" t="s">
+        <v>823</v>
       </c>
       <c r="J93" s="26" t="s">
-        <v>563</v>
+        <v>824</v>
       </c>
       <c r="K93" s="9"/>
     </row>
@@ -14334,26 +14334,26 @@
         <v>184</v>
       </c>
       <c r="C94" s="12" t="s">
-        <v>824</v>
+        <v>207</v>
       </c>
       <c r="D94" s="9" t="s">
-        <v>410</v>
+        <v>418</v>
       </c>
       <c r="E94" s="9" t="s">
         <v>25</v>
       </c>
       <c r="F94" s="9" t="s">
-        <v>825</v>
+        <v>208</v>
       </c>
       <c r="G94" s="9" t="s">
-        <v>826</v>
+        <v>561</v>
       </c>
       <c r="H94" s="9"/>
-      <c r="I94" s="28" t="s">
-        <v>827</v>
+      <c r="I94" s="11" t="s">
+        <v>209</v>
       </c>
       <c r="J94" s="26" t="s">
-        <v>828</v>
+        <v>562</v>
       </c>
       <c r="K94" s="9"/>
     </row>
@@ -14362,29 +14362,29 @@
         <v>132</v>
       </c>
       <c r="B95" s="9" t="s">
-        <v>184</v>
+        <v>210</v>
       </c>
       <c r="C95" s="12" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="D95" s="9" t="s">
         <v>418</v>
       </c>
       <c r="E95" s="9" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="F95" s="9" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="G95" s="9" t="s">
+        <v>563</v>
+      </c>
+      <c r="H95" s="9"/>
+      <c r="I95" s="10" t="s">
+        <v>213</v>
+      </c>
+      <c r="J95" s="26" t="s">
         <v>564</v>
-      </c>
-      <c r="H95" s="9"/>
-      <c r="I95" s="11" t="s">
-        <v>209</v>
-      </c>
-      <c r="J95" s="26" t="s">
-        <v>565</v>
       </c>
       <c r="K95" s="9"/>
     </row>
@@ -14393,29 +14393,29 @@
         <v>132</v>
       </c>
       <c r="B96" s="9" t="s">
-        <v>210</v>
+        <v>715</v>
       </c>
       <c r="C96" s="12" t="s">
-        <v>211</v>
+        <v>714</v>
       </c>
       <c r="D96" s="9" t="s">
-        <v>418</v>
+        <v>410</v>
       </c>
       <c r="E96" s="9" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="F96" s="9" t="s">
-        <v>212</v>
+        <v>746</v>
       </c>
       <c r="G96" s="9" t="s">
-        <v>566</v>
+        <v>745</v>
       </c>
       <c r="H96" s="9"/>
-      <c r="I96" s="10" t="s">
-        <v>213</v>
+      <c r="I96" s="28" t="s">
+        <v>747</v>
       </c>
       <c r="J96" s="26" t="s">
-        <v>567</v>
+        <v>748</v>
       </c>
       <c r="K96" s="9"/>
     </row>
@@ -14424,10 +14424,10 @@
         <v>132</v>
       </c>
       <c r="B97" s="9" t="s">
-        <v>718</v>
+        <v>715</v>
       </c>
       <c r="C97" s="12" t="s">
-        <v>717</v>
+        <v>888</v>
       </c>
       <c r="D97" s="9" t="s">
         <v>410</v>
@@ -14436,18 +14436,16 @@
         <v>25</v>
       </c>
       <c r="F97" s="9" t="s">
-        <v>749</v>
+        <v>955</v>
       </c>
       <c r="G97" s="9" t="s">
-        <v>748</v>
+        <v>956</v>
       </c>
       <c r="H97" s="9"/>
       <c r="I97" s="28" t="s">
-        <v>750</v>
-      </c>
-      <c r="J97" s="26" t="s">
-        <v>751</v>
-      </c>
+        <v>957</v>
+      </c>
+      <c r="J97" s="26"/>
       <c r="K97" s="9"/>
     </row>
     <row r="98" spans="1:11" ht="13">
@@ -14455,28 +14453,30 @@
         <v>132</v>
       </c>
       <c r="B98" s="9" t="s">
-        <v>718</v>
+        <v>214</v>
       </c>
       <c r="C98" s="12" t="s">
-        <v>892</v>
+        <v>215</v>
       </c>
       <c r="D98" s="9" t="s">
-        <v>410</v>
+        <v>47</v>
       </c>
       <c r="E98" s="9" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="F98" s="9" t="s">
-        <v>959</v>
+        <v>216</v>
       </c>
       <c r="G98" s="9" t="s">
-        <v>960</v>
+        <v>565</v>
       </c>
       <c r="H98" s="9"/>
-      <c r="I98" s="28" t="s">
-        <v>961</v>
-      </c>
-      <c r="J98" s="26"/>
+      <c r="I98" s="10" t="s">
+        <v>217</v>
+      </c>
+      <c r="J98" s="26" t="s">
+        <v>566</v>
+      </c>
       <c r="K98" s="9"/>
     </row>
     <row r="99" spans="1:11" ht="13">
@@ -14487,26 +14487,26 @@
         <v>214</v>
       </c>
       <c r="C99" s="12" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="D99" s="9" t="s">
-        <v>47</v>
+        <v>157</v>
       </c>
       <c r="E99" s="9" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="F99" s="9" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="G99" s="9" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="H99" s="9"/>
       <c r="I99" s="10" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="J99" s="26" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="K99" s="9"/>
     </row>
@@ -14515,29 +14515,29 @@
         <v>132</v>
       </c>
       <c r="B100" s="9" t="s">
-        <v>214</v>
+        <v>221</v>
       </c>
       <c r="C100" s="12" t="s">
-        <v>218</v>
+        <v>569</v>
       </c>
       <c r="D100" s="9" t="s">
-        <v>157</v>
+        <v>410</v>
       </c>
       <c r="E100" s="9" t="s">
         <v>25</v>
       </c>
       <c r="F100" s="9" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="G100" s="9" t="s">
         <v>570</v>
       </c>
       <c r="H100" s="9"/>
       <c r="I100" s="10" t="s">
-        <v>220</v>
+        <v>571</v>
       </c>
       <c r="J100" s="26" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="K100" s="9"/>
     </row>
@@ -14546,29 +14546,29 @@
         <v>132</v>
       </c>
       <c r="B101" s="9" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="C101" s="12" t="s">
-        <v>572</v>
+        <v>226</v>
       </c>
       <c r="D101" s="9" t="s">
-        <v>410</v>
+        <v>418</v>
       </c>
       <c r="E101" s="9" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="F101" s="9" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="G101" s="9" t="s">
         <v>573</v>
       </c>
       <c r="H101" s="9"/>
       <c r="I101" s="10" t="s">
+        <v>228</v>
+      </c>
+      <c r="J101" s="26" t="s">
         <v>574</v>
-      </c>
-      <c r="J101" s="26" t="s">
-        <v>575</v>
       </c>
       <c r="K101" s="9"/>
     </row>
@@ -14580,26 +14580,26 @@
         <v>225</v>
       </c>
       <c r="C102" s="12" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="D102" s="9" t="s">
-        <v>418</v>
+        <v>410</v>
       </c>
       <c r="E102" s="9" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="F102" s="9" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="G102" s="9" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="H102" s="9"/>
       <c r="I102" s="10" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="J102" s="26" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="K102" s="9"/>
     </row>
@@ -14608,10 +14608,10 @@
         <v>132</v>
       </c>
       <c r="B103" s="9" t="s">
-        <v>225</v>
-      </c>
-      <c r="C103" s="12" t="s">
-        <v>229</v>
+        <v>577</v>
+      </c>
+      <c r="C103" s="9" t="s">
+        <v>578</v>
       </c>
       <c r="D103" s="9" t="s">
         <v>410</v>
@@ -14620,17 +14620,17 @@
         <v>25</v>
       </c>
       <c r="F103" s="9" t="s">
-        <v>230</v>
+        <v>579</v>
       </c>
       <c r="G103" s="9" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="H103" s="9"/>
-      <c r="I103" s="10" t="s">
-        <v>231</v>
+      <c r="I103" s="11" t="s">
+        <v>581</v>
       </c>
       <c r="J103" s="26" t="s">
-        <v>579</v>
+        <v>582</v>
       </c>
       <c r="K103" s="9"/>
     </row>
@@ -14639,29 +14639,29 @@
         <v>132</v>
       </c>
       <c r="B104" s="9" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="C104" s="9" t="s">
-        <v>581</v>
+        <v>830</v>
       </c>
       <c r="D104" s="9" t="s">
-        <v>410</v>
+        <v>117</v>
       </c>
       <c r="E104" s="9" t="s">
         <v>25</v>
       </c>
       <c r="F104" s="9" t="s">
-        <v>582</v>
+        <v>831</v>
       </c>
       <c r="G104" s="9" t="s">
-        <v>583</v>
+        <v>832</v>
       </c>
       <c r="H104" s="9"/>
-      <c r="I104" s="11" t="s">
-        <v>584</v>
+      <c r="I104" s="28" t="s">
+        <v>833</v>
       </c>
       <c r="J104" s="26" t="s">
-        <v>585</v>
+        <v>834</v>
       </c>
       <c r="K104" s="9"/>
     </row>
@@ -14670,10 +14670,10 @@
         <v>132</v>
       </c>
       <c r="B105" s="9" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="C105" s="9" t="s">
-        <v>834</v>
+        <v>904</v>
       </c>
       <c r="D105" s="9" t="s">
         <v>117</v>
@@ -14682,17 +14682,17 @@
         <v>25</v>
       </c>
       <c r="F105" s="9" t="s">
-        <v>835</v>
+        <v>931</v>
       </c>
       <c r="G105" s="9" t="s">
-        <v>836</v>
+        <v>932</v>
       </c>
       <c r="H105" s="9"/>
       <c r="I105" s="28" t="s">
-        <v>837</v>
+        <v>933</v>
       </c>
       <c r="J105" s="26" t="s">
-        <v>838</v>
+        <v>934</v>
       </c>
       <c r="K105" s="9"/>
     </row>
@@ -14701,29 +14701,29 @@
         <v>132</v>
       </c>
       <c r="B106" s="9" t="s">
-        <v>580</v>
+        <v>232</v>
       </c>
       <c r="C106" s="9" t="s">
-        <v>908</v>
+        <v>233</v>
       </c>
       <c r="D106" s="9" t="s">
-        <v>117</v>
+        <v>410</v>
       </c>
       <c r="E106" s="9" t="s">
         <v>25</v>
       </c>
       <c r="F106" s="9" t="s">
-        <v>935</v>
+        <v>234</v>
       </c>
       <c r="G106" s="9" t="s">
-        <v>936</v>
+        <v>583</v>
       </c>
       <c r="H106" s="9"/>
-      <c r="I106" s="28" t="s">
-        <v>937</v>
+      <c r="I106" s="10" t="s">
+        <v>235</v>
       </c>
       <c r="J106" s="26" t="s">
-        <v>938</v>
+        <v>584</v>
       </c>
       <c r="K106" s="9"/>
     </row>
@@ -14732,29 +14732,29 @@
         <v>132</v>
       </c>
       <c r="B107" s="9" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="C107" s="9" t="s">
-        <v>233</v>
+        <v>381</v>
       </c>
       <c r="D107" s="9" t="s">
-        <v>410</v>
+        <v>382</v>
       </c>
       <c r="E107" s="9" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="F107" s="9" t="s">
-        <v>234</v>
+        <v>585</v>
       </c>
       <c r="G107" s="9" t="s">
         <v>586</v>
       </c>
       <c r="H107" s="9"/>
-      <c r="I107" s="10" t="s">
-        <v>235</v>
+      <c r="I107" s="11" t="s">
+        <v>587</v>
       </c>
       <c r="J107" s="26" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="K107" s="9"/>
     </row>
@@ -14766,26 +14766,26 @@
         <v>236</v>
       </c>
       <c r="C108" s="9" t="s">
-        <v>381</v>
+        <v>237</v>
       </c>
       <c r="D108" s="9" t="s">
-        <v>382</v>
+        <v>410</v>
       </c>
       <c r="E108" s="9" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="F108" s="9" t="s">
-        <v>588</v>
+        <v>238</v>
       </c>
       <c r="G108" s="9" t="s">
         <v>589</v>
       </c>
       <c r="H108" s="9"/>
-      <c r="I108" s="11" t="s">
+      <c r="I108" s="10" t="s">
+        <v>239</v>
+      </c>
+      <c r="J108" s="26" t="s">
         <v>590</v>
-      </c>
-      <c r="J108" s="26" t="s">
-        <v>591</v>
       </c>
       <c r="K108" s="9"/>
     </row>
@@ -14797,26 +14797,26 @@
         <v>236</v>
       </c>
       <c r="C109" s="9" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="D109" s="9" t="s">
-        <v>410</v>
+        <v>241</v>
       </c>
       <c r="E109" s="9" t="s">
         <v>25</v>
       </c>
       <c r="F109" s="9" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="G109" s="9" t="s">
-        <v>592</v>
+        <v>1028</v>
       </c>
       <c r="H109" s="9"/>
       <c r="I109" s="10" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="J109" s="26" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="K109" s="9"/>
     </row>
@@ -14828,26 +14828,26 @@
         <v>236</v>
       </c>
       <c r="C110" s="9" t="s">
-        <v>240</v>
+        <v>782</v>
       </c>
       <c r="D110" s="9" t="s">
-        <v>241</v>
+        <v>117</v>
       </c>
       <c r="E110" s="9" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="F110" s="9" t="s">
-        <v>242</v>
+        <v>804</v>
       </c>
       <c r="G110" s="9" t="s">
-        <v>1032</v>
+        <v>805</v>
       </c>
       <c r="H110" s="9"/>
-      <c r="I110" s="10" t="s">
-        <v>243</v>
+      <c r="I110" s="28" t="s">
+        <v>806</v>
       </c>
       <c r="J110" s="26" t="s">
-        <v>594</v>
+        <v>807</v>
       </c>
       <c r="K110" s="9"/>
     </row>
@@ -14859,26 +14859,26 @@
         <v>236</v>
       </c>
       <c r="C111" s="9" t="s">
-        <v>786</v>
+        <v>903</v>
       </c>
       <c r="D111" s="9" t="s">
-        <v>117</v>
+        <v>418</v>
       </c>
       <c r="E111" s="9" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="F111" s="9" t="s">
-        <v>808</v>
+        <v>936</v>
       </c>
       <c r="G111" s="9" t="s">
-        <v>809</v>
+        <v>935</v>
       </c>
       <c r="H111" s="9"/>
       <c r="I111" s="28" t="s">
-        <v>810</v>
+        <v>937</v>
       </c>
       <c r="J111" s="26" t="s">
-        <v>811</v>
+        <v>938</v>
       </c>
       <c r="K111" s="9"/>
     </row>
@@ -14887,29 +14887,29 @@
         <v>132</v>
       </c>
       <c r="B112" s="9" t="s">
-        <v>236</v>
+        <v>244</v>
       </c>
       <c r="C112" s="9" t="s">
-        <v>907</v>
+        <v>245</v>
       </c>
       <c r="D112" s="9" t="s">
-        <v>418</v>
+        <v>241</v>
       </c>
       <c r="E112" s="9" t="s">
         <v>25</v>
       </c>
       <c r="F112" s="9" t="s">
-        <v>940</v>
+        <v>246</v>
       </c>
       <c r="G112" s="9" t="s">
-        <v>939</v>
+        <v>592</v>
       </c>
       <c r="H112" s="9"/>
-      <c r="I112" s="28" t="s">
-        <v>941</v>
+      <c r="I112" s="10" t="s">
+        <v>247</v>
       </c>
       <c r="J112" s="26" t="s">
-        <v>942</v>
+        <v>593</v>
       </c>
       <c r="K112" s="9"/>
     </row>
@@ -14921,26 +14921,26 @@
         <v>244</v>
       </c>
       <c r="C113" s="9" t="s">
-        <v>245</v>
+        <v>167</v>
       </c>
       <c r="D113" s="9" t="s">
-        <v>241</v>
+        <v>410</v>
       </c>
       <c r="E113" s="9" t="s">
         <v>25</v>
       </c>
       <c r="F113" s="9" t="s">
-        <v>246</v>
+        <v>1019</v>
       </c>
       <c r="G113" s="9" t="s">
-        <v>595</v>
+        <v>1020</v>
       </c>
       <c r="H113" s="9"/>
-      <c r="I113" s="10" t="s">
-        <v>247</v>
+      <c r="I113" s="28" t="s">
+        <v>1021</v>
       </c>
       <c r="J113" s="26" t="s">
-        <v>596</v>
+        <v>1022</v>
       </c>
       <c r="K113" s="9"/>
     </row>
@@ -14949,93 +14949,93 @@
         <v>132</v>
       </c>
       <c r="B114" s="9" t="s">
-        <v>244</v>
+        <v>781</v>
       </c>
       <c r="C114" s="9" t="s">
-        <v>167</v>
+        <v>1029</v>
       </c>
       <c r="D114" s="9" t="s">
         <v>410</v>
       </c>
       <c r="E114" s="9" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="F114" s="9" t="s">
-        <v>1023</v>
+        <v>1030</v>
       </c>
       <c r="G114" s="9" t="s">
-        <v>1024</v>
+        <v>1031</v>
       </c>
       <c r="H114" s="9"/>
       <c r="I114" s="28" t="s">
-        <v>1025</v>
+        <v>1032</v>
       </c>
       <c r="J114" s="26" t="s">
-        <v>1026</v>
-      </c>
-      <c r="K114" s="9"/>
+        <v>1033</v>
+      </c>
+      <c r="K114" s="9" t="s">
+        <v>1034</v>
+      </c>
     </row>
     <row r="115" spans="1:11" ht="13">
       <c r="A115" s="9" t="s">
         <v>132</v>
       </c>
       <c r="B115" s="9" t="s">
-        <v>785</v>
+        <v>781</v>
       </c>
       <c r="C115" s="9" t="s">
-        <v>1033</v>
+        <v>780</v>
       </c>
       <c r="D115" s="9" t="s">
         <v>410</v>
       </c>
       <c r="E115" s="9" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="F115" s="9" t="s">
-        <v>1034</v>
+        <v>808</v>
       </c>
       <c r="G115" s="9" t="s">
-        <v>1035</v>
+        <v>809</v>
       </c>
       <c r="H115" s="9"/>
       <c r="I115" s="28" t="s">
-        <v>1036</v>
+        <v>810</v>
       </c>
       <c r="J115" s="26" t="s">
-        <v>1037</v>
-      </c>
-      <c r="K115" s="9" t="s">
-        <v>1038</v>
-      </c>
+        <v>811</v>
+      </c>
+      <c r="K115" s="9"/>
     </row>
     <row r="116" spans="1:11" ht="13">
       <c r="A116" s="9" t="s">
         <v>132</v>
       </c>
       <c r="B116" s="9" t="s">
-        <v>785</v>
+        <v>248</v>
       </c>
       <c r="C116" s="9" t="s">
-        <v>784</v>
+        <v>381</v>
       </c>
       <c r="D116" s="9" t="s">
-        <v>410</v>
+        <v>382</v>
       </c>
       <c r="E116" s="9" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="F116" s="9" t="s">
-        <v>812</v>
+        <v>594</v>
       </c>
       <c r="G116" s="9" t="s">
-        <v>813</v>
+        <v>595</v>
       </c>
       <c r="H116" s="9"/>
-      <c r="I116" s="28" t="s">
-        <v>814</v>
+      <c r="I116" s="10" t="s">
+        <v>596</v>
       </c>
       <c r="J116" s="26" t="s">
-        <v>815</v>
+        <v>597</v>
       </c>
       <c r="K116" s="9"/>
     </row>
@@ -15047,26 +15047,26 @@
         <v>248</v>
       </c>
       <c r="C117" s="9" t="s">
-        <v>381</v>
+        <v>249</v>
       </c>
       <c r="D117" s="9" t="s">
-        <v>382</v>
+        <v>117</v>
       </c>
       <c r="E117" s="9" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="F117" s="9" t="s">
-        <v>597</v>
+        <v>250</v>
       </c>
       <c r="G117" s="9" t="s">
         <v>598</v>
       </c>
       <c r="H117" s="9"/>
       <c r="I117" s="10" t="s">
+        <v>251</v>
+      </c>
+      <c r="J117" s="26" t="s">
         <v>599</v>
-      </c>
-      <c r="J117" s="26" t="s">
-        <v>600</v>
       </c>
       <c r="K117" s="9"/>
     </row>
@@ -15078,26 +15078,26 @@
         <v>248</v>
       </c>
       <c r="C118" s="9" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="D118" s="9" t="s">
-        <v>117</v>
+        <v>410</v>
       </c>
       <c r="E118" s="9" t="s">
         <v>25</v>
       </c>
       <c r="F118" s="9" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="G118" s="9" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="H118" s="9"/>
       <c r="I118" s="10" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="J118" s="26" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="K118" s="9"/>
     </row>
@@ -15109,26 +15109,26 @@
         <v>248</v>
       </c>
       <c r="C119" s="9" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="D119" s="9" t="s">
-        <v>410</v>
+        <v>117</v>
       </c>
       <c r="E119" s="9" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="F119" s="9" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="G119" s="9" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="H119" s="9"/>
       <c r="I119" s="10" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="J119" s="26" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="K119" s="9"/>
     </row>
@@ -15137,29 +15137,29 @@
         <v>132</v>
       </c>
       <c r="B120" s="9" t="s">
-        <v>248</v>
+        <v>258</v>
       </c>
       <c r="C120" s="9" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="D120" s="9" t="s">
         <v>117</v>
       </c>
       <c r="E120" s="9" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="F120" s="9" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="G120" s="9" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="H120" s="9"/>
       <c r="I120" s="10" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="J120" s="26" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="K120" s="9"/>
     </row>
@@ -15168,26 +15168,26 @@
         <v>132</v>
       </c>
       <c r="B121" s="9" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="C121" s="9" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="D121" s="9" t="s">
-        <v>117</v>
+        <v>606</v>
       </c>
       <c r="E121" s="9" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="F121" s="9" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="G121" s="9" t="s">
         <v>607</v>
       </c>
       <c r="H121" s="9"/>
-      <c r="I121" s="10" t="s">
-        <v>261</v>
+      <c r="I121" s="11" t="s">
+        <v>266</v>
       </c>
       <c r="J121" s="26" t="s">
         <v>608</v>
@@ -15202,26 +15202,26 @@
         <v>262</v>
       </c>
       <c r="C122" s="9" t="s">
-        <v>263</v>
+        <v>778</v>
       </c>
       <c r="D122" s="9" t="s">
-        <v>609</v>
+        <v>117</v>
       </c>
       <c r="E122" s="9" t="s">
         <v>14</v>
       </c>
       <c r="F122" s="9" t="s">
-        <v>265</v>
+        <v>1042</v>
       </c>
       <c r="G122" s="9" t="s">
-        <v>610</v>
+        <v>1043</v>
       </c>
       <c r="H122" s="9"/>
-      <c r="I122" s="11" t="s">
-        <v>266</v>
+      <c r="I122" s="28" t="s">
+        <v>1044</v>
       </c>
       <c r="J122" s="26" t="s">
-        <v>611</v>
+        <v>815</v>
       </c>
       <c r="K122" s="9"/>
     </row>
@@ -15245,14 +15245,14 @@
         <v>268</v>
       </c>
       <c r="G123" s="9" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="H123" s="9"/>
       <c r="I123" s="11" t="s">
         <v>269</v>
       </c>
       <c r="J123" s="26" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="K123" s="9"/>
     </row>
@@ -15276,14 +15276,14 @@
         <v>271</v>
       </c>
       <c r="G124" s="9" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="H124" s="9"/>
       <c r="I124" s="11" t="s">
         <v>272</v>
       </c>
       <c r="J124" s="26" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="K124" s="9"/>
     </row>
@@ -15295,7 +15295,7 @@
         <v>262</v>
       </c>
       <c r="C125" s="9" t="s">
-        <v>829</v>
+        <v>825</v>
       </c>
       <c r="D125" s="9" t="s">
         <v>410</v>
@@ -15304,17 +15304,17 @@
         <v>25</v>
       </c>
       <c r="F125" s="9" t="s">
-        <v>830</v>
+        <v>826</v>
       </c>
       <c r="G125" s="9" t="s">
-        <v>831</v>
+        <v>827</v>
       </c>
       <c r="H125" s="9"/>
       <c r="I125" s="28" t="s">
-        <v>832</v>
+        <v>828</v>
       </c>
       <c r="J125" s="26" t="s">
-        <v>833</v>
+        <v>829</v>
       </c>
       <c r="K125" s="9"/>
     </row>
@@ -15326,7 +15326,7 @@
         <v>262</v>
       </c>
       <c r="C126" s="9" t="s">
-        <v>782</v>
+        <v>778</v>
       </c>
       <c r="D126" s="9" t="s">
         <v>117</v>
@@ -15335,17 +15335,17 @@
         <v>25</v>
       </c>
       <c r="F126" s="9" t="s">
-        <v>816</v>
+        <v>812</v>
       </c>
       <c r="G126" s="9" t="s">
-        <v>817</v>
+        <v>813</v>
       </c>
       <c r="H126" s="9"/>
       <c r="I126" s="28" t="s">
-        <v>818</v>
+        <v>814</v>
       </c>
       <c r="J126" s="26" t="s">
-        <v>819</v>
+        <v>815</v>
       </c>
       <c r="K126" s="9"/>
     </row>
@@ -15357,7 +15357,7 @@
         <v>262</v>
       </c>
       <c r="C127" s="9" t="s">
-        <v>893</v>
+        <v>889</v>
       </c>
       <c r="D127" s="9" t="s">
         <v>418</v>
@@ -15366,17 +15366,17 @@
         <v>25</v>
       </c>
       <c r="F127" s="9" t="s">
-        <v>943</v>
+        <v>939</v>
       </c>
       <c r="G127" s="9" t="s">
-        <v>944</v>
+        <v>940</v>
       </c>
       <c r="H127" s="9"/>
       <c r="I127" s="28" t="s">
-        <v>945</v>
+        <v>941</v>
       </c>
       <c r="J127" s="26" t="s">
-        <v>946</v>
+        <v>942</v>
       </c>
       <c r="K127" s="9"/>
     </row>
@@ -15388,7 +15388,7 @@
         <v>262</v>
       </c>
       <c r="C128" s="9" t="s">
-        <v>783</v>
+        <v>779</v>
       </c>
       <c r="D128" s="9" t="s">
         <v>117</v>
@@ -15397,17 +15397,17 @@
         <v>25</v>
       </c>
       <c r="F128" s="9" t="s">
-        <v>820</v>
+        <v>816</v>
       </c>
       <c r="G128" s="9" t="s">
-        <v>821</v>
+        <v>817</v>
       </c>
       <c r="H128" s="9"/>
       <c r="I128" s="28" t="s">
-        <v>822</v>
+        <v>818</v>
       </c>
       <c r="J128" s="26" t="s">
-        <v>823</v>
+        <v>819</v>
       </c>
       <c r="K128" s="9"/>
     </row>
@@ -15422,7 +15422,7 @@
         <v>273</v>
       </c>
       <c r="D129" s="9" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="E129" s="9" t="s">
         <v>25</v>
@@ -15431,14 +15431,14 @@
         <v>274</v>
       </c>
       <c r="G129" s="9" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="H129" s="9"/>
       <c r="I129" s="11" t="s">
         <v>275</v>
       </c>
       <c r="J129" s="26" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="K129" s="9"/>
     </row>
@@ -15450,7 +15450,7 @@
         <v>262</v>
       </c>
       <c r="C130" s="9" t="s">
-        <v>894</v>
+        <v>890</v>
       </c>
       <c r="D130" s="9" t="s">
         <v>55</v>
@@ -15459,17 +15459,17 @@
         <v>14</v>
       </c>
       <c r="F130" s="9" t="s">
-        <v>947</v>
+        <v>943</v>
       </c>
       <c r="G130" s="9" t="s">
-        <v>948</v>
+        <v>944</v>
       </c>
       <c r="H130" s="9"/>
       <c r="I130" s="28" t="s">
-        <v>949</v>
+        <v>945</v>
       </c>
       <c r="J130" s="26" t="s">
-        <v>950</v>
+        <v>946</v>
       </c>
       <c r="K130" s="9"/>
     </row>
@@ -15481,7 +15481,7 @@
         <v>262</v>
       </c>
       <c r="C131" s="9" t="s">
-        <v>720</v>
+        <v>717</v>
       </c>
       <c r="D131" s="9" t="s">
         <v>398</v>
@@ -15490,17 +15490,17 @@
         <v>25</v>
       </c>
       <c r="F131" s="9" t="s">
-        <v>752</v>
+        <v>749</v>
       </c>
       <c r="G131" s="9" t="s">
-        <v>753</v>
+        <v>750</v>
       </c>
       <c r="H131" s="9"/>
       <c r="I131" s="28" t="s">
-        <v>754</v>
+        <v>751</v>
       </c>
       <c r="J131" s="26" t="s">
-        <v>755</v>
+        <v>752</v>
       </c>
       <c r="K131" s="9"/>
     </row>
@@ -15524,14 +15524,14 @@
         <v>277</v>
       </c>
       <c r="G132" s="9" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="H132" s="9"/>
       <c r="I132" s="11" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="J132" s="26" t="s">
-        <v>1011</v>
+        <v>1007</v>
       </c>
       <c r="K132" s="9"/>
     </row>
@@ -15543,7 +15543,7 @@
         <v>262</v>
       </c>
       <c r="C133" s="9" t="s">
-        <v>1006</v>
+        <v>1002</v>
       </c>
       <c r="D133" s="9" t="s">
         <v>55</v>
@@ -15552,17 +15552,17 @@
         <v>39</v>
       </c>
       <c r="F133" s="9" t="s">
-        <v>1007</v>
+        <v>1003</v>
       </c>
       <c r="G133" s="9" t="s">
-        <v>1008</v>
+        <v>1004</v>
       </c>
       <c r="H133" s="9"/>
       <c r="I133" s="28" t="s">
-        <v>1009</v>
+        <v>1005</v>
       </c>
       <c r="J133" s="26" t="s">
-        <v>1010</v>
+        <v>1006</v>
       </c>
       <c r="K133" s="9"/>
     </row>
@@ -15571,10 +15571,10 @@
         <v>132</v>
       </c>
       <c r="B134" s="9" t="s">
-        <v>898</v>
+        <v>894</v>
       </c>
       <c r="C134" s="9" t="s">
-        <v>897</v>
+        <v>893</v>
       </c>
       <c r="D134" s="9" t="s">
         <v>398</v>
@@ -15583,17 +15583,17 @@
         <v>14</v>
       </c>
       <c r="F134" s="9" t="s">
-        <v>951</v>
+        <v>947</v>
       </c>
       <c r="G134" s="9" t="s">
-        <v>953</v>
+        <v>949</v>
       </c>
       <c r="H134" s="9"/>
       <c r="I134" s="28" t="s">
-        <v>952</v>
+        <v>948</v>
       </c>
       <c r="J134" s="26" t="s">
-        <v>954</v>
+        <v>950</v>
       </c>
       <c r="K134" s="9"/>
     </row>
@@ -15602,10 +15602,10 @@
         <v>132</v>
       </c>
       <c r="B135" s="9" t="s">
-        <v>900</v>
+        <v>896</v>
       </c>
       <c r="C135" s="9" t="s">
-        <v>897</v>
+        <v>893</v>
       </c>
       <c r="D135" s="9" t="s">
         <v>398</v>
@@ -15614,17 +15614,17 @@
         <v>14</v>
       </c>
       <c r="F135" s="9" t="s">
-        <v>955</v>
+        <v>951</v>
       </c>
       <c r="G135" s="9" t="s">
-        <v>956</v>
+        <v>952</v>
       </c>
       <c r="H135" s="9"/>
       <c r="I135" s="28" t="s">
-        <v>957</v>
+        <v>953</v>
       </c>
       <c r="J135" s="26" t="s">
-        <v>958</v>
+        <v>954</v>
       </c>
       <c r="K135" s="9"/>
     </row>
@@ -15633,10 +15633,10 @@
         <v>278</v>
       </c>
       <c r="B136" s="14" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="C136" s="14" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="D136" s="14" t="s">
         <v>157</v>
@@ -15645,17 +15645,17 @@
         <v>25</v>
       </c>
       <c r="F136" s="14" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="G136" s="14" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="H136" s="14"/>
       <c r="I136" s="16" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="J136" s="17" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="K136" s="14"/>
     </row>
@@ -15664,10 +15664,10 @@
         <v>278</v>
       </c>
       <c r="B137" s="14" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="C137" s="14" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="D137" s="14" t="s">
         <v>410</v>
@@ -15676,17 +15676,17 @@
         <v>25</v>
       </c>
       <c r="F137" s="14" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="G137" s="14" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="H137" s="14"/>
       <c r="I137" s="16" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="J137" s="17" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="K137" s="14"/>
     </row>
@@ -15695,10 +15695,10 @@
         <v>278</v>
       </c>
       <c r="B138" s="14" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="C138" s="14" t="s">
-        <v>892</v>
+        <v>888</v>
       </c>
       <c r="D138" s="14" t="s">
         <v>410</v>
@@ -15707,14 +15707,14 @@
         <v>25</v>
       </c>
       <c r="F138" s="14" t="s">
-        <v>962</v>
+        <v>958</v>
       </c>
       <c r="G138" s="14" t="s">
-        <v>964</v>
+        <v>960</v>
       </c>
       <c r="H138" s="14"/>
       <c r="I138" s="29" t="s">
-        <v>965</v>
+        <v>961</v>
       </c>
       <c r="J138" s="17"/>
       <c r="K138" s="14"/>
@@ -15724,10 +15724,10 @@
         <v>278</v>
       </c>
       <c r="B139" s="14" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="C139" s="14" t="s">
-        <v>892</v>
+        <v>888</v>
       </c>
       <c r="D139" s="14" t="s">
         <v>410</v>
@@ -15736,14 +15736,14 @@
         <v>25</v>
       </c>
       <c r="F139" s="14" t="s">
-        <v>963</v>
+        <v>959</v>
       </c>
       <c r="G139" s="14" t="s">
-        <v>966</v>
+        <v>962</v>
       </c>
       <c r="H139" s="14"/>
       <c r="I139" s="29" t="s">
-        <v>967</v>
+        <v>963</v>
       </c>
       <c r="J139" s="17"/>
       <c r="K139" s="14"/>
@@ -15756,7 +15756,7 @@
         <v>279</v>
       </c>
       <c r="C140" s="14" t="s">
-        <v>895</v>
+        <v>891</v>
       </c>
       <c r="D140" s="14" t="s">
         <v>47</v>
@@ -15765,17 +15765,17 @@
         <v>25</v>
       </c>
       <c r="F140" s="14" t="s">
-        <v>968</v>
+        <v>964</v>
       </c>
       <c r="G140" s="14" t="s">
-        <v>969</v>
+        <v>965</v>
       </c>
       <c r="H140" s="14"/>
       <c r="I140" s="29" t="s">
-        <v>970</v>
+        <v>966</v>
       </c>
       <c r="J140" s="17" t="s">
-        <v>971</v>
+        <v>967</v>
       </c>
       <c r="K140" s="14"/>
     </row>
@@ -15787,7 +15787,7 @@
         <v>279</v>
       </c>
       <c r="C141" s="14" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="D141" s="14" t="s">
         <v>47</v>
@@ -15796,17 +15796,17 @@
         <v>14</v>
       </c>
       <c r="F141" s="14" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="G141" s="14" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="H141" s="14"/>
       <c r="I141" s="15" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="J141" s="17" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="K141" s="14"/>
     </row>
@@ -15818,7 +15818,7 @@
         <v>279</v>
       </c>
       <c r="C142" s="14" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="D142" s="14" t="s">
         <v>157</v>
@@ -15827,17 +15827,17 @@
         <v>25</v>
       </c>
       <c r="F142" s="14" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="G142" s="14" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="H142" s="14"/>
       <c r="I142" s="15" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="J142" s="17" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="K142" s="14"/>
     </row>
@@ -15849,7 +15849,7 @@
         <v>279</v>
       </c>
       <c r="C143" s="14" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="D143" s="14" t="s">
         <v>410</v>
@@ -15858,17 +15858,17 @@
         <v>25</v>
       </c>
       <c r="F143" s="14" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="G143" s="14" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="H143" s="14"/>
       <c r="I143" s="15" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="J143" s="17" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
       <c r="K143" s="14"/>
     </row>
@@ -15889,14 +15889,14 @@
         <v>14</v>
       </c>
       <c r="F144" s="14" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
       <c r="G144" s="14" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="H144" s="14"/>
       <c r="I144" s="15" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
       <c r="J144" s="17"/>
       <c r="K144" s="14"/>
@@ -15918,17 +15918,17 @@
         <v>25</v>
       </c>
       <c r="F145" s="14" t="s">
-        <v>972</v>
+        <v>968</v>
       </c>
       <c r="G145" s="14" t="s">
-        <v>973</v>
+        <v>969</v>
       </c>
       <c r="H145" s="14"/>
       <c r="I145" s="29" t="s">
-        <v>974</v>
+        <v>970</v>
       </c>
       <c r="J145" s="17" t="s">
-        <v>975</v>
+        <v>971</v>
       </c>
       <c r="K145" s="14"/>
     </row>
@@ -15952,14 +15952,14 @@
         <v>281</v>
       </c>
       <c r="G146" s="14" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="H146" s="14"/>
       <c r="I146" s="15" t="s">
         <v>282</v>
       </c>
       <c r="J146" s="17" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="K146" s="14"/>
     </row>
@@ -15983,14 +15983,14 @@
         <v>284</v>
       </c>
       <c r="G147" s="14" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
       <c r="H147" s="14"/>
       <c r="I147" s="15" t="s">
         <v>285</v>
       </c>
       <c r="J147" s="17" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="K147" s="14"/>
     </row>
@@ -16014,14 +16014,14 @@
         <v>287</v>
       </c>
       <c r="G148" s="14" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="H148" s="14"/>
       <c r="I148" s="16" t="s">
         <v>288</v>
       </c>
       <c r="J148" s="17" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
       <c r="K148" s="14"/>
     </row>
@@ -16045,14 +16045,14 @@
         <v>290</v>
       </c>
       <c r="G149" s="14" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="H149" s="14"/>
       <c r="I149" s="16" t="s">
         <v>291</v>
       </c>
       <c r="J149" s="17" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
       <c r="K149" s="14"/>
     </row>
@@ -16076,14 +16076,14 @@
         <v>293</v>
       </c>
       <c r="G150" s="14" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="H150" s="14"/>
       <c r="I150" s="16" t="s">
         <v>294</v>
       </c>
       <c r="J150" s="17" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
       <c r="K150" s="14"/>
     </row>
@@ -16107,14 +16107,14 @@
         <v>296</v>
       </c>
       <c r="G151" s="14" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
       <c r="H151" s="14"/>
       <c r="I151" s="16" t="s">
         <v>297</v>
       </c>
       <c r="J151" s="17" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="K151" s="14"/>
     </row>
@@ -16138,14 +16138,14 @@
         <v>299</v>
       </c>
       <c r="G152" s="14" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="H152" s="14"/>
       <c r="I152" s="16" t="s">
         <v>300</v>
       </c>
       <c r="J152" s="17" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
       <c r="K152" s="14"/>
     </row>
@@ -16166,17 +16166,17 @@
         <v>25</v>
       </c>
       <c r="F153" s="14" t="s">
-        <v>756</v>
+        <v>753</v>
       </c>
       <c r="G153" s="14" t="s">
-        <v>757</v>
+        <v>754</v>
       </c>
       <c r="H153" s="14"/>
       <c r="I153" s="29" t="s">
-        <v>758</v>
+        <v>755</v>
       </c>
       <c r="J153" s="17" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="K153" s="14"/>
     </row>
@@ -16188,7 +16188,7 @@
         <v>279</v>
       </c>
       <c r="C154" s="14" t="s">
-        <v>863</v>
+        <v>859</v>
       </c>
       <c r="D154" s="14" t="s">
         <v>55</v>
@@ -16197,17 +16197,17 @@
         <v>25</v>
       </c>
       <c r="F154" s="14" t="s">
-        <v>864</v>
+        <v>860</v>
       </c>
       <c r="G154" s="14" t="s">
-        <v>865</v>
+        <v>861</v>
       </c>
       <c r="H154" s="14"/>
       <c r="I154" s="29" t="s">
-        <v>866</v>
+        <v>862</v>
       </c>
       <c r="J154" s="17" t="s">
-        <v>867</v>
+        <v>863</v>
       </c>
       <c r="K154" s="14"/>
     </row>
@@ -16219,7 +16219,7 @@
         <v>279</v>
       </c>
       <c r="C155" s="14" t="s">
-        <v>897</v>
+        <v>893</v>
       </c>
       <c r="D155" s="14" t="s">
         <v>398</v>
@@ -16228,17 +16228,17 @@
         <v>14</v>
       </c>
       <c r="F155" s="14" t="s">
-        <v>976</v>
+        <v>972</v>
       </c>
       <c r="G155" s="14" t="s">
-        <v>978</v>
+        <v>974</v>
       </c>
       <c r="H155" s="14"/>
       <c r="I155" s="29" t="s">
-        <v>979</v>
+        <v>975</v>
       </c>
       <c r="J155" s="17" t="s">
-        <v>980</v>
+        <v>976</v>
       </c>
       <c r="K155" s="14"/>
     </row>
@@ -16250,7 +16250,7 @@
         <v>279</v>
       </c>
       <c r="C156" s="14" t="s">
-        <v>897</v>
+        <v>893</v>
       </c>
       <c r="D156" s="14" t="s">
         <v>398</v>
@@ -16259,17 +16259,17 @@
         <v>14</v>
       </c>
       <c r="F156" s="14" t="s">
+        <v>973</v>
+      </c>
+      <c r="G156" s="14" t="s">
         <v>977</v>
-      </c>
-      <c r="G156" s="14" t="s">
-        <v>981</v>
       </c>
       <c r="H156" s="14"/>
       <c r="I156" s="29" t="s">
-        <v>982</v>
+        <v>978</v>
       </c>
       <c r="J156" s="17" t="s">
-        <v>983</v>
+        <v>979</v>
       </c>
       <c r="K156" s="14"/>
     </row>
@@ -16281,7 +16281,7 @@
         <v>279</v>
       </c>
       <c r="C157" s="14" t="s">
-        <v>896</v>
+        <v>892</v>
       </c>
       <c r="D157" s="14" t="s">
         <v>410</v>
@@ -16290,17 +16290,17 @@
         <v>14</v>
       </c>
       <c r="F157" s="14" t="s">
-        <v>984</v>
+        <v>980</v>
       </c>
       <c r="G157" s="14" t="s">
-        <v>985</v>
+        <v>981</v>
       </c>
       <c r="H157" s="14"/>
       <c r="I157" s="29" t="s">
-        <v>986</v>
+        <v>982</v>
       </c>
       <c r="J157" s="17" t="s">
-        <v>987</v>
+        <v>983</v>
       </c>
       <c r="K157" s="14"/>
     </row>
@@ -16324,14 +16324,14 @@
         <v>303</v>
       </c>
       <c r="G158" s="14" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="H158" s="14"/>
       <c r="I158" s="15" t="s">
         <v>304</v>
       </c>
       <c r="J158" s="17" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="K158" s="14"/>
     </row>
@@ -16352,17 +16352,17 @@
         <v>14</v>
       </c>
       <c r="F159" s="14" t="s">
-        <v>665</v>
+        <v>662</v>
       </c>
       <c r="G159" s="14" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
       <c r="H159" s="14"/>
       <c r="I159" s="15" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
       <c r="J159" s="17" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
       <c r="K159" s="14"/>
     </row>
@@ -16386,14 +16386,14 @@
         <v>307</v>
       </c>
       <c r="G160" s="14" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
       <c r="H160" s="14"/>
       <c r="I160" s="15" t="s">
         <v>308</v>
       </c>
       <c r="J160" s="17" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="K160" s="14"/>
     </row>
@@ -16417,14 +16417,14 @@
         <v>309</v>
       </c>
       <c r="G161" s="14" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="H161" s="14"/>
       <c r="I161" s="15" t="s">
         <v>310</v>
       </c>
       <c r="J161" s="17" t="s">
-        <v>672</v>
+        <v>669</v>
       </c>
       <c r="K161" s="14"/>
     </row>
@@ -16448,14 +16448,14 @@
         <v>313</v>
       </c>
       <c r="G162" s="14" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
       <c r="H162" s="14"/>
       <c r="I162" s="15" t="s">
         <v>314</v>
       </c>
       <c r="J162" s="17" t="s">
-        <v>674</v>
+        <v>671</v>
       </c>
       <c r="K162" s="14"/>
     </row>
@@ -16467,7 +16467,7 @@
         <v>305</v>
       </c>
       <c r="C163" s="14" t="s">
-        <v>725</v>
+        <v>722</v>
       </c>
       <c r="D163" s="14" t="s">
         <v>410</v>
@@ -16476,17 +16476,17 @@
         <v>25</v>
       </c>
       <c r="F163" s="14" t="s">
-        <v>759</v>
+        <v>756</v>
       </c>
       <c r="G163" s="14" t="s">
-        <v>760</v>
+        <v>757</v>
       </c>
       <c r="H163" s="14"/>
       <c r="I163" s="29" t="s">
-        <v>761</v>
+        <v>758</v>
       </c>
       <c r="J163" s="17" t="s">
-        <v>762</v>
+        <v>759</v>
       </c>
       <c r="K163" s="14"/>
     </row>
@@ -16510,14 +16510,14 @@
         <v>317</v>
       </c>
       <c r="G164" s="14" t="s">
-        <v>675</v>
+        <v>672</v>
       </c>
       <c r="H164" s="14"/>
       <c r="I164" s="15" t="s">
         <v>318</v>
       </c>
       <c r="J164" s="17" t="s">
-        <v>676</v>
+        <v>673</v>
       </c>
       <c r="K164" s="14"/>
     </row>
@@ -16529,7 +16529,7 @@
         <v>315</v>
       </c>
       <c r="C165" s="14" t="s">
-        <v>716</v>
+        <v>713</v>
       </c>
       <c r="D165" s="14" t="s">
         <v>55</v>
@@ -16538,17 +16538,17 @@
         <v>14</v>
       </c>
       <c r="F165" s="14" t="s">
-        <v>763</v>
+        <v>760</v>
       </c>
       <c r="G165" s="14" t="s">
-        <v>764</v>
+        <v>761</v>
       </c>
       <c r="H165" s="14"/>
       <c r="I165" s="29" t="s">
-        <v>765</v>
+        <v>762</v>
       </c>
       <c r="J165" s="17" t="s">
-        <v>766</v>
+        <v>763</v>
       </c>
       <c r="K165" s="14"/>
     </row>
@@ -16560,7 +16560,7 @@
         <v>315</v>
       </c>
       <c r="C166" s="14" t="s">
-        <v>787</v>
+        <v>783</v>
       </c>
       <c r="D166" s="14" t="s">
         <v>410</v>
@@ -16569,17 +16569,17 @@
         <v>25</v>
       </c>
       <c r="F166" s="14" t="s">
-        <v>788</v>
+        <v>784</v>
       </c>
       <c r="G166" s="14" t="s">
-        <v>789</v>
+        <v>785</v>
       </c>
       <c r="H166" s="14"/>
       <c r="I166" s="29" t="s">
-        <v>790</v>
+        <v>786</v>
       </c>
       <c r="J166" s="17" t="s">
-        <v>791</v>
+        <v>787</v>
       </c>
       <c r="K166" s="14"/>
     </row>
@@ -16591,7 +16591,7 @@
         <v>315</v>
       </c>
       <c r="C167" s="14" t="s">
-        <v>1019</v>
+        <v>1015</v>
       </c>
       <c r="D167" s="14" t="s">
         <v>418</v>
@@ -16600,17 +16600,17 @@
         <v>25</v>
       </c>
       <c r="F167" s="14" t="s">
-        <v>1018</v>
+        <v>1014</v>
       </c>
       <c r="G167" s="14" t="s">
-        <v>1020</v>
+        <v>1016</v>
       </c>
       <c r="H167" s="14"/>
       <c r="I167" s="29" t="s">
-        <v>1021</v>
+        <v>1017</v>
       </c>
       <c r="J167" s="17" t="s">
-        <v>1022</v>
+        <v>1018</v>
       </c>
       <c r="K167" s="14"/>
     </row>
@@ -16631,17 +16631,17 @@
         <v>14</v>
       </c>
       <c r="F168" s="14" t="s">
-        <v>677</v>
+        <v>674</v>
       </c>
       <c r="G168" s="14" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="H168" s="14"/>
       <c r="I168" s="16" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="J168" s="17" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
       <c r="K168" s="14"/>
     </row>
@@ -16665,14 +16665,14 @@
         <v>324</v>
       </c>
       <c r="G169" s="14" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="H169" s="14"/>
       <c r="I169" s="15" t="s">
         <v>325</v>
       </c>
       <c r="J169" s="17" t="s">
-        <v>682</v>
+        <v>679</v>
       </c>
       <c r="K169" s="14"/>
     </row>
@@ -16684,7 +16684,7 @@
         <v>319</v>
       </c>
       <c r="C170" s="14" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="D170" s="14" t="s">
         <v>410</v>
@@ -16696,14 +16696,14 @@
         <v>327</v>
       </c>
       <c r="G170" s="14" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
       <c r="H170" s="14"/>
       <c r="I170" s="15" t="s">
         <v>328</v>
       </c>
       <c r="J170" s="17" t="s">
-        <v>685</v>
+        <v>682</v>
       </c>
       <c r="K170" s="14"/>
     </row>
@@ -16727,14 +16727,14 @@
         <v>330</v>
       </c>
       <c r="G171" s="14" t="s">
-        <v>686</v>
+        <v>683</v>
       </c>
       <c r="H171" s="14"/>
       <c r="I171" s="15" t="s">
         <v>331</v>
       </c>
       <c r="J171" s="17" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
       <c r="K171" s="14"/>
     </row>
@@ -16758,14 +16758,14 @@
         <v>333</v>
       </c>
       <c r="G172" s="14" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
       <c r="H172" s="14"/>
       <c r="I172" s="15" t="s">
         <v>334</v>
       </c>
       <c r="J172" s="17" t="s">
-        <v>689</v>
+        <v>686</v>
       </c>
       <c r="K172" s="14"/>
     </row>
@@ -16789,14 +16789,14 @@
         <v>336</v>
       </c>
       <c r="G173" s="14" t="s">
-        <v>690</v>
+        <v>687</v>
       </c>
       <c r="H173" s="14"/>
       <c r="I173" s="15" t="s">
         <v>337</v>
       </c>
       <c r="J173" s="17" t="s">
-        <v>691</v>
+        <v>688</v>
       </c>
       <c r="K173" s="14"/>
     </row>
@@ -16820,14 +16820,14 @@
         <v>339</v>
       </c>
       <c r="G174" s="14" t="s">
-        <v>692</v>
+        <v>689</v>
       </c>
       <c r="H174" s="14"/>
       <c r="I174" s="15" t="s">
         <v>340</v>
       </c>
       <c r="J174" s="17" t="s">
-        <v>693</v>
+        <v>690</v>
       </c>
       <c r="K174" s="14"/>
     </row>
@@ -16851,14 +16851,14 @@
         <v>343</v>
       </c>
       <c r="G175" s="14" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
       <c r="H175" s="14"/>
       <c r="I175" s="15" t="s">
         <v>344</v>
       </c>
       <c r="J175" s="17" t="s">
-        <v>695</v>
+        <v>692</v>
       </c>
       <c r="K175" s="14"/>
     </row>
@@ -16882,14 +16882,14 @@
         <v>346</v>
       </c>
       <c r="G176" s="14" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
       <c r="H176" s="14"/>
       <c r="I176" s="15" t="s">
         <v>347</v>
       </c>
       <c r="J176" s="17" t="s">
-        <v>697</v>
+        <v>694</v>
       </c>
       <c r="K176" s="14"/>
     </row>
@@ -16913,7 +16913,7 @@
         <v>343</v>
       </c>
       <c r="G177" s="14" t="s">
-        <v>1017</v>
+        <v>1013</v>
       </c>
       <c r="H177" s="14"/>
       <c r="I177" s="29" t="s">
@@ -16942,14 +16942,14 @@
         <v>350</v>
       </c>
       <c r="G178" s="14" t="s">
-        <v>698</v>
+        <v>695</v>
       </c>
       <c r="H178" s="14"/>
       <c r="I178" s="29" t="s">
-        <v>858</v>
+        <v>854</v>
       </c>
       <c r="J178" s="17" t="s">
-        <v>699</v>
+        <v>696</v>
       </c>
       <c r="K178" s="14"/>
     </row>
@@ -16961,7 +16961,7 @@
         <v>348</v>
       </c>
       <c r="C179" s="14" t="s">
-        <v>700</v>
+        <v>697</v>
       </c>
       <c r="D179" s="14" t="s">
         <v>418</v>
@@ -16973,14 +16973,14 @@
         <v>353</v>
       </c>
       <c r="G179" s="14" t="s">
-        <v>701</v>
+        <v>698</v>
       </c>
       <c r="H179" s="14"/>
       <c r="I179" s="16" t="s">
         <v>354</v>
       </c>
       <c r="J179" s="17" t="s">
-        <v>702</v>
+        <v>699</v>
       </c>
       <c r="K179" s="14"/>
     </row>
@@ -17004,14 +17004,14 @@
         <v>356</v>
       </c>
       <c r="G180" s="14" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
       <c r="H180" s="14"/>
       <c r="I180" s="15" t="s">
         <v>357</v>
       </c>
       <c r="J180" s="17" t="s">
-        <v>704</v>
+        <v>701</v>
       </c>
       <c r="K180" s="14"/>
     </row>
@@ -17035,14 +17035,14 @@
         <v>359</v>
       </c>
       <c r="G181" s="14" t="s">
-        <v>705</v>
+        <v>702</v>
       </c>
       <c r="H181" s="14"/>
       <c r="I181" s="15" t="s">
         <v>360</v>
       </c>
       <c r="J181" s="17" t="s">
-        <v>706</v>
+        <v>703</v>
       </c>
       <c r="K181" s="14"/>
     </row>
@@ -17054,7 +17054,7 @@
         <v>355</v>
       </c>
       <c r="C182" s="14" t="s">
-        <v>719</v>
+        <v>716</v>
       </c>
       <c r="D182" s="14" t="s">
         <v>51</v>
@@ -17063,17 +17063,17 @@
         <v>39</v>
       </c>
       <c r="F182" s="14" t="s">
-        <v>767</v>
+        <v>764</v>
       </c>
       <c r="G182" s="14" t="s">
-        <v>768</v>
+        <v>765</v>
       </c>
       <c r="H182" s="14"/>
       <c r="I182" s="29" t="s">
-        <v>769</v>
+        <v>766</v>
       </c>
       <c r="J182" s="17" t="s">
-        <v>770</v>
+        <v>767</v>
       </c>
       <c r="K182" s="14"/>
     </row>
@@ -17085,7 +17085,7 @@
         <v>355</v>
       </c>
       <c r="C183" s="14" t="s">
-        <v>883</v>
+        <v>879</v>
       </c>
       <c r="D183" s="14" t="s">
         <v>410</v>
@@ -17094,17 +17094,17 @@
         <v>25</v>
       </c>
       <c r="F183" s="14" t="s">
-        <v>884</v>
+        <v>880</v>
       </c>
       <c r="G183" s="14" t="s">
-        <v>885</v>
+        <v>881</v>
       </c>
       <c r="H183" s="14"/>
       <c r="I183" s="29" t="s">
-        <v>886</v>
+        <v>882</v>
       </c>
       <c r="J183" s="17" t="s">
-        <v>887</v>
+        <v>883</v>
       </c>
       <c r="K183" s="14"/>
     </row>
@@ -17113,10 +17113,10 @@
         <v>278</v>
       </c>
       <c r="B184" s="14" t="s">
-        <v>707</v>
+        <v>704</v>
       </c>
       <c r="C184" s="17" t="s">
-        <v>708</v>
+        <v>705</v>
       </c>
       <c r="D184" s="14" t="s">
         <v>410</v>
@@ -17125,17 +17125,17 @@
         <v>25</v>
       </c>
       <c r="F184" s="14" t="s">
-        <v>709</v>
+        <v>706</v>
       </c>
       <c r="G184" s="14" t="s">
-        <v>710</v>
+        <v>707</v>
       </c>
       <c r="H184" s="14"/>
       <c r="I184" s="15" t="s">
-        <v>711</v>
+        <v>708</v>
       </c>
       <c r="J184" s="17" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="K184" s="14"/>
     </row>
@@ -17159,26 +17159,26 @@
         <v>363</v>
       </c>
       <c r="G185" s="14" t="s">
-        <v>713</v>
+        <v>710</v>
       </c>
       <c r="H185" s="14"/>
       <c r="I185" s="15" t="s">
         <v>364</v>
       </c>
       <c r="J185" s="17" t="s">
-        <v>714</v>
+        <v>711</v>
       </c>
       <c r="K185" s="14"/>
     </row>
     <row r="186" spans="1:11" ht="15.75" customHeight="1">
       <c r="A186" s="14" t="s">
-        <v>771</v>
+        <v>768</v>
       </c>
       <c r="B186" s="14" t="s">
-        <v>773</v>
+        <v>770</v>
       </c>
       <c r="C186" s="14" t="s">
-        <v>721</v>
+        <v>718</v>
       </c>
       <c r="D186" s="14" t="s">
         <v>410</v>
@@ -17187,17 +17187,17 @@
         <v>14</v>
       </c>
       <c r="F186" s="14" t="s">
-        <v>772</v>
+        <v>769</v>
       </c>
       <c r="G186" s="14" t="s">
-        <v>774</v>
+        <v>771</v>
       </c>
       <c r="H186" s="14"/>
       <c r="I186" s="29" t="s">
-        <v>775</v>
+        <v>772</v>
       </c>
       <c r="J186" s="17" t="s">
-        <v>776</v>
+        <v>773</v>
       </c>
       <c r="K186" s="14"/>
     </row>
@@ -17256,138 +17256,138 @@
     <hyperlink ref="I76" r:id="rId51" xr:uid="{00000000-0004-0000-0100-000033000000}"/>
     <hyperlink ref="I77" r:id="rId52" xr:uid="{00000000-0004-0000-0100-000034000000}"/>
     <hyperlink ref="I81" r:id="rId53" xr:uid="{00000000-0004-0000-0100-000035000000}"/>
-    <hyperlink ref="I82" r:id="rId54" xr:uid="{00000000-0004-0000-0100-000036000000}"/>
-    <hyperlink ref="I83" r:id="rId55" xr:uid="{00000000-0004-0000-0100-000037000000}"/>
-    <hyperlink ref="I84" r:id="rId56" xr:uid="{00000000-0004-0000-0100-000038000000}"/>
-    <hyperlink ref="I85" r:id="rId57" xr:uid="{00000000-0004-0000-0100-000039000000}"/>
-    <hyperlink ref="I87" r:id="rId58" xr:uid="{00000000-0004-0000-0100-00003A000000}"/>
-    <hyperlink ref="I88" r:id="rId59" xr:uid="{00000000-0004-0000-0100-00003B000000}"/>
-    <hyperlink ref="I89" r:id="rId60" xr:uid="{00000000-0004-0000-0100-00003C000000}"/>
-    <hyperlink ref="I90" r:id="rId61" xr:uid="{00000000-0004-0000-0100-00003D000000}"/>
-    <hyperlink ref="I91" r:id="rId62" xr:uid="{00000000-0004-0000-0100-00003E000000}"/>
-    <hyperlink ref="I92" r:id="rId63" xr:uid="{00000000-0004-0000-0100-00003F000000}"/>
-    <hyperlink ref="I93" r:id="rId64" xr:uid="{00000000-0004-0000-0100-000040000000}"/>
-    <hyperlink ref="I95" r:id="rId65" xr:uid="{00000000-0004-0000-0100-000041000000}"/>
-    <hyperlink ref="I96" r:id="rId66" xr:uid="{00000000-0004-0000-0100-000042000000}"/>
-    <hyperlink ref="I99" r:id="rId67" xr:uid="{00000000-0004-0000-0100-000043000000}"/>
-    <hyperlink ref="I100" r:id="rId68" xr:uid="{00000000-0004-0000-0100-000044000000}"/>
-    <hyperlink ref="I101" r:id="rId69" xr:uid="{00000000-0004-0000-0100-000045000000}"/>
-    <hyperlink ref="I102" r:id="rId70" xr:uid="{00000000-0004-0000-0100-000046000000}"/>
-    <hyperlink ref="I103" r:id="rId71" xr:uid="{00000000-0004-0000-0100-000047000000}"/>
-    <hyperlink ref="I104" r:id="rId72" xr:uid="{00000000-0004-0000-0100-000048000000}"/>
-    <hyperlink ref="I107" r:id="rId73" xr:uid="{00000000-0004-0000-0100-000049000000}"/>
-    <hyperlink ref="I108" r:id="rId74" xr:uid="{00000000-0004-0000-0100-00004A000000}"/>
-    <hyperlink ref="I109" r:id="rId75" xr:uid="{00000000-0004-0000-0100-00004B000000}"/>
-    <hyperlink ref="I110" r:id="rId76" xr:uid="{00000000-0004-0000-0100-00004C000000}"/>
-    <hyperlink ref="I113" r:id="rId77" xr:uid="{00000000-0004-0000-0100-00004D000000}"/>
-    <hyperlink ref="I117" r:id="rId78" xr:uid="{00000000-0004-0000-0100-00004E000000}"/>
-    <hyperlink ref="I118" r:id="rId79" xr:uid="{00000000-0004-0000-0100-00004F000000}"/>
-    <hyperlink ref="I119" r:id="rId80" xr:uid="{00000000-0004-0000-0100-000050000000}"/>
-    <hyperlink ref="I120" r:id="rId81" xr:uid="{00000000-0004-0000-0100-000051000000}"/>
-    <hyperlink ref="I121" r:id="rId82" xr:uid="{00000000-0004-0000-0100-000052000000}"/>
-    <hyperlink ref="I122" r:id="rId83" xr:uid="{00000000-0004-0000-0100-000053000000}"/>
-    <hyperlink ref="I123" r:id="rId84" xr:uid="{00000000-0004-0000-0100-000054000000}"/>
-    <hyperlink ref="I124" r:id="rId85" xr:uid="{00000000-0004-0000-0100-000055000000}"/>
-    <hyperlink ref="I129" r:id="rId86" xr:uid="{00000000-0004-0000-0100-000056000000}"/>
-    <hyperlink ref="I132" r:id="rId87" xr:uid="{00000000-0004-0000-0100-000057000000}"/>
-    <hyperlink ref="I136" r:id="rId88" xr:uid="{00000000-0004-0000-0100-000058000000}"/>
-    <hyperlink ref="I137" r:id="rId89" xr:uid="{00000000-0004-0000-0100-000059000000}"/>
-    <hyperlink ref="I141" r:id="rId90" xr:uid="{00000000-0004-0000-0100-00005A000000}"/>
-    <hyperlink ref="I142" r:id="rId91" xr:uid="{00000000-0004-0000-0100-00005B000000}"/>
-    <hyperlink ref="I143" r:id="rId92" xr:uid="{00000000-0004-0000-0100-00005C000000}"/>
-    <hyperlink ref="I144" r:id="rId93" xr:uid="{00000000-0004-0000-0100-00005D000000}"/>
-    <hyperlink ref="I146" r:id="rId94" xr:uid="{00000000-0004-0000-0100-00005E000000}"/>
-    <hyperlink ref="I147" r:id="rId95" xr:uid="{00000000-0004-0000-0100-00005F000000}"/>
-    <hyperlink ref="I148" r:id="rId96" xr:uid="{00000000-0004-0000-0100-000060000000}"/>
-    <hyperlink ref="I149" r:id="rId97" xr:uid="{00000000-0004-0000-0100-000061000000}"/>
-    <hyperlink ref="I150" r:id="rId98" xr:uid="{00000000-0004-0000-0100-000062000000}"/>
-    <hyperlink ref="I151" r:id="rId99" xr:uid="{00000000-0004-0000-0100-000063000000}"/>
-    <hyperlink ref="I152" r:id="rId100" xr:uid="{00000000-0004-0000-0100-000064000000}"/>
-    <hyperlink ref="I158" r:id="rId101" xr:uid="{00000000-0004-0000-0100-000065000000}"/>
-    <hyperlink ref="I159" r:id="rId102" xr:uid="{00000000-0004-0000-0100-000066000000}"/>
-    <hyperlink ref="I160" r:id="rId103" xr:uid="{00000000-0004-0000-0100-000067000000}"/>
-    <hyperlink ref="I161" r:id="rId104" xr:uid="{00000000-0004-0000-0100-000068000000}"/>
-    <hyperlink ref="I164" r:id="rId105" xr:uid="{00000000-0004-0000-0100-00006A000000}"/>
-    <hyperlink ref="I168" r:id="rId106" xr:uid="{00000000-0004-0000-0100-00006B000000}"/>
-    <hyperlink ref="I169" r:id="rId107" xr:uid="{00000000-0004-0000-0100-00006C000000}"/>
-    <hyperlink ref="I170" r:id="rId108" xr:uid="{00000000-0004-0000-0100-00006D000000}"/>
-    <hyperlink ref="I171" r:id="rId109" xr:uid="{00000000-0004-0000-0100-00006E000000}"/>
-    <hyperlink ref="I172" r:id="rId110" xr:uid="{00000000-0004-0000-0100-00006F000000}"/>
-    <hyperlink ref="I173" r:id="rId111" xr:uid="{00000000-0004-0000-0100-000070000000}"/>
-    <hyperlink ref="I174" r:id="rId112" xr:uid="{00000000-0004-0000-0100-000071000000}"/>
-    <hyperlink ref="I175" r:id="rId113" xr:uid="{00000000-0004-0000-0100-000072000000}"/>
-    <hyperlink ref="I176" r:id="rId114" xr:uid="{00000000-0004-0000-0100-000073000000}"/>
-    <hyperlink ref="I178" r:id="rId115" xr:uid="{00000000-0004-0000-0100-000074000000}"/>
-    <hyperlink ref="I179" r:id="rId116" xr:uid="{00000000-0004-0000-0100-000075000000}"/>
-    <hyperlink ref="I180" r:id="rId117" xr:uid="{00000000-0004-0000-0100-000076000000}"/>
-    <hyperlink ref="I181" r:id="rId118" xr:uid="{00000000-0004-0000-0100-000077000000}"/>
-    <hyperlink ref="I184" r:id="rId119" xr:uid="{00000000-0004-0000-0100-000078000000}"/>
-    <hyperlink ref="I185" r:id="rId120" xr:uid="{00000000-0004-0000-0100-000079000000}"/>
-    <hyperlink ref="I21" r:id="rId121" xr:uid="{881F0F65-3DCC-E94A-9FE5-2CC264A8F337}"/>
-    <hyperlink ref="I22" r:id="rId122" xr:uid="{AC40193A-1232-474A-A421-B55FFA7E99B8}"/>
-    <hyperlink ref="I42" r:id="rId123" xr:uid="{D41ADE90-9772-8F41-AC9B-8DE303E9D7A9}"/>
-    <hyperlink ref="I43" r:id="rId124" xr:uid="{85F37ABA-4B3B-764B-A1ED-9DD3AFFF0004}"/>
-    <hyperlink ref="I80" r:id="rId125" xr:uid="{F5E14AAB-D49A-EF45-A165-3757EFF2E9B4}"/>
-    <hyperlink ref="I97" r:id="rId126" xr:uid="{759707EA-D94A-2D42-8FE0-FAE01578CF99}"/>
-    <hyperlink ref="I131" r:id="rId127" xr:uid="{1A936B77-62AA-804C-B853-4343ADD2D925}"/>
-    <hyperlink ref="I162" r:id="rId128" xr:uid="{00000000-0004-0000-0100-000069000000}"/>
-    <hyperlink ref="I153" r:id="rId129" xr:uid="{2929B0EA-E15F-E444-ADC1-C2E3E232D526}"/>
-    <hyperlink ref="I163" r:id="rId130" xr:uid="{7770BE98-2823-3047-9E72-08DB2B79C177}"/>
-    <hyperlink ref="I165" r:id="rId131" xr:uid="{A91F97A2-47FA-FB49-8866-2B9AA1419B2B}"/>
-    <hyperlink ref="I182" r:id="rId132" xr:uid="{11EEE67C-10E9-AB44-91F6-D7C7B31697FA}"/>
-    <hyperlink ref="I186" r:id="rId133" xr:uid="{8E930EBE-7205-BD41-9ED8-FE8F970A98EF}"/>
-    <hyperlink ref="I166" r:id="rId134" xr:uid="{3AF5EB12-868F-C842-91DC-4FC147AA3C86}"/>
-    <hyperlink ref="I67" r:id="rId135" xr:uid="{7BDCEA69-27F3-FF41-BB2B-817D4FD2C9C0}"/>
-    <hyperlink ref="I68" r:id="rId136" xr:uid="{7A940ACA-466B-9E49-8CB5-9BA664F7C3C9}"/>
-    <hyperlink ref="I70" r:id="rId137" xr:uid="{088C717E-7DC5-EF4C-8C34-370DC45C6BEE}"/>
-    <hyperlink ref="I71" r:id="rId138" xr:uid="{A670C44A-19C9-984F-9EAA-8D5EBCE39C79}"/>
-    <hyperlink ref="I111" r:id="rId139" xr:uid="{713BB907-BFF9-AE42-B777-2AF591DA7D9B}"/>
-    <hyperlink ref="I116" r:id="rId140" xr:uid="{EC0C54FA-684B-A440-BF57-B5B57FDD99C9}"/>
-    <hyperlink ref="I126" r:id="rId141" xr:uid="{9081BA3E-9CF8-074E-BF5B-0F2FA156F0B7}"/>
-    <hyperlink ref="I128" r:id="rId142" xr:uid="{8C2FD4CC-DF59-734E-8449-EA5B9F5E7D3D}"/>
-    <hyperlink ref="I94" r:id="rId143" xr:uid="{9845498D-A3A6-524F-9A69-7DC2DB7F7639}"/>
-    <hyperlink ref="I125" r:id="rId144" xr:uid="{CFDD3EC3-C992-0E4C-8C8D-2A9AC6885E0B}"/>
-    <hyperlink ref="I105" r:id="rId145" xr:uid="{C634E917-B836-414F-BB3B-9A111E16653C}"/>
-    <hyperlink ref="I63" r:id="rId146" xr:uid="{8548A361-62F7-A648-BBBE-9F37385F0E45}"/>
-    <hyperlink ref="I78" r:id="rId147" xr:uid="{8EA062F9-78F8-A44B-BEDA-61CF758CB831}"/>
-    <hyperlink ref="I47" r:id="rId148" xr:uid="{7C7CB4D2-6B37-544C-B631-930D91F3AA17}"/>
-    <hyperlink ref="I154" r:id="rId149" xr:uid="{5694CC0C-366D-8848-BBD7-150B284E15DA}"/>
-    <hyperlink ref="I34" r:id="rId150" xr:uid="{7E8D5837-BD50-6844-B288-6217DFD05E29}"/>
-    <hyperlink ref="I49" r:id="rId151" xr:uid="{E89C4D5B-786F-9A4C-9914-80D4DF36F89C}"/>
-    <hyperlink ref="I48" r:id="rId152" xr:uid="{EDBD0C6E-D96D-734B-85A9-4D26B3421D83}"/>
-    <hyperlink ref="I183" r:id="rId153" xr:uid="{12FA5E40-D722-4344-995B-86BBF8B4F3F3}"/>
-    <hyperlink ref="I3" r:id="rId154" xr:uid="{90F3D795-8796-3941-81B5-D72CA324E042}"/>
-    <hyperlink ref="I4" r:id="rId155" xr:uid="{16E7DE01-C66E-B349-8DAD-CA4C99C20CD5}"/>
-    <hyperlink ref="I5" r:id="rId156" xr:uid="{7E09A861-DD77-2E4B-B800-EAC5DEA70EDC}"/>
-    <hyperlink ref="I17" r:id="rId157" xr:uid="{D6A698C2-16EA-6D43-BD05-DCD8B998FD48}"/>
-    <hyperlink ref="I44" r:id="rId158" xr:uid="{4D236EF9-AFFB-FE4D-BCD1-638D19B0E2AD}"/>
-    <hyperlink ref="I69" r:id="rId159" xr:uid="{219D9E22-5730-534D-8B55-6BD3916AD9D3}"/>
-    <hyperlink ref="I73" r:id="rId160" xr:uid="{F2124805-E683-1A42-A341-E4B4C798FCF6}"/>
-    <hyperlink ref="I106" r:id="rId161" xr:uid="{03D19417-5ACF-4747-87E3-FF4A7F6B8C5E}"/>
-    <hyperlink ref="I112" r:id="rId162" xr:uid="{E08A2438-5DB8-9A45-84DD-CD243288C3B9}"/>
-    <hyperlink ref="I127" r:id="rId163" xr:uid="{84BE2579-BA68-7D4D-B2CB-86D3681369AA}"/>
-    <hyperlink ref="I130" r:id="rId164" xr:uid="{91EB2E87-6831-0145-A4FB-E8981B8045C7}"/>
-    <hyperlink ref="I134" r:id="rId165" xr:uid="{54C086FF-A8B9-6C43-B277-A9032F8666B1}"/>
-    <hyperlink ref="I135" r:id="rId166" xr:uid="{2EF760AC-07D9-8548-93B1-88352B9C3C7F}"/>
-    <hyperlink ref="I98" r:id="rId167" xr:uid="{A5C672A7-87AF-E940-AAE7-D59695E4A0C6}"/>
-    <hyperlink ref="I138" r:id="rId168" xr:uid="{235F1B30-BA9C-2944-96E8-044D9C42D2E4}"/>
-    <hyperlink ref="I139" r:id="rId169" xr:uid="{86BA7BFD-9A67-EC49-A9D6-2A3459D321FF}"/>
-    <hyperlink ref="I140" r:id="rId170" xr:uid="{877A9B01-36F7-6D47-9B86-75B4F4BC541E}"/>
-    <hyperlink ref="I145" r:id="rId171" xr:uid="{5546ECD3-6F35-E74E-9357-32E1AF022690}"/>
-    <hyperlink ref="I155" r:id="rId172" xr:uid="{88D1FADA-4A32-0D4F-AF24-3FE72EBBEB68}"/>
-    <hyperlink ref="I156" r:id="rId173" xr:uid="{AF329473-0DFD-8C4C-BE43-8A06EA57AD9B}"/>
-    <hyperlink ref="I157" r:id="rId174" xr:uid="{6A2FDA52-E721-2D45-8440-DE26731358E6}"/>
-    <hyperlink ref="I50" r:id="rId175" xr:uid="{AE7D1622-F9B9-DF48-8E55-336B7BB6750F}"/>
-    <hyperlink ref="I51" r:id="rId176" xr:uid="{59C3C7D9-F3C2-4241-BF17-62CD57E349CD}"/>
-    <hyperlink ref="I86" r:id="rId177" xr:uid="{808B590E-E469-FC42-8AED-648218F9285B}"/>
-    <hyperlink ref="I133" r:id="rId178" xr:uid="{0BFD14EA-48B9-E242-A6F8-2B6996870F1C}"/>
-    <hyperlink ref="I79" r:id="rId179" xr:uid="{3D1F78F1-16B2-474B-91A0-3DFB6DB099C3}"/>
-    <hyperlink ref="I177" r:id="rId180" xr:uid="{D7BE4482-76F9-0648-8D97-B29A2C647580}"/>
-    <hyperlink ref="I167" r:id="rId181" xr:uid="{8BB3CB7A-FD3E-4242-B0D4-4CCA5F192666}"/>
-    <hyperlink ref="I114" r:id="rId182" xr:uid="{166E1088-3416-B54E-83D7-F3C78813399E}"/>
-    <hyperlink ref="I20" r:id="rId183" xr:uid="{908AA4B9-E7B0-6142-A293-990E38D22A48}"/>
-    <hyperlink ref="I115" r:id="rId184" xr:uid="{4613CEBC-EE7C-E34A-A90B-2FB250FA811B}"/>
-    <hyperlink ref="I26" r:id="rId185" xr:uid="{2D22579F-04EA-9D48-9412-C118AC00920E}"/>
+    <hyperlink ref="I82" r:id="rId54" xr:uid="{00000000-0004-0000-0100-000037000000}"/>
+    <hyperlink ref="I83" r:id="rId55" xr:uid="{00000000-0004-0000-0100-000038000000}"/>
+    <hyperlink ref="I84" r:id="rId56" xr:uid="{00000000-0004-0000-0100-000039000000}"/>
+    <hyperlink ref="I86" r:id="rId57" xr:uid="{00000000-0004-0000-0100-00003A000000}"/>
+    <hyperlink ref="I87" r:id="rId58" xr:uid="{00000000-0004-0000-0100-00003B000000}"/>
+    <hyperlink ref="I88" r:id="rId59" xr:uid="{00000000-0004-0000-0100-00003C000000}"/>
+    <hyperlink ref="I89" r:id="rId60" xr:uid="{00000000-0004-0000-0100-00003D000000}"/>
+    <hyperlink ref="I90" r:id="rId61" xr:uid="{00000000-0004-0000-0100-00003E000000}"/>
+    <hyperlink ref="I91" r:id="rId62" xr:uid="{00000000-0004-0000-0100-00003F000000}"/>
+    <hyperlink ref="I92" r:id="rId63" xr:uid="{00000000-0004-0000-0100-000040000000}"/>
+    <hyperlink ref="I94" r:id="rId64" xr:uid="{00000000-0004-0000-0100-000041000000}"/>
+    <hyperlink ref="I95" r:id="rId65" xr:uid="{00000000-0004-0000-0100-000042000000}"/>
+    <hyperlink ref="I98" r:id="rId66" xr:uid="{00000000-0004-0000-0100-000043000000}"/>
+    <hyperlink ref="I99" r:id="rId67" xr:uid="{00000000-0004-0000-0100-000044000000}"/>
+    <hyperlink ref="I100" r:id="rId68" xr:uid="{00000000-0004-0000-0100-000045000000}"/>
+    <hyperlink ref="I101" r:id="rId69" xr:uid="{00000000-0004-0000-0100-000046000000}"/>
+    <hyperlink ref="I102" r:id="rId70" xr:uid="{00000000-0004-0000-0100-000047000000}"/>
+    <hyperlink ref="I103" r:id="rId71" xr:uid="{00000000-0004-0000-0100-000048000000}"/>
+    <hyperlink ref="I106" r:id="rId72" xr:uid="{00000000-0004-0000-0100-000049000000}"/>
+    <hyperlink ref="I107" r:id="rId73" xr:uid="{00000000-0004-0000-0100-00004A000000}"/>
+    <hyperlink ref="I108" r:id="rId74" xr:uid="{00000000-0004-0000-0100-00004B000000}"/>
+    <hyperlink ref="I109" r:id="rId75" xr:uid="{00000000-0004-0000-0100-00004C000000}"/>
+    <hyperlink ref="I112" r:id="rId76" xr:uid="{00000000-0004-0000-0100-00004D000000}"/>
+    <hyperlink ref="I116" r:id="rId77" xr:uid="{00000000-0004-0000-0100-00004E000000}"/>
+    <hyperlink ref="I117" r:id="rId78" xr:uid="{00000000-0004-0000-0100-00004F000000}"/>
+    <hyperlink ref="I118" r:id="rId79" xr:uid="{00000000-0004-0000-0100-000050000000}"/>
+    <hyperlink ref="I119" r:id="rId80" xr:uid="{00000000-0004-0000-0100-000051000000}"/>
+    <hyperlink ref="I120" r:id="rId81" xr:uid="{00000000-0004-0000-0100-000052000000}"/>
+    <hyperlink ref="I121" r:id="rId82" xr:uid="{00000000-0004-0000-0100-000053000000}"/>
+    <hyperlink ref="I123" r:id="rId83" xr:uid="{00000000-0004-0000-0100-000054000000}"/>
+    <hyperlink ref="I124" r:id="rId84" xr:uid="{00000000-0004-0000-0100-000055000000}"/>
+    <hyperlink ref="I129" r:id="rId85" xr:uid="{00000000-0004-0000-0100-000056000000}"/>
+    <hyperlink ref="I132" r:id="rId86" xr:uid="{00000000-0004-0000-0100-000057000000}"/>
+    <hyperlink ref="I136" r:id="rId87" xr:uid="{00000000-0004-0000-0100-000058000000}"/>
+    <hyperlink ref="I137" r:id="rId88" xr:uid="{00000000-0004-0000-0100-000059000000}"/>
+    <hyperlink ref="I141" r:id="rId89" xr:uid="{00000000-0004-0000-0100-00005A000000}"/>
+    <hyperlink ref="I142" r:id="rId90" xr:uid="{00000000-0004-0000-0100-00005B000000}"/>
+    <hyperlink ref="I143" r:id="rId91" xr:uid="{00000000-0004-0000-0100-00005C000000}"/>
+    <hyperlink ref="I144" r:id="rId92" xr:uid="{00000000-0004-0000-0100-00005D000000}"/>
+    <hyperlink ref="I146" r:id="rId93" xr:uid="{00000000-0004-0000-0100-00005E000000}"/>
+    <hyperlink ref="I147" r:id="rId94" xr:uid="{00000000-0004-0000-0100-00005F000000}"/>
+    <hyperlink ref="I148" r:id="rId95" xr:uid="{00000000-0004-0000-0100-000060000000}"/>
+    <hyperlink ref="I149" r:id="rId96" xr:uid="{00000000-0004-0000-0100-000061000000}"/>
+    <hyperlink ref="I150" r:id="rId97" xr:uid="{00000000-0004-0000-0100-000062000000}"/>
+    <hyperlink ref="I151" r:id="rId98" xr:uid="{00000000-0004-0000-0100-000063000000}"/>
+    <hyperlink ref="I152" r:id="rId99" xr:uid="{00000000-0004-0000-0100-000064000000}"/>
+    <hyperlink ref="I158" r:id="rId100" xr:uid="{00000000-0004-0000-0100-000065000000}"/>
+    <hyperlink ref="I159" r:id="rId101" xr:uid="{00000000-0004-0000-0100-000066000000}"/>
+    <hyperlink ref="I160" r:id="rId102" xr:uid="{00000000-0004-0000-0100-000067000000}"/>
+    <hyperlink ref="I161" r:id="rId103" xr:uid="{00000000-0004-0000-0100-000068000000}"/>
+    <hyperlink ref="I164" r:id="rId104" xr:uid="{00000000-0004-0000-0100-00006A000000}"/>
+    <hyperlink ref="I168" r:id="rId105" xr:uid="{00000000-0004-0000-0100-00006B000000}"/>
+    <hyperlink ref="I169" r:id="rId106" xr:uid="{00000000-0004-0000-0100-00006C000000}"/>
+    <hyperlink ref="I170" r:id="rId107" xr:uid="{00000000-0004-0000-0100-00006D000000}"/>
+    <hyperlink ref="I171" r:id="rId108" xr:uid="{00000000-0004-0000-0100-00006E000000}"/>
+    <hyperlink ref="I172" r:id="rId109" xr:uid="{00000000-0004-0000-0100-00006F000000}"/>
+    <hyperlink ref="I173" r:id="rId110" xr:uid="{00000000-0004-0000-0100-000070000000}"/>
+    <hyperlink ref="I174" r:id="rId111" xr:uid="{00000000-0004-0000-0100-000071000000}"/>
+    <hyperlink ref="I175" r:id="rId112" xr:uid="{00000000-0004-0000-0100-000072000000}"/>
+    <hyperlink ref="I176" r:id="rId113" xr:uid="{00000000-0004-0000-0100-000073000000}"/>
+    <hyperlink ref="I178" r:id="rId114" xr:uid="{00000000-0004-0000-0100-000074000000}"/>
+    <hyperlink ref="I179" r:id="rId115" xr:uid="{00000000-0004-0000-0100-000075000000}"/>
+    <hyperlink ref="I180" r:id="rId116" xr:uid="{00000000-0004-0000-0100-000076000000}"/>
+    <hyperlink ref="I181" r:id="rId117" xr:uid="{00000000-0004-0000-0100-000077000000}"/>
+    <hyperlink ref="I184" r:id="rId118" xr:uid="{00000000-0004-0000-0100-000078000000}"/>
+    <hyperlink ref="I185" r:id="rId119" xr:uid="{00000000-0004-0000-0100-000079000000}"/>
+    <hyperlink ref="I21" r:id="rId120" xr:uid="{881F0F65-3DCC-E94A-9FE5-2CC264A8F337}"/>
+    <hyperlink ref="I22" r:id="rId121" xr:uid="{AC40193A-1232-474A-A421-B55FFA7E99B8}"/>
+    <hyperlink ref="I42" r:id="rId122" xr:uid="{D41ADE90-9772-8F41-AC9B-8DE303E9D7A9}"/>
+    <hyperlink ref="I43" r:id="rId123" xr:uid="{85F37ABA-4B3B-764B-A1ED-9DD3AFFF0004}"/>
+    <hyperlink ref="I80" r:id="rId124" xr:uid="{F5E14AAB-D49A-EF45-A165-3757EFF2E9B4}"/>
+    <hyperlink ref="I96" r:id="rId125" xr:uid="{759707EA-D94A-2D42-8FE0-FAE01578CF99}"/>
+    <hyperlink ref="I131" r:id="rId126" xr:uid="{1A936B77-62AA-804C-B853-4343ADD2D925}"/>
+    <hyperlink ref="I162" r:id="rId127" xr:uid="{00000000-0004-0000-0100-000069000000}"/>
+    <hyperlink ref="I153" r:id="rId128" xr:uid="{2929B0EA-E15F-E444-ADC1-C2E3E232D526}"/>
+    <hyperlink ref="I163" r:id="rId129" xr:uid="{7770BE98-2823-3047-9E72-08DB2B79C177}"/>
+    <hyperlink ref="I165" r:id="rId130" xr:uid="{A91F97A2-47FA-FB49-8866-2B9AA1419B2B}"/>
+    <hyperlink ref="I182" r:id="rId131" xr:uid="{11EEE67C-10E9-AB44-91F6-D7C7B31697FA}"/>
+    <hyperlink ref="I186" r:id="rId132" xr:uid="{8E930EBE-7205-BD41-9ED8-FE8F970A98EF}"/>
+    <hyperlink ref="I166" r:id="rId133" xr:uid="{3AF5EB12-868F-C842-91DC-4FC147AA3C86}"/>
+    <hyperlink ref="I67" r:id="rId134" xr:uid="{7BDCEA69-27F3-FF41-BB2B-817D4FD2C9C0}"/>
+    <hyperlink ref="I68" r:id="rId135" xr:uid="{7A940ACA-466B-9E49-8CB5-9BA664F7C3C9}"/>
+    <hyperlink ref="I70" r:id="rId136" xr:uid="{088C717E-7DC5-EF4C-8C34-370DC45C6BEE}"/>
+    <hyperlink ref="I71" r:id="rId137" xr:uid="{A670C44A-19C9-984F-9EAA-8D5EBCE39C79}"/>
+    <hyperlink ref="I110" r:id="rId138" xr:uid="{713BB907-BFF9-AE42-B777-2AF591DA7D9B}"/>
+    <hyperlink ref="I115" r:id="rId139" xr:uid="{EC0C54FA-684B-A440-BF57-B5B57FDD99C9}"/>
+    <hyperlink ref="I126" r:id="rId140" xr:uid="{9081BA3E-9CF8-074E-BF5B-0F2FA156F0B7}"/>
+    <hyperlink ref="I128" r:id="rId141" xr:uid="{8C2FD4CC-DF59-734E-8449-EA5B9F5E7D3D}"/>
+    <hyperlink ref="I93" r:id="rId142" xr:uid="{9845498D-A3A6-524F-9A69-7DC2DB7F7639}"/>
+    <hyperlink ref="I125" r:id="rId143" xr:uid="{CFDD3EC3-C992-0E4C-8C8D-2A9AC6885E0B}"/>
+    <hyperlink ref="I104" r:id="rId144" xr:uid="{C634E917-B836-414F-BB3B-9A111E16653C}"/>
+    <hyperlink ref="I63" r:id="rId145" xr:uid="{8548A361-62F7-A648-BBBE-9F37385F0E45}"/>
+    <hyperlink ref="I78" r:id="rId146" xr:uid="{8EA062F9-78F8-A44B-BEDA-61CF758CB831}"/>
+    <hyperlink ref="I47" r:id="rId147" xr:uid="{7C7CB4D2-6B37-544C-B631-930D91F3AA17}"/>
+    <hyperlink ref="I154" r:id="rId148" xr:uid="{5694CC0C-366D-8848-BBD7-150B284E15DA}"/>
+    <hyperlink ref="I34" r:id="rId149" xr:uid="{7E8D5837-BD50-6844-B288-6217DFD05E29}"/>
+    <hyperlink ref="I49" r:id="rId150" xr:uid="{E89C4D5B-786F-9A4C-9914-80D4DF36F89C}"/>
+    <hyperlink ref="I48" r:id="rId151" xr:uid="{EDBD0C6E-D96D-734B-85A9-4D26B3421D83}"/>
+    <hyperlink ref="I183" r:id="rId152" xr:uid="{12FA5E40-D722-4344-995B-86BBF8B4F3F3}"/>
+    <hyperlink ref="I3" r:id="rId153" xr:uid="{90F3D795-8796-3941-81B5-D72CA324E042}"/>
+    <hyperlink ref="I4" r:id="rId154" xr:uid="{16E7DE01-C66E-B349-8DAD-CA4C99C20CD5}"/>
+    <hyperlink ref="I5" r:id="rId155" xr:uid="{7E09A861-DD77-2E4B-B800-EAC5DEA70EDC}"/>
+    <hyperlink ref="I17" r:id="rId156" xr:uid="{D6A698C2-16EA-6D43-BD05-DCD8B998FD48}"/>
+    <hyperlink ref="I44" r:id="rId157" xr:uid="{4D236EF9-AFFB-FE4D-BCD1-638D19B0E2AD}"/>
+    <hyperlink ref="I69" r:id="rId158" xr:uid="{219D9E22-5730-534D-8B55-6BD3916AD9D3}"/>
+    <hyperlink ref="I73" r:id="rId159" xr:uid="{F2124805-E683-1A42-A341-E4B4C798FCF6}"/>
+    <hyperlink ref="I105" r:id="rId160" xr:uid="{03D19417-5ACF-4747-87E3-FF4A7F6B8C5E}"/>
+    <hyperlink ref="I111" r:id="rId161" xr:uid="{E08A2438-5DB8-9A45-84DD-CD243288C3B9}"/>
+    <hyperlink ref="I127" r:id="rId162" xr:uid="{84BE2579-BA68-7D4D-B2CB-86D3681369AA}"/>
+    <hyperlink ref="I130" r:id="rId163" xr:uid="{91EB2E87-6831-0145-A4FB-E8981B8045C7}"/>
+    <hyperlink ref="I134" r:id="rId164" xr:uid="{54C086FF-A8B9-6C43-B277-A9032F8666B1}"/>
+    <hyperlink ref="I135" r:id="rId165" xr:uid="{2EF760AC-07D9-8548-93B1-88352B9C3C7F}"/>
+    <hyperlink ref="I97" r:id="rId166" xr:uid="{A5C672A7-87AF-E940-AAE7-D59695E4A0C6}"/>
+    <hyperlink ref="I138" r:id="rId167" xr:uid="{235F1B30-BA9C-2944-96E8-044D9C42D2E4}"/>
+    <hyperlink ref="I139" r:id="rId168" xr:uid="{86BA7BFD-9A67-EC49-A9D6-2A3459D321FF}"/>
+    <hyperlink ref="I140" r:id="rId169" xr:uid="{877A9B01-36F7-6D47-9B86-75B4F4BC541E}"/>
+    <hyperlink ref="I145" r:id="rId170" xr:uid="{5546ECD3-6F35-E74E-9357-32E1AF022690}"/>
+    <hyperlink ref="I155" r:id="rId171" xr:uid="{88D1FADA-4A32-0D4F-AF24-3FE72EBBEB68}"/>
+    <hyperlink ref="I156" r:id="rId172" xr:uid="{AF329473-0DFD-8C4C-BE43-8A06EA57AD9B}"/>
+    <hyperlink ref="I157" r:id="rId173" xr:uid="{6A2FDA52-E721-2D45-8440-DE26731358E6}"/>
+    <hyperlink ref="I50" r:id="rId174" xr:uid="{AE7D1622-F9B9-DF48-8E55-336B7BB6750F}"/>
+    <hyperlink ref="I51" r:id="rId175" xr:uid="{59C3C7D9-F3C2-4241-BF17-62CD57E349CD}"/>
+    <hyperlink ref="I85" r:id="rId176" xr:uid="{808B590E-E469-FC42-8AED-648218F9285B}"/>
+    <hyperlink ref="I133" r:id="rId177" xr:uid="{0BFD14EA-48B9-E242-A6F8-2B6996870F1C}"/>
+    <hyperlink ref="I79" r:id="rId178" xr:uid="{3D1F78F1-16B2-474B-91A0-3DFB6DB099C3}"/>
+    <hyperlink ref="I177" r:id="rId179" xr:uid="{D7BE4482-76F9-0648-8D97-B29A2C647580}"/>
+    <hyperlink ref="I167" r:id="rId180" xr:uid="{8BB3CB7A-FD3E-4242-B0D4-4CCA5F192666}"/>
+    <hyperlink ref="I113" r:id="rId181" xr:uid="{166E1088-3416-B54E-83D7-F3C78813399E}"/>
+    <hyperlink ref="I20" r:id="rId182" xr:uid="{908AA4B9-E7B0-6142-A293-990E38D22A48}"/>
+    <hyperlink ref="I114" r:id="rId183" xr:uid="{4613CEBC-EE7C-E34A-A90B-2FB250FA811B}"/>
+    <hyperlink ref="I26" r:id="rId184" xr:uid="{2D22579F-04EA-9D48-9412-C118AC00920E}"/>
+    <hyperlink ref="I122" r:id="rId185" xr:uid="{D6248971-549E-2743-8327-777612629438}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/docs/香港素食餐廳大全.xlsx
+++ b/docs/香港素食餐廳大全.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tim/_Python_OpenAI/My-projects/7-hk-veg-map/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E851E4E-E1EB-E940-A7DE-4CA9D8C5BA2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E23BC69D-EF5F-164A-880E-373D59508BD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8620" yWindow="500" windowWidth="17620" windowHeight="16260" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3280" yWindow="500" windowWidth="25520" windowHeight="16260" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="香港素食餐廳大全" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2313" uniqueCount="1046">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2136" uniqueCount="982">
   <si>
     <t>** 更新自: 13 Aug 2023 (deprecated, go to sheet 2 "hk_veg_restaurants_data instead")</t>
   </si>
@@ -1292,9 +1292,6 @@
     <t>https://www.openrice.com/zh/hongkong/r-benko-by-nute-%E4%B8%AD%E7%92%B0-%E6%97%A5%E6%9C%AC%E8%8F%9C-%E6%B2%99%E5%BE%8B-r784411</t>
   </si>
   <si>
-    <t>22.28321787029972, 114.15929498174724</t>
-  </si>
-  <si>
     <t>22.281044321818605, 114.15606695458204</t>
   </si>
   <si>
@@ -1496,21 +1493,6 @@
     <t>25696333</t>
   </si>
   <si>
-    <t>Green Common 海港城店</t>
-  </si>
-  <si>
-    <t>尖沙咀廣東道17號海港城海運大廈地下OT G61號舖</t>
-  </si>
-  <si>
-    <t>22.295162976308962, 114.16780174959108</t>
-  </si>
-  <si>
-    <t>https://www.openrice.com/zh/hongkong/r-green-common-%E5%B0%96%E6%B2%99%E5%92%80-%E5%A4%9A%E5%9C%8B%E8%8F%9C-%E6%B2%99%E5%BE%8B-r512455</t>
-  </si>
-  <si>
-    <t>31021220</t>
-  </si>
-  <si>
     <t>22.299634814669837, 114.16871940873287</t>
   </si>
   <si>
@@ -1562,9 +1544,6 @@
     <t>泰國菜, 私房菜</t>
   </si>
   <si>
-    <t>22.297023639172522, 114.17336449524011</t>
-  </si>
-  <si>
     <t>27804339</t>
   </si>
   <si>
@@ -1634,15 +1613,6 @@
     <t>28892938</t>
   </si>
   <si>
-    <t>旺角彌敦道688號旺角中心1樓F52號舖</t>
-  </si>
-  <si>
-    <t>https://www.openrice.com/zh/hongkong/r-nuttea-%E6%97%BA%E8%A7%92-%E5%8F%B0%E7%81%A3%E8%8F%9C-%E6%9E%9C%E6%B1%81-r674465</t>
-  </si>
-  <si>
-    <t>62003483</t>
-  </si>
-  <si>
     <t>大自然素食（太子）</t>
   </si>
   <si>
@@ -1709,12 +1679,6 @@
     <t>53364000</t>
   </si>
   <si>
-    <t>22.327816799645213, 114.1669161584624</t>
-  </si>
-  <si>
-    <t>36194840</t>
-  </si>
-  <si>
     <t>22.332590334273597, 114.16396636643508</t>
   </si>
   <si>
@@ -1727,30 +1691,12 @@
     <t>22816020</t>
   </si>
   <si>
-    <t>22.314050839187097, 114.16468013941972</t>
-  </si>
-  <si>
-    <t>55239163</t>
-  </si>
-  <si>
     <t>22.319766605208493, 114.16079009524104</t>
   </si>
   <si>
     <t>94492555</t>
   </si>
   <si>
-    <t>金佛園素食</t>
-  </si>
-  <si>
-    <t>22.308226129296983, 114.18554768239328</t>
-  </si>
-  <si>
-    <t>https://www.openrice.com/zh/hongkong/r-%E9%87%91%E4%BD%9B%E5%9C%92%E7%B4%A0%E9%A3%9F-%E7%B4%85%E7%A3%A1-%E6%B8%AF%E5%BC%8F-%E7%B4%A0%E9%A3%9F-r725026</t>
-  </si>
-  <si>
-    <t>22154882</t>
-  </si>
-  <si>
     <t>22.304804527556314, 114.1866017240762</t>
   </si>
   <si>
@@ -1850,15 +1796,6 @@
     <t>23318596</t>
   </si>
   <si>
-    <t>中菜, 川菜</t>
-  </si>
-  <si>
-    <t>22.307974548690723, 114.22361449816076</t>
-  </si>
-  <si>
-    <t>54077589</t>
-  </si>
-  <si>
     <t>22.310277745090914, 114.22712089524063</t>
   </si>
   <si>
@@ -1871,18 +1808,9 @@
     <t>65920365</t>
   </si>
   <si>
-    <t>22.308465526816924, 114.2238946970023</t>
-  </si>
-  <si>
     <t>97991916</t>
   </si>
   <si>
-    <t>22.312809897227453, 114.22340696283442</t>
-  </si>
-  <si>
-    <t>https://www.openrice.com/zh/hongkong/r-%E4%BA%94%E7%A6%8F%E7%B4%A0-%E8%A7%80%E5%A1%98-%E6%BB%87%E8%8F%9C-%E9%9B%B2%E5%8D%97-r809505</t>
-  </si>
-  <si>
     <t>將軍澳</t>
   </si>
   <si>
@@ -1916,21 +1844,6 @@
     <t>23656788</t>
   </si>
   <si>
-    <t>Green Common 如心廣場二期店</t>
-  </si>
-  <si>
-    <t>荃灣大河道 98 號如心廣場二期 1 樓 101 號舖</t>
-  </si>
-  <si>
-    <t>22.369404230966047, 114.11127715355923</t>
-  </si>
-  <si>
-    <t>https://www.openrice.com/zh/hongkong/r-green-common-%E8%8D%83%E7%81%A3-%E5%A4%9A%E5%9C%8B%E8%8F%9C-%E7%B4%A0%E9%A3%9F-r678568</t>
-  </si>
-  <si>
-    <t>26620553</t>
-  </si>
-  <si>
     <t>無肉食（荃灣）</t>
   </si>
   <si>
@@ -1961,15 +1874,6 @@
     <t>21481819</t>
   </si>
   <si>
-    <t>荃灣大河道88號灣景廣場購物中心AEON超級市場地下G15號舖</t>
-  </si>
-  <si>
-    <t>22.37004191583233, 114.111863937571</t>
-  </si>
-  <si>
-    <t>https://www.openrice.com/zh/hongkong/r-nuttea-%E8%8D%83%E7%81%A3-%E5%8F%B0%E7%81%A3%E8%8F%9C-%E6%9E%9C%E6%B1%81-r733427</t>
-  </si>
-  <si>
     <t>22.369252402891323, 114.11781946546716</t>
   </si>
   <si>
@@ -2000,12 +1904,6 @@
     <t>26361808</t>
   </si>
   <si>
-    <t>22.371521842407542, 114.11985379524276</t>
-  </si>
-  <si>
-    <t>24112407</t>
-  </si>
-  <si>
     <t>22.368460596408045, 114.11648972210732</t>
   </si>
   <si>
@@ -2087,12 +1985,6 @@
     <t>23312833</t>
   </si>
   <si>
-    <t>22.44952229502503, 114.16813299524527</t>
-  </si>
-  <si>
-    <t>92891406</t>
-  </si>
-  <si>
     <t>22.44678467882632, 114.16947826640948</t>
   </si>
   <si>
@@ -2117,21 +2009,6 @@
     <t>24889945</t>
   </si>
   <si>
-    <t>22.418534394714694, 114.20525329694196</t>
-  </si>
-  <si>
-    <t>55818105</t>
-  </si>
-  <si>
-    <t>Cafe 330</t>
-  </si>
-  <si>
-    <t>22.419699468833656, 114.21101348160073</t>
-  </si>
-  <si>
-    <t>29943932</t>
-  </si>
-  <si>
     <t>22.38867836968136, 114.20810409693512</t>
   </si>
   <si>
@@ -2162,12 +2039,6 @@
     <t>22345575</t>
   </si>
   <si>
-    <t>22.381372671750743, 114.27224179524302</t>
-  </si>
-  <si>
-    <t>64208456</t>
-  </si>
-  <si>
     <t>22.284950391487587, 114.1537815780751</t>
   </si>
   <si>
@@ -2354,9 +2225,6 @@
     <t>29854736</t>
   </si>
   <si>
-    <t>22.319903610218404, 114.16972036987416</t>
-  </si>
-  <si>
     <t>22.300668907966998, 114.17211620123605</t>
   </si>
   <si>
@@ -2366,9 +2234,6 @@
     <t>同德素食</t>
   </si>
   <si>
-    <t>Moono</t>
-  </si>
-  <si>
     <t>一素食譜</t>
   </si>
   <si>
@@ -2423,18 +2288,6 @@
     <t>28020882</t>
   </si>
   <si>
-    <t>尖沙咀梳士巴利道18號Victoria Dockside K11 MuseaB2樓B201-C02號舖</t>
-  </si>
-  <si>
-    <t>22.294367997625148, 114.17458086824381</t>
-  </si>
-  <si>
-    <t>https://www.openrice.com/zh/hongkong/r-moono-%E5%B0%96%E6%B2%99%E5%92%80-%E5%A4%9A%E5%9C%8B%E8%8F%9C-%E7%B4%A0%E9%A3%9F-r713782</t>
-  </si>
-  <si>
-    <t>46242630</t>
-  </si>
-  <si>
     <t>尖沙咀北京道65-69號環球商業大廈2樓205-06室</t>
   </si>
   <si>
@@ -2597,9 +2450,6 @@
     <t>https://www.openrice.com/zh/hongkong/r-via-vegetarian-restaurant-jordan-hong-kong-style-vegetarian-r747297</t>
   </si>
   <si>
-    <t>https://www.openrice.com/zh/hongkong/r-woodlands-cuhk-indian-vegetarian-restaurant-sha-tin-indonesian-vegetarian-r787665</t>
-  </si>
-  <si>
     <t>https://www.openrice.com/zh/hongkong/r-root-vegan-central-international-salad-r720910</t>
   </si>
   <si>
@@ -2642,21 +2492,6 @@
     <t>55008812</t>
   </si>
   <si>
-    <t>意素園</t>
-  </si>
-  <si>
-    <t>北角北角道10號北角亞太商業中心地下1號舖</t>
-  </si>
-  <si>
-    <t>22.29141537447339, 114.1967093731363</t>
-  </si>
-  <si>
-    <t>https://www.openrice.com/zh/hongkong/r-%E6%84%8F%E7%B4%A0%E5%9C%92-%E5%8C%97%E8%A7%92-%E7%B2%B5%E8%8F%9C-%E5%BB%A3%E6%9D%B1-%E7%B4%A0%E9%A3%9F-r785290</t>
-  </si>
-  <si>
-    <t>90363481</t>
-  </si>
-  <si>
     <t>素食園坊</t>
   </si>
   <si>
@@ -2738,15 +2573,9 @@
     <t>活蘭印度素食 Woodlands Indian Vegetarian Restaurant</t>
   </si>
   <si>
-    <t>Clean Coffee</t>
-  </si>
-  <si>
     <t xml:space="preserve">野玩田店 Something Wild - The Farms </t>
   </si>
   <si>
-    <t>MUM 日常野菜料理</t>
-  </si>
-  <si>
     <t>健康齋廚</t>
   </si>
   <si>
@@ -2819,15 +2648,6 @@
     <t>34285545</t>
   </si>
   <si>
-    <t>尖沙咀彌敦道36-44號Heath地庫12號舖</t>
-  </si>
-  <si>
-    <t>22.296464029845154, 114.17243223182228</t>
-  </si>
-  <si>
-    <t>https://www.openrice.com/zh/hongkong/r-clean-coffee-%E5%B0%96%E6%B2%99%E5%92%80-%E8%A5%BF%E5%BC%8F-r795969</t>
-  </si>
-  <si>
     <t>黃大仙飛鳳街34號地舖</t>
   </si>
   <si>
@@ -2840,18 +2660,6 @@
     <t>67330283</t>
   </si>
   <si>
-    <t>22.334466327888848, 114.19489936683681</t>
-  </si>
-  <si>
-    <t>新蒲崗仁愛街34號地下B號舖</t>
-  </si>
-  <si>
-    <t>https://www.openrice.com/zh/hongkong/r-mum-%E6%97%A5%E5%B8%B8%E9%87%8E%E8%8F%9C%E6%96%99%E7%90%86-%E6%96%B0%E8%92%B2%E5%B4%97-%E6%B8%AF%E5%BC%8F-%E7%84%A1%E8%82%89%E9%A4%90%E5%96%AE-r719730</t>
-  </si>
-  <si>
-    <t>54007869</t>
-  </si>
-  <si>
     <t>觀塘成業街11-13號華成工商中心9樓907號舖</t>
   </si>
   <si>
@@ -2939,18 +2747,6 @@
     <t>22756690</t>
   </si>
   <si>
-    <t>荃灣沙咀道254-276號廣發大廈地下4B號舖</t>
-  </si>
-  <si>
-    <t>22.369762427199912, 114.11629731858706</t>
-  </si>
-  <si>
-    <t>https://www.openrice.com/zh/hongkong/r-%E6%9D%B1%E6%96%B9%E5%B0%8F%E7%A5%87%E5%9C%92-%E8%8D%83%E7%81%A3-%E7%B2%B5%E8%8F%9C-%E5%BB%A3%E6%9D%B1-%E7%B4%A0%E9%A3%9F-r754343</t>
-  </si>
-  <si>
-    <t>35687452</t>
-  </si>
-  <si>
     <t>荃灣青山公路荃灣段264-298號南豐中心1樓A440-1號舖</t>
   </si>
   <si>
@@ -3041,24 +2837,6 @@
     <t>46146544</t>
   </si>
   <si>
-    <t>EFG Eat for Green</t>
-  </si>
-  <si>
-    <t>觀塘開源道60號駱駝漆大廈第三座3樓P室</t>
-  </si>
-  <si>
-    <t>22.31014677141835, 114.22507058388389</t>
-  </si>
-  <si>
-    <t>https://www.openrice.com/zh/hongkong/r-efg-eat-for-green-%E8%A7%80%E5%A1%98-%E8%A5%BF%E5%BC%8F-%E7%84%A1%E8%82%89%E9%A4%90%E5%96%AE-r746157</t>
-  </si>
-  <si>
-    <t>70742818</t>
-  </si>
-  <si>
-    <t>65868047</t>
-  </si>
-  <si>
     <t>Mayse Pizzeria</t>
   </si>
   <si>
@@ -3159,6 +2937,36 @@
   </si>
   <si>
     <t>28334604</t>
+  </si>
+  <si>
+    <t>觀塘成業街19-21號成業工業大廈1樓25室</t>
+  </si>
+  <si>
+    <t>https://www.openrice.com/zh/hongkong/r-%E6%84%9B%E5%AE%B6-%E6%84%9B%E4%BE%BF%E7%95%B6-%E8%A7%80%E5%A1%98-%E6%97%A5%E6%9C%AC%E8%8F%9C-%E7%B4%A0%E9%A3%9F-r618258</t>
+  </si>
+  <si>
+    <t>新蒲崗景福街41號地舖</t>
+  </si>
+  <si>
+    <t>22.334050664710453, 114.19665090498167</t>
+  </si>
+  <si>
+    <t>https://www.openrice.com/zh/hongkong/r-%E7%B4%A0%E9%A3%9F%E5%B7%A5%E6%88%BF-%E6%96%B0%E8%92%B2%E5%B4%97-%E6%B8%AF%E5%BC%8F-%E7%B4%A0%E9%A3%9F-r874122</t>
+  </si>
+  <si>
+    <t>3542 5777</t>
+  </si>
+  <si>
+    <t>素食媽咪Veggie Mami</t>
+  </si>
+  <si>
+    <t>https://www.openrice.com/zh/hongkong/r-%E7%B4%A0%E9%A3%9F%E5%AA%BD%E5%92%AA-%E9%95%B7%E6%B2%99%E7%81%A3-%E6%B8%AF%E5%BC%8F-%E7%B4%A0%E9%A3%9F-r664730</t>
+  </si>
+  <si>
+    <t>尖沙咀堪富利士道5號2樓</t>
+  </si>
+  <si>
+    <t>22.298480405025845, 114.17307611067652</t>
   </si>
 </sst>
 </file>
@@ -11427,16 +11235,17 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:K186"/>
+  <dimension ref="A1:K166"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G15" zoomScale="132" workbookViewId="0">
-      <selection activeCell="K26" sqref="K26"/>
+    <sheetView tabSelected="1" topLeftCell="A148" zoomScale="136" workbookViewId="0">
+      <selection activeCell="C169" sqref="C169"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="3" max="3" width="32.5" customWidth="1"/>
     <col min="6" max="6" width="41.83203125" customWidth="1"/>
+    <col min="9" max="9" width="27.6640625" customWidth="1"/>
     <col min="10" max="10" width="12.6640625" style="27"/>
     <col min="11" max="11" width="19" customWidth="1"/>
   </cols>
@@ -11512,7 +11321,7 @@
         <v>10</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>890</v>
+        <v>835</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>397</v>
@@ -11524,17 +11333,17 @@
         <v>14</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>909</v>
+        <v>852</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>989</v>
+        <v>921</v>
       </c>
       <c r="H3" s="5"/>
       <c r="I3" s="24" t="s">
-        <v>910</v>
+        <v>853</v>
       </c>
       <c r="J3" s="25" t="s">
-        <v>911</v>
+        <v>854</v>
       </c>
       <c r="K3" s="5"/>
     </row>
@@ -11543,10 +11352,10 @@
         <v>10</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>890</v>
+        <v>835</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>889</v>
+        <v>834</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>418</v>
@@ -11555,17 +11364,17 @@
         <v>14</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>912</v>
+        <v>855</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>913</v>
+        <v>856</v>
       </c>
       <c r="H4" s="5"/>
       <c r="I4" s="24" t="s">
-        <v>914</v>
+        <v>857</v>
       </c>
       <c r="J4" s="25" t="s">
-        <v>915</v>
+        <v>858</v>
       </c>
       <c r="K4" s="5"/>
     </row>
@@ -11574,10 +11383,10 @@
         <v>10</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>890</v>
+        <v>835</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>891</v>
+        <v>836</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>418</v>
@@ -11586,17 +11395,17 @@
         <v>25</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>916</v>
+        <v>859</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>917</v>
+        <v>860</v>
       </c>
       <c r="H5" s="5"/>
       <c r="I5" s="24" t="s">
-        <v>918</v>
+        <v>861</v>
       </c>
       <c r="J5" s="25" t="s">
-        <v>919</v>
+        <v>862</v>
       </c>
       <c r="K5" s="5"/>
     </row>
@@ -11620,7 +11429,7 @@
         <v>399</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>988</v>
+        <v>920</v>
       </c>
       <c r="H6" s="5"/>
       <c r="I6" s="7" t="s">
@@ -11744,7 +11553,7 @@
         <v>413</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>715</v>
+        <v>672</v>
       </c>
       <c r="H10" s="5"/>
       <c r="I10" s="7" t="s">
@@ -11785,7 +11594,7 @@
         <v>417</v>
       </c>
       <c r="K11" s="5" t="s">
-        <v>1040</v>
+        <v>966</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="15.75" customHeight="1">
@@ -11812,7 +11621,7 @@
       </c>
       <c r="H12" s="5"/>
       <c r="I12" s="24" t="s">
-        <v>859</v>
+        <v>809</v>
       </c>
       <c r="J12" s="25" t="s">
         <v>420</v>
@@ -11856,25 +11665,27 @@
         <v>22</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="G14" s="5" t="s">
         <v>423</v>
       </c>
       <c r="H14" s="5"/>
-      <c r="I14" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="J14" s="25"/>
+      <c r="I14" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="J14" s="25" t="s">
+        <v>424</v>
+      </c>
       <c r="K14" s="5"/>
     </row>
     <row r="15" spans="1:11" ht="15.75" customHeight="1">
@@ -11885,26 +11696,26 @@
         <v>22</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="H15" s="5"/>
-      <c r="I15" s="6" t="s">
-        <v>49</v>
+      <c r="I15" s="7" t="s">
+        <v>53</v>
       </c>
       <c r="J15" s="25" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="K15" s="5"/>
     </row>
@@ -11916,26 +11727,26 @@
         <v>22</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>50</v>
+        <v>833</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>51</v>
+        <v>382</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>39</v>
+        <v>14</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>52</v>
+        <v>863</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>426</v>
+        <v>864</v>
       </c>
       <c r="H16" s="5"/>
-      <c r="I16" s="7" t="s">
-        <v>53</v>
+      <c r="I16" s="24" t="s">
+        <v>865</v>
       </c>
       <c r="J16" s="25" t="s">
-        <v>427</v>
+        <v>866</v>
       </c>
       <c r="K16" s="5"/>
     </row>
@@ -11947,26 +11758,26 @@
         <v>22</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>888</v>
+        <v>54</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>382</v>
+        <v>55</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>920</v>
+        <v>56</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>921</v>
+        <v>427</v>
       </c>
       <c r="H17" s="5"/>
       <c r="I17" s="24" t="s">
-        <v>922</v>
+        <v>810</v>
       </c>
       <c r="J17" s="25" t="s">
-        <v>923</v>
+        <v>428</v>
       </c>
       <c r="K17" s="5"/>
     </row>
@@ -11978,26 +11789,26 @@
         <v>22</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>55</v>
+        <v>410</v>
       </c>
       <c r="E18" s="5" t="s">
         <v>25</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="H18" s="5"/>
-      <c r="I18" s="24" t="s">
-        <v>860</v>
+      <c r="I18" s="7" t="s">
+        <v>64</v>
       </c>
       <c r="J18" s="25" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="K18" s="5"/>
     </row>
@@ -12009,26 +11820,26 @@
         <v>22</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>62</v>
+        <v>953</v>
       </c>
       <c r="D19" s="5" t="s">
         <v>410</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>63</v>
+        <v>954</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>430</v>
+        <v>955</v>
       </c>
       <c r="H19" s="5"/>
-      <c r="I19" s="7" t="s">
-        <v>64</v>
+      <c r="I19" s="24" t="s">
+        <v>956</v>
       </c>
       <c r="J19" s="25" t="s">
-        <v>431</v>
+        <v>957</v>
       </c>
       <c r="K19" s="5"/>
     </row>
@@ -12040,26 +11851,26 @@
         <v>22</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>1027</v>
+        <v>679</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>410</v>
+        <v>47</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>1028</v>
+        <v>686</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>1029</v>
+        <v>687</v>
       </c>
       <c r="H20" s="5"/>
       <c r="I20" s="24" t="s">
-        <v>1030</v>
-      </c>
-      <c r="J20" s="25" t="s">
-        <v>1031</v>
+        <v>688</v>
+      </c>
+      <c r="J20" s="25">
+        <v>37553067</v>
       </c>
       <c r="K20" s="5"/>
     </row>
@@ -12071,7 +11882,7 @@
         <v>22</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>722</v>
+        <v>685</v>
       </c>
       <c r="D21" s="5" t="s">
         <v>47</v>
@@ -12080,17 +11891,17 @@
         <v>25</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>729</v>
+        <v>689</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>730</v>
+        <v>690</v>
       </c>
       <c r="H21" s="5"/>
       <c r="I21" s="24" t="s">
-        <v>731</v>
-      </c>
-      <c r="J21" s="25">
-        <v>37553067</v>
+        <v>691</v>
+      </c>
+      <c r="J21" s="25" t="s">
+        <v>692</v>
       </c>
       <c r="K21" s="5"/>
     </row>
@@ -12099,29 +11910,29 @@
         <v>10</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>22</v>
+        <v>65</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>728</v>
+        <v>66</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>47</v>
+        <v>410</v>
       </c>
       <c r="E22" s="5" t="s">
         <v>25</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>732</v>
+        <v>431</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>733</v>
+        <v>432</v>
       </c>
       <c r="H22" s="5"/>
-      <c r="I22" s="24" t="s">
-        <v>734</v>
+      <c r="I22" s="6" t="s">
+        <v>68</v>
       </c>
       <c r="J22" s="25" t="s">
-        <v>735</v>
+        <v>433</v>
       </c>
       <c r="K22" s="5"/>
     </row>
@@ -12133,26 +11944,26 @@
         <v>65</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>66</v>
+        <v>381</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>410</v>
+        <v>382</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="H23" s="5"/>
       <c r="I23" s="6" t="s">
-        <v>68</v>
+        <v>436</v>
       </c>
       <c r="J23" s="25" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="K23" s="5"/>
     </row>
@@ -12161,29 +11972,29 @@
         <v>10</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>381</v>
+        <v>70</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>382</v>
+        <v>71</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>435</v>
+        <v>72</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="H24" s="5"/>
       <c r="I24" s="6" t="s">
-        <v>437</v>
+        <v>73</v>
       </c>
       <c r="J24" s="25" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="K24" s="5"/>
     </row>
@@ -12195,7 +12006,7 @@
         <v>69</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>70</v>
+        <v>967</v>
       </c>
       <c r="D25" s="5" t="s">
         <v>71</v>
@@ -12204,17 +12015,17 @@
         <v>25</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>72</v>
+        <v>968</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>439</v>
+        <v>969</v>
       </c>
       <c r="H25" s="5"/>
-      <c r="I25" s="6" t="s">
-        <v>73</v>
+      <c r="I25" s="24" t="s">
+        <v>970</v>
       </c>
       <c r="J25" s="25" t="s">
-        <v>440</v>
+        <v>971</v>
       </c>
       <c r="K25" s="5"/>
     </row>
@@ -12226,26 +12037,26 @@
         <v>69</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>1041</v>
+        <v>849</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="E26" s="5" t="s">
         <v>25</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>1042</v>
+        <v>76</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>1043</v>
+        <v>440</v>
       </c>
       <c r="H26" s="5"/>
       <c r="I26" s="24" t="s">
-        <v>1044</v>
+        <v>811</v>
       </c>
       <c r="J26" s="25" t="s">
-        <v>1045</v>
+        <v>441</v>
       </c>
       <c r="K26" s="5"/>
     </row>
@@ -12257,26 +12068,26 @@
         <v>69</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>904</v>
+        <v>78</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>75</v>
+        <v>394</v>
       </c>
       <c r="E27" s="5" t="s">
         <v>25</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="H27" s="5"/>
-      <c r="I27" s="24" t="s">
-        <v>861</v>
+      <c r="I27" s="7" t="s">
+        <v>80</v>
       </c>
       <c r="J27" s="25" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="K27" s="5"/>
     </row>
@@ -12288,26 +12099,26 @@
         <v>69</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>394</v>
+        <v>410</v>
       </c>
       <c r="E28" s="5" t="s">
         <v>25</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="G28" s="5" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="H28" s="5"/>
       <c r="I28" s="7" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="J28" s="25" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="K28" s="5"/>
     </row>
@@ -12319,7 +12130,7 @@
         <v>69</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="D29" s="5" t="s">
         <v>410</v>
@@ -12328,17 +12139,17 @@
         <v>25</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="G29" s="5" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="H29" s="5"/>
-      <c r="I29" s="7" t="s">
-        <v>83</v>
+      <c r="I29" s="6" t="s">
+        <v>86</v>
       </c>
       <c r="J29" s="25" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="K29" s="5"/>
     </row>
@@ -12350,7 +12161,7 @@
         <v>69</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="D30" s="5" t="s">
         <v>410</v>
@@ -12359,17 +12170,17 @@
         <v>25</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="G30" s="5" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="H30" s="5"/>
       <c r="I30" s="6" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="J30" s="25" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="K30" s="5"/>
     </row>
@@ -12381,26 +12192,26 @@
         <v>69</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>410</v>
+        <v>51</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="G31" s="5" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="H31" s="5"/>
       <c r="I31" s="6" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="J31" s="25" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="K31" s="5"/>
     </row>
@@ -12412,26 +12223,26 @@
         <v>69</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="G32" s="5" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="H32" s="5"/>
       <c r="I32" s="6" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="J32" s="25" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="K32" s="5"/>
     </row>
@@ -12443,26 +12254,26 @@
         <v>69</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>93</v>
+        <v>818</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="E33" s="5" t="s">
         <v>25</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>94</v>
+        <v>819</v>
       </c>
       <c r="G33" s="5" t="s">
-        <v>453</v>
+        <v>820</v>
       </c>
       <c r="H33" s="5"/>
-      <c r="I33" s="6" t="s">
-        <v>95</v>
+      <c r="I33" s="24" t="s">
+        <v>821</v>
       </c>
       <c r="J33" s="25" t="s">
-        <v>454</v>
+        <v>822</v>
       </c>
       <c r="K33" s="5"/>
     </row>
@@ -12474,26 +12285,26 @@
         <v>69</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>868</v>
+        <v>96</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>51</v>
+        <v>418</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>869</v>
+        <v>97</v>
       </c>
       <c r="G34" s="5" t="s">
-        <v>870</v>
+        <v>454</v>
       </c>
       <c r="H34" s="5"/>
       <c r="I34" s="24" t="s">
-        <v>871</v>
+        <v>812</v>
       </c>
       <c r="J34" s="25" t="s">
-        <v>872</v>
+        <v>455</v>
       </c>
       <c r="K34" s="5"/>
     </row>
@@ -12502,29 +12313,29 @@
         <v>10</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>69</v>
+        <v>99</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>96</v>
+        <v>456</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>418</v>
+        <v>410</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>97</v>
+        <v>457</v>
       </c>
       <c r="G35" s="5" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="H35" s="5"/>
-      <c r="I35" s="24" t="s">
-        <v>862</v>
+      <c r="I35" s="6" t="s">
+        <v>459</v>
       </c>
       <c r="J35" s="25" t="s">
-        <v>456</v>
+        <v>460</v>
       </c>
       <c r="K35" s="5"/>
     </row>
@@ -12536,26 +12347,26 @@
         <v>99</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>457</v>
+        <v>381</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>410</v>
+        <v>382</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="G36" s="5" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="H36" s="5"/>
       <c r="I36" s="6" t="s">
-        <v>460</v>
+        <v>463</v>
       </c>
       <c r="J36" s="25" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="K36" s="5"/>
     </row>
@@ -12567,28 +12378,30 @@
         <v>99</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>381</v>
+        <v>100</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>382</v>
+        <v>47</v>
       </c>
       <c r="E37" s="5" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="F37" s="5" t="s">
-        <v>462</v>
+        <v>101</v>
       </c>
       <c r="G37" s="5" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="H37" s="5"/>
       <c r="I37" s="6" t="s">
-        <v>464</v>
+        <v>102</v>
       </c>
       <c r="J37" s="25" t="s">
-        <v>465</v>
-      </c>
-      <c r="K37" s="5"/>
+        <v>466</v>
+      </c>
+      <c r="K37" s="5" t="s">
+        <v>965</v>
+      </c>
     </row>
     <row r="38" spans="1:11" ht="15.75" customHeight="1">
       <c r="A38" s="5" t="s">
@@ -12598,30 +12411,28 @@
         <v>99</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>47</v>
+        <v>467</v>
       </c>
       <c r="E38" s="5" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="G38" s="5" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="H38" s="5"/>
-      <c r="I38" s="6" t="s">
-        <v>102</v>
+      <c r="I38" s="7" t="s">
+        <v>107</v>
       </c>
       <c r="J38" s="25" t="s">
-        <v>467</v>
-      </c>
-      <c r="K38" s="5" t="s">
-        <v>1039</v>
-      </c>
+        <v>469</v>
+      </c>
+      <c r="K38" s="5"/>
     </row>
     <row r="39" spans="1:11" ht="15.75" customHeight="1">
       <c r="A39" s="5" t="s">
@@ -12631,26 +12442,26 @@
         <v>99</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="E39" s="5" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="F39" s="5" t="s">
-        <v>106</v>
+        <v>471</v>
       </c>
       <c r="G39" s="5" t="s">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="H39" s="5"/>
-      <c r="I39" s="7" t="s">
-        <v>107</v>
+      <c r="I39" s="6" t="s">
+        <v>473</v>
       </c>
       <c r="J39" s="25" t="s">
-        <v>470</v>
+        <v>474</v>
       </c>
       <c r="K39" s="5"/>
     </row>
@@ -12662,26 +12473,26 @@
         <v>99</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>471</v>
+        <v>55</v>
       </c>
       <c r="E40" s="5" t="s">
         <v>25</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>472</v>
+        <v>113</v>
       </c>
       <c r="G40" s="5" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="H40" s="5"/>
       <c r="I40" s="6" t="s">
-        <v>474</v>
+        <v>114</v>
       </c>
       <c r="J40" s="25" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="K40" s="5"/>
     </row>
@@ -12693,69 +12504,69 @@
         <v>99</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>112</v>
+        <v>683</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>55</v>
+        <v>181</v>
       </c>
       <c r="E41" s="5" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="F41" s="5" t="s">
-        <v>113</v>
+        <v>693</v>
       </c>
       <c r="G41" s="5" t="s">
-        <v>476</v>
+        <v>694</v>
       </c>
       <c r="H41" s="5"/>
-      <c r="I41" s="6" t="s">
-        <v>114</v>
+      <c r="I41" s="24" t="s">
+        <v>695</v>
       </c>
       <c r="J41" s="25" t="s">
-        <v>477</v>
+        <v>696</v>
       </c>
       <c r="K41" s="5"/>
     </row>
     <row r="42" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A42" s="5" t="s">
+      <c r="A42" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="B42" s="5" t="s">
+      <c r="B42" s="23" t="s">
         <v>99</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>726</v>
+        <v>684</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>181</v>
+        <v>410</v>
       </c>
       <c r="E42" s="5" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="F42" s="5" t="s">
-        <v>736</v>
+        <v>697</v>
       </c>
       <c r="G42" s="5" t="s">
-        <v>737</v>
+        <v>698</v>
       </c>
       <c r="H42" s="5"/>
       <c r="I42" s="24" t="s">
-        <v>738</v>
+        <v>699</v>
       </c>
       <c r="J42" s="25" t="s">
-        <v>739</v>
+        <v>700</v>
       </c>
       <c r="K42" s="5"/>
     </row>
     <row r="43" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A43" s="23" t="s">
+      <c r="A43" s="5" t="s">
         <v>10</v>
       </c>
       <c r="B43" s="23" t="s">
-        <v>99</v>
+        <v>844</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>727</v>
+        <v>842</v>
       </c>
       <c r="D43" s="5" t="s">
         <v>410</v>
@@ -12764,17 +12575,17 @@
         <v>25</v>
       </c>
       <c r="F43" s="5" t="s">
-        <v>740</v>
+        <v>867</v>
       </c>
       <c r="G43" s="5" t="s">
-        <v>741</v>
+        <v>868</v>
       </c>
       <c r="H43" s="5"/>
       <c r="I43" s="24" t="s">
-        <v>742</v>
+        <v>869</v>
       </c>
       <c r="J43" s="25" t="s">
-        <v>743</v>
+        <v>870</v>
       </c>
       <c r="K43" s="5"/>
     </row>
@@ -12782,30 +12593,30 @@
       <c r="A44" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B44" s="23" t="s">
-        <v>899</v>
+      <c r="B44" s="5" t="s">
+        <v>115</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>897</v>
+        <v>477</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>410</v>
+        <v>47</v>
       </c>
       <c r="E44" s="5" t="s">
         <v>25</v>
       </c>
       <c r="F44" s="5" t="s">
-        <v>924</v>
+        <v>478</v>
       </c>
       <c r="G44" s="5" t="s">
-        <v>925</v>
+        <v>479</v>
       </c>
       <c r="H44" s="5"/>
-      <c r="I44" s="24" t="s">
-        <v>926</v>
+      <c r="I44" s="6" t="s">
+        <v>480</v>
       </c>
       <c r="J44" s="25" t="s">
-        <v>927</v>
+        <v>481</v>
       </c>
       <c r="K44" s="5"/>
     </row>
@@ -12817,26 +12628,26 @@
         <v>115</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>478</v>
+        <v>116</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>47</v>
+        <v>117</v>
       </c>
       <c r="E45" s="5" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="F45" s="5" t="s">
-        <v>479</v>
+        <v>118</v>
       </c>
       <c r="G45" s="5" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="H45" s="5"/>
-      <c r="I45" s="6" t="s">
-        <v>481</v>
+      <c r="I45" s="24" t="s">
+        <v>805</v>
       </c>
       <c r="J45" s="25" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="K45" s="5"/>
     </row>
@@ -12848,26 +12659,26 @@
         <v>115</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>116</v>
+        <v>800</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>117</v>
+        <v>410</v>
       </c>
       <c r="E46" s="5" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="F46" s="5" t="s">
-        <v>118</v>
+        <v>801</v>
       </c>
       <c r="G46" s="5" t="s">
-        <v>483</v>
+        <v>802</v>
       </c>
       <c r="H46" s="5"/>
       <c r="I46" s="24" t="s">
-        <v>854</v>
+        <v>803</v>
       </c>
       <c r="J46" s="25" t="s">
-        <v>484</v>
+        <v>804</v>
       </c>
       <c r="K46" s="5"/>
     </row>
@@ -12879,26 +12690,26 @@
         <v>115</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>849</v>
+        <v>823</v>
       </c>
       <c r="D47" s="5" t="s">
-        <v>410</v>
+        <v>117</v>
       </c>
       <c r="E47" s="5" t="s">
         <v>25</v>
       </c>
       <c r="F47" s="5" t="s">
-        <v>850</v>
+        <v>824</v>
       </c>
       <c r="G47" s="5" t="s">
-        <v>851</v>
+        <v>825</v>
       </c>
       <c r="H47" s="5"/>
       <c r="I47" s="24" t="s">
-        <v>852</v>
+        <v>826</v>
       </c>
       <c r="J47" s="25" t="s">
-        <v>853</v>
+        <v>827</v>
       </c>
       <c r="K47" s="5"/>
     </row>
@@ -12910,26 +12721,26 @@
         <v>115</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>878</v>
+        <v>922</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>117</v>
+        <v>410</v>
       </c>
       <c r="E48" s="5" t="s">
         <v>25</v>
       </c>
       <c r="F48" s="5" t="s">
-        <v>879</v>
+        <v>924</v>
       </c>
       <c r="G48" s="5" t="s">
-        <v>880</v>
+        <v>925</v>
       </c>
       <c r="H48" s="5"/>
       <c r="I48" s="24" t="s">
-        <v>881</v>
+        <v>926</v>
       </c>
       <c r="J48" s="25" t="s">
-        <v>882</v>
+        <v>927</v>
       </c>
       <c r="K48" s="5"/>
     </row>
@@ -12941,26 +12752,26 @@
         <v>115</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>873</v>
+        <v>923</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>410</v>
+        <v>117</v>
       </c>
       <c r="E49" s="5" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="F49" s="5" t="s">
-        <v>874</v>
+        <v>928</v>
       </c>
       <c r="G49" s="5" t="s">
-        <v>875</v>
+        <v>929</v>
       </c>
       <c r="H49" s="5"/>
       <c r="I49" s="24" t="s">
-        <v>876</v>
+        <v>930</v>
       </c>
       <c r="J49" s="25" t="s">
-        <v>877</v>
+        <v>931</v>
       </c>
       <c r="K49" s="5"/>
     </row>
@@ -12969,10 +12780,10 @@
         <v>10</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>990</v>
+        <v>121</v>
       </c>
       <c r="D50" s="5" t="s">
         <v>410</v>
@@ -12981,17 +12792,17 @@
         <v>25</v>
       </c>
       <c r="F50" s="5" t="s">
-        <v>992</v>
+        <v>122</v>
       </c>
       <c r="G50" s="5" t="s">
-        <v>993</v>
+        <v>484</v>
       </c>
       <c r="H50" s="5"/>
-      <c r="I50" s="24" t="s">
-        <v>994</v>
+      <c r="I50" s="6" t="s">
+        <v>123</v>
       </c>
       <c r="J50" s="25" t="s">
-        <v>995</v>
+        <v>485</v>
       </c>
       <c r="K50" s="5"/>
     </row>
@@ -13000,29 +12811,29 @@
         <v>10</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>991</v>
+        <v>125</v>
       </c>
       <c r="D51" s="5" t="s">
-        <v>117</v>
+        <v>47</v>
       </c>
       <c r="E51" s="5" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="F51" s="5" t="s">
-        <v>996</v>
+        <v>126</v>
       </c>
       <c r="G51" s="5" t="s">
-        <v>997</v>
+        <v>486</v>
       </c>
       <c r="H51" s="5"/>
-      <c r="I51" s="24" t="s">
-        <v>998</v>
+      <c r="I51" s="6" t="s">
+        <v>127</v>
       </c>
       <c r="J51" s="25" t="s">
-        <v>999</v>
+        <v>487</v>
       </c>
       <c r="K51" s="5"/>
     </row>
@@ -13031,10 +12842,10 @@
         <v>10</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="D52" s="5" t="s">
         <v>410</v>
@@ -13043,81 +12854,81 @@
         <v>25</v>
       </c>
       <c r="F52" s="5" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="G52" s="5" t="s">
-        <v>485</v>
+        <v>488</v>
       </c>
       <c r="H52" s="5"/>
-      <c r="I52" s="6" t="s">
-        <v>123</v>
+      <c r="I52" s="7" t="s">
+        <v>131</v>
       </c>
       <c r="J52" s="25" t="s">
-        <v>486</v>
+        <v>489</v>
       </c>
       <c r="K52" s="5"/>
     </row>
     <row r="53" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A53" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B53" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="C53" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="D53" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="E53" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F53" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="G53" s="5" t="s">
-        <v>487</v>
-      </c>
-      <c r="H53" s="5"/>
-      <c r="I53" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="J53" s="25" t="s">
-        <v>488</v>
-      </c>
-      <c r="K53" s="5"/>
+      <c r="A53" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="B53" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="C53" s="9" t="s">
+        <v>846</v>
+      </c>
+      <c r="D53" s="9" t="s">
+        <v>410</v>
+      </c>
+      <c r="E53" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F53" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="G53" s="9" t="s">
+        <v>490</v>
+      </c>
+      <c r="H53" s="9"/>
+      <c r="I53" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="J53" s="26" t="s">
+        <v>491</v>
+      </c>
+      <c r="K53" s="9"/>
     </row>
     <row r="54" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A54" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B54" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="C54" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="D54" s="5" t="s">
+      <c r="A54" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="B54" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="C54" s="9" t="s">
+        <v>492</v>
+      </c>
+      <c r="D54" s="9" t="s">
         <v>410</v>
       </c>
-      <c r="E54" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="F54" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="G54" s="5" t="s">
-        <v>489</v>
-      </c>
-      <c r="H54" s="5"/>
-      <c r="I54" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="J54" s="25" t="s">
-        <v>490</v>
-      </c>
-      <c r="K54" s="5"/>
+      <c r="E54" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F54" s="9" t="s">
+        <v>493</v>
+      </c>
+      <c r="G54" s="9" t="s">
+        <v>494</v>
+      </c>
+      <c r="H54" s="9"/>
+      <c r="I54" s="10" t="s">
+        <v>495</v>
+      </c>
+      <c r="J54" s="26" t="s">
+        <v>496</v>
+      </c>
+      <c r="K54" s="9"/>
     </row>
     <row r="55" spans="1:11" ht="15.75" customHeight="1">
       <c r="A55" s="9" t="s">
@@ -13127,26 +12938,26 @@
         <v>133</v>
       </c>
       <c r="C55" s="9" t="s">
-        <v>491</v>
+        <v>137</v>
       </c>
       <c r="D55" s="9" t="s">
-        <v>47</v>
+        <v>470</v>
       </c>
       <c r="E55" s="9" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="F55" s="9" t="s">
-        <v>492</v>
+        <v>138</v>
       </c>
       <c r="G55" s="9" t="s">
-        <v>493</v>
+        <v>497</v>
       </c>
       <c r="H55" s="9"/>
       <c r="I55" s="10" t="s">
-        <v>494</v>
+        <v>139</v>
       </c>
       <c r="J55" s="26" t="s">
-        <v>495</v>
+        <v>498</v>
       </c>
       <c r="K55" s="9"/>
     </row>
@@ -13158,26 +12969,26 @@
         <v>133</v>
       </c>
       <c r="C56" s="9" t="s">
-        <v>901</v>
+        <v>381</v>
       </c>
       <c r="D56" s="9" t="s">
-        <v>410</v>
+        <v>382</v>
       </c>
       <c r="E56" s="9" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="F56" s="9" t="s">
-        <v>135</v>
+        <v>499</v>
       </c>
       <c r="G56" s="9" t="s">
-        <v>496</v>
+        <v>734</v>
       </c>
       <c r="H56" s="9"/>
       <c r="I56" s="10" t="s">
-        <v>136</v>
+        <v>500</v>
       </c>
       <c r="J56" s="26" t="s">
-        <v>497</v>
+        <v>501</v>
       </c>
       <c r="K56" s="9"/>
     </row>
@@ -13189,26 +13000,26 @@
         <v>133</v>
       </c>
       <c r="C57" s="9" t="s">
-        <v>498</v>
+        <v>849</v>
       </c>
       <c r="D57" s="9" t="s">
-        <v>410</v>
+        <v>75</v>
       </c>
       <c r="E57" s="9" t="s">
         <v>25</v>
       </c>
       <c r="F57" s="9" t="s">
-        <v>499</v>
+        <v>141</v>
       </c>
       <c r="G57" s="9" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="H57" s="9"/>
-      <c r="I57" s="10" t="s">
-        <v>501</v>
+      <c r="I57" s="28" t="s">
+        <v>806</v>
       </c>
       <c r="J57" s="26" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="K57" s="9"/>
     </row>
@@ -13220,26 +13031,26 @@
         <v>133</v>
       </c>
       <c r="C58" s="9" t="s">
-        <v>137</v>
+        <v>848</v>
       </c>
       <c r="D58" s="9" t="s">
-        <v>471</v>
+        <v>75</v>
       </c>
       <c r="E58" s="9" t="s">
         <v>25</v>
       </c>
       <c r="F58" s="9" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="G58" s="9" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="H58" s="9"/>
-      <c r="I58" s="10" t="s">
-        <v>139</v>
+      <c r="I58" s="28" t="s">
+        <v>807</v>
       </c>
       <c r="J58" s="26" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="K58" s="9"/>
     </row>
@@ -13251,23 +13062,23 @@
         <v>133</v>
       </c>
       <c r="C59" s="9" t="s">
-        <v>381</v>
+        <v>146</v>
       </c>
       <c r="D59" s="9" t="s">
-        <v>382</v>
+        <v>506</v>
       </c>
       <c r="E59" s="9" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="F59" s="9" t="s">
-        <v>505</v>
+        <v>980</v>
       </c>
       <c r="G59" s="9" t="s">
-        <v>778</v>
+        <v>981</v>
       </c>
       <c r="H59" s="9"/>
-      <c r="I59" s="10" t="s">
-        <v>506</v>
+      <c r="I59" s="28" t="s">
+        <v>149</v>
       </c>
       <c r="J59" s="26" t="s">
         <v>507</v>
@@ -13282,30 +13093,30 @@
         <v>133</v>
       </c>
       <c r="C60" s="9" t="s">
-        <v>904</v>
+        <v>790</v>
       </c>
       <c r="D60" s="9" t="s">
-        <v>75</v>
+        <v>410</v>
       </c>
       <c r="E60" s="9" t="s">
         <v>25</v>
       </c>
       <c r="F60" s="9" t="s">
-        <v>141</v>
+        <v>791</v>
       </c>
       <c r="G60" s="9" t="s">
-        <v>508</v>
+        <v>792</v>
       </c>
       <c r="H60" s="9"/>
       <c r="I60" s="28" t="s">
-        <v>855</v>
+        <v>793</v>
       </c>
       <c r="J60" s="26" t="s">
-        <v>509</v>
+        <v>794</v>
       </c>
       <c r="K60" s="9"/>
     </row>
-    <row r="61" spans="1:11" ht="15.75" customHeight="1">
+    <row r="61" spans="1:11" ht="13">
       <c r="A61" s="9" t="s">
         <v>132</v>
       </c>
@@ -13313,30 +13124,30 @@
         <v>133</v>
       </c>
       <c r="C61" s="9" t="s">
-        <v>903</v>
+        <v>850</v>
       </c>
       <c r="D61" s="9" t="s">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="E61" s="9" t="s">
         <v>25</v>
       </c>
       <c r="F61" s="9" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="G61" s="9" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="H61" s="9"/>
-      <c r="I61" s="28" t="s">
-        <v>856</v>
+      <c r="I61" s="10" t="s">
+        <v>152</v>
       </c>
       <c r="J61" s="26" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="K61" s="9"/>
     </row>
-    <row r="62" spans="1:11" ht="15.75" customHeight="1">
+    <row r="62" spans="1:11" ht="13">
       <c r="A62" s="9" t="s">
         <v>132</v>
       </c>
@@ -13344,30 +13155,30 @@
         <v>133</v>
       </c>
       <c r="C62" s="9" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="D62" s="9" t="s">
-        <v>512</v>
+        <v>75</v>
       </c>
       <c r="E62" s="9" t="s">
         <v>25</v>
       </c>
       <c r="F62" s="9" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="G62" s="9" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="H62" s="9"/>
-      <c r="I62" s="11" t="s">
-        <v>149</v>
+      <c r="I62" s="10" t="s">
+        <v>155</v>
       </c>
       <c r="J62" s="26" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="K62" s="9"/>
     </row>
-    <row r="63" spans="1:11" ht="15.75" customHeight="1">
+    <row r="63" spans="1:11" ht="13">
       <c r="A63" s="9" t="s">
         <v>132</v>
       </c>
@@ -13375,26 +13186,26 @@
         <v>133</v>
       </c>
       <c r="C63" s="9" t="s">
-        <v>839</v>
+        <v>156</v>
       </c>
       <c r="D63" s="9" t="s">
-        <v>410</v>
+        <v>157</v>
       </c>
       <c r="E63" s="9" t="s">
         <v>25</v>
       </c>
       <c r="F63" s="9" t="s">
-        <v>840</v>
+        <v>158</v>
       </c>
       <c r="G63" s="9" t="s">
-        <v>841</v>
+        <v>512</v>
       </c>
       <c r="H63" s="9"/>
-      <c r="I63" s="28" t="s">
-        <v>842</v>
+      <c r="I63" s="10" t="s">
+        <v>159</v>
       </c>
       <c r="J63" s="26" t="s">
-        <v>843</v>
+        <v>513</v>
       </c>
       <c r="K63" s="9"/>
     </row>
@@ -13406,26 +13217,26 @@
         <v>133</v>
       </c>
       <c r="C64" s="9" t="s">
-        <v>906</v>
+        <v>735</v>
       </c>
       <c r="D64" s="9" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="E64" s="9" t="s">
         <v>25</v>
       </c>
       <c r="F64" s="9" t="s">
-        <v>151</v>
+        <v>747</v>
       </c>
       <c r="G64" s="9" t="s">
-        <v>515</v>
+        <v>748</v>
       </c>
       <c r="H64" s="9"/>
-      <c r="I64" s="10" t="s">
-        <v>152</v>
+      <c r="I64" s="28" t="s">
+        <v>749</v>
       </c>
       <c r="J64" s="26" t="s">
-        <v>516</v>
+        <v>750</v>
       </c>
       <c r="K64" s="9"/>
     </row>
@@ -13437,26 +13248,26 @@
         <v>133</v>
       </c>
       <c r="C65" s="9" t="s">
-        <v>153</v>
+        <v>736</v>
       </c>
       <c r="D65" s="9" t="s">
-        <v>75</v>
+        <v>410</v>
       </c>
       <c r="E65" s="9" t="s">
         <v>25</v>
       </c>
       <c r="F65" s="9" t="s">
-        <v>154</v>
+        <v>751</v>
       </c>
       <c r="G65" s="9" t="s">
-        <v>517</v>
+        <v>752</v>
       </c>
       <c r="H65" s="9"/>
-      <c r="I65" s="10" t="s">
-        <v>155</v>
+      <c r="I65" s="28" t="s">
+        <v>753</v>
       </c>
       <c r="J65" s="26" t="s">
-        <v>518</v>
+        <v>754</v>
       </c>
       <c r="K65" s="9"/>
     </row>
@@ -13468,26 +13279,26 @@
         <v>133</v>
       </c>
       <c r="C66" s="9" t="s">
-        <v>156</v>
+        <v>847</v>
       </c>
       <c r="D66" s="9" t="s">
-        <v>157</v>
+        <v>75</v>
       </c>
       <c r="E66" s="9" t="s">
         <v>25</v>
       </c>
       <c r="F66" s="9" t="s">
-        <v>158</v>
+        <v>871</v>
       </c>
       <c r="G66" s="9" t="s">
-        <v>519</v>
+        <v>872</v>
       </c>
       <c r="H66" s="9"/>
-      <c r="I66" s="10" t="s">
-        <v>159</v>
+      <c r="I66" s="28" t="s">
+        <v>873</v>
       </c>
       <c r="J66" s="26" t="s">
-        <v>520</v>
+        <v>874</v>
       </c>
       <c r="K66" s="9"/>
     </row>
@@ -13499,26 +13310,26 @@
         <v>133</v>
       </c>
       <c r="C67" s="9" t="s">
-        <v>779</v>
+        <v>680</v>
       </c>
       <c r="D67" s="9" t="s">
-        <v>47</v>
+        <v>117</v>
       </c>
       <c r="E67" s="9" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="F67" s="9" t="s">
-        <v>792</v>
+        <v>755</v>
       </c>
       <c r="G67" s="9" t="s">
-        <v>793</v>
+        <v>756</v>
       </c>
       <c r="H67" s="9"/>
       <c r="I67" s="28" t="s">
-        <v>794</v>
+        <v>757</v>
       </c>
       <c r="J67" s="26" t="s">
-        <v>795</v>
+        <v>758</v>
       </c>
       <c r="K67" s="9"/>
     </row>
@@ -13530,26 +13341,26 @@
         <v>133</v>
       </c>
       <c r="C68" s="9" t="s">
-        <v>780</v>
+        <v>160</v>
       </c>
       <c r="D68" s="9" t="s">
-        <v>410</v>
+        <v>55</v>
       </c>
       <c r="E68" s="9" t="s">
         <v>25</v>
       </c>
       <c r="F68" s="9" t="s">
-        <v>796</v>
+        <v>161</v>
       </c>
       <c r="G68" s="9" t="s">
-        <v>797</v>
+        <v>514</v>
       </c>
       <c r="H68" s="9"/>
-      <c r="I68" s="28" t="s">
-        <v>798</v>
+      <c r="I68" s="10" t="s">
+        <v>162</v>
       </c>
       <c r="J68" s="26" t="s">
-        <v>799</v>
+        <v>515</v>
       </c>
       <c r="K68" s="9"/>
     </row>
@@ -13558,29 +13369,29 @@
         <v>132</v>
       </c>
       <c r="B69" s="9" t="s">
-        <v>133</v>
+        <v>163</v>
       </c>
       <c r="C69" s="9" t="s">
-        <v>902</v>
+        <v>164</v>
       </c>
       <c r="D69" s="9" t="s">
-        <v>75</v>
+        <v>410</v>
       </c>
       <c r="E69" s="9" t="s">
         <v>25</v>
       </c>
       <c r="F69" s="9" t="s">
-        <v>928</v>
+        <v>165</v>
       </c>
       <c r="G69" s="9" t="s">
-        <v>929</v>
+        <v>516</v>
       </c>
       <c r="H69" s="9"/>
-      <c r="I69" s="28" t="s">
-        <v>930</v>
+      <c r="I69" s="10" t="s">
+        <v>166</v>
       </c>
       <c r="J69" s="26" t="s">
-        <v>931</v>
+        <v>517</v>
       </c>
       <c r="K69" s="9"/>
     </row>
@@ -13589,29 +13400,29 @@
         <v>132</v>
       </c>
       <c r="B70" s="9" t="s">
-        <v>133</v>
+        <v>163</v>
       </c>
       <c r="C70" s="9" t="s">
-        <v>781</v>
+        <v>167</v>
       </c>
       <c r="D70" s="9" t="s">
-        <v>47</v>
+        <v>410</v>
       </c>
       <c r="E70" s="9" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="F70" s="9" t="s">
-        <v>800</v>
+        <v>168</v>
       </c>
       <c r="G70" s="9" t="s">
-        <v>801</v>
+        <v>518</v>
       </c>
       <c r="H70" s="9"/>
-      <c r="I70" s="28" t="s">
-        <v>802</v>
+      <c r="I70" s="10" t="s">
+        <v>169</v>
       </c>
       <c r="J70" s="26" t="s">
-        <v>803</v>
+        <v>519</v>
       </c>
       <c r="K70" s="9"/>
     </row>
@@ -13620,29 +13431,29 @@
         <v>132</v>
       </c>
       <c r="B71" s="9" t="s">
-        <v>133</v>
+        <v>163</v>
       </c>
       <c r="C71" s="9" t="s">
-        <v>723</v>
+        <v>170</v>
       </c>
       <c r="D71" s="9" t="s">
         <v>117</v>
       </c>
       <c r="E71" s="9" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="F71" s="9" t="s">
-        <v>804</v>
+        <v>171</v>
       </c>
       <c r="G71" s="9" t="s">
-        <v>805</v>
+        <v>520</v>
       </c>
       <c r="H71" s="9"/>
       <c r="I71" s="28" t="s">
-        <v>806</v>
+        <v>808</v>
       </c>
       <c r="J71" s="26" t="s">
-        <v>807</v>
+        <v>521</v>
       </c>
       <c r="K71" s="9"/>
     </row>
@@ -13651,29 +13462,29 @@
         <v>132</v>
       </c>
       <c r="B72" s="9" t="s">
-        <v>133</v>
+        <v>163</v>
       </c>
       <c r="C72" s="9" t="s">
-        <v>160</v>
+        <v>173</v>
       </c>
       <c r="D72" s="9" t="s">
-        <v>55</v>
+        <v>117</v>
       </c>
       <c r="E72" s="9" t="s">
         <v>25</v>
       </c>
       <c r="F72" s="9" t="s">
-        <v>161</v>
+        <v>174</v>
       </c>
       <c r="G72" s="9" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="H72" s="9"/>
       <c r="I72" s="10" t="s">
-        <v>162</v>
+        <v>175</v>
       </c>
       <c r="J72" s="26" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="K72" s="9"/>
     </row>
@@ -13682,28 +13493,30 @@
         <v>132</v>
       </c>
       <c r="B73" s="9" t="s">
-        <v>133</v>
+        <v>163</v>
       </c>
       <c r="C73" s="9" t="s">
-        <v>905</v>
+        <v>795</v>
       </c>
       <c r="D73" s="9" t="s">
-        <v>402</v>
+        <v>410</v>
       </c>
       <c r="E73" s="9" t="s">
         <v>25</v>
       </c>
       <c r="F73" s="9" t="s">
-        <v>932</v>
+        <v>796</v>
       </c>
       <c r="G73" s="9" t="s">
-        <v>933</v>
+        <v>797</v>
       </c>
       <c r="H73" s="9"/>
       <c r="I73" s="28" t="s">
-        <v>934</v>
-      </c>
-      <c r="J73" s="26"/>
+        <v>798</v>
+      </c>
+      <c r="J73" s="26" t="s">
+        <v>799</v>
+      </c>
       <c r="K73" s="9"/>
     </row>
     <row r="74" spans="1:11" ht="13">
@@ -13714,26 +13527,26 @@
         <v>163</v>
       </c>
       <c r="C74" s="9" t="s">
-        <v>164</v>
+        <v>938</v>
       </c>
       <c r="D74" s="9" t="s">
-        <v>410</v>
+        <v>312</v>
       </c>
       <c r="E74" s="9" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="F74" s="9" t="s">
-        <v>165</v>
+        <v>939</v>
       </c>
       <c r="G74" s="9" t="s">
-        <v>523</v>
+        <v>940</v>
       </c>
       <c r="H74" s="9"/>
-      <c r="I74" s="10" t="s">
-        <v>166</v>
+      <c r="I74" s="28" t="s">
+        <v>941</v>
       </c>
       <c r="J74" s="26" t="s">
-        <v>524</v>
+        <v>942</v>
       </c>
       <c r="K74" s="9"/>
     </row>
@@ -13742,29 +13555,29 @@
         <v>132</v>
       </c>
       <c r="B75" s="9" t="s">
-        <v>163</v>
+        <v>681</v>
       </c>
       <c r="C75" s="9" t="s">
-        <v>167</v>
+        <v>680</v>
       </c>
       <c r="D75" s="9" t="s">
         <v>410</v>
       </c>
       <c r="E75" s="9" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="F75" s="9" t="s">
-        <v>168</v>
+        <v>701</v>
       </c>
       <c r="G75" s="9" t="s">
-        <v>525</v>
+        <v>702</v>
       </c>
       <c r="H75" s="9"/>
-      <c r="I75" s="10" t="s">
-        <v>169</v>
+      <c r="I75" s="28" t="s">
+        <v>703</v>
       </c>
       <c r="J75" s="26" t="s">
-        <v>526</v>
+        <v>704</v>
       </c>
       <c r="K75" s="9"/>
     </row>
@@ -13773,29 +13586,29 @@
         <v>132</v>
       </c>
       <c r="B76" s="9" t="s">
-        <v>163</v>
+        <v>524</v>
       </c>
       <c r="C76" s="9" t="s">
-        <v>170</v>
+        <v>525</v>
       </c>
       <c r="D76" s="9" t="s">
-        <v>117</v>
+        <v>157</v>
       </c>
       <c r="E76" s="9" t="s">
         <v>25</v>
       </c>
       <c r="F76" s="9" t="s">
-        <v>171</v>
+        <v>526</v>
       </c>
       <c r="G76" s="9" t="s">
         <v>527</v>
       </c>
       <c r="H76" s="9"/>
-      <c r="I76" s="28" t="s">
-        <v>857</v>
+      <c r="I76" s="11" t="s">
+        <v>528</v>
       </c>
       <c r="J76" s="26" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="K76" s="9"/>
     </row>
@@ -13804,29 +13617,29 @@
         <v>132</v>
       </c>
       <c r="B77" s="9" t="s">
-        <v>163</v>
+        <v>176</v>
       </c>
       <c r="C77" s="9" t="s">
-        <v>173</v>
+        <v>530</v>
       </c>
       <c r="D77" s="9" t="s">
-        <v>117</v>
+        <v>410</v>
       </c>
       <c r="E77" s="9" t="s">
         <v>25</v>
       </c>
       <c r="F77" s="9" t="s">
-        <v>174</v>
+        <v>531</v>
       </c>
       <c r="G77" s="9" t="s">
-        <v>529</v>
+        <v>532</v>
       </c>
       <c r="H77" s="9"/>
       <c r="I77" s="10" t="s">
-        <v>175</v>
+        <v>533</v>
       </c>
       <c r="J77" s="26" t="s">
-        <v>530</v>
+        <v>534</v>
       </c>
       <c r="K77" s="9"/>
     </row>
@@ -13835,10 +13648,10 @@
         <v>132</v>
       </c>
       <c r="B78" s="9" t="s">
-        <v>163</v>
+        <v>176</v>
       </c>
       <c r="C78" s="9" t="s">
-        <v>844</v>
+        <v>177</v>
       </c>
       <c r="D78" s="9" t="s">
         <v>410</v>
@@ -13847,17 +13660,17 @@
         <v>25</v>
       </c>
       <c r="F78" s="9" t="s">
-        <v>845</v>
+        <v>535</v>
       </c>
       <c r="G78" s="9" t="s">
-        <v>846</v>
+        <v>536</v>
       </c>
       <c r="H78" s="9"/>
-      <c r="I78" s="28" t="s">
-        <v>847</v>
+      <c r="I78" s="10" t="s">
+        <v>179</v>
       </c>
       <c r="J78" s="26" t="s">
-        <v>848</v>
+        <v>537</v>
       </c>
       <c r="K78" s="9"/>
     </row>
@@ -13866,29 +13679,29 @@
         <v>132</v>
       </c>
       <c r="B79" s="9" t="s">
-        <v>163</v>
+        <v>176</v>
       </c>
       <c r="C79" s="9" t="s">
-        <v>1012</v>
+        <v>180</v>
       </c>
       <c r="D79" s="9" t="s">
-        <v>312</v>
+        <v>181</v>
       </c>
       <c r="E79" s="9" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="F79" s="9" t="s">
-        <v>1013</v>
+        <v>182</v>
       </c>
       <c r="G79" s="9" t="s">
-        <v>1014</v>
+        <v>538</v>
       </c>
       <c r="H79" s="9"/>
-      <c r="I79" s="28" t="s">
-        <v>1015</v>
+      <c r="I79" s="10" t="s">
+        <v>183</v>
       </c>
       <c r="J79" s="26" t="s">
-        <v>1016</v>
+        <v>539</v>
       </c>
       <c r="K79" s="9"/>
     </row>
@@ -13897,29 +13710,29 @@
         <v>132</v>
       </c>
       <c r="B80" s="9" t="s">
-        <v>724</v>
+        <v>932</v>
       </c>
       <c r="C80" s="9" t="s">
-        <v>723</v>
+        <v>933</v>
       </c>
       <c r="D80" s="9" t="s">
         <v>410</v>
       </c>
       <c r="E80" s="9" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="F80" s="9" t="s">
-        <v>744</v>
+        <v>934</v>
       </c>
       <c r="G80" s="9" t="s">
-        <v>745</v>
+        <v>935</v>
       </c>
       <c r="H80" s="9"/>
       <c r="I80" s="28" t="s">
-        <v>746</v>
+        <v>936</v>
       </c>
       <c r="J80" s="26" t="s">
-        <v>747</v>
+        <v>937</v>
       </c>
       <c r="K80" s="9"/>
     </row>
@@ -13928,29 +13741,29 @@
         <v>132</v>
       </c>
       <c r="B81" s="9" t="s">
-        <v>531</v>
+        <v>184</v>
       </c>
       <c r="C81" s="9" t="s">
-        <v>532</v>
+        <v>185</v>
       </c>
       <c r="D81" s="9" t="s">
-        <v>157</v>
+        <v>410</v>
       </c>
       <c r="E81" s="9" t="s">
         <v>25</v>
       </c>
       <c r="F81" s="9" t="s">
-        <v>533</v>
+        <v>186</v>
       </c>
       <c r="G81" s="9" t="s">
-        <v>534</v>
+        <v>540</v>
       </c>
       <c r="H81" s="9"/>
-      <c r="I81" s="11" t="s">
-        <v>535</v>
+      <c r="I81" s="10" t="s">
+        <v>187</v>
       </c>
       <c r="J81" s="26" t="s">
-        <v>536</v>
+        <v>541</v>
       </c>
       <c r="K81" s="9"/>
     </row>
@@ -13959,29 +13772,29 @@
         <v>132</v>
       </c>
       <c r="B82" s="9" t="s">
-        <v>531</v>
+        <v>184</v>
       </c>
       <c r="C82" s="9" t="s">
-        <v>381</v>
+        <v>188</v>
       </c>
       <c r="D82" s="9" t="s">
-        <v>382</v>
+        <v>117</v>
       </c>
       <c r="E82" s="9" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="F82" s="9" t="s">
-        <v>537</v>
+        <v>189</v>
       </c>
       <c r="G82" s="9" t="s">
-        <v>777</v>
+        <v>542</v>
       </c>
       <c r="H82" s="9"/>
       <c r="I82" s="10" t="s">
-        <v>538</v>
+        <v>190</v>
       </c>
       <c r="J82" s="26" t="s">
-        <v>539</v>
+        <v>543</v>
       </c>
       <c r="K82" s="9"/>
     </row>
@@ -13990,29 +13803,29 @@
         <v>132</v>
       </c>
       <c r="B83" s="9" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="C83" s="9" t="s">
-        <v>540</v>
+        <v>191</v>
       </c>
       <c r="D83" s="9" t="s">
-        <v>410</v>
+        <v>192</v>
       </c>
       <c r="E83" s="9" t="s">
         <v>25</v>
       </c>
       <c r="F83" s="9" t="s">
-        <v>541</v>
+        <v>193</v>
       </c>
       <c r="G83" s="9" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="H83" s="9"/>
       <c r="I83" s="10" t="s">
-        <v>543</v>
+        <v>194</v>
       </c>
       <c r="J83" s="26" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="K83" s="9"/>
     </row>
@@ -14021,26 +13834,26 @@
         <v>132</v>
       </c>
       <c r="B84" s="9" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="C84" s="9" t="s">
-        <v>177</v>
+        <v>195</v>
       </c>
       <c r="D84" s="9" t="s">
-        <v>410</v>
+        <v>51</v>
       </c>
       <c r="E84" s="9" t="s">
         <v>25</v>
       </c>
       <c r="F84" s="9" t="s">
-        <v>545</v>
+        <v>196</v>
       </c>
       <c r="G84" s="9" t="s">
         <v>546</v>
       </c>
       <c r="H84" s="9"/>
       <c r="I84" s="10" t="s">
-        <v>179</v>
+        <v>197</v>
       </c>
       <c r="J84" s="26" t="s">
         <v>547</v>
@@ -14052,26 +13865,26 @@
         <v>132</v>
       </c>
       <c r="B85" s="9" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="C85" s="9" t="s">
-        <v>180</v>
+        <v>198</v>
       </c>
       <c r="D85" s="9" t="s">
-        <v>181</v>
+        <v>418</v>
       </c>
       <c r="E85" s="9" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="F85" s="9" t="s">
-        <v>182</v>
+        <v>199</v>
       </c>
       <c r="G85" s="9" t="s">
         <v>548</v>
       </c>
       <c r="H85" s="9"/>
       <c r="I85" s="10" t="s">
-        <v>183</v>
+        <v>200</v>
       </c>
       <c r="J85" s="26" t="s">
         <v>549</v>
@@ -14083,29 +13896,29 @@
         <v>132</v>
       </c>
       <c r="B86" s="9" t="s">
-        <v>1000</v>
+        <v>184</v>
       </c>
       <c r="C86" s="9" t="s">
-        <v>1001</v>
+        <v>201</v>
       </c>
       <c r="D86" s="9" t="s">
-        <v>410</v>
+        <v>418</v>
       </c>
       <c r="E86" s="9" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="F86" s="9" t="s">
-        <v>1002</v>
+        <v>202</v>
       </c>
       <c r="G86" s="9" t="s">
-        <v>1003</v>
+        <v>550</v>
       </c>
       <c r="H86" s="9"/>
-      <c r="I86" s="28" t="s">
-        <v>1004</v>
+      <c r="I86" s="10" t="s">
+        <v>203</v>
       </c>
       <c r="J86" s="26" t="s">
-        <v>1005</v>
+        <v>551</v>
       </c>
       <c r="K86" s="9"/>
     </row>
@@ -14116,8 +13929,8 @@
       <c r="B87" s="9" t="s">
         <v>184</v>
       </c>
-      <c r="C87" s="9" t="s">
-        <v>185</v>
+      <c r="C87" s="12" t="s">
+        <v>775</v>
       </c>
       <c r="D87" s="9" t="s">
         <v>410</v>
@@ -14126,17 +13939,17 @@
         <v>25</v>
       </c>
       <c r="F87" s="9" t="s">
-        <v>186</v>
+        <v>776</v>
       </c>
       <c r="G87" s="9" t="s">
-        <v>550</v>
+        <v>777</v>
       </c>
       <c r="H87" s="9"/>
-      <c r="I87" s="10" t="s">
-        <v>187</v>
+      <c r="I87" s="28" t="s">
+        <v>778</v>
       </c>
       <c r="J87" s="26" t="s">
-        <v>551</v>
+        <v>779</v>
       </c>
       <c r="K87" s="9"/>
     </row>
@@ -14147,24 +13960,24 @@
       <c r="B88" s="9" t="s">
         <v>184</v>
       </c>
-      <c r="C88" s="9" t="s">
-        <v>188</v>
+      <c r="C88" s="12" t="s">
+        <v>207</v>
       </c>
       <c r="D88" s="9" t="s">
-        <v>117</v>
+        <v>418</v>
       </c>
       <c r="E88" s="9" t="s">
         <v>25</v>
       </c>
       <c r="F88" s="9" t="s">
-        <v>189</v>
+        <v>208</v>
       </c>
       <c r="G88" s="9" t="s">
         <v>552</v>
       </c>
       <c r="H88" s="9"/>
-      <c r="I88" s="10" t="s">
-        <v>190</v>
+      <c r="I88" s="11" t="s">
+        <v>209</v>
       </c>
       <c r="J88" s="26" t="s">
         <v>553</v>
@@ -14176,26 +13989,26 @@
         <v>132</v>
       </c>
       <c r="B89" s="9" t="s">
-        <v>184</v>
-      </c>
-      <c r="C89" s="9" t="s">
-        <v>191</v>
+        <v>210</v>
+      </c>
+      <c r="C89" s="12" t="s">
+        <v>978</v>
       </c>
       <c r="D89" s="9" t="s">
-        <v>192</v>
+        <v>418</v>
       </c>
       <c r="E89" s="9" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="F89" s="9" t="s">
-        <v>193</v>
+        <v>212</v>
       </c>
       <c r="G89" s="9" t="s">
         <v>554</v>
       </c>
       <c r="H89" s="9"/>
-      <c r="I89" s="10" t="s">
-        <v>194</v>
+      <c r="I89" s="28" t="s">
+        <v>979</v>
       </c>
       <c r="J89" s="26" t="s">
         <v>555</v>
@@ -14207,29 +14020,29 @@
         <v>132</v>
       </c>
       <c r="B90" s="9" t="s">
-        <v>184</v>
-      </c>
-      <c r="C90" s="9" t="s">
-        <v>195</v>
+        <v>675</v>
+      </c>
+      <c r="C90" s="12" t="s">
+        <v>674</v>
       </c>
       <c r="D90" s="9" t="s">
-        <v>51</v>
+        <v>410</v>
       </c>
       <c r="E90" s="9" t="s">
         <v>25</v>
       </c>
       <c r="F90" s="9" t="s">
-        <v>196</v>
+        <v>706</v>
       </c>
       <c r="G90" s="9" t="s">
-        <v>556</v>
+        <v>705</v>
       </c>
       <c r="H90" s="9"/>
-      <c r="I90" s="10" t="s">
-        <v>197</v>
+      <c r="I90" s="28" t="s">
+        <v>707</v>
       </c>
       <c r="J90" s="26" t="s">
-        <v>557</v>
+        <v>708</v>
       </c>
       <c r="K90" s="9"/>
     </row>
@@ -14238,30 +14051,28 @@
         <v>132</v>
       </c>
       <c r="B91" s="9" t="s">
-        <v>184</v>
-      </c>
-      <c r="C91" s="9" t="s">
-        <v>198</v>
+        <v>675</v>
+      </c>
+      <c r="C91" s="12" t="s">
+        <v>837</v>
       </c>
       <c r="D91" s="9" t="s">
-        <v>418</v>
+        <v>410</v>
       </c>
       <c r="E91" s="9" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="F91" s="9" t="s">
-        <v>199</v>
+        <v>895</v>
       </c>
       <c r="G91" s="9" t="s">
-        <v>558</v>
+        <v>896</v>
       </c>
       <c r="H91" s="9"/>
-      <c r="I91" s="10" t="s">
-        <v>200</v>
-      </c>
-      <c r="J91" s="26" t="s">
-        <v>559</v>
-      </c>
+      <c r="I91" s="28" t="s">
+        <v>897</v>
+      </c>
+      <c r="J91" s="26"/>
       <c r="K91" s="9"/>
     </row>
     <row r="92" spans="1:11" ht="13">
@@ -14269,29 +14080,29 @@
         <v>132</v>
       </c>
       <c r="B92" s="9" t="s">
-        <v>184</v>
-      </c>
-      <c r="C92" s="9" t="s">
-        <v>201</v>
+        <v>214</v>
+      </c>
+      <c r="C92" s="12" t="s">
+        <v>218</v>
       </c>
       <c r="D92" s="9" t="s">
-        <v>418</v>
+        <v>157</v>
       </c>
       <c r="E92" s="9" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="F92" s="9" t="s">
-        <v>202</v>
+        <v>219</v>
       </c>
       <c r="G92" s="9" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
       <c r="H92" s="9"/>
       <c r="I92" s="10" t="s">
-        <v>203</v>
+        <v>220</v>
       </c>
       <c r="J92" s="26" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="K92" s="9"/>
     </row>
@@ -14300,10 +14111,10 @@
         <v>132</v>
       </c>
       <c r="B93" s="9" t="s">
-        <v>184</v>
+        <v>225</v>
       </c>
       <c r="C93" s="12" t="s">
-        <v>204</v>
+        <v>226</v>
       </c>
       <c r="D93" s="9" t="s">
         <v>418</v>
@@ -14312,17 +14123,17 @@
         <v>14</v>
       </c>
       <c r="F93" s="9" t="s">
-        <v>205</v>
+        <v>227</v>
       </c>
       <c r="G93" s="9" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="H93" s="9"/>
-      <c r="I93" s="11" t="s">
-        <v>206</v>
+      <c r="I93" s="10" t="s">
+        <v>228</v>
       </c>
       <c r="J93" s="26" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="K93" s="9"/>
     </row>
@@ -14331,10 +14142,10 @@
         <v>132</v>
       </c>
       <c r="B94" s="9" t="s">
-        <v>184</v>
+        <v>225</v>
       </c>
       <c r="C94" s="12" t="s">
-        <v>824</v>
+        <v>229</v>
       </c>
       <c r="D94" s="9" t="s">
         <v>410</v>
@@ -14343,17 +14154,17 @@
         <v>25</v>
       </c>
       <c r="F94" s="9" t="s">
-        <v>825</v>
+        <v>230</v>
       </c>
       <c r="G94" s="9" t="s">
-        <v>826</v>
+        <v>560</v>
       </c>
       <c r="H94" s="9"/>
-      <c r="I94" s="28" t="s">
-        <v>827</v>
+      <c r="I94" s="10" t="s">
+        <v>231</v>
       </c>
       <c r="J94" s="26" t="s">
-        <v>828</v>
+        <v>561</v>
       </c>
       <c r="K94" s="9"/>
     </row>
@@ -14362,29 +14173,29 @@
         <v>132</v>
       </c>
       <c r="B95" s="9" t="s">
-        <v>184</v>
-      </c>
-      <c r="C95" s="12" t="s">
-        <v>207</v>
+        <v>562</v>
+      </c>
+      <c r="C95" s="9" t="s">
+        <v>563</v>
       </c>
       <c r="D95" s="9" t="s">
-        <v>418</v>
+        <v>410</v>
       </c>
       <c r="E95" s="9" t="s">
         <v>25</v>
       </c>
       <c r="F95" s="9" t="s">
-        <v>208</v>
+        <v>564</v>
       </c>
       <c r="G95" s="9" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="H95" s="9"/>
       <c r="I95" s="11" t="s">
-        <v>209</v>
+        <v>566</v>
       </c>
       <c r="J95" s="26" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="K95" s="9"/>
     </row>
@@ -14393,29 +14204,29 @@
         <v>132</v>
       </c>
       <c r="B96" s="9" t="s">
-        <v>210</v>
-      </c>
-      <c r="C96" s="12" t="s">
-        <v>211</v>
+        <v>562</v>
+      </c>
+      <c r="C96" s="9" t="s">
+        <v>785</v>
       </c>
       <c r="D96" s="9" t="s">
-        <v>418</v>
+        <v>117</v>
       </c>
       <c r="E96" s="9" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="F96" s="9" t="s">
-        <v>212</v>
+        <v>786</v>
       </c>
       <c r="G96" s="9" t="s">
-        <v>566</v>
+        <v>787</v>
       </c>
       <c r="H96" s="9"/>
-      <c r="I96" s="10" t="s">
-        <v>213</v>
+      <c r="I96" s="28" t="s">
+        <v>788</v>
       </c>
       <c r="J96" s="26" t="s">
-        <v>567</v>
+        <v>789</v>
       </c>
       <c r="K96" s="9"/>
     </row>
@@ -14424,29 +14235,29 @@
         <v>132</v>
       </c>
       <c r="B97" s="9" t="s">
-        <v>718</v>
-      </c>
-      <c r="C97" s="12" t="s">
-        <v>717</v>
+        <v>562</v>
+      </c>
+      <c r="C97" s="9" t="s">
+        <v>851</v>
       </c>
       <c r="D97" s="9" t="s">
-        <v>410</v>
+        <v>117</v>
       </c>
       <c r="E97" s="9" t="s">
         <v>25</v>
       </c>
       <c r="F97" s="9" t="s">
-        <v>749</v>
+        <v>875</v>
       </c>
       <c r="G97" s="9" t="s">
-        <v>748</v>
+        <v>876</v>
       </c>
       <c r="H97" s="9"/>
       <c r="I97" s="28" t="s">
-        <v>750</v>
+        <v>877</v>
       </c>
       <c r="J97" s="26" t="s">
-        <v>751</v>
+        <v>878</v>
       </c>
       <c r="K97" s="9"/>
     </row>
@@ -14455,10 +14266,10 @@
         <v>132</v>
       </c>
       <c r="B98" s="9" t="s">
-        <v>718</v>
-      </c>
-      <c r="C98" s="12" t="s">
-        <v>892</v>
+        <v>232</v>
+      </c>
+      <c r="C98" s="9" t="s">
+        <v>233</v>
       </c>
       <c r="D98" s="9" t="s">
         <v>410</v>
@@ -14467,16 +14278,18 @@
         <v>25</v>
       </c>
       <c r="F98" s="9" t="s">
-        <v>959</v>
+        <v>234</v>
       </c>
       <c r="G98" s="9" t="s">
-        <v>960</v>
+        <v>568</v>
       </c>
       <c r="H98" s="9"/>
-      <c r="I98" s="28" t="s">
-        <v>961</v>
-      </c>
-      <c r="J98" s="26"/>
+      <c r="I98" s="10" t="s">
+        <v>235</v>
+      </c>
+      <c r="J98" s="26" t="s">
+        <v>569</v>
+      </c>
       <c r="K98" s="9"/>
     </row>
     <row r="99" spans="1:11" ht="13">
@@ -14484,29 +14297,29 @@
         <v>132</v>
       </c>
       <c r="B99" s="9" t="s">
-        <v>214</v>
-      </c>
-      <c r="C99" s="12" t="s">
-        <v>215</v>
+        <v>236</v>
+      </c>
+      <c r="C99" s="9" t="s">
+        <v>381</v>
       </c>
       <c r="D99" s="9" t="s">
-        <v>47</v>
+        <v>382</v>
       </c>
       <c r="E99" s="9" t="s">
         <v>14</v>
       </c>
       <c r="F99" s="9" t="s">
-        <v>216</v>
+        <v>570</v>
       </c>
       <c r="G99" s="9" t="s">
-        <v>568</v>
+        <v>571</v>
       </c>
       <c r="H99" s="9"/>
-      <c r="I99" s="10" t="s">
-        <v>217</v>
+      <c r="I99" s="11" t="s">
+        <v>572</v>
       </c>
       <c r="J99" s="26" t="s">
-        <v>569</v>
+        <v>573</v>
       </c>
       <c r="K99" s="9"/>
     </row>
@@ -14515,29 +14328,29 @@
         <v>132</v>
       </c>
       <c r="B100" s="9" t="s">
-        <v>214</v>
-      </c>
-      <c r="C100" s="12" t="s">
-        <v>218</v>
+        <v>236</v>
+      </c>
+      <c r="C100" s="9" t="s">
+        <v>237</v>
       </c>
       <c r="D100" s="9" t="s">
-        <v>157</v>
+        <v>410</v>
       </c>
       <c r="E100" s="9" t="s">
         <v>25</v>
       </c>
       <c r="F100" s="9" t="s">
-        <v>219</v>
+        <v>238</v>
       </c>
       <c r="G100" s="9" t="s">
-        <v>570</v>
+        <v>574</v>
       </c>
       <c r="H100" s="9"/>
       <c r="I100" s="10" t="s">
-        <v>220</v>
+        <v>239</v>
       </c>
       <c r="J100" s="26" t="s">
-        <v>571</v>
+        <v>575</v>
       </c>
       <c r="K100" s="9"/>
     </row>
@@ -14546,29 +14359,29 @@
         <v>132</v>
       </c>
       <c r="B101" s="9" t="s">
-        <v>221</v>
-      </c>
-      <c r="C101" s="12" t="s">
-        <v>572</v>
+        <v>236</v>
+      </c>
+      <c r="C101" s="9" t="s">
+        <v>240</v>
       </c>
       <c r="D101" s="9" t="s">
-        <v>410</v>
+        <v>241</v>
       </c>
       <c r="E101" s="9" t="s">
         <v>25</v>
       </c>
       <c r="F101" s="9" t="s">
-        <v>223</v>
+        <v>242</v>
       </c>
       <c r="G101" s="9" t="s">
-        <v>573</v>
+        <v>958</v>
       </c>
       <c r="H101" s="9"/>
       <c r="I101" s="10" t="s">
-        <v>574</v>
+        <v>243</v>
       </c>
       <c r="J101" s="26" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="K101" s="9"/>
     </row>
@@ -14577,29 +14390,29 @@
         <v>132</v>
       </c>
       <c r="B102" s="9" t="s">
-        <v>225</v>
-      </c>
-      <c r="C102" s="12" t="s">
-        <v>226</v>
+        <v>236</v>
+      </c>
+      <c r="C102" s="9" t="s">
+        <v>741</v>
       </c>
       <c r="D102" s="9" t="s">
-        <v>418</v>
+        <v>117</v>
       </c>
       <c r="E102" s="9" t="s">
         <v>14</v>
       </c>
       <c r="F102" s="9" t="s">
-        <v>227</v>
+        <v>759</v>
       </c>
       <c r="G102" s="9" t="s">
-        <v>576</v>
+        <v>760</v>
       </c>
       <c r="H102" s="9"/>
-      <c r="I102" s="10" t="s">
-        <v>228</v>
+      <c r="I102" s="28" t="s">
+        <v>761</v>
       </c>
       <c r="J102" s="26" t="s">
-        <v>577</v>
+        <v>762</v>
       </c>
       <c r="K102" s="9"/>
     </row>
@@ -14608,29 +14421,29 @@
         <v>132</v>
       </c>
       <c r="B103" s="9" t="s">
-        <v>225</v>
-      </c>
-      <c r="C103" s="12" t="s">
-        <v>229</v>
+        <v>236</v>
+      </c>
+      <c r="C103" s="9" t="s">
+        <v>191</v>
       </c>
       <c r="D103" s="9" t="s">
-        <v>410</v>
+        <v>117</v>
       </c>
       <c r="E103" s="9" t="s">
         <v>25</v>
       </c>
       <c r="F103" s="9" t="s">
-        <v>230</v>
+        <v>974</v>
       </c>
       <c r="G103" s="9" t="s">
-        <v>578</v>
+        <v>975</v>
       </c>
       <c r="H103" s="9"/>
-      <c r="I103" s="10" t="s">
-        <v>231</v>
+      <c r="I103" s="28" t="s">
+        <v>976</v>
       </c>
       <c r="J103" s="26" t="s">
-        <v>579</v>
+        <v>977</v>
       </c>
       <c r="K103" s="9"/>
     </row>
@@ -14639,29 +14452,29 @@
         <v>132</v>
       </c>
       <c r="B104" s="9" t="s">
-        <v>580</v>
+        <v>244</v>
       </c>
       <c r="C104" s="9" t="s">
-        <v>581</v>
+        <v>245</v>
       </c>
       <c r="D104" s="9" t="s">
-        <v>410</v>
+        <v>241</v>
       </c>
       <c r="E104" s="9" t="s">
         <v>25</v>
       </c>
       <c r="F104" s="9" t="s">
-        <v>582</v>
+        <v>246</v>
       </c>
       <c r="G104" s="9" t="s">
-        <v>583</v>
+        <v>577</v>
       </c>
       <c r="H104" s="9"/>
-      <c r="I104" s="11" t="s">
-        <v>584</v>
+      <c r="I104" s="10" t="s">
+        <v>247</v>
       </c>
       <c r="J104" s="26" t="s">
-        <v>585</v>
+        <v>578</v>
       </c>
       <c r="K104" s="9"/>
     </row>
@@ -14670,29 +14483,29 @@
         <v>132</v>
       </c>
       <c r="B105" s="9" t="s">
-        <v>580</v>
+        <v>244</v>
       </c>
       <c r="C105" s="9" t="s">
-        <v>834</v>
+        <v>167</v>
       </c>
       <c r="D105" s="9" t="s">
-        <v>117</v>
+        <v>410</v>
       </c>
       <c r="E105" s="9" t="s">
         <v>25</v>
       </c>
       <c r="F105" s="9" t="s">
-        <v>835</v>
+        <v>949</v>
       </c>
       <c r="G105" s="9" t="s">
-        <v>836</v>
+        <v>950</v>
       </c>
       <c r="H105" s="9"/>
       <c r="I105" s="28" t="s">
-        <v>837</v>
+        <v>951</v>
       </c>
       <c r="J105" s="26" t="s">
-        <v>838</v>
+        <v>952</v>
       </c>
       <c r="K105" s="9"/>
     </row>
@@ -14701,41 +14514,43 @@
         <v>132</v>
       </c>
       <c r="B106" s="9" t="s">
-        <v>580</v>
+        <v>740</v>
       </c>
       <c r="C106" s="9" t="s">
-        <v>908</v>
+        <v>959</v>
       </c>
       <c r="D106" s="9" t="s">
-        <v>117</v>
+        <v>410</v>
       </c>
       <c r="E106" s="9" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="F106" s="9" t="s">
-        <v>935</v>
+        <v>960</v>
       </c>
       <c r="G106" s="9" t="s">
-        <v>936</v>
+        <v>961</v>
       </c>
       <c r="H106" s="9"/>
       <c r="I106" s="28" t="s">
-        <v>937</v>
+        <v>962</v>
       </c>
       <c r="J106" s="26" t="s">
-        <v>938</v>
-      </c>
-      <c r="K106" s="9"/>
+        <v>963</v>
+      </c>
+      <c r="K106" s="9" t="s">
+        <v>964</v>
+      </c>
     </row>
     <row r="107" spans="1:11" ht="13">
       <c r="A107" s="9" t="s">
         <v>132</v>
       </c>
       <c r="B107" s="9" t="s">
-        <v>232</v>
+        <v>740</v>
       </c>
       <c r="C107" s="9" t="s">
-        <v>233</v>
+        <v>739</v>
       </c>
       <c r="D107" s="9" t="s">
         <v>410</v>
@@ -14744,17 +14559,17 @@
         <v>25</v>
       </c>
       <c r="F107" s="9" t="s">
-        <v>234</v>
+        <v>763</v>
       </c>
       <c r="G107" s="9" t="s">
-        <v>586</v>
+        <v>764</v>
       </c>
       <c r="H107" s="9"/>
-      <c r="I107" s="10" t="s">
-        <v>235</v>
+      <c r="I107" s="28" t="s">
+        <v>765</v>
       </c>
       <c r="J107" s="26" t="s">
-        <v>587</v>
+        <v>766</v>
       </c>
       <c r="K107" s="9"/>
     </row>
@@ -14763,7 +14578,7 @@
         <v>132</v>
       </c>
       <c r="B108" s="9" t="s">
-        <v>236</v>
+        <v>248</v>
       </c>
       <c r="C108" s="9" t="s">
         <v>381</v>
@@ -14775,17 +14590,17 @@
         <v>14</v>
       </c>
       <c r="F108" s="9" t="s">
-        <v>588</v>
+        <v>579</v>
       </c>
       <c r="G108" s="9" t="s">
-        <v>589</v>
+        <v>580</v>
       </c>
       <c r="H108" s="9"/>
-      <c r="I108" s="11" t="s">
-        <v>590</v>
+      <c r="I108" s="10" t="s">
+        <v>581</v>
       </c>
       <c r="J108" s="26" t="s">
-        <v>591</v>
+        <v>582</v>
       </c>
       <c r="K108" s="9"/>
     </row>
@@ -14794,29 +14609,29 @@
         <v>132</v>
       </c>
       <c r="B109" s="9" t="s">
-        <v>236</v>
+        <v>248</v>
       </c>
       <c r="C109" s="9" t="s">
-        <v>237</v>
+        <v>249</v>
       </c>
       <c r="D109" s="9" t="s">
-        <v>410</v>
+        <v>117</v>
       </c>
       <c r="E109" s="9" t="s">
         <v>25</v>
       </c>
       <c r="F109" s="9" t="s">
-        <v>238</v>
+        <v>250</v>
       </c>
       <c r="G109" s="9" t="s">
-        <v>592</v>
+        <v>583</v>
       </c>
       <c r="H109" s="9"/>
       <c r="I109" s="10" t="s">
-        <v>239</v>
+        <v>251</v>
       </c>
       <c r="J109" s="26" t="s">
-        <v>593</v>
+        <v>584</v>
       </c>
       <c r="K109" s="9"/>
     </row>
@@ -14825,29 +14640,29 @@
         <v>132</v>
       </c>
       <c r="B110" s="9" t="s">
-        <v>236</v>
+        <v>248</v>
       </c>
       <c r="C110" s="9" t="s">
-        <v>240</v>
+        <v>252</v>
       </c>
       <c r="D110" s="9" t="s">
-        <v>241</v>
+        <v>410</v>
       </c>
       <c r="E110" s="9" t="s">
         <v>25</v>
       </c>
       <c r="F110" s="9" t="s">
-        <v>242</v>
+        <v>253</v>
       </c>
       <c r="G110" s="9" t="s">
-        <v>1032</v>
+        <v>585</v>
       </c>
       <c r="H110" s="9"/>
       <c r="I110" s="10" t="s">
-        <v>243</v>
+        <v>254</v>
       </c>
       <c r="J110" s="26" t="s">
-        <v>594</v>
+        <v>586</v>
       </c>
       <c r="K110" s="9"/>
     </row>
@@ -14856,29 +14671,29 @@
         <v>132</v>
       </c>
       <c r="B111" s="9" t="s">
-        <v>236</v>
+        <v>248</v>
       </c>
       <c r="C111" s="9" t="s">
-        <v>786</v>
+        <v>255</v>
       </c>
       <c r="D111" s="9" t="s">
         <v>117</v>
       </c>
       <c r="E111" s="9" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="F111" s="9" t="s">
-        <v>808</v>
+        <v>256</v>
       </c>
       <c r="G111" s="9" t="s">
-        <v>809</v>
+        <v>587</v>
       </c>
       <c r="H111" s="9"/>
-      <c r="I111" s="28" t="s">
-        <v>810</v>
+      <c r="I111" s="10" t="s">
+        <v>257</v>
       </c>
       <c r="J111" s="26" t="s">
-        <v>811</v>
+        <v>588</v>
       </c>
       <c r="K111" s="9"/>
     </row>
@@ -14887,29 +14702,29 @@
         <v>132</v>
       </c>
       <c r="B112" s="9" t="s">
-        <v>236</v>
+        <v>258</v>
       </c>
       <c r="C112" s="9" t="s">
-        <v>907</v>
+        <v>259</v>
       </c>
       <c r="D112" s="9" t="s">
-        <v>418</v>
+        <v>117</v>
       </c>
       <c r="E112" s="9" t="s">
         <v>25</v>
       </c>
       <c r="F112" s="9" t="s">
-        <v>940</v>
+        <v>260</v>
       </c>
       <c r="G112" s="9" t="s">
-        <v>939</v>
+        <v>589</v>
       </c>
       <c r="H112" s="9"/>
-      <c r="I112" s="28" t="s">
-        <v>941</v>
+      <c r="I112" s="10" t="s">
+        <v>261</v>
       </c>
       <c r="J112" s="26" t="s">
-        <v>942</v>
+        <v>590</v>
       </c>
       <c r="K112" s="9"/>
     </row>
@@ -14918,29 +14733,29 @@
         <v>132</v>
       </c>
       <c r="B113" s="9" t="s">
-        <v>244</v>
+        <v>262</v>
       </c>
       <c r="C113" s="9" t="s">
-        <v>245</v>
+        <v>273</v>
       </c>
       <c r="D113" s="9" t="s">
-        <v>241</v>
+        <v>410</v>
       </c>
       <c r="E113" s="9" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="F113" s="9" t="s">
-        <v>246</v>
+        <v>972</v>
       </c>
       <c r="G113" s="9" t="s">
+        <v>591</v>
+      </c>
+      <c r="H113" s="9"/>
+      <c r="I113" s="28" t="s">
+        <v>973</v>
+      </c>
+      <c r="J113" s="26" t="s">
         <v>595</v>
-      </c>
-      <c r="H113" s="9"/>
-      <c r="I113" s="10" t="s">
-        <v>247</v>
-      </c>
-      <c r="J113" s="26" t="s">
-        <v>596</v>
       </c>
       <c r="K113" s="9"/>
     </row>
@@ -14949,10 +14764,10 @@
         <v>132</v>
       </c>
       <c r="B114" s="9" t="s">
-        <v>244</v>
+        <v>262</v>
       </c>
       <c r="C114" s="9" t="s">
-        <v>167</v>
+        <v>267</v>
       </c>
       <c r="D114" s="9" t="s">
         <v>410</v>
@@ -14961,17 +14776,17 @@
         <v>25</v>
       </c>
       <c r="F114" s="9" t="s">
-        <v>1023</v>
+        <v>268</v>
       </c>
       <c r="G114" s="9" t="s">
-        <v>1024</v>
+        <v>591</v>
       </c>
       <c r="H114" s="9"/>
-      <c r="I114" s="28" t="s">
-        <v>1025</v>
+      <c r="I114" s="11" t="s">
+        <v>269</v>
       </c>
       <c r="J114" s="26" t="s">
-        <v>1026</v>
+        <v>592</v>
       </c>
       <c r="K114" s="9"/>
     </row>
@@ -14980,43 +14795,41 @@
         <v>132</v>
       </c>
       <c r="B115" s="9" t="s">
-        <v>785</v>
+        <v>262</v>
       </c>
       <c r="C115" s="9" t="s">
-        <v>1033</v>
+        <v>270</v>
       </c>
       <c r="D115" s="9" t="s">
-        <v>410</v>
+        <v>418</v>
       </c>
       <c r="E115" s="9" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="F115" s="9" t="s">
-        <v>1034</v>
+        <v>271</v>
       </c>
       <c r="G115" s="9" t="s">
-        <v>1035</v>
+        <v>593</v>
       </c>
       <c r="H115" s="9"/>
-      <c r="I115" s="28" t="s">
-        <v>1036</v>
+      <c r="I115" s="11" t="s">
+        <v>272</v>
       </c>
       <c r="J115" s="26" t="s">
-        <v>1037</v>
-      </c>
-      <c r="K115" s="9" t="s">
-        <v>1038</v>
-      </c>
+        <v>594</v>
+      </c>
+      <c r="K115" s="9"/>
     </row>
     <row r="116" spans="1:11" ht="13">
       <c r="A116" s="9" t="s">
         <v>132</v>
       </c>
       <c r="B116" s="9" t="s">
-        <v>785</v>
+        <v>262</v>
       </c>
       <c r="C116" s="9" t="s">
-        <v>784</v>
+        <v>780</v>
       </c>
       <c r="D116" s="9" t="s">
         <v>410</v>
@@ -15025,17 +14838,17 @@
         <v>25</v>
       </c>
       <c r="F116" s="9" t="s">
-        <v>812</v>
+        <v>781</v>
       </c>
       <c r="G116" s="9" t="s">
-        <v>813</v>
+        <v>782</v>
       </c>
       <c r="H116" s="9"/>
       <c r="I116" s="28" t="s">
-        <v>814</v>
+        <v>783</v>
       </c>
       <c r="J116" s="26" t="s">
-        <v>815</v>
+        <v>784</v>
       </c>
       <c r="K116" s="9"/>
     </row>
@@ -15044,29 +14857,29 @@
         <v>132</v>
       </c>
       <c r="B117" s="9" t="s">
-        <v>248</v>
+        <v>262</v>
       </c>
       <c r="C117" s="9" t="s">
-        <v>381</v>
+        <v>737</v>
       </c>
       <c r="D117" s="9" t="s">
-        <v>382</v>
+        <v>117</v>
       </c>
       <c r="E117" s="9" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="F117" s="9" t="s">
-        <v>597</v>
+        <v>767</v>
       </c>
       <c r="G117" s="9" t="s">
-        <v>598</v>
+        <v>768</v>
       </c>
       <c r="H117" s="9"/>
-      <c r="I117" s="10" t="s">
-        <v>599</v>
+      <c r="I117" s="28" t="s">
+        <v>769</v>
       </c>
       <c r="J117" s="26" t="s">
-        <v>600</v>
+        <v>770</v>
       </c>
       <c r="K117" s="9"/>
     </row>
@@ -15075,29 +14888,29 @@
         <v>132</v>
       </c>
       <c r="B118" s="9" t="s">
-        <v>248</v>
+        <v>262</v>
       </c>
       <c r="C118" s="9" t="s">
-        <v>249</v>
+        <v>838</v>
       </c>
       <c r="D118" s="9" t="s">
-        <v>117</v>
+        <v>418</v>
       </c>
       <c r="E118" s="9" t="s">
         <v>25</v>
       </c>
       <c r="F118" s="9" t="s">
-        <v>250</v>
+        <v>879</v>
       </c>
       <c r="G118" s="9" t="s">
-        <v>601</v>
+        <v>880</v>
       </c>
       <c r="H118" s="9"/>
-      <c r="I118" s="10" t="s">
-        <v>251</v>
+      <c r="I118" s="28" t="s">
+        <v>881</v>
       </c>
       <c r="J118" s="26" t="s">
-        <v>602</v>
+        <v>882</v>
       </c>
       <c r="K118" s="9"/>
     </row>
@@ -15106,29 +14919,29 @@
         <v>132</v>
       </c>
       <c r="B119" s="9" t="s">
-        <v>248</v>
+        <v>262</v>
       </c>
       <c r="C119" s="9" t="s">
-        <v>252</v>
+        <v>738</v>
       </c>
       <c r="D119" s="9" t="s">
-        <v>410</v>
+        <v>117</v>
       </c>
       <c r="E119" s="9" t="s">
         <v>25</v>
       </c>
       <c r="F119" s="9" t="s">
-        <v>253</v>
+        <v>771</v>
       </c>
       <c r="G119" s="9" t="s">
-        <v>603</v>
+        <v>772</v>
       </c>
       <c r="H119" s="9"/>
-      <c r="I119" s="10" t="s">
-        <v>254</v>
+      <c r="I119" s="28" t="s">
+        <v>773</v>
       </c>
       <c r="J119" s="26" t="s">
-        <v>604</v>
+        <v>774</v>
       </c>
       <c r="K119" s="9"/>
     </row>
@@ -15137,29 +14950,29 @@
         <v>132</v>
       </c>
       <c r="B120" s="9" t="s">
-        <v>248</v>
+        <v>262</v>
       </c>
       <c r="C120" s="9" t="s">
-        <v>255</v>
+        <v>839</v>
       </c>
       <c r="D120" s="9" t="s">
-        <v>117</v>
+        <v>55</v>
       </c>
       <c r="E120" s="9" t="s">
-        <v>39</v>
+        <v>14</v>
       </c>
       <c r="F120" s="9" t="s">
-        <v>256</v>
+        <v>883</v>
       </c>
       <c r="G120" s="9" t="s">
-        <v>605</v>
+        <v>884</v>
       </c>
       <c r="H120" s="9"/>
-      <c r="I120" s="10" t="s">
-        <v>257</v>
+      <c r="I120" s="28" t="s">
+        <v>885</v>
       </c>
       <c r="J120" s="26" t="s">
-        <v>606</v>
+        <v>886</v>
       </c>
       <c r="K120" s="9"/>
     </row>
@@ -15168,29 +14981,29 @@
         <v>132</v>
       </c>
       <c r="B121" s="9" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="C121" s="9" t="s">
-        <v>259</v>
+        <v>677</v>
       </c>
       <c r="D121" s="9" t="s">
-        <v>117</v>
+        <v>398</v>
       </c>
       <c r="E121" s="9" t="s">
         <v>25</v>
       </c>
       <c r="F121" s="9" t="s">
-        <v>260</v>
+        <v>709</v>
       </c>
       <c r="G121" s="9" t="s">
-        <v>607</v>
+        <v>710</v>
       </c>
       <c r="H121" s="9"/>
-      <c r="I121" s="10" t="s">
-        <v>261</v>
+      <c r="I121" s="28" t="s">
+        <v>711</v>
       </c>
       <c r="J121" s="26" t="s">
-        <v>608</v>
+        <v>712</v>
       </c>
       <c r="K121" s="9"/>
     </row>
@@ -15199,29 +15012,29 @@
         <v>132</v>
       </c>
       <c r="B122" s="9" t="s">
-        <v>262</v>
+        <v>843</v>
       </c>
       <c r="C122" s="9" t="s">
-        <v>263</v>
+        <v>842</v>
       </c>
       <c r="D122" s="9" t="s">
-        <v>609</v>
+        <v>398</v>
       </c>
       <c r="E122" s="9" t="s">
         <v>14</v>
       </c>
       <c r="F122" s="9" t="s">
-        <v>265</v>
+        <v>887</v>
       </c>
       <c r="G122" s="9" t="s">
-        <v>610</v>
+        <v>889</v>
       </c>
       <c r="H122" s="9"/>
-      <c r="I122" s="11" t="s">
-        <v>266</v>
+      <c r="I122" s="28" t="s">
+        <v>888</v>
       </c>
       <c r="J122" s="26" t="s">
-        <v>611</v>
+        <v>890</v>
       </c>
       <c r="K122" s="9"/>
     </row>
@@ -15230,432 +15043,428 @@
         <v>132</v>
       </c>
       <c r="B123" s="9" t="s">
-        <v>262</v>
+        <v>845</v>
       </c>
       <c r="C123" s="9" t="s">
-        <v>267</v>
+        <v>842</v>
       </c>
       <c r="D123" s="9" t="s">
+        <v>398</v>
+      </c>
+      <c r="E123" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F123" s="9" t="s">
+        <v>891</v>
+      </c>
+      <c r="G123" s="9" t="s">
+        <v>892</v>
+      </c>
+      <c r="H123" s="9"/>
+      <c r="I123" s="28" t="s">
+        <v>893</v>
+      </c>
+      <c r="J123" s="26" t="s">
+        <v>894</v>
+      </c>
+      <c r="K123" s="9"/>
+    </row>
+    <row r="124" spans="1:11" ht="13">
+      <c r="A124" s="14" t="s">
+        <v>278</v>
+      </c>
+      <c r="B124" s="14" t="s">
+        <v>596</v>
+      </c>
+      <c r="C124" s="14" t="s">
+        <v>597</v>
+      </c>
+      <c r="D124" s="14" t="s">
+        <v>157</v>
+      </c>
+      <c r="E124" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="F124" s="14" t="s">
+        <v>598</v>
+      </c>
+      <c r="G124" s="14" t="s">
+        <v>599</v>
+      </c>
+      <c r="H124" s="14"/>
+      <c r="I124" s="16" t="s">
+        <v>600</v>
+      </c>
+      <c r="J124" s="17" t="s">
+        <v>601</v>
+      </c>
+      <c r="K124" s="14"/>
+    </row>
+    <row r="125" spans="1:11" ht="13">
+      <c r="A125" s="14" t="s">
+        <v>278</v>
+      </c>
+      <c r="B125" s="14" t="s">
+        <v>596</v>
+      </c>
+      <c r="C125" s="14" t="s">
+        <v>602</v>
+      </c>
+      <c r="D125" s="14" t="s">
         <v>410</v>
       </c>
-      <c r="E123" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="F123" s="9" t="s">
-        <v>268</v>
-      </c>
-      <c r="G123" s="9" t="s">
+      <c r="E125" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="F125" s="14" t="s">
+        <v>603</v>
+      </c>
+      <c r="G125" s="14" t="s">
+        <v>604</v>
+      </c>
+      <c r="H125" s="14"/>
+      <c r="I125" s="16" t="s">
+        <v>605</v>
+      </c>
+      <c r="J125" s="17" t="s">
+        <v>606</v>
+      </c>
+      <c r="K125" s="14"/>
+    </row>
+    <row r="126" spans="1:11" ht="13">
+      <c r="A126" s="14" t="s">
+        <v>278</v>
+      </c>
+      <c r="B126" s="14" t="s">
+        <v>596</v>
+      </c>
+      <c r="C126" s="14" t="s">
+        <v>837</v>
+      </c>
+      <c r="D126" s="14" t="s">
+        <v>410</v>
+      </c>
+      <c r="E126" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="F126" s="14" t="s">
+        <v>898</v>
+      </c>
+      <c r="G126" s="14" t="s">
+        <v>900</v>
+      </c>
+      <c r="H126" s="14"/>
+      <c r="I126" s="29" t="s">
+        <v>901</v>
+      </c>
+      <c r="J126" s="17"/>
+      <c r="K126" s="14"/>
+    </row>
+    <row r="127" spans="1:11" ht="13">
+      <c r="A127" s="14" t="s">
+        <v>278</v>
+      </c>
+      <c r="B127" s="14" t="s">
+        <v>596</v>
+      </c>
+      <c r="C127" s="14" t="s">
+        <v>837</v>
+      </c>
+      <c r="D127" s="14" t="s">
+        <v>410</v>
+      </c>
+      <c r="E127" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="F127" s="14" t="s">
+        <v>899</v>
+      </c>
+      <c r="G127" s="14" t="s">
+        <v>902</v>
+      </c>
+      <c r="H127" s="14"/>
+      <c r="I127" s="29" t="s">
+        <v>903</v>
+      </c>
+      <c r="J127" s="17"/>
+      <c r="K127" s="14"/>
+    </row>
+    <row r="128" spans="1:11" ht="13">
+      <c r="A128" s="14" t="s">
+        <v>278</v>
+      </c>
+      <c r="B128" s="14" t="s">
+        <v>279</v>
+      </c>
+      <c r="C128" s="14" t="s">
+        <v>840</v>
+      </c>
+      <c r="D128" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="E128" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="F128" s="14" t="s">
+        <v>904</v>
+      </c>
+      <c r="G128" s="14" t="s">
+        <v>905</v>
+      </c>
+      <c r="H128" s="14"/>
+      <c r="I128" s="29" t="s">
+        <v>906</v>
+      </c>
+      <c r="J128" s="17" t="s">
+        <v>907</v>
+      </c>
+      <c r="K128" s="14"/>
+    </row>
+    <row r="129" spans="1:11" ht="13">
+      <c r="A129" s="14" t="s">
+        <v>278</v>
+      </c>
+      <c r="B129" s="14" t="s">
+        <v>279</v>
+      </c>
+      <c r="C129" s="14" t="s">
+        <v>607</v>
+      </c>
+      <c r="D129" s="14" t="s">
+        <v>157</v>
+      </c>
+      <c r="E129" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="F129" s="14" t="s">
+        <v>608</v>
+      </c>
+      <c r="G129" s="14" t="s">
+        <v>609</v>
+      </c>
+      <c r="H129" s="14"/>
+      <c r="I129" s="15" t="s">
+        <v>610</v>
+      </c>
+      <c r="J129" s="17" t="s">
+        <v>611</v>
+      </c>
+      <c r="K129" s="14"/>
+    </row>
+    <row r="130" spans="1:11" ht="13">
+      <c r="A130" s="14" t="s">
+        <v>278</v>
+      </c>
+      <c r="B130" s="14" t="s">
+        <v>279</v>
+      </c>
+      <c r="C130" s="14" t="s">
         <v>612</v>
       </c>
-      <c r="H123" s="9"/>
-      <c r="I123" s="11" t="s">
-        <v>269</v>
-      </c>
-      <c r="J123" s="26" t="s">
+      <c r="D130" s="14" t="s">
+        <v>410</v>
+      </c>
+      <c r="E130" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="F130" s="14" t="s">
         <v>613</v>
       </c>
-      <c r="K123" s="9"/>
-    </row>
-    <row r="124" spans="1:11" ht="13">
-      <c r="A124" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="B124" s="9" t="s">
-        <v>262</v>
-      </c>
-      <c r="C124" s="9" t="s">
-        <v>270</v>
-      </c>
-      <c r="D124" s="9" t="s">
+      <c r="G130" s="14" t="s">
+        <v>614</v>
+      </c>
+      <c r="H130" s="14"/>
+      <c r="I130" s="15" t="s">
+        <v>615</v>
+      </c>
+      <c r="J130" s="17" t="s">
+        <v>616</v>
+      </c>
+      <c r="K130" s="14"/>
+    </row>
+    <row r="131" spans="1:11" ht="13">
+      <c r="A131" s="14" t="s">
+        <v>278</v>
+      </c>
+      <c r="B131" s="14" t="s">
+        <v>279</v>
+      </c>
+      <c r="C131" s="14" t="s">
+        <v>280</v>
+      </c>
+      <c r="D131" s="14" t="s">
+        <v>157</v>
+      </c>
+      <c r="E131" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="F131" s="14" t="s">
+        <v>281</v>
+      </c>
+      <c r="G131" s="14" t="s">
+        <v>617</v>
+      </c>
+      <c r="H131" s="14"/>
+      <c r="I131" s="15" t="s">
+        <v>282</v>
+      </c>
+      <c r="J131" s="17" t="s">
+        <v>618</v>
+      </c>
+      <c r="K131" s="14"/>
+    </row>
+    <row r="132" spans="1:11" ht="13">
+      <c r="A132" s="14" t="s">
+        <v>278</v>
+      </c>
+      <c r="B132" s="14" t="s">
+        <v>279</v>
+      </c>
+      <c r="C132" s="14" t="s">
+        <v>283</v>
+      </c>
+      <c r="D132" s="14" t="s">
+        <v>410</v>
+      </c>
+      <c r="E132" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="F132" s="14" t="s">
+        <v>284</v>
+      </c>
+      <c r="G132" s="14" t="s">
+        <v>619</v>
+      </c>
+      <c r="H132" s="14"/>
+      <c r="I132" s="15" t="s">
+        <v>285</v>
+      </c>
+      <c r="J132" s="17" t="s">
+        <v>620</v>
+      </c>
+      <c r="K132" s="14"/>
+    </row>
+    <row r="133" spans="1:11" ht="13">
+      <c r="A133" s="14" t="s">
+        <v>278</v>
+      </c>
+      <c r="B133" s="14" t="s">
+        <v>279</v>
+      </c>
+      <c r="C133" s="14" t="s">
+        <v>286</v>
+      </c>
+      <c r="D133" s="14" t="s">
         <v>418</v>
       </c>
-      <c r="E124" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="F124" s="9" t="s">
-        <v>271</v>
-      </c>
-      <c r="G124" s="9" t="s">
-        <v>614</v>
-      </c>
-      <c r="H124" s="9"/>
-      <c r="I124" s="11" t="s">
-        <v>272</v>
-      </c>
-      <c r="J124" s="26" t="s">
-        <v>615</v>
-      </c>
-      <c r="K124" s="9"/>
-    </row>
-    <row r="125" spans="1:11" ht="13">
-      <c r="A125" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="B125" s="9" t="s">
-        <v>262</v>
-      </c>
-      <c r="C125" s="9" t="s">
-        <v>829</v>
-      </c>
-      <c r="D125" s="9" t="s">
-        <v>410</v>
-      </c>
-      <c r="E125" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="F125" s="9" t="s">
-        <v>830</v>
-      </c>
-      <c r="G125" s="9" t="s">
-        <v>831</v>
-      </c>
-      <c r="H125" s="9"/>
-      <c r="I125" s="28" t="s">
-        <v>832</v>
-      </c>
-      <c r="J125" s="26" t="s">
-        <v>833</v>
-      </c>
-      <c r="K125" s="9"/>
-    </row>
-    <row r="126" spans="1:11" ht="13">
-      <c r="A126" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="B126" s="9" t="s">
-        <v>262</v>
-      </c>
-      <c r="C126" s="9" t="s">
-        <v>782</v>
-      </c>
-      <c r="D126" s="9" t="s">
+      <c r="E133" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="F133" s="14" t="s">
+        <v>287</v>
+      </c>
+      <c r="G133" s="14" t="s">
+        <v>621</v>
+      </c>
+      <c r="H133" s="14"/>
+      <c r="I133" s="16" t="s">
+        <v>288</v>
+      </c>
+      <c r="J133" s="17" t="s">
+        <v>622</v>
+      </c>
+      <c r="K133" s="14"/>
+    </row>
+    <row r="134" spans="1:11" ht="13">
+      <c r="A134" s="14" t="s">
+        <v>278</v>
+      </c>
+      <c r="B134" s="14" t="s">
+        <v>279</v>
+      </c>
+      <c r="C134" s="14" t="s">
+        <v>289</v>
+      </c>
+      <c r="D134" s="14" t="s">
         <v>117</v>
       </c>
-      <c r="E126" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="F126" s="9" t="s">
-        <v>816</v>
-      </c>
-      <c r="G126" s="9" t="s">
-        <v>817</v>
-      </c>
-      <c r="H126" s="9"/>
-      <c r="I126" s="28" t="s">
-        <v>818</v>
-      </c>
-      <c r="J126" s="26" t="s">
-        <v>819</v>
-      </c>
-      <c r="K126" s="9"/>
-    </row>
-    <row r="127" spans="1:11" ht="13">
-      <c r="A127" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="B127" s="9" t="s">
-        <v>262</v>
-      </c>
-      <c r="C127" s="9" t="s">
-        <v>893</v>
-      </c>
-      <c r="D127" s="9" t="s">
-        <v>418</v>
-      </c>
-      <c r="E127" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="F127" s="9" t="s">
-        <v>943</v>
-      </c>
-      <c r="G127" s="9" t="s">
-        <v>944</v>
-      </c>
-      <c r="H127" s="9"/>
-      <c r="I127" s="28" t="s">
-        <v>945</v>
-      </c>
-      <c r="J127" s="26" t="s">
-        <v>946</v>
-      </c>
-      <c r="K127" s="9"/>
-    </row>
-    <row r="128" spans="1:11" ht="13">
-      <c r="A128" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="B128" s="9" t="s">
-        <v>262</v>
-      </c>
-      <c r="C128" s="9" t="s">
-        <v>783</v>
-      </c>
-      <c r="D128" s="9" t="s">
-        <v>117</v>
-      </c>
-      <c r="E128" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="F128" s="9" t="s">
-        <v>820</v>
-      </c>
-      <c r="G128" s="9" t="s">
-        <v>821</v>
-      </c>
-      <c r="H128" s="9"/>
-      <c r="I128" s="28" t="s">
-        <v>822</v>
-      </c>
-      <c r="J128" s="26" t="s">
-        <v>823</v>
-      </c>
-      <c r="K128" s="9"/>
-    </row>
-    <row r="129" spans="1:11" ht="13">
-      <c r="A129" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="B129" s="9" t="s">
-        <v>262</v>
-      </c>
-      <c r="C129" s="9" t="s">
-        <v>273</v>
-      </c>
-      <c r="D129" s="9" t="s">
-        <v>609</v>
-      </c>
-      <c r="E129" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="F129" s="9" t="s">
-        <v>274</v>
-      </c>
-      <c r="G129" s="9" t="s">
-        <v>616</v>
-      </c>
-      <c r="H129" s="9"/>
-      <c r="I129" s="11" t="s">
-        <v>275</v>
-      </c>
-      <c r="J129" s="26" t="s">
-        <v>617</v>
-      </c>
-      <c r="K129" s="9"/>
-    </row>
-    <row r="130" spans="1:11" ht="13">
-      <c r="A130" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="B130" s="9" t="s">
-        <v>262</v>
-      </c>
-      <c r="C130" s="9" t="s">
-        <v>894</v>
-      </c>
-      <c r="D130" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="E130" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F130" s="9" t="s">
-        <v>947</v>
-      </c>
-      <c r="G130" s="9" t="s">
-        <v>948</v>
-      </c>
-      <c r="H130" s="9"/>
-      <c r="I130" s="28" t="s">
-        <v>949</v>
-      </c>
-      <c r="J130" s="26" t="s">
-        <v>950</v>
-      </c>
-      <c r="K130" s="9"/>
-    </row>
-    <row r="131" spans="1:11" ht="13">
-      <c r="A131" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="B131" s="9" t="s">
-        <v>262</v>
-      </c>
-      <c r="C131" s="9" t="s">
-        <v>720</v>
-      </c>
-      <c r="D131" s="9" t="s">
-        <v>398</v>
-      </c>
-      <c r="E131" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="F131" s="9" t="s">
-        <v>752</v>
-      </c>
-      <c r="G131" s="9" t="s">
-        <v>753</v>
-      </c>
-      <c r="H131" s="9"/>
-      <c r="I131" s="28" t="s">
-        <v>754</v>
-      </c>
-      <c r="J131" s="26" t="s">
-        <v>755</v>
-      </c>
-      <c r="K131" s="9"/>
-    </row>
-    <row r="132" spans="1:11" ht="13">
-      <c r="A132" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="B132" s="9" t="s">
-        <v>262</v>
-      </c>
-      <c r="C132" s="9" t="s">
-        <v>276</v>
-      </c>
-      <c r="D132" s="9" t="s">
-        <v>398</v>
-      </c>
-      <c r="E132" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F132" s="9" t="s">
-        <v>277</v>
-      </c>
-      <c r="G132" s="9" t="s">
-        <v>618</v>
-      </c>
-      <c r="H132" s="9"/>
-      <c r="I132" s="11" t="s">
-        <v>619</v>
-      </c>
-      <c r="J132" s="26" t="s">
-        <v>1011</v>
-      </c>
-      <c r="K132" s="9"/>
-    </row>
-    <row r="133" spans="1:11" ht="13">
-      <c r="A133" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="B133" s="9" t="s">
-        <v>262</v>
-      </c>
-      <c r="C133" s="9" t="s">
-        <v>1006</v>
-      </c>
-      <c r="D133" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="E133" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="F133" s="9" t="s">
-        <v>1007</v>
-      </c>
-      <c r="G133" s="9" t="s">
-        <v>1008</v>
-      </c>
-      <c r="H133" s="9"/>
-      <c r="I133" s="28" t="s">
-        <v>1009</v>
-      </c>
-      <c r="J133" s="26" t="s">
-        <v>1010</v>
-      </c>
-      <c r="K133" s="9"/>
-    </row>
-    <row r="134" spans="1:11" ht="13">
-      <c r="A134" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="B134" s="9" t="s">
-        <v>898</v>
-      </c>
-      <c r="C134" s="9" t="s">
-        <v>897</v>
-      </c>
-      <c r="D134" s="9" t="s">
-        <v>398</v>
-      </c>
-      <c r="E134" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F134" s="9" t="s">
-        <v>951</v>
-      </c>
-      <c r="G134" s="9" t="s">
-        <v>953</v>
-      </c>
-      <c r="H134" s="9"/>
-      <c r="I134" s="28" t="s">
-        <v>952</v>
-      </c>
-      <c r="J134" s="26" t="s">
-        <v>954</v>
-      </c>
-      <c r="K134" s="9"/>
+      <c r="E134" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="F134" s="14" t="s">
+        <v>290</v>
+      </c>
+      <c r="G134" s="14" t="s">
+        <v>623</v>
+      </c>
+      <c r="H134" s="14"/>
+      <c r="I134" s="16" t="s">
+        <v>291</v>
+      </c>
+      <c r="J134" s="17" t="s">
+        <v>624</v>
+      </c>
+      <c r="K134" s="14"/>
     </row>
     <row r="135" spans="1:11" ht="13">
-      <c r="A135" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="B135" s="9" t="s">
-        <v>900</v>
-      </c>
-      <c r="C135" s="9" t="s">
-        <v>897</v>
-      </c>
-      <c r="D135" s="9" t="s">
-        <v>398</v>
-      </c>
-      <c r="E135" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F135" s="9" t="s">
-        <v>955</v>
-      </c>
-      <c r="G135" s="9" t="s">
-        <v>956</v>
-      </c>
-      <c r="H135" s="9"/>
-      <c r="I135" s="28" t="s">
-        <v>957</v>
-      </c>
-      <c r="J135" s="26" t="s">
-        <v>958</v>
-      </c>
-      <c r="K135" s="9"/>
+      <c r="A135" s="14" t="s">
+        <v>278</v>
+      </c>
+      <c r="B135" s="14" t="s">
+        <v>279</v>
+      </c>
+      <c r="C135" s="14" t="s">
+        <v>292</v>
+      </c>
+      <c r="D135" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="E135" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="F135" s="14" t="s">
+        <v>293</v>
+      </c>
+      <c r="G135" s="14" t="s">
+        <v>625</v>
+      </c>
+      <c r="H135" s="14"/>
+      <c r="I135" s="16" t="s">
+        <v>294</v>
+      </c>
+      <c r="J135" s="17" t="s">
+        <v>626</v>
+      </c>
+      <c r="K135" s="14"/>
     </row>
     <row r="136" spans="1:11" ht="13">
       <c r="A136" s="14" t="s">
         <v>278</v>
       </c>
       <c r="B136" s="14" t="s">
-        <v>620</v>
+        <v>279</v>
       </c>
       <c r="C136" s="14" t="s">
-        <v>621</v>
+        <v>298</v>
       </c>
       <c r="D136" s="14" t="s">
-        <v>157</v>
+        <v>410</v>
       </c>
       <c r="E136" s="14" t="s">
         <v>25</v>
       </c>
       <c r="F136" s="14" t="s">
-        <v>622</v>
+        <v>299</v>
       </c>
       <c r="G136" s="14" t="s">
-        <v>623</v>
+        <v>627</v>
       </c>
       <c r="H136" s="14"/>
       <c r="I136" s="16" t="s">
-        <v>624</v>
+        <v>300</v>
       </c>
       <c r="J136" s="17" t="s">
-        <v>625</v>
+        <v>628</v>
       </c>
       <c r="K136" s="14"/>
     </row>
@@ -15664,29 +15473,29 @@
         <v>278</v>
       </c>
       <c r="B137" s="14" t="s">
-        <v>620</v>
+        <v>279</v>
       </c>
       <c r="C137" s="14" t="s">
-        <v>626</v>
+        <v>191</v>
       </c>
       <c r="D137" s="14" t="s">
-        <v>410</v>
+        <v>117</v>
       </c>
       <c r="E137" s="14" t="s">
         <v>25</v>
       </c>
       <c r="F137" s="14" t="s">
-        <v>627</v>
+        <v>713</v>
       </c>
       <c r="G137" s="14" t="s">
-        <v>628</v>
+        <v>714</v>
       </c>
       <c r="H137" s="14"/>
-      <c r="I137" s="16" t="s">
-        <v>629</v>
+      <c r="I137" s="29" t="s">
+        <v>715</v>
       </c>
       <c r="J137" s="17" t="s">
-        <v>630</v>
+        <v>545</v>
       </c>
       <c r="K137" s="14"/>
     </row>
@@ -15695,28 +15504,30 @@
         <v>278</v>
       </c>
       <c r="B138" s="14" t="s">
-        <v>620</v>
+        <v>279</v>
       </c>
       <c r="C138" s="14" t="s">
-        <v>892</v>
+        <v>813</v>
       </c>
       <c r="D138" s="14" t="s">
-        <v>410</v>
+        <v>55</v>
       </c>
       <c r="E138" s="14" t="s">
         <v>25</v>
       </c>
       <c r="F138" s="14" t="s">
-        <v>962</v>
+        <v>814</v>
       </c>
       <c r="G138" s="14" t="s">
-        <v>964</v>
+        <v>815</v>
       </c>
       <c r="H138" s="14"/>
       <c r="I138" s="29" t="s">
-        <v>965</v>
-      </c>
-      <c r="J138" s="17"/>
+        <v>816</v>
+      </c>
+      <c r="J138" s="17" t="s">
+        <v>817</v>
+      </c>
       <c r="K138" s="14"/>
     </row>
     <row r="139" spans="1:11" ht="13">
@@ -15724,28 +15535,30 @@
         <v>278</v>
       </c>
       <c r="B139" s="14" t="s">
-        <v>620</v>
+        <v>279</v>
       </c>
       <c r="C139" s="14" t="s">
-        <v>892</v>
+        <v>842</v>
       </c>
       <c r="D139" s="14" t="s">
-        <v>410</v>
+        <v>398</v>
       </c>
       <c r="E139" s="14" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="F139" s="14" t="s">
-        <v>963</v>
+        <v>908</v>
       </c>
       <c r="G139" s="14" t="s">
-        <v>966</v>
+        <v>910</v>
       </c>
       <c r="H139" s="14"/>
       <c r="I139" s="29" t="s">
-        <v>967</v>
-      </c>
-      <c r="J139" s="17"/>
+        <v>911</v>
+      </c>
+      <c r="J139" s="17" t="s">
+        <v>912</v>
+      </c>
       <c r="K139" s="14"/>
     </row>
     <row r="140" spans="1:11" ht="13">
@@ -15756,26 +15569,26 @@
         <v>279</v>
       </c>
       <c r="C140" s="14" t="s">
-        <v>895</v>
+        <v>842</v>
       </c>
       <c r="D140" s="14" t="s">
-        <v>47</v>
+        <v>398</v>
       </c>
       <c r="E140" s="14" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="F140" s="14" t="s">
-        <v>968</v>
+        <v>909</v>
       </c>
       <c r="G140" s="14" t="s">
-        <v>969</v>
+        <v>913</v>
       </c>
       <c r="H140" s="14"/>
       <c r="I140" s="29" t="s">
-        <v>970</v>
+        <v>914</v>
       </c>
       <c r="J140" s="17" t="s">
-        <v>971</v>
+        <v>915</v>
       </c>
       <c r="K140" s="14"/>
     </row>
@@ -15787,26 +15600,26 @@
         <v>279</v>
       </c>
       <c r="C141" s="14" t="s">
-        <v>631</v>
+        <v>841</v>
       </c>
       <c r="D141" s="14" t="s">
-        <v>47</v>
+        <v>410</v>
       </c>
       <c r="E141" s="14" t="s">
         <v>14</v>
       </c>
       <c r="F141" s="14" t="s">
-        <v>632</v>
+        <v>916</v>
       </c>
       <c r="G141" s="14" t="s">
-        <v>633</v>
+        <v>917</v>
       </c>
       <c r="H141" s="14"/>
-      <c r="I141" s="15" t="s">
-        <v>634</v>
+      <c r="I141" s="29" t="s">
+        <v>918</v>
       </c>
       <c r="J141" s="17" t="s">
-        <v>635</v>
+        <v>919</v>
       </c>
       <c r="K141" s="14"/>
     </row>
@@ -15815,29 +15628,29 @@
         <v>278</v>
       </c>
       <c r="B142" s="14" t="s">
-        <v>279</v>
+        <v>301</v>
       </c>
       <c r="C142" s="14" t="s">
-        <v>636</v>
+        <v>302</v>
       </c>
       <c r="D142" s="14" t="s">
-        <v>157</v>
+        <v>117</v>
       </c>
       <c r="E142" s="14" t="s">
         <v>25</v>
       </c>
       <c r="F142" s="14" t="s">
-        <v>637</v>
+        <v>303</v>
       </c>
       <c r="G142" s="14" t="s">
-        <v>638</v>
+        <v>629</v>
       </c>
       <c r="H142" s="14"/>
       <c r="I142" s="15" t="s">
-        <v>639</v>
+        <v>304</v>
       </c>
       <c r="J142" s="17" t="s">
-        <v>640</v>
+        <v>630</v>
       </c>
       <c r="K142" s="14"/>
     </row>
@@ -15846,29 +15659,29 @@
         <v>278</v>
       </c>
       <c r="B143" s="14" t="s">
-        <v>279</v>
+        <v>301</v>
       </c>
       <c r="C143" s="14" t="s">
-        <v>641</v>
+        <v>381</v>
       </c>
       <c r="D143" s="14" t="s">
-        <v>410</v>
+        <v>382</v>
       </c>
       <c r="E143" s="14" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="F143" s="14" t="s">
-        <v>642</v>
+        <v>631</v>
       </c>
       <c r="G143" s="14" t="s">
-        <v>643</v>
+        <v>632</v>
       </c>
       <c r="H143" s="14"/>
       <c r="I143" s="15" t="s">
-        <v>644</v>
+        <v>633</v>
       </c>
       <c r="J143" s="17" t="s">
-        <v>645</v>
+        <v>634</v>
       </c>
       <c r="K143" s="14"/>
     </row>
@@ -15877,28 +15690,30 @@
         <v>278</v>
       </c>
       <c r="B144" s="14" t="s">
-        <v>279</v>
+        <v>305</v>
       </c>
       <c r="C144" s="14" t="s">
-        <v>381</v>
+        <v>306</v>
       </c>
       <c r="D144" s="14" t="s">
-        <v>382</v>
+        <v>410</v>
       </c>
       <c r="E144" s="14" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="F144" s="14" t="s">
-        <v>646</v>
+        <v>307</v>
       </c>
       <c r="G144" s="14" t="s">
-        <v>647</v>
+        <v>635</v>
       </c>
       <c r="H144" s="14"/>
       <c r="I144" s="15" t="s">
-        <v>648</v>
-      </c>
-      <c r="J144" s="17"/>
+        <v>308</v>
+      </c>
+      <c r="J144" s="17" t="s">
+        <v>636</v>
+      </c>
       <c r="K144" s="14"/>
     </row>
     <row r="145" spans="1:11" ht="13">
@@ -15906,10 +15721,10 @@
         <v>278</v>
       </c>
       <c r="B145" s="14" t="s">
-        <v>279</v>
+        <v>305</v>
       </c>
       <c r="C145" s="14" t="s">
-        <v>87</v>
+        <v>298</v>
       </c>
       <c r="D145" s="14" t="s">
         <v>410</v>
@@ -15918,17 +15733,17 @@
         <v>25</v>
       </c>
       <c r="F145" s="14" t="s">
-        <v>972</v>
+        <v>309</v>
       </c>
       <c r="G145" s="14" t="s">
-        <v>973</v>
+        <v>637</v>
       </c>
       <c r="H145" s="14"/>
-      <c r="I145" s="29" t="s">
-        <v>974</v>
+      <c r="I145" s="15" t="s">
+        <v>310</v>
       </c>
       <c r="J145" s="17" t="s">
-        <v>975</v>
+        <v>638</v>
       </c>
       <c r="K145" s="14"/>
     </row>
@@ -15937,29 +15752,29 @@
         <v>278</v>
       </c>
       <c r="B146" s="14" t="s">
-        <v>279</v>
+        <v>305</v>
       </c>
       <c r="C146" s="14" t="s">
-        <v>280</v>
+        <v>311</v>
       </c>
       <c r="D146" s="14" t="s">
-        <v>157</v>
+        <v>312</v>
       </c>
       <c r="E146" s="14" t="s">
         <v>25</v>
       </c>
       <c r="F146" s="14" t="s">
-        <v>281</v>
+        <v>313</v>
       </c>
       <c r="G146" s="14" t="s">
-        <v>649</v>
+        <v>639</v>
       </c>
       <c r="H146" s="14"/>
       <c r="I146" s="15" t="s">
-        <v>282</v>
+        <v>314</v>
       </c>
       <c r="J146" s="17" t="s">
-        <v>650</v>
+        <v>640</v>
       </c>
       <c r="K146" s="14"/>
     </row>
@@ -15968,10 +15783,10 @@
         <v>278</v>
       </c>
       <c r="B147" s="14" t="s">
-        <v>279</v>
+        <v>305</v>
       </c>
       <c r="C147" s="14" t="s">
-        <v>283</v>
+        <v>682</v>
       </c>
       <c r="D147" s="14" t="s">
         <v>410</v>
@@ -15980,17 +15795,17 @@
         <v>25</v>
       </c>
       <c r="F147" s="14" t="s">
-        <v>284</v>
+        <v>716</v>
       </c>
       <c r="G147" s="14" t="s">
-        <v>651</v>
+        <v>717</v>
       </c>
       <c r="H147" s="14"/>
-      <c r="I147" s="15" t="s">
-        <v>285</v>
+      <c r="I147" s="29" t="s">
+        <v>718</v>
       </c>
       <c r="J147" s="17" t="s">
-        <v>652</v>
+        <v>719</v>
       </c>
       <c r="K147" s="14"/>
     </row>
@@ -15999,29 +15814,29 @@
         <v>278</v>
       </c>
       <c r="B148" s="14" t="s">
-        <v>279</v>
+        <v>315</v>
       </c>
       <c r="C148" s="14" t="s">
-        <v>286</v>
+        <v>316</v>
       </c>
       <c r="D148" s="14" t="s">
-        <v>418</v>
+        <v>410</v>
       </c>
       <c r="E148" s="14" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="F148" s="14" t="s">
-        <v>287</v>
+        <v>317</v>
       </c>
       <c r="G148" s="14" t="s">
-        <v>653</v>
+        <v>641</v>
       </c>
       <c r="H148" s="14"/>
-      <c r="I148" s="16" t="s">
-        <v>288</v>
+      <c r="I148" s="15" t="s">
+        <v>318</v>
       </c>
       <c r="J148" s="17" t="s">
-        <v>654</v>
+        <v>642</v>
       </c>
       <c r="K148" s="14"/>
     </row>
@@ -16030,29 +15845,29 @@
         <v>278</v>
       </c>
       <c r="B149" s="14" t="s">
-        <v>279</v>
+        <v>315</v>
       </c>
       <c r="C149" s="14" t="s">
-        <v>289</v>
+        <v>673</v>
       </c>
       <c r="D149" s="14" t="s">
-        <v>117</v>
+        <v>55</v>
       </c>
       <c r="E149" s="14" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="F149" s="14" t="s">
-        <v>290</v>
+        <v>720</v>
       </c>
       <c r="G149" s="14" t="s">
-        <v>655</v>
+        <v>721</v>
       </c>
       <c r="H149" s="14"/>
-      <c r="I149" s="16" t="s">
-        <v>291</v>
+      <c r="I149" s="29" t="s">
+        <v>722</v>
       </c>
       <c r="J149" s="17" t="s">
-        <v>656</v>
+        <v>723</v>
       </c>
       <c r="K149" s="14"/>
     </row>
@@ -16061,29 +15876,29 @@
         <v>278</v>
       </c>
       <c r="B150" s="14" t="s">
-        <v>279</v>
+        <v>315</v>
       </c>
       <c r="C150" s="14" t="s">
-        <v>292</v>
+        <v>742</v>
       </c>
       <c r="D150" s="14" t="s">
-        <v>47</v>
+        <v>410</v>
       </c>
       <c r="E150" s="14" t="s">
         <v>25</v>
       </c>
       <c r="F150" s="14" t="s">
-        <v>293</v>
+        <v>743</v>
       </c>
       <c r="G150" s="14" t="s">
-        <v>657</v>
+        <v>744</v>
       </c>
       <c r="H150" s="14"/>
-      <c r="I150" s="16" t="s">
-        <v>294</v>
+      <c r="I150" s="29" t="s">
+        <v>745</v>
       </c>
       <c r="J150" s="17" t="s">
-        <v>658</v>
+        <v>746</v>
       </c>
       <c r="K150" s="14"/>
     </row>
@@ -16092,29 +15907,29 @@
         <v>278</v>
       </c>
       <c r="B151" s="14" t="s">
-        <v>279</v>
+        <v>315</v>
       </c>
       <c r="C151" s="14" t="s">
-        <v>295</v>
+        <v>945</v>
       </c>
       <c r="D151" s="14" t="s">
-        <v>410</v>
+        <v>418</v>
       </c>
       <c r="E151" s="14" t="s">
         <v>25</v>
       </c>
       <c r="F151" s="14" t="s">
-        <v>296</v>
+        <v>944</v>
       </c>
       <c r="G151" s="14" t="s">
-        <v>659</v>
+        <v>946</v>
       </c>
       <c r="H151" s="14"/>
-      <c r="I151" s="16" t="s">
-        <v>297</v>
+      <c r="I151" s="29" t="s">
+        <v>947</v>
       </c>
       <c r="J151" s="17" t="s">
-        <v>660</v>
+        <v>948</v>
       </c>
       <c r="K151" s="14"/>
     </row>
@@ -16123,29 +15938,29 @@
         <v>278</v>
       </c>
       <c r="B152" s="14" t="s">
-        <v>279</v>
+        <v>319</v>
       </c>
       <c r="C152" s="14" t="s">
-        <v>298</v>
+        <v>320</v>
       </c>
       <c r="D152" s="14" t="s">
         <v>410</v>
       </c>
       <c r="E152" s="14" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="F152" s="14" t="s">
-        <v>299</v>
+        <v>643</v>
       </c>
       <c r="G152" s="14" t="s">
-        <v>661</v>
+        <v>644</v>
       </c>
       <c r="H152" s="14"/>
       <c r="I152" s="16" t="s">
-        <v>300</v>
+        <v>645</v>
       </c>
       <c r="J152" s="17" t="s">
-        <v>662</v>
+        <v>646</v>
       </c>
       <c r="K152" s="14"/>
     </row>
@@ -16154,29 +15969,29 @@
         <v>278</v>
       </c>
       <c r="B153" s="14" t="s">
-        <v>279</v>
+        <v>319</v>
       </c>
       <c r="C153" s="14" t="s">
-        <v>191</v>
+        <v>323</v>
       </c>
       <c r="D153" s="14" t="s">
-        <v>117</v>
+        <v>410</v>
       </c>
       <c r="E153" s="14" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="F153" s="14" t="s">
-        <v>756</v>
+        <v>324</v>
       </c>
       <c r="G153" s="14" t="s">
-        <v>757</v>
+        <v>647</v>
       </c>
       <c r="H153" s="14"/>
-      <c r="I153" s="29" t="s">
-        <v>758</v>
+      <c r="I153" s="15" t="s">
+        <v>325</v>
       </c>
       <c r="J153" s="17" t="s">
-        <v>555</v>
+        <v>648</v>
       </c>
       <c r="K153" s="14"/>
     </row>
@@ -16185,29 +16000,29 @@
         <v>278</v>
       </c>
       <c r="B154" s="14" t="s">
-        <v>279</v>
+        <v>319</v>
       </c>
       <c r="C154" s="14" t="s">
-        <v>863</v>
+        <v>649</v>
       </c>
       <c r="D154" s="14" t="s">
-        <v>55</v>
+        <v>410</v>
       </c>
       <c r="E154" s="14" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="F154" s="14" t="s">
-        <v>864</v>
+        <v>327</v>
       </c>
       <c r="G154" s="14" t="s">
-        <v>865</v>
+        <v>650</v>
       </c>
       <c r="H154" s="14"/>
-      <c r="I154" s="29" t="s">
-        <v>866</v>
+      <c r="I154" s="15" t="s">
+        <v>328</v>
       </c>
       <c r="J154" s="17" t="s">
-        <v>867</v>
+        <v>651</v>
       </c>
       <c r="K154" s="14"/>
     </row>
@@ -16216,29 +16031,29 @@
         <v>278</v>
       </c>
       <c r="B155" s="14" t="s">
-        <v>279</v>
+        <v>329</v>
       </c>
       <c r="C155" s="14" t="s">
-        <v>897</v>
+        <v>167</v>
       </c>
       <c r="D155" s="14" t="s">
-        <v>398</v>
+        <v>410</v>
       </c>
       <c r="E155" s="14" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="F155" s="14" t="s">
-        <v>976</v>
+        <v>330</v>
       </c>
       <c r="G155" s="14" t="s">
-        <v>978</v>
+        <v>652</v>
       </c>
       <c r="H155" s="14"/>
-      <c r="I155" s="29" t="s">
-        <v>979</v>
+      <c r="I155" s="15" t="s">
+        <v>331</v>
       </c>
       <c r="J155" s="17" t="s">
-        <v>980</v>
+        <v>653</v>
       </c>
       <c r="K155" s="14"/>
     </row>
@@ -16247,29 +16062,29 @@
         <v>278</v>
       </c>
       <c r="B156" s="14" t="s">
-        <v>279</v>
+        <v>329</v>
       </c>
       <c r="C156" s="14" t="s">
-        <v>897</v>
+        <v>335</v>
       </c>
       <c r="D156" s="14" t="s">
-        <v>398</v>
+        <v>47</v>
       </c>
       <c r="E156" s="14" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="F156" s="14" t="s">
-        <v>977</v>
+        <v>336</v>
       </c>
       <c r="G156" s="14" t="s">
-        <v>981</v>
+        <v>654</v>
       </c>
       <c r="H156" s="14"/>
-      <c r="I156" s="29" t="s">
-        <v>982</v>
+      <c r="I156" s="15" t="s">
+        <v>337</v>
       </c>
       <c r="J156" s="17" t="s">
-        <v>983</v>
+        <v>655</v>
       </c>
       <c r="K156" s="14"/>
     </row>
@@ -16278,29 +16093,29 @@
         <v>278</v>
       </c>
       <c r="B157" s="14" t="s">
-        <v>279</v>
+        <v>329</v>
       </c>
       <c r="C157" s="14" t="s">
-        <v>896</v>
+        <v>338</v>
       </c>
       <c r="D157" s="14" t="s">
-        <v>410</v>
+        <v>117</v>
       </c>
       <c r="E157" s="14" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="F157" s="14" t="s">
-        <v>984</v>
+        <v>339</v>
       </c>
       <c r="G157" s="14" t="s">
-        <v>985</v>
+        <v>656</v>
       </c>
       <c r="H157" s="14"/>
-      <c r="I157" s="29" t="s">
-        <v>986</v>
+      <c r="I157" s="15" t="s">
+        <v>340</v>
       </c>
       <c r="J157" s="17" t="s">
-        <v>987</v>
+        <v>657</v>
       </c>
       <c r="K157" s="14"/>
     </row>
@@ -16309,29 +16124,29 @@
         <v>278</v>
       </c>
       <c r="B158" s="14" t="s">
-        <v>301</v>
+        <v>329</v>
       </c>
       <c r="C158" s="14" t="s">
-        <v>302</v>
+        <v>341</v>
       </c>
       <c r="D158" s="14" t="s">
-        <v>117</v>
+        <v>342</v>
       </c>
       <c r="E158" s="14" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="F158" s="14" t="s">
-        <v>303</v>
+        <v>343</v>
       </c>
       <c r="G158" s="14" t="s">
-        <v>663</v>
+        <v>658</v>
       </c>
       <c r="H158" s="14"/>
       <c r="I158" s="15" t="s">
-        <v>304</v>
+        <v>344</v>
       </c>
       <c r="J158" s="17" t="s">
-        <v>664</v>
+        <v>659</v>
       </c>
       <c r="K158" s="14"/>
     </row>
@@ -16340,29 +16155,29 @@
         <v>278</v>
       </c>
       <c r="B159" s="14" t="s">
-        <v>301</v>
+        <v>329</v>
       </c>
       <c r="C159" s="14" t="s">
-        <v>381</v>
+        <v>345</v>
       </c>
       <c r="D159" s="14" t="s">
-        <v>382</v>
+        <v>47</v>
       </c>
       <c r="E159" s="14" t="s">
         <v>14</v>
       </c>
       <c r="F159" s="14" t="s">
-        <v>665</v>
+        <v>346</v>
       </c>
       <c r="G159" s="14" t="s">
-        <v>666</v>
+        <v>660</v>
       </c>
       <c r="H159" s="14"/>
       <c r="I159" s="15" t="s">
-        <v>667</v>
+        <v>347</v>
       </c>
       <c r="J159" s="17" t="s">
-        <v>668</v>
+        <v>661</v>
       </c>
       <c r="K159" s="14"/>
     </row>
@@ -16371,30 +16186,28 @@
         <v>278</v>
       </c>
       <c r="B160" s="14" t="s">
-        <v>305</v>
+        <v>329</v>
       </c>
       <c r="C160" s="14" t="s">
-        <v>306</v>
+        <v>343</v>
       </c>
       <c r="D160" s="14" t="s">
-        <v>410</v>
+        <v>312</v>
       </c>
       <c r="E160" s="14" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="F160" s="14" t="s">
-        <v>307</v>
+        <v>343</v>
       </c>
       <c r="G160" s="14" t="s">
-        <v>669</v>
+        <v>943</v>
       </c>
       <c r="H160" s="14"/>
-      <c r="I160" s="15" t="s">
-        <v>308</v>
-      </c>
-      <c r="J160" s="17" t="s">
-        <v>670</v>
-      </c>
+      <c r="I160" s="29" t="s">
+        <v>344</v>
+      </c>
+      <c r="J160" s="17"/>
       <c r="K160" s="14"/>
     </row>
     <row r="161" spans="1:11" ht="13">
@@ -16402,29 +16215,29 @@
         <v>278</v>
       </c>
       <c r="B161" s="14" t="s">
-        <v>305</v>
+        <v>355</v>
       </c>
       <c r="C161" s="14" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="D161" s="14" t="s">
-        <v>410</v>
+        <v>117</v>
       </c>
       <c r="E161" s="14" t="s">
         <v>25</v>
       </c>
       <c r="F161" s="14" t="s">
-        <v>309</v>
+        <v>356</v>
       </c>
       <c r="G161" s="14" t="s">
-        <v>671</v>
+        <v>662</v>
       </c>
       <c r="H161" s="14"/>
       <c r="I161" s="15" t="s">
-        <v>310</v>
+        <v>357</v>
       </c>
       <c r="J161" s="17" t="s">
-        <v>672</v>
+        <v>663</v>
       </c>
       <c r="K161" s="14"/>
     </row>
@@ -16433,29 +16246,29 @@
         <v>278</v>
       </c>
       <c r="B162" s="14" t="s">
-        <v>305</v>
+        <v>355</v>
       </c>
       <c r="C162" s="14" t="s">
-        <v>311</v>
+        <v>358</v>
       </c>
       <c r="D162" s="14" t="s">
-        <v>312</v>
+        <v>410</v>
       </c>
       <c r="E162" s="14" t="s">
         <v>25</v>
       </c>
       <c r="F162" s="14" t="s">
-        <v>313</v>
+        <v>359</v>
       </c>
       <c r="G162" s="14" t="s">
-        <v>673</v>
+        <v>664</v>
       </c>
       <c r="H162" s="14"/>
       <c r="I162" s="15" t="s">
-        <v>314</v>
+        <v>360</v>
       </c>
       <c r="J162" s="17" t="s">
-        <v>674</v>
+        <v>665</v>
       </c>
       <c r="K162" s="14"/>
     </row>
@@ -16464,29 +16277,29 @@
         <v>278</v>
       </c>
       <c r="B163" s="14" t="s">
-        <v>305</v>
+        <v>355</v>
       </c>
       <c r="C163" s="14" t="s">
+        <v>676</v>
+      </c>
+      <c r="D163" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="E163" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="F163" s="14" t="s">
+        <v>724</v>
+      </c>
+      <c r="G163" s="14" t="s">
         <v>725</v>
-      </c>
-      <c r="D163" s="14" t="s">
-        <v>410</v>
-      </c>
-      <c r="E163" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="F163" s="14" t="s">
-        <v>759</v>
-      </c>
-      <c r="G163" s="14" t="s">
-        <v>760</v>
       </c>
       <c r="H163" s="14"/>
       <c r="I163" s="29" t="s">
-        <v>761</v>
+        <v>726</v>
       </c>
       <c r="J163" s="17" t="s">
-        <v>762</v>
+        <v>727</v>
       </c>
       <c r="K163" s="14"/>
     </row>
@@ -16495,10 +16308,10 @@
         <v>278</v>
       </c>
       <c r="B164" s="14" t="s">
-        <v>315</v>
+        <v>355</v>
       </c>
       <c r="C164" s="14" t="s">
-        <v>316</v>
+        <v>828</v>
       </c>
       <c r="D164" s="14" t="s">
         <v>410</v>
@@ -16507,17 +16320,17 @@
         <v>25</v>
       </c>
       <c r="F164" s="14" t="s">
-        <v>317</v>
+        <v>829</v>
       </c>
       <c r="G164" s="14" t="s">
-        <v>675</v>
+        <v>830</v>
       </c>
       <c r="H164" s="14"/>
-      <c r="I164" s="15" t="s">
-        <v>318</v>
+      <c r="I164" s="29" t="s">
+        <v>831</v>
       </c>
       <c r="J164" s="17" t="s">
-        <v>676</v>
+        <v>832</v>
       </c>
       <c r="K164" s="14"/>
     </row>
@@ -16526,680 +16339,62 @@
         <v>278</v>
       </c>
       <c r="B165" s="14" t="s">
-        <v>315</v>
-      </c>
-      <c r="C165" s="14" t="s">
-        <v>716</v>
+        <v>666</v>
+      </c>
+      <c r="C165" s="17" t="s">
+        <v>667</v>
       </c>
       <c r="D165" s="14" t="s">
-        <v>55</v>
+        <v>410</v>
       </c>
       <c r="E165" s="14" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="F165" s="14" t="s">
-        <v>763</v>
+        <v>668</v>
       </c>
       <c r="G165" s="14" t="s">
-        <v>764</v>
+        <v>669</v>
       </c>
       <c r="H165" s="14"/>
-      <c r="I165" s="29" t="s">
-        <v>765</v>
+      <c r="I165" s="15" t="s">
+        <v>670</v>
       </c>
       <c r="J165" s="17" t="s">
-        <v>766</v>
+        <v>671</v>
       </c>
       <c r="K165" s="14"/>
     </row>
-    <row r="166" spans="1:11" ht="13">
+    <row r="166" spans="1:11" ht="15.75" customHeight="1">
       <c r="A166" s="14" t="s">
-        <v>278</v>
+        <v>728</v>
       </c>
       <c r="B166" s="14" t="s">
-        <v>315</v>
+        <v>730</v>
       </c>
       <c r="C166" s="14" t="s">
-        <v>787</v>
+        <v>678</v>
       </c>
       <c r="D166" s="14" t="s">
         <v>410</v>
       </c>
       <c r="E166" s="14" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="F166" s="14" t="s">
-        <v>788</v>
+        <v>729</v>
       </c>
       <c r="G166" s="14" t="s">
-        <v>789</v>
+        <v>731</v>
       </c>
       <c r="H166" s="14"/>
       <c r="I166" s="29" t="s">
-        <v>790</v>
+        <v>732</v>
       </c>
       <c r="J166" s="17" t="s">
-        <v>791</v>
+        <v>733</v>
       </c>
       <c r="K166" s="14"/>
-    </row>
-    <row r="167" spans="1:11" ht="13">
-      <c r="A167" s="14" t="s">
-        <v>278</v>
-      </c>
-      <c r="B167" s="14" t="s">
-        <v>315</v>
-      </c>
-      <c r="C167" s="14" t="s">
-        <v>1019</v>
-      </c>
-      <c r="D167" s="14" t="s">
-        <v>418</v>
-      </c>
-      <c r="E167" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="F167" s="14" t="s">
-        <v>1018</v>
-      </c>
-      <c r="G167" s="14" t="s">
-        <v>1020</v>
-      </c>
-      <c r="H167" s="14"/>
-      <c r="I167" s="29" t="s">
-        <v>1021</v>
-      </c>
-      <c r="J167" s="17" t="s">
-        <v>1022</v>
-      </c>
-      <c r="K167" s="14"/>
-    </row>
-    <row r="168" spans="1:11" ht="13">
-      <c r="A168" s="14" t="s">
-        <v>278</v>
-      </c>
-      <c r="B168" s="14" t="s">
-        <v>319</v>
-      </c>
-      <c r="C168" s="14" t="s">
-        <v>320</v>
-      </c>
-      <c r="D168" s="14" t="s">
-        <v>410</v>
-      </c>
-      <c r="E168" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="F168" s="14" t="s">
-        <v>677</v>
-      </c>
-      <c r="G168" s="14" t="s">
-        <v>678</v>
-      </c>
-      <c r="H168" s="14"/>
-      <c r="I168" s="16" t="s">
-        <v>679</v>
-      </c>
-      <c r="J168" s="17" t="s">
-        <v>680</v>
-      </c>
-      <c r="K168" s="14"/>
-    </row>
-    <row r="169" spans="1:11" ht="13">
-      <c r="A169" s="14" t="s">
-        <v>278</v>
-      </c>
-      <c r="B169" s="14" t="s">
-        <v>319</v>
-      </c>
-      <c r="C169" s="14" t="s">
-        <v>323</v>
-      </c>
-      <c r="D169" s="14" t="s">
-        <v>410</v>
-      </c>
-      <c r="E169" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="F169" s="14" t="s">
-        <v>324</v>
-      </c>
-      <c r="G169" s="14" t="s">
-        <v>681</v>
-      </c>
-      <c r="H169" s="14"/>
-      <c r="I169" s="15" t="s">
-        <v>325</v>
-      </c>
-      <c r="J169" s="17" t="s">
-        <v>682</v>
-      </c>
-      <c r="K169" s="14"/>
-    </row>
-    <row r="170" spans="1:11" ht="13">
-      <c r="A170" s="14" t="s">
-        <v>278</v>
-      </c>
-      <c r="B170" s="14" t="s">
-        <v>319</v>
-      </c>
-      <c r="C170" s="14" t="s">
-        <v>683</v>
-      </c>
-      <c r="D170" s="14" t="s">
-        <v>410</v>
-      </c>
-      <c r="E170" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="F170" s="14" t="s">
-        <v>327</v>
-      </c>
-      <c r="G170" s="14" t="s">
-        <v>684</v>
-      </c>
-      <c r="H170" s="14"/>
-      <c r="I170" s="15" t="s">
-        <v>328</v>
-      </c>
-      <c r="J170" s="17" t="s">
-        <v>685</v>
-      </c>
-      <c r="K170" s="14"/>
-    </row>
-    <row r="171" spans="1:11" ht="13">
-      <c r="A171" s="14" t="s">
-        <v>278</v>
-      </c>
-      <c r="B171" s="14" t="s">
-        <v>329</v>
-      </c>
-      <c r="C171" s="14" t="s">
-        <v>167</v>
-      </c>
-      <c r="D171" s="14" t="s">
-        <v>410</v>
-      </c>
-      <c r="E171" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="F171" s="14" t="s">
-        <v>330</v>
-      </c>
-      <c r="G171" s="14" t="s">
-        <v>686</v>
-      </c>
-      <c r="H171" s="14"/>
-      <c r="I171" s="15" t="s">
-        <v>331</v>
-      </c>
-      <c r="J171" s="17" t="s">
-        <v>687</v>
-      </c>
-      <c r="K171" s="14"/>
-    </row>
-    <row r="172" spans="1:11" ht="13">
-      <c r="A172" s="14" t="s">
-        <v>278</v>
-      </c>
-      <c r="B172" s="14" t="s">
-        <v>329</v>
-      </c>
-      <c r="C172" s="14" t="s">
-        <v>332</v>
-      </c>
-      <c r="D172" s="14" t="s">
-        <v>418</v>
-      </c>
-      <c r="E172" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="F172" s="14" t="s">
-        <v>333</v>
-      </c>
-      <c r="G172" s="14" t="s">
-        <v>688</v>
-      </c>
-      <c r="H172" s="14"/>
-      <c r="I172" s="15" t="s">
-        <v>334</v>
-      </c>
-      <c r="J172" s="17" t="s">
-        <v>689</v>
-      </c>
-      <c r="K172" s="14"/>
-    </row>
-    <row r="173" spans="1:11" ht="13">
-      <c r="A173" s="14" t="s">
-        <v>278</v>
-      </c>
-      <c r="B173" s="14" t="s">
-        <v>329</v>
-      </c>
-      <c r="C173" s="14" t="s">
-        <v>335</v>
-      </c>
-      <c r="D173" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="E173" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="F173" s="14" t="s">
-        <v>336</v>
-      </c>
-      <c r="G173" s="14" t="s">
-        <v>690</v>
-      </c>
-      <c r="H173" s="14"/>
-      <c r="I173" s="15" t="s">
-        <v>337</v>
-      </c>
-      <c r="J173" s="17" t="s">
-        <v>691</v>
-      </c>
-      <c r="K173" s="14"/>
-    </row>
-    <row r="174" spans="1:11" ht="13">
-      <c r="A174" s="14" t="s">
-        <v>278</v>
-      </c>
-      <c r="B174" s="14" t="s">
-        <v>329</v>
-      </c>
-      <c r="C174" s="14" t="s">
-        <v>338</v>
-      </c>
-      <c r="D174" s="14" t="s">
-        <v>117</v>
-      </c>
-      <c r="E174" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="F174" s="14" t="s">
-        <v>339</v>
-      </c>
-      <c r="G174" s="14" t="s">
-        <v>692</v>
-      </c>
-      <c r="H174" s="14"/>
-      <c r="I174" s="15" t="s">
-        <v>340</v>
-      </c>
-      <c r="J174" s="17" t="s">
-        <v>693</v>
-      </c>
-      <c r="K174" s="14"/>
-    </row>
-    <row r="175" spans="1:11" ht="13">
-      <c r="A175" s="14" t="s">
-        <v>278</v>
-      </c>
-      <c r="B175" s="14" t="s">
-        <v>329</v>
-      </c>
-      <c r="C175" s="14" t="s">
-        <v>341</v>
-      </c>
-      <c r="D175" s="14" t="s">
-        <v>342</v>
-      </c>
-      <c r="E175" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="F175" s="14" t="s">
-        <v>343</v>
-      </c>
-      <c r="G175" s="14" t="s">
-        <v>694</v>
-      </c>
-      <c r="H175" s="14"/>
-      <c r="I175" s="15" t="s">
-        <v>344</v>
-      </c>
-      <c r="J175" s="17" t="s">
-        <v>695</v>
-      </c>
-      <c r="K175" s="14"/>
-    </row>
-    <row r="176" spans="1:11" ht="13">
-      <c r="A176" s="14" t="s">
-        <v>278</v>
-      </c>
-      <c r="B176" s="14" t="s">
-        <v>329</v>
-      </c>
-      <c r="C176" s="14" t="s">
-        <v>345</v>
-      </c>
-      <c r="D176" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="E176" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="F176" s="14" t="s">
-        <v>346</v>
-      </c>
-      <c r="G176" s="14" t="s">
-        <v>696</v>
-      </c>
-      <c r="H176" s="14"/>
-      <c r="I176" s="15" t="s">
-        <v>347</v>
-      </c>
-      <c r="J176" s="17" t="s">
-        <v>697</v>
-      </c>
-      <c r="K176" s="14"/>
-    </row>
-    <row r="177" spans="1:11" ht="13">
-      <c r="A177" s="14" t="s">
-        <v>278</v>
-      </c>
-      <c r="B177" s="14" t="s">
-        <v>329</v>
-      </c>
-      <c r="C177" s="14" t="s">
-        <v>343</v>
-      </c>
-      <c r="D177" s="14" t="s">
-        <v>312</v>
-      </c>
-      <c r="E177" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="F177" s="14" t="s">
-        <v>343</v>
-      </c>
-      <c r="G177" s="14" t="s">
-        <v>1017</v>
-      </c>
-      <c r="H177" s="14"/>
-      <c r="I177" s="29" t="s">
-        <v>344</v>
-      </c>
-      <c r="J177" s="17"/>
-      <c r="K177" s="14"/>
-    </row>
-    <row r="178" spans="1:11" ht="13">
-      <c r="A178" s="14" t="s">
-        <v>278</v>
-      </c>
-      <c r="B178" s="14" t="s">
-        <v>348</v>
-      </c>
-      <c r="C178" s="14" t="s">
-        <v>349</v>
-      </c>
-      <c r="D178" s="14" t="s">
-        <v>75</v>
-      </c>
-      <c r="E178" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="F178" s="14" t="s">
-        <v>350</v>
-      </c>
-      <c r="G178" s="14" t="s">
-        <v>698</v>
-      </c>
-      <c r="H178" s="14"/>
-      <c r="I178" s="29" t="s">
-        <v>858</v>
-      </c>
-      <c r="J178" s="17" t="s">
-        <v>699</v>
-      </c>
-      <c r="K178" s="14"/>
-    </row>
-    <row r="179" spans="1:11" ht="13">
-